--- a/Game simulations/Week 16/Bills at Patriots.xlsx
+++ b/Game simulations/Week 16/Bills at Patriots.xlsx
@@ -57,16 +57,16 @@
     <t>PatriotsAvg. FPTS</t>
   </si>
   <si>
-    <t>NIG(15.76367294209362, -1.307141374242109, 3.1580954948123683, 49.080093295045884)</t>
-  </si>
-  <si>
-    <t>-25 4 -3 -1 6 14 -6 14 4 20 -4 -18 -10 -7 -20 -6 -10 3 3 7 14 1 14 -3 14 -18 -3 -6 2 7 7 -18 6 -14 2 4 -16 9 10 -5 20 -5 3 9 -4 21 1 -8 13 -13 -18 3 13 -11 5 -2 -8 -3 9 2 -10 3 19 1 23 -2 1 -23 17 -7 34 -6 14 14 -6 -7 14 3 -18 -6 -23 3 4 9 -7 6 -8 10 -4 -4 -8 7 -3 3 -17 18 -27 3 -3 -4 -18 -6 3 10 -2 21 25 -2 -8 8 -10 11 -6 -30 14 19 -4 8 7 6 -16 12 -18 3 11 5 -2 -6 10 -8 2 3 -21 20 8 -6 -7 -12 6 -4 7 -12 -8 3 -3 -11 13 10 24 -3 5 -3 -22 20 21 -8 5 -20 -7 -8 4 3 -5 -18 -6 4 -21 -3 -14 -4 -5 -4 -4 15 3 8 -3 3 3 -36 -14 17 9 21 0 10 -6 22 -7 10 -5 7 -29 -1 -11 14 -15 -2 -3 -25 23 -12 -2 -6 10 -10 4 -7 3 -3 -4 14 7 6 -9 4 8 3 -18 1 -8 -17 11 -27 6 -15 -3 -2 27 -14 -23 -28 3 3 3 32 -3 -7 2 4 7 8 16 -13 25 -10 -3 -5 -1 -1 -11 -1 3 -3 8 -5 3 -8 -11 -3 4 -13 3 33 12 -10 -4 -3 20 5 -13 5 -4 11 -8 -13 -3 -10 -21 -9 12 -1 10 9 8 5 -28 -18 8 8 -17 -10 -17 1 -6 -4 1 7 -4 -15 -20 13 3 10 15 10 7 3 -8 -7 -9 36 2 5 -12 -7 -2 -18 11 -10 7 -20 -35 -24 2 9 25 -3 7 -7 -17 8 3 -3 -6 9 7 2 17 -12 -21 6 -6 -13 44 3 20 6 3 -49 -9 -14 -3 10 3 6 -4 -19 12 3 4 10 -28 15 -3 -10 -7 -6 10 3 -10 -20 -6 -10 8 10 10 3 14 -18 -14 4 -22 -13 13 17 -7 -3 -10 -14 -9 7 -4 -11 -18 -17 -7 -3 -17 7 -21 -2 18 -4 -4 -15 -9 15 -14 15 -20 -1 8 6 -19 -6 18 7 11 -10 -24 -10 -1 12 -8 11 -20 28 10 3 -7 38 -35 12 -30 -4 -1 -16 -4 -23 -6 -25 -12 1 -14 -7 -7 -6 -27 -10 -6 5 -11 12 5 3 -12 -29 7 -10 14 -14 10 3 11 -13 -14 -14 4 -4 -9 -6 3 3 -7 -3 24 -17 11 -14 3 3 -17 10 -3 -4 -20 7 -17 3 -14 -6 -3 -3 21 -34 12 17 -4 -17 17 3 -3 13 3 7 21 -16 -16 7 6 -10 -10 -9 6 11 10 3 -3 -14 3 -17 -9 14 -23 12 -3 11 2 -7 -3 -11 3 10 1 8 -3 -18 21 -6 -30 4 4 -2 -6 9 14 2 7 -3 -7 7 -7 10 4 -7 8 3 2 0 -18 -10 -10 -1 -21 -25 3 13 -17 35 -18 -10 -9 -3 3 -3 6 4 -21 7 5 -24 11 0 13 -19 -4 14 -5 -3 15 -13 -3 -23 1 -3 -3 -19 -17 5 14 -13 -2 7 15 -3 4 6 2 -7 4 -6 -3 1 -11 9 -1 -22 -3 -11 -3 -31 9 -8 14 17 7 10 -8 6 12 -1 -3 -9 3 -5 4 1 -6 5 -8 13 4 -7 22 -14 -20 10 18 -14 3 -23 7 5 14 6 -10 -27 6 25 -3 15 -3 -8 3 -11 3 -15 -18 -6 -25 -3 -14 -17 19 6 -32 -28 -16 -9 2 -3 6 -16 -7 18 -20 14 3 7 10 -11 -6 -10 -46 1 13 3 7 2 -9 4 25 -5 3 -3 3 9 -23 7 -8 -20 -10 -3 -10 8 -3 -4 4 -15 -19 14 4 -11 -12 -11 4 8 25 10 -3 -3 9 -2 -3 5 -5 5 18 -15 -3 20 6 19 6 -3 -8 -2 2 4 -13 -14 -9 -11 -1 24 -14 15 -28 14 7 5 17 18 -2 6 -10 -7 -24 -3 -6 6 0 12 1 -23 9 3 0 -14 3 7 4 -3 -28 20 17 -2 3 -7 -12 15 -17 -6 21 -10 3 -38 11 -8 -4 -11 -2 20 -14 -6 4 -3 13 22 6 -17 7 13 -5 -3 7 -3 -6 -6 8 7 -4 8 -3 10 -3 20 1 14 -3 -14 -20 9 24 6 -6 -24 -3 10 3 11 -14 7 6 -15 -13 -6 3 -13 3 7 -18 3 -16 -21 -13 -6 8 -24 -10 -4 6 4 3 21 3 -7 -19 10 -3 -1 14 -3 -17 3 -14 -17 7 4 15 -6 -8 -3 -3 -7 -3 7 4 -25 -3 -6 0 -4 -8 15 18 10 8 -24 -30 0 -11 -10 -5 -13 -11 3 9 3 -1 -20 -22 6 0 2 7 8 -7 7 14 -14 17 -17 9 -1 14 0 -17 4 -6 19 -20 -21 -7 14 3 -3 -2 2 -3 -4 10 2 -7 3 -4 -7 -11 3 -23 5 9 7 -7 -13 -3 5 4 -3 20 -18 17 11 17 -10 10 -3 -16 2 -15 -15 35 -24 11 -7 -7 -8 -8 19 7 -4 -7 3 1 -4 3 -3 -17 3 14 2 10 7 -12 -4 11 -3 3 -6 24 3 -3 5 8 15 -10 7 8 -1 11 -7 -3 -12 -4 -3 20 -9 -26 4 -7 14 3 16 6 11 21 27 25 -17 -3 2 6 -2 -6 3 -14 12 -6 -17 15 -5 -7 -7 -13 15 -3 -11 -38 28 22 -4 3 3 -3 7 2 -15 -1 -7 18 18 -6 -28 -12 3 -12 -9 13 -3 6 -17 -6 3 -6 3 -8 -6 -20 24 9 -3 -15 19 -7 3 14 -2 5 5 3 -3 3 3 3 3 -10 -7 4 3 -9 -23 -2 -21 7 7 3 13 -14 -13 -3 1 -8 -4 -16 -26 0 6 -4 -7 13 -6 19 5 3 21 -10 -2 -13 -4 -6 -10 8 3 -2 -3 -10 -3 3 3 -3 7 -3 -2 -6 -14 -3 -2 3 7 -3 -19 25 9 -5 8 13 4 -6 -3 28 10 3 -20 -2 -7 -4 3 -3 1 -14 4 -6 4 10 -28 -13 9 10 1 -12 -7 -10 -4 -14 -11 8 10 6 -18 5 -3 -31 26 3 10 -24 4 7 4 -19 -7 -3 -28 17 -11 -12 3 6 6 -9 14 -3 -6 4 -7 -6 3 -1 30 -6 -11 -8 -10 4 13 -5 5 -3 15 -6 10 8 9 -13 -20 12 -7 2 -2 2 8 -25 14 11 -8 -7 -2 -8 11 -1 -7 6 -2 14 6 7 11 2 -10 10 21 3 35 -25 4 -10 1 -19 -10 3 -14 2 3 4 6 -3 -6 14 10 19 -20 -6 -5 -14 3 4 10 20 -3 29 -2 2 -3 -7 -8 11 -4 3 1 -31 3 10 -1 7 -5 18 -5 0 5 -6 16 13 14 -21 -22 3 3 7 -14 -12 3 -6 -3 -7 3 -20 -12 -8 2 6 10 -2 -16 -15 -17 14 -10 10 -21 -7 -22 2 8 -10 2 -11 29 1 10 -31 -6 5 -21 5 -17 27 -8 -15 -2 -5 -21 -3 7 -8 24 7 -2 1 -15 -17 -20 -18 -4 -13 -17 3 -4 -38 -11 7 3 15 3 -3 -1 -6 6 -18 3 -20 -7 14 3 19 -7 6 -2 10 -20 -3 -5 -9 3 10 4 -14 3 -24 18 -22 -11 8 -17 -3 -14 -24 21 1 -21 10 -3 -19 -13 6 -7 7 6 6 -7 -3 11 -4 6 -3 9 10 -10 -38 -7 1 14 2 7 -17 3 -4 -4 -4 7 -6 -21 -13 4 27 3 27 -31 5 2 11 10 10 4 3 -21 2 -11 -4 1 -6 -8 14 -15 1 1 -3 30 -18 -18 3 6 22 -5 -16 -19 11 -14 -7 4 16 16 -4 10 13 11 3 2 -22 14 -13 -10 -21 3 11 9 1 -7 -8 12 -4 -5 19 -6 -4 -3 7 4 -14 1 27 -11 -24 6 -1 -16 -4 2 3 12 6 2 10 24 -6 -21 23 8 -10 -12 4 5 -19 -4 -16 2 10 15 -10 18 2 -11 5 -3 14 -3 4 -17 3 -12 -27 -3 -14 17 -3 -9 -5 -11 -18 8 10 -3 14 4 -3 -3 -21 -3 7 -7 3 -14 6 6 7 11 -10 10 -6 31 -6 -6 6 -11 -4 4 -4 3 14 6 10 -11 -17 -10 -2 8 11 -3 -7 -17 14 3 -6 -18 7 -17 4 12 -7 -12 -8 11 -17 -10 10 11 -14 -31 14 7 -8 4 21 21 -6 -3 3 10 17 -10 -11 3 -2 1 3 1 17 -7 3 -5 -4 9 -3 4 -14 -2 2 14 -8 14 30 3 24 10 -3 0 4 18 -18 -3 -11 1 11 -3 -8 17 7 5 -7 -14 16 -6 10 14 -10 -6 20 -1 -7 -6 6 -7 -6 -3 -14 13 -15 10 2 12 -7 16 -5 6 7 -3 -19 -9 -11 11 3 -14 14 4 3 -13 10 3 -11 -27 -11 -8 -7 -10 -3 -21 -13 13 14 -14 -4 2 -3 -3 -9 -14 -3 20 -3 -9 -6 -9 2 2 -10 -3 3 -3 7 -4 -16 -4 -3 1 -18 -17 8 1 6 -28 7 7 -16 -10 -1 -11 3 20 -15 -18 17 -31 -14 -3 7 -11 23 7 8 7 -1 -1 29 16 -13 7 -24 -1 8 17 -4 -3 -12 -12 -7 3 -15 -5 18 3 -11 -1 -24 -10 -14 1 4 3 -3 31 4 3 -12 6 -3 38 -8 7 13 -10 -11 5 -3 3 -7 -23 24 3 8 0 7 -17 14 -6 3 -35 15 8 -5 -5 -21 3 1 19 -3 -3 7 24 -9 3 -3 3 6 -19 5 3 -6 -18 4 5 8 -6 -1 16 3 -13 -3 -8 14 -7 19 3 -3 -7 -6 8 2 7 22 -3 14 3 2 -4 6 -7 3 -5 -13 29 11 11 -6 3 -13 3 8 -7 6 -3 10 4 -14 7 12 5 11 18 -21 14 7 -11 -14 4 -4 15 14 8 -7 8 -3 -15 5 -8 4 -9 -11 -37 21 -4 -26 7 -6 -15 -7 -3 15 7 -17 -21 -13 9 -25 -10 5 17 -17 7 7 3 1 6 3 -3 -5 -27 4 3 -9 -28 3 -12 -3 24 13 12 17 6 -11 8 -3 -11 -17 4 17 6 -7 21 -19 -11 -11 6 17 19 -16 -5 -22 4 18 4 -1 -14 21 11 -9 -18 7 17 7 6 -7 15 -22 -6 5 1 8 29 19 8 0 -22 3 -10 6 -1 -1 -15 -10 17 4 3 -3 -10 4 6 2 -3 0 14 9 3 -17 -9 -3 10 13 4 4 20 3 5 5 -4 3 15 -10 10 11 3 -3 14 -3 -15 -21 -11 7 9 9 8 -11 -24 14 14 2 7 -16 1 -21 7 -6 3 -3 27 32 -3 -3 6 -4 -3 -23 -4 31 -6 -6 17 -3 17 -3 17 7 -5 -8 -10 -18 -1 -18 -3 -13 -4 10 -7 -10 -31 21 -11 -14 -1 14 -7 -24 -3 4 -3 -7 3 -10 -4 -5 -13 3 -1 5 14 5 24 -10 14 -3 -27 -3 -21 -1 -4 12 -24 1 -5 -3 -8 -2 5 -21 -29 -24 -8 -3 -2 4 -3 -2 -11 1 -13 -6 -14 -3 -7 13 4 -18 -14 -16 38 -17 -4 -6 1 -4 1 18 -5 -8 -1 -1 -15 -6 13 7 25 7 18 -5 3 22 -11 6 -7 5 -14 -18 -3 -3 6 -2 3 4 4 -10 -31 19 -8 -17 3 22 -20 -10 5 -24 -10 -8 -28 -18 0 4 8 14 -17 -11 3 5 3 -17 17 10 8 -7 -7 -10 -13 4 1 -10 -3 -12 -10 -4 -13 -17 -16 -18 -12 9 -20 -7 1 3 8 12 -6 6 3 -21 6 3 -17 -8 21 -17 31 -7 -4 -3 -14 -5 14 -6 -3 -35 -3 24 3 2 -11 -2 4 -21 2 11 -22 -4 10 5 -23 -5 8 -30 14 17 6 14 5 7 -6 -14 -24 6 10 10 -12 -9 -18 5 5 -10 -10 24 -6 -9 -3 -9 17 8 -8 3 1 18 7 2 -10 3 2 4 -3 -10 21 -28 3 -3 -6 3 4 -8 3 -2 -6 -10 -12 -26 7 10 3 -6 4 -2 -26 -27 -9 4 -7 -3 -16 -6 3 -10 -11 11 -2 -14 11 3 -4 -12 -14 1 19 -11 12 17 -7 3 -17 -6 -10 -3 10 -3 -8 -4 4 4 -7 24 4 -1 14 -11 -1 -13 -6 -10 6 -10 14 4 9 6 -1 8 -31 -3 3 -7 1 3 26 2 10 8 -3 17 18 18 -14 6 -23 2 12 -18 -9 -2 -7 -2 18 4 -23 21 -6 -3 -18 -22 7 20 9 6 -3 3 -18 7 -6 -3 3 6 21 14 10 10 -3 8 11 -3 7 -14 -6 1 17 3 5 14 -14 3 -3 -10 15 3 4 12 -7 16 -5 -25 -7 3 6 -12 7 -13 13 17 -10 -6 -3 -37 -13 -1 -9 -3 20 5 -17 5 -24 -11 9 -6 4 -10 -13 10 -4 13 -6 7 -3 2 -4 1 20 18 6 -10 -5 16 5 3 3 6 -7 -3 -15 -13 9 6 7 7 -5 -20 -8 -3 -19 7 24 -1 -2 2 -6 -3 -7 3 -3 -3 6 -28 -3 -19 -3 6 8 6 -4 -11 -15 -16 -1 -10 20 -3 23 -3 21 -15 -10 -13 14 -12 24 -15 -3 16 -19 -14 30 -3 18 -15 -20 18 7 -13 20 5 -6 6 4 17 2 3 5 -6 -14 -3 -34 18 14 -3 5 7 -9 -10 24 11 6 6 29 -3 5 -1 -4 -17 2 1 10 15 -11 -7 -15 17 8 -10 -8 -8 -10 14 10 10 2 -3 14 7 11 -3 -11 1 -3 -10 -9 11 -11 14 -7 3 -3 -6 -3 11 -3 -7 9 20 9 -6 -31 4 -23 17 -15 -23 -3 6 -19 9 15 12 -14 -3 -5 9 11 -13 -4 -4 -11 11 -9 28 7 -13 3 -8 1 13 -2 28 14 -14 -7 -1 -15 -7 11 9 -14 -3 -6 3 10 13 -2 -6 -31 -3 3 5 3 14 9 14 8 -6 -3 -1 -9 10 11 12 -4 4 -2 17 -11 -9 13 -18 -3 -7 -26 -4 -6 6 12 -14 -14 22 4 -17 -14 3 7 -6 10 -9 -6 3 27 -6 3 -5 -7 14 2 -30 -18 -15 5 6 -12 -1 -21 -17 4 -8 7 -14 -30 0 24 3 17 -10 -17 7 -14 3 -32 5 -1 1 -4 -22 11 7 3 -11 -17 28 3 -10 -3 -4 -17 -7 34 -2 12 -4 7 -24 6 10 3 -19 7 -4 -24 -6 4 9 -3 17 -10 -6 -13 14 2 8 13 -6 -24 -11 -23 3 -8 3 -13 7 -17 -13 -10 6 -5 3 31 -13 -7 -7 -13 -11 -19 13 -4 9 -27 3 4 -21 -8 10 10 7 -5 2 -14 -11 -10 -3 -8 -8 -24 -6 -4 -3 17 10 25 21 6 -3 -19 -21 4 8 -5 -17 20 -3 -7 -15 -2 7 -8 22 -22 -6 4 9 11 12 3 -2 3 -3 26 -3 -3 1 11 -23 5 14 7 7 10 7 -25 10 -28 -17 3 -17 11 3 -3 -3 21 -6 2 6 6 -7 -3 3 20 -7 -8 -2 13 -4 5 -6 -7 -3 -6 15 6 -12 3 10 5 6 6 12 0 -6 5 -2 -14 3 -6 -23 -13 -10 -3 -7 -17 19 -4 -1 -5 -8 2 -9 16 6 5 7 3 3 -8 -12 18 -10 -7 17 -1 2 -3 10 14 -2 -23 4 7 14 1 -6 2 -7 6 14 14 -14 -7 5 16 -4 -27 4 3 10 -6 6 -15 10 -3 -19 4 -7 -12 -4 -14 24 6 -19 -3 11 -3 -3 -3 -7 -17 -4 2 31 20 6 4 -7 21 28 14 -17 -19 14 3 -5 -24 -2 -11 0 -4 -17 10 -2 7 12 0 -3 10 -4 -1 3 -17 -3 8 10 2 -26 -3 -25 -20 4 33 4 24 3 10 -1 3 -13 -16 -30 -3 -2 19 -3 3 22 14 3 -3 -5 -11 -10 -3 -1 10 7 6 25 -11 22 -15 -18 -18 10 -14 -10 11 -30 29 10 -28 -4 -7 -18 12 -15 12 20 -7 -3 2 6 -27 -14 -14 0 -13 -20 14 3 15 -3 3 10 -3 25 3 -11 -5 6 -6 -1 -13 -6 6 -3 9 -3 -18 -9 -3 11 -1 -3 -11 -5 -9 2 6 11 21 28 -3 10 20 4 -13 3 -2 6 10 -13 8 -10 -18 7 -25 13 1 -28 -7 -6 7 3 11 5 -3 -10 14 -2 -14 3 -20 -8 2 -11 4 8 10 -22 12 -17 22 -18 -2 -8 4 7 -20 -1 -11 -4 -2 -18 4 -26 -7 14 -3 -3 16 -7 -3 12 -7 10 2 -3 7 -17 -12 -18 7 -6 6 -34 -10 3 1 -1 6 -33 -19 9 -5 11 -7 20 -6 0 -13 14 14 17 10 -4 14 -13 -3 -3 -21 -27 -4 -23 3 12 18 5 0 -6 0 -17 -4 4 -3 -13 -26 3 30 14 3 -2 11 4 -10 9 6 -1 -11 3 -13 0 9 17 5 -6 -7 -29 -16 -7 3 13 -11 3 -12 -39 -25 -37 -15 14 7 -18 -4 21 7 4 -15 4 -25 -2 -22 -5 -4 -3 -3 13 -7 6 14 4 -3 -8 -4 -6 -3 -6 9 -2 7 -20 29 -20 4 -12 7 22 -4 1 -24 11 0 -4 15 24 4 3 24 -18 4 5 -18 7 0 -12 6 25 16 -17 -1 -16 13 -10 7 -2 13 0 -4 11 -16 6 -4 3 3 18 -30 5 3 -3 -20 3 14 -6 -6 -7 29 -4 -3 -10 21 16 -9 -20 2 13 -19 -27 19 -6 10 -7 16 -31 -13 9 -7 10 16 -7 6 -6 4 -4 -3 6 -8 -11 -17 -9 -3 17 10 -3 -3 30 -20 17 -11 -20 21 -11 -17 -1 -1 14 -10 4 6 26 -13 5 -13 3 -25 11 -8 -22 17 -6 -29 14 -6 12 -3 -3 4 -11 -3 7 8 -6 -10 6 20 1 4 -17 -7 3 14 17 3 -6 6 6 -12 11 -6 -3 -22 -13 -6 17 -11 -6 13 39 21 -23 -6 20 3 3 -28 -8 -8 5 20 3 7 3 7 7 -6 9 -15 -24 10 -16 -7 -8 9 -8 17 2 7 18 5 -2 1 -3 3 -20 6 5 3 2 -7 5 5 -22 -3 -8 -8 30 3 7 19 -3 -7 7 -3 -19 14 6 7 6 -9 -8 -7 9 -4 -3 3 -6 -21 -10 2 2 14 -4 -28 -17 -5 3 19 6 5 21 -6 -6 -7 -3 -14 10 -5 -21 -7 -7 3 -10 7 2 25 -4 -3 -4 -4 -3 3 -9 3 20 7 39 19 3 13 -25 2 -13 -10 14 8 -28 -17 -14 -9 6 -6 13 3 -9 11 -17 -3 -10 -14 5 -24 27 19 7 -10 3 11 3 6 17 13 9 -3 -3 21 -4 -6 5 -13 -11 5 24 -14 3 -3 2 5 3 3 -5 -2 24 -8 3 -18 -6 3 -16 6 -3 -21 4 -7 -33 4 -7 -5 -6 -6 5 -16 -4 6 14 20 7 10 -3 -7 17 16 5 11 0 4 39 -6 4 14 11 -14 -3 1 22 20 -3 -14 -25 17 4 14 -8 3 -5 -14 -14 -22 11 7 -6 -3 -14 7 -3 -11 -7 20 4 6 -33 -17 -14 -14 -3 -8 6 4 15 -10 15 -7 -11 -9 -13 -14 5 7 -7 -17 5 6 14 4 15 -7 2 6 10 10 -3 -9 10 -3 -11 -10 -4 -7 -17 2 13 10 -6 27 9 8 -13 -23 3 -3 -13 20 -6 18 -1 9 4 7 7 -24 21 25 6 -3 13 3 -2 -10 -5 14 -7 1 3 4 -30 -3 14 23 -17 12 23 11 16 -13 -7 7 -14 19 9 -3 -5 -11 1 4 3 5 -11 -3 6 -3 17 3 -6 -4 1 5 14 -31 10 18 -18 -6 7 -27 24 -3 9 -25 -10 -6 -9 -4 21 -8 -6 4 21 7 3 1 -5 -4 -4 13 -27 -11 -9 10 -3 3 -28 11 3 -15 3 -15 -6 -10 -15 3 10 -17 -18 -18 4 -7 13 15 -17 -8 4 16 4 -18 0 28 2 20 -5 4 -17 -5 -22 -3 -6 3 14 -1 -5 -1 4 -15 -7 7 17 4 18 18 7 15 7 12 -3 -20 -22 9 -10 6 -1 4 -1 12 -28 -3 -15 3 -3 -13 7 -28 -5 7 -6 -22 4 -28 -21 14 3 -17 -3 14 3 -13 -27 2 -17 -6 16 -3 -4 3 17 -9 -15 -24 11 -10 5 3 -17 -10 -3 -3 -3 -3 3 -3 -3 2 3 -12 14 1 28 -3 -6 -9 19 -7 -2 4 6 -3 7 7 28 13 3 4 -6 -8 7 3 -17 20 -4 7 -1 5 3 -4 -5 -6 -2 13 7 -3 18 -4 -2 -11 -22 13 -16 4 -13 11 -3 -3 -9 -7 -19 7 4 -17 -3 1 -14 -21 -13 5 -4 23 -3 -23 -11 6 -7 -5 3 -4 -5 -2 6 7 -22 -7 0 10 -6 -3 -10 -12 -4 7 14 -9 6 10 5 7 4 14 7 0 7 21 -18 -1 -8 -4 12 -7 21 -6 -11 20 15 -7 -21 22 11 -6 -23 6 6 12 19 27 -1 27 20 -4 -27 10 -3 -19 -20 28 7 -2 13 -6 11 7 -4 -8 7 14 3 3 -13 2 -3 0 -6 3 14 6 -3 -9 -13 10 -8 11 12 -4 -10 5 -3 7 9 7 -10 11 -28 15 3 -11 3 -11 8 -3 -9 -7 -24 -17 0 3 -4 -4 1 -14 3 6 8 -23 14 10 -6 -15 -7 10 -2 2 18 -23 -14 -18 -6 -19 6 16 -11 -3 -24 3 -6 28 12 17 22 -22 -15 8 14 3 -7 14 -20 -19 15 7 1 3 16 -3 10 -13 12 -3 -18 -16 3 -3 -17 13 3 1 13 1 18 -7 -5 -1 1 2 22 16 -5 -13 23 6 6 -10 -12 -21 16 -26 3 6 -5 7 -17 5 -6 1 5 -4 -3 5 -24 -3 2 -14 -6 28 7 6 -4 -5 13 3 6 -13 -21 3 -18 3 5 -7 16 10 -2 10 8 -32 27 -6 8 -17 -3 6 10 3 -19 -8 -12 14 -17 -10 -11 4 -3 8 4 -13 -8 -6 -6 -12 -14 -5 -3 12 11 -6 4 17 -3 13 -3 0 11 -14 19 7 6 -7 -7 3 3 -17 14 4 -14 10 17 5 -2 -3 26 -29 2 -7 -4 6 4 -10 -6 -6 7 32 -7 -3 -8 5 6 10 -10 12 19 14 3 3 7 6 -13 -21 -14 18 6 12 4 12 14 7 6 27 -27 12 2 7 31 -4 -4 25 -6 2 34 -3 3 11 -23 1 3 15 -3 -6 -9 3 2 -7 -7 8 -18 17 11 -13 -18 -3 14 -10 -8 26 -5 -13 14 7 -7 20 -20 -10 5 3 3 -11 11 -3 -10 -9 -14 4 -11 -3 -13 -4 -6 20 -5 21 11 7 3 -11 3 2 10 -4 6 14 5 -3 -17 25 9 -5 4 3 6 1 5 18 -29 -2 18 -16 7 3 8 -2 6 -13 8 -21 -5 -13 -2 -3 -22 -17 17 -18 -3 -5 3 4 -31 17 -18 -18 -3 -6 -19 5 3 13 -6 7 -12 -4 10 -14 3 7 8 -4 3 -9 -3 -13 -10 18 8 1 2 5 2 6 -10 7 -3 0 3 6 -15 12 -14 -22 -17 -3 -26 -14 -3 -7 11 -3 34 -7 -13 -4 -17 -20 -19 13 -4 -6 4 -13 4 14 -3 -7 -14 11 3 16 -14 1 3 -3 -4 21 -3 -3 18 10 -8 -25 3 -8 -27 13 4 3 -11 3 24 3 -15 9 -6 -28 -2 5 -2 -3 -7 5 -1 -12 11 13 3 -10 3 7 7 6 3 -17 3 1 6 2 11 -5 0 -10 33 -24 7 -2 4 10 -20 -5 -3 -10 14 -4 -23 6 -7 -3 5 -22 5 -9 -7 -3 -32 22 4 -1 14 4 6 11 -6 8 -10 -22 -9 -23 10 -3 -4 7 -13 3 14 -6 -7 -16 -4 -3 24 -2 -11 9 -25 -5 -13 19 -9 14 -7 -27 -17 -7 22 6 4 -32 -8 3 -17 19 7 10 3 19 13 -6 14 -4 -19 11 -3 -25 1 -9 -16 14 10 -15 18 -21 7 3 14 15 13 -7 -4 12 -17 -10 -33 4 7 11 -7 -17 11 -16 7 -6 -6 -10 -3 4 5 -6 -3 -29 -16 6 8 -10 -16 -19 -14 -9 3 -14 -34 6 -24 -18 25 -5 19 -2 8 -8 -29 -12 3 -4 10 7 -4 -8 6 4 -15 3 3 -6 9 -13 -4 1 -20 13 -17 -4 17 21 2 -10 -7 -19 32 4 2 -14 13 -6 -13 -28 8 -6 20 -1 -11 9 1 -13 -10 3 5 -18 10 -1 -27 -3 6 -14 -7 23 -7 22 -3 -7 3 -6 -3 20 11 -3 7 6 7 -4 -6 -7 12 -18 17 23 3 -1 5 8 0 -3 -4 3 3 9 -2 -15 5 -6 10 8 -2 15 15 10 8 -6 -13 -7 17 -5 -23 -3 -26 -3 5 3 -6 6 34 11 3 13 13 3 -6 -9 1 -1 5 3 -4 -5 30 0 1 7 17 -9 3 -14 -4 2 7 -8 14 19 -14 7 -8 -21 -3 -14 -3 -2 -17 -11 2 16 -18 9 -5 -20 11 -4 3 -2 -9 3 23 -4 -10 12 -19 0 -4 -13 -6 -15 7 -5 3 -7 25 -9 -4 9 -4 1 15 -3 -10 -39 1 -7 34 14 -3 -3 -6 -3 6 14 -5 35 -19 -1 4 -14 14 -3 -14 -6 -11 6 6 -3 4 11 7 -21 -1 5 -6 -5 -6 -3 -3 -4 5 3 18 6 -6 -2 2 0 3 -5 3 14 8 14 -13 -14 6 3 -7 6 3 -2 3 -16 -11 -4 -6 9 7 -3 -5 -6 -29 -1 -31 15 -7 -6 -3 -6 -1 -4 -7 -40 -6 -14 -8 7 20 2 -10 3 3 -5 14 3 -3 8 3 3 -15 -35 -7 -7 -14 -6 10 -10 13 -1 5 3 13 -15 28 -4 10 -12 -10 0 -6 8 -3 18 5 -7 -4 -6 -6 6 -2 -13 21 3 -4 5 -19 -9 -11 -10 -7 -1 7 -6 -12 3 12 9 3 7 21 -17 14 9 7 -6 21 10 21 8 -14 -24 3 12 -5 14 11 26 4 4 6 -24 5 -8 11 -13 -10 3 -24 -14 1 -3 -2 -7 -20 -3 -20 -7 9 33 2 -8 17 10 9 4 -4 -7 1 17 14 18 -18 8 -32 -24 6 25 14 -14 -26 3 31 -3 14 -8 -11 27 7 -3 3 -11 17 2 19 -4 15 4 11 7 -25 20 30 -30 7 18 -17 4 -6 -19 -3 6 -1 3 -14 2 -9 16 -7 -10 -3 -8 7 -3 3 -7 23 -3 17 -4 -1 2 -6 -17 -8 -13 -17 -10 9 -30 -20 10 6 6 -4 -13 -8 -17 -20 -9 3 2 18 -18 -21 -7 -1 0 -5 -31 -23 -3 -3 -22 -1 18 3 0 -3 3 -5 13 4 15 8 -20 -15 -4 -2 -3 -8 18 -2 3 3 3 -11 -2 27 -18 -6 3 -7 -24 -1 -26 7 6 5 -3 -7 -28 5 10 -4 -7 -6 16 -18 -21 -19 -9 -2 6 -18 -8 -21 0 24 -15 7 -7 -33 12 3 17 -12 -15 27 1 7 5 23 32 -14 -21 9 3 -4 -7 23 -17 -3 -11 -2 10 -17 11 -4 1 16 22 -3 -4 -4 -11 9 -12 5 10 3 -1 -1 -5 -3 -28 3 3 6 -11 7 -4 3 14 18 3 3 10 9 -3 -8 14 -14 4 -14 33 33 4 -4 -9 13 -4 10 4 -4 -5 -26 -3 8 6 -5 -3 -23 7 3 -10 -16 -19 -11 -10 2 3 9 5 9 17 -3 -5 14 -7 -7 5 -8 13 -17 1 -18 3 4 -8 3 6 -13 3 13 -3 -8 13 -32 -3 6 14 -6 -7 14 -3 7 -8 6 -7 16 -10 -16 -7 20 -7 -33 12 -33 7 6 -8 -5 8 -3 0 21 6 13 22 3 7 -3 3 -6 -14 3 -13 -30 -4 -3 10 13 -24 -10 -6 -3 -6 7 14 -23 -17 -4 -2 -45 -1 -7 -3 -11 1 15 13 14 22 -17 3 -9 -5 -8 18 -4 19 3 -6 3 28 7 8 9 -10 2 -17 3 -2 -18 -12 3 -2 -6 -7 -7 -3 -10 14 -6 10 7 18 3 -22 -23 4 -4 7 -40 0 -1 15 -12 -5 -31 -3 -3 -13 4 1 12 11 6 9 -24 -2 1 16 -12 15 15 7 -17 15 6 -4 -6 7 -12 -11 -3 9 -3 3 7 -8 3 4 -3 -3 -6 -3 14 -11 -1 3 23 -5 6 -6 6 -6 7 16 3 7 18 22 6 7 -3 7 21 -14 -14 9 34 4 -27 -28 3 3 31 3 4 -10 4 14 -6 1 -1 3 -9 5 8 10 3 6 -8 5 -7 -12 0 -20 10 -31 7 19 -15 -14 -3 13 -8 -9 -5 -18 3 -17 -5 -4 -3 3 -7 16 7 -20 -19 -13 -13 3 -13 -13 16 10 6 -8 -13 -14 6 18 -8 4 -15 -3 -8 -13 3 17 13 16 -3 11 -6 1 3 4 17 -7 -15 -4 -4 13 -7 14 -6 -3 10 6 7 -11 2 17 -7 -10 -16 -1 8 14 14 5 -15 -12 -11 8 10 6 -7 4 -16 18 13 17 -6 -2 -31 -18 4 24 -5 -19 -3 -7 11 -5 7 0 0 2 24 14 -2 -20 -6 3 -7 -14 -7 -4 -1 15 -17 27 -8 6 -2 -22 3 -17 -19 5 -5 -25 4 -7 1 6 -16 28 1 -4 -20 -3 -11 3 20 14 -44 -13 4 -7 -7 7 6 -3 3 -20 15 -3 -5 -11 -3 15 -12 24 -12 -2 15 -20 -24 -13 6 -20 10 -7 3 3 -27 -14 -4 16 7 4 10 28 -6 -3 18 3 21 -16 -3 -14 -6 -18 3 -14 7 -9 -14 -4 -21 -19 20 0 4 -17 -14 -3 12 7 17 3 -5 3 10 11 2 11 19 -18 -4 -25 -5 14 21 3 -16 3 -4 -8 6 7 14 -10 -3 -17 1 3 -7 3 6 3 -17 7 17 -17 -9 6 10 8 3 -13 -20 -4 9 -18 -10 40 3 23 17 1 4 10 -3 7 7 -21 7 7 14 9 -6 0 3 -20 -3 3 16 1 -34 -10 -17 10 7 3 17 15 -18 -18 -24 -4 21 -6 -11 20 3 -11 8 -7 -4 3 9 -23 -3 -27 4 2 17 -10 25 3 -17 3 -31 3 -15 -3 -7 -8 -2 -19 -3 14 -18 8 7 -2 12 -3 -3 18 -18 16 0 6 0 -9 6 -13 -1 -3 5 11 27 -20 -9 -7 14 -12 -14 3 8 -5 -6 -28 4 -3 -21 3 6 -6 3 18 -17 -21 3 -8 15 -6 10 14 -15 -11 3 5 3 3 -3 -33 14 -3 -15 16 8 -28 -4 -6 37 6 -3 17 -3 8 7 -8 -10 0 17 -17 -24 -2 3 -6 10 -7 18 -7 10 -5 -4 -13 8 5 7 -2 6 7 -18 -1 2 -13 -10 15 11 14 9 -3 -32 -14 -17 -18 -9 5 -9 -21 -10 -3 4 -4 4 -16 -10 9 10 -11 -7 -1 -6 -10 -5 13 3 -10 -3 3 5 -4 -1 0 -7 -7 -5 -3 20 -30 -9 27 -18 6 4 17 7 -8 3 -4 8 -25 11 -3 -4 5 4 17 -7 6 -16 -10 28 14 12 -6 10 -3 -2 -14 8 -13 3 -8 4 -21 16 -7 3 5 -10 -3 -18 6 11 -3 17 18 -4 5 -10 3 -4 -21 -7 -3 24 7 1 -1 3 -17 1 -7 14 1 24 9 9 -3 24 4 -10 -3 -3 -12 8 -10 11 -7 -24 -19 22 14 3 -8 7 24 0 14 -14 17 -13 7 -7 7 1 -3 -10 6 4 -18 9 -7 -3 -3 -30 -6 -17 13 12 15 11 3 18 24 -7 14 2 -5 -1 14 -1 4 13 4 3 6 -20 -24 -2 -13 9 -7 1 -11 3 10 -5 12 12 26 -7 -7 -3 -1 2 -1 -8 -2 15 -3 -9 4 9 10 13 -10 -11 6 -14 10 30 -9 -6 22 -3 -1 -20 -7 11 17 -5 -3 2 -4 14 -2 -19 -10 -3 -24 2 -6 -3 3 10 -16 -32 8 8 -3 14 15 -1 44 8 4 6 -27 -8 -24 19 -21 6 -2 6 8 26 3 -6 8 7 20 5 -6 18 -2 7 -9 -10 5 -1 6 -3 -17 7 9 -3 19 -24 10 -8 -6 0 -4 7 3 -4 -16 -10 4 4 12 3 -9 -3 -31 -4 3 14 10 11 -1 15 1 -6 19 11 -7 14 -17 -5 17 20 -3 5 -17 -14 -7 -3 -6 -17 6 -14 -18 -17 7 8 -15 11 -17 -25 11 5 -17 7 19 3 -22 -30 -12 -12 -9 -14 -14 4 21 7 -20 6 -13 -7 5 7 -2 4 -5 3 -6 17 5 -17 -3 10 8 -17 -1 -3 -4 7 -7 3 4 25 -42 -10 3 -11 -13 -28 -4 3 -20 -11 3 -3 10 -5 -19 1 10 13 20 17 -31 -6 7 -2 27 -9 -1 14 -3 7 5 -18 7 -3 24 3 -2 0 17 -7 6 -11 -7 4 4 -3 -3 -14 -27 4 -4 -4 -21 -17 7 -18 -13 -27 12 -10 8 -12 6 -7 4 -20 -17 3 -5 3 2 -8 17 11 -4 15 3 -15 -3 -6 -20 21 4 14 4 6 4 34 -10 3 7 -7 -24 -15 10 -6 -11 4 -3 6 -4 -14 -14 -6 3 13 -14 18 11 6 -3 -3 -7 -8 17 14 3 3 -17 6 24 -26 8 11 0 -1 12 9 -7 -6 -9 -9 -14 -11 -3 18 14 -4 5 23 -12 3 3 -4 -3 -7 22 30 -3 -4 10 -21 -20 -18 -19 -2 -3 -28 -6 -25 -3 -2 -24 -7 -33 -3 8 -5 -7 3 -3 -10 12 -13 -3 9 7 10 -7 -10 -6 -19 13 -3 10 -4 -3 -20 -6 4 -9 -11 -20 12 -13 24 -2 34 -3 7 -7 11 -10 3 6 14 4 6 13 15 -8 4 -3 -14 8 -3 -7 -34 27 -3 21 -4 7 -11 -10 -7 -13 -18 -2 38 4 10 -7 17 22 2 7 -7 2 7 -3 -3 33 3 7 -8 15 7 -9 20 11 10 -11 -18 7 21 -35 -2 21 17 -19 -4 -10 -14 7 -3 7 6 14 5 -4 3 -4 -6 25 2 -15 -7 6 -4 -2 -7 7 -10 3 -3 3 9 6 6 -10 -3 12 7 -10 -16 7 -3 -3 -9 5 3 -7 -18 -5 9 14 15 16 1 17 3 3 8 10 8 -12 -4 -17 -7 14 4 -6 5 -23 10 -16 -8 7 4 9 8 19 5 -4 -13 -10 -10 -18 -11 -20 3 3 -3 10 15 -33 -7 8 -34 3 6 -11 4 -10 -10 -3 2 -28 -16 1 -4 -11 25 -6 -4 3 10 8 -8 -6 3 10 4 21 3 7 -4 11 -18 52 6 -24 5 -3 7 38 10 1 19 11 -7 -6 -13 -7 3 0 21 -11 18 -24 6 -8 -17 -3 10 -20 -13 2 -15 -13 -5 -10 3 0 3 -6 -9 3 -27 2 9 -20 4 -16 13 -7 -1 28 15 -18 25 4 3 25 33 14 -15 -12 -7 18 -17 14 6 3 3 -23 3 17 -9 14 17 -7 -7 3 -4 3 -18 -1 -4 -4 9 6 -14 -6 10 -4 15 4 -1 27 -7 -7 -14 -6 0 -17 3 3 -18 -14 -17 7 22 -9 -2 3 -20 -3 -15 12 -3 -22 15 14 15 -14 3 25 5 6 -6 10 5 -14 -15 3 14 7 -16 3 -6 11 -2 4 -37 -3 -8 -13 -15 8 4 9 3 -10 2 3 -7 7 -20 -7 -19 -3 11 2 27 2 -1 -9 -10 8 -7 7 -20 7 -5 -3 0 7 6 -15 7 3 -3 7 -11 -7 14 28 -3 -6 14 3 -16 -3 -5 27 8 -3 -3 9 -14 -7 -1 -3 -18 -17 9 -14 14 -10 -19 -3 -1 -5 7 4 -16 19 -20 -33 -6 -21 -10 -16 -14 1 -1 -6 -23 9 -4 -5 -14 11 -3 10 2 14 -21 -28 3 24 11 6 15 13 -22 -6 -13 11 2 -11 -1 -6 -6 -20 -12 -3 10 17 -13 -10 -3 11 -16 9 3 -3 3 -7 3 -20 -3 -5 4 4 -21 13 -1 -3 -14 10 5 5 3 -3 7 -5 -1 -20 35 -10 -17 6 24 -10 -4 14 -24 -14 14 -13 8 -8 3 17 -3 31 -7 6 2 9 25 -3 11 20 -1 -6 3 19 1 8 -13 -7 13 5 -3 -10 -3 -15 14 -3 13 12 -7 -6 -14 3 3 11 3 0 -6 -16 6 7 3 -10 -5 1 -3 6 -11 14 4 10 14 -4 7 3 -11 14 7 15 -4 -14 -4 4 3 3 -3 4 -10 4 -7 1 -10 19 -6 -3 -20 19 5 -8 -24 -11 -25 6 8 -11 -8 18 -3 3 9 3 -3 -7 -18 -4 -3 14 -6 1 3 3 -6 17 18 7 -3 -3 -24 3 22 8 -17 -21 10 31 -27 -35 0 9 6 -10 -4 10 -20 -6 14 -13 3 8 -3 -4 9 10 17 3 29 -18 -9 2 -7 -20 -15 -6 -10 10 12 -7 3 -5 15 3 8 -10 -3 -10 -3 -1 -23 -3 14 -6 16 10 -4 3 -3 8 -8 -16 -9 -11 7 2 -8 -22 13 14 6 -21 8 -3 13 -12 21 -5 1 11 -8 -6 14 2 -7 6 3 -21 -11 -3 -6 -11 -8 -1 1 -1 -42 6 6 -10 -7 -1 -2 1 -17 18 -4 3 -3 -28 -11 25 -6 -14 -14 26 -19 -14 -10 -12 3 10 21 3 -32 -10 3 29 -3 2 5 6 -11 -3 17 -7 -8 -14 -12 -3 -22 -16 2 20 12 32 -1 7 28 21 -11 -3 -1 1 7 -6 -10 3 4 10 12 3 1 24 -9 6 3 -6 -17 9 18 3 7 17 -2 3 4 11 -14 -29 -3 27 -3 -19 11 -2 -24 5 -1 -6 -6 -5 -11 -17 -3 -6 -24 6 0 -1 4 -20 7 5 2 -20 -10 -9 -11 3 -8 3 3 -3 12 4 10 -8 -6 11 15 -13 5 -7 5 -2 30 7 21 -16 -12 3 -23 -10 11 13 22 2 6 6 0 0 -14 4 -14 -4 13 4 3 17 6 -22 -7 6 6 -10 -10 -6 3 11 -3 -15 -25 9 3 7 -17 -7 14 -11 -3 -6 -1 21 -8 13 -20 4 -10 0 -12 -13 -3 1 -28 -10 28 -14 -15 3 -25 6 27 -8 -6 -10 -10 11 -20 -1 3 3 5 -2 -3 14 -11 11 16 3 -2 -3 3 14 13 4 3 10 -10 16 3 -32 -3 -19 -3 3 21 12 -11 -18 17 -5 -2 -9 6 10 -2 -6 -3 -4 -4 -3 11 -17 -2 2 6 -17 -27 10 -21 -1 -7 -16 19 5 -8 -3 24 -14 3 -14 -9 2 -3 10 -5 14 17 -12 -13 12 5 -10 -3 -10 -7 7 5 23 -14 -2 -17 6 24 3 12 -7 -2 -10 19 -8 7 -6 -6 17 -5 -11 7 8 -3 15 4 11 -16 -10 -7 10 -10 13 -7 12 -3 -3 -3 -19 -9 4 -1 -5 -16 -6 -17 3 -10 -13 13 24 14 -14 29 -4 -6 14 -3 -23 -10 11 -6 10 6 23 6 -11 4 -13 -11 -2 14 -13 -8 11 -3 -3 15 8 5 -8 5 17 14 17 13 -3 -14 -6 -4 -1 -10 -16 -8 9 -14 -36 -7 -11 12 7 4 -3 -6 1 -10 7 0 18 -18 -16 9 3 9 17 -23 -1 14 -3 34 7 -7 2 17 -12 -17 -15 9 -16 7 17 -3 13 3 7 13 -6 5 -3 -3 -18 -5 -2 -10 14 -10 31 1 11 -3 3 7 -10 20 -8 -24 -1 -8 -21 -9 26 17 20 2 -3 -14 6 -4 -24 -14 4 -18 -4 -7 -6 24 28 28 -9 -3 -1 21 -22 3 -1 10 12 10 1 14 -6 -9 3 -6 -4 -14 13 7 1 -25 -3 -9 10 10 0 4 -29 6 -9 10 -4 -19 -3 11 -4 3 0 -25 10 -11 -7 -14 4 -22 1 23 -25 -3 18 -4 -2 17 -10 -7 -16 -4 3 -4 -20 7 3 5 -7 -4 2 16 -5 17 19 6 6 -20 -10 -12 -2 13 7 -24 9 11 4 -4 -3 -7 -6 10 -2 20 -32 6 20 22 -7 13 -7 -1 -7 3 -8 14 15 -9 3 2 -3 -9 6 -16 -6 -14 -14 -2 7 6 13 3 -17 -13 -12 -5 -10 3 -7 5 -14 19 7 6 6 -17 2 -9 10 -7 10 -9 21 -7 7 -17 -10 -28 19 -3 16 3 -3 6 22 2 -6 12 28 13 -10 -3 7 -18 -15 -13 -13 13 -2 18 4 -21 3 19 11 3 -1 7 -3 12 -1 -3 13 -7 -7 -6 6 -3 28 -4 6 9 7 4 15 2 9 -6 8 10 -13 15 -3 19 19 -6 8 -18 -2 5 3 -10 -11 -6 -17 -7 3 12 7 13 -3 23 -23 -13 -10 -3 -7 -25 -30 -3 -28 3 -4 -3 15 6 -6 -14 10 -30 6 -10 17 -3 -3 -4 13 -33 7 19 7 3 8 -4 -3 7 -2 -4 8 15 -7 -9 3 0 -10 11 -35 -1 -10 7 -24 -14 -6 7 -27 -6 -5 9 -2 -29 -12 1 -13 3 2 -19 -32 -7 -9 -1 -7 -13 -20 -20 -11 17 14 -26 -18 -14 -13 -22 -19 -7 -17 -1 3 8 -3 17 -13 -1 -6 21 4 -3 -6 -1 -17 -11 20 -19 7 4 19 14 0 -3 -31 7 3 -12 -27 -3 3 1 7 -10 20 0 -6 -3 3 -37 14 21 0 14 -16 10 6 -14 -12 18 -3 -5 3 -14 -18 3 -13 10 -6 -4 14 2 3 -3 -3 -7 -6 4 -7 -10 -3 -22 -3 -4 16 21 3 -13 18 6 -9 -15 -31 11 14 21 10 -2 -10 6 -28 -6 -7 -14 6 -17 4 -3 -21 -4 7 -1 -1 1 21 -3 -3 0 -7 -4 14 5 -3 -13 -25 -3 -18 -4 4 4 17 8 7 -14 3 -24 3 17 -10 21 1 -14 21 -5 -18 15 17 32 -21 6 2 7 -7 -15 -16 8 -19 3 30 16 10 4 -1 -13 -24 -7 -3 -25 9 -3 6 -34 4 -37 -1 -21 -1 -4 -2 -3 -6 6 30 3 -10 2 -13 14 -7 -24 3 -15 14 5 12 4 17 1 7 21 10 -2 -18 -34 -21 -8 6 -20 15 1 -2 -7 7 -5 -18 -3 5 -8 4 7 3 11 -11 -10 5 3 -3 -11 -6 -17 14 -14 -18 -4 6 -15 -24 -7 -3 -6 -1 22 15 -8 -6 -10 11 -7 3 8 -23 9 -34 6 -5 6 7 -12 -1 -18 4 6 -9 -12 -15 -2 -9 3 -13 -7 9 18 -5 -4 -4 -20 -6 -24 19 -3 6 -3 4 -6 6 6 -14 2 6 -18 3 -14 -1 6 10 -10 -4 19 3 -3 -5 -7 -11 6 3 3 -1 -5 6 3 24 3 -15 4 3 -3 14 3 7 -7 -3 0 13 5 25 10 -21 2 6 -1 -15 18 -6 -15 12 17 -17 3 -6 -23 -6 3 -6 2 2 -3 10 -3 3 -3 7 9 3 28 1 -4 -6 -17 1 -24 -6 22 17 -21 -14 -11 -4 -15 -10 -6 5 -10 24 -14 -17 -14 -13 -10 3 -4 1 10 3 31 7 -14 4 -2 3 -7 10 3 -6 -3 11 -27 14 -14 36 8 16 16 -1 -13 7 14 -14 16 3 3 8 -3 -14 -18 -10 -10 -3 14 -3 -4 -8 18 16 -9 -10 -11 -4 -10 1 3 1 6 -13 9 -35 6 12 -7 -7 -27 7 1 6 8 3 -33 -3 11 -6 -7 -1 -15 7 5 -18 14 14 7 -2 3 4 -20 -14 21 14 25 6 5 -24 12 -5 -24 -3 8 -8 -1 2 6 -14 12 5 -3 44 13 13 -14 14 -25 31 -15 -3 -6 -8 10 14 -1 21 19 -8 7 -17 -13 -4 7 10 -17 -8 -21 -12 1 -19 -17 28 8 9 -13 7 3 19 4 -16 10 7 -18 -3 3 -3 18 3 6 -13 -20 8 -19 10 8 -3 -3 -3 5 -28 -17 -13 10 3 -17 6 -10 -16 3 13 6 16 -13 7 -31 3 -4 -21 -8 3 8 15 -10 -4 -6 7 8 -7 3 9 -2 -3 -7 -3 -3 -13 -3 6 -9 11 -11 4 -4 5 -10 7 -3 13 -7 -3 -7 -3 24 10 -7 -3 4 11 4 15 -13 25 -10 -3 20 -3 -17 -12 9 7 8 6 -12 -3 -24 3 -7 -3 -6 -8 11 11 1 -17 -3 -3 20 9 7 3 -7 -6 14 -4 -13 14 -12 -12 -19 -8 -10 -15 3 -20 17 32 4 3 11 15 9 9 -17 -14 -7 11 -4 -11 20 6 -4 7 -3 -14 -3 -13 4 3 -7 -6 1 -1 3 -10 8 -14 -9 18 -7 -19 14 9 7 9 3 -1 -1 -7 2 -22 -2 -3 4 3 -25 1 -16 -3 3 -17 12 -14 3 4 -3 -18 5 5 14 3 6 10 -10 -3 12 -6 -1 -14 -12 -6 12 -34 -13 19 -28 -13 -6 17 -3 -7 5 -6 -38 9 -17 -4 10 9 -3 -3 13 -6 3 0 20 8 3 4 25 -13 4 -14 -6 -7 -12 -13 -8 3 16 -15 -9 -18 -5 -19 -10 3 8 10 23 22 6 -20 -17 -5 -27 -6 -4 3 -20 5 18 3 9 14 -10 -20 23 3 6 15 -4 -13 -29 -32 1 -7 -5 -9 -6 27 -15 -7 -13 -25 3 -25 7 11 -5 -1 -14 3 -1 -15 -4 23 -19 5 6 11 10 0 8 -3 25 -34 -1 18 6 0 -5 -2 3 8 6 -7 -6 20 4 -21 -3 -4 5 -14 5 -2 7 -14 -32 11 -11 8 -1 -29 -12 3 -7 11 -12 1 12 19 -20 -4 -12 4 -3 3 10 -23 -14 -19 -13 24 6 -10 7 3 -2 3 -1 0 -6 14 -3 20 -16 3 -23 -3 8 3 7 3 -20 2 -15 8 -19 16 -26 -24 -20 35 3 -7 6 11 -23 8 3 -7 -6 -3 4 -26 6 -3 -11 -7 1 -13 12 -5 3 -17 7 -24 -7 -3 15 -5 -8 -6 4 -4 -19 -14 3 3 -10 -11 24 1 6 -12 -6 8 3 7 -14 8 3 -8 20 14 -2 6 3 -5 -7 -14 -10 -3 -13 3 -14 8 3 6 -3 -2 -2 -18 -19 27 3 4 16 18 14 -16 -3 -7 -18 -3 3 10 -5 13 15 -10 3 -13 5 4 5 -5 -17 29 -7 3 12 8 7 11 3 2 -3 1 -10 -3 -1 -10 -8 -5 -14 -11 17 8 -11 -5 -14 -14 -37 -3 13 14 -13 18 1 -3 25 -7 7 -12 -4 13 -7 -2 5 -3 3 9 16 -2 -3 -7 17 22 -4 -5 -1 -18 15 -3 -6 -6 3 8 7 3 4 10 5 7 3 -33 14 13 -10 -7 15 -5 13 -12 13 24 -4 32 14 -10 10 10 6 -3 -6 4 5 -3 -27 -5 17 6 -20 4 -3 20 -14 13 -6 -13 -3 -19 -3 15 18 10 11 -17 -6 10 3 -10 8 -10 10 -6 -16 -2 8 -10 13 14 -17 21 20 7 -12 7 -9 1 -26 15 -18 -18 2 -3 -18 2 3 -1 -7 8 10 -14 -14 -5 -1 4 -5 7 9 -6 3 -19 -18 -9 -14 6 1 5 6 -9 12 11 3 -28 -13 10 -11 1 11 -19 -6 -3 3 -14 -13 -3 -3 3 6 -20 1 4 7 7 -5 -3 4 5 15 14 3 18 15 8 -2 2 3 6 -14 3 -3 10 3 5 -8 -10 -21 4 -10 -4 -10 10 8 3 4 -1 17 3 -11 7 -10 -10 -3 -11 -8 -3 -1 -16 10 7 -16 -5 -11 -20 -6 -12 -10 -18 -3 10 0 -6 -5 -5 11 -6 -21 12 24 6 -8 -8 -7 1 -31 4 -8 16 30 1 -3 2 0 3 4 -7 16 1 6 -5 -3 -3 -15 -7 -6 -18 -4 11 7 -4 1 -31 3 14 22 11 -4 -7 -6 -8 -3 -10 -11 -6 -23 -6 3 -9 3 -19 -6 3 6 -14 -15 -3 6 -24 -3 -14 6 -6 -36 -3 -1 14 21 -14 7 2 -7 -10 -1 9 -10 18 1 24 10 24 26 9 2 -15 -18 -21 6 10 32 5 -17 -6 -10 -7 -37 9 3 6 -5 7 -6 24 7 -24 -2 -3 -8 10 20 9 3 -9 -14 14 13 -12 3 7 2 7 -12 14 3 -6 -10 7 -8 7 10 -10 -14 -4 -5 1 13 -9 -8 3 -11 9 -13 -10 8 6 -3 4 -5 -8 -7 6 23 -4 17 15 -5 -17 14 -6 4 11 -21 -12 7 -3 -4 -13 -10 -3 5 -10 11 15 -6 -16 -7 -18 14 -1 -21 -1 -3 -21 -3 13 -22 14 -13 3 -19 -6 8 -11 -6 -7 -7 -3 -6 -12 10 13 24 -8 9 26 6 7 -10 -3 -16 9 14 3 -3 10 -22 5 -4 -13 -25 4 7 -10 14 -2 1 -24 12 -11 -13 3 2 -1 28 4 6 -5 -6 28 -6 -27 -6 -13 5 -17 -7 14 -2 4 -11 7 7 -7 28 -4 -3 3 30 -5 3 13 -27 11 6 15 18 -12 -10 10 -15 -12 -4 -5 -10 30 13 15 -28 -10 -6 -3 -9 -5 26 0 11 -27 -5 -14 -3 10 3 -10 -3 2 -6 -3 1 3 8 -16 -2 3 7 20 4 -6 -11 4 -6 3 3 28 11 1 -7 5 -1 6 6 -16 9 -17 3 -18 -24 10 -4 2 6 -7 23 -11 32 18 5 -24 6 -7 -16 14 -3 -21 -14 -10 -3 -4 -18 -3 -18 -9 6 -4 3 -2 -19 -7 17 -35 10 -3 7 6 -3 3 6 -17 -3 14 -25 -3 0 -10 4 -3 8 -11 12 -3 12 -8 27 -13 -16 -3 27 -8 20 -17 6 -6 -6 7 -20 17 -11 18 -5 11 31 -17 1 -3 4 -2 15 5 6 -3 -48 5 17 -5 15 -15 -2 12 27 -13 4 -10 -8 -7 17 -14 -12 10 -1 2 -22 4 -6 -3 -4 0 -10 10 -3 -19 -12 -16 -8 -12 -21 -14 -15 -7 16 3 -14 28 29 -6 6 3 -3 -14 -8 12 8 -6 -36 -7 -19 0 -2 6 -16 3 20 -17 -4 8 17 -7 -20 20 -9 -22 -4 -6 -1 -7 -2 8 10 6 3 7 -11 -16 -10 -1 -2 5 17 -16 -10 3 -17 20 4 -1 23 20 -4 8 -20 -17 -1 18 10 16 -8 -21 -6 14 3 2 6 -3 11 19 7 7 12 -14 -14 3 6 -24 8 -12 -10 -36 -4 11 -14 5 14 7 3 -5 -15 10 10 1 -3 -17 6 8 -8 4 -4 -34 28 -5 -7 -7 6 -4 6 -12 14 10 4 -12 -19 -2 14 -25 9 -26 6 24 -11 -3 7 -3 8 14 5 13 -26 13 1 -7 -17 8 -15 -7 13 4 -11 22 -2 13 -9 -2 -3 -2 -13 12 11 -23 -12 -3 -16 -3 31 -8 35 10 -13 -17 5 -7 -3 4 0 14 1 -17 -1 -24 -4 -5 7 20 -11 20 -21 3 3 -3 10 -5 -21 15 -18 -17 -11 -9 4 -17 -2 3 8 -3 14 -9 -25 -4 35 3 6 -14 12 9 20 -26 -8 20 -5 -14 -9 6 -3 14 16 10 -5 1 19 -5 3 8 11 -7 6 6 8 -4 20 -7 10 -5 1 -4 -3 19 -2 6 16 -20 1 -4 -22 5 -10 17 -4 8 -6 -18 12 -38 -3 10 1 -22 -7 18 -3 14 -34 -7 -14 -25 13 -3 -14 -15 31 3 3 -3 7 -27 -4 -11 -11 11 -14 -6 -7 -7 8 -3 -5 -17 -3 -12 3 4 3 -7 7 -3 4 -3 3 -3 7 7</t>
-  </si>
-  <si>
-    <t>JSB(3.2718954068199717, 4.975346576643631, -42.03746324124983, 233.90300670072972)</t>
-  </si>
-  <si>
-    <t>37 30 37 39 48 34 26 40 30 46 22 46 36 35 38 40 44 43 45 33 48 33 48 43 42 66 31 54 56 33 41 30 48 40 26 52 44 33 36 43 54 31 17 27 38 47 39 32 19 41 54 43 33 23 37 28 20 43 55 34 44 37 39 27 45 42 39 35 23 69 34 30 26 34 48 27 54 51 44 60 43 43 44 37 39 20 40 38 36 36 40 27 31 51 45 30 47 45 51 52 38 26 31 36 32 55 43 44 52 36 50 37 34 30 42 35 36 38 33 34 28 34 30 51 35 39 44 34 30 40 30 43 47 20 32 26 47 26 48 30 27 44 40 51 29 23 39 30 66 65 33 23 48 34 33 52 37 40 27 38 30 39 33 44 26 30 35 49 32 58 39 16 22 41 37 40 37 37 23 62 34 23 47 39 46 24 26 40 27 58 53 41 43 49 45 34 27 40 57 37 29 40 36 54 30 30 22 21 31 31 38 40 41 48 43 24 38 49 44 45 20 23 51 27 36 53 23 38 41 42 37 56 51 37 23 38 23 33 44 38 55 26 44 39 45 22 31 29 47 13 35 27 45 31 54 25 37 32 35 23 16 33 45 47 32 58 46 31 40 43 47 43 30 31 32 33 45 32 49 43 50 41 66 43 40 43 42 36 48 34 53 52 37 35 32 24 45 21 22 21 32 49 45 22 39 24 27 57 24 33 51 58 34 43 28 47 50 30 45 30 27 34 55 52 50 47 37 43 41 41 51 22 43 43 48 23 41 30 23 32 41 46 26 33 44 45 48 46 17 55 57 42 41 30 51 26 16 47 40 37 38 22 54 37 29 36 41 48 46 37 46 34 48 44 32 16 24 33 52 30 34 36 54 33 27 23 33 65 24 34 23 49 44 51 58 51 27 37 37 27 33 28 44 30 16 53 31 43 34 47 32 51 26 34 47 50 36 33 23 44 36 30 41 32 50 33 34 42 24 23 27 72 35 36 30 38 47 52 46 47 38 37 32 19 56 19 27 26 41 24 40 43 29 40 39 51 30 53 39 44 54 32 44 23 25 47 34 48 36 44 35 54 45 23 49 31 50 29 37 34 27 45 37 52 33 30 46 33 35 37 34 24 37 29 53 40 52 27 30 29 37 43 31 41 29 43 41 30 30 33 62 22 44 39 26 51 30 29 31 34 45 37 33 34 41 12 45 37 44 33 29 37 39 36 41 26 31 44 41 34 44 44 22 56 26 25 46 30 39 43 39 33 27 38 30 41 52 51 50 34 58 36 38 45 33 65 59 41 43 35 52 38 35 37 31 37 26 60 27 41 37 38 37 20 33 57 36 48 33 35 33 33 23 51 27 35 51 33 23 37 48 33 30 39 41 29 44 34 32 47 44 20 43 29 43 43 27 34 45 23 43 37 43 40 34 43 47 58 34 48 50 19 31 35 65 47 30 47 50 23 54 13 24 41 34 34 34 30 48 26 43 51 41 37 48 34 38 41 32 37 45 45 23 40 23 23 29 55 44 40 31 47 40 23 63 34 50 48 60 33 44 23 32 52 27 36 40 40 45 27 24 51 62 30 46 41 55 23 39 36 37 24 43 41 29 29 45 51 37 49 38 20 30 45 16 26 37 52 38 53 39 34 44 31 46 17 44 26 55 38 37 59 37 40 37 31 39 37 40 41 37 40 26 19 34 35 26 38 44 30 27 40 49 23 33 42 40 47 40 40 35 47 57 50 42 34 42 39 30 65 42 34 34 44 41 23 37 51 28 34 31 41 30 31 44 34 55 16 37 35 44 39 45 34 41 30 37 52 37 20 38 37 32 56 40 48 38 23 41 40 34 45 27 49 43 31 39 29 40 26 42 19 28 36 37 16 37 34 25 34 33 20 34 51 36 34 34 38 35 32 43 37 40 55 20 31 33 6 49 33 29 55 38 29 52 41 47 40 48 38 16 28 34 38 37 33 43 47 33 30 51 25 32 43 31 43 26 71 39 44 43 40 48 57 23 35 37 27 52 37 45 58 26 50 32 41 36 52 60 44 30 26 23 38 19 27 43 37 55 49 27 48 62 46 40 46 33 38 35 41 28 40 23 37 39 25 34 12 31 44 54 31 32 33 27 42 59 29 36 30 43 30 16 40 33 45 24 47 45 31 37 27 47 21 41 13 51 51 44 17 20 58 55 37 29 38 38 43 36 36 41 27 61 52 37 33 47 26 26 47 47 30 33 37 71 22 23 29 17 37 28 46 30 33 26 50 37 37 43 48 30 37 29 43 26 41 44 55 54 39 37 47 37 32 38 43 32 37 54 32 27 32 45 36 26 39 41 33 31 31 29 28 40 38 62 49 32 50 48 31 41 33 33 33 47 33 57 17 38 34 54 28 37 45 43 27 22 45 25 49 30 44 32 42 26 23 36 45 41 29 32 23 48 59 20 57 26 26 32 44 45 37 41 37 7 31 48 30 29 39 29 31 43 31 35 29 44 27 44 35 39 23 30 45 19 53 41 41 34 13 37 19 40 50 22 44 48 34 50 47 41 54 55 47 31 27 30 28 27 50 28 42 40 51 42 37 10 23 59 29 45 47 43 40 52 26 35 46 57 33 49 63 45 35 49 22 25 30 34 37 48 50 51 34 22 33 42 51 43 25 34 36 42 46 58 34 27 51 38 33 44 33 44 30 40 37 48 52 40 48 29 51 59 78 53 44 50 30 27 30 49 33 43 40 37 37 52 37 26 32 23 48 45 40 50 33 32 31 45 44 20 37 26 38 30 39 53 33 37 29 42 22 36 25 27 34 26 21 28 22 30 36 57 56 37 32 33 30 46 31 27 53 26 56 32 28 55 35 30 36 22 67 29 47 37 38 30 39 61 30 39 32 28 37 16 20 37 48 32 38 19 34 48 53 42 37 42 44 34 37 55 30 38 37 33 34 43 20 65 47 45 59 44 19 35 39 44 43 52 39 40 36 13 48 51 34 37 37 55 42 50 45 48 45 33 37 46 40 22 46 28 36 30 44 59 35 34 30 30 53 33 46 36 24 30 44 45 47 41 30 51 54 25 41 37 43 47 20 27 30 23 35 31 21 40 58 55 30 39 33 31 40 18 36 27 37 51 24 44 29 7 45 37 49 37 47 40 26 48 39 32 49 14 43 19 33 40 46 16 26 9 51 29 43 28 44 20 23 52 44 48 45 48 59 43 48 44 41 33 47 44 31 53 27 60 19 21 40 54 27 45 23 50 42 41 33 22 24 38 47 41 46 50 41 45 51 30 44 52 49 42 47 61 36 33 51 41 45 27 58 31 44 30 30 35 61 48 37 44 41 48 54 40 53 29 39 51 36 38 24 43 46 44 33 50 49 35 48 55 38 30 36 60 30 41 57 29 36 38 28 27 44 27 51 29 53 51 27 26 36 38 33 41 40 58 43 47 36 34 25 41 53 44 12 39 44 30 22 39 30 34 36 30 42 38 47 49 42 22 40 44 29 43 44 42 30 44 67 44 44 36 31 51 45 34 31 36 59 51 32 27 29 60 51 29 39 37 43 24 40 56 57 42 44 15 37 41 51 41 27 23 28 34 48 55 49 30 52 34 45 40 26 62 37 38 44 52 37 48 34 30 45 37 36 34 48 29 43 41 51 34 43 40 30 19 43 30 34 33 36 44 45 45 28 44 31 34 43 26 41 40 50 41 55 46 31 43 30 45 30 45 37 34 39 31 33 29 35 47 11 52 53 43 46 48 54 42 26 54 48 54 43 24 38 51 34 44 44 44 51 51 29 37 41 26 37 41 51 27 34 22 42 30 40 30 32 34 47 25 52 34 49 56 43 20 41 29 24 30 22 41 16 29 44 33 15 39 73 31 31 53 48 46 44 59 27 46 51 21 33 43 40 41 24 51 47 41 33 40 40 38 46 59 23 51 62 45 26 39 23 38 43 60 22 38 59 37 29 41 38 30 38 37 39 30 31 20 33 56 40 41 35 42 50 43 59 23 34 43 44 31 37 40 31 41 37 51 35 36 49 35 27 41 52 55 41 38 43 40 57 44 37 26 26 41 17 37 33 30 37 51 49 36 44 34 33 36 57 39 31 32 43 50 36 37 44 34 33 41 50 45 49 43 37 41 29 44 23 32 26 41 17 28 68 31 41 61 34 19 43 47 37 19 43 37 39 25 30 43 15 21 29 40 33 29 29 34 38 36 43 60 26 33 50 43 27 43 52 44 41 35 37 43 27 52 54 42 41 46 43 26 29 28 30 60 41 29 33 55 47 51 59 38 31 41 31 40 33 46 57 44 56 42 47 54 43 37 30 27 26 59 23 48 30 50 43 48 34 27 40 51 41 29 34 44 39 29 51 63 30 26 47 40 43 41 53 41 41 37 27 27 33 51 36 49 37 23 33 25 45 47 40 45 23 37 41 28 17 29 40 59 26 45 52 41 46 31 22 29 32 43 31 43 24 43 40 27 49 43 45 57 48 47 33 50 33 52 30 30 30 27 34 27 43 23 38 27 23 41 40 39 29 36 34 43 47 26 53 53 34 46 48 21 16 40 33 39 27 24 37 24 31 51 44 38 24 36 45 62 40 51 29 37 63 37 16 27 16 24 46 45 39 27 58 43 39 36 30 37 51 39 40 31 45 33 69 55 45 35 40 37 44 56 42 30 33 22 33 47 27 52 41 37 49 44 37 45 40 28 37 49 32 31 40 26 43 51 37 51 37 33 51 26 58 76 41 44 43 39 38 44 33 38 45 27 29 40 39 42 35 44 31 46 45 21 39 38 24 43 47 45 47 43 40 33 60 42 28 51 55 35 41 47 30 32 38 49 25 31 42 50 43 33 35 30 48 29 30 56 37 30 31 47 53 40 54 37 33 33 44 46 48 16 52 51 38 48 33 30 27 30 33 34 31 41 41 32 33 33 37 41 66 29 45 34 31 40 41 33 20 50 45 31 34 42 31 38 22 24 51 49 40 37 51 38 46 22 43 50 38 50 34 42 48 36 34 38 37 37 35 31 51 37 51 24 36 27 49 28 39 58 55 24 59 66 36 50 47 49 38 24 44 29 26 41 55 39 36 54 40 20 31 41 40 37 43 32 55 45 49 33 30 23 32 45 48 40 65 35 37 44 57 22 37 30 30 35 28 31 34 24 30 33 43 43 26 30 40 45 48 42 49 41 34 56 38 34 30 30 18 23 52 37 23 38 38 36 26 23 25 37 31 32 48 29 41 44 41 22 30 49 46 22 43 38 41 48 59 23 62 51 22 40 57 54 40 44 32 32 27 24 31 26 30 30 46 39 79 38 41 45 36 48 45 16 45 35 44 34 37 37 30 54 40 53 43 23 32 45 39 43 43 40 44 43 44 65 26 50 52 24 63 30 38 29 34 61 41 33 48 30 34 24 26 24 29 38 41 32 59 37 71 21 39 31 32 30 24 34 37 37 30 36 34 40 29 16 42 46 43 30 41 36 44 30 37 33 54 51 30 54 27 48 39 34 45 43 58 63 34 23 31 26 47 34 38 24 31 54 37 35 41 48 26 33 37 37 33 42 26 31 37 30 47 51 32 28 33 58 23 39 27 37 34 40 37 33 33 51 36 36 49 37 27 27 51 35 52 33 29 39 36 23 29 40 58 38 55 28 44 13 48 19 37 30 44 39 56 34 54 16 21 44 37 31 45 34 33 37 37 41 33 34 27 35 35 56 34 23 51 33 36 27 38 36 48 57 63 59 37 51 50 48 35 33 37 24 20 34 22 29 41 56 19 36 40 45 23 35 35 39 44 41 40 40 36 35 43 36 35 56 36 29 24 41 40 34 35 39 40 29 18 34 44 43 56 45 49 40 42 29 48 30 44 59 29 27 51 44 30 57 26 34 35 23 25 47 44 37 36 41 30 41 43 39 45 53 40 24 46 40 30 34 44 22 42 31 34 27 33 31 23 39 51 30 39 31 51 40 41 49 37 26 43 35 51 41 23 26 47 26 49 42 23 51 59 29 51 40 33 53 27 58 34 47 39 43 59 33 52 44 23 37 43 34 39 33 49 40 33 41 40 40 34 26 35 33 27 39 37 41 48 29 40 37 74 47 58 40 43 31 31 51 51 60 23 20 34 28 49 33 45 46 31 40 42 30 30 37 51 53 33 30 43 19 38 24 20 26 40 56 48 48 44 43 48 23 27 48 16 51 40 43 41 34 37 39 47 14 36 44 42 27 29 40 52 33 55 35 24 22 33 28 66 40 38 39 17 22 31 39 26 43 58 39 27 33 16 50 57 33 39 29 51 40 45 30 23 22 45 55 40 52 18 30 39 46 12 44 31 35 41 30 44 40 30 23 37 43 36 42 33 28 44 26 33 20 38 49 29 31 34 53 33 39 37 27 36 34 57 23 45 33 41 47 47 37 41 27 36 45 41 23 32 39 46 36 44 47 35 32 40 29 50 45 34 34 24 34 36 23 37 36 71 27 42 53 55 33 30 32 47 43 54 23 53 41 22 47 40 40 68 40 30 29 31 26 27 46 57 45 32 45 25 37 43 53 33 40 63 41 52 21 25 24 28 35 37 37 31 37 23 41 39 26 30 46 26 39 45 37 50 55 32 36 43 24 45 24 39 43 54 47 64 32 31 44 25 46 38 58 40 20 33 58 56 31 34 35 33 38 35 41 29 35 30 41 57 48 16 33 30 46 35 25 37 37 20 32 30 36 41 57 47 40 23 38 40 36 29 44 25 40 19 34 42 33 48 34 40 40 27 43 50 36 33 38 37 10 32 26 41 28 35 37 30 41 42 44 40 52 36 41 43 37 37 45 37 33 23 30 16 37 54 46 30 41 35 40 48 45 39 32 45 37 30 22 23 56 24 45 28 38 63 38 26 43 30 36 19 23 29 37 34 44 38 44 41 45 26 36 39 36 50 57 38 33 43 33 30 50 45 40 39 37 43 40 34 31 37 53 29 44 27 47 30 47 18 37 37 46 27 32 44 44 34 44 33 44 47 16 52 36 53 38 64 29 22 34 41 23 26 40 57 48 26 66 19 40 34 43 15 9 23 50 43 45 23 43 43 36 48 27 31 26 20 37 51 53 36 49 29 49 25 43 51 33 47 28 26 37 47 54 37 36 34 36 55 37 30 40 38 13 32 30 50 33 45 19 39 54 35 26 37 37 31 47 37 30 40 42 40 51 76 34 22 45 24 52 30 46 42 37 34 30 46 38 50 41 40 29 31 22 28 38 58 58 27 42 45 15 36 19 37 44 27 30 44 45 35 31 48 44 27 32 32 40 30 51 33 33 34 39 49 45 23 35 55 40 28 34 33 34 54 23 30 30 62 41 29 37 35 45 32 29 43 24 44 39 60 26 32 49 22 16 45 41 56 69 60 20 37 60 37 28 38 33 36 27 43 37 41 40 37 49 47 40 47 35 40 33 9 53 37 45 26 51 57 43 47 46 55 20 10 63 47 16 39 24 45 42 32 43 44 35 31 25 25 28 26 38 31 46 30 46 29 28 31 22 33 60 41 34 22 48 63 46 42 41 52 45 32 16 47 44 22 63 50 32 30 43 30 49 46 26 20 45 28 43 53 36 53 38 55 36 55 54 30 37 36 26 30 65 31 52 50 29 51 37 40 43 32 34 20 41 45 38 43 30 63 34 35 34 42 41 33 33 47 54 44 27 38 51 47 39 35 52 22 41 48 40 52 22 45 20 40 37 45 37 51 23 52 31 37 30 40 23 51 62 39 49 17 33 39 28 58 30 64 48 39 19 43 51 37 23 32 54 31 40 61 48 42 50 17 43 44 37 37 33 48 48 56 34 34 41 38 37 13 29 40 37 25 48 34 40 44 45 52 45 48 45 32 37 29 56 39 51 41 49 60 54 65 23 46 40 32 43 46 41 41 45 41 27 40 51 41 36 44 36 37 34 37 34 29 40 21 54 35 16 33 37 55 48 42 25 45 36 47 43 23 54 59 24 48 50 23 27 39 41 27 55 23 41 54 34 39 50 67 26 13 53 44 63 37 40 49 24 28 36 58 30 34 51 33 43 55 40 29 41 40 62 21 43 14 24 37 33 69 49 57 38 35 28 51 30 37 10 30 29 65 31 31 40 27 51 39 31 41 51 26 19 32 48 34 48 45 34 45 34 40 55 37 35 29 45 23 44 40 39 38 33 43 41 44 37 45 35 48 23 47 49 29 65 39 24 46 47 41 31 25 38 26 45 51 28 25 43 51 35 44 38 22 37 50 54 37 30 34 29 27 38 33 63 52 55 37 26 20 39 36 16 26 26 34 27 42 51 51 45 16 29 23 28 44 45 46 44 48 43 54 49 37 46 34 31 40 57 27 16 48 20 45 19 42 40 34 51 41 40 63 34 25 31 23 35 34 50 12 57 37 48 34 31 36 34 10 61 36 43 55 43 35 39 26 25 33 35 37 25 36 28 44 41 39 16 34 24 34 23 37 44 37 31 44 36 27 31 44 39 30 42 47 45 40 33 37 37 43 41 26 40 24 43 45 36 47 61 36 27 41 46 43 39 51 54 16 23 20 21 27 57 30 30 43 42 29 31 42 45 17 44 53 33 41 34 63 43 43 39 37 25 24 51 37 45 37 42 31 51 43 26 30 33 29 34 31 44 38 44 44 27 27 36 51 39 37 36 64 45 38 55 48 26 22 47 41 29 43 33 30 30 33 41 23 29 38 25 31 28 23 23 45 21 67 34 30 55 51 30 23 50 30 30 25 33 47 29 38 44 44 34 30 34 40 50 42 47 24 43 51 52 49 42 59 34 61 33 49 44 61 49 19 45 44 50 52 43 69 33 50 51 48 48 59 44 34 43 22 35 18 56 43 45 43 37 55 41 48 51 33 46 40 16 62 33 56 23 29 23 48 29 41 33 50 37 50 44 37 24 59 45 49 29 38 29 22 39 23 43 50 37 27 43 45 37 37 57 44 37 32 56 41 42 37 34 61 39 27 32 50 32 51 35 33 48 19 43 36 48 38 61 37 43 34 44 33 41 23 35 32 41 40 40 33 33 51 44 38 42 17 74 27 22 30 19 29 43 29 43 41 61 19 30 43 35 19 40 27 27 43 36 39 51 45 37 40 33 39 45 38 33 36 46 27 40 31 46 24 54 37 36 26 38 25 48 45 54 28 43 13 38 34 25 54 33 27 30 25 32 36 30 27 35 32 49 56 55 21 27 40 31 18 43 40 20 48 49 41 27 41 54 46 41 58 31 19 48 48 49 38 27 54 39 33 38 62 47 42 29 31 33 36 37 32 36 43 20 26 43 29 19 42 46 31 44 36 36 39 41 47 37 41 22 57 40 21 51 23 31 43 36 31 43 35 44 47 48 15 30 22 41 54 23 48 24 51 40 22 40 43 47 24 28 30 36 35 40 30 40 31 40 30 37 43 30 39 32 48 48 35 40 34 15 62 34 31 25 34 26 49 41 33 27 37 36 37 22 47 42 45 44 36 51 37 45 19 29 47 27 47 38 47 39 29 47 32 48 36 51 33 47 46 26 44 44 35 30 26 43 52 61 33 37 33 40 35 49 44 35 31 46 37 32 48 26 42 27 26 22 63 47 29 32 47 35 43 30 43 57 27 46 22 22 44 22 58 39 26 50 51 17 46 44 59 53 48 40 42 59 52 43 42 29 54 30 39 32 20 40 26 40 43 51 28 23 34 44 59 37 41 51 34 23 34 35 41 6 41 41 49 31 51 48 52 48 30 37 37 30 51 50 41 28 27 30 54 36 30 34 26 19 52 41 23 40 39 42 38 44 32 37 32 37 41 33 40 47 39 48 52 42 36 30 36 48 33 20 33 47 50 44 41 31 38 44 51 34 52 34 37 43 43 59 41 43 33 45 46 35 51 22 43 35 18 44 53 31 39 50 43 34 30 40 42 47 57 48 21 33 48 40 42 37 17 49 37 37 29 44 37 26 44 37 45 33 30 38 40 23 41 35 19 43 49 57 26 50 30 40 34 37 43 37 43 33 39 50 43 38 19 61 30 41 54 30 36 49 35 32 30 26 33 46 41 21 33 44 45 40 23 31 30 29 25 29 30 31 23 52 50 57 34 37 35 17 43 70 39 42 44 32 34 37 13 40 30 29 39 37 13 42 36 12 33 40 31 46 42 42 33 57 48 45 60 31 58 48 44 17 45 42 34 29 19 43 37 46 47 41 38 37 40 47 47 30 54 36 27 44 40 53 33 76 45 37 44 70 43 17 45 50 33 37 37 50 52 46 47 37 46 33 47 36 37 29 43 42 31 43 51 34 34 26 47 36 23 19 47 53 44 37 33 23 24 21 41 33 40 45 37 43 31 42 42 57 29 32 38 63 44 41 36 52 38 48 33 45 36 62 38 53 54 27 37 67 36 33 43 35 51 44 54 36 41 32 22 26 23 20 48 10 34 31 23 16 51 24 41 33 49 48 60 27 44 16 43 54 28 29 37 51 35 19 37 29 20 27 41 23 49 40 34 66 50 38 45 59 51 49 50 39 41 69 20 50 30 25 37 43 43 39 37 36 48 50 41 46 39 13 35 34 33 27 55 24 32 29 30 53 16 47 31 33 49 37 44 27 20 40 30 23 30 51 46 37 41 22 26 32 30 30 49 48 23 59 40 46 34 52 38 37 37 47 26 48 40 43 44 37 16 30 47 30 26 48 22 41 37 45 34 37 33 36 41 54 27 57 50 17 33 30 44 33 25 42 44 30 26 41 56 55 48 32 46 54 41 23 29 41 27 38 37 43 30 28 27 47 37 36 34 33 45 33 40 29 63 43 56 29 48 51 23 49 46 41 52 46 49 40 36 43 67 67 47 33 46 26 37 36 37 37 43 22 39 37 34 44 40 16 29 45 36 40 32 33 33 65 19 37 31 54 29 37 17 44 38 40 43 37 27 39 37 36 37 47 47 33 43 22 45 46 26 27 31 41 33 29 46 38 36 27 36 48 61 34 19 36 63 37 40 15 30 37 23 44 30 24 57 51 48 31 38 29 44 33 35 37 50 24 44 51 42 16 47 26 41 41 29 23 27 43 29 36 37 24 39 47 37 22 65 33 41 48 20 37 29 48 29 26 48 39 49 37 55 24 48 54 51 42 48 31 48 36 23 30 43 27 47 47 23 40 47 60 23 37 36 51 29 60 42 40 22 22 40 29 23 45 48 48 20 47 26 48 51 25 48 23 32 23 30 29 44 42 33 41 45 51 34 29 31 43 33 27 42 43 20 63 44 27 40 34 46 46 41 54 22 16 29 23 49 54 51 37 34 37 29 45 47 47 33 52 46 22 38 19 19 53 29 33 41 28 38 44 40 16 26 40 32 51 36 33 47 38 46 48 50 32 33 33 37 50 47 33 51 37 30 25 19 27 48 40 29 40 39 23 41 27 31 60 29 41 56 27 24 39 54 34 44 51 40 37 48 37 56 30 38 26 24 35 24 59 33 42 37 44 26 27 43 58 35 26 23 40 51 35 47 36 40 29 36 49 44 52 47 27 37 42 24 30 38 44 38 24 61 40 34 52 37 43 31 42 56 23 55 55 43 37 17 37 44 19 58 57 24 37 55 51 26 74 44 47 50 53 36 42 37 37 54 41 37 34 26 47 36 27 36 45 40 27 37 37 45 51 25 37 44 39 46 40 37 36 27 31 38 33 30 40 36 26 56 44 69 42 29 38 23 45 36 30 58 55 25 27 28 33 65 53 43 37 46 33 42 37 34 59 43 37 27 36 21 48 40 31 30 22 37 24 24 30 29 37 31 31 30 47 36 46 37 41 38 49 44 49 48 45 43 41 70 51 42 50 27 40 22 30 47 41 45 42 48 30 40 33 26 24 35 27 35 39 30 43 39 40 69 55 55 33 19 47 52 48 41 51 23 30 41 29 29 51 45 30 58 41 29 24 47 28 40 37 10 52 43 35 58 51 38 37 35 13 33 45 42 23 57 48 43 49 18 37 32 32 43 43 36 47 45 40 32 34 10 42 65 49 52 44 61 41 36 24 38 22 21 26 59 48 26 43 53 37 19 37 36 16 31 37 28 44 33 33 43 49 45 49 29 20 25 47 31 34 39 37 41 42 23 28 48 43 20 33 37 41 49 40 33 44 31 26 48 20 21 40 37 51 26 62 27 22 24 52 27 40 27 39 26 33 27 38 40 35 40 23 58 33 54 33 40 21 33 43 51 44 34 37 41 58 16 45 30 33 30 38 48 29 40 39 40 43 59 38 38 45 25 41 37 43 53 41 47 48 54 45 51 35 39 24 44 16 43 41 32 45 42 19 20 39 36 16 51 31 36 52 28 51 40 28 27 27 57 36 42 62 36 33 44 37 46 45 44 38 25 40 42 43 63 44 57 31 29 45 27 30 33 40 29 36 43 38 22 33 50 26 35 33 55 43 47 30 28 44 41 44 43 29 23 45 23 49 40 35 58 33 45 34 37 40 37 41 45 65 25 48 24 40 30 33 30 51 41 30 48 40 41 29 33 61 26 34 37 46 36 27 40 23 45 37 23 38 44 44 56 34 39 19 23 33 61 54 44 49 20 34 55 47 44 32 48 38 37 47 25 27 46 37 61 54 27 43 44 29 17 37 16 31 73 47 44 33 34 35 45 53 39 47 53 38 30 26 32 19 34 54 50 40 30 49 29 34 61 37 43 27 44 51 35 40 45 23 24 37 33 41 50 44 25 41 40 34 43 30 12 19 51 50 43 27 44 22 33 26 48 48 43 33 54 31 48 60 46 33 42 16 44 53 37 26 54 43 50 38 36 39 39 25 39 57 25 27 26 40 28 50 40 22 46 42 37 33 20 27 58 33 39 37 39 52 38 62 42 37 23 47 47 37 51 38 35 25 42 30 48 61 36 46 31 35 15 20 20 44 27 30 39 41 55 40 37 43 34 43 43 43 45 45 47 38 38 30 46 33 42 36 47 46 40 38 33 31 31 39 42 38 36 33 56 22 34 34 29 34 41 41 36 43 40 38 52 23 40 33 23 34 16 55 33 42 34 50 31 48 31 26 35 43 43 21 23 58 29 26 37 43 44 30 31 33 34 41 35 36 45 46 40 54 41 28 36 31 23 53 29 35 43 34 51 37 33 37 37 29 46 50 28 23 41 26 16 33 58 50 58 29 51 29 35 38 38 55 33 55 27 41 35 40 37 46 40 55 48 43 57 52 51 54 50 17 58 33 31 45 39 44 46 52 36 39 40 45 40 23 35 28 41 52 29 51 45 65 53 38 16 51 42 43 37 43 51 45 31 59 45 47 40 20 19 45 14 44 44 13 30 46 37 43 36 50 52 26 44 46 23 44 33 47 31 49 37 33 46 35 21 32 44 28 37 46 33 40 34 16 31 49 59 56 20 45 30 51 35 37 28 45 22 58 34 39 25 39 43 45 43 23 51 48 35 41 22 48 42 44 34 37 26 37 31 57 54 19 48 24 34 37 37 44 30 53 60 38 35 36 33 56 43 24 39 34 47 25 46 52 41 18 41 30 39 36 43 31 32 23 43 44 26 35 44 55 47 23 41 30 57 44 24 30 16 44 25 36 29 27 39 32 22 33 47 15 50 33 37 25 36 39 26 33 49 29 61 56 30 29 33 38 18 38 31 39 26 31 38 38 45 31 29 36 43 44 51 21 42 46 62 34 34 58 46 36 37 42 28 46 39 35 54 28 47 44 39 59 39 24 29 38 26 31 31 45 56 28 57 30 31 44 61 41 29 50 41 31 29 65 37 39 25 40 27 36 39 31 45 36 38 50 45 17 30 60 44 31 41 44 31 48 48 29 54 41 36 26 32 40 51 47 47 55 35 19 57 30 34 30 30 39 19 51 37 30 34 31 33 36 41 49 29 58 30 33 48 58 37 41 54 27 30 55 36 45 40 62 30 46 33 23 33 33 43 43 16 53 50 40 56 27 37 31 33 32 41 32 44 55 37 37 42 37 50 19 38 45 62 40 48 36 37 40 34 37 47 26 41 37 59 23 31 40 30 40 30 57 44 37 42 36 32 29 23 52 16 50 40 20 37 40 33 47 44 26 52 54 47 34 44 39 35 40 42 32 20 56 23 46 40 49 40 23 48 72 54 41 39 36 35 29 38 45 51 41 23 29 47 30 52 20 40 26 42 27 37 44 44 44 30 44 26 45 49 31 49 36 35 34 24 41 13 57 47 46 49 31 33 20 31 49 31 32 29 47 37 44 41 35 46 37 34 28 30 45 49 48 55 65 45 43 31 31 49 41 57 37 54 44 40 44 39 42 42 30 47 41 26 28 41 19 37 39 22 42 43 59 32 37 43 65 43 44 26 37 41 37 22 41 63 43 38 57 42 30 45 23 41 34 38 45 34 29 39 31 38 27 47 33 22 41 40 23 31 42 27 36 33 41 19 34 43 55 43 44 37 45 30 29 36 34 43 27 34 37 55 24 52 31 35 54 27 44 42 52 31 37 49 30 19 41 26 30 40 40 58 27 22 54 45 29 29 51 32 20 37 31 44 27 15 29 37 42 48 55 30 54 22 32 28 34 38 53 55 49 44 41 38 20 43 36 23 34 36 62 40 48 37 49 54 38 39 32 37 37 41 42 31 20 31 29 37 30 42 26 26 37 34 27 26 45 55 32 37 39 48 23 37 44 34 38 25 43 32 31 37 36 29 27 58 58 29 10 44 49 40 58 19 66 29 56 66 43 51 26 30 41 33 37 36 37 27 45 29 22 42 41 31 23 53 46 25 38 40 55 47 23 52 38 57 40 34 36 23 29 26 42 41 42 28 40 37 27 45 23 36 51 6 40 44 40 57 33 40 36 45 40 38 39 25 56 41 23 27 38 41 37 38 27 33 30 44 52 36 38 55 37 40 38 47 47 30 27 37 45 49 37 19 48 53 39 29 26 37 22 43 50 45 41 63 50 45 23 49 42 38 26 21 59 41 54 34 47 44 43 38 26 43 30 61 33 30 30 34 29 33 44 37 29 45 43 34 40 52 51 48 27 38 44 25 29 23 37 47 33 25 44 39 15 28 29 58 35 45 45 31 40 52 32 46 44 31 33 34 30 40 29 45 52 16 54 41 44 51 40 55 53 38 27 30 16 30 59 34 31 43 31 58 33 47 47 54 54 37 34 31 52 38 46 31 78 52 28 39 36 55 43 40 38 51 30 48 32 40 51 38 46 33 43 69 50 35 24 52 64 50 37 23 45 44 52 27 37 37 47 34 27 33 45 40 41 45 36 24 26 20 29 35 38 62 47 44 27 27 47 16 37 32 37 48 65 27 41 26 23 40 30 30 33 33 27 48 51 32 51 44 43 37 69 40 27 36 55 40 37 48 32 45 37 43 45 43 29 26 49 41 27 31 24 31 44 31 24 44 47 36 34 46 24 46 31 38 33 27 27 27 32 34 54 43 53 45 38 20 37 55 54 47 62 31 32 17 33 56 65 38 53 48 33 56 29 31 35 26 34 24 61 34 41 37 34 47 36 31 40 43 44 30 51 23 52 41 47 32 16 23 51 30 36 43 33 33 26 39 43 51 43 44 41 36 25 29 44 46 47 19 32 33 33 23 48 33 26 45 19 43 23 41 31 39 40 48 37 42 38 43 36 45 47 41 40 31 49 37 40 39 33 31 50 37 53 34 34 44 57 65 41 37 33 38 36 37 40 45 48 41 50 44 20 33 41 34 23 15 30 39 48 51 29 30 30 40 33 34 43 36 23 20 35 27 48 44 33 31 28 29 49 34 34 26 44 37 50 31 33 52 57 29 42 15 71 51 17 45 43 46 43 51 36 38 39 55 43 51 34 38 29 43 23 29 27 51 41 20 55 36 29 40 58 52 50 26 50 26 48 33 20 34 23 51 33 43 33 38 44 41 45 31 29 32 41 34 37 43 27 26 33 33 47 45 43 36 51 31 52 41 33 46 27 20 48 57 45 43 37 40 40 30 36 27 45 44 35 33 51 20 29 54 42 22 56 30 33 37 23 40 35 29 16 40 22 30 31 45 37 36 38 30 27 41 30 39 66 37 68 47 19 36 42 45 43 32 26 37 60 48 29 57 33 31 37 41 30 30 37 42 42 47 23 23 26 43 44 27 29 37 30 29 50 34 45 27 30 45 41 53 34 39 34 30 26 16 46 32 34 33 65 38 17 38 45 46 31 23 53 42 45 30 33 34 41 46 22 38 36 27 23 51 45 31 48 36 45 58 37 41 51 45 32 48 22 50 36 43 41 20 40 16 35 57 35 40 32 44 27 34 18 47 22 37 41 36 41 37 41 43 26 34 46 40 41 26 51 47 31 37 34 23 32 41 55 39 56 34 46 38 27 29 50 33 37 44 46 43 31 40 29 51 26 20 40 26 27 40 38 36 37 46 39 45 64 44 39 61 29 44 39 40 29 29 37 35 52 54 40 35 36 38 40 26 24 44 33 13 62 41 51 29 51 25 63 28 44 15 30 38 30 37 45 44 39 26 37 26 51 39 44 37 27 37 42 43 44 43 42 47 35 41 39 33 45 26 44 29 39 52 48 33 51 37 23 26 30 40 40 25 30 26 19 23 30 34 50 45 29 23 54 37 37 59 50 30 30 40 50 31 51 19 33 41 51 40 44 27 41 54 44 37 29 16 43 27 40 44 46 36 40 26 48 16 34 52 41 16 35 45 40 50 21 40 34 22 44 34 27 51 49 49 43 51 43 55 45 41 34 37 51 42 13 27 34 47 32 22 44 40 42 33 31 41 48 30 42 34 41 45 43 32 47 48 40 44 10 51 34 33 37 37 53 24 15 34 63 51 44 23 36 43 37 34 25 16 45 36 52 58 33 38 39 49 29 45 27 38 27 36 29 35 36 15 48 30 14 44 23 24 36 37 23 37 30 36 34 43 47 52 47 41 49 22 63 23 34 37 60 34 45 32 23 38 51 36 37 56 57 26 33 24 35 22 51 30 41 19 51 37 26 22 45 42 44 33 36 33 22 44 37 48 33 28 40 35 35 49 35 46 23 35 30 45 30 36 41 16 52 33 33 40 23 43 31 41 37 30 57 53 22 20 29 45 36 33 39 24 40 60 47 50 40 54 37 49 36 29 34 24 34 43 34 43 24 27 51 36 34 41 34 35 23 45 41 58 43 40 37 37 48 43 47 29 20 54 30 19 44 44 26 53 28 56 41 55 36 27 44 37 32 41 52 27 32 34 30 52 35 51 51 23 29 41 34 43 40 55 19 22 51 50 23 41 53 52 39 45 59 33 31 33 33 48 33 37 29 38 29 50 52 26 24 51 37 29 17 37 39 30 38 46 38 39 26 55 29 26 29 50 46 37 34 26 52 30 70 36 44 28 47 46 38 40 48 37 37 49 41 34 37 33 30 26 50 27 32 42 29 51 50 30 36 55 41 19 31 49 53 44 24 54 24 41 30 29 44 16 45 15 23 38 43 34 51 30 37 33 40 24 40 41 23 37 37 44 66 42 23 38 25 22 36 23 46 32 69 51 37 47 42 50 36 29 37 37 26 26 60 38 44 32 33 41 30 39 27 44 30 51 27 34 36 26 26 50 38 40 48 49 19 35 39 41 37 48 40 33 47 31 44 37 39 40 30 40 34 40 36 47 42 33 43 43 55 60 37 30 37 55 51 48 49 55 34 44 37 46 37 30 41 30 45 55 47 21 45 24 48 33 37 30 23 29 34 40 30 26 26 40 19 36 37 55 44 27 19 47 47 16 44 10 27 31 37 35 43 27 49 45 44 47 57 27 27 25 32 46 43 46 44 48 45 27 36 41 46 31 38 48 30 55 27 23 39 37 48 40 32 36 39 29 44 37 40 49 33 29 34 27 47 31 59 23 41 44 37 33 43 44 27 34 51 30 37 39 32 26 46 38 44 26 44 43 37 43 52 33 51 35 43 41 31 46 50 35 41 22 38 62 19 41 37 37 48 36 37 35 33 38 35 30 34 40 41 39 40 29 47 54 47 34 53 47 37 40 25 32 41 27 47 41 39 34 20 31 37 34 38 30 40 19 58 19 33 23 43 35 40 23 43 27 39 54 27 30 37 26 27 29 43 62 47 27 30 19 26 48 45 43 41 31 36 33 51 45 27 33 30 40 40 40 37 31 59 26 33 32 42 28 36 46 48 32 52 43 29 37 34 52 37 39 58 40 30 34 36 37 43 49 19 18 22 33 38 37 48 43 38 36 47 45 31 52 40 9 47 45 29 26 41 58 50 38 48 42 32 41 42 28 37 44 37 35 30 45 43 33 33 41 43 45 42 27 58 48 53 37 19 59 17 38 44 36 24 65 32 47 40 29 66 37 37 30 61 33 28 35 43 24 47 37 58 33 28 50 47 33 27 44 32 39 45 30 22 38 24 27 35 44 53 29 37 23 43 26 46 22 37 25 33 33 22 46 41 26 30 44 37 52 42 33 28 33 36 37 45 50 43 38 24 51 47 41 41 52 36 44 34 55 20 40 40 35 43 38 55 19 35 44 45 57 26 44 49 49 37 37 28 37 51 51 51 48 51 34 48 38 38 32 39 38 33 65 34 27 36 69 28 40 38 37 33 59 26 51 37 54 56 43 26 13 50 33 36 22 34 29 26 29 36 45 37 41 33 39 36 43 22 36 34 44 30 47 45 34 37 10 42 40 48 24 50 48 36 37 26 39 32 38 42 38 51 47 33 39 19 37 44 27 51 33 33 12 29 44 51 39 44 31 37 28 43 55 41 31 26 33 53 51 32 41 36 48 57 39 30 34 41 26 45 59 51 20 43 20 37 20 36 46 57 44 31 31 45 41 37 31 48 39 36 32 45 27 30 36 42 29 27 56 41 44 33 30 40 65 38 38 34 37 42 27 36 37 30 31 24 29 59 19 26 30 40 35 27 44 37 40 17 37 47 40 40 64 46 36 30 39 19 49 40 26 46 37 37 20 23 40 58 50 44 45 34 35 52 54 44 44 45 16 55 24 24 27 29 47 26 33 31 41 40 32 49 61 33 49 33 46 26 31 39 29 37 40 25 41 49 41 39 44 28 34 27 42 23 24 26 48 41 34 43 60 37 36 40 25 30 59 38 26 25 44 40 40 36 23 45 50 33 49 28 26 51 51 47 43 20 34 24 34 55 41 43 26 41 43 47 30 41 52 17 58 41 54 39 51 59 68 40 37 47 27 51 19 46 40 44 53 30 23 31 37 58 43 66 33 34 46 41 38 48 49 37 45 49 34 45 27 30 59 31 46 42 50 51 41 34 38 27 39 37 23 38 21 34 51 26 31 36 44 54 49 26 33 29 55 36 77 45 43 45 47 59 40 47 59 37 16 10 43 30 41 43 49 21 45 41 37 30 24 33 23 46 37 36 35 45 37 24 37 46 29 37 40 45 33 36 26 30 31 52 31 21 35 48 32 31 17 27 59 23 45 34 33 33 31 41 26 20 30 33 34 42 44 39 36 46 27 37 54 43 44 28 9 37 41 23 43 51 48 33 59 24 43 34 34 16 35 37 34 37 27 30 29 47 48 27 27 45 66 26 32 61 50 41 57 28 53 41 23 45 33 55 35 30 36 30 35 28 37 37 39 36 29 27 37 42 46 53 38 41 42 39 29 26 37 46 44 36 37 22 26 41 48 42 38 40 34 47 63 40 19 32 29 23 41 33 44 38 53 45 44 38 43 37 29 39 48 37 48 40 34 29 24 45 49 44 54 40 49 40 13 40 45 44 31 67 40 31 49 24 23 20 52 37 40 40 48 63 33 53 32 24 65 26 59 50 29 37 40 36 34 37 37 40 41 24 55 53 56 25 13 25 37 20 47 37 33 41 45 21 47 33 37 37 41 34 17 41 29 38 45 55 43 26 31 30 28 36 37 37 34 47 44 40 38 29 22 37 40 38 33 40 20 30 35 51 30 33 34 37 30 19 26 48 37 37 46 33 45 40 23 27 37 42 27 36 57 34 22 32 36 43 29 44 23 34 31 41 36 48 44 33 43 42 57 27 40 26 54 65 20 50 23 45 37 34 29 25 43 48 50 43 54 51 30 40 30 40 41 37 33 12 37 43 46 45 47 40 37 28 26 56 51 23 33 27 33 40 37 45 29 33 50 35 43 37 43 54 54 44 38 25 40 51 23 30 31 44 27 54 38 26 22 43 13 40 40 29 50 26 56 52 40 45 33 33 34 42 51 33 43 34 34 15 48 23 56 28 30 19 33 31 48 44 30 40 62 43 19 24 29 43 46 49 27 29 50 43 25 33 30 51 39 59 29 35 37 50 54 55 51 31 36 51 39 36 29 49 58 26 35 48 41 37 48 57 37 34 46 43 43 55 34 47 36 43 45 43 49 27 26 42 41 33 36 51 43 51 33 32 44 51 27 31 26 24 33 29 44 41 45 36 26 45 46 27 15 24 22 37 35 57 61 20 33 22 41 47 41 39 30 27 30 22 44 28 24 30 36 46 51 34 36 37 37 39 43 31 28 40 44 53 34 48 33 34 27 23 19 29 45 44 30 37 29 40 36 45 36 40 30 44 26 30 32 40 38 47 38 53 39 48 35 30 41 37 29 42 41 38 38 32 31 24 44 23 31 25 40 38 26 56 33 31 40 47 33 27 40 31 51 32 23 34 28 47 25 64 25 38 49 37 48 31 44 31 51 37 37 40 29 35 34 33 23 49 49 60 34 41 24 35 41 51 29 36 33 45 46 29 44 45 34 46 40 37 46 26 37 35 30 29 35 54 30 39 24 24 36 16 28 40 29 36 41 51 37 43 41 30 38 45 37 38 17 19 36 24 47 30 41 45 26 34 54 38 36 37 30 42 48 37 33 23 48 47 30 52 48 52 40 27 27 45 36 26 30 36 27 43 28 34 37 22 27 36 19 20 25 51 23 33 27 46 38 30 37 13 24 55 31 57 48 40 51 44 27 54 32 17 44 45 20 51 56 31 39 23 19 48 45 48 48 55 31 12 30 53 26 48 32 58 43 19 40 69 20 33 44 47 24 25 31 22 30 27 52 42 36 54 39 26 21 58 41 34 30 52 37 51 48 16 35 57 33 37 60 45 27 56 44 39 30 72 31 46 58 46 47 23 25 28 34 39 26 37 31 40 13 40 34 51 26 44 41 32 41 30 22 48 58 25 33 13 33 20 31 43 39 47 36 34 50 51 30 37 38 35 36 23 24 73 41 47 31 28 34 52 31 33 26 25 15 58 49 38 35 33 36 45 47 26 52 21 52 48 19 63 43 31 43 37 27 52 54 47 45 49 40 40 29 54 41 25 29 48 36 16 33 38 26 25 44 48 41 30 43 36 49 34 35 29 38 40 47 36 33 31 30 33 44 40 46 33 44 34 37 33 53 42 19 48 30 46 41 34 42 42 27 44 45 47 31 19 34 44 30 37 41 41 27 42 38 23 37 60 29 51 27 33 47 40 31 44 46 38 44 29 40 24 33 22 50 39 33 48 34 26 45 51 43 32 40 37 33 57 20 37 30 43 30 29 54 40 43 39 51 44 32 36 29 19 56 30 46 37 30 26 55 23 42 37 33 19 43 27 26 34 28 33 29 43 44 44 30 30 16 48 27 51 37 38 36 43 36 32 35 38 34 43 39 56 44 59 16 44 51 30 29 48 44 37 30 53 49 37 41 24 49 35 48 65 17 38 37 51 32 57 31 26 36 58 59 26 45 46 23 36 34 33 39 30 41 47 48 60 37 38 42 32 41 40 37 29 44 37 31 43 43 33 27 30 30 29 33 18 39 48 31 43 43 55 31 44 30 33 33 38 44 32 47 37 42 40 30 27 22 48 36 46 51 44 18 38 24 31 49 32 28 26 32 33 26 37 25 44 37 54 48 41 20 34 31 57 54 40 42 32 54 42 41 35 68 32 40 30 37 40 23 52 40 37 41 32 34 37 34 56 26 15 41 44 34 42 6 57 41 37 28 36 43 46 23 37 40 24 29 31 40 28 47 51 40 44 34 40 37 41 30 44 30 36 55 74 40 37 54 28 57 45 37 49 33 32 20 20 23 56 48 40 26 30 36 50 23 48 47 46 33 29 33 31 52 38 43 59 59 32 40 46 22 30 68 54 33 27 41 40 44 26 12 32 38 30 50 43 16 48 37 37 40 40 52 37 39 27 57 32 34 35 51 32 41 25 33 45 48 33 33 27 30 37 40 44 41 37 16 29 50 33 36 31 53 32 51 22 37 51 40 41 44 59 37 33 33 23 52 28 42 13 31 51 30 36 35 13 34 41 34 27 49 45 37 30 29 47 61 30 37 23 45 50 43 38 45 36 37 34 37 49 30 69 37 46 34 26 45 32 40 28 48 39 20 23 54 37 40 30 36 43 25 45 25 49 46 43 51 20 44 20 42 42 41 30 43 27 44 43 39 42 26 16 46 19 30 30 25 52 37 44 40 26 38 42 52 35 24 47 40 33 56 37 40 46 33 48 37 55 31 40 43 51 49 31 59 47 53 30 35 43 35 40 26 41 27 38 45 33 37 39 60 37 36 37 35 35 31 30 31 23 23 41 39</t>
+    <t>JSB(-17.17991058262855, 18.688455407094388, -821.3601410224167, 1148.0915438072302)</t>
+  </si>
+  <si>
+    <t>28 4 5 -10 1 10 -14 3 -8 -9 4 -1 -26 -3 3 3 -32 -3 13 -32 19 -10 10 6 -27 -11 -15 -4 4 14 -25 -3 -3 8 -7 4 -12 -7 -19 -11 13 -18 24 -3 -3 -22 -5 12 2 -4 -3 10 1 3 -5 -5 3 -11 -14 -13 -25 13 10 -7 -9 -16 2 6 3 -21 -3 -9 -25 -7 10 -27 6 10 6 -9 5 10 -17 4 2 -23 -21 -6 -20 -4 3 7 -14 6 -17 -41 -14 -35 -1 2 -2 11 -20 6 10 6 -3 -8 -3 -1 -7 21 4 -8 -3 9 -21 -6 -23 -14 -5 17 -17 7 -1 3 -14 1 7 -6 10 -3 3 -7 3 15 8 -3 3 -25 -20 18 17 -11 3 -19 -7 -9 22 14 3 -4 -14 8 2 -7 -13 -3 -4 3 4 7 -13 -38 -33 3 7 -15 28 -8 13 24 -10 -5 18 17 -3 -6 27 -1 -26 2 -21 -17 14 -31 7 -4 -3 8 21 7 9 2 -7 21 1 -3 -1 -4 17 12 -4 13 -18 7 8 0 -13 5 14 7 2 14 4 -27 -19 -12 -3 -3 -6 3 14 -29 1 15 -19 10 14 3 -11 0 -3 3 3 26 -6 20 10 -3 -3 3 17 -19 -5 17 -10 -3 -17 16 17 -10 -24 -11 -4 -12 -8 -20 -1 -7 4 -6 22 21 6 -3 10 -19 -5 -3 1 3 1 -7 24 -14 33 20 -9 -3 14 4 -3 24 3 2 -7 -7 4 -1 -3 7 10 3 -16 -15 -5 -19 -14 -21 17 -10 3 8 -11 -6 -27 26 3 21 -6 1 -15 3 10 -11 -3 5 -13 3 14 3 24 -14 -6 -10 -7 5 2 -3 13 14 10 -17 -5 10 -22 -35 9 15 -13 7 4 6 3 0 -7 -9 -20 4 -3 6 -4 3 -7 -26 0 15 3 17 5 11 -31 -1 -9 -3 3 7 28 -4 -6 -7 15 1 -8 -3 21 -7 9 -17 -24 -23 27 5 -18 -13 7 7 -18 -3 -34 7 34 8 -20 1 -6 -11 3 -1 -8 12 -7 5 -19 3 3 -1 -3 2 7 -2 16 1 -10 -2 -15 -16 -17 3 3 -31 -18 6 -10 -8 -3 31 -8 38 7 4 2 -10 -15 -13 -8 6 -12 -11 -14 22 -3 11 -2 6 -16 -3 -14 -3 14 -3 -3 14 -7 1 11 -21 2 -9 5 13 -6 -34 -17 -11 -1 -7 -20 -17 17 13 21 -1 4 4 -13 17 3 4 -17 14 -11 -3 -9 -7 -5 -4 -4 3 17 5 7 7 8 -6 5 -3 10 -19 11 10 8 19 -2 -11 -4 -17 -14 6 -24 4 -7 6 -3 19 24 -20 -11 7 -3 24 -2 3 7 11 2 -11 15 -4 6 17 19 3 8 6 -3 11 -6 6 -5 3 7 5 -14 -6 -18 -3 -7 -14 -18 -2 -1 9 17 -10 10 6 5 16 -2 8 10 19 -7 8 -3 -13 5 -4 -12 -36 20 -6 10 -24 -3 4 4 0 12 4 -7 9 -20 26 3 -19 -17 -16 -4 -2 3 0 -15 1 21 5 -14 16 2 13 -7 1 -21 13 16 -24 4 2 3 -14 11 5 -4 0 7 20 -7 3 12 -25 -4 10 -21 5 21 -8 -3 8 -22 -6 -10 7 13 7 4 18 -14 6 -13 2 -21 -21 -2 -1 -10 -7 21 20 18 6 22 21 24 3 -24 4 7 -25 9 7 -13 -3 4 -8 -4 12 -7 -26 14 20 -9 18 20 8 -13 -3 21 -1 13 -1 4 -11 2 10 -24 -2 3 -12 -10 6 18 -13 -4 21 -18 4 -16 -7 -9 -18 19 -11 -11 10 1 -15 27 15 4 -13 4 6 -3 8 -8 3 32 -13 9 -14 -4 4 -3 5 11 22 7 11 -3 -7 37 3 -6 -13 3 -2 -7 -20 -10 -2 -15 5 4 -25 -13 -17 10 -19 -10 3 13 -17 -7 1 14 -1 13 14 25 18 -12 -1 3 11 -5 9 -17 32 8 -11 -25 -16 3 3 7 3 3 14 3 8 -4 -10 9 -13 7 -27 -9 1 -41 -13 -12 -14 22 -7 -4 -8 5 4 3 3 7 -13 3 10 6 -10 7 10 14 -7 -27 -13 18 3 17 1 -11 -10 17 17 6 11 8 1 19 14 1 -1 6 -7 18 7 -7 -25 10 -7 -10 -3 -3 -10 17 14 -14 6 4 14 -7 4 -25 17 -7 1 -6 -17 9 -1 14 7 -12 -14 14 -7 -28 28 -13 -20 -6 -23 -4 -27 -2 -20 13 -4 -4 11 -5 25 -9 -24 -1 -10 7 8 21 -17 3 -35 -2 -7 6 -3 6 -7 -17 15 11 8 -23 12 15 -3 25 -17 14 -21 3 7 -6 -3 -6 3 5 14 2 -16 -3 -3 -9 -6 -10 -3 2 -2 5 -9 1 10 1 3 -24 17 13 -13 -10 4 8 7 -26 -14 -11 -7 -6 11 -6 -24 -9 3 9 10 -2 -20 3 14 3 3 -4 -1 1 6 -9 10 -11 7 -5 8 10 -7 -6 15 -27 0 17 -3 -10 -7 -2 7 -20 7 4 -24 -6 2 -17 -24 4 -2 -7 4 -7 11 -3 -3 7 -5 17 17 29 5 7 -28 12 -10 7 6 -4 -18 -14 -20 25 3 13 4 -18 8 -10 -5 3 4 -3 3 -3 -1 -8 3 5 12 3 12 24 23 8 3 3 14 2 5 12 10 11 -1 -8 -21 -14 -3 17 3 7 -14 -13 -1 3 7 -14 -6 28 -1 3 -6 3 -3 -3 -24 21 -3 3 -17 2 -3 6 21 4 10 4 3 27 7 -23 -21 -3 4 -17 -3 -14 -8 -15 2 -4 5 3 1 -3 -14 9 -11 5 -2 -6 13 13 -3 -17 -17 19 14 5 -7 11 -1 -16 -21 -3 -3 11 15 -13 -27 -20 -19 7 3 35 -11 -3 -6 -20 6 -8 4 0 3 -5 -11 7 7 4 -6 -15 -4 -13 -17 3 20 0 4 -17 -12 7 -12 -23 29 -2 11 -3 9 -14 2 0 9 24 -7 -4 -12 -6 -23 -3 -9 -8 7 -23 -11 4 -16 11 -7 -11 3 3 -5 17 21 3 -3 14 10 -15 -27 -11 3 4 -7 -12 -7 3 10 -3 -3 -3 12 10 -10 -10 -15 -4 -6 -3 3 6 4 7 13 -18 3 27 7 -14 7 3 -27 3 -14 -9 3 1 3 -4 -3 6 -14 -11 -3 -23 -8 2 7 3 5 20 4 -12 20 20 -10 13 4 -6 3 4 -4 -7 -12 -1 6 11 -8 2 -28 8 8 11 20 -14 -8 21 7 1 -17 24 -13 -9 -2 0 -7 -15 14 4 -20 21 11 0 0 5 -20 3 1 7 14 -7 20 -7 7 -4 7 -32 -26 -24 1 3 -11 -12 -4 -4 3 4 14 -14 8 18 -11 -16 2 -2 -3 -12 -12 -11 -7 7 13 -6 3 -13 -6 -7 20 -1 24 -10 14 -3 4 2 26 8 -18 7 9 -4 17 -2 -18 -17 -18 -19 -16 7 3 -8 -22 13 3 -21 2 -18 -14 10 7 -10 4 -5 3 -10 -13 11 -17 -4 -7 -33 -5 -13 4 -27 10 6 18 -3 1 6 2 -3 9 1 -21 -28 10 11 -14 -17 13 6 18 -4 14 3 -13 -10 -18 5 6 28 17 -2 -11 -2 7 -13 -18 -20 15 3 7 -13 5 21 3 7 -17 -2 -6 2 -4 -17 -14 -15 8 -2 9 1 16 2 -6 8 7 -3 -16 14 13 7 20 -38 5 -2 -21 -4 18 -3 21 15 -11 7 -3 -4 -6 -14 8 -11 -27 -10 -15 6 12 -18 -3 3 10 18 17 11 -3 -5 -4 6 -10 -6 -4 6 -28 -4 1 6 -1 -5 10 -8 17 3 2 3 7 -9 -10 10 13 21 -7 -18 -19 -18 31 -28 3 -17 7 5 28 2 -7 6 5 -5 -18 -24 -1 15 11 -3 25 -14 -30 5 13 6 -3 8 -8 7 4 -18 5 17 3 19 4 8 -5 10 3 -6 12 -14 3 17 3 8 -8 -6 14 8 -28 10 5 -6 -4 -5 -9 5 -1 6 -13 6 16 -12 7 7 -7 -34 -6 7 2 -6 4 -1 -23 -19 7 -5 -14 28 3 -7 -6 -7 -3 3 -6 -8 6 11 -6 -7 -6 -7 3 -6 -16 -3 -3 -17 -13 -4 -4 -2 -24 3 14 2 -17 -3 3 -7 7 -14 3 -23 -4 10 24 14 -10 4 6 6 -18 -29 -1 18 -17 3 -14 -3 4 10 -23 -15 -14 -30 -3 -26 -17 14 -15 3 -5 -30 8 -1 31 -16 -24 29 2 6 13 -22 -6 -1 -3 8 -12 6 -8 -10 24 -17 -17 10 -3 -7 1 -14 13 -14 6 9 25 -9 -11 16 -5 -25 6 -11 8 8 2 9 -30 12 3 -8 -13 21 -7 -14 3 -6 -10 2 -10 14 -25 -10 3 -10 23 -10 3 3 16 -16 -8 3 -17 -18 9 -3 2 -7 5 -6 -3 15 10 -7 26 -6 -4 14 -8 17 -1 6 -6 6 -4 -8 -4 8 -4 4 -23 -14 12 2 -7 25 20 -3 -30 11 -14 -24 7 29 17 -13 -8 17 3 7 -10 2 4 3 -8 -21 10 14 -10 -5 5 -2 -7 -3 -25 -6 25 10 -7 -11 14 20 16 7 -13 -10 -27 17 17 -7 -10 11 9 0 -14 14 19 2 17 -4 10 14 3 11 -5 -12 -8 13 -3 26 4 -3 3 -10 3 -4 -12 -11 -19 2 -5 5 -13 21 14 12 9 -9 -22 -7 -10 -37 7 -3 -3 -16 -8 3 12 6 4 20 6 -4 7 21 24 -6 31 -2 3 24 4 -7 -9 8 -10 14 -28 -13 -1 2 7 -3 -3 11 14 14 7 3 -4 -6 3 14 8 -7 -10 -17 24 6 4 -6 -5 -17 3 4 14 29 10 -21 3 -7 3 17 10 -23 2 2 -1 3 21 4 4 6 -8 4 4 -10 -19 -11 8 -10 -3 -3 -8 -11 -14 32 -6 14 5 -13 3 -8 -6 1 20 -16 9 4 -23 -1 -3 -12 -15 -4 6 -20 -3 -7 18 7 -6 6 -6 13 3 6 8 10 -10 -28 10 8 -7 2 -20 -8 -13 7 -7 -10 2 7 1 -31 3 1 11 21 -4 1 -13 14 6 -27 14 5 15 -34 10 -3 -9 -20 2 3 -31 10 -31 -16 -4 9 -7 4 -3 -7 5 18 3 7 -23 13 -3 3 4 10 22 4 15 -12 -4 -3 -1 -16 -5 10 11 3 7 7 18 -20 -3 9 5 -1 6 -18 -3 27 -2 3 -3 6 3 -3 -17 -24 -7 -17 -4 19 16 -3 -3 -6 6 -11 -8 14 -20 -2 -14 -4 -3 17 4 -9 -14 -11 17 -14 6 0 -10 3 -3 -17 27 8 -12 20 -17 -4 -3 7 -7 -4 -4 -5 -15 -3 -14 -13 4 -6 14 3 -32 -3 0 -3 14 6 -26 -7 -2 32 3 -3 11 5 -3 -21 -9 -5 7 -2 14 -11 -15 3 -5 12 4 6 -7 11 13 30 -6 25 -6 3 4 5 -13 -3 -10 -2 11 13 10 -19 2 27 -5 -11 -21 -3 -8 4 -3 14 -14 7 21 7 -3 -7 -10 -4 7 7 -3 -3 -7 -17 17 12 -10 -8 -24 -2 9 3 -17 10 7 -11 14 -6 -10 -7 17 14 -4 -7 -3 -23 -16 -20 -1 -4 -18 14 6 12 13 34 7 -25 14 -5 -27 -3 1 -13 -9 -3 10 -3 3 -24 12 6 -7 3 2 -4 8 5 26 4 5 -3 9 4 -6 -13 -26 -19 17 -4 11 5 -10 -3 -13 3 -20 -17 -32 2 3 5 -11 3 6 -7 -21 -3 -3 -23 -14 14 25 4 2 31 11 -3 -34 12 -1 1 8 -14 -3 -1 -4 4 -18 17 18 -18 10 3 -12 7 -4 -10 13 -12 2 -3 3 -1 7 24 5 -28 -24 5 -1 -5 16 -4 22 4 17 -3 17 5 17 4 14 28 -3 -16 9 -12 10 -22 2 15 -4 2 21 11 -15 -13 -10 -7 -30 -10 10 7 -4 -1 -11 -15 6 -4 -17 6 9 3 9 -3 -3 -6 13 3 31 -19 1 -6 11 -2 -13 -20 10 7 -12 -6 7 -3 -8 -21 6 -3 -2 -21 27 13 10 17 3 -36 17 -14 7 4 16 -4 -2 24 3 17 -10 -13 2 4 6 -3 -4 11 -3 35 -13 4 16 -10 10 14 20 17 -7 -6 11 3 -9 -19 8 4 -30 -9 -17 -5 -10 18 24 -2 18 -11 4 -7 -16 -3 -15 -17 -8 -6 -25 -24 3 -21 7 2 -10 14 -12 -3 8 10 -12 4 -5 7 18 -4 -7 -16 -10 13 -5 5 -14 -4 -14 14 -10 -14 15 6 -5 -3 -4 -19 -29 11 7 -3 7 3 5 -4 -20 6 -6 8 10 3 -10 6 -6 12 -5 -11 -3 -1 3 20 -6 30 -7 4 12 12 11 -28 -10 -3 4 6 -5 -3 28 -2 3 13 24 -4 3 4 -10 9 -7 7 -14 14 5 14 -1 24 -3 11 -3 13 3 -16 -3 5 -7 26 -3 31 17 8 -2 5 -4 -29 -8 6 -31 -17 -7 -4 -4 -7 -6 20 -3 -21 18 -21 -16 -8 -30 -7 3 -1 4 -6 -37 2 -10 -10 -14 -4 41 -18 20 -5 27 8 3 14 -9 -13 17 14 -4 -14 3 10 -3 6 17 -11 -3 -3 3 6 29 -3 10 -3 -3 -7 -3 -9 -4 -7 -19 3 -8 -10 -4 28 -8 3 12 -21 -2 -7 31 3 23 -3 -3 3 4 28 -20 13 10 0 -3 -14 0 4 16 8 -2 9 -24 -6 14 -15 -7 -7 1 -2 1 -4 4 -1 -7 20 7 -14 -17 6 3 9 -10 3 15 1 -12 -19 3 -3 -3 23 -10 -19 7 8 4 -5 5 -3 4 -8 -4 11 -16 -17 5 -3 3 -14 9 10 -6 -10 4 -21 9 -27 7 -5 -3 9 -8 4 5 -3 -25 4 -28 -6 -12 -5 -3 -13 11 -10 5 2 -18 -1 4 13 -23 -3 15 -17 7 14 -3 -15 4 17 3 -2 -3 -20 2 -34 1 -2 7 -2 -3 -3 -17 6 -3 -1 -1 10 3 -34 1 -5 -7 10 5 -8 7 -6 -27 -4 -14 23 41 12 2 3 12 2 6 -14 -7 -7 3 3 17 -3 3 -7 -23 -6 -14 -14 6 -6 6 15 -17 3 -3 10 14 17 10 -3 -7 -3 10 -14 -21 -3 -11 -22 -6 -21 0 15 7 9 -3 19 9 10 13 21 9 -7 -8 -21 18 -10 10 14 -21 -21 2 -4 -30 13 6 -5 7 14 -4 5 -8 -16 3 -7 -6 6 6 -18 -20 6 -18 -21 6 -4 -5 6 10 -3 -10 -11 -6 -10 7 -14 -12 6 12 -1 19 -18 4 6 2 11 17 -1 1 -18 -21 -6 -3 3 10 -11 -10 -22 -6 6 -7 2 -13 8 -8 11 -28 -17 -4 3 23 -24 -6 -10 0 -24 20 25 -20 -17 -4 -4 -4 4 10 10 3 -4 0 7 -4 -24 -12 -17 3 -4 15 22 -11 4 -23 5 -11 -7 24 -8 8 9 6 -3 6 6 21 17 -11 3 13 -10 3 7 -12 4 -7 7 3 3 10 6 0 10 7 -6 -11 10 -17 -10 -8 -6 -10 7 16 -4 -1 -3 21 2 -6 -10 8 -3 -3 5 15 -3 -11 -3 11 10 6 15 15 3 18 -4 5 -6 6 7 -3 10 7 11 3 6 5 -17 3 8 4 -3 -7 13 3 -20 -24 -16 -27 3 7 1 -3 8 -31 3 -22 -7 -14 7 20 -26 -25 9 6 -6 12 12 -1 6 -17 -8 3 1 -2 10 -3 -8 -2 3 -2 -3 7 -3 -14 7 -9 -14 21 -7 4 18 4 24 25 7 17 -21 3 10 -6 -41 -17 3 9 -4 0 -2 -3 6 -3 -3 -7 -6 4 -8 2 -10 -14 -7 2 -5 -5 -12 5 -31 0 -14 -3 -21 -20 -11 42 11 -11 -8 -2 -4 14 8 3 -1 10 7 -7 2 -3 10 -7 3 5 -29 7 8 3 3 -3 -16 -8 -17 18 -17 -17 7 -6 3 17 4 3 -3 3 6 -20 -30 -23 -12 -15 -28 -7 3 -3 -17 4 3 6 4 14 -11 -6 -28 -14 15 -3 -26 -16 3 2 -38 22 8 3 8 8 8 -8 -22 2 4 -11 22 -28 -10 10 -8 -25 -1 2 -1 6 -11 7 -32 16 -7 7 3 14 7 -12 15 6 3 6 6 7 -1 10 -14 -6 -8 -14 -5 -6 -9 1 -8 10 5 3 -3 -2 12 -1 -5 5 -5 -18 4 9 14 13 17 -12 -4 17 -7 -7 -15 -9 3 -14 28 26 7 -6 -23 -22 24 -3 4 24 -7 14 12 -13 6 -1 -24 8 -11 7 8 -4 -8 3 4 7 -18 -18 -3 9 -3 -3 -6 3 -19 -14 16 6 -3 17 -25 -3 31 11 -4 -6 -11 20 -4 -2 -5 -5 -14 15 19 10 -17 -4 -3 -15 -9 -14 -18 -11 3 3 6 14 1 -14 -8 21 -7 8 2 -14 3 -14 -3 -3 13 3 22 -1 3 16 -14 3 3 -3 6 -5 -14 -13 4 8 -3 -15 7 -1 20 2 17 3 -10 6 17 -11 -7 -6 -28 -3 -2 -3 -27 12 22 0 7 -16 -6 6 8 -10 -17 -6 1 8 -11 -2 7 -7 9 10 11 11 -20 13 -17 6 7 -6 32 -26 -3 -21 -6 6 -3 -15 -3 -3 0 1 6 3 -4 -8 3 -22 -12 2 -3 -5 10 3 6 31 -15 6 24 -10 -3 10 12 3 7 5 -12 -8 -16 -1 13 6 3 -13 -5 -20 6 -2 -6 -4 -14 1 1 2 -4 -3 -11 3 3 1 -7 9 4 3 18 7 2 -2 11 -5 -17 -6 28 -2 -6 19 11 15 35 17 8 -5 -2 27 -2 6 5 -7 -7 -5 4 18 17 5 -1 5 -3 8 -41 3 13 -3 7 26 -4 -6 -3 3 21 3 14 -20 -3 4 -32 -28 5 -10 -2 3 -17 3 -3 -24 -3 10 -6 -24 9 3 3 -5 21 -3 -7 -10 3 -16 -11 -8 23 3 6 14 6 10 -9 -3 20 20 -3 -4 -11 -15 -13 3 -11 11 -3 -2 -4 -20 -2 3 3 -4 -8 -3 3 -6 -8 -5 -5 -23 -10 3 -25 17 10 -12 7 -4 -3 -12 -11 5 10 -14 0 -3 29 -3 1 -4 -3 6 2 14 26 3 -15 10 -7 13 6 16 3 -16 6 -3 -15 -17 33 8 -14 -5 -11 -4 12 7 3 -2 3 4 -3 -1 0 -14 3 -8 14 10 -10 8 -8 -17 10 -3 3 -14 4 19 -21 -18 19 -3 14 -1 -35 6 -6 -7 4 7 -13 3 30 14 3 14 7 15 -17 7 7 -8 13 18 -7 6 -8 -6 8 2 3 7 -3 3 7 14 -14 -3 9 -27 4 -7 -14 -12 -14 -10 19 1 9 9 -7 15 6 14 21 -2 6 22 4 -2 21 -15 6 7 -5 -20 7 -10 -10 -1 -7 -7 4 -22 4 -19 34 -3 20 3 -3 -1 -6 1 -2 -4 -9 23 -34 -17 12 -8 6 -3 -1 6 3 16 5 16 -17 25 12 3 -2 -3 -20 -7 -11 -3 13 18 7 3 7 -3 -6 -2 -16 -24 -3 27 -4 4 -3 -6 15 -2 -2 4 -10 -7 16 12 -18 -2 15 -4 26 -11 -16 -3 -7 8 28 17 -13 -3 -15 -24 1 10 -7 -13 -25 -24 21 7 2 -7 -19 -11 3 -3 -18 -7 -10 -3 4 -3 9 2 -10 -13 -3 -5 17 -10 -3 16 3 -11 -13 -41 -18 24 -17 -11 9 -5 -7 -4 -18 15 11 18 15 20 -19 -17 14 -20 13 -12 15 12 -6 -3 -6 -3 3 11 -22 3 -16 -7 -18 3 6 -14 3 24 -18 14 -17 1 -7 -11 7 7 -19 6 7 -7 3 5 17 17 -11 15 14 24 23 29 -10 -4 2 7 -4 -4 -9 -1 -21 -3 -3 -2 -16 -18 -6 -6 14 -3 -31 -11 -18 3 9 -23 17 -3 17 -3 -8 -2 -14 -16 -17 2 -1 -17 21 -5 10 3 -3 -7 7 -1 -7 -6 14 -6 -8 -6 -17 5 -10 -7 -12 27 -11 -7 -7 9 -4 7 22 7 6 7 -13 3 3 10 -9 3 -7 -3 -3 -5 16 7 -9 -14 1 -2 17 4 -1 11 2 7 -4 -15 6 -3 10 17 3 7 8 -3 11 -10 8 -12 0 21 -7 -20 5 -12 -5 22 -14 -3 -1 -14 -1 -17 -6 -4 9 17 -4 -20 -1 5 12 -44 4 -10 -10 -6 -15 -10 -14 -4 5 5 9 -27 8 -19 -14 4 8 -3 26 -7 -32 3 -2 -14 -11 -6 -1 5 -6 13 -15 -10 7 -20 -3 -3 10 -4 -1 -9 -9 6 8 -8 0 -4 -4 13 -21 8 3 -5 -3 -2 10 31 6 -4 -18 -21 -6 -7 3 3 -10 -7 -14 4 3 14 6 20 -3 -13 -6 -10 11 -3 3 0 10 3 18 8 10 6 -3 -18 -32 -7 10 7 -3 -7 4 4 -3 21 -15 3 6 -5 -16 -10 8 2 12 -2 -35 7 4 11 -10 1 -18 23 -16 -19 25 26 -14 7 -3 -15 1 -20 -3 2 8 -21 1 21 11 7 7 7 -8 -3 6 3 4 -7 10 -3 10 7 -5 19 -9 3 -15 -20 -24 10 17 9 -7 3 -10 -7 -2 -42 3 -14 -10 3 10 20 2 -6 -9 -3 5 6 3 8 7 3 5 -1 -9 1 16 7 11 -6 9 -5 4 1 -19 7 18 26 7 10 7 5 -18 -4 -4 11 15 -32 -27 -11 -9 -9 4 11 7 -23 -3 4 10 10 -6 -1 17 -9 3 -17 -3 11 -3 3 -10 3 -4 -7 -23 4 3 -3 17 3 3 -9 -8 -4 -4 -8 3 -25 -24 1 0 -10 -3 3 -15 -20 16 -2 10 -5 21 9 16 -32 3 7 18 10 -18 -10 4 7 5 0 -22 -2 5 -14 -12 3 -3 13 -6 -3 3 4 -12 7 -17 24 6 6 3 -4 6 19 -45 -5 -9 7 -27 -22 -3 4 4 18 7 2 -17 6 4 3 -16 3 -10 7 -6 11 10 -3 8 8 -2 4 8 12 -18 -3 3 7 -1 -13 -7 -25 -5 -11 18 0 -13 9 -6 3 -7 -3 0 -3 13 -3 14 -6 -14 -4 -6 11 4 -1 14 -6 0 7 -1 -8 -7 -15 -8 3 3 -10 -7 16 -6 -4 8 -24 7 -5 -8 6 -24 -3 -20 -5 3 -4 -3 -5 -3 5 6 -12 3 6 16 -7 -6 -12 1 9 13 -25 21 -17 -24 -26 10 0 -16 -5 12 -7 3 13 3 17 -21 -29 3 -8 -7 -13 -7 11 10 -30 -10 -11 6 -1 -10 -13 -7 3 0 -2 -10 -37 -21 -19 11 10 -4 13 -3 -5 13 -2 7 -17 4 10 -22 13 3 -17 14 30 3 -15 11 8 17 -13 3 3 3 -5 -10 12 5 -16 2 -4 -35 35 1 -17 4 6 -3 10 -3 20 6 3 -5 -6 3 6 3 11 3 4 8 -2 8 4 -14 15 -23 15 -2 -5 -3 -6 -31 16 3 6 -8 22 16 10 22 -5 10 17 3 9 -6 0 3 33 9 -3 -17 21 3 -17 28 2 6 -14 -10 -5 4 -2 -4 5 20 18 -16 -11 13 -3 -4 -7 0 6 6 6 -14 -4 3 -3 4 -8 14 -6 -2 -9 7 24 7 7 -14 6 -11 23 -4 3 3 9 27 -10 -26 -7 -3 -16 -15 15 7 -11 -6 6 2 11 -41 2 24 -37 -20 3 -17 -10 7 -12 13 7 -41 -11 -20 -11 -3 -5 -17 1 10 3 3 -17 1 -20 -7 6 -4 3 -8 -8 -13 2 -1 3 20 -19 -17 1 17 14 4 11 -10 -7 -11 6 -14 16 4 23 -1 -21 -2 -18 -5 -3 -10 3 -3 -21 11 15 38 3 27 6 -5 -23 2 -17 18 8 5 32 -6 17 -3 -2 13 4 -6 -4 3 -2 3 11 6 24 -14 3 5 10 17 16 -4 13 14 -6 14 -14 7 10 -3 4 -11 1 16 10 9 -20 -3 13 -6 4 6 21 3 1 -2 4 -23 7 -7 7 31 -3 -3 -14 -3 -4 -24 3 5 4 -17 -1 -16 -3 -4 27 14 4 20 -7 -29 8 -19 -26 7 -9 -19 -4 -3 5 -7 -19 8 10 -15 9 -21 -8 -14 -7 -17 18 -1 -17 -21 7 -17 -25 -6 14 -9 14 -2 -34 4 -24 -3 -19 -6 -18 -7 15 10 4 3 2 26 7 15 -12 18 -3 -10 -19 -13 11 3 1 -26 9 -6 -3 5 -7 -3 -3 -6 -24 -23 -9 -14 -3 2 -11 7 -3 -3 7 -12 11 3 4 4 -7 4 -18 -3 4 9 -14 4 19 13 14 -3 -18 4 7 10 -20 6 14 2 -20 30 1 -7 -4 17 -6 14 11 7 -3 -5 2 -7 -21 -27 15 -5 -7 14 -8 3 -5 -24 14 -15 3 -6 -13 4 35 -2 8 -7 -10 -13 -3 14 7 38 -21 -7 -3 3 -24 13 3 31 9 -3 -7 17 -3 -10 23 -7 -9 10 -13 11 -3 -7 -6 -5 -10 6 -4 -10 5 -6 -13 18 -10 4 6 5 -9 -5 -3 -10 -11 -3 -11 -3 -36 -21 -11 -11 14 19 18 14 -11 24 9 14 -15 -6 -20 15 5 -4 -13 -10 16 6 -14 -6 -4 6 3 5 2 7 -6 6 17 0 -17 11 -18 6 -11 -5 -3 -1 6 -17 -4 -14 3 14 2 -11 1 -4 17 -13 -3 3 -1 -3 -11 20 -6 9 -9 10 -10 10 -14 0 -7 -20 -4 -3 6 -4 16 -19 -18 -20 19 15 3 -7 -11 4 -4 -31 -6 -4 -2 8 -4 3 -10 9 -4 -11 18 -3 -3 8 -5 -4 15 -6 20 4 -4 -10 -4 6 4 21 3 4 -10 3 0 -7 -7 22 -4 -3 6 6 -4 -15 -7 25 -3 28 -1 -15 -25 14 -13 0 -2 -31 9 -3 -35 8 10 -14 -7 6 9 1 -8 -14 14 -8 -3 7 -12 28 3 -12 -5 -6 -8 9 3 -14 -7 24 -2 2 -18 -6 2 3 7 12 -7 10 -11 12 -17 -8 -1 10 -8 -6 9 -11 -4 -10 2 10 9 11 6 -15 -2 -11 -3 -4 -3 -7 4 -3 11 9 -11 3 -8 6 24 5 10 23 9 10 -18 -3 -13 -20 -24 -4 3 17 3 -10 -11 10 -7 -11 7 -1 -11 4 -14 15 6 0 -3 18 -18 -24 -12 5 3 -3 -2 -17 -17 6 -7 -24 -10 -1 -7 0 6 -1 5 -6 1 18 9 -2 -7 -3 10 7 6 -4 4 -5 4 -3 10 4 -15 14 -3 11 -20 -5 4 8 -10 -20 25 19 2 6 10 -11 -18 -7 4 7 11 -4 -3 6 -11 -3 3 -24 13 4 3 -4 -3 6 -11 15 -2 3 -6 3 11 12 15 2 -14 7 8 8 -7 26 21 7 3 -7 -17 -9 -1 -11 2 -11 13 3 7 -7 -27 -21 -7 4 12 -6 -4 9 -15 10 -34 -24 -2 -10 4 -3 -4 -12 -3 6 8 14 17 -10 -4 -6 0 3 10 -12 -19 21 3 3 5 10 -31 19 1 -7 -29 -13 14 21 -17 4 3 -4 8 -15 -1 2 11 -16 16 5 -2 5 -35 3 -10 -2 16 -14 -14 28 -2 16 20 -7 -37 13 15 -24 -3 6 10 -1 -4 16 -12 2 17 11 10 -18 -5 15 7 -3 28 -3 7 3 -8 -19 -17 -4 -35 -11 -18 -8 -1 8 5 2 0 17 -6 -8 -5 -10 10 -7 1 3 -3 7 21 7 -9 2 -3 -6 -15 -16 -20 17 7 6 -18 7 16 17 -6 7 17 -28 -15 -24 -13 -10 8 9 -3 -17 -24 -10 -7 -7 18 -6 3 8 6 -1 -7 -5 8 7 5 -3 -6 1 -13 -13 3 1 6 14 6 -21 -3 3 6 -2 3 -7 -8 -6 5 22 -21 10 -5 7 10 3 14 -14 1 -12 -1 10 29 -13 -4 -3 -5 -9 9 -7 17 -1 -7 -7 -4 6 -3 -5 12 14 7 -5 -2 -12 24 13 -5 20 -6 -3 0 -26 9 18 -14 26 -10 24 12 7 -8 -17 -8 -10 -7 4 -17 -2 -6 13 3 -13 22 -7 21 19 10 11 5 -7 3 15 3 -18 19 2 7 -14 -2 10 8 24 -4 -2 16 -17 -17 -4 1 -7 -3 3 -6 -4 3 -5 -8 1 16 20 2 -21 -6 -13 -22 -8 13 6 3 17 -14 23 4 14 14 -7 4 8 3 -3 6 -6 3 -7 -16 -4 24 -1 -8 15 -6 -6 25 17 -3 20 7 6 -4 4 3 4 -17 0 -14 -14 -9 -6 -3 -11 -16 -3 -29 -3 7 -10 -10 1 -4 11 12 -11 20 7 17 -10 -3 6 9 2 1 3 1 -6 -5 3 8 -6 -10 -3 8 -28 -13 -3 -3 -13 -20 -3 -17 37 -4 -5 -14 -2 -3 -7 8 -4 3 2 -11 -14 -6 12 1 -3 2 7 3 -6 -3 -9 -7 7 17 -24 4 4 -8 4 -5 -37 17 -23 -6 21 -29 -17 15 12 -10 -24 -18 -10 -2 -16 7 -13 -3 0 3 4 21 5 1 -3 -8 6 18 4 -18 -8 11 -3 -4 -6 -3 -4 16 13 0 -3 -8 6 6 -6 -7 -10 -17 -19 23 0 10 3 6 -10 -1 7 -7 -3 8 -30 -20 7 -6 10 17 14 -10 8 -1 3 -6 -5 -8 7 -17 -17 -3 -14 0 -6 7 -18 12 3 -1 -28 12 -21 -2 -4 -3 -8 -1 -14 3 -43 -3 1 -18 28 1 -11 -7 -14 13 9 -13 -7 -2 6 -12 -8 -2 -23 20 5 -11 -21 -3 -3 13 13 -4 -7 -17 -19 3 -16 -6 6 -1 -15 -3 26 15 -23 -1 -6 7 -7 -10 17 -8 3 -6 13 -3 6 17 13 -12 -3 -13 11 1 1 -5 -13 -4 22 7 -3 10 14 -5 17 -6 -12 3 -5 6 15 -14 -7 7 -4 4 -27 -17 20 2 8 -7 13 -14 -5 4 27 3 -16 0 -14 12 -2 -9 3 -3 -5 3 6 4 -13 -7 -19 3 -3 4 -7 3 -6 2 -14 2 23 -3 -9 -5 -1 -3 3 -10 -14 22 -31 -3 9 -10 20 -11 -4 7 -7 4 -3 3 3 3 -10 -24 -11 -3 -18 0 -3 15 17 3 12 2 6 -8 -6 -17 2 -7 9 -13 -3 -4 -8 -13 4 -10 -6 -14 -18 14 -12 -11 28 14 4 1 14 -4 10 -17 3 -11 7 -3 -6 18 -10 5 -3 7 11 13 3 7 7 6 -13 3 3 20 6 -2 4 4 -3 1 -4 4 -11 -24 -3 -11 3 8 27 -10 -22 9 -5 -3 4 17 -6 -18 2 -20 10 6 -1 6 -21 -2 23 3 9 6 1 17 2 -5 -23 11 -5 -10 -19 -21 -13 -9 -40 1 3 7 -10 10 2 23 8 8 -8 4 -6 -13 -4 -17 3 3 20 23 -17 9 -18 -3 11 1 -18 -7 1 -19 28 3 -16 -6 -3 3 -5 -24 14 3 21 5 6 -7 3 11 -8 12 14 -10 -17 3 3 -26 15 3 13 -2 -7 -4 -13 21 20 3 15 24 7 4 3 -25 -7 7 -13 -12 3 -18 22 3 -7 -8 10 -5 3 -3 9 3 -11 3 -7 18 -1 0 -7 -7 17 10 4 -3 6 3 11 3 10 17 14 3 -9 -17 -3 11 -20 -18 7 -8 -5 -3 4 10 9 -1 14 3 -9 -11 -1 -3 -2 7 6 -3 -7 -10 1 6 21 -10 -4 -7 5 -4 -7 -9 -12 -7 -8 -27 32 -9 -3 -7 -4 10 -16 -30 -7 10 -15 8 3 -11 2 3 7 -18 5 5 -25 -24 -11 -28 8 -36 20 -9 15 -16 -7 -3 -3 -1 -7 -7 3 13 3 2 0 7 13 1 7 -27 -3 3 -9 1 -15 14 4 23 -3 -12 -6 -3 -1 3 -6 21 23 -3 13 -5 -3 -4 2 21 6 7 5 8 -14 8 -10 18 -9 6 -23 16 21 6 7 -37 5 11 17 -11 -20 5 -11 3 -1 28 7 -10 -15 3 12 25 -16 9 -15 3 -5 -24 -19 4 6 15 -5 -8 -10 5 7 -14 -7 1 15 3 -14 -7 -14 -20 -7 -3 17 3 11 -3 6 -7 5 3 16 18 3 8 -10 -20 7 25 -6 5 -3 11 -3 -25 18 23 -6 14 -14 -3 -14 -1 3 7 14 -31 -9 6 18 10 2 -2 3 3 -10 15 16 -11 -3 -24 -9 -12 -15 -3 -14 20 -3 -11 24 -6 -3 -25 7 -11 4 -1 -7 24 4 1 7 3 7 -17 17 -3 -11 -6 14 -3 5 6 14 17 30 -3 5 3 -3 20 24 -2 24 4 -7 9 3 -18 -1 -3 7 -27 -3 -10 14 17 7 -3 8 -13 -18 -6 -14 1 10 -6 -6 -6 17 -8 -6 -27 3 -6 -3 -17 -3 12 -7 -12 -7 -3 6 -17 -10 28 -6 24 14 42 1 -20 26 18 -3 -24 -7 2 -7 13 -6 -7 -8 -14 -3 -5 0 -12 -3 -4 -4 3 -17 21 -4 -13 -2 8 -5 4 8 -15 -19 -11 -10 -11 6 -3 10 6 3 7 10 7 4 -7 -7 7 -5 -4 12 4 -16 6 13 -2 -27 -24 -6 25 3 -17 -14 -2 19 -5 -1 7 -17 31 2 -7 -1 -7 -2 15 3 -16 -24 11 17 -10 6 3 3 12 -25 1 4 -23 -24 -6 9 -12 17 -12 -1 1 7 7 -8 1 1 -4 -2 -4 -3 31 -7 -18 -3 -14 -23 6 -11 13 -6 -10 -7 7 -21 -11 11 6 4 -3 6 11 -10 17 -27 -17 10 -28 -11 -7 -6 -4 12 11 3 -1 -3 16 21 -3 -10 1 10 -17 3 1 7 25 -9 -27 -20 3 1 7 -4 7 4 17 13 7 7 13 -3 32 12 7 3 27 10 -12 8 8 -14 3 4 31 10 14 -5 14 1 6 -3 -10 -22 -17 3 -6 -23 -5 -5 -2 -8 9 6 -3 22 16 3 -2 -6 4 6 -28 -8 -10 10 -8 -10 10 -14 1 1 24 2 -23 20 9 -6 8 -20 -17 6 -16 -7 -3 -7 2 14 5 6 -6 -10 7 18 3 8 10 3 -3 25 -14 -11 6 -17 2 3 14 2 -7 16 -4 3 13 -32 -26 10 13 4 -3 14 -2 -3 11 15 -9 -17 -18 -10 -9 17 -8 -11 16 20 -10 0 16 13 9 -9 -9 -14 16 11 13 14 -10 -4 10 14 -2 18 -6 17 23 -12 24 6 24 4 4 -4 -11 -1 -7 2 22 20 -8 9 3 8 19 5 17 -14 7 11 3 8 -8 -12 8 3 7 11 3 6 -8 -18 -7 15 11 3 3 7 -13 -6 9 -3 1 -10 3 -4 -17 -23 19 -9 -3 -6 -6 -3 15 2 -7 -13 10 7 -17 -10 -3 -4 26 2 3 -10 16 6 3 4 0 5 6 -5 -1 3 1 -7 -12 2 3 -25 -19 34 -10 12 7 1 7 -10 4 -7 3 -14 11 0 -11 -4 7 3 4 -11 6 5 -7 22 3 -7 6 -5 12 -6 1 14 -8 -14 5 2 -4 6 -11 -3 11 3 38 -1 15 3 2 8 7 6 -21 9 -7 14 -3 -3 -4 -3 10 -1 18 -2 15 14 -7 11 -4 -11 7 7 5 -3 -23 -4 -7 -17 0 24 -20 -5 3 -9 3 -5 5 3 -5 -6 -20 -5 20 6 -20 10 2 -1 -11 21 -45 -20 -6 -7 -3 9 -1 -16 -11 -13 24 -5 -1 -21 -35 -3 5 8 3 6 -11 -11 -20 3 -4 3 24 -25 -13 -7 2 -16 13 3 7 -10 1 -25 7 5 -8 -10 -9 -3 10 -23 13 -3 2 -18 -10 -15 -6 -11 -2 -3 -15 -30 28 13 -6 -23 14 -22 13 -6 -16 -5 -7 -14 3 7 -4 11 -16 10 -11 14 -24 -4 -1 2 8 0 7 -3 4 -13 -10 -14 -5 -5 -4 21 -3 6 3 6 -20 -20 -8 -4 6 -8 -6 10 -5 -6 11 12 5 8 1 3 6 24 -17 -11 10 12 -6 4 -14 -20 -3 -18 -17 -10 -19 -3 9 7 -6 10 -9 -5 3 -4 -5 7 -9 -17 23 6 2 10 16 7 11 6 -1 -13 -6 -4 37 6 3 -4 3 7 -3 6 -39 -20 -3 18 12 -15 -10 6 -4 -17 26 -2 -14 32 3 9 -7 15 5 3 14 -21 -20 12 19 -17 4 9 -16 12 17 -25 -3 -7 -17 -20 19 13 -33 17 -17 13 -6 26 -15 3 -3 3 -2 -6 -4 26 18 -3 15 -5 17 16 14 6 11 -24 -6 -18 -2 13 13 12 -19 17 15 3 4 11 21 -18 7 16 -12 7 -9 15 8 8 21 3 -12 -1 -12 22 -2 -13 20 -17 -7 4 0 -24 -6 -18 12 6 -6 8 -19 -15 -3 -11 -12 10 -3 9 3 10 -14 7 -3 -3 -27 -17 -3 15 14 -7 6 10 -10 27 -3 -17 0 -6 -19 3 -7 -2 -13 -16 -25 14 -18 -1 -5 7 26 -3 7 16 6 -21 14 -11 12 -9 -3 9 6 5 15 -12 4 -7 -16 -10 6 -28 -3 7 -5 4 3 14 3 49 -3 7 7 -27 4 16 -3 7 -3 2 6 6 5 -20 -23 -18 14 -3 15 21 -17 -9 -17 21 -2 4 1 5 3 -15 10 -3 3 -8 8 -18 -8 -5 16 6 -3 -12 -5 10 3 27 -4 -17 -10 -12 10 0 -4 1 7 30 -6 -6 -7 -13 10 -23 -18 -12 10 15 -6 11 7 -14 7 -10 3 6 -10 6 -3 15 28 -1 2 3 5 -3 7 -3 -14 9 -18 -14 -24 -1 -14 12 -10 6 20 13 -15 -10 0 -13 16 20 5 3 -17 -17 4 28 -8 -3 -39 11 17 -14 -25 -4 -23 -8 8 -2 -7 -17 -8 -10 12 -6 -4 -4 -4 8 9 -17 -3 4 -15 -14 -13 1 -2 13 14 7 3 21 14 -17 3 -29 -18 14 4 7 8 -5 -6 -4 23 -17 -27 -17 -4 -7 -6 3 -7 7 -10 12 -13 3 17 4 -28 -10 -3 -11 3 7 -11 3 -6 -7 12 -21 5 -3 -19 11 3 -7 -3 -6 -24 -3 -21 3 11 21 -25 11 21 7 14 -15 -3 -2 -10 4 20 -7 -20 -3 14 -8 6 -6 -17 -19 10 12 7 14 12 11 -5 -5 8 -3 9 -3 -17 8 16 -14 14 24 3 -2 2 6 -7 -13 -9 6 -7 17 -3 -14 4 -7 29 7 -14 10 -13 6 10 -14 9 1 -17 -3 -18 -16 -11 11 9 -23 -18 22 -12 -3 4 -1 21 4 -14 -38 -10 -23 -8 -24 -3 3 -3 -20 3 -4 -18 5 -13 -17 7 17 2 27 -6 -3 -11 -5 -12 -4 16 18 -3 -9 -4 -10 -9 -10 7 -14 4 -10 14 -15 -3 -3 -6 3 4 -20 5 9 19 8 3 10 -13 9 -13 7 14 6 17 3 8 -3 -7 3 -10 11 17 -36 -30 -11 -3 3 -12 -12 7 -14 7 1 5 -11 -7 11 -15 13 11 11 8 3 -9 -24 25 -10 12 -3 9 -10 -3 -38 31 17 20 -16 -3 -23 -3 15 1 4 -13 -9 4 4 -10 -5 13 4 -11 4 14 -9 -3 10 -24 -3 -10 10 -14 -24 -20 2 3 -17 -19 3 10 -31 7 3 -2 -13 -7 -5 15 5 10 16 -25 -10 15 -10 -11 13 14 -27 22 2 4 -31 -10 -2 -9 -17 -10 -5 3 14 9 27 -18 -17 1 4 -28 10 11 -15 3 3 3 -5 -4 -17 24 -13 20 -13 -6 -5 -23 14 -14 3 -31 6 -11 20 11 -5 1 -10 -6 5 -14 -14 7 -18 -20 5 5 7 7 12 3 -7 -1 9 2 1 4 -7 1 -1 -42 2 19 -3 -10 14 -11 -7 3 -19 -7 1 -15 -3 -13 -17 4 -25 -10 -2 -35 12 11 -20 6 -5 -26 3 8 -10 17 5 27 -19 7 7 -5 -26 -2 -14 -2 -20 4 15 13 6 13 8 13 -22 -12 -7 -24 6 -13 7 5 14 -10 -13 6 -21 12 3 -12 3 -11 0 3 -3 -18 -26 -31 6 -7 10 7 18 -11 21 9 -4 3 -6 -7 0 15 -5 -4 -8 -14 -3 -7 23 -11 -3 -10 -5 -41 12 -5 1 -2 19 -10 14 -16 10 -21 -14 -2 10 7 -15 -11 -8 -4 4 10 -9 4 4 -8 8 -27 16 -4 5 3 13 -1 12 6 1 -3 -10 3 7 -8 18 7 -10 6 3 -11 -3 20 7 5 -6 -24 -2 6 11 18 3 -1 -3 7 4 -8 -5 17 -7 -3 -12 -6 -1 -22 -4 -3 -16 -10 -8 4 3 6 23 -10 34 -26 7 -3 -14 20 -6 -3 -9 -14 -6 -7 7 -1 -3 1 -16 4 -10 21 3 -8 4 -7 -6 7 -4 -3 -18 -10 5 10 5 -11 10 14 -16 -1 5 -3 -3 3 -4 5 0 -13 -10 -3 -7 29 12 -5 -6 14 7 -10 13 14 -17 18 -25 7 8 -11 27 20 -7 -15 14 3 -12 2 -12 -10 -11 3 17 -11 15 17 -3 18 -11 -12 -25 3 1 -2 -17 7 5 7 -9 -6 13 -3 14 10 5 9 13 3 -20 -17 6 2 -3 -4 16 12 -10 -8 2 -21 24 -3 -4 -6 -1 -3 18 7 -14 3 -5 -18 1 6 7 15 -4 1 24 -17 16 -8 -4 -7 -4 -22 -19 -6 -24 13 4 -10 -14 1 17 4 -10 -10 -7 -21 -4 14 9 -4 6 -6 -14 -17 13 -1 -3 3 -3 -14 8 -1 -5 2 -7 7 -17 -17 -4 1 -6 2 10 -14 6 19 9 -4 3 -10 11 -10 41 14 -3 7 6 -11 3 24 5 -18 3 -5 -3 3 -47 -6 2 -3 -27 11 1 -24 6 -3 20 3 14 9 -24 -17 6 -14 3 7 19 -13 -11 6 -3 -3 11 -12 -8 7 4 -14 -6 6 -7 -21 3 -6 -4 14 -3 -3 -11 -11 12 -13 7 -18 -4 -4 -7 -5 15 -12 3 3 -12 10 13 -1 13 -1 -6 -17 -6 11 7 14 -15 15 -10 13 17 21 9 -8 28 -3 -8 -20 -4 -14 -3 -6 -14 -30 -3 13 -28 -13 -18 -8 -4 -26 -1 -8 -2 -6 -3 -13 3 -5 -3 -4 -3 8 -5 -12 -3 6 17 8 -5 -11 3 10 3 3 -30 -14 -3 -8 -13 -6 -11 11 19 -22 7 18 -12 21 3 -8 13 -4 -8 -3 6 3 -3 17 -3 3 7 7 15 1 -13 10 -17 -14 3 -11 -14 -3 14 7 -7 -3 -9 8 11 31 21 3 6 8 -12 -8 -15 17 3 3 -1 -10 1 21 15 -18 11 6 -4 13 -7 -6 7 -14 -17 11 9 -10 -8 -2 -18 -10 -10 -5 -8 -6 -13 14 6 3 8 -4 -14 -11 18 -9 -17 3 -10 -16 14 -9 1 -17 3 -3 -4 -14 6 -3 6 11 3 -18 -6 -22 4 -13 -21 -17 -5 -32 -17 14 -1 16 -4 -24 -27 5 -3 -17 -30 18 3 8 4 3 -2 6 6 -7 4 -10 4 -19 7 -28 6 -8 19 14 2 12 6 -1 3 3 -16 -21 3 6 -11 3 -2 -13 3 -7 4 -3 -12 -14 -21 -3 13 23 5 -3 -12 22 -2 6 -4 15 25 -15 7 -10 -17 4 18 11 14 -1 11 3 -3 5 21 -7 -14 32 -17 4 -3 4 -1 14 -3 -17 -6 -7 -17 25 21 15 -22 17 11 7 11 11 3 13 5 4 -14 20 4 3 17 35 -14 -31 9 -14 9 -14 -14 -2 -18 -2 28 6 17 6 6 1 19 5 -3 -4 -2 -9 -6 -9 -14 -28 10 6 -4 -4 -7 9 -13 9 -6 3 -5 0 -8 -5 -15 3 -3 10 3 -31 21 -1 -5 -8 14 -6 3 3 -7 -31 -13 -19 10 -17 -10 -5 -3 18 -23 18 8 2 -7 3 -12 4 -18 -3 -7 -5 3 3 -14 -14 11 -4 1 4 -16 -11 -3 14 6 5 -10 4 3 -14 5 -13 -24 6 -18 9 12 -6 -3 14 6 21 -11 -3 7 24 -24 -20 9 3 -6 -9 2 4 6 -9 18 -1 -1 6 -2 -38 4 -2 -2 -14 -3 9 -13 -11 -2 3 13 4 5 -17 -21 -30 4 3 -1 -4 32 -13 9 -14 -3 28 -7 -13 14 -3 -1 14 -9 -3 2 8 -6 6 -3 3 30 -9 20 -24 6 8 -7 1 -3 7 12 12 -1 5 17 -13 -34 -6 10 7 14 13 27 -13 7 -15 -27 -3 6 5 -15 3 10 4 12 5 -6 15 -13 4 -22 11 -5 15 3 -4 -16 -11 4 -23 -21 12 7 9 16 4 -26 21 -11 2 21 -4 -13 -10 -13 -16 10 17 -6 -17 -7 13 -4 -1 -11 -5 -10 8 -2 -24 -7 -14 20 3 13 15 5 18 3 2 1 16 22 -18 3 -34 19 3 20 8 -1 7 -9 -18 -8 -1 21 -7 25 1 16 10 5 -2 -21 19 -28 14 10 -6 -9 -12 -6 -9 3 3 -3 13 -10 13 -13 -3 -3 -22 -4 -10 18 7 -7 24 21 24 16 -3 18 19 -3 19 6 -10 -6 -7 -3 -18 -41 -3 -10 3 -2 -29 -13 -18 -7 -2 -17 -8 -5 -1 10 6 -7 9 -20 2 -3 -2 18 -13 20 25 4 -11 -2 13 -6 10 -6 -6 3 -4 -7 -16 1 17 6 6 7 3 11 18 -1 -2 -7 -4 -8 -14 -6 -13 -2 -17 8 15 12 13 -24 3 -7 2 -11 -3 -3 6 3 -20 -17 17 -1 -11 -11 0 3 1 -32 -15 -15 -3 7 14 18 -12 -6 -5 3 -15 -14 -3 -21 9 -3 8 -19 -14 -9 -6 21 -3 -2 19 3 17 -6 14 3 -14 6 10 9 -10 16 -13 3 -2 8 4 31 -18 3 3 -3 17 -13 -5 7 7 1 3 -11 -2 -5 5 15 -1 3 -4 -7 -8 -4 -5 -5 -4 7 -3 -3 -7 3 -3 -4 -3 -23 11 5 -10 -32 -10 7 1 -10 -3 -8 13 -2 10 -1 -10 4 -15 1 37 -13 -22 4 14 10 13 11 3 -3 4 19 28 2 -13 8 14 -28 -28 15 3 -9 -11 -7 1 -10 -8 0 -8 16 20 -14 15 3 -17 10 10 -19 3 -12 6 -14 -14 3 28 15 10 1 -13 10 7 -31 11 16 21 -4 -8 -3 10 11 17 0 20 -17 18 -17 -4 14 -3 11 8 4 5 -13 -20 -13 -4 -5 -9 5 0 4 -24 4 -3 13 20 -8 1 -15 5 -4 -1 -10 -11 4 17 -20 -24 3 -5 -3 7 15 13 3 2 -3 -7 -13 -21 3 -31 1 1 -27 5 -1 -3 -12 -7 -29 -10 -13 7 -7 24 -20 -25 -10 -20 13 -19 7 16 -21 3 -17 -21 -15 -14 5 -13 -27 5 3 3 -3 11 6 5 1 7 -12 -3 13 -20 -18 -13 -26 4 -3 -10 3 -9 -4 -14 -12 3 24 -7 9 31 2 12 1 -4 -3 -24 -21 7 -31 7 -4 -2 -3 13 7 14 -6 17 -10 -3 2 -9 8 -8 2 -7 -2 17 -14 14 -7 -16 18 6 15 5 8 25 -7 -2 -10 10 20 -4 7 -14 1 -4 -20 5 -17 17 -4 7 2 -18 7 16 -6 -18 10 -5 7 -3 25 1 -6 6 4 -17 14 5 12 3 37 -27 3 -5 -8 25 -3 -4 -8 1 20 -16 10 -6 -3 -3 -3 11 -17 -10 24 -3 3 15 0 -10 20 2 4 -3 24 3 7 3 3 -8 4 3 13 21 -33 24 3 3 -10 5 -20 5 -9 7 10 -10 -28 -1 4 -7 21 -15 -3 -6 -4 -9 5 -13 2 -8 24 2 -10 -6 -4 6 19 1 -18 8 -1 16 20 3 17 1 -10 3 2 4 -24 -6 7 16 7 -9 14 13 2 9 -20 -12 8 16 3 -11 -4 7 5 -2 6 18 3 6 -24 -18 24 -3 -20 7 -13 8 8 -20 -7 -3 -23 14 -6 20 -7 17 -9 -4 3 12 3 -4 1 12 1 -13 4 11 -14 6 8 19 6 19 -39 -18 28 7 7 3 -3 2 -14 3 5 -4 -6 0 16 -7 -3 18 -21 10 -7 17 -4 11 7 -17 -26 -6 -4 -7 -16 -19 -14 1 10 -38 2 6 12 -10 7 7 7 -3 0 -2 7 13 13 11 -27 -5 14 -3 -7 18 6 24 -1 3 -15 -25 -24 -6 -2 -4 -12 14 4 3 2 3 1 12 -13 23 8 -10 23 -3 2 -24 -5 6 14 -17 -6 -7 5 3 -10 -7 21 -14 3 -24 -7 -3 -14 2 3 10 -4 15 -4 -3 5 0 12 -18 -13 -22 -5 -8 3 -6 -5 29 -7 30 -17 13 -17 14 -4 -4 -3 4 -4 -7 3 8 20 12 -6 -14 -17 -3 -13 11 -14 1 8 7 13 13 -3 7 -12 6 -1 11 10 -6 4 10 17 7 7 -14 6 -7 18 4 -3 15 -9 3 -1 -14 -3 3 -3 11 24 -4 26 3 -6 -3 -11 1 9 -8 18 7 17 24 25 17 3 3 7 29 7 -25 20 7 -11 3 24 21 -15 -6 -3 -13 -3 2 8 -4 -41 7 6 10 12 6 -7 -4 -10 4 -3 14 -9 -15 7 26 14 -10 -6 -7 -20 13 -8 -3 -1 20 17 4 0 -3 11 15 6 -37 -6 13 4 -15 -25 -23 -11 13 -14 -15 -2 -11 -13 4 -5 -3 3 -17 5 -12 -8 15 7 -15 0 -8 -14 -11 7 13 18 4 13 13 27 -27 8 4 -3 -17 -1 -10 0 -21 10 15 -11 -15 2 -12 -15 9 3 3 2 10 7 7 7 7 8 -23 -25 -3 6 -13 -15 2 8 4 18 2 -4 3 -10 14 7 9 28 14 20 7 3 -17 -6 5 -14 -3 13 20 7 3 7 -18 -35 3 -9 9 3 -19 -6 20 -9 -18 -9 -1 -7 3 -6 3 -4 7 7 13 -13 2 -18 -10 -3 -24 -1 24 -6 -5 4 -6 -3 0 20 14 -3 17 -3 18 14 7 -21 0 27 11 7 -6 -6 -28 3 -3 -29 -14 -6 7 -13 -8 27 -3 24 5 -14 -1 3 8 7 -7 6 3 -7 27 3 -2 -6 -4 4 -7 24 6 -3 8 -10 -14 14 7 14 -11 3 -7 -7 4 -15 7 8 3 3 0 19 -8 -14 24 -6 -3 3 -7 3 -3 -5 -3 -11 -26 -17 -10 -3 -16 17 13 -10 -17 2 -4 14 -12 -3 11 -10 6 -31 15 -3 11 -14 -6 3 -14 18 -3 21 -18 -15 -7 9 -15 -25 7 18 -7 7 -10 20 -2 20 10 13 21 -24 16 -3 -14 11 -5 -2 -7 14 -3 -4 4 -14 17 1 29 13 16 16 1 3 -1 -12 -6 -26 2 -14 -9 -31 -9 8 4 18 -7 -15 -17 -2 -7 12 -3 -8 5 14 28 -6 -18 8 -19 -7 -4 -3 14 -2 11 -3 4 3 -9 -2 -23 -4 -3 -14 -2 -15 17 -18 -20 4 19 -3 -2 -17 -7 28 1 19 -26 10 -3 -8 -4 14 11 -23 -21 6 7 14 21 -15 -10 -17 -20 0 -14 8 -11 4 6 21 -3 -3 10 -25 2 6 7 -4 9 3 4 -4 -3 -24 -23 7 14 6 -2 -2 -18 -6 -10 -14 21 -17 -6 -1 13 -14 6 24 -3 -16 7 -17 17 -6 -18 -3 11 20 -20 -3 8 5 -14 16 7 -6 7 -3 -17 1 -6 -17 4 13 -1 -6 3 18 -21 9 3 -14 2 -4 -1 18 5 -4 -4 -44 -15 17 13 5 -14 8 4 6 -27 -3 -7</t>
+  </si>
+  <si>
+    <t>JSB(1.8923015386818176, 4.123317872770299, -33.48466110213791, 183.97476027338195)</t>
+  </si>
+  <si>
+    <t>46 50 61 30 53 30 40 51 26 37 24 35 40 37 35 29 44 45 19 44 51 50 24 48 41 51 35 52 30 32 45 49 39 40 55 38 32 61 33 37 41 38 50 37 35 34 49 34 30 30 29 44 27 43 79 57 37 37 48 33 37 19 22 49 43 42 30 40 37 53 31 39 37 33 42 53 46 22 20 37 29 30 23 16 28 51 55 56 26 38 29 33 48 26 37 53 32 63 33 44 34 35 48 54 40 54 51 36 37 13 55 35 38 22 31 47 41 40 51 34 33 31 37 27 25 37 34 27 67 40 30 37 31 33 37 51 52 37 45 45 48 30 23 37 23 33 23 43 62 40 37 30 28 26 28 61 27 29 22 45 36 25 41 58 33 45 33 43 48 26 27 38 38 47 24 45 23 20 33 39 48 38 47 37 34 31 27 44 25 26 33 35 29 36 41 33 39 59 29 44 45 40 36 33 52 27 40 42 33 65 28 33 16 34 58 41 43 26 35 17 26 43 42 41 33 35 41 30 46 37 37 42 43 51 51 32 34 20 16 35 45 45 37 47 33 51 38 37 31 36 51 30 58 43 66 40 20 40 39 41 44 32 58 27 48 31 36 57 33 31 33 35 33 25 36 34 47 34 23 37 42 38 51 36 51 30 13 41 38 33 37 63 58 37 44 51 43 33 34 35 37 38 51 32 31 20 33 46 43 33 26 47 39 37 52 45 37 53 41 37 54 31 44 34 26 36 41 29 52 37 27 32 30 37 33 66 62 41 41 41 49 41 24 26 45 46 33 51 26 36 37 34 38 31 19 26 34 55 31 31 37 29 37 27 51 31 43 27 56 38 34 33 61 41 20 39 53 27 43 29 30 49 27 43 42 47 33 33 36 37 34 27 48 34 34 33 60 31 29 27 26 40 35 39 49 45 45 47 51 30 33 36 36 41 36 44 33 26 43 37 59 31 44 48 38 40 43 51 34 50 33 38 26 30 27 39 40 38 32 29 34 44 43 23 30 28 30 43 20 31 40 31 43 26 41 25 57 27 40 53 49 47 40 62 23 37 33 27 20 23 37 39 47 33 44 22 27 29 31 44 37 20 17 45 37 19 37 50 16 23 31 37 47 35 38 32 33 47 24 49 29 36 36 49 44 51 36 23 34 48 50 30 55 20 31 47 50 36 35 33 37 36 50 51 27 31 36 23 55 28 46 37 37 45 58 34 23 43 40 40 49 43 41 33 56 32 36 43 39 40 42 40 27 43 31 24 24 40 43 44 44 36 50 39 27 44 29 27 29 22 30 58 48 34 16 38 37 30 30 62 56 38 27 9 34 26 31 37 31 32 36 34 39 46 47 33 41 51 20 30 32 61 33 33 33 47 42 38 52 36 29 40 23 39 24 34 33 48 41 31 38 31 52 30 27 33 61 40 43 40 32 20 30 61 33 27 44 38 48 34 27 32 35 35 36 25 24 35 47 48 30 48 40 27 38 23 30 52 51 37 29 33 39 37 58 54 22 32 63 58 54 62 51 44 26 20 33 53 39 31 27 33 24 23 50 16 44 50 45 42 38 42 42 41 22 55 30 24 30 33 29 48 47 29 37 30 27 35 43 47 36 33 30 40 51 30 40 57 44 33 31 28 18 24 57 25 43 44 41 37 23 49 43 37 50 31 45 30 41 48 44 46 41 23 52 43 33 37 48 35 30 37 41 45 41 53 34 35 41 40 51 44 30 27 37 37 31 39 43 50 26 23 31 56 45 45 41 23 29 40 45 46 30 52 47 61 39 33 39 55 41 19 42 40 54 19 44 40 39 30 29 23 13 33 29 44 52 28 33 36 32 19 41 47 34 27 39 33 43 44 51 31 48 23 34 57 39 48 39 47 26 33 44 41 41 41 36 27 44 37 45 36 45 34 14 40 16 48 41 36 45 31 47 33 54 31 31 33 28 47 34 42 42 39 48 56 41 26 32 37 38 41 24 26 47 16 30 51 35 31 45 30 41 28 35 28 47 29 23 53 22 33 54 29 34 25 51 37 43 26 43 26 41 23 51 23 20 41 37 27 48 37 34 37 65 34 34 30 37 43 15 34 38 29 22 36 39 57 59 44 39 37 44 37 33 47 24 16 34 59 48 48 23 49 34 37 12 52 41 45 29 44 40 48 31 26 43 37 30 49 33 60 51 52 31 39 35 22 38 19 26 33 41 48 39 43 16 33 46 41 48 25 28 52 32 44 23 36 44 36 41 44 27 41 31 41 35 47 45 45 53 43 33 46 30 30 27 34 30 38 26 56 57 59 39 30 38 32 30 31 59 24 59 51 43 27 20 37 29 30 51 30 44 53 26 43 15 40 54 39 30 44 45 49 18 41 40 23 37 31 27 40 27 35 59 27 34 34 48 49 43 40 37 51 45 36 63 51 23 31 40 37 38 41 30 38 24 29 27 27 37 53 23 30 23 37 34 40 47 36 38 23 43 27 43 32 37 31 37 36 40 47 33 43 37 31 49 42 45 33 45 43 50 45 65 43 31 43 19 41 32 63 19 45 41 51 37 48 48 42 34 44 34 37 33 57 53 19 52 26 35 36 53 51 37 48 46 38 37 40 35 30 51 43 36 23 43 21 20 30 34 37 36 33 38 26 32 51 37 51 32 41 51 51 16 32 23 27 43 41 23 31 53 53 31 23 28 48 39 33 31 31 36 53 40 33 45 30 23 45 15 36 40 42 30 57 16 54 29 57 34 24 39 39 52 37 27 55 34 47 31 33 37 26 45 37 31 51 16 29 20 26 37 23 37 46 26 33 45 43 34 38 40 34 56 30 55 24 54 37 30 30 25 42 21 62 31 38 44 34 32 34 37 48 58 28 33 55 49 37 44 39 29 30 40 19 43 32 30 48 39 45 48 40 15 36 29 27 49 26 35 54 19 41 38 39 56 40 52 39 37 29 44 52 36 31 44 20 26 26 38 37 16 36 30 39 46 34 39 41 47 39 26 59 33 42 39 48 41 58 38 28 31 38 56 40 46 50 33 37 38 29 32 30 45 24 39 44 19 37 34 60 27 37 41 32 30 54 52 33 30 22 29 45 24 33 29 37 30 39 47 37 27 44 41 34 46 36 31 41 28 22 23 37 27 47 40 42 47 26 51 47 48 34 52 34 23 31 36 50 37 18 52 23 28 17 30 47 47 36 50 15 43 41 49 49 27 41 41 37 48 28 40 38 37 20 33 48 30 31 13 38 36 26 26 47 51 46 48 33 33 32 52 35 44 33 32 46 29 35 43 17 41 37 30 20 40 20 45 47 36 41 40 32 44 43 43 44 24 37 37 45 29 38 32 38 54 38 46 48 10 33 20 41 63 28 40 37 37 36 27 41 57 30 10 41 55 33 44 37 30 51 48 29 43 41 39 54 38 31 26 19 25 44 38 25 41 39 45 43 28 42 43 41 28 31 40 34 33 22 38 39 41 51 35 22 48 43 38 57 26 38 40 23 29 23 46 48 66 34 26 54 44 47 40 64 43 51 35 45 32 35 38 58 26 41 25 47 48 54 35 30 40 30 33 37 47 27 45 40 56 37 31 40 35 31 51 40 46 54 41 40 33 32 19 29 40 30 37 37 37 41 44 38 60 44 31 26 40 51 43 45 33 35 48 23 43 50 38 52 48 28 24 38 42 44 41 41 36 29 35 20 31 28 30 23 51 34 36 45 56 37 62 33 43 19 60 46 27 37 30 52 47 36 26 53 36 34 39 43 54 26 38 22 36 30 51 37 42 39 33 13 34 27 26 40 39 45 29 17 36 29 51 40 53 50 32 44 29 56 28 23 32 25 33 41 54 51 34 44 50 36 34 45 30 23 30 29 38 37 23 30 44 34 49 59 44 39 45 58 33 33 46 31 41 16 13 58 40 24 34 26 45 41 48 54 34 52 26 44 38 30 30 51 26 32 46 41 41 34 37 36 59 40 30 39 45 37 33 34 37 37 27 46 30 58 59 34 47 30 40 44 37 49 48 27 29 65 40 37 22 39 59 40 26 58 33 39 50 27 43 43 27 30 45 53 20 14 48 51 40 37 28 28 34 29 45 35 40 26 47 29 62 52 23 43 46 31 46 32 43 35 36 29 57 41 41 48 44 37 61 34 41 36 53 27 29 29 16 40 37 32 40 38 48 40 24 35 39 30 26 37 30 35 38 52 55 45 26 36 28 34 41 19 40 49 37 23 37 20 34 35 51 36 42 31 34 34 37 24 37 38 40 30 50 33 31 37 30 40 43 44 61 37 49 43 51 24 51 44 28 47 45 53 36 44 46 22 44 36 44 25 29 26 52 31 37 26 49 34 44 50 26 39 41 43 40 40 19 34 36 35 30 29 39 37 44 65 40 42 54 31 25 44 33 40 42 34 39 51 34 40 32 44 42 44 38 35 38 44 68 27 41 33 24 58 41 47 59 37 27 37 47 38 41 41 34 54 41 20 19 35 40 36 41 31 54 46 51 67 38 57 30 30 31 49 42 45 33 37 30 51 41 51 47 49 29 30 24 28 28 47 32 36 37 33 22 37 30 37 57 47 47 30 40 29 29 33 33 44 44 51 27 30 45 21 26 43 37 43 38 39 43 24 41 28 43 23 48 40 45 34 42 40 44 24 16 33 17 30 29 28 35 37 34 20 48 52 59 43 47 55 40 62 42 43 38 29 33 55 36 44 29 33 51 20 41 24 42 62 31 62 43 60 37 52 42 44 49 44 56 17 29 51 33 51 45 37 19 41 38 46 29 41 45 37 40 38 40 41 43 41 50 40 57 40 49 36 47 41 43 44 32 35 33 30 37 52 41 39 43 55 49 54 30 29 26 40 19 27 27 21 33 38 30 27 25 43 29 39 37 57 44 38 40 36 22 51 43 17 30 27 37 40 34 38 47 45 34 30 47 49 37 30 36 39 44 42 46 38 40 35 40 27 59 46 33 33 31 33 25 37 29 30 65 23 44 48 34 49 25 26 16 48 29 56 38 45 29 45 16 48 33 50 51 31 52 37 43 36 29 43 37 40 29 44 52 31 47 23 37 22 33 41 23 37 51 34 34 57 38 44 43 65 45 34 38 47 27 26 42 37 33 22 24 44 31 48 52 44 37 36 27 36 30 47 54 22 51 49 27 19 38 35 34 38 43 49 47 36 30 48 16 45 31 39 43 43 16 42 48 43 52 29 18 36 40 26 41 38 30 41 57 35 47 38 47 44 44 30 49 24 41 23 33 26 36 37 40 31 51 37 37 23 34 47 43 37 39 33 34 45 44 55 40 38 47 48 12 27 37 50 47 26 37 32 27 33 25 38 43 43 48 31 34 33 44 44 42 16 30 57 37 50 41 44 36 28 37 38 17 37 41 55 36 36 44 30 34 54 37 45 32 37 37 43 25 46 30 44 29 43 51 38 36 36 32 50 29 30 33 30 39 47 67 26 46 45 52 43 41 33 28 28 40 40 67 20 40 40 66 43 25 38 24 49 40 48 41 43 43 34 30 28 56 66 48 37 62 25 37 38 43 35 53 41 37 27 53 51 36 40 46 40 40 30 45 30 30 40 22 23 39 37 61 59 34 46 46 41 36 56 30 23 56 30 45 30 48 49 31 48 38 37 55 52 38 23 30 38 37 41 49 34 26 19 26 55 30 23 45 29 41 29 38 27 35 33 44 37 51 37 40 26 39 36 35 40 26 43 29 35 30 36 19 34 32 45 35 52 47 30 54 36 27 31 27 30 48 37 44 22 24 26 10 55 50 46 39 47 46 43 48 51 45 37 34 30 26 23 36 37 38 51 23 43 37 47 46 39 43 22 31 37 53 23 49 36 33 43 29 54 30 30 48 26 23 36 47 30 47 51 43 51 43 23 17 30 40 62 33 22 42 23 26 40 30 16 40 30 15 36 34 42 27 25 39 33 16 39 38 24 25 27 50 47 40 31 54 37 25 44 35 41 43 40 25 43 51 37 53 44 19 27 46 28 37 51 21 44 34 50 45 66 29 37 59 43 28 57 22 34 36 34 39 47 33 55 47 37 29 20 36 43 43 51 52 40 48 18 57 43 13 37 42 15 44 58 41 30 47 37 31 29 31 41 26 45 33 16 51 35 44 31 46 58 48 39 44 35 38 43 51 31 26 31 33 55 24 35 54 41 37 33 30 53 26 25 42 33 24 40 37 41 46 48 31 18 36 34 32 35 27 51 37 51 31 71 27 23 34 34 38 48 54 48 35 45 39 43 30 48 37 38 37 33 37 30 34 33 37 23 50 40 55 38 33 55 23 57 57 37 30 41 35 37 21 30 39 48 38 38 40 51 39 30 30 60 27 30 39 25 40 30 51 26 44 39 27 26 40 34 44 34 48 48 41 32 38 37 62 52 43 36 57 56 38 13 40 30 64 44 63 57 38 28 26 42 31 29 13 19 56 39 40 33 51 38 45 36 46 40 34 27 40 33 32 48 29 52 33 24 37 29 36 54 32 34 38 62 37 40 57 36 44 44 38 44 44 37 30 68 63 36 30 40 37 23 52 59 40 31 52 29 39 29 27 74 40 46 41 38 31 28 54 47 59 43 37 27 24 29 19 34 22 33 39 45 37 24 26 28 42 33 60 37 44 31 36 36 40 58 47 44 44 39 29 55 30 34 50 34 39 39 55 45 31 67 43 57 46 34 53 57 51 38 52 33 40 40 33 37 44 31 43 45 40 37 43 37 40 24 23 35 41 29 48 38 36 55 43 25 33 43 26 43 37 36 27 34 33 20 40 29 43 46 34 44 32 25 34 45 44 27 43 36 44 37 40 58 37 30 51 27 51 42 13 45 40 27 27 24 44 38 36 51 39 43 21 51 30 26 47 37 51 49 36 32 36 37 32 59 51 41 46 24 40 36 44 26 47 32 19 33 46 49 31 56 34 45 39 34 57 42 29 45 40 38 16 42 48 45 33 44 19 41 30 37 30 27 45 35 41 19 46 37 39 51 38 48 57 36 23 29 21 40 37 57 30 23 45 57 34 54 54 45 40 21 48 47 31 35 29 44 31 34 16 48 17 42 42 46 53 43 50 40 43 50 38 38 42 43 38 34 40 46 44 28 44 37 44 34 36 44 54 51 67 44 19 40 37 33 50 28 35 27 51 40 33 40 25 30 37 34 64 47 35 52 34 46 44 40 33 34 23 19 32 30 45 39 29 36 44 47 23 51 33 36 38 51 56 33 23 36 30 37 27 33 41 21 29 54 40 52 39 46 41 40 52 37 36 50 33 48 42 27 26 39 48 38 29 47 40 50 20 23 58 41 30 30 35 23 29 31 20 37 35 46 46 40 51 51 51 37 37 29 30 34 43 48 38 44 29 33 42 55 39 58 31 30 23 15 59 20 44 43 57 37 40 42 27 32 44 47 41 40 50 48 43 48 35 45 19 23 34 39 29 44 48 43 37 43 28 43 62 27 46 54 21 33 35 33 48 50 23 23 38 62 51 31 33 20 40 17 30 23 41 36 46 54 25 32 20 34 34 38 37 40 33 54 39 32 27 47 37 44 51 23 46 19 23 34 33 34 44 40 37 47 38 26 37 27 29 57 26 33 34 31 52 40 37 40 50 30 55 43 46 27 34 31 43 40 30 52 37 30 42 31 41 47 50 42 50 39 41 48 27 41 23 34 48 28 56 30 42 41 27 36 50 31 51 37 43 33 27 43 44 39 44 27 46 36 35 25 37 24 42 50 48 51 35 37 55 31 34 33 50 47 30 46 35 41 39 51 24 36 23 47 39 37 37 32 55 37 41 51 47 26 28 20 37 45 47 45 34 34 51 48 38 28 29 30 46 53 37 43 31 38 23 30 24 24 49 43 29 37 41 35 33 36 41 58 31 32 67 37 40 40 26 44 43 37 32 48 31 30 57 57 27 47 23 45 49 30 30 34 58 29 53 24 32 23 45 34 24 29 43 51 58 51 55 51 52 36 35 38 21 40 39 23 52 40 40 57 59 23 33 30 37 48 16 28 32 57 37 44 27 27 36 36 43 36 42 43 33 45 63 26 48 47 43 46 32 19 37 36 37 36 15 55 48 32 45 34 34 38 16 36 48 57 50 45 43 32 22 47 41 64 25 45 48 41 41 24 36 39 44 47 27 51 44 20 37 48 35 55 37 47 47 26 67 36 13 26 34 36 34 46 51 27 57 23 47 40 48 29 43 53 24 41 50 46 34 36 33 47 45 37 27 31 34 20 45 22 26 54 22 30 39 37 48 27 39 46 27 46 36 27 55 27 36 46 38 35 40 23 40 37 31 33 34 35 68 36 53 45 40 51 32 40 46 31 39 48 35 30 37 42 43 37 26 31 36 31 48 27 37 39 27 44 33 45 39 23 34 50 46 30 33 33 36 52 51 62 21 46 36 44 36 47 52 36 48 42 43 30 26 37 46 37 27 26 48 37 47 37 41 44 33 36 41 47 45 50 39 35 52 27 25 45 37 45 36 33 30 43 50 43 29 30 42 27 23 37 37 30 31 52 37 37 41 71 30 44 23 17 23 53 47 22 38 33 37 52 47 34 43 23 34 36 27 44 33 26 48 45 42 23 29 29 36 45 58 39 44 37 40 34 43 46 58 68 37 47 27 37 33 39 59 42 19 55 37 37 37 45 37 47 28 42 67 41 44 36 58 41 22 30 33 47 33 37 45 46 36 30 54 42 32 31 49 29 30 49 51 47 59 59 37 43 40 40 40 36 31 44 33 31 33 57 24 35 43 25 35 47 33 54 32 60 44 34 37 43 16 35 46 63 35 27 27 47 24 33 48 55 12 39 27 51 51 38 37 31 33 31 37 33 44 35 39 40 47 24 37 22 47 43 30 41 58 47 32 37 44 23 51 39 54 51 23 58 34 40 40 47 41 20 33 32 43 34 40 43 43 26 41 17 40 44 43 17 30 40 19 51 58 50 30 44 16 62 33 58 20 50 51 37 37 41 38 37 40 58 52 23 48 19 64 23 44 34 51 26 47 37 32 13 29 36 33 20 31 51 36 38 31 29 23 18 20 26 34 16 28 53 55 46 45 33 31 36 36 71 40 30 44 41 32 57 45 37 24 41 34 56 15 48 26 46 45 27 40 36 29 31 45 54 50 29 42 46 38 48 37 42 44 41 30 47 33 47 24 36 51 47 51 43 40 47 32 44 20 28 44 30 55 19 36 43 38 43 56 23 36 25 57 26 40 55 43 33 19 26 29 42 32 39 33 41 37 39 49 39 36 31 34 51 30 19 30 29 30 41 25 19 15 37 27 48 58 38 45 39 33 37 30 39 26 42 49 48 16 31 36 34 40 34 33 35 41 48 45 34 55 43 37 25 35 41 46 33 37 28 65 35 38 45 39 27 44 26 55 30 41 39 22 44 22 23 33 58 27 45 23 65 52 23 39 65 37 30 16 22 26 41 45 33 51 53 31 29 23 37 36 59 50 27 37 38 39 43 17 37 23 59 30 22 50 34 51 31 50 71 32 44 31 23 15 26 44 30 30 33 33 35 38 38 23 41 38 72 30 36 24 41 41 40 22 22 43 26 54 43 39 33 34 37 23 24 50 27 51 44 28 44 23 30 42 39 51 23 37 49 57 48 43 30 22 58 41 44 37 24 22 51 22 43 42 47 46 31 32 45 40 34 24 30 34 44 52 23 37 55 19 41 45 51 17 51 44 40 27 51 26 29 35 37 48 37 39 45 20 40 54 30 46 37 22 27 48 34 54 33 39 48 41 41 26 35 15 52 27 46 26 44 48 52 41 47 36 32 36 45 34 23 37 50 43 39 45 39 18 26 29 36 30 33 48 32 29 37 19 31 27 23 58 46 16 34 30 57 26 47 15 33 51 49 33 45 45 60 27 41 33 23 36 44 32 29 44 31 36 33 41 35 34 22 24 57 41 35 37 56 36 19 37 55 33 40 41 45 36 38 38 33 31 23 62 66 65 43 43 26 37 19 49 51 49 43 22 40 23 44 32 42 35 41 39 37 32 46 57 44 37 34 48 51 43 26 51 26 59 37 37 28 38 48 58 44 48 29 29 41 30 39 37 48 45 32 53 34 40 40 36 38 42 33 30 45 57 39 40 46 23 39 53 23 37 49 59 23 56 36 38 34 30 33 58 30 42 47 40 30 44 29 27 45 30 41 26 20 40 54 40 22 45 29 30 32 34 34 22 39 33 36 53 33 26 20 35 29 50 29 31 29 27 34 26 47 31 38 61 33 41 37 48 48 60 29 55 44 28 37 48 37 45 38 19 36 41 21 63 37 34 43 23 33 45 13 38 29 37 29 39 34 33 34 30 63 40 46 19 68 19 37 40 19 39 33 59 62 44 37 44 35 51 26 34 30 36 51 33 41 36 54 31 29 52 45 45 55 31 27 50 29 27 46 61 29 42 51 40 48 59 44 34 31 43 44 39 36 42 16 9 38 37 51 34 30 26 51 19 16 51 16 38 27 40 40 42 20 35 30 37 36 29 33 30 36 35 46 31 41 32 30 62 47 23 43 40 44 29 41 35 19 57 29 37 42 35 38 38 21 43 36 37 27 52 37 24 55 56 38 40 47 43 40 47 32 41 37 47 44 43 39 27 19 34 52 33 37 27 38 40 27 37 40 35 37 55 39 37 51 34 48 31 40 30 48 36 42 51 37 28 42 35 41 48 66 31 16 40 49 49 26 38 51 42 53 39 37 29 41 32 43 54 37 47 21 43 37 30 44 39 51 34 35 22 31 49 23 37 33 46 57 49 36 30 41 50 38 37 36 9 34 58 47 41 42 31 44 16 27 24 20 40 40 22 40 30 33 41 36 51 20 34 37 55 43 35 30 55 41 39 53 43 33 48 40 43 33 36 48 41 29 20 41 30 49 28 26 55 30 41 15 36 25 44 27 41 29 43 38 27 57 37 29 17 25 45 29 16 43 33 59 22 41 51 45 53 26 35 44 42 52 44 47 48 19 38 30 30 50 43 37 35 45 30 31 39 37 17 48 31 29 37 34 35 30 34 45 24 33 28 33 40 46 33 29 24 41 58 36 56 34 40 30 34 45 37 58 33 42 34 31 42 37 45 58 26 31 33 9 35 46 29 22 40 43 34 64 37 19 30 53 19 29 37 37 35 43 40 34 37 31 36 30 52 40 40 31 34 36 43 40 52 52 37 18 26 39 33 35 47 43 36 38 45 34 52 30 26 44 37 50 41 36 71 50 51 45 26 43 30 45 60 34 16 30 44 50 46 30 39 23 22 44 37 32 55 41 40 30 37 42 20 30 53 33 43 45 48 35 47 45 40 41 32 44 51 25 17 49 68 52 34 41 56 73 47 38 26 56 52 29 51 36 34 43 44 39 26 50 37 59 34 21 44 26 40 32 26 44 17 39 26 27 44 45 40 37 34 35 38 48 34 29 23 24 44 46 44 45 45 40 37 58 37 59 30 57 41 44 43 51 21 37 37 24 38 30 39 42 45 31 36 36 51 19 40 44 38 31 51 23 30 45 28 33 23 47 39 35 30 34 31 26 34 43 34 36 30 32 37 29 31 16 37 37 20 27 50 30 29 49 26 54 19 43 38 39 24 31 58 41 37 28 55 40 44 44 45 30 43 52 44 57 20 45 45 48 47 22 40 36 34 43 41 22 42 50 37 30 27 42 49 37 30 33 26 23 37 43 30 33 16 51 44 43 34 23 55 38 45 40 49 45 58 27 18 46 31 40 52 47 62 41 31 45 39 51 37 33 31 44 73 19 37 19 49 47 57 27 52 42 34 44 31 35 36 40 24 36 30 38 39 28 58 45 28 42 42 29 24 38 62 40 59 10 26 33 49 43 37 37 58 51 43 67 13 35 33 40 27 37 10 23 44 48 37 41 44 37 36 32 51 30 39 41 57 30 16 44 48 34 40 46 42 40 47 65 33 29 52 51 20 38 41 30 44 50 30 39 23 22 42 39 41 33 23 34 29 55 37 26 19 31 28 55 49 30 38 19 32 37 44 40 31 62 34 35 24 30 19 41 29 37 33 27 41 67 54 37 46 41 52 48 43 27 40 30 27 42 17 34 47 51 34 37 44 33 16 54 47 37 37 44 24 55 27 36 20 51 40 32 43 41 39 40 33 37 39 28 47 41 41 51 33 46 20 42 47 45 37 40 36 37 43 32 40 25 54 33 30 51 53 46 49 56 28 39 26 19 30 47 33 50 39 29 23 43 19 37 47 31 35 38 46 29 51 46 48 41 39 30 32 30 55 39 34 32 37 38 40 43 24 40 40 44 50 26 13 36 31 42 30 41 44 51 30 54 33 45 39 62 19 53 35 42 37 47 69 29 41 31 36 61 22 27 20 40 24 38 50 24 22 22 43 31 28 21 35 37 51 40 44 43 33 34 31 28 20 58 41 40 27 68 50 33 26 53 37 34 45 46 36 40 39 38 32 29 37 34 48 43 13 40 30 44 19 20 47 26 26 43 29 29 48 19 34 30 22 43 30 23 32 46 40 37 40 37 37 22 23 43 37 41 38 36 33 30 29 34 37 34 49 59 44 29 34 53 32 33 43 27 18 33 29 30 20 52 35 60 46 55 45 37 25 32 31 37 53 22 53 48 36 43 39 42 28 29 44 51 34 40 44 33 35 28 33 31 42 43 51 49 33 37 36 36 22 20 36 37 67 37 43 42 41 59 51 27 58 30 30 38 36 30 22 27 39 57 48 37 24 35 25 47 45 50 42 36 44 30 34 49 27 38 50 17 44 38 53 38 37 26 34 46 48 19 44 39 39 29 34 44 31 54 28 39 39 33 43 54 36 62 63 40 16 37 62 30 24 47 57 34 33 34 49 37 31 45 40 34 34 33 44 36 51 19 54 36 33 44 22 43 48 39 48 43 43 23 35 36 48 29 23 47 34 55 33 13 27 30 18 44 34 32 37 40 39 55 55 29 51 25 27 30 27 45 37 35 16 52 34 33 55 23 26 27 35 47 18 33 41 44 45 26 57 26 33 29 40 51 39 38 31 41 57 13 45 43 41 30 40 39 59 38 34 39 37 54 42 29 39 40 41 42 27 33 36 30 41 31 26 46 26 33 47 34 31 42 41 49 22 46 26 42 54 37 37 45 45 57 32 36 41 33 51 37 39 24 41 43 40 32 40 44 45 37 37 39 39 37 43 50 46 46 43 43 23 16 20 23 16 27 47 28 37 57 37 43 36 36 37 17 44 34 45 41 23 53 58 28 32 32 42 43 50 33 43 25 35 42 40 31 24 46 46 48 24 26 50 29 34 20 50 41 54 44 24 37 15 29 41 31 40 44 22 43 29 33 45 33 59 63 27 54 39 31 35 34 32 40 38 58 43 33 36 36 33 44 43 37 51 48 33 36 48 37 57 37 44 31 26 44 38 40 38 54 29 50 27 46 51 31 43 34 47 59 44 43 51 51 37 58 31 47 27 43 54 55 59 27 36 44 58 23 20 46 48 38 40 19 44 43 45 43 54 23 31 59 44 29 29 43 58 41 19 55 54 59 50 34 51 29 43 36 48 57 49 51 32 19 29 23 62 40 34 44 17 37 43 44 41 29 27 30 33 44 27 47 26 31 45 44 55 38 43 45 39 47 25 38 45 44 48 37 49 40 44 47 43 37 23 37 23 45 13 44 31 46 39 19 37 24 58 31 40 43 43 39 50 23 20 59 23 29 27 27 40 50 27 46 45 43 44 44 29 39 28 29 35 37 25 29 46 27 48 73 49 22 31 36 33 58 24 33 47 30 35 43 32 55 46 41 44 37 29 35 30 52 32 50 47 30 33 26 43 45 30 37 41 24 29 37 43 30 43 62 38 48 46 43 69 30 47 45 23 33 21 39 31 27 29 36 20 33 55 47 33 47 37 43 31 35 41 48 24 45 45 26 40 29 43 43 48 35 29 35 41 33 31 52 44 41 46 41 19 48 20 34 50 30 9 38 57 50 47 34 49 51 29 55 37 51 48 53 29 53 39 62 47 58 47 29 26 45 36 59 27 45 35 44 35 38 54 47 39 34 38 47 31 48 55 47 51 35 48 41 28 40 33 37 37 23 23 43 36 33 49 45 36 56 29 36 22 48 41 43 56 43 37 43 43 57 42 37 34 56 48 23 56 19 43 35 26 37 27 40 38 50 40 30 37 43 24 53 58 41 49 66 35 32 47 37 34 48 37 51 44 48 43 37 27 23 52 27 55 44 58 33 27 43 41 37 49 43 45 42 40 29 25 36 26 37 46 41 49 51 23 40 36 32 38 24 63 29 37 32 27 37 33 41 37 16 34 37 33 37 34 47 30 44 20 39 36 40 20 32 51 26 48 41 29 56 41 23 37 26 35 42 13 43 34 37 30 40 20 44 34 48 47 26 40 50 31 36 27 44 19 39 26 49 32 62 39 37 48 36 43 44 24 37 31 27 30 25 50 26 47 30 36 33 47 45 44 45 40 31 46 40 23 31 36 33 24 27 33 41 43 16 50 44 42 48 39 30 41 44 20 37 29 37 34 34 33 37 19 33 31 37 58 19 31 39 44 41 29 34 30 37 37 30 18 23 35 56 31 39 38 37 58 34 39 42 45 32 33 41 33 55 34 25 43 38 44 44 51 37 35 30 51 48 59 62 33 33 36 52 47 33 47 37 37 20 38 51 34 31 44 45 33 37 24 34 31 27 40 50 42 43 23 55 17 16 21 23 16 41 38 49 31 41 33 63 37 41 26 29 53 21 38 41 30 31 47 25 41 53 45 66 44 47 51 49 30 32 20 40 54 37 16 43 30 34 47 62 19 40 31 38 64 31 45 12 29 25 51 36 22 29 62 23 48 30 37 30 40 50 48 62 38 36 30 28 16 30 28 27 31 30 36 29 34 41 32 48 48 37 54 22 19 51 33 54 26 33 54 46 52 45 46 29 20 38 29 31 43 48 37 26 23 50 57 48 36 33 30 16 51 33 44 54 30 27 44 45 54 36 31 37 41 45 57 50 24 37 43 34 31 52 34 64 32 52 47 37 23 37 50 38 23 33 42 30 24 52 40 32 36 20 51 23 60 44 30 44 38 38 30 35 41 27 30 36 40 48 35 29 40 39 35 45 48 19 23 51 48 26 32 46 37 47 37 45 30 40 38 41 31 43 39 43 51 47 48 37 31 47 16 37 36 51 53 25 9 43 34 38 37 47 48 61 41 44 33 43 30 59 50 62 44 37 24 22 18 37 38 26 43 42 29 47 51 41 33 30 16 37 51 25 34 16 58 41 47 27 44 52 13 31 40 43 46 37 36 47 17 16 31 48 37 41 50 51 33 26 29 42 26 39 40 46 48 25 40 36 56 37 49 51 23 52 33 65 31 30 34 33 54 35 33 41 34 31 33 24 45 58 27 38 22 27 38 33 51 44 65 27 13 29 43 37 44 33 31 34 36 26 23 31 37 51 33 51 45 43 34 40 43 34 34 48 36 54 41 23 39 45 48 34 27 37 39 47 38 51 25 58 33 13 27 55 29 29 34 35 54 29 23 34 31 38 37 44 45 13 41 42 50 27 29 27 24 35 57 53 29 50 44 37 59 44 37 35 37 26 30 44 57 50 37 30 21 15 30 40 43 40 43 28 34 39 40 22 47 27 34 51 27 44 17 30 38 31 20 36 30 39 30 40 40 27 29 56 45 28 32 29 37 36 41 35 54 45 48 40 26 40 30 56 38 52 30 39 54 41 24 43 32 55 37 26 56 45 31 24 40 40 30 34 34 37 24 49 48 41 23 39 27 34 30 45 23 45 52 31 33 43 37 61 26 30 38 52 41 45 26 39 41 24 36 55 34 29 22 31 41 37 48 51 36 67 50 32 29 38 44 50 51 44 36 32 44 43 53 41 47 37 17 40 39 26 44 57 23 16 37 22 36 37 57 53 27 51 34 43 41 49 43 51 27 26 48 41 23 61 37 8 42 50 64 44 45 47 29 37 44 20 58 51 36 20 52 54 33 69 46 35 45 53 43 36 37 41 36 57 44 30 27 45 69 26 26 49 57 26 41 32 48 30 33 40 73 41 30 32 36 40 44 30 32 54 46 35 29 37 53 50 30 45 15 29 30 32 41 23 29 27 43 45 45 42 41 34 30 36 33 45 23 20 46 51 23 27 32 33 44 37 34 46 39 23 33 44 37 37 30 48 47 34 49 50 23 31 45 54 25 33 26 30 27 44 30 42 54 51 35 23 36 37 48 29 83 31 33 35 41 44 44 31 55 37 48 46 26 33 40 23 44 42 31 45 41 51 37 37 47 28 38 33 43 43 41 50 17 9 20 42 38 34 49 60 40 35 40 49 22 51 41 44 51 50 54 22 34 36 25 39 52 40 36 41 33 30 49 58 32 44 41 40 51 41 34 19 38 51 34 16 40 37 55 48 27 56 43 37 31 63 23 34 35 30 20 58 33 34 26 38 42 34 33 35 34 34 39 22 42 43 53 51 29 32 62 42 59 45 37 29 40 31 50 53 52 38 36 33 45 40 44 36 34 16 50 36 40 47 37 43 30 39 54 33 39 22 49 40 25 39 55 76 29 45 47 30 34 36 21 34 37 48 50 45 23 33 43 38 41 42 51 27 49 50 36 29 37 43 44 42 44 37 37 23 47 37 43 40 35 40 47 39 45 47 31 57 13 23 26 44 37 49 45 37 35 31 37 41 27 48 41 37 46 30 30 34 25 40 43 26 50 34 34 43 33 50 54 27 34 44 37 65 29 32 35 29 51 31 26 22 48 48 50 29 32 30 34 41 33 37 34 41 37 37 34 38 41 45 33 42 22 33 54 38 28 43 25 31 51 24 44 37 45 29 41 40 54 40 37 44 43 27 16 20 44 22 23 50 44 45 31 35 26 29 52 44 33 39 37 47 37 36 47 34 3 37 45 46 30 28 42 43 9 44 44 39 38 41 14 52 44 40 27 29 51 26 37 30 26 19 37 19 26 17 36 33 31 47 27 48 26 37 45 54 15 21 21 52 51 31 36 42 41 29 37 40 44 35 46 47 13 25 51 55 17 29 41 37 35 52 45 37 42 43 30 44 25 43 38 23 58 37 43 20 30 45 29 45 39 33 24 47 23 30 30 52 49 41 44 45 28 42 43 51 44 50 23 16 44 28 42 48 30 51 43 39 37 46 45 47 37 44 33 27 49 47 23 38 30 65 36 47 38 37 41 20 27 36 44 50 31 42 52 29 31 36 43 29 40 47 41 30 17 47 44 54 38 59 41 51 51 59 43 38 29 30 31 32 33 36 33 29 40 54 29 37 42 51 34 45 43 19 52 26 29 32 34 41 24 40 23 35 39 19 54 45 41 27 45 40 33 24 41 27 33 48 50 47 37 36 34 31 33 51 49 47 27 27 37 41 37 46 51 30 28 41 58 23 38 54 37 56 51 48 38 37 33 33 37 19 33 37 46 52 34 36 48 28 43 27 34 39 40 25 46 64 41 50 26 31 33 35 40 36 41 54 51 24 37 30 31 23 32 51 43 24 46 43 32 49 30 47 40 35 49 39 30 45 64 33 40 33 37 38 32 48 45 13 29 23 37 38 37 69 72 33 39 36 33 36 54 30 36 55 54 36 16 39 41 31 44 44 44 30 25 44 10 26 48 47 36 30 33 41 41 47 46 44 33 37 22 37 27 40 30 27 30 40 37 17 37 40 27 49 30 30 16 32 23 50 59 39 51 33 36 40 51 51 35 45 44 48 39 40 52 29 30 16 32 36 37 34 51 22 34 26 33 43 20 48 40 37 51 42 48 55 21 49 23 39 60 36 30 41 25 34 42 55 42 47 36 57 30 30 23 24 45 51 44 42 58 47 35 51 17 51 38 61 34 33 30 57 47 53 36 43 26 54 31 30 33 20 37 44 43 41 40 23 45 34 41 35 48 59 30 30 36 50 37 31 29 47 33 37 45 44 57 46 25 23 19 40 31 35 43 27 29 40 55 23 42 30 25 45 27 35 20 37 34 26 43 44 44 44 22 38 36 33 24 29 30 32 39 29 30 33 40 37 29 56 55 34 33 27 42 39 52 51 36 38 50 27 44 36 31 20 44 19 30 36 62 27 51 28 44 24 41 39 50 28 37 38 60 46 48 43 41 33 37 45 31 48 26 39 33 16 49 41 53 29 44 13 26 58 36 40 34 33 21 44 35 36 45 36 55 34 45 49 56 43 31 52 51 52 29 33 29 45 47 42 44 59 55 45 13 30 28 29 26 29 28 59 44 45 50 40 45 55 51 33 37 18 43 43 17 36 68 27 30 48 54 26 27 69 23 34 24 32 41 45 45 31 32 47 13 24 66 44 13 37 55 26 31 51 30 42 19 27 41 47 20 37 34 23 41 26 27 41 36 33 29 41 59 26 46 45 46 34 44 26 45 60 42 30 37 49 34 47 48 26 24 32 51 52 32 40 23 39 43 39 37 16 31 46 43 26 39 36 23 62 39 37 43 36 29 39 54 34 51 48 41 40 51 37 55 48 47 58 50 41 17 54 47 30 52 31 26 27 37 37 23 23 49 41 41 47 33 24 31 26 37 25 56 31 46 33 33 59 47 40 35 31 33 31 40 48 26 42 45 23 29 29 43 16 39 41 29 44 29 40 34 27 33 26 33 34 23 43 45 28 46 30 56 24 44 43 40 54 39 20 34 23 40 38 26 51 30 43 31 31 30 46 48 29 53 41 17 37 30 26 34 43 34 37 37 44 34 52 44 39 41 59 35 38 31 54 33 22 44 24 33 43 37 29 44 44 43 40 30 51 52 26 34 41 50 24 44 37 39 34 26 34 53 40 40 60 46 49 51 23 60 41 35 34 23 39 30 27 37 33 30 23 60 42 55 23 33 23 43 51 44 54 46 34 24 41 31 33 41 16 37 58 36 51 48 35 59 51 45 43 49 33 48 44 57 24 35 20 39 40 37 45 56 47 45 37 47 45 44 43 29 41 45 43 29 27 33 46 34 34 44 37 45 41 48 45 51 56 43 34 40 36 36 36 54 32 31 40 20 41 47 33 43 16 40 47 56 55 34 28 30 56 30 24 55 37 19 29 34 31 39 54 24 39 47 39 59 30 51 31 55 45 37 40 42 74 31 39 35 57 53 33 36 29 24 25 39 30 53 56 44 44 35 51 18 36 44 23 19 39 37 37 26 28 45 44 29 30 58 29 37 28 42 25 16 46 31 20 51 27 52 42 60 23 26 40 37 28 32 33 31 37 27 44 58 52 53 23 40 29 40 36 34 53 64 43 33 40 36 44 30 44 40 58 37 33 33 43 36 29 59 52 37 29 45 44 30 37 45 38 44 33 35 54 37 40 61 47 40 29 47 24 43 45 44 34 46 40 51 43 50 43 34 36 54 26 35 19 43 19 46 48 29 39 45 25 34 28 36 33 42 25 49 39 25 29 55 31 48 21 43 17 36 52 18 51 20 47 35 38 40 43 29 51 23 16 16 37 36 29 35 36 35 35 30 36 56 39 31 48 47 30 13 42 33 28 52 37 40 45 33 53 38 33 37 35 50 32 36 44 27 34 54 39 33 27 39 36 37 62 19 50 54 36 29 34 33 51 50 34 33 33 37 44 34 51 55 41 45 43 50 38 39 54 47 39 48 48 52 40 29 44 40 41 29 43 51 27 52 39 41 37 31 28 30 38 38 47 63 50 33 42 44 35 38 35 45 35 40 10 54 27 45 38 47 51 36 23 30 41 33 58 41 30 45 40 37 35 24 34 41 51 34 44 45 28 58 69 20 69 56 17 42 27 34 24 20 40 23 50 49 30 25 45 36 42 19 43 37 52 39 28 47 30 62 14 20 55 24 43 52 61 30 33 24 37 33 30 29 51 37 34 29 54 51 23 33 51 43 40 37 41 44 33 51 59 41 48 50 36 42 29 43 39 46 59 41 35 45 40 47 34 15 48 39 31 16 39 53 37 40 28 59 32 20 52 47 30 44 41 29 42 40 30 45 30 45 45 51 37 41 33 27 19 49 37 33 30 37 37 35 19 37 24 41 54 52 33 49 30 7 37 39 33 41 45 24 31 47 43 51 30 50 44 47 49 30 31 30 27 26 24 57 36 38 51 29 51 19 48 36 34 30 47 51 37 45 38 47 34 50 33 34 32 42 56 37 23 23 29 27 33 36 48 32 54 52 40 54 47 29 45 38 30 37 29 46 28 48 46 41 46 33 38 43 47 60 47 31 45 44 27 28 34 37 42 37 31 48 54 45 44 31 44 56 17 37 26 36 37 33 20 25 38 33 35 33 26 30 24 30 55 19 40 54 33 41 37 16 41 36 37 44 37 34 44 31 63 49 47 33 57 15 30 37 27 53 47 31 57 55 39 47 51 53 23 32 49 41 42 39 19 61 36 34 37 24 40 69 55 39 22 47 45 37 47 51 48 43 27 41 47 45 31 9 37 40 33 13 27 38 45 27 48 40 41 40 30 51 36 39 23 52 26 32 43 36 41 39 37 30 40 25 30 23 50 55 27 37 33 30 58 51 33 33 34 40 23 38 59 30 23 34 32 32 21 30 17 26 26 49 16 44 42 33 21 48 37 33 52 38 30 40 28 35 20 25 44 48 29 45 45 48 55 38 38 41 38 48 30 30 33 55 51 37 33 26 62 46 43 58 31 36 45 65 33 17 53 38 31 29 44 26 41 42 40 30 26 37 23 45 37 31 28 30 59 23 41 30 44 34 36 16 51 42 37 21 59 51 40 36 51 41 33 39 24 43 37 30 39 34 39 39 27 44 24 34 39 22 27 41 21 29 48 30 43 35 47 46 32 48 28 46 40 30 40 47 19 30 48 27 16 34 45 45 43 30 45 30 30 38 26 41 44 41 33 26 47 32 31 34 50 24 16 37 43 52 49 47 44 20 30 31 20 44 44 38 31 54 55 25 26 40 20 41 15 43 28 34 50 49 23 37 44 49 36 31 36 41 30 53 47 44 23 32 44 26 35 40 49 45 70 40 33 25 37 23 30 34 23 51 16 54 46 52 27 45 42 35 46 33 37 36 43 47 51 32 40 16 41 34 19 26 41 30 44 46 38 18 38 33 31 33 45 32 30 41 27 25 43 33 37 34 23 39 42 20 44 17 31 41 51 44 38 58 34 36 20 16 45 30 43 25 26 33 43 48 44 37 65 40 38 33 34 42 31 48 47 37 29 24 19 33 34 37 44 35 43 26 36 43 16 30 51 30 37 43 6 58 44 31 34 29 40 37 40 29 61 41 52 17 27 45 62 22 44 29 30 38 41 29 40 20 46 34 48 45 39 27 23 34 39 34 33 33 63 41 27 42 20 45 45 48 40 58 30 23 27 35 32 40 37 52 24 17 29 55 31 29 40 43 29 57 49 30 38 64 29 60 43 23 39 29 76 38 25 39 56 65 43 51 51 47 57 41 43 48 41 47 35 58 33 45 48 31 41 45 32 40 44 55 33 46 46 30 34 47 22 30 44 31 40 57 25 33 42 48 16 38 27 48 41 46 29 29 34 49 38 40 31 31 33 32 37 46 39 16 33 37 43 45 55 40 33 36 37 47 30 33 31 43 37 47 26 40 43 35 27 40 48 28 57 25 13 46 36 25 27 55 41 40 50 29 37 19 36 34 27 44 53 37 33 44 34 35 47 57 59 28 42 27 27 27 41 40 37 43 45 40 61 33 46 26 40 44 26 44 37 44 40 35 23 44 54 40 41 43 31 32 39 48 31 41 34 33 29 27 44 49 43 51 37 29 65 34 52 37 30 23 41 41 51 46 31 30 13 33 55 33 52 52 22 45 44 35 30 48 51 36 40 37 26 48 54 45 43 23 38 48 27 47 42 49 65 33 26 48 28 37 43 43 26 40 41 33 46 41 23 46 31 34 27 31 20 21 41 34 43 53 55 29 46 48 44 50 33 30 26 43 34 38 28 42 19 20 43 51 39 41 16 35 27 34 31 41 54 31 40 40 36 34 43 45 41 51 43 43 29 45 40 37 38 45 16 31 19 44 23 46 44 40 32 37 43 36 56 59 41 17 33 42 54 37 48 56 37 33 38 27 13 53 41 45 41 42 21 33 52 34 60 26 44 33 49 42 38 51 32 39 43 16 41 34 45 52 28 42 17 33 41 41 50 30 43 23 33 30 46 38 36 20 23 45 33 26 60 50 47 43 31 16 33 38 23 32 51 40 60 48 34 24 51 47 30 49 34 40 37 51 38 37 35 28 43 24 45 40 48 41 59 30 34 16 55 45 22 43 47 34 35 19 54 38 39 36 22 20 37 53 47 26 33 28 27 27 24 31 48 38 26 26 31 38 40 39 37 31 24 51 32 34 33 50 29 45 44 44 51 30 37 33 34 26 44 30 46 32 28 26 53 37 20 41 33 34 50 30 31 30 19 51 43 38 66 37 51 48 26 37 46 47 34 30 49 20 33 43 65 13 26 49 38 47 43 20 51 44 41 29 9 20 44 16 27 52 43 46 36 64 41 37 41 43 20 26 36 60 33 37 33</t>
   </si>
   <si>
     <t>PTS</t>
@@ -102,52 +102,52 @@
     <t>List</t>
   </si>
   <si>
-    <t>GAM(32.81233555875602, -28.129200950645647, 1.4251164748167398)</t>
-  </si>
-  <si>
-    <t>6 17 17 19 27 24 10 27 17 33 9 14 13 14 9 17 17 23 24 20 31 17 31 20 28 24 14 24 29 20 24 6 27 13 14 28 14 21 23 19 37 13 10 18 17 34 20 12 16 14 18 23 23 6 21 13 6 20 32 18 17 20 29 14 34 20 20 6 20 31 34 12 20 24 21 10 34 27 13 27 10 23 24 23 16 13 16 24 16 16 16 17 14 27 14 24 10 24 24 24 10 10 17 23 15 38 34 21 22 22 20 24 14 0 28 27 16 23 20 20 6 23 6 27 23 22 21 14 20 16 16 23 13 20 20 10 20 7 27 13 17 16 16 27 13 6 26 20 45 31 19 10 13 27 27 22 21 10 10 15 17 21 14 13 10 17 7 23 9 27 17 6 9 28 20 24 17 20 13 13 10 20 28 30 23 17 10 31 10 34 24 24 7 24 17 24 6 19 27 6 26 14 17 24 20 10 13 7 17 14 17 27 24 27 17 14 23 26 13 23 6 3 31 0 21 19 10 18 34 14 7 14 27 20 13 35 10 13 23 21 31 17 30 13 35 6 14 12 23 6 12 13 24 14 31 10 20 12 12 10 10 10 24 40 22 24 21 14 30 24 17 24 13 21 12 10 21 11 14 17 31 20 38 26 24 24 7 9 28 21 18 21 10 18 13 10 23 14 9 3 6 31 24 16 27 17 17 30 8 13 21 47 18 24 8 20 24 6 28 10 17 7 10 14 26 28 31 20 24 17 17 15 23 20 21 16 24 16 20 10 10 26 10 10 44 24 34 26 10 3 24 14 19 20 27 16 6 14 26 20 21 16 13 26 13 13 17 21 28 20 18 7 21 17 20 13 17 18 33 6 10 20 16 10 20 20 13 31 7 10 7 28 20 20 20 17 10 17 10 17 6 13 31 13 6 19 11 29 10 31 6 25 17 20 14 22 27 20 17 17 6 10 20 22 21 22 7 35 17 13 10 55 0 24 0 17 23 18 21 12 16 6 10 10 21 6 10 10 7 7 17 24 9 26 22 27 9 12 23 17 34 9 27 13 18 17 10 17 20 20 13 24 24 13 21 14 37 6 24 10 15 24 10 31 15 13 13 20 9 20 10 9 17 13 37 3 32 22 13 6 27 23 14 27 16 25 31 7 7 20 34 6 17 15 16 31 20 16 14 10 24 10 12 24 9 12 21 24 23 13 13 13 21 23 21 17 14 13 31 14 7 24 13 27 10 17 30 16 23 20 16 20 10 24 17 17 30 27 26 17 20 13 14 22 6 20 31 27 13 35 17 14 13 17 17 17 16 32 3 24 21 7 24 10 23 19 16 31 14 16 24 10 10 14 14 16 24 7 3 21 31 10 14 23 28 13 24 20 17 20 24 7 20 15 16 26 13 6 21 6 20 3 26 16 24 30 27 34 13 27 31 9 14 13 34 21 17 24 22 14 23 13 14 17 28 10 7 20 33 6 23 14 24 21 31 20 14 7 19 31 21 30 10 16 13 6 16 20 13 17 3 22 13 3 41 20 9 10 22 12 23 10 19 18 10 27 10 27 24 17 17 20 28 10 0 21 34 13 23 19 14 14 34 18 16 13 24 30 7 28 15 0 10 21 3 17 17 24 21 19 10 24 24 10 17 3 24 17 40 24 17 28 23 19 17 18 17 21 29 13 17 30 16 19 20 16 9 18 23 17 7 13 20 6 16 33 13 31 6 27 21 26 37 34 20 20 16 16 3 31 18 20 17 28 21 0 23 27 14 10 17 24 17 14 8 27 36 7 20 14 16 27 14 14 31 10 20 7 24 6 17 13 15 38 13 21 21 10 27 31 20 14 17 31 19 14 23 13 17 10 25 13 12 22 17 13 17 27 13 24 15 3 7 30 30 20 14 7 16 21 23 24 13 31 13 8 10 0 26 10 16 31 10 16 18 10 17 17 28 7 3 12 20 21 20 27 23 20 7 20 24 12 23 20 7 23 6 27 23 24 29 17 20 27 10 14 17 17 28 6 21 26 13 23 12 28 27 31 34 10 0 13 6 14 7 7 16 20 32 26 13 14 20 26 20 24 20 23 14 24 21 13 20 10 24 12 24 6 7 24 24 25 6 6 10 28 31 13 17 16 20 13 13 21 13 24 10 20 17 17 7 16 28 14 17 0 24 28 24 7 20 20 36 24 23 14 24 20 10 19 13 6 48 14 24 13 20 9 9 33 27 13 13 20 36 9 13 13 0 20 21 24 20 20 7 23 24 17 23 21 27 20 13 24 17 28 17 31 31 19 24 20 17 10 17 20 26 14 14 18 10 23 24 26 16 25 31 30 28 7 13 15 23 18 28 26 9 31 21 7 28 14 13 13 17 24 27 3 0 31 38 12 20 24 20 17 12 15 12 21 24 31 13 7 7 13 12 18 27 13 19 3 21 31 7 30 9 10 6 34 27 17 13 28 0 17 31 14 17 22 16 14 23 17 19 16 17 10 24 19 15 0 14 12 13 30 22 27 10 0 17 10 16 23 3 9 24 20 23 20 27 24 37 26 17 24 10 13 7 23 11 16 24 27 20 17 0 10 31 16 21 27 20 19 23 6 16 22 30 20 23 22 35 22 22 15 19 17 14 17 38 30 27 7 10 13 19 27 20 13 10 20 18 25 34 3 7 30 24 17 16 13 17 13 13 13 28 31 23 15 17 24 14 52 28 27 13 17 17 17 15 13 20 6 27 13 20 20 16 19 7 31 21 17 27 13 13 17 22 37 7 13 9 14 17 26 24 19 17 22 18 16 22 17 7 7 19 7 15 10 16 22 16 35 24 12 13 14 19 21 13 23 16 27 23 17 31 23 16 13 16 44 16 41 6 21 10 20 21 10 21 9 15 20 10 13 17 21 23 24 19 7 21 24 14 20 23 27 27 17 42 14 20 17 13 13 27 8 34 24 7 31 27 9 21 17 31 19 26 22 17 26 13 31 15 6 20 20 31 14 19 24 21 21 13 20 13 14 7 24 17 23 14 14 22 9 24 10 20 16 13 12 19 16 10 23 17 38 21 20 10 24 15 10 21 13 37 6 6 14 9 7 14 14 16 41 31 14 20 9 7 10 0 16 7 10 27 10 3 9 7 24 26 26 17 23 17 16 15 21 6 21 14 23 19 13 23 22 13 3 3 23 10 23 19 24 3 13 14 31 13 17 28 21 20 17 10 31 17 13 27 14 17 7 33 6 14 23 30 10 21 17 23 24 19 21 16 7 0 20 21 30 26 24 14 27 13 20 24 28 18 13 24 20 30 27 34 7 16 30 21 27 20 17 19 20 25 13 20 21 21 23 27 19 15 20 24 33 10 3 23 26 33 14 17 15 23 17 24 21 23 26 28 20 27 34 16 19 8 21 7 17 3 27 20 31 26 10 9 24 17 14 30 17 27 20 27 20 10 13 34 21 10 9 19 14 13 12 21 21 20 19 20 33 16 13 36 25 6 14 24 17 12 20 13 16 27 41 17 31 19 10 28 21 24 14 20 21 27 10 0 13 23 34 13 15 16 16 3 24 33 27 28 24 6 17 10 24 24 10 13 7 20 27 31 30 10 31 14 38 17 10 34 13 17 24 24 20 31 20 20 17 10 13 16 28 20 20 17 17 24 23 17 6 13 13 17 23 13 12 18 28 14 9 27 21 10 6 20 24 16 27 31 38 20 14 23 20 31 10 17 20 16 20 17 17 23 14 25 3 24 31 20 25 17 26 22 20 23 31 42 23 24 24 24 17 24 31 13 24 20 15 24 19 9 27 24 28 10 10 19 18 20 27 10 13 27 23 9 23 20 21 25 20 3 27 7 17 16 17 17 16 12 25 20 6 10 32 10 21 28 17 30 24 31 7 28 27 5 3 16 16 17 7 24 13 14 23 27 13 17 24 28 10 21 24 21 23 18 7 16 17 31 12 14 28 20 13 24 17 7 17 17 20 6 7 14 17 31 6 24 21 13 20 21 24 13 27 14 13 24 3 13 14 24 13 37 21 22 28 17 13 35 34 21 24 7 21 24 37 20 17 7 7 17 10 11 14 24 20 20 24 6 17 10 17 20 30 18 31 18 23 19 21 17 41 13 20 27 20 17 27 20 20 17 3 34 13 20 13 24 0 21 31 17 3 38 21 7 19 13 20 10 31 17 18 16 27 17 9 9 16 23 7 17 16 14 10 20 24 34 10 16 33 23 7 20 22 29 17 27 20 20 10 23 31 22 24 34 20 20 16 15 13 33 17 16 14 21 38 31 35 16 17 14 17 24 13 26 27 27 30 14 27 33 24 24 24 3 20 33 6 17 17 23 29 31 21 10 24 24 13 17 13 24 15 9 7 42 13 0 27 17 14 17 25 28 24 10 3 7 21 13 13 27 27 3 20 16 24 24 23 24 10 16 7 16 10 10 6 31 7 21 38 27 29 24 14 9 20 20 10 13 14 30 23 10 35 12 17 23 27 32 26 17 14 15 17 24 17 13 10 24 27 7 10 17 20 24 23 16 22 7 14 24 24 17 41 36 21 23 13 12 3 23 16 19 6 7 27 14 17 24 17 21 15 19 21 31 27 30 16 10 27 17 13 20 10 14 33 24 22 16 27 23 27 13 20 24 27 18 27 14 15 6 29 31 27 22 24 13 10 35 28 16 20 3 17 13 17 23 22 17 38 38 17 21 23 12 17 13 14 31 17 10 30 24 27 24 27 20 23 9 24 29 20 13 20 13 17 27 13 14 7 24 9 13 19 28 14 10 14 25 21 7 21 14 10 19 17 24 23 24 27 19 42 16 21 24 14 16 10 23 13 22 7 25 10 14 17 24 24 6 3 3 20 13 14 30 17 14 10 24 20 17 20 17 13 23 24 14 17 0 45 17 17 21 17 13 14 24 14 13 15 20 13 13 23 20 31 24 42 12 24 28 10 23 17 19 3 16 21 14 20 20 17 21 13 7 10 34 16 10 27 30 13 6 24 13 14 21 3 12 24 20 21 26 10 13 19 18 27 10 34 17 22 10 21 9 13 31 28 7 28 27 13 23 17 16 11 3 16 19 3 17 28 21 22 33 17 13 17 10 23 20 13 12 38 14 40 13 13 10 9 20 31 17 31 0 17 34 30 12 13 14 17 7 15 21 6 10 20 19 10 19 17 0 27 31 27 28 27 24 14 21 7 20 20 20 3 7 17 21 14 14 14 30 10 7 11 14 24 20 20 16 21 31 24 12 10 26 24 13 20 14 31 10 31 10 28 27 13 16 30 26 17 17 10 3 17 17 17 10 17 14 10 6 35 21 17 21 10 21 24 3 17 23 21 10 24 20 13 21 13 27 31 6 22 31 16 23 13 17 17 20 27 31 9 23 28 14 28 27 21 14 24 25 20 10 21 10 20 7 20 14 19 22 20 20 14 17 37 7 20 17 29 16 17 21 17 27 24 27 10 23 3 9 27 14 17 14 17 17 31 17 7 27 24 24 6 16 17 34 24 20 21 23 20 35 14 10 17 16 34 24 24 17 14 31 24 16 24 17 10 17 27 20 19 28 6 17 17 10 31 27 18 20 13 37 9 7 10 20 20 14 22 10 23 34 13 15 23 0 7 13 21 16 36 19 6 22 6 6 19 17 31 14 21 19 20 13 21 13 17 16 20 20 38 26 30 3 8 30 21 17 24 20 13 17 11 14 21 20 17 21 15 18 13 10 16 20 30 13 18 19 21 27 28 31 17 24 28 10 16 7 17 15 14 20 9 9 13 20 9 13 30 21 23 16 28 12 17 14 27 14 30 10 20 26 8 21 33 13 21 13 10 26 21 13 30 17 6 20 24 30 29 24 27 17 14 13 7 24 29 28 17 17 21 17 27 34 16 20 32 10 15 23 20 10 19 21 20 28 16 16 15 35 24 7 19 16 10 24 27 16 22 14 24 17 22 14 6 20 24 10 15 21 20 27 17 26 17 10 20 23 24 17 16 23 28 10 9 23 0 34 22 3 24 23 7 31 21 35 10 22 17 26 35 10 24 20 6 24 17 31 23 10 26 16 17 27 19 34 24 6 14 16 6 16 24 25 17 13 17 20 42 30 28 17 6 14 17 28 27 37 16 17 21 11 23 16 18 28 21 26 19 17 14 27 20 22 23 6 20 6 6 10 7 16 26 21 17 35 24 13 17 13 17 21 13 21 17 23 34 14 20 17 20 14 19 7 12 6 17 23 20 16 17 9 14 7 20 7 18 20 31 21 17 6 7 23 6 23 13 22 13 17 6 14 34 20 21 9 17 34 24 10 10 9 14 24 37 25 15 13 23 11 9 27 17 8 24 13 10 17 17 16 17 30 13 18 10 21 23 17 23 7 7 19 3 17 13 28 10 23 10 7 13 20 26 13 38 10 17 20 17 13 11 20 16 27 7 13 18 9 19 23 27 27 15 17 13 9 20 21 13 13 0 14 16 10 27 23 48 24 24 25 18 6 17 20 21 13 37 10 23 13 10 27 16 31 23 17 17 19 21 19 15 22 30 21 29 21 11 19 27 15 19 27 35 24 31 14 0 17 0 9 20 10 21 20 10 19 30 10 16 26 16 16 21 20 35 24 12 17 28 10 25 9 16 20 24 31 35 10 17 27 15 26 22 35 20 7 19 28 21 17 14 6 10 14 16 17 6 27 13 20 26 20 9 12 23 26 20 16 20 20 6 10 24 13 17 37 23 21 10 24 27 17 3 24 16 27 10 14 22 13 27 24 27 13 10 24 33 16 3 21 20 10 13 16 13 19 16 9 17 17 15 20 13 38 21 11 20 24 17 21 17 13 3 13 9 34 37 26 17 17 28 34 31 14 10 23 24 16 3 10 6 28 10 14 19 18 35 25 13 20 20 16 9 13 6 17 21 27 20 9 19 10 3 20 36 20 37 30 24 16 23 10 7 10 21 19 29 17 23 31 24 17 17 24 9 17 12 23 20 27 12 31 13 34 6 7 13 27 10 17 22 7 38 13 12 16 23 10 38 7 17 27 17 10 14 23 15 17 6 33 3 10 24 23 15 3 13 30 20 35 13 16 19 21 21 13 9 10 13 17 30 25 9 20 13 30 12 20 20 14 19 15 16 24 34 41 17 23 27 20 21 20 14 23 24 0 20 10 16 20 10 16 20 13 14 10 22 20 21 26 17 10 27 20 13 27 28 13 12 17 14 30 20 12 27 10 28 6 22 15 27 24 10 14 10 9 13 10 31 16 10 28 21 6 26 6 17 28 10 20 23 21 21 7 18 13 17 13 19 3 10 27 17 16 20 3 15 27 9 23 24 30 11 17 10 24 34 20 20 13 38 14 13 17 7 9 14 3 23 18 31 22 30 10 16 16 9 10 21 14 15 36 45 17 20 29 24 16 14 21 21 13 16 20 14 20 23 33 26 17 20 3 12 13 6 33 13 24 7 6 16 3 16 30 31 1 3 42 27 10 12 14 10 20 5 19 20 16 14 19 9 17 20 21 14 19 13 20 13 11 20 10 20 20 35 7 13 18 35 34 19 21 14 28 16 6 31 34 13 33 37 7 17 24 6 28 23 7 13 35 22 13 26 10 33 14 31 17 34 27 13 24 10 16 13 34 17 35 10 17 27 17 10 23 23 14 7 17 37 17 20 10 42 25 13 7 22 27 7 3 33 24 27 10 27 10 17 24 14 31 19 17 27 17 28 9 21 13 16 13 14 14 24 20 31 14 17 30 10 20 20 21 30 19 0 16 19 21 24 17 35 37 13 12 15 27 6 17 12 16 24 17 16 31 18 31 7 20 24 13 17 20 28 21 23 20 27 21 21 10 3 16 27 27 14 21 20 23 16 28 23 21 13 16 13 27 9 25 26 45 31 13 27 37 34 13 9 16 12 24 33 22 24 24 24 17 17 30 13 6 27 10 15 13 23 13 23 21 14 36 20 7 17 17 29 14 24 15 24 19 20 24 14 16 28 8 20 40 13 17 29 19 10 31 10 11 34 20 23 28 29 9 3 31 20 30 20 17 14 7 15 19 36 13 3 17 14 23 37 23 17 31 17 28 7 20 0 17 16 6 31 21 30 14 21 15 38 13 17 3 13 13 34 11 17 30 17 45 29 17 27 13 14 3 11 31 21 10 14 10 18 20 17 34 20 13 20 14 10 17 13 22 7 30 31 24 17 20 28 19 27 20 30 29 13 31 30 10 20 26 14 10 15 31 6 24 24 15 15 23 27 15 21 31 7 20 16 24 20 7 20 13 3 21 13 15 28 24 16 10 7 22 10 6 16 20 27 17 26 24 22 31 16 17 17 14 24 42 20 24 31 27 20 23 19 34 27 14 13 16 22 10 31 6 24 7 14 13 6 31 24 17 30 10 16 14 6 14 27 27 9 12 10 17 10 14 14 20 7 38 13 29 24 16 13 13 6 15 20 14 10 15 21 21 24 28 16 9 20 17 22 10 14 27 17 10 17 16 10 7 23 26 20 18 37 27 24 10 7 20 20 14 23 17 21 21 27 20 27 34 6 24 33 26 20 26 27 26 3 9 17 7 14 30 17 0 20 28 26 7 27 34 14 30 20 13 24 10 41 26 20 17 13 13 14 27 21 17 17 24 14 34 23 10 13 17 17 24 0 27 28 13 19 17 0 30 24 24 6 13 29 18 17 38 20 10 13 34 24 16 22 14 13 13 23 7 6 10 24 11 17 0 17 13 15 12 26 14 10 20 27 20 3 16 6 17 9 23 31 6 15 24 30 19 6 17 34 26 31 21 14 13 23 15 23 18 31 24 30 14 24 24 23 21 13 31 24 34 35 25 42 20 31 24 14 13 34 17 20 21 13 17 15 14 20 15 23 17 21 24 10 23 20 20 9 10 17 6 35 13 6 10 31 16 14 3 26 10 22 30 17 10 31 31 20 7 7 20 6 22 13 13 20 17 12 20 21 20 17 27 23 20 10 35 21 35 17 14 26 29 10 15 27 19 24 21 20 38 16 23 20 21 15 34 20 13 27 20 20 20 14 19 14 18 17 19 23 20 24 31 17 20 3 26 20 3 17 3 20 20 13 17 17 21 13 17 13 16 10 13 3 7 24 16 31 24 11 13 23 13 17 24 17 14 17 26 17 9 12 23 17 24 17 13 7 17 16 31 18 30 19 24 10 21 24 16 27 20 24 6 12 12 16 21 10 28 13 19 38 35 7 3 31 21 6 10 23 13 30 34 34 13 34 37 21 7 34 14 0 14 38 28 18 20 24 25 20 17 27 27 28 16 17 10 19 17 16 15 23 17 16 20 10 3 26 19 21 28 16 13 22 19 27 23 24 6 34 6 18 27 6 17 16 22 14 17 14 10 15 24 9 13 9 21 20 13 27 16 14 27 16 17 14 20 17 13 16 27 6 13 6 17 6 23 23 13 20 3 21 13 38 30 26 31 6 0 35 24 17 9 24 3 15 28 20 14 20 26 17 16 17 27 21 13 10 27 17 14 16 16 24 20 24 28 20 17 14 24 17 35 26 23 10 35 26 16 17 16 7 23 0 23 29 28 20 10 19 17 18 27 20 16 18 11 17 17 17 10 35 17 16 9 29 30 16 19 17 7 23 6 23 31 10 31 16 10 27 15 13 33 10 29 17 7 26 27 31 17 20 14 28 21 21 16 23 13 31 17 13 12 7 17 7 13 19 24 20 17 14 24 38 17 27 24 17 17 10 27 24 6 17 17 26 17 17 31 28 17 20 27 21 14 24 38 6 15 10 13 30 20 10 14 10 13 42 17 10 16 22 24 24 17 22 28 23 20 22 20 23 17 9 17 35 24 24 17 24 31 20 13 30 10 31 23 24 31 17 20 38 14 27 34 17 23 27 18 21 23 24 21 20 13 27 12 18 14 13 13 35 21 13 16 20 24 10 16 34 21 22 31 14 13 34 10 16 21 10 26 13 24 13 17 14 6 24 13 21 10 13 16 30 9 31 23 13 23 19 30 14 30 13 23 24 21 20 10 34 21 17 27 23 22 10 33 24 6 26 24 10 28 19 20 14 16 10 27 10 8 10 21 21 9 3 24 6 13 10 16 17 0 20 17 16 27 14 9 20 10 28 32 23 15 20 21 10 20 10 24 13 16 15 17 0 16 27 10 17 21 18 24 24 16 20 27 24 24 33 8 35 17 11 0 21 8 10 13 6 27 17 40 20 14 17 10 10 14 30 13 24 20 7 24 27 25 13 31 28 20 30 28 22 10 21 23 27 17 17 34 31 19 11 20 19 3 30 20 20 9 23 33 17 14 30 14 3 12 26 17 10 6 26 26 16 24 23 13 7 12 24 20 23 24 10 23 16 24 22 34 12 16 14 48 10 24 17 28 24 14 14 21 13 38 17 15 30 10 17 36 7 19 17 14 24 6 38 20 20 23 13 16 17 7 28 0 6 11 0 13 24 10 24 10 26 31 27 10 14 6 20 39 13 9 23 13 15 3 28 10 17 10 7 3 21 31 20 35 9 15 24 21 35 28 30 21 30 41 7 32 13 3 24 20 9 20 14 10 31 30 13 32 9 10 19 24 24 20 24 10 22 6 10 10 10 27 21 13 16 24 14 17 7 17 10 10 17 28 20 17 6 3 16 20 10 7 15 17 7 31 13 6 20 14 10 31 16 33 12 28 16 7 16 20 6 20 27 13 9 27 13 13 20 24 14 23 10 16 21 17 20 20 23 17 27 16 17 13 3 37 24 16 6 27 25 21 10 20 20 37 20 6 19 21 7 14 20 24 6 19 13 10 17 21 10 13 34 13 31 13 28 23 25 13 34 31 10 28 26 24 24 20 21 26 9 30 45 35 23 19 27 13 17 16 20 20 26 10 12 21 14 27 24 7 22 30 23 24 13 10 13 41 7 7 14 14 13 21 10 19 22 37 27 20 20 26 20 15 14 24 23 19 23 9 20 38 13 14 19 29 12 16 16 17 19 17 14 31 40 10 13 14 21 17 13 6 14 10 6 23 23 3 33 23 14 21 17 16 21 12 19 30 23 7 28 16 21 6 17 10 13 24 12 13 10 34 10 16 23 10 20 31 17 6 13 17 17 41 17 17 13 21 13 16 31 17 42 9 27 14 17 34 24 14 21 10 27 21 10 17 27 17 13 23 14 17 21 27 10 17 16 28 16 39 24 17 10 12 20 16 9 24 31 28 17 17 6 27 27 9 27 13 15 13 7 9 20 18 21 24 21 23 14 0 15 6 24 10 18 20 7 31 20 10 0 14 16 19 24 37 12 3 16 13 22 34 27 17 21 20 16 15 6 20 13 19 20 16 14 16 9 29 16 23 13 28 17 27 14 3 13 17 20 24 27 19 20 17 20 21 28 15 10 27 20 23 26 7 21 13 10 9 9 17 21 14 16 26 24 13 24 24 7 37 19 24 25 24 17 30 31 10 10 27 26 16 31 24 41 17 21 16 0 20 8 35 10 16 20 10 6 14 20 28 14 3 10 10 22 22 40 19 16 23 23 29 24 24 20 14 27 28 21 6 23 6 7 15 43 27 10 13 20 37 14 28 24 6 41 31 20 20 3 27 23 19 27 36 14 24 31 13 23 52 7 27 34 18 20 18 9 17 30 20 20 10 14 19 26 10 13 21 16 17 17 20 19 37 11 27 20 19 24 17 10 14 7 7 14 21 0 10 23 16 31 20 28 17 6 9 7 24 19 24 20 17 9 13 14 14 17 15 20 17 12 16 30 20 17 28 23 16 20 20 18 28 10 8 13 10 17 8 21 14 16 20 17 10 14 37 9 20 20 17 7 24 9 28 27 25 20 17 21 28 26 23 10 17 19 6 13 11 18 20 27 6 16 6 13 24 10 17 14 3 21 23 28 14 27 41 28 20 12 35 42 17 10 30 13 13 17 26 6 24 17 14 34 12 20 10 24 22 31 17 3 24 16 22 23 28 24 20 17 6 14 21 7 13 30 27 16 28 7 20 23 25 23 23 23 28 21 16 23 10 7 14 49 41 28 20 26 27 16 17 21 9 8 0 28 28 16 19 25 7 13 20 13 0 6 13 9 23 18 21 24 29 31 23 12 17 9 20 18 13 26 10 21 12 13 16 20 23 13 10 20 27 23 16 23 6 14 16 31 7 7 27 17 29 9 34 10 19 7 18 10 30 10 3 19 0 17 22 16 15 24 10 29 27 30 23 31 12 20 20 27 19 10 20 14 14 6 21 20 23 3 14 21 13 17 23 27 10 21 17 18 0 12 17 17 16 27 28 30 31 38 14 27 13 17 8 31 6 31 22 13 24 35 13 14 24 13 9 17 17 17 17 8 27 19 11 10 10 27 13 28 28 23 20 31 20 12 11 24 17 16 0 21 21 39 16 26 0 13 21 7 17 17 26 20 21 26 7 10 17 33 7 25 24 31 13 31 18 12 19 24 16 16 13 16 21 13 28 16 19 31 15 21 14 17 27 13 20 24 44 10 27 9 23 12 20 23 27 24 24 35 23 24 13 20 41 6 10 23 40 20 0 6 13 24 34 13 21 17 24 35 14 20 9 13 12 33 31 27 26 13 13 30 20 16 16 14 24 3 27 22 6 16 17 37 23 9 19 13 16 0 16 6 14 38 20 30 20 7 8 16 20 21 17 20 27 20 16 12 3 10 30 34 16 17 17 13 13 24 20 30 20 30 24 23 17 23 13 14 27 13 13 23 20 19 17 27 14 20 20 9 13 20 26 30 10 17 3 16 17 31 31 24 9 21 10 28 35 26 13 23 0 31 33 27 10 26 6 16 21 30 17 10 11 16 34 10 17 13 20 15 37 27 10 13 18 20 13 3 10 27 16 27 10 33 22 22 30 10 20 3 14 26 16 13 21 14 13 24 7 38 31 16 13 14 12 9 20 17 0 7 17 16 17 31 23 17 23 7 29 20 19 17 21 31 13 31 9 22 24 11 6 17 26 10 24 13 17 17 6 14 17 26 20 30 16 31 14 13 26 22 31 10 20 13 16 17 13 13 20 7 10 6 17 7 31 17 27 7 17 14 19 21 30 23 8 13 34 20 14 24 31 13 13 3 14 24 31 19 10 24 21 16 30 24 21 13 14 3 27 16 14 23 20 27 10 20 27 10 10 26 30 18 13 14 3 6 21 20 20 49 16 37 23 18 21 24 26 20 31 3 24 21 27 23 20 20 29 14 20 30 34 26 10 20 0 34 20 17 31 27 13 14 14 16 30 17 17 30 13 12 18 17 24 16 30 11 31 13 21 9 34 16 34 20 13 27 7 17 22 21 20 16 9 0 21 14 13 26 10 14 29 17 20 27 16 34 13 25 23 7 25 10 23 14 27 24 30 13 13 7 23 16 7 20 27 14 17 3 10 14 14 31 31 7 24 24 17 7 20 10 30 8 34 24 12 7 21 24 24 23 10 9 31 16 13 19 28 7 20 14 37 16 17 24 27 31 13 20 7 17 27 10 10 14 28 27 24 14 27 13 33 19 10 13 21 26 16 22 29 24 0 20 16 13 13 29 21 23 16 20 6 6 9 13 23 26 7 10 10 27 24 10 17 0 17 17 23 9 10 19 13 6 14 30 9 20 15 20 15 16 19 13 13 21 12 29 38 0 10 30 10 12 21 24 23 9 17 17 23 10 21 13 16 24 24 34 7 24 15 26 31 24 35 20 23 17 20 7 27 13 19 23 16 13 30 16 31 22 7 13 10 16 21 14 31 37 12 31 10 17 20 20 17 13 37 24 16 14 34 10 20 9 27 14 30 24 20 21 30 21 20 21 7 9 34 17 21 17 10 6 35 31 16 23 24 30 13 23 13 34 17 27 24 21 10 27 10 20 17 6 24 6 24 17 0 14 7 23 24 28 30 16 38 27 13 31 30 16 20 34 13 17 34 20 24 23 21 3 22 10 16 13 17 16 23 13 24 31 26 41 10 15 14 16 17 20 12 21 35 17 14 23 23 30 16 14 17 34 13 29 33 14 17 28 17 23 3 17 24 38 9 14 21 13 27 14 19 17 17 9 19 13 13 13 31 0 9 24 14 17 27 24 23 44 17 28 30 10 13 10 29 7 23 20 19 14 41 13 20 24 28 30 14 21 45 26 24 15 13 20 14 22 21 17 24 16 13 33 3 31 6 17 13 19 17 20 20 14 17 17 24 19 24 20 14 9 16 19 24 17 26 6 36 24 20 34 21 13 17 7 22 24 26 13 26 10 15 17 16 20 10 20 7 6 14 28 28 20 38 14 9 21 18 16 24 38 20 16 7 14 16 15 14 14 17 34 24 3 17 14 6 21 23 10 23 19 31 13 27 24 24 20 27 17 10 20 17 9 24 28 23 21 41 0 10 24 6 14 3 17 24 7 9 21 14 24 11 14 17 16 27 30 20 0 18 17 17 30 16 9 24 20 31 24 13 22 21 27 16 17 17 30 10 20 13 24 14 28 14 16 20 0 24 19 24 5 10 28 6 3 7 19 10 24 14 32 10 13 17 14 16 12 27 17 6 27 21 20 21 9 7 17 18 14 38 17 34 13 19 16 34 14 28 31 21 10 13 24 7 16 20 10 20 16 24 13 21 20 31 20 28 25 19 17 17 17 17 24 17 17 16 10 18 33 0 17 24 17 13 19 27 24 13 14 15 17 6 17 31 24 17 15 33 10 17 20 16 13 10 40 44 13 3 27 14 10 20 0 32 13 14 30 9 24 12 3 17 0 17 22 16 10 24 13 6 27 14 14 16 30 28 9 14 17 18 30 10 31 17 27 10 14 20 7 9 3 27 14 33 13 37 17 17 19 17 13 27 6 27 24 23 35 24 16 20 21 13 23 18 9 11 34 10 24 17 24 13 14 10 10 6 21 45 20 24 24 27 31 20 27 20 16 17 17 21 41 20 13 20 34 23 10 23 24 16 16 16 26 31 14 24 33 20 15 19 14 6 14 28 24 30 24 26 20 23 17 10 34 16 23 13 18 13 16 11 20 17 20 13 24 26 20 23 21 24 30 17 14 14 16 13 10 14 26 18 9 13 17 12 21 22 37 18 31 24 17 24 31 20 17 20 7 13 24 17 17 17 11 31 0 23 24 24 30 24 37 29 17 7 10 3 6 24 7 17 23 14 34 24 7 20 31 10 20 20 10 28 14 18 14 40 12 6 20 16 22 34 17 17 27 20 28 12 17 27 24 25 27 23 38 23 23 3 52 35 13 21 10 26 41 31 14 28 24 20 14 7 13 24 20 31 17 27 0 16 6 6 16 24 21 17 23 6 7 21 3 20 16 20 21 28 15 7 14 16 10 17 7 23 13 13 38 33 7 38 24 23 31 51 27 6 12 24 29 10 31 19 24 20 10 24 30 10 20 33 17 10 17 10 17 13 15 10 20 28 21 10 20 17 21 23 21 16 27 10 10 9 14 27 13 28 24 10 3 10 31 38 19 30 17 6 7 9 34 31 8 34 31 24 21 16 28 20 16 14 17 33 10 13 20 24 27 10 17 17 27 21 17 7 10 22 14 16 20 10 16 27 10 19 23 13 20 3 16 12 24 27 23 34 19 12 10 17 27 20 13 6 20 14 10 24 20 16 15 13 23 10 24 10 16 27 38 17 18 26 23 10 21 21 34 24 14 23 23 13 16 16 14 16 10 31 10 24 17 19 31 20 16 20 21 10 28 10 6 21 10 20 14 3 17 20 14 0 12 13 17 17 31 13 20 16 27 6 3 23 30 17 13 25 20 13 19 10 21 15 9 24 14 14 3 16 17 30 24 10 21 27 20 13 12 37 24 10 19 23 13 20 23 20 21 9 34 21 24 10 24 17 24 13 13 17 23 20 0 45 13 6 23 41 21 23 20 13 6 31 10 14 13 13 34 15 37 13 22 23 25 35 14 20 26 20 14 20 31 14 17 10 13 30 25 20 13 24 8 33 19 23 29 10 7 17 30 24 27 20 20 17 7 21 17 24 17 15 17 24 13 9 34 23 16 35 13 20 20 6 27 21 22 6 13 9 17 17 24 17 20 14 17 10 21 10 29 30 17 24 33 12 14 9 17 9 19 17 13 26 33 13 30 21 17 17 17 6 13 17 28 18 24 13 13 10 30 31 17 13 17 3 16 36 21 14 3 20 38 7 9 17 24 20 10 11 13 13 13 24 10 34 23 7 17 27 28 24 13 41 12 18 16 13 7 13 20 6 24 24 10 13 23 30 17 28 13 21 24 17 20 14 21 23 21 19 30 16 23 19 14 16 0 13 23 21 21 12 11 20 24 12 13 15 17 27 12 31 16 21 27 9 14 30 21 17 16 27 13 10 17 14 6 12 20 28 19 7 20 26 14 10 14 24 17 10 31 21 23 14 6 9 38 10 3 13 26 4 13 14 12 20 28 30 24 16 17 21 45 13 23 22 23 9 13 27 14 22 20 14 16 7 11 21 23 18 38 16 10 45 31 20 13 25 13 35 11 17 9 17 24 21 20 23 34 15 16 20 10 17 24 31 20 17 27 20 23 24 27 14 9 16 34 18 7 28 12 10 17 19 23 21 14 20 10 10 10 3 23 20 12 17 3 13 14 16 7 20 18 9 13 23 20 20 28 31 17 20 16 22 21 33 3 19 17 28 19 37 17 31 19 16 20 3 3 27 20 31 23 26 21 20 13 17 10 10 24 27 10 19 31 23 14 7 23 20 6 17 14 15 31 23 17 9 30 23 31 14 17 24 13 24 18 6 24 13 30 6 13 17 20 15 10 14 21 10 10 35 10 13 24 9 19 37 20 17 17 0 31 7 16 20 20 29 11 6 24 26 31 30 13 17 20 20 24 19 10 24 23 21 37 18 3 18 15 13 24 24 25 8 9 23 15 17 3 27 20 6 19 10 10 16 17 17 10 14 19 20 13 10 31 13 20 21 3 41 14 13 17 42 10 24 9 7 20 24 23 16 35 37 7 10 18 20 6 24 10 17 13 28 30 6 10 14 24 34 18 24 13 10 17 28 20 20 11 17 26 15 19 21 27 10 25 17 28 7 13 17 13 21 23 13 26 10 20 14 11 14 17 28 24 3 7 6 24 13 10 26 24 27 23 38 23 17 34 17 13 13 20 14 17 20 33 20 16 14 7 20 17 24 14 13 23 10 21 28 33 24 16 21 27 31 30 30 13 3 24 13 9 17 14 9 31 7 10 17 22 24 17 24 17 13 21 21 17 16 26 6 18 22 27 30 20 3 20 24 20 37 31 6 12 34 19 3 13 31 18 23 31 28 23 17 20 23 21 19 17 13 10 12 24 21 20 7 41 19 20 7 20 23 10 29 19 7 19 9 17 10 26 23 35 24 17 10 16 24 3 28 20 13 12 20 20 31 34 38 14 17 24 31 6 20 16 20 19 30 14 23 18 10 27 22 13 11 34 24 10 3 23 22 27 17 27 14 6 18 10 27 6 13 6 17 17 23 17 13 20 13 13 13 14 9 21 23 6 17 31 31 20 20 14 9 3 16 13 21 6 38 27 21 20 19 26 26 12 27 28 16 16 20 14 16 15 23 24 3 24 19 24 13 24 10 14 23 12 23 9 22 30 35 21 16 14 19 17 20 20 27 24 19 17 23 17 15 23 7 17 10 13 17 27 24 23 23 13 21 24 16 10 20 24 28 17 34 31 20 25 10 24 14 20 17 20 18 38 20 14 14 7 10 26 17 23 13 13 20 31 16 10 19 34 16 13 17 31 13 6 3 17 30 7 31 7 3 17 28 23 23 13 28 21 28 23 27 20 10 9 13 26 20 37 20 27 27 17 20 28 24 20 16 28 20 21 21 10 29 28 21 24 7 17 22 16 17 13 17 16 13 16 23 17 30 14 41 0 14 17 17 13 9 7 12 3 27 13 17 27 19 10 16 24 7 16 17 30 17 20 24 23 9 21 31 24 17 27 23 16 24 10 17 35 17 17 14 20 24 13 24 0 16 14 21 3 10 17 24 6 17 12 28 26 9 11 27 17 20 21 3 0 17 9 23 17 13 7 0 10 27 24 6 6 13 3 18 0 13 3 21 19 24 10 30 7 19 24 24 17 17 10 13 6 16 41 14 17 17 19 20 24 21 6 24 17 12 3 24 24 14 20 10 30 20 17 17 17 11 20 27 16 28 6 23 26 17 10 35 20 12 20 10 17 20 13 34 17 13 24 19 20 20 23 6 6 13 13 14 17 13 20 17 26 34 24 9 35 23 0 16 7 20 20 31 34 24 14 27 7 13 17 14 17 10 24 17 7 13 26 21 16 17 31 20 21 21 10 27 31 29 17 3 17 7 10 20 20 14 41 20 27 13 16 21 20 27 10 41 17 7 28 19 3 31 27 45 6 17 26 27 13 6 14 20 10 24 30 19 24 14 13 11 10 23 13 6 16 20 16 6 13 0 12 6 16 9 22 19 10 18 37 20 21 22 10 21 13 6 20 15 32 24 25 14 34 24 24 31 31 17 13 0 17 6 23 10 25 22 18 24 13 15 13 21 31 9 24 28 26 24 13 9 21 27 24 20 21 17 24 17 10 17 19 12 7 13 31 14 13 29 42 10 17 14 24 13 31 17 14 23 10 31 19 16 10 19 16 9 13 20 10 7 7 17 18 20 14 13 24 27 19 9 16 7 19 3 33 21 20 17 7 18 23 27 5 26 27 9 20 6 19 19 24 16 17 35 25 15 17 6 13 25 15 27 16 14 9 16 34 27 12 24 17 17 21 23 31 17 14 13 23 29 38 21 10 19 27 28 12 24 14 13 19 31 21 27 7 10 7 20 7 19 24 27 27 14 17 21 24 23 17 38 20 16 13 14 14 3 15 32 23 3 21 15 20 9 10 17 35 14 31 10 10 14 7 13 20 13 16 17 16 45 13 6 17 19 19 10 27 20 17 7 24 10 27 13 50 27 26 23 19 3 28 27 6 31 20 20 14 10 13 20 20 17 21 24 16 24 23 31 30 18 3 22 10 7 14 16 24 16 10 20 3 23 22 21 27 3 28 17 26 17 17 3 13 24 17 9 20 17 24 22 13 21 24 17 20 13 14 3 17 31 24 34 33 21 6 26 10 3 28 23 9 12 23 23 13 24 14 21 47 23 31 7 20 13 41 16 20 7 13 17 24 27 31 31 9 24 13 17 13 24 31 0 25 10 21 20 16 21 48 24 23 17 17 27 19 25 12 27 30 6 10 17 17 38 23 36 10 7 27 11 24 28 23 17 21 27 3 14 7 20 31 7 26 16 17 27 27 20 27 7 23 3 13 17 0 13 27 17 23 13 20 24 28 17 13 16 32 17 37 19 20 21 17 28 23 19 35 13 10 3 24 10 24 20 31 7 21 17 17 27 17 13 10 25 24 20 25 16 31 7 17 33 13 10 14 27 20 22 16 9 14 14 17 7 16 21 12 21 14 14 21 10 21 27 21 20 17 17 10 17 13 10 24 15 16 10 14 18 6 20 17 30 38 16 6 24 28 16 26 17 17 13 35 10 16 27 20 6 21 17 10 17 7 17 16 20 21 14 13 24 28 17 9 26 34 17 19 21 31 24 16 24 16 27 14 16 7 14 16 16 20 6 20 10 13 15 10 27 16 28 21 19 12 22 17 20 20 26 27 13 17 17 10 20 17 15 16 26 0 17 41 6 3 13 23 10 17 19 19 0 31 14 20 24 26 17 13 26 21 20 24 30 21 16 14 35 18 24 20 17 21 14 0 16 24 30 8 29 11 13 15 7 13 14 31 30 31 23 14 23 14 13 13 10 34 3 32 34 16 23 27 13 7 30 20 23 28 10 21 12 12 13 3 10 14 7 37 11 13 14 10 12 11 20 24 16 20 10 10 20 7 17 34 18 24 16 21 20 14 22 17 31 0 23 31 23 19 12 10 20 24 22 13 17 20 17 7 24 13 19 10 21 14 13 6 8 24 13 27 16 8 14 13 10 24 15 14 24 38 7 9 10 20 20 16 27 0 10 6 14 30 27 17 20 23 20 30 13 20 10 34 31 20 17 13 11 17 21 16 16 23 14 26 14 31 16 23 7 3 10 38 20 13 9 24 10 27 24 20 17 17 16 0 31 24 6 13 14 10 26 16 24 6 20 13 14 20 26 19 23 24 24 17 3 13 27 13 10 10 34 14 30 13 10 15 23 10 13 24 16 21 23 35 25 23 24 14 13 10 16 24 10 23 10 21 9 27 10 27 13 6 0 30 17 26 30 24 27 23 20 6 3 13 23 28 22 20 22 20 23 6 19 17 28 17 21 29 14 20 31 31 31 31 17 19 24 20 13 13 24 24 9 15 17 15 27 28 23 16 10 16 3 20 34 24 17 27 22 21 34 21 17 7 19 27 13 17 28 20 27 21 24 21 24 10 24 24 10 14 14 13 28 21 15 10 24 27 17 9 14 16 21 21 30 14 17 23 6 17 31 18 26 9 20 27 9 38 21 7 20 23 26 24 14 20 21 17 6 19 24 17 10 24 25 27 17 23 14 7 10 0 13 30 31 20 24 6 17 23 24 13 24 10 27 10 7 15 24 14 30 26 18 30 34 21 9 24 14 15 8 28 10 10 17 14 3 23 13 15 9 24 24 6 21 14 15 22 21 20 18 17 17 16 7 7 10 17 24 15 35 8 25 30 20 10 9 27 10 26 24 9 17 13 19 10 10 10 23 26 33 7 21 14 21 24 23 13 20 19 30 30 16 31 30 21 22 21 20 26 6 20 16 20 16 20 23 10 9 14 7 16 3 19 24 16 20 20 34 20 16 24 10 14 21 13 15 7 9 10 17 27 7 18 17 3 14 21 14 9 17 20 21 21 16 14 17 21 13 21 38 27 22 16 10 14 7 20 9 23 33 14 20 15 17 20 13 10 26 10 13 10 24 10 9 10 20 10 13 24 10 10 28 0 30 31 31 31 20 10 24 12 7 17 17 7 14 25 17 15 13 0 21 24 27 17 20 14 9 3 25 6 27 13 11 20 9 27 45 3 20 23 20 7 12 20 6 24 14 38 26 30 40 24 14 3 20 10 20 20 42 21 17 21 3 14 10 21 20 33 20 17 25 34 23 3 35 14 19 34 33 28 13 8 7 24 26 7 20 19 21 10 14 24 27 10 17 24 12 24 20 6 17 27 10 17 13 12 6 17 16 24 17 13 21 28 24 17 16 15 14 21 23 10 45 28 21 7 21 14 28 21 6 7 16 6 27 18 14 16 19 13 28 31 10 18 7 17 31 9 21 21 14 11 17 20 15 34 17 24 15 17 24 9 24 17 9 13 21 12 13 23 31 9 17 35 27 24 10 20 10 29 24 19 13 24 9 26 16 10 3 17 20 17 27 22 17 10 23 13 10 28 22 9 38 17 26 18 14 35 18 0 19 16 26 7 6 24 21 17 13 24 24 10 35 17 10 20 45 12 27 20 3 29 23 23 31 17 14 27 7 14 10 14 6 40 26 24 10 12 10 21 21 19 29 20 24 3 26 3 17 20 23 10 13 28 17 20 20 27 26 8 17 16 13 38 17 20 13 17 10 29 13 35 24 17 6 24 13 16 20 6 21 6 23 13 10 20 13 9 27 10 37 13 35 27 24 6 19 14 11 24 20 9 21 17 28 6 13 24 6 10 27 20 20 14 17 21 27 3 17 23 21 27 31 10 22 10 24 23 16 14 13 13 31 28 17 17 29 10 24 13 30 13 7 19 37 20 40 10 22 18 13 24 10 27 9 31 16 21 37 13 17 12 17 14 22 19 12 18 0 18 30 19 35 8 21 21 30 10 21 17 12 20 27 14 14 20 13 12 13 20 20 24 20 9 14 17 14 15 10 6 9 10 6 6 11 9 30 20 20 38 35 7 20 17 27 20 16 27 20 24 3 17 8 34 15 23 7 20 30 3 24 24 27 17 6 27 14 6 26 10 7 17 21 21 26 6 30 24 13 6 13 21 22 14 27 12 7 16 7 30 16 23 37 30 20 21 10 10 20 24 27 23 14 17 34 27 20 28 17 27 28 28 28 20 22 3 3 13 31 12 24 7 10 0 23 17 17 26 30 20 16 14 8 31 24 22 28 21 19 24 19 13 13 17 41 14 10 17 23 20 16 0 23 24 17 19 12 7 31 6 23 7 23 38 13 18 17 27 20 24 20 32 3 27 13 13 14 28 9 13 20 17 13 31 21 27 14 7 13 24 10 24 21 15 10 24 3 17 41 16 38 27 23 10 19 13 10 28 14 28 7 7 25 3 16 15 10 27 15 27 3 26 24 17 20 12 13 38 6 10 6 18 27 13 18 24 22 17 24 14 12 13 52 20 26 10 19 27 26 7 10 34 17 3 7 30 17 27 23 23 19 13 32 10 26 27 27 22 13 25 14 19 31 17 20 19 14 20 20 29 20 16 16 13 10 13 4 15 21 27 20 24 10 10 27 7 16 17 24 9 13 37 17 27 6 13 17 6 34 14 13 14 41 26 17 28 27 13 13 12 16 23 13 10 17 10 23 21 14 10 18 24 20 20 20 14 21 14 17 14 13 10 24 23</t>
-  </si>
-  <si>
-    <t>JSU(-2.971382987211683, 7.069576996766894, 10.540025447032608, 28.09466457636615)</t>
-  </si>
-  <si>
-    <t>18 18 24 19 18 27 24 26 25 23 18 21 28 18 28 27 13 17 27 24 29 22 25 22 27 30 26 26 35 25 28 27 26 16 24 20 25 23 20 19 24 18 18 16 24 30 29 24 27 22 30 23 26 21 24 19 24 24 28 18 26 19 28 21 32 14 22 19 19 17 32 21 20 20 21 12 26 15 34 29 17 26 23 24 25 20 18 16 23 18 18 24 30 23 26 23 30 21 22 26 29 19 17 21 19 17 24 23 27 29 29 26 25 19 27 23 26 19 24 21 23 23 16 22 22 15 25 22 19 19 29 23 24 33 27 19 20 25 27 19 22 26 18 20 12 19 24 25 27 20 22 23 23 28 28 31 17 22 20 21 23 23 25 23 13 28 29 15 24 24 14 18 20 22 22 23 27 19 28 28 27 26 22 19 29 19 19 28 18 25 27 22 28 24 24 22 20 27 25 23 18 25 17 32 22 27 19 23 19 31 19 22 17 26 21 21 23 29 26 23 20 22 29 17 16 24 20 27 27 25 21 35 26 22 19 27 23 17 25 27 28 27 26 20 20 22 22 20 17 14 20 20 16 25 25 20 16 12 20 20 15 24 26 27 30 19 22 19 19 21 21 24 26 26 22 22 21 28 28 27 36 29 28 29 27 18 21 28 25 20 32 18 27 24 19 21 18 24 22 15 23 31 25 25 27 25 27 24 22 18 29 24 19 22 21 20 20 22 24 28 23 13 18 21 25 27 27 22 20 17 28 20 27 21 27 21 29 23 26 14 21 25 25 21 21 17 25 34 28 20 23 31 25 28 23 22 28 23 26 23 24 25 22 20 20 22 20 22 22 21 27 23 21 22 20 28 25 22 17 24 20 24 26 26 25 27 21 28 25 14 28 28 20 25 27 24 24 26 22 24 24 23 22 21 18 32 32 20 18 25 26 28 19 17 25 14 21 24 18 23 20 22 20 30 23 30 26 29 18 19 27 36 24 20 18 33 26 25 24 27 23 20 23 16 27 22 20 14 21 21 26 26 18 27 26 22 23 24 17 25 24 25 23 14 18 18 25 24 23 19 21 23 21 21 27 20 22 16 25 20 26 28 31 23 25 20 17 24 15 23 18 20 24 21 28 26 27 19 21 28 30 19 17 23 28 27 25 19 15 25 22 22 27 23 25 25 19 22 16 19 21 18 22 28 20 24 28 21 26 21 27 24 22 26 27 21 23 13 26 17 12 23 15 21 16 22 31 27 22 19 24 25 21 21 28 31 25 18 22 24 24 24 19 27 22 23 29 19 20 30 27 26 16 19 20 15 24 27 21 27 17 24 23 23 22 22 20 19 23 18 22 20 22 17 21 25 21 20 23 16 25 21 20 19 28 27 16 19 22 25 24 20 24 23 27 27 29 21 18 20 26 18 26 18 22 23 24 29 27 25 20 18 21 22 22 25 23 23 24 17 26 26 22 24 24 33 15 25 22 13 18 23 22 23 22 22 25 20 16 28 22 22 17 23 20 23 26 32 20 23 19 33 27 22 24 18 20 23 27 27 24 21 25 21 23 26 28 24 21 25 19 25 22 17 17 22 17 32 27 18 24 22 21 17 19 19 24 23 24 28 20 9 17 22 26 22 23 25 32 25 20 17 16 20 21 25 17 17 29 22 22 27 16 24 28 17 25 19 23 21 19 22 24 25 23 16 17 23 28 29 23 23 23 13 17 25 22 24 19 24 22 19 14 28 27 21 24 22 18 22 23 17 27 23 21 23 18 26 31 21 27 19 21 17 18 21 26 14 25 21 27 18 31 19 23 18 23 17 26 22 25 26 17 30 22 31 18 20 26 28 22 24 23 29 22 24 28 19 15 14 23 19 20 21 19 24 26 27 22 29 22 22 30 24 27 21 29 25 24 25 20 16 22 17 24 22 28 13 23 19 20 20 28 27 27 25 19 16 23 34 12 20 19 24 23 26 20 28 20 21 24 20 22 26 16 25 14 26 20 20 33 22 29 33 23 25 23 22 15 27 20 27 23 20 23 25 27 26 27 25 28 19 12 24 21 20 28 22 21 20 19 25 28 12 27 28 17 25 13 23 23 19 22 24 24 26 25 25 22 19 26 28 12 21 20 32 20 24 23 22 16 17 26 19 22 27 20 18 25 26 15 25 28 26 17 16 22 25 20 13 30 22 21 19 21 31 21 21 17 17 22 22 25 28 28 19 22 26 24 22 23 23 17 25 28 21 24 20 22 28 22 25 24 18 8 23 20 33 22 21 28 28 21 21 29 29 21 25 29 26 25 23 19 21 17 14 28 28 17 24 29 21 23 27 18 33 26 30 27 34 25 24 23 19 26 26 25 21 25 24 23 23 17 23 24 23 30 19 17 25 32 21 22 21 18 23 16 20 21 25 25 18 15 18 19 26 30 21 28 20 23 21 21 26 17 24 18 21 17 31 24 24 18 22 15 25 32 21 26 19 17 19 22 22 18 24 15 16 19 26 23 16 18 23 17 21 23 21 29 18 28 17 16 25 22 25 26 21 19 22 27 27 26 21 23 21 21 14 21 25 21 25 19 25 24 19 17 21 31 26 23 28 18 22 27 25 18 24 30 20 31 27 27 23 23 21 24 28 26 26 29 20 21 25 16 20 22 22 28 22 22 25 30 28 24 24 21 23 25 23 23 22 25 15 25 27 26 22 26 30 27 22 29 31 18 31 28 21 36 19 25 24 19 14 23 30 23 21 25 20 24 22 21 23 24 18 23 32 24 25 17 25 16 27 18 24 23 21 15 22 22 22 24 20 28 22 28 22 24 16 20 17 27 21 24 16 21 19 20 18 25 29 25 23 18 15 27 24 19 23 32 25 22 31 25 27 22 20 29 20 20 19 21 24 23 24 19 20 19 22 24 26 21 27 19 27 25 28 22 28 34 16 19 26 27 20 23 21 29 22 16 18 33 19 19 18 30 20 31 21 21 26 27 17 25 16 25 26 19 25 20 23 34 21 18 23 23 18 20 20 20 22 19 25 24 16 23 23 15 24 22 32 18 19 20 29 19 29 23 30 35 18 18 21 24 20 28 17 21 23 23 20 18 14 21 28 25 26 25 16 18 27 24 16 22 24 22 23 14 19 22 23 25 28 19 20 23 14 33 21 20 24 22 20 25 22 21 22 27 35 21 30 21 21 24 30 18 23 28 25 23 22 27 23 24 27 18 24 25 22 18 17 25 21 17 19 19 23 26 23 30 16 28 25 26 16 26 37 18 21 14 23 25 22 12 20 18 18 18 30 27 18 26 19 26 23 22 29 25 25 17 26 18 24 20 24 20 25 26 26 26 29 23 20 26 22 17 28 26 26 22 28 23 16 24 25 22 20 29 12 24 28 32 25 28 31 15 22 16 24 19 22 29 20 22 22 22 13 21 22 15 27 22 19 32 19 23 23 23 28 25 16 18 19 17 22 25 25 19 19 19 23 21 26 24 27 31 23 18 23 26 23 27 18 18 21 22 28 24 28 22 31 24 21 22 21 30 34 28 10 16 37 22 29 17 22 18 20 18 23 20 28 22 26 21 24 13 22 28 15 21 30 20 27 24 28 20 27 14 29 19 15 28 20 22 25 20 18 21 23 21 23 20 28 23 22 23 26 28 23 24 20 27 24 23 30 22 22 24 24 18 19 20 20 23 19 25 23 26 19 26 27 20 24 22 21 25 23 31 24 26 27 17 22 21 20 25 23 27 16 25 23 20 26 32 33 29 26 30 26 29 18 30 21 24 23 22 20 18 25 32 21 28 25 14 23 20 22 21 16 28 26 15 30 24 20 23 23 28 21 17 28 28 30 20 29 26 18 22 29 24 30 26 26 25 17 14 23 20 24 29 33 21 20 26 20 19 31 24 17 29 25 20 28 23 20 24 26 24 24 28 17 27 22 25 20 20 23 29 15 23 24 28 22 19 22 26 21 19 18 15 21 25 27 19 21 26 16 21 24 20 24 21 23 23 22 12 24 22 33 20 19 21 26 24 21 19 21 23 25 22 28 34 18 22 22 17 16 22 28 23 18 22 18 16 26 24 19 21 21 34 21 18 21 23 22 18 27 25 29 17 26 36 25 22 28 17 27 27 28 26 23 21 20 25 19 27 18 22 23 26 29 24 21 29 24 19 17 17 20 18 25 21 21 26 32 23 26 18 21 18 34 25 12 24 21 20 28 24 23 25 13 22 27 25 31 32 27 20 25 27 17 31 14 15 21 27 24 28 16 22 19 26 21 22 22 18 27 29 24 21 17 23 23 23 24 20 20 39 20 28 18 15 16 27 26 19 32 12 22 23 21 30 17 29 34 29 25 21 27 22 35 15 22 25 22 20 22 29 16 17 20 26 19 20 28 27 22 17 23 18 25 25 24 23 18 18 16 24 33 20 21 18 23 24 27 19 20 14 23 26 25 25 20 20 18 28 27 19 22 27 18 18 18 24 22 23 22 22 17 28 30 29 16 19 14 20 24 21 25 19 24 25 33 14 28 19 24 23 23 19 22 21 22 23 23 21 24 23 21 35 25 17 15 25 24 21 14 20 23 22 20 17 20 29 17 22 25 23 22 26 19 26 33 25 12 26 31 16 29 22 15 24 23 21 24 27 22 28 27 22 26 21 26 22 33 27 21 23 25 23 27 35 25 24 19 23 22 20 29 24 22 30 29 29 26 25 30 26 24 19 26 24 21 19 24 26 22 21 28 19 34 24 21 28 26 17 30 17 16 15 24 26 26 26 14 23 20 24 21 29 15 23 20 22 21 24 18 21 26 26 27 28 22 21 31 28 19 20 26 23 24 26 24 25 22 22 19 20 29 27 25 23 14 27 26 23 16 21 21 24 17 26 27 26 23 16 24 25 20 24 24 20 30 21 13 29 12 26 28 17 25 16 17 19 31 16 25 19 24 19 23 27 25 28 22 23 21 23 23 20 26 12 22 16 19 23 21 15 19 27 21 23 21 34 23 23 22 21 26 25 26 27 25 21 13 22 21 31 25 23 19 26 18 23 25 18 20 22 28 25 23 18 29 35 23 15 23 25 21 14 22 19 16 19 17 28 29 29 16 20 22 23 20 29 30 21 27 25 30 18 15 21 15 21 32 20 23 26 25 25 23 14 17 19 23 28 26 26 19 26 17 15 17 25 16 19 26 27 26 29 22 18 24 25 21 25 20 20 22 22 20 20 16 22 18 26 18 24 22 23 24 17 11 21 24 24 22 23 21 30 28 23 28 18 28 22 30 23 28 23 16 27 25 28 22 28 18 21 17 26 22 27 22 26 24 19 35 19 20 25 23 25 25 26 27 20 26 25 25 26 19 30 25 22 27 19 23 33 22 25 29 29 24 24 21 25 24 23 24 22 20 30 26 25 23 16 22 26 19 18 27 18 28 30 24 20 28 19 23 25 33 23 27 21 23 28 21 26 17 24 17 20 22 16 21 16 14 29 16 19 23 27 24 25 25 28 21 26 25 23 18 22 23 20 27 21 35 28 17 22 20 20 32 16 27 24 15 23 23 17 24 19 15 21 17 22 24 30 18 30 23 21 24 22 26 23 28 19 28 23 22 24 18 21 19 22 26 19 32 20 30 21 21 19 29 21 18 27 23 25 18 21 25 18 26 26 27 24 22 26 19 18 28 22 16 24 19 20 29 25 25 29 21 17 25 24 18 23 28 19 21 24 19 16 21 29 29 16 26 30 29 17 26 29 24 23 21 22 20 29 29 20 13 21 28 28 24 22 19 19 20 31 18 21 24 14 26 23 23 19 16 20 22 16 23 12 24 29 24 27 25 18 19 17 18 22 24 21 26 21 22 23 22 22 23 22 25 27 19 24 21 28 19 21 18 23 24 25 31 22 28 24 19 27 18 18 19 18 22 25 11 23 22 28 27 29 26 21 26 25 17 25 24 20 25 19 28 22 21 23 16 22 22 22 22 29 30 25 26 25 23 16 20 28 23 20 14 21 21 21 23 15 21 22 22 21 25 25 18 20 24 27 28 30 25 28 25 21 26 27 24 27 18 22 25 15 18 27 23 27 21 23 22 20 22 24 23 21 24 16 28 15 26 19 30 25 20 20 33 24 16 26 27 19 31 26 22 28 21 22 23 26 25 27 21 20 15 24 24 24 21 29 31 17 28 28 20 25 23 18 29 28 30 27 26 27 19 32 25 19 10 23 35 27 27 25 22 28 25 18 25 22 24 28 27 17 25 17 15 22 17 21 28 25 28 19 22 30 24 20 22 23 24 28 21 21 15 25 21 26 22 25 14 25 29 18 18 25 27 20 23 29 22 20 30 25 14 19 23 21 17 17 17 24 19 22 21 31 27 28 31 19 20 25 33 20 28 36 27 22 28 22 20 32 17 22 17 18 30 22 30 17 32 20 26 24 20 24 27 21 20 18 19 31 24 22 20 30 27 17 16 21 20 24 25 16 29 18 16 30 24 18 30 18 29 25 26 18 24 22 23 22 25 14 23 18 15 20 22 27 18 22 20 22 22 18 26 24 28 25 19 29 18 26 23 28 19 21 21 20 31 30 26 22 15 20 21 22 17 25 21 30 22 24 18 32 25 21 22 24 19 21 22 15 22 26 24 19 24 26 28 34 25 17 25 24 19 21 17 30 29 23 22 39 29 22 20 25 32 27 20 14 18 23 21 22 21 15 20 29 25 21 25 24 27 20 17 22 27 25 18 26 31 20 20 24 16 19 18 20 19 26 16 25 29 21 38 22 24 28 17 26 22 19 17 20 23 20 26 24 31 16 26 27 22 25 29 26 29 26 24 21 24 22 25 24 21 21 16 22 14 27 23 29 17 23 21 26 25 30 22 22 24 28 27 29 18 28 23 25 24 29 25 26 24 30 24 25 20 20 28 23 25 20 21 25 27 26 13 24 27 22 30 26 21 14 26 32 21 22 33 24 24 18 22 32 31 24 21 27 16 20 22 20 32 20 23 26 23 28 17 21 28 20 27 32 23 24 31 19 23 14 18 19 19 17 23 21 25 19 18 24 28 19 19 29 13 19 27 30 30 17 24 19 30 24 18 25 26 18 29 21 25 32 25 17 19 18 20 19 28 23 23 20 29 19 25 17 20 25 26 25 18 28 18 23 24 23 23 24 29 20 22 29 26 25 28 26 18 23 28 21 18 26 22 29 22 21 26 22 18 25 29 27 18 32 26 18 21 27 21 19 30 19 29 22 28 27 29 22 29 23 17 19 29 26 25 19 27 22 22 23 24 29 26 23 17 17 25 20 23 20 21 26 21 26 25 18 27 20 24 19 22 31 15 30 21 29 19 30 17 24 26 19 19 22 26 25 19 17 23 21 16 21 24 20 21 20 25 16 24 24 14 22 25 29 24 22 26 21 17 26 22 14 18 27 19 28 21 25 19 30 21 25 23 22 33 26 23 13 24 35 21 34 21 18 30 24 33 25 26 17 18 23 27 32 26 18 19 22 23 22 12 24 16 30 17 23 16 21 24 19 22 26 20 20 28 16 20 21 26 17 14 27 33 24 23 23 24 21 29 27 24 26 18 28 24 26 21 22 17 26 29 16 24 28 22 22 21 29 30 19 19 22 30 32 22 21 27 28 26 35 24 25 13 24 29 19 21 30 20 26 17 21 29 26 22 19 26 19 19 20 28 30 26 27 25 27 23 25 29 14 21 23 20 27 18 22 29 18 21 25 31 10 24 23 26 21 24 30 31 30 20 32 20 27 21 30 28 28 22 22 17 17 22 26 26 30 20 16 21 28 29 17 23 25 26 19 25 23 21 27 19 19 24 25 18 24 21 18 29 25 33 14 21 24 13 23 24 28 18 20 26 20 15 25 25 20 18 25 21 23 29 24 33 29 20 19 24 31 24 21 26 16 20 20 34 20 20 26 23 26 21 30 20 19 24 20 27 22 31 21 26 21 16 28 22 11 21 25 28 22 20 21 36 20 22 16 25 25 24 12 25 26 20 20 24 24 23 23 22 23 32 23 29 24 20 29 21 23 16 27 20 23 28 32 20 29 26 15 18 22 22 22 34 18 20 21 17 30 22 26 16 19 19 22 19 25 29 20 21 20 25 21 23 17 26 23 24 25 20 27 18 28 20 20 29 25 24 20 19 29 17 13 27 26 31 19 20 30 21 21 14 22 20 22 20 20 19 29 28 26 20 21 25 26 26 22 30 23 22 26 30 23 17 22 18 26 30 23 21 22 30 20 28 28 25 29 25 24 17 19 28 20 28 22 25 18 22 23 22 26 30 25 32 20 19 19 20 19 15 23 27 15 18 31 25 31 24 21 25 26 18 28 23 25 21 30 24 21 18 29 25 25 22 24 17 12 23 14 28 27 18 27 14 20 23 23 26 18 18 24 16 21 20 30 19 24 27 22 21 26 28 21 19 23 19 25 23 25 25 27 17 23 21 28 22 24 33 20 21 18 24 22 20 27 24 24 19 23 21 26 23 23 15 19 23 19 26 28 22 17 24 20 21 25 24 23 20 18 25 26 26 19 23 21 23 27 33 26 20 27 24 26 24 20 21 17 20 28 18 22 24 25 18 26 22 37 18 27 25 22 23 18 28 19 26 21 25 23 16 15 18 29 23 28 22 26 20 19 21 19 18 21 21 15 21 14 27 25 15 32 28 18 24 17 26 29 27 29 20 24 22 26 24 27 22 22 18 15 21 20 17 18 19 20 24 14 21 19 21 25 29 21 26 20 19 30 21 31 20 21 21 21 19 18 23 25 16 22 25 25 21 19 25 21 20 21 24 23 27 21 21 23 23 25 18 18 27 24 27 23 25 26 31 17 25 21 20 20 24 27 25 28 25 25 22 22 26 26 22 23 24 27 25 19 25 27 14 30 23 16 27 14 21 21 13 23 23 25 26 21 25 18 22 34 17 18 26 24 22 25 22 19 25 20 20 23 23 24 21 20 19 29 21 22 20 19 17 23 21 20 22 19 24 30 19 19 26 13 23 21 18 27 22 25 19 19 27 25 19 18 14 17 25 22 15 20 17 24 19 19 27 15 16 24 26 18 20 16 27 20 24 20 21 22 24 21 17 22 19 24 26 28 15 22 20 15 19 22 20 26 22 29 16 21 15 29 22 19 24 25 24 21 12 21 22 30 27 21 19 21 25 22 23 17 21 22 19 27 24 26 27 24 25 17 19 20 22 27 23 25 21 21 30 25 18 18 24 26 16 24 24 25 24 22 23 21 30 28 16 20 25 25 19 26 31 29 19 25 21 25 22 30 27 27 31 21 21 19 23 18 27 20 24 19 15 22 23 16 25 27 24 18 22 20 20 24 29 19 22 16 19 23 21 25 19 25 21 22 19 27 20 20 17 32 23 20 27 25 16 22 18 25 19 29 20 23 18 22 28 15 28 24 26 29 25 26 17 20 25 31 26 20 22 17 37 30 23 25 13 21 24 20 19 15 22 19 22 22 17 24 18 20 19 13 26 16 24 26 15 18 20 25 23 27 23 21 29 24 19 23 22 17 15 24 29 21 25 27 31 15 19 26 38 30 26 26 27 25 31 19 29 19 25 18 28 27 21 29 24 22 23 20 25 17 24 19 42 25 30 21 21 18 20 17 22 29 22 29 24 22 28 26 27 28 23 17 24 17 20 21 22 26 21 20 26 18 23 25 22 15 23 17 18 18 26 19 22 18 22 27 29 24 25 17 27 16 21 30 26 22 21 24 25 17 24 19 24 16 19 33 20 19 21 18 17 20 24 23 27 24 19 23 35 20 24 27 15 21 27 27 17 28 22 22 24 18 23 26 26 24 27 16 21 18 22 26 23 19 24 24 24 25 26 17 20 25 20 21 24 31 14 18 26 24 17 25 19 28 21 26 22 27 24 25 21 14 29 22 25 22 15 17 25 22 16 18 22 28 12 17 27 21 41 24 31 17 26 20 23 22 23 28 18 25 29 15 17 25 24 20 27 23 20 22 23 18 25 22 21 22 22 22 20 22 22 19 26 27 24 19 20 20 19 25 25 22 23 22 18 22 29 25 22 16 31 22 19 32 11 20 23 21 21 23 26 28 13 24 22 20 15 17 31 25 26 17 30 33 27 28 19 25 24 23 22 23 19 16 23 19 18 25 21 18 22 22 25 26 27 19 23 24 18 26 24 24 22 28 31 22 29 13 24 27 18 19 28 29 23 29 24 20 26 25 25 20 18 17 21 15 34 22 20 25 20 20 19 23 27 25 26 32 22 23 23 25 21 16 20 20 28 26 25 20 19 23 22 19 27 26 28 26 19 34 23 20 23 19 20 26 25 21 19 18 30 21 23 26 25 20 20 18 26 20 29 28 27 25 17 18 21 31 22 21 25 34 24 29 21 27 19 20 25 20 19 31 23 28 30 18 25 29 26 22 19 28 22 28 29 27 19 16 25 19 21 17 28 17 17 24 19 19 19 18 30 20 29 21 27 23 23 21 20 28 24 19 19 22 21 13 32 19 20 20 19 24 26 26 23 24 26 15 22 17 20 28 22 18 25 30 17 29 24 17 23 23 15 23 25 20 21 23 25 26 16 19 18 17 29 31 25 28 21 27 25 13 14 24 20 18 27 28 20 26 19 20 20 22 22 26 19 20 16 21 24 26 23 25 20 32 24 30 26 24 20 26 23 26 24 24 20 18 21 22 28 21 22 28 21 13 20 31 21 20 25 21 22 20 22 17 26 23 26 17 17 23 19 20 14 20 16 23 29 21 26 21 32 24 19 20 20 27 25 19 21 25 28 20 22 22 24 25 28 13 26 17 18 20 31 16 20 23 33 19 24 19 31 29 17 24 21 23 26 23 25 29 23 23 30 25 26 25 25 27 25 25 28 21 29 18 25 23 18 29 23 21 25 33 22 23 25 31 22 27 17 26 26 33 20 24 22 19 26 19 16 24 21 26 14 20 24 17 23 27 23 16 29 29 23 15 21 26 19 29 24 13 24 24 19 30 26 26 13 16 28 19 25 21 16 23 24 22 26 18 26 21 20 22 18 32 17 23 25 27 17 24 22 22 26 24 34 19 19 25 18 20 14 28 12 22 26 22 25 28 23 24 15 22 23 24 25 23 12 22 16 22 22 17 34 17 19 26 24 25 25 24 26 16 19 22 22 18 13 20 20 24 22 19 13 19 14 17 20 23 25 34 22 26 19 22 21 26 25 22 23 24 20 23 23 28 31 24 23 24 23 19 20 18 24 24 19 20 23 26 21 15 31 17 23 18 33 20 18 19 22 20 22 16 26 23 20 26 17 21 22 28 18 22 23 19 22 16 23 29 21 24 13 31 33 12 23 24 19 28 26 25 24 26 21 24 24 17 22 15 21 26 22 21 19 25 18 26 20 25 17 24 32 18 26 21 23 26 21 25 26 16 27 20 18 16 26 24 28 21 14 24 26 25 21 22 22 24 25 26 23 20 37 27 29 28 29 21 23 24 25 23 24 29 16 25 22 18 20 15 24 24 21 15 32 17 26 22 25 20 19 21 26 27 21 25 26 21 25 22 34 20 18 24 21 29 26 20 20 24 26 29 26 21 26 25 26 28 21 24 21 23 18 25 29 29 24 21 21 32 25 27 21 11 23 23 23 24 29 31 29 21 24 21 16 23 23 12 27 19 22 24 22 24 19 25 19 22 28 20 17 18 21 18 27 23 25 27 17 27 27 26 26 27 22 23 26 19 22 22 14 20 21 24 23 18 28 25 23 24 26 25 25 26 24 25 34 26 18 22 23 25 23 25 19 21 24 16 23 18 24 23 22 22 21 19 14 24 20 24 25 30 17 24 28 29 23 32 24 20 28 24 23 18 25 21 23 33 24 21 27 19 19 27 25 20 19 29 21 22 31 21 24 22 28 15 27 25 23 20 15 23 33 28 20 19 28 16 26 24 21 22 36 21 26 27 21 20 24 24 23 28 22 22 22 22 21 22 22 27 21 16 22 26 17 22 25 15 17 25 17 17 20 28 23 24 23 24 15 27 18 23 21 25 33 37 26 23 38 27 21 19 24 21 19 30 26 23 23 31 31 22 24 26 24 19 27 26 25 23 20 27 24 24 26 23 25 28 21 24 22 19 21 17 26 18 15 20 28 21 18 24 30 23 17 33 22 23 22 22 26 22 22 15 18 23 23 28 28 25 12 26 18 38 23 16 20 17 27 37 23 19 22 24 22 22 22 24 30 22 21 17 23 18 20 29 28 26 19 27 17 19 20 16 33 25 28 21 26 21 29 34 23 24 16 18 16 17 24 26 24 32 22 35 23 20 13 20 25 20 25 24 22 22 39 28 25 25 20 28 21 22 20 15 22 29 17 21 21 19 20 19 18 32 27 23 24 28 32 16 34 25 26 13 27 16 26 29 26 20 20 23 25 23 20 28 26 16 21 23 21 30 24 20 26 29 24 21 28 18 18 25 27 26 17 23 18 27 20 27 19 24 24 24 23 21 19 25 24 25 23 26 16 12 17 24 26 23 24 26 27 22 23 17 24 24 19 20 23 16 28 28 21 21 18 33 19 35 29 20 21 22 23 27 21 28 23 19 25 26 24 22 26 14 27 25 31 21 21 27 25 20 26 22 25 25 29 22 30 35 20 21 22 20 20 19 34 23 27 22 19 19 17 30 18 19 26 29 20 24 19 21 20 23 23 21 16 28 28 26 30 20 28 27 24 23 24 25 17 19 24 22 26 34 18 26 24 22 21 18 27 26 16 22 24 16 22 17 31 18 24 25 24 30 29 14 21 24 25 26 25 17 23 11 15 23 25 18 23 26 29 20 24 22 19 27 19 25 18 27 36 28 25 31 31 20 22 18 23 17 25 15 25 19 17 23 29 21 23 41 26 22 18 17 25 17 20 22 22 24 23 20 27 30 20 21 21 26 17 25 16 22 22 25 15 19 26 23 18 25 21 25 24 21 26 24 26 21 19 24 24 21 27 24 19 16 20 29 24 21 23 17 23 14 30 17 31 10 22 18 17 32 21 21 18 24 28 27 28 15 34 19 17 25 21 20 14 26 33 21 23 21 25 23 29 18 22 20 19 27 27 24 22 25 29 25 20 19 17 29 19 22 23 15 22 17 17 18 24 17 27 20 22 21 21 22 20 30 23 25 24 20 24 16 19 29 19 23 20 21 33 22 37 23 24 24 15 24 24 25 19 19 23 23 16 25 30 21 24 24 29 26 19 26 24 20 29 24 23 33 19 21 28 25 18 21 23 21 22 24 19 26 26 26 25 14 23 19 22 19 20 22 24 24 23 30 25 23 19 20 25 30 25 21 22 19 29 24 24 24 23 19 23 24 23 16 23 16 22 28 22 24 18 23 16 27 25 22 18 26 19 22 18 24 23 18 25 26 13 24 21 18 22 27 28 20 17 19 30 28 26 19 22 20 26 23 26 28 16 27 21 17 29 22 26 18 24 30 24 31 19 23 20 30 23 25 24 26 25 23 17 28 21 21 21 25 22 22 28 18 24 25 23 23 17 19 31 21 25 20 26 17 25 11 21 17 24 24 26 20 20 19 22 21 14 17 21 31 29 27 17 25 24 18 16 22 22 23 29 24 22 28 25 22 23 19 27 25 24 22 26 16 27 27 23 20 29 19 23 21 15 16 21 20 27 21 21 25 22 21 22 25 24 16 24 21 21 29 20 16 20 22 29 28 26 26 20 22 19 19 21 28 18 17 16 17 31 21 19 28 25 16 21 26 19 22 21 22 31 19 26 25 18 25 28 25 22 32 24 25 25 37 21 26 18 16 18 35 22 25 26 26 16 27 18 20 22 23 25 17 26 19 18 34 22 22 23 25 22 23 19 22 23 25 31 25 31 20 30 22 23 20 28 26 24 26 31 24 29 22 22 25 25 23 21 29 22 15 27 27 22 24 28 22 14 27 20 26 30 22 21 30 25 22 19 17 24 24 20 26 29 26 26 21 26 26 23 19 22 26 21 27 22 21 27 29 18 25 25 21 15 28 24 32 22 20 27 21 21 24 19 22 19 24 26 20 28 18 24 31 20 22 30 25 17 20 20 21 15 23 23 18 17 16 23 27 35 21 17 23 23 17 32 30 29 20 22 21 19 27 20 17 21 27 35 23 24 19 22 18 26 21 26 18 22 22 25 23 20 24 26 21 25 20 19 29 18 27 21 29 22 24 24 19 22 29 26 28 23 21 28 22 16 23 19 23 21 22 20 18 23 21 15 24 21 29 20 24 27 24 25 27 21 19 20 21 13 24 24 25 22 25 30 23 22 26 23 23 25 20 17 23 22 21 25 35 38 20 25 25 19 21 20 20 20 24 17 20 29 20 23 27 25 19 25 19 28 13 22 23 21 25 27 23 27 26 12 25 21 19 18 19 20 22 28 28 17 20 26 22 24 24 16 23 25 20 14 24 22 20 31 19 28 23 22 20 25 23 29 21 26 27 25 23 24 18 18 31 17 22 21 25 17 22 22 27 18 22 27 21 22 32 19 26 25 25 16 22 23 25 25 25 24 19 27 19 15 26 33 23 22 18 20 20 20 26 29 27 19 29 20 31 16 33 28 19 24 24 19 27 20 19 14 17 24 29 17 33 29 25 18 24 19 20 17 22 17 22 27 25 25 28 25 25 22 24 29 17 20 22 29 21 18 28 19 15 16 33 29 20 10 20 24 23 21 33 16 25 20 17 28 17 32 29 20 26 19 22 19 26 14 31 24 16 26 23 23 27 22 26 13 28 25 28 21 18 24 14 17 18 24 24 22 24 20 30 18 23 23 23 23 30 30 22 29 23 16 21 22 18 23 26 19 26 14 22 29 17 21 27 18 27 25 28 26 23 21 23 20 21 32 32 19 28 30 25 25 14 11 26 22 21 17 20 28 28 21 26 18 28 28 22 24 25 18 27 21 25 26 24 14 25 26 13 22 21 27 24 24 26 20 22 25 22 22 19 22 18 30 19 18 22 21 27 21 24 24 20 17 24 27 21 29 18 12 22 19 20 21 30 19 24 19 28 18 25 24 21 19 24 24 30 28 24 20 22 21 27 20 14 16 20 30 24 21 23 24 20 23 25 24 22 27 20 21 22 29 14 16 17 15 21 22 38 25 28 26 26 26 30 23 20 20 19 19 21 21 24 28 24 19 20 19 24 27 26 14 23 25 24 23 20 21 19 26 19 21 27 27 33 24 21 35 27 30 23 23 26 24 32 28 30 27 20 23 23 32 14 19 22 12 22 26 17 20 19 23 24 23 27 18 26 20 26 25 29 15 20 26 21 28 29 20 22 17 22 24 19 23 22 24 23 22 30 21 21 17 20 21 23 17 18 21 26 31 26 13 32 15 24 19 26 27 20 18 23 24 24 13 21 23 23 24 21 25 20 22 25 21 17 19 27 26 26 23 21 22 17 22 21 19 25 22 25 21 28 23 23 21 18 28 37 21 28 22 13 24 13 18 26 21 24 17 19 24 28 23 26 20 22 25 24 32 25 20 25 21 22 17 25 23 32 19 26 20 23 28 32 21 30 17 23 18 22 20 21 28 29 24 24 27 18 22 17 25 17 22 27 26 21 23 29 24 18 14 28 13 20 20 24 28 21 20 35 22 24 26 20 22 15 26 26 14 21 25 18 24 25 20 26 17 27 29 25 20 22 25 25 24 24 27 20 17 29 26 18 27 24 29 18 25 19 23 18 21 20 20 22 30 24 32 27 19 25 19 18 23 21 23 25 31 23 25 22 26 16 26 11 26 29 19 27 23 23 20 28 20 17 21 23 17 26 18 22 20 25 22 26 27 26 26 34 22 30 29 17 23 28 22 26 30 21 30 21 34 26 22 15 18 27 21 14 23 19 24 22 21 31 33 22 32 26 26 22 24 23 27 25 22 18 17 26 24 29 29 20 24 22 31 26 14 23 23 19 24 17 23 16 20 32 23 23 24 26 19 26 24 21 29 21 25 18 22 27 25 32 26 24 19 20 19 28 15 22 20 25 21 25 22 23 28 22 23 27 24 19 21 18 28 27 17 23 25 21 15 28 24 26 22 32 22 22 17 22 23 27 17 28 24 18 19 22 21 21 19 19 22 29 26 26 27 23 31 26 19 26 26 27 27 20 22 17 24 24 19 28 19 28 21 27 20 23 22 22 24 21 28 26 25 28 24 21 36 22 23 23 22 23 21 21 27 16 17 21 21 29 23 26 21 16 20 26 21 18 30 22 27 27 14 25 25 23 18 30 19 19 31 15 24 28 22 24 18 28 27 24 23 20 27 20 19 23 30 25 23 25 23 23 25 22 30 23 21 21 24 24 23 29 24 18 15 20 31 18 31 22 16 26 21 23 19 18 20 23 19 18 28 28 26 20 12 18 20 24 23 21 22 22 25 18 25 31 14 25 25 24 22 22 21 22 25 14 22 22 22 17 20 19 24 24 19 18 18 20 13 20 32 21 21 19 28 19 20 16 22 20 22 29 25 22 22 16 25 25 24 18 24 20 22 24 22 19 27 28 21 21 15 24 18 23 20 20 22 24 26 22 16 25 20 15 31 21 28 32 28 30 17 22 24 27 24 22 19 26 18 26 32 28 17 24 12 13 17 19 20 23 22 23 28 26 27 20 29 20 22 21 26 20 18 23 27 25 24 20 25 24 24 23 24 24 31 21 19 29 18 23 26 18 17 21 24 25 23 22 21 30 19 21 23 29 17 24 18 23 19 26 23 26 28 24 23 12 25 22 24 12 17 15 17 31 18 19 26 26 27 25 23 25 30 25 24 22 20 21 29 29 21 26 28 24 21 30 27 25 17 17 28 25 21 23 22 27 14 20 27 32 26 25 17 24 24 19 23 25 14 23 22 24 25 23 23 27 29 23 20 28 24 18 22 22 22 25 14 23 19 18 17 28 29 19 19 16 26 25 18 22 21 22 29 31 19 19 23 24 18 24 22 28 21 22 18 19 22 17 14 21 24 30 18 24 21 23 23 25 22 25 23 24 26 23 18 24 17 27 24 27 29 22 24 25 35 28 25 23 25 17 19 20 26 21 29 18 22 21 24 20 26 17 24 17 23 15 26 21 26 20 23 28 20 28 21 17 33 21 24 22 30 17 18 27 25 20 27 21 27 27 22 20 23 22 19 22 22 21 20 28 20 26 18 24 23 17 22 29 30 24 17 19 26 20 18 28 24 20 25 13 17 17 21 25 24 26 15 29 26 16 17 19 18 18 22 26 20 29 27 22 35 19 29 22 28 16 32 23 24 25 28 22 25 22 20 21 28 24 26 30 24 22 26 28 24 31 17 19 21 17 25 19 29 24 21 21 26 23 27 22 31 17 28 20 34 22 25 24 24 19 28 21 28 23 25 20 19 30 24 30 20 25 18 25 23 25 29 29 24 22 16 30 24 24 21 19 20 29 25 23 25 25 23 16 20 27 25 21 22 26 23 28 21 15 24 13 24 16 28 25 20 21 17 22 24 25 33 25 20 19 20 21 22 20 28 27 31 26 28 15 23 22 25 18 22 26 24 21 18 21 26 19 18 18 27 25 24 19 20 22 25 25 27 32 21 19 23 20 21 16 29 18 29 27 26 21 19 22 22 16 23 24 24 18 24 22 27 23 20 19 18 21 22 20 27 24 23 22 22 14 18 32 20 21 28 20 17 22 24 27 22 27 21 19 24 25 25 25 25 17 23 25 22 17 24 29 26 26 12 25 23 18 17 18 20 13 21 20 26 19 19 18 27 25 24 22 23 23 13 21 24 24 17 31 23 21 25 33 24 19 21 20 24 21 25 17 23 21 23 27 21 21 20 23 18 27 26 18 26 17 25 18 26 23 24 26 19 24 26 22 24 15 28 26 16 13 22 23 27 19 19 19 23 26 27 23 19 15 25 23 19 15 19 18 21 29 30 19 23 21 22 18 21 27 22 25 27 17 21 24 22 22 20 24 23 20 22 18 28 20 22 28 16 21 24 16 19 26 22 23 28 21 23 21 15 22 22 31 12 27 29 24 22 25 24 27 13 19 19 16 17 23 17 23 19 23 18 22 24 30 21 20 18 19 14 34 16 18 25 19 27 25 14 23 22 23 19 22 21 21 19 16 19 25 20 28 25 17 23 24 27 26 16 20 18 22 20 25 21 22 29 20 29 18 18 21 31 29 20 25 29 20 22 19 24 26 25 27 22 21 18 26 21 29 26 28 24 21 22 21 24 22 23 15 15 15 20 26 29 26 22 29 17 27 23 17 23 16 22 29 26 22 21 27 27 23 23 29 17 22 21 23 17 23 22 24 15 20 20 29 21 16 26 29 31 22 12 19 26 24 25 12 24 17 19 23 18 15 29 21 26 21 22 27 20 27 28 25 19 16 31 20 20 24 27 23 19 27 22 21 21 19 28 20 15 25 27 18 27 19 21 24 22 28 24 27 20 21 26 12 23 20 26 23 26 16 26 24 22 26 22 24 24 22 25 26 22 25 23 25 25 23 19 18 30 21 27 25 18 11 24 13 28 17 21 26 29 21 25 29 20 21 28 28 20 19 25 21 23 21 23 29 24 19 19 22 26 29 27 25 22 24 20 17 22 24 22 23 23 27 30 14 18 23 25 23 29 20 22 26 20 26 24 22 25 30 16 24 16 19 27 17 21 16 26 20 23 18 22 28 15 19 26 17 13 17 24 26 16 24 19 24 25 24 16 21 18 28 19 16 16 21 21 25 24 24 18 21 17 22 25 23 23 23 22 21 24 18 29 22 21 20 23 24 27 22 20 27 13 19 22 26 28 29 31 21 28 22 30 20 23 25 27 28 28 23 23 26 28 18 23 19 21 25 32 20 24 32 24 25 21 25 19 24 22 24 14 17 19 22 23 24 28 27 19 15 17 23 22 31 21 23 12 31 26 22 18 25 20 18 11 23 18 18 20 29 19 20 26 28 22 18 25 23 23 24 31 24 28 21 19 22 24 13 22 18 17 32 22 19 25 24 17 27 21 29 21 24 26 16 22 17 16 31 25 12 18 27 17 21 18 30 23 21 20 23 21 22 21 23 28 25 25 23 26 18 25 19 25 23 21 25 22 24 21 23 23 12 21 29 19 19 21 33 27 26 21 20 20 22 19 22 24 25 18 23 20 19 25 28 25 24 26 27 23 20 22 15 17 22 28 22 31 19 22 25 16 18 20 18 16 24 27 15 22 30 20 25 27 25 29 28 22 28 22 20 25 15 26 24 24 22 26 26 27 28 20 27 22 27 21 30 20 32 25 35 29 29 22 16 21 19 27 22 26 27 19 27 23 16 27 21 22 23 18 14 23 24 23 19 23 24 26 22 31 21 12 17 20 20 27 23 17 20 18 28 26 29 21 31 18 17 19 25 22 28 20 18 22 24 24 21 20 23 29 24 24 16 22 25 23 24 22 27 12 23 21 26 24 27 19 16 17 25 21 14 20 19 15 22 21 23 27 18 28 25 22 31 16 20 24 19 23 21 25 26 17 7 16 24 22 23 23 25 22 23 18 22 20 22 15 29 17 21 29 22 33 18 25 17 23 29 26 22 19 27 16 21 23 18 16 25 30 19 24 26 21 25 30 23 28 25 17 29 17 28 25 22 18 23 27 24 20 24 18 14 22 18 23 25 29 22 24 28 27 21 25 23 30 27 24 28 21 22 18 18 22 29 20 27 19 14 27 18 17 21 24 17 19 18 12 23 25 35 22 27 20 20 19 16 24 18 27 20 19 26 19 30 34 26 22 21 25 22 14 21 25 25 17 26 23 17 22 20 25 26 18 33 24 20 18 25 15 18 20 20 24 21 27 22 29 19 24 25 18 20 24 28 24 19 24 25 31 19 29 17 19 24 27 18 20 19 21 23 27 29 22 26 24 25 15 24 26 26 22 27 26 35 30 17 23 26 28 25 18 24 23 19 27 17 15 25 26 20 19 25 23 17 25 28 15 25 23 19 20 21 13 21 25 24 16 23 23 23 24 19 27 20 20 23 29 28 17 19 28 24 22 24 19 25 20 33 23 26 24 18 25 26 24 20 28 25 25 25 24 27 17 23 21 25 23 23 25 36 19 18 19 28 31 21 22 21 26 24 20 22 21 29 20 21 23 24 19 21 25 20 31 15 21 24 24 27 22 22 23 22 24 25 23 30 27 26 26 28 19 23 20 18 21 24 19 19 19 18 19 19 20 19 17 26 22 25 15 26 24 31 31 22 23 23 18 16 23 21 26 36 26 27 23 14 28 25 24 18 24 26 24 22 29 20 22 26 17 22 26 36 24 32 28 21 26 18 21 17 28 21 22 18 25 21 20 26 23 27 34 24 23 18 14 18 21 21 25 15 18 25 21 24 30 23 19 23 27 24 26 28 20 20 24 34 31 23 28 16 20 21 29 24 24 18 20 27 17 18 21 27 22 23 26 34 21 26 16 19 31 27 24 22 23 16 25 28 19 19 19 35 19 19 28 20 24 26 22 18 31 20 21 22 23 24 23 21 19 21 23 23 19 27 16 13 28 24 22 15 21 34 18 35 20 18 19 26 16 20 20 21 13 24 20 21 23 18 19 22 21 30 20 18 19 30 16 17 24 26 26 18 21 22 21 28 22 27 21 26 21 15 19 25 29 17 16 27 25 18 24 26 13 21 20 25 24 28 27 22 23 25 20 24 22 19 27 31 20 22 25 22 26 22 21 17 23 24 21 29 21 25 23 24 20 23 22 28 21 27 22 25 23 28 19 22 21 26 30 22 21 28 20 17 22 29 26 19 21 20 22 21 19 26 19 32 29 27 27 25 22 23 22 20 20 17 22 21 20 31 21 22 29 14 21 24 32 18 21 24 24 23 20 21 23 20 15 23 25 37 31 27 20 15 21 23 20 21 27 20 24 14 15 22 25 19 20 29 14 22 18 23 27 19 14 26 21 20 22 25 20 25 20 28 22 18 18 20 19 22 22 30 23 19 25 19 15 22 23 21 31 22 19 29 25 24 30 29 27 24 25 21 24 31 17 21 27 26 26 22 27 18 31 24 19 31 21 25 20 22 22 26 26 18 22 27 26 23 15 25 18 20 19 25 29 23 17 28 22 20 29 29 25 24 24 25 34 21 24 31 31 18 31 18 16 29 25 26 23 22 20 16 17 22 23 25 25 25 18 23 26 26 20 28 27 24 24 23 18 20 27 16 17 16 25 17 21 33 27 23 21 26 32 25 34 26 21 18 24 24 21 31 23 20 18 25 21 21 17 22 23 23 21 31 27 24 23 16 22 19 36 19 20 21 26 25 16 34 19 15 27 29 23 19 27 25 33 28 22 25 26 23 25 20 14 18 27 27 24 30 22 22 23 37 24 12 20 23 20 24 22 23 27 24 25 18 28 22 19 20 25 25 20 15 21 22 17 22 21 29 27 31 19 19 26 26 31 26 19 24 26 22 22 14 21 17 20 25 25 20 28 22 15 16 21 26 25 23 22 19 24 30 20 27 18 25 27 15 20 25 18 15 28 21 23 22 22 24 25 23 21 25 32 25 20 21 20 19 20 23 15 12 30 26 28 25 29 22 23 21 23 20 28 18 16 23 27 15 28 22 24 25 22 12 25 15 20 26 11 17 20 19 24 22 28 28 27 30 28 24 24 28 24 25 23 24 19 19 26 25 23 33 23 23 22 14 18 21 19 23 19 22 21 34 26 26 20 23 34 27 19 25 21 13 20 19 23 27 22 22 21 21 21 19 22 24 20 20 15 23 21 22 19 34 21 26 20 28 21 20 20 16 29 21 24 25 24 25 24 24 22 24 25 33 23 20 22 19 28 31 22 21 22 15 23 31 19 19 20 21 26 20 22 25 17 18 23 14 24 25 19 23 27 21 21 20 23 30 21 14 27 11 22 23 16 20 24 22 26 24 16 25 22 19 24 18 25 34 22 18 29 24 21 24 26 24 23 27 13 28 17 26 18 26 26 24 21 29 22 16 22 26 20 26 17 25 19 27 18 20 23 23 27 28 19 15 21 29 17 18 20 29 26 20 24 25 18 21 24 20 24 34 24 27 19 23 14 20 25 26 22 26 13 30 21 16 21 26 22 23 26 24 21 13 22 24 28 24 27 23 20 19 25 18 18 25 21 19 30 25 23 23 20 26 18 25 26 28 24 15 13 19 22 16 29 23 18 30 21 19 27 26 23 20 28 20 26 24 21 28 25 21 26 19 24 21 23 27 26 20 19 18 24 23 29 21 22 14 22 23 17 20 24 16 24 21 23 26 24 35 19 27 28 21 26 20 29 24 26 25 33 24 18 25 21 23 27 21 26 27 21 24 26 23 21 31 27 26 30 24 31 21 26 28 21 35 17 26 20 20 25 34 22 34 18 22 25 22 26 23 21 20 22 26 27 24 18 24 25 23 16 27 22 24 22 24 23 14 21 16 26 29 21 23 26 20 20 26 26 26 16 22 22 18 19 27 21 32 27 27 22 24 17 27 26 22 20 24 25 26 32 18 20 18 26 31 17 20 19 29 25 25 21 21 22 18 26 23 19 21 24 22 19 26 19 28 23 20 17 30 26 19 20 26 14 20 29 21 18 19 21 23 24</t>
-  </si>
-  <si>
-    <t>GAM(54.79873880268961, -8.780325286869484, 0.7994714088709902)</t>
-  </si>
-  <si>
-    <t>36 26 34 31 26 38 35 37 33 37 30 31 40 28 47 36 28 32 36 34 33 33 31 36 34 44 41 52 48 34 40 43 35 32 38 28 39 31 34 28 33 27 31 27 36 47 39 31 34 32 46 38 41 34 31 29 32 34 40 27 43 34 37 33 43 23 32 41 30 30 46 37 24 35 31 23 35 23 48 38 32 36 33 36 41 34 30 28 34 35 31 35 37 33 41 33 50 29 33 44 44 33 33 35 28 28 34 37 41 38 48 40 40 34 37 35 42 36 37 25 33 36 28 30 29 24 34 27 30 31 37 31 42 45 33 27 33 40 33 31 34 43 26 32 23 33 32 39 34 33 32 34 42 44 38 44 30 36 36 36 34 32 42 36 21 38 44 22 39 35 34 30 33 33 36 34 43 27 42 47 46 34 33 36 47 28 31 39 23 33 36 31 46 33 38 33 34 40 37 36 31 37 30 48 34 40 26 35 30 52 26 33 29 33 35 33 28 46 39 37 36 36 37 38 29 41 34 37 37 41 41 53 35 32 32 44 32 26 37 36 37 39 36 36 36 41 33 31 35 32 39 33 25 33 32 38 29 19 29 30 34 37 36 41 45 33 28 32 29 31 38 37 35 37 40 33 30 49 45 43 50 41 34 35 34 32 39 44 35 34 47 30 50 38 25 30 34 36 38 28 39 38 34 32 39 32 43 29 36 33 45 34 32 28 36 36 35 38 37 43 32 32 31 34 39 39 35 42 32 26 48 36 34 29 41 26 38 34 39 27 36 40 34 33 30 26 35 42 38 30 37 37 34 37 34 44 39 39 37 37 38 34 34 28 29 33 32 32 30 32 38 32 30 27 28 40 35 38 26 46 32 37 39 44 35 41 36 37 31 23 44 43 34 39 42 33 38 35 37 38 36 38 30 35 32 50 50 26 25 38 42 38 25 24 43 30 40 36 22 45 35 39 38 42 34 51 34 31 34 35 38 48 43 29 34 42 35 50 34 38 35 33 32 22 42 39 30 22 36 36 33 38 37 34 41 29 41 43 29 42 33 42 34 27 25 31 37 40 36 36 34 31 31 32 41 38 34 29 33 36 34 41 48 31 35 34 32 30 26 32 31 33 30 30 38 43 40 26 37 49 41 27 28 31 42 39 31 28 30 31 31 35 38 45 39 39 28 40 27 33 31 29 35 42 41 41 44 35 41 29 38 38 30 36 33 29 35 32 38 28 30 34 28 27 26 35 37 40 38 22 41 38 36 28 40 50 33 25 32 38 34 39 32 33 37 30 38 28 35 40 34 38 32 28 28 23 33 39 43 42 25 45 32 36 36 35 36 25 39 28 34 32 39 30 29 35 28 36 43 24 32 37 32 34 35 36 22 28 30 39 39 35 37 36 40 36 45 29 34 35 43 30 41 32 31 38 36 36 38 36 34 30 31 36 37 41 34 33 36 27 39 33 34 36 37 55 26 33 35 30 27 34 33 35 33 33 40 35 31 36 34 27 27 41 29 39 42 52 36 33 35 50 41 37 28 28 40 36 41 46 36 32 37 27 33 33 42 31 32 40 30 37 39 26 31 29 23 46 39 29 41 32 32 28 28 29 34 38 34 37 32 23 31 31 48 39 38 33 37 45 36 24 30 33 33 44 27 23 37 32 35 43 25 35 43 28 44 26 36 42 27 30 34 37 34 26 27 37 34 43 38 36 36 20 31 31 40 30 33 36 38 35 25 42 38 34 43 41 27 34 39 30 34 28 31 42 35 37 46 40 41 26 30 33 34 31 34 27 40 33 39 30 50 34 32 30 38 33 35 34 34 37 28 36 34 47 28 38 37 39 28 49 33 40 33 32 43 40 36 26 36 31 32 29 28 36 42 37 33 40 40 38 46 37 41 31 44 38 35 39 32 30 33 23 31 34 58 28 33 32 34 28 40 39 41 43 35 29 29 53 26 39 31 34 35 33 33 40 33 32 31 31 28 39 27 41 30 42 32 30 39 32 43 47 31 35 40 30 24 38 37 43 37 33 36 40 41 36 40 37 47 26 25 38 33 35 39 33 32 39 31 40 37 29 44 40 27 36 23 39 31 30 29 36 30 35 35 40 33 25 36 37 29 39 31 36 23 38 39 35 25 24 35 30 35 34 28 24 42 31 27 42 35 36 29 29 39 31 32 22 46 39 28 24 34 45 35 33 28 31 31 41 30 47 37 30 34 43 41 36 30 35 37 39 39 35 39 30 40 35 33 34 38 35 23 38 29 41 30 38 35 43 32 29 42 34 38 36 37 44 36 34 32 34 26 26 37 43 31 35 43 31 31 41 35 43 37 41 34 48 38 42 37 33 38 40 45 32 35 36 33 35 31 38 36 31 41 33 31 35 38 28 38 31 25 30 23 28 41 35 38 24 29 34 32 38 50 35 41 33 38 37 32 38 31 36 35 33 35 37 37 36 31 28 23 37 49 34 37 27 25 28 34 33 32 36 32 27 24 39 36 34 31 39 32 35 36 36 39 29 44 25 27 38 39 49 43 34 30 34 37 40 34 38 30 35 37 23 36 34 36 33 29 32 39 36 29 29 39 41 34 40 32 31 39 40 33 35 47 33 49 37 37 40 32 38 36 38 47 44 37 31 28 39 25 28 32 32 41 37 37 48 43 39 33 45 35 30 39 33 42 31 41 23 44 42 33 32 36 45 38 29 48 37 28 48 46 37 49 30 38 38 28 32 37 46 42 30 40 31 33 33 38 39 35 28 39 43 37 41 28 41 23 37 28 36 39 30 32 32 32 28 37 32 39 36 38 36 44 25 34 29 40 31 27 23 34 37 31 30 40 46 36 35 31 21 35 39 30 27 46 37 37 41 48 37 42 31 47 27 34 35 30 35 30 39 29 33 27 32 39 39 40 41 32 35 33 35 33 37 44 28 30 35 36 30 34 31 38 33 31 29 38 30 30 31 38 36 46 38 32 37 35 28 39 32 33 37 32 42 34 30 42 26 35 28 36 34 30 26 29 36 35 38 35 33 30 40 28 42 40 54 30 35 41 37 32 37 36 47 53 29 34 38 35 37 47 32 38 37 34 36 28 24 39 38 40 41 38 28 27 41 41 33 39 39 30 34 32 36 29 30 33 42 28 35 33 28 54 30 40 47 35 27 37 35 37 31 38 53 40 42 35 31 35 39 33 35 48 32 38 32 35 35 37 47 40 35 36 34 31 30 41 35 22 32 34 33 38 33 41 28 37 33 31 24 37 56 30 31 27 31 38 33 23 33 27 26 30 40 44 31 38 26 32 34 35 50 34 34 20 40 26 33 27 36 31 46 35 37 37 41 36 28 39 28 24 37 48 36 38 41 37 23 39 35 33 34 43 23 36 45 46 35 35 39 28 31 30 33 37 38 51 32 33 35 33 19 37 35 29 41 30 28 45 37 33 36 42 42 34 26 27 29 28 31 45 34 27 30 33 33 33 36 33 53 45 30 28 34 43 35 41 27 34 38 30 37 37 38 35 46 35 37 40 36 36 47 42 20 31 52 32 36 28 38 26 38 32 32 27 35 24 36 34 38 27 33 38 29 31 46 34 34 32 42 36 31 26 42 32 28 39 40 32 33 29 30 33 36 33 40 35 42 37 34 36 46 40 37 32 37 38 39 39 55 32 29 32 41 29 31 30 38 33 26 36 37 39 30 41 33 32 31 34 40 36 26 49 32 44 46 34 33 34 28 37 34 31 24 38 29 24 44 47 40 42 39 40 38 39 38 39 33 36 40 30 32 33 33 49 36 41 35 22 37 29 31 31 25 41 37 26 42 41 28 31 39 43 36 24 43 39 50 38 38 35 28 38 42 35 45 41 39 36 29 31 41 30 36 36 42 31 33 36 32 30 36 36 35 46 38 26 48 31 42 49 38 33 41 41 28 39 37 40 33 34 31 43 33 35 40 41 37 31 33 45 40 29 30 22 31 34 35 34 33 41 31 30 35 29 39 33 40 33 37 25 33 40 41 30 35 31 38 31 35 24 27 31 30 34 37 44 26 33 33 33 29 30 32 31 29 36 30 26 35 46 36 28 27 42 31 30 34 35 25 34 35 45 42 34 38 51 35 33 37 24 43 37 45 40 33 32 31 39 36 32 32 30 37 36 46 28 37 41 42 29 30 34 36 26 37 30 35 43 43 37 37 24 31 29 45 37 24 27 38 35 39 35 32 39 33 36 44 34 46 41 48 31 33 39 34 38 23 24 31 41 36 39 26 29 29 36 39 35 37 28 42 40 32 41 25 37 34 38 36 25 34 51 30 42 36 31 26 35 36 30 42 18 33 29 39 41 24 42 49 38 31 34 35 39 52 20 31 30 38 42 40 39 29 34 36 38 30 32 44 36 30 29 40 26 36 38 34 34 31 36 21 32 41 37 38 24 36 42 40 32 28 25 35 33 37 33 34 36 29 42 41 40 36 39 30 32 25 37 33 32 33 36 29 41 40 39 27 28 26 28 36 32 37 32 30 37 38 22 39 24 32 40 34 27 42 37 33 35 34 32 34 37 30 49 34 32 33 36 32 35 29 33 35 33 31 32 30 37 27 41 45 38 28 38 36 44 46 36 25 38 47 26 40 33 30 31 34 32 34 41 30 35 44 31 38 33 36 36 48 35 34 34 34 41 46 42 32 33 28 39 34 37 38 34 34 41 41 41 34 30 42 41 35 32 38 30 32 33 36 40 29 28 42 27 46 36 31 38 38 32 44 29 25 25 46 48 43 35 28 39 27 31 36 50 29 32 29 29 31 40 31 29 39 38 40 36 29 33 43 46 26 34 48 40 37 34 34 38 46 31 30 36 38 37 34 38 30 38 41 34 26 30 29 37 29 42 45 32 31 29 47 32 26 36 40 36 41 33 25 37 21 44 38 31 32 26 32 29 44 25 36 34 36 30 27 48 37 38 28 39 32 34 41 31 35 16 25 25 29 29 37 29 47 41 31 36 37 50 41 40 33 35 33 40 42 41 35 33 24 38 36 51 34 40 30 34 28 40 37 33 32 33 40 34 30 33 40 55 34 27 37 39 41 30 34 33 33 31 28 36 41 39 28 27 38 39 27 42 43 40 36 45 42 31 26 33 23 35 45 30 34 43 36 32 39 19 27 35 30 41 38 38 35 40 26 35 40 35 24 39 40 36 38 41 37 24 36 36 39 38 30 35 39 35 35 33 24 35 36 32 31 36 33 34 40 25 18 33 34 31 33 37 29 40 41 36 38 39 42 40 44 40 37 35 31 37 38 41 35 42 30 47 32 35 27 35 32 39 44 32 46 25 34 37 39 41 33 38 42 31 33 40 38 39 30 48 39 36 39 33 32 43 33 40 44 43 34 38 33 32 37 33 30 32 29 37 35 34 33 27 31 36 33 29 42 28 36 42 35 31 46 24 40 36 44 40 37 32 40 37 32 38 30 37 24 31 44 28 39 26 25 47 29 30 35 38 31 39 47 38 38 42 49 41 25 32 34 29 41 36 46 35 29 33 28 24 41 23 38 31 30 29 32 35 34 39 29 34 25 34 36 42 35 39 42 30 34 35 35 33 43 29 45 38 39 38 30 34 30 39 37 29 44 35 46 37 29 36 44 32 33 40 33 34 30 35 38 30 36 40 38 43 36 40 30 26 35 30 27 36 27 33 40 37 41 37 30 32 33 33 28 33 43 36 32 36 31 26 36 49 44 31 39 47 45 25 44 42 35 36 35 31 32 45 37 39 26 40 33 38 38 29 30 34 34 52 30 35 36 26 42 37 38 33 28 30 29 30 38 21 27 37 35 44 39 25 26 35 33 34 34 38 32 29 30 36 32 33 37 30 37 39 34 33 38 40 30 29 28 38 35 48 41 33 42 29 29 44 31 28 33 31 40 33 29 34 33 34 47 40 38 31 38 39 36 35 34 33 32 30 36 33 32 36 26 38 31 29 34 40 47 33 48 38 39 27 32 35 37 36 25 30 34 39 35 27 39 31 37 38 39 36 33 30 37 39 46 46 32 41 28 32 35 35 40 39 31 35 39 32 25 39 39 36 29 31 40 38 37 37 35 34 33 28 43 25 36 29 36 41 28 36 45 36 24 38 39 26 46 38 32 48 38 36 39 33 29 42 33 25 22 41 38 36 35 42 40 28 45 41 35 33 26 26 35 48 42 36 40 40 29 41 40 29 22 34 49 45 37 42 33 36 33 30 43 30 36 41 42 29 44 29 26 38 26 35 49 43 39 35 33 42 41 30 39 41 37 48 34 37 27 40 34 34 30 40 25 33 41 31 29 37 40 36 37 40 34 34 39 38 31 29 37 37 29 24 33 35 31 32 35 40 41 43 44 30 26 33 43 35 49 52 46 30 36 33 36 42 29 35 30 24 50 39 40 27 46 36 35 43 34 39 44 29 34 30 25 45 32 30 34 40 43 27 33 31 38 37 42 28 37 35 26 43 34 25 42 27 39 35 45 37 30 35 36 34 38 27 31 34 30 27 40 40 41 34 28 35 34 23 38 42 43 35 28 36 25 34 33 36 31 38 28 29 46 37 44 28 29 36 31 37 25 38 33 37 31 42 32 44 30 34 35 32 28 39 35 25 33 36 34 35 36 40 43 46 30 32 37 35 28 28 24 36 44 38 32 53 39 34 29 35 51 36 38 31 34 31 30 35 31 26 31 41 35 31 35 34 38 30 26 34 37 46 28 34 47 34 32 34 27 27 32 29 23 41 26 37 37 35 55 33 42 44 34 39 30 30 32 26 37 28 40 37 42 26 40 41 36 43 44 38 45 33 32 37 40 32 46 40 39 42 35 33 23 34 34 44 29 34 31 34 32 45 36 35 33 50 41 35 32 37 37 40 40 40 31 34 40 47 35 39 32 29 47 37 38 28 34 42 39 46 27 35 41 28 35 44 32 22 42 56 33 32 44 40 36 28 32 45 39 37 30 43 31 26 31 30 43 33 43 31 35 37 34 32 40 29 43 41 40 42 41 35 41 21 32 36 29 31 34 30 37 30 27 46 40 38 35 43 24 33 42 39 41 26 36 34 39 33 26 39 39 25 42 37 37 46 38 30 31 34 30 34 40 30 42 36 40 36 42 33 34 34 38 36 27 42 26 30 41 35 30 38 40 30 35 40 41 37 42 41 33 42 41 30 31 37 32 39 36 41 32 29 25 34 42 44 30 41 36 29 27 42 32 35 39 28 45 42 42 33 40 34 55 39 29 27 40 46 34 27 44 32 33 39 40 40 34 28 25 29 32 36 41 38 33 40 32 47 31 28 40 33 35 38 32 42 33 41 35 31 30 42 30 33 36 29 28 30 33 31 32 29 43 39 25 36 38 27 35 29 42 25 41 44 23 31 33 44 44 29 43 35 30 37 35 26 29 34 27 41 36 33 33 44 34 37 37 34 49 41 45 30 36 45 34 43 35 33 53 46 57 33 34 32 30 30 45 44 39 32 29 27 36 39 21 38 35 37 28 36 26 30 41 30 31 34 36 35 41 25 27 37 32 30 24 46 45 37 35 35 42 30 49 43 33 36 28 50 35 39 31 35 29 34 41 27 35 34 40 35 35 45 42 32 31 33 42 43 35 25 41 34 38 46 36 40 32 35 46 33 40 37 33 39 35 28 36 37 29 37 35 26 31 36 41 40 35 47 37 38 37 39 40 29 31 33 29 44 29 29 36 37 31 45 47 21 30 34 44 33 37 42 37 42 31 40 39 41 32 45 35 35 35 38 27 32 36 34 32 42 35 24 34 43 50 32 35 35 37 36 43 35 33 44 28 29 39 43 31 36 26 32 48 39 46 24 23 35 29 37 31 35 31 37 38 30 29 29 38 31 32 44 30 32 41 33 43 36 29 37 36 42 39 37 45 24 27 30 41 38 34 37 34 35 29 43 36 36 37 26 45 34 43 30 39 26 28 43 31 28 33 36 42 30 28 32 51 30 33 23 41 43 34 27 37 35 30 32 36 29 35 37 34 44 49 36 43 32 35 48 33 30 29 41 27 33 37 46 32 38 40 26 31 41 32 37 50 29 27 38 29 41 31 41 26 26 30 42 33 41 47 37 31 34 37 33 33 31 42 35 40 41 31 31 22 34 32 30 38 44 34 34 24 44 23 25 42 43 45 31 25 47 28 40 22 34 38 36 32 31 30 42 39 40 31 35 31 39 37 36 46 31 26 44 44 31 29 30 36 41 45 33 36 35 40 42 45 38 37 43 39 29 32 35 47 28 37 31 38 31 38 31 34 40 37 35 39 37 27 25 31 33 26 34 35 25 28 45 34 36 29 30 36 43 25 36 34 36 31 37 40 33 37 45 33 39 30 40 31 23 35 25 33 45 28 40 28 38 38 36 36 27 25 38 29 39 32 45 28 36 44 37 34 36 44 29 36 31 29 36 35 39 41 38 29 34 32 41 39 39 47 24 35 24 32 32 35 36 30 34 37 33 35 42 39 37 33 29 32 30 38 38 32 25 31 31 30 28 41 41 30 33 34 35 37 28 39 32 50 40 49 42 27 37 31 41 37 36 30 34 41 37 28 37 34 34 29 45 25 54 25 41 45 33 35 30 38 28 38 33 35 28 27 25 27 41 37 37 36 34 28 33 36 35 30 29 38 32 30 24 42 34 27 38 43 27 43 31 38 34 38 39 31 43 35 34 40 34 31 30 25 30 34 33 29 29 27 27 31 29 34 27 31 36 53 34 33 33 31 44 33 46 37 36 34 29 25 36 34 37 29 37 43 36 32 35 35 33 36 35 33 38 37 31 30 32 31 35 30 28 43 40 39 30 36 39 45 27 35 32 30 35 36 48 39 47 38 35 27 29 38 43 36 35 35 42 39 28 39 41 24 46 37 29 48 29 28 34 28 37 32 37 39 38 34 33 35 45 30 27 42 31 29 40 33 27 35 31 33 34 34 37 40 36 28 39 34 34 26 28 35 30 28 31 29 34 48 43 30 34 31 28 41 29 27 36 32 36 30 32 37 36 27 30 30 28 37 36 24 30 29 42 28 28 35 28 27 33 37 27 34 31 35 32 38 38 31 36 46 38 24 35 23 37 39 48 29 35 37 34 23 31 30 39 38 48 25 36 30 41 33 26 32 32 37 34 24 32 33 45 39 36 31 34 40 28 34 22 38 30 31 38 35 38 42 32 31 33 31 28 40 40 38 33 30 37 40 30 36 39 34 38 26 42 29 36 33 38 33 31 37 42 21 33 40 46 35 39 44 40 31 39 32 35 33 41 42 37 36 34 32 30 36 32 40 32 42 29 23 42 39 31 35 43 37 26 35 24 34 39 38 28 33 30 28 40 29 32 33 33 28 34 35 42 32 33 29 40 38 33 46 33 25 35 32 36 32 36 26 38 27 36 41 26 43 36 46 46 43 45 28 30 40 46 44 32 29 32 50 35 35 30 32 34 35 31 30 27 27 46 38 30 29 29 29 27 27 24 41 22 35 56 26 36 33 35 35 38 38 29 41 31 27 35 31 24 29 38 40 34 39 41 43 23 33 41 49 42 50 42 41 44 46 27 46 30 43 23 36 42 29 44 37 36 36 28 36 28 38 33 54 36 37 26 32 35 30 26 36 37 42 40 35 26 40 45 50 35 41 26 44 23 39 32 37 44 35 27 39 31 34 43 32 23 34 30 30 35 43 27 36 29 38 44 48 36 38 27 38 26 34 46 41 34 35 31 36 32 36 30 37 26 38 44 30 25 31 31 24 36 32 36 40 37 31 35 47 30 31 40 28 31 33 40 27 39 30 35 37 24 47 32 33 32 47 30 38 34 35 40 29 29 33 35 29 34 36 30 27 37 33 32 37 44 26 25 33 34 30 45 32 46 33 41 33 39 33 39 29 29 43 30 38 37 23 33 34 35 26 27 29 43 32 33 33 30 57 37 40 26 33 35 42 33 35 40 35 38 34 26 33 45 34 32 38 40 32 37 28 29 42 33 29 35 31 31 36 37 28 33 35 39 37 30 38 32 27 36 35 34 38 33 30 47 41 32 38 27 43 35 37 47 20 31 41 28 37 35 35 47 29 37 37 32 27 28 42 44 40 32 44 42 43 48 25 31 34 33 34 33 29 28 41 26 28 36 39 32 35 28 37 42 32 33 42 31 24 36 36 41 32 40 48 34 39 25 37 34 37 38 39 38 42 45 35 32 34 38 30 35 30 33 36 35 48 34 31 31 28 29 28 29 43 35 40 48 31 27 33 39 35 25 35 33 39 39 34 31 27 35 37 36 32 37 37 42 31 45 38 34 30 31 32 37 41 31 29 31 53 33 35 32 35 33 33 38 40 30 40 38 39 37 28 33 30 36 35 40 37 49 37 41 33 40 24 28 38 30 39 37 32 44 43 26 35 41 41 29 29 42 31 48 47 41 32 28 34 30 33 28 38 33 32 34 27 37 35 30 43 33 45 32 39 38 44 36 31 43 33 30 35 36 34 25 46 34 29 34 32 35 34 48 38 35 40 32 37 33 30 36 33 29 36 38 36 43 37 37 35 34 26 32 33 37 35 34 38 36 28 29 30 29 42 39 42 42 30 42 38 31 24 32 32 33 41 40 34 39 34 28 34 38 33 33 28 37 33 37 41 33 32 37 33 45 36 41 41 44 34 41 37 29 37 36 31 26 32 40 39 39 41 41 27 24 37 43 35 30 40 31 29 26 34 26 32 38 39 30 27 34 27 33 26 28 28 37 39 32 45 35 46 34 33 28 32 37 35 28 29 38 47 33 34 31 40 33 36 25 40 30 30 34 38 25 28 35 46 32 38 33 44 45 27 34 30 28 37 36 37 35 42 32 39 32 42 41 33 44 35 39 39 33 43 32 42 38 34 43 41 35 37 44 31 41 40 44 34 40 32 41 41 46 29 34 35 29 38 28 19 34 38 36 24 26 44 29 33 38 31 31 38 39 48 26 34 35 32 44 37 27 38 30 31 41 42 40 29 34 41 26 36 30 27 40 36 37 39 29 35 29 34 35 33 45 28 36 33 39 31 38 34 42 38 42 54 33 33 33 30 31 23 35 27 35 37 36 36 38 31 43 33 30 38 39 37 32 24 36 36 33 33 25 42 32 29 36 38 38 35 34 35 29 33 32 32 28 24 32 39 34 36 28 28 28 25 34 30 37 35 44 30 38 27 34 34 41 38 34 28 35 32 31 39 35 43 36 29 33 30 30 25 28 35 33 25 27 39 35 25 28 45 38 34 31 48 36 28 29 31 32 40 30 46 32 31 38 29 42 34 36 27 38 32 32 36 24 33 39 42 36 29 50 42 28 39 40 30 43 42 38 40 37 38 37 40 37 35 27 31 44 30 35 35 35 25 43 33 34 32 37 45 34 38 34 42 40 40 36 40 35 38 28 29 24 41 38 38 35 34 41 36 45 34 34 31 36 34 37 39 30 49 42 45 40 40 38 28 34 48 29 42 35 34 44 36 39 32 18 41 34 34 22 45 30 48 37 35 30 29 33 31 37 27 37 44 34 36 35 50 32 24 41 40 36 35 30 30 40 34 39 40 28 40 37 35 41 33 32 37 33 30 34 46 39 35 33 34 49 35 36 40 19 34 44 36 35 46 42 33 36 40 34 27 41 36 25 44 34 35 36 33 39 39 27 38 31 41 32 29 41 34 33 44 38 40 34 31 47 39 32 40 41 32 31 44 35 35 31 24 30 37 39 33 33 33 37 40 40 33 45 48 45 31 34 51 35 29 32 34 35 37 39 32 32 39 25 40 24 35 35 31 28 32 32 19 35 33 31 30 44 36 35 34 37 30 43 35 30 45 31 28 25 42 33 32 54 45 40 36 29 25 42 36 39 36 47 36 29 46 36 36 37 37 18 37 39 31 34 27 31 46 37 34 34 44 30 39 36 36 30 54 36 42 45 30 34 39 30 34 42 40 36 35 28 28 42 30 44 28 28 34 42 28 36 29 27 29 32 27 33 33 42 32 41 34 35 27 43 26 42 29 37 42 50 32 32 52 37 29 29 29 35 34 50 40 33 34 47 39 37 35 34 31 32 39 44 39 30 35 34 31 32 33 39 35 36 28 30 37 33 28 29 35 40 24 42 46 36 29 37 41 37 29 39 36 37 34 31 38 36 34 28 31 36 34 32 41 39 24 33 30 45 37 39 28 37 37 49 41 31 31 32 35 30 33 34 41 41 33 30 29 32 38 41 39 44 34 35 32 32 38 27 48 41 43 33 39 31 38 44 29 45 31 28 29 36 35 36 31 42 35 51 33 30 27 24 42 43 32 29 31 30 53 39 37 36 34 37 30 35 37 28 35 42 29 35 35 30 28 32 32 47 39 32 28 40 48 32 42 29 33 26 38 30 38 48 39 33 30 26 41 34 30 36 42 23 35 49 35 41 38 28 36 44 35 40 30 29 31 33 36 41 27 32 30 39 28 40 33 34 33 42 35 34 27 35 39 45 32 41 30 22 31 32 40 40 31 35 39 33 33 31 31 38 29 32 34 29 39 43 33 30 34 49 31 46 37 23 32 32 39 44 29 42 33 35 32 43 33 35 33 29 38 40 42 32 41 34 41 29 39 38 40 35 36 30 44 53 38 30 38 30 37 34 47 35 37 35 38 40 33 47 27 27 42 39 29 36 33 37 32 35 29 37 28 44 39 39 48 31 38 36 30 33 36 30 27 26 35 42 34 48 30 37 35 32 29 24 35 37 28 33 36 26 31 29 42 35 38 37 29 40 43 30 32 34 32 37 41 29 33 22 29 31 36 32 36 42 40 28 34 31 31 41 26 33 30 40 47 38 38 48 39 32 36 32 34 31 44 23 33 37 29 40 40 34 38 55 37 31 29 30 39 27 33 32 30 38 32 34 36 36 27 43 34 44 31 34 26 35 37 37 22 34 37 30 23 37 36 30 34 34 37 32 39 33 31 41 39 32 44 42 33 28 31 34 32 37 30 34 34 25 39 31 36 22 37 27 28 46 29 29 41 40 40 41 46 30 49 28 31 43 29 31 28 40 50 33 34 29 33 32 38 29 34 32 30 36 32 40 26 33 40 40 44 26 22 34 29 37 32 28 32 26 25 30 33 27 42 33 40 29 35 36 32 52 30 39 37 38 39 24 27 41 32 41 32 28 47 35 49 34 34 38 31 34 30 39 35 22 39 36 26 35 37 36 33 32 38 38 35 31 40 36 53 41 37 41 27 33 43 47 30 38 34 29 32 42 28 35 41 36 29 26 33 29 36 34 38 30 42 34 40 38 38 36 25 37 38 39 41 31 33 30 49 31 35 36 38 34 32 36 33 26 40 37 31 41 36 45 29 32 33 38 35 30 34 35 28 34 26 35 35 24 37 35 24 37 35 30 36 44 42 29 28 31 45 40 35 27 38 34 36 35 37 47 31 34 32 23 37 31 45 31 33 53 36 44 34 37 28 41 33 38 30 35 35 37 28 46 31 34 42 32 34 29 35 23 38 29 31 38 22 31 48 30 33 30 37 22 33 19 36 31 42 36 37 31 26 33 30 36 31 25 41 45 35 31 30 39 34 34 22 31 37 35 38 36 40 38 31 32 42 40 46 38 35 38 36 24 38 41 37 33 39 35 35 33 24 26 28 34 39 32 31 32 32 32 30 39 41 30 40 34 31 44 32 27 35 41 46 37 34 44 34 31 29 34 37 44 32 28 29 28 51 31 30 38 28 27 34 48 25 30 28 29 41 28 33 39 32 35 38 36 31 47 34 31 41 48 32 42 35 28 25 48 31 39 36 33 26 38 28 34 35 34 38 25 35 38 28 43 29 29 38 38 34 36 30 44 34 45 42 41 36 28 40 32 34 32 41 38 35 35 52 40 40 39 37 32 42 32 33 44 33 28 40 40 31 38 44 30 29 35 37 34 42 43 33 44 38 33 32 30 35 31 35 42 36 35 35 34 45 35 34 38 33 42 30 33 30 32 37 46 26 36 41 32 29 47 32 42 33 31 42 39 29 45 25 31 33 40 38 32 41 32 43 48 33 39 44 33 32 36 27 27 26 33 33 29 30 26 40 44 40 33 23 32 38 28 45 40 47 30 32 30 35 39 31 27 31 39 44 35 36 30 38 29 39 34 35 29 35 32 41 34 33 36 31 41 40 37 37 43 24 43 32 40 36 45 36 31 32 41 45 46 39 30 43 39 26 42 42 32 31 33 25 30 40 33 27 33 31 42 36 29 42 36 36 47 31 31 34 32 28 43 31 37 36 45 42 36 32 42 30 31 37 34 29 41 34 30 35 48 58 35 34 32 39 30 33 33 32 34 25 36 42 23 33 36 28 29 48 27 41 28 37 33 37 36 40 37 44 42 29 36 28 29 26 31 32 36 42 43 33 30 38 36 35 33 26 32 35 32 35 39 35 33 46 40 41 34 30 32 34 39 36 26 35 42 36 41 34 42 29 47 26 34 31 33 31 39 39 41 30 33 51 30 27 46 30 49 39 43 28 35 28 33 37 36 48 30 41 26 23 36 46 37 34 32 32 33 36 39 46 36 31 39 33 45 27 48 40 32 34 32 32 46 28 29 27 25 35 49 39 46 40 34 25 33 28 25 27 33 28 34 42 37 39 40 32 41 39 34 42 27 34 31 45 34 32 39 34 28 22 48 45 34 18 28 32 41 37 47 25 35 28 35 34 25 46 39 35 39 31 37 32 37 25 46 36 34 38 34 36 37 41 40 18 40 35 43 38 26 36 23 27 33 40 36 31 34 38 53 27 36 34 31 29 46 42 37 41 34 28 36 38 35 45 42 30 38 28 35 41 31 33 34 36 33 33 43 35 33 35 37 34 34 44 36 33 47 46 46 35 27 29 36 36 28 34 37 39 40 33 36 25 38 34 34 35 38 28 43 34 38 37 36 26 38 43 27 30 37 34 38 40 41 30 33 40 36 34 26 36 26 51 36 31 31 29 43 38 39 37 32 24 42 41 32 41 28 23 37 31 31 31 42 31 30 29 41 28 32 35 32 27 39 42 52 41 36 34 31 34 42 34 27 30 28 41 44 32 32 31 33 35 37 32 33 38 33 29 33 42 26 22 24 23 30 40 54 36 37 30 35 36 41 36 31 31 34 34 33 33 38 50 41 27 31 42 33 44 37 32 34 42 32 32 39 34 23 40 29 33 42 34 40 40 31 51 34 41 34 38 36 40 44 39 38 33 34 33 42 40 18 30 31 27 34 34 25 32 26 28 37 37 41 29 33 33 31 37 36 28 30 35 42 42 39 34 38 25 43 39 36 32 37 31 36 38 47 33 26 27 39 26 27 38 31 34 45 39 37 26 38 26 38 33 36 40 33 32 33 36 47 20 33 31 35 38 32 36 32 39 36 31 27 29 34 37 42 36 36 35 27 31 37 31 39 31 38 32 40 37 37 34 27 39 48 30 35 30 27 31 29 29 36 34 37 29 29 37 43 36 42 38 33 29 35 49 37 29 37 31 34 28 36 35 42 30 41 30 44 46 50 38 35 27 48 35 26 40 32 41 44 38 37 43 29 33 24 32 31 36 39 34 28 32 40 35 32 24 39 22 33 34 38 42 31 34 45 32 34 37 35 30 31 42 40 22 30 35 34 37 33 30 38 28 35 42 32 30 33 41 43 42 41 37 34 35 41 37 32 44 48 42 29 43 26 32 35 23 31 33 34 52 35 45 43 25 37 42 38 32 30 37 40 36 41 34 32 37 39 52 24 41 41 32 37 41 39 33 39 30 27 36 34 35 44 31 35 36 36 25 39 47 39 36 55 30 45 42 30 29 43 38 44 40 31 42 34 43 34 39 33 23 34 29 21 38 35 41 33 34 37 43 46 40 32 33 34 39 51 45 36 40 30 26 34 40 40 34 28 36 34 41 34 19 40 34 33 38 25 34 23 30 44 34 38 34 41 31 38 37 35 36 36 46 26 39 37 43 41 38 38 37 36 30 36 25 38 38 34 29 41 38 36 38 30 34 38 46 35 33 31 37 47 26 39 42 32 24 42 35 39 31 45 32 31 26 33 35 37 24 46 32 31 31 40 31 35 27 25 33 43 37 41 38 35 40 31 30 39 39 41 36 33 34 34 38 31 25 37 30 36 39 42 28 36 28 34 38 40 37 43 39 45 42 27 47 30 31 37 32 32 32 32 40 22 29 28 30 37 38 37 32 31 31 38 37 33 42 34 35 39 28 30 33 39 29 43 30 24 46 23 30 44 33 33 31 46 36 39 37 33 40 27 29 38 54 35 35 42 39 33 39 37 53 37 34 28 33 33 37 40 31 36 30 34 39 32 40 32 28 42 38 35 31 32 32 40 29 38 43 41 37 36 23 30 31 32 32 32 30 37 39 30 42 47 24 47 38 43 37 38 31 32 35 29 34 30 34 27 26 37 31 38 27 33 30 30 22 35 45 32 34 35 51 25 32 25 33 31 35 40 34 38 36 29 39 36 35 28 35 33 28 36 33 32 41 46 30 32 26 37 29 36 26 33 30 35 41 33 27 38 37 25 42 37 43 49 40 58 29 38 32 37 39 35 40 35 29 41 43 41 35 38 28 23 26 27 31 38 37 36 35 36 36 35 46 26 35 30 39 30 29 37 41 44 31 30 40 31 31 35 42 42 47 33 35 42 36 32 39 29 26 39 36 42 31 28 37 40 29 30 34 37 28 38 37 30 29 34 35 37 39 38 38 32 31 39 30 24 30 25 33 48 31 28 41 34 38 44 35 39 45 43 44 34 24 33 41 37 39 34 40 36 32 44 40 35 29 30 41 36 34 30 40 36 26 37 37 46 40 33 32 43 32 29 33 36 25 32 31 38 35 34 38 42 47 37 25 42 34 34 35 36 34 35 24 27 28 34 28 36 48 37 29 28 37 36 29 31 38 38 36 42 31 37 37 31 27 36 37 37 37 29 29 34 35 25 21 32 29 43 28 33 36 36 36 33 31 37 35 33 42 30 26 41 29 39 37 37 42 28 35 34 49 42 43 38 39 29 28 28 38 33 42 30 28 34 41 34 43 31 36 27 40 27 40 30 43 28 37 35 30 50 33 29 43 31 39 35 41 30 31 38 43 27 37 37 37 36 35 35 31 37 29 32 33 33 38 45 32 44 32 45 32 32 31 38 41 36 20 33 34 26 34 37 41 37 38 28 29 34 31 41 34 40 28 46 41 33 29 27 32 28 34 42 27 44 37 36 56 32 40 34 38 34 41 31 34 39 40 37 40 28 35 30 44 38 36 40 33 31 37 37 32 42 29 33 30 32 40 33 46 34 31 37 37 37 38 37 43 26 44 27 46 33 40 42 40 36 44 33 42 31 36 31 29 43 38 49 36 44 29 44 37 34 37 40 44 37 26 47 42 40 36 32 26 37 35 39 36 35 32 24 30 35 36 32 28 41 31 43 31 24 40 20 47 28 44 35 32 36 32 40 32 45 51 38 35 35 40 32 40 29 36 40 50 39 37 23 35 28 41 37 34 39 37 27 39 28 34 32 29 32 39 36 40 29 28 31 39 39 35 43 33 33 32 31 29 32 38 25 42 35 41 36 35 27 37 28 33 32 34 26 35 47 36 36 32 30 28 35 33 30 44 44 37 45 34 23 23 40 33 30 39 27 29 37 40 40 33 36 41 30 37 33 35 42 43 28 37 44 31 27 35 41 33 43 20 43 37 29 26 30 31 24 36 29 38 32 32 35 37 38 37 30 33 43 26 30 44 29 35 41 35 30 36 43 33 28 26 35 37 31 36 27 31 32 36 39 33 38 29 33 27 40 39 25 35 30 37 31 38 40 31 39 28 40 32 31 34 28 35 47 25 28 42 33 38 35 31 26 35 34 37 34 31 30 34 41 30 32 35 29 34 36 44 31 33 31 37 37 32 42 34 37 40 25 28 36 31 36 26 31 30 30 25 26 36 25 37 37 32 33 34 24 32 37 29 33 47 34 38 26 31 32 38 37 29 43 41 33 33 36 43 42 24 34 33 32 39 42 37 31 31 36 32 34 39 38 26 38 28 35 22 48 29 32 41 26 36 36 27 38 32 40 30 35 29 33 33 25 35 42 30 40 31 27 35 32 35 38 31 32 29 34 39 35 33 33 42 35 42 32 27 41 37 45 31 41 44 29 38 28 36 35 34 36 31 39 28 40 34 38 42 36 37 36 33 33 36 39 39 30 26 24 31 46 40 43 33 40 25 35 38 27 28 27 33 40 41 39 37 31 36 33 39 38 27 36 35 34 22 42 35 36 30 36 28 37 30 21 37 37 48 34 21 28 36 39 37 21 41 28 32 35 28 23 36 29 35 33 40 45 35 42 33 32 31 24 42 31 38 29 35 34 33 36 32 28 29 33 36 31 35 37 38 34 33 28 34 37 36 42 35 43 34 31 35 31 35 35 37 43 32 25 32 33 32 35 34 36 37 35 44 39 35 40 32 41 35 31 33 28 41 33 40 33 30 18 34 25 48 31 31 45 48 36 37 43 27 31 47 40 32 35 37 28 39 29 43 49 30 27 29 37 40 45 35 37 37 35 35 25 48 31 38 33 34 37 40 30 31 31 34 36 41 32 35 42 42 40 41 29 41 44 26 35 27 28 44 31 34 26 38 30 37 31 34 40 30 28 39 33 30 35 38 41 29 41 29 38 39 35 26 29 27 48 33 31 31 34 35 40 41 40 26 31 27 34 39 38 40 34 36 30 31 35 38 38 34 28 33 30 39 44 30 38 22 34 32 36 39 46 44 29 36 30 43 28 32 34 35 43 45 36 39 43 37 30 33 32 27 37 45 30 37 46 27 34 31 39 29 31 36 32 27 29 29 30 36 35 36 44 31 34 33 32 29 42 32 37 24 48 45 41 33 36 27 30 25 34 31 39 29 43 28 30 39 34 39 34 30 38 38 40 40 35 40 30 34 33 35 20 32 23 25 43 34 30 34 40 27 41 31 44 38 39 44 27 33 27 27 42 31 26 27 38 32 30 26 40 46 35 34 30 37 39 32 35 41 35 34 42 36 27 33 34 38 36 32 33 40 32 32 35 40 17 31 50 27 26 35 48 42 37 45 33 31 37 27 33 34 40 28 32 34 30 45 40 32 38 40 42 33 39 37 30 28 36 42 30 41 30 32 30 32 25 34 34 28 30 37 33 39 43 31 36 38 36 36 38 30 48 35 33 35 23 41 30 27 36 37 31 42 35 30 40 40 44 32 49 35 43 32 47 43 39 43 27 37 33 32 39 38 47 33 42 26 31 39 32 31 42 33 26 37 40 33 34 31 40 39 34 45 33 27 33 29 31 33 30 30 30 39 37 41 45 30 46 24 28 31 44 31 38 29 32 31 29 38 30 28 33 47 35 38 22 34 40 34 38 40 42 23 41 29 33 36 42 32 26 28 42 31 26 39 24 30 30 27 44 39 28 42 37 29 39 24 34 33 31 34 37 35 42 38 19 29 40 41 32 37 43 28 29 32 35 31 38 26 45 26 34 37 34 47 24 32 33 29 43 42 29 27 30 31 28 42 27 21 32 47 32 37 39 32 38 49 32 45 29 31 44 39 43 34 42 33 30 42 38 24 39 27 30 37 28 40 37 41 35 38 36 45 35 37 34 44 40 29 44 31 36 26 30 41 48 42 41 33 23 36 36 31 30 36 26 33 34 22 38 41 52 35 39 36 27 32 35 38 25 36 26 28 41 25 44 49 37 36 35 35 34 30 25 36 34 31 38 35 32 34 34 40 36 29 45 37 32 32 38 26 34 42 28 39 36 44 32 45 35 35 37 35 28 36 42 29 34 46 37 53 32 38 25 33 36 38 28 26 41 28 40 41 43 27 39 39 47 28 33 44 37 38 37 37 48 36 26 38 34 44 37 28 44 35 32 38 30 27 34 37 31 35 34 35 31 47 44 23 36 40 36 37 34 17 38 34 45 26 40 43 37 38 32 41 34 33 36 40 39 30 30 40 39 35 37 39 38 36 44 35 37 37 26 36 35 30 29 37 34 37 41 36 39 32 37 29 34 32 34 38 55 31 31 32 45 40 42 37 37 36 39 31 31 28 45 32 32 34 45 28 31 45 27 39 32 39 35 42 42 35 34 43 29 42 40 35 43 38 39 39 37 27 37 31 32 39 32 31 26 29 33 33 34 29 35 27 39 28 36 23 36 35 47 41 32 33 35 25 31 39 32 33 44 40 47 35 28 40 35 35 32 37 33 35 34 39 26 36 39 36 40 42 50 36 44 36 28 38 36 35 27 35 28 40 29 41 31 28 38 32 36 41 36 33 28 24 32 37 34 34 28 37 41 39 37 47 37 35 40 40 54 35 36 31 31 33 43 43 34 37 23 29 35 35 37 35 29 29 39 23 24 27 39 33 33 35 48 30 35 31 31 45 43 36 30 34 23 36 37 31 27 32 50 31 26 44 35 39 37 37 30 43 29 34 30 39 32 37 32 34 33 40 32 32 41 22 25 44 32 37 29 26 48 29 50 28 28 36 36 31 28 29 26 27 34 33 32 33 28 32 29 33 41 31 28 26 39 31 31 35 34 39 30 33 36 30 46 39 44 34 43 30 23 32 44 42 32 35 43 32 25 35 42 21 32 30 36 46 37 40 35 31 38 40 34 30 23 33 48 37 30 38 32 38 41 30 31 33 32 39 41 36 41 33 35 33 29 32 40 37 38 26 32 39 37 28 31 29 41 45 32 28 43 30 30 30 43 30 35 31 32 40 32 34 44 30 46 39 38 41 39 33 31 39 36 27 31 32 31 32 42 32 34 43 25 29 39 49 29 31 31 41 39 35 30 37 33 30 29 31 55 48 47 32 25 37 40 27 28 38 32 33 29 21 40 34 32 29 41 22 27 30 40 38 25 24 33 35 35 38 40 39 44 32 47 33 27 30 27 28 26 40 44 35 32 35 30 27 35 43 36 47 46 29 43 39 35 43 41 44 30 33 31 36 43 29 34 45 33 45 27 40 32 40 39 30 40 40 36 33 36 41 36 38 38 27 34 33 34 23 34 23 32 31 36 47 39 25 42 31 36 42 44 45 41 31 40 48 33 32 45 39 30 51 27 23 45 33 35 30 33 34 30 25 31 35 32 37 41 30 35 32 38 36 37 41 35 33 32 31 28 35 32 23 27 47 28 34 47 32 38 26 35 45 36 48 42 31 33 30 36 43 45 31 30 34 34 42 34 35 40 40 32 31 46 44 33 37 32 37 28 42 30 31 37 41 32 28 50 28 28 44 41 31 28 41 35 48 48 38 37 39 36 30 32 31 28 43 38 32 39 38 35 34 53 35 18 33 37 33 32 35 38 39 39 33 33 45 33 30 34 34 29 32 31 34 34 25 36 30 49 40 37 26 29 38 35 39 37 36 42 32 32 43 26 27 30 35 38 38 28 38 32 27 31 38 36 41 36 31 33 32 46 31 36 29 35 36 24 34 40 24 23 45 32 30 47 39 31 36 33 37 32 47 35 28 32 36 35 35 31 28 25 35 38 42 39 35 30 40 37 32 34 41 35 28 38 41 23 38 33 32 37 43 23 40 29 34 33 29 25 37 29 38 27 43 40 45 42 38 34 39 36 31 39 39 32 29 41 40 40 34 42 37 28 37 25 39 35 33 29 38 26 34 49 36 35 32 32 50 38 22 39 35 27 35 30 35 42 33 39 29 31 33 29 43 31 35 23 28 32 35 42 29 45 33 44 32 39 29 33 28 32 40 35 33 40 33 44 35 31 42 41 35 40 34 36 33 29 40 41 37 33 44 28 47 48 30 38 36 30 33 26 35 36 23 30 38 28 33 36 25 30 46 33 36 30 42 46 35 30 42 22 41 38 30 29 36 33 34 35 24 40 38 32 37 29 34 44 31 31 42 31 33 39 40 39 33 34 33 40 26 35 27 42 37 40 37 41 37 30 29 42 33 33 24 32 27 41 29 30 34 34 35 39 32 29 36 45 27 30 32 35 38 30 34 41 33 28 37 28 32 50 35 38 28 34 23 27 34 36 31 39 21 39 33 30 32 36 37 35 37 40 34 24 34 42 40 40 40 36 32 37 31 24 25 34 32 29 40 37 36 29 38 32 34 35 33 40 40 37 31 28 28 28 42 37 29 39 33 34 46 35 31 31 41 37 36 37 34 41 36 37 29 26 35 41 35 39 34 31 34 39 40 32 38 31 36 25 34 36 28 28 36 31 30 36 30 31 31 48 26 46 41 35 37 40 36 43 38 35 46 34 31 47 37 36 35 36 41 46 34 33 39 36 37 47 39 43 50 43 46 31 37 41 32 44 30 42 28 40 38 40 35 39 33 33 36 33 42 35 38 35 45 32 41 36 32 33 40 34 26 42 42 37 36 32 39 29 31 29 35 44 38 38 41 41 32 39 33 38 22 36 39 25 26 39 32 40 39 39 35 38 28 38 47 35 31 34 45 34 39 38 29 30 39 40 40 37 31 43 40 38 32 32 34 28 43 32 30 35 39 31 29 36 25 41 41 28 28 43 38 30 38 38 23 33 46 32 27 30 35 33 33</t>
-  </si>
-  <si>
-    <t>JSB(11.244666398874976, 8.900792451076828, -315.1834759210901, 2505.9290552964258)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">175 172 256 191 182 264 242 257 251 268 195 219 270 172 298 269 127 189 258 253 304 223 256 222 307 348 269 260 390 258 288 254 254 150 263 185 277 253 231 194 252 184 173 178 241 323 308 268 274 227 318 286 260 233 208 220 264 283 342 202 257 210 301 199 329 132 224 223 208 204 296 218 236 214 219 122 269 150 334 315 158 238 311 253 268 230 163 164 248 178 201 233 276 279 270 242 313 195 243 304 304 178 198 230 183 179 274 256 277 320 281 305 249 203 288 205 262 196 290 224 214 208 129 232 225 132 235 254 218 210 321 242 266 334 265 178 174 212 283 227 224 273 180 209 166 210 244 262 270 264 273 223 225 297 284 309 168 256 196 203 251 236 242 240 130 282 314 156 260 247 161 177 183 249 217 299 249 196 271 308 289 246 230 192 329 230 222 298 157 249 257 208 304 256 243 205 200 284 277 231 181 248 194 304 210 249 197 254 189 296 211 220 141 279 210 226 230 311 289 229 193 228 314 153 184 273 209 260 291 215 188 333 274 220 191 237 207 193 271 286 300 278 255 183 204 228 231 199 159 149 197 208 152 273 246 218 178 127 192 203 151 247 261 293 310 202 217 173 190 216 209 260 242 256 247 237 232 306 262 275 368 292 294 300 295 223 219 315 249 216 321 159 280 261 199 206 204 269 226 160 229 343 250 259 278 252 254 297 246 205 312 275 189 252 219 205 211 257 250 272 239 141 205 249 265 297 283 253 193 166 295 207 284 227 277 216 317 232 265 174 216 287 264 218 227 150 261 350 282 201 233 313 261 313 277 244 302 251 268 254 269 247 193 233 241 229 202 216 241 213 245 214 198 195 197 285 264 216 176 238 225 237 266 261 246 274 212 298 263 156 215 306 200 220 250 262 244 293 227 237 218 245 202 207 197 328 313 225 202 247 257 299 222 158 245 180 241 226 220 267 213 223 226 349 237 363 277 338 183 181 288 415 246 230 211 339 260 256 270 277 233 221 266 158 266 296 234 180 253 238 268 258 156 286 299 210 217 208 182 258 234 283 246 153 209 179 257 291 280 229 252 253 211 220 276 193 238 146 276 205 292 271 329 251 244 221 208 258 188 247 193 198 247 232 293 262 277 184 203 300 322 188 195 237 262 297 253 198 129 249 245 251 273 245 273 228 198 235 176 234 220 185 194 300 190 255 273 220 240 200 260 280 212 270 295 209 221 146 222 159 117 258 142 194 167 251 323 311 275 201 274 248 243 257 306 358 275 234 239 268 254 205 207 272 211 247 292 183 190 303 298 262 133 192 243 189 235 321 201 303 170 274 216 236 200 202 225 192 207 194 243 185 192 179 230 239 249 230 246 174 287 240 268 208 294 285 187 206 252 225 216 203 257 234 245 263 292 215 190 183 286 175 283 170 217 241 277 295 283 251 202 173 208 230 247 251 250 283 237 190 244 245 225 259 279 312 166 281 221 116 182 223 260 246 250 244 252 219 177 335 225 257 173 209 239 233 259 307 194 262 183 351 322 223 259 181 227 239 254 291 251 228 255 239 229 311 268 303 228 245 198 251 253 163 155 253 167 290 284 180 224 244 201 208 205 208 254 253 265 281 190 89 151 215 283 214 243 278 311 260 197 201 143 192 204 239 188 177 288 249 258 270 168 250 309 154 264 180 232 189 211 226 240 278 234 171 180 242 322 316 197 254 242 141 183 291 224 249 207 250 227 194 171 289 276 192 277 225 201 192 225 165 249 270 210 227 196 269 354 233 282 233 215 158 194 198 290 148 262 197 289 170 322 211 260 171 205 176 263 210 274 232 190 287 205 293 169 165 251 293 216 297 250 353 253 236 303 191 161 153 234 180 186 217 178 239 240 284 206 312 210 238 348 256 319 250 263 231 263 316 234 202 224 186 241 212 274 152 245 221 199 217 268 282 279 272 184 190 233 326 129 211 217 257 238 285 225 250 228 213 263 174 226 274 171 264 142 284 175 219 331 229 308 348 213 298 240 221 178 267 188 256 257 218 251 284 270 265 329 259 298 230 115 241 199 196 282 213 265 196 194 256 329 120 304 322 183 269 151 233 201 222 255 241 245 262 250 258 223 174 280 328 147 254 200 297 220 219 250 250 174 156 287 179 223 291 159 199 273 290 142 293 286 294 176 178 249 274 252 151 320 207 206 224 198 303 245 219 160 223 259 254 235 255 255 217 213 267 229 238 224 214 188 296 315 219 236 222 210 283 266 270 241 196 101 257 237 359 243 257 315 272 214 228 309 290 260 293 317 257 237 241 189 202 171 138 305 262 200 233 300 223 246 285 172 361 290 324 306 343 244 243 234 194 296 283 244 206 247 235 241 242 195 206 256 217 303 198 177 295 316 214 227 248 184 255 141 198 211 259 268 205 170 160 201 310 295 207 291 220 229 205 197 308 196 267 196 214 158 310 268 221 192 235 146 272 338 198 265 211 183 199 217 248 191 282 168 151 218 279 259 175 194 251 156 201 242 211 289 229 308 186 135 243 214 243 323 216 197 241 284 340 287 187 221 207 197 139 212 306 200 282 181 242 261 205 171 211 333 228 216 272 184 245 292 252 205 281 269 234 337 245 312 239 230 204 303 279 223 279 277 245 198 266 177 209 223 236 292 231 194 273 281 322 305 277 215 231 230 239 267 273 239 153 262 283 256 237 252 318 297 222 311 325 176 308 245 191 352 198 259 208 202 162 234 299 221 243 280 195 235 267 195 204 244 197 224 311 265 256 195 254 160 279 184 260 214 236 153 235 207 235 273 233 312 229 265 233 257 164 200 169 270 212 251 142 244 200 188 197 256 277 277 246 169 155 273 254 190 247 324 273 224 316 276 272 203 248 330 225 214 207 241 238 252 252 191 191 200 233 250 258 254 251 204 267 265 320 255 304 367 175 234 273 300 195 251 249 329 231 170 204 376 172 206 172 315 213 329 195 220 302 301 206 250 176 292 270 197 256 234 255 348 231 159 226 247 197 182 205 220 234 170 250 254 170 218 227 160 250 256 299 234 198 176 310 204 314 239 348 323 186 196 194 232 219 242 163 239 228 222 203 182 139 220 313 243 255 222 167 195 292 241 166 207 255 258 245 139 211 231 223 298 286 184 209 209 155 372 216 197 238 248 224 276 232 258 269 288 394 177 351 216 242 238 328 192 239 291 269 229 234 241 256 236 296 201 201 293 226 216 196 273 217 161 200 200 232 281 259 293 162 308 277 280 155 274 339 169 278 129 262 264 233 147 209 222 223 186 294 273 190 291 242 289 251 191 327 269 273 166 306 166 294 211 266 213 290 269 273 268 309 207 209 275 211 195 286 278 240 233 300 225 144 258 250 236 204 276 143 241 311 344 291 311 357 160 217 159 254 202 218 296 196 242 241 239 127 222 240 182 279 258 213 319 217 226 239 220 275 267 155 218 171 165 240 281 250 196 185 212 218 205 270 272 281 330 242 187 242 262 246 295 211 177 214 230 281 216 334 190 327 242 200 217 203 297 359 294 113 163 369 214 333 173 227 244 209 184 223 226 256 200 253 193 237 143 202 280 143 238 320 237 259 274 270 217 325 140 317 214 145 250 191 231 240 191 197 215 284 216 236 240 287 231 192 244 282 301 222 264 209 274 247 224 288 215 235 244 226 202 196 211 194 242 239 253 214 231 221 273 282 220 249 234 207 274 221 300 245 250 270 173 195 246 238 268 232 265 153 283 232 217 265 330 344 324 242 325 312 292 215 287 214 267 200 229 208 188 265 318 217 295 268 134 264 210 224 210 185 262 261 151 314 233 210 243 238 285 209 195 265 298 287 209 281 252 172 258 278 232 310 275 279 282 166 158 241 182 224 290 324 236 187 287 192 204 345 256 175 339 262 211 263 248 231 241 245 221 238 309 176 319 240 245 221 229 259 295 142 216 239 307 257 216 218 268 221 226 223 139 174 235 266 198 227 259 181 234 275 233 247 178 244 237 228 114 225 238 351 216 168 223 296 246 242 203 212 222 257 261 311 392 163 245 205 172 162 255 313 228 193 223 183 168 256 263 198 268 223 358 267 208 248 248 233 175 279 278 286 167 288 363 269 203 288 150 256 264 270 258 273 214 201 279 200 256 195 229 219 294 306 252 217 321 240 192 186 218 236 175 256 228 176 317 301 275 288 184 260 199 285 244 114 255 205 210 306 295 246 247 153 258 300 298 282 346 289 242 263 298 196 309 151 166 243 296 262 346 164 203 192 231 233 269 215 198 285 299 247 246 179 214 242 228 259 213 185 442 225 318 237 173 189 277 294 227 292 107 215 264 206 339 148 285 384 278 275 193 273 227 379 186 245 286 211 217 195 256 160 234 192 270 205 206 281 263 236 170 235 201 279 276 231 292 201 178 172 228 327 215 255 174 214 224 287 214 226 133 223 257 276 264 244 213 161 271 272 233 240 332 184 189 193 249 221 205 211 248 168 294 365 322 198 189 142 220 274 228 247 201 253 258 308 153 269 210 242 225 223 222 241 219 266 236 231 229 258 256 242 351 258 161 161 239 242 227 135 196 198 242 217 182 206 267 182 243 267 261 211 249 209 266 343 278 126 266 303 177 294 250 143 245 248 248 242 287 234 281 263 221 261 206 279 224 324 257 206 232 249 252 275 373 259 256 204 212 245 221 291 264 224 333 333 302 287 255 312 277 229 190 261 272 238 192 256 310 213 203 311 231 346 212 213 301 230 192 333 164 139 146 268 275 248 302 137 231 224 271 226 267 152 242 196 237 208 255 187 206 268 329 289 299 234 253 334 296 189 209 251 254 254 283 242 273 234 232 195 192 314 308 261 230 159 255 295 223 165 218 198 253 167 264 346 258 227 152 272 292 222 261 220 227 346 198 134 316 141 256 277 171 266 168 175 207 333 162 290 191 239 187 222 302 262 284 218 260 206 237 232 180 261 123 242 167 205 278 212 163 194 275 225 238 213 346 240 247 252 211 265 241 222 298 271 200 145 218 239 287 257 266 207 278 151 251 241 187 197 189 309 238 214 188 300 395 220 170 252 288 235 156 222 223 182 234 178 288 290 330 158 197 234 262 235 329 299 240 292 250 329 205 172 193 126 243 345 178 246 276 277 306 281 185 149 214 226 287 259 248 216 265 166 164 216 255 175 177 258 292 254 264 214 203 238 284 217 263 195 191 203 249 209 207 165 244 203 294 172 273 220 236 274 210 123 205 278 264 201 195 262 339 234 242 285 223 294 242 317 221 267 218 175 263 274 313 210 300 176 231 203 291 232 279 227 285 251 201 375 180 208 295 240 267 248 266 324 210 254 259 270 271 197 306 290 227 265 189 269 329 209 243 303 259 274 237 207 292 210 264 284 221 197 312 263 259 268 164 244 250 214 195 273 190 260 286 245 188 261 196 257 224 382 249 292 232 265 308 221 288 182 240 216 218 217 186 225 152 162 269 175 186 235 285 222 256 243 280 187 276 199 263 159 266 249 196 299 193 339 289 167 211 212 216 345 173 274 269 176 242 197 170 268 188 176 200 170 250 262 332 214 336 235 187 229 261 268 240 281 216 278 250 195 243 192 204 216 266 263 184 292 202 312 205 216 211 311 236 213 294 230 278 180 203 235 206 292 294 295 238 246 265 193 196 345 205 168 277 201 231 328 232 278 314 241 238 255 264 183 250 279 209 201 251 213 201 235 286 308 176 258 276 298 181 277 279 219 238 236 266 205 323 284 208 136 201 294 301 274 207 193 195 218 322 184 223 248 164 295 240 251 207 191 202 246 157 227 111 238 320 258 290 248 201 175 190 173 192 217 223 257 226 234 249 243 237 245 227 281 299 225 301 249 308 238 246 176 252 233 253 322 244 290 223 210 267 194 195 192 205 239 238 122 242 225 308 276 315 302 188 266 264 192 261 310 217 257 208 306 234 246 252 174 246 216 199 213 298 319 249 297 220 230 144 209 321 230 206 164 217 226 234 245 161 209 235 255 218 248 264 183 228 251 291 261 300 238 266 275 239 257 255 252 296 166 211 287 182 183 273 246 257 213 268 241 189 257 264 230 210 228 145 255 152 272 209 303 228 223 217 353 216 165 257 285 183 341 252 230 281 220 291 234 281 246 302 205 205 151 260 303 258 201 291 321 160 318 271 212 250 221 187 301 282 295 264 263 235 203 293 230 190 103 257 390 284 306 258 215 284 265 207 252 231 252 268 267 161 222 173 148 233 162 226 273 253 284 182 233 312 268 209 221 259 258 293 216 191 151 262 255 287 231 282 157 290 301 168 191 245 272 206 268 305 222 198 278 241 187 171 261 217 194 183 186 244 194 246 218 340 282 263 299 259 232 258 348 201 277 373 297 243 282 266 199 321 187 215 154 186 332 248 376 178 309 259 276 258 196 275 305 246 210 194 199 308 246 252 241 313 280 181 166 204 184 232 256 154 310 199 196 294 277 189 325 178 285 245 273 207 243 228 249 224 280 133 238 176 161 225 225 292 178 230 186 216 205 181 234 262 251 268 197 280 192 287 229 301 192 231 222 211 375 266 274 204 145 193 184 230 164 234 234 304 268 233 193 332 280 209 256 260 207 233 199 150 201 247 245 194 259 286 297 377 299 170 257 235 168 220 174 338 311 237 210 404 278 211 210 231 343 268 227 144 170 233 205 218 196 169 210 312 257 236 221 296 317 205 152 194 308 256 192 319 373 240 212 222 144 217 178 200 181 306 193 240 286 212 414 213 256 292 151 258 240 204 186 237 224 181 274 278 308 142 252 282 228 283 318 256 296 298 228 226 221 220 252 261 220 193 184 228 122 291 246 292 200 239 215 241 278 324 217 228 261 290 267 291 216 324 240 282 252 293 244 301 214 288 254 278 227 202 312 270 249 211 211 258 270 261 120 263 286 242 311 276 213 149 258 346 207 217 371 251 247 203 236 347 329 256 229 309 196 209 236 204 351 213 273 307 269 293 171 231 326 216 259 328 257 239 358 171 236 152 191 223 188 174 229 178 241 192 192 266 298 194 184 302 130 212 289 299 306 214 259 210 312 277 203 264 272 184 330 189 265 304 273 198 209 204 210 200 276 257 268 207 300 196 280 167 188 274 261 278 173 287 180 244 248 252 209 274 318 174 261 294 284 251 283 267 214 241 298 205 172 261 217 311 223 220 278 229 209 304 316 294 193 306 254 180 242 310 207 164 309 185 317 229 278 262 279 206 281 245 199 205 320 264 240 165 265 243 222 242 239 316 249 229 192 153 268 215 300 222 206 257 237 276 234 219 257 217 272 206 230 311 157 300 198 280 183 345 188 243 257 178 229 233 276 246 210 164 254 224 157 198 263 222 234 203 255 162 259 224 139 241 250 275 266 250 258 231 173 300 242 128 209 288 209 264 232 269 196 349 242 269 283 245 351 272 233 104 212 362 204 356 209 227 318 273 347 264 280 170 188 240 274 308 276 168 185 214 225 196 126 240 146 299 188 209 181 239 281 181 232 249 215 201 306 157 211 203 298 164 142 262 362 278 256 263 239 235 313 263 271 248 168 304 258 279 232 249 165 265 301 149 223 276 241 204 218 304 340 186 177 218 336 382 221 223 295 268 317 355 221 258 130 257 294 215 221 321 207 253 213 195 288 266 254 218 270 212 197 176 313 305 252 275 249 297 280 242 282 136 194 253 216 287 197 227 287 181 241 259 341 133 250 235 283 191 278 293 295 271 230 303 237 302 243 306 239 280 226 224 189 165 196 306 256 347 201 171 263 314 275 197 252 272 283 195 297 215 201 318 204 180 284 224 204 276 240 202 330 272 358 183 236 257 132 267 234 251 178 220 247 207 156 282 275 189 175 288 174 233 295 289 390 306 176 232 276 320 245 239 268 193 212 253 338 233 207 257 248 269 215 317 203 201 239 206 325 207 343 258 304 197 202 335 224 105 238 274 337 216 207 243 383 176 218 144 233 292 249 131 304 232 189 182 249 267 237 239 250 248 344 209 346 244 256 286 220 223 185 310 207 233 275 346 197 306 283 137 175 240 214 204 369 174 213 257 161 296 231 241 176 216 209 213 219 271 315 214 190 205 268 217 261 173 257 258 292 242 197 291 196 287 263 180 314 252 240 223 216 312 205 137 245 272 298 205 217 351 221 198 172 245 209 228 240 225 175 286 282 275 222 260 285 301 292 231 333 264 231 263 327 239 185 223 174 290 266 200 235 231 324 206 280 300 269 307 248 239 180 231 284 192 298 201 257 200 212 251 225 262 305 291 338 170 183 194 231 167 175 263 269 157 222 317 276 317 222 206 319 260 186 298 234 262 209 312 268 219 190 326 291 261 239 263 159 131 228 134 290 278 170 293 118 186 247 223 317 181 194 250 190 245 206 316 188 250 265 244 256 262 276 220 190 282 213 250 239 287 263 307 181 267 207 302 237 294 353 204 208 196 267 259 220 318 256 242 183 255 213 287 224 271 141 192 273 211 212 274 248 199 217 214 237 297 271 230 213 212 314 280 266 192 245 225 206 276 342 266 233 272 224 299 240 211 206 181 203 320 186 202 238 301 193 265 223 381 190 296 251 205 243 184 301 184 261 232 249 255 187 146 198 286 255 278 205 257 237 190 251 217 194 206 217 149 274 181 305 287 155 347 314 201 241 175 282 321 325 290 230 235 203 234 260 269 240 231 230 144 235 236 160 188 217 163 249 151 229 236 204 283 291 211 256 215 230 276 190 330 195 202 196 213 181 197 219 258 172 250 260 255 250 202 251 217 204 239 218 266 285 213 223 232 291 268 165 180 280 273 267 237 271 264 316 154 278 208 226 198 217 292 303 263 255 273 239 222 221 271 250 232 266 260 253 204 275 299 168 312 228 169 282 147 254 208 156 234 241 223 305 204 269 178 259 352 172 179 297 249 224 283 222 239 251 201 249 246 255 269 226 217 224 293 231 232 195 219 178 249 234 221 244 178 283 306 164 182 290 167 249 218 172 287 210 311 197 213 296 260 166 175 156 185 287 231 142 185 198 249 193 228 267 205 167 244 235 222 216 188 273 220 319 196 239 232 249 235 177 250 208 248 293 301 151 248 212 145 199 197 227 265 238 309 156 239 163 335 238 215 216 229 238 210 120 240 241 316 298 233 172 232 310 272 248 167 220 216 217 272 222 274 322 232 281 180 181 219 258 258 217 254 250 227 310 272 184 166 252 270 176 245 248 266 234 227 249 229 281 354 184 200 245 246 195 281 312 301 161 249 222 334 216 286 238 281 313 226 253 207 252 186 301 209 295 198 153 220 231 153 269 267 257 207 240 216 186 229 304 174 229 151 174 234 237 251 197 262 239 231 202 252 244 190 195 332 253 224 245 256 193 231 192 264 198 337 216 232 203 248 267 161 305 249 233 299 255 264 200 238 242 303 268 188 226 175 366 355 230 270 150 192 260 195 194 130 189 192 221 233 187 222 193 249 173 138 256 198 225 302 162 213 178 261 233 236 264 188 329 267 168 221 217 187 158 248 301 237 244 306 294 151 181 302 389 309 293 256 305 268 320 180 312 197 257 180 287 254 175 309 246 243 267 182 228 190 240 186 443 306 306 224 226 187 224 179 225 283 252 323 222 224 284 272 286 276 213 195 252 170 208 220 222 280 243 217 258 209 216 217 225 160 220 188 170 182 235 183 195 192 217 295 307 265 246 186 299 162 223 307 241 240 212 240 255 176 234 184 306 156 208 361 235 181 207 181 172 195 243 288 279 237 209 236 382 251 245 300 157 245 305 282 176 311 209 244 258 199 255 266 274 239 275 167 233 165 224 271 248 213 273 248 243 284 287 196 230 250 208 189 257 341 171 180 284 234 227 278 228 268 187 250 222 301 224 251 248 143 291 274 243 250 135 189 243 222 173 192 255 290 141 215 287 214 418 250 305 188 244 231 241 236 218 303 193 286 304 162 188 282 241 186 295 243 181 219 263 191 290 227 219 206 227 205 218 225 220 203 259 310 257 169 225 232 199 258 265 261 228 257 201 242 305 252 240 176 321 263 201 302 130 223 221 210 209 241 264 299 146 256 246 200 148 182 292 275 263 168 328 374 301 273 218 231 265 269 258 213 189 145 251 208 195 264 207 198 225 213 247 269 277 217 245 215 186 278 245 250 229 276 337 244 322 125 282 296 196 181 279 297 259 316 238 226 263 271 276 213 179 171 217 166 353 228 223 271 186 230 178 230 280 256 237 361 239 276 288 265 229 160 217 216 272 273 259 208 222 224 220 208 263 256 268 221 187 398 236 210 227 178 199 268 282 215 167 179 323 231 243 299 228 192 192 180 295 197 303 306 257 238 175 203 237 317 212 231 233 359 301 281 252 270 220 189 238 201 193 306 252 279 318 182 253 291 264 252 218 301 199 326 285 224 216 141 247 198 212 186 281 165 206 238 203 200 195 191 288 207 295 222 263 217 230 217 227 289 258 199 196 202 229 136 306 195 181 201 203 244 263 268 202 248 254 180 241 199 227 283 251 190 251 313 182 334 237 161 231 220 163 202 260 217 275 226 253 302 164 196 213 158 291 335 263 249 242 259 250 146 156 238 215 197 298 309 186 255 184 205 215 204 219 292 195 215 169 208 252 280 206 271 227 314 263 352 281 236 219 274 239 317 283 274 209 161 211 232 308 236 242 306 221 119 189 312 261 209 293 197 201 186 242 182 290 221 279 176 150 251 204 219 179 184 163 261 332 213 301 196 331 243 222 221 229 295 226 210 235 285 276 211 255 241 248 265 255 151 311 183 160 197 293 172 239 251 331 200 263 220 325 312 204 236 227 225 273 206 246 322 255 255 306 271 278 272 233 272 272 231 261 209 300 177 296 236 183 290 262 224 271 337 220 287 292 305 248 257 238 278 217 348 198 229 205 189 294 172 159 240 223 270 137 169 275 182 260 281 234 179 265 308 251 159 230 271 169 357 228 130 267 255 176 345 295 261 109 172 300 244 268 198 143 221 244 241 247 168 275 235 204 207 230 326 169 249 233 265 196 243 234 235 291 228 313 208 205 268 179 167 161 337 151 252 263 191 262 274 248 235 171 237 210 260 246 228 122 257 202 243 259 162 342 180 189 266 279 262 285 290 259 147 241 229 234 169 128 214 226 270 251 206 137 201 149 162 231 280 248 365 255 268 164 255 202 246 231 295 261 264 198 228 242 324 364 272 241 291 236 190 190 181 259 285 218 216 246 260 229 159 318 161 262 173 358 206 181 219 245 209 231 175 278 232 194 292 183 217 233 258 209 269 238 207 247 183 248 300 278 258 161 323 312 122 226 222 221 291 222 263 205 271 233 246 227 212 217 152 208 282 215 235 223 270 216 277 245 244 171 273 321 183 291 194 257 295 236 266 266 186 289 208 191 170 244 204 323 272 170 266 268 267 229 243 228 243 249 286 239 192 360 270 258 298 327 230 222 267 235 251 236 310 178 256 210 218 207 171 220 259 237 139 308 170 303 234 284 224 211 210 272 288 245 249 265 204 249 242 349 253 176 245 220 319 248 192 217 238 255 307 273 265 287 281 309 326 232 244 212 242 179 256 340 286 221 215 238 356 286 283 220 128 222 230 230 246 295 299 303 230 256 201 162 281 259 118 257 166 239 245 210 256 192 285 217 220 293 222 221 212 224 171 272 207 243 272 186 236 270 275 280 290 240 266 255 245 218 225 138 237 244 213 245 164 272 248 267 252 238 249 235 342 239 224 342 269 223 246 224 241 265 297 208 202 249 146 259 166 230 249 221 226 234 188 142 272 204 279 266 315 184 243 312 280 272 319 256 186 256 245 250 176 253 217 270 331 247 227 298 185 176 266 256 196 192 303 204 213 328 202 259 240 263 123 273 260 207 190 137 237 368 300 209 196 310 180 236 240 250 199 383 191 257 247 206 207 258 246 265 316 238 219 238 210 232 251 256 289 224 157 232 296 180 238 267 182 191 256 197 184 196 334 226 235 235 234 152 278 232 242 203 233 338 346 273 242 388 279 199 179 237 192 181 291 280 220 255 298 338 244 234 286 251 199 281 265 263 244 202 237 262 273 229 254 254 275 222 244 246 201 240 165 275 193 152 191 271 216 174 240 300 263 157 386 208 233 229 217 270 264 189 153 188 216 243 272 265 262 129 258 169 384 246 153 204 208 256 404 246 187 247 251 269 271 211 288 320 248 249 154 268 210 197 286 294 266 189 269 190 225 228 155 293 233 264 217 262 222 333 334 267 234 160 193 161 212 281 276 274 301 254 327 269 194 151 185 276 210 240 226 228 245 393 300 272 282 203 277 218 235 217 150 265 264 182 225 227 217 218 151 189 314 287 208 255 279 328 136 346 265 257 136 287 166 258 327 256 213 222 241 280 225 200 287 286 163 249 238 238 282 258 167 281 330 262 262 300 176 222 262 323 233 185 248 182 266 168 255 198 246 244 251 249 222 242 274 269 301 255 279 186 119 183 233 289 213 267 309 258 255 236 185 285 233 230 228 226 167 305 297 214 228 201 385 224 348 314 190 237 260 224 270 220 293 246 171 268 282 299 219 252 142 272 262 321 204 216 262 261 213 238 225 237 217 316 259 302 415 181 235 231 262 206 222 372 224 335 249 192 185 202 292 194 204 310 296 235 211 207 231 228 263 243 230 156 284 294 230 338 203 292 326 266 234 246 287 174 198 256 236 278 359 159 306 264 244 236 191 285 303 150 228 268 148 231 172 298 182 250 276 234 347 262 172 218 215 259 271 253 187 267 100 188 271 283 218 235 268 282 216 256 233 203 305 202 255 169 297 344 270 251 325 313 219 231 185 264 149 265 150 240 232 177 228 283 230 187 412 243 224 175 171 251 175 191 220 267 284 229 196 285 290 217 240 211 274 170 269 183 239 207 268 149 251 253 236 203 278 199 265 247 221 271 274 273 209 195 242 259 264 286 261 207 167 203 265 265 207 283 173 220 116 270 180 320 102 204 199 187 341 213 213 172 256 317 315 280 178 358 167 159 268 218 197 135 247 353 228 228 216 245 246 276 185 214 194 190 306 285 270 248 285 276 218 178 179 174 295 212 203 248 152 243 186 179 194 265 181 295 213 249 205 221 247 190 276 218 294 240 214 251 163 199 267 180 262 191 198 303 226 378 239 214 255 154 241 232 265 230 198 257 206 144 234 276 250 265 256 340 258 198 312 230 191 303 232 249 337 189 216 295 258 174 213 243 241 245 260 173 262 241 280 212 147 226 222 242 175 223 235 254 263 285 322 276 238 203 198 254 317 282 235 224 165 334 242 258 239 255 207 238 254 229 177 247 201 229 242 211 277 215 225 178 285 271 241 192 284 218 221 220 250 242 164 280 260 134 260 201 206 199 299 297 220 169 204 329 301 293 193 206 242 247 290 261 310 186 269 214 184 287 210 241 208 250 328 240 358 186 224 232 361 248 275 274 250 290 248 217 276 228 224 221 277 200 255 312 198 208 279 247 246 164 186 316 226 252 229 298 168 287 124 223 201 247 251 243 201 209 200 237 233 146 178 192 310 293 274 195 212 265 190 167 224 222 272 281 226 207 271 222 190 225 179 272 226 270 244 275 153 282 281 251 204 286 209 240 220 161 156 229 214 316 231 291 251 270 233 239 262 234 134 243 197 236 284 201 174 208 194 313 312 274 275 221 233 221 198 216 293 222 221 167 175 323 197 227 307 252 173 215 259 176 230 197 216 319 200 294 281 179 270 282 260 225 315 241 263 222 405 223 241 216 158 210 370 272 229 265 297 182 288 149 190 196 292 260 158 310 221 189 341 238 210 244 254 221 218 215 249 273 223 286 261 294 210 309 255 246 225 298 271 232 245 304 242 300 240 214 289 268 270 219 299 227 152 292 276 262 234 287 246 148 289 234 264 338 245 235 308 266 230 215 181 251 241 211 266 304 301 294 195 258 229 239 211 240 247 242 277 209 223 281 293 232 247 263 258 167 292 240 323 241 202 262 236 199 284 165 230 187 214 259 188 291 246 210 306 212 216 300 222 175 236 208 191 161 238 264 194 158 174 244 255 365 212 193 240 235 178 335 334 279 190 206 251 229 287 208 191 223 271 350 253 201 209 228 186 279 170 263 164 229 213 238 251 205 237 279 230 291 217 216 332 195 274 207 333 250 253 255 207 240 301 268 321 253 220 272 245 164 213 185 242 238 252 228 167 248 207 144 212 209 318 207 257 286 222 261 276 229 209 204 189 141 235 256 249 234 279 298 240 210 252 265 241 307 194 167 263 210 236 233 402 359 196 258 317 190 198 210 193 237 230 159 227 347 250 243 310 260 188 312 191 270 135 255 214 178 240 271 276 231 270 133 236 235 204 198 161 201 259 285 263 191 209 270 233 268 218 178 244 260 227 115 252 254 195 333 186 289 217 220 179 250 236 290 214 260 296 254 229 263 195 198 300 176 216 201 287 163 240 219 271 172 236 271 208 233 349 173 267 259 243 172 217 247 272 255 248 246 198 271 178 152 225 297 297 234 179 204 227 191 259 311 303 198 303 189 336 180 359 296 194 280 254 193 271 261 193 129 198 218 325 184 341 298 274 189 234 193 190 210 253 158 206 316 240 250 319 293 225 213 221 292 192 200 245 293 214 191 297 199 149 168 359 284 221 105 240 215 256 239 344 169 232 221 214 305 143 398 311 222 272 191 231 195 268 128 312 281 155 258 231 225 303 226 255 124 292 222 302 210 200 245 130 183 239 263 278 238 248 207 311 195 237 231 254 237 260 302 216 324 235 149 206 206 208 248 237 174 254 146 203 288 155 198 298 153 284 287 324 295 247 228 256 205 212 316 337 198 290 327 260 266 168 135 270 234 205 180 208 259 294 231 280 194 298 302 224 250 238 193 249 202 255 305 257 147 241 269 142 238 221 262 266 272 254 190 260 252 240 236 181 222 179 309 209 204 211 232 308 207 240 251 187 205 289 294 202 312 176 110 229 188 208 219 299 225 269 222 289 205 253 270 242 184 244 236 290 287 271 204 238 208 319 222 149 191 205 286 248 221 226 230 202 240 282 270 220 282 237 233 233 288 134 174 168 153 199 232 361 285 328 242 260 274 304 233 178 209 181 196 261 223 225 347 252 237 204 222 266 275 241 154 208 264 249 240 176 270 181 248 184 228 274 289 341 259 252 355 266 311 232 217 279 253 339 276 310 311 211 236 235 347 160 184 260 138 314 278 221 173 209 266 252 259 267 181 253 197 259 264 304 141 207 271 225 301 295 176 231 194 194 279 214 232 248 246 268 233 287 201 221 179 221 209 221 186 210 241 239 309 241 142 333 182 226 206 323 258 224 196 221 261 226 118 250 255 214 252 203 242 203 224 321 243 179 170 289 264 272 241 219 253 176 254 227 200 271 218 248 181 335 214 208 235 210 275 388 235 288 239 163 254 165 192 314 223 260 175 182 241 295 220 298 209 225 243 229 310 229 243 274 198 245 174 263 256 317 209 308 212 250 326 356 221 329 185 227 210 213 197 226 290 258 249 257 267 196 213 153 245 190 254 267 273 233 226 311 274 185 131 290 173 225 226 270 289 211 189 354 237 263 251 210 187 190 309 233 129 227 243 180 265 251 244 225 177 262 311 233 222 255 261 241 236 251 271 203 181 332 289 217 291 238 305 189 256 189 224 208 194 217 217 221 318 229 322 307 184 244 214 190 264 207 209 254 341 244 261 220 269 162 289 123 284 270 179 257 237 250 229 282 185 205 199 221 160 262 194 244 207 296 261 292 280 275 288 338 278 331 306 172 267 298 243 291 284 231 328 212 356 237 218 159 162 301 229 150 208 200 251 252 222 335 318 268 330 285 264 262 296 259 277 269 222 172 160 250 291 294 295 193 238 236 275 286 149 245 265 198 280 191 291 167 211 348 210 244 277 271 186 266 248 243 285 216 304 186 252 255 294 353 310 259 203 221 168 282 155 198 192 230 212 272 234 251 313 232 276 287 258 190 227 206 303 286 169 262 268 216 156 291 264 282 230 338 232 235 190 231 270 296 161 325 230 211 188 239 200 247 182 193 217 287 241 279 256 252 312 269 216 266 289 267 299 193 214 179 275 275 207 283 219 285 231 304 203 279 225 224 216 194 287 233 297 318 250 259 405 240 227 231 235 213 229 226 307 170 164 224 253 261 234 263 226 187 223 302 238 206 309 214 312 266 130 233 246 250 209 278 210 207 299 145 264 283 220 236 154 267 282 242 221 177 294 221 164 229 312 257 232 250 241 215 269 242 302 228 223 214 249 248 251 320 263 192 178 197 304 218 317 241 143 272 206 248 180 209 216 244 179 181 282 287 258 187 140 188 208 246 226 233 207 226 258 185 239 325 127 284 284 267 205 217 231 210 266 189 249 239 206 185 209 229 250 220 183 195 182 241 115 230 299 220 233 166 281 159 225 171 232 190 238 298 255 239 209 157 295 244 281 178 255 206 219 246 235 215 288 270 183 219 139 270 199 257 213 221 226 260 268 234 180 259 198 161 295 218 265 323 285 353 182 297 257 284 222 240 200 254 169 226 340 290 191 244 138 144 233 188 201 223 202 209 282 264 282 192 321 216 197 218 271 229 198 242 273 262 284 195 252 266 242 255 298 284 314 215 193 288 197 214 306 176 190 228 254 310 254 225 236 302 188 218 267 308 186 241 192 225 202 250 269 262 329 260 251 110 269 230 244 101 180 147 163 329 158 214 268 225 255 295 252 255 338 246 295 240 215 237 298 315 225 298 329 231 254 304 259 244 179 185 286 252 225 268 253 310 158 236 320 323 274 243 172 249 269 212 293 266 129 267 220 218 247 269 238 298 274 232 192 277 263 180 229 227 230 252 144 255 172 151 175 299 316 208 184 157 304 237 169 257 258 255 297 278 249 193 239 259 193 239 229 278 195 240 170 179 228 178 158 228 240 315 176 237 241 252 224 285 232 276 262 219 247 207 173 254 171 265 201 260 293 245 240 255 357 343 261 274 292 177 187 214 281 241 317 183 205 211 268 226 279 199 242 184 236 137 298 199 270 215 245 271 228 285 213 190 378 213 224 227 326 204 209 250 300 198 278 201 280 261 247 228 237 243 242 233 246 210 202 276 204 243 196 251 261 171 218 299 273 238 139 193 285 201 193 282 243 206 263 127 166 175 265 251 260 268 154 326 307 153 179 201 185 191 239 248 186 294 257 211 340 193 288 240 270 184 341 224 242 280 288 247 280 245 161 218 294 308 259 325 249 243 278 259 273 327 203 197 225 194 271 217 283 246 221 224 290 229 279 213 338 185 260 208 319 257 287 242 283 181 305 250 270 251 281 197 200 326 254 333 205 273 178 278 279 263 297 266 273 208 186 326 258 282 213 187 238 338 270 227 251 263 268 175 236 271 255 222 235 257 245 280 211 147 252 146 252 197 276 251 207 223 170 201 250 254 351 233 235 220 176 214 245 209 258 269 253 272 280 188 228 217 257 187 235 293 256 232 207 231 262 193 189 228 298 257 235 176 232 233 260 266 303 354 209 186 246 210 219 181 283 174 288 301 228 228 204 239 235 155 240 259 264 192 224 259 244 261 197 221 184 212 218 211 226 255 258 193 223 158 198 334 203 223 271 199 174 227 221 269 212 304 219 207 248 277 272 269 246 197 241 279 227 145 247 278 276 282 130 276 213 174 195 166 251 134 254 220 259 205 198 196 284 243 233 255 249 243 123 195 242 279 187 292 232 234 270 329 262 189 223 203 258 202 259 177 226 215 237 299 226 232 206 252 189 265 270 171 244 199 286 189 280 236 259 275 199 250 265 241 267 129 279 309 153 159 249 248 257 210 172 194 248 265 230 234 230 159 297 248 211 130 175 183 223 305 330 188 240 227 229 195 250 276 271 294 286 186 234 216 226 211 213 301 235 228 243 186 306 212 204 324 185 227 262 218 191 242 205 226 273 206 254 211 140 240 226 343 144 281 250 252 247 263 209 268 111 226 208 149 175 234 193 214 175 242 181 232 246 305 214 243 191 201 157 327 150 177 262 200 289 279 137 252 215 243 209 255 223 217 228 173 240 252 225 293 208 195 229 279 271 288 163 223 205 242 166 254 214 222 295 255 324 198 161 199 309 290 200 249 336 178 211 208 257 278 254 290 246 200 209 249 242 334 254 294 236 209 231 193 253 239 260 163 161 177 223 292 248 270 232 340 176 284 259 178 260 203 224 360 283 242 212 289 311 264 213 332 181 263 206 235 179 249 249 243 158 229 230 309 220 172 248 302 340 240 120 184 250 227 295 106 224 153 190 224 174 138 279 216 243 228 209 276 223 279 278 250 196 194 376 214 198 231 275 237 187 305 248 207 221 207 237 218 162 285 265 162 304 187 241 253 219 296 238 284 253 219 247 115 259 227 265 246 260 201 272 243 223 261 238 250 253 241 254 260 205 247 248 279 248 267 204 157 363 211 290 231 182 </t>
-  </si>
-  <si>
-    <t>GAM(0.3591052543881243, -3.3112446270187843e-23, 1.1750709251873817)</t>
-  </si>
-  <si>
-    <t>1 1 1 1 1 2 1 2 2 2 0 1 1 0 0 2 0 2 1 2 2 1 3 2 2 3 1 2 1 2 3 0 1 1 2 3 1 2 0 2 1 0 1 2 1 4 1 1 1 0 2 2 1 0 2 1 0 1 2 1 1 0 1 0 1 2 2 0 1 2 3 0 0 2 1 1 2 1 1 2 1 1 2 1 0 0 0 3 1 0 0 1 1 2 2 3 1 3 2 2 1 1 0 1 0 2 2 2 3 1 1 2 1 0 3 1 0 1 2 2 0 1 0 3 1 1 1 2 0 1 1 1 1 1 1 0 1 0 0 0 1 1 2 1 1 0 3 2 6 2 2 0 1 2 2 2 2 1 1 0 2 2 1 2 1 2 1 2 1 1 2 0 0 3 0 1 2 1 1 1 1 2 3 0 1 1 1 3 0 2 2 1 1 0 1 2 0 2 3 0 1 0 1 3 2 1 1 1 0 2 2 0 0 2 1 1 2 1 1 1 0 0 1 0 2 0 1 1 3 1 1 2 1 0 1 3 1 0 0 2 1 1 2 1 3 0 0 0 0 0 0 1 2 1 3 0 1 1 1 1 1 1 1 1 1 2 2 1 2 1 2 1 0 3 1 1 2 1 1 1 3 1 3 1 2 3 1 1 2 3 2 1 1 2 0 1 0 0 0 0 1 2 2 0 2 2 1 1 0 0 3 3 0 1 0 2 2 0 1 0 2 0 0 2 1 2 3 1 2 0 1 1 1 0 0 1 2 0 1 0 0 1 1 1 0 1 4 4 1 0 1 1 0 1 1 1 0 0 1 0 2 1 2 1 0 1 1 2 2 1 1 1 2 0 1 1 0 0 1 0 1 2 1 1 1 2 0 3 0 0 1 2 1 2 1 1 1 1 0 2 0 1 3 0 0 1 1 1 0 2 0 1 1 1 2 0 2 1 0 0 0 0 1 0 2 1 1 4 1 0 1 6 0 2 0 2 1 2 1 1 1 0 1 1 3 0 1 0 0 1 2 2 0 2 2 2 1 1 0 2 2 0 1 0 0 2 0 2 1 1 0 1 2 0 1 1 2 0 1 1 0 0 1 2 1 1 0 2 0 1 0 0 1 0 0 0 2 1 1 0 3 1 1 2 0 1 2 0 0 2 2 0 1 2 0 2 2 1 1 1 1 1 1 2 0 0 2 2 1 0 1 1 2 1 2 1 1 0 3 1 1 1 1 3 0 0 3 1 2 1 1 1 0 2 1 1 1 1 1 1 2 1 1 2 1 3 2 2 1 2 1 2 1 1 1 1 1 3 0 2 2 1 1 0 2 1 1 3 1 0 2 1 1 1 1 2 1 0 0 2 2 1 1 1 2 0 1 0 1 1 2 0 1 0 2 2 1 1 1 0 2 0 2 1 2 1 2 2 0 3 1 0 2 1 1 3 0 2 3 1 2 1 0 2 3 1 1 2 2 0 1 1 2 2 1 2 2 1 1 2 1 2 1 0 0 0 0 1 0 1 0 2 2 0 2 1 0 0 2 0 2 1 2 2 1 3 1 2 2 1 0 2 3 0 0 2 1 1 2 0 1 2 2 2 0 1 2 2 1 1 2 0 1 2 0 1 2 2 2 2 1 1 0 1 2 0 2 0 2 3 1 2 2 2 1 1 2 0 2 1 1 3 0 0 2 0 0 2 2 1 1 1 2 0 1 1 2 3 0 1 2 1 0 2 2 1 1 1 0 2 2 0 1 2 1 0 1 1 1 0 1 3 1 2 1 1 5 0 1 0 1 2 2 1 1 1 1 0 3 0 2 1 0 3 0 3 3 1 2 3 0 2 1 1 1 2 2 0 1 0 2 1 0 2 1 0 1 2 0 3 2 0 0 2 3 1 1 1 1 2 1 2 1 1 1 1 1 0 2 0 1 2 1 1 2 1 0 0 2 1 0 0 0 2 0 1 1 1 1 1 3 0 1 2 0 2 0 3 2 2 2 2 2 2 1 1 1 2 0 1 1 3 0 0 1 3 1 3 2 1 0 1 0 1 1 1 2 0 1 2 1 2 1 1 2 2 0 2 1 1 2 0 1 1 2 0 3 0 0 2 2 2 0 0 1 2 3 1 1 1 0 1 0 2 1 1 1 1 1 2 0 1 3 1 2 0 1 3 0 0 2 2 3 0 0 1 2 2 0 1 1 0 4 2 3 1 2 0 1 3 1 2 1 0 3 0 0 0 0 1 2 2 1 0 0 0 3 1 1 3 2 2 0 2 1 1 1 3 3 0 2 2 1 1 1 1 1 2 1 2 1 1 1 2 0 2 1 4 3 1 1 0 1 1 2 0 0 0 3 1 2 1 1 0 2 0 1 0 0 2 4 0 0 1 1 0 0 2 0 2 1 1 1 1 1 1 1 1 2 1 1 0 0 3 0 1 0 0 0 2 2 1 0 1 0 1 3 2 2 1 0 1 1 1 0 0 2 0 2 1 0 0 0 0 1 2 2 3 1 0 0 0 1 1 0 0 1 0 1 1 2 2 2 2 1 2 1 0 1 0 1 0 3 3 2 2 0 1 3 1 3 2 0 1 2 0 1 2 2 1 1 1 2 0 2 0 1 2 1 0 3 1 2 1 1 1 0 2 1 0 0 1 2 2 3 0 1 1 3 0 2 1 1 0 1 1 4 2 0 2 2 3 1 5 2 3 1 0 2 0 2 1 2 0 1 1 3 1 1 0 0 1 3 1 1 2 0 2 0 1 1 1 1 2 0 1 2 1 0 1 2 0 0 1 0 1 1 1 0 1 1 1 2 2 1 0 1 1 1 2 0 3 0 2 1 0 3 2 0 0 2 5 0 4 0 1 1 1 3 1 1 0 0 2 1 1 2 3 0 2 0 1 1 2 2 2 1 3 3 1 6 0 1 2 1 1 1 1 2 1 1 0 2 0 1 2 4 2 1 1 2 3 0 2 1 0 1 0 2 1 1 2 2 2 1 1 2 1 1 0 2 1 2 1 1 0 2 1 2 1 0 1 2 1 1 0 2 2 1 1 1 2 0 0 2 2 2 0 0 1 0 0 2 0 1 2 3 1 2 0 1 0 0 0 1 0 0 1 0 1 0 1 2 1 0 2 1 1 1 2 0 0 1 1 1 0 1 1 0 0 0 1 0 0 1 1 0 0 2 2 0 2 2 2 2 1 0 2 1 2 0 0 0 1 0 0 2 3 1 1 1 0 2 3 1 1 1 1 0 1 1 0 1 1 1 2 1 1 2 2 1 1 1 2 1 2 3 1 2 1 1 1 2 1 1 2 2 0 0 2 1 3 2 2 1 1 1 2 1 0 1 1 1 1 2 2 0 2 2 0 1 2 3 1 1 3 0 0 1 3 1 1 0 1 1 1 1 1 1 0 2 1 2 2 1 1 2 2 1 0 2 2 0 0 0 1 1 0 1 1 1 1 2 2 0 1 2 1 0 1 3 0 0 2 0 1 1 4 1 2 0 1 2 1 1 1 1 3 2 0 0 0 1 4 1 2 0 1 0 1 3 3 2 1 0 2 0 2 1 1 1 1 1 1 2 3 1 2 1 1 1 1 2 0 2 2 2 0 3 2 2 2 0 1 1 2 1 2 2 0 0 1 2 0 1 0 1 3 0 0 2 3 0 1 2 1 1 1 2 1 1 2 2 4 2 2 2 1 3 1 2 2 1 2 1 1 1 2 2 0 1 3 0 2 2 3 1 2 3 2 4 1 2 1 2 1 2 2 1 2 2 2 3 0 1 2 2 1 1 1 1 2 2 2 0 1 1 1 0 2 1 3 2 1 0 2 1 0 1 2 2 1 0 1 0 0 1 4 1 1 2 1 1 1 0 1 3 3 0 0 1 1 0 0 1 0 1 1 2 0 1 2 3 0 1 2 2 2 2 1 1 2 2 1 1 2 1 1 1 0 1 0 2 2 0 1 1 0 3 0 0 2 1 2 2 2 0 3 1 2 1 0 0 1 1 0 3 3 1 2 0 1 2 3 3 1 0 0 1 1 1 2 1 1 1 0 0 1 2 0 3 2 0 1 1 2 1 2 1 1 0 2 2 2 2 1 2 1 1 2 1 2 1 1 1 0 3 0 1 0 2 0 3 2 1 0 2 1 1 0 0 2 1 2 1 2 1 2 1 0 0 1 1 1 1 0 0 0 0 1 3 0 0 1 1 1 1 2 2 1 1 0 2 0 1 2 2 1 3 1 1 0 0 0 3 0 1 2 2 2 1 2 0 1 1 1 1 0 1 0 2 1 1 2 3 2 2 2 0 1 3 0 2 1 2 1 3 2 1 2 1 1 1 1 3 0 0 1 3 0 0 2 2 1 2 1 3 2 1 0 1 2 1 1 0 2 0 2 2 2 1 1 1 0 0 1 2 1 1 1 1 1 1 2 2 1 2 1 0 1 1 1 1 0 0 1 1 4 0 1 2 2 2 0 2 0 2 2 1 1 1 1 2 2 0 1 0 0 0 1 1 0 1 1 1 3 1 1 2 2 2 1 0 0 2 1 0 0 0 2 2 1 2 1 2 0 1 0 2 1 1 0 1 2 1 1 2 1 2 3 0 1 2 2 0 0 2 0 2 2 1 2 1 2 0 3 2 2 1 3 1 1 3 2 1 1 0 2 1 2 1 2 0 2 3 1 1 1 0 0 1 1 2 1 0 0 3 0 1 3 2 2 0 0 3 1 0 1 1 2 1 0 1 1 2 0 1 0 1 1 0 0 1 2 0 2 2 0 1 2 1 2 2 1 2 3 2 1 1 1 0 1 1 1 1 1 2 1 1 2 3 3 1 0 0 2 1 1 3 1 2 1 2 2 2 2 1 1 1 1 2 2 0 2 1 0 1 0 1 2 1 1 1 0 0 2 1 0 0 3 2 3 0 1 2 0 0 2 0 0 1 0 0 2 1 1 0 2 1 0 3 1 1 0 4 2 0 2 1 1 2 0 2 2 2 2 2 1 1 1 1 1 1 3 2 2 1 1 1 1 3 3 0 4 2 0 0 2 0 1 0 1 0 0 2 2 3 1 3 1 1 1 1 2 2 1 1 4 0 2 0 1 1 1 1 2 1 4 0 1 2 0 0 1 0 1 1 1 0 0 1 0 0 1 2 1 0 0 3 3 3 2 1 1 1 1 1 1 1 0 0 1 3 1 0 1 2 1 1 1 1 2 1 1 0 2 2 1 0 0 1 3 1 1 1 2 1 2 1 4 1 1 1 3 2 1 1 1 0 0 2 1 1 2 2 0 1 3 1 1 1 1 1 3 0 2 0 2 0 2 1 1 3 1 2 4 0 1 3 0 1 1 1 1 2 1 2 0 1 2 2 2 0 1 2 3 2 2 0 2 1 1 0 0 2 1 1 2 2 2 1 0 1 1 2 1 1 1 1 0 2 0 1 1 2 0 0 0 2 1 1 1 2 3 1 1 3 1 1 0 1 2 1 2 2 1 1 2 2 1 0 2 1 3 0 3 1 2 3 1 0 1 1 1 2 0 1 1 1 0 2 1 0 0 1 1 1 0 1 0 1 1 1 0 1 1 0 1 0 0 0 3 0 1 1 3 1 0 0 0 0 0 0 1 2 2 2 1 1 1 1 2 1 1 1 0 3 4 1 1 0 0 0 1 2 2 1 1 1 1 2 1 1 2 1 1 2 1 1 1 1 3 0 2 1 3 3 3 2 1 2 3 1 1 1 0 0 1 1 0 0 0 2 0 1 2 1 2 0 1 1 1 2 1 1 1 1 0 2 1 2 1 1 0 1 0 2 1 1 1 1 0 1 2 1 0 1 4 1 1 0 1 3 1 3 1 0 2 2 2 2 1 2 1 1 0 0 0 1 2 1 0 0 1 1 2 3 2 0 1 1 1 2 2 1 2 0 1 1 2 1 0 0 2 0 2 2 1 3 0 2 1 1 1 2 1 2 1 1 1 0 0 1 0 2 1 0 2 2 0 2 1 2 1 1 0 0 3 1 1 1 0 3 2 1 2 1 0 2 2 2 1 3 3 0 1 1 0 2 2 1 2 1 1 1 2 2 3 1 0 1 2 3 2 2 1 1 2 1 1 1 0 3 3 2 1 1 1 3 0 1 1 1 1 0 1 1 1 1 1 0 1 4 3 1 1 0 1 2 0 2 0 2 3 1 2 1 1 1 1 1 0 0 1 3 0 0 1 0 2 1 1 1 2 2 3 1 1 0 0 0 0 1 1 1 0 1 0 2 3 1 3 0 1 3 3 1 0 0 1 2 4 3 1 0 1 1 0 3 0 0 3 1 1 1 0 2 1 2 1 1 1 1 1 2 1 1 1 2 0 2 1 1 0 2 0 1 1 0 3 1 1 0 2 1 1 0 1 2 1 1 0 0 1 1 2 0 1 2 0 0 0 0 0 2 1 1 0 2 1 0 1 0 5 1 0 2 1 0 1 2 3 1 2 1 0 1 1 0 0 3 3 1 1 1 2 0 2 1 3 2 0 2 0 0 2 0 0 3 4 3 1 0 0 0 0 1 1 1 0 1 0 0 1 1 0 2 0 1 1 0 1 2 1 1 3 1 2 0 1 0 2 2 3 1 1 3 0 2 0 3 1 1 1 4 1 1 1 0 1 1 1 1 0 2 0 2 1 1 0 0 0 1 2 1 0 0 0 1 2 0 0 3 0 1 1 2 2 1 0 3 2 0 0 1 3 0 3 3 2 1 0 1 2 0 0 1 2 1 1 0 2 0 1 0 1 2 0 2 1 1 3 0 1 1 2 2 1 0 0 0 0 3 1 0 2 1 3 3 1 1 0 0 2 2 0 1 0 2 0 1 0 1 1 0 1 1 0 1 0 0 1 1 1 4 0 0 1 1 0 1 1 2 4 2 0 1 1 1 1 1 3 1 0 1 1 1 2 1 2 3 0 1 0 1 1 1 0 1 0 2 0 0 2 2 0 2 0 1 3 1 1 0 1 0 2 0 2 2 1 0 2 1 2 2 0 2 0 0 2 2 0 0 1 1 2 2 1 1 0 2 3 1 0 1 1 2 1 1 0 2 1 0 0 1 2 2 2 0 0 3 2 1 1 1 0 1 3 1 2 1 0 0 1 1 2 0 1 0 1 1 0 0 1 2 1 1 1 0 2 1 0 1 4 1 0 1 1 3 0 1 2 1 3 0 2 0 2 2 1 0 1 0 0 1 4 1 0 2 1 0 1 0 2 4 1 1 0 2 2 1 2 1 2 1 1 0 1 0 1 0 1 0 1 0 1 1 2 2 1 2 1 1 2 2 1 0 2 2 0 2 0 0 1 0 1 1 1 2 1 0 0 1 1 0 2 1 1 2 3 0 1 2 2 2 1 2 1 0 1 1 1 1 1 1 2 1 1 0 1 1 0 3 1 3 1 0 2 0 1 3 2 0 0 3 2 1 0 2 1 1 0 0 0 1 1 2 0 1 1 1 2 1 1 2 1 1 2 0 2 1 3 0 0 2 5 2 0 1 2 2 1 0 3 2 1 1 3 1 1 2 1 3 2 1 1 3 1 1 1 1 2 2 3 2 2 0 1 1 1 1 1 2 0 4 0 2 1 0 1 2 2 2 1 1 2 2 1 1 3 1 1 1 1 2 0 0 1 1 1 0 3 1 2 1 2 3 0 2 2 1 2 0 1 0 2 1 1 1 3 1 3 1 1 2 0 2 0 3 2 3 0 1 0 2 1 1 2 4 0 0 1 1 0 0 1 0 2 2 1 2 1 3 0 1 0 1 1 1 0 1 0 1 2 2 2 0 0 0 2 1 2 0 1 1 0 4 1 1 0 2 1 1 1 2 1 5 1 0 1 3 1 0 0 1 1 2 2 0 1 2 0 2 1 1 1 0 2 0 2 0 1 0 2 2 0 2 0 0 1 1 3 0 1 0 2 0 1 0 1 0 1 1 2 2 0 2 3 1 1 1 0 0 2 1 1 3 2 1 0 2 2 0 2 1 1 1 1 0 2 1 0 2 1 1 3 2 2 2 2 1 1 2 0 1 2 0 2 1 2 2 2 0 2 0 2 0 0 1 1 1 2 2 1 3 3 2 3 1 1 0 1 1 3 0 2 1 1 1 1 2 2 1 0 1 0 1 0 1 0 3 3 0 1 2 3 0 1 2 2 1 0 3 0 1 2 2 1 1 0 1 0 1 3 0 1 2 2 1 1 3 0 1 1 2 1 0 1 0 0 2 0 1 3 3 1 0 1 1 1 0 1 2 1 2 1 3 2 2 1 1 1 2 3 4 1 1 0 2 1 2 0 0 1 1 1 2 1 1 2 0 2 1 1 1 0 3 2 0 2 1 0 1 0 2 2 2 0 1 1 1 0 1 2 1 0 3 0 1 2 0 1 2 0 1 2 1 0 0 1 0 1 4 1 0 1 2 1 1 2 1 1 0 0 1 0 1 0 0 1 1 3 2 2 1 0 1 1 1 0 1 0 2 1 3 1 2 0 1 3 2 1 2 2 2 0 0 1 0 1 3 0 0 1 2 0 1 0 4 0 2 1 1 1 1 2 1 2 1 1 1 1 2 2 0 2 2 1 3 1 1 0 0 1 3 0 0 2 1 0 0 0 2 3 3 0 1 1 1 1 2 2 1 1 3 2 1 2 1 0 0 1 1 0 1 2 1 1 0 2 1 2 0 2 0 1 2 1 2 0 1 0 0 1 1 2 0 0 3 1 2 0 1 2 2 4 1 1 1 2 1 3 1 3 2 1 2 1 1 2 1 1 1 2 3 5 1 3 1 1 0 2 1 1 2 2 0 1 0 0 2 1 2 2 0 0 2 1 1 1 1 1 0 2 0 3 0 0 1 2 1 1 0 2 0 1 3 0 1 1 0 1 1 1 0 0 1 0 1 1 2 1 1 2 1 0 2 0 1 1 3 2 3 1 0 2 0 0 0 1 0 3 0 0 3 0 1 0 1 1 2 2 1 1 1 0 1 1 0 1 1 2 1 2 0 0 2 1 1 0 2 2 0 0 0 1 1 0 2 2 1 0 2 1 1 0 1 0 0 1 0 3 2 1 1 2 1 0 2 1 2 1 3 1 1 0 1 0 2 2 1 1 1 1 3 2 1 1 3 0 1 3 1 1 1 3 0 0 1 1 2 0 1 0 1 4 3 1 0 2 2 0 1 2 1 2 3 2 0 2 1 0 1 3 0 0 2 5 3 1 1 1 2 1 2 3 2 2 0 1 0 1 1 0 1 2 2 0 1 1 0 2 2 2 2 0 2 0 0 2 1 1 0 3 0 0 2 0 1 1 1 1 0 1 0 1 0 0 0 0 1 1 1 2 1 1 3 0 2 1 1 0 0 0 2 1 1 0 1 0 1 0 0 1 0 2 0 3 2 0 1 0 0 2 3 1 0 2 0 2 1 0 1 1 1 1 0 2 0 3 1 1 1 2 1 0 1 1 1 2 1 2 1 1 1 1 3 2 2 0 3 1 0 0 1 1 2 0 1 2 3 1 0 2 1 1 3 2 0 2 0 1 1 0 0 3 0 0 0 4 0 1 0 1 1 1 0 0 2 1 2 1 1 0 0 0 2 1 2 1 1 1 0 0 1 1 2 2 3 3 2 2 0 2 1 1 0 1 0 1 0 1 0 1 2 0 1 4 1 2 2 2 2 0 3 3 0 1 2 1 0 1 3 1 2 2 2 2 1 1 3 0 0 1 1 3 1 0 2 0 0 3 1 0 1 0 1 0 1 1 4 1 1 1 1 1 1 1 2 3 2 3 1 0 2 2 0 0 1 3 2 3 3 2 0 2 1 0 3 1 2 1 1 2 0 3 2 2 0 2 1 1 2 1 0 3 0 2 1 2 3 1 0 0 3 2 2 2 1 3 1 1 1 1 1 0 0 1 1 0 0 1 1 2 0 1 0 2 0 2 2 0 0 1 2 2 0 1 1 2 3 2 0 0 0 1 3 1 1 1 2 1 0 2 1 1 3 2 2 1 2 0 3 1 0 1 2 3 1 0 2 0 1 1 1 0 0 0 2 1 3 2 0 0 1 1 2 0 2 2 0 1 0 0 3 1 0 2 1 0 1 2 1 2 1 0 1 2 0 0 0 1 2 3 1 2 2 1 0 3 1 0 1 0 2 1 1 2 0 2 1 1 1 2 0 1 0 1 1 3 2 1 3 2 2 0 2 1 1 0 2 2 2 2 2 2 1 1 2 2 0 3 2 2 0 1 2 1 0 1 0 0 1 1 1 0 0 2 2 2 3 1 0 0 0 2 1 2 3 1 1 0 1 2 2 2 0 2 4 1 0 1 3 2 2 2 3 1 2 1 2 1 0 1 2 0 1 1 1 1 0 3 1 0 2 1 0 2 1 3 0 0 1 0 1 1 0 1 1 2 3 1 0 2 0 1 2 1 1 2 0 0 0 2 1 1 1 1 0 2 2 1 3 1 0 1 2 2 2 1 1 2 3 1 1 0 0 3 1 1 2 1 1 2 2 0 2 0 1 1 3 1 2 1 0 2 0 1 0 1 2 2 0 1 2 1 1 0 1 0 0 1 3 1 1 0 0 0 0 0 1 2 2 0 3 1 0 1 2 0 3 2 2 1 2 0 1 1 1 0 2 3 0 1 3 1 1 2 1 2 2 0 0 2 1 2 1 0 1 0 1 0 0 0 0 1 1 1 2 3 2 0 2 2 0 0 0 1 2 1 1 1 0 0 2 1 0 0 0 1 1 1 1 3 1 3 0 2 0 3 1 0 3 2 2 1 1 1 2 0 1 3 3 2 1 3 0 0 1 2 0 1 1 1 2 0 1 3 1 1 0 1 0 1 1 1 3 0 0 2 2 0 0 1 2 2 1 0 1 0 1 1 2 2 2 2 1 2 0 1 2 0 1 1 1 0 1 1 1 1 1 1 3 3 1 0 2 3 2 1 0 1 1 0 1 2 0 1 0 1 1 0 0 1 0 2 3 0 1 1 2 2 0 2 1 0 3 1 0 0 3 0 1 2 0 3 3 1 0 1 2 2 2 2 0 0 2 0 0 1 2 2 0 1 1 2 2 2 1 2 1 2 1 0 1 2 2 1 0 0 1 3 3 1 1 0 1 1 3 2 1 0 0 1 0 0 2 4 3 1 0 0 3 3 0 2 1 0 1 1 1 1 1 2 3 2 3 1 0 2 0 3 1 2 1 0 2 2 1 0 1 1 1 2 3 1 0 1 1 2 2 2 0 3 1 0 2 0 1 0 1 1 0 2 1 0 2 1 2 1 2 2 0 1 0 1 0 2 2 1 1 2 2 1 1 2 1 1 1 2 1 0 0 2 1 0 0 0 1 3 2 1 0 2 1 1 3 0 4 1 3 1 2 0 2 3 1 1 2 3 1 4 3 4 1 2 0 0 0 1 3 0 0 2 1 0 2 2 3 1 0 1 1 1 1 1 1 1 1 1 3 1 2 2 2 2 2 3 0 2 1 1 0 4 2 1 1 1 2 2 1 2 0 0 2 1 1 0 2 2 0 2 3 0 2 3 1 1 4 1 1 2 1 0 2 1 0 3 1 2 0 2 1 1 1 1 1 1 1 0 2 0 2 1 2 2 0 2 0 0 2 1 1 1 3 0 1 1 1 4 2 3 2 1 0 1 2 0 1 1 2 0 1 1 1 1 2 2 1 1 1 2 1 1 2 1 0 1 1 1 2 1 1 0 1 1 1 1 0 2 2 2 1 1 4 1 1 1 2 0 2 1 3 2 0 0 0 3 2 1 2 1 2 1 1 1 1 2 1 3 0 1 0 1 1 1 1 1 0 1 0 1 2 3 1 3 2 0 3 4 2 1 2 1 0 2 2 0 2 1 0 1 1 1 1 3 1 3 1 0 2 1 0 0 2 1 1 1 0 2 2 0 0 3 3 1 2 1 1 1 0 2 2 2 3 0 0 0 1 1 2 3 3 2 1 3 1 1 1 2 0 0 0 3 2 0 2 3 1 1 1 0 0 0 0 1 0 1 1 2 1 2 3 1 2 0 1 0 1 1 0 1 0 0 0 2 0 1 1 1 2 2 2 1 0 2 1 2 1 1 1 0 0 0 3 1 1 0 1 0 3 0 0 0 0 2 2 0 0 1 1 0 1 1 1 0 0 0 0 2 1 1 0 2 1 0 2 2 0 0 1 1 1 2 1 2 1 0 1 2 0 0 1 0 1 2 2 2 3 3 2 1 1 1 1 2 0 3 1 0 1 4 1 1 1 1 0 1 2 0 2 0 2 1 1 0 0 1 1 2 3 1 2 3 2 1 1 2 1 0 0 1 1 3 1 1 0 1 2 1 1 0 2 1 3 2 1 1 1 2 1 0 2 3 1 2 2 0 2 2 1 1 1 0 2 0 1 0 1 2 1 1 2 1 2 0 2 2 3 1 0 0 1 1 1 1 2 2 2 3 0 0 1 0 2 0 0 1 1 1 0 0 1 1 3 0 2 1 1 1 0 1 0 1 0 2 2 1 1 1 1 2 3 1 1 2 2 0 2 1 0 1 1 4 2 0 1 1 0 0 1 0 1 4 1 1 1 0 1 1 2 1 2 0 2 2 0 0 0 1 1 1 1 0 1 1 1 3 2 2 1 1 3 1 1 2 0 2 0 1 1 1 2 1 1 1 1 1 1 0 1 1 1 1 1 2 0 0 0 2 1 2 0 1 1 1 2 2 1 1 0 2 2 2 1 3 1 2 2 1 1 0 1 1 2 1 1 1 2 0 1 2 0 2 2 1 1 0 0 2 1 1 1 1 1 1 3 0 1 0 2 3 1 1 2 1 2 1 1 2 3 1 0 1 0 0 0 0 0 1 2 1 2 3 0 1 1 1 0 1 1 1 1 3 1 2 0 1 2 1 0 1 0 1 1 1 2 2 0 2 2 2 2 4 1 3 0 0 3 2 3 1 0 1 1 1 0 1 0 1 0 0 2 0 1 2 1 1 2 1 0 3 1 2 0 1 2 0 1 0 1 0 1 0 1 3 3 0 0 1 1 2 2 1 1 1 2 0 3 0 1 2 2 2 1 1 1 1 1 2 1 1 1 2 0 0 1 0 2 2 0 2 0 0 2 1 0 1 1 0 1 1 1 2 1 1 2 1 2 0 3 1 1 2 0 4 1 1 1 1 1 1 1 1 1 1 0 1 1 1 1 1 1 0 1 0 1 2 1 1 2 1 3 1 1 2 0 2 1 2 2 1 0 0 2 0 2 1 1 0 2 0 1 2 1 3 0 2 1 0 2 1 2 1 2 3 3 0 0 0 2 1 0 2 2 1 1 0 0 1 0 3 2 1 1 1 1 1 1 0 0 1 2 3 1 1 2 2 2 1 0 0 2 1 1 1 0 1 0 1 2 1 2 2 2 3 0 1 1 1 0 1 0 2 2 3 2 1 2 1 2 0 1 1 3 2 0 3 2 1 0 1 1 1 0 2 2 0 0 2 0 0 0 0 1 2 1 1 1 1 0 0 2 0 1 2 1 0 1 1 1 0 2 1 0 2 0 2 0 0 2 0 0 1 0 3 1 0 0 1 1 1 2 2 2 1 2 1 1 1 1 1 1 2 3 3 0 0 2 2 4 0 3 1 0 0 2 1 3 1 0 1 1 0 1 1 2 1 0 1 1 1 2 1 2 3 0 2 1 2 1 2 1 0 1 3 0 1 2 1 2 0 2 2 3 3 1 2 2 1 2 2 1 0 1 1 3 1 0 0 2 1 1 2 1 1 1 1 0 1 2 1 1 2 0 1 0 1 1 0 1 0 3 1 0 1 0 1 2 1 2 0 4 1 0 2 3 2 2 3 1 2 3 0 1 2 1 0 2 1 1 1 0 2 1 0 1 2 3 5 1 1 0 0 1 1 0 1 3 1 1 2 1 0 1 1 1 1 1 2 2 2 1 1 0 2 0 1 2 4 0 1 1 1 2 1 2 2 0 0 1 0 1 0 1 0 1 2 2 1 0 1 3 4 2 0 2 0 1 1 2 1 1 1 0 2 4 0 0 2 3 0 1 1 0 1 2 1 1 1 1 2 1 1 2 1 1 2 0 1 0 0 0 1 1 2 1 1 2 2 2 1 2 2 1 1 0 0 2 1 1 0 0 1 1 0 1 0 0 0 2 2 1 1 1 0 1 0 1 1 0 1 1 0 2 2 1 0 2 1 1 1 0 2 3 2 1 2 1 2 2 2 1 2 0 2 2 0 1 1 0 0 1 0 1 1 2 0 2 0 2 1 2 2 1 2 2 0 1 3 0 1 4 0 1 2 0 1 0 2 2 0 0 1 2 2 0 1 1 0 0 2 1 0 1 1 1 2 1 0 2 2 3 3 0 2 1 3 0 0 1 0 0 0 1 1 1 3 1 0 1 0 1 1 2 0 0 2 0 0 1 1 1 1 1 1 0 2 2 2 0 0 2 1 0 3 1 0 1 0 1 1 2 1 4 1 3 1 1 0 0 1 2 2 2 0 1 2 1 2 0 1 3 1 3 0 1 0 2 1 2 1 1 1 2 1 2 2 1 1 1 0 0 3 0 1 3 2 1 1 2 2 1 1 0 1 0 0 2 3 2 1 2 1 1 2 1 1 1 5 3 1 0 0 2 1 1 0 4 1 2 2 1 3 1 0 2 0 1 1 1 1 2 1 0 1 1 2 1 2 4 0 2 2 2 3 1 0 1 2 1 2 1 1 0 0 0 1 1 1 3 0 1 0 0 1 2 0 2 0 1 1 2 0 1 2 0 1 1 0 1 2 1 1 1 1 0 2 1 1 0 3 4 1 2 0 3 3 2 3 2 0 2 2 1 3 1 1 3 2 1 1 1 2 1 1 1 2 1 2 1 2 0 0 1 2 0 1 2 3 2 3 2 1 1 2 0 2 1 0 1 0 0 2 1 2 1 0 2 1 3 2 2 2 1 2 1 1 2 1 1 0 2 0 1 0 1 0 0 3 1 2 1 2 1 0 3 0 0 0 1 0 0 1 1 1 0 1 3 0 3 1 2 1 1 3 2 1 1 0 0 0 2 1 2 1 1 2 1 0 1 2 1 1 0 1 2 2 1 1 2 1 0 1 1 2 1 1 0 3 1 3 0 2 2 1 3 1 1 2 1 1 0 4 1 1 2 0 2 3 2 2 1 3 1 2 1 1 2 1 3 2 2 0 0 1 0 1 2 1 2 0 0 0 2 0 1 0 1 1 3 1 0 2 1 1 1 0 1 1 1 4 2 0 5 1 2 3 4 3 0 0 2 0 1 2 1 2 0 1 1 0 1 2 1 2 0 2 0 1 1 0 1 2 0 1 1 0 2 0 1 3 0 1 1 0 0 1 2 1 3 2 0 0 0 2 1 1 2 1 0 0 0 1 2 1 0 2 1 3 1 1 1 1 2 1 1 1 1 1 3 1 1 1 1 3 3 1 1 1 3 2 2 2 1 0 3 1 1 3 1 1 0 0 1 3 0 3 4 0 0 1 2 0 1 1 0 1 2 0 1 0 1 2 1 1 1 1 1 1 0 2 1 1 2 0 0 3 1 2 1 0 0 2 1 1 1 0 0 1 2 1 1 1 1 3 0 2 1 2 1 1 0 0 2 1 2 2 0 2 2 2 0 0 1 1 2 2 0 1 0 0 0 0 0 0 0 1 1 1 2 1 0 2 0 1 1 0 2 0 1 2 1 2 0 2 4 2 1 1 0 1 1 2 0 2 1 2 0 1 1 2 3 2 1 1 0 2 1 0 1 1 2 0 4 2 0 2 1 1 0 1 1 0 3 1 1 0 0 3 1 4 1 2 1 3 2 0 2 2 1 1 1 2 2 0 0 0 3 1 1 0 1 1 2 1 1 1 1 0 1 1 3 1 2 0 2 0 2 1 1 1 1 2 3 1 1 2 2 1 3 1 2 2 0 1 1 1 0 1 0 1 0 1 2 1 1 2 1 1 1 2 3 1 1 2 0 1 1 0 0 0 1 1 2 3 0 2 1 2 1 2 0 1 1 1 2 1 0 1 1 2 2 0 1 0 0 1 3 3 2 0 1 4 1 0 0 2 1 1 1 1 1 0 2 1 1 0 1 1 0 3 1 1 1 1 2 1 0 1 0 0 0 3 2 1 0 2 1 1 2 1 0 2 1 1 1 1 1 1 0 3 0 1 1 2 1 0 1 2 2 2 0 1 0 1 0 1 0 0 2 1 2 1 2 1 1 1 3 2 0 2 3 0 0 2 0 0 0 1 2 1 1 2 2 2 1 0 2 1 1 2 2 2 2 0 0 3 1 0 1 0 0 2 1 0 0 1 1 2 2 2 2 1 0 1 2 1 0 0 2 1 0 2 1 1 0 1 2 1 0 3 1 1 2 2 1 1 2 1 3 0 1 0 1 2 2 1 1 3 1 0 2 0 2 1 2 1 1 1 2 1 2 0 2 1 0 2 2 1 1 1 1 0 1 2 1 2 0 0 1 1 0 0 2 0 1 0 1 1 0 1 2 1 0 1 2 1 2 1 1 1 0 0 1 2 3 0 1 0 2 1 3 0 0 0 2 2 0 0 3 1 2 2 2 2 0 0 0 1 1 2 3 0 1 3 1 2 1 0 1 0 1 1 0 4 2 1 1 3 1 2 2 0 1 0 1 0 0 0 1 2 0 1 2 1 1 1 2 1 0 0 2 1 1 2 0 1 0 0 2 1 0 3 1 1 2 0 2 0 0 1 2 2 2 1 1 2 2 1 1 1 1 2 1 1 1 0 1 2 1 1 3 1 0 1 1 1 1 0 2 2 0 1 1 1 1 1 0 1 2 1 0 1 1 1 1 0 3 0 3 0 1 2 2 1 2 0 0 1 0 1 1 3 2 0 1 1 1 0 2 1 0 0 4 2 0 1 1 2 3 2 2 0 1 1 2 3 2 1 1 2 0 0 1 2 1 1 1 2 1 0 0 1 0 1 0 0 0 0 0 1 2 1 2 3 0 1 0 2 0 1 1 0 1 2 4 1 2 3 1 0 1 0 1 2 1 1 1 1 0 1 1 1 1 1 2 0 1 1 3 3 0 2 0 0 3 1 3 1 0 2 0 0 2 0 0 3 1 1 0 3 0 1 1 2 0 1 1 2 1 2 0 2 1 2 2 1 0 1 1 0 1 3 0 0 1 0 0 1 3 2 1 2 2 1 0 2 2 0 1 1 0 1 0 3 2 2 1 2 2 1 1 1 1 1 0 1 0 1 1 1 1 2 2 3 2 2 1 0 2 0 3 0 1 0 2 1 2 2 5 0 1 2 1 1 1 1 1 0 3 1 1 2 0 1 2 1 0 2 2 1 0 2 2 3 1 2 1 1 2 0 3 0 1 0 0 1 0 0 1 1 0 2 1 1 0 1 2 0 2 4 2 2 2 1 0 0 0 0 0 1 1 1 2 0 1 1 2 1 0 2 0 0 2 1 0 1 2 1 0 2 0 3 0 1 1 2 1 0 0 1 1 2 2 1 0 1 1 2 1 2 1 1 0 1 1 1 1 1 1 2 0 1 0 1 2 2 1 2 2 3 0 0 0 3 2 1 2 2 0 2 0 3 1 1 2 1 2 0 1 0 2 1 1 1 1 0 0 1 0 3 0 0 1 3 0 1 0 1 0 0 0 2 2 1 3 1 0 1 3 1 0 1 2 1 2 2 1 0 0 0 1 1 1 1 2 2 2 1 2 2 2 2 0 4 0 2 1 1 0 2 3 2 0 1 2 1 1 1 2 1 0 1 2 2 1 1 4 0 1 2 1 0 0 1 0 0 2 1 2 1 0 1 0 2 1 0 2 1 1 0 2 1 0 1 1 1 2 1 1 2 1 1 1 3 1 2 2 1 2 2 2 0 1 1 1 0 0 2 2 0 2 0 2 1 0 1 2 0 1 1 0 0 2 0 0 2 1 1 0 0 2 1 0 0 0 0 2 0 0 0 2 1 2 1 0 0 1 0 2 0 1 0 1 0 2 2 2 1 1 2 0 1 2 0 1 1 1 0 3 2 2 2 0 2 1 2 2 2 1 2 1 0 3 0 2 2 2 1 3 1 1 0 1 1 1 1 4 1 1 0 0 2 2 1 0 0 2 0 1 2 1 2 1 2 2 1 1 3 2 0 0 1 1 0 2 3 1 2 3 1 0 1 2 1 1 1 1 1 1 2 3 1 0 2 2 2 0 1 2 1 2 1 0 1 1 1 1 0 1 3 3 1 0 0 1 1 1 1 3 1 0 1 1 0 3 2 4 0 2 2 1 1 0 1 2 0 1 2 0 1 0 1 1 1 2 0 0 0 1 1 0 0 0 0 0 0 0 1 1 1 2 3 1 2 1 1 1 0 0 2 0 2 2 0 2 3 2 0 3 2 2 2 0 1 1 1 1 1 0 1 3 1 1 1 0 2 0 1 2 2 1 0 0 3 0 1 1 1 1 2 0 1 0 0 0 0 1 2 2 0 1 4 1 1 2 1 1 4 2 1 0 1 3 1 0 0 2 0 1 1 2 1 1 1 0 2 0 2 1 1 1 0 0 0 1 1 0 4 2 1 2 1 1 1 3 0 1 1 0 2 0 1 1 2 1 1 3 2 0 1 0 1 2 1 2 0 2 0 1 4 2 0 1 2 1 2 1 2 2 1 1 1 3 3 3 1 2 2 3 1 2 1 1 1 2 3 2 1 0 0 1 0 0 2 1 3 2 0 2 0 1 1 3 1 0 1 2 2 0 1 2 1 0 1 1 1 0 0 2 2 2 1 1 1 1 1 1 1 0 1 1 0 4 1 0 1 1 1 0 2 2 2 1 2 1 1 0 3 2 1 1 2 0 2 2 0 2 0 0 1 1 1 2 1 2 0 3 0 2 3 3 2 1 0 2 1 1 0 0 1 0 1 2 0 1 1 2 3 0 2 2 1 1 2 0 1 1 1 0 2 2 1 1 1 2 2 0 1 0 2 0 0 2 2 2 2 3 0 1 0 0 1 2 1 0 2 1 0 1 1 3 3 1 1 1 0 2 4 0 0 1 1 2 3 3 1 3 0 2 1 2 1 3 3 0 2 1 2 0 2 2 5 2 1 1 1 2 0 0 0 1 3 0 0 2 2 3 1 2 1 1 2 1 1 1 2 1 1 2 0 2 1 1 1 0 1 2 1 0 1 0 1 1 1 0 0 0 0 0 0 1 0 2 1 1 2 1 0 1 2 2 2 1 2 2 2 4 1 0 1 1 1 0 1 1 1 2 2 1 2 1 2 2 2 1 1 2 2 1 1 2 2 1 2 2 0 1 0 1 0 2 0 1 1 2 0 0 1 2 1 1 2 1 2 1 2 3 0 2 2 2 0 1 1 1 3 2 0 0 2 1 0 1 2 2 2 2 0 1 2 1 0 1 1 0 4 1 2 1 0 0 1 2 1 0 1 2 1 1 2 2 1 0 3 1 0 3 2 1 2 2 1 1 1 2 1 2 1 1 1 1 1 0 1 0 0 0 1 1 0 3 2 3 1 1 0 2 2 2 1 2 0 1 2 0 1 0 1 1 0 1 0 2 4 1 0 1 0 1 1 1 1 0 3 1 2 2 2 1 1 1 2 0 2 1 3 1 1 4 2 3 2 2 2 2 0 0 2 0 0 1 1 1 2 0 1 1 3 3 2 1 1 3 2 1 1 1 3 0 2 1 1 1 2 0 1 2 2 2 3 0 3 0 1 1 0 1 0 1 4 1 1 1 0 0 0 1 1 2 1 1 0 1 0 1 2 2 2 2 1 1 1 2 1 1 0 2 1 1 1 1 0 1 2 1 0 1 0 2 0 2 0 1 1 3 1 1 0 1 3 1 2 1 0 1 0 1 3 2 1 1 4 1 0 1 2 1 0 2 0 0 0 1 2 1 1 1 1 2 2 0 2 1 1 3 1 1 1 1 1 2 1 2 1 1 1 1 1 2 2 0 0 1 3 2 0 0 3 1 1 2 1 2 1 1 0 3 1 0 0 1 1 1 0 1 0 1 0 0 2 1 1 2 2 2 1 0 1 3 0 0 1 4 1 1 1 1 0 1 1 1 3 1 0 1 4 1 1 1 2 1 0 1 1 1 1 1 3 0 1 1 2 0 0 0 3 1 2 1 2 1 0 2 0 0 1 3 1 3 0 0 2 2 0 1 2 2 1 1 1 1 1 3 3 3 2 1 1 1 0 0 1 1 2 0 0 0 0 2 3 1 1 0 1 0 1 3 0 0 0 2 2 1 3 0 0 1 3 1 2 2 1 3 1 3 0 3 1 2 2 1 0 1 1 3 3 2 1 1 1 1 0 1 0 2 1 1 0 1 0 0 0 2 1 2 0 1 0 0 3 2 1 2 1 1 3 2 1 1 0 0 2 3 1 1 1 3 1 1 0 1 1 0 0 0 0 3 1 0 0 1 1 2 1 3 1 0 1 1 1 2 2 0 2 2 1 2 2 0 1 1 1 0 0 1 1 0 1 0 1 0 0 0 2 0 0 1 2 0 1 2 1 0 2 2 2 0 1 1 0 0 0 3 1 2 1 1 1 1 2 0 1 2 0 2 1 1 1 1 1 1 0 1 1 0 1 1 1 3 1 1 2 3 3 1 3 1 3 0 2 1 3 0 0 0 2 0 1 1 1 0 1 1 1 0 1 2 1 1 1 2 1 0 0 1 1 1 1 2 1 0 1 2 3 0 2 1 0 2 3 0 0 1 2 1 3 1 1 1 2 1 2 1 2 2 2 0 1 1 1 0 3 3 2 2 1 0 1 1 1 1 1 1 1 3 1 0 0 1 0 0 2 1 0 4 0 3 1 2 1 0 1 2 0 1 1 1 1 1 2 1 2 1 0 2 1 2 1 2 1 0 0 2 0 2 0 1 2 0 2 4 0 0 2 1 0 0 2 0 2 1 5 1 0 2 0 0 0 2 1 2 1 1 2 2 2 0 1 1 2 0 4 2 1 3 3 0 0 3 0 3 0 2 2 1 1 1 2 2 1 2 0 0 1 2 1 2 0 1 2 1 1 0 0 2 2 0 2 1 1 0 1 2 0 1 1 2 3 1 2 1 1 0 1 0 0 3 3 2 1 2 2 3 2 1 0 1 0 3 2 2 1 0 1 2 3 0 2 1 2 1 0 2 3 0 1 2 0 1 3 2 2 1 2 3 0 1 2 0 1 1 0 0 1 2 1 2 4 1 2 1 1 1 2 2 1 1 1 1 2 1 1 0 2 1 1 1 2 1 1 2 0 0 3 2 0 5 0 0 1 2 3 2 0 0 0 3 0 0 0 2 1 1 2 2 0 4 0 0 1 3 0 3 0 0 3 1 0 3 1 1 0 0 1 1 1 0 1 1 1 0 1 0 3 2 2 1 2 2 0 3 0 1 2 2 1 0 3 1 1 1 1 2 0 2 0 1 3 2 1 1 1 0 1 0 3 1 2 0 1 0 1 1 0 0 0 2 1 0 2 1 0 0 0 1 0 4 2 2 0 0 1 1 1 2 0 2 1 3 0 0 1 0 0 1 0 2 1 2 2 1 0 1 2 3 1 3 1 2 1 2 1 2 2 1 1 1 2 2 2 3 1 1 1 2 0 0 1 1 1 2 1 1 1 0 0 0 2 1 2 1 1 2 1 2 0 0 0 1 1 0 1 0 2 3 1 3 1 1 0 3 1 0 1 0 1 0 2 2 1 1 0 0 1 0 2 2 0 1 0 1 2 0 0 0 1 0 0 1 0 2 2 3 3 2 1 1 2 1 2 1 2 2 3 0 2 1 2 0 2 1 1 2 0 0 2 2 0 0 1 1 0 2 1 0 1 1 2 2 0 1 2 0 0 0 1 2 2 3 0 1 1 0 1 1 0 3 1 1 1 1 1 1 2 3 1 2 2 3 2 1 1 1 2 3 2 3 1 0 0 0 0 3 1 2 1 0 0 1 2 1 2 2 2 0 2 0 3 0 2 1 1 0 2 2 0 0 2 3 2 0 1 2 0 0 0 1 2 0 1 1 0 4 0 0 1 2 2 1 2 1 2 1 2 1 2 0 2 0 1 1 3 0 0 1 1 0 1 2 3 2 1 0 3 1 2 2 0 0 2 0 0 1 0 1 0 2 1 0 1 1 2 1 2 1 1 3 0 0 0 1 2 1 3 0 1 2 2 1 1 1 2 1 1 0 2 1 1 1 1 1 0 1 1 1 1 4 0 1 1 1 2 1 0 0 3 2 0 0 1 1 3 0 1 2 0 1 1 2 2 1 1 0 2 1 0 3 2 1 1 1 0 1 0 2 1 0 0 1 1 0 0 0 2 1 3 1 1 3 1 0 2 1 1 0 2 1 1 1 1 2 0 1 2 1 2 2 3 1 1 1 2 0 0 0 1 1 0 0 0 1 1 2 0 1 2 0 1 1 1 1 1 1 1 1 1 2 0</t>
-  </si>
-  <si>
-    <t>MIE(0.4575823017091058, 2.14200893425061, -8.477109799146356e-31, 0.8731504772539105)</t>
-  </si>
-  <si>
-    <t>2 0 1 0 1 0 0 0 0 1 1 1 1 0 1 0 1 0 0 1 0 2 0 1 0 2 0 2 0 0 0 0 0 1 0 1 1 0 0 1 1 0 1 2 0 2 1 0 1 1 1 0 0 1 0 2 2 1 0 0 1 0 0 0 0 0 0 2 1 0 1 0 1 0 0 0 1 1 0 0 2 1 0 0 1 1 2 0 1 0 0 0 1 0 0 1 2 1 1 1 0 1 0 1 0 0 0 1 1 0 2 1 0 2 0 1 0 1 0 0 0 0 0 1 0 1 0 1 1 0 1 1 2 1 0 0 0 1 1 0 3 0 1 1 2 3 1 1 0 3 1 3 1 2 0 2 3 4 1 1 1 2 2 2 0 1 0 0 4 0 2 1 0 1 1 1 0 0 1 3 0 1 1 1 1 0 3 1 0 1 2 0 3 0 1 0 0 1 0 1 1 1 0 1 0 0 1 1 0 1 2 0 1 0 0 1 0 2 0 0 1 2 3 1 2 1 0 0 2 1 2 0 0 0 1 2 1 0 2 0 0 2 0 1 0 0 1 0 1 3 0 0 1 0 0 2 1 1 0 1 1 0 0 0 2 0 0 1 0 1 0 1 1 0 0 0 0 1 1 0 1 0 0 0 0 2 2 2 1 1 0 0 1 0 0 0 0 0 3 1 2 0 0 0 1 0 2 0 0 0 1 1 0 0 0 1 0 1 0 1 0 1 2 2 0 1 0 1 0 0 2 0 0 0 2 0 1 0 2 1 2 0 0 1 0 0 0 0 1 2 0 0 0 1 0 2 2 2 0 0 2 0 3 0 0 0 2 1 1 2 0 1 0 2 2 0 0 2 0 1 0 0 1 0 0 0 1 0 1 1 0 0 0 0 0 0 2 0 0 1 1 2 0 1 1 0 1 0 0 1 2 0 0 1 2 1 0 0 0 1 1 1 1 0 0 0 0 1 0 1 0 1 0 0 1 0 0 0 0 2 1 2 1 1 1 2 1 0 1 2 1 1 0 0 0 1 0 1 1 0 2 1 1 1 0 0 1 0 1 0 3 0 1 2 1 1 0 2 1 0 0 0 1 1 0 0 3 1 1 0 3 1 0 1 0 2 0 1 0 2 1 0 1 1 0 0 0 1 1 0 0 2 3 1 0 0 0 1 2 2 1 1 1 1 1 1 0 1 0 0 2 0 0 1 1 0 0 0 0 1 2 0 0 1 1 1 1 0 1 0 0 2 2 0 1 0 1 1 1 0 0 0 1 0 0 0 0 0 1 1 0 0 1 0 0 2 1 0 3 3 0 4 0 2 1 0 2 0 0 1 2 0 3 0 0 0 0 2 2 1 0 1 0 1 1 1 1 0 0 2 1 1 1 1 1 0 2 1 2 1 1 2 0 0 2 0 1 0 1 0 0 1 0 0 1 1 1 2 1 0 2 0 1 1 0 3 1 0 0 2 0 1 0 2 0 1 2 0 0 1 2 0 2 0 0 0 2 1 0 0 0 0 0 1 1 1 2 2 2 0 2 1 2 0 1 0 3 0 2 2 0 1 0 1 4 1 0 0 1 1 1 1 1 0 2 0 1 0 1 1 2 1 2 1 1 3 2 0 1 2 2 0 2 0 0 2 0 1 0 0 1 0 1 0 0 1 1 0 1 0 0 0 1 0 2 0 0 1 0 1 1 2 2 1 1 0 0 0 2 1 1 1 0 0 0 1 1 1 0 0 4 1 0 2 1 3 0 0 3 1 0 0 0 1 2 2 0 1 2 1 2 0 2 0 0 2 3 1 2 1 0 0 0 1 0 2 0 1 2 0 0 1 0 0 0 0 3 3 0 2 1 0 1 0 0 0 0 0 1 0 0 0 0 0 1 1 1 1 2 0 0 1 1 0 0 1 3 2 1 0 0 0 0 0 3 1 2 0 1 2 0 0 0 2 0 1 2 1 2 0 1 0 0 1 2 1 2 1 1 1 0 1 0 0 0 2 2 1 0 2 1 1 0 0 0 0 0 0 1 0 2 1 3 0 2 2 0 0 1 3 0 4 0 0 1 0 0 1 1 0 1 1 1 2 2 1 0 2 1 0 1 0 2 1 0 1 0 1 1 1 0 1 1 0 0 2 0 0 2 0 1 1 1 1 2 1 2 1 1 1 0 0 0 1 1 0 0 0 0 0 0 1 0 1 0 0 1 3 0 0 0 1 3 2 0 0 1 0 2 0 1 3 1 1 2 2 0 0 1 0 0 1 0 0 0 0 2 1 0 1 0 1 0 1 0 0 0 0 1 0 0 0 0 0 2 0 1 1 0 2 1 0 0 1 1 0 1 1 2 1 0 1 1 1 3 0 0 1 3 0 0 1 2 0 0 1 0 3 0 1 1 0 1 3 3 1 1 1 0 1 1 1 0 1 1 0 1 1 1 0 1 0 1 0 0 1 1 1 0 0 1 1 0 0 0 1 3 1 1 1 1 0 3 1 1 2 0 0 0 0 1 0 2 0 2 0 3 0 0 0 1 1 0 0 1 2 1 0 2 1 0 0 0 0 0 1 1 0 0 0 1 0 1 1 0 0 0 0 1 1 1 0 0 2 0 0 0 0 2 1 0 0 0 1 0 1 2 3 0 1 1 2 0 0 1 1 1 0 0 2 2 1 1 0 0 0 0 0 2 3 1 2 2 0 2 2 1 0 1 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 1 1 0 2 1 1 1 1 1 1 1 3 0 0 1 0 0 2 2 0 0 1 1 0 1 0 1 2 0 0 0 0 1 0 0 0 1 1 2 0 0 1 0 0 0 2 0 1 1 3 1 1 0 2 0 1 1 0 1 0 1 1 1 1 1 0 1 1 0 2 1 2 0 1 0 0 0 0 0 1 1 0 0 0 3 0 0 0 1 0 1 1 0 0 2 0 2 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 1 1 1 0 0 1 4 1 0 0 0 0 3 2 1 0 1 1 0 2 0 0 0 2 1 2 1 0 0 0 0 0 1 0 0 0 0 0 1 1 3 0 1 1 0 0 2 2 3 1 1 1 1 0 1 0 0 1 0 0 1 1 0 4 1 1 0 0 1 1 1 0 3 3 0 1 0 1 0 1 0 0 1 1 2 0 1 1 2 4 1 0 1 1 1 0 0 0 1 2 0 0 0 0 1 0 0 0 0 0 1 0 1 1 0 1 1 1 0 0 0 0 0 1 0 1 2 0 0 0 0 1 0 1 0 0 1 0 2 0 2 1 1 0 0 1 2 0 0 2 0 0 1 1 0 1 1 0 0 0 1 2 0 0 0 0 0 0 0 2 1 0 1 2 1 0 1 1 1 2 0 1 2 0 0 0 2 1 2 0 0 2 0 0 1 2 0 1 1 0 1 1 1 0 1 2 0 1 2 1 2 2 1 2 0 2 0 2 0 0 2 3 0 0 2 1 1 0 1 0 1 0 1 3 1 0 0 2 2 0 1 2 0 0 0 0 1 0 0 3 0 0 0 1 2 1 0 0 0 1 0 1 0 1 0 0 1 2 0 0 0 0 2 0 0 1 0 2 0 0 2 0 1 0 1 1 1 0 0 2 0 0 0 1 0 2 1 1 2 1 2 1 1 1 0 1 0 0 1 0 0 0 0 1 1 0 1 0 1 0 0 0 0 0 0 0 1 1 0 1 0 1 0 0 1 1 2 1 3 0 0 1 1 0 1 2 0 1 0 0 0 0 0 0 1 0 2 0 1 0 0 1 0 1 1 0 1 1 0 1 0 2 1 0 0 1 1 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 2 0 0 0 1 1 1 0 0 1 0 2 2 1 0 1 1 0 1 1 2 0 1 1 1 0 0 2 1 0 2 0 0 1 0 0 1 1 1 1 3 1 2 1 1 0 1 0 0 2 0 0 1 0 1 0 1 0 0 0 0 0 1 1 0 1 0 1 0 1 0 0 0 0 1 4 0 4 0 0 0 0 2 1 0 0 0 0 3 1 0 1 0 1 0 0 0 0 1 0 1 0 4 1 0 0 3 1 0 0 0 1 1 0 0 1 0 0 1 1 0 1 1 0 0 1 4 2 0 0 1 1 2 0 1 0 0 1 1 1 1 0 1 0 2 1 0 2 0 0 1 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 1 2 0 0 0 2 1 0 1 1 1 0 1 0 0 2 1 0 1 0 0 0 1 1 1 3 1 2 0 0 0 1 0 1 1 1 0 0 0 2 2 1 1 1 1 0 1 1 1 0 1 0 0 2 0 0 1 1 0 0 0 1 0 1 0 0 2 0 1 0 2 2 2 0 2 0 0 1 1 1 2 1 1 0 0 1 0 0 1 2 0 0 1 1 0 1 0 0 1 0 1 0 0 1 0 0 0 0 1 0 0 0 0 1 1 1 0 0 0 0 0 0 0 1 0 2 0 0 0 0 1 3 0 0 0 2 0 2 1 0 1 0 0 2 1 0 0 3 1 0 0 1 0 2 0 1 1 0 0 2 1 0 1 0 1 1 1 0 2 0 1 1 1 0 2 0 1 0 1 1 2 3 0 0 0 0 0 0 1 1 0 2 1 0 0 0 0 0 0 1 0 0 0 1 0 4 0 1 0 1 2 1 1 1 2 2 3 0 2 1 0 0 1 2 1 1 0 1 1 1 0 1 1 0 1 0 0 0 0 2 0 2 1 0 0 0 1 3 3 0 1 2 4 0 1 0 2 1 0 0 2 1 0 1 1 2 0 0 0 0 1 0 0 2 2 3 0 0 1 0 1 1 1 1 1 0 1 0 1 1 1 0 0 0 0 1 0 0 0 0 0 0 0 2 2 0 1 0 0 0 3 1 1 1 1 0 2 0 0 2 0 1 0 0 2 1 1 0 0 1 0 1 0 0 1 1 0 2 0 2 1 0 1 0 0 0 0 1 2 2 0 1 3 3 0 1 2 0 1 0 1 0 0 1 2 0 0 1 0 1 1 1 0 0 0 2 1 0 1 0 0 1 2 1 1 1 0 1 1 1 1 1 1 0 2 1 2 1 0 2 2 0 0 1 1 0 0 1 2 0 0 0 0 1 2 2 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 2 0 0 1 1 2 0 2 1 2 3 0 0 0 0 0 1 1 3 1 1 0 0 1 0 1 0 1 2 0 0 2 0 0 2 0 1 2 0 2 2 1 1 1 1 1 1 0 1 0 1 1 1 1 0 0 0 0 1 0 1 1 0 0 0 0 0 1 0 0 2 1 2 2 0 0 0 1 0 0 3 1 2 1 1 1 0 0 0 0 2 0 0 0 1 1 3 1 0 0 2 1 0 1 1 3 2 0 0 2 1 3 0 1 0 1 0 0 1 0 1 1 1 1 1 0 2 0 1 1 0 1 0 1 1 0 0 1 0 1 2 0 0 0 0 1 2 0 0 0 0 1 0 0 0 0 0 2 1 0 0 0 2 0 1 1 1 2 1 0 0 1 0 2 1 1 1 0 1 0 1 1 1 0 1 0 0 1 1 0 0 1 2 0 0 1 2 1 1 0 2 0 0 2 0 0 2 2 1 0 1 0 1 1 1 1 1 1 0 0 0 0 1 0 1 1 1 1 1 0 0 0 1 1 0 1 0 0 0 1 0 2 1 0 1 0 1 1 0 0 0 3 0 0 1 1 0 0 0 1 0 0 1 1 0 0 0 1 2 1 1 0 3 0 0 0 1 1 1 2 1 0 0 0 0 0 1 0 0 1 1 2 2 2 0 0 2 0 2 1 1 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 2 0 0 0 1 0 0 1 0 1 0 0 1 1 3 2 1 0 3 2 0 0 0 0 1 0 0 0 1 0 0 0 0 1 1 1 1 0 1 1 0 2 2 0 0 0 1 1 1 0 1 1 0 1 0 0 1 1 0 1 1 1 1 1 1 1 0 0 0 1 0 1 1 2 0 1 0 0 0 0 1 2 2 0 0 2 2 1 0 0 0 0 0 1 0 1 0 0 1 1 1 0 1 0 1 0 0 3 0 2 0 1 0 2 2 0 1 0 3 1 0 0 2 2 0 0 1 0 0 2 2 1 0 0 0 1 1 2 1 0 0 2 0 0 1 0 1 0 0 1 0 0 2 1 1 1 1 0 0 3 1 0 1 1 1 0 0 0 1 1 1 0 1 1 0 1 0 1 0 1 1 1 1 1 0 2 1 0 0 1 1 0 0 1 0 1 0 0 1 1 2 1 0 2 0 0 0 2 0 0 1 0 0 0 0 1 0 1 1 0 0 1 1 0 1 1 1 1 0 1 1 1 0 0 1 2 0 1 1 0 0 1 0 1 2 1 1 0 0 1 1 1 0 0 1 0 0 3 0 0 0 2 1 0 0 0 2 0 3 2 0 2 0 0 0 0 1 2 0 0 0 0 1 1 0 0 0 0 3 0 0 2 0 1 2 1 0 1 0 2 1 1 0 0 0 1 0 1 0 1 0 1 0 0 1 0 1 0 1 1 1 1 0 0 0 0 0 1 1 4 1 2 0 0 0 0 0 0 0 0 0 1 3 2 0 0 0 0 0 1 1 0 0 1 0 0 0 1 2 0 0 0 0 0 0 0 1 0 1 0 0 1 1 2 0 0 0 0 2 1 1 2 2 1 0 0 0 0 1 2 1 0 0 2 1 0 2 3 0 0 1 0 1 0 2 0 0 0 0 0 0 0 0 1 1 0 1 1 2 1 0 1 3 1 0 2 0 0 3 0 0 0 1 0 0 0 0 0 1 0 2 1 0 1 0 0 1 0 1 1 3 0 1 2 0 2 2 0 1 2 0 0 0 0 0 0 0 2 0 3 2 0 0 0 0 0 2 0 1 0 0 0 0 1 1 2 1 0 0 0 0 2 0 1 0 0 0 0 1 1 0 0 0 0 1 0 0 0 3 0 0 1 0 1 1 0 2 1 0 0 1 0 2 2 2 1 1 0 1 0 0 1 1 2 1 0 1 2 1 1 1 1 0 0 1 0 0 0 0 0 0 1 0 2 0 2 0 1 1 3 2 0 0 1 3 0 0 0 1 0 1 0 2 3 0 2 0 3 0 0 0 2 0 1 2 1 0 1 1 1 1 0 2 0 0 0 0 0 1 1 0 0 3 1 1 0 1 2 1 1 0 0 3 2 1 2 1 2 0 0 1 1 5 0 0 1 0 0 1 3 1 2 1 1 0 0 2 2 1 0 1 0 1 3 1 0 1 0 2 0 0 1 1 0 0 1 0 1 0 0 1 2 2 3 0 0 0 0 0 1 0 2 0 1 3 0 0 0 1 0 0 1 1 1 2 1 1 1 1 2 0 0 0 0 1 0 1 0 2 0 0 2 0 0 0 1 0 1 0 2 0 0 0 1 1 1 0 2 0 0 0 1 0 1 1 1 1 0 0 1 2 0 1 1 0 1 1 3 3 0 1 0 0 0 0 2 3 0 0 1 1 0 1 0 0 1 1 0 0 1 1 0 1 2 0 0 0 1 2 0 3 1 2 3 2 1 0 0 0 1 2 1 1 2 0 3 0 0 1 0 0 0 0 2 1 1 1 2 1 1 1 0 1 1 1 1 2 4 1 0 0 0 1 1 2 1 0 0 1 2 0 0 0 1 2 0 1 1 0 1 2 1 0 1 1 1 0 0 0 0 0 0 2 0 2 1 1 1 0 2 0 0 0 1 2 2 1 2 0 1 1 0 0 1 2 0 0 1 0 0 1 1 0 1 1 2 2 0 2 1 0 1 0 0 2 2 2 0 0 0 0 0 0 2 3 2 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 2 1 0 1 0 0 0 2 5 0 0 0 1 0 0 1 2 0 1 1 0 1 0 0 1 1 0 1 1 0 0 1 1 2 1 0 1 1 1 0 1 0 2 1 0 1 0 0 1 0 1 2 1 0 2 0 1 1 1 0 0 1 0 0 0 0 1 1 0 0 0 2 0 1 0 1 1 1 1 0 2 1 0 0 1 0 0 0 0 1 0 1 1 0 2 1 0 0 0 1 1 0 0 4 2 0 1 1 2 1 2 0 0 1 1 0 0 0 2 0 0 2 1 1 1 2 0 0 1 1 0 0 0 0 2 0 0 0 0 0 0 2 1 2 0 0 2 1 1 0 1 2 1 1 0 1 1 1 2 2 0 0 0 0 1 0 1 0 1 0 1 0 0 0 0 0 0 0 1 1 1 1 1 2 0 1 0 0 2 0 2 1 1 0 1 0 1 0 1 2 3 3 0 1 2 0 1 0 1 0 1 0 0 0 0 2 1 0 0 1 2 0 0 0 0 0 1 1 1 1 2 0 2 1 0 0 1 1 0 1 0 0 0 1 0 2 2 1 0 0 0 0 0 1 0 0 1 1 0 0 1 1 1 1 0 1 1 0 0 0 1 1 2 1 0 1 0 1 1 1 1 0 3 1 1 0 0 0 0 2 0 1 0 2 0 1 0 1 1 0 0 0 0 0 1 1 0 1 0 0 0 1 0 2 2 0 0 0 1 0 0 2 0 1 1 0 1 0 1 0 0 0 1 3 1 0 2 0 0 1 0 1 1 0 0 0 0 0 1 1 0 2 0 2 0 0 0 0 0 1 1 0 1 1 1 0 0 1 0 1 1 0 0 0 1 0 1 1 1 1 0 1 2 1 1 0 2 1 2 0 0 0 1 2 1 0 0 0 0 0 1 1 0 0 3 3 2 1 1 2 0 1 1 0 0 0 0 1 1 0 1 1 0 2 2 0 0 1 1 0 0 0 2 1 0 1 1 0 0 0 2 0 0 0 4 1 2 1 0 2 0 2 0 1 0 0 0 0 0 1 0 1 1 0 1 1 1 3 0 1 2 0 3 1 0 3 1 0 1 2 2 1 1 1 0 1 1 3 0 1 0 0 2 0 0 0 2 1 0 1 1 1 2 1 0 1 0 2 0 1 2 2 0 2 2 3 0 1 0 0 0 0 0 1 0 0 1 0 0 3 2 0 0 0 0 1 0 0 1 0 0 0 0 0 0 2 2 2 0 2 0 1 1 1 0 1 1 2 2 1 2 0 0 0 3 1 1 1 1 0 1 0 1 0 1 1 0 1 0 0 1 0 0 1 0 0 2 2 0 1 0 0 0 1 1 0 1 3 0 0 1 1 0 0 2 0 1 2 0 1 2 0 0 0 0 2 1 3 0 0 1 2 1 1 1 4 3 0 1 0 0 1 0 0 1 1 1 1 0 0 3 3 0 1 0 0 0 2 1 1 0 0 3 2 0 0 1 0 0 1 2 0 0 0 0 2 1 0 0 0 1 0 1 0 1 0 1 1 2 1 0 2 0 1 0 0 1 1 0 2 1 0 2 0 0 0 0 1 1 0 0 1 0 0 0 2 2 1 0 1 0 1 1 0 0 2 0 3 0 1 0 2 3 0 1 2 0 0 2 0 1 0 3 3 0 0 1 1 0 1 1 0 0 0 0 0 2 2 0 0 0 0 2 1 1 4 0 2 1 1 0 0 0 1 1 1 0 0 0 0 3 1 0 0 0 0 0 1 0 1 2 1 1 0 1 1 0 1 0 0 1 1 0 0 0 0 2 0 1 1 0 0 1 1 0 0 0 0 0 0 2 1 2 1 0 1 0 0 0 1 0 1 1 0 2 1 2 1 1 0 0 1 0 1 1 0 1 1 2 2 2 1 2 0 0 0 1 1 0 0 1 0 0 3 2 1 0 1 0 0 0 2 2 1 1 2 0 1 0 0 1 1 1 2 0 0 1 1 1 2 0 0 2 1 0 1 1 0 0 0 1 1 2 0 1 0 0 0 0 0 1 0 1 0 1 1 2 0 0 1 1 0 1 1 1 4 0 2 1 0 0 1 0 0 0 0 0 2 0 0 1 1 1 1 0 0 1 2 0 1 0 3 0 0 1 1 2 0 0 1 2 0 3 1 2 0 1 1 0 2 1 0 3 0 1 1 1 1 0 0 1 2 1 1 0 1 2 2 0 1 1 0 0 2 1 2 1 1 0 0 1 0 1 1 3 2 0 0 1 2 0 1 0 0 0 0 1 1 0 0 1 1 1 3 0 0 0 2 0 1 0 1 0 1 1 1 0 2 0 2 0 0 0 0 0 0 0 2 1 0 0 0 1 0 3 0 0 3 0 2 0 0 1 0 0 0 0 1 0 1 3 0 2 0 0 0 0 2 0 0 1 0 3 0 1 0 1 0 1 1 0 1 0 0 0 1 2 1 0 1 1 0 0 1 0 0 3 1 0 0 1 0 2 0 0 1 1 0 0 0 0 2 0 1 0 0 0 1 1 0 1 0 1 2 1 1 0 1 0 1 0 1 1 1 0 2 2 0 2 1 0 1 1 0 1 0 2 0 0 1 2 2 0 1 1 1 0 0 0 2 1 0 1 0 1 1 0 1 1 0 1 0 0 1 0 0 1 1 2 1 0 0 1 1 0 1 0 0 3 1 0 0 0 1 1 0 2 1 1 0 1 0 0 1 0 0 0 0 1 1 1 0 2 0 2 2 1 0 0 0 1 2 1 0 0 0 1 1 0 0 2 1 0 0 2 1 1 0 0 0 0 0 1 0 1 0 0 0 2 1 1 0 1 1 0 2 0 1 0 1 0 1 1 0 0 1 0 2 1 2 0 0 1 0 0 1 1 1 0 0 3 0 1 0 3 2 1 0 0 0 1 1 0 0 0 2 0 1 0 3 1 0 1 0 0 1 0 0 1 0 2 0 0 0 3 0 0 0 3 1 0 2 1 0 2 1 0 1 0 0 0 1 1 1 1 1 3 0 1 0 0 0 1 0 1 5 1 2 0 1 0 0 0 1 1 0 1 0 0 0 2 1 0 0 0 2 0 0 0 0 0 0 1 0 1 1 0 0 2 0 1 0 1 1 0 1 0 1 1 0 1 0 1 0 1 1 1 0 3 0 0 0 0 1 0 2 0 1 1 0 1 0 1 2 1 0 1 0 1 0 0 1 0 1 0 2 2 2 0 0 2 2 1 0 3 2 1 1 1 0 1 0 1 1 0 0 0 0 4 0 0 0 0 1 1 0 0 0 1 1 0 1 4 1 2 2 0 2 0 2 1 1 0 1 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 2 0 2 2 1 2 0 2 0 1 1 1 2 0 0 1 1 1 0 0 0 0 0 0 2 0 1 0 2 0 3 0 0 2 1 2 1 0 0 0 1 1 3 0 1 2 0 0 0 0 2 1 1 1 3 4 1 1 0 1 0 1 0 1 2 0 0 0 1 0 1 2 1 2 2 1 0 1 1 0 2 0 3 0 0 1 0 0 2 0 0 0 3 1 5 0 3 0 0 1 0 1 1 1 1 1 0 0 1 1 0 0 0 1 0 0 0 1 2 0 0 0 1 1 0 0 0 1 2 0 0 1 2 0 0 2 2 0 3 1 0 0 1 2 0 1 1 2 1 2 1 0 1 0 0 1 1 0 0 1 0 0 1 1 0 1 3 1 0 0 0 1 0 1 1 0 2 0 1 0 1 1 1 0 1 1 1 0 2 0 1 1 1 0 2 0 1 0 0 0 0 0 0 1 0 1 1 1 2 1 1 0 0 2 0 1 0 1 0 1 0 2 0 1 1 0 0 0 0 1 2 0 1 1 1 0 0 1 0 0 0 0 0 1 2 2 1 0 2 0 1 2 3 1 2 1 0 0 0 1 0 2 0 0 0 2 0 0 0 1 0 1 0 0 1 2 1 0 0 0 0 1 0 1 1 0 0 1 0 0 1 0 0 1 1 2 1 0 1 1 1 3 0 0 0 2 0 0 0 0 0 0 1 2 0 1 0 0 0 1 0 2 1 2 1 1 0 0 0 1 2 2 1 1 0 0 1 0 0 0 1 3 1 0 0 1 0 0 0 1 1 0 0 0 1 1 0 1 0 1 2 1 1 2 2 0 0 1 0 1 1 0 0 0 2 1 0 1 1 0 0 3 2 0 0 2 0 0 0 2 2 0 0 2 0 0 0 0 3 0 0 0 1 0 2 1 0 1 0 2 0 0 1 0 0 1 0 0 0 0 1 2 2 1 1 2 0 0 0 0 1 1 1 1 2 0 0 1 2 2 0 0 0 2 1 2 0 1 1 2 1 0 0 2 1 1 0 1 0 0 1 0 0 0 0 0 0 3 1 2 1 0 0 0 0 2 0 1 0 0 0 2 1 3 0 1 0 2 3 0 1 0 0 1 1 0 0 1 0 1 0 1 0 0 0 0 2 0 1 2 0 0 3 1 1 2 2 1 0 1 0 2 0 2 0 2 0 0 0 2 0 2 0 1 0 0 0 2 1 0 2 1 0 2 1 0 1 0 0 3 0 1 2 1 0 1 1 2 2 2 1 2 1 0 1 0 0 0 0 1 0 2 0 0 0 0 0 1 0 0 1 1 1 0 0 1 1 0 1 1 2 0 1 1 3 0 1 0 0 0 0 1 0 1 0 0 0 2 1 1 2 0 1 0 1 3 0 0 2 0 0 1 0 0 1 0 0 0 1 1 1 0 0 2 0 0 0 0 0 0 0 0 1 2 0 0 2 1 0 1 1 0 0 2 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 1 0 2 0 0 0 1 1 1 1 1 1 1 0 1 0 1 0 1 0 0 2 0 0 1 0 0 0 1 0 2 1 0 2 3 1 1 1 1 1 0 0 0 0 0 0 2 0 0 0 1 1 0 1 2 1 1 0 1 1 0 2 0 2 2 0 1 1 1 1 1 0 0 1 0 0 0 0 0 0 0 0 1 1 0 1 0 2 1 0 0 2 1 0 0 1 0 0 1 2 2 0 2 0 0 1 1 2 0 0 1 2 0 0 1 0 0 0 0 1 0 1 0 0 1 0 1 1 1 1 2 0 0 2 0 0 0 0 0 0 0 1 0 0 0 0 2 2 2 1 0 0 0 0 1 0 1 0 0 1 0 1 0 2 1 0 0 0 0 2 1 3 0 1 1 1 0 0 0 1 2 1 0 1 1 1 1 2 0 2 2 2 0 0 0 1 2 0 2 0 0 2 1 0 2 1 1 0 1 0 1 1 2 0 1 0 0 1 0 1 1 0 1 1 0 1 1 3 0 1 1 1 0 2 0 1 0 1 1 1 0 0 1 0 0 1 1 0 1 1 1 1 0 1 0 1 2 0 0 1 1 2 0 0 3 0 1 1 1 0 1 3 0 2 0 1 2 1 1 0 1 0 2 0 1 1 1 1 0 2 3 0 2 1 0 0 2 0 2 1 1 2 1 2 2 0 0 1 1 1 1 1 0 0 2 0 1 2 0 1 0 0 0 2 1 0 0 0 1 1 0 2 0 0 3 0 0 0 0 0 1 2 0 1 0 1 0 0 0 0 1 0 2 2 1 0 2 1 0 1 0 0 1 2 1 2 0 1 1 0 1 0 0 1 2 0 0 1 0 0 1 0 1 0 0 0 1 0 2 1 0 0 2 0 1 1 0 1 0 0 0 2 1 0 0 2 0 0 1 1 1 0 4 1 1 0 0 0 0 0 0 1 1 2 1 0 1 0 1 1 1 1 0 0 0 0 1 2 1 0 2 0 0 0 0 0 1 0 0 0 1 3 0 0 0 2 0 2 0 0 1 2 0 0 0 2 0 0 0 0 0 0 1 0 0 0 2 0 2 0 2 0 0 0 0 0 0 1 0 3 0 0 1 0 0 0 0 0 3 0 2 0 1 1 0 1 2 1 1 0 0 0 1 1 0 1 0 0 1 1 1 0 0 0 1 1 0 0 0 0 1 1 0 0 1 2 0 2 0 1 0 2 1 2 0 0 2 2 2 1 2 1 0 1 1 0 1 1 2 0 0 1 1 1 0 0 1 0 1 0 0 0 0 1 1 1 1 1 1 1 2 0 0 2 1 1 0 0 0 0 1 0 0 0 0 1 0 1 0 1 1 1 0 1 1 0 1 0 2 0 0 2 0 0 0 1 2 0 0 0 1 1 0 0 0 0 1 2 1 0 1 0 0 1 0 2 0 1 0 0 1 1 0 0 1 2 0 1 2 1 1 2 0 1 1 1 0 2 0 0 1 0 2 0 1 0 0 1 1 0 0 1 0 2 1 0 0 0 3 0 1 0 4 3 0 1 2 1 1 0 0 0 0 2 2 1 0 0 0 1 1 1 0 0 1 1 0 1 1 3 1 0 2 1 3 1 1 1 2 0 2 3 2 1 0 0 0 0 1 1 2 0 1 0 1 1 1 0 1 1 1 0 2 0 0 0 1 0 1 2 1 0 1 0 2 1 1 2 1 1 0 0 0 1 0 0 1 0 0 2 2 1 1 0 1 0 1 1 3 0 0 0 0 1 0 2 1 1 1 1 1 0 0 1 2 0 1 0 2 0 0 0 2 3 2 2 0 0 1 0 1 1 2 1 1 0 1 1 0 1 2 0 1 1 1 0 0 0 2 1 2 0 0 1 0 1 1 0 2 1 1 0 1 1 1 1 0 0 1 1 2 1 0 1 0 2 2 1 3 0 2 2 0 1 0 2 1 1 0 1 2 0 0 0 1 0 3 1 1 1 0 2 0 1 0 0 0 2 1 0 2 0 2 0 1 1 0 1 0 0 1 1 1 0 1 0 1 0 0 1 0 0 0 1 4 0 0 2 1 0 3 1 0 1 1 0 1 1 0 1 2 0 0 2 2 0 0 2 1 2 2 2 0 0 0 1 0 1 1 0 1 2 2 0 2 1 1 0 0 0 0 1 1 0 1 0 1 2 1 0 0 0 0 0 0 0 1 0 1 1 0 2 0 0 0 1 1 0 0 0 0 0 0 0 2 1 0 1 1 0 2 0 0 4 0 1 1 2 0 0 0 0 1 4 0 0 0 0 2 1 0 0 0 1 0 0 0 1 0 0 1 0 0 1 1 1 0 0 0 1 0 3 1 0 0 1 0 0 0 0 3 0 1 1 1 2 2 1 0 2 1 0 1 1 1 0 0 1 2 1 1 0 0 1 0 1 0 1 0 0 0 3 2 0 3 0 1 0 1 0 1 1 0 0 1 4 0 1 1 0 0 1 2 0 0 1 0 1 1 1 1 0 1 1 1 1 2 0 0 1 2 0 1 1 1 0 0 1 1 1 1 0 0 1 1 2 1 0 0 0 0 1 0 1 0 0 2 0 2 0 0 0 2 2 0 1 1 0 0 1 0 0 0 0 0 0 3 1 0 1 0 1 2 1 1 0 0 0 1 1 1 0 0 1 2 0 2 0 1 1 0 1 1 0 0 0 0 0 0 1 1 0 2 0 0 1 3 0 0 0 1 1 1 1 0 1 1 1 0 1 2 0 2 0 1 1 1 0 1 2 2 0 1 1 0 0 1 1 3 0 0 1 1 0 0 0 1 0 1 5 0 2 1 0 0 1 0 0 0 2 0 0 0 0 0 1 2 1 1 1 0 0 0 0 1 1 1 1 1 2 0 3 4 2 1 1 0 0 0 0 0 0 1 0 0 1 4 0 0 0 1 0 2 0 1 0 2 1 1 0 0 2 2 2 1 0 2 1 0 1 2 0 0 0 0 3 1 2 1 3 0 0 2 0 0 0 1 0 1 1 4 0 0 0 3 2 0 0 1 0 0 0 1 0 2 0 1 2 0 0 0 0 1 0 1 0 0 1 1 1 1 0 0 0 0 1 0 2 1 0 2 0 2 0 0 1 1 0 1 0 2 0 0 0 1 0 0 1 1 0 1 1 1 2 0 0 0 0 1 1 1 1 1 0 1 0 0 0 2 0 2 0 2 0 0 0 1 0 1 2 0 2 1 1 0 0 1 1 1 1 0 0 0 1 2 2 0 0 0 1 0 1 1 0 0 0 1 0 0 0 0 1 0 1 1 0 0 2 0 3 1 0 0 1 0 1 0 0 1 0 0 1 1 1 0 1 0 1 2 1 1 2 0 0 2 0 1 1 1 1 0 2 1 3 1 1 2 0 0 0 0 1 1 1 0 1 2 1 1 0 0 0 0 1 0 0 0 0 1 0 1 2 1 0 0 2 3 0 0 0 1 0 0 0 0 0 1 0 1 0 0 2 0 1 1 0 0 1 1 0 2 2 0 1 1 0 0 0 2 0 0 0 1 1 0 1 1 2 0 2 1 2 1 0 2 0 0 0 0 0 0 1 0 1 0 0 1 0 2 0 0 2 3 1 1 0 0 2 1 0 0 0 2 1 1 0 0 0 1 5 0 1 1 1 1 0 2 0 1 1 1 3 0 1 0 0 3 1 0 1 4 2 0 3 1 0 1 0 0 1 1 0 1 0 0 1 1 2 2 1 1 0 1 1 0 0 1 0 0 2 1 1 2 0 0 2 1 2 1 0 2 0 1 0 0 2 0 0 0 3 0 1 0 3 1 1 1 0 1 0 1 2 2 1 1 0 0 1 0 2 1 1 1 0 0 2 1 2 0 0 2 1 2 0 1 2 1 2 1 1 2 1 1 0 0 2 2 0 0 0 1 0 0 0 1 1 2 2 1 1 3 0 0 1 1 3 0 0 2 0 1 1 1 1 2 2 1 0 2 1 0 1 0 1 0 0 0 0 0 2 1 2 1 2 1 0 1 1 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 3 0 0 0 0 0 2 1 2 0 0 1 1 1 0 0 1 0 0 2 0 1 1 0 1 2 0 1 0 1 1 1 1 0 0 0 0 2 1 0 0 1 1 1 0 1 1 0 0 2 1 0 0 1 1 0 1 2 1 2 0 1 2 1 2 1 0 1 0 0 0 1 0 0 2 1 0 0 1 0 2 0 0 1 0 0 3 2 0 2 0 0 0 2 0 3 0 0 1 1 0 0 2 0 0 1 2 0 1 0 2 0 0 2 1 1 1 0 0 0 0 0 0 1 1 2 0 0 0 1 3 0 1 2 0 2 1 1 0 2 3 1 0 0 2 0 0 0 0 1 0 0 0 0 2 0 1 1 1 1 0 2 1 2 1 0 2 0 0 1 1 0 2 1 0 2 1 1 0 0 0 2 2 1 3 0 3 1 0 0 1 1 1 1 0 1 1 0 0 0 0 0 1 1 1 0 0 0 1 1 1 1 2 0 1 0 1 1 1 0 1 0 2 0 1 2 1 0 0 0 1 0 0 3 2 1 1 1 0 2 2 0 1 0 1 0 1 0 1 1 0 1 0 0 0 1 0 0 1 0 1 1 0 1 1 1 0 0 0 0 0 1 0 0 0 0 1 1 0 1 1 0 1 1 0 0 0 0 1 0 0 2 2 1 1 1 1 0 0 0 0 3 1 1 0 0 0 0 2 0 0 1 0 1 1 1 2 0 0 0 2 0 0 1 2 2 1 0 0 1 0 0 2 2 2 0 1 3 0 0 1 0 1 0 1 0 0 0 1 1 0 2 0 2 1 2 0 0 0 4 0 0 1 1 0 0 0 0 1 1 2 0 0 1 0 4 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 1 3 1 1 1 2 0 0 2 0 0 1 2 3 0 3 0 2 0 0 0 0 2 0 0 2 1 0 0 0 1 0 0 0 0 1 1 0 0 2 0 3 0 0 2 0 0 1 0 1 2 0 1 1 0 1 1 1 1 0 1 0 4 2 2 1 0 2 1 1 1 0 0 0 3 3 0 1 1 2 2 0 0 0 2 0 1 2 0 0 0 1 1 1 2 0 2 2 0 0 1 1 0 0 1 1 0 1 0 0 1 1 1 3 0 1 1 1 1 0 1 0 0 1 1 2 2 1 0 0 2 1 2 0 1 0 1 0 1 1 0 0 0 0 0 1 0 2 0 0 0 0 0 0 1 1 2 1 1 1 1 0 2 1 0 2 1 2 2 2 0 1 0 1 1 2 1 0 2 1 3 0 1 0 2 1 0 0 0 1 1 1 0 0 0 0 1 2 1 1 0 0 0 0 0 0 2 0 0 1 1 0 1 1 0 1 1 0 0 1 1 3 2 2 0 1 0 0 2 1 0 1 0 0 0 0 2 2 0 0 0 0 0 0 1 1 0 0 0 0 1 0 1 0 0 0 0 1 1 1 0 3 2 1 0 3 0 1 1 0 0 0 0 1 2 1 0 0 0 3 0 0 0 2 0 1 2 0 0 3 1 2 0 2 0 1 0 1 0 0 1 0 0 0 1 2 0 1 1 0 2 1 0 2 1 1 0 2 1 0 1 1 0 1 2 0 1 1 1 1 0 1 1 1 0 0 0 0 1 0 1 3 2 0 1 1 1 1 0 0 3 4 4 2 0 0 0 0 0 0 1 1 0 1 1 2 1 1 0 1 2 0 0 1 0 0 0 0 0 0 1 1 1 2 1 2 0 0 1 0 1 0 2 0 0 2 0 0 2 1 0 0 1 0 1 0 0 0 1 1 2 1 1 0 0 0 0 1 0 0 0 1 0 0 1 2 2 1 1 0 2 1 0 2 1 0 3 1 0 2 1 1 0 0 1 2 0 1 0 0 0 0 0 0 1 2 2 1 0 2 1 2 0 2 2 2 1 0 1 0 1 1 1 1 0 1 0 0 0 0 1 1 0 2 0 1 1 0 1 0 2 1 0 0 1 0 0 1 1 1 1 3 0 2 1 1 1 1 2 1 0 2 0 0 0 0 0 0 1 1 1 0 4 0 1 0 1 2 1 0 1 0 1 2 0 1 2 0 1 3 0 0 3 0 0 0 3 0 0 0 0 0 1 0 2 1 0 2 0 1 1 0 1 0 0 0 1 0 2 0 0 1 0 1 0 1 1 1 1 0 1 1 0 1 0 0 1 0 0 3 1 0 2 2 1 0 0 0 0 1 1 0 1 2 0 1 0 0 0 0 0 1 1 0 1 0 0 1 1 0 1 0 0 2 0 1 1 1 1 0 1 2 0 1 0 1 2 1 0 0 1 1 0 1 1 3 2 0 2 1 0 1 0 0 1 2 1 0 1 0 1 0 0 0 3 1 0 1 0 2 0 0 1 1 1 0 1 3 0 1 0 0 0 0 2 0 1 2 0 0 0 0 1 1 0 1 1 0 1 0 1 1 0 2 1 0 3 0 1 0 2 2 1 1 0 2 0 0 0 0 1 0 1 3 0 0 2 2 2 2 0 1 1 1 1 1 0 0 0 0 0 3 1 0 0 1 2 0 0 1 0 1 0 1 1 0 0 0 1 0 0 0 2 1 0 2 2 1 1 1 1 0 0 0 0 0 0 2 1 0 1 0 0 1 0 0 2 0 1 1 2 0 3 0 1 0 1 1 2 1 1 0 0 0 2 0 0 2 1 0 0 0 0 0 0 1 1 0 0 1 1 2 0 1 1 0 1 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 1 0 1 0 0 0 0 2 0 1 0 1 0 1 2 0 0 0 2 0 1 0 0 1 1 1 0 0 0 0 1 1 0 1 0 0 0 2 1 2 3 1 0 1 0 1 2 0 0 5 0 1 1 0 0 1 0 1 0 0 4 1 1 1 1 0 1 1 0 0 4 0 0 1 1 0 1 0 1 0 1 1 1 0 1 1 2 1 1 0 2 1 1 0 0 2 0 0 0 1 1 0 0 1 1 2 1 0 2 1 0 0 0 0 0 0 1 0 2 0 0 1 3 0 1 1 3 1 0 1 1 0 0 2 0 0 1 1 1 1 0 0 0 1 0 1 0 2 2 3 0 1 0 0 1 2 1 0 0 1 1 0 1 0 0 0 1 0 1 0 0 0 2 1 0 1 1 2 0 0 0 0 2 1 0 4 1 0 1 0 0 0 1 0 1 1 1 0 0 0 0 0 0 0 1 0 0 0 1 1 1 1 1 0 2 0 0 2 1 0 2 2 0 0 2 2 1 1 1 0 2 1 0 0 0 0 2 0 1 1 1 1 1 1 2 5 1 1 0 0 0 1 0 1 0 0 1 3 0 0 1 1 1 0 1 1 0 2 1 1 0 1 2 1 2 1 0 1 1 0 1 0 1 1 0 3 0 0 0 0 1 1 0 2 1 1 0 0 1 0 0 1 0 1 0 0 1 1 1 0 1 0 0 1 1 0 0 0 1 1 1 0 2 0 0 1 3 0 1 1 2 1 0 0 1 2 0 1 2 0 1 0 0 1 0 1 0 0 1 2 2 0 0 0 0 0 2 2 3 0 2 0 0 0 0 2 1 2 1 2 0 0 0 0 4 0 0 1 2 0 1 1 1 0 0 0 0 0 0 2 1 1 1 1 1 0 0 1 2 0 1 0 0 1 2 1 0 0 0 0 1 1 1 0 2 0 1 0 1 0 1 1 0 5 0 0 2 0 0 1 0 1 0 0 2 2 1 0 0 0 0 1 0 1 0 0 1 2 0 2 1 2 0 0 0 0 0 0 0 1 0 1 0 0 0 2 0 0 0 0 1 1 2 0 0 3 0 1 2 0 0 1 0 0 0 0 2 0 0 0 0 2 0 1 0 0 2 1 1 0 1 0 1 2 0 0 0 0 0 0 0 1 0 3 0 0 0 0 0 1 0 2 2 1 1 1 0 0 0 0 0 0 1 0 2 1 2 1 3 2 3 1 1 2 0 2 3 1 2 1 1 0 3 0 2 1 1 0 1 1 0 0 1 1 0 0 1 1 1 1 0 1 3 0 0 1 0 0 1 0 0 0 0 1 0 1 0 0 0 1 0 1 0 1 2 1 0 0 1 0 2 0 0 0 0 1 0 1 0 0 0 1 1 1 0 0 0 1 0 0 0 1 0 0 1 1 0 1 1 0 1 0 0 1 0 0 0 1 0 0 0 3 0 0 0 1 2 1 2 1 1 2 1 1 0 0 2 0 0 0 3 1 2 1 0 2 1 1 0 2 1 0 2 2 0 1 0 0 0 0 0 0 3 0 0 0 1 0 4 0 2 0 0 0 0 1 0 0 1 3 0 2 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 2 1 0 1 0 0 0 0 0 0 0 1 1 1 4 0 0 1 0 0 1 1 0 2 1 0 2 0 0 2 0 3 2 0 0 0 1 0 1 1 1 1 0 1 0 0 0 1 1 0 0 0 0 0 1 1 0 0 2 1 1 1 1 1 2 0 0 3 0 0 1 1 0 2 0 0 0 0 0 1 0 1 1 0 1 2 2 1 2 0 1 1 0 2 1 0 1 1 2 0 1 1 1 1 0 0 0 0 1 1 2 0 0 1 1 2 1 0 1 0 0 5 0 1 0 1 0 0 1 0 0 1 0 2 1 0 1 0 1 1 0 0 0 0 0 1 0 1 0 0 0 0 1 1 0 0 0 2 1 0 0 0 1 0 1 0 0 0 0 0 2 2 2 0 1 1 0 1 1 2 0 0 0 0 0 1 0 0 3 1 0 1 0 0 2 0 0 2 1 2 0 2 1 0 0 0 1 1 1 0 0 0 0 0 1 0 1 1 1 4 2 2 0 0 2 0 1 1 2 1 1 2 0 1 0 0 0 2 0 0 0 0 0 0 0 1 1 1 0 1 0 0 2 1 1 0 1 0 0 1 3 0 0 2 1 1 0 1 0 0 0 1 0 1 1 0 2 0 0 0 2 1 1 0 1 0 0 1 1 1 1 0 1 0 1 1 2 0 0 0 0 0 0 0 0 3 1 0 1 1 1 2 1 2 2 1 1 0 2 1 1 1 1 1 0 1 0 2 1 1 3 0 0 0 0 2 1 0 2 2 0 1 0 1 1 0 1 2 1 2 1 1 1 0 3 1 0 2 1 2 0 2 0 0 0 1 0 0 1 2 1 1 1 1 1 0 1 0 0 0 0 0 1 3 0 0 0 0 3 0 0 0 1 2 0 1 0 0 0 3 1 3 1 0 1 0 2 2 1 1 0 0 1 2 0 0 1 1 1 0 1 0 1 1 1 1 2 0 0 1 0 0 1 1 1 0 0 0 0 0 0 1 1 0 0 0 1 0 1 0 1 0 1 2 2 0 1 1 0 0 0 0 1 0 0 0 0 1 1 0 1 2 0 2 0 1 0 1 0 2 0 0 0 1 0 0 3 0 1 1 1 0 2 0 0 1 1 3 1 0 1 0 3 0 1 0 0 1 2 0 2 1 0 1 2 2 0 3 0 0 1 0 1 1 1 2 2 1 0 1 4 0 2 1 3 0 0</t>
-  </si>
-  <si>
-    <t>JSB(4.376449533870255, 3.677193643465868, -97.27496409759604, 882.7359482819209)</t>
-  </si>
-  <si>
-    <t>42 116 61 166 91 88 121 125 70 192 162 47 61 87 44 112 153 121 84 65 81 96 188 100 119 43 108 23 126 89 159 73 123 81 84 87 73 90 116 170 151 120 147 156 93 145 52 89 84 87 31 96 196 51 95 136 124 75 115 62 65 163 150 176 129 102 87 63 88 174 113 133 79 139 164 58 121 146 70 149 51 147 78 141 163 108 151 93 94 95 96 100 91 108 57 90 67 229 100 91 69 142 111 184 117 186 161 68 144 106 76 112 102 25 115 155 74 177 121 114 91 97 98 107 178 181 148 59 117 109 138 120 147 95 115 84 97 43 212 81 103 88 153 156 91 95 83 84 184 153 162 134 63 146 128 47 99 64 119 180 96 147 140 73 86 40 64 139 87 124 79 133 104 211 154 143 112 116 119 51 60 71 162 152 122 113 80 145 176 241 138 92 25 93 63 140 72 94 81 118 118 224 83 70 109 62 55 85 118 50 96 148 213 70 35 71 146 100 84 61 117 110 92 64 166 78 69 126 150 98 107 24 158 148 141 115 51 155 141 102 103 151 202 108 174 93 148 107 216 102 95 128 202 66 120 94 78 118 52 66 179 63 108 113 88 85 120 121 167 157 80 85 78 54 44 66 104 70 82 76 51 77 164 128 152 104 90 13 161 87 25 160 59 116 176 80 155 77 104 164 92 43 141 177 101 108 108 152 53 156 29 150 133 68 72 105 77 67 180 106 97 65 96 43 113 127 175 182 164 147 46 97 114 159 193 161 111 151 117 81 48 110 120 110 201 121 137 98 92 24 134 94 135 161 132 151 86 128 102 106 73 133 91 55 109 75 155 89 183 181 93 80 96 109 151 84 151 96 209 68 146 60 65 76 89 152 131 142 131 61 113 104 129 112 136 63 142 145 125 115 118 135 136 78 135 51 79 201 90 165 56 110 113 153 83 173 145 151 40 79 63 92 110 122 92 84 65 170 137 131 91 134 99 63 63 90 115 75 127 73 93 90 88 97 98 88 102 64 63 129 125 127 103 104 104 118 75 55 151 54 125 73 184 106 141 123 47 108 108 111 96 137 198 147 109 103 139 97 100 142 82 140 27 184 129 84 119 109 128 81 99 79 116 117 170 71 116 156 126 52 103 134 62 118 98 91 186 122 120 74 153 86 63 53 65 170 186 139 152 89 166 69 78 190 112 104 77 104 112 47 98 55 91 108 120 56 71 118 108 133 16 108 124 65 101 208 132 89 72 140 125 135 122 125 193 37 177 171 141 121 64 140 105 117 37 26 115 113 99 133 111 59 118 123 131 153 173 138 56 98 123 20 181 148 125 113 141 129 111 91 195 69 117 110 173 111 136 59 41 110 151 154 39 177 133 77 102 170 76 61 101 153 161 113 38 156 87 39 104 76 92 54 154 75 127 150 158 153 61 89 137 104 106 77 226 66 103 119 148 98 184 44 89 105 115 41 114 141 141 94 154 108 151 129 106 147 38 51 176 173 61 188 75 155 118 95 97 40 135 135 75 93 58 71 182 174 53 83 105 91 171 139 62 59 134 109 54 141 153 57 180 38 39 116 24 123 171 119 87 145 37 139 147 128 150 104 125 175 30 135 73 34 110 88 78 177 100 160 114 66 112 143 158 102 126 95 184 175 167 190 94 132 141 150 51 108 98 152 148 111 129 168 117 140 80 143 94 128 119 118 73 69 149 48 107 149 10 203 123 108 124 102 254 139 74 208 73 101 58 129 58 153 125 195 85 61 91 181 65 126 152 90 144 134 76 195 141 71 123 159 123 181 31 109 210 110 276 38 227 92 69 58 130 186 133 61 137 128 147 151 139 77 132 129 62 54 89 88 158 100 108 89 83 154 142 101 102 108 108 117 14 74 82 149 152 120 92 91 102 71 111 95 59 227 89 62 31 116 111 114 153 152 65 76 95 55 116 151 154 73 61 139 129 103 68 141 184 113 27 114 110 102 92 110 87 116 132 60 142 150 131 88 62 21 92 115 88 139 253 41 156 103 175 147 67 142 179 181 108 62 39 69 119 104 86 96 70 123 162 222 88 81 48 174 123 48 109 128 121 133 111 82 125 95 205 75 133 180 91 191 94 137 44 93 139 125 116 184 77 93 115 125 100 70 99 158 84 109 131 142 61 131 162 76 109 107 160 149 151 120 156 62 134 140 173 104 128 151 173 159 119 68 291 54 128 102 123 84 58 198 143 83 93 160 72 73 130 66 83 73 214 49 76 94 80 110 139 141 150 121 136 114 78 91 96 83 40 230 87 78 178 67 81 97 114 97 88 54 68 120 115 120 86 98 151 135 103 116 152 31 89 78 137 98 141 108 73 132 111 48 167 69 174 71 112 186 112 79 46 132 119 142 201 178 181 104 168 63 88 120 117 171 111 69 70 64 129 150 129 120 144 115 85 135 85 141 131 133 85 148 146 149 160 175 86 67 91 80 122 90 239 156 105 128 172 92 104 109 138 151 77 39 82 59 102 117 68 187 71 55 124 94 109 147 102 102 144 101 181 165 92 75 115 151 114 104 114 106 49 140 94 133 132 117 66 170 120 153 203 134 122 120 154 79 106 106 89 114 134 116 122 72 116 148 102 106 178 67 74 108 104 135 98 27 88 68 121 97 136 103 90 94 69 78 114 46 117 132 67 78 38 87 139 74 26 124 78 119 186 40 102 87 76 153 189 146 90 102 94 62 43 128 136 31 120 105 41 134 101 147 88 185 141 78 136 87 86 94 157 241 116 72 159 48 121 125 155 109 148 95 86 152 160 81 101 79 144 112 159 97 88 128 85 147 121 118 161 118 87 81 93 44 199 81 140 115 149 109 160 73 107 205 220 187 35 103 107 99 53 86 162 80 100 138 93 131 96 101 102 116 106 48 109 69 80 107 107 164 165 63 126 77 129 76 89 123 196 103 123 101 87 217 123 90 96 133 101 47 119 185 135 99 126 239 35 118 94 135 176 97 133 172 45 70 100 114 55 159 74 133 107 166 115 95 66 64 105 80 143 64 121 50 113 90 115 90 50 218 116 97 19 212 123 60 166 28 175 138 86 78 54 89 126 91 153 149 99 80 84 81 91 48 55 148 42 108 160 101 26 64 78 159 89 148 142 206 156 84 86 65 97 110 107 115 97 127 105 159 94 64 105 96 95 80 185 90 61 114 18 169 139 88 74 62 118 105 84 161 115 37 241 141 84 90 176 85 137 158 111 143 146 134 107 97 102 145 65 64 1 62 126 132 66 155 153 132 91 114 193 129 68 55 41 69 127 80 244 61 117 93 215 106 165 137 130 32 133 161 99 81 53 117 93 85 114 130 110 207 34 57 192 114 157 172 83 53 62 123 116 121 144 50 114 59 93 94 196 133 63 62 88 132 122 179 155 154 118 130 78 168 112 76 152 79 102 121 152 99 87 66 119 169 60 88 167 127 108 104 156 142 111 160 157 117 106 57 146 122 116 128 83 71 52 152 52 55 170 118 68 130 160 71 157 174 69 87 82 40 148 88 18 116 107 100 102 46 98 132 80 143 135 132 124 78 99 76 79 212 80 143 61 56 119 178 77 113 64 100 196 164 56 49 133 51 121 116 149 130 120 99 156 184 59 101 149 151 75 67 31 100 132 164 81 85 88 106 95 126 105 51 64 145 69 66 199 142 114 30 161 106 60 111 189 131 141 93 130 100 121 66 106 116 144 115 114 178 83 83 97 95 97 138 162 108 51 72 82 52 98 64 205 180 142 139 83 133 98 182 99 141 57 127 133 102 154 157 150 173 111 76 90 70 113 156 146 164 173 68 112 123 117 108 99 149 63 184 95 171 96 92 149 149 94 203 103 157 60 105 131 107 118 69 198 149 116 50 139 81 91 48 105 91 122 35 97 68 47 121 179 103 124 128 109 81 113 96 91 79 83 105 82 95 109 131 104 149 142 90 188 99 68 87 74 112 60 94 143 191 192 105 160 60 108 132 109 159 225 117 177 52 171 41 133 72 148 19 207 157 97 112 108 124 71 227 80 112 90 99 142 94 100 93 55 81 129 83 96 82 187 97 77 117 29 105 44 89 102 176 133 155 163 110 59 201 68 248 81 118 148 62 52 132 121 101 95 58 127 196 111 155 86 48 144 152 66 72 208 141 86 110 88 146 126 183 50 56 120 114 103 83 84 126 105 122 122 116 105 49 107 129 100 101 130 121 90 72 96 37 148 107 148 156 81 74 165 163 134 141 116 115 172 155 98 77 141 78 171 63 55 129 150 207 79 134 112 40 142 154 101 183 114 204 113 119 126 109 147 110 75 89 122 163 31 144 150 79 105 114 154 64 159 50 182 128 74 52 150 85 187 152 103 99 83 84 116 101 100 91 103 39 70 110 60 99 140 133 78 183 131 66 127 104 160 107 81 20 79 25 51 39 137 75 181 151 171 322 157 82 46 85 89 96 62 170 181 188 167 219 63 93 91 121 169 137 120 106 61 114 105 113 129 70 124 113 102 69 103 126 103 114 134 151 31 87 137 86 96 198 121 136 78 128 96 45 54 84 106 108 98 132 64 118 187 127 71 64 63 109 169 169 186 109 75 50 189 92 114 116 102 90 170 152 140 100 96 125 105 90 169 114 96 136 81 59 70 76 182 88 63 129 78 49 61 174 75 101 114 147 136 96 99 103 73 256 212 132 116 109 125 151 67 75 255 143 182 187 93 128 130 153 119 70 68 124 70 123 112 134 107 135 122 64 110 38 101 101 80 227 100 98 46 102 181 157 116 193 160 75 121 40 151 93 84 206 179 136 94 124 163 96 128 35 147 88 159 44 121 96 194 34 66 95 97 39 78 119 94 54 128 141 109 67 90 58 56 85 95 42 104 139 62 68 87 217 138 180 107 148 80 94 179 113 115 139 122 46 67 100 116 159 90 275 56 87 144 89 113 102 132 64 71 164 203 75 112 122 125 112 105 52 87 70 37 131 157 27 68 68 49 105 57 108 46 128 120 152 174 81 81 130 100 132 119 214 170 153 89 112 22 47 110 120 122 66 66 72 117 63 85 92 115 97 101 39 97 164 125 114 77 145 51 151 85 115 72 104 97 159 111 181 74 129 135 80 74 133 185 70 54 103 150 109 207 136 98 111 88 143 87 74 68 192 126 71 104 111 27 146 85 113 140 96 155 244 72 96 79 131 110 65 109 122 130 147 107 144 145 80 93 177 108 96 102 136 122 154 174 136 73 67 113 147 62 114 141 102 62 136 68 91 190 77 67 159 99 55 137 102 61 111 98 86 132 93 90 80 73 77 141 169 188 51 72 101 92 100 198 89 80 78 146 68 95 62 183 119 52 76 125 101 117 61 122 75 82 210 156 54 132 107 72 177 143 130 100 139 110 125 106 119 76 81 99 70 99 125 82 66 134 90 112 220 108 105 93 169 47 111 109 146 81 191 157 43 93 70 163 196 25 150 79 81 72 94 105 62 87 150 171 40 74 103 235 163 59 83 99 65 117 103 95 80 122 214 136 117 54 115 225 209 198 118 104 90 86 166 117 151 54 75 106 199 94 131 135 141 94 124 236 58 39 93 125 165 51 186 74 145 209 40 183 67 28 132 172 69 59 149 151 94 115 53 79 84 84 151 79 97 90 122 82 73 117 114 102 178 101 196 105 117 52 117 162 102 140 137 81 149 98 47 109 185 128 100 179 105 60 70 105 68 132 136 132 83 73 74 65 108 139 141 82 88 73 174 90 117 111 82 201 158 146 78 63 85 102 159 108 64 130 80 82 111 53 179 93 192 65 116 68 94 79 174 48 184 211 103 132 119 86 145 148 55 104 147 54 190 151 171 129 122 81 48 77 146 84 140 94 131 85 133 87 105 110 190 74 93 167 152 123 172 99 210 162 87 103 71 109 63 100 69 112 112 85 149 102 62 128 96 131 146 187 107 105 101 51 38 52 96 99 72 90 116 88 88 112 144 108 144 163 151 106 36 103 18 101 137 52 89 151 76 221 60 166 49 156 142 149 128 124 125 81 105 128 61 156 87 68 149 104 73 104 47 183 119 53 112 88 28 124 192 189 95 113 67 171 165 129 120 128 39 68 122 151 71 219 111 150 93 33 162 65 62 123 169 99 99 107 108 143 78 108 117 68 178 61 42 110 44 123 159 212 76 190 121 60 71 129 130 104 100 104 135 71 51 51 107 123 102 67 160 53 113 48 131 106 105 166 63 52 151 85 106 82 69 141 134 50 203 76 34 180 126 100 46 142 133 181 122 68 193 103 130 57 79 130 109 90 67 101 124 118 135 57 58 151 125 19 129 109 128 51 198 72 82 124 124 136 77 130 73 48 39 130 110 140 99 80 30 57 74 135 127 141 107 72 114 44 142 144 131 200 163 117 81 99 35 104 16 156 105 121 54 113 111 48 133 109 96 95 131 128 81 116 142 170 85 115 39 90 116 80 110 170 151 181 192 69 105 79 41 101 71 103 189 123 97 187 134 133 148 130 53 129 158 129 122 121 113 124 127 96 189 82 89 36 109 65 148 125 142 131 86 103 31 111 67 33 80 133 142 73 123 147 133 99 93 82 88 97 112 143 157 174 165 137 127 64 65 70 80 58 99 83 125 72 111 195 96 186 133 108 125 69 144 58 61 152 91 99 97 103 78 158 44 90 103 122 97 115 101 105 91 155 101 35 121 95 79 87 171 81 168 158 95 141 106 138 226 97 92 192 158 98 96 88 107 130 138 151 171 45 114 119 164 177 72 118 79 124 98 118 47 185 77 116 62 113 114 108 37 234 138 17 101 139 137 157 82 137 78 80 142 146 268 142 91 100 135 148 178 11 64 153 126 95 49 121 80 96 97 22 134 91 202 141 127 127 89 164 88 71 61 84 103 206 132 35 141 74 33 80 115 98 129 199 104 149 119 42 115 67 53 119 130 67 119 157 105 145 66 159 128 127 85 182 68 150 77 174 91 137 92 133 54 195 75 74 172 45 109 98 96 178 111 62 236 65 148 170 174 136 97 123 114 78 130 112 75 56 81 179 113 70 117 150 62 170 180 60 107 170 60 118 84 108 113 123 155 120 93 155 52 141 133 126 46 85 125 118 149 127 207 155 150 68 188 103 77 66 76 138 116 105 102 83 91 158 0 120 137 53 111 96 183 143 92 71 164 98 116 92 118 116 25 112 60 112 120 137 122 8 150 111 124 53 58 74 159 134 48 55 141 118 61 44 105 98 180 212 113 87 149 87 130 65 83 113 186 106 81 83 33 155 133 91 165 18 82 92 42 135 142 27 117 132 80 85 104 193 99 160 80 64 127 47 140 198 153 101 169 96 88 17 81 74 92 180 213 105 177 110 131 90 91 83 86 73 112 174 157 137 121 85 124 132 76 103 133 101 92 90 106 179 128 181 155 84 84 38 107 114 75 121 69 83 67 35 8 49 18 149 132 83 172 192 181 99 54 138 66 123 64 152 146 140 151 58 90 140 202 129 89 140 125 52 119 118 107 69 144 138 143 77 135 70 124 178 151 104 76 129 74 109 83 162 134 139 123 62 95 191 89 103 76 73 25 175 104 99 183 71 102 81 243 88 161 122 121 179 68 123 83 162 148 170 96 65 113 85 120 100 121 87 80 113 189 74 122 77 158 162 96 37 75 145 32 41 163 111 145 94 78 102 81 110 152 116 125 137 178 116 187 66 39 77 116 78 78 55 103 163 78 68 143 127 56 134 57 24 159 64 71 116 78 219 155 141 213 75 93 170 64 75 55 89 117 91 127 84 84 164 65 150 90 110 137 60 124 126 212 68 103 90 109 126 104 71 61 159 169 147 110 96 81 133 138 200 103 157 112 61 40 163 56 87 97 151 150 56 145 123 150 142 68 116 47 177 93 47 118 118 129 184 98 97 118 74 120 75 80 111 104 68 119 110 112 135 88 77 102 106 83 120 99 121 77 99 120 202 77 132 169 92 46 201 106 107 78 118 95 152 122 79 63 154 163 140 114 114 100 139 134 120 109 70 71 95 162 103 112 122 73 66 99 110 142 207 97 133 160 114 129 101 89 94 89 78 112 92 144 92 225 144 136 136 139 153 119 85 176 42 99 132 119 159 183 116 124 108 126 59 124 121 122 108 94 76 81 139 177 142 157 113 115 118 103 166 80 96 116 173 91 128 86 85 114 103 109 114 194 58 137 118 174 160 109 188 55 82 103 205 107 72 111 124 101 104 150 76 79 169 98 135 76 105 96 60 139 102 71 125 115 10 137 125 62 119 117 137 58 205 116 99 134 165 161 104 122 119 236 101 79 142 125 138 180 154 167 166 90 149 140 177 101 86 131 85 108 81 114 155 120 64 155 93 89 123 160 110 97 111 106 125 88 126 98 92 71 77 54 74 93 49 69 208 133 155 111 153 171 121 95 48 90 142 135 106 112 63 131 95 84 159 87 120 123 105 126 96 134 218 154 124 124 33 75 66 107 155 142 86 179 101 172 90 66 122 133 111 190 114 117 128 112 153 84 227 57 130 140 101 126 153 172 100 81 87 115 96 166 147 182 65 114 158 168 26 147 73 156 148 118 64 157 49 186 182 107 132 80 141 154 135 121 88 121 130 164 161 75 93 94 143 167 189 44 140 174 62 92 153 18 116 67 133 53 88 132 82 75 187 78 89 133 133 152 157 110 123 137 67 87 36 123 136 128 97 196 48 84 130 147 128 57 75 66 90 138 77 35 69 118 155 91 89 186 54 116 55 193 133 71 132 143 220 170 193 158 93 118 71 67 158 201 172 164 117 137 124 80 75 76 204 92 137 146 155 164 134 155 138 81 76 81 71 95 91 96 52 103 40 195 31 99 116 65 185 68 71 118 138 82 139 72 59 83 163 64 160 124 107 86 68 199 69 123 63 123 138 121 108 39 80 105 120 105 190 135 82 71 60 68 179 85 118 159 159 173 178 92 149 152 181 87 94 92 117 116 139 152 166 112 165 112 184 135 55 206 121 73 136 133 52 184 173 147 163 119 208 66 75 80 66 145 171 240 172 183 100 91 178 126 80 72 90 111 139 81 74 92 30 110 180 14 123 157 31 123 148 195 133 138 145 35 83 172 107 111 79 123 147 94 181 80 30 101 180 116 104 98 81 65 130 179 194 67 252 123 115 164 104 150 109 109 120 136 55 113 60 126 190 56 113 51 103 206 124 117 58 144 95 70 103 89 103 101 130 200 76 183 131 146 78 174 142 124 22 65 117 69 129 125 123 225 55 104 61 115 119 133 86 115 135 107 201 146 101 174 89 71 117 119 85 96 142 71 55 126 81 122 149 135 89 208 81 125 163 106 131 59 73 125 135 102 74 74 108 193 153 110 71 94 78 135 158 99 77 127 113 63 106 109 122 115 117 29 67 8 124 80 103 115 116 60 28 114 111 104 58 114 180 48 54 104 154 131 112 159 92 66 155 166 134 108 107 99 172 80 142 150 66 68 127 100 89 85 76 92 140 114 112 156 207 124 138 112 157 142 127 63 154 145 141 207 128 28 175 31 117 104 78 63 87 93 143 110 156 63 52 120 72 170 50 134 187 108 68 128 102 27 134 86 122 82 44 155 54 155 101 71 97 115 111 112 89 90 166 117 126 89 161 165 178 117 176 120 78 109 77 134 38 108 167 130 169 96 74 58 151 118 60 148 126 95 118 85 173 161 119 119 102 101 84 100 144 149 86 101 78 68 156 66 177 143 76 100 132 113 95 105 146 80 142 81 157 115 66 113 72 97 163 163 135 49 81 99 99 182 165 151 161 72 124 138 232 115 114 82 115 206 173 95 110 115 103 98 105 199 19 150 168 133 138 113 134 162 124 132 106 161 124 48 87 46 141 123 112 116 89 88 129 55 43 131 106 172 178 89 92 118 134 73 162 228 95 29 136 68 90 161 109 101 144 123 126 99 80 122 102 66 94 138 118 68 92 145 121 189 88 140 150 122 96 35 124 92 137 135 234 93 94 54 99 150 163 100 111 128 139 75 192 185 88 109 127 66 193 83 173 73 117 108 139 69 89 97 98 91 39 100 218 96 55 75 55 169 33 133 167 89 78 46 110 96 99 213 95 146 75 19 181 89 87 100 120 118 101 27 135 160 48 158 91 49 120 147 164 132 68 87 99 150 97 163 55 124 95 75 116 77 80 50 64 153 142 134 117 154 107 117 108 60 73 130 109 82 177 31 100 134 131 70 170 156 102 144 128 91 110 114 87 179 127 112 93 135 143 37 153 118 14 99 60 104 84 103 119 97 82 143 162 72 87 171 103 107 116 138 137 109 97 178 102 133 58 93 97 120 173 75 115 91 95 69 159 79 154 56 167 33 117 102 101 134 94 118 134 129 172 93 65 81 57 92 121 72 136 87 123 168 61 228 147 94 118 32 145 162 130 111 77 53 74 41 111 124 103 91 46 97 138 71 119 95 74 155 98 98 108 140 95 139 83 139 67 113 141 69 24 78 119 174 188 45 78 187 74 138 88 173 144 106 136 71 181 96 31 162 115 78 107 72 65 85 142 82 176 95 127 156 133 74 89 90 143 91 58 102 27 117 117 111 148 53 107 74 72 84 138 69 132 160 104 133 101 76 86 131 96 91 51 84 67 126 51 48 43 96 84 69 141 115 192 101 138 176 44 56 66 92 121 157 166 139 148 85 123 116 143 107 121 115 132 123 38 125 136 150 144 191 107 72 74 64 125 76 164 52 168 76 103 131 93 83 129 186 110 75 94 117 126 99 86 81 92 80 100 111 163 60 81 130 180 216 157 87 201 47 100 117 242 179 96 215 176 163 103 119 88 50 138 176 184 127 129 78 117 149 70 174 90 109 70 53 111 126 102 87 70 147 136 194 142 88 64 88 127 81 60 80 35 111 161 82 113 172 271 192 115 191 107 100 136 58 124 121 130 73 42 125 131 100 137 155 162 67 113 114 125 164 71 130 141 133 84 126 119 19 81 53 103 89 57 95 112 118 108 159 107 39 216 109 175 152 94 118 137 86 82 148 62 135 93 94 68 100 102 133 71 101 85 95 132 120 74 107 80 145 69 24 48 91 140 102 117 123 77 161 117 164 142 102 68 136 98 50 214 132 114 104 116 89 117 168 139 220 95 67 147 120 107 163 103 87 145 113 83 125 192 133 61 158 83 166 114 55 80 162 103 136 109 54 189 127 119 104 53 135 66 67 54 76 130 120 85 133 80 85 123 82 30 94 94 53 138 115 183 86 65 35 89 133 169 76 185 122 62 124 107 142 156 180 149 123 89 179 40 28 107 145 48 139 103 103 164 101 82 119 113 130 133 71 180 85 61 104 94 168 96 221 97 128 73 84 84 153 105 51 105 126 126 93 97 143 66 123 79 16 66 84 110 79 229 117 92 106 126 68 117 87 58 89 125 135 163 206 52 88 130 121 130 99 100 98 179 200 131 30 109 143 121 113 70 153 104 36 88 160 109 114 94 84 95 74 96 200 179 121 115 75 113 160 59 177 102 143 119 102 74 192 51 14 99 143 191 74 62 140 127 82 152 74 128 153 106 122 100 74 158 98 167 79 191 159 120 115 44 152 281 38 200 227 71 146 34 56 80 108 128 145 89 119 51 177 175 79 99 96 110 97 107 66 218 50 190 106 122 123 129 62 151 31 73 140 112 106 82 130 145 115 63 130 61 49 76 97 225 138 126 89 111 69 128 180 70 45 21 66 121 51 91 188 165 118 73 128 88 153 67 127 135 78 63 91 72 77 64 104 84 121 105 128 75 182 191 89 101 85 120 50 101 69 131 83 65 103 144 73 129 164 162 83 97 108 31 38 52 117 105 173 79 57 46 180 132 65 156 117 38 79 108 197 110 137 204 120 102 161 192 109 80 51 140 116 100 88 188 65 205 114 148 151 50 70 66 116 143 146 95 111 127 90 193 118 120 88 100 132 146 62 94 80 119 124 106 144 147 65 70 100 87 176 117 135 198 121 88 133 36 97 69 131 118 53 152 25 183 137 140 90 109 135 11 119 107 90 58 89 31 168 149 109 77 126 136 74 108 69 95 108 192 172 38 58 65 116 87 112 67 167 120 84 60 135 109 64 100 105 77 71 119 137 82 152 101 94 154 78 48 113 149 125 181 98 195 88 167 96 68 143 135 121 62 146 50 51 114 77 188 121 84 177 165 160 132 102 75 183 183 146 72 96 59 99 85 108 69 150 228 64 104 58 64 126 141 135 39 47 100 93 9 121 92 112 133 127 59 176 106 177 91 174 103 159 119 183 169 142 130 91 93 65 132 89 85 42 86 117 159 153 138 42 177 144 31 105 148 200 83 194 76 102 104 143 136 7 64 118 104 129 19 77 167 177 77 134 24 76 103 35 98 131 49 139 176 102 7 125 49 144 99 169 101 178 64 116 102 119 148 116 58 86 136 177 81 150 159 119 97 216 146 154 52 43 181 78 115 146 189 60 269 111 143 111 140 137 135 96 136 227 173 86 61 89 175 93 77 96 164 94 52 35 126 157 112 127 97 180 141 163 59 81 104 68 95 129 141 128 166 94 100 147 100 71 113 52 111 56 139 93 99 155 150 126 143 126 135 43 123 121 128 76 71 152 89 168 115 81 46 83 90 180 96 79 166 230 135 24 87 128 120 150 171 203 86 86 115 29 142 125 101 185 95 117 147 111 156 142 52 58 77 171 58 160 108 138 92 116 116 143 157 87 111 206 118 82 76 107 140 210 109 139 125 154 119 115 154 126 82 82 59 167 140 139 126 153 51 52 157 184 98 97 90 162 192 105 96 116 139 88 99 122 120 42 156 116 99 51 72 158 94 203 54 131 158 114 86 76 113 59 105 137 57 65 174 134 153 103 69 182 93 103 90 112 109 80 77 105 37 82 114 135 133 150 163 119 99 45 89 143 130 79 119 153 114 177 90 99 69 32 43 104 142 35 124 71 115 156 93 54 131 103 241 73 132 130 82 150 116 147 217 99 128 31 87 16 95 28 158 62 62 110 95 158 149 88 175 119 62 83 106 99 189 140 62 87 108 126 105 121 124 120 99 41 149 182 95 112 96 104 144 161 204 174 183 127 129 82 163 73 120 137 107 211 89 133 153 30 82 64 132 162 92 91 26 129 112 106 131 134 87 181 95 159 182 101 86 110 135 84 149 155 120 94 92 155 149 60 110 208 192 149 62 90 95 84 160 162 167 79 54 85 85 90 180 140 112 206 147 45 65 78 144 107 102 39 206 119 145 93 136 149 135 115 48 209 52 110 49 147 206 116 85 91 102 142 71 174 73 79 154 119 131 191 72 237 104 146 155 120 98 89 71 70 100 117 131 83 114 94 43 123 80 131 162 136 118 22 129 139 73 88 172 136 81 145 78 53 150 172 132 68 82 127 6 105 113 98 150 134 108 45 197 134 86 129 146 70 124 80 81 144 103 193 127 129 81 118 101 170 117 109 79 74 160 136 198 130 151 112 104 237 96 38 67 168 162 26 211 113 44 156 136 62 66 108 182 184 192 124 55 99 78 102 57 118 81 65 57 87 153 156 116 70 86 85 155 93 86 108 62 54 125 160 151 104 36 103 152 143 103 106 77 114 138 130 217 48 82 208 42 92 145 147 103 86 87 163 88 52 183 162 92 120 69 119 95 129 31 73 99 176 180 109 111 135 114 61 76 74 130 114 145 37 152 122 46 118 69 118 77 175 123 54 167 165 79 164 91 117 67 81 83 130 102 57 108 134 150 30 65 123 172 143 125 65 168 204 99 148 87 112 62 96 151 84 133 129 126 81 102 155 133 86 127 116 150 196 97 149 87 136 234 22 128 127 138 123 122 35 190 77 80 182 58 96 56 195 111 194 105 99 121 214 75 86 127 68 116 224 64 83 162 169 136 87 57 16 70 46 94 117 115 50 163 54 173 93 80 93 93 117 89 109 72 102 51 103 132 120 121 90 111 162 91 66 50 198 63 171 165 60 113 181 99 117 16 186 146 136 53 70 125 78 160 80 27 68 112 96 89 125 48 120 186 103 22 59 136 83 137 150 72 129 127 283 168 17 124 17 88 74 202 81 113 74 161 109 96 200 112 98 96 109 185 121 195 68 52 111 97 104 143 59 119 165 116 145 84 126 94 103 138 131 31 136 113 80 106 106 123 135 71 76 83 46 159 121 116 133 72 143 275 123 69 158 195 62 179 75 100 98 156 124 122 77 96 84 134 168 85 181 86 95 56 201 119 174 138 27 23 124 39 60 145 151 92 131 7 64 130 70 57 56 97 159 101 67 161 71 98 108 189 113 112 95 233 72 52 105 117 173 132 66 110 111 118 84 125 161 157 100 185 25 49 101 83 134 56 118 128 50 99 128 81 99 87 98 47 189 207 116 106 47 120 130 97 98 73 122 170 106 155 119 110 120 98 207 124 89 156 182 167 119 50 148 129 81 86 128 117 139 105 136 194 120 93 146 75 77 45 123 85 143 188 121 107 54 76 102 90 78 89 107 93 145 104 186 129 106 130 132 80 51 97 145 120 141 129 132 117 65 157 67 143 114 42 83 137 182 135 103 110 137 70 61 111 180 140 113 209 153 124 154 80 156 100 164 63 121 132 82 117 136 38 141 129 123 139 105 146 193 92 80 134 83 115 183 93 124 97 113 123 33 199 127 126 124 106 45 135 65 39 138 88 63 82 76 136 114 65 122 47 108 92 104 146 32 85 123 55 86 126 93 89 105 57 64 59 160 103 95 23 97 58 190 100 151 107 146 37 37 99 71 179 61 113 63 191 53 189 146 141 94 220 53 75 144 134 72 69 124 97 76 114 64 102 99 102 87 27 96 31 157 146 148 68 31 148 74 66 112 166 124 131 126 175 134 119 82 114 204 107 128 75 89 150 77 166 135 187 124 84 95 94 74 46 200 141 51 136 227 93 128 83 31 49 110 214 69 91 160 143 100 195 235 131 145 94 152 155 194 115 120 43 132 101 105 98 99 104 99 161 66 168 185 71 97 36 70 82 86 71 148 102 48 58 139 186 126 152 150 64 199 195 144 83 112 129 96 81 27 148 139 201 176 141 45 129 37 39 78 82 146 103 135 161 85 111 52 42 56 107 51 82 126 66 136 181 68 144 137 80 226 119 73 160 146 126 121 214 41 74 61 99 105 114 83 108 122 133 96 66 102 170 167 137 129 107 117 97 72 57 205 249 73 158 141 60 93 239 114 239 100 88 51 84 131 80 160 125 162 116 69 114 88 68 84 78 112 91 138 87 71 68 63 105 153 88 111 67 144 82 159 79 112 84 57 141 132 94 101 155 60 113 187 110 131 207 88 96 92 102 216 43 249 73 141 140 83 151 151 75 126 141 102 66 111 78 109 77 141 90 111 208 140 83 136 97 161 115 121 80 186 60 84 99 102 86 52 100 102 106 37 81 211 192 138 167 155 88 76 58 146 102 54 142 162 127 87 160 141 119 158 75 143 124 63 91 87 191 122 94 97 58 106 96 163 67 106 144 36 150 91 121 103 148 121 56 103 156 117 56 114 52 74 155 150 173 74 122 90 64 89 121 72 103 125 85 84 127 151 89 110 122 157 124 145 67 98 213 222 189 130 103 121 71 129 77 109 137 162 180 151 108 131 124 146 117 20 139 109 145 70 65 96 115 70 100 117 110 117 76 61 61 38 118 42 43 44 95 165 26 124 131 140 65 148 184 99 50 150 77 65 201 130 110 117 122 124 47 81 100 125 108 82 113 129 50 102 88 65 145 134 95 57 80 66 23 81 106 126 105 59 104 17 45 82 130 84 48 75 123 87 96 197 141 84 118 177 138 159 128 42 180 99 25 59 228 41 133 76 51 71 140 108 115 140 109 153 91 154 146 101 112 104 196 157 104 178 145 65 252 152 90 178 55 124 151 19 133 129 93 59 58 232 122 116 139 105 119 186 111 80 148 135 71 83 118 196 164 89 64 130 84 115 77 99 101 106 164 88 139 145 68 139 71 180 40 70 74 76 112 79 145 155 80 67 111 141 108 136 105 96 81 189 103 136 54 105 72 182 144 157 87 151 94 91 111 75 66 106 48 48 56 61 121 112 91 72 105 155 143 162 147 101 49 58 123 124 84 73 124 173 76 19 147 130 99 20 55 161 56 72 187 107 239 148 85 129 207 162 143 122 101 127 80 113 131 88 54 113 83 152 23 39 65 111 202 142 100 47 144 67 67 72 31 172 163 126 132 105 74 115 126 86 118 44 101 55 123 131 84 38 112 122 79 24 130 98 133 31 129 84 72 200 88 147 166 91 155 115 143 105 87 73 63 119 72 148 116 121 57 99 85 76 174 149 194 73 35 123 89 141 155 55 119 151 101 35 74 152 34 81 72 126 142 111 190 135 43 67 120 230 91 92 168 165 95 122 155 213 143 89 108 106 74 47 117 160 102 214 112 95 163 94 118 141 126 100 131 70 132 110 102 175 139 98 168 147 84 137 126 208 65 134 144 142 157 104 125 110 97 211 86 53 91 168 63 33 114 74 63 121 100 157 126 107 132 102 121 136 52 161 132 126 129 39 70 133 150 46 116 112 88 68 138 119 172 122 176 119 119 138 185 101 187 89 97 78 195 151 130 140 195 43 94 79 93 89 92 118 204 138 77 98 168 114 79 148 73 106 127 99 138 123 61 62 32 155 125 23 96 67 154 100 229 110 40 182 108 107 106 95 212 102 50 118 127 204 127 178 61 152 59 118 66 45 54 157 86 92 141 75 58 86 61 76 175 150 165 99 60 123 41 132 126 143 83 62 120 103 46 87 151 172 148 98 99 122 97 82 153 92 111 237 78 21 74 18 80 309 143 82 121 57 155 107 136 84 107 105 54 145 71 156 95 112 101 70 108 170 180 44 108 125 75 98 166 70 213 174 82 113 212 133 136 80 98 86 165 136 42 143 132 76 153 91 127 55 85 112 73 110 154 131 97 45 116 171 121 103 85 104 107 62 194 40 81 54 70 125 112 97 131 66 122 50 97 146 33 76 88 69 126 77 116 121 139 160 109 44 78 57 91 90 55 69 62 83 100 101 126 126 99 167 227 120 122 137 133 64 66 142 105 143 115 92 144 121 81 66 78 159 121 85 110 123 60 111 94 129 148 166 144 104 172 219 71 147 82 131 183 107 79 71 55 182 67 58 179 77 182 150 115 144 109 56 121 141 106 173 82 6 128 124 160 85 110 84 151 68 203 55 118 145 210 94 117 41 153 115 62 114 136 158 109 105 84 147 105 63 114 78 81 86 83 123 102 189 252 106 113 93 67 68 153 36 34 107 91 50 100 123 67 141 107 122 79 118 93 73 69 118 94 160 85 96 107 153 117 127 87 91 156 54 149 106 83 172 68 130 140 116 59 97 101 48 36 131 149 82 32 153 58 195 129 170 144 88 121 65 129 121 52 145 161 88 130 124 93 65 68 65 68 113 74 110 128 22 111 141 188 121 136 80 109 96 159 103 117 62 227 109 147 123 118 91 119 88 184 200 129 66 64 90 84 120 243 115 31 175 116 139 97 191 108 92 112 96 157 12 107 107 173 113 136 149 109 73 130 163 76 108 139 116 101 123 61 172 71 63 73 93 77 183 140 100 136 89 145 78 81 72 99 136 176 52 137 104 54 88 95 122 77 122 127 99 55 134 61 120 73 46 37 201 149 157 130 77 128 69 154 74 131 103 148 83 95 153 70 66 131 102 119 96 137 133 29 120 144 102 139 118 209 86 165 84 155 167 145 62 84 178 104 136 97 176 94 92 113 147 94 129 145 76 165 26 74 112 203 189 153 171 102 71 55 170 116 112 65 88 113 94 144 81 166 61 123 49 120 21 140 127 41 54 105 68 169 79 101 205 102 93 39 156 32 90 55 103 79 83 172 106 82 116 138 203 102 230 168 54 75 93 97 250 91 82 58 211 163 66 81 15 151 90 109 78 108 125 149 96 58 108 143 123 63 69 124 182 176 200 48 48 107 85 104 109 91 64 7 75 107 156 34 61 116 134 79 138 115 51 112 117 75 100 183 54 84 118 105 97 142 111 119 53 80 198 99 126 112 157 151 124 124 70 121 182 67 35 36 78 138 76 61 60 157 89 102 111 59 135 212 131 221 98 125 138 88 71 105 165 65 92 116 106 91 59 127 132 112 125 145 76 151 78 97 104 139 115 57 183 153 76 77 149 256 105 75 173 170 108 71 21 158 110 76 97 105 101 105 38 52 140 112 124 115 98 97 19 158 78 111 61 141 140 115 85 210 95 144 160 135 74 81 182 114 91 94 85 72 138 112 168 52 147 53 62 114 76 169 142 126 125 174 97 106 149 131 61 112 152 103 164 100 77 94 73 177 192 142 123 114 149 75 77 192 105 77 137 243 66 34 119 51 112 74 113 157 87 150 114 100 210 133 113 82 64 208 85 66 117 67 159 93 169 153 112 113 160 132 155 105 28 30 49 69 141 62 75 152 70 88 98 72 32 75 225 43 175 164 156 108 115 85 185 194 111 102 48 53 129 124 79 63 170 94 63 75 196 73 114 170 203 90 123 88 168 56 156 93 42 122 83 119 95 126 65 46 153 62 94 135 69 58 62 105 65 115 62 79 139 150 84 90 159 49 138 102 144 113 107 84 97 76 100 209 36 140 211 65 52 78 96 151 162 90 89 204 172 113 101 136 65 187 101 123 82 62 144 158 125 137 66 121 124 79 78 86 231 53 122 136 147 201 145 101 76 213 118 96 109 140 101 79 107 96 8 138 98 21 94 152 93 188 125 89 126 156 53 104 131 113 124 191 162 180 69 69 192 86 122 239 189 36 68 93 136 79 95 152 166 27 158 78 88 40 88 133 143 89 224 151 152 219 155 73 84 86 142 100 98 126 98 132 125 83 177 78 178 165 125 142 78 50 88 171 129 212 125 121 65 110 77 76 142 35 129 84 78 56 124 208 197 104 129 53 145 106 117 106 147 72 58 86 29 149 112 147 164 22 153 133 81 89 95 56 129 197 137 104 117 111 93 107 136 130 117 157 114 163 107 27 120 220 92 149 178 104 52 129 117 41 122 93 103 136 156 124 45 131 93 73 199 145 131 88 117 66 115 97 85 81 81 137 120 189 168 138 52 138 60 84 183 110 79 104 100 112 73 129 90 66 127 122 101 78 118 156 86 116 53 136 134 57 80 70 129 146 111 197 30 39 119 51 140 117 102 63 128 111 85 117 46 178 91 80 117 62 88 119 120 141 97 74 121 88 97 62 128 125 112 94 192 97 126 131 127 115 118 129 162 131 164 91 140 109 90 36 93 73 134 134 94 144 119 73 136 41 123 115 104 136 88 224 114 97 102 103 119 149 123 87 182 57 103 128 98 45 106 110 124 121 115 84 100 52 119 227 143 90 104 163 62 46 40 129 53 172 135 61 89 175 132 81 119 65 123 73 77 68 110 121 45 149 32 122 145 169 41 135 130 122 162 29 70 146 127 155 5 193 127 80 125 87 37 118 44 141 169 95 126 137 181 120 118 121 85 140 187 99 27 167 155 120 117 122 150 88 74 127 86 78 71 125 105 37 138 81 93 165 79 171 59 101 114 90 75 123 144 123 112 196 139 37 75 102 72 107 105 82 170 193 39 55 187 29 69 100 141 96 205 166 115 42 135 45 136 145 107 148 166 162 143 135 125 156 115 81 135 161 106 94 61 126 57 96 100 76 129 122 132 140 93 106 70 104 78 72 150 61 149 154 82 53 151 69 89 91 106 126 112 164 122 155 155 79 34 147 159 134 157 100 83 76 28 142 49 105 98 132 134 42 130 66 78 145 36 71 156 153 107 85 107 89 41 121 163 62 127 105 96 181 116 105 71 130 33 192 172 142 74 128 86 135 151 116 119 136 167 60 49 94 125 101 103 191 79 85 73 35 69 98 214 114 36 114 171 91 159 72 152 71 125 53 101 107 64 79 115 149 79 71 68 106 90 149 113 124 105 89 175 149 102 113 132 80 152 114 111 58 117 173 85 85 75 51 94 57 172 60 168 59 38 36 143 85 128 91 137 62 113 87 82 65 98 125 -3 224 76 77 113 89 72 127 98 75 41 96 60 81 76 94 110 138 142 102 99 89 48 165 108 118 91 144 74 85 36 101 162 166 45 40 146 91 161 158 154 84 140 132 150 106 79 39 137 68 179 39 174 104 159 81 96 73 59 113 177 81 117 202 82 80 111 94 86 91 27 91 143 63 151 139 89 148 93 153 130 89 85 122 228 111 115 132 140 112 191 129 185 137 189 75 112 154 110 134 132 86 84 128 67 51 118 86 86 68 130 139 161 97 325 77 123 158 40 174 50 91 93 83 88 217 201 61 103 239 134 124 109 139 152 78 85 68 123 247 24 92 65 113 205 143 94 112 106 148 126 90 86 161 153 55 143 157 64 113 88 177 150 63 160 125 137 131 68 120 119 120 135 118 131 43 64 114 108 84 87 113 154 70 179 55 118 55 56 131 156 256 213 97 80 85 91 153 97 122 97 168 130 104 123 115 53 207 134 35 111 162 144 67 100 97 78 69 172 100 75 156 83 68 7</t>
-  </si>
-  <si>
-    <t>MIE(0.28235113304384496, 2.309039824412701, -6.234941946919176e-33, 1.4318727679764314)</t>
-  </si>
-  <si>
-    <t>0 1 1 0 2 1 0 1 0 1 0 1 0 2 0 0 2 0 2 0 2 1 1 0 2 0 0 1 2 0 0 0 2 0 0 1 0 1 2 0 3 1 0 0 1 0 1 0 0 2 0 0 1 0 1 0 1 1 2 1 1 2 1 1 3 1 0 0 1 2 1 0 2 1 1 0 2 2 0 1 0 1 1 1 1 1 1 0 0 1 1 1 1 1 0 0 0 0 1 1 0 0 1 1 1 3 2 1 0 1 1 1 0 0 1 2 1 1 0 0 0 1 0 0 1 1 2 0 2 0 0 1 0 1 1 1 2 1 3 1 1 0 0 2 0 0 0 1 0 2 0 1 0 1 1 1 1 0 0 1 0 1 1 0 0 0 0 0 0 2 0 0 0 0 2 2 0 1 0 0 0 0 1 3 1 1 0 1 1 2 1 1 0 3 1 1 0 1 0 0 1 2 1 0 0 0 0 0 2 0 0 3 3 1 1 1 0 1 0 1 0 0 3 0 1 1 0 0 1 1 0 0 2 2 0 0 0 1 2 1 3 1 1 0 2 0 2 1 3 0 0 0 1 1 1 1 1 0 0 0 0 0 2 3 1 1 1 1 2 2 0 2 1 0 0 0 1 0 1 1 1 1 2 1 1 0 0 0 2 0 0 2 0 0 1 0 2 2 0 0 0 2 0 1 1 0 1 2 0 1 0 3 1 2 0 0 1 0 3 1 0 1 1 0 1 2 1 1 1 2 1 0 1 2 2 1 1 1 1 1 1 1 0 0 5 2 0 0 0 0 2 1 1 1 2 0 0 2 2 2 1 0 0 1 1 1 1 1 1 1 1 0 1 2 1 0 2 0 3 0 0 0 0 0 1 0 1 1 1 1 0 0 1 1 1 1 0 1 1 0 0 0 1 1 0 0 0 2 1 2 0 2 1 1 0 1 1 1 2 2 0 1 1 1 1 0 0 1 1 1 0 1 0 1 0 0 2 0 2 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 1 0 0 2 0 2 0 2 1 1 0 1 0 1 1 1 2 1 1 1 0 3 0 2 0 1 2 0 2 0 0 1 0 0 1 1 0 1 1 4 0 2 2 0 0 0 1 1 1 1 1 2 1 1 0 2 0 1 0 1 2 0 0 1 0 2 0 0 1 1 0 0 1 1 1 0 0 1 1 1 1 1 1 1 1 0 2 0 0 1 2 1 0 1 2 0 1 1 1 1 1 2 2 1 1 0 1 1 1 0 0 2 1 0 3 1 0 0 1 1 1 0 1 0 1 1 0 2 1 0 0 1 1 1 1 1 0 0 1 1 0 2 1 0 1 2 0 1 2 2 1 2 2 1 1 1 1 1 1 0 0 0 0 1 0 0 0 1 0 1 2 1 2 1 0 3 0 0 0 3 0 2 1 0 1 1 0 2 0 1 0 0 0 1 0 2 1 1 1 3 0 0 0 0 2 2 2 0 1 1 0 1 1 1 1 0 1 0 0 4 1 1 1 1 0 1 0 0 0 0 0 0 1 1 1 2 1 0 1 0 1 3 0 0 2 0 0 2 0 1 0 1 1 0 2 0 0 0 1 0 1 0 1 1 0 0 2 3 0 0 0 1 2 3 0 1 1 0 1 1 0 0 3 1 0 1 0 1 1 1 1 0 0 0 1 0 0 0 0 0 3 0 1 0 2 0 1 4 2 0 1 1 0 0 2 0 2 1 2 2 0 1 2 1 1 1 0 1 0 0 2 0 1 1 2 0 1 0 1 3 0 1 1 0 0 0 0 1 2 1 0 0 0 1 1 2 0 1 3 0 0 0 1 1 1 0 0 0 0 1 1 1 1 1 0 0 0 1 1 0 1 1 0 1 1 1 1 0 3 0 0 0 0 1 1 0 2 0 0 0 0 2 2 2 0 0 0 2 0 1 2 1 1 0 1 0 0 2 0 1 0 0 0 0 1 1 0 0 1 0 1 1 0 4 0 2 0 1 2 0 1 2 1 2 0 0 0 0 1 0 0 0 2 3 1 0 0 1 1 0 1 2 0 1 2 1 1 1 0 1 0 0 0 1 1 1 0 0 0 0 1 1 0 1 0 1 0 1 1 0 2 0 1 1 0 1 1 1 1 0 0 2 1 3 1 1 0 1 3 2 1 1 0 1 1 0 0 3 0 0 0 0 0 0 1 2 0 1 2 2 0 1 1 0 1 1 1 1 2 1 2 0 1 1 0 1 0 1 1 1 3 1 1 1 1 1 0 1 0 1 1 1 0 1 0 0 1 2 0 1 0 3 0 1 0 0 0 1 1 2 2 0 4 0 0 2 1 0 1 0 3 2 0 0 2 1 0 2 1 2 1 0 0 0 1 2 3 0 0 0 0 0 1 1 0 0 0 3 1 1 2 0 1 0 2 1 1 2 3 0 1 1 0 0 0 1 1 1 1 1 1 0 1 1 0 1 0 2 1 0 2 1 0 0 0 2 1 0 1 0 0 2 2 1 0 1 1 2 1 1 1 0 1 0 2 0 1 0 0 1 0 0 0 1 0 0 1 2 1 0 0 0 0 1 1 1 1 3 2 0 0 0 0 0 2 2 2 1 0 0 0 1 1 1 1 1 1 0 1 1 0 0 2 0 2 0 0 1 1 0 0 0 2 2 0 0 0 1 2 2 0 0 2 0 2 0 0 0 0 2 0 0 1 0 2 1 3 0 1 2 0 1 0 1 3 0 1 0 0 2 2 1 1 2 1 0 1 2 0 1 0 0 0 1 0 0 1 0 2 2 1 0 1 2 1 1 0 2 2 1 2 1 0 1 1 0 1 1 1 0 2 0 1 0 0 2 0 0 0 0 0 0 0 2 1 1 0 1 1 0 0 1 0 0 1 0 2 1 0 0 0 2 0 2 2 0 4 1 0 1 0 0 0 2 0 0 0 1 2 1 1 1 2 2 1 1 1 0 0 1 1 0 1 0 3 0 1 0 1 2 0 1 0 0 0 1 0 0 0 0 2 0 3 2 1 0 1 0 1 1 0 2 0 0 1 0 1 0 2 0 3 1 1 0 0 0 1 0 1 0 1 3 0 0 0 1 2 1 1 2 0 1 0 0 1 0 2 1 1 0 1 2 1 1 0 0 1 1 2 0 2 0 1 0 2 1 0 2 1 0 1 1 2 1 0 3 2 2 0 4 0 0 0 2 0 2 2 0 0 0 2 1 0 0 1 2 3 1 2 1 1 0 1 1 2 1 0 2 0 2 1 1 0 0 2 2 2 0 1 0 0 1 1 2 1 2 0 1 0 0 1 2 2 0 0 1 1 3 1 0 0 3 0 1 3 1 0 1 1 2 1 1 1 0 0 0 1 0 2 1 3 2 0 0 3 0 1 2 0 2 1 1 0 0 1 2 1 1 0 1 1 0 0 2 2 1 1 0 2 1 0 3 1 0 1 0 2 0 0 1 0 2 2 1 2 1 0 2 2 1 0 1 0 1 1 0 1 1 0 0 0 2 1 0 2 0 0 2 2 0 0 1 0 2 0 0 0 1 2 2 0 0 2 1 4 1 0 3 1 0 1 1 2 1 0 0 0 1 0 0 2 1 0 0 2 3 1 0 0 0 1 1 0 1 0 0 1 2 0 1 2 0 0 0 2 1 1 2 1 0 0 0 2 1 0 0 0 1 0 1 1 1 0 1 0 2 1 2 0 0 0 1 0 0 1 2 1 1 2 1 1 1 2 1 1 1 0 0 1 0 1 1 3 0 0 1 0 0 1 1 0 2 1 0 0 1 0 1 1 0 1 0 2 0 0 0 0 0 1 2 0 0 0 0 0 2 1 2 1 4 0 1 0 0 0 0 1 2 1 2 1 1 1 1 1 1 1 1 1 2 1 1 0 0 0 0 0 1 0 1 1 1 0 2 2 0 2 0 0 0 0 1 2 1 0 3 1 0 0 1 1 1 0 1 0 2 0 1 1 2 1 1 0 1 1 2 0 3 1 0 1 1 2 2 3 1 0 0 0 1 1 1 1 1 2 0 1 0 1 0 0 1 1 1 3 1 1 0 1 0 4 0 0 2 0 1 2 1 1 1 0 1 1 1 1 1 0 0 2 1 0 3 2 0 1 1 0 0 2 1 0 0 1 1 0 0 0 1 0 1 1 2 1 2 2 1 1 1 2 1 0 1 0 2 1 2 2 0 1 1 2 0 2 1 1 1 1 0 1 0 2 0 0 1 3 3 3 2 1 1 0 2 1 2 3 1 2 1 1 1 1 1 1 0 1 1 0 0 1 0 1 1 1 0 1 2 1 1 0 0 0 0 0 3 1 0 1 0 1 0 2 1 1 0 0 0 1 0 0 3 1 0 0 0 1 1 1 2 1 1 0 0 0 0 0 3 0 2 3 1 3 1 1 0 1 2 0 0 2 3 1 0 1 0 1 1 1 2 2 0 2 0 0 2 1 1 0 1 1 1 0 2 1 3 1 0 1 0 1 2 0 1 4 2 1 0 0 0 0 0 0 1 0 1 1 0 1 1 1 1 2 0 2 2 3 2 1 0 1 1 0 0 0 0 0 3 0 0 2 2 3 0 2 1 1 1 1 1 0 0 1 2 1 0 0 0 0 2 2 0 1 0 0 0 0 1 1 2 3 2 1 2 1 0 2 0 1 2 1 1 3 0 3 2 0 0 0 0 3 1 1 1 1 0 0 2 1 0 0 1 0 0 2 1 1 1 2 2 1 1 1 0 1 1 0 2 0 1 2 0 3 0 0 2 1 1 0 1 0 1 0 1 0 1 0 0 0 0 0 0 0 0 1 1 1 0 0 1 0 0 0 1 0 2 2 0 0 0 4 1 2 2 2 0 0 2 1 0 1 2 0 0 2 1 1 1 3 1 1 2 1 2 0 1 0 1 3 2 0 1 1 3 0 0 1 1 0 0 3 0 0 0 1 0 1 1 0 0 1 0 1 1 0 0 0 1 2 0 1 0 0 0 2 0 1 1 1 1 0 2 2 2 0 1 0 0 0 1 0 0 2 0 0 0 0 0 1 0 0 0 0 0 1 2 3 1 0 0 0 1 2 1 0 0 1 2 3 1 0 2 1 0 0 3 0 0 2 1 0 0 1 0 3 1 0 0 1 2 1 2 0 1 1 1 0 1 1 0 1 2 1 1 0 0 0 1 1 1 1 1 1 2 2 0 1 1 0 0 1 1 2 0 2 0 0 2 0 0 0 0 1 1 0 0 2 0 1 0 0 0 1 0 1 2 1 1 0 1 0 0 0 2 1 1 1 1 0 0 0 2 0 0 1 1 1 1 0 1 1 0 2 2 1 1 2 0 1 3 2 0 0 1 0 1 1 0 1 1 2 0 1 2 0 0 0 1 4 0 1 0 1 0 1 1 2 1 3 2 0 0 0 0 3 0 1 1 1 0 1 1 0 0 2 2 0 0 0 3 1 0 2 1 0 3 1 1 0 1 2 3 0 1 0 1 2 1 2 1 0 0 3 1 1 3 0 0 1 1 4 2 1 1 1 3 1 0 0 1 1 1 2 1 1 4 1 2 0 0 0 0 0 1 3 1 0 1 0 0 0 0 2 0 1 0 1 0 1 0 1 0 2 0 1 1 3 0 0 3 2 0 0 1 1 1 0 0 2 1 0 1 0 0 0 0 1 1 0 1 0 1 0 0 1 2 1 1 0 0 1 0 2 2 1 2 0 0 1 0 0 0 1 1 0 1 3 0 1 0 2 1 2 0 2 1 0 1 2 0 3 0 1 1 1 0 2 1 0 1 1 2 2 2 0 0 1 1 0 0 1 1 1 2 1 0 1 2 0 0 2 0 0 2 2 0 0 2 2 4 1 1 0 2 1 1 0 0 0 1 1 0 1 2 2 1 0 1 0 2 1 1 0 1 1 1 2 0 1 0 1 0 2 0 0 1 3 1 0 2 0 2 1 0 1 1 1 2 2 3 0 1 2 2 2 0 2 1 0 0 0 1 0 0 2 0 0 1 0 1 0 0 1 0 0 0 1 2 0 0 0 1 4 1 1 1 0 0 0 1 1 2 0 1 1 0 1 1 2 1 0 0 0 1 1 0 2 2 1 0 1 0 0 0 0 0 1 3 1 1 0 0 1 1 1 1 1 1 2 0 1 1 0 1 1 1 0 0 0 0 1 0 2 1 1 0 0 0 1 0 0 0 1 2 1 0 1 2 0 1 0 1 1 1 0 0 1 1 0 0 1 1 0 0 1 0 1 1 1 0 0 1 2 0 0 0 2 1 0 0 0 1 2 0 1 1 0 1 0 2 1 0 1 0 0 0 0 0 1 3 1 0 1 0 0 2 1 0 4 1 0 1 1 1 0 0 0 3 1 1 1 0 0 2 2 1 0 2 1 0 2 1 0 0 0 0 0 1 2 2 1 2 3 1 1 0 1 0 0 0 2 0 2 1 0 3 1 1 0 1 1 0 1 1 0 1 0 1 2 1 1 2 1 2 2 0 1 0 3 2 0 2 0 0 1 0 3 1 1 1 2 0 1 1 1 1 1 2 4 1 0 1 1 0 0 0 0 2 1 2 2 0 1 0 1 1 3 1 1 0 0 0 2 1 1 0 0 0 0 1 0 1 1 0 1 1 0 1 2 2 0 0 2 2 0 0 1 1 2 1 2 2 0 1 1 1 0 0 0 3 1 0 0 1 1 0 1 0 1 2 1 1 0 2 0 0 0 1 0 1 0 0 1 0 1 0 0 4 0 1 1 2 0 1 0 1 0 1 0 2 3 2 0 1 0 1 3 1 1 2 1 0 0 0 0 2 1 1 1 1 4 2 0 1 2 0 0 1 0 1 2 0 2 1 1 0 0 1 2 0 1 1 3 0 1 0 0 0 0 0 3 1 2 3 1 1 0 0 0 1 0 1 1 2 0 3 1 2 0 1 0 1 1 0 2 0 2 0 1 1 1 1 3 1 0 1 1 1 0 1 0 0 0 2 0 1 1 0 1 0 0 3 0 3 0 0 2 1 0 0 0 0 0 0 2 2 0 1 0 3 1 1 1 0 0 0 1 0 2 4 1 1 3 1 0 1 0 2 3 0 1 0 0 2 0 1 1 0 2 1 1 0 2 2 1 1 1 1 1 2 0 0 0 1 1 0 2 0 1 0 1 0 0 1 2 0 0 1 0 0 1 0 0 0 1 2 2 0 1 0 0 0 0 1 2 0 1 0 0 0 0 0 0 0 0 3 1 1 1 0 1 3 0 2 1 1 0 0 0 2 2 0 1 1 2 0 1 0 1 0 1 0 1 1 3 0 1 1 1 0 0 1 1 1 1 3 3 2 1 2 1 0 1 1 2 1 1 1 1 1 1 2 1 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 2 0 0 3 1 0 1 0 0 2 0 2 2 1 1 0 0 1 1 2 0 1 0 0 0 0 0 1 0 1 2 1 1 0 0 2 1 2 0 2 0 0 1 2 0 2 1 0 1 1 0 1 0 0 0 2 0 0 1 0 1 0 1 0 2 3 0 2 0 0 0 2 2 1 1 0 2 2 0 0 1 0 0 1 3 0 1 0 3 2 0 0 0 1 1 0 2 2 2 1 0 0 0 2 0 1 1 0 2 1 2 0 1 1 0 0 1 1 0 1 1 1 1 1 1 0 2 0 1 0 0 0 1 1 2 1 3 0 1 0 1 2 0 2 0 1 0 0 1 2 1 1 1 1 3 0 1 1 4 2 2 1 1 1 1 1 0 1 1 2 0 3 1 1 2 0 1 2 1 0 0 2 0 1 1 1 3 1 2 2 3 1 0 0 0 1 1 1 1 1 3 0 1 2 0 0 1 1 0 1 1 1 1 1 2 2 2 1 1 1 1 2 2 1 1 2 1 3 1 1 3 0 0 2 1 0 0 0 0 3 1 1 2 1 2 1 2 0 0 2 0 3 0 1 0 0 0 1 2 0 0 0 1 1 1 1 0 2 0 2 0 0 0 1 0 0 2 1 1 0 1 0 3 1 0 0 1 0 3 0 0 1 1 3 0 0 0 0 1 0 0 2 0 1 0 0 0 1 1 2 0 0 2 1 1 1 1 2 1 0 1 3 1 0 1 1 2 0 1 3 1 1 3 0 0 1 1 0 0 2 0 2 0 1 0 0 0 0 2 1 1 1 0 1 1 1 1 1 0 1 1 0 1 0 1 1 0 0 0 0 1 0 2 0 2 0 1 2 0 1 1 0 0 2 1 2 4 1 1 0 1 4 2 1 0 0 0 0 2 0 1 0 1 0 0 1 1 2 2 0 1 1 0 0 1 1 0 0 0 1 1 1 0 1 1 2 1 2 1 1 0 0 0 1 0 1 1 2 1 3 2 0 0 0 1 0 2 0 0 2 1 1 2 0 1 0 3 2 1 1 1 1 1 0 1 1 1 1 3 1 3 1 2 0 2 2 0 2 0 1 1 1 1 1 0 0 1 1 1 0 2 0 1 2 2 0 3 0 2 1 1 0 2 0 3 1 0 1 0 0 1 1 1 2 0 1 1 2 1 0 1 2 1 0 0 3 2 0 1 1 0 1 0 0 0 0 2 1 1 3 0 0 0 1 1 1 1 1 1 1 1 0 0 0 1 0 1 0 0 0 0 0 1 1 0 0 2 0 0 0 0 2 0 1 2 0 1 0 2 0 0 1 2 1 0 2 1 0 0 1 0 1 1 1 3 0 2 2 1 1 0 3 0 1 0 1 3 1 3 3 0 0 3 0 0 3 0 2 0 0 1 0 0 2 2 1 0 2 1 1 0 1 0 0 1 1 0 0 2 0 1 0 1 1 1 0 2 0 3 4 1 0 0 2 0 1 1 0 1 0 0 1 0 1 2 1 2 1 0 2 1 2 1 1 1 3 1 0 3 1 0 3 2 2 1 1 2 1 0 2 0 0 2 1 2 1 1 1 1 0 0 1 1 2 2 2 1 2 0 1 0 0 2 0 1 1 1 0 0 2 1 0 0 0 1 0 0 1 2 1 1 1 0 1 0 0 2 1 1 0 1 0 1 0 1 1 2 0 0 1 0 1 0 1 0 2 0 0 1 2 0 1 1 1 0 0 0 0 0 1 1 3 1 1 1 2 0 0 2 1 0 0 0 0 1 1 2 1 2 3 3 0 1 1 0 0 0 0 1 1 1 0 1 0 0 1 1 1 1 1 0 1 1 1 0 0 2 1 0 0 0 0 1 2 1 0 1 1 1 1 2 0 1 0 1 1 0 1 1 1 0 2 1 1 0 3 0 1 0 2 1 0 1 0 1 0 1 0 1 1 2 1 1 1 0 0 0 1 0 1 2 1 1 0 1 1 2 1 2 3 0 0 3 0 1 0 1 0 0 3 2 1 1 1 1 1 0 3 0 0 0 2 0 1 1 0 2 1 1 3 0 1 1 2 1 2 0 1 1 2 2 1 2 0 0 0 0 1 2 1 1 1 0 1 0 1 0 1 0 1 1 1 1 1 2 2 1 0 0 3 1 1 1 0 1 0 2 2 0 2 0 0 4 1 1 1 0 2 1 0 1 3 4 1 1 0 2 0 0 0 1 1 2 1 0 0 0 2 0 1 1 3 1 0 2 2 1 1 1 1 0 0 1 0 0 0 1 0 1 2 1 1 3 0 0 1 1 1 2 2 0 2 0 0 1 1 1 0 1 1 3 1 1 1 3 2 3 1 0 0 0 1 0 1 2 1 0 0 2 1 0 1 3 2 0 1 4 0 1 0 0 1 0 2 3 0 4 1 1 0 2 1 1 2 0 1 0 1 0 0 0 0 0 1 2 3 0 1 0 0 0 1 4 0 1 2 0 0 2 0 1 2 0 1 1 3 0 0 2 0 2 0 1 1 0 1 1 1 2 0 1 2 1 1 0 3 0 1 0 0 0 1 4 2 1 0 1 2 0 2 2 0 1 2 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 2 0 2 0 0 0 0 0 2 0 3 2 2 0 0 3 0 2 1 0 0 1 0 1 0 0 1 0 0 2 1 2 1 1 2 3 1 1 2 0 1 0 0 0 0 0 1 0 0 1 1 3 0 2 0 0 0 1 1 1 2 2 0 2 0 1 0 1 2 0 3 2 1 0 3 0 1 0 0 2 2 1 0 0 0 0 1 0 0 0 1 1 1 1 2 2 0 0 2 1 1 0 1 1 0 0 1 1 1 0 0 1 0 0 0 1 1 2 1 3 0 1 0 2 0 2 1 0 1 0 0 0 0 3 1 0 2 1 1 2 1 1 1 1 1 0 2 1 2 0 0 1 0 0 1 0 0 0 0 0 2 1 2 0 0 1 2 1 0 0 1 1 1 0 0 1 1 0 2 0 1 0 0 0 1 2 2 2 0 0 2 0 3 2 2 2 2 2 0 2 1 0 0 1 0 1 1 0 2 1 1 2 0 0 0 0 2 0 2 1 0 0 0 1 0 1 1 1 0 1 1 0 1 1 1 1 1 1 1 1 0 0 1 2 1 0 0 0 1 1 0 0 1 0 1 1 0 2 0 2 2 0 1 1 0 0 1 1 0 0 0 0 0 2 0 0 1 1 1 0 0 1 2 1 3 0 2 1 0 4 2 1 0 1 0 1 1 0 0 4 2 0 0 1 0 1 1 3 0 0 0 1 2 3 0 0 3 0 1 0 0 2 1 1 1 3 1 1 1 1 2 1 2 1 0 2 3 2 0 0 0 2 2 0 0 1 1 0 0 1 2 2 0 0 0 3 1 3 0 0 0 2 1 1 0 0 1 3 0 0 0 3 3 1 2 1 1 0 0 1 0 0 0 0 1 3 1 1 1 2 0 0 0 1 0 1 1 1 1 0 1 0 0 0 0 0 1 0 0 1 1 0 2 2 1 2 2 1 2 0 0 1 2 0 2 0 1 0 0 0 1 0 0 1 1 1 1 0 0 1 0 1 1 0 1 0 0 3 0 2 1 1 1 1 2 0 4 0 2 1 0 2 1 1 0 0 1 2 1 1 1 0 0 2 2 1 0 0 0 1 1 3 0 2 1 1 1 0 1 1 0 1 0 1 1 2 0 1 0 0 1 0 1 0 0 0 1 1 1 0 1 0 1 0 0 0 0 0 0 1 1 2 0 0 0 0 1 1 1 1 0 0 1 0 0 2 1 2 0 1 2 0 0 1 1 1 1 1 0 0 0 1 0 0 0 1 0 3 0 0 0 2 0 1 2 1 0 0 1 1 2 0 0 2 0 1 3 1 0 0 1 0 0 0 0 0 0 2 1 0 1 0 1 0 1 0 2 1 2 1 1 0 0 1 0 0 0 0 1 1 1 1 0 2 0 2 1 1 0 0 0 0 1 1 1 0 0 0 1 2 3 0 0 1 1 1 2 1 0 0 1 2 0 0 0 0 0 1 1 1 0 0 1 3 0 2 1 0 5 2 1 1 0 1 1 1 1 1 2 1 1 0 1 3 0 2 3 1 2 0 0 2 0 1 0 1 0 1 1 0 0 2 0 1 2 0 1 2 0 1 0 1 1 2 1 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 1 2 2 1 0 0 0 1 1 1 0 0 1 0 0 2 1 1 2 1 1 1 1 0 2 0 0 1 0 1 0 2 2 0 0 0 0 1 0 0 2 1 0 1 1 0 0 1 2 2 2 0 1 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 2 0 1 1 0 2 2 3 0 1 4 1 0 1 2 2 0 0 1 0 1 0 1 0 1 1 2 3 0 1 0 0 1 1 1 0 1 0 3 2 2 2 1 1 1 0 1 1 1 0 0 0 2 0 1 1 1 0 0 0 1 2 1 2 0 0 0 4 2 2 1 0 2 0 1 1 0 0 0 1 2 1 0 0 0 0 1 1 0 0 1 0 2 1 1 1 3 2 0 0 0 0 1 1 0 1 1 1 1 1 1 0 2 0 0 1 1 0 0 1 0 0 0 2 0 0 2 2 2 0 1 0 1 1 1 1 0 1 0 1 0 0 0 1 1 2 0 3 2 3 1 4 0 2 2 1 1 0 2 0 1 0 0 0 2 0 1 1 0 0 1 1 0 3 1 0 0 0 1 2 0 1 2 1 1 2 0 2 0 1 0 2 0 1 2 1 2 1 0 1 2 0 0 1 0 2 0 0 1 1 0 1 1 2 0 2 1 1 0 1 0 0 0 1 1 1 0 2 2 1 1 2 0 0 1 0 1 2 1 1 0 0 0 0 1 2 0 2 1 1 0 2 0 0 0 1 1 0 0 1 1 1 3 1 0 2 0 2 0 1 1 1 0 1 3 0 3 0 1 0 1 1 1 1 1 2 2 3 0 2 3 0 1 1 3 1 0 0 0 2 1 1 1 1 2 4 2 1 0 0 1 2 2 2 1 0 0 2 0 1 0 0 1 0 1 0 0 0 1 0 0 0 1 0 1 0 1 0 1 1 1 2 1 1 0 0 1 2 0 2 1 0 1 0 0 0 3 3 0 2 1 0 0 0 0 1 1 2 0 1 1 0 1 0 3 0 0 1 1 0 1 3 1 1 1 0 1 1 1 2 0 0 0 1 2 2 3 1 0 2 0 3 3 1 0 1 0 2 1 1 0 1 0 0 1 2 1 1 0 0 2 0 1 0 0 0 3 1 1 0 0 1 0 0 1 1 0 3 0 2 2 2 0 1 1 0 0 0 1 0 1 1 0 2 0 3 1 0 1 1 0 0 2 2 0 0 0 1 0 1 2 1 1 0 3 1 1 1 2 1 0 2 0 1 1 0 0 1 3 0 2 0 0 0 0 0 0 1 0 0 0 1 2 1 0 1 1 0 2 0 0 0 1 0 2 0 1 0 0 1 3 0 2 0 0 1 1 0 2 1 0 0 2 2 1 3 3 1 0 0 1 0 1 1 1 2 2 0 1 2 2 0 0 0 0 1 1 0 0 2 0 1 2 0 0 0 3 0 0 0 0 0 2 2 0 5 1 2 2 1 1 2 2 1 3 0 2 1 2 0 1 1 2 1 0 3 1 1 0 0 0 0 1 1 3 2 0 1 1 0 2 1 2 3 0 0 0 1 2 2 2 1 3 0 2 0 2 0 1 1 0 1 1 0 2 0 0 1 0 0 0 2 0 2 0 2 1 1 1 1 0 1 1 1 2 1 1 0 0 1 1 0 0 1 1 1 0 0 1 0 2 1 1 0 1 0 2 1 2 0 2 2 1 0 1 1 3 0 2 0 0 0 1 1 1 1 1 0 2 0 0 1 4 0 2 1 2 0 0 1 2 1 1 2 0 1 3 0 1 0 2 0 1 1 1 1 2 2 0 0 0 1 1 0 2 1 0 1 0 0 1 1 1 2 1 0 0 0 0 1 1 1 0 0 0 2 3 1 0 0 1 0 1 0 0 1 0 0 0 2 0 1 0 0 0 1 0 1 1 2 1 1 4 0 1 2 0 0 1 1 0 0 0 1 1 0 2 0 1 1 0 1 0 3 0 0 0 3 2 1 2 2 1 0 0 1 1 2 1 1 2 0 2 0 1 0 0 0 1 1 2 1 0 2 0 0 1 0 1 1 3 0 1 1 2 0 0 0 1 0 0 0 1 1 2 2 0 1 0 1 3 1 0 1 1 0 3 3 1 1 2 2 0 1 1 3 0 2 2 0 1 2 1 1 1 0 2 0 0 1 0 0 1 1 1 3 1 1 1 2 1 2 0 0 0 1 0 0 1 2 2 0 2 0 1 0 0 0 2 0 2 1 2 2 0 0 0 0 1 1 1 1 1 2 2 1 1 0 1 3 0 1 1 3 0 1 1 0 1 1 2 0 0 1 1 1 1 1 2 0 1 1 0 0 2 0 0 1 0 1 3 0 0 1 0 1 3 2 0 1 0 4 1 1 0 0 1 0 1 2 2 0 1 1 2 1 1 3 1 2 5 2 1 1 0 1 1 1 2 1 1 0 0 2 0 3 0 2 1 0 1 0 1 0 0 0 1 1 1 0 0 0 1 1 1 1 1 0 4 2 1 4 2 1 2 1 0 1 1 0 1 1 1 2 0 1 1 1 0 0 0 2 3 2 3 1 0 2 1 0 0 3 1 0 0 0 0 0 1 0 2 2 1 0 1 1 0 3 1 1 1 1 2 1 1 3 1 1 0 0 0 0 0 0 1 0 1 2 1 0 0 1 0 1 0 0 1 1 0 2 0 1 0 1 1 1 3 1 1 0 1 1 1 1 1 1 0 0 1 0 1 0 1 0 1 2 0 3 1 2 0 2 1 1 1 1 1 0 2 0 1 0 1 2 0 0 0 1 0 2 1 3 1 0 0 0 1 1 1 1 0 0 2 2 2 0 0 1 0 0 1 1 1 0 1 1 4 1 2 2 1 1 0 1 0 0 2 0 0 0 0 1 1 2 2 1 2 1 1 1 0 1 0 1 1 1 0 1 2 0 0 1 0 0 0 1 1 1 0 1 1 1 1 2 2 0 0 0 2 0 1 0 0 0 0 0 2 0 0 3 0 0 1 0 0 0 0 2 0 0 0 0 0 0 1 1 0 0 1 0 0 2 1 0 0 2 0 0 0 0 0 0 0 4 1 1 0 0 1 0 1 0 4 1 2 0 1 2 1 1 2 0 1 0 1 3 1 4 1 1 2 0 1 1 1 0 0 2 0 2 1 2 1 0 0 0 0 0 2 1 1 3 1 1 0 0 0 1 0 0 2 2 1 0 0 2 1 0 1 1 0 0 1 1 3 0 2 1 2 1 0 0 0 0 1 0 1 0 1 1 2 0 1 2 0 2 0 2 1 0 0 0 0 2 0 2 0 0 0 0 2 1 1 0 0 1 0 0 0 2 0 0 0 2 0 0 1 2 0 2 2 1 0 4 2 2 1 1 1 2 1 1 2 0 1 0 0 2 1 3 2 1 1 1 0 1 0 0 1 0 0 1 1 2 2 1 1 2 0 1 2 0 2 0 0 1 2 0 0 2 0 1 3 1 2 0 1 1 0 0 1 2 0 2 1 3 1 1 0 3 4 0 1 1 0 2 2 0 2 0 1 0 0 0 1 1 1 0 1 0 1 0 0 0 1 1 0 2 0 1 1 0 1 1 1 1 1 1 1 0 0 0 1 1 1 0 0 1 2 1 0 2 0 1 3 0 0 0 1 2 0 2 0 1 2 0 2 3 0 0 2 0 1 0 1 1 0 1 0 0 4 2 0 2 0 3 1 0 1 2 0 1 0 0 1 0 1 1 1 0 1 2 4 1 1 1 0 1 0 2 2 0 4 2 2 0 0 3 1 0 0 1 2 0 0 1 0 2 0 1 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 3 0 1 1 0 0 0 3 1 0 0 1 0 1 1 2 0 0 1 1 0 2 0 0 4 2 1 1 1 2 1 0 2 2 2 2 2 0 0 0 0 1 1 0 2 0 1 1 1 1 2 0 1 1 0 3 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 2 1 1 1 3 0 0 2 3 2 0 0 1 0 1 1 1 1 0 2 2 0 0 1 0 2 1 1 1 0 0 1 0 4 2 0 0 2 0 1 1 2 2 0 2 0 1 0 2 2 1 0 1 1 1 0 0 2 0 0 0 4 2 2 1 0 0 1 0 1 1 1 1 1 1 0 1 1 0 3 2 0 1 1 1 1 2 0 2 1 1 0 1 1 1 1 0 1 0 1 1 0 1 1 2 0 2 0 2 0 1 1 1 2 1 0 0 0 0 0 2 1 1 2 0 0 0 0 2 1 0 0 0 0 1 2 2 0 1 1 0 0 2 0 0 1 1 2 2 0 1 0 2 0 1 1 0 1 0 1 1 2 0 1 0 0 0 1 2 0 2 1 0 0 1 2 1 0 2 0 0 2 0 0 0 1 1 0 0 2 1 1 0 0 0 0 1 1 0 3 3 0 1 4 1 2 0 4 0 0 0 1 0 1 2 0 0 1 0 1 1 3 1 2 0 3 1 1 1 1 2 1 2 1 0 1 1 0 0 0 0 0 1 0 1 0 0 2 2 0 0 0 2 1 0 2 1 0 2 0 1 0 1 2 0 0 1 1 0 2 0 0 1 0 0 0 0 1 0 0 1 1 1 0 2 1 0 0 0 1 2 0 0 0 2 0 0 0 1 2 3 2 1 0 0 1 5 1 1 0 1 0 1 1 1 3 0 1 0 1 0 1 1 0 2 0 0 4 2 2 0 1 0 1 1 0 0 1 1 1 1 2 1 0 1 0 1 0 2 2 1 1 2 1 1 1 3 0 0 1 2 0 0 1 0 0 2 1 1 2 0 2 1 0 0 0 3 0 0 1 0 0 0 1 0 0 1 0 0 1 1 0 3 3 1 2 1 1 1 1 0 1 2 2 1 1 2 4 1 0 0 0 0 0 1 2 0 1 1 2 1 2 0 0 1 0 1 1 1 1 0 0 2 1 0 1 1 2 0 1 1 0 0 1 2 0 2 2 1 2 2 0 3 0 1 0 0 0 1 0 0 0 2 1 1 3 0 0 1 0 0 5 2 0 1 0 1 0 0 0 2 1 0 0 2 1 2 1 0 1 1 0 2 0 0 2 0 2 3 1 0 0 0 0 2 0 0 1 0 1 0 1 0 1 0 0 0 0 0 0 0 2 0 0 0 2 0 0 3 0 2 0 0 2 2 0 0 2 0 1 0 1 1 3 2 1 2 3 1 0 0 1 0 1 0 2 1 0 1 1 0 0 1 1 0 1 1 0 1 2 0 0 0 1 1 0 1 1 1 0 2 1 2 0 1 2 0 2 1 1 2 1 2 0 0 0 1 2 0 0 0 0 1 1 0 1 3 2 0 1 1 0 1 1 1 0 2 0 0 1 2 1 0 2 0 1 1 2 1 0 2 0 2 1 1 3 0 3 3 1 2 1 0 0 1 1 0 0 2 0 1 0 0 2 0 3 1 2 0 1 2 2 0 0 0 0 0 1 1 2 1 0 1 2 2 4 1 0 0 3 2 0 0 1 0 1 1 2 1 2 0 0 2 1 0 1 0 1 0 1 0 0 3 0 1 0 1 1 0 3 0 1 0 0 1 0 0 0 0 1 0 0 1 1 0 1 3 0 0 0 1 2 2 0 2 1 1 3 0 1 0 1 1 0 1 1 0 1 2 1 0 1 2 1 0 0 1 1 0 1 1 1 0 0 1 0 0 1 0 2 1 2 2 0 2 1 0 0 1 1 2 0 0 0 0 2 0 0 1 0 0 1 1 3 0 4 2 0 2 0 1 1 0 3 2 1 1 1 1 1 0 0 2 0 1 1 0 1 2 0 0 1 0 2 0 2 1 3 2 1 0 0 0 1 1 2 2 2 1 1 1 1 2 0 0 1 0 2 2 1 0 1 0 1 0 1 1 2 0 2 1 1 2 2 1 1 0 1 1 0 1 0 5 1 2 0 0 0 1 1 2 1 0 3 1 2 1 1 1 1 0 2 3 1 0 0 0 2 0 1 0 0 1 1 1 2 0 1 2 2 1 3 2 1 0 0 2 1 3 0 1 1 0 0 2 1 0 1 0 2 1 2 0 4 2 0 1 1 1 0 0 1 0 0 1 1 0 1 0 2 1 1 0 1 0 1 1 0 0 0 0 1 0 0 2 2 0 1 1 0 1 0 2 1 2 1 1 0 1 3 2 0 2 1 0 2 0 1 2 1 0 0 1 1 0 1 0 0 1 2 0 1 0 1 0 0 0 2 2 0 0 1 2 1 2 0 0 0 0 2 0 0 0 0 1 1 2 0 0 1 0 0 0 1 0 1 0 1 0 3 1 1 3 1 2 1 1 0 0 0 3 0 1 1 0 2 2 0 0 1 1 0 0 0 1 0 0 1 1 1 0 0 0 0 0 2 1 1 0 0 1 0 0 2 1 0 2 0 1 1 0 0 1 0 3 1 0 0 1 0 0 0 1 0 0 0 0 1 0 3 1 0 2 0 0 1 0 1 1 2 1 2 0 0 0 1 1 0 1 0 2 1 0 0 1 0 0 2 2 0 0 3 0 1 3 1 1 0 1 0 0 1 2 1 3 0 2 1 1 1 1 2 0 2 1 1 3 1 0 1 1 2 0 0 1 2 0 0 1 0 1 2 1 1 2 2 0 0 0 1 1 0 1 1 1 0 1 0 0 0 2 0 1 1 0 0 1 0 1 0 0 2 1 0 0 1 1 1 1 0 1 1 3 1 2 0 0 0 0 0 1 0 1 2 1 0 0 0 0 3 2 0 2 2 0 2 1 0 0 3 2 1 2 1 1 2 0 2 2 0 1 0 2 0 1 2 2 0 1 0 2 0 0 0 1 2 0 1 1 1 1 0 1 0 0 0 0 0 0 2 0 1 0 0 1 2 2 0 1 0 1 0 0 0 1 0 0 1 1 1 0 1 2 0 0 0 1 1 1 1 1 2 1 2 1 0 0 0 0 1 2 0 0 0 0 1 0 2 0 1 1 1 2 0 0 0 1 1 2 0 0 0 1 1 0 1 1 0 0 2 0 1 0 1 1 1 1 1 1 2 0 0 2 0 3 1 1 2 2 1 0 0 0 0 1 1 1 0 2 1 1 0 1 0 3 0 3 0 0 1 0 0 1 1 1 1 1 2 0 0 1 0 1 1 2 0 0 0 1 0 2 1 3 1 1 1 0 0 2 1 0 2 1 2 1 0 0 0 1 0 3 0 1 1 0 1 1 1 0 1 0 0 2 1 2 1 0 0 0 1 1 1 0 0 2 0 2 1 0 0 0 2 1 0 0 0 1 0 0 1 1 2 1 1 0 0 2 2 1 2 2 0 0 1 1 0 3 0 0 0 0 1 1 2 1 0 2 1 2 0 2 0 1 1 2 0 0 0 0 0 3 1 0 1 0 0 0 0 1 0 1 0 1 2 0 1 1 1 2 1 1 1 1 2 0 2 1 0 1 0 0 2 1 3 0 0 1 0 2 3 0 1 2 1 0 0 0 1 3 1 2 0 1 3 2 2 3 0 1 0 1 2 0 1 3 1 2 0 1 2 2 1 1 0 2 0 3 1 0 1 0 0 1 1 4 0 0 0 2 0 2 0 2 0 1 1 0 1 0 0 0 1 1 2 1 0 2 0 0 1 1 0 2 2 2 0 1 0 1 0 2 1 1 1 0 2 0 1 1 0 1 1 3 0 0 0 1 1 0 0 0 0 1 1 0 1 0 1 0 1 3 0 0 2 2 0 1 1 1 1 1 0 0 2 2 0 2 0 0 2 0 0 0 1 1 0 0 3 1 1 0 0 2 1 1 1 3 2 0 1 0 1 1 0 0 1 0 1 1 0 2 1 0 0 1 0 0 1 2 0 0 0 0 0 1 1 3 0 0 2 0 2 1 1 1 1 0 0 1 0 0 0 3 0 1 1 1 0 1 0 0 1 1 1 0 1 1 2 1 2 0 0 1 1 0 0 0 0 1 0 0 1 1 3 0 3 0 0 0 1 0 1 1 0 2 2 1 0 0 0 0 0 1 0 1 3 0 1 1 1 0 1 0 1 1 1 0 1 0 0 0 0 2 0 0 0 0 0 1 0 1 1 2 0 1 0 1 1 1 1 2 0 1 0 2 1 1 0 0 3 0 0 3 1 0 0 1 1 1 1 1 1 2 0 1 1 1 0 0 0 1 0 0 0 0 0 1 0 1 1 1 0 0 0 1 2 1 0 0 0 0 0 1 1 0 1 0 0 1 3 1 1 1 0 1 1 0 0 3 1 1 1 0 0 1 1 0 0 1 1 1 0 3 0 1 1 0 0 2 0 1 0 0 0 2 1 1 0 1 0 0 1 2 0 1 1 0 1 2 2 0 1 1 1 0 1 0 1 1 1 1 0 0 0 1 1 0 0 1 2 0 0 1 1 0 0 0 0 3 1 1 2 1 2 0 0 1 0 2 0 1 0 0 0 2 0 1 1 0 0 0 1 1 2 1 3 2 0 0 0 0 0 3 0 2 2 0 0 0 1 0 2 1 2 1 0 1 1 1 1 2 1 1 2 2 1 0 2 1 0 1 2 1 1 1 1 0 1 0 0 1 1 3 2 3 0 1 3 0 2 1 1 0 0 0 2 1 0 1 0 3 0 0 1 1 0 2 1 0 1 0 0 0 2 2 1 0 1 2 1 1 2 2 1 2 0 2 2 0 0 0 1 3 0 2 1 0 0 1 1 0 0 1 2 2 0 0 0 1 0 2 0 2 1 2 1 0 1 0 1 3 1 1 3 0 1 1 1 1 0 0 3 0 0 0 1 0 3 1 0 2 2 1 0 2 1 0 1 3 0 0 2 1 0 1 1 0 0 1 3 0 2 0 0 1 1 0 1 0 0 0 1 0 0 2 3 0 0 0 1 2 1 0 0 1 1 2 1 0 0 0 1 0 0 0 1 2 3 0 3 1 2 2 0 0 1 0 1 0 0 1 2 0 1 1 0 0 0 2 1 0 1 1 1 0 0 1 0 1 0 0 1 0 1 1 2 1 1 3 0 1 2 1 0 0 0 0 0 0 1 0 1 0 0 0 2 0 1 0 1 0 0 1 1 1 0 1 4 1 1 0 1 1 0 2 1 0 1 0 0 0 2 1 0 0 2 0 0 0 0 0 0 1 1 1 1 1 0 1 0 0 1 3 2 3 2 0 1 1 0 1 1 0 0 1 1 0 0 0 1 2 2 1 0 1 0 0 1 0 1 1 0 0 0 1 2 0 2 0 1 1 0 0 0 1 1 0 1 3 2 3 2 0 0 0 0 1 5 1 0 1 0 1 0 1 2 1 0 1 0 1 2 0 2 2 0 4 1 2 0 0 0 1 0 0 0 1 1 0 0 2 1 1 1 0 0 2 2 0 0 1 1 0 0 1 0 1 0 3 1 0 1 1 2 0 1 1 2 2 2 1 3 1 1 0 1 0 1 1 0 1 0 0 1 0 0 0 2 0 2 1 1 0 0 0 3 0 0 0 2 0 0 2 1 1 0 0 0 0 0 0 2 0 0 0 2 0 1 1 2 0 0 1 2 1 0 1 0 1 1 0 0 2 0 1 0 0 0 0 1 1 2 0 1 0 0 1 1 1 0 0 0 2 3 1 0 2 0 0 1 1 1 1 0 3 1 1 0 1 1 1 1 2 1 1 3 0 0 2 0 0 1 2 1 1 1 3 1 1 0 1 0 3 1 2 1 0 1 0 1 0 1 0 1 0 0 0 1 0 0 0 1 1 1 1 1 2 0 0 0 1 0 2 0 1 0 1 1 3 1 2 2 0 0 2 1 0 1 0 3 0 0 1 1 0 0 0 3 1 3 1 1 1 1 0 1 1 0 1 0 0 0 1 1 0 1 2 0 1 2 2 1 1 0 1 2 0 1 0 0 2 1 0 1 0 1 1 0 0 0 1 3 2 0 0 1 0 2 0 1 1 1 0 3 1 3 0 1 1 1 3 1 1 0 2 1 2 2 0 0 0 2 1 0 2 0 1 0 0 0 1 2 0 2 1 0 0 2 1 0 1 3 0 0 1 0 0 1 1 2 1 0 0 1 2 1 0 1 0 0 0 0 0 0 0 1 0 0 2 3 0 1 0 2 0 0 1 1 0 0 0 0 2 1 1 0 1 1 0 3 1 1 2 0 2 1 0 0 0 1 1 2 1 0 0 2 1 1 0 1 2 1 0 0 0 0 1 1 2 1 2 2 2 1 2 0 0 1 1 1 1 0 0 2 1 1 3 1 1 1 2 1 1 1 0 0 1 0 0 1 0 1 0 1 0 1 0 1 0 1 0 0 1 3 0 2 2 2 0 0 1 1 0 2 0 1 1 0 2 1 0 2 1 2 1 1 1 0 0 2 0 0 3 0 0 1 1 1 1 1 1 0 1 1 1 1 1 0 1 1 1 1 3 1 0 0 0 1 0 0 1 1 1 1 1 0 2 4 2 4 3 0 0 2 0 0 1 1 2 0 0 0 0 1 1 0 1 1 0 0 1 1 0 1 0 0 3 0 0 0 0 2 0 0 2 1 2 2 1 0 0 3 2 2 0 0 2 1 1 1 1 0 0 1 3 1 0 2 2 0 2 2 0 0 1 2 1 1 1 1 1 1 0 1 1 0 2 1 3 0 0 1 1 0 0 0 1 3 1 1 0 0 0 0 0 1 0 2 0 1 3 1 2 0 0 0 0 3 0 0 0 3 0 1 3 2 0 1 0 1 1 0 1 2 1 1 2 0 1 1 1 2 1 1 1 1 0 1 1 0 0 1 2</t>
+    <t>JSU(-13.866460321653118, 8.32569174783596, -44.692694049284874, 24.66215037131894)</t>
+  </si>
+  <si>
+    <t>37 27 33 10 27 20 13 27 9 14 14 17 7 17 19 16 6 21 16 6 35 20 17 27 7 20 10 24 17 23 10 23 18 24 24 21 10 27 7 13 27 10 37 17 16 6 22 23 16 13 13 27 14 23 37 26 20 13 17 10 6 16 16 21 17 13 16 23 20 16 14 15 6 13 26 13 26 16 13 14 17 20 3 10 15 14 17 25 3 17 16 20 17 16 10 6 9 14 16 23 16 23 14 30 25 30 24 14 17 6 24 28 21 7 14 28 10 17 14 10 14 24 10 17 12 20 10 14 37 17 20 17 17 13 20 33 30 17 24 10 14 24 20 13 13 7 8 17 42 27 20 13 7 17 15 27 7 13 9 24 20 16 14 10 0 24 20 14 38 9 20 31 14 21 21 31 10 7 30 19 11 20 13 10 24 0 17 20 11 17 27 21 19 19 17 27 20 28 14 20 31 26 16 23 17 17 24 21 10 35 21 20 9 24 31 7 12 7 16 7 10 23 28 6 17 25 11 20 30 20 13 21 20 27 27 29 14 20 13 16 21 24 27 14 14 34 14 17 7 26 34 10 17 16 31 14 6 10 19 17 24 13 40 24 27 14 23 19 14 14 17 19 17 9 30 10 40 27 7 17 28 21 24 30 27 16 3 17 21 16 17 35 34 20 14 18 19 7 10 7 27 14 27 20 10 7 3 36 23 27 10 24 12 20 31 17 17 29 14 20 34 17 34 10 10 13 17 17 27 17 20 23 20 10 14 38 20 3 25 28 18 24 14 16 24 23 13 21 3 20 17 20 17 17 6 0 17 35 17 24 21 20 3 13 21 14 23 17 42 17 14 13 38 21 6 18 37 10 26 6 3 13 27 24 12 17 20 20 9 17 0 17 41 21 7 17 27 10 16 13 9 26 14 22 15 24 24 23 24 16 20 17 26 21 13 21 9 5 13 20 31 0 13 27 14 16 20 41 13 44 20 21 14 10 6 13 16 22 10 9 10 33 20 17 14 17 7 20 3 14 27 14 20 20 17 13 34 3 21 22 27 30 17 14 3 13 16 10 0 3 27 26 34 16 24 13 7 23 17 24 10 17 3 21 14 6 16 23 6 13 24 21 27 21 23 13 19 22 17 15 20 23 22 34 21 20 16 3 10 27 13 17 24 13 14 33 37 8 12 20 17 30 24 27 17 21 19 6 35 12 26 27 28 24 33 20 10 27 17 23 22 23 24 19 21 13 9 20 16 13 12 19 13 26 24 7 17 23 24 30 21 22 30 29 10 26 13 7 17 9 9 11 34 14 13 7 17 17 17 31 34 21 10 9 7 26 17 9 7 8 16 16 21 23 16 17 31 28 3 23 17 37 13 17 6 30 29 7 28 19 16 13 17 22 10 17 20 34 17 17 25 3 24 20 3 19 41 16 20 24 5 7 10 34 23 17 24 28 17 20 7 17 7 7 17 12 7 14 34 34 24 27 31 24 31 13 3 28 29 6 19 20 13 17 31 23 9 22 28 16 34 41 21 31 23 14 10 25 30 15 20 16 14 6 26 13 10 24 24 15 14 24 30 14 9 38 6 14 7 13 10 15 33 9 13 20 14 10 35 31 20 10 17 23 24 19 16 30 38 10 20 7 7 14 27 15 27 33 24 24 10 21 40 20 22 9 24 14 17 14 17 22 13 14 28 9 10 10 29 8 10 20 27 14 17 27 24 17 27 27 38 31 9 13 20 24 13 24 13 41 17 6 3 20 24 24 24 13 16 27 24 27 13 21 28 24 23 3 15 28 0 3 15 13 38 6 20 16 22 17 16 13 10 10 16 27 29 9 20 23 23 6 7 17 26 15 28 17 16 17 34 24 27 17 21 29 29 31 20 23 16 13 31 24 17 8 23 10 17 17 21 13 31 24 0 23 10 31 17 20 10 24 20 17 24 7 20 16 21 27 11 14 28 16 10 42 14 3 13 7 17 7 11 3 30 6 13 31 15 28 18 3 20 9 21 18 34 6 13 9 10 13 30 13 20 9 17 26 27 17 10 19 28 10 38 3 17 10 20 17 21 17 14 20 35 24 18 7 17 20 3 14 14 13 12 17 22 24 30 27 20 20 10 27 23 17 7 10 21 33 11 17 6 21 14 24 3 14 16 24 19 27 19 14 17 20 23 20 13 24 17 33 21 31 10 23 15 15 24 6 10 24 7 24 28 20 3 13 22 24 14 16 16 14 13 23 3 6 24 17 17 24 10 26 14 19 21 21 31 31 41 24 20 9 21 10 17 20 13 10 6 18 41 31 26 17 10 20 10 13 31 14 28 27 20 13 6 20 17 21 27 21 34 38 17 23 9 27 28 22 21 27 28 24 5 10 13 10 27 17 17 13 7 17 31 17 10 14 38 24 23 17 20 24 21 6 42 24 13 7 21 17 22 31 17 24 14 16 27 17 7 16 10 17 3 17 10 16 16 19 17 14 23 14 20 9 23 10 21 17 17 30 23 20 10 7 34 28 25 13 28 21 17 12 31 20 21 29 3 7 6 22 13 24 38 20 17 21 14 24 13 24 17 20 14 23 30 13 28 10 10 16 20 17 20 34 23 21 10 14 21 9 14 36 17 17 20 15 3 16 17 23 30 13 17 7 13 14 17 21 12 24 14 20 10 8 17 10 16 22 13 13 35 37 17 10 21 29 12 3 10 17 20 23 14 13 24 20 10 21 6 24 25 16 10 21 6 24 13 30 20 14 23 26 17 20 27 31 10 27 17 3 20 6 18 20 16 27 6 13 13 6 13 10 7 19 14 20 24 24 27 21 14 27 38 10 34 14 24 20 17 13 9 15 10 34 21 15 23 3 20 21 24 34 22 10 27 31 25 10 34 13 10 14 20 6 14 23 17 14 30 28 24 20 10 8 16 14 28 20 14 37 6 24 17 23 12 7 14 20 20 9 16 24 16 17 24 17 6 17 28 13 0 19 14 18 17 11 14 17 27 26 10 31 10 18 16 34 20 41 14 21 14 21 29 33 27 16 20 23 17 23 15 6 14 3 10 14 13 20 13 19 20 20 10 17 6 20 31 20 10 13 12 24 7 10 20 10 13 16 7 16 7 24 7 22 26 27 14 21 17 12 10 23 14 13 6 26 29 6 17 30 27 26 24 24 13 9 13 16 21 12 40 20 13 3 14 27 17 9 15 15 23 24 18 27 24 22 24 10 23 11 21 17 10 3 9 28 14 20 7 27 19 10 17 27 24 15 31 23 20 26 7 20 21 6 14 32 13 28 29 3 24 17 13 7 13 14 17 10 13 13 23 22 13 20 23 27 21 27 24 21 12 17 19 14 24 17 26 10 3 17 13 20 29 19 16 27 20 19 15 24 24 10 10 27 38 13 13 9 6 41 10 16 13 24 22 41 20 12 16 12 10 13 7 12 28 25 21 34 7 6 24 27 17 14 24 13 20 13 10 22 29 27 27 13 28 19 24 30 10 25 13 13 23 13 27 20 30 24 17 13 27 26 17 30 19 21 20 22 19 11 22 37 7 24 16 20 7 24 21 16 17 17 16 7 14 17 20 13 42 20 12 17 14 14 27 17 19 30 26 17 13 13 6 16 17 7 17 17 10 14 20 17 29 10 17 20 21 17 20 24 13 21 17 13 10 23 24 38 31 9 14 22 24 13 6 20 27 6 19 3 14 16 20 0 18 10 3 21 15 10 38 9 23 7 15 27 13 34 7 14 38 19 16 33 7 14 19 20 31 7 22 7 13 27 17 10 26 18 13 7 10 20 6 23 24 35 10 3 26 12 13 23 21 29 20 23 19 13 20 13 12 6 27 17 20 27 14 17 26 13 24 10 10 13 10 26 14 20 13 23 14 13 26 21 13 24 21 30 13 19 20 14 28 13 3 42 17 10 24 9 31 20 27 24 20 24 9 20 23 13 17 14 6 22 24 17 33 27 17 3 35 13 3 23 37 27 10 13 27 20 17 18 16 31 31 13 13 20 27 17 16 27 23 10 13 20 17 31 16 16 24 27 23 37 20 13 20 0 30 30 10 10 28 31 10 0 31 35 21 27 12 19 24 16 28 15 14 9 30 13 44 28 10 23 18 17 21 10 16 8 19 12 31 14 31 31 28 23 26 6 17 13 8 17 13 13 0 16 20 22 23 21 34 23 10 21 30 27 10 34 14 19 31 28 24 18 17 13 21 3 14 9 21 28 17 10 24 17 24 21 27 16 18 17 24 21 15 7 10 31 23 17 22 14 7 20 17 27 36 27 20 20 21 23 34 17 14 23 15 23 24 37 20 24 26 7 24 20 17 3 9 17 21 14 17 9 19 10 38 22 20 22 14 23 16 17 10 27 10 22 17 3 19 17 16 25 18 24 17 14 9 31 20 17 24 14 26 27 20 24 21 17 7 27 23 14 20 12 30 7 24 13 7 30 24 24 14 20 14 24 34 17 21 14 24 30 7 17 12 25 3 23 19 11 17 24 27 18 24 13 7 13 20 21 23 21 13 21 24 27 24 14 30 23 16 17 17 25 16 31 10 16 17 16 3 16 20 24 30 27 27 24 10 13 19 19 16 25 13 24 27 14 24 9 16 23 17 13 7 16 13 10 30 22 20 10 21 23 17 13 28 10 21 5 6 15 17 17 10 7 12 27 10 13 24 21 31 20 15 41 24 25 31 13 17 13 20 24 16 20 12 9 24 3 14 14 18 38 17 15 20 30 17 33 24 9 21 21 44 10 13 31 19 24 12 14 7 24 18 30 9 13 24 16 26 21 23 17 27 27 40 17 41 17 26 20 26 14 20 17 15 23 23 20 9 27 34 17 16 17 23 23 17 13 20 13 13 24 17 9 13 14 13 17 16 20 13 16 10 37 28 14 16 6 10 30 23 0 20 17 13 27 14 14 20 31 24 13 20 23 7 7 8 19 20 12 30 22 26 24 37 17 17 30 14 3 14 17 6 14 13 20 31 13 10 30 20 21 14 14 6 28 17 41 21 25 13 27 10 21 10 12 16 24 24 24 24 13 13 15 20 10 6 6 27 17 26 6 20 14 13 10 10 17 14 10 24 41 21 23 37 38 21 0 25 23 14 17 14 17 16 9 14 13 24 33 17 27 20 12 17 16 10 30 21 12 24 26 13 13 31 20 3 7 24 24 21 26 13 35 10 31 14 28 24 30 10 28 38 20 18 19 3 23 9 14 28 17 16 31 34 10 17 14 20 7 17 20 28 10 20 6 9 16 16 10 23 20 27 23 17 10 14 30 23 34 10 17 14 28 21 21 10 24 27 18 3 17 17 21 13 16 17 15 3 30 19 24 30 23 6 24 10 20 24 30 19 7 27 30 27 20 14 23 20 17 17 17 14 17 38 21 20 26 17 20 24 37 27 19 13 24 20 17 3 27 17 7 10 13 23 14 27 30 15 34 9 17 13 7 18 16 25 9 20 10 14 23 10 20 15 9 27 14 32 14 25 14 35 19 16 28 10 21 12 19 27 19 24 10 13 7 35 28 17 26 34 10 17 17 12 3 32 24 17 17 28 28 16 10 26 17 24 20 24 10 18 17 17 9 14 17 30 31 27 20 38 17 20 34 21 17 14 10 21 17 27 22 14 38 18 20 34 38 17 13 17 14 23 17 28 10 20 12 20 27 27 10 28 13 27 16 11 12 20 13 35 17 41 27 24 12 22 16 3 16 16 6 6 14 13 16 6 14 26 21 7 35 13 7 23 3 10 17 13 17 21 0 23 6 7 6 3 48 16 33 17 37 27 23 31 21 16 27 24 13 6 13 23 17 22 34 6 20 17 25 26 34 20 16 14 17 23 10 20 16 13 12 16 23 10 13 38 9 13 24 13 14 20 41 23 37 20 10 10 17 34 21 23 16 21 10 6 20 17 16 24 14 12 6 14 28 6 9 16 17 7 20 17 14 12 10 35 27 13 7 30 20 17 17 19 28 22 14 3 23 24 17 38 17 0 17 27 16 16 28 9 24 13 23 28 25 6 21 28 23 7 33 16 14 13 19 9 28 3 31 21 17 19 6 20 24 20 13 28 6 21 3 26 20 0 24 16 10 23 20 20 17 30 7 14 22 7 24 20 21 9 10 34 19 21 14 13 30 7 20 21 21 18 20 24 7 16 14 16 27 17 19 10 21 16 13 20 29 9 16 18 3 10 13 30 41 29 25 17 15 19 20 9 14 10 27 20 34 14 37 10 0 14 10 12 27 24 27 25 14 21 20 20 31 27 24 17 13 17 20 10 6 17 6 14 17 17 19 24 31 16 27 38 23 20 27 28 23 7 11 9 33 14 24 27 15 9 16 13 15 20 18 17 16 27 13 28 9 14 21 10 10 23 20 13 7 27 15 10 19 17 16 34 31 20 13 23 25 14 10 13 9 35 28 31 38 10 16 16 22 21 23 6 10 19 9 17 15 27 24 17 13 12 17 20 10 21 10 20 20 20 12 8 10 20 26 6 24 11 17 7 41 31 10 20 16 20 20 21 27 27 20 13 34 35 16 3 14 10 13 24 37 31 10 28 3 22 9 10 49 16 27 25 22 14 17 30 34 38 16 20 20 7 16 13 11 13 13 23 24 20 17 16 14 26 20 27 13 27 7 13 14 17 24 27 30 20 19 13 38 16 14 20 21 18 18 30 30 14 28 20 34 28 20 34 36 27 28 24 19 17 23 20 17 27 19 27 24 23 21 13 20 24 14 10 14 27 16 14 7 10 14 23 16 17 20 17 6 20 7 10 10 20 20 7 2 26 26 14 28 22 12 20 14 18 15 22 17 27 17 16 28 20 14 24 17 24 14 10 18 13 24 10 14 31 21 30 38 23 30 0 27 20 10 3 10 27 29 16 16 17 17 19 28 24 17 20 14 16 19 17 6 20 17 7 14 17 27 0 28 10 21 9 7 23 42 20 17 16 18 6 28 28 24 16 27 13 17 16 17 20 10 24 20 6 13 27 20 21 24 11 20 20 27 3 6 14 17 20 37 17 13 21 30 20 17 12 11 14 3 10 20 17 16 6 24 17 20 10 31 3 18 7 16 34 20 12 12 23 26 0 30 25 23 23 21 24 19 11 15 24 13 33 3 13 27 23 13 33 23 9 23 13 20 9 22 14 17 27 27 20 14 20 18 20 20 35 27 17 31 10 20 18 13 14 14 7 10 12 20 25 21 13 17 28 23 9 28 14 9 21 30 35 23 20 12 13 27 10 13 13 6 16 20 34 39 23 20 9 9 38 17 20 37 13 31 27 7 16 19 12 23 9 27 24 23 6 13 31 24 6 6 16 16 13 14 7 20 8 16 31 23 24 34 13 17 34 20 13 14 16 34 17 21 12 14 14 35 29 34 7 13 10 0 25 3 13 16 30 20 23 28 14 9 18 34 17 24 26 17 23 17 16 21 16 13 28 19 16 30 17 23 20 20 17 19 24 7 25 31 9 9 21 16 34 26 20 13 14 34 34 10 13 7 6 7 14 10 7 24 34 27 16 8 7 20 21 14 10 17 17 31 14 15 17 20 23 27 31 17 13 16 3 20 20 14 38 7 17 13 16 16 17 6 13 27 13 17 20 17 24 16 20 9 19 16 26 19 28 15 20 31 14 23 27 21 17 20 27 17 24 26 19 17 17 19 27 27 15 14 9 7 27 13 25 13 14 21 14 19 23 14 20 20 23 17 10 26 24 21 31 17 24 17 23 10 10 9 35 24 21 35 23 26 45 24 21 14 24 37 14 26 20 17 16 23 14 27 20 26 19 21 17 20 7 20 27 24 27 26 12 7 17 24 34 24 24 7 24 26 3 0 17 10 22 28 10 23 14 7 10 20 9 0 29 23 16 16 31 16 13 13 22 21 10 12 45 20 23 27 16 27 17 17 26 34 14 13 23 21 7 25 6 28 23 14 13 7 28 16 28 10 12 10 24 14 8 12 19 14 24 27 15 34 31 12 21 17 9 14 14 14 31 13 20 27 44 10 17 13 17 27 9 21 29 30 11 27 10 20 21 26 23 10 24 20 9 14 48 17 17 21 16 21 22 13 20 17 20 20 6 27 24 9 24 13 24 24 3 22 20 20 30 21 23 9 13 33 10 23 22 21 31 20 3 15 15 16 24 27 7 27 37 17 20 31 21 35 10 27 27 9 40 27 3 16 13 15 21 24 27 17 27 13 27 27 17 13 26 13 14 17 18 17 10 13 26 24 27 23 10 23 20 17 33 10 16 38 13 14 30 11 27 17 17 13 17 18 13 13 24 10 20 12 21 8 37 10 30 20 14 16 14 18 33 16 22 34 3 17 22 16 26 14 19 27 19 23 21 29 13 31 19 17 17 14 14 10 13 18 20 31 20 24 23 10 14 24 15 3 15 30 16 28 24 28 18 22 17 24 13 20 34 24 15 20 29 13 26 13 15 17 10 17 38 27 17 17 13 10 17 23 17 17 10 13 30 21 27 10 3 17 20 21 9 13 10 20 27 20 19 16 16 7 10 16 27 10 14 34 20 13 14 15 6 34 3 3 16 24 20 9 10 24 24 35 31 27 12 3 24 8 20 16 24 19 21 21 18 10 16 20 7 24 21 16 13 20 23 10 23 35 20 41 10 24 10 13 20 23 20 24 13 24 20 21 27 31 13 31 21 33 45 35 17 16 30 24 9 13 12 23 6 17 21 22 10 6 24 18 23 14 9 9 6 26 30 12 38 28 27 20 16 19 13 10 7 23 16 7 27 26 17 19 20 9 21 23 13 24 23 27 18 14 10 24 3 14 17 45 12 10 10 28 10 20 35 31 9 23 7 27 27 24 14 17 13 14 17 14 30 21 15 13 24 11 27 13 23 27 16 24 27 16 19 17 27 20 27 23 31 24 17 24 21 14 20 34 17 0 19 10 19 28 13 20 21 6 20 0 17 20 26 17 13 10 9 28 35 3 17 17 3 28 9 24 3 23 28 21 23 7 23 9 13 31 30 10 37 6 16 13 21 10 20 10 23 21 13 13 7 13 20 0 14 24 23 17 15 10 7 12 14 9 17 6 12 33 17 27 24 14 14 17 23 51 23 13 13 10 13 25 24 20 7 17 10 30 9 31 16 33 21 7 17 13 20 14 24 27 30 16 30 27 24 27 17 12 6 17 20 27 15 20 14 20 24 34 18 23 23 21 8 17 14 15 28 14 10 13 20 27 14 22 19 23 10 3 41 26 13 31 20 9 10 3 13 22 20 9 17 31 24 23 28 23 14 14 20 27 17 6 20 13 20 24 10 19 3 20 6 14 17 24 31 24 13 20 10 16 12 0 26 17 3 17 23 27 21 14 12 16 23 27 24 21 31 23 21 12 13 21 31 20 24 11 37 15 21 23 10 17 31 26 31 20 24 22 2 20 9 17 24 13 0 17 7 28 28 17 23 21 17 17 13 16 10 20 31 12 27 18 14 20 10 20 13 31 23 10 7 21 21 20 17 20 13 25 11 9 23 13 27 3 13 36 16 17 14 13 0 3 30 14 20 14 27 22 27 3 13 24 28 41 6 13 14 24 23 20 0 10 24 6 21 23 18 23 14 17 13 14 19 17 17 34 17 25 13 13 24 29 3 9 14 28 15 13 20 17 13 38 24 23 10 15 13 27 3 23 16 27 20 21 21 21 24 21 11 17 21 28 17 10 20 31 9 14 19 13 6 20 31 20 7 30 10 16 14 17 24 17 26 21 17 17 20 13 20 24 13 13 31 14 27 20 19 20 17 13 9 19 9 21 10 31 10 20 28 14 24 21 14 19 6 21 7 9 20 23 20 17 21 22 12 7 16 21 23 13 21 10 15 23 16 3 24 3 17 10 13 17 7 26 19 20 9 23 27 33 6 8 24 26 10 14 13 17 23 7 11 9 25 15 13 10 17 19 17 10 7 10 10 8 24 33 16 16 17 25 23 19 24 14 20 24 8 23 17 3 38 48 34 14 27 17 27 3 26 27 26 19 6 26 14 14 17 19 0 38 20 10 18 26 27 27 17 27 27 27 19 10 27 16 31 24 20 16 23 23 33 24 17 22 3 28 14 17 17 21 7 24 28 20 16 31 26 24 32 14 20 31 30 24 17 23 13 36 31 10 10 35 31 3 42 19 22 10 10 14 31 14 19 26 30 24 14 9 20 21 13 17 13 13 23 30 13 9 24 13 17 12 24 14 10 15 20 30 30 20 6 13 12 26 23 16 17 19 27 12 0 20 14 11 23 24 24 13 21 27 31 20 7 23 26 0 14 20 14 14 13 12 27 14 11 13 7 16 10 14 14 7 24 16 20 6 20 7 13 20 13 33 16 19 3 35 9 20 30 0 11 17 38 38 24 24 17 14 20 16 10 23 20 37 16 10 17 18 13 13 21 24 21 17 21 21 44 16 27 26 28 3 22 17 29 28 32 38 14 24 20 21 26 20 18 6 6 18 20 31 20 27 6 27 12 13 34 16 17 20 27 17 28 3 21 20 17 20 9 17 23 23 22 13 14 27 13 17 34 34 13 22 19 24 3 24 14 13 44 13 17 14 16 17 7 12 24 20 10 13 18 17 10 41 35 21 30 20 7 24 14 3 24 14 14 20 20 22 10 0 21 31 9 23 3 15 13 10 10 29 17 10 17 23 10 13 14 31 11 27 14 7 20 9 24 9 11 12 14 28 29 35 17 9 33 28 32 7 28 24 16 17 13 24 16 21 3 26 24 17 26 7 20 17 12 10 8 21 10 16 12 10 28 10 17 20 17 34 26 20 17 17 27 10 17 20 9 10 31 33 27 28 14 13 10 17 17 0 23 27 12 10 30 17 17 16 34 7 24 24 31 20 15 16 24 10 6 34 19 13 31 16 23 14 6 31 13 16 7 14 17 42 13 17 24 10 14 6 25 16 41 3 17 13 23 7 20 30 34 19 7 9 31 13 3 33 13 25 16 14 31 21 23 10 15 17 24 24 17 26 21 3 28 10 17 28 24 14 15 21 10 10 18 13 7 6 5 9 13 24 27 24 24 17 24 21 21 9 17 13 24 17 10 14 24 26 31 10 17 13 20 24 21 30 20 18 20 24 21 10 28 20 16 10 14 3 17 26 6 9 13 23 24 33 13 10 13 35 3 13 20 18 16 16 30 14 23 11 23 10 31 13 20 12 7 16 20 23 24 34 9 0 3 29 24 19 20 16 20 17 7 14 24 14 17 20 20 20 25 16 30 34 24 21 17 19 13 30 27 27 10 13 17 23 26 17 30 13 13 17 20 16 24 17 31 13 17 24 13 13 19 13 34 21 38 17 16 10 27 14 16 21 10 17 7 7 38 31 10 17 31 41 24 15 6 35 22 13 29 12 31 23 16 17 10 21 23 31 10 7 34 12 21 7 10 23 10 23 19 10 27 17 26 10 13 17 24 20 14 19 6 10 17 24 27 27 28 23 11 28 13 28 13 27 17 24 20 31 15 13 20 8 22 27 22 26 34 20 23 9 24 3 10 10 17 17 34 13 10 17 19 13 6 27 19 12 17 10 23 16 17 20 26 9 3 10 21 16 14 7 10 10 13 10 13 10 14 21 13 30 9 24 16 20 21 20 28 17 17 19 31 23 20 24 20 17 20 31 24 21 17 21 28 14 21 13 24 13 7 34 30 12 24 30 13 6 10 23 28 24 13 15 16 6 17 23 3 23 10 27 20 20 20 6 35 18 24 17 26 28 35 21 10 16 19 24 30 20 44 31 19 24 16 17 14 16 10 23 31 16 20 13 21 10 18 10 28 27 14 20 20 10 23 3 0 17 10 21 18 12 23 21 17 25 28 23 7 17 28 20 31 10 7 7 35 23 20 21 34 10 31 34 3 3 10 27 24 10 7 13 20 28 11 20 23 24 10 24 28 14 22 3 30 10 7 30 17 10 34 22 29 30 20 14 23 22 14 24 13 24 20 13 30 19 16 28 17 16 12 17 28 20 10 31 13 31 20 9 0 7 12 10 19 6 15 9 20 21 23 20 24 28 13 15 7 20 6 21 16 17 20 24 24 29 28 17 20 13 18 14 30 17 23 6 17 29 17 14 27 34 3 11 10 10 3 31 28 17 10 10 7 24 10 27 7 27 24 19 21 17 17 24 20 21 18 11 24 14 14 27 17 26 17 24 13 21 20 23 17 20 18 12 17 15 38 6 20 23 30 28 26 35 7 20 7 9 20 38 10 23 18 12 7 26 6 27 23 12 14 17 26 13 23 29 31 24 17 14 10 27 34 17 27 13 17 19 7 26 21 13 33 17 37 19 10 14 7 17 10 17 24 17 14 24 23 24 13 42 6 37 27 26 24 26 31 16 28 17 9 40 12 17 3 19 17 23 37 10 10 19 13 7 12 11 14 17 27 17 20 23 14 13 16 22 20 30 10 17 7 23 21 23 16 28 27 10 34 25 25 27 16 21 20 16 17 20 21 23 3 12 13 34 9 6 31 10 10 34 23 13 34 13 20 13 13 23 17 3 16 16 13 14 17 17 13 3 10 7 17 24 14 13 17 13 20 23 13 27 28 38 17 13 20 31 17 17 23 14 6 14 16 19 7 21 16 34 9 21 21 17 6 6 14 10 45 9 24 17 17 20 16 25 12 16 23 20 10 17 28 17 16 15 20 17 18 20 21 21 20 27 6 20 13 6 20 16 15 27 10 18 31 15 17 21 35 10 3 10 13 14 3 17 13 27 24 20 14 28 15 24 21 21 24 27 24 6 13 30 12 17 22 7 20 27 33 19 17 9 20 26 21 6 17 11 10 26 17 27 17 30 9 19 23 13 20 31 3 21 35 17 13 27 38 10 16 23 30 14 14 13 28 10 7 21 13 17 14 20 13 24 27 9 13 24 6 21 9 20 20 19 17 23 0 10 18 9 38 15 6 20 10 34 21 0 10 14 12 16 13 15 7 30 22 22 17 13 24 19 20 13 10 14 9 19 0 23 20 16 20 10 26 21 6 23 6 20 17 17 31 9 30 10 23 13 23 34 26 13 14 14 34 7 23 19 14 13 31 23 28 24 24 17 27 24 15 16 17 23 28 14 10 20 16 17 7 7 23 24 17 13 30 10 13 23 34 26 3 23 6 27 26 14 20 21 20 30 19 20 14 13 16 20 18 14 17 23 17 17 13 23 34 17 14 17 19 17 23 20 16 34 6 20 16 3 20 6 6 17 20 16 17 30 20 23 13 6 13 7 13 17 21 28 20 28 35 15 19 12 18 13 26 13 26 6 16 19 16 9 14 18 20 17 3 20 19 9 31 17 27 21 34 20 17 10 9 9 24 14 17 31 6 24 13 20 28 23 31 35 17 30 13 17 19 27 19 19 21 31 20 17 16 20 11 10 20 13 27 28 30 13 13 23 26 17 24 24 10 13 20 10 24 30 14 28 3 22 37 17 26 20 24 38 23 19 14 31 16 24 6 13 7 17 7 28 31 17 13 27 30 23 14 27 20 21 17 3 20 13 24 23 37 23 7 34 13 13 20 22 20 17 10 18 41 31 17 14 24 16 19 6 31 30 35 28 19 6 16 17 27 26 24 17 0 20 23 9 28 16 20 14 13 20 7 34 23 17 30 34 31 21 23 10 16 27 6 13 24 13 35 20 21 16 27 21 23 17 16 20 6 24 3 31 15 23 16 6 27 17 31 14 23 23 27 21 30 20 17 31 7 6 12 19 10 16 17 19 20 20 24 27 19 19 21 16 13 13 12 13 22 17 27 35 21 6 16 21 27 24 10 13 26 13 14 17 10 24 19 7 38 14 13 14 13 31 8 10 20 20 9 17 23 17 16 20 24 3 17 21 9 3 16 17 23 6 33 17 42 7 20 21 10 16 7 16 17 20 16 19 10 20 34 24 20 10 17 23 11 18 13 31 14 34 21 7 17 13 21 23 21 28 26 16 27 14 14 24 23 31 26 24 12 28 3 21 20 24 0 22 17 33 34 20 28 7 17 33 27 20 14 29 9 28 19 45 27 24 16 16 19 35 10 34 6 24 15 10 8 21 30 31 17 13 14 26 19 17 24 24 33 19 17 17 7 10 13 17 27 13 17 20 21 13 27 24 26 37 16 22 6 14 24 34 25 24 17 27 20 16 30 30 14 35 17 10 21 9 23 21 20 3 9 23 28 30 21 14 20 23 7 34 37 15 23 21 13 10 16 17 10 34 17 20 34 21 20 6 17 6 28 13 24 34 31 17 17 23 24 10 33 20 17 18 27 13 15 21 20 27 38 19 27 27 10 30 30 15 31 14 28 19 20 7 13 17 20 7 17 3 24 27 20 17 21 17 6 19 3 20 23 17 7 13 34 9 21 7 16 25 19 3 17 19 14 15 3 20 20 10 10 34 7 34 24 45 24 3 33 34 14 6 10 23 6 26 10 21 12 24 18 16 24 12 20 20 10 20 7 24 13 6 24 17 21 17 22 9 14 17 17 17 23 14 28 23 13 19 23 20 14 10 13 24 19 6 31 24 13 27 26 14 7 10 7 31 16 10 10 16 26 16 9 20 7 34 30 6 15 16 21 28 16 9 3 24 27 10 12 13 19 34 3 20 21 7 17 14 24 15 31 10 16 21 20 31 13 13 22 17 21 20 24 34 14 6 24 17 18 34 11 23 15 21 20 20 13 13 24 13 21 24 20 21 17 31 3 10 17 3 10 10 17 23 27 27 13 27 7 16 21 10 3 21 24 16 17 21 20 44 14 7 3 16 27 14 17 24 17 24 30 16 24 33 21 49 28 27 27 38 20 10 14 24 20 20 10 37 20 24 21 38 10 23 14 14 21 7 24 3 3 10 23 17 7 19 34 10 35 23 20 14 17 27 27 17 15 13 20 10 3 20 7 14 16 27 19 3 27 25 13 28 14 10 30 3 6 24 13 28 20 19 30 20 21 26 32 16 14 24 16 14 34 17 13 16 3 26 30 31 19 13 23 6 27 23 6 14 20 20 24 21 34 17 14 24 28 18 20 16 7 14 30 13 10 34 27 27 16 34 30 23 7 14 18 27 17 23 28 10 10 31 27 15 27 7 34 23 24 34 18 34 21 21 13 12 20 10 16 29 30 20 22 16 24 29 20 31 17 13 17 27 28 9 10 27 20 27 24 24 18 16 10 17 23 27 21 23 29 17 21 23 14 24 3 20 16 17 15 22 0 20 14 16 17 31 25 27 14 27 20 13 10 28 23 44 23 20 7 19 12 20 21 13 24 24 12 23 27 21 13 9 9 20 13 3 34 3 35 24 24 17 17 28 3 17 13 27 23 13 16 27 10 10 10 27 21 17 36 27 13 16 12 27 10 20 27 19 17 15 21 16 31 13 23 31 13 45 16 40 17 16 21 20 30 7 21 17 24 14 15 10 21 34 13 28 10 21 26 13 31 20 27 17 10 17 20 7 20 13 7 17 30 3 9 17 14 27 14 28 24 19 14 10 19 27 20 14 23 28 20 6 30 0 14 14 10 17 24 23 11 20 6 41 14 6 3 10 13 17 21 19 30 9 6 7 17 17 20 34 10 0 17 22 17 20 16 17 7 18 16 30 17 21 17 14 28 27 7 24 17 14 6 17 21 22 13 14 9 0 0 34 28 17 10 21 6 26 17 3 21 10 10 27 17 20 14 7 24 10 17 6 13 19 16 24 20 17 13 30 16 9 9 12 16 16 31 16 30 24 27 10 3 16 13 31 15 23 20 17 24 26 18 24 20 28 20 16 40 14 10 17 26 17 17 10 7 17 3 16 19 11 10 24 17 14 20 18 9 24 24 13 20 17 10 42 16 16 24 34 24 28 16 19 14 9 16 46 20 16 9 17 24 17 27 6 8 32 34 22 7 14 25 23 17 35 17 9 38 23 31 17 31 21 10 27 9 3 28 38 3 10 23 3 24 27 16 25 10 17 7 31 27 8 30 17 20 10 37 13 13 29 20 3 18 23 45 31 21 31 12 27 30 17 32 31 6 7 17 26 23 41 29 8 31 34 23 20 24 31 9 32 30 9 17 18 42 17 17 35 30 7 20 10 35 14 10 30 28 17 17 16 6 17 13 21 19 24 27 8 7 17 21 19 20 21 12 16 20 9 24 10 13 0 13 21 30 28 17 20 20 13 30 21 3 10 20 16 13 10 15 10 14 6 24 14 19 9 20 35 17 22 23 27 13 24 19 31 7 14 27 30 15 24 7 17 10 14 10 24 13 24 21 9 20 20 31 16 66 14 20 21 7 24 30 14 31 17 25 26 16 19 10 0 13 28 14 30 31 17 14 10 34 13 21 17 24 23 13 30 7 6 6 25 10 13 22 38 23 16 14 22 16 27 34 20 17 20 21 16 17 16 13 23 41 17 15 17 10 20 13 20 10 27 28 17 31 24 10 13 14 27 20 3 23 17 35 38 13 29 23 21 14 35 10 10 22 6 3 17 16 10 19 14 24 27 23 10 12 17 13 19 31 24 28 17 6 18 45 17 28 3 24 23 13 3 23 15 22 23 17 13 14 16 17 24 14 6 23 16 24 28 10 20 17 12 20 10 20 10 31 27 16 21 38 45 6 24 9 6 24 20 14 21 16 21 23 34 3 3 13 17 17 18 27 10 28 20 24 8 20 30 24 7 17 17 13 13 27 13 23 17 14 26 13 22 21 14 21 30 3 10 10 10 17 14 24 24 28 3 24 31 17 31 13 17 22 10 17 27 9 10 20 20 21 20 14 13 7 30 33 17 24 28 24 30 12 20 16 19 24 7 17 19 17 31 37 16 15 16 20 17 10 14 20 17 27 17 10 21 17 37 20 14 16 10 30 24 7 26 13 7 24 3 14 13 28 19 9 11 38 14 17 24 21 24 10 3 3 6 0 21 10 21 17 16 3 16 24 13 19 13 10 27 27 19 37 14 0 13 20 17 13 22 30 20 0 20 17 15 14 24 0 28 17 27 6 13 24 10 20 17 3 12 23 19 17 10 23 10 20 17 17 31 16 27 24 31 6 7 12 21 31 24 0 6 15 13 20 14 16 21 16 27 7 15 20 24 14 7 27 24 23 30 24 14 9 34 10 28 11 26 14 10 10 34 30 20 7 21 3 21 27 17 14 17 7 17 17 21 22 27 24 17 16 28 17 24 27 13 10 3 27 7 9 14 16 27 13 10 20 28 7 27 20 21 10 10 22 31 14 24 23 20 13 31 14 13 27 17 0 29 23 27 0 16 25 10 7 13 19 16 27 28 34 6 0 24 24 13 24 35 13 27 27 31 19 17 6 27 9 26 10 15 14 3 27 20 16 3 24 20 27 28 19 10 21 10 17 9 10 24 3 10 14 20 23 13 33 24 17 13 27 21 17 14 17 14 16 3 26 33 17 13 24 10 13 27 15 20 14 6 17 14 10 25 13 10 13 3 35 17 9 30 16 15 27 28 14 27 19 30 9 13 20 16 10 25 10 17 14 16 29 20 20 26 24 19 12 26 17 13 16 9 20 20 27 13 14 30 15 18 20 9 17 6 16 27 20 3 10 6 19 21 20 27 29 12 35 24 13 24 29 13 20 24 16 17 12 17 21 3 26 6 17 14 16 14 42 14 20 17 26 13 34 7 23 17 20 17 13 23 13 10 18 20 24 20 8 24 7 9 28 10 26 13 19 22 27 23 29 25 17 17 6 20 17 16 24 17 10 23 20 3 17 30 17 27 12 3 7 19 17 34 31 19 24 20 20 16 23 34 14 21 16 21 19 9 24 13 7 3 12 20 20 20 37 6 34 0 20 20 3 34 17 17 21 14 21 24 14 24 10 20 22 20 10 31 14 13 23 24 18 27 16 27 6 10 14 17 25 20 27 28 21 23 20 24 7 27 17 33 17 10 10 27 20 41 24 19 10 34 19 10 23 17 10 31 9 24 24 6 36 27 17 10 31 31 9 16 12 20 13 17 23 18 24 27 21 31 23 17 0 13 10 19 7 21 24 17 10 17 34 10 28 20 15 27 20 19 0 10 20 14 20 20 30 28 6 15 19 6 24 13 13 13 19 13 24 20 13 20 12 19 28 20 20 21 19 20 38 17 26 15 23 10 20 7 6 7 10 16 17 13 24 14 34 16 17 7 17 9 23 21 23 17 33 20 17 13 27 16 17 24 14 17 17 19 14 9 21 24 18 6 20 7 10 30 23 13 20 26 15 20 19 13 28 13 48 24 21 28 31 16 17 38 28 17 16 14 13 24 0 18 23 28 14 28 7 3 17 13 23 16 21 34 10 14 28 13 24 31 35 10 13 12 20 20 14 12 30 17 17 17 24 16 10 24 13 14 10 23 19 21 17 10 22 17 10 3 31 20 3 16 35 7 17 27 9 26 16 13 27 23 7 10 14 17 24 20 6 28 13 23 23 31 34 9 37 21 19 7 20 6 21 27 14 0 17 31 3 17 15 9 10 3 25 22 15 17 10 13 23 17 17 6 14 27 19 7 18 21 20 35 17 13 23 23 16 21 12 10 24 20 14 17 20 24 37 13 27 38 19 31 10 23 30 13 22 14 16 15 17 27 10 13 28 24 28 24 10 17 7 6 20 7 21 14 30 20 13 28 19 24 23 31 27 17 23 28 7 17 15 20 16 16 21 3 20 31 22 13 20 23 15 20 13 10 20 10 3 27 27 9 19 14 19 7 17 19 16 24 13 17 20 13 24 17 6 20 24 17 7 17 10 15 31 10 27 12 10 17 13 6 20 20 20 24 20 13 14 15 24 13 10 21 15 3 7 34 16 19 20 0 3 24 17 6 7 31 23 24 17 27 25 16 20 17 27 7 24 9 23 3 16 13 36 27 21 36 26 24 27 13 22 10 19 20 6 21 14 7 20 13 17 10 24 14 17 10 23 23 24 24 16 38 22 20 10 28 28 9 24 3 10 31 27 31 31 17 35 27 21 24 35 13 17 38 20 14 16 12 19 27 17 14 25 20 14 31 34 30 11 30 20 24 28 27 16 20 19 25 10 27 24 20 31 38 17 7 30 21 26 10 13 17 9 17 41 19 24 23 13 21 33 19 20 6 19 19 25 23 10 0 20 31 13 10 24 23 3 19 14 17 17 27 8 17 16 21 28 20 27 0 38 22 16 16 28 34 17 21 14 13 20 7 23 6 7 10 18 24 15 37 26 23 14 27 3 20 13 10 6 17 20 20 6 7 28 20 15 17 21 9 17 21 24 15 3 25 17 3 28 7 14 24 21 16 19 17 17 21 19 27 10 17 17 34 17 16 31 13 17 10 21 20 20 22 41 21 16 23 17 3 17 21 19 22 17 21 10 16 17 16 36 28 21 6 12 7 17 20 22 17 38 10 22 20 17 34 27 17 27 13 23 19 17 21 23 21 20 23 24 23 40 17 27 6 30 17 14 10 20 13 29 30 14 22 31 6 0 11 23 20 28 19 38 13 16 7 14 14 27 13 14 10 23 28 15 28 7 31 11 21 9 27 12 33 13 6 0 13 20 3 7 24 21 22 23 20 15 30 10 25 34 13 0 16 10 6 31 27 17 14 13 33 17 16 13 15 20 20 17 10 10 10 37 21 23 21 22 27 20 32 10 33 38 9 16 0 26 27 35 21 16 20 14 13 13 25 38 17 35 22 33 24 22 26 13 29 10 31 31 17 10 16 17 16 16 23 24 20 21 26 14 17 14 3 13 14 28 27 28 37 27 33 30 16 28 27 21 27 23 0 24 10 21 10 3 24 13 13 14 6 10 20 17 14 14 16 16 17 17 20 17 30 7 23 21 13 38 28 20 47 30 3 20 20 14 17 7 17 13 23 21 7 13 31 21 24 13 23 24 35 19 13 20 13 27 0 7 21 11 13 30 38 21 23 0 20 13 16 9 24 17 20 16 17 17 20 16 20 16 20 20 21 6 9 18 28 24 31 34 12 18 12 23 12 16 28 10 22 21 24 14 10 3 21 30 14 7 29 28 27 17 21 31 9 13 31 28 10 30 14 16 20 24 17 38 6 24 24 24 27 14 14 17 13 25 20 11 14 16 21 25 9 20 10 17 23 24 14 22 13 7 17 18 13 22 21 10 14 12 27 28 10 9 17 27 25 10 14 11 20 12 17 28 13 21 18 15 44 3 13 20 24 20 30 31 20 21 21 33 31 26 10 21 23 7 14 26 13 7 9 10 17 13 20 16 23 34 30 20 31 16 14 24 20 9 16 17 17 17 16 22 37 24 24 22 17 35 27 0 28 30 24 12 13 17 26 24 24 24 37 14 31 7 20 35 7 24 17 20 21 10 0 6 17 14 13 19 13 17 0 17 26 16 30 23 17 13 21 6 20 13 13 24 27 7 10 17 29 23 27 24 35 9 16 17 10 20 13 17 13 28 20 10 28 26 10 10 21 6 16 13 13 27 30 7 6 7 10 41 18 23 19 13 24 10 13 18 17 24 7 7 26 24 17 3 24 23 19 7 17 13 21 20 14 11 14 7 17 24 13 21 7 24 6 10 23 30 17 24 34 16 26 13 13 10 13 17 17 3 20 13 28 24 23 20 24 17 20 14 28 16 7 21 12 17 7 14 17 6 20 21 0 31 24 24 13 28 31 13 25 14 20 30 12 21 3 13 20 14 17 14 31 22 31 20 10 24 27 21 6 20 14 31 24 31 17 10 34 25 13 36 18 24 24 51 3 10 24 15 28 13 20 9 21 31 12 20 10 17 10 21 24 7 9 27 28 13 28 15 17 27 19 10 24 33 20 14 31 27 16 20 27 27 27 3 24 23 20 10 22 7 22 15 17 27 7 3 19 13 10 31 3 13 21 13 17 20 17 24 12 36 15 18 17 13 23 33 10 6 28 13 16 27 24 31 22 10 24 16 17 7 10 24 30 24 12 20 30 17 20 7 19 16 16 20 16 24 28 26 21 13 24 17 13 10 13 31 14 17 31 6 17 24 0 17 6 10 21 14 35 21 20 14 20 26 24 17 16 21 21 27 17 24 17 9 25 17 27 23 34 3 26 34 20 16 20 10 16 10 13 28 6 24 23 34 10 21 30 7 28 13 27 16 27 27 17 3 17 6 17 9 0 6 21 20 3 24 22 15 14 20 19 20 21 16 14 24 20 19 27 3 16 24 10 16 30 13 34 8 17 13 13 10 16 28 15 12 17 10 24 16 23 13 19 10 33 28 17 30 31 21 7 14 20 28 7 21 20 21 16 7 6 27 10 20 10 14 20 6 19 23 13 13 33 13 17 24 3 35 13 9 6 12 16 20 17 12 45 17 41 0 20 14 38 9 20 13 17 17 17 16 24 20 29 14 17 14 18 7 17 10 20 21 20 23 38 19 17 15 13 22 28 29 17 31 20 20 17 21 9 23 15 35 14 7 22 23 17 14 13 20 16 27 30 27 17 45 16 27 20 6 20 19 34 28 16 28 40 45 30 27 27 27 43 24 9 34 24 18 19 41 27 15 21 14 14 21 17 24 20 7 20 26 28 21 20 20 9 10 24 14 27 24 5 20 34 31 3 16 10 14 27 19 13 14 27 33 21 20 14 21 24 19 0 20 26 10 9 6 10 17 34 13 9 17 13 17 17 14 14 23 10 26 7 16 29 21 6 20 20 7 23 16 13 32 20 19 20 41 7 24 27 13 10 9 13 17 3 27 34 13 9 23 11 10 28 30 31 15 26 17 17 17 24 24 7 9 21 23 24 9 24 17 22 31 14 20 20 17 27 21 16 36 34 30 24 23 7 13 22 17 14 27 27 20 16 17 13 7 23 21 23 16 23 14 36 14 6 7 20 17 27 20 17 13 10 20 34 10 27 17 6 21 10 17 27 21 23 20 17 17 13 34 34 21 30 10 28 31 17 13 21 38 38 20 10 21 0 20 20 7 6 17 24 10 19 34 10 35 18 10 13 17 14 14 17 20 23 23 41 16 22 21 20 27 13 27 16 20 21 14 7 28 13 17 16 27 16 17 10 10 17 21 17 22 27 25 16 13 30 14 20 24 17 27 20 19 13 17 7 10 14 21 0 24 16 17 3 24 20 27 10 17 27 13 31 14 28 7 22 14 24 20 17 37 17 27 10 6 3 31 13 10 24 30 7 20 21 27 29 23 27 23 35 9 27 24 9 25 19 7 17 24 21 24 16 14 17 17 35 27 33 23 22 13 16 9 20 6 19 3 7 7 12 17 32 34 20 14 7 7 13 25 10 12 28 27 44 21 8 16 16 20 13 23 24 19 24 24 21 20 13 13 10 10 21 13 23 13 38 6 7 10 37 21 10 13 20 31 18 19 14 24 18 14 9 17 24 15 13 16 20 21 24 6 7 7 14 19 6 17 10 21 23 30 17 14 17 13 17 20 20 23 19 24 24 20 24 3 7 20 24 16 21 14 14 13 9 6 37 10 7 20 23 10 28 27 14 7 13 17 30 16 24 17 31 34 3 17 27 26 10 23 28 7 20 20 24 7 10 16 21 30 21 7 27 31 10 19 6 3 23 6 13 35 24 21 16 10 13 27 27 24 3 17 20 33 3 17 13</t>
+  </si>
+  <si>
+    <t>GAM(226.83632569592913, -42.8686303851665, 0.28946655294637497)</t>
+  </si>
+  <si>
+    <t>26 24 30 21 22 20 31 27 19 19 24 16 24 17 28 20 16 25 24 22 27 19 14 23 20 18 9 22 18 20 27 28 25 18 35 22 15 21 24 25 19 19 28 29 16 25 29 28 21 17 25 25 21 25 32 27 18 18 26 19 18 26 21 18 28 24 16 28 19 24 25 27 19 22 23 26 30 26 18 24 21 22 23 17 25 27 26 25 16 21 22 19 23 27 23 17 21 18 19 27 24 29 23 30 24 25 21 14 20 24 24 26 19 24 30 18 27 19 21 29 13 27 14 26 16 23 22 19 21 27 24 18 24 24 28 26 23 18 26 20 21 27 26 24 27 22 28 25 24 27 21 26 20 16 13 25 16 21 27 23 17 26 31 17 19 23 18 22 19 26 21 17 31 16 21 20 15 21 23 17 28 20 25 17 26 28 26 27 24 25 27 24 21 24 19 22 22 24 22 23 23 22 14 25 23 32 30 25 19 21 21 14 24 29 15 23 30 14 18 23 20 24 20 20 19 29 21 30 23 16 29 20 23 22 26 18 26 29 20 19 19 22 19 25 26 23 24 26 25 24 25 14 23 23 22 21 16 21 27 19 25 20 27 25 23 21 16 31 18 22 26 22 22 14 19 15 28 21 17 19 26 16 28 21 24 20 21 30 21 25 24 22 23 23 24 28 25 25 24 19 24 23 25 20 30 21 21 28 20 27 30 26 18 28 20 26 18 19 20 17 16 23 32 26 21 18 20 21 25 17 25 28 21 26 23 23 20 24 26 25 26 19 23 25 14 30 24 24 23 26 29 24 25 27 14 30 19 32 26 26 17 15 12 21 23 20 28 24 27 18 16 23 23 23 17 24 25 24 16 24 26 26 25 21 26 24 25 17 27 23 23 21 31 23 28 24 26 20 23 24 18 24 24 19 21 22 25 40 28 16 21 17 25 26 20 23 23 14 29 16 25 21 14 14 27 28 19 30 20 25 26 16 23 26 23 19 20 24 25 23 20 26 23 22 19 18 22 19 20 21 25 19 30 29 18 22 22 28 28 20 23 22 18 26 21 21 22 23 14 22 26 22 28 21 12 22 16 22 25 22 18 16 17 24 19 13 19 21 27 22 30 21 20 28 18 19 19 27 23 29 22 22 24 34 29 29 19 21 23 22 25 21 25 18 16 33 28 22 15 25 20 29 23 19 17 16 19 24 25 16 26 31 31 25 25 33 27 23 21 24 28 25 21 24 17 20 17 21 22 17 19 24 22 22 25 21 17 25 23 27 29 21 30 25 25 25 23 18 23 25 23 30 26 23 22 25 16 23 15 25 29 20 20 23 14 25 24 32 20 27 27 16 24 28 22 21 27 28 21 24 21 22 16 20 19 22 28 26 25 24 20 26 22 26 19 24 20 27 24 27 26 22 22 26 18 22 21 21 25 25 22 19 22 22 19 21 31 27 25 23 18 18 23 24 17 24 17 26 26 19 24 29 26 29 27 21 28 20 23 24 21 22 23 17 26 28 20 24 25 25 28 23 33 22 29 20 24 26 30 24 26 24 14 27 18 26 31 26 21 30 22 27 26 22 27 27 21 21 20 15 21 37 26 24 20 19 17 15 31 21 22 21 15 20 26 27 24 22 26 25 22 28 18 22 25 24 26 34 24 22 20 23 29 23 25 27 21 26 20 23 31 28 15 24 24 14 21 19 26 29 22 24 25 23 24 27 20 21 22 22 29 22 21 20 21 18 17 29 21 27 18 30 24 29 23 21 33 21 24 22 11 26 28 26 19 28 21 21 25 24 22 20 19 32 27 19 25 21 22 23 20 20 22 20 23 30 22 22 24 24 19 18 19 20 18 21 24 30 28 18 26 23 22 18 21 23 27 23 21 13 29 18 29 19 19 31 24 20 20 21 24 18 26 18 13 18 17 18 26 13 27 28 15 21 17 19 21 19 21 19 30 23 27 27 17 26 31 11 20 25 22 24 22 14 25 19 18 22 16 30 26 24 19 23 24 20 31 19 23 23 17 19 36 20 17 25 23 26 33 22 18 24 22 21 26 17 13 20 19 27 20 21 25 21 24 25 21 20 24 21 20 10 27 18 25 22 24 22 19 22 22 20 18 19 20 22 21 14 23 24 28 26 20 14 23 21 19 23 25 24 24 22 21 27 22 25 26 20 19 19 27 29 23 22 20 21 21 25 24 20 20 25 19 22 31 29 21 18 19 22 23 22 19 25 17 24 18 24 21 26 18 22 16 19 19 23 23 22 19 25 25 20 23 30 20 20 24 20 22 18 17 22 37 24 21 23 25 34 18 21 24 19 22 20 33 18 21 25 21 18 25 25 26 25 20 20 20 28 18 28 21 26 19 29 20 19 22 23 23 23 25 27 17 18 26 22 11 21 26 28 30 17 27 25 27 18 29 26 22 19 24 25 16 31 25 20 21 21 23 22 25 27 18 25 9 19 18 17 30 27 22 22 24 13 27 18 21 29 22 22 16 29 26 24 22 22 30 17 24 15 19 21 24 24 26 20 19 20 20 21 19 24 23 26 32 13 24 26 22 25 23 26 30 26 14 24 16 17 24 12 24 19 20 19 24 26 29 30 25 19 17 18 18 25 26 24 21 25 21 21 22 20 24 23 25 21 26 22 20 22 24 26 18 18 24 22 22 26 23 21 26 18 24 19 23 24 15 24 22 19 19 21 28 24 20 15 23 23 20 26 23 15 23 22 25 22 24 28 21 25 25 15 25 17 26 22 26 25 22 29 26 21 21 21 19 31 24 25 19 22 23 20 26 16 17 18 24 32 18 21 29 20 22 27 24 20 26 20 22 31 27 17 14 16 26 25 26 26 25 23 30 16 32 26 24 16 34 17 28 11 27 24 32 24 29 14 20 20 23 19 24 22 20 28 24 24 20 24 29 20 32 21 17 21 26 17 17 22 16 29 18 30 28 22 19 17 24 17 25 25 27 19 20 19 22 19 19 22 21 24 27 20 18 29 21 18 27 24 23 30 22 21 34 25 21 29 20 28 17 18 19 25 25 16 19 23 28 22 23 24 19 32 21 21 14 15 29 23 32 26 21 18 28 21 21 21 24 13 19 28 20 23 23 20 15 20 30 25 19 15 24 17 24 19 22 19 28 20 25 18 24 25 21 32 28 23 20 28 24 27 24 12 25 27 21 26 18 17 25 26 22 29 21 23 35 20 22 19 22 13 24 28 12 17 20 24 17 25 22 16 13 27 19 24 22 28 24 25 22 26 23 22 26 17 17 28 21 27 24 24 26 18 24 21 20 18 24 17 26 20 14 27 26 26 34 22 22 22 20 21 22 22 30 24 19 19 21 23 28 22 26 30 17 28 25 25 25 29 23 25 17 26 22 20 25 23 27 20 21 11 14 29 20 17 30 19 22 25 18 18 22 24 17 23 26 18 23 23 29 26 23 29 17 20 17 19 26 18 17 25 25 26 27 23 28 15 23 21 26 37 20 17 24 30 27 18 20 23 24 22 22 26 19 26 22 20 23 25 26 21 27 30 18 35 21 24 29 23 23 22 30 22 22 17 28 16 27 23 21 21 28 33 16 26 23 20 19 17 25 31 24 22 16 26 19 22 22 24 23 12 20 24 22 17 21 28 21 19 19 20 26 23 25 21 19 23 17 23 24 33 22 15 20 22 21 19 19 23 19 26 24 19 18 19 16 24 20 24 19 25 22 28 28 25 26 10 19 23 16 28 16 20 23 21 23 16 16 21 19 24 26 23 23 27 23 23 27 14 15 31 16 22 14 17 24 27 24 24 20 22 26 20 17 18 29 31 24 23 24 25 28 21 18 18 27 22 24 21 25 24 27 18 25 24 17 21 24 26 23 33 20 24 26 24 28 23 26 22 27 21 26 23 32 27 22 29 21 34 17 18 20 22 28 23 22 23 25 25 26 16 25 20 25 28 17 23 26 20 29 23 27 17 32 25 17 19 25 24 19 27 22 26 31 30 17 21 27 21 23 20 25 23 25 19 27 30 23 25 24 28 26 17 18 23 29 22 20 37 14 24 27 24 18 22 26 27 28 24 24 31 22 27 17 23 24 23 23 28 20 17 25 14 26 21 28 20 14 18 10 21 29 31 24 21 24 25 24 21 28 23 31 15 19 27 19 24 22 26 13 19 22 27 25 18 25 24 33 28 30 23 18 28 19 28 34 27 30 24 25 23 21 20 20 17 21 21 20 24 22 23 20 20 26 23 23 21 27 19 24 24 23 25 19 30 24 26 17 24 20 24 29 21 20 18 19 19 27 30 23 21 19 27 20 30 14 24 33 21 22 23 23 24 20 20 18 16 20 24 20 17 21 39 20 26 20 21 23 24 16 25 23 18 25 18 23 29 20 25 22 22 26 20 23 26 22 23 16 15 22 33 24 20 23 24 25 27 24 24 25 29 21 30 11 18 18 31 23 18 23 24 19 17 27 25 16 26 25 25 26 20 25 21 22 22 24 19 27 28 27 28 27 24 16 20 24 26 31 19 25 17 26 22 25 28 22 21 19 31 19 25 27 23 24 20 23 25 15 25 22 23 25 24 28 22 27 24 12 26 24 21 26 27 34 25 28 22 29 24 24 20 24 27 23 21 30 19 23 16 18 30 22 26 30 21 29 16 16 21 23 25 12 23 29 28 19 21 31 22 23 19 19 32 20 28 24 17 17 26 15 20 22 19 22 15 24 25 16 17 27 16 19 26 22 23 24 26 18 23 25 25 26 22 23 30 25 28 23 24 16 27 19 25 15 20 25 23 28 15 21 20 26 23 27 28 24 26 29 27 22 27 29 18 26 25 26 23 18 19 28 15 27 30 24 21 14 20 19 17 16 25 27 25 16 18 15 24 26 19 16 17 14 27 23 22 23 23 14 27 22 15 22 20 19 24 25 21 19 20 21 22 28 21 25 22 23 27 28 23 25 21 19 18 18 28 25 28 17 18 24 21 27 22 14 23 26 20 32 32 26 30 25 17 9 26 18 31 29 21 23 23 22 25 19 24 27 22 26 20 25 23 28 17 21 18 25 24 28 19 27 31 17 20 18 17 24 21 26 22 28 28 25 16 32 33 19 14 24 26 23 25 18 24 22 20 19 27 20 26 21 19 20 18 20 27 20 20 26 19 27 24 25 20 28 20 19 22 21 21 25 28 17 31 19 29 26 26 20 22 26 30 25 27 22 26 21 25 21 23 25 24 27 24 21 18 24 18 24 20 24 25 25 17 25 17 18 23 20 23 20 23 26 24 19 19 24 28 25 31 22 21 20 19 23 28 22 22 28 28 27 27 26 25 12 24 30 22 15 31 22 25 25 20 23 25 20 23 20 20 21 23 33 20 20 21 23 27 21 25 20 19 14 25 25 30 19 23 21 26 26 24 28 19 32 27 25 23 10 29 25 20 23 25 28 26 24 25 19 18 23 21 25 23 27 30 32 17 21 26 28 22 17 22 21 24 27 23 33 17 16 31 22 22 20 21 24 29 28 21 18 26 25 17 21 24 24 33 19 22 22 15 21 21 26 26 24 28 21 19 25 25 27 26 22 26 23 21 24 29 17 14 19 22 23 24 28 25 23 18 22 25 24 22 27 17 24 24 19 16 24 26 18 26 26 21 29 20 25 21 17 26 17 21 20 35 25 18 26 26 21 20 17 29 23 15 19 14 21 19 27 25 31 21 22 33 22 23 17 20 28 22 13 25 29 16 24 20 29 20 17 20 29 21 27 24 23 29 18 18 18 19 19 30 20 19 21 33 20 24 16 29 16 18 22 25 23 26 25 21 19 28 22 25 22 23 20 18 19 14 22 23 23 15 29 25 25 19 25 19 13 16 23 24 25 23 25 21 12 15 22 15 16 29 19 29 28 20 23 21 24 33 24 28 26 24 22 19 20 24 19 28 18 24 24 28 19 13 23 22 19 23 20 23 19 18 23 26 16 20 22 25 16 24 25 25 20 17 17 23 27 21 35 21 15 21 27 21 31 21 28 22 26 25 25 21 23 27 19 19 26 23 20 23 23 23 20 23 20 23 29 23 30 23 24 19 17 21 31 24 22 19 16 25 23 25 25 16 27 11 23 24 24 17 19 21 16 23 14 22 14 20 27 25 27 17 25 24 16 26 28 21 25 25 20 23 22 17 21 27 21 24 21 20 33 16 19 27 21 18 18 26 21 13 22 33 18 25 19 23 21 29 16 20 20 29 19 27 29 28 19 25 18 26 10 19 20 25 28 33 25 18 30 29 20 28 22 19 23 23 19 24 28 22 23 22 26 18 27 30 21 22 26 15 25 20 28 25 18 16 25 30 24 21 23 25 19 22 26 29 32 17 17 22 24 26 22 20 20 25 26 13 24 23 19 26 28 28 28 25 15 23 26 30 17 14 23 20 22 15 18 25 30 26 22 31 23 22 17 28 23 23 18 24 25 19 23 19 25 18 26 23 21 25 22 16 27 15 17 16 24 30 34 16 24 27 23 20 22 27 28 29 32 24 27 20 22 25 20 29 25 23 18 21 30 29 17 27 28 31 24 27 32 15 21 18 22 26 22 24 19 21 12 33 19 15 25 24 21 23 29 24 28 29 30 31 15 26 27 22 24 28 15 27 25 17 20 25 25 27 21 26 23 26 25 21 21 17 22 27 20 17 18 14 13 22 16 19 22 19 21 24 20 27 26 24 23 26 22 20 23 19 23 16 25 27 21 29 21 22 20 23 24 17 22 28 34 25 30 12 18 19 26 28 21 19 20 23 21 16 19 15 18 29 24 23 21 24 23 25 31 14 18 25 24 16 30 21 24 28 27 24 26 19 26 24 23 15 21 20 23 31 18 22 25 26 24 22 18 25 25 21 23 17 16 25 21 20 18 24 18 18 28 18 17 17 22 19 16 16 22 19 20 15 15 24 20 22 23 31 17 28 28 20 26 29 18 26 22 15 24 31 24 25 19 23 20 21 22 21 19 22 23 22 20 16 26 27 21 22 20 19 34 32 25 26 23 21 24 26 21 25 24 30 20 27 24 31 20 17 29 23 25 29 22 20 35 25 22 24 18 20 20 21 22 22 29 26 26 34 15 32 25 27 21 29 26 22 16 20 27 22 34 22 23 29 33 22 28 24 19 24 24 22 23 27 22 20 27 26 20 21 23 19 24 23 17 23 26 25 25 20 24 24 23 14 24 24 17 17 12 19 18 22 24 32 20 24 25 28 18 21 20 23 25 26 26 22 28 20 23 11 17 24 29 29 28 22 23 25 27 25 22 25 21 23 19 20 21 24 24 17 21 30 21 20 20 30 29 17 23 29 16 24 15 22 14 23 24 23 25 19 22 30 31 24 27 17 21 21 23 25 29 29 17 20 23 28 18 24 17 19 28 13 31 17 19 23 24 23 24 24 21 25 29 29 21 32 23 33 23 27 19 22 24 23 22 23 31 19 25 16 28 23 23 18 24 15 19 20 25 25 25 28 26 21 25 33 24 29 11 30 27 21 14 26 20 23 19 25 30 26 16 24 20 23 27 23 21 20 14 27 20 26 17 25 17 29 24 19 28 23 26 30 21 22 30 17 19 23 18 23 22 26 20 23 26 28 20 24 22 28 31 18 17 22 35 22 23 22 22 31 25 20 27 22 22 27 24 21 21 24 27 16 21 21 26 26 18 21 20 29 23 23 28 24 23 19 24 29 20 22 19 17 22 19 17 25 16 22 22 16 13 19 18 20 24 16 21 22 19 24 22 25 34 19 31 19 25 24 20 33 27 19 22 22 20 28 23 25 21 19 25 17 23 29 22 29 21 27 17 20 24 20 22 24 24 25 30 18 22 25 16 17 31 13 22 30 22 19 14 23 20 20 27 17 29 22 31 17 17 19 18 27 30 22 22 28 20 22 24 32 17 26 31 20 17 20 23 25 21 18 20 30 24 24 26 18 25 24 18 19 20 26 23 27 20 16 15 23 26 21 33 22 24 27 30 26 23 16 17 19 20 20 31 22 26 17 27 28 21 16 22 25 27 20 28 32 17 32 21 26 27 16 24 19 20 24 30 21 25 28 20 16 24 22 20 20 27 22 20 24 28 24 24 23 23 29 24 27 22 27 24 30 21 23 14 32 20 27 32 24 22 27 25 30 18 25 28 24 22 27 38 12 22 26 31 23 17 24 24 14 25 22 20 17 15 15 26 23 21 20 25 26 23 17 20 21 23 31 18 18 19 30 20 27 26 23 23 24 21 16 20 19 22 18 18 24 18 23 23 32 28 23 19 23 25 19 22 25 28 23 19 19 21 25 31 21 29 26 20 17 19 25 20 23 25 27 26 20 23 18 28 21 21 27 17 21 23 25 19 28 34 20 21 26 25 18 22 24 25 25 26 31 27 22 23 24 22 31 19 23 31 34 19 22 15 23 25 20 27 26 21 19 20 29 23 18 30 22 18 19 26 26 26 25 19 17 17 26 25 17 22 29 24 18 26 23 20 23 11 20 19 25 31 16 20 26 23 24 23 19 18 19 21 28 23 23 24 28 20 26 20 25 29 31 24 32 14 21 23 18 31 19 20 33 25 28 25 13 23 24 30 26 21 29 29 25 19 24 19 28 23 26 27 14 24 27 15 17 23 23 23 18 18 27 29 25 20 21 24 20 22 30 18 21 25 32 24 28 26 23 32 33 25 27 22 19 20 27 23 25 34 28 24 24 26 19 21 19 23 24 30 20 21 22 30 23 26 31 26 23 23 23 21 16 20 15 27 24 21 20 27 21 18 20 23 18 24 23 24 21 28 17 13 18 19 22 23 32 20 26 20 28 21 22 21 18 17 31 22 27 27 26 30 20 22 21 20 10 27 20 22 23 23 22 24 15 22 20 26 18 24 26 30 17 20 24 30 23 26 24 26 23 22 22 30 24 21 22 18 20 18 28 23 24 26 16 30 21 27 21 20 27 29 22 27 21 31 24 17 24 19 27 32 25 22 26 25 24 22 23 24 18 24 21 27 22 30 19 19 21 21 20 24 24 21 26 16 19 25 22 21 18 25 24 30 29 22 21 22 25 21 17 21 19 14 23 26 29 23 23 18 29 20 28 24 26 20 22 19 19 22 15 20 28 20 27 20 26 16 18 31 29 19 25 21 21 19 31 27 35 20 26 24 21 30 25 18 25 27 25 27 28 23 26 33 26 23 23 17 27 22 26 22 20 26 21 27 16 20 25 29 29 31 26 18 20 29 24 29 25 23 17 15 14 20 27 21 26 24 29 18 20 21 22 25 22 28 21 24 18 20 19 21 27 13 28 21 19 19 28 29 18 20 20 26 31 25 17 18 21 26 22 21 14 25 17 19 20 34 23 32 31 22 23 22 24 21 21 21 22 27 24 31 16 22 25 21 23 18 25 26 30 20 25 23 27 21 24 16 17 25 28 15 29 23 28 19 21 27 26 27 21 23 20 13 22 35 27 24 24 20 24 23 23 28 27 20 20 17 24 21 22 16 26 27 27 22 16 23 25 21 20 22 30 22 21 24 28 20 22 26 17 23 22 23 25 27 28 23 21 17 21 27 25 25 27 17 28 14 18 18 15 28 32 20 25 21 26 24 20 21 25 24 27 25 19 22 25 20 24 22 21 19 22 22 30 17 23 26 18 20 24 27 29 23 30 24 24 26 24 25 21 22 20 20 15 27 19 24 23 20 18 21 28 20 23 22 25 16 27 34 21 18 20 17 25 25 22 32 19 27 20 20 16 24 22 26 20 15 16 27 21 30 28 27 26 18 17 23 19 24 16 17 31 22 20 30 31 26 26 25 19 24 21 22 28 17 26 21 21 18 23 22 20 21 25 19 30 30 20 30 20 25 14 28 15 26 26 20 37 22 29 26 21 18 20 28 19 24 23 18 31 23 23 17 27 22 22 21 16 26 20 20 19 22 14 22 21 17 26 22 25 25 23 25 24 26 17 20 24 24 21 19 24 28 25 17 33 28 35 24 26 23 18 23 21 22 21 21 33 18 20 15 21 24 21 24 25 22 25 22 21 28 24 21 32 19 25 23 18 30 24 21 21 23 17 17 20 19 26 26 33 25 23 19 18 25 23 22 20 23 21 23 27 21 27 28 23 24 28 25 21 21 23 25 38 25 20 19 24 30 16 26 24 25 28 22 17 25 19 22 18 15 26 17 26 22 23 11 17 23 21 20 24 30 23 28 18 15 14 26 13 17 28 24 34 20 19 28 24 27 18 19 20 25 24 21 22 17 19 19 28 36 16 18 26 24 21 25 18 21 26 22 25 24 26 29 25 20 22 16 19 26 27 18 20 25 23 22 26 21 24 20 15 16 21 20 26 23 29 32 15 19 24 24 24 17 22 25 18 27 36 23 22 24 16 15 19 21 22 22 20 23 17 20 21 21 26 21 23 20 30 24 26 25 22 29 26 24 25 30 21 29 24 31 29 25 25 24 22 19 24 26 26 23 22 17 28 22 23 16 17 23 14 26 30 24 19 24 20 22 17 22 21 16 20 17 17 20 14 22 25 24 29 15 19 26 23 26 21 22 16 22 26 20 20 23 24 25 24 24 21 27 21 25 21 27 24 25 26 16 29 29 23 16 21 20 26 18 18 21 22 18 24 17 21 18 20 20 22 16 26 28 19 22 30 16 21 21 23 18 19 21 20 27 18 22 19 22 21 20 25 17 24 17 19 17 19 27 26 21 26 22 20 23 14 25 26 26 15 21 19 25 25 19 24 26 26 19 22 13 22 22 25 22 21 23 21 20 35 30 20 25 15 20 22 19 22 18 18 31 17 29 26 25 25 28 21 26 19 20 21 18 22 16 20 24 21 20 18 32 23 21 21 28 21 21 14 22 26 19 24 25 24 17 23 25 23 24 23 24 29 16 26 24 26 19 18 20 29 20 23 16 21 26 21 28 23 30 23 22 22 20 19 28 28 35 15 20 20 22 23 14 23 22 35 16 28 21 16 23 15 26 17 23 22 24 29 28 19 26 23 22 22 24 17 23 22 20 23 21 21 19 19 23 21 16 22 26 24 25 17 26 23 29 26 30 19 25 22 25 27 23 22 24 17 14 28 25 21 28 18 23 26 21 23 25 34 26 29 17 11 25 22 22 21 17 20 21 15 23 24 24 17 21 30 24 27 28 29 19 28 24 24 28 24 29 17 21 22 26 22 27 23 21 20 20 27 23 17 17 26 26 24 26 24 16 21 21 20 25 25 21 15 21 28 26 24 25 23 20 17 27 25 28 25 23 25 29 25 20 32 19 22 20 31 24 25 22 20 16 22 29 22 27 17 22 28 29 19 34 22 24 18 28 28 20 20 25 18 17 23 17 23 22 22 20 24 22 26 19 20 20 30 24 19 25 23 23 22 19 21 20 23 23 22 23 21 33 17 20 14 22 14 31 26 24 20 24 26 21 28 23 21 26 20 24 18 19 23 18 25 24 24 23 17 21 26 23 19 13 22 21 24 22 22 26 31 14 19 28 29 20 26 20 22 30 18 22 19 20 15 21 21 28 17 25 27 31 24 20 26 23 19 16 17 23 31 28 27 18 21 19 15 22 21 21 18 27 17 19 21 23 16 24 27 28 24 21 18 25 25 20 29 21 26 20 24 26 27 23 22 25 14 30 19 21 14 29 18 17 17 27 24 16 22 22 28 24 17 17 25 25 16 19 26 30 24 21 26 26 18 24 25 20 24 21 24 25 22 19 20 21 21 27 19 22 21 27 16 23 23 19 26 28 29 22 19 24 21 16 29 14 17 30 25 36 18 32 17 23 19 19 25 20 26 20 23 12 19 26 17 24 20 13 21 18 23 31 22 25 22 26 20 25 18 25 24 24 14 22 17 29 26 16 22 29 23 27 20 15 23 19 21 24 32 20 14 16 25 22 22 22 29 25 22 18 23 27 20 23 22 17 19 21 24 27 16 27 29 22 28 29 26 27 22 23 29 24 23 23 27 19 19 18 19 21 21 27 18 18 22 24 26 23 24 19 23 25 32 31 24 22 21 17 25 25 23 24 19 20 19 21 24 24 18 18 22 22 31 21 27 27 23 30 16 24 21 22 21 24 17 18 22 14 17 26 25 25 25 23 27 21 18 28 27 27 22 16 30 22 30 19 30 18 28 24 31 13 28 20 17 32 27 28 28 19 26 20 21 23 28 30 29 25 24 23 25 24 21 20 23 21 16 16 28 25 30 25 26 22 15 17 18 26 30 22 30 24 20 15 23 26 19 22 18 23 26 16 18 29 21 27 23 20 22 16 20 25 24 27 27 23 32 17 26 21 23 21 25 25 22 24 19 26 24 25 24 26 27 19 26 16 30 19 24 13 24 29 19 18 24 22 20 26 17 19 25 25 24 26 21 17 15 30 20 16 23 34 24 22 25 22 24 23 19 25 22 25 18 24 21 20 23 21 22 17 30 23 23 19 28 30 26 32 27 22 25 19 29 21 28 28 26 22 19 15 28 18 27 26 28 23 21 21 33 23 18 25 19 26 22 19 29 17 17 32 22 30 27 24 26 27 14 16 18 22 25 20 22 27 28 23 28 25 28 28 26 23 25 20 23 16 25 25 26 14 24 24 25 23 27 18 23 24 17 27 24 22 24 14 14 30 24 17 23 20 21 22 21 19 23 23 23 22 26 24 24 18 17 24 18 31 16 25 31 23 30 19 17 12 28 23 21 25 23 21 27 26 31 28 23 22 25 23 23 23 22 24 25 23 25 35 27 26 22 18 16 28 24 25 23 25 13 25 26 21 28 26 21 24 20 25 23 29 19 23 22 17 23 20 25 18 23 30 29 22 22 23 25 21 25 20 28 23 24 23 19 19 18 26 21 22 18 25 24 17 24 11 18 26 18 23 27 20 25 24 21 28 24 22 21 11 25 11 30 19 20 23 21 14 19 19 21 25 28 21 22 24 18 22 25 16 17 21 26 20 25 23 28 22 20 23 20 29 23 25 19 18 23 27 23 25 21 30 17 17 19 28 19 23 26 17 23 19 17 23 22 25 21 25 17 24 31 23 21 16 22 27 20 22 26 23 21 24 26 24 27 26 18 27 34 24 26 25 27 28 25 19 20 21 14 25 30 28 17 22 17 22 18 23 24 24 27 19 22 19 21 28 28 27 27 23 30 24 27 20 28 25 21 25 22 14 16 21 20 24 24 26 30 18 20 26 18 25 27 22 29 20 19 25 20 32 20 27 15 22 19 21 23 25 19 30 22 19 15 37 29 23 29 26 21 22 20 30 26 32 24 28 21 22 20 17 19 23 19 27 25 21 26 20 21 22 19 26 30 20 16 25 17 23 28 23 21 25 21 22 20 11 21 18 18 27 17 28 25 24 28 20 25 22 25 23 21 26 28 31 22 13 16 25 15 19 19 22 17 22 25 16 22 24 20 32 31 20 18 21 17 26 29 22 30 22 21 26 27 26 22 21 28 22 25 29 23 25 29 25 23 18 18 27 26 30 21 17 23 29 23 22 22 26 24 26 14 17 22 26 19 26 20 26 17 33 18 15 28 22 32 24 23 24 24 27 24 21 24 24 15 27 23 22 23 24 19 29 25 19 34 24 20 15 15 18 19 18 19 20 24 24 22 18 35 22 22 28 22 22 24 27 25 22 27 26 22 23 22 24 22 20 22 19 28 26 27 22 24 24 22 11 27 20 25 21 21 29 25 29 26 25 23 26 23 20 26 18 28 23 19 23 22 21 24 25 31 22 21 21 20 23 23 20 18 23 26 22 21 22 21 24 27 22 22 22 23 26 34 27 22 21 26 19 24 21 26 22 21 23 25 20 28 21 24 33 27 22 25 15 26 21 22 18 22 26 33 15 30 17 16 26 25 22 28 18 23 32 14 20 19 23 27 15 24 24 27 19 18 30 23 25 26 30 17 20 24 24 17 24 24 18 26 27 26 17 26 21 26 22 33 30 23 25 23 21 22 26 21 23 25 25 22 18 20 19 21 26 27 22 22 24 18 28 20 20 27 23 21 21 22 22 22 13 31 27 28 23 17 21 26 24 28 18 26 24 26 31 18 21 31 19 25 23 20 15 30 25 20 31 25 26 21 26 19 22 21 22 20 15 22 16 30 23 26 24 25 20 26 14 31 20 22 22 20 17 23 26 24 28 33 22 29 19 17 24 19 35 24 20 14 17 21 28 28 18 28 27 22 16 24 28 20 16 32 18 14 24 22 24 24 20 28 22 26 34 17 16 15 26 22 19 22 24 32 20 27 27 21 17 25 18 21 18 20 21 25 23 29 34 22 26 19 26 30 20 21 29 18 21 22 22 10 17 21 22 21 25 25 24 23 17 16 23 24 17 27 14 16 33 26 21 19 31 20 25 22 27 22 26 20 23 21 20 18 17 24 24 21 13 25 23 31 19 26 21 23 24 21 16 35 18 26 18 24 21 21 20 17 22 22 19 18 26 24 25 21 26 19 26 22 15 24 24 20 25 25 28 20 27 24 22 20 22 19 18 16 18 25 22 24 23 22 23 26 22 22 23 19 23 23 22 17 23 23 27 25 19 26 34 19 19 28 19 24 23 13 16 26 18 29 21 21 14 20 21 14 24 18 22 25 20 18 25 22 21 19 18 20 21 20 24 24 23 18 20 22 24 21 28 29 30 24 27 21 21 26 30 23 28 27 17 23 23 21 26 21 21 20 16 19 27 21 25 29 22 29 25 27 23 17 25 26 25 30 25 25 21 23 18 25 27 18 15 26 20 22 22 22 25 20 20 32 27 21 17 20 19 25 22 21 22 23 23 32 23 23 15 21 21 18 15 22 26 22 21 23 21 24 26 25 28 19 26 23 19 28 29 19 24 17 24 20 18 18 24 17 23 26 13 22 20 22 23 29 30 22 24 19 26 31 28 22 15 29 19 17 27 24 24 24 18 23 26 26 24 18 19 25 23 21 24 19 23 23 16 26 22 22 24 28 24 29 25 19 18 17 29 22 26 18 28 20 24 26 22 29 18 24 22 22 17 18 26 22 29 29 36 19 24 17 29 17 20 24 25 32 28 22 34 19 31 21 19 26 23 25 27 23 20 19 22 18 17 16 26 23 32 25 26 31 28 27 23 33 25 20 24 24 23 23 19 23 20 30 21 23 19 16 10 22 21 17 25 20 17 31 20 27 18 25 25 18 30 25 18 26 27 22 20 20 24 21 17 27 24 29 27 31 19 24 23 17 17 28 13 26 22 16 25 23 20 32 22 23 23 19 21 20 16 16 27 28 22 21 22 28 22 15 23 22 19 21 22 23 24 24 27 21 21 23 24 20 15 18 18 25 28 23 29 22 20 22 19 20 19 26 25 19 19 25 20 28 20 18 24 23 20 20 27 22 21 24 25 30 20 33 23 25 21 21 18 24 28 17 21 18 22 26 23 17 22 21 18 23 23 18 25 19 22 19 22 16 22 19 26 21 28 23 22 22 28 19 28 26 21 23 20 15 20 15 17 19 23 28 24 20 17 18 18 19 21 14 14 25 17 15 25 21 25 20 18 26 29 16 17 19 19 24 21 22 25 22 16 27 15 17 25 22 24 19 26 24 24 20 22 19 17 29 27 25 21 29 27 20 22 28 18 22 24 20 13 16 20 23 21 25 14 17 24 29 19 20 17 25 33 29 28 18 28 23 21 29 20 25 17 21 19 16 21 11 23 15 20 24 22 23 17 24 17 16 23 21 29 22 18 19 30 21 24 25 23 17 22 17 14 23 20 19 23 24 25 23 20 14 25 17 24 16 24 26 26 22 19 19 21 19 26 26 21 30 18 26 22 25 26 22 16 23 25 18 19 19 21 30 24 27 21 23 24 18 23 22 22 16 18 27 19 25 22 22 20 25 22 16 22 23 31 31 23 23 21 15 28 27 26 22 29 23 31 27 25 25 25 25 19 22 22 17 15 25 25 19 18 27 26 24 21 22 22 27 27 15 33 21 21 29 27 25 18 20 21 19 23 22 25 24 19 30 19 25 24 21 28 25 20 18 22 24 25 28 30 25 19 28 26 19 18 26 19 34 29 24 18 23 17 20 18 35 22 23 23 23 32 18 32 27 25 22 21 24 21 18 23 21 24 23 23 18 21 12 23 16 28 23 22 26 24 18 28 19 23 21 28 17 26 22 24 29 21 25 22 32 29 22 19 25 26 22 18 18 21 22 27 24 16 26 26 28 28 14 25 21 27 21 17 31 14 17 31 27 22 25 24 16 27 17 22 20 27 21 26 21 22 27 27 15 36 24 19 30 26 19 28 24 24 19 21 32 19 23 20 11 22 23 21 27 30 25 20 23 23 14 16 21 18 30 20 22 18 17 23 26 24 24 22 24 30 24 26 24 24 21 31 19 26 23 30 21 33 25 18 18 32 28 20 21 22 17 27 25 18 19 22 17 30 18 19 20 20 24 23 22 26 25 23 25 25 22 25 32 25 29 35 18 21 27 16 28 17 14 21 22 27 25 27 20 25 21 22 24 26 21 20 28 24 26 17 19 23 18 24 29 24 19 28 23 29 28 14 19 26 23 24 17 15 17 23 22 28 27 24 20 26 19 27 21 25 20 25 21 21 23 15 32 21 31 24 21 19 20 12 23 19 19 18 24 16 22 32 22 16 25 30 17 25 20 20 19 21 23 19 28 27 23 25 25 30 19 32 24 27 22 16 21 20 22 20 26 15 20 24 22 20 22 26 31 30 19 25 25 20 25 25 24 25 17 17 20 18 17 21 20 33 21 14 32 13 25 27 23 16 22 15 33 22 21 22 30 24 23 22 20 24 27 24 24 17 21 27 19 23 31 19 19 22 20 27 27 27 32 22 25 23 17 30 30 20 25 17 18 28 29 25 22 24 20 24 16 33 19 23 24 27 25 23 24 16 20 18 24 30 21 27 13 21 20 21 17 23 15 19 21 22 18 28 21 9 30 18 26 29 26 23 25 17 22 20 23 24 20 19 28 22 27 27 22 25 13 26 25 24 29 27 21 23 22 26 22 19 29 20 25 15 22 26 25 18 20 24 29 20 29 18 20 31 25 20 27 23 19 23 21 18 22 23 26 17 29 21 24 21 31 27 21 15 27 21 31 18 20 29 27 22 24 31 21 22 27 19 27 20 21 26 26 15 13 21 19 23 21 26 32 18 26 22 29 25 18 23 28 24 20 21 30 16 20 30 21 26 26 29 28 21 24 12 19 25 31 32 21 19 28 19 20 26 27 20 25 18 20 24 24 20 22 28 22 23 22 23 27 23 27 24 20 29 21 24 19 29 28 19 25 29 28 19 25 20 24 26 20 20 28 22 20 21 19 31 23 23 16 24 22 22 20 23 22 20 23 17 22 30 23 17 23 26 19 25 25 22 18 26 21 11 21 24 21 19 25 21 23 16 20 28 25 21 19 26 23 13 18 18 37 28 29 19 23 15 18 26 20 17 35 32 29 25 27 29 23 16 31 29 22 24 23 21 31 29 23 21 17 24 24 31 25 23 21 23 26 18 28 25 29 26 21 14 19 32 27 24 23 26 21 22 28 35 22 18 22 22 27 30 20 21 25 19 24 33 16 17 22 32 17 24 26 22 27 22 23 28 20 30 20 22 26 25 21 28 22 27 27 24 21 28 20 25 33 29 16 29 19 28 17 24 21 27 25 20 21 21 23 26 23 27 18 19 23 25 21 27 24 20 20 14 21 26 24 20 21 22 25 22 15 38 24 25 28 17 28 24 18 17 19 23 24 24 32 21 21 27 28 22 20 19 20 17 25 28 29 26 21 22 28 21 20 29 20 30 14 24 19 16 27 18 22 22 27 25 21 20 26 28 19 28 21 23 30 19 23 15 21 37 25 22 24 17 22 21 23 19 25 23 23 25 26 25 26 11 24 22 32 24 26 27 22 21 24 18 29 16 22 22 22 21 21 18 21 22 21 15 26 23 29 28 19 30 24 21 21 21 18 20 25 24 14 27 22 21 27 25 24 19 24 26 14 16 21 25 21 24 27 22 22 21 20 21 33 23 21 26 22 27 20 20 24 23 20 16 25 28 24 26 25 19 17 25 26 21 28 27 23 23 22 26 20 23 20 19 27 30 28 25 22 21 14 20 14 18 23 15 28 15 29 20 26 24 21 18 19 21 22 25 24 24 26 33 26 25 22 19 23 24 24 27 20 30 31 19 25 18 21 26 16 14 23 18 23 24 16 22 22 17 25 17 28 29 16 31 22 19 26 27 24 20 28 24 26 21 26 16 16 16 27 16 22 29 27 19 23 25 27 19 27 23 29 26 20 21 24 23 26 26 16 16 17 20 27 24 25 29 24 26 25 24 23 17 25 13 25 20 25 25 27 22 22 20 19 20 22 20 26 24 19 31 23 24 24 31 24 16 27 29 19 20 14 18 18 20 14 27 24 23 24 20 26 23 16 26 24 32 27 16 24 24 22 21 22 27 27 21 23 21 23 27 19 26 15 13 17 21 31 22 16 22 14 16 29 30 18 19 19 26 24 21 24 22 26 27 23 24 27 23 18 26 24 29 18 27 39 22 32 32 37 20 22 21 26 26 23 18 21 20 20 20 18 26 24 24 21 19 23 22 18 25 20 28 17 30 25 18 18 19 26 31 22 29 25 24 24 20 16 27 27 27 26 14 25 27 22 27 32 24 29 19 16 23 19 29 25 19 19 26 22 25 24 26 27 20 24 19 30 20 20 22 21 20 20 20 29 23 28 17 28 25 23 32 21 19 25 13 23 20 19 25 22 21 25 26 28 20 19 18 21 25 23 23 11 18 32 24 18 22 18 19 29 28 16 21 27 17 25 23 22 33 22 21 20 16 23 19 30 25 24 25 27 29 25 18 31 30 22 26 14 29 24 22 26 23 21 27 17 25 19 30 22 29 21 20 16 23 24 19 22 25 23 30 22 23 20 21 22 24 21 29 27 23 30 30 28 20 22 24 26 28 24 19 32 17 19 22 19 17 20 20 13 29 27 23 22 19 25 25 26 27 26 26 31 29 24 23 22 23 23 19 17 31 27 29 27 20 14 26 22 22 24 19 28 34 13 26 25 18 23 20 22 27 28 25 23 23 22 25 23 24 22 19 18 24 27 15 22 23 27 19 35 16 21 29 21 24 25 29 21 22 23 23 24 20 28 21 22 22 20 27 17 20 26 22 22 16 23 28 23 19 24 20 23 18 20 28 16 26 22 25 25 19 22 27 27 19 18 26 19 19 26 22 21 18 20 19 23 20 19 35 25 21 16 20 21 32 23 26 27 19 29 17 29 23 25 23 17 18 29 27 25 25 20 32 22 21 25 19 24 20 23 23 21 23 26 18 23 19 24 27 20 22 25 24 20 21 23 19 23 37 25 22 21 24 28 21 19 20 18 22 21 26 27 29 19 22 24 22 21 25 21 25 17 22 23 24 15 16 20 29 30 26 23 24 15 22 19 30 23 18 28 27 19 20 22 24 24 30 19 23 26 25 28 22 25 25 30 16 17 12 28 23 21 27 22 16 21 27 22 21 23 24 14 24 20 24 23 22 21 22 23 16 26 21 22 31 21 26 22 16 20 29 24 22 23 28 22 21 19 20 26 28 18 27 27 21 26 15 25 19 24 29 23 27 14 19 25 27 21 20 21 14 19 35 24 31 19 25 25 28 18 25 27 24 25 19 26 27 25 31 24 29 17 18 33 28 25 17 23 31 25 27 17 16 16 29 18 25 21 31 19 31 24 27 23 31 29 27 21 28 14 19 34 24 36 29 17 22 12 19 23 25 21 23 19 19 26 25 25 15 27 22 25 25 21 24 19 26 25 21 22 23 20 24 28 17 23 25 28 15 32 22 25 28 19 20 25 14 25 19 19 29 18 33 25 15 18 21 32 20 22 22 22 19 24 25 18 23 18 32 15 21 28 27 20 18 19 17 28 19 24 15 14 23 30 17 30 28 25 20 21 31 17 24 27 25 22 17 29 26 21 19 20 24 23 16 23 24 26 23 24 29 19 20 29 24 23 25 26 24 19 28 21 30 24 20 16 31 23 18 21 21 26 19 22 17 18 24 20 22 27 33 22 22 25 15 21 24 24 25 21 21 14 20 24 28 27 30 17 33 21 27 27 18 25 21 15 23 21 20 21 23 25 28 29 25 18 18 24 28 26 19 25 23 22 26 19 22 29 20 23 25 20 18 18 20 16 20 24 16 17 24 24 25 25 19 31 24 27 21 26 26 26 15 18 19 20 27 22 18 25 23 22 31 26 18 19 24 23 23 24 17 21 23 13 24 23 32 23 15 24 26 17 26 21 22 21 25 19 33 24 21 29 27 26 25 34 18 14 15 28 21 29 20 19 28 19 19 23 26 23 29 28 19 27 26 33 23 23 21 24 18 23 20 22 22 20 32 26 27 24 23 29 21 21 17 24 28 28 18 25 24 24 18 14 19 19 26 24 17 19 31 20 23 21 25 30 22 30 20 23 23 24 19 25 20 24 15 16 20 24 23 20 29 31 22 18 22 25 23 21 23 21 19 24 21 27 25 31 18 20 29 25 16 28 19 19 15 24 18 27 19 28 22 31 23 29 18 30 22 20 26 18 22 16 20 27 25 19 19 18 24 23 22 20 35 21 14 31 26 17 21 25 19 24 14 21 15 20 19 25 30 30 21 26 28 31 21 22 21 17 26 23 22 22 19 26 26 23 29 22 26 29 24 21 23 24 17 26 25 33 23 23 23 26 19 17 25 15 22 17 21 18 30 27 21 16 29 27 29 21 23 26 27 32 20 26 20 24 19 21 24 23 17 21 24 26 15 22 21 21 35 23 23 20 18 20 21 20 27 20 25 27 15 18 20 27 16 22 23 23 25 16 32 18 30 25 23 29 30 23 23 24 24 20 18 24 24 18 20 17 24 20 27 29 22 27 23 28 17 25 23 15 24 25 24 20 27 30 26 35 23 22 14 26 28 19 27 18 18 20 26 17 23 22 27 18 22 25 26 15 25 20 20 16 21 21 21 18 21 23 17 26 26 30 25 26 23 21 18 27 30 23 26 27 21 21 18 26 22 20 26 25 24 19 26 25 14 24 26 29 18 21 16 19 20 20 22 20 24 16 16 21 21 18 16 23 18 26 24 24 15 25 25 26 18 24 22 20 12 17 22 21 17 29 24 28 20 18 24 23 18 21 24 26 26 24 26 27 19 25 18 19 23 25 27 27 24 34 23 16 18 24 20 22 23 20 29 14 21 20 28 22 20 20 28 24 34 25 25 22 12 24 21 29 16 22 23 15 24 15 22 25 18 23 17 26 24 32 21 30 23 23 21 26 28 19 27 23 24 13 25 25 26 24 20 23 22 18 11 20 31 25 29 21 18 22 21 28 31 23 24 21 26 20 21 19 19 25 21 28 19 16 18 27 23 14 20 18 20 20 21 26 27 21 29 24 21 24 22 25 21 23 19 23 28 23 30 25 18 21 25 28 23 25 29 19 26 28 27 21 25 23 23 27 30 19 24 23 22 26 26 25 23 20 24 29 20 26 15 23 26 25 20 28 27 20 27 22 18 22 34 21 20 25 16 27 27 20 21 31 26 21 22 27 17 21 17 11 35 28 19 25 25 17 35 17 20 12 17 17 21 19 20 24 23 18 27 23 18 23 27 20 28 26 24 28 27 23 16 19 21 27 14 28 34 12 21 28 24 18 21 24 27 27 23 19 15 24 17 20 18 26 25 20 20 25 17 28 26 29 22 27 25 23 23 25 24 25 23 26 27 27 23 30 26 20 12 25 16 21 16 23 18 23 24 28 28 21 25 22 24 27 25 28 18 28 20 18 24 17 23 21 20 25 22 25 21 23 28 20 26 17 17 29 24 36 9 22 23 25 20 21 17 17 20 25 25 23 30 35 26 28 23 24 25 25 20 29 23 23 22 18 24 23 25 24 32 15 23 20 19 22 26 25 20 22 24 29 18 22 21 19 30 14 26 20 28 19 29 27 27 22 28 25 21 18 21 19 29 22 22 22 23 31 21 20 26 23 20 20 26 23 22 27 24 22 25 26 25 31 24 21 29 23 21 26 20 16 30 15 26 17 23 28 27 15 22 25 18 23 23 20 36 23 27 24 19 25 23 29 24 22 20 29 24 26 29 23 16 19 18 31 15 25 20 17 23 29 12 26 18 24 24 22 23 30 19 34 25 26 27 18 21 18 23 25 17 22 14 20 25 26 24 21 29 23 19 16 17 18 29 21 17 21 27 25 24 24 25 26 20 19 26 25 27 19 35 22 28 27 18 26 24 29 23 29 22 30 17 20 18 27 19 18 25 23 17 28 27 22 18 22 18 28 28 20 32 26 22 23 22 26 26 21 19 20 29 25 27 20 18 20 18 28 24 19 27 12 25 19 20 21 20 18 21 27 26 21 18 28 26 25 15 21 23 31 17 28 24 10 21 21 17 25 22 27 27 24 17 30 20 37 21 28 24 16 26 21 22 21 22 24 17 25 31 22 15 16 28 19 26 21 16 22 31 24 19 28 25 25 18 26 22 21 21 21 24 31 22 28 21 14 18 19 25 18 19 18</t>
+  </si>
+  <si>
+    <t>EXN(0.6241341383196749, 31.867060511829322, 4.912763887818482)</t>
+  </si>
+  <si>
+    <t>40 34 35 36 33 32 46 42 27 27 38 25 36 28 38 29 32 41 38 38 35 29 24 37 33 27 16 33 28 32 50 43 37 29 51 32 31 33 33 41 29 27 38 40 27 39 43 38 31 34 38 39 27 33 43 37 28 36 42 33 30 34 29 29 45 34 29 40 27 39 38 41 37 33 37 43 46 40 27 40 26 32 34 29 36 37 42 39 29 39 34 25 33 38 38 41 31 29 26 38 32 37 34 43 39 35 32 27 35 37 34 37 26 40 38 32 46 29 29 50 24 40 28 35 22 33 38 25 34 37 39 29 41 37 39 37 33 26 36 33 37 37 31 35 37 32 51 35 37 38 31 35 33 30 27 38 22 33 40 33 27 43 44 36 37 29 33 37 30 36 32 29 47 24 34 28 28 30 30 27 48 30 45 36 37 44 35 41 38 35 40 38 34 37 33 33 31 35 32 33 31 31 25 35 31 46 39 38 35 27 31 23 42 40 28 33 52 25 29 31 30 28 27 39 24 42 30 35 30 25 45 29 35 27 39 30 39 43 35 29 36 36 33 38 36 36 41 37 38 39 37 21 34 36 33 37 29 41 42 34 38 34 47 35 34 31 25 44 28 37 40 33 35 36 31 27 36 28 29 30 38 28 37 31 32 31 33 40 31 36 37 29 34 36 39 40 43 44 42 31 32 35 31 38 47 25 32 37 26 35 38 36 35 34 29 42 25 29 33 33 29 33 40 41 32 36 36 31 41 27 38 38 29 40 34 36 30 38 35 29 38 27 39 38 22 50 43 35 32 35 43 33 35 41 26 49 28 51 39 42 24 22 27 36 33 32 44 31 35 25 28 31 33 28 25 40 37 38 26 36 44 42 33 28 43 34 34 33 42 32 40 31 42 35 39 37 36 37 35 29 37 35 35 33 36 32 36 60 38 30 32 24 36 31 38 37 35 26 44 31 32 32 27 25 46 43 31 42 29 34 38 30 31 36 34 31 29 43 54 40 41 38 36 34 33 25 34 32 38 27 35 30 43 42 22 35 32 41 32 32 30 37 31 43 40 35 30 29 34 36 38 34 45 32 16 36 34 37 35 32 31 27 30 45 30 23 30 35 48 35 37 35 26 46 29 34 33 39 34 42 36 37 35 50 46 39 33 39 35 37 44 33 43 29 30 42 39 32 31 37 33 40 36 30 30 26 35 39 31 24 38 49 44 34 44 45 37 34 35 36 44 36 26 40 28 34 34 37 35 32 36 41 31 35 39 32 27 35 34 36 39 34 40 30 42 35 36 32 32 44 35 48 34 35 34 43 28 37 28 37 38 26 35 37 28 41 39 49 37 43 45 24 36 38 44 29 37 40 38 38 34 29 26 26 31 36 38 50 34 38 35 41 28 37 31 41 31 34 32 38 33 36 30 39 30 34 32 38 35 39 48 33 40 30 25 34 41 37 37 40 31 25 42 38 27 35 28 35 35 27 31 41 36 36 39 36 44 29 30 41 38 33 33 29 38 50 40 33 35 42 37 37 54 29 43 24 40 46 41 43 33 40 28 47 27 38 38 40 28 43 37 34 35 28 46 35 38 32 35 28 35 49 35 44 26 38 28 23 38 31 32 29 23 27 37 40 40 34 38 36 31 35 28 33 34 39 34 44 40 30 34 33 40 36 38 47 27 42 28 37 45 39 29 35 36 31 34 38 43 41 36 34 37 35 41 34 30 32 27 28 34 27 38 29 32 31 31 37 34 33 32 46 38 44 31 28 49 35 38 38 17 37 42 36 29 39 24 32 34 30 38 38 37 45 31 42 34 34 36 36 38 29 32 34 33 47 33 37 29 29 29 31 41 31 26 32 31 39 41 33 36 30 34 27 32 33 42 32 32 24 43 34 39 32 32 46 33 39 34 31 42 32 32 32 27 27 27 31 38 23 45 36 24 33 25 38 37 31 34 27 41 35 38 34 36 35 56 31 30 42 34 33 38 30 35 31 27 28 33 42 39 40 30 30 32 33 40 30 41 32 29 30 58 32 29 40 33 37 45 33 33 35 26 35 37 30 32 40 31 38 32 33 36 27 35 30 35 29 30 31 32 14 44 27 38 36 41 37 25 30 30 29 28 30 31 39 40 25 31 33 45 42 36 24 34 27 30 32 37 36 39 31 37 39 37 35 36 34 32 28 38 45 31 35 29 33 33 35 35 40 38 34 37 35 40 46 33 34 33 35 47 33 30 36 24 40 35 48 28 40 24 31 29 30 28 37 32 30 30 38 38 30 36 41 27 43 35 23 39 31 29 35 44 36 30 39 41 47 30 36 35 28 34 32 50 26 34 34 37 31 37 37 36 36 27 27 34 40 26 48 30 37 28 46 33 33 36 31 32 36 32 42 33 29 35 28 22 37 35 42 50 29 33 38 37 35 36 35 31 35 43 35 26 43 32 32 38 32 35 34 35 46 28 38 22 30 27 33 50 39 35 32 33 28 36 37 37 40 31 30 29 39 37 31 38 35 40 20 39 26 26 35 37 36 34 30 32 32 33 34 38 44 32 33 45 27 42 34 38 34 41 45 51 36 25 35 28 27 38 24 37 31 34 30 37 33 40 42 46 29 26 29 30 37 38 36 35 38 38 30 35 30 34 38 42 28 32 39 32 30 43 42 33 28 37 35 36 34 35 34 29 32 29 25 32 35 23 33 33 34 36 32 44 34 34 23 30 30 29 40 35 28 34 42 42 37 38 40 35 37 34 28 35 28 43 34 37 38 35 45 36 36 24 40 32 45 37 46 29 32 33 36 43 20 36 28 31 43 33 31 49 30 27 41 39 38 37 35 32 41 42 29 20 27 36 42 41 41 34 36 33 25 39 33 36 28 52 28 37 23 39 37 50 40 42 24 35 29 33 39 41 33 33 37 34 37 31 40 41 31 42 29 32 29 41 26 37 32 32 39 31 40 51 36 31 23 32 28 35 43 37 26 34 28 33 38 36 39 34 35 32 32 31 41 36 29 43 32 37 43 44 38 45 38 47 45 30 39 31 29 26 34 37 28 34 38 43 34 34 39 35 49 35 29 33 25 42 35 41 42 31 27 47 33 33 38 33 33 27 43 32 35 39 30 26 37 41 36 29 23 35 31 38 27 37 34 51 27 37 32 34 38 32 52 46 35 29 38 31 37 31 21 36 42 33 37 32 28 39 47 35 37 31 34 58 28 32 28 29 24 28 44 21 26 31 43 25 38 32 32 28 41 31 44 36 39 32 40 30 35 35 33 41 31 26 45 32 43 34 31 37 28 33 33 30 24 38 29 37 35 34 40 39 41 47 35 38 35 32 32 33 42 53 34 29 32 36 31 33 34 37 40 32 37 50 34 35 40 34 33 30 32 32 31 41 31 40 39 34 27 28 43 33 27 41 25 33 35 31 30 31 32 28 39 40 40 30 38 46 39 33 44 24 33 24 37 35 31 30 34 39 34 39 29 37 26 31 31 35 45 33 24 43 36 37 32 33 41 35 28 31 41 31 34 33 27 36 44 34 31 38 44 27 44 37 32 36 34 37 32 40 31 31 29 36 32 37 36 32 36 36 45 34 38 34 34 29 27 42 43 29 38 26 43 34 37 35 40 39 18 39 38 37 34 36 43 38 33 27 36 40 40 35 31 35 31 32 36 31 42 33 36 31 33 31 31 34 35 34 51 32 33 30 27 26 37 34 35 33 39 34 52 39 39 34 23 34 29 24 42 27 33 36 34 37 26 30 33 32 31 42 35 36 38 36 36 41 26 35 45 29 34 32 31 35 39 34 32 35 37 36 31 31 24 44 38 37 33 36 39 33 31 26 29 36 33 33 32 37 42 36 28 42 32 33 33 43 34 37 50 31 39 40 32 43 42 46 32 42 33 42 34 49 36 31 39 33 49 34 29 35 35 37 36 35 33 35 35 41 35 35 32 30 52 27 36 34 34 41 30 38 32 37 36 28 27 42 30 35 40 35 34 42 45 25 32 36 37 28 35 38 38 42 27 42 41 37 44 30 37 39 32 29 30 45 24 26 49 33 43 39 31 31 36 37 36 48 37 35 33 28 46 43 30 36 31 35 37 30 38 41 30 33 36 40 27 29 31 20 33 47 47 34 38 35 39 33 38 35 32 41 23 27 40 30 34 40 38 25 31 30 39 38 27 35 32 44 39 36 36 36 39 27 36 46 41 37 44 39 35 29 36 33 37 29 32 38 39 30 33 36 31 36 35 36 32 31 31 39 40 36 37 30 40 37 37 33 30 27 31 43 31 33 28 27 31 36 42 34 33 33 38 32 40 21 37 44 38 30 33 37 35 34 35 33 25 32 33 36 29 30 56 29 39 37 29 38 37 24 34 38 29 36 35 32 49 36 38 33 30 39 35 38 39 34 28 24 26 36 43 32 35 31 37 38 34 41 39 33 50 36 39 19 31 30 44 33 24 41 46 29 30 36 37 25 39 38 38 43 31 35 32 33 33 42 31 40 33 34 46 36 38 29 31 40 33 37 31 38 26 34 36 41 37 34 33 32 42 30 43 37 35 35 30 40 36 31 31 33 28 41 35 39 32 43 37 23 39 31 31 41 38 42 32 38 37 39 31 44 30 36 39 39 33 35 35 33 28 32 39 41 38 40 40 51 30 31 33 33 44 24 42 40 46 39 30 48 37 31 28 32 39 32 45 39 28 29 44 25 32 29 35 36 29 31 38 31 28 41 21 32 36 32 30 37 39 27 38 39 35 37 36 32 39 36 41 38 34 32 42 29 40 28 34 32 32 39 24 32 39 34 29 32 40 35 35 36 37 34 44 42 30 43 33 36 38 39 27 35 33 43 50 28 29 22 33 31 27 32 34 36 36 30 38 25 28 38 29 34 36 25 36 35 34 39 37 30 37 39 36 30 31 25 35 37 34 30 28 27 33 39 32 40 37 35 43 40 37 35 39 30 28 31 42 39 38 30 36 38 31 41 37 29 37 40 27 48 45 37 42 37 30 21 41 32 45 38 36 37 39 33 34 36 42 39 29 37 26 32 44 41 29 30 31 37 44 39 32 37 48 33 30 34 30 36 29 44 29 40 36 33 29 43 46 38 29 33 37 34 37 36 33 34 35 27 44 33 37 39 27 31 28 26 38 34 31 39 33 41 35 47 28 34 37 37 36 30 28 33 38 24 39 32 41 36 33 29 35 38 42 35 36 38 38 34 38 29 29 34 35 36 37 29 33 33 33 42 24 39 33 35 31 36 31 29 32 31 38 30 33 37 32 26 32 29 38 37 47 40 32 28 23 35 42 35 37 36 52 47 34 45 32 24 35 39 33 29 40 38 34 34 29 44 42 33 34 32 36 38 36 51 33 29 40 40 36 34 33 32 28 23 37 34 52 31 34 35 37 35 31 37 33 52 40 36 28 16 41 40 41 35 37 38 38 32 39 42 31 34 31 38 35 39 45 51 33 41 39 44 28 33 27 31 45 39 34 43 32 29 45 36 37 33 34 36 39 40 34 27 34 31 31 30 36 40 49 32 34 32 27 32 36 40 40 38 34 34 29 31 40 37 41 31 43 33 38 36 49 29 28 33 35 42 40 42 36 35 33 30 43 34 29 34 25 40 36 29 29 37 40 27 36 38 31 39 32 40 34 25 38 31 35 28 51 33 30 38 40 39 33 34 39 31 28 30 27 27 29 35 40 39 26 30 48 37 34 33 26 42 34 23 37 43 32 34 33 39 28 36 28 41 34 40 46 36 42 26 27 31 35 30 46 32 32 39 52 37 38 30 39 31 30 32 32 39 41 36 31 35 38 35 38 30 31 34 28 33 26 31 34 35 25 39 36 41 26 41 31 29 33 34 31 40 33 39 37 23 29 36 29 24 38 30 38 40 29 32 28 37 51 36 42 39 35 37 39 30 38 27 41 36 44 41 37 28 25 35 31 30 36 33 35 36 35 31 38 34 31 31 38 25 33 38 34 33 26 32 37 32 34 49 35 33 29 36 33 43 33 37 40 41 39 37 31 36 41 33 29 43 32 40 40 38 34 32 28 39 34 38 31 43 37 31 24 25 35 38 44 31 27 28 33 40 33 41 28 39 27 38 36 40 25 30 29 25 41 31 32 27 32 40 34 36 31 42 30 29 38 35 30 38 44 29 37 38 27 32 34 29 36 35 27 51 33 31 43 31 26 29 30 31 22 34 42 31 38 29 32 33 40 32 32 31 45 33 37 42 38 27 41 26 38 22 28 28 36 37 57 35 27 46 35 29 33 30 33 36 41 32 34 39 40 38 31 39 30 36 39 33 35 37 26 34 29 48 29 27 22 43 44 48 31 40 42 38 42 38 41 43 27 29 33 32 41 30 27 37 31 37 21 34 37 36 39 37 41 43 38 30 35 38 39 32 25 35 31 38 32 32 40 42 36 35 39 39 31 24 45 33 36 27 33 37 33 34 29 36 32 41 38 31 35 30 28 39 31 32 30 33 53 48 28 37 38 45 31 36 44 51 44 45 34 38 30 35 35 24 39 39 33 30 33 39 41 27 40 38 45 33 37 38 25 26 32 42 41 37 31 30 38 21 46 29 23 29 30 30 38 36 35 44 44 42 42 22 40 39 39 30 33 31 49 33 31 32 36 41 46 36 39 36 43 37 27 30 29 36 33 31 30 27 23 25 33 28 25 29 29 31 28 33 38 40 33 35 35 44 32 29 31 35 27 34 42 26 44 36 25 36 31 41 25 40 39 45 38 50 25 30 35 37 42 29 28 31 44 32 32 31 22 29 43 42 43 35 38 33 37 44 23 28 38 46 31 41 29 33 41 37 33 36 28 44 33 32 33 31 31 31 39 31 35 34 34 33 42 25 36 35 31 32 31 32 43 27 26 33 34 32 35 33 33 23 27 37 31 26 32 38 33 33 24 25 33 37 30 45 50 32 38 48 27 38 37 28 37 39 36 36 42 32 29 44 33 33 38 34 30 25 32 29 29 35 25 40 38 34 38 33 29 46 39 38 39 30 35 35 39 34 30 31 37 28 42 38 54 29 32 40 39 37 39 42 30 50 39 36 33 38 28 35 41 30 30 49 47 34 46 32 42 38 40 31 36 37 34 31 33 40 40 37 38 40 41 47 39 40 39 31 34 41 36 40 37 35 30 39 38 34 33 35 40 35 35 26 32 38 31 39 31 39 36 33 28 34 32 25 24 25 31 30 35 32 42 36 34 39 45 29 31 31 30 33 37 38 29 40 36 37 20 36 33 39 44 38 32 47 43 35 38 34 35 30 33 31 36 29 30 44 30 39 46 32 37 38 44 42 27 43 46 36 35 23 30 21 33 44 29 35 29 26 39 51 41 42 37 32 38 40 32 41 43 27 41 35 35 29 34 27 28 48 27 43 35 34 38 34 34 29 36 30 36 38 40 34 43 37 42 33 36 30 32 37 34 30 35 50 28 38 25 38 38 27 36 37 29 32 27 38 32 32 38 38 37 36 44 40 41 25 41 42 33 35 40 31 26 35 35 41 38 34 36 30 34 36 41 34 33 30 36 31 37 26 38 31 40 33 34 35 32 39 46 35 34 43 38 34 40 33 35 33 39 31 33 39 45 27 34 35 41 40 24 35 34 49 37 33 33 34 41 40 29 34 32 30 40 32 36 33 37 38 31 34 38 44 37 23 35 30 45 35 38 41 31 38 27 33 40 35 33 28 25 34 35 31 36 26 31 37 31 19 29 28 31 39 36 32 31 26 38 34 35 40 25 45 35 33 33 29 46 38 26 38 34 33 38 29 37 30 25 42 30 35 39 28 42 38 47 34 32 39 33 32 28 37 42 38 23 35 34 25 31 41 26 43 41 39 32 32 32 38 37 37 25 52 32 43 31 32 31 24 41 41 36 28 38 31 30 36 46 29 38 41 29 26 31 35 39 38 27 28 34 39 37 42 33 34 39 25 32 30 36 33 41 35 31 30 43 38 30 54 30 36 45 39 44 39 29 29 28 27 29 38 31 38 31 35 51 30 28 32 37 38 32 46 45 22 40 29 34 45 31 34 31 35 41 39 35 36 43 35 28 35 31 26 35 38 32 37 34 42 39 36 37 30 45 39 38 38 40 36 43 29 40 29 42 40 36 49 30 30 36 47 40 33 37 40 34 36 37 46 29 34 35 39 34 37 41 35 24 36 32 37 33 23 27 39 32 30 31 41 38 34 23 36 39 30 45 25 27 31 41 27 38 32 28 36 30 30 29 37 27 27 27 33 36 31 38 35 44 36 34 29 32 33 34 42 39 43 35 29 30 31 45 39 34 36 40 31 26 34 34 36 31 40 38 37 37 37 28 43 34 30 33 34 30 38 41 31 43 50 35 30 47 41 30 32 46 32 34 34 45 37 32 34 38 31 46 32 40 47 42 31 37 22 39 42 26 43 36 30 33 33 41 36 38 42 32 29 35 45 31 35 34 27 30 27 44 36 23 33 43 38 33 38 30 29 40 24 29 29 36 54 27 31 40 30 36 34 28 29 37 42 36 35 41 33 38 25 35 31 38 60 40 42 42 29 30 30 34 47 32 26 43 36 39 43 31 36 43 43 38 32 41 38 34 33 38 24 40 32 34 39 22 37 35 23 35 38 30 41 32 28 36 47 36 34 32 40 30 31 41 31 37 33 40 35 44 36 39 45 47 41 35 32 31 32 38 36 34 49 41 40 39 40 36 30 29 34 33 45 40 34 35 42 35 35 41 36 40 36 34 33 25 27 28 42 41 33 39 41 28 23 35 46 22 49 43 40 35 43 34 23 23 34 34 33 41 29 35 32 41 38 34 28 30 28 40 36 40 37 34 47 30 32 28 32 20 41 35 32 41 33 29 29 25 40 33 37 27 37 37 45 32 33 33 41 37 37 42 37 35 31 32 49 30 31 38 31 34 28 39 35 40 37 28 38 39 34 34 30 40 42 37 37 30 37 39 27 36 38 40 48 34 43 39 33 33 35 41 35 32 37 35 35 34 37 27 42 33 32 29 39 37 33 28 33 34 41 34 34 34 35 41 37 42 29 33 38 41 27 34 31 31 27 36 38 41 32 35 30 37 36 36 34 48 32 43 25 32 30 26 31 41 42 36 28 38 26 25 37 44 26 41 29 34 28 41 41 45 29 37 33 29 43 47 31 40 38 38 39 35 32 37 43 36 47 31 29 36 32 44 29 31 41 32 49 26 28 36 44 38 51 40 35 37 43 37 50 29 34 27 28 46 35 42 34 41 35 41 24 34 29 31 39 34 45 30 34 34 29 30 32 42 32 39 33 32 29 47 41 23 31 31 41 41 43 29 26 38 45 40 29 28 37 30 28 38 50 30 39 37 39 34 29 34 37 31 33 31 35 37 42 25 37 32 27 35 31 35 36 38 28 41 32 36 38 28 34 28 32 45 34 38 36 41 28 33 40 36 45 30 35 29 22 31 43 41 32 41 40 31 43 37 45 38 34 28 29 35 27 40 29 39 39 42 40 23 36 35 30 37 33 36 31 36 37 41 30 33 37 24 34 42 34 36 36 51 36 30 27 33 41 41 32 37 31 41 24 24 33 29 39 54 29 41 32 32 36 33 32 38 38 39 39 34 35 34 32 41 48 37 34 36 33 40 31 35 37 32 29 42 39 36 34 44 33 33 39 35 36 41 35 32 27 23 45 28 35 38 37 27 28 40 38 40 39 41 27 38 49 40 28 34 27 40 37 35 46 30 33 32 28 30 33 25 36 32 28 24 36 41 51 39 44 36 33 31 38 30 36 32 24 42 34 30 35 46 39 33 44 34 41 34 40 44 30 39 32 35 33 35 36 36 37 36 28 38 41 31 51 35 40 33 41 29 39 46 31 49 36 46 36 33 31 38 43 29 47 43 29 51 31 34 36 32 32 39 31 28 34 36 35 32 33 21 39 29 26 37 32 42 36 39 35 36 39 29 30 31 41 33 35 35 54 37 29 46 34 44 39 45 28 29 36 33 32 29 30 38 33 27 26 38 35 31 43 37 32 42 33 30 44 41 31 40 28 32 33 26 42 34 32 30 31 29 27 31 31 38 44 45 45 38 24 32 35 36 33 24 30 25 34 41 30 36 40 32 42 34 34 31 36 37 40 52 34 33 36 34 43 23 34 40 32 39 35 35 31 33 32 27 25 40 26 37 32 39 25 28 34 32 33 34 41 31 38 29 24 31 38 23 34 40 33 47 29 33 47 35 39 33 29 35 32 33 27 41 33 33 32 48 46 29 27 32 41 29 29 28 38 39 33 37 45 40 39 31 28 36 27 28 40 39 35 34 41 38 37 41 37 36 31 32 30 40 39 46 36 44 43 33 31 33 37 37 23 32 37 33 39 50 33 27 40 27 26 31 36 31 27 27 32 28 35 38 37 41 35 32 28 47 35 35 39 34 40 34 38 39 34 47 35 30 41 39 34 39 43 33 32 33 34 37 41 36 26 36 33 26 26 27 36 29 35 40 40 30 38 38 32 34 36 31 30 31 36 30 27 26 35 43 33 36 29 29 36 32 40 30 34 30 42 33 30 39 37 41 39 41 39 29 48 40 32 31 45 36 36 42 22 36 41 31 33 26 34 40 26 44 33 33 26 37 30 31 26 32 32 28 26 36 53 31 33 45 24 32 36 35 30 30 38 31 38 27 30 33 34 39 38 49 28 37 23 37 34 29 32 33 33 39 36 25 36 28 35 44 37 33 37 29 34 35 31 38 35 39 32 30 20 33 33 37 35 29 34 32 34 51 42 32 40 20 34 32 33 36 29 25 42 32 40 37 39 35 38 32 36 29 28 32 33 31 25 32 39 29 31 26 45 34 37 38 39 33 30 19 32 36 29 41 31 38 32 34 33 31 33 36 32 42 32 39 37 45 34 28 37 42 32 30 30 34 39 38 41 36 38 36 35 41 29 34 42 44 49 29 32 35 29 37 28 33 37 52 30 43 33 26 33 22 43 26 34 30 41 40 37 32 41 39 31 29 38 32 36 33 32 40 36 33 29 27 40 33 24 30 40 37 32 27 39 38 43 34 41 26 33 32 43 40 38 36 31 28 30 44 32 30 39 27 32 40 29 37 36 45 37 47 34 19 35 33 41 26 30 29 45 25 31 37 37 29 26 39 38 35 41 38 31 46 36 32 36 40 43 28 29 41 35 37 44 34 32 35 34 36 38 25 33 41 37 40 40 36 29 26 36 32 32 34 30 28 33 43 36 33 38 38 33 30 37 42 38 37 38 32 39 36 34 40 30 38 30 46 31 40 33 30 27 35 42 36 38 26 38 42 41 26 52 28 33 26 40 55 31 30 34 32 32 30 29 39 28 33 34 33 30 34 30 36 36 45 35 29 35 42 36 28 34 29 35 38 32 35 43 43 42 33 31 24 36 26 48 36 36 33 33 38 26 40 32 30 35 33 39 31 35 30 37 38 33 37 37 26 38 35 34 32 27 37 32 34 33 31 36 45 27 29 38 39 29 37 34 36 35 29 31 34 36 23 34 37 42 30 38 44 44 33 31 37 40 34 26 29 31 42 46 38 28 36 45 32 34 34 33 27 43 33 23 37 35 30 43 37 46 28 33 32 36 34 30 39 30 35 30 36 41 36 41 31 42 23 44 32 31 22 40 33 26 35 37 43 22 33 41 43 40 30 25 36 39 35 29 33 42 29 32 42 42 36 35 35 38 32 30 34 41 35 30 37 28 29 45 34 32 29 38 27 34 36 27 39 37 38 36 32 30 29 28 41 29 26 39 35 53 26 44 26 36 41 42 40 24 37 33 35 22 33 34 35 42 32 33 36 39 35 45 36 32 34 35 33 36 28 37 37 33 23 35 29 37 42 26 32 34 39 36 28 29 44 38 32 34 49 28 31 29 33 38 33 35 39 43 35 24 37 43 32 40 39 29 28 33 39 39 25 41 40 34 35 37 38 40 35 34 37 38 40 33 40 30 28 29 29 43 25 37 26 32 35 42 30 40 31 33 36 35 52 46 43 37 37 28 40 38 39 31 30 34 29 37 31 38 28 27 37 35 41 35 41 44 34 42 31 35 36 31 37 34 28 29 29 30 25 42 32 39 38 39 41 30 24 35 37 38 42 31 40 37 50 34 37 28 39 29 43 26 37 27 27 41 42 41 42 36 36 32 30 27 42 46 41 35 36 38 35 37 34 25 33 33 33 27 51 37 38 39 32 29 27 27 28 38 41 35 48 34 33 24 32 43 31 33 30 30 35 31 31 41 36 36 31 30 41 33 31 32 36 45 41 35 51 25 35 30 36 33 38 38 36 34 30 38 38 34 37 35 44 31 35 28 40 36 36 28 35 49 32 32 39 37 37 34 28 32 36 39 35 49 32 34 29 39 31 28 38 52 44 31 45 33 33 40 30 39 38 35 31 38 33 31 39 37 32 24 42 32 36 29 35 39 36 43 40 32 38 35 42 32 40 44 43 41 28 24 41 24 33 37 39 29 35 36 39 35 27 38 29 34 35 29 39 29 32 55 39 47 47 40 35 46 30 23 41 34 33 33 37 41 50 36 36 41 41 36 32 41 35 35 33 28 36 35 30 26 30 41 36 34 45 30 31 37 27 38 36 37 35 30 24 37 38 28 36 27 35 33 30 31 40 39 42 32 38 27 33 34 35 36 32 44 30 35 45 37 42 33 24 27 46 32 29 32 30 37 39 36 51 40 37 28 39 46 40 39 33 39 33 36 34 49 36 38 29 27 23 41 32 35 36 28 23 35 37 27 38 29 32 41 32 30 39 41 30 37 40 24 37 31 39 35 35 36 40 31 31 33 37 36 34 32 40 38 40 34 28 29 37 35 32 37 26 40 41 25 39 21 27 44 28 38 45 29 39 39 30 37 40 36 25 24 37 25 42 33 37 30 30 32 28 30 46 33 37 41 32 33 27 29 33 29 29 32 35 34 37 39 44 31 37 34 37 43 33 39 28 25 37 36 38 48 26 42 29 29 32 35 34 39 36 37 32 33 26 33 32 34 33 35 26 39 42 36 39 27 34 38 28 34 40 39 32 35 32 31 38 37 26 33 46 36 35 38 37 37 44 28 34 36 35 45 45 44 25 31 33 34 26 33 38 31 42 27 34 39 26 32 37 40 50 37 39 36 40 34 48 40 33 43 33 20 30 36 25 36 31 35 35 28 30 35 38 35 41 35 44 39 28 42 44 49 39 37 28 33 34 37 32 37 28 49 33 27 30 48 41 37 35 32 35 32 25 50 40 36 34 39 35 30 38 40 33 32 36 41 36 32 44 33 28 35 34 33 44 33 26 37 27 34 42 34 32 35 34 28 26 24 34 27 31 35 24 43 35 38 42 27 32 36 32 34 32 33 35 48 31 25 27 39 27 35 40 35 27 30 43 37 28 41 32 37 40 32 37 32 35 35 40 35 37 41 34 35 38 44 35 40 37 30 39 41 32 38 51 41 38 30 33 39 38 42 35 33 34 37 32 33 30 35 30 43 26 30 37 34 29 34 32 44 22 45 33 30 40 34 51 33 37 34 32 46 37 34 36 38 22 38 29 31 33 30 36 42 37 30 53 38 30 27 23 28 31 27 26 32 36 42 37 35 47 32 37 42 33 38 38 36 39 29 36 46 35 37 32 31 34 31 30 34 39 41 42 32 36 38 30 19 37 33 41 25 32 44 34 38 38 43 34 37 28 26 43 28 36 39 31 38 33 40 41 41 45 36 28 38 33 36 38 30 28 44 41 33 36 38 30 31 35 26 36 31 33 35 50 39 33 34 36 37 34 31 38 31 37 31 42 30 37 34 35 43 39 33 39 36 41 36 34 31 38 34 50 26 41 34 32 48 34 32 35 26 32 46 19 34 28 30 44 21 32 32 38 29 28 40 35 39 39 41 37 35 44 33 28 39 37 29 40 35 37 37 43 29 35 35 41 44 32 38 35 33 34 34 29 35 41 36 32 36 27 31 40 36 42 40 28 30 26 39 39 27 35 29 40 35 34 36 31 25 42 38 47 43 29 36 32 37 44 25 40 32 44 47 27 34 35 43 39 34 36 24 47 41 28 43 39 37 33 43 37 34 28 35 33 25 36 24 40 32 36 32 42 30 36 24 46 33 34 35 33 28 45 43 44 43 49 33 39 27 31 42 29 52 37 24 31 31 31 41 37 29 41 34 35 27 34 42 36 31 49 31 20 40 31 35 37 41 43 30 36 44 32 32 31 38 38 32 37 34 46 33 42 40 35 30 48 38 38 28 31 34 31 35 35 42 34 32 29 39 45 30 36 38 27 33 33 29 21 26 31 32 32 41 33 35 37 22 24 35 39 34 40 34 20 42 46 33 37 40 32 37 32 45 32 32 39 31 32 37 32 28 29 34 40 19 35 37 45 33 32 28 43 30 31 23 52 31 34 32 36 33 24 33 27 36 28 29 36 37 33 34 34 37 34 41 34 30 37 39 25 35 36 39 32 42 35 29 32 34 31 27 30 24 36 34 36 38 29 43 45 32 32 40 29 31 30 41 37 35 29 49 44 38 37 43 34 33 37 32 34 38 29 38 38 34 37 33 40 30 27 30 37 37 31 34 35 34 29 44 41 38 32 28 31 28 31 35 30 34 24 33 32 36 29 39 40 43 37 38 40 32 37 43 35 39 35 31 37 31 31 40 40 31 32 20 30 41 28 35 41 35 42 38 48 39 32 37 33 33 39 35 32 39 46 30 34 38 25 31 41 33 35 29 31 46 27 41 52 36 26 26 34 29 35 35 32 33 32 41 39 31 37 23 30 30 30 28 34 45 27 27 33 31 34 35 36 42 28 36 40 39 40 47 36 42 25 46 25 34 30 33 31 35 37 24 32 34 33 35 47 38 43 36 35 38 41 38 33 24 38 30 34 44 38 37 30 31 36 38 38 46 35 37 34 32 30 36 26 35 36 22 37 33 34 42 41 30 51 41 30 33 31 37 25 37 30 35 36 34 33 39 38 36 39 33 32 28 30 40 31 41 38 53 36 44 30 45 28 32 33 31 39 36 29 47 28 55 34 37 38 37 35 35 39 28 26 32 32 24 28 35 35 44 35 37 47 39 38 35 50 38 34 38 38 38 32 33 36 36 40 32 31 26 25 20 38 28 32 39 27 35 42 32 41 27 35 36 29 41 31 30 40 35 44 32 39 33 34 28 39 40 49 40 44 34 38 34 25 28 43 18 42 36 26 37 39 30 53 36 31 35 29 32 31 26 27 36 42 38 28 32 37 35 25 41 37 30 28 44 39 34 39 41 30 27 34 36 33 32 34 37 40 48 37 48 32 35 27 27 24 30 35 34 27 36 45 31 43 31 31 36 35 32 33 33 39 34 37 38 37 30 46 37 30 37 29 27 33 42 29 28 27 28 34 43 31 34 32 27 34 32 25 42 29 34 31 36 26 31 27 39 34 39 32 33 31 37 32 33 44 32 35 34 18 27 22 30 35 42 41 33 33 24 29 34 34 33 30 26 36 31 24 41 27 46 31 31 35 47 27 31 30 29 33 30 35 34 35 29 48 27 27 35 36 36 34 36 39 45 31 32 32 31 44 38 39 30 44 42 30 32 37 34 30 38 29 24 38 32 30 35 34 30 34 45 41 35 37 32 32 51 43 40 39 43 36 37 40 37 34 29 34 26 30 37 21 41 27 27 33 34 29 27 41 28 30 38 36 50 38 29 34 42 34 40 43 42 27 40 27 26 35 31 30 36 33 40 33 28 23 42 29 33 36 39 35 35 33 31 32 33 35 46 35 35 48 23 40 31 34 39 29 23 38 36 33 28 37 34 42 36 38 32 33 38 28 34 34 35 26 34 37 27 40 38 30 39 41 33 32 37 33 41 46 39 35 34 27 44 34 33 29 37 34 41 39 41 33 37 32 35 38 29 34 26 39 37 30 24 41 39 31 29 36 36 36 34 30 40 33 36 42 35 35 29 34 32 34 37 32 37 33 28 42 33 42 34 36 38 32 39 33 40 32 38 41 38 47 27 41 42 34 24 36 34 44 39 43 37 37 21 32 24 43 37 37 34 34 41 29 51 36 37 39 33 38 36 27 38 31 32 35 31 35 36 23 36 30 42 38 39 37 33 27 41 25 39 41 43 31 36 33 43 38 29 40 32 42 40 42 29 39 36 37 39 27 37 38 38 31 24 41 41 34 38 29 38 32 35 33 32 40 25 28 41 36 32 33 36 26 42 33 36 35 48 31 36 32 37 39 40 25 44 34 27 41 40 32 37 42 33 26 28 47 28 31 39 24 37 30 32 37 41 39 31 37 31 25 21 32 27 34 32 32 28 25 30 35 39 37 35 34 42 36 40 47 30 30 42 32 35 32 41 34 49 39 29 33 43 35 34 37 47 32 37 36 30 28 31 32 39 24 32 30 31 32 32 39 36 38 35 39 39 35 36 40 34 46 46 34 34 40 32 42 26 29 34 35 32 37 35 34 44 36 38 31 35 33 30 41 39 38 28 31 35 30 35 44 34 30 41 42 46 39 25 32 38 41 36 26 29 32 31 35 34 38 35 29 36 24 37 38 42 30 31 29 26 34 25 39 35 43 39 34 31 34 25 34 34 33 36 36 25 45 46 38 25 35 43 32 37 33 29 33 32 29 32 42 41 38 39 44 38 29 42 34 39 30 33 29 30 36 30 37 32 34 35 41 32 39 32 42 42 33 40 37 35 34 40 35 39 37 25 35 32 32 36 28 47 33 21 49 28 34 37 35 22 36 24 52 34 27 37 44 35 36 36 32 34 38 40 31 34 28 39 30 31 42 29 28 31 30 45 40 39 41 34 39 39 31 40 40 43 37 29 36 37 56 39 36 33 31 42 29 40 33 34 39 38 35 34 33 31 28 33 38 48 31 36 31 38 34 30 29 39 34 34 32 33 31 33 36 17 41 26 37 49 36 34 31 30 36 37 38 36 27 31 41 41 36 43 38 36 19 33 35 43 40 37 35 37 32 37 33 28 37 37 36 22 30 35 38 31 36 45 48 29 43 39 34 44 35 32 35 33 32 37 36 29 28 32 41 29 41 36 40 32 47 39 30 28 35 29 38 30 33 44 37 33 34 37 32 39 40 39 38 28 29 36 42 32 31 33 31 32 28 37 50 33 32 39 41 38 38 40 39 36 31 35 43 23 29 49 36 36 41 41 39 27 35 24 32 37 45 42 28 32 39 28 26 41 44 35 38 36 30 41 36 32 37 40 43 35 37 31 33 33 33 33 33 48 31 35 36 40 32 36 38 46 40 30 38 34 33 38 37 33 40 31 33 33 31 48 37 36 26 30 28 35 30 37 38 32 43 30 35 50 45 29 36 42 29 36 37 32 31 34 35 19 27 33 41 27 43 32 35 25 38 43 42 32 30 39 35 26 29 27 48 45 47 29 35 23 32 34 28 33 45 45 43 36 39 46 29 29 45 51 36 35 32 38 50 40 34 38 34 32 35 46 31 38 36 52 35 30 42 33 44 35 29 27 30 52 39 38 33 40 36 39 43 53 32 21 31 37 43 44 37 32 37 34 42 48 27 38 31 47 28 37 38 34 41 29 41 39 36 43 33 33 41 46 32 42 36 34 39 34 36 41 31 40 44 44 25 40 30 43 25 40 37 41 33 34 32 38 32 36 35 37 29 34 33 33 37 39 35 30 30 30 35 36 38 29 33 40 35 35 29 47 32 38 42 31 48 37 35 23 31 30 37 35 40 27 39 39 40 33 35 29 30 28 41 32 47 38 31 37 41 29 32 42 34 40 23 40 32 37 39 29 39 34 42 34 34 27 33 37 26 46 30 34 39 28 40 23 32 52 37 35 31 30 34 27 27 28 35 38 35 43 35 39 37 23 36 36 40 38 40 42 31 31 35 29 47 22 28 28 41 31 26 26 30 34 40 25 43 31 46 36 34 38 35 34 31 37 36 34 34 33 24 38 31 32 34 35 43 33 35 34 26 34 31 30 37 31 39 30 33 36 26 37 44 38 33 45 40 36 30 30 34 36 28 30 38 36 38 42 44 34 30 31 44 31 38 43 34 36 35 31 29 33 33 27 39 38 43 36 39 35 29 24 31 31 39 31 44 24 42 37 35 32 33 26 32 31 34 33 36 33 41 42 36 40 30 31 34 36 35 38 30 43 45 33 30 34 30 37 23 31 33 28 35 33 28 33 33 34 41 26 36 32 29 48 40 29 37 33 39 34 39 30 40 26 34 29 29 29 35 24 41 43 36 29 40 37 41 34 40 38 43 34 32 29 38 30 33 37 36 30 33 30 35 31 51 42 39 33 37 34 36 28 38 28 37 33 38 33 41 36 32 31 36 29 35 29 37 37 25 37 37 35 37 47 35 31 44 38 29 34 23 35 27 35 22 37 36 37 38 29 39 36 28 40 35 42 46 26 38 32 33 28 43 41 41 35 34 28 39 37 34 31 24 17 30 32 42 32 26 33 26 28 40 44 29 29 28 38 33 40 35 36 33 48 31 33 37 35 32 37 40 42 34 38 56 32 39 49 48 25 31 33 42 39 38 31 42 31 29 30 25 39 34 35 36 42 30 32 39 34 35 44 27 41 39 26 30 32 38 49 31 41 39 34 32 33 30 39 34 40 37 26 41 37 30 35 49 41 40 25 34 38 34 41 41 38 28 35 34 39 31 39 46 36 37 33 44 33 30 36 31 28 33 36 41 32 45 35 38 46 32 44 32 36 42 22 31 42 36 33 34 32 34 39 48 29 32 30 34 36 32 39 23 28 43 42 32 28 28 33 40 39 38 40 38 26 34 31 33 43 37 28 40 25 40 26 53 34 41 37 39 38 32 34 40 44 30 40 25 44 45 35 41 38 28 39 28 34 30 39 28 46 30 34 26 36 39 30 30 38 33 39 33 31 30 29 38 33 37 41 36 33 39 38 38 27 29 29 33 35 35 26 37 31 26 31 38 31 35 32 32 42 37 35 30 26 41 39 40 40 37 38 43 42 35 33 32 40 29 31 27 35 41 44 39 32 22 42 35 45 37 36 33 43 27 35 39 31 33 32 32 44 36 37 36 37 38 35 47 35 38 30 32 34 39 29 36 32 38 32 41 28 26 45 31 35 29 44 53 35 37 34 41 35 38 31 35 34 36 42 32 32 44 41 29 32 40 49 32 32 30 32 33 30 30 45 23 45 35 34 41 31 36 38 41 27 27 39 34 25 39 32 27 36 34 27 40 32 34 44 35 35 32 34 35 42 33 37 38 41 41 33 42 35 43 35 29 33 45 35 40 38 31 42 35 34 42 30 44 28 37 34 30 37 40 38 33 29 38 37 32 33 40 42 34 34 31 31 34 47 40 39 42 29 38 32 34 35 34 39 31 40 40 39 28 28 37 29 32 37 33 31 32 33 31 39 20 33 28 40 35 41 28 29 30 42 34 44 34 28 40 45 32 30 37 42 39 37 25 46 37 43 39 41 31 38 42 38 27 26 35 32 26 38 32 29 34 36 41 38 34 41 27 32 31 37 37 32 26 28 39 30 48 33 41 45 36 40 38 29 33 49 39 34 34 37 35 31 33 30 38 39 30 40 37 36 34 28 37 32 35 40 39 39 31 40 35 35 28 33 31 21 25 42 41 44 29 32 43 41 27 40 42 38 42 41 35 33 40 42 40 48 35 28 45 38 33 25 33 46 38 37 33 31 24 40 25 29 33 43 31 38 35 36 37 37 43 40 36 43 23 28 49 35 50 39 26 36 32 37 35 37 33 38 29 32 37 39 34 24 31 33 31 41 32 34 24 38 31 34 34 35 24 31 37 31 37 35 40 26 50 26 31 38 32 29 34 23 32 28 35 44 32 42 41 28 35 36 46 25 33 34 30 37 34 33 26 38 32 40 24 36 46 42 30 30 33 32 39 28 39 30 24 46 44 25 39 37 44 31 34 41 28 35 38 35 26 26 38 37 37 38 29 34 35 32 35 29 37 35 34 37 34 33 32 34 36 33 31 33 32 46 30 38 42 30 26 43 36 32 32 26 38 32 29 33 33 38 31 32 35 46 36 31 38 26 31 34 38 36 36 33 26 32 37 45 40 52 28 42 34 47 37 27 37 41 27 37 36 30 37 33 40 35 44 33 25 35 36 35 39 30 40 36 36 37 32 34 36 25 39 29 29 31 30 30 28 37 37 26 22 40 35 41 33 28 41 41 33 32 41 35 39 26 28 40 31 43 35 27 43 35 36 38 34 27 30 46 29 39 37 30 33 33 24 35 35 47 33 27 29 39 32 34 34 29 31 31 26 40 46 33 45 40 36 36 54 29 27 26 37 34 44 32 33 38 30 32 29 34 42 40 39 36 39 38 49 37 34 30 36 26 36 34 38 44 36 49 48 40 33 39 40 29 36 34 31 48 38 35 41 32 30 32 29 34 33 36 41 25 28 40 29 40 36 31 44 32 44 36 32 32 38 27 35 34 29 24 30 36 37 33 34 52 40 37 33 34 39 37 33 32 27 32 44 28 43 36 43 28 30 42 32 32 46 35 28 25 32 29 42 32 37 35 47 31 38 28 44 36 34 35 30 34 25 35 40 44 26 31 33 35 31 32 35 45 31 27 40 38 28 33 36 31 32 34 32 27 35 30 34 40 43 32 38 36 38 32 32 29 26 32 39 34 29 32 36 35 35 41 37 33 41 34 30 33 31 32 34 45 42 36 31 33 43 31 36 35 28 36 32 35 38 40 38 31 26 43 38 40 35 33 42 41 43 25 34 31 36 27 34 34 32 28 36 33 40 26 31 40 28 53 34 38 38 44 31 36 33 39 38 40 38 32 30 29 35 28 39 32 32 38 37 47 28 39 36 40 39 43 30 30 28 34 27 26 29 31 30 34 30 32 26 36 43 24 38 28 41 29 44 33 28 37 36 42 31 37 40 35 43 35 32 25 37 41 26 47 24 33 28 39 34 35 38 40 26 30 34 31 26 46 33 35 28 32 36 28 27 39 40 33 39 44 39 35 40 32 40 35 45 43 35 34 42 31 35 35 38 30 30 38 44 33 28 40 34 30 29 40 39 29 32 31 31 42 30 39 34 37 27 30 36 40 34 25 35 30 41 37 36 30 34 38 33 27 36 33 30 24 37 36 32 28 40 37 37 28 27 42 40 30 34 36 36 43 41 42 39 24 33 31 32 36 32 34 35 37 47 40 31 30 31 24 41 39 31 37 23 37 39 37 39 28 34 40 35 44 33 36 32 22 35 32 45 30 37 31 29 35 29 37 33 27 36 31 42 39 45 37 43 35 31 39 36 47 35 37 36 35 24 39 35 41 36 31 40 44 37 21 26 38 37 36 28 28 28 37 41 38 37 34 33 34 34 33 31 31 36 36 44 27 24 23 40 32 24 30 34 26 27 32 36 38 38 41 39 33 37 40 44 28 30 24 39 35 31 42 35 26 30 37 36 31 46 45 29 44 38 33 32 36 35 43 43 40 33 37 37 34 35 40 36 31 28 41 43 34 32 30 30 37 39 32 34 36 39 34 39 35 31 50 35 31 33 25 35 41 35 26 44 40 41 34 42 33 42 31 27 50 37 31 42 41 36 44 26 31 24 28 32 35 33 28 33 31 32 39 36 30 42 46 36 37 36 36 39 35 41 22 29 33 43 27 45 47 30 32 38 35 32 34 34 41 34 31 29 24 33 28 31 29 35 36 30 36 30 27 44 39 42 35 34 33 34 36 42 36 39 30 36 38 38 36 40 38 39 22 33 29 35 21 31 23 29 32 45 45 27 33 33 34 44 32 40 27 51 35 28 32 24 33 32 30 37 33 35 30 40 38 35 39 37 31 34 40 52 20 36 33 42 32 31 29 29 36 38 32 32 50 49 36 39 34 35 37 41 31 40 38 35 35 35 41 37 41 34 40 33 39 32 27 29 36 35 33 37 37 38 32 31 26 31 38 23 37 30 43 28 44 36 30 36 43 32 29 29 33 34 41 30 34 38 44 41 35 38 45 36 32 28 38 33 39 38 37 33 36 42 43 42 33 32 43 34 41 34 29 24 40 29 39 27 35 39 47 24 37 37 37 31 39 35 44 29 33 39 33 37 36 48 36 37 28 47 33 42 40 32 29 32 26 38 33 36 31 29 35 38 24 42 29 38 36 31 35 50 32 44 38 35 37 31 36 27 45 37 30 34 29 29 35 35 30 34 38 33 37 31 31 35 40 31 31 33 37 37 31 38 38 41 28 32 41 33 39 28 49 37 42 37 28 37 34 34 35 41 36 41 26 37 33 38 28 36 36 38 23 42 38 34 26 34 28 42 39 30 48 41 33 31 34 42 43 35 24 34 40 39 38 31 23 29 26 39 33 29 47 24 32 32 32 34 31 25 35 45 48 36 29 44 46 34 27 41 32 35 33 35 38 21 32 30 32 39 33 38 41 31 34 43 37 53 33 37 34 31 38 33 30 29 33 31 28 34 44 37 27 30 39 27 35 32 25 27 45 41 27 41 36 39 29 35 31 30 33 31 44 41 33 38 27 30 27 24 37 32 32 30</t>
+  </si>
+  <si>
+    <t>JSB(5.190789651141845, 6.850338289257595, -249.04863120680548, 1522.280594209778)</t>
+  </si>
+  <si>
+    <t>291 306 263 234 222 208 309 261 207 183 268 147 243 152 275 169 197 233 207 219 334 195 147 267 225 198 89 224 173 232 265 303 271 202 348 227 159 243 257 255 232 189 313 261 210 260 300 288 206 195 265 233 182 239 362 270 215 186 293 211 160 309 237 194 291 217 179 291 224 241 235 322 192 212 259 289 289 313 176 286 238 231 245 185 245 286 278 260 158 181 200 204 258 277 213 167 239 189 207 288 241 305 283 312 241 266 251 119 177 259 265 278 221 284 322 197 263 186 198 307 155 230 156 279 182 235 245 218 244 287 276 204 261 261 263 278 223 216 289 207 186 307 280 245 289 196 319 260 313 309 242 243 194 158 140 227 151 201 299 270 169 248 313 192 181 230 167 231 224 243 191 157 298 140 234 254 152 216 250 213 278 247 295 175 269 282 249 260 261 247 281 257 201 255 185 204 215 248 198 250 218 224 172 284 240 302 280 264 189 257 246 163 259 303 187 273 333 173 197 225 173 231 234 191 199 310 205 306 230 160 290 203 208 203 287 192 236 309 194 200 208 234 198 264 284 261 257 274 288 259 250 133 252 242 243 199 185 201 264 164 269 217 298 299 234 214 197 337 175 207 254 245 225 147 205 136 296 226 199 207 306 186 320 222 264 213 253 291 238 215 234 225 249 241 261 274 279 257 242 196 253 248 253 193 343 221 198 277 204 260 320 285 200 287 202 255 189 190 248 185 176 276 346 280 220 202 191 211 234 188 286 321 222 266 230 232 194 211 252 217 290 207 239 266 158 354 270 261 262 298 300 243 267 296 149 282 193 336 251 280 187 141 105 225 241 221 304 234 291 183 164 237 248 248 199 201 310 231 152 258 238 281 267 198 274 271 260 188 264 240 199 205 338 217 260 225 284 194 230 245 213 233 279 187 187 223 253 418 264 194 215 163 232 282 194 243 201 147 292 148 267 246 138 179 266 309 211 315 182 271 256 152 260 261 240 220 184 271 228 231 226 267 236 220 232 172 240 197 197 209 236 199 286 319 174 272 252 292 282 174 247 214 203 305 213 244 237 226 139 234 241 247 263 212 131 246 183 193 235 229 218 162 161 226 222 159 210 225 267 240 320 219 209 271 201 240 201 260 207 276 242 234 238 355 258 276 229 248 214 214 295 253 264 178 186 296 327 237 179 301 182 296 236 195 178 210 197 235 292 157 233 324 327 261 307 332 286 259 241 253 313 251 226 224 171 197 175 185 267 183 203 231 219 218 288 214 233 243 264 251 272 255 324 241 252 244 243 213 232 307 233 306 274 244 236 281 176 293 182 253 280 212 196 240 150 253 236 332 196 292 283 154 311 337 245 208 323 304 213 264 222 272 183 199 208 208 292 284 303 255 220 263 212 297 184 231 265 259 212 280 277 219 213 277 175 233 269 217 265 234 196 188 246 229 207 191 326 273 238 250 188 198 233 229 166 261 178 271 263 213 257 264 282 286 226 230 263 243 255 255 230 237 252 159 263 278 185 253 253 268 289 252 314 254 330 165 241 284 321 262 298 256 146 254 155 253 309 279 242 297 226 271 290 219 248 300 219 231 219 158 212 411 270 237 224 216 190 181 314 259 262 225 198 202 331 256 232 243 287 259 220 307 181 240 278 262 260 383 272 190 182 239 290 204 263 252 249 271 251 274 346 281 194 297 255 175 241 187 279 302 235 246 257 221 244 308 194 224 215 217 302 256 243 179 202 198 169 270 197 281 202 314 228 320 255 221 308 240 269 234 101 246 261 261 199 323 207 192 266 254 216 220 195 364 287 164 253 220 215 217 208 199 234 221 242 320 260 232 254 235 192 160 191 186 175 230 249 301 256 176 325 241 260 208 241 251 266 260 215 111 296 202 292 201 205 298 243 198 181 213 285 170 228 185 129 200 194 175 286 139 304 276 150 249 205 180 215 195 250 184 312 237 335 269 188 240 322 130 227 279 235 228 221 156 240 208 156 229 180 285 249 263 196 225 262 218 322 183 254 248 149 208 354 183 159 253 270 298 367 245 187 242 230 227 313 175 117 192 196 318 212 186 284 213 301 278 224 222 231 218 182 105 258 184 237 235 228 196 191 222 233 225 175 201 228 223 178 155 248 257 333 275 232 116 216 229 206 257 255 224 286 274 235 273 237 249 290 216 201 234 290 295 218 228 200 197 180 253 258 189 191 270 174 199 278 305 210 186 230 221 239 244 203 314 173 248 162 247 190 289 168 216 156 178 193 248 196 194 225 257 290 203 260 285 177 196 253 220 234 188 155 220 389 261 215 253 274 355 172 240 260 202 260 218 384 242 221 284 216 208 269 265 279 263 200 243 190 294 188 300 229 298 213 290 218 233 201 231 272 255 266 255 182 164 257 245 126 204 275 270 343 175 283 260 286 197 343 276 216 179 253 293 174 326 250 199 230 209 244 213 249 280 203 235 96 247 180 187 318 293 226 213 253 143 281 181 216 312 263 221 149 300 301 240 240 224 285 180 267 135 227 184 235 216 324 210 199 235 208 193 181 278 223 273 329 171 264 300 218 247 249 267 269 257 116 246 185 192 263 120 233 184 253 170 242 243 272 323 243 210 181 180 181 281 243 274 237 256 204 230 231 207 253 214 215 205 278 228 242 254 230 256 163 201 250 194 253 250 252 202 299 211 277 202 280 243 148 270 246 191 189 234 283 258 200 134 265 236 217 270 246 180 250 258 268 225 259 287 235 224 254 146 276 158 262 239 283 314 223 275 261 232 246 210 190 311 275 297 192 256 227 200 272 153 169 210 251 317 201 232 300 223 236 283 271 218 234 228 227 329 309 184 148 202 293 276 267 244 237 236 327 166 307 283 252 192 368 192 302 143 308 233 279 199 317 139 232 229 220 214 262 221 215 303 232 264 210 242 326 193 345 225 182 226 261 181 176 219 169 321 161 302 297 223 191 206 238 222 276 231 294 181 230 185 246 178 226 239 202 245 314 227 177 289 212 207 296 276 207 304 240 220 334 257 226 341 198 279 156 175 206 265 252 169 212 235 327 228 233 235 200 313 224 223 147 149 258 260 310 298 194 176 266 206 235 240 226 148 190 318 193 258 230 207 139 232 296 267 192 144 289 163 244 184 218 196 296 220 280 204 255 269 221 338 286 280 204 244 249 266 243 123 248 313 217 234 200 170 248 259 244 352 206 218 340 193 243 259 213 143 268 266 114 191 196 235 175 288 224 176 131 257 199 237 223 273 265 244 249 257 260 231 240 172 157 276 215 297 229 253 277 222 273 233 228 190 236 171 307 214 164 266 283 241 326 235 242 241 232 218 232 230 319 238 214 198 226 236 297 214 257 305 187 303 287 300 240 283 263 244 199 288 228 241 259 242 302 196 185 102 147 313 223 187 302 226 218 258 210 198 190 259 165 229 308 194 231 217 295 282 237 295 203 224 165 172 231 207 160 225 248 279 254 253 257 174 228 197 263 395 232 175 261 262 247 195 219 243 278 230 201 279 203 235 213 216 227 248 297 205 289 312 187 389 208 259 295 248 222 230 276 207 237 171 278 163 313 255 227 245 311 333 164 269 221 229 205 180 259 326 240 246 203 249 176 223 206 238 245 143 208 245 239 160 233 320 236 207 231 198 275 236 281 211 159 244 143 251 227 312 228 160 163 215 253 236 214 266 213 249 277 199 196 239 153 226 188 278 216 243 199 305 324 271 311 100 184 217 178 282 133 214 270 244 235 180 169 232 207 245 286 258 240 286 218 247 327 166 153 309 171 218 144 200 246 267 247 262 212 229 263 224 153 195 313 296 239 235 266 275 303 215 172 179 260 194 251 228 287 268 332 185 264 242 182 254 256 242 183 361 209 248 247 253 307 248 309 227 338 217 277 277 335 268 258 288 231 358 177 165 192 216 285 227 212 240 258 213 236 183 291 224 250 282 161 278 262 268 278 294 257 166 357 267 186 204 300 244 189 239 260 261 293 321 186 239 323 232 265 249 283 270 228 161 267 320 248 258 263 289 258 186 174 206 299 262 175 374 170 251 288 257 235 226 325 252 294 233 213 330 217 309 183 223 273 251 227 272 213 176 259 133 263 251 294 216 165 203 87 222 294 277 226 231 267 257 257 183 315 221 338 152 209 262 173 267 229 244 148 222 219 318 265 181 266 275 364 279 328 263 205 291 204 309 367 250 318 235 238 217 215 176 214 146 215 247 206 241 226 200 218 223 244 236 233 223 256 197 282 219 232 244 188 258 262 249 179 254 255 261 322 229 196 176 186 170 343 271 235 204 202 287 226 331 138 226 393 249 251 232 229 220 185 229 192 170 211 228 267 187 222 385 186 248 246 283 248 285 193 232 272 204 268 155 240 339 206 259 240 281 307 228 225 303 256 288 169 150 235 340 233 214 249 229 250 290 261 289 260 279 225 327 106 191 174 343 275 183 261 273 220 175 262 266 191 328 236 277 291 195 261 240 222 252 253 210 258 301 285 294 266 270 184 209 279 252 317 198 260 178 292 218 284 272 249 221 217 283 205 247 276 253 232 207 277 266 171 259 229 231 255 258 336 227 280 271 140 263 256 223 264 285 348 250 343 219 333 310 268 184 231 276 238 207 312 198 258 168 183 310 246 244 323 204 278 165 179 215 230 249 137 265 300 280 195 220 296 237 239 199 183 352 214 304 229 162 167 282 161 217 191 210 211 167 254 230 179 201 283 160 208 250 232 236 279 278 191 230 285 231 282 237 240 283 276 321 242 236 170 283 169 212 150 223 230 241 288 157 222 236 295 239 292 283 276 298 331 264 220 278 292 195 255 255 277 224 221 215 307 145 294 330 261 180 158 223 204 165 166 268 300 248 165 203 157 227 262 184 172 165 147 320 260 197 226 218 151 240 184 166 259 204 187 199 254 226 194 230 234 257 311 225 251 231 242 303 301 249 255 235 241 201 178 296 290 319 154 197 282 251 265 249 168 252 278 204 298 347 246 329 260 198 77 261 202 325 302 240 249 281 232 236 204 283 300 219 301 197 305 233 288 177 235 195 275 244 292 210 294 308 165 194 179 169 255 234 256 250 297 308 263 204 328 367 173 158 254 273 241 270 176 226 261 197 231 270 208 261 222 181 227 163 197 282 213 240 264 211 294 231 231 199 316 188 186 226 220 232 274 270 200 329 194 294 307 268 193 260 217 306 286 255 238 259 215 278 214 245 252 270 268 253 191 187 241 201 226 193 259 236 234 182 245 182 206 224 227 237 170 232 272 264 169 196 242 309 239 246 247 189 203 186 244 280 246 257 274 312 298 265 284 258 149 222 306 208 161 343 212 252 256 233 219 270 209 239 247 215 216 225 371 177 214 230 238 298 207 244 197 162 132 258 266 310 210 254 210 242 273 253 244 209 315 265 285 206 98 307 261 180 225 247 337 257 248 253 201 184 262 231 253 232 258 326 328 188 214 262 296 265 166 223 196 203 262 226 317 164 169 323 234 213 211 248 281 270 283 215 219 291 297 174 207 218 258 350 174 239 205 149 234 235 286 297 254 275 247 182 273 239 263 278 239 289 233 244 245 264 192 145 192 238 196 219 284 258 221 184 215 245 235 239 324 159 241 223 201 176 255 298 191 256 297 234 316 251 238 210 186 255 162 199 224 360 252 199 254 277 191 229 180 303 221 189 188 140 212 209 288 279 301 208 247 337 247 247 168 191 255 232 133 252 307 198 267 201 337 204 179 247 276 193 291 264 227 317 201 162 196 181 234 294 200 200 242 355 182 238 193 318 160 197 239 245 217 250 235 227 186 289 223 245 203 224 216 182 207 149 265 247 241 172 310 272 268 207 257 194 159 184 232 275 244 248 249 255 134 182 213 171 184 314 185 270 297 201 237 210 245 336 258 305 295 250 218 229 220 214 178 286 167 260 259 279 178 153 226 240 195 225 205 222 194 194 255 286 138 189 259 249 155 255 242 244 198 195 178 225 281 211 398 234 154 223 264 207 320 215 273 230 265 231 267 251 236 309 190 203 269 234 237 206 261 244 233 239 191 241 337 239 344 231 266 170 170 221 326 241 240 193 175 209 246 279 269 173 304 123 250 239 244 158 223 218 158 253 172 224 142 204 301 254 294 141 255 266 174 261 286 203 233 288 230 213 229 165 208 273 202 247 217 218 334 168 182 279 236 190 180 280 204 152 212 360 217 276 208 228 207 282 179 208 238 334 215 275 304 318 199 236 183 268 129 179 198 261 274 300 284 187 350 307 216 260 262 201 261 295 146 220 269 216 241 214 284 205 278 291 249 248 255 188 276 226 290 276 170 179 254 310 239 206 289 269 187 211 240 281 319 169 178 241 227 260 223 188 204 259 258 136 225 251 209 225 299 280 268 210 151 237 244 312 189 143 259 195 215 146 171 235 356 261 213 392 254 224 162 307 222 249 199 260 272 194 259 222 261 189 294 272 227 238 225 164 256 130 198 159 241 282 322 179 274 302 254 236 222 299 319 307 334 243 292 247 264 253 219 319 280 260 194 222 323 315 163 284 311 320 240 318 327 182 228 189 205 265 200 254 200 240 130 353 213 171 260 253 217 242 301 274 294 308 278 264 168 282 285 253 236 274 143 257 273 168 193 245 253 295 233 310 225 282 268 201 263 172 250 311 168 170 192 130 122 207 172 224 224 216 216 296 213 285 327 262 241 262 238 206 236 216 239 145 235 251 200 287 251 215 195 243 253 202 224 301 348 271 280 125 186 189 275 290 227 192 217 232 199 172 196 159 194 326 258 222 234 282 236 252 330 149 213 259 249 145 304 234 254 315 246 264 274 169 273 241 253 172 210 196 218 319 187 213 252 274 236 208 186 252 243 222 243 151 207 283 215 226 157 226 211 184 340 195 159 171 234 194 156 170 238 176 247 162 175 251 210 241 250 324 165 308 324 186 266 308 189 258 226 165 220 297 242 264 216 264 201 233 216 227 188 251 219 216 186 163 267 310 205 222 198 220 350 333 250 252 285 199 227 279 206 247 284 354 210 297 241 309 206 193 276 256 235 297 222 184 342 276 245 245 194 190 182 217 233 233 321 249 250 318 137 317 256 268 250 309 264 222 148 216 300 271 321 213 233 302 319 236 275 278 183 264 253 227 210 294 241 187 302 245 206 219 244 218 255 235 181 249 263 242 226 199 254 275 194 131 269 226 194 149 149 214 197 214 306 324 199 234 259 296 166 212 212 242 285 258 261 261 281 179 228 109 147 251 316 302 304 249 282 262 336 253 250 262 226 215 187 186 261 276 256 194 217 327 254 229 203 289 357 169 236 280 177 279 180 236 120 240 251 234 234 212 267 313 298 255 254 171 253 209 243 232 282 338 180 219 209 259 179 235 148 207 280 151 314 172 216 223 222 251 235 257 215 251 288 337 214 346 255 362 247 324 168 179 280 234 248 213 292 202 239 171 266 242 220 208 295 156 208 210 234 216 244 262 288 213 252 344 245 279 123 355 259 199 125 252 211 247 193 244 273 291 167 226 208 259 283 229 191 184 139 265 201 245 165 276 186 290 253 195 307 260 282 286 214 219 293 195 177 240 165 236 205 278 192 236 229 251 198 275 227 296 314 193 187 202 355 252 228 210 235 303 286 210 264 233 230 294 248 216 289 268 262 198 245 188 281 266 200 206 216 296 242 248 282 234 223 207 247 310 209 221 167 186 239 202 198 244 181 189 261 163 125 197 217 193 264 147 254 228 213 279 225 263 401 196 353 184 273 301 207 329 275 177 220 214 221 306 240 268 210 193 269 196 243 312 225 281 230 290 164 190 264 254 230 282 197 266 322 188 218 266 164 168 341 147 259 291 202 204 141 280 197 201 267 175 267 237 311 170 165 240 170 309 297 225 250 291 209 255 259 323 176 259 309 209 179 193 253 260 177 193 188 302 282 220 271 199 239 233 192 176 190 261 244 273 201 150 167 233 258 215 355 287 234 291 312 253 228 173 152 213 208 227 303 218 303 214 305 263 201 151 227 261 298 213 308 313 190 279 226 275 290 164 234 182 228 208 284 209 237 266 226 150 284 231 213 207 262 208 189 254 285 241 267 210 260 281 276 260 220 253 289 287 257 241 178 287 217 288 337 244 220 270 258 275 168 241 301 217 233 294 426 115 239 306 351 271 181 260 249 130 271 274 186 177 160 148 251 249 210 220 252 285 265 160 215 201 238 316 194 184 166 333 204 283 289 218 238 239 212 161 195 249 230 185 187 245 190 260 259 292 293 222 190 271 243 223 225 259 265 222 200 197 174 277 343 222 329 307 221 181 200 271 208 226 237 266 288 214 269 197 334 188 205 259 171 237 214 220 197 304 347 217 254 272 237 200 204 238 244 277 221 338 261 229 218 249 211 347 181 246 326 346 221 226 195 239 269 205 291 246 207 253 216 260 238 216 310 243 153 174 244 263 301 240 173 169 181 274 239 157 221 287 239 177 237 283 225 220 111 210 200 212 287 167 213 292 227 268 273 197 197 193 229 260 231 244 257 262 194 260 207 281 360 334 240 303 146 222 210 179 332 217 253 393 246 311 254 159 216 257 302 272 191 330 264 281 217 222 223 280 263 289 283 136 243 288 201 194 235 206 266 181 177 326 291 294 217 185 248 199 223 329 175 227 261 344 222 338 271 259 348 340 283 281 279 195 177 274 202 258 360 285 267 217 280 227 245 186 268 240 330 208 218 250 324 227 302 300 254 235 255 251 203 167 177 157 297 241 219 227 283 264 176 208 239 200 233 220 241 245 311 178 159 152 178 238 226 342 230 251 174 308 211 224 204 197 190 282 241 261 260 271 309 233 250 226 220 103 281 196 200 278 255 217 284 150 241 204 237 201 285 255 337 208 206 274 350 250 278 274 254 217 229 210 301 282 227 240 209 214 223 295 250 269 282 180 338 234 252 224 232 272 252 241 273 241 348 225 183 211 192 329 280 271 214 267 289 220 222 213 260 198 245 224 245 246 338 178 193 224 214 192 248 222 244 255 200 178 255 220 229 178 224 258 315 306 237 223 253 243 216 198 227 190 150 223 271 326 238 222 200 285 202 274 235 275 206 270 189 227 194 169 197 266 185 283 226 303 155 186 321 304 220 275 217 227 199 312 296 339 239 242 246 220 321 295 210 269 254 275 327 290 226 287 307 277 240 235 223 256 222 265 248 195 272 212 253 162 218 278 304 280 326 270 205 213 301 262 303 259 227 184 149 125 223 288 234 265 239 333 179 200 208 231 275 245 290 231 267 172 211 190 235 284 115 313 219 182 196 287 291 200 217 213 228 325 269 160 184 182 291 243 209 155 252 175 193 193 348 242 324 325 229 213 222 254 246 227 225 220 292 240 345 152 238 283 223 222 206 241 302 304 238 262 251 273 218 256 179 178 274 253 145 302 243 287 213 233 280 266 316 233 227 216 141 242 395 266 251 233 211 220 240 263 280 256 227 203 167 242 185 264 158 280 270 279 237 176 211 272 258 183 256 329 243 215 241 292 205 228 256 177 252 220 249 283 274 255 237 215 232 226 244 264 247 299 215 282 138 171 209 131 293 303 211 240 187 258 227 216 244 238 231 278 274 198 243 262 187 264 250 209 231 208 230 319 169 269 324 217 212 240 257 271 255 289 226 281 250 243 269 205 233 241 212 165 250 217 249 217 209 171 209 341 201 244 219 249 175 286 341 246 173 190 170 270 230 238 361 178 280 181 222 167 245 195 266 201 152 147 289 176 333 274 290 284 210 159 251 191 249 166 145 300 205 210 304 309 302 302 266 217 239 229 211 315 198 266 223 194 165 251 271 206 219 265 214 329 299 207 331 199 256 157 301 169 242 282 194 370 212 317 265 232 180 205 308 188 266 245 193 339 236 270 152 285 221 178 229 178 273 206 189 210 227 145 260 210 205 229 211 244 284 231 241 236 270 201 198 246 227 205 217 262 283 236 219 348 271 387 258 247 234 195 238 186 210 223 232 332 212 187 184 214 279 207 258 243 231 233 247 226 286 218 236 323 220 257 258 184 325 213 245 198 242 158 174 204 191 273 276 308 253 245 190 198 261 262 200 229 241 194 240 288 231 329 277 230 253 274 264 220 221 216 290 405 266 205 167 264 310 201 263 218 263 288 232 180 266 182 234 195 128 268 195 263 232 231 115 203 244 241 221 251 294 241 310 170 137 132 262 158 182 296 284 309 194 214 307 222 331 228 190 204 227 254 215 247 182 172 209 299 341 166 180 260 285 198 243 191 203 252 206 222 237 244 281 256 221 204 157 209 315 263 166 188 256 237 238 263 258 278 196 156 138 225 223 267 245 303 305 165 175 276 265 256 198 202 248 201 293 352 244 225 241 170 168 193 200 243 224 225 230 155 231 214 221 257 209 216 189 306 285 287 254 243 294 262 216 271 322 212 316 268 303 306 266 252 259 200 187 240 275 210 244 197 193 268 231 254 156 160 263 165 284 302 224 215 264 200 231 138 234 266 168 215 167 214 183 176 246 262 248 289 170 216 295 226 299 243 248 172 259 291 247 229 230 230 258 269 242 226 245 196 249 204 268 273 225 283 134 306 274 250 166 205 195 302 188 210 211 200 158 294 157 213 193 191 224 219 161 275 259 145 212 330 186 200 233 218 211 197 212 199 299 204 232 204 238 239 198 231 173 237 183 204 176 183 277 288 199 305 235 199 267 140 246 269 281 178 228 202 250 242 185 236 277 286 193 235 156 201 231 272 231 227 238 209 159 325 356 233 221 172 204 211 220 246 183 205 329 190 307 286 267 283 318 233 300 194 202 198 164 217 143 178 217 223 216 206 350 241 236 197 286 214 196 168 224 254 196 261 287 234 213 212 307 261 235 239 267 282 171 253 250 283 199 193 196 320 191 229 172 232 277 232 267 233 326 194 240 255 230 188 262 289 400 153 228 217 230 210 128 234 215 336 190 282 210 183 218 168 283 144 233 244 255 315 278 197 277 229 226 246 231 162 205 229 182 249 237 229 173 203 234 236 164 233 272 277 262 195 259 221 307 248 266 184 249 204 254 305 260 253 234 188 145 280 265 225 302 170 225 289 215 233 285 362 267 296 202 107 261 209 246 198 194 208 175 200 219 253 230 162 242 332 216 267 323 276 213 287 238 225 279 249 272 202 219 248 281 204 291 265 218 197 198 285 244 195 191 249 261 228 262 232 142 222 246 197 236 282 195 180 218 318 270 241 295 258 224 175 265 271 314 284 226 236 278 282 209 332 165 226 202 290 236 256 232 227 164 229 293 219 296 168 220 309 288 203 416 264 272 218 295 266 195 214 250 182 172 228 201 239 265 234 213 260 238 259 207 194 207 331 264 221 272 223 282 247 201 216 238 198 242 267 229 215 326 181 197 161 185 152 354 251 277 210 251 250 227 270 262 227 282 220 248 200 185 223 208 258 218 251 251 153 221 278 257 220 160 215 195 294 250 200 229 312 159 182 255 281 207 261 212 249 291 189 205 208 188 165 260 182 294 164 244 243 316 256 193 290 201 217 138 177 243 333 275 274 203 223 202 160 243 218 241 177 255 186 193 235 232 149 204 259 284 255 232 198 260 266 184 317 218 249 231 242 288 277 230 237 278 141 282 218 232 136 291 194 201 162 266 279 176 207 216 301 253 196 151 244 267 192 197 253 301 217 247 289 268 188 246 283 187 238 221 263 240 243 191 224 196 215 335 191 216 203 308 160 245 254 198 271 314 302 281 225 247 258 167 260 159 177 322 251 357 173 322 151 247 193 206 242 241 272 205 267 114 177 243 162 256 204 114 191 193 251 310 213 241 223 331 227 283 198 263 254 239 169 232 161 293 240 168 245 326 231 274 206 144 244 227 262 257 313 186 137 150 241 223 212 242 297 260 224 205 214 266 184 230 289 157 206 257 275 278 168 247 332 245 279 281 266 279 231 247 330 275 250 255 287 196 188 214 221 237 208 281 185 200 292 246 276 256 229 191 226 283 336 297 239 230 239 192 274 258 238 249 229 233 192 259 242 250 208 199 270 221 330 276 313 293 232 259 218 280 217 250 206 240 182 184 226 131 175 272 255 305 263 236 238 242 203 309 265 244 242 126 315 251 299 187 318 180 277 246 314 142 272 232 177 320 282 271 283 195 267 199 209 235 316 348 304 256 247 232 271 224 205 227 219 249 173 145 238 274 317 231 266 173 159 187 199 270 317 249 311 246 202 154 230 249 195 244 225 251 279 163 227 291 220 280 225 230 211 157 203 242 233 261 265 219 342 170 262 191 249 224 258 295 261 283 201 239 230 243 240 261 282 203 239 182 284 183 271 111 235 314 206 185 260 223 205 265 196 185 253 289 243 276 205 153 152 315 190 181 230 371 279 241 216 214 270 254 185 291 247 270 215 248 209 186 266 206 222 179 290 280 284 179 298 310 276 323 330 246 256 206 319 266 332 317 249 223 207 153 304 171 269 229 292 243 264 230 361 258 185 307 188 269 246 186 303 185 178 341 223 294 297 270 244 258 169 140 197 245 248 227 223 283 292 221 280 268 270 309 254 248 252 228 220 148 261 246 258 124 240 251 254 253 309 175 252 278 169 303 283 212 243 141 136 339 228 184 247 217 218 220 218 222 239 252 243 205 288 255 253 200 193 222 195 344 196 234 285 248 295 183 197 130 275 248 245 269 245 206 251 271 319 287 251 228 244 232 268 221 198 238 246 273 229 347 268 273 218 171 188 277 250 255 250 239 162 274 283 223 288 244 224 246 208 255 288 333 224 218 240 157 279 186 261 195 238 314 291 207 193 245 275 252 235 233 302 233 220 248 220 188 166 271 204 224 172 303 250 201 263 111 178 272 186 239 289 200 277 232 230 303 240 246 223 106 250 126 323 170 197 249 201 140 210 219 195 283 266 199 223 242 215 212 252 149 196 227 259 197 259 236 328 223 219 250 222 351 257 248 193 214 252 278 240 226 223 328 157 199 227 322 210 233 277 199 219 170 179 257 228 246 201 292 160 253 377 242 283 180 201 275 216 234 277 234 185 269 271 252 296 269 180 305 369 252 255 244 300 242 279 151 211 232 179 277 320 311 199 243 156 233 167 242 271 230 295 207 218 178 188 275 293 252 278 243 294 264 287 211 267 264 211 283 219 153 163 202 209 300 256 276 309 196 197 260 172 264 293 234 257 205 217 307 213 352 177 284 147 227 223 250 236 259 197 288 182 196 155 318 302 227 280 272 230 199 235 307 258 307 250 295 225 192 210 195 216 212 192 239 272 216 274 209 193 235 161 301 298 211 171 226 199 255 303 256 198 267 231 220 213 111 223 200 172 302 204 307 254 305 297 224 254 211 253 228 222 276 286 318 231 116 147 254 153 187 206 229 174 273 269 167 254 246 246 347 334 216 180 207 174 323 340 224 300 207 200 247 299 263 230 186 275 228 293 304 205 279 340 266 248 246 206 302 344 324 223 182 248 324 220 227 272 267 254 266 132 167 242 268 189 276 212 269 199 370 186 115 304 221 297 242 250 250 242 290 227 235 243 248 150 272 221 255 277 251 174 274 249 207 364 266 206 164 174 225 223 246 170 194 241 235 216 180 373 219 228 303 241 214 273 306 276 226 301 299 190 253 245 268 199 201 212 178 281 344 301 240 237 264 223 123 269 213 225 225 224 309 250 328 268 265 250 276 262 239 279 179 337 221 200 232 212 234 263 272 352 204 204 217 210 208 227 219 162 285 301 228 202 244 198 254 270 198 232 239 224 273 358 267 244 220 259 206 275 191 287 225 219 271 285 174 304 198 265 293 304 271 275 176 316 222 240 178 222 256 328 155 289 164 159 277 246 253 294 185 243 359 127 230 202 191 291 166 267 256 257 196 202 313 238 279 232 284 228 200 243 238 195 235 248 197 263 254 298 178 273 199 287 256 376 255 211 254 231 239 235 288 183 238 280 243 266 227 211 170 247 298 289 240 218 240 163 270 204 221 259 263 219 232 238 258 210 109 356 335 248 243 181 191 269 248 281 198 285 277 254 339 179 242 288 226 239 249 198 167 287 263 226 329 277 277 213 261 236 233 221 241 227 161 227 163 296 228 272 270 259 221 291 143 334 204 197 265 181 212 232 298 271 332 312 221 333 195 164 287 168 406 253 210 143 180 230 289 285 172 286 275 221 159 306 326 196 153 313 179 153 251 272 274 214 225 262 222 270 374 172 159 173 305 200 211 234 225 312 224 303 288 194 214 262 235 235 204 184 206 272 260 322 353 242 292 212 239 324 220 214 290 160 208 225 204 108 177 258 211 216 245 244 262 233 178 171 244 236 137 275 134 148 366 258 171 175 354 234 242 211 299 239 276 200 251 234 192 173 156 265 255 198 130 281 226 315 198 266 233 274 294 208 192 368 210 258 217 258 233 225 213 216 211 209 203 198 302 242 248 221 279 229 259 198 153 278 251 219 271 254 301 215 297 256 230 189 237 189 163 163 210 233 228 256 223 205 276 237 203 242 227 194 275 213 224 199 246 256 333 237 209 283 333 177 205 271 208 249 244 135 141 249 171 296 224 187 145 232 244 142 252 179 225 292 206 187 263 270 196 200 189 222 248 218 248 233 226 182 215 219 234 215 239 287 285 251 276 228 228 289 339 251 298 259 172 234 254 227 283 209 200 215 168 211 301 213 256 301 239 302 275 305 244 169 255 261 282 302 236 287 194 233 211 224 266 179 156 300 208 203 256 243 284 185 189 356 250 189 171 255 199 261 237 227 218 246 240 298 263 247 168 198 179 202 143 253 295 232 199 243 226 255 273 302 274 177 232 226 193 287 298 218 222 206 235 194 192 210 257 205 248 247 134 249 209 255 236 342 313 253 255 199 257 339 283 207 179 300 224 177 301 230 257 269 177 231 250 229 226 228 172 300 216 218 264 152 218 250 178 240 222 202 254 270 243 315 244 184 189 207 296 239 265 185 282 228 231 290 193 343 206 339 237 249 178 188 281 258 320 295 332 174 223 179 329 159 195 237 297 329 305 256 389 212 303 199 193 261 275 271 264 277 216 223 240 156 164 187 267 208 318 275 263 348 333 271 246 341 316 212 268 267 250 212 204 257 203 332 212 213 208 170 130 261 213 153 240 193 164 318 207 268 170 303 247 218 291 244 211 221 280 206 253 224 249 218 229 277 262 303 253 289 175 229 250 190 190 277 139 281 247 166 265 241 208 343 219 267 238 189 194 216 148 138 277 285 271 219 182 312 196 142 202 287 225 198 215 237 275 251 286 192 202 234 251 215 124 175 184 273 287 226 308 203 210 204 201 219 182 254 271 196 202 221 205 278 206 187 268 236 196 222 265 222 230 236 313 342 211 338 258 275 244 216 196 241 298 184 229 189 229 258 260 167 233 201 205 243 228 214 223 208 260 183 248 191 242 215 251 242 263 212 206 199 279 162 269 317 196 220 213 141 228 147 161 210 234 281 266 213 165 214 188 216 233 158 141 231 155 157 287 196 270 212 180 264 307 175 165 202 185 245 237 226 245 247 166 277 134 160 310 247 232 196 294 256 246 212 235 218 150 315 282 279 202 318 256 200 287 314 198 231 262 242 131 160 223 202 250 276 139 165 237 290 207 195 185 264 300 281 272 204 273 235 227 287 196 261 209 213 173 184 206 114 252 165 230 227 232 242 198 253 186 172 228 216 275 243 194 199 284 213 257 249 231 165 249 192 171 217 206 207 275 258 274 298 216 150 304 215 284 161 261 266 280 204 199 212 197 210 264 247 249 351 167 297 241 244 269 252 184 235 240 179 193 184 200 314 240 301 214 239 282 206 249 217 212 155 185 295 180 272 233 236 213 268 265 149 242 268 332 311 282 251 227 156 283 276 309 205 293 265 286 306 301 242 309 267 201 243 273 169 169 271 265 173 187 291 309 238 232 237 211 246 289 168 332 274 229 295 283 254 177 228 239 199 242 241 286 245 201 314 182 289 268 214 313 261 234 150 237 234 316 250 299 226 212 292 290 190 191 284 174 349 323 266 199 251 185 211 179 386 210 229 222 204 359 152 299 275 267 229 200 274 200 190 208 200 243 252 218 191 252 154 238 179 288 242 210 236 259 197 304 219 294 174 298 183 273 239 227 309 199 252 256 266 304 236 163 244 262 251 194 175 221 246 283 243 150 249 275 295 280 147 274 252 237 232 174 328 142 170 318 302 245 275 237 184 285 170 257 190 261 215 281 233 234 285 299 165 367 244 193 310 292 230 309 263 256 200 252 353 197 194 209 147 243 231 231 293 301 261 234 226 269 125 149 240 172 304 215 249 171 180 199 296 243 200 224 209 310 257 323 248 234 227 286 194 273 268 283 221 331 259 194 192 341 270 197 217 206 184 293 275 216 190 224 187 321 202 203 189 188 218 208 237 280 278 180 274 271 262 279 311 239 317 349 180 214 268 143 274 176 134 233 220 255 252 298 197 285 211 240 228 276 238 197 299 248 270 154 188 262 171 265 279 223 206 307 217 321 321 146 150 273 252 246 158 160 183 269 241 292 270 271 244 248 196 322 194 275 220 256 227 218 235 133 350 220 284 241 211 212 215 136 209 189 191 209 261 165 209 350 242 217 244 331 154 260 214 227 194 236 239 183 279 260 243 303 259 310 199 341 265 293 240 187 240 217 231 225 321 157 179 269 225 207 225 239 314 328 211 232 283 195 224 269 263 236 180 164 208 162 187 217 205 351 192 150 331 135 277 329 263 173 230 147 374 228 244 221 300 249 218 215 215 267 298 259 256 176 195 270 162 236 317 197 241 243 192 296 266 274 316 229 246 243 199 306 363 218 287 181 187 332 328 257 232 237 227 292 146 319 185 260 253 276 258 226 277 175 211 214 249 306 227 261 135 245 190 225 186 227 146 201 229 237 162 294 255 79 298 172 312 261 284 260 266 193 201 200 250 234 224 179 315 233 288 270 219 266 161 247 233 268 266 286 201 239 235 253 217 202 293 217 284 151 202 258 248 221 215 242 279 224 286 181 223 323 228 197 272 248 198 268 206 163 225 216 281 167 314 239 248 205 300 256 214 147 279 198 353 226 226 308 262 259 249 344 181 220 270 218 257 221 217 260 269 166 140 239 173 216 206 266 329 213 240 241 275 280 208 230 292 233 186 231 311 186 248 325 214 259 287 290 294 227 227 121 182 298 354 324 213 222 284 205 236 263 267 248 261 204 257 239 272 189 218 293 207 275 211 240 284 269 319 218 228 300 227 259 204 319 283 207 267 328 287 162 275 189 289 271 241 225 276 214 177 246 192 291 225 223 203 237 256 203 219 225 226 215 221 165 254 288 256 169 241 282 223 237 248 214 172 254 213 100 204 271 204 177 225 219 253 169 207 273 242 185 187 290 218 131 185 215 389 314 335 192 222 184 215 283 206 216 373 299 282 265 270 317 228 156 323 300 231 245 254 205 288 319 195 201 180 242 261 297 258 272 236 246 267 168 281 251 321 256 224 140 204 297 278 234 230 288 209 225 281 295 203 186 246 208 262 278 209 237 299 221 252 352 190 185 223 312 192 286 281 213 289 210 227 307 222 318 205 225 259 259 213 313 218 298 280 261 258 322 223 253 339 283 160 319 190 337 164 241 249 285 290 178 240 257 243 244 243 298 190 171 223 240 227 225 261 225 225 141 219 251 262 201 225 228 290 234 125 366 261 275 277 195 320 254 195 193 185 253 226 234 278 207 226 314 310 240 199 158 197 181 264 272 323 282 202 230 293 212 203 265 203 294 146 227 231 186 263 203 213 223 244 295 230 206 304 295 216 300 207 231 302 176 235 167 215 355 273 197 248 197 239 212 232 189 233 224 251 281 262 261 288 101 210 220 345 253 275 283 249 240 272 270 271 168 257 237 253 237 196 191 210 206 192 153 276 250 307 314 196 334 295 225 214 184 182 208 250 237 167 270 255 226 293 257 260 175 281 278 136 164 224 291 230 231 265 237 252 231 209 233 364 258 201 280 249 240 206 205 258 241 190 173 236 293 283 262 250 180 186 262 263 208 288 284 252 232 244 257 202 228 162 215 293 304 267 238 225 201 155 194 151 177 239 171 303 168 289 231 280 249 222 162 193 190 221 281 246 246 290 344 293 217 235 185 195 251 236 291 197 292 329 235 275 205 262 263 154 137 269 225 230 279 159 238 238 204 238 192 289 278 157 293 216 201 280 290 261 206 272 209 268 224 248 182 193 141 294 159 271 276 310 192 275 241 257 206 254 221 303 267 208 195 245 262 280 307 200 152 175 212 299 238 237 307 266 262 256 257 256 193 262 129 256 238 267 272 264 230 218 207 180 182 222 224 281 230 178 308 221 251 252 333 243 152 262 349 224 217 141 170 167 202 138 285 255 239 248 179 284 260 189 245 248 340 327 197 278 242 236 209 223 294 297 227 236 216 241 305 187 313 157 111 150 209 302 250 164 207 149 188 3</t>
+  </si>
+  <si>
+    <t>JSB(1.6037450690303565, 0.20794416493125578, -4.657404058357489e-13, 6.009771086841486)</t>
+  </si>
+  <si>
+    <t>1 1 2 0 0 0 1 2 1 2 1 1 1 2 1 0 0 3 1 0 3 2 0 2 1 1 0 3 1 1 1 2 0 2 3 1 1 2 1 1 2 0 1 1 0 0 2 2 0 1 0 1 1 1 4 1 1 1 1 1 0 2 0 1 0 1 0 1 0 1 1 1 0 0 2 0 0 0 1 1 1 1 0 0 0 2 1 1 0 1 1 1 1 1 0 0 0 1 1 2 0 2 1 2 1 2 2 0 1 0 3 1 2 0 0 1 0 1 0 1 0 1 1 1 0 3 1 2 2 2 1 1 1 1 2 3 3 0 2 0 1 3 2 2 1 1 0 1 1 2 1 0 0 0 0 1 0 1 0 2 0 1 1 0 0 1 1 1 1 1 2 3 2 1 2 1 1 1 1 0 1 0 0 0 1 0 0 3 1 1 2 3 0 1 2 2 1 3 2 1 3 1 0 2 0 0 2 0 1 3 2 0 0 1 1 1 1 0 1 0 1 1 2 0 2 1 1 1 2 2 1 2 2 2 2 1 2 2 0 0 1 3 2 0 2 4 2 2 0 2 2 1 2 1 2 2 0 1 0 2 2 0 2 1 1 0 1 3 1 2 1 1 1 0 3 0 3 1 0 1 1 1 3 1 2 1 0 2 2 1 1 1 3 1 2 2 1 1 1 0 1 2 1 2 1 1 0 4 1 2 1 1 0 0 3 1 0 1 0 2 2 1 2 1 1 0 0 2 2 1 0 2 1 1 0 3 1 0 2 3 2 1 2 1 1 2 0 2 0 2 0 2 1 0 0 0 1 4 2 1 0 0 0 0 2 2 2 0 3 1 0 0 1 0 0 1 2 1 2 0 0 1 2 2 1 2 2 1 1 1 0 1 4 2 1 1 1 1 1 1 1 3 1 1 1 1 0 2 1 0 1 0 2 3 0 1 0 0 1 1 2 0 0 1 1 1 1 2 0 3 1 2 2 0 0 1 1 1 1 0 1 2 1 0 2 2 1 2 0 1 2 2 1 0 2 1 2 0 3 1 2 3 2 2 0 0 1 0 0 0 2 1 4 1 1 1 0 1 1 1 1 1 0 3 1 0 0 1 0 1 3 2 2 3 1 0 0 0 2 1 0 1 1 3 3 1 1 0 0 2 1 2 2 0 1 2 3 0 0 0 1 1 3 1 1 1 1 0 4 0 1 2 3 1 1 2 1 1 1 1 2 2 2 2 1 1 0 1 1 0 0 2 1 0 1 1 1 2 1 3 3 0 2 1 1 1 0 1 0 0 0 1 1 1 0 1 0 2 0 2 4 1 1 0 0 2 1 1 1 1 0 1 1 1 1 2 2 2 0 1 1 1 0 2 1 1 2 0 0 0 1 1 0 2 1 2 0 1 2 2 0 0 2 1 0 1 2 1 1 2 0 1 1 2 0 2 3 2 2 2 1 0 1 0 1 1 1 1 3 1 1 3 2 2 3 0 0 3 2 1 1 1 0 2 0 3 0 0 2 2 2 1 2 2 2 1 0 3 3 1 1 1 0 0 1 1 1 2 1 1 2 2 1 1 0 3 0 1 1 1 1 2 2 1 0 1 1 0 4 3 1 0 1 1 2 1 2 2 3 1 2 0 0 1 3 0 3 3 1 1 1 2 3 2 2 1 2 2 2 2 2 2 1 0 2 0 1 0 1 1 1 1 3 1 1 2 2 1 1 1 1 3 0 0 1 2 0 0 1 3 1 0 0 2 1 2 3 1 1 2 0 3 1 3 1 0 2 0 1 1 0 0 1 1 4 0 2 2 0 1 1 1 0 1 0 2 1 0 2 2 0 0 0 2 0 1 1 2 1 2 4 1 2 1 2 1 0 1 1 1 1 1 1 2 2 1 1 1 1 2 1 1 2 2 0 1 1 2 1 1 0 3 2 1 3 1 0 0 2 2 1 1 3 0 0 3 2 0 1 0 1 1 0 0 3 0 0 1 0 3 1 0 1 1 2 1 2 0 0 0 1 0 3 1 1 0 1 3 2 1 1 0 1 0 2 0 1 0 0 1 1 1 2 1 1 3 0 0 0 3 0 2 0 0 0 0 0 2 1 1 0 1 0 0 1 2 1 1 2 2 0 1 0 2 1 3 0 0 1 3 0 0 1 2 0 2 1 0 0 1 1 3 1 2 0 2 2 0 2 0 0 3 1 2 2 3 0 0 2 0 2 1 2 2 0 1 0 0 3 1 1 1 1 1 0 1 2 2 0 3 3 2 1 1 3 1 2 2 0 1 0 2 5 2 0 0 1 2 0 0 2 1 1 3 2 1 0 2 1 2 2 2 3 3 1 1 0 3 2 0 1 1 1 2 0 1 1 0 3 2 2 1 1 2 3 2 0 2 1 1 2 1 2 1 3 0 5 2 0 1 2 2 1 2 1 0 1 0 2 1 1 1 0 0 0 0 1 2 0 1 0 2 1 0 1 0 1 1 1 1 2 1 1 2 0 1 3 0 0 1 0 2 2 1 3 1 1 2 0 1 1 3 0 3 1 0 1 2 2 3 1 3 1 2 0 1 3 0 4 1 0 1 0 1 1 4 1 2 0 1 3 0 1 2 1 0 1 0 0 1 1 1 2 1 2 1 2 2 2 2 1 1 0 2 1 1 1 1 2 1 1 1 4 1 1 0 1 2 0 0 1 0 3 3 2 0 2 2 0 3 0 1 2 1 0 3 0 3 0 4 1 1 1 2 2 2 3 4 1 2 2 0 1 0 1 0 1 3 0 1 1 0 0 0 1 2 0 2 1 2 2 2 2 2 1 1 3 1 1 2 1 1 0 1 1 1 0 2 2 0 1 1 3 2 3 1 2 1 2 0 1 2 1 1 2 0 2 2 1 1 1 4 1 0 1 0 0 2 3 0 2 2 0 3 1 1 0 1 1 0 1 0 1 1 0 0 2 1 0 2 3 1 0 0 1 1 2 1 1 1 2 2 1 3 0 0 1 0 1 3 1 2 2 2 2 1 0 2 1 1 2 1 1 0 0 0 0 2 1 1 1 1 1 1 1 0 1 2 2 1 1 0 1 1 1 1 1 0 1 2 1 2 0 1 0 0 3 2 0 2 0 0 1 2 0 1 1 0 2 0 1 0 2 1 1 2 1 1 0 1 1 0 2 1 0 0 1 3 2 1 1 0 1 2 2 1 1 2 0 1 2 1 2 0 0 0 0 3 0 1 1 1 1 0 1 2 1 2 2 2 1 1 0 0 1 0 1 1 0 2 2 0 2 1 1 1 0 1 1 1 1 0 1 1 1 1 2 2 1 2 1 1 0 2 0 1 0 2 2 1 0 2 0 2 3 0 0 0 1 1 0 1 2 1 1 2 2 1 0 1 0 2 1 0 1 1 1 3 0 0 0 0 0 0 1 0 3 2 1 3 1 0 2 1 0 2 1 0 1 1 1 1 1 0 2 1 1 2 2 2 1 2 1 1 0 1 2 2 1 3 1 2 1 1 1 3 0 2 1 2 2 1 3 4 1 2 2 1 1 1 3 0 1 1 1 0 1 1 0 1 2 1 1 0 2 2 1 1 1 2 2 2 1 1 0 1 1 0 2 0 0 2 1 0 2 1 0 1 1 2 2 1 1 1 2 1 0 0 1 2 2 0 2 2 3 0 0 2 3 1 1 0 0 0 1 0 2 1 0 3 1 1 2 0 1 0 2 1 0 3 1 0 2 0 0 0 0 0 0 1 1 0 2 1 1 1 1 1 1 1 0 1 1 1 0 1 1 2 1 0 2 1 1 2 1 2 0 3 1 1 1 1 1 0 2 1 1 1 1 2 0 1 2 1 0 0 1 0 2 1 1 0 1 0 2 2 2 2 2 0 1 0 2 1 2 0 0 4 1 1 1 0 2 1 1 2 0 2 1 2 1 0 1 1 0 1 3 1 1 1 2 0 5 0 0 1 2 2 1 2 2 1 2 1 1 2 2 0 2 1 2 2 1 3 2 1 1 1 0 1 0 1 2 1 1 3 1 2 0 0 2 2 0 1 2 3 1 0 1 4 0 2 0 1 2 1 2 2 1 0 1 1 3 2 0 0 1 0 1 1 1 1 0 1 2 2 3 2 3 1 2 0 0 0 1 0 0 0 0 1 1 0 1 2 4 2 1 2 2 1 0 3 0 1 3 3 1 1 2 1 2 0 0 0 1 2 2 1 2 1 3 1 2 0 0 1 2 2 0 1 1 4 1 2 0 2 1 1 1 1 2 1 3 1 0 2 1 2 1 0 1 1 2 1 0 1 0 0 3 0 2 0 1 2 2 0 2 1 0 1 2 2 0 2 1 1 0 2 0 1 1 0 1 0 1 1 0 2 2 2 1 0 1 2 1 1 1 1 1 3 2 1 2 2 1 1 1 2 1 1 1 1 2 0 1 3 1 2 1 1 1 1 1 1 3 2 1 3 1 1 1 0 0 0 2 1 1 1 2 2 3 1 1 1 2 2 2 3 1 2 2 2 1 1 3 2 1 2 1 1 2 1 1 1 0 0 0 2 2 1 3 2 1 1 0 1 0 0 0 0 2 1 2 2 2 0 1 1 1 1 1 0 0 0 3 2 2 0 1 2 2 1 1 1 3 0 0 0 2 1 0 1 1 2 1 1 1 3 1 2 2 2 1 3 3 0 0 1 1 1 0 2 1 0 2 0 2 2 0 2 0 2 1 3 0 2 1 1 2 2 4 0 1 2 2 1 1 1 1 1 0 3 0 0 3 2 1 2 0 1 1 2 3 1 4 1 1 2 2 1 0 1 0 1 2 1 1 3 4 1 0 1 1 3 1 1 2 1 0 2 0 0 1 1 1 1 1 1 1 1 1 0 2 1 1 0 1 2 2 0 1 1 1 2 2 1 1 2 1 1 1 2 1 0 1 2 2 0 2 1 1 1 3 1 2 1 2 0 2 2 0 0 0 0 1 0 1 2 0 2 1 2 0 3 2 3 3 1 0 2 0 2 1 1 1 3 2 0 1 1 1 0 1 1 1 0 2 1 1 0 2 2 1 1 1 0 2 1 2 3 1 0 1 4 2 0 1 2 2 1 2 1 1 0 0 1 2 2 2 0 0 0 1 0 1 3 0 0 2 1 0 1 1 1 0 1 0 0 1 2 1 4 0 4 2 3 2 1 0 3 4 1 2 0 0 1 0 2 3 1 1 3 2 1 1 1 2 1 2 1 2 1 1 0 1 0 1 1 1 1 3 2 2 0 2 3 2 3 0 1 1 3 1 2 1 1 3 2 0 1 2 2 0 1 1 1 0 1 2 1 3 1 1 3 0 0 3 2 1 0 1 2 1 1 1 2 0 2 1 2 1 1 4 1 2 2 2 1 2 2 1 0 1 2 2 1 0 3 2 1 0 1 3 2 2 0 0 2 1 1 1 1 2 1 2 0 2 1 2 2 1 1 0 0 2 1 2 0 2 1 2 2 0 2 1 1 1 2 2 0 3 0 1 1 3 3 2 1 2 0 2 0 1 0 2 2 1 1 2 3 1 1 2 2 2 1 1 1 1 1 0 0 1 2 2 3 2 1 3 0 2 1 1 1 1 0 1 0 1 1 1 4 0 2 2 1 2 1 1 1 1 0 2 1 1 0 2 3 1 1 0 1 2 1 1 1 2 1 1 1 2 1 1 0 0 0 0 0 1 0 0 1 1 0 0 1 1 1 0 2 1 0 2 0 0 2 1 1 1 0 1 0 1 0 0 3 1 1 1 1 1 0 2 2 1 2 2 1 0 1 1 1 0 2 0 1 1 1 1 1 2 0 1 0 2 0 1 1 1 0 1 2 1 1 3 1 1 1 2 0 1 3 2 3 0 0 1 1 2 1 0 2 3 1 0 2 2 0 1 1 0 0 1 3 0 0 1 1 0 3 1 2 0 1 2 2 0 0 2 2 2 2 1 2 1 1 0 2 2 2 4 0 0 1 3 1 1 1 1 1 2 1 1 2 0 1 1 0 1 1 1 1 0 0 0 1 0 4 3 1 1 0 2 3 2 1 3 0 2 0 1 1 0 2 0 1 2 0 2 2 1 1 2 1 1 2 1 3 0 0 4 1 1 2 2 1 1 2 3 1 1 0 0 1 0 2 1 2 0 0 0 2 1 0 2 2 0 1 2 0 1 0 1 1 3 3 2 0 1 2 0 1 1 1 0 4 1 1 0 0 1 1 0 2 2 0 1 1 1 1 1 3 1 2 0 1 2 2 1 0 2 0 2 1 1 1 2 1 0 1 4 1 2 1 2 0 1 1 1 4 1 2 2 1 1 0 1 1 1 2 2 0 1 1 3 0 2 2 0 0 2 0 0 1 2 2 0 2 1 2 3 2 1 0 1 2 1 0 1 1 3 3 3 4 1 2 1 2 1 2 0 1 1 0 1 2 1 1 1 0 1 0 0 0 2 1 1 3 2 2 1 1 2 2 0 1 1 0 0 2 2 1 2 1 2 2 1 2 2 1 1 1 4 0 0 1 1 1 0 3 2 1 1 0 1 0 1 4 0 3 0 2 2 0 2 2 3 0 2 2 1 1 1 1 0 0 1 2 1 2 0 1 2 1 2 1 0 1 1 2 2 2 3 1 0 1 1 2 1 0 2 1 1 2 1 1 1 2 1 3 4 2 2 2 2 3 2 0 1 1 2 1 2 1 3 3 1 1 1 1 2 2 1 1 2 0 1 0 1 2 1 2 1 1 1 0 2 0 1 0 0 1 0 0 2 2 1 4 1 0 0 2 2 2 1 2 2 1 1 4 0 1 2 0 1 0 1 2 1 3 1 2 4 2 1 2 2 2 0 2 1 0 0 1 2 1 0 0 1 1 2 3 2 1 1 2 1 0 1 0 2 1 0 1 1 2 0 3 1 3 1 1 3 3 1 2 0 0 0 3 3 1 0 3 1 2 0 1 1 0 1 2 1 1 1 2 2 1 0 1 2 2 0 0 0 0 1 3 2 0 1 3 1 2 1 1 2 0 1 0 1 1 0 2 2 0 1 3 0 0 0 1 4 1 0 0 2 1 0 1 1 2 1 3 2 1 0 0 2 0 3 0 1 2 3 1 2 0 1 2 1 2 0 2 0 2 1 1 1 1 0 1 0 2 2 2 2 2 0 2 1 1 1 0 0 0 0 2 0 1 0 1 3 1 1 1 0 1 0 2 2 1 2 1 1 3 1 1 1 0 0 1 3 3 2 3 0 0 2 1 1 2 1 2 3 1 0 2 1 2 1 1 2 0 0 0 3 1 0 0 1 0 1 1 1 2 1 0 1 1 1 2 1 2 1 1 0 1 1 3 1 2 1 2 1 2 2 2 1 1 0 0 3 0 0 1 2 1 0 1 1 1 2 3 1 3 2 1 0 1 0 1 0 0 2 1 0 2 1 1 2 2 2 1 3 1 1 3 0 0 1 0 3 0 1 1 1 2 2 1 0 1 0 1 1 0 1 2 3 2 0 1 1 1 3 0 1 1 1 3 1 0 1 1 2 2 3 1 1 1 0 0 2 1 3 1 1 1 2 1 2 0 1 1 1 2 0 0 1 2 1 1 0 1 2 0 3 0 1 2 1 1 1 1 2 0 2 0 0 2 2 2 1 1 2 2 1 1 1 1 2 1 2 1 1 2 2 1 1 1 2 0 2 1 1 1 3 2 3 2 0 2 2 1 1 0 1 2 2 3 0 1 4 1 3 2 3 2 0 1 2 0 0 1 1 2 2 1 2 2 1 1 1 1 3 3 2 1 0 1 1 2 2 2 2 1 2 1 0 0 1 0 2 0 0 2 1 1 1 1 0 0 2 1 0 1 3 1 1 1 2 3 0 0 4 1 1 1 1 0 1 2 2 1 0 1 2 2 1 2 0 2 0 1 1 0 3 0 1 0 1 0 2 1 1 0 1 1 1 3 2 2 3 0 3 1 1 2 1 1 3 1 1 1 2 1 2 0 1 1 0 2 1 1 1 3 0 2 3 3 0 1 1 0 0 1 4 1 1 3 2 2 1 1 0 1 1 0 0 3 1 1 1 1 3 2 0 0 2 3 2 2 1 1 1 3 0 3 2 1 4 1 0 0 2 1 0 1 0 1 2 2 0 3 3 2 1 2 1 0 3 2 0 0 1 2 3 3 0 1 2 1 2 2 1 0 2 1 1 2 2 2 0 0 2 2 1 2 0 0 1 1 2 1 0 5 0 1 2 1 2 0 1 1 2 0 0 1 2 1 1 0 2 1 1 0 1 1 1 0 1 1 2 0 3 3 0 1 1 1 0 2 1 1 0 1 2 1 1 2 1 0 2 2 1 1 1 2 2 3 1 2 1 1 2 3 1 0 1 2 0 4 0 2 0 1 2 1 1 1 3 2 2 1 1 0 2 0 2 2 0 1 3 1 1 2 1 1 2 2 1 2 1 0 2 1 1 1 0 2 0 2 0 1 0 1 3 0 0 0 1 1 0 1 2 1 2 2 0 0 1 2 0 2 0 0 1 0 1 0 1 0 3 2 2 2 1 0 1 1 0 1 2 1 1 2 0 0 0 0 1 2 1 1 0 2 2 0 2 2 1 2 1 2 1 1 2 2 3 2 0 2 2 1 1 4 1 2 1 2 5 5 2 0 3 1 0 1 1 1 1 1 0 1 0 0 2 0 2 1 1 0 0 1 2 1 3 3 2 2 2 3 0 1 1 2 0 0 1 1 1 0 2 0 2 1 1 3 1 2 2 1 0 2 0 1 2 4 0 1 1 0 0 2 2 2 0 3 1 2 1 2 0 1 0 0 2 0 1 1 1 1 2 0 2 0 1 2 1 0 4 0 2 0 2 1 2 1 3 2 1 1 2 2 2 3 2 0 1 1 1 2 1 1 1 0 1 0 1 0 1 1 1 1 0 3 3 0 0 2 0 3 0 2 0 1 2 2 2 1 1 1 0 3 3 1 3 0 2 0 1 1 2 1 2 2 0 1 1 1 2 0 2 1 1 1 1 0 0 0 1 0 1 0 0 2 2 1 1 2 1 1 1 3 1 1 0 0 1 0 2 1 0 2 0 1 0 1 0 2 2 1 2 1 1 2 0 2 0 1 0 2 2 1 1 0 0 2 1 2 1 1 1 2 1 3 2 2 0 2 1 1 1 1 1 1 1 0 2 1 1 2 2 1 1 0 1 2 1 2 1 0 0 0 0 1 2 0 0 2 2 2 2 2 1 1 2 0 2 0 1 1 0 2 0 1 0 1 0 1 2 1 2 1 1 0 1 1 0 0 1 2 0 1 1 2 2 1 1 0 1 3 2 3 2 1 1 0 1 2 3 2 1 1 3 1 2 1 1 1 1 1 1 1 1 0 0 2 1 2 3 1 0 1 0 2 1 1 2 0 2 1 0 1 1 2 2 1 3 2 0 2 0 0 1 2 1 1 1 1 2 0 1 1 1 2 1 0 2 1 2 0 0 4 1 1 0 0 0 0 3 2 1 1 1 0 3 0 1 2 2 4 0 1 2 1 0 2 0 1 1 0 2 2 0 2 2 2 1 2 1 1 2 2 0 2 0 1 1 1 0 1 0 2 1 2 1 2 1 3 1 1 0 1 1 3 0 2 1 2 0 2 2 1 1 1 1 1 1 2 0 1 2 4 0 0 1 2 0 1 4 2 0 3 0 2 2 0 3 2 2 3 2 1 3 0 1 2 0 1 2 2 1 0 1 2 0 0 1 1 0 1 1 2 1 1 3 1 3 2 1 1 0 3 0 0 1 2 1 2 3 0 1 1 1 2 2 1 2 0 1 1 0 0 1 0 2 1 0 1 1 2 0 1 0 1 2 3 0 1 2 2 0 1 0 2 0 0 1 0 2 0 0 1 2 1 0 0 0 0 1 1 2 2 1 0 2 1 0 2 2 1 0 2 1 1 0 0 3 3 2 2 1 1 2 0 2 0 3 2 1 2 1 1 2 1 0 2 1 1 1 1 2 3 1 2 3 1 1 0 2 0 0 1 1 1 0 2 1 1 2 1 0 2 0 1 1 0 1 3 3 2 1 2 1 1 1 1 1 2 1 0 1 0 1 2 3 1 0 3 3 0 3 1 1 0 0 1 2 1 0 1 1 2 0 0 1 1 1 0 1 0 1 1 1 0 2 1 0 0 3 2 1 1 2 2 3 0 0 1 1 0 2 0 1 2 2 1 0 1 0 1 3 3 2 1 1 2 2 0 1 1 3 0 1 1 2 1 1 0 2 1 1 1 0 1 1 1 1 0 2 1 0 0 0 0 0 0 0 4 1 0 0 2 0 1 0 0 0 1 1 2 0 2 1 1 2 1 0 1 2 0 1 1 2 1 1 1 2 2 2 2 0 0 2 1 2 2 3 0 0 1 0 2 3 3 1 2 1 2 1 0 1 0 0 1 1 3 1 1 0 2 0 0 1 1 1 1 1 0 2 0 1 2 1 1 1 0 2 0 1 1 1 3 1 1 3 3 0 0 2 2 0 3 2 1 3 1 1 0 1 2 1 0 1 1 0 0 2 1 0 1 4 2 2 1 0 2 1 0 2 2 2 1 1 1 0 0 1 0 1 2 0 2 1 1 0 1 1 0 2 2 0 1 1 3 1 3 1 0 2 1 3 1 1 0 0 1 3 0 2 0 2 2 3 0 3 3 1 1 1 0 1 1 0 2 2 1 2 0 1 2 0 1 1 2 1 1 1 1 3 0 2 0 2 2 2 0 1 0 3 1 2 0 0 1 3 2 2 0 0 1 1 0 0 0 2 1 0 0 1 1 1 0 2 1 2 1 1 2 0 0 2 1 0 2 1 0 3 1 1 2 0 2 1 1 1 0 1 3 1 2 2 0 1 0 1 0 3 0 1 0 0 0 2 1 3 0 1 0 2 0 0 2 1 3 0 2 2 1 2 1 0 2 0 2 2 2 3 0 3 1 1 1 0 1 1 2 1 1 1 1 1 0 0 0 2 1 1 1 1 1 3 0 3 0 1 1 2 1 0 2 2 0 3 0 0 1 0 1 2 2 0 2 1 3 1 1 4 1 0 0 2 0 2 2 0 0 1 1 2 3 0 1 1 3 0 1 1 0 1 2 3 2 2 1 1 1 3 1 2 1 1 1 1 2 0 3 0 0 0 1 2 1 2 1 0 0 0 1 3 1 2 1 1 1 2 1 3 3 1 2 2 3 1 2 2 1 1 1 2 1 2 0 1 1 0 1 1 0 1 2 3 1 1 3 0 1 2 0 4 1 3 0 1 1 2 2 0 1 0 1 0 1 2 2 1 2 3 2 2 1 0 2 1 0 3 0 2 0 1 1 0 3 1 3 1 0 1 1 0 0 0 1 0 3 1 1 1 1 0 0 0 1 2 2 2 0 0 1 0 0 2 1 2 0 1 3 0 2 0 0 1 1 1 1 0 1 1 1 2 0 3 2 1 1 3 0 2 0 1 1 2 0 4 1 0 2 2 1 0 2 2 0 0 0 2 0 0 2 2 0 0 0 0 1 2 1 1 1 1 1 2 1 1 3 0 3 0 0 1 2 3 1 3 2 0 1 1 3 1 2 1 1 2 1 1 1 1 1 1 2 1 1 0 0 1 3 3 0 2 1 1 0 1 2 2 2 0 0 1 0 1 1 0 2 0 2 2 1 1 0 3 1 1 1 1 2 5 2 1 1 1 2 2 2 2 3 1 1 0 2 2 1 0 1 2 0 2 1 2 1 2 0 2 3 1 2 2 1 2 0 0 2 1 2 0 0 2 1 0 1 3 0 0 1 4 1 2 0 0 0 2 1 2 2 2 1 3 3 0 0 1 0 1 0 1 0 1 2 0 2 1 1 1 0 1 2 1 0 2 0 1 1 1 0 2 0 1 1 1 1 2 1 1 2 1 1 1 0 4 2 1 1 0 0 1 2 0 2 0 2 1 3 0 0 0 1 1 1 2 0 0 0 1 1 1 0 1 2 1 0 0 2 0 0 0 2 0 3 0 2 2 1 0 1 1 1 3 2 1 0 1 2 1 2 2 3 0 1 1 1 0 1 2 1 1 0 1 2 1 3 1 1 1 1 3 1 1 2 0 1 2 1 3 1 1 3 0 1 1 1 1 2 1 3 1 0 1 1 2 0 2 0 0 2 1 4 2 1 1 1 1 0 1 2 0 2 1 1 1 1 0 1 2 0 1 2 1 0 2 2 2 3 1 1 1 3 0 2 1 0 1 1 0 2 0 1 1 1 2 0 0 2 0 1 1 2 2 1 1 2 0 3 1 4 0 2 1 1 0 1 2 1 2 2 0 2 1 0 0 1 1 1 3 1 0 0 2 0 0 0 1 1 3 2 0 1 0 0 1 1 0 1 1 2 1 3 2 1 0 0 2 1 3 1 0 1 0 2 0 0 2 2 1 2 0 1 0 3 0 0 3 0 1 1 0 1 2 1 1 1 1 2 2 0 0 0 1 1 1 2 1 0 0 0 2 2 2 0 2 1 1 2 1 2 3 2 2 0 2 2 2 2 0 1 0 2 1 0 1 3 0 0 1 1 2 1 0 0 2 0 1 0 1 1 1 1 1 1 1 1 1 2 0 1 2 2 1 0 2 1 1 2 2 2 2 2 0 2 0 0 1 2 2 1 0 2 2 2 2 1 1 1 0 1 1 1 0 1 0 3 3 1 1 3 0 1 1 2 2 2 2 0 1 2 0 1 2 0 1 1 2 1 2 0 2 2 1 0 1 1 1 1 1 2 0 3 1 0 0 1 1 3 0 1 2 1 1 2 4 1 0 1 1 0 1 1 0 0 1 2 1 2 2 2 2 3 1 0 0 1 0 3 0 1 1 0 1 2 0 0 1 0 2 1 0 1 1 0 2 0 1 2 1 1 1 1 1 3 1 2 2 0 2 1 0 1 1 1 0 0 0 2 2 0 1 1 2 2 0 2 0 1 2 0 4 0 2 1 0 0 1 0 0 0 1 2 1 1 3 1 1 0 2 2 2 2 2 1 2 3 1 1 2 1 3 2 0 0 0 0 1 1 1 1 1 0 3 0 1 2 1 0 0 2 0 3 0 2 2 2 2 0 1 1 2 1 1 1 2 1 1 0 2 1 1 1 2 2 0 0 0 0 1 3 2 3 1 1 0 0 2 0 0 1 1 0 2 1 2 0 0 0 1 0 1 1 2 3 2 2 3 0 1 0 2 1 2 0 1 0 0 1 2 0 1 2 2 1 0 0 0 1 2 1 1 1 2 0 1 1 0 0 2 2 2 2 0 2 1 2 3 0 2 3 1 2 1 1 0 3 2 1 1 3 2 1 0 1 1 1 0 1 1 1 2 1 1 2 1 1 2 1 0 1 2 1 1 4 2 2 0 2 3 0 2 2 3 3 2 1 1 2 1 2 0 0 1 0 0 2 0 1 1 2 2 2 1 2 2 0 2 0 2 1 2 0 3 0 0 2 1 1 2 1 1 1 1 2 3 4 2 0 1 1 2 0 3 1 3 1 1 0 1 2 2 2 3 1 0 1 2 0 1 1 1 2 1 2 0 1 2 1 1 3 2 3 1 1 1 1 0 1 0 1 1 2 2 2 1 1 1 2 1 2 0 2 0 2 0 1 1 0 1 0 3 1 1 1 2 2 1 2 1 3 1 0 1 1 1 2 1 0 2 2 2 1 0 1 1 1 1 1 0 1 1 2 1 3 2 0 2 3 1 3 1 0 2 1 0 1 1 3 2 1 1 0 1 1 1 2 1 1 1 1 0 2 2 1 1 1 3 0 1 1 0 0 1 2 0 0 0 1 3 1 2 1 1 1 1 1 0 1 1 0 1 1 1 1 1 0 1 1 1 1 1 2 2 3 0 0 1 0 2 1 1 3 1 1 3 1 1 2 1 3 1 2 0 3 0 0 3 1 0 1 1 2 1 1 3 0 0 1 0 1 2 2 0 0 0 2 0 3 1 0 1 4 1 3 0 0 2 0 1 2 2 3 0 0 1 0 0 1 1 1 2 0 1 1 0 1 1 2 1 1 1 2 2 1 1 2 1 3 1 2 0 2 2 2 3 3 1 1 1 2 1 3 1 3 1 0 2 0 1 0 1 0 0 1 2 2 3 2 1 1 1 2 2 1 2 2 2 0 1 1 1 2 1 2 0 3 2 0 2 0 2 1 1 2 2 1 2 2 2 1 1 1 0 1 1 1 1 1 1 2 2 1 2 2 0 2 0 0 3 0 3 0 0 0 0 1 2 1 0 0 2 1 1 1 2 1 0 1 0 1 1 2 1 1 2 0 0 0 0 3 1 0 2 1 2 1 0 1 1 1 0 3 0 2 3 4 2 0 1 1 1 1 1 2 0 1 1 2 1 0 1 0 2 0 1 1 1 1 0 1 1 0 1 1 3 1 1 0 2 0 1 2 2 1 2 2 0 0 2 1 2 1 0 2 1 0 2 3 0 0 1 0 1 0 1 3 1 0 1 1 3 1 0 1 1 1 1 0 0 1 2 3 1 0 0 0 2 1 1 1 1 2 0 1 1 0 2 0 2 1 2 1 1 2 1 3 1 0 2 1 2 1 2 1 2 0 2 2 2 2 1 1 0 2 1 2 1 1 2 1 2 2 2 0 2 2 0 1 0 0 1 1 2 1 2 2 1 2 1 0 1 1 0 0 1 2 0 0 0 2 1 1 0 0 2 1 1 1 1 2 1 1 1 0 3 2 1 1 2 2 0 1 0 1 1 1 0 3 1 1 3 3 1 1 2 1 0 1 1 0 0 0 2 2 0 0 2 1 3 2 0 2 1 1 2 2 2 0 2 1 0 0 1 1 1 2 0 0 1 2 0 0 1 1 2 0 0 3 1 2 2 2 2 2 2 2 0 1 2 2 1 1 1 1 1 1 0 2 3 3 1 1 0 0 1 2 0 2 1 1 3 2 0 1 2 0 1 1 2 1 1 1 1 2 1 4 1 3 1 5 3 1 0 1 1 2 2 0 2 1 1 1 2 0 2 1 3 2 2 4 1 3 1 2 1 1 1 0 1 2 3 2 1 1 2 1 2 3 0 0 0 2 3 1 0 1 1 2 2 2 1 0 1 0 0 2 2 2 2 1 2 1 2 2 0 2 0 2 1 2 0 0 1 0 1 3 2 1 1 1 2 1 0 2 1 3 2 2 0 2 1 0 3 0 2 1 1 0 1 1 1 0 0 2 0 0 1 0 3 2 2 0 1 2 0 0 1 1 1 1 0 1 0 1 1 1 3 1 5 2 0 0 0 1 1 1 2 1 2 1 2 0 4 1 2 3 0 3 1 0 2 1 0 1 1 0 2 1 2 1 1 0 1 1 1 1 0 0 1 1 4 2 1 1 1 2 0 1 1 0 1 2 2 0 0 0 1 1 2 2 1 2 0 0 1 2 0 2 1 2 0 0 1 0 2 1 0 1 2 1 1 1 0 2 1 0 0 1 1 1 1 0 1 0 0 1 0 0 1 2 0 0 2 1 0 1 0 1 0 2 2 2 1 3 2 2 2 2 1 2 2 2 0 1 1 2 1 0 0 0 0 3 2 0 0 1 0 2 2 0 2 1 0 2 2 3 2 0 3 0 1 0 1 1 0 1 1 2 0 2 0 0 0 1 2 1 1 0 3 3 1 0 0 1 1 2 1 1 1 2 3 0 0 2 1 0 1 0 0 0 0 2 1 1 1 0 1 0 0 2 0 0 0 2 1 1 2 0 0 2 1 1 2 2 0 3 0 0 2 2 2 1 1 0 0 0 1 0 1 0 0 1 1 1 3 0 1 2 2 1 0 2 2 1 1 2 1 0 2 1 2 1 3 2 0 0 1 0 1 3 0 1 1 0 2 2 1 3 1 1 0 3 4 1 2 1 2 1 3 2 1 1 1 0 2 1 4 1 1 3 0 3 1 2 2 4 1 0 1 3 1 3 1 1 2 2 1 1 2 3 0 2 2 0 1 2 1 2 1 2 3 0 1 0 5 0 1 3 4 0 0 1 0 1 1 1 1 2 2 1 1 1 2 0 1 2 1 1 1 0 1 0 1 0 2 1 3 0 2 2 1 2 1 3 0 0 1 1 1 1 1 0 1 0 2 2 0 0 1 1 1 0 2 1 2 2 1 1 1 1 2 2 1 2 1 0 1 1 1 0 2 2 2 1 1 1 3 1 4 1 0 2 1 2 2 1 3 2 2 2 0 0 1 0 1 3 1 4 2 2 2 1 2 1 0 1 1 1 1 1 1 0 0 2 0 0 3 2 2 0 1 2 1 2 2 1 1 1 3 1 2 1 0 1 3 1 2 0 1 1 1 3 0 1 2 0 3 2 0 1 1 2 2 0 1 1 4 3 1 2 2 2 1 1 1 1 1 0 0 2 1 0 1 1 1 3 2 1 1 0 2 0 2 1 4 1 0 1 2 0 3 0 2 1 1 0 1 2 3 1 0 0 1 1 1 2 0 0 2 2 2 2 0 1 1 0 1 1 0 1 0 2 1 3 1 5 1 2 1 0 2 3 0 2 0 2 0 3 0 0 0 1 2 2 3 1 2 2 1 0 0 1 3 1 2 2 1 0 1 0 1 2 0 1 0 1 0 1 1 1 0 0 0 1 1 2 2 2 3 0 1 1 1 2 1 0 2 1 0 2 0 0 0 2 2 1 1 1 1 1 2 2 3 2 0 3 1 1 1 1 1 1 2 0 2 3 1 1 0 0 2 2 1 1 1 2 0 1 0 0 2 3 3 2 0 1 2 1 0 1 1 1 2 0 1 0 1 0 0 1 3 0 1 3 1 0 0 0 0 0 0 2 0 2 0 1 0 1 1 0 1 1 1 3 1 1 3 2 0 1 1 1 0 1 1 1 0 2 0 2 1 2 0 1 1 2 0 1 3 0 1 2 0 1 1 1 1 1 1 1 0 1 0 2 0 2 2 2 0 1 0 2 2 2 0 0 2 0 1 2 1 2 2 1 0 1 1 1 2 1 1 1 2 2 2 0 0 2 0 3 0 1 0 0 1 2 2 1 0 1 0 1 1 1 1 2 0 2 1 2 2 2 0 1 1 3 1 2 1 1 1 0 2 0 0 1 1 1 0 1 1 2 1 2 2 1 1 1 3 3 2 1 2 3 1 1 2 0 2 1 0 1 2 0 0 1 3 0 1 0 2 1 3 3 2 0 0 1 2 1 3 4 0 2 2 3 2 1 0 1 1 2 1 0 1 0 1 1 0 0 3 2 2 1 2 0 3 0 1 1 1 0 0 1 0 1 0 0 3 2 2 1 3 1 1 1 1 1 0 0 1 2 2 1 1 1 1 3 2 1 1 0 0 2 1 3 1 0 1 0 1 1 0 3 2 1 2 4 2 2 2 3 1 0 2 1 0 2 1 2 1 1 3 1 2 1 1 1 0 1 1 1 0 1 1 1 0 1 1 3 1 1 0 0 2 1 1 2 1 0 1 0 1 2 1 0 0 1 3 0 1 2 2 1 0 2 1 1 0 0 2 0 2 1 2 2 2 1 3 2 1 2 1 0 3 0 2 2 3 2 1 1 1 0 1 1 3 1 0 2 0 1 3 1 2 1 2 1 0 1 2 3 1 0 0 0 2 2 0 2 1 2 1 0 2 1 1 3 0 0 0 0 2 1 1 2 1 2 1 2 3 2 1 1 2 2 0 0 2 0 0 0 1 2 1 1 4 0 2 0 1 0 0 3 2 1 1 2 2 3 0 2 0 2 2 1 0 3 1 2 0 2 2 1 1 2 0 0 2 1 3 2 1 1 3 2 0 2 0 2 2 4 1 1 0 1 1 0 2 3 0 3 0 0 1 2 0 2 0 3 1 1 3 1 2 0 2 2 0 1 1 1 1 1 1 0 2 3 2 3 2 1 0 1 1 2 1 0 3 1 1 1 1 1 0 1 0 2 1 0 0 1 2 2 1 2 2 2 0 2 1 0 2 1 1 1 1 0 0 2 1 2 0 0 2 2 0 3 1 1 1 1 2 1 0 1 1 1 0 1 0 1 0 0 2 1 3 0 1 0 2 0 1 2 1 1 3 1 1 2 1 1 1 1 1 1 1 0 0 0 3 1 2 0 0 0 1 2 1 1 0 1 0 2 0 2 2 2 5 1 3 2 0 2 1 3 3 1 0 2 1 1 0 2 2 2 2 2 0 0 0 1 2 1 3 0 1 2 2 1 1 2 0 1 0 0 1 2 2 1 4 2 2 1 1 0 0 2 1 2 1 1 2 3 0 0 1 2 1 0 2 1 0 1 3 0 2 1 0 1 1 0 1 0 1 1 1 2 2 0 0 1 1 2 0 2 1 0 4 1 1 1 1 0 1 3 2 0 1 4 0 2 2 0 0 0 2 2 0 1 0 0 1 0 1 0 1 2 1 1 1 2 1 2 1 1 2 1 1 1 1 1 3 1 2 2 1 1 1 0 2 2 2 3 1 1 2 0 2 2 1 1 1 1 0 1 1 1 1 3 1 2 1 0 2 0 3 1 1 0 0 2 0 2 1 3 0 1 0 1 0 1 2 1 1 1 1 0 0 1 1 0 1 2 0 1 1 1 1 1 0 1 2 0 1 2 1 1 1 1 1 2 0 1 1 1 3 1 0 3 1 1 0 2 1 2 1 1 1 1 1 0 1 0 2 0 2 1 2 1 1 0 2 1 1 1 1 0 1 4 0 0 2 0 0 3 1 0 1 2 1 2 1 2 1 2 0 2 1 1 1 1 0 0 1 1 2 0 1 2 2 2 1 0 3 0 0 1 0 1 1 0 2 1 1 1 2 1 2 0 1 1 2 3 2 3 1 1 0 0 1 1 1 0 1 3 2 3 4 2 2 0 3 3 3 0 1 3 1 1 0 0 0 1 1 2 2 2 1 2 1 2 1 1 2 3 2 2 1 2 1 1 1 1 1 1 3 2 2 1 3 1 1 1 1 1 1 1 3 1 2 1 1 1 0 1 1 0 2 1 3 1 1 0 2 2 1 1 2 2 0 0 2 2 2 3 1 2 2 1 2 2 2 0 2 1 1 0 3 3 2 2 1 2 2 1 2 0 1 0 0 1 1 2 1 2 2 1 0 0 1 0 0 0 1 1 0 1 3 1 1 2 2 0 1 2 1 0 0 3 2 0 2 1 2 2 2 0 1 2 2 1 1 3 1 0 0 2 1 2 4 1 1 0 1 1 1 1 2 2 1 2 1 0 2 2 2 1 1 0 0 2 1 1 3 2 1 0 1 1 0 2 2 1 4 1 1 0 0 3 2 1 2 0 1 1 0 2 2 0 2 2 1 2 2 1 2 0 2 2 2 1 2 1 2 3 2 1 3 0 0 1 0 1 1 1 3 2 0 0 1 1 3 0 0 1 2 2 1 3 1 2 0 1 0 1 1 2 1 0 0 1 1 0 1 2 2 2 1 2 1 1 1 2 1 0 0 1 1 0 2 3 1 2 0 2 2 1 1 0 2 1 1 0 0 1 4 0 1 2 2 2 1 2 1 2 3 0 1 0 1 2 5 1 1 1 0 1 1 1 2 0 1 1 2 1 1 2 0 2 1 2 1 1 0 0 1 1 1 2 3 1 2 2 2 2 2 0 1 1 4 0 3 2 1 2 2 1 2 2 2 1 2 0 2 0 3 1 0 3 1 0 2 0 1 2 2 1 1 1 0 1 1 2 0 2 1 1 2 1 2 1 0 3 3 0 2 1 1 1 1 1 1 1 2 1 1 3 1 1 0 2 1 2 0 1 2 0 2 0 0 2 0 0 2 3 1 1 0 2 1 1 0 1 1 1 1 2 1 1 1 1 1 1 1 0 0 0 1 1 0 3 5 1 1 0 1 0 2 3 0 1 1 2 1 1 0 2 2 0 0 3 2 1 2 0 3 1 0 2 4 1 3 2 0 2 1 1 2 1 1 2 2 2 1 2 1 2 2 0 1 0 1 1 2 0 2 0 0 1 1 2 1 1 1 0 1 0 1 1 1 1 1 2 2 0 0 1 1 1 0 1 0 1 1 2 2 1 1 1 1 3 0 0 3 1 1 1 3 2 3 2 1 3 0 1 3 2 0 1 2 1 1 1 0 1 1 1 0 2 1 1 1 3 1 1 2 2 0 0 1 1 1 1 2 3 1 0 2 2 4 1 0 1 1 1 0 1 0 1 3 0 2 2 1 2 1 1 4 0 1 1 0 1 1 0 0 2 2 1 1 0 1 0 2 3 1 2 2 0 1 1 0 1 1 0 1 1 1 1 1 2 0 2 2 4 0 1 2 0 1 1 0 0 4 1 1 2 2 0 0 2 1 2 1 1 1 2 1 0 0 1 4 1 1 1 1 3 0 1 2 1 2 1 1 1 3 2 0 3 2 2 1 1 0 3 2 2 1 1 1 1 0 0 1 0 2 0 0 1 2 1 1 3 0 0 1 0 1 2 1 1 0 0 0 4 1 1 0 3 2 2 1 3 1 0 1 0 0 0 1 1 0 1 2 0 3 1 1 0 1 3 0 3 1 0 3 1 2 0 1 1 2 2 2 3 1 2 1 1 1 2 2 0 1 2 3 1 3 1 1 0 1 1 2 0 2 3 2 0 1 1 0 3 0 1 0 2 2 0 1 0 1 0 1 2 1 0 3 2 1 1 0 1 3 1 0 1 2 1 0 1 0 1 1 1 1 0 0 2 0 1 1 1 1 1 2 2 0 0 0 1 0 0 2 0 0 2 1 0 2 2 2 1 4 1 1 1 1 1 2 0 1 2 1 2 3 2 1 1 1 2 1 1 1 1 0 0 1 0 2 3 1 1 0 2 0 0 2 1 1 2 2 2 1 1 1 0 1 0 1 2 2 1 0 0 3 0 2 0 1 2 0 1 2 1 2 1 1 1 1 1 3 0 4 2 1 2 0 2 1 2 2 1 0 3 2 1 1 1 1 1 0 1 1 0 3 0 1 0 3 3 1 2 1 1 0 3 1 0 0 1 0 0 0 0 0 2 1 0 2 2 0 2 1 1 1 3 0 1 1 0 0 2 0 0 3 1 1 1 0 3 0 1 1 1 1 0 4 1 0 1 1 2 1 1 1 1 1 1 2 1 1 3 3 0 1 1 1 0 2 0 2 0 0 0 2 1 1 1 0 0 0 1 1 1 0 2 0 2 1 0 4 0 0 0 0 0 1 1 0 3 1 2 0 2 1 3 0 1 1 0 2 2 0 1 1 1 1 1 0 1 1 0 0 2 2 1 1 4 1 1 1 0 1 3 1 2 1 1 1 2 1 0 1 0 5 2 1 1 0 2 0 0 1 1 2 2 2 1 2 1 1 1 0 2 0 4 2 0 0 3 3 3 2 2 1 6 2 0 2 2 2 1 2 1 2 1 2 2 3 2 1 0 1 1 1 4 3 1 2 0 1 2 0 2 3 0 2 2 3 0 0 0 0 2 2 1 0 1 1 3 0 2 1 3 1 0 1 1 0 0 0 1 1 2 0 1 2 1 1 0 2 1 0 0 1 0 0 0 2 0 1 1 1 2 0 1 3 2 0 2 3 0 2 2 1 1 0 1 0 0 1 1 1 0 2 1 1 2 2 1 0 1 0 2 2 1 2 1 0 2 2 1 0 3 1 0 3 1 1 1 2 3 1 0 2 2 1 1 2 0 1 1 1 1 1 2 1 0 0 1 1 1 0 2 1 3 2 2 2 0 0 1 2 2 2 0 0 1 1 2 1 3 2 0 3 1 1 2 2 1 1 1 1 1 3 2 0 1 1 3 4 2 1 3 5 3 0 1 0 0 0 1 1 0 0 0 1 1 1 1 3 0 1 0 0 2 1 1 2 2 2 3 0 0 2 1 2 1 3 0 1 1 1 0 1 1 1 1 0 1 1 1 0 1 1 0 1 1 1 0 1 0 2 2 2 1 1 2 1 1 2 0 1 2 1 0 2 0 0 0 2 2 1 0 1 3 1 2 1 3 1 1 1 2 2 2 3 0 1 0 0 0 1 1 0 1 1 1 0 2 1 2 1 2 0 4 0 0 2 0 1 2 0 1 1 2 2 1 1 2 2 3 1 2 2 0 0 0 0 0 0 2 0 1 0 1 1 1 3 2 1 0 1 1 2 1 1 4 2 3 3 1 1 1 1 0 2 3 3 2 3 0 0 1 0 1 1 3 0 0 0 3 0 0 0 2 1 1 1 1 2 2 1 1 2 2 0 0 0 1 2 1 1 1 3 2 0 1 0 0 1 0 2 0 2 1 1 0 1 1 1 1 1 0 1 0 2 1 2 1 0 0 1 3 2 3 0 2 2 1 0 2 1 1 1 0 1 1 1 0 1 2 2 2 0 3 1 2 1 0 2 2 1 1 1 0 1 2 1 2 1 0 2 2 3 2 1 1 1 1 0 0 0 1 0 1 2 2 2 1 0 1 1 1 3 0 1 2 2 0 0 0</t>
+  </si>
+  <si>
+    <t>GAM(0.18100888820286815, -1.9103125975680566e-29, 0.7190691823515978)</t>
+  </si>
+  <si>
+    <t>0 2 0 2 1 3 2 0 2 0 2 1 1 1 1 0 2 1 0 2 0 0 1 0 1 0 0 0 1 0 1 1 0 1 0 0 0 0 1 1 1 1 0 0 0 0 0 0 0 0 1 1 1 1 1 0 1 2 3 0 1 1 0 1 1 1 1 1 0 1 1 1 0 1 0 1 0 1 0 2 0 0 2 1 1 1 0 1 1 3 2 0 0 0 2 4 1 0 1 2 0 0 1 0 0 0 2 0 1 2 0 0 0 3 0 2 0 0 1 2 1 1 1 1 0 1 3 0 0 0 1 1 2 0 0 1 1 0 0 0 2 0 0 1 0 0 0 0 1 0 0 0 2 1 0 1 2 0 0 0 2 0 0 3 1 0 1 1 0 1 1 0 0 1 1 0 0 0 0 0 2 1 0 0 2 0 1 1 2 1 1 2 0 1 2 0 1 0 1 0 0 0 0 0 1 0 1 2 3 0 0 0 0 0 1 1 1 1 0 1 0 0 1 2 1 1 0 1 0 1 1 0 1 1 0 0 2 2 2 0 2 1 1 0 1 1 3 0 1 0 0 1 0 0 0 0 0 1 2 0 3 2 0 2 2 0 0 1 2 2 3 0 0 0 0 1 0 0 2 0 1 1 1 1 2 3 0 0 0 0 2 0 0 0 2 1 1 1 3 2 0 2 1 0 2 0 1 0 0 0 0 1 0 1 1 2 0 0 0 1 1 1 0 1 0 0 1 0 0 0 0 0 0 0 1 0 2 1 1 0 1 0 1 1 1 0 2 0 0 0 2 1 0 0 0 3 0 1 0 1 1 1 0 0 0 1 1 0 1 0 1 1 1 0 0 0 1 2 0 1 0 1 0 0 3 1 0 0 1 4 1 1 1 0 1 2 0 3 2 0 3 1 1 1 1 1 0 0 0 2 0 0 2 0 1 1 0 0 0 2 1 2 0 1 0 0 1 0 1 1 0 1 0 0 0 2 0 0 3 0 1 0 0 3 1 0 0 1 1 0 0 0 2 0 0 1 0 0 0 1 0 1 0 2 2 2 0 0 3 0 0 1 1 0 1 1 0 0 1 1 1 2 0 0 0 0 0 1 1 1 2 0 0 0 1 1 2 1 1 3 1 0 0 1 1 1 1 0 0 1 1 1 1 0 1 0 0 2 0 0 2 0 1 1 3 0 1 2 1 0 1 2 1 0 3 1 1 0 1 0 1 0 0 1 1 1 1 0 0 1 2 0 0 1 0 2 2 0 0 0 1 0 0 0 2 0 1 2 1 2 1 2 1 0 2 2 1 2 1 0 0 1 3 1 0 0 1 1 2 2 1 1 3 0 0 0 0 2 0 0 0 0 2 0 1 0 1 0 0 1 1 0 0 0 0 0 0 1 0 1 0 2 0 1 0 0 0 1 1 1 2 3 0 1 1 0 0 0 1 0 0 0 1 1 1 0 1 0 0 0 0 0 0 0 1 1 0 0 1 1 1 0 1 1 0 0 0 0 1 1 0 0 1 0 0 1 0 0 2 1 1 0 0 2 1 1 1 2 1 0 3 1 1 1 0 0 2 1 1 0 1 0 0 1 0 1 3 0 0 0 1 1 0 0 0 1 1 0 1 2 0 2 3 0 0 1 0 1 3 0 0 0 1 1 2 0 0 2 1 0 0 0 2 0 0 3 2 1 1 1 2 0 0 2 1 0 0 1 0 1 0 0 0 1 0 1 3 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 1 0 1 1 0 1 0 2 2 1 2 1 1 1 1 0 1 1 2 1 0 3 1 0 0 0 0 0 0 0 0 0 0 2 0 1 1 1 0 1 0 1 0 0 0 0 1 0 0 2 1 0 0 1 1 1 0 0 0 0 0 1 0 1 1 1 1 1 0 0 0 1 1 0 1 2 1 0 0 0 0 1 1 0 3 1 0 1 0 1 1 4 1 2 1 0 2 0 2 1 0 1 1 1 1 1 0 1 0 1 0 0 0 1 0 0 1 1 2 0 0 1 0 2 1 1 1 0 1 0 2 0 0 0 1 1 0 0 0 0 0 3 2 2 0 0 1 1 1 1 1 0 1 1 0 2 0 0 1 0 3 1 1 0 1 1 1 1 2 0 1 1 0 0 0 1 1 0 0 1 1 1 1 1 0 0 0 1 1 2 1 2 0 1 2 1 2 0 1 0 1 1 0 0 1 2 0 2 0 0 1 0 0 1 0 0 1 0 1 1 1 0 0 1 1 0 2 1 0 0 1 1 0 2 0 0 2 0 0 0 0 2 0 1 0 0 2 0 2 0 0 0 0 1 2 1 0 1 1 1 0 1 1 2 1 1 0 1 0 0 1 2 0 0 0 2 0 0 0 0 0 1 0 2 0 2 3 2 0 0 0 2 1 1 2 0 2 0 3 1 2 0 0 1 1 0 0 0 1 1 1 0 1 2 3 1 1 1 0 0 0 1 0 1 2 0 0 0 1 2 1 2 0 0 0 0 1 2 3 2 0 0 2 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 2 0 2 1 1 1 0 1 0 2 0 5 3 0 0 3 0 0 2 1 1 0 1 1 0 0 0 2 1 1 0 2 3 0 1 3 0 0 1 0 1 0 0 0 0 0 0 0 0 1 1 0 1 0 1 0 0 1 0 1 2 0 0 0 1 2 0 1 1 2 0 2 0 0 3 1 2 0 2 0 1 4 0 0 1 0 1 1 1 1 2 0 1 0 1 2 1 0 1 0 0 0 0 0 0 1 1 2 0 1 0 2 0 1 1 1 1 2 0 2 0 1 0 0 0 0 1 0 1 0 1 4 0 2 2 1 2 1 2 2 0 0 1 0 1 2 1 1 1 0 0 1 0 1 0 0 1 0 3 1 0 1 4 2 1 0 0 1 1 0 1 0 0 0 3 0 2 2 1 4 0 0 0 0 1 0 0 0 1 1 2 0 1 0 3 0 1 1 0 0 1 1 0 2 0 0 3 0 1 0 0 0 2 0 0 0 1 1 0 0 0 1 1 1 2 0 0 2 0 0 2 0 1 0 2 1 0 1 2 0 0 1 1 0 2 2 3 0 0 2 0 0 0 2 0 2 0 2 1 1 0 0 0 0 0 1 3 0 1 2 1 1 0 0 0 0 0 0 1 0 0 1 0 0 0 1 1 2 0 1 2 1 1 2 0 1 0 1 0 2 1 0 0 0 0 3 1 2 1 0 0 1 1 0 1 0 1 1 2 1 0 2 0 1 2 0 2 1 1 0 0 2 1 1 0 1 1 1 0 2 1 1 1 0 1 0 0 0 1 0 2 0 2 1 0 1 2 1 0 1 2 1 1 0 2 0 0 1 3 0 1 1 0 1 3 0 0 0 3 1 3 0 0 0 0 1 0 0 2 1 1 1 0 0 0 2 1 0 1 0 0 0 3 1 1 0 1 1 0 0 0 0 1 0 1 0 2 2 1 0 0 1 0 0 2 1 2 1 2 0 2 0 0 0 1 2 0 0 0 2 2 1 1 2 1 2 1 0 0 0 0 3 0 0 1 1 1 1 1 0 0 0 4 1 0 0 0 0 0 1 0 0 2 0 1 2 1 1 0 0 1 2 0 1 0 1 0 1 1 3 0 2 1 1 0 0 1 1 1 0 2 0 1 2 0 2 0 0 1 0 1 1 0 0 0 0 1 0 2 1 1 0 0 1 0 0 0 2 0 1 1 2 0 1 1 2 0 0 0 1 1 2 1 1 1 0 0 0 1 1 1 0 0 0 0 1 0 0 2 1 0 1 0 0 1 2 3 0 0 0 0 0 1 1 0 2 1 1 2 1 1 1 2 0 0 0 0 2 0 0 0 2 1 0 1 2 1 0 2 2 0 1 1 1 0 0 0 0 2 0 0 4 0 0 0 0 1 0 1 1 1 0 2 1 1 0 1 2 2 1 1 1 0 0 0 1 1 2 0 0 0 2 1 0 0 0 0 2 1 2 1 2 2 0 1 0 0 2 0 0 0 2 1 2 0 0 0 1 0 1 0 2 0 1 2 0 0 1 0 0 2 2 1 2 0 1 0 1 1 0 0 1 0 1 2 1 0 2 2 0 0 1 0 1 0 0 1 0 0 1 1 0 1 1 1 0 0 1 1 3 1 0 1 1 0 0 0 3 1 0 0 0 0 1 2 1 1 1 0 0 0 1 3 3 1 1 0 0 1 0 0 1 1 2 1 0 0 0 1 0 1 0 1 1 0 0 0 0 0 1 0 0 0 0 1 1 3 0 1 1 0 0 1 1 2 0 2 1 1 3 2 0 2 0 2 0 0 0 0 0 0 1 2 2 0 1 0 1 1 1 0 0 1 2 1 0 0 1 1 3 2 0 0 1 1 1 1 0 1 2 0 0 1 2 1 0 2 1 1 1 2 0 1 1 2 2 1 0 1 0 1 1 2 0 2 0 0 1 2 0 1 1 2 1 0 0 0 1 0 0 0 0 1 0 1 0 1 0 1 0 0 0 1 1 2 1 1 2 1 0 1 0 0 1 0 3 0 1 0 0 0 0 2 3 1 1 0 0 1 0 2 3 0 1 1 1 0 1 2 2 0 2 0 0 1 0 1 1 1 0 2 0 0 0 1 1 2 1 0 1 0 0 0 0 0 4 1 1 0 0 0 0 1 0 3 0 1 1 0 0 0 2 0 1 0 1 0 1 3 0 0 0 1 1 0 1 0 1 0 3 0 0 0 0 0 0 1 0 0 4 0 1 0 0 0 0 3 0 0 0 0 2 0 0 1 1 0 0 0 0 1 1 1 0 0 0 1 2 0 2 2 0 0 0 0 2 1 3 0 2 0 2 1 1 1 1 0 0 0 1 3 2 2 2 0 1 2 0 0 2 0 2 0 0 1 0 1 1 1 1 0 1 0 1 2 0 0 2 2 1 1 1 0 1 2 0 1 1 1 0 0 0 2 0 2 2 0 0 1 0 0 0 0 1 1 2 0 1 0 3 1 1 0 0 0 0 1 1 0 0 1 0 0 0 1 2 0 0 1 0 2 0 0 1 0 0 0 0 0 1 1 1 0 0 0 0 2 1 2 1 1 0 0 0 0 0 1 0 0 0 1 0 1 0 2 0 0 0 0 2 0 0 1 1 0 0 0 0 1 0 0 0 0 0 1 1 0 1 2 0 0 1 0 0 1 1 1 1 0 0 0 0 0 2 0 0 1 0 1 1 2 0 0 2 0 0 0 1 0 1 1 1 1 0 0 1 2 1 1 1 0 0 0 0 1 0 1 0 0 0 0 2 0 1 1 0 0 0 2 0 1 0 0 1 1 0 1 0 0 0 1 0 1 0 0 0 0 1 1 2 1 0 1 3 2 0 0 0 1 1 1 1 1 0 1 2 0 1 1 0 1 0 1 0 1 1 1 1 1 1 2 1 2 1 1 0 1 1 0 0 1 0 0 0 0 2 1 1 0 2 0 1 1 1 3 1 1 0 1 1 1 0 1 0 0 2 1 0 1 0 0 1 1 3 1 0 2 0 0 0 0 1 0 2 1 2 0 1 1 1 0 0 2 0 0 1 2 1 1 1 0 1 0 0 0 0 1 0 1 1 1 1 0 0 2 1 0 0 0 0 1 0 1 2 3 0 1 1 1 1 2 1 0 0 0 2 1 1 0 0 0 0 1 2 0 1 0 0 0 0 0 0 1 0 0 0 2 0 1 0 0 1 0 0 0 2 0 0 1 0 1 0 0 0 0 1 0 0 0 1 0 0 0 1 0 1 1 0 1 0 1 0 3 0 0 1 0 0 2 0 0 0 0 0 0 1 0 0 1 3 0 0 0 0 2 0 0 1 2 2 1 1 0 0 1 1 0 1 1 0 0 0 1 0 2 0 1 0 0 1 1 0 0 0 0 0 0 0 1 2 0 0 1 0 1 1 0 0 1 0 1 0 0 0 1 4 1 0 0 0 0 0 1 1 1 0 0 0 3 1 0 0 0 0 0 1 0 2 1 0 2 0 0 0 0 1 0 1 1 0 1 1 0 0 0 0 1 0 1 2 1 1 1 1 1 0 2 0 1 0 0 0 1 0 0 1 0 1 0 1 1 1 1 1 0 0 2 0 2 0 0 1 1 1 0 0 1 0 0 1 0 1 1 1 0 0 0 0 0 1 1 2 0 0 1 1 1 4 3 1 1 1 0 0 0 1 2 1 0 0 0 1 1 0 1 1 1 1 1 0 0 0 1 0 0 0 0 0 0 0 5 0 1 0 2 1 3 1 3 0 0 0 0 0 1 1 1 0 3 0 1 2 3 0 1 1 2 1 3 0 1 0 0 2 0 1 1 1 1 0 1 1 0 0 2 0 0 0 0 1 3 0 2 0 1 0 0 2 2 0 1 0 1 1 0 0 2 1 0 1 0 1 0 0 3 0 1 0 2 1 1 1 1 1 0 0 1 1 1 2 0 0 1 0 2 3 1 1 1 0 0 0 0 0 0 0 0 0 2 0 0 0 1 1 0 0 1 2 2 0 2 1 2 0 3 0 1 0 0 0 0 1 0 0 1 1 0 1 1 1 0 1 0 1 1 0 0 0 0 0 0 1 1 0 3 0 1 3 0 0 0 3 1 0 0 0 3 0 0 0 0 0 1 0 0 0 0 0 1 1 1 1 1 2 1 3 1 0 1 1 0 0 2 1 0 3 2 1 2 0 0 0 1 1 0 4 1 1 1 2 1 1 1 0 1 1 0 0 0 0 1 0 3 1 1 1 1 2 0 0 1 0 0 0 0 3 0 0 1 0 0 0 3 2 0 0 0 1 1 1 0 1 0 1 1 1 0 0 0 2 0 0 0 0 3 0 1 0 1 0 3 1 1 0 0 2 3 2 0 0 1 0 0 1 2 1 1 0 1 1 1 0 2 1 0 1 2 0 0 2 0 0 1 1 0 2 1 0 0 1 1 0 1 1 2 1 0 1 0 0 2 0 1 1 0 1 1 0 1 1 2 1 1 1 0 0 0 1 2 0 2 0 0 1 0 0 1 0 0 0 0 2 0 1 2 0 0 1 1 1 1 0 2 1 1 0 1 0 0 0 1 2 0 2 3 3 1 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 2 1 1 0 0 1 0 0 1 0 1 2 0 1 4 1 0 0 0 0 1 0 0 0 1 0 2 0 0 2 2 0 1 1 2 1 0 1 2 0 0 0 1 1 2 1 0 2 0 0 2 0 1 0 0 0 1 1 0 0 3 2 0 0 1 1 0 2 1 0 1 2 0 0 0 0 0 0 1 1 0 2 0 1 1 1 0 1 0 0 0 1 0 2 0 0 1 1 1 1 0 3 1 0 1 1 1 1 1 0 0 0 2 0 1 2 1 1 3 0 0 2 2 2 3 1 1 1 1 0 1 2 0 2 1 1 1 0 2 3 0 0 3 0 0 0 0 2 0 2 1 2 0 0 1 0 0 2 0 0 0 0 1 2 1 2 0 1 0 0 1 0 2 0 0 0 0 2 1 2 0 1 0 1 0 0 0 1 0 0 1 2 2 0 0 0 1 1 1 3 0 1 1 0 2 0 2 0 2 1 1 0 2 0 0 0 0 1 0 0 1 1 0 0 1 0 2 0 1 1 1 1 0 1 2 1 1 1 0 1 0 2 0 0 0 0 1 1 0 0 0 1 1 0 2 0 0 2 1 1 1 0 2 1 1 0 0 0 0 0 1 0 1 2 0 0 1 0 0 0 1 0 1 2 2 0 1 1 0 0 0 1 1 1 0 0 4 1 2 1 0 0 0 0 1 0 1 1 1 0 0 0 0 1 1 1 0 0 0 0 1 2 1 1 1 1 1 0 1 0 1 1 0 0 0 0 1 2 0 1 3 0 0 1 1 1 1 1 2 0 2 1 1 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 1 1 0 1 1 2 3 0 0 0 2 2 1 2 1 0 0 2 0 1 2 0 2 0 0 0 1 0 0 0 1 0 0 0 0 0 1 1 1 1 0 1 0 0 0 0 2 0 0 0 1 2 0 1 0 1 0 2 2 2 1 2 1 2 1 1 1 0 1 1 0 1 1 2 1 1 0 1 1 0 1 0 1 0 1 0 1 0 0 1 0 1 2 2 0 0 0 0 0 3 1 0 1 1 0 3 1 1 0 0 0 1 0 0 1 0 2 1 2 0 2 1 1 1 1 0 1 0 1 0 2 1 1 0 1 0 1 1 0 1 0 0 0 1 0 1 0 0 2 0 1 3 0 1 1 0 0 1 0 0 0 1 0 0 2 0 2 1 1 1 0 0 0 0 1 0 2 0 1 0 1 0 1 1 0 0 0 1 1 2 0 0 0 0 2 1 0 1 2 0 1 1 0 1 0 1 1 1 1 0 0 0 1 0 0 1 1 1 2 0 1 0 1 1 0 1 2 1 1 0 0 1 2 2 0 1 0 0 0 1 1 0 2 1 1 0 2 1 0 0 2 1 0 1 2 0 1 0 1 1 2 0 0 0 0 0 0 1 1 0 0 0 1 0 2 0 1 0 2 0 2 2 0 0 0 0 1 1 1 0 1 1 2 1 1 1 2 0 1 0 0 0 0 0 0 1 1 0 0 2 2 0 2 1 2 1 0 1 1 0 1 0 0 0 1 1 1 1 1 0 0 0 0 0 0 1 1 0 2 0 1 1 0 1 2 0 1 0 2 1 1 0 1 1 2 1 0 2 1 2 0 0 0 1 1 1 0 1 0 0 1 1 0 0 0 1 3 0 0 0 0 1 1 0 0 0 0 1 1 2 0 2 1 0 1 2 0 0 1 0 0 0 0 0 0 0 1 2 1 0 0 0 0 0 0 1 0 1 1 2 0 0 0 0 0 1 0 0 0 1 1 0 1 1 2 2 2 0 1 0 0 2 0 2 2 1 0 1 3 3 0 1 2 1 0 0 1 1 1 0 0 1 1 1 0 3 0 1 1 0 3 1 1 1 0 0 0 1 1 1 0 1 2 0 0 1 0 0 1 0 1 3 1 1 1 0 1 0 0 0 0 0 1 0 1 0 0 2 1 0 0 1 0 0 1 1 1 0 1 1 0 1 1 0 2 0 1 1 1 0 1 0 1 2 0 0 0 0 0 2 1 1 2 0 1 0 0 0 2 1 0 1 1 1 1 0 2 0 0 2 1 0 1 1 1 1 1 1 0 1 0 0 1 2 1 0 1 0 1 0 0 0 2 0 2 0 1 1 1 1 0 1 0 0 0 2 0 0 0 0 0 1 2 0 0 2 0 2 3 1 0 0 0 2 1 0 1 1 0 0 0 0 0 0 1 0 1 1 1 0 0 0 0 1 2 0 1 1 0 2 2 1 2 0 0 0 0 1 2 1 0 1 1 3 0 1 0 1 0 2 1 0 0 1 0 0 2 1 1 1 0 0 0 1 1 1 1 0 1 0 1 0 0 2 0 1 0 1 2 0 3 0 1 0 1 2 3 0 1 1 1 4 1 0 0 2 0 1 1 2 1 0 0 2 2 1 1 3 2 0 1 1 3 1 0 0 3 1 0 2 1 1 0 2 0 0 1 0 1 0 1 1 1 0 0 1 0 0 1 0 0 1 1 1 3 0 1 2 0 0 1 0 0 1 1 0 0 0 0 1 0 0 1 1 1 0 3 0 1 1 2 1 1 1 1 0 1 3 0 0 0 0 0 2 0 0 0 2 0 1 0 1 2 1 0 0 0 2 0 0 2 0 0 0 1 0 0 0 0 0 1 0 1 1 0 1 0 0 3 0 0 0 2 0 1 1 1 2 0 1 0 3 1 0 0 2 0 0 1 0 0 0 1 0 1 0 3 2 0 1 1 2 1 2 1 0 1 0 0 0 0 0 2 0 0 2 0 0 1 0 2 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 2 0 2 1 0 2 0 2 0 0 2 0 0 1 1 1 0 1 1 0 0 2 0 0 1 0 0 2 2 0 1 1 1 0 0 0 3 0 0 2 0 0 0 0 0 0 1 1 2 1 0 0 2 0 2 1 0 1 0 1 2 1 2 1 0 0 0 2 1 1 1 2 0 0 0 1 1 1 2 1 1 1 1 0 0 0 2 0 0 1 0 0 1 0 0 1 1 0 0 1 0 2 1 2 0 2 2 2 1 0 1 2 0 2 1 1 1 1 2 1 0 2 3 0 0 0 1 0 2 3 0 0 0 0 0 2 0 1 1 1 2 0 0 1 1 1 1 1 2 1 0 2 1 0 0 0 0 1 1 2 0 2 1 0 0 1 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 1 1 1 0 1 1 1 1 1 1 2 1 0 0 1 1 0 2 1 2 2 0 0 0 0 0 1 0 0 0 2 0 0 1 0 2 3 1 0 1 2 3 0 1 1 2 0 1 1 0 0 0 0 0 3 0 1 1 1 0 2 0 1 1 1 5 1 0 1 0 3 1 3 0 1 1 3 2 0 1 0 1 1 0 0 2 1 3 0 3 0 0 2 0 1 0 1 1 0 0 0 0 0 0 2 0 0 3 1 2 0 1 2 0 0 1 0 1 0 0 1 2 1 1 1 0 0 0 1 0 2 1 0 1 1 0 0 2 0 3 0 1 2 2 1 0 0 2 0 2 2 1 1 1 0 1 0 0 0 0 1 0 0 1 0 0 0 1 0 0 1 2 0 1 0 0 1 1 1 1 1 0 1 2 2 4 1 0 2 1 2 0 1 0 0 0 1 0 0 1 0 1 0 0 2 0 0 1 0 1 0 1 1 0 1 1 0 0 0 0 1 1 0 1 0 1 1 0 0 1 2 0 1 0 0 1 0 0 0 0 1 2 1 0 1 0 0 1 1 0 1 1 0 0 0 2 1 1 0 3 0 1 0 2 2 0 2 0 1 0 0 0 0 0 0 2 0 0 2 1 2 0 1 1 0 0 1 0 1 2 0 1 3 0 1 0 2 0 1 0 0 1 0 1 3 2 0 0 0 2 1 0 1 1 0 0 1 0 2 1 0 0 1 2 0 0 2 0 0 0 0 1 2 1 1 0 0 1 0 1 0 1 2 0 1 0 0 0 1 0 2 2 2 2 1 0 0 1 1 2 2 1 5 0 3 1 0 0 0 0 0 0 1 1 2 0 0 2 2 0 0 1 0 1 2 1 1 0 1 2 0 0 0 0 0 1 0 1 0 0 1 0 0 0 2 3 0 0 0 3 1 0 2 1 1 2 2 0 0 0 1 1 1 0 1 0 0 0 0 0 1 1 0 0 1 2 1 0 2 0 2 3 0 0 0 1 0 0 4 1 0 1 0 0 0 0 0 1 1 0 1 1 1 0 1 3 1 0 0 0 0 1 0 1 0 0 1 1 1 0 2 1 0 0 1 0 1 1 0 0 0 1 1 1 1 0 2 0 0 2 0 0 0 1 0 0 0 1 0 0 2 0 0 0 1 3 0 3 0 2 0 0 0 3 3 1 2 1 0 0 0 1 1 1 0 0 0 0 1 1 0 0 0 0 2 1 3 0 2 1 1 1 2 1 2 1 1 0 1 0 0 0 1 0 0 0 1 0 0 1 1 1 1 0 0 1 2 0 0 2 3 1 1 0 0 0 0 0 0 2 2 0 1 1 0 1 0 3 0 0 0 0 2 0 0 2 0 2 1 0 1 2 0 0 0 1 0 0 0 3 0 0 0 0 2 3 2 0 0 0 0 0 1 2 0 2 3 2 1 1 0 0 0 0 1 0 1 0 1 0 1 0 2 1 1 0 2 0 0 0 0 0 0 0 3 0 1 0 0 1 1 0 1 0 1 3 1 3 1 1 1 0 2 1 0 1 0 0 0 1 0 0 1 0 0 2 1 1 0 0 1 0 2 1 2 0 0 1 0 0 0 0 0 1 2 0 1 2 1 1 1 1 1 2 1 2 1 1 4 0 1 0 0 0 0 0 1 2 0 0 1 1 1 0 0 1 0 0 0 0 3 0 2 0 1 1 0 0 0 1 1 1 0 2 0 1 1 0 0 1 1 0 0 0 0 3 2 1 2 1 2 2 0 2 1 0 2 1 0 0 1 0 2 2 1 0 0 0 1 2 0 0 1 0 0 0 1 0 0 1 1 0 1 0 1 2 1 0 0 1 0 2 1 1 1 0 1 0 4 1 0 0 1 2 0 0 2 1 2 0 1 0 0 2 0 0 1 2 0 1 0 0 1 0 0 0 2 0 2 0 0 0 1 1 1 2 0 0 0 0 0 0 0 1 0 1 0 1 2 0 1 2 1 1 0 0 1 2 1 0 0 2 2 0 0 0 0 0 0 0 0 1 0 0 1 2 1 2 0 0 0 2 0 1 0 0 0 0 0 1 1 1 3 1 1 0 2 0 0 0 0 0 0 0 0 0 1 0 2 0 0 1 1 0 2 1 0 0 1 0 0 2 0 2 3 1 0 1 2 0 0 1 1 2 1 1 2 1 0 1 1 0 0 1 1 2 0 0 3 0 0 1 1 0 2 0 0 3 1 1 0 1 3 1 2 0 1 0 1 0 1 1 1 1 0 0 1 0 1 0 0 2 0 0 2 0 0 0 2 1 0 1 0 0 2 0 0 0 0 0 1 0 1 0 0 0 0 2 1 0 1 1 2 1 0 0 1 1 1 1 2 0 1 0 1 3 0 1 1 1 1 2 0 0 1 1 2 0 1 0 2 2 2 0 1 0 1 1 1 0 0 0 0 0 2 2 1 1 0 1 1 0 2 1 0 1 1 0 0 1 2 0 0 0 1 1 0 3 2 1 2 0 1 0 0 1 0 0 2 0 2 3 2 0 0 0 0 2 0 1 2 1 0 3 0 2 3 1 2 1 0 0 1 0 2 1 1 0 0 2 2 0 1 2 0 2 0 1 0 1 3 2 2 0 0 1 0 1 1 0 0 1 1 0 1 0 0 0 1 2 1 1 0 4 0 2 1 0 3 0 0 0 0 1 2 1 0 1 0 1 3 1 1 2 2 0 3 0 0 4 2 2 2 0 2 1 1 0 0 1 3 3 1 0 1 0 2 1 1 0 0 0 3 1 0 1 0 1 0 1 0 1 0 1 3 0 0 1 1 0 1 0 1 2 1 1 0 2 1 1 0 1 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0 1 1 0 0 1 0 1 1 1 0 1 0 2 1 1 0 2 1 1 3 1 0 0 0 1 0 0 0 1 0 0 1 0 0 1 0 1 2 1 2 0 0 1 2 2 1 0 0 3 4 1 2 0 0 1 4 0 0 0 0 0 1 1 0 1 1 2 1 0 0 1 0 2 0 2 1 0 1 0 1 1 1 0 1 0 1 0 0 0 0 0 2 1 0 1 0 0 0 1 1 1 2 0 0 0 1 0 0 0 3 2 1 0 0 1 1 0 1 0 1 0 0 0 0 2 1 1 0 0 0 1 0 1 0 1 1 0 1 1 3 2 0 1 1 0 0 0 0 1 2 0 0 0 0 0 0 0 1 0 1 0 2 2 0 0 1 1 0 0 1 1 1 0 1 0 0 0 0 0 1 2 0 3 0 0 0 3 1 0 1 0 0 2 0 1 1 1 0 5 0 0 0 0 1 2 0 2 1 1 0 0 0 2 0 2 0 2 1 1 2 2 1 0 0 1 0 0 0 0 0 0 0 1 1 0 1 0 0 1 1 0 1 2 1 1 0 2 0 0 0 1 1 2 1 0 1 0 2 1 2 1 0 0 0 1 1 1 0 1 1 1 2 0 1 0 1 2 1 0 0 0 1 0 0 0 0 2 1 0 0 1 1 0 1 0 1 0 1 0 0 2 0 0 1 1 0 0 0 0 3 0 0 0 0 1 1 1 0 0 0 2 2 2 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 1 0 0 1 0 1 2 0 1 1 0 0 0 2 0 0 0 1 0 0 1 0 2 0 1 1 0 1 0 1 1 0 0 1 1 1 0 1 1 2 0 0 0 0 2 0 1 1 2 0 2 0 1 0 0 0 1 1 0 0 2 0 0 1 0 0 1 1 1 1 0 0 1 2 0 1 0 0 2 1 1 1 1 0 0 0 0 0 0 0 1 0 1 0 2 2 0 3 1 2 2 1 1 0 0 0 0 0 1 0 1 0 2 0 0 2 1 1 1 2 0 0 0 0 0 0 0 0 1 0 2 1 0 1 1 1 0 2 0 0 1 0 0 1 1 0 0 0 1 0 2 3 2 2 0 1 0 0 0 0 0 2 0 0 1 1 1 0 0 2 3 1 0 3 2 0 0 0 1 0 0 0 2 1 0 0 0 0 0 0 1 0 1 1 0 1 0 0 1 2 0 1 1 2 0 1 2 0 1 1 0 1 2 2 1 2 1 2 2 0 2 1 2 1 0 0 0 0 1 1 0 1 1 0 2 1 2 0 0 0 1 0 0 1 0 2 3 0 2 2 0 0 0 1 0 1 1 3 2 0 1 1 0 0 1 1 0 1 0 0 0 0 0 0 2 0 0 2 0 0 0 0 1 1 0 0 2 0 1 0 0 0 0 1 0 0 2 1 0 0 1 1 1 2 0 0 0 0 0 1 0 1 0 0 0 1 0 0 1 1 0 0 1 1 1 0 0 1 1 0 1 2 2 1 2 1 1 0 0 2 0 2 1 0 0 1 1 1 1 0 0 1 1 0 1 1 1 1 0 1 2 1 1 1 0 0 0 1 0 3 0 0 2 0 0 0 0 0 0 2 0 0 0 0 0 2 1 0 1 2 0 0 0 0 2 1 1 0 0 6 0 0 2 0 0 0 1 0 0 0 0 0 1 1 1 2 0 0 1 1 1 0 1 1 1 0 1 2 1 0 0 1 0 1 0 0 0 0 1 0 2 1 1 0 0 0 0 1 1 2 1 0 1 1 0 0 1 0 0 1 2 1 1 1 1 0 0 0 2 0 1 1 1 0 2 0 0 2 0 2 1 1 1 1 0 0 1 1 1 0 0 1 3 2 0 1 1 3 0 1 1 0 0 0 2 1 0 1 0 0 0 1 0 0 1 0 3 1 1 0 0 1 0 1 0 1 2 3 1 0 0 0 0 1 0 1 0 0 2 1 1 0 0 0 1 3 0 1 0 1 1 2 2 1 1 1 1 0 1 2 2 1 1 0 2 1 1 1 1 0 0 0 0 0 0 1 1 0 1 0 2 1 0 1 0 1 0 0 0 3 0 0 5 0 1 1 1 0 0 0 0 1 0 2 0 0 0 1 0 0 1 0 0 2 0 0 0 0 0 0 1 1 0 0 1 1 1 1 0 1 0 0 0 1 4 0 0 0 0 1 3 1 0 0 0 0 1 1 0 1 0 0 0 1 1 1 0 1 0 1 1 2 1 1 0 0 0 0 1 0 0 0 2 0 1 0 1 3 3 1 0 1 2 0 0 0 2 0 1 0 1 2 1 0 0 0 0 1 0 1 0 2 0 0 0 1 0 0 1 2 0 1 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 1 0 0 1 3 0 1 1 2 0 0 1 0 1 0 0 0 0 0 0 1 0 0 2 0 1 1 1 0 1 3 1 0 0 2 0 1 0 2 2 0 0 0 2 0 3 2 1 0 0 1 0 0 1 1 0 0 1 0 1 0 1 2 1 2 1 0 2 0 0 2 1 0 1 0 1 1 0 1 0 1 0 0 2 0 2 1 0 0 1 1 1 0 2 0 0 0 0 0 0 1 0 0 4 1 0 3 2 1 0 2 0 1 3 2 0 1 2 0 0 0 1 0 1 1 0 1 1 1 0 0 0 0 0 0 1 1 0 2 0 1 0 3 0 1 0 1 0 2 1 2 1 0 0 0 1 2 2 1 1 2 0 1 0 3 1 1 2 1 0 0 0 0 2 0 0 4 0 0 1 0 0 1 2 2 1 0 2 0 0 2 1 1 1 3 0 2 0 2 0 1 0 1 1 0 1 2 0 0 0 1 0 1 0 2 1 1 1 2 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 1 1 0 1 2 0 0 0 0 0 1 0 0 1 1 2 0 0 2 2 0 0 0 0 2 1 0 0 0 1 0 0 0 1 0 1 0 1 1 1 0 1 3 1 2 1 0 0 0 1 0 1 0 1 0 2 0 1 0 0 0 1 1 1 0 0 1 1 2 1 0 1 0 1 0 0 0 1 0 0 1 1 0 1 0 0 1 1 1 2 1 2 0 1 1 2 1 0 3 1 1 1 2 1 2 2 1 1 1 2 1 0 0 0 0 0 3 0 2 3 1 0 1 0 0 1 0 1 1 1 0 0 3 2 0 1 0 0 1 2 0 1 0 2 0 1 0 1 1 0 0 0 1 2 0 0 1 0 2 2 0 3 0 2 0 1 1 1 3 0 0 1 0 1 1 0 3 2 0 2 1 1 2 0 2 2 0 1 1 0 1 0 0 1 0 1 1 0 2 0 1 3 1 0 2 1 0 1 1 1 3 0 0 0 0 3 1 0 1 1 0 0 0 1 0 0 1 1 2 0 0 1 0 0 2 1 1 2 0 0 1 0 1 0 1 1 2 0 3 0 1 0 0 0 0 0 2 1 1 0 2 0 1 0 1 2 5 1 1 0 1 0 2 0 0 1 2 2 1 0 0 0 1 1 0 1 2 2 1 2 1 1 0 0 2 1 1 0 0 0 2 0 1 0 0 0 1 0 2 3 0 0 1 1 0 1 1 0 0 0 1 0 2 0 1 1 0 0 2 0 2 0 0 0 0 1 0 1 0 0 0 3 3 0 1 0 1 0 2 2 1 0 1 1 0 0 3 1 2 1 0 0 0 1 1 1 1 0 0 1 0 1 0 0 0 0 0 2 0 0 2 0 1 1 0 1 2 0 1 1 0 2 1 1 0 2 0 2 1 1 1 2 1 1 2 0 0 1 1 1 2 1 1 0 4 1 0 3 1 1 0 2 1 0 0 0 0 0 0 0 1 1 0 1 2 0 0 1 0 1 1 2 0 1 1 1 2 0 2 0 0 1 0 1 1 0 0 1 0 0 4 0 1 2 1 2 2 1 0 0 0 0 0 0 2 0 0 3 0 0 0 0 0 3 1 0 0 2 1 1 0 0 1 0 0 0 0 1 1 1 2 0 1 0 0 2 1 0 0 0 0 0 3 0 0 1 1 0 1 0 1 1 2 0 1 1 0 0 0 0 1 1 1 0 1 1 0 0 1 0 0 0 2 0 2 1 0 1 2 2 0 2 0 2 2 3 1 0 1 0 0 1 1 0 1 0 1 1 1 0 3 2 1 3 1 0 0 1 0 4 1 2 0 0 1 0 0 0 0 0 2 0 0 1 0 0 0 1 0 2 0 0 0 1 1 1 0 0 1 1 0 0 1 2 0 1 0 0 1 0 0 0 0 0 1 1 3 2 0 0 0 2 0 3 0 2 0 0 0 1 1 0 1 0 1 1 1 3 0 0 0 0 0 1 2 1 1 2 1 0 0 0 1 1 1 0 2 0 4 0 0 1 1 0 1 0 1 1 0 1 0 0 1 1 1 0 1 1 2 0 2 1 0 0 0 1 1 1 0 1 0 1 0 1 1 0 2 3 2 1 2 1 0 1 0 1 0 1 0 1 1 0 1 0 2 1 0 1 0 1 0 0 0 0 0 2 0 0 0 2 0 0 1 1 1 2 1 4 0 1 2 0 1 1 0 0 0 0 2 0 2 1 0 0 0 1 0 0 1 1 1 1 1 1 0 0 1 4 0 0 0 0 0 1 0 1 1 0 0 0 0 2 0 1 1 1 0 4 1 0 0 2 0 1 1 1 0 0 0 0 0 1 1 2 0 1 0 0 0 0 1 3 0 0 0 2 1 0 0 0 1 0 2 0 0 1 2 0 0 2 2 0 0 2 1 0 1 1 1 1 0 2 0 0 1 0 0 0 0 0 1 0 0 0 1 0 1 1 0 1 2 1 0 4 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 1 0 1 2 0 1 1 0 1 0 2 1 1 0 0 1 1 0 0 1 1 2 1 0 0 1 0 0 0 1 0 3 2 1 0 1 1 0 1 0 0 0 0 1 1 1 1 0 2 0 0 0 3 0 1 1 0 0 3 1 0 1 1 5 1 1 0 1 3 0 2 0 0 0 0 0 2 2 0 1 0 0 1 0 1 0 1 1 1 1 1 0 0 1 0 0 1 0 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 2 1 0 1 0 0 1 2 1 1 0 0 0 0 2 0 0 0 1 1 1 0 0 0 0 0 0 0 0 4 1 1 0 0 1 0 1 2 0 0 0 0 0 0 1 0 2 1 0 1 1 0 2 0 1 1 3 1 0 1 0 1 0 1 0 0 1 0 0 0 0 1 0 2 1 0 3 2 0 1 0 0 1 0 1 2 0 0 1 0 1 0 1 2 0 1 3 0 1 0 0 0 1 0 0 1 0 1 1 0 1 2 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 2 1 1 0 1 1 0 1 0 0 1 0 0 0 1 1 1 0 1 0 2 0 0 2 1 0 3 0 1 2 0 1 0 0 1 0 0 0 0 0 1 0 1 0 1 1 0 0 3 0 0 2 0 1 0 0 0 0 1 0 0 0 1 0 1 0 1 1 0 0 0 1 1 0 0 0 0 1 1 1 1 1 1 3 3 2 3 0 0 1 0 0 0 0 0 0 0 1 1 0 1 2 0 2 0 1 2 2 0 0 1 1 0 0 0 0 2 0 0 0 0 0 1 0 0 1 0 0 0 0 0 3 3 2 1 3 0 2 0 0 0 1 0 0 0 0 0 1 1 1 3 0 0 0 0 0 1 2 0 0 1 0 2 2 1 0 0 0 1 2 0 1 1 0 1 0 1 0 1 1 2 0 0 1 1 0 1 0 2 1 0 0 1 1 0 1 0 0 0 1 0 1 1 1 1 2 1 2 1 1 2 2 0 1 1 2 1 0 1 3 0 1 1 0 1 2 1 0 1 1 1 1 2 2 1 1 0 1 0 0 0 0 0 0 1 0 1 0 0 0 1 0 1 4 1 0 2 0 0 3 2 4 0 1 0 1 0 0 1 3 0 0 0 0 0 2 1 1 1 0 3 0 1 0 1 1 0 0 0 1 0 1 0 0 0 0 2 0 0 1 1 1 1 0 0 1 0 1 0 1 1 1 1 1 0 0 3 3 0 2 1 1 1 2 0 2 0 1 1 1 1 0 0 0 0 1 0 1 0 1 0 1 1 0 0 0 1 2 1 0 0 1 0 1 0 0 2 1 3 0 1 0 0 0 0 1 1 1 0 0 3 1 2 0 0 0 1 2 0 0 1 0 0 0 1 1 0 1 0 0 1 1 2 0 2 0 0 0 1 1 2 0 3 1 0 1 1 1 1 0 0 1 2 0 0 0 1 0 1 2 0 1 0 0 2 1 2 1 0 0 0 2 1 1 0 3 1 0 1 1 0 0 1 0 1 1 0 0 0 3 2 2 0 1 0 0 1 0 3 1 0 1 2 1 0 1 0 1 1 0 1 1 2 0 0 1 2 0 1 2 1 1 3 0 0 1 3 1 1 1 0 0 1 1 1 0 1 0 0 0 1 0 0 0 0 1 0 1 1 0 2 2 0 0 1 0 0 0 0 3 0 0 0 1 0 1 0 0 1 1 1 1 0 0 1 1 0 0 1 0 1 1 0 0 1 0 1 0 0 1 0 1 1 0 0 0 3 2 0 1 1 1 1 0 1 0 0 0 0 0 0 0 1 2 0 1 0 0 1 0 2 0 0 0 1 0 1 0 3 2 1 0 0 4 1 0 1 1 3 3 0 1 0 0 0 0 0 1 0 1 3 1 1 1 1 0 0 0 0 0 1 3 0 0 0 0 0 0 0 0 0 1 2 0 1 1 0 1 1 0 1 0 0 0 0 2 0 2 0 0 1 0 1 1 0 0 0 0 0 0 0 1 1 0 0 2 0 2 1 3 1 0 2 0 1 1 0 1 2 0 1 0 1 0 0 0 2 1 0 1 1 1 0 1 0 0 0 0 0 0 2 3 0 2 0 0 0 2 1 0 0 0 2 4 2 1 1 0 1 2 0 0 1 0 3 1 0 0 7 0 2 1 1 1 0 2 1 0 0 2 1 0 0 0 1 0 1 0 1 1 0 1 1 1 1 0 0 1 0 0 0 2 0 0 3 1 1 0 0 0 0 1 2 0 0 1 0 1 0 1 2 0 2 0 0 2 0 1 3 1 1 1 1 0 1 2 2 1 0 0 0 0 0 3 0 1 0 0 1 0 1 0 0 0 0 2 0 2 0 0 0 1 1 1 2 1 0 2 0 0 0 1 0 1 1 0 4 1 0 0 1 0 3 0 2 1 0 1 0 2 1 0 2 1 0 0 0 0 2 1 1 0 0 0 2 1 0 1 0 0 0 0 1 0 0 1 3 1 1 1 1 0 1 1 1 0 1 0 1 1 1 2 0 1 1 0 0 1 0 0 0 0 0 0 2 1 0 0 0 0 1 0 1 1 0 1 2 0 0 0 0 1 0 2 0 2 1 1 0 0 1 0 1 0 1 0 2 1 3 0 2 0 1 0 0 1 1 2 1 1 1 3 0 0 2 2 2 0 0 2 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 1 0 0 0 2 0 0 0 1 1 0 0 1 3 2 2 1 1 1 2 2 1 2 1 1 3 1 2 0 1 1 1 1 0 1 1 0 1 3 0 0 1 1 0 0 0 1 0 0 1 0 1 0 0 1 0 1 1 1 1 2 0 2 0 1 1 0 1 0 2 0 1 0 3 1 0 1 1 1 2 0 2 2 0 1 0 1 0 1 2 0 1 0 1 0 1 0 1 2 0 0 2 0 0 0 1 2 0 2 0 0 1 1 0 0 0 1 0 0 0 0 1 0 0 1 0 1 2 1 0 1 2 0 0 0 1 2 0 0 0 0 1 0 0 0 0 1 1 0 0 1 0 0 0 1 0 0 1 0 1 1 0 1 1 0 2 0 2 2 0 0 1 0 1 0 0 1 0 0 0 0 0 0 1 1 0 1 0 1 0 0 1 3 3 1 1 1 1 2 0 0 0 1 0 0 1 0 1 1 0 1 0 0 0 1 2 0 2 4 0 0 2 1 0 0 0 1 0 1 2 0 0 0 1 1 2 0 1 0 0 2 2 1 1 1 1 0 1 0 2 0 1 0 0 0 0 2 1 2 1 0 0 0 1 0 0 0 2 1 1 0 1 0 0 1 0 1 0 0 1 1 1 1 2 0 1 2 0 2 1 0 0 0 0 1 0 1 2 0 2 1 0 0 0 1 0 1 0 1 0 0 0 0 0 0 1 1 0 0 1 0 0 1 1 2 1 2 0 2 0 0 1 1 0 0 0 2 0 0 0 2 2 0 1 1 0 1 1 0 3 1 4 1 0 2 0 0 2 1 1 0 0 1 0 1 1 0 0 0 2 0 1 1 1 2 1 0 0 3 0 1 2 1 0 1 1 1 2 0 0 1 1 1 0 2 1 1 0 1 0 0 1 0 1 1 0 2 1 0 1 1 2 1 3 1 2 1 1 1 0 1 4 1 0 0 0 0 1 1 0 1 0 1 0 0 0 0 3 0 1 0 1 1 2 1 1 0 0 0 1 0 0 0 0 1 0 1 1 0 2 0 0 0 1 0 0 0 0 0 0 2 0 1 1 0 0 1 1 1 0 0 0 1 0 0 2 0 0 0 0 1 1 1 0 0 0 0 1 0 0 0 0 0 0 4 0 1 0 1 1 2 0 0 0 0 1 1 0 3 2 0 2 0 2 1 0 0 0 0 0 0 0 2 0 0 0 1 1 0 0 1 2 1 2 0 0 0 0 1 2 2 0 0 0 1 0 0 0 0 2 1 0 0 1 0 0 2 1 1 0 1 0 1 1 0 2 0 2 0 0 0 0 0 0 0 0 3 1 1 1 0 0 0 0 2 2 1 2 1 0 0 1 0 3 0 0 1 1 0 1 0 3 0 1 0 1 1 1 1 0 1 2 0 2 0 0 0 1 0 1 0 0 1 0 1 1 0 0 1 0 0 1 0 0 0 2 0 0 1 1 1 0 0 0 1 0 2 0 0 0 0 0 2 0 0 2 2 0</t>
+  </si>
+  <si>
+    <t>FTL(0.14345085691769532, -186.0608856212133, 295.17578615930665)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164 76 117 118 177 154 62 187 100 83 79 130 35 141 137 106 22 102 161 33 113 135 183 83 12 122 123 128 202 114 75 83 172 71 110 95 121 99 118 111 97 118 144 82 133 104 143 144 83 57 130 189 86 72 87 143 144 100 67 55 62 129 100 173 98 107 61 94 135 87 133 81 36 117 113 114 137 75 210 73 100 117 146 67 203 82 40 95 118 65 98 103 123 39 119 75 87 86 107 138 120 75 84 129 110 143 153 93 123 87 111 167 127 126 126 172 30 130 79 60 92 123 59 69 73 141 147 57 178 130 204 109 122 101 109 101 123 160 181 121 115 73 119 78 78 64 94 84 155 123 64 93 118 97 137 100 97 68 82 136 122 129 85 28 24 86 154 134 176 89 120 178 46 200 112 191 135 89 117 133 30 102 51 83 139 35 95 115 131 46 111 121 165 132 89 132 131 130 91 105 219 101 148 108 89 80 137 107 66 127 201 84 118 99 206 75 79 52 60 78 88 165 72 99 137 118 64 137 136 142 48 196 109 154 106 196 116 60 131 94 112 113 136 103 176 140 73 57 139 101 205 99 44 122 191 87 71 70 98 73 109 76 100 181 191 154 182 48 143 183 173 112 72 95 164 65 157 146 106 155 100 181 121 198 131 179 116 74 211 149 172 185 65 252 47 151 66 51 106 104 122 39 171 142 101 148 51 209 140 142 29 77 93 127 199 172 80 184 131 154 152 105 103 112 78 130 136 121 145 74 111 75 106 73 121 113 133 53 192 138 79 195 111 137 117 74 64 36 87 101 84 118 98 103 103 61 150 113 64 122 179 240 87 123 122 144 113 136 196 146 61 87 101 93 120 134 125 59 102 46 62 71 122 111 41 110 63 157 42 123 34 91 77 118 51 72 89 113 121 85 67 150 96 104 119 194 138 91 129 113 108 141 102 58 129 96 95 144 130 147 179 36 190 133 101 49 163 79 148 159 72 95 135 78 68 76 91 108 7 118 49 175 91 161 128 98 65 190 114 96 137 64 117 56 88 110 108 62 107 134 87 195 127 34 40 74 141 127 88 90 124 154 126 145 212 152 47 222 90 92 68 118 109 100 57 51 79 212 108 136 176 86 155 118 80 88 102 144 158 35 124 150 136 121 83 110 138 93 53 89 30 41 136 120 115 144 140 68 70 112 160 74 100 154 181 132 122 95 126 48 169 132 118 82 159 128 101 129 111 140 81 133 207 74 93 118 89 118 116 124 108 62 134 162 144 68 145 127 139 103 118 122 60 128 87 152 125 57 126 99 89 12 157 105 85 25 124 81 113 102 121 155 118 168 87 113 113 73 38 51 95 121 136 154 101 139 133 119 69 147 75 137 167 105 26 115 126 69 149 90 128 138 169 85 204 98 106 156 77 99 119 50 121 132 51 139 195 194 99 141 25 85 54 202 173 130 62 78 75 49 65 111 50 86 115 68 110 57 179 246 149 140 165 194 175 109 58 140 125 47 49 179 123 127 115 27 53 106 80 56 190 214 73 168 103 158 99 92 165 52 112 105 120 69 203 100 74 83 124 86 117 178 131 97 111 185 32 95 80 79 95 50 95 55 93 77 134 106 158 86 119 78 152 127 79 88 70 112 190 108 131 120 93 122 75 102 105 144 117 155 110 82 191 159 28 81 139 106 115 69 53 161 146 110 130 32 48 97 145 21 96 102 136 49 60 103 121 72 115 116 218 209 88 128 160 221 112 180 48 179 146 63 37 54 77 182 97 132 118 149 187 108 143 105 169 97 113 91 108 106 45 117 207 24 178 91 89 65 81 68 154 116 103 134 127 107 160 92 72 140 136 55 63 57 176 130 182 93 69 90 145 141 119 121 115 129 135 168 107 162 116 108 159 104 83 33 84 121 90 104 80 50 120 138 86 171 78 136 157 128 63 138 198 117 132 58 114 132 123 164 75 35 113 65 65 177 39 84 46 44 106 43 88 55 178 88 156 115 164 137 86 33 178 76 123 130 113 41 154 154 93 148 81 106 111 193 114 106 136 162 45 91 144 61 109 67 74 84 147 105 203 110 108 124 113 80 99 136 115 141 131 77 45 200 155 70 121 146 136 90 124 109 45 131 104 71 67 111 120 189 51 34 65 169 73 144 71 77 125 126 110 119 105 64 66 80 119 154 81 156 56 197 131 111 113 152 119 143 109 45 95 118 62 193 125 85 87 133 101 170 161 97 83 35 95 87 104 61 143 30 121 186 104 111 87 55 102 207 134 154 153 116 78 40 148 72 95 103 65 106 71 64 77 221 124 126 120 54 89 93 103 114 199 113 112 128 103 27 53 160 170 90 161 183 153 147 124 134 116 113 72 79 163 97 117 81 84 140 151 118 92 75 47 106 198 92 112 47 212 116 126 80 144 158 111 98 191 144 126 93 104 76 118 123 117 175 63 92 142 92 64 91 111 122 87 100 142 93 129 120 127 57 135 180 177 64 143 51 114 128 71 93 139 266 97 76 128 224 149 142 133 115 94 74 146 135 131 201 116 41 38 69 142 83 186 82 166 165 42 116 41 95 101 81 156 117 187 151 118 94 68 76 69 113 52 103 166 83 107 73 165 78 99 145 73 138 134 129 88 105 101 204 215 106 50 48 97 68 114 53 76 117 162 78 66 33 148 83 56 155 115 86 140 170 107 172 128 211 111 42 123 138 68 81 51 148 67 147 151 60 140 168 132 149 78 39 39 92 78 85 61 128 57 174 64 126 226 177 97 54 99 75 92 99 76 108 71 115 125 114 131 94 141 70 91 64 117 69 142 134 93 109 101 143 136 90 173 164 115 75 81 190 108 116 92 131 119 108 116 40 82 123 102 191 65 103 122 203 89 83 163 69 114 86 110 80 96 188 118 58 183 169 188 171 150 152 146 169 117 190 39 158 49 113 102 115 68 60 97 58 89 110 107 116 95 116 152 85 99 98 157 79 39 85 152 79 100 87 78 121 75 171 73 198 55 86 72 197 146 174 112 190 20 204 141 241 182 59 148 131 181 60 137 101 100 58 70 36 91 133 40 77 108 146 107 128 79 36 97 117 86 156 55 145 97 42 147 100 72 16 49 77 66 185 50 170 122 80 102 169 40 73 79 177 117 37 42 139 139 70 128 196 127 132 113 113 74 87 126 58 134 85 170 154 145 39 132 153 69 96 105 102 136 95 51 127 123 89 128 86 141 102 147 95 77 96 84 27 177 205 109 151 137 109 96 115 119 112 156 130 111 80 68 88 132 77 85 127 135 173 209 49 142 62 70 72 117 104 105 52 114 88 130 136 50 137 147 119 197 104 59 142 80 192 89 91 147 50 64 62 88 107 139 98 165 115 102 160 175 128 118 118 98 122 80 190 153 104 190 117 114 168 26 83 39 154 131 173 65 118 140 100 134 44 37 81 190 111 85 148 107 57 149 228 145 68 109 122 165 142 93 124 146 165 99 202 123 68 133 131 70 142 43 138 188 163 138 75 168 118 98 40 154 144 102 194 121 93 157 96 93 50 106 84 145 116 122 104 9 112 158 136 87 127 83 81 75 73 104 72 157 131 141 114 149 89 98 87 84 112 167 118 98 43 119 203 85 140 111 140 47 107 141 122 70 70 170 177 76 90 132 128 83 150 148 110 132 51 169 182 153 111 118 59 117 128 19 131 167 26 132 96 80 98 127 16 87 58 86 36 99 70 188 29 118 180 64 144 80 122 78 82 144 107 106 180 79 95 85 172 149 95 74 72 75 120 81 144 129 95 94 27 71 163 48 113 122 185 62 69 163 105 91 181 149 51 89 120 110 57 153 41 143 70 140 64 122 181 117 83 88 75 125 81 113 128 93 202 103 103 132 151 53 85 124 102 56 125 125 188 34 150 93 75 171 63 104 131 82 77 144 69 168 149 202 107 96 156 119 113 82 78 115 64 73 144 88 121 231 171 114 57 136 91 45 102 173 158 75 106 104 204 59 99 78 145 133 91 61 76 81 112 62 170 104 131 113 129 131 122 115 104 136 173 104 142 169 10 116 31 134 176 104 75 169 129 87 101 148 88 85 134 114 78 83 72 198 93 97 154 147 93 227 134 104 120 184 94 245 39 30 84 113 157 177 26 175 170 145 156 72 78 69 134 55 124 75 122 86 143 125 149 176 106 119 147 56 51 109 206 104 199 176 120 100 161 106 50 163 59 133 65 43 188 145 125 64 108 130 128 153 102 144 87 157 82 150 72 115 54 35 159 89 86 108 127 102 117 134 138 175 187 65 175 130 194 135 126 63 129 93 148 115 131 73 130 74 61 177 93 100 62 80 189 113 107 97 89 80 101 126 102 116 95 79 100 105 59 88 113 45 103 213 18 134 97 81 65 117 113 81 189 82 156 101 96 110 79 170 142 77 169 106 74 96 74 124 85 175 55 141 75 107 103 47 116 154 107 77 115 126 152 82 86 95 95 93 119 19 187 69 130 56 131 124 88 86 130 76 74 124 77 78 144 130 112 84 143 98 90 121 127 72 101 182 132 185 145 150 121 105 188 55 137 92 80 54 110 138 140 175 92 92 191 59 93 67 164 92 125 64 81 68 122 83 111 123 112 114 79 71 96 140 102 104 97 56 142 139 121 58 134 110 57 45 74 120 129 171 109 88 78 121 94 93 99 194 122 92 117 75 93 96 27 83 98 114 78 126 177 103 136 75 97 97 108 116 111 87 189 100 73 91 164 92 147 138 68 122 116 107 111 79 137 122 80 74 112 91 172 138 181 90 127 118 96 146 107 157 113 174 122 180 62 198 58 132 81 145 60 178 87 128 97 125 81 52 195 171 122 41 70 172 110 57 86 128 72 92 87 89 99 99 98 74 170 105 124 144 114 117 149 151 15 129 81 101 139 145 99 104 166 123 109 115 81 115 106 118 90 150 126 58 74 50 77 165 107 71 101 214 247 219 74 46 162 113 42 87 106 55 61 99 146 145 101 84 164 115 64 66 66 96 108 125 160 128 142 77 120 100 79 131 50 99 139 89 108 71 72 107 195 63 79 67 14 52 120 137 86 53 95 162 79 105 83 92 80 93 123 157 103 190 93 109 50 111 78 47 99 127 88 76 80 56 51 161 145 96 159 109 77 151 72 77 99 78 99 166 101 104 178 130 165 42 32 141 158 103 158 82 99 134 150 93 86 113 127 125 121 133 122 86 138 34 177 68 70 186 135 97 116 182 83 137 98 108 46 101 114 141 124 103 68 112 108 124 49 137 96 113 154 103 114 181 105 139 134 81 81 85 137 128 60 107 142 66 79 112 121 80 75 136 185 53 93 93 71 82 134 109 111 44 122 121 194 113 151 77 109 128 166 186 83 71 181 133 75 98 152 170 92 202 71 137 165 79 67 118 182 99 144 85 126 106 110 73 72 58 59 179 115 21 95 142 141 101 178 70 64 91 72 135 69 93 92 199 86 77 71 81 117 95 61 155 102 183 159 169 105 203 145 109 143 89 70 113 92 217 96 125 108 118 45 267 43 76 202 148 65 87 165 91 87 82 163 214 177 103 130 77 116 172 76 158 135 133 62 132 124 125 130 152 166 146 129 127 99 222 122 122 167 124 245 110 67 102 109 186 61 179 143 136 100 145 166 140 128 102 120 119 101 123 72 99 161 111 121 86 93 176 77 152 113 78 160 139 117 174 133 141 166 145 94 138 116 40 115 70 40 88 82 79 58 85 57 88 187 96 207 32 116 58 63 118 105 102 158 130 71 129 119 82 122 68 141 89 181 101 163 176 185 175 80 49 141 151 175 112 168 125 128 160 140 49 112 105 156 136 228 75 91 151 114 104 142 81 98 96 148 139 110 107 84 162 93 163 137 26 112 141 107 201 147 119 83 71 136 220 52 116 73 140 131 115 122 149 66 212 84 80 63 62 100 102 117 90 112 145 100 98 109 76 96 196 148 153 84 147 151 126 41 181 174 109 120 54 68 91 193 60 97 48 194 95 97 95 138 44 112 86 115 118 101 79 60 192 125 45 153 152 74 101 61 67 205 50 121 48 110 59 99 109 103 135 77 111 31 103 115 214 122 83 154 64 153 114 157 139 112 146 23 77 122 72 96 116 104 99 157 59 51 105 134 13 181 23 125 72 148 85 131 162 75 70 110 99 111 178 163 72 101 136 118 145 137 103 48 54 63 146 124 139 177 151 83 75 90 158 76 104 132 85 105 160 176 115 88 129 49 72 14 54 186 187 109 125 73 135 113 107 146 85 159 118 118 61 169 49 48 86 99 77 98 66 194 134 124 83 62 126 195 116 190 121 103 112 110 59 123 123 209 108 52 80 97 108 59 110 196 87 56 145 62 106 63 40 132 95 64 99 137 129 46 100 39 76 173 151 126 138 182 140 81 124 194 70 122 63 39 97 90 129 103 74 92 199 16 129 140 110 121 84 92 129 77 81 123 107 102 50 147 163 144 69 52 152 212 69 33 64 49 127 133 83 163 109 149 40 148 172 88 84 108 96 95 79 176 79 152 97 173 59 50 65 81 104 121 101 126 76 72 170 47 143 146 89 241 67 126 201 138 88 141 123 149 218 146 82 126 38 66 128 19 153 134 152 121 138 109 102 79 83 124 170 55 126 75 55 99 79 57 107 154 100 134 101 171 95 121 102 173 117 177 205 158 95 163 94 193 140 122 117 141 103 103 169 111 176 130 114 86 106 83 124 105 126 102 52 131 122 199 78 63 123 98 54 95 124 75 132 42 195 121 110 54 155 114 95 114 194 107 30 71 162 126 115 117 61 115 157 91 125 109 123 96 203 71 78 115 131 87 115 153 174 142 167 88 82 143 100 96 167 107 159 196 116 95 37 145 126 116 39 30 93 129 172 144 77 93 132 196 188 149 107 71 119 160 74 106 82 105 90 48 73 185 61 153 91 106 49 56 91 122 92 139 114 142 72 128 115 116 112 92 118 115 197 118 152 98 91 118 58 146 79 103 148 230 51 73 80 98 90 76 150 158 118 162 130 152 179 179 75 61 104 75 76 99 67 132 105 60 40 209 73 118 122 175 108 115 103 90 176 99 54 94 109 97 36 125 86 86 90 86 114 102 139 38 40 106 112 55 135 103 47 53 81 147 111 71 69 123 70 107 122 177 156 158 135 72 148 122 123 142 148 107 129 111 71 134 69 72 158 142 92 88 103 140 155 140 128 87 150 94 138 176 96 32 124 176 208 108 99 60 115 137 93 134 75 116 141 61 122 89 107 31 42 71 147 117 137 130 90 139 115 68 58 122 63 130 41 102 133 107 95 145 67 174 33 22 175 129 107 106 135 160 51 58 214 135 102 125 87 99 154 122 118 110 92 120 213 89 88 93 120 187 120 247 93 79 225 91 70 28 61 76 135 78 146 117 98 62 79 156 112 72 96 90 159 82 103 152 116 138 137 131 132 192 124 110 86 103 152 134 75 36 74 189 121 101 203 84 90 145 114 49 49 157 218 52 103 70 62 104 77 112 120 88 131 65 232 51 84 227 116 71 73 139 102 140 97 136 189 125 165 72 149 155 66 94 87 107 85 83 144 54 214 39 79 103 127 96 86 164 163 126 86 145 115 36 162 52 103 201 97 118 127 124 126 76 47 86 149 68 64 165 98 195 143 170 74 97 68 153 144 126 85 105 118 99 134 26 104 110 48 109 72 92 139 78 177 138 128 114 106 111 138 104 106 127 167 45 89 75 47 145 209 113 149 154 187 76 125 125 90 94 69 109 130 150 98 104 149 128 64 145 100 140 106 153 63 120 23 79 141 71 127 102 80 148 60 184 158 86 109 77 74 168 95 30 132 159 85 227 77 184 111 79 56 75 96 75 115 112 119 144 128 109 162 65 201 46 79 162 214 109 113 124 149 169 135 103 101 122 176 77 149 39 111 83 100 105 146 63 114 107 83 182 178 95 85 103 170 105 124 110 111 21 79 210 72 134 55 40 118 141 150 96 127 124 206 81 152 114 149 104 51 83 110 220 94 128 214 224 53 139 134 75 101 82 167 69 85 124 65 110 191 149 110 150 56 144 142 48 71 103 69 135 47 118 114 80 84 139 91 117 120 103 127 41 129 124 122 97 116 98 96 92 68 133 155 143 106 144 70 103 76 98 64 180 160 69 130 95 91 141 66 157 161 152 161 142 88 171 148 96 90 107 124 98 151 90 121 168 128 168 69 54 118 104 110 75 58 107 175 116 143 98 92 165 143 104 175 99 90 193 111 96 131 101 191 98 97 16 131 115 171 79 96 110 129 83 178 34 149 85 118 203 157 155 209 83 145 157 112 170 43 29 150 100 109 90 177 146 108 131 134 175 108 167 88 171 115 84 84 75 37 95 129 97 132 104 101 76 71 120 61 44 149 117 70 66 111 97 190 109 78 88 101 90 193 151 48 123 121 99 144 69 46 129 90 69 182 153 118 78 72 144 127 187 179 68 80 126 99 116 188 129 62 158 182 128 66 91 103 132 108 154 96 90 138 75 74 78 144 71 93 212 91 74 79 54 50 153 69 73 124 88 142 93 64 157 102 80 142 123 94 32 140 72 158 53 139 109 73 76 93 98 122 131 109 143 81 133 63 145 183 77 71 163 22 248 87 129 116 75 80 85 50 99 99 65 70 133 189 170 62 50 102 137 104 99 61 113 98 141 54 144 94 101 21 83 110 112 109 31 52 104 112 77 46 91 70 171 174 28 78 141 172 114 69 176 55 131 70 171 69 56 199 134 133 246 133 102 88 142 78 85 121 119 137 179 98 112 86 114 69 86 67 64 62 118 108 142 201 199 86 68 64 195 140 134 92 91 93 93 94 169 135 184 72 53 113 137 158 110 98 142 86 147 88 72 76 85 134 135 71 131 126 82 146 107 83 53 119 168 116 84 51 45 60 72 135 110 73 92 97 22 110 185 162 73 100 65 79 114 137 28 123 75 122 68 57 91 99 55 110 98 160 77 156 69 118 134 143 68 178 124 37 73 105 70 108 124 184 121 54 127 49 87 90 50 62 137 154 84 128 110 107 152 173 84 115 88 71 189 52 119 77 56 54 106 143 182 160 138 63 97 162 165 126 109 61 83 119 86 74 117 184 129 115 36 107 79 198 82 188 126 89 45 176 147 61 122 181 98 57 139 90 136 108 99 94 102 149 136 39 168 112 97 59 104 80 139 132 97 19 145 128 107 60 129 60 167 40 133 222 126 117 146 95 166 126 54 83 133 91 48 151 189 212 171 149 112 88 92 70 173 121 44 136 80 123 160 82 125 58 203 105 46 56 167 227 154 135 141 74 159 182 15 103 80 80 190 145 160 99 176 67 100 105 98 186 91 180 115 118 68 25 139 168 114 103 34 200 103 69 111 60 109 197 120 140 117 90 83 52 108 138 170 101 44 55 59 54 105 141 88 125 164 142 87 64 55 105 72 118 78 186 87 65 93 165 65 72 188 83 90 107 95 171 194 136 64 78 81 72 82 115 87 116 90 123 85 105 135 89 123 49 72 152 134 147 75 120 85 139 32 129 176 227 220 70 93 87 114 103 143 52 94 180 72 85 99 182 79 81 123 142 130 44 107 84 175 120 127 106 124 126 169 5 121 83 151 58 48 111 119 76 142 120 100 72 111 109 102 62 172 56 99 153 125 109 122 235 76 89 105 65 174 122 41 159 139 130 132 89 141 58 109 150 133 123 64 44 128 111 148 88 169 128 168 118 194 102 70 76 133 116 184 101 38 114 139 105 90 142 118 90 151 148 170 165 142 112 121 108 67 99 92 91 145 88 148 93 95 118 114 130 140 118 109 75 53 170 102 97 106 78 74 62 190 214 52 89 76 90 112 83 68 83 126 113 90 108 192 159 132 34 40 141 85 129 61 101 137 121 40 68 93 113 115 163 71 78 90 105 39 93 51 145 32 168 67 56 107 102 79 168 95 102 93 141 55 47 90 168 21 163 119 143 51 162 87 156 70 146 163 162 106 128 106 109 73 98 114 75 180 76 61 94 100 117 163 80 158 171 99 69 127 78 122 172 95 123 136 191 179 178 120 62 69 45 112 88 124 142 78 108 152 152 93 87 161 140 105 152 153 102 214 139 160 82 180 177 62 95 82 112 129 99 47 154 69 108 63 99 122 134 86 141 99 214 138 121 68 132 167 105 144 118 74 117 196 42 73 79 120 99 72 101 116 151 79 152 92 174 90 102 113 80 129 116 223 124 97 132 71 15 110 155 96 83 125 125 58 105 118 237 207 40 172 240 55 60 147 82 90 87 45 187 102 46 73 85 72 51 108 76 121 124 152 112 138 155 52 112 142 128 124 41 142 62 151 103 90 198 58 103 104 161 157 124 164 77 86 83 131 90 113 143 115 99 64 86 100 114 94 120 164 92 83 87 116 188 93 239 176 145 75 98 123 127 140 90 143 123 148 162 136 149 115 138 59 129 92 126 149 139 161 124 178 92 173 172 167 133 116 124 116 172 97 83 140 118 113 84 148 270 93 115 34 127 104 139 111 201 174 124 133 159 97 63 142 153 79 228 143 119 35 124 85 38 113 126 186 95 58 79 71 126 225 133 109 214 109 73 125 120 39 107 84 125 66 119 164 108 100 137 201 137 102 72 41 92 70 82 151 100 61 101 104 123 28 114 170 64 174 172 75 97 82 112 65 103 49 140 121 194 124 104 116 201 192 175 158 184 85 56 52 59 151 81 183 66 82 89 89 215 68 154 91 110 52 74 88 110 96 101 93 124 89 174 146 114 177 152 104 139 91 114 154 75 57 116 73 114 157 90 209 167 65 105 127 124 92 173 138 137 33 107 119 89 151 157 126 167 176 115 147 112 134 86 55 33 137 82 104 124 103 156 72 63 164 73 104 137 89 91 141 110 84 165 74 55 85 164 108 147 28 99 177 159 93 97 154 108 127 105 75 176 131 109 171 129 47 159 118 144 101 147 64 119 184 153 114 19 142 51 115 145 85 148 165 183 140 86 60 82 106 95 100 199 35 37 51 75 220 152 84 182 106 111 157 63 64 93 77 112 55 117 66 100 232 153 84 161 102 201 110 125 159 113 71 83 96 133 68 136 93 107 173 92 100 50 162 108 71 95 221 170 193 97 55 115 129 70 59 96 103 137 45 105 78 168 81 137 145 227 53 152 90 33 109 107 121 260 148 69 158 72 152 118 186 64 71 130 71 49 129 115 80 156 123 158 54 121 63 176 137 105 156 81 60 49 109 114 131 73 117 95 60 125 53 161 176 61 37 130 120 146 117 86 69 209 118 101 79 58 74 141 60 157 140 77 34 150 91 156 125 106 137 79 56 163 135 98 49 151 171 78 185 68 113 102 104 149 114 177 82 135 103 68 130 149 196 98 82 155 84 156 105 119 127 94 102 130 167 114 129 123 103 102 117 166 114 100 129 114 81 78 126 139 136 159 226 49 81 99 102 148 211 132 142 129 150 102 82 110 84 123 107 129 156 190 123 76 107 153 71 76 77 123 74 100 144 61 75 68 150 128 134 66 99 149 150 163 50 160 90 144 51 59 121 167 190 124 55 61 62 104 98 52 107 142 96 194 138 107 206 143 121 131 108 83 117 100 108 127 97 121 135 144 141 94 134 167 149 96 142 147 139 101 96 121 98 117 131 191 127 117 148 69 70 94 30 71 176 79 133 179 76 121 93 55 107 76 85 124 114 143 64 192 169 128 101 188 159 145 168 57 60 98 153 112 141 154 223 125 153 111 47 76 94 64 133 113 242 137 145 127 47 61 109 164 84 57 96 206 78 177 58 50 80 102 101 107 133 106 178 84 133 86 102 104 64 164 123 103 160 64 80 125 113 97 82 111 33 188 216 76 47 36 122 179 112 178 147 198 116 118 89 91 182 43 169 117 109 98 27 174 56 93 167 85 51 195 217 161 109 131 79 114 110 37 75 78 137 159 117 159 81 112 165 112 90 121 64 106 128 148 147 91 81 128 124 98 66 121 50 79 103 108 62 142 107 140 163 167 109 179 88 99 101 92 141 115 189 181 105 114 81 110 110 72 81 69 91 98 135 136 107 129 152 142 130 102 109 40 62 62 54 52 165 133 69 56 86 60 71 142 80 125 192 187 137 58 98 117 100 110 132 42 63 130 82 92 176 105 196 123 48 81 146 77 96 156 142 95 89 71 109 142 102 108 125 112 139 154 176 61 103 66 126 113 163 73 66 61 68 82 175 70 158 126 56 126 78 194 160 94 142 171 138 129 147 98 211 200 65 129 89 88 92 41 89 114 54 212 60 127 104 125 63 79 138 109 97 99 54 101 71 209 85 82 227 152 107 62 147 142 93 198 152 162 129 87 167 110 128 36 120 148 193 86 107 117 130 22 41 104 85 117 79 56 140 93 79 87 66 52 130 248 149 93 54 78 54 95 156 119 209 148 102 72 119 154 109 96 77 92 156 139 175 81 167 74 57 166 137 139 69 79 59 37 208 143 57 184 46 124 121 106 74 136 129 110 51 59 70 95 101 98 62 136 104 62 77 95 78 87 112 90 149 83 172 170 231 87 65 46 169 193 45 124 64 103 86 113 136 112 76 111 211 40 90 59 94 91 54 165 105 168 60 135 121 153 98 127 184 118 138 148 82 58 80 104 91 97 185 91 103 95 84 59 74 173 126 78 109 227 62 110 71 56 130 73 51 136 58 106 155 219 62 59 70 73 152 89 103 58 212 142 149 132 163 75 212 58 45 88 137 83 89 128 105 123 113 68 117 146 227 76 112 101 59 140 230 104 96 141 97 72 154 144 108 131 115 91 153 157 117 52 81 52 148 162 132 120 168 151 51 161 195 164 104 126 66 151 48 54 112 137 142 112 164 30 97 181 80 51 176 124 140 151 79 112 150 139 80 19 124 69 82 278 150 98 200 98 234 60 42 174 137 132 86 112 80 81 58 123 111 66 122 76 159 134 174 107 103 62 104 61 120 109 142 115 89 136 87 62 126 95 184 90 55 132 120 107 118 187 139 134 131 102 68 103 69 90 85 99 93 83 134 120 161 71 122 73 122 160 109 70 102 97 172 172 63 176 143 104 148 10 19 165 133 108 170 74 52 141 81 231 130 84 153 68 143 114 28 136 54 77 195 91 125 106 21 122 143 96 153 134 257 115 122 69 129 150 65 97 70 118 171 172 105 65 89 33 97 134 103 63 59 99 181 103 95 91 183 97 95 83 76 42 89 106 116 125 134 173 123 192 173 134 67 69 19 158 88 119 61 85 128 57 56 100 101 69 64 129 119 124 66 151 59 162 128 161 97 98 38 106 134 126 93 55 196 111 109 103 127 156 154 106 144 86 140 105 76 228 125 106 121 111 114 114 102 191 183 80 100 170 37 130 257 126 55 95 165 113 147 79 197 109 83 113 87 118 45 138 125 23 138 115 78 107 130 106 207 107 51 79 157 121 66 51 105 136 177 16 171 126 74 104 128 114 90 82 174 122 103 66 84 79 69 74 153 164 162 99 296 37 82 191 124 146 170 125 88 192 89 80 85 111 60 87 29 95 147 180 169 141 141 127 145 166 89 94 212 66 84 154 70 140 102 149 108 91 86 89 90 145 112 127 198 133 135 134 54 104 151 49 81 151 95 230 104 109 114 145 91 113 72 157 151 55 159 139 119 95 204 108 98 115 129 123 41 172 121 92 90 130 92 117 120 126 78 81 138 34 82 52 93 152 147 95 124 107 98 101 160 107 73 141 117 89 116 126 148 123 84 114 99 124 53 130 98 144 89 164 105 125 163 126 50 185 171 123 112 141 157 53 16 105 114 98 103 121 78 97 198 76 54 167 95 82 15 47 64 132 61 169 60 127 69 149 127 69 174 166 109 206 138 122 119 154 55 144 144 82 111 153 126 95 125 112 157 102 170 96 96 69 103 106 140 110 75 116 48 137 68 88 71 138 193 58 49 106 143 121 105 163 125 111 71 117 86 129 123 159 28 75 164 129 118 106 126 57 164 128 166 85 44 36 90 171 174 77 150 72 200 140 51 30 89 182 123 94 55 106 120 195 81 132 146 156 149 17 164 36 80 65 34 149 107 204 48 164 76 139 132 191 143 155 81 132 91 128 177 81 106 81 260 78 5 120 116 127 153 59 101 73 211 96 186 142 6 63 169 151 90 78 84 136 57 95 100 160 76 128 52 59 84 99 75 166 150 136 49 170 80 96 49 129 83 139 114 43 120 205 126 126 96 121 64 143 141 98 59 175 66 53 156 103 123 128 114 145 114 96 141 191 85 146 114 122 116 198 60 117 62 123 45 33 12 90 239 158 40 57 59 77 90 94 151 86 82 117 110 73 94 102 51 95 51 145 52 87 134 57 40 117 86 145 144 153 191 120 168 97 231 166 55 103 278 77 20 85 139 83 88 52 133 194 123 73 107 161 110 120 114 92 162 110 142 154 83 173 141 61 129 201 77 50 150 163 75 123 78 156 242 124 146 75 145 120 59 90 108 118 99 267 161 134 182 195 78 28 108 68 139 37 84 52 73 101 62 80 150 79 134 112 87 133 71 107 91 145 55 78 143 138 122 101 129 90 107 47 63 126 53 147 163 181 88 154 131 123 117 113 172 67 67 72 102 78 95 111 174 128 81 165 73 31 176 22 126 131 61 120 167 29 124 114 98 155 141 114 116 75 143 73 28 91 32 26 133 90 121 113 113 130 104 98 123 136 101 74 164 112 83 148 91 89 197 73 29 97 153 114 168 80 105 126 188 207 44 122 167 61 175 115 171 205 205 108 81 85 133 73 159 129 142 177 138 123 234 146 127 107 68 169 79 131 48 60 61 102 125 58 154 170 60 129 150 199 82 108 200 183 70 72 76 77 156 47 102 98 151 123 143 107 26 162 161 86 138 106 77 177 78 106 67 102 116 152 167 156 142 35 85 154 185 50 139 116 62 132 40 110 40 90 119 185 124 130 67 144 91 148 84 29 21 158 62 128 101 185 121 56 159 114 106 67 78 46 79 144 103 51 166 106 81 128 159 54 124 58 88 77 170 113 77 182 52 113 146 149 162 194 127 123 164 154 131 168 158 86 105 77 75 123 97 124 65 217 108 160 108 179 109 68 192 150 128 244 138 109 165 59 195 120 83 105 142 180 138 117 91 89 120 148 114 108 98 81 153 62 73 103 144 83 78 50 166 84 185 83 138 174 124 172 79 131 184 80 56 89 95 108 161 173 40 178 126 270 124 160 89 71 142 112 153 172 96 118 74 60 87 74 62 205 72 81 122 180 113 108 102 130 123 54 131 98 108 92 145 138 97 90 208 93 166 143 231 77 84 88 106 93 105 203 103 44 101 152 111 145 59 130 93 161 126 125 216 131 115 197 169 149 49 84 151 100 84 59 125 134 165 78 147 91 134 149 63 47 150 77 128 85 94 134 53 97 78 63 200 148 81 87 114 154 140 118 155 139 163 75 52 94 118 130 58 148 157 181 134 160 41 148 116 166 123 135 116 37 76 78 130 102 120 115 29 118 109 159 129 141 80 35 49 139 152 114 178 85 53 82 83 69 118 78 149 48 118 116 138 91 114 105 185 88 126 74 175 154 113 60 84 147 92 66 89 132 106 64 148 157 121 104 221 25 77 100 54 158 61 40 101 139 72 77 91 154 180 116 84 77 114 161 135 178 108 117 125 124 68 69 131 70 113 244 201 164 160 141 56 45 64 97 175 99 123 167 113 93 104 101 134 95 229 104 180 218 98 110 85 97 123 114 88 74 138 94 22 96 43 102 165 111 80 85 128 76 131 84 137 152 102 82 169 185 99 82 159 149 154 68 87 161 108 146 211 164 136 72 85 128 76 123 51 48 80 114 133 103 67 138 171 66 250 72 141 156 148 105 133 103 62 123 109 94 99 147 219 111 123 101 85 123 127 74 137 91 98 168 124 126 39 126 117 101 124 153 108 102 150 150 103 74 100 171 114 125 129 190 162 88 119 130 171 103 107 100 105 175 168 115 32 207 94 88 91 147 165 67 76 95 36 89 84 189 123 101 208 171 75 93 71 138 219 48 161 107 171 107 91 115 93 91 97 98 92 120 106 88 119 82 150 29 141 129 177 94 99 133 131 94 17 76 124 157 173 48 78 128 90 255 70 57 100 172 65 105 90 110 118 59 27 115 109 164 103 45 150 161 125 87 126 49 180 95 66 48 89 107 119 87 97 80 67 75 115 78 165 30 77 108 104 151 145 134 112 197 126 96 142 58 144 101 110 91 180 115 101 174 97 104 44 86 147 97 146 103 54 76 73 164 129 141 127 141 118 99 149 78 139 58 90 155 109 123 168 105 95 45 115 189 111 197 90 101 63 96 105 144 112 137 181 105 64 160 119 96 95 27 16 94 156 151 154 141 105 78 84 138 134 129 59 196 115 177 164 81 197 99 60 72 121 92 142 107 78 110 43 84 145 113 111 126 103 95 85 110 155 46 113 173 111 169 44 47 98 308 147 157 16 165 106 71 51 133 55 48 88 185 136 102 138 55 149 140 108 86 100 61 99 30 108 132 150 86 68 77 96 205 100 115 134 288 143 59 83 32 39 217 101 136 167 158 134 137 151 111 35 114 145 132 97 127 176 159 82 113 78 142 211 99 67 48 145 39 149 63 106 142 141 101 141 97 98 144 118 110 68 111 102 150 63 209 158 109 139 113 79 200 154 139 231 75 58 123 110 123 103 110 119 98 126 74 117 118 52 77 107 131 166 88 172 171 95 86 67 118 141 129 36 95 108 25 105 116 103 118 154 103 104 63 118 190 121 185 158 89 90 62 164 99 53 106 73 122 102 89 112 54 52 89 54 38 39 139 69 89 68 144 98 78 106 89 148 108 77 51 89 50 106 67 92 139 158 52 93 133 88 56 111 53 118 158 122 227 118 65 81 157 79 141 97 119 155 70 85 133 48 72 73 118 109 83 130 72 125 141 111 147 92 62 32 109 95 124 94 154 78 213 64 99 208 213 139 123 139 132 163 122 82 188 99 69 32 12 89 176 38 93 146 65 161 107 164 154 111 111 103 137 189 161 84 179 62 78 163 64 70 156 150 71 70 69 222 167 90 123 128 125 90 68 84 121 102 63 124 68 64 109 113 107 124 163 155 102 72 103 66 171 42 156 110 73 82 127 127 95 27 140 75 84 163 168 88 80 119 72 162 72 74 187 79 119 148 134 39 94 72 35 188 121 160 64 93 113 118 74 100 122 108 76 133 172 92 61 98 119 67 132 120 90 80 75 214 95 89 58 154 64 181 102 97 102 106 102 139 153 30 88 107 164 91 90 96 141 171 112 44 107 192 17 83 207 151 84 125 100 110 144 105 151 77 148 131 71 128 136 58 139 215 78 75 124 96 96 137 53 100 76 83 70 18 97 102 35 92 113 24 129 95 52 128 84 31 141 113 47 124 174 183 42 124 146 120 64 36 80 84 107 128 157 110 53 140 100 107 129 35 163 81 111 75 165 71 195 88 56 130 79 90 97 94 102 58 104 102 157 69 38 51 164 133 128 105 161 62 139 144 116 101 82 61 218 84 89 71 191 88 132 92 134 36 134 108 114 64 120 59 141 99 135 83 136 105 120 43 94 117 100 92 62 116 97 148 77 123 104 142 91 80 118 62 156 91 95 84 172 120 171 111 109 81 131 211 59 92 201 96 85 175 137 80 98 110 56 112 140 27 67 149 135 265 177 222 128 106 145 74 83 102 99 202 77 179 162 84 55 106 30 88 34 128 89 155 183 50 85 62 185 154 178 197 156 95 169 69 75 175 109 91 84 97 59 101 109 104 135 79 122 80 79 106 55 178 68 77 90 148 127 137 139 162 22 99 145 105 129 223 131 76 96 48 102 106 147 207 104 25 172 157 91 31 131 75 63 141 84 146 148 54 137 199 52 93 134 226 59 102 97 96 102 125 184 126 143 132 108 108 105 106 53 142 86 139 52 135 115 186 71 120 206 72 124 110 74 157 111 155 22 72 117 164 98 112 254 197 128 88 101 44 170 101 93 141 59 117 199 117 21 121 106 156 92 185 93 131 152 90 183 127 133 89 188 131 168 74 116 95 92 110 128 66 115 80 142 77 148 103 76 52 153 97 138 38 118 123 130 128 168 131 156 128 86 143 90 97 57 107 85 178 120 60 120 60 107 184 139 131 106 69 108 82 91 69 174 66 156 120 101 106 93 34 143 198 109 66 149 66 102 166 25 173 211 152 47 163 63 57 93 25 143 83 196 111 89 53 217 123 99 102 176 104 136 121 106 134 126 88 55 112 128 76 67 166 126 53 112 77 91 102 143 70 86 128 117 51 121 101 141 114 110 85 112 70 149 145 48 114 193 125 148 105 134 116 139 79 109 204 65 131 75 82 155 168 161 75 169 152 122 41 279 63 58 174 113 64 128 90 13 41 27 99 106 57 85 171 153 116 110 88 142 123 157 172 151 107 104 70 93 109 91 155 78 109 84 141 80 133 50 62 144 64 36 98 81 161 182 49 173 125 36 102 155 163 163 133 104 89 191 123 60 165 81 24 144 147 151 141 76 132 81 40 81 73 88 112 107 106 131 149 101 86 68 202 136 122 68 191 139 82 43 131 74 126 157 84 70 140 119 56 131 89 137 193 128 94 120 40 97 155 123 138 77 47 75 52 111 87 105 82 131 84 183 112 130 88 110 109 144 84 131 140 94 38 126 71 179 93 124 117 71 69 123 108 151 133 120 50 104 102 134 82 89 67 122 62 66 58 41 130 197 56 55 48 83 70 72 161 172 151 90 102 30 132 144 116 203 119 152 49 118 79 110 117 71 139 142 165 159 182 248 87 69 30 173 129 107 120 93 101 85 108 119 108 97 68 57 87 218 203 164 117 50 108 168 147 117 155 110 86 127 64 95 145 133 92 149 89 201 109 118 100 176 92 169 90 132 134 157 58 246 150 102 119 81 140 75 158 170 182 45 76 104 195 184 64 85 118 125 153 32 167 152 93 81 188 101 46 147 173 82 45 63 130 43 103 67 96 122 109 156 94 156 107 189 88 120 58 70 109 46 53 78 219 114 136 110 108 122 116 115 121 146 89 94 46 85 90 80 81 154 17 191 131 147 86 128 105 94 120 103 74 89 66 122 35 91 104 128 92 40 159 100 117 96 181 116 103 55 71 51 127 121 60 116 70 69 129 215 100 101 123 75 103 96 117 53 127 198 117 117 124 68 98 39 90 106 74 72 103 80 75 80 122 157 147 63 88 129 184 55 62 150 73 85 135 128 157 137 133 58 44 123 103 36 123 98 120 82 115 83 148 148 121 131 100 31 36 115 109 111 137 113 81 138 107 102 123 175 88 110 157 132 117 64 77 45 132 161 177 205 109 169 123 112 84 87 122 86 83 153 121 101 119 112 160 137 141 32 157 115 129 194 76 163 86 80 148 80 82 132 132 105 140 105 127 178 86 112 97 92 127 140 154 76 181 91 82 39 77 104 54 57 111 96 110 118 106 61 129 49 132 205 106 111 52 104 70 78 151 106 116 56 158 118 107 84 100 123 118 100 114 85 56 143 174 119 181 121 158 130 170 62 151 118 96 113 26 175 141 60 82 105 132 95 120 102 100 72 144 208 168 148 99 101 98 123 94 104 136 153 145 87 84 115 139 166 124 148 133 135 137 46 130 67 95 146 152 112 148 126 172 91 143 141 78 133 201 100 213 100 53 72 107 47 71 65 18 67 123 104 83 97 86 80 70 55 94 70 88 142 138 108 77 35 174 72 92 160 167 108 143 147 88 85 153 90 107 78 68 152 101 121 17 86 119 97 158 141 140 124 160 80 87 66 106 122 55 142 158 88 101 201 199 103 223 40 92 155 184 101 169 63 110 128 79 55 177 96 161 87 103 148 112 66 95 61 209 135 95 183 57 75 72 169 121 75 82 64 142 139 126 65 90 115 146 107 87 66 119 168 153 88 113 155 74 125 67 105 111 179 65 167 68 81 93 189 94 131 123 60 191 76 83 125 121 81 175 48 80 157 109 143 125 95 97 155 108 188 112 74 125 88 144 107 167 141 73 65 77 36 163 103 84 59 112 146 121 69 103 61 167 134 128 44 47 129 101 17 228 86 78 54 124 214 102 107 127 99 140 239 157 176 54 49 95 41 89 103 91 48 43 72 121 83 81 199 102 166 129 59 109 97 100 91 138 73 138 120 86 69 59 107 167 147 170 86 65 177 142 29 155 174 174 91 83 129 143 162 69 99 156 109 97 62 113 181 99 194 90 137 169 32 41 70 57 88 46 90 104 107 44 116 101 96 197 128 98 114 175 75 141 40 122 70 110 32 86 196 86 117 151 89 148 147 138 122 88 90 112 160 72 116 90 56 95 148 129 71 135 27 64 73 93 139 176 55 43 96 52 135 56 168 165 35 133 137 68 59 62 87 102 29 152 80 125 156 131 177 185 119 91 83 108 153 62 35 47 7 194 92 108 97 54 115 109 110 128 183 115 136 180 146 127 50 97 92 27 73 170 58 158 113 127 90 116 167 105 79 112 92 159 169 </t>
+  </si>
+  <si>
+    <t>GAM(0.18222367634517184, -3.11914581502513e-28, 0.8184822650735746)</t>
+  </si>
+  <si>
+    <t>3 3 2 1 3 2 0 1 0 0 1 1 0 0 0 1 0 0 1 0 2 0 2 1 0 1 1 0 1 1 0 0 2 1 0 2 0 1 0 0 1 1 3 1 1 0 0 1 1 0 1 2 1 1 1 2 1 0 1 0 0 0 1 2 2 0 2 1 2 0 1 0 0 1 1 1 2 1 0 0 1 1 0 1 1 0 0 2 0 1 0 2 1 0 1 0 1 1 0 0 1 0 0 2 1 1 1 2 1 0 0 3 1 1 2 3 1 1 2 0 2 2 0 1 0 0 0 0 3 0 1 1 1 0 0 0 0 2 0 1 1 0 0 0 0 0 0 1 5 1 1 1 1 2 0 2 1 0 0 1 2 1 1 1 0 2 1 1 4 0 0 1 0 2 1 3 0 0 2 1 0 2 1 1 2 0 2 0 0 1 1 0 1 1 0 1 1 0 0 1 1 2 1 0 2 1 1 3 0 2 0 2 0 2 3 0 0 1 0 1 0 1 1 0 0 1 0 1 1 0 0 1 0 1 1 1 0 0 1 1 2 0 1 2 0 0 0 0 1 0 2 0 0 0 2 0 0 0 1 0 1 1 2 2 3 2 1 0 1 0 1 0 1 0 0 1 2 2 1 1 1 2 0 2 1 0 0 0 1 1 1 3 1 1 0 0 1 0 0 1 2 0 2 0 0 0 0 0 1 1 0 2 1 2 1 1 2 1 2 0 2 1 2 0 0 1 2 0 1 1 2 0 1 0 2 2 1 0 1 1 0 2 0 0 2 0 1 0 0 0 2 0 1 2 0 0 1 1 0 2 3 2 0 1 1 0 0 2 3 1 2 1 4 3 0 1 2 0 0 0 0 1 1 1 0 0 0 1 0 1 0 1 1 1 0 1 2 0 0 0 0 0 0 1 1 2 3 1 2 1 1 2 0 0 1 2 0 0 0 1 2 0 1 2 0 0 1 3 1 2 1 1 0 1 0 0 1 2 0 0 0 2 1 2 0 0 0 0 0 1 1 0 1 2 0 0 2 0 0 1 1 1 0 0 0 1 0 1 0 0 1 1 0 0 2 0 1 1 1 2 0 1 0 0 1 0 1 1 0 0 0 1 1 0 1 1 1 2 0 1 2 1 0 1 0 1 0 0 1 1 0 0 1 1 1 1 1 0 0 2 1 2 0 2 1 2 0 0 1 0 3 1 1 2 3 0 0 2 1 1 0 0 1 0 2 0 1 1 0 1 0 0 0 2 2 0 1 0 2 0 0 1 1 2 0 1 1 0 2 0 0 0 3 1 1 0 2 0 2 1 0 2 0 0 1 1 1 0 0 0 1 1 2 1 0 0 2 2 0 1 1 3 1 0 0 2 0 1 4 1 0 0 2 1 0 0 2 3 0 0 2 0 1 1 0 0 3 1 1 1 0 0 0 2 3 0 0 2 0 0 0 2 0 1 1 0 0 1 1 3 2 0 2 1 1 1 0 1 2 0 0 1 1 0 3 0 0 2 2 0 2 4 0 2 0 1 1 0 1 0 1 0 1 0 2 0 0 1 2 0 0 1 3 1 0 2 0 1 0 0 0 0 1 0 1 1 1 1 1 1 1 1 1 1 1 0 0 2 2 0 0 1 1 1 0 0 0 1 2 2 0 1 2 0 1 0 1 0 0 0 0 0 0 2 2 1 0 1 2 0 0 1 0 1 1 1 1 1 2 2 4 1 0 1 1 1 1 3 1 2 1 0 0 0 2 1 0 0 0 1 3 0 0 0 3 3 1 0 1 3 0 0 0 0 1 0 0 0 2 1 0 0 1 0 1 1 3 0 0 0 2 0 1 0 3 1 3 0 0 0 0 2 2 1 1 2 2 3 2 2 0 0 3 1 0 0 1 0 1 0 1 0 2 1 0 1 0 2 1 1 1 0 0 1 0 0 2 1 1 2 0 1 1 1 1 3 0 0 0 1 1 0 0 0 0 0 1 3 1 1 1 0 1 0 1 0 2 0 1 0 0 1 0 0 1 0 1 0 2 1 0 1 3 1 3 0 1 1 2 1 2 1 0 1 4 0 0 1 2 0 0 0 1 1 1 2 2 1 3 3 2 1 1 3 1 0 0 0 1 2 1 1 0 1 0 0 0 2 0 0 1 3 0 0 1 0 2 2 1 2 1 1 1 2 1 0 0 1 1 0 1 0 0 1 2 0 0 1 0 3 0 0 0 0 1 1 0 0 0 1 1 2 0 1 2 0 0 1 3 1 2 1 1 0 0 0 0 0 1 0 0 0 0 2 2 2 0 0 1 1 2 1 3 1 0 0 0 0 1 1 1 1 1 2 1 1 0 0 1 1 2 2 3 1 0 0 0 1 0 0 0 0 0 0 1 0 1 0 4 2 0 1 0 2 0 0 1 1 1 0 1 0 2 2 1 3 1 2 1 1 0 0 1 2 0 2 0 0 1 0 2 0 1 2 1 0 1 0 2 1 0 2 1 0 1 0 1 4 1 0 4 1 0 0 0 1 2 0 0 0 0 0 1 0 4 2 1 1 0 0 0 0 1 0 2 1 0 1 0 0 1 0 2 1 1 0 1 1 1 1 0 0 1 2 1 2 1 0 0 0 1 1 1 0 0 0 0 0 0 1 1 2 2 1 0 0 1 0 0 0 0 0 1 3 1 1 1 1 0 0 0 2 0 0 0 1 1 0 1 0 0 2 1 0 1 0 0 0 1 0 1 1 1 0 0 0 0 0 0 1 0 0 1 0 1 1 0 0 0 0 0 0 1 1 0 0 2 0 2 1 1 1 0 1 4 0 1 1 2 0 1 0 1 0 0 4 0 0 0 0 1 2 0 2 0 0 1 2 1 1 3 0 0 1 0 0 0 0 1 0 2 0 2 2 0 0 1 0 1 2 0 2 0 0 1 1 0 0 1 2 1 0 1 2 1 2 1 1 0 0 1 0 0 1 1 1 0 0 1 1 1 0 0 1 1 2 0 4 1 2 1 1 0 1 1 2 3 0 1 1 0 1 0 0 2 0 1 0 0 1 0 1 1 1 0 2 0 1 2 1 0 1 0 1 0 0 1 1 0 0 0 0 1 2 1 2 0 1 2 1 2 0 0 0 2 1 0 2 1 0 1 2 1 2 2 1 0 0 1 1 2 0 2 1 1 0 1 0 0 0 0 0 1 1 0 2 2 1 3 0 1 0 1 2 1 0 1 1 2 1 0 2 1 1 1 1 1 0 2 0 1 1 1 2 2 0 1 2 1 2 1 0 1 1 0 0 1 1 1 0 0 1 1 1 0 1 0 1 2 1 2 2 0 0 1 1 3 0 1 0 0 0 1 0 0 2 1 3 1 1 1 2 1 0 0 1 3 0 1 0 0 3 0 1 0 2 0 2 2 0 1 0 1 1 0 0 1 0 1 1 0 0 1 2 2 0 2 1 1 0 0 1 2 3 1 0 2 0 1 1 0 1 0 0 2 0 1 0 2 0 1 0 2 2 1 0 2 0 1 0 0 0 0 1 0 1 0 1 0 2 0 1 1 1 0 1 1 1 2 0 4 1 0 2 0 0 2 1 0 2 0 0 1 0 0 0 1 1 0 2 1 0 1 2 1 0 2 1 2 0 0 2 0 0 0 0 1 2 2 3 1 0 0 0 0 1 0 0 0 0 0 0 2 1 1 0 0 0 0 0 1 0 3 0 1 1 0 2 1 1 0 2 3 1 1 3 1 1 1 1 3 1 0 0 0 2 1 0 2 0 1 0 0 1 0 1 2 3 0 0 1 0 0 0 0 1 2 0 1 0 1 0 0 0 2 1 1 2 1 0 3 1 1 0 1 1 0 2 0 0 0 2 1 2 0 1 0 1 1 3 0 1 0 1 2 1 0 2 1 0 1 0 2 1 2 1 2 1 0 0 1 1 1 1 0 1 0 1 3 2 0 0 0 1 0 2 2 1 0 0 1 1 0 0 1 2 2 1 0 1 1 0 0 0 0 0 0 1 2 3 1 0 1 2 1 1 1 0 2 0 1 1 1 0 2 1 0 0 2 1 3 1 1 1 1 0 2 0 1 0 2 0 2 2 1 2 1 2 2 0 0 0 1 1 2 0 1 2 1 1 1 0 2 1 0 2 1 1 0 1 1 2 2 1 0 0 0 0 1 2 1 1 2 1 1 1 2 1 0 1 1 0 2 0 2 2 0 0 1 1 0 2 1 1 2 1 1 1 1 0 0 0 1 0 3 0 0 1 1 2 2 2 0 1 2 0 3 0 0 2 0 1 1 3 3 2 2 1 0 2 0 0 0 0 1 2 0 0 1 0 3 1 2 0 0 1 2 0 1 2 0 1 1 0 0 1 1 1 0 1 1 0 0 2 1 1 2 1 1 0 0 2 1 0 0 2 1 0 1 0 2 0 1 1 0 1 2 1 1 1 1 2 3 1 0 0 2 0 0 1 0 2 0 2 0 0 1 2 1 0 0 1 0 0 0 1 0 0 0 1 1 1 2 0 0 1 0 0 1 1 0 3 0 0 2 1 0 0 0 2 1 1 2 2 1 0 1 2 1 3 0 2 1 0 1 0 0 1 1 0 0 1 2 1 1 0 0 1 1 1 0 0 3 0 0 0 0 2 0 1 1 0 0 1 0 0 2 0 3 0 0 3 2 0 1 1 2 0 1 2 1 0 0 0 1 0 0 0 2 3 2 0 2 0 2 1 2 0 0 1 1 1 0 2 0 2 0 1 0 2 0 0 0 1 0 0 1 1 3 1 2 1 1 1 1 1 1 0 0 1 2 1 1 1 0 1 0 0 0 1 1 1 1 0 1 0 0 0 1 1 2 0 0 1 0 1 1 2 0 0 0 4 2 1 1 0 0 1 0 0 1 1 0 1 0 1 1 1 2 0 1 1 0 1 0 0 0 0 1 1 2 2 1 1 0 2 0 0 0 0 0 2 1 2 3 1 0 2 2 0 1 0 0 0 0 2 0 1 1 1 1 0 0 0 1 0 1 3 2 0 0 0 1 0 0 0 1 0 2 0 0 0 0 0 0 2 0 0 1 2 1 2 3 1 1 0 2 0 0 1 0 1 0 0 2 1 1 1 0 3 2 0 1 1 0 0 3 1 1 1 1 1 3 1 0 0 3 3 2 0 0 1 1 0 0 1 1 2 1 1 1 0 0 1 0 1 0 0 1 1 0 1 2 0 1 1 0 0 0 1 2 0 1 0 0 1 0 0 1 1 0 0 0 1 0 0 0 1 1 1 1 1 2 1 0 1 0 0 0 1 0 1 1 0 1 0 0 2 0 2 0 1 0 0 1 2 0 1 0 1 2 2 2 1 0 0 2 0 1 0 1 1 1 2 0 0 0 1 1 2 2 1 0 1 0 1 0 0 0 0 1 0 0 0 1 3 1 2 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 1 2 2 0 1 3 0 1 2 0 2 0 0 1 2 0 1 1 0 2 0 0 2 2 1 0 1 0 0 2 1 1 1 2 1 0 0 0 0 1 1 1 0 1 1 2 0 1 0 2 1 1 1 2 2 0 4 2 1 1 1 2 2 2 1 1 1 2 0 2 4 0 0 1 0 1 2 1 0 1 1 0 0 2 0 1 0 2 0 0 0 0 0 4 1 3 2 2 0 1 1 0 1 0 0 0 1 1 1 0 1 1 2 1 3 1 1 1 0 1 0 0 1 2 0 1 0 0 0 0 3 0 2 1 3 2 2 2 0 0 1 1 0 0 0 1 1 1 2 0 1 1 1 2 3 0 1 1 2 0 1 1 0 0 0 0 1 0 0 2 0 0 2 0 2 1 2 0 1 2 1 0 1 2 1 2 0 0 0 0 0 0 1 2 1 0 0 0 1 0 0 0 1 1 0 1 0 0 0 3 2 1 1 1 0 0 0 0 2 2 1 0 1 1 0 1 2 0 1 0 1 1 3 0 2 0 1 3 1 0 2 2 2 0 2 0 1 1 2 0 3 0 0 0 1 0 0 1 0 0 0 1 0 1 0 2 1 0 1 1 0 0 2 0 0 2 0 0 1 0 1 1 0 0 1 0 1 2 0 0 2 0 0 0 1 0 1 3 0 2 0 0 1 2 1 1 1 0 1 0 1 1 0 0 0 0 1 2 4 0 0 0 1 0 0 0 1 0 2 1 0 1 3 1 0 1 0 0 2 1 3 1 0 2 1 1 1 2 1 2 0 0 1 0 0 0 0 0 1 0 0 1 2 1 2 1 1 0 2 2 3 0 0 0 0 0 1 1 1 0 1 0 1 1 0 0 1 2 0 1 0 0 1 1 1 1 1 1 0 1 0 1 0 1 0 1 2 1 1 1 1 1 1 0 0 2 1 1 1 0 0 0 0 2 0 0 0 0 0 1 0 2 2 1 1 0 2 2 1 1 0 1 0 0 0 0 0 0 0 0 2 0 2 1 3 2 0 0 0 0 0 2 1 1 1 0 3 1 1 0 1 0 0 3 1 2 0 3 0 1 0 0 3 1 0 3 0 0 2 1 2 2 1 0 0 0 0 0 0 1 1 1 1 1 0 1 1 1 1 1 0 3 0 0 0 0 1 0 2 2 1 0 3 0 2 1 2 1 0 3 2 0 2 1 1 0 0 2 2 0 1 1 2 1 2 0 0 1 0 0 0 2 2 0 1 1 0 0 0 1 1 0 1 0 0 1 0 1 1 1 0 0 1 0 1 2 1 1 0 0 0 1 0 1 1 2 0 0 0 2 0 1 1 0 0 2 1 1 2 2 2 0 0 0 0 0 0 0 1 3 3 1 1 0 1 1 1 0 0 1 2 1 1 1 1 0 1 1 1 1 0 0 1 1 0 0 1 1 1 1 1 0 1 0 0 0 0 0 3 1 0 1 1 0 1 1 2 1 0 0 0 1 1 1 1 2 1 0 0 2 0 1 2 1 1 1 1 0 0 1 2 1 1 0 1 2 0 1 0 0 0 0 0 0 2 1 0 0 1 0 2 0 1 0 2 1 0 1 1 1 1 1 2 0 2 1 0 1 0 1 1 1 1 1 1 1 0 1 1 0 0 1 2 0 0 0 0 0 0 2 0 2 2 1 1 2 1 2 0 3 1 0 2 1 0 1 0 1 2 1 1 1 0 3 2 1 1 1 1 0 3 2 0 3 2 3 1 0 0 0 0 0 0 0 0 1 1 1 1 0 0 0 0 3 1 1 2 0 2 0 0 1 0 0 0 0 2 1 2 0 1 1 2 0 0 0 1 0 1 0 0 0 1 3 1 2 2 0 0 3 1 1 1 1 1 1 0 0 0 1 3 0 3 0 0 1 0 0 0 1 0 1 1 2 3 1 0 0 1 1 0 0 1 3 1 1 1 1 1 2 0 1 1 1 1 0 0 0 1 0 0 1 1 1 0 1 1 1 2 1 0 0 2 2 0 1 0 0 0 1 1 0 1 1 1 1 0 0 1 0 2 0 1 1 1 1 0 1 1 0 1 1 1 0 0 0 2 0 1 2 0 1 1 0 0 0 0 0 2 0 0 2 2 2 0 2 0 2 0 1 2 1 0 1 2 1 1 2 2 0 2 1 2 3 0 0 0 1 0 1 1 1 1 0 0 1 0 1 0 1 1 0 0 1 0 0 2 0 1 0 2 0 1 1 0 3 0 0 0 0 0 4 1 1 2 3 1 2 2 0 0 0 3 2 2 1 2 1 2 1 1 0 1 0 1 1 1 0 1 0 0 1 1 0 0 1 1 2 1 1 0 1 1 0 0 1 1 1 4 1 0 1 0 0 1 0 0 1 2 1 0 1 0 0 0 1 0 1 1 2 2 1 2 0 3 1 0 0 4 2 0 1 1 0 1 0 2 2 1 0 1 1 1 3 1 0 1 1 1 0 1 0 0 2 0 0 2 1 1 0 1 0 0 1 1 1 0 1 2 3 0 0 1 1 2 0 0 2 2 0 0 1 0 0 0 2 0 2 2 0 1 2 1 1 0 0 1 1 0 2 1 1 2 0 0 2 0 2 0 0 1 0 3 0 0 1 0 1 0 0 0 1 0 0 2 0 1 0 1 0 0 3 2 1 2 3 0 2 1 0 3 0 1 2 0 2 1 0 1 0 0 0 0 3 1 1 0 0 1 1 1 1 0 1 0 0 0 1 1 1 1 2 0 1 2 1 1 2 0 1 0 1 1 1 0 2 2 1 0 0 0 1 0 1 0 2 0 1 0 3 1 2 1 1 1 1 1 2 1 0 1 0 0 0 0 3 0 0 2 1 2 1 1 0 2 0 2 0 0 1 0 0 0 0 1 1 1 2 0 0 0 0 0 0 1 1 0 3 1 1 1 0 2 0 1 1 1 0 1 2 1 1 1 0 0 1 1 2 2 1 0 0 0 0 0 1 0 0 1 1 2 2 0 0 0 2 0 0 0 1 1 1 2 1 1 1 0 1 0 1 0 0 2 2 1 1 0 0 2 0 0 0 3 1 0 0 3 0 3 2 1 0 0 2 0 2 1 1 1 2 1 2 1 1 2 0 1 2 0 1 0 0 1 0 3 1 3 0 1 0 0 0 0 0 1 1 1 0 2 2 0 0 2 1 1 1 0 0 1 1 2 0 0 0 1 0 1 2 2 1 0 1 2 0 1 0 0 0 1 1 0 2 1 1 1 0 0 1 0 0 0 1 1 2 1 1 2 0 0 1 1 0 0 1 1 0 1 1 1 0 0 0 2 0 0 0 3 1 0 3 2 0 0 0 0 2 1 2 1 1 2 0 2 2 2 1 0 1 0 1 1 1 1 0 3 0 1 0 2 1 1 1 1 1 1 1 1 1 0 0 2 0 0 1 0 0 2 1 1 1 0 1 0 1 2 1 1 0 0 0 1 2 0 2 0 0 1 0 1 0 2 2 1 1 0 1 0 1 1 0 0 1 0 0 1 2 0 0 0 0 1 1 0 0 0 0 0 0 2 1 1 0 1 1 0 1 0 1 0 0 1 0 2 2 0 0 1 1 3 1 0 1 1 0 2 1 1 1 0 1 2 0 3 1 2 1 0 0 0 1 0 2 1 3 0 3 1 1 2 1 0 0 0 1 1 0 1 1 0 2 1 0 0 2 1 0 0 1 0 3 1 0 1 0 2 0 1 0 1 0 0 4 0 0 2 1 0 1 0 1 1 0 1 2 2 1 0 2 1 1 1 0 3 0 0 1 0 2 1 1 1 0 1 0 0 0 2 2 2 0 2 0 0 1 0 1 0 0 1 1 1 1 1 0 1 2 0 1 0 2 1 1 0 0 1 1 0 2 0 1 0 1 2 0 1 3 1 3 1 2 2 0 0 0 0 0 0 0 1 1 1 3 1 0 3 0 1 1 0 0 0 2 0 0 0 1 0 1 2 0 2 1 0 0 2 1 2 1 1 0 1 0 0 0 0 1 0 1 1 0 1 2 1 0 0 0 0 1 1 2 2 0 0 0 1 2 2 0 0 0 2 2 0 0 0 2 0 1 0 2 0 0 0 0 0 1 1 0 2 2 1 1 0 2 1 0 0 2 2 0 0 1 0 0 2 2 1 1 0 0 0 0 0 1 1 2 1 1 2 2 2 0 1 2 1 2 0 0 0 0 2 0 0 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0 1 0 1 1 1 1 0 2 0 2 2 0 0 2 1 0 0 0 2 0 2 0 1 1 0 0 1 1 0 0 0 1 0 1 1 1 0 0 2 0 0 0 0 0 0 1 1 1 1 1 0 2 0 0 0 1 1 0 2 1 1 0 1 1 1 0 0 1 0 1 1 1 0 3 1 0 0 1 1 1 0 0 1 2 1 1 1 0 0 1 1 0 1 0 1 2 1 1 1 2 1 0 1 2 0 2 3 2 0 2 1 1 0 0 3 0 0 0 1 1 0 0 0 0 3 1 0 1 1 1 0 1 1 0 2 1 1 1 1 4 2 1 0 2 0 2 2 0 1 0 2 2 1 1 3 0 0 1 0 0 0 1 2 2 1 1 2 2 2 1 2 0 1 1 0 1 2 1 0 3 1 2 1 1 1 2 1 1 2 2 1 2 0 1 1 0 2 0 1 1 2 0 0 1 0 2 1 0 0 0 1 0 1 0 1 0 0 0 2 0 1 1 0 1 0 0 1 2 0 0 0 1 0 2 1 2 2 0 1 0 0 1 1 0 1 1 0 1 1 0 0 1 0 0 1 1 1 1 0 2 0 2 1 1 2 1 0 0 2 0 3 0 1 3 0 0 1 4 3 3 1 1 1 1 0 1 1 1 4 1 0 0 1 0 0 1 1 0 0 3 3 3 0 1 1 1 0 2 1 3 1 0 2 1 1 1 1 1 2 0 0 0 0 1 1 1 2 0 1 0 1 3 0 1 1 2 2 2 0 2 0 1 1 0 2 1 2 0 1 1 0 0 1 2 1 1 2 0 1 0 0 0 0 2 0 1 2 0 0 0 0 2 1 1 1 0 1 1 4 1 1 1 2 1 1 1 0 1 0 0 1 1 1 1 0 2 3 0 1 0 0 0 0 1 1 1 1 0 1 1 0 1 1 0 0 1 1 1 0 0 0 0 0 1 3 1 5 0 0 2 2 1 1 1 0 0 1 1 3 0 2 0 1 1 1 0 1 1 0 0 0 0 1 0 0 0 0 0 1 0 2 0 2 0 2 1 2 1 0 0 2 0 0 1 1 1 4 1 0 0 2 2 0 0 2 0 1 2 1 1 1 2 0 1 2 3 0 1 1 1 0 0 3 1 1 1 1 1 0 0 2 0 0 0 2 1 1 0 0 1 1 1 0 1 1 2 0 1 1 2 1 0 2 1 1 0 0 2 1 0 1 0 0 1 0 2 2 0 0 1 0 3 1 0 0 0 0 1 0 1 3 3 0 0 0 0 0 1 0 0 0 0 0 0 2 2 2 2 0 0 2 0 0 1 0 1 1 1 0 1 2 1 1 2 0 3 2 1 1 2 0 1 0 2 0 0 1 1 1 0 0 0 0 0 0 0 1 1 1 1 0 0 2 0 0 1 1 0 0 0 0 1 0 1 0 1 0 0 0 0 0 1 0 2 1 0 0 0 1 1 0 0 0 2 2 1 1 0 1 0 1 1 1 1 0 1 1 2 1 0 0 0 1 1 2 0 0 0 1 0 2 2 1 2 0 1 1 2 0 1 0 1 0 1 0 0 1 0 2 2 2 0 0 1 0 1 2 1 1 1 0 3 2 0 0 1 3 1 1 0 3 2 1 1 0 2 3 0 1 1 0 2 1 0 1 3 0 3 1 1 2 1 0 1 0 2 1 3 1 1 1 1 0 0 2 0 0 2 3 1 2 2 2 0 1 1 1 1 3 1 2 1 3 0 0 1 0 1 3 0 0 3 1 0 0 1 0 0 0 0 2 0 0 1 0 0 0 0 1 0 0 2 1 0 1 2 1 0 0 0 1 3 0 0 0 0 0 0 0 0 0 1 0 1 1 0 3 0 1 0 1 1 0 2 0 2 0 1 1 2 1 0 3 2 2 1 2 3 0 2 0 3 1 0 1 0 0 1 3 0 0 0 1 1 1 1 0 0 0 1 1 0 0 1 1 0 1 1 0 2 1 1 1 1 2 0 1 0 0 1 1 2 0 3 1 1 2 1 0 0 1 1 1 2 1 0 0 1 0 0 1 2 0 1 0 0 0 0 0 0 0 0 1 1 0 0 2 2 2 0 2 1 1 0 1 2 1 1 0 2 1 0 1 2 0 1 2 0 0 0 2 2 1 0 1 1 2 0 0 1 2 0 3 3 0 0 0 1 1 0 2 1 1 2 2 2 2 1 1 0 1 1 1 0 2 1 1 0 0 0 3 2 1 0 0 4 0 1 2 0 1 2 0 0 0 0 0 0 0 0 0 1 2 1 2 2 2 0 1 1 0 0 3 1 0 2 0 3 2 1 1 3 0 1 0 1 0 1 0 1 1 1 0 1 1 0 0 0 0 0 3 2 1 0 1 0 1 0 0 0 2 2 0 0 1 1 1 3 0 0 0 0 1 1 0 2 2 1 2 1 1 1 0 1 2 0 0 0 1 3 0 2 0 2 0 0 3 0 1 0 0 1 3 1 0 1 0 0 1 0 2 0 1 1 0 2 1 1 0 2 0 1 1 0 0 4 0 2 1 1 0 1 0 0 0 2 1 2 1 1 0 1 1 0 0 1 0 1 1 2 0 0 2 0 2 2 1 3 2 2 0 2 0 0 3 0 2 0 1 1 1 1 0 1 1 0 1 1 0 1 1 0 0 2 1 2 1 1 1 2 2 0 0 0 0 1 1 1 2 1 0 1 1 1 2 1 1 2 1 0 0 1 1 0 0 1 2 0 0 1 1 0 3 2 0 2 0 1 0 1 0 0 0 1 1 0 1 1 0 0 0 1 1 0 1 0 1 0 0 1 0 0 1 1 3 0 1 0 2 0 0 2 1 0 0 0 1 0 0 1 4 0 2 1 1 0 0 0 1 5 0 2 1 1 1 0 1 0 0 1 1 1 1 2 0 0 1 0 1 1 1 0 1 0 1 0 1 1 0 2 0 0 2 1 0 2 0 0 1 4 0 0 0 0 1 0 1 1 0 0 1 1 1 0 2 2 1 1 1 1 0 0 1 1 1 1 1 1 2 2 1 0 0 0 0 1 0 1 0 0 2 1 1 2 0 0 1 2 0 1 1 0 2 2 1 0 1 1 0 1 1 2 1 1 0 3 1 0 1 0 0 0 0 0 0 2 0 1 2 0 0 0 0 1 1 1 0 0 1 1 0 3 1 0 1 0 4 1 0 0 0 0 1 0 0 0 0 1 1 0 1 1 0 2 0 0 0 0 1 0 0 1 1 2 0 0 1 0 0 0 1 0 2 0 0 1 0 2 1 1 4 2 1 1 0 3 0 0 2 1 1 2 0 2 1 1 1 1 0 1 0 0 2 1 0 1 2 1 2 0 0 1 2 1 1 1 1 0 0 4 2 0 0 0 0 3 0 0 1 0 3 1 2 0 0 0 1 0 1 1 2 0 1 0 1 2 0 2 2 1 1 1 0 0 1 0 1 1 0 0 0 0 1 1 1 0 2 0 2 1 0 0 1 0 1 1 1 0 2 2 0 1 0 0 0 1 1 1 0 1 0 0 1 1 0 0 1 0 2 2 0 2 1 2 2 2 2 1 0 0 0 1 0 0 2 0 1 0 0 1 2 2 1 1 1 1 1 2 0 0 1 2 1 0 1 2 1 0 0 2 0 2 3 1 0 0 1 2 1 1 2 1 0 0 0 2 0 0 1 0 0 1 2 0 0 0 2 0 1 1 2 0 1 0 1 0 2 1 2 4 1 0 1 2 0 1 1 0 3 0 0 0 0 1 2 1 2 1 2 0 0 0 1 1 1 0 0 2 0 0 1 2 0 0 0 1 2 2 3 0 0 0 0 1 1 0 1 0 1 0 0 3 0 1 0 0 0 1 3 0 1 2 1 1 0 1 0 0 2 0 0 3 0 4 0 1 0 2 2 1 0 1 0 0 1 0 2 1 1 1 0 2 2 1 0 2 1 1 1 2 0 1 1 0 0 0 0 0 0 1 2 0 0 1 1 1 0 1 0 0 0 1 0 1 0 2 2 1 0 0 0 2 0 0 1 0 0 1 1 0 0 0 0 4 2 0 0 0 1 0 0 1 1 0 0 0 1 0 1 0 0 1 2 0 0 1 0 2 0 4 1 3 0 0 1 0 0 0 1 2 1 1 2 0 1 3 2 1 1 1 1 0 0 0 2 0 1 3 1 1 1 1 1 1 1 1 0 0 1 1 1 1 1 1 1 0 1 0 3 0 2 0 1 1 1 3 1 1 1 2 3 3 1 0 1 0 4 2 4 3 0 0 1 0 1 0 1 0 3 0 1 0 1 1 1 2 1 1 2 2 1 2 2 2 1 1 1 1 0 0 0 2 0 1 0 1 0 3 1 2 1 0 0 0 0 1 2 0 0 1 2 1 0 2 0 1 2 1 1 1 0 2 3 1 0 0 1 1 1 0 0 1 1 0 2 2 1 0 0 0 1 0 1 0 2 1 0 4 0 0 0 0 0 2 0 2 2 2 1 0 0 1 0 2 1 2 1 2 0 0 2 1 1 3 1 2 1 1 1 3 1 1 2 1 1 2 1 1 1 0 0 1 0 1 2 1 1 1 1 0 1 0 1 1 0 0 0 2 0 3 1 1 0 1 0 0 0 0 0 0 1 1 0 1 1 1 2 0 2 1 0 3 3 1 0 0 0 0 1 0 1 0 3 1 1 1 0 1 1 0 1 1 2 0 0 1 1 0 1 1 0 0 2 1 0 0 1 2 0 1 1 0 1 0 0 2 1 0 0 2 0 1 3 1 2 0 1 0 1 0 1 0 0 0 1 0 1 0 3 2 0 0 0 1 1 0 0 0 3 1 0 0 0 0 2 0 1 1 1 0 2 1 1 2 0 1 1 0 1 0 1 0 1 1 1 1 3 0 0 1 0 0 2 0 1 2 0 1 0 0 0 1 0 1 0 0 3 0 2 0 0 2 0 0 0 0 2 1 1 0 1 0 1 2 0 0 3 2 0 2 3 2 3 0 0 0 1 2 1 1 2 1 1 2 0 2 3 0 5 3 2 1 3 2 0 2 2 1 1 1 1 1 2 0 2 0 1 0 1 3 0 2 0 0 1 0 0 1 1 2 0 2 0 2 0 1 3 1 0 0 1 0 0 0 2 0 1 1 1 1 0 2 1 1 4 1 0 2 0 0 0 0 2 0 0 1 0 0 1 3 0 0 1 0 1 3 1 0 0 0 0 0 1 1 0 2 0 2 0 0 0 1 1 0 1 4 1 0 3 2 1 0 0 0 1 2 0 0 0 2 0 0 0 1 1 1 1 1 1 0 2 1 0 0 3 1 1 2 0 0 0 1 1 0 1 2 1 0 0 1 1 0 1 0 0 1 0 1 1 0 1 2 1 2 1 1 0 1 2 1 1 1 1 1 2 0 2 2 1 1 0 2 1 1 1 0 1 0 0 1 0 1 0 0 2 1 1 1 1 1 2 1 2 0 0 1 1 1 2 0 0 1 0 0 2 0 1 1 2 0 2 2 2 0 0 0 0 1 0 3 0 2 1 1 1 1 2 0 2 0 2 1 1 1 2 1 0 0 2 0 1 0 1 1 2 0 2 0 1 1 0 0 0 1 1 0 0 0 1 1 3 0 5 0 0 3 1 3 1 1 1 1 1 1 1 2 3 0 3 1 3 2 0 0 0 1 1 0 0 2 0 1 1 0 0 1 0 0 2 1 2 0 2 2 0 2 1 0 1 2 0 1 1 2 0 2 0 0 1 1 0 1 1 0 1 0 3 1 0 0 0 0 1 2 2 2 0 0 0 2 2 1 2 1 0 0 0 2 1 1 1 1 0 0 1 1 0 0 0 1 1 0 1 0 0 0 1 2 1 0 2 0 0 0 1 2 2 1 1 1 1 0 0 1 0 1 1 0 0 0 1 0 1 1 0 0 1 1 2 1 0 1 2 1 0 0 0 0 0 3 1 0 0 2 1 0 0 0 2 1 1 1 0 0 2 0 1 1 4 1 1 5 1 1 0 1 1 1 1 0 2 0 0 1 0 1 1 1 0 0 1 0 0 2 0 0 0 1 3 2 1 1 2 1 3 0 1 2 0 0 5 1 1 0 1 1 1 0 0 0 2 2 1 1 0 1 1 1 3 1 0 3 1 2 1 1 1 1 3 0 0 3 2 0 0 1 0 1 1 0 0 0 1 1 1 0 0 2 1 0 0 1 0 0 2 1 0 0 1 2 3 2 1 1 0 2 0 2 0 0 1 1 0 2 2 2 0 2 2 1 1 1 1 0 2 1 0 1 0 5 0 1 3 1 1 1 1 0 2 0 1 0 2 2 0 0 1 0 2 0 1 1 0 0 1 1 1 1 0 0 0 1 0 2 1 0 0 0 2 0 3 0 0 1 0 2 0 0 1 1 1 0 0 0 1 1 0 1 0 2 0 1 4 1 3 0 2 0 1 0 3 0 1 1 1 1 1 0 2 0 1 0 3 0 1 0 0 1 1 1 0 5 1 2 1 0 1 1 1 1 0 1 1 1 1 0 0 0 1 1 0 2 0 0 0 2 0 3 1 2 1 0 2 0 0 0 0 1 1 0 3 0 2 1 0 0 1 2 1 1 2 0 0 0 0 1 1 2 1 0 2 0 1 0 0 1 2 2 2 1 1 1 0 1 1 1 0 2 1 1 2 0 1 0 1 0 3 0 0 0 0 0 0 0 1 1 1 2 0 0 0 0 2 0 1 2 2 0 1 0 0 4 2 1 0 1 1 1 0 1 0 0 1 2 1 1 0 1 1 1 0 0 0 1 2 1 1 1 0 1 0 2 0 4 1 0 0 4 1 0 1 0 0 1 0 1 1 1 1 2 1 0 0 1 1 0 0 0 0 2 0 2 1 2 2 0 0 0 0 0 1 2 1 1 0 1 1 1 1 3 1 2 2 0 1 1 0 1 0 1 1 1 0 2 3 1 2 0 1 1 0 2 1 0 1 2 0 1 1 1 0 0 2 2 0 0 2 3 0 0 1 0 0 2 0 0 1 0 1 3 0 1 1 0 0 0 1 2 0 3 1 1 3 0 1 0 0 1 0 1 2 1 1 0 0 1 0 1 1 3 1 0 0 2 2 1 0 2 3 1 0 0 0 0 0 1 1 2 0 0 0 2 1 0 0 0 1 2 0 2 0 0 0 1 1 1 1 2 1 0 0 2 0 0 1 0 2 1 1 0 0 0 1 1 0 0 0 1 0 1 0 1 0 2 1 2 2 1 1 1 2 0 0 0 0 2 1 0 0 0 1 1 0 0 1 0 2 1 0 1 2 0 0 2 2 1 1 1 2 0 2 1 1 1 1 2 1 0 2 1 1 1 1 0 2 2 1 1 0 1 0 1 0 0 1 3 1 0 1 1 1 2 0 0 0 1 1 0 1 0 2 1 0 1 2 0 1 0 1 0 0 0 1 0 2 0 0 0 3 0 1 1 1 0 3 0 3 0 1 0 1 0 1 0 0 0 1 2 0 0 2 1 1 0 1 1 1 1 1 0 1 1 2 0 0 0 0 1 0 2 1 1 0 0 0 1 3 0 1 0 1 1 0 0 3 0 0 2 2 2 1 0 1 0 0 0 2 1 1 1 1 1 0 1 1 0 0 2 0 0 0 0 1 1 0 2 0 0 0 0 1 0 0 4 1 1 1 0 1 2 0 0 1 0 0 0 1 0 1 1 1 0 0 1 0 0 1 0 2 2 0 0 2 1 1 1 0 1 1 3 0 1 1 1 0 2 0 0 0 0 1 1 0 0 0 1 1 1 3 2 0 2 3 0 1 2 0 2 1 0 1 0 2 0 0 0 0 0 0 0 1 3 0 1 0 2 1 2 1 0 0 0 0 0 1 0 1 1 1 0 1 0 1 1 0 1 0 0 0 0 0 3 1 1 0 1 2 0 2 0 0 3 0 0 0 1 0 0 2 1 0 0 0 1 2 0 3 2 0 2 0 1 0 0 2 0 1 0 1 1 0 1 1 1 0 0 1 1 1 0 0 2 0 2 2 0 1 0 1 2 0 1 0 2 1 1 1 1 2 1 1 1 0 2 1 0 2 0 1 0 1 0 1 0 1 2 3 0 0 2 1 1 1 0 0 1 0 1 2 1 5 1 0 1 1 2 1 1 0 1 2 0 0 2 0 1 2 0 1 2 2 0 0 0 1 0 1 1 2 1 0 1 1 0 1 0 0 0 0 0 3 0 1 0 1 3 0 3 1 1 1 1 1 0 0 0 0 1 0 1 2 0 0 0 0 1 0 0 0 0 1 3 0 0 0 1 1 2 1 2 0 0 1 4 1 0 1 2 0 1 0 0 0 1 0 2 1 1 1 1 2 1 1 0 0 1 1 1 1 1 1 1 0 3 1 1 2 1 1 1 1 2 0 0 2 0 0 2 1 0 1 1 0 2 1 0 0 1 0 2 0 1 2 0 2 4 0 1 2 1 0 1 0 0 2 0 0 0 2 0 2 1 0 2 0 0 0 0 4 0 0 1 0 2 2 5 0 1 1 2 0 0 0 0 0 0 1 1 1 1 1 0 0 0 1 0 0 2 1 0 0 0 0 2 1 0 1 2 1 0 2 0 1 0 1 2 2 0 0 1 0 0 2 0 3 1 0 2 2 3 0 0 1 1 0 1 0 1 0 0 0 1 0 0 0 0 1 1 0 1 1 1 1 1 1 1 2 1 0 1 1 1 0 1 1 1 3 1 0 0 1 0 2 0 0 0 2 0 0 1 2 3 1 1 3 0 1 0 1 1 1 1 0 0 1 1 2 1 0 2 2 1 0 0 0 0 0 0 1 0 0 2 2 1 2 2 1 1 1 3 1 2 3 1 1 0 1 0 0 2 0 2 3 0 1 1 1 1 1 0 0 2 0 0 2 1 0 1 0 1 0 1 1 0 0 1 1 1 0 0 1 0 0 2 1 1 0 0 0 3 0 2 0 0 2 0 0 0 2 1 2 0 0 1 1 1 0 0 1 0 0 0 0 1 1 0 0 0 0 1 0 0 2 1 1 1 1 2 0 1 0 2 0 2 0 2 0 0 0 1 3 2 2 1 1 2 1 0 1 1 1 0 2 1 1 0 0 1 0 1 1 0 1 1 1 1 0 0 2 1 1 1 4 3 0 2 0 0 1 1 1 0 0 3 3 0 0 2 1 1 2 1 1 1 1 1 2 1 0 1 0 1 2 3 1 0 2 1 0 2 2 0 0 1 2 0 2 2 1 1 3 0 0 1 2 1 0 0 1 0 1 2 0 1 2 0 2 3 1 1 0 0 1 0 1 0 0 0 2 0 0 1 0 0 1 0 0 0 0 0 0 0 2 2 0 1 0 3 0 0 1 1 1 0 1 1 0 0 0 0 0 0 1 2 2 0 2 1 1 0 1 0 2 0 1 0 2 1 1 0 0 1 1 0 0 1 0 1 1 2 0 0 0 0 0 2 0 0 1 0 1 1 0 0 2 0 0 0 2 1 2 1 0 0 0 1 1 2 1 1 2 3 1 1 1 1 0 0 1 0 2 1 2 1 0 1 0 1 2 2 0 0 0 2 0 1 1 1 0 0 2 2 1 1 1 1 1 1 1 2 1 1 3 0 0 2 0 3 1 1 0 1 0 0 0 0 0 2 0 0 1 1 0 0 0 2 1 3 0 2 0 1 0 1 1 0 1 2 0 0 2 0 1 0 2 1 2 0 2 0 2 0 0 0 0 1 0 0 1 0 1 2 1 1 2 0 1 3 1 0 0 0 0 2 0 1 0 1 2 0 0 0 0 1 1 1 1 1 0 1 3 1 1 0 1 1 2 0 1 2 0 0 0 1 1 0 2 0 1 2 1 0 0 3 2 4 1 2 2 1 0 1 1 0 2 3 1 1 1 1 0 0 0 0 1 1 1 0 0 0 0 0 1 0 3 1 2 2 1 1 1 2 1 1 2 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 1 0 1 1 1 1 1 2 1 0 1 1 0 3 3 2 2 0 0 1 1 1 1 0 1 0 1 1 0 0 1 2 2 1 0 2 3 1 0 0 1 1 0 1 1 0 1 1 2 2 1 0 0 0 0 1 2 1 0 0 0 1 1 0 1 0 1 1 3 0 0 1 3 3 1 0 0 1 0 1 1 0 0 1 2 1 1 1 0 0 1 1 1 1 0 2 2 0 3 1 0 1 2 0 0 1 0 1 0 1 1 3 0 2 1 1 1 1 0 1 0 1 2 0 2 0 2 1 0 0 1 2 1 2 0 1 0 0 2 1 1 1 2 0 0 0 1 2 1 0 1 2 0 1 1 1 1 0 0 2 0 2 1 0 2 0 1 0 2 1 2 1 0 0 1 3 1 2 0 0 0 1 1 1 0 0 0 1 1 0 1 1 1 3 2 1 1 0 1 1 0 0 1 1 1 0 1 1 1 2 3 1 0 1 3 0 3 2 2 0 0 1 1 0 2 1 2 1 2 0 1 1 1 2 1 2 2 0 0 0 0 0 0 0 1 1 0 0 1 0 1 1 2 0 2 0 1 0 1 2 2 0 0 1 0 2 1 1 1 0 0 0 1 1 0 1 1 0 1 0 2 2 1 1 1 0 0 0 0 3 2 0 0 1 0 1 1 1 1 0 0 1 0 0 1 1 0 0 2 0 0 0 0 1 0 0 1 1 0 0 0 0 1 0 1 3 1 2 1 1 0 1 1 1 1 2 1 1 2 0 1 0 0 1 1 0 2 1 0 2 2 2 0 0 0 1 1 0 1 2 0 2 1 1 1 0 1 1 0 1 2 2 1 3 1 1 0 1 2 0 0 1 0 0 1 0 0 0 1 1 2 1 0 2 1 1 0 1 0 1 2 1 1 0 4 2 0 2 1 1 0 4 0 0 2 2 1 1 2 0 1 2 0 1 1 1 1 1 1 0 0 0 2 0 3 1 1 0 0 1 2 1 1 2 3 3 0 1 2 2 3 0 1 2 1 0 1 0 1 0 0 3 1 0 1 1 1 2 0 1 1 0 2 0 0 1 0 1 0 1 1 0 1 2 1 0 2 0 0 0 1 3 1 0 1 1 1 0 0 3 3 2 1 0 1 1 1 1 0 1 1 0 0 2 2 0 1 0 2 0 1 0 1 3 0 0 3 0 2 0 0 0 0 0 1 2 4 1 1 0 1 1 2 1 0 0 3 0 0 1 0 0 1 1 1 0 3 0 0 2 1 0 1 0 0 1 0 3 0 0 2 3 1 0 0 0 2 0 2 1 0 2 2 0 1 0 2 0 0 0 1 1 0 1 0 2 0 1 0 1 0 1 1 2 2 2 2 0 2 0 0 0 2 1 1 0 1 0 0 0 1 0 1 0 1 0 1 0 1 1 1 0 2 2 1 2 1 0 1 1 1 3 1 0 2 1 1 1 0 1 0 2 0 2 2 0 0 1 0 1 1 1 0 2 0 1 1 1 0 0 1 1 1 0 3 1 3 0 0 0 2 0 1 0 2 0 0 1 2 1 1 1 1 2 1 0 2 1 0 1 1 1 1 1 1 0 1 2 1 3 0 3 1 1 0 1 0 1 1 0 0 0 0 2 0 2 1 1 0 1 1 1 1 4 0 2 1 0 0 1 1 2 1 3 2 3 1 1 1 2 0 1 0 2 1 0 0 3 2 0 1 0 0 0 0 2 2 0 1 1 0 0 1 0 0 0 1 2 1 0 0 0 2 1 0 1 1 2 1 0 0 2 2 2 0 2 0 2 0 1 0 1 2 1 0 0 0 1 2 1 0 0 0 1 2 0 0 2 1 2 1 2 3 1 0 1 1 0 1 1 0 0 0 1 0 2 1 1 1 0 0 0 0 2 0 2 3 0 0 0 0 0 2 1 3 0 1 2 0 0 1 1 0 0 1 0 2 0 0 1 2 1 1 2 1 0 1 2 1 2 2 2 2 0 1 0 1 1 1 2 1 2 1 2 1 0 1 3 0 0 0 0 1 0 0 1 1 0 1 0 2 1 0 1 2 0 0 0 0 0 0 1 1 1 1 1 1 1 0 1 2 3 2 0 1 0 0 0 0 0 2 2 0 2 0 2 1 0 0 2 3 0 1 3 0 2 1 0 1 2 0 1 1 1 0 0 2 1 3 0 1 1 0 0 1 1 2 1 1 3 0 1 1 3 0 1 0 1 1 2 2 0 2 1 1 0 3 0 0 1 1 2 0 0 1 0 1 0 0 2 0 1 1 2 0 1 0 2 1 0 0 0 2 0 1 0 0 1 1 0 0 2 2 2 1 0 0 3 0 1 2 2 0 2 1 2 2 1 1 2 1 0 3 1 0 0 0 1 1 2 1 1 1 1 0 0 2 2 1 0 3 1 1 0 2 0 0 0 0 1 0 1 2 1 0 1 1 0 0 0 0 0 0 1 2 0 0 0 0 1 1 0 0 0 1 0 2 2 0 1 0 0 0 1 3 1 2 0 1 1 2 2 0 0 1 2 0 0 0 1 0 2 0 2 2 0 0 1 1 0 1 0 0 1 2 0 0 0 1 1 2 2 2 1 1 0 1 1 2 1 2 1 2 0 2 0 1 1 0 0 0 2 0 0 0 0 3 0 0 1 3 0 3 2 1 0 0 0 1 1 0 0 2 3 0 0 1 2 0 1 3 0 0 1 1 0 1 0 1 0 1 0 2 3 0 1 0 0 1 0 0 3 1 0 0 1 0 2 2 0 0 1 0 2 0 2 1</t>
   </si>
   <si>
     <t>Name</t>
@@ -249,52 +249,52 @@
     <t>T.Bass</t>
   </si>
   <si>
-    <t>JSB(3.2178383389812533, 3.572568874822947, -21.998590260558544, 141.9721191441529)</t>
-  </si>
-  <si>
-    <t>31 13 20 20 21 10 16 13 13 13 13 32 23 21 29 23 27 20 21 13 17 16 17 23 14 42 17 30 27 13 17 24 21 27 12 24 30 12 13 24 17 18 7 9 21 13 19 20 3 27 36 20 10 17 16 15 14 23 23 16 27 17 10 13 11 22 19 29 3 38 0 18 6 10 27 17 20 24 31 33 33 20 20 14 23 7 24 14 20 20 24 10 17 24 31 6 37 21 27 28 28 16 14 13 17 17 9 23 30 14 30 13 20 30 14 8 20 15 13 14 22 11 24 24 12 17 23 20 10 24 14 20 34 0 12 16 27 19 21 17 10 28 24 24 16 17 13 10 21 34 14 13 35 7 6 30 16 30 17 23 13 18 19 31 16 13 28 26 23 31 22 10 13 13 17 16 20 17 10 49 24 3 19 9 23 7 16 9 17 24 29 17 36 25 28 10 21 21 30 31 3 26 19 30 10 20 9 14 14 17 21 13 17 21 26 10 15 23 31 22 14 20 20 27 15 34 13 20 7 28 30 42 24 17 10 3 13 20 21 17 24 9 14 26 10 16 17 17 24 7 23 14 21 17 23 15 17 20 23 13 6 23 21 7 10 34 25 17 10 19 30 19 17 10 20 23 24 21 35 26 19 21 28 17 16 19 35 27 20 13 35 31 27 17 19 14 22 7 13 18 26 18 21 6 12 7 10 27 16 20 30 11 16 19 20 27 26 24 17 20 10 27 45 38 24 19 6 23 17 24 34 7 20 23 27 7 17 14 3 22 31 20 16 23 0 21 14 20 7 52 33 28 22 10 24 10 10 33 14 17 17 6 41 11 16 23 24 27 18 17 28 27 27 27 12 3 7 15 19 24 24 16 38 23 7 3 20 34 17 24 16 21 24 31 38 34 17 20 27 10 27 15 13 17 10 34 20 14 24 16 26 26 9 14 33 28 9 13 6 27 30 20 21 10 29 11 27 7 7 10 17 17 35 12 30 21 24 34 25 35 22 31 22 9 35 13 17 16 34 17 23 19 20 14 17 24 21 41 16 27 20 23 17 10 7 30 24 31 16 24 22 30 21 10 28 17 13 23 13 24 12 21 27 21 18 17 33 13 26 17 24 15 20 16 16 37 20 5 17 23 10 20 17 14 13 18 10 23 23 13 28 16 27 24 10 20 10 13 17 24 21 27 21 10 32 0 24 13 21 20 16 24 18 13 20 9 17 31 10 20 37 20 9 29 16 8 16 14 16 23 23 13 17 14 13 24 22 24 24 17 38 23 24 23 27 45 28 14 30 0 35 24 22 20 14 20 10 28 24 17 16 31 13 10 10 38 20 17 19 19 9 23 13 37 13 19 27 26 20 16 17 23 16 16 13 16 20 14 15 27 20 13 23 14 27 17 14 28 24 17 23 34 17 24 10 13 20 24 21 21 19 10 17 22 31 26 13 23 28 9 31 0 10 24 6 24 27 10 15 20 20 37 17 16 17 14 24 34 13 6 24 15 13 24 10 17 13 35 31 23 28 25 27 20 22 14 41 38 38 21 21 13 13 34 17 9 30 13 21 10 7 31 34 20 46 20 21 10 16 17 23 10 9 23 13 16 21 21 30 21 23 20 20 24 13 9 20 28 17 34 29 10 20 21 29 14 20 9 15 14 20 31 14 21 20 13 22 16 11 28 20 10 10 0 14 19 17 20 21 13 20 27 29 17 17 9 27 16 34 13 14 21 20 16 22 14 26 23 27 34 24 14 17 16 20 23 14 24 14 24 14 17 13 17 36 7 19 9 17 21 28 12 31 20 10 20 17 45 13 14 21 24 17 18 27 27 17 13 14 9 14 31 10 18 24 17 16 16 23 16 17 6 16 14 20 3 20 7 12 10 18 17 27 21 6 14 20 31 19 11 20 13 27 24 7 23 23 6 23 23 13 24 28 13 34 31 30 23 20 31 13 16 14 17 17 6 20 27 26 10 27 13 9 23 24 20 20 44 16 20 14 23 28 30 13 21 20 10 24 31 24 32 13 27 20 13 9 21 26 34 30 13 17 24 12 20 27 17 23 23 14 34 42 20 20 22 13 15 21 17 7 27 3 27 15 13 10 6 24 20 30 6 26 27 17 14 28 16 19 14 23 17 3 19 20 21 14 27 28 14 30 11 19 7 24 13 27 23 20 10 0 38 19 13 6 24 14 23 26 17 28 21 13 38 13 20 27 17 17 14 20 17 20 17 35 13 10 16 17 17 7 22 10 13 19 27 13 20 20 27 3 17 16 19 9 13 27 24 23 20 13 27 20 22 21 23 6 23 40 14 17 9 21 10 10 14 10 3 3 24 16 13 17 20 34 23 23 19 27 24 13 19 20 20 30 9 30 14 38 3 16 16 17 21 23 10 10 30 13 28 6 13 19 35 19 10 24 27 14 16 13 20 27 28 13 27 17 16 26 10 18 20 28 9 7 14 17 16 12 17 13 17 20 14 16 13 27 17 20 16 24 23 16 33 6 23 19 14 24 13 20 9 24 27 19 35 24 14 27 27 14 30 18 21 14 3 20 15 20 27 17 26 16 24 22 20 10 13 28 13 24 20 23 21 29 20 19 24 27 13 26 41 10 13 27 7 6 13 20 20 10 20 24 27 12 20 23 24 23 12 24 16 24 21 24 31 20 21 14 16 28 20 27 17 27 24 20 21 17 33 12 27 45 26 25 17 37 13 10 13 34 20 23 34 10 24 32 17 10 13 16 17 24 23 23 20 19 14 23 7 13 24 17 24 13 13 29 14 20 7 24 6 14 8 20 27 7 14 13 12 14 14 41 21 13 20 20 16 27 10 14 30 10 29 9 11 24 12 14 23 6 23 13 6 31 17 20 19 40 20 18 23 13 17 6 7 20 27 9 14 0 27 27 29 28 17 19 17 7 20 13 16 18 20 20 21 16 12 31 23 38 28 17 10 14 22 13 24 26 17 23 10 0 17 36 28 17 17 24 28 31 21 27 24 20 17 33 26 15 22 11 13 16 30 37 26 10 20 10 37 20 34 17 8 20 21 28 9 20 10 41 30 10 31 16 30 10 14 21 16 14 28 17 7 24 17 24 16 19 24 24 30 18 20 20 27 24 14 41 20 0 21 11 23 20 24 23 10 33 18 26 28 0 20 0 20 17 24 3 23 6 28 19 20 9 20 17 10 38 13 35 28 20 38 23 31 34 10 16 34 17 17 36 20 27 13 7 17 24 17 24 6 27 18 22 12 6 17 38 27 20 16 24 17 31 24 17 24 28 21 24 34 37 16 3 24 7 38 11 28 10 17 10 13 16 41 23 24 24 20 27 31 13 34 14 19 27 3 28 21 20 20 11 19 33 34 12 31 31 17 7 10 32 10 14 23 13 17 30 7 20 27 24 24 9 22 25 17 17 12 21 19 11 23 31 23 20 16 24 12 7 32 34 3 20 30 17 10 18 9 14 17 10 9 22 34 13 17 16 26 20 12 31 24 29 14 17 26 27 13 17 21 23 24 10 17 16 38 24 22 27 16 37 17 16 24 21 27 21 16 23 30 14 20 9 20 31 27 17 17 10 21 14 21 24 19 20 21 20 7 23 16 28 24 21 20 28 17 17 14 10 28 27 23 18 20 9 23 24 34 10 20 23 24 6 30 13 11 20 24 26 17 31 19 17 10 24 37 6 17 24 23 10 17 26 17 20 10 14 20 28 17 18 19 14 16 6 21 22 8 28 22 23 21 31 28 20 6 31 17 12 20 0 14 27 17 20 13 31 27 31 14 13 22 17 10 17 23 17 24 3 24 10 13 20 19 7 24 16 29 14 28 31 23 17 14 22 7 14 5 24 0 17 19 13 9 29 41 21 10 25 31 16 20 28 20 18 24 16 30 27 24 24 17 27 34 27 10 13 27 21 22 31 13 30 38 24 3 21 16 22 26 29 10 24 31 17 16 17 21 23 21 20 19 24 24 6 16 25 34 17 14 29 30 22 35 10 7 29 31 7 34 27 17 17 24 14 14 14 21 18 14 6 18 34 17 31 22 16 20 24 20 19 19 24 7 26 19 6 17 31 25 30 27 24 16 16 27 21 0 14 20 31 15 20 3 21 13 14 30 28 22 23 17 24 26 10 10 12 13 17 17 7 37 14 38 23 13 12 24 34 17 9 12 20 21 9 3 26 6 12 13 17 26 12 13 20 28 16 19 26 16 17 17 20 20 23 30 15 24 8 17 23 17 29 23 20 17 12 23 6 13 13 17 27 24 13 19 34 9 20 24 22 14 27 14 16 20 20 30 17 26 28 20 21 19 13 6 24 6 26 17 31 13 27 14 17 13 17 16 27 28 12 21 20 24 20 44 21 17 26 20 23 29 24 28 13 17 27 24 20 12 38 23 22 10 20 13 9 21 23 17 21 13 21 34 12 7 19 34 28 19 24 14 14 17 7 8 20 12 23 21 30 10 13 17 17 14 31 28 34 21 15 7 33 19 37 13 6 13 14 24 3 16 16 28 10 3 17 17 23 7 29 20 19 23 9 12 17 13 23 35 9 13 17 17 20 21 17 10 10 14 27 27 17 9 17 24 31 13 21 13 27 36 20 3 7 6 10 13 21 17 11 31 20 12 23 10 13 24 21 13 17 30 27 40 24 18 13 16 24 34 21 14 14 13 19 16 34 10 29 19 20 11 6 20 24 17 16 20 36 18 0 23 16 13 27 10 27 10 13 28 17 34 47 21 31 23 26 21 17 20 24 38 3 20 27 20 14 21 34 17 21 24 14 18 24 14 24 30 21 24 19 13 14 18 26 7 27 41 19 31 24 17 10 31 24 15 17 25 26 19 27 32 27 28 16 16 26 20 16 21 23 33 23 34 20 20 10 20 32 31 16 7 34 21 27 16 17 13 6 19 21 16 21 28 19 10 13 6 17 24 17 21 6 21 17 24 14 17 34 24 17 14 22 14 17 9 17 41 15 24 27 24 8 33 16 19 37 24 29 31 30 24 16 13 12 27 24 16 13 24 27 17 7 14 17 28 19 26 27 27 17 31 39 23 27 30 33 27 21 28 10 23 24 27 18 14 21 23 7 14 31 17 17 30 20 17 31 9 20 17 13 23 25 17 23 34 35 20 10 27 10 24 16 13 28 13 10 28 14 10 14 33 24 9 30 13 14 21 14 22 17 20 35 31 14 10 10 15 16 35 16 9 24 24 6 16 16 14 23 7 12 28 13 20 13 17 10 20 23 22 9 23 24 10 38 28 13 34 24 9 24 27 28 23 27 22 29 10 7 14 16 13 16 36 33 44 17 24 24 26 27 21 13 28 12 23 24 13 17 17 33 27 26 12 17 10 14 23 20 30 23 27 23 17 34 17 27 24 10 35 3 17 15 10 36 21 23 27 20 14 17 6 10 10 16 21 12 45 20 34 14 19 14 3 14 7 13 20 10 6 9 24 17 26 7 15 32 26 16 24 19 13 13 30 6 30 27 24 38 10 14 15 14 24 20 38 28 20 13 14 10 13 10 14 7 17 23 13 19 17 31 16 16 10 17 14 14 20 14 20 20 16 24 14 8 20 21 14 32 17 17 14 26 15 23 10 17 23 21 26 37 20 14 30 19 16 14 23 17 30 17 10 23 27 24 34 9 24 0 27 6 20 14 24 19 18 8 24 13 13 14 16 14 21 14 20 20 26 27 12 14 10 14 20 38 21 13 35 13 6 14 20 17 27 30 35 28 20 27 22 38 19 26 20 9 6 14 13 20 28 36 10 23 10 24 0 19 7 27 27 27 13 26 6 25 23 10 27 35 3 16 3 28 30 8 14 26 10 12 12 14 20 13 27 21 22 23 28 16 41 6 15 31 12 10 30 27 3 23 10 14 3 13 10 24 24 27 17 20 10 13 27 23 30 18 16 17 27 24 20 10 17 6 20 17 10 10 11 17 17 19 27 20 24 10 31 13 24 23 20 16 23 12 27 24 7 3 19 16 40 19 23 17 37 26 27 17 26 22 6 23 24 25 22 17 24 23 28 24 17 13 26 3 16 23 23 24 16 14 21 6 10 20 21 17 21 23 13 16 31 16 23 17 32 17 30 23 37 17 14 23 24 23 7 3 13 17 26 17 27 18 10 14 23 13 16 10 31 31 10 24 23 13 32 14 13 10 14 35 31 13 20 30 31 10 10 27 3 30 23 20 7 20 17 22 27 0 17 37 30 21 12 17 32 17 38 26 10 15 13 21 48 20 7 18 0 16 24 16 20 20 45 17 14 16 10 36 23 13 18 20 34 6 21 20 13 13 31 31 3 27 3 17 16 35 3 17 14 27 17 17 34 23 13 7 20 13 23 24 23 7 21 9 10 13 31 30 26 14 21 25 23 16 27 20 23 14 31 10 7 23 24 27 30 24 30 7 20 18 34 10 14 30 27 13 17 20 20 15 27 20 30 24 21 21 24 20 20 13 10 13 23 3 18 28 37 27 13 12 26 30 17 13 30 28 12 20 24 9 45 23 13 10 10 7 12 24 27 24 3 24 14 18 16 38 14 13 28 17 21 7 25 7 28 26 17 27 10 17 13 22 9 16 14 20 10 23 24 17 15 31 20 19 15 14 20 15 23 23 30 16 29 22 14 17 10 20 16 23 20 13 14 30 35 14 20 29 23 24 19 24 23 8 17 21 31 28 7 21 7 20 15 9 17 17 14 22 6 23 24 20 24 19 13 14 13 19 26 20 9 13 9 20 20 20 21 10 13 27 17 19 17 20 30 17 17 0 19 10 28 9 19 28 13 24 27 24 27 14 15 30 23 13 20 24 20 20 20 17 7 3 17 20 13 24 7 6 17 31 29 9 21 21 27 12 17 28 14 31 9 20 28 13 13 23 10 20 10 10 23 20 13 17 18 35 22 35 23 16 3 16 13 27 14 17 20 23 23 40 24 21 10 20 20 9 10 14 20 29 20 27 15 24 10 20 6 6 24 12 21 25 31 17 24 27 11 37 9 3 40 20 30 28 26 22 5 7 24 13 12 17 42 31 20 33 16 30 10 20 0 6 10 20 23 10 10 27 24 15 27 14 22 16 7 20 21 28 27 29 16 19 13 23 31 19 28 13 10 13 13 13 20 13 7 16 34 17 16 17 14 13 12 20 34 13 35 3 19 41 21 16 15 17 10 21 20 20 13 22 27 24 48 21 10 28 10 22 10 34 15 27 6 24 24 23 23 17 30 15 21 13 15 28 27 42 17 14 24 9 10 13 20 16 17 10 21 24 14 24 30 31 10 19 13 37 20 24 16 17 14 36 34 18 14 12 31 10 17 17 23 10 20 3 10 17 24 27 16 20 28 36 18 26 20 6 13 17 30 16 16 33 13 6 24 27 41 33 15 3 17 31 13 12 24 12 15 14 27 17 27 20 14 16 21 23 27 32 28 20 3 20 24 21 19 45 41 40 31 16 24 19 7 21 20 6 27 10 35 22 27 24 24 19 17 6 16 11 6 17 17 27 17 26 16 17 11 12 13 40 6 27 9 30 28 12 23 20 38 17 16 10 16 10 9 30 13 25 13 19 24 21 23 19 7 10 6 30 27 26 20 24 24 19 21 27 17 13 26 10 17 31 14 17 40 12 24 20 30 20 9 20 13 24 8 21 23 20 21 9 22 27 20 14 26 30 14 30 17 17 11 41 30 15 21 21 3 24 21 23 24 13 24 7 24 24 31 23 27 3 21 17 20 0 30 3 31 41 9 30 17 17 20 7 34 13 29 11 26 7 28 24 31 6 20 38 7 23 45 17 24 19 10 23 20 24 20 13 20 27 33 14 7 20 17 27 10 13 13 10 11 27 14 17 28 17 29 24 35 29 19 10 20 31 13 6 10 36 33 17 31 10 37 24 20 19 13 19 17 21 17 10 23 21 28 30 17 26 22 21 14 21 6 19 7 18 15 9 16 20 26 34 18 10 21 17 27 19 9 38 31 16 28 10 10 10 10 22 17 24 13 30 20 14 16 22 38 17 10 22 24 33 17 23 35 17 13 17 22 17 31 34 19 20 18 17 12 10 23 34 14 23 14 7 21 27 38 28 27 24 14 13 13 17 20 7 17 16 31 20 14 10 10 6 10 14 14 38 12 16 21 17 13 38 31 24 27 14 23 21 17 22 9 31 13 27 27 17 31 3 12 17 27 17 17 16 21 3 17 20 16 34 9 14 26 21 27 21 10 7 20 21 27 13 10 20 24 20 23 7 15 17 34 30 17 23 14 16 24 17 20 48 24 31 21 16 13 17 26 10 10 6 7 10 16 27 29 14 0 12 6 14 20 3 26 20 17 16 34 26 18 12 7 17 27 41 5 6 17 14 21 12 28 27 28 20 17 23 33 24 9 17 17 21 7 23 3 45 27 31 24 17 22 14 3 23 23 14 31 27 22 26 20 10 13 21 27 10 15 7 20 13 23 7 14 7 12 13 23 17 20 21 27 20 17 24 21 13 10 24 10 18 16 23 30 17 23 27 3 23 3 22 18 16 20 27 30 3 8 20 23 13 24 28 13 14 3 14 13 27 13 30 23 14 3 24 15 11 3 14 33 20 17 24 22 17 23 22 24 12 10 24 16 28 20 18 17 17 20 16 17 16 12 10 31 17 10 31 25 10 27 6 27 15 31 23 35 27 21 17 28 16 9 13 17 13 21 19 17 17 10 34 17 19 14 14 14 28 6 10 30 9 41 20 20 35 24 10 20 34 24 13 16 10 16 23 23 20 14 15 24 17 6 24 11 26 10 30 28 37 26 24 28 10 31 19 25 20 38 28 6 14 20 16 17 18 27 13 19 27 34 35 25 27 14 22 9 18 3 42 23 30 20 20 34 17 38 28 13 26 31 6 45 27 21 10 23 13 17 13 27 30 24 27 28 14 20 14 28 14 29 22 31 9 16 17 10 30 30 20 15 23 24 17 20 30 21 17 22 21 20 7 20 20 35 10 17 17 23 13 27 14 13 10 3 20 16 27 23 27 17 30 7 24 13 21 9 16 18 23 23 21 10 13 27 13 21 22 14 48 7 19 13 16 9 23 16 26 24 40 6 13 30 19 9 27 24 20 19 20 8 27 34 24 17 20 22 21 21 19 19 20 10 31 19 23 7 30 20 23 19 21 9 17 27 24 9 19 3 17 10 9 27 13 3 24 13 20 20 9 17 7 19 30 18 20 14 24 9 10 12 33 17 7 18 15 7 14 7 17 25 34 24 17 19 34 10 21 20 7 30 14 13 21 35 20 14 13 14 23 17 20 16 21 20 3 10 23 19 16 16 27 10 16 20 23 17 22 20 14 17 16 23 34 3 24 17 14 27 14 17 26 21 34 32 24 6 17 13 20 34 10 21 8 37 13 6 23 29 27 7 15 14 9 29 27 24 23 25 17 7 24 23 27 18 19 10 18 9 9 28 15 27 10 14 16 10 23 34 13 13 13 17 10 20 6 30 15 24 31 26 24 20 31 3 13 23 7 23 10 27 22 15 23 15 13 10 28 23 12 20 10 27 28 28 7 26 20 23 33 13 27 14 23 17 22 24 19 13 35 20 15 31 16 7 10 10 13 34 17 13 13 30 28 20 24 20 26 17 15 6 12 17 7 45 6 16 21 34 10 20 17 28 36 28 26 14 38 31 27 19 16 23 13 26 20 13 23 19 27 24 27 8 6 20 20 21 20 14 27 17 6 24 8 17 0 24 24 23 14 34 17 24 31 10 10 16 16 27 12 35 13 17 17 24 16 20 20 16 6 10 24 13 24 17 18 14 27 10 9 9 17 19 13 17 30 30 31 17 18 12 13 12 17 13 7 3 37 19 21 17 0 21 24 13 20 25 0 20 20 16 41 20 20 9 24 26 22 24 10 25 21 5 31 18 10 26 34 23 10 20 24 8 26 35 17 7 20 14 30 26 16 7 23 24 13 16 27 23 20 20 24 24 23 17 22 10 14 10 12 6 20 30 27 12 20 17 17 10 16 23 27 9 12 22 23 20 16 9 28 6 35 28 6 26 21 16 12 16 10 23 19 31 13 23 23 24 31 20 7 24 16 15 13 13 31 3 35 34 30 20 28 15 7 15 38 16 27 24 11 24 17 3 16 17 13 24 20 13 26 9 2 16 19 13 22 18 26 13 30 24 21 27 23 23 31 33 17 24 34 24 16 13 16 20 6 27 27 21 27 30 33 17 17 30 16 20 20 13 28 20 45 17 17 14 42 21 7 24 27 6 20 20 16 21 27 36 17 27 30 17 16 17 20 20 9 14 29 21 20 31 14 21 19 13 13 21 27 28 13 10 10 17 9 17 13 17 21 27 20 15 18 20 23 17 16 24 15 34 17 19 24 14 34 19 24 23 24 21 38 24 17 20 31 29 14 26 21 27 38 16 16 21 9 9 10 6 13 20 10 28 20 23 3 27 14 17 23 23 17 33 17 30 10 23 15 15 20 14 38 20 16 9 19 3 17 34 20 28 9 14 31 41 23 21 38 16 21 20 18 11 28 13 18 17 22 13 23 34 19 23 26 17 20 28 14 30 3 16 10 9 7 31 14 10 23 20 43 6 20 10 20 33 13 30 10 13 23 20 13 13 23 26 20 35 19 10 12 20 23 34 31 16 28 27 40 14 38 28 6 21 14 14 20 24 36 28 17 10 10 20 17 17 21 9 28 17 21 20 14 23 20 20 37 7 37 27 0 6 14 27 20 22 5 20 14 20 14 31 34 38 12 26 17 21 17 10 20 20 24 17 19 24 9 14 37 20 15 24 20 11 20 9 16 35 20 31 16 14 20 13 21 20 17 28 26 28 14 27 13 22 32 24 14 19 13 20 20 17 17 17 12 27 16 20 17 16 9 7 15 13 16 19 23 20 24 12 30 17 40 16 16 7 25 16 3 16 17 7 13 17 21 23 23 24 14 20 13 25 8 13 13 12 12 21 13 30 21 17 10 22 17 21 24 6 22 42 20 27 9 16 27 17 21 7 21 24 28 34 10 21 13 23 21 16 7 27 17 16 35 21 10 30 16 28 17 17 10 17 9 19 20 14 14 19 16 20 16 52 16 24 7 3 20 16 27 16 10 17 22 7 28 28 10 31 20 27 28 27 21 21 15 13 13 16 10 34 24 9 23 26 33 13 20 20 23 13 21 18 23 12 10 20 13 14 21 17 20 3 30 20 21 24 16 21 10 17 10 23 20 24 24 12 17 24 28 20 29 16 37 9 17 24 23 13 32 24 17 40 20 30 27 17 17 10 13 13 10 27 20 24 20 13 17 13 30 41 27 20 33 26 6 24 3 10 24 13 10 28 0 21 17 26 13 13 23 12 27 9 14 27 21 26 27 22 17 23 6 17 27 21 26 30 24 20 16 10 10 27 26 13 14 15 10 17 3 24 23 10 17 31 3 7 9 23 24 34 24 14 21 17 13 15 13 17 10 24 15 16 24 23 26 17 34 20 13 23 30 21 23 13 30 29 13 7 17 24 6 13 20 20 28 27 13 10 14 3 24 15 38 31 9 18 13 24 39 17 6 17 14 32 17 14 24 23 17 14 10 21 0 31 21 10 13 24 38 3 22 37 20 16 35 16 24 28 20 24 21 17 24 12 28 10 17 23 24 24 10 20 17 26 14 14 10 24 20 22 23 27 22 20 24 24 12 30 30 13 10 25 24 41 25 23 29 16 21 17 6 38 38 16 14 14 19 48 38 23 20 34 17 12 17 17 31 20 21 7 16 3 20 30 23 17 12 20 16 3 16 13 17 14 21 16 10 27 26 17 24 31 25 35 21 21 20 23 24 49 23 16 27 17 23 3 24 34 30 27 22 21 24 24 27 13 0 25 10 21 36 9 20 11 26 42 14 27 13 7 12 10 31 31 21 10 17 24 3 23 27 28 16 24 29 9 14 23 6 9 20 7 28 27 13 35 23 14 17 18 7 19 24 35 10 27 21 27 21 11 17 9 7 20 20 13 19 24 24 9 24 3 28 16 8 24 24 35 14 20 7 17 13 13 26 31 20 10 24 28 30 6 17 23 16 25 24 19 21 15 12 19 20 14 26 17 3 16 27 13 21 13 27 20 30 10 12 28 20 7 23 17 14 26 24 10 38 17 10 17 13 14 13 20 22 17 28 17 3 17 34 17 10 17 36 7 33 10 16 24 20 16 13 29 6 24 10 9 9 13 23 24 25 24 17 27 44 10 24 10 10 27 24 27 16 23 16 13 33 38 21 20 45 13 24 20 27 26 13 17 17 16 31 24 22 22 16 13 10 12 19 19 21 7 6 6 15 23 7 34 14 19 35 20 24 21 17 17 17 30 23 14 34 13 13 13 17 34 34 20 21 9 40 21 22 24 28 31 31 16 24 20 13 16 14 9 15 17 31 12 16 17 19 10 9 24 30 16 12 16 25 17 28 27 16 7 24 10 21 24 16 27 18 24 20 20 13 24 21 21 21 15 21 15 17 18 13 7 24 17 6 13 17 17 16 13 20 20 24 14 6 16 27 34 10 21 3 10 17 27 20 21 20 19 10 10 21 28 23 17 23 7 21 25 27 28 16 34 14 34 20 3 21 30 20 24 31 18 24 31 13 17 21 10 17 35 27 14 13 27 27 29 33 18 30 33 11 10 10 20 16 24 24 16 24 13 32 16 21 37 17 13 7 14 27 12 23 22 10 10 10 20 28 27 24 6 24 13 20 23 10 3 6 31 24 13 17 27 19 17 9 17 17 19 24 33 21 20 25 20 20 19 16 13 20 10 16 28 37 34 17 6 22 29 14 23 23 15 10 13 20 13 13 13 12 33 24 17 20 17 17 31 17 12 27 6 30 16 32 32 17 20 33 21 21 38 17 21 12 18 23 10 30 20 33 17 23 6 0 3 44 20 13 23 24 24 17 20 20 27 14 23 24 28 24 16 25 7 21 24 9 31 30 30 20 30 14 20 14 14 33 28 21 10 13 26 6 3 20 16 8 19 10 26 23 27 22 35 10 27 13 16 24 10 38 26 11 17 23 24 31 17 7 14 13 20 13 10 24 9 12 13 12 31 17 28 19 10 10 16 26 21 25 24 24 17 7 23 17 20 26 13 21 20 14 24 27 13 10 27 19 20 20 10 10 27 23 10 12 38 30 9 13 14 6 17 17 14 29 13 24 24 17 14 13 14 26 20 26 34 23 27 18 25 44 30 17 24 13 14 14 12 31 32 38 20 9 23 28 10 10 23 10 24 28 13 21 34 34 40 17 7 17 26 9 17 30 24 38 14 37 24 27 24 11 19 24 0 31 18 3 16 17 20 23 9 34 18 13 19 23 16 19 23 24 17 22 13 3 33 22 14 9 28 21 17 19 19 23 31 6 17 35 28 25 13 21 6 34 28 17 18 15 14 24 10 27 18 18 19 21 20 13 42 17 19 28 3 20 35 24 20 0 10 20 7 30 23 6 28 17 17 10 27 34 16 25 33 14 21 9 20 23 24 14 26 13 21 9 24 23 17 18 21 14 26 23 14 10 9 7 23 38 20 26 31 32 21 16 31 20 30 20 14 13 16 27 8 13 20 17 20 19 16 19 17 6 30 18 17 10 20 20 13 20 28 17 32 18 30 19 3 28 6 17 7 16 17 14 21 15 35 10 16 20 19 20 17 14 18 31 36 3 10 23 26 13 20 22 21 19 26 16 31 12 34 14 23 28 17 17 16 28 10 10 17 14 19 16 26 20 14 24 41 24 16 13 17 15 15 31 27 19 16 13 13 6 15 11 24 6 17 30 24 10 21 26 27 10 24 34 25 13 17 13 31 17 6 13 9 27 17 30 20 31 14 9 30 20 14 13 24 15 13 27 20 30 20 24 10 12 13 19 13 20 3 20 17 28 21 21 20 14 13 21 16 21 17 41 27 24 23 7 20 16 27 20 3 29 19 14 15 17 22 17 17 15 21 20 23 20 20 23 19 14 20 3 24 28 28 27 19 3 23 23 6 20 24 23 24 13 21 14 17 19 17 13 16 38 27 20 33 17 19 16 10 21 16 41 16 6 20 13 9 24 0 9 24 24 37 21 34 10 28 17 22 13 6 15 10 26 16 21 10 9 27 27 28 17 24 23 15 15 16 24 34 17 7 16 14 27 21 14 23 13 23 10 17 24 30 27 13 20 7 21 29 17 40 20 16 10 7 15 7 21 23 26 15 10 20 3 24 27 7 6 16 21 27 29 24 19 26 27 14 21 24 31 21 20 35 27 31 34 10 13 33 17 19 17 38 37 26 28 24 28 28 13 13 17 23 11 27 13 16 16 12 19 24 28 19 10 19 41 23 17 9 27 21 20 13 17 35 20 17 16 42 20 21 17 27 31 21 21 27 20 18 17 14 16 33 16 6 14 10 3 31 24 10 19 3 25 10 10 23 24 19 31 15 24 3 13 19 17 13 17 14 24 31 10 24 17 19 34 27 20 23 28 26 27 21 24 16 34 7 20 16 26 26 17 9 37 31 13 17 24 15 14 10 10 24 6 6 22 20 24 34 17 13 20 9 13 12 0 24 25 24 28 34 28 14 13 27 16 13 14 20 38 27 27 17 18 34 10 14 13 20 20 24 25 7 3 14 13 27 12 9 26 9 13 17 14 7 18 31 19 23 24 31 17 20 13 10 21 10 10 22 14 17 20 16 17 18 14 16 7 17 35 30 38 19 34 16 42 36 34 27 14 27 24 33 20 14 21 17 21 16 16 15 27 17 7 23 18 16 24 23 37 17 13 21 21 30 30 20 16 16 20 23 15 27 9 15 3 20 10 26 6 23 24 0 13 20 17 22 9 24 16 24 27 15 21 16 45 7 13 3 21 17 24 24 17 23 24 23 7 16 14 31 10 9 18 20 27 14 10 20 24 8 17 6 28 19 16 19 3 13 6 27 34 19 10 49 26 12 3 34 23 24 20 7 31 17 24 10 21 24 20 21 16 9 14 38 20 12 17 18 18 13 27 17 16 21 17 14 17 31 27 18 10 24 30 9 16 13 23 21 15 16 31 22 3 7 7 21 17 14 21 14 16 21 12 29 24 24 20 10 13 23 12 34 21 16 31 17 20 21 16 18 24 21 20 20 13 24 35 27 14 20 17 24 9 40 27 23 44 17 14 21 24 24 28 17 38 40 22 19 20 33 9 23 21 24 10 20 20 23 24 14 21 6 20 31 27 12 21 0 29 37 16 13 19 3 21 13 9 13 27 20 20 20 21 20 10 28 9 24 10 14 23 19 14 41 30 21 21 20 26 13 17 16 17 27 37 12 34 12 7 30 13 23 10 20 14 10 18 25 13 20 20 6 18 13 21 24 31 11 27 17 13 21 17 33 21 13 19 6 16 24 17 14 14 14 31 16 14 24 19 15 24 26 7 25 8 17 17 0 17 17 23 20 27 30 25 21 28 17 27 24 16 28 32 14 26 10 24 22 34 30 19 17 9 35 13 3 15 10 20 7 28 24 28 17 10 20 26 14 23 16 23 13 44 13 30 27 31 12 6 7 24 20 17 20 20 13 23 23 31 27 16 21 7 17 13 19 27 19 27 6 26 13 19 13 24 13 10 30 6 20 13 17 21 23 13 10 20 24 12 20 26 24 26 7 16 17 26 14 27 23 17 17 34 27 22 24 10 27 38 34 21 21 13 17 26 9 30 39 27 31 30 30 17 16 21 20 23 3 17 22 31 20 16 10 14 13 27 31 20 6 6 7 10 7 35 25 23 10 13 20 25 20 20 23 28 20 20 7 23 31 30 9 29 3 34 27 7 26 20 33 23 28 16 17 30 21 22 27 24 14 12 19 10 16 10 28 21 20 10 23 23 17 17 31 27 6 37 20 17 23 6 21 10 17 18 6 20 16 21 16 10 17 9 6 21 20 17 12 13 9 23 20 17 20 23 23 27 23 19 22 10 17 17 13 31 27 21 16 17 20 23 23 15 10 21 27 20 16 27 7 20 20 19 6 21 17 13 17 17 13 14 7 10 27 13 13 14 21 20 16 24 13 17 20 20 10 36 20 44 14 7 22 33 28 34 13 9 24 34 15 16 27 12 14 20 24 24 17 20 14 24 23 10 10 16 13 13 10 16 20 27 13 14 13 31 24 10 7 34 44 17 15 14 20 15 3 33 19 10 23 31 15 10 21 18 18 7 10 12 30 27 14 20 27 28 26 16 14 12 17 10 28 15 14 20 23 24 34 20 21 37 24 9 27 3 20 20 20 22 6 24 16 22 34 14 19 20 33 7 10 6 34 7 20 14 24 10 21 20 16 17 20 16 19 24 10 24 34 21 20 20 17 20 21 27 20 49 14 20 24 17 15 26 16 27 13 25 20 17 34 20 13 16 17 27 0 23 27 24 24 17 18 9 21 48 27 18 16 16 21 17 17 20 16 10 21 30 34 26 19 29 27 19 3 6 6 17 3 17 10 31 16 26 12 28 17 27 6 13 14 9 17 22 10 24 10 17 16 34 15 13 17 10 10 22 20 20 16 28 38 19 7 21 26 17 14 34 12 20 29 27 19 31 27 13 16 27 17 20 13 13 23 6 9 14 27 30 27 20 10 31 17 17 31 19 13 10 24 28 10 18 16 14 24 23 21 7 10 10 35 28 17 26 13 16 7 9 21 20 15 20 13 31 6 24 28 14 6 16 14 17 36 14 17 14 16 27 20 12 20 26 32 34 21 20 24 31 24 10 24 27 24 7 3 21 17 26 9 27 20 27 23 17 20 38 20 7 24 28 21 34 13 10 28 23 27 10 20 27 17 17 17 24 13 9 10 37 20 14 10 19 23 17 10 6 6 21 13 31 21 15 35 21 34 16 21 3 13 19 27 6 20 19 12 21 10 8 25 13 14 20 20 6 27 16 17 14 30 37 21 34 21 28 19 22 9 21 20 18 24 21 23 16 18 27 13 21 21 20 19 23 6 15 16 27 20 24 6 23 7 20 12 31 18 10 15 12 20 12 27 9 28 13 17 23 9 20 30 14 19 13 10 13 17 23 23 24 3 31 10 20 14 13 23 17 30 23 13 29 29 19 13 23 21 23 23 13 0 13 37 9 27 23 20 20 36 23 9 20 7 14 10 14 27 10 20 31 19 10 27 21 12 13 24 13 25 19 24 16 10 17 13 17 16 17 30 17 10 27 30 17 22 21 46 24 33 12 10 20 20 19 20 31 10 16 8 24 34 13 24 21 3 26 21 10 23 3 24 13 10 17 31 20 28 22 34 16 14 31 10 14 13 10 27 14 20 16 28 17 26 31 6 17 10 18 9 10 17 16 20 9 27 31 20 17 38 19 0 6 15 22 20 24 10 28 27 42 16 31 16 27 26 7 6 10 23 20 25 10 28 17 17 10 7 20 13 9 24 19 24 28 17 25 21 17 9 28 26 31 17 7 27 10 35 12 19 17 10 32 9 6 21 20 17 38 10 24 20 27 10 31 20 0 31 20 13 35 22 3 24 16 19 20 10 25 26 31 24 16 27 23 24 10 17 10 9 10 10 40 24 28 17 10 17 27 15 8 20 17 27 17 20 13 14 3 41 16 10 13 28 3 21 20 24 17 28 13 9 28 14 21 20 24 17 23 23 24 27 19 20 18 10 20 30 34 36 21 20 17 31 23 31 15 24 14 19 27 22 23 10 24 10 27 17 27 7 31 17 38 7 20 7 10 16 14 9 14 16 7 6 3 23 20 24 31 21 16 30 17 9 13 3 24 14 9 12 20 14 21 24 16 24 30 7 17 16 19 20 23 9 24 21 18 10 16 13 22 11 22 20 10 34 6 13 10 9 27 16 25 19 17 13 27 24 23 33 20 13 11 10 17 17 18 23 27 27 20 20 34 37 15 31 24 17 20 12 13 16 30 14 37 10 27 13 20 23 28 10 42 14 12 17 14 19 27 19 17 12 21 27 2 24 23 17 24 23 13 35 17 24 14 27 24 23 17 33 23 17 19 28 38 23 26 30 17 19 22 32 24 18 24 24 26 27 20 21 10 10 32 24 27 16 40 19 20 20 22 16 16 13 13 20 20 30 3 13 20 16 14 23 27 21 33 10 13 0 6 24 24 37 17 14 24 30 27 21 13 13 20 10 20 23 20 14 48 6 6 16 14 22 13 20 31 22 17 23 17 17 24 35 17 26 24 23 17 10 17 17 23 26 13 12 9 20 24 20 35 23 21 10 13 21 22 17 17 9 31 38 9 6 10 24 26 24 21 35 19 24 28 11 27 20 20 28 17 19 22 17 16 10 23 24 21 17 31 17 24 20 16 42 10 28 24 16 10 24 12 20 27 13 45 17 10 20 20 16 21 7 24 21 16 10 13 27 11 24 20 20 21 30 12 29 21 0 3 14 10 14 24 34 30 16 31 7 23 10 40 9 37 13 27 17 13 24 22 16 12 7 17 31 20 23 7 20 30 17 30 18 19 13 10 17 23 17 10 21 19 31 34 38 14 17 30 10 21 20 31 6 20 31 24 26 17 20 21 23 13 24 19 16 24 27 31 27 34 10 31 28 21 13 27 31 20 34 20 14 7 27 18 23 24 13 20 28 9 37 14 44 25 24 10 3 31 17 27 9 14 19 19 22 19 27 17 27 20 15 9 24 13 20 27 25 27 14 24 14 20 3 24 17 21 19 24 21 27 17 20 20 13 14 26 21 16 22 18 22 13 24 19 12 24 17 19 3 13 10 24 27 20 14 20 7 20 24 24 17 13 10 24 13 11 31 17 21 29 27 6 20 28 7 14 38 24 13 33 13 17 13 17 22 30 17 17 14 24 17 14 14 10 19 20 19 31 13 27 21 10 6 24 35 26 24 24 20 23 30 24 7 24 27 28 20 23 17 17 15 7 13 14 6 20 13 21 16 17 17 17 23 10 13 37 13 27 14 19 10 7 20 16 21 13 20 15 17 17 6 13 27 38 30 27 24 10 19 28 31 13 14 27 13 33 14 17 13 13 23 10 23 11 38 17 10 28 34 30 21 16 20 9 14 36 16 13 23 16 21 32 17 17 31 7 10 10 22 10 10 23 31 10 10 9 27 16 30 14 15 27 31 15 17 13 21 17 27 12 9 24 3 10 18 21 6 38 10 31 23 13 21 7 10 28 10 12 17 17 30 30 17 17 21 17 33 31 33 19 35 38 20 16 14 30 10 24 0 21 28 17 23 24 13 14 20 20 20 30 23 27 19 30 14 20 26 20 24 22 31 31 20 10 28 24 20 26 33 24 14 14 11 20 16 34 10 21 21 21 24 9 8 23 24 30 21 9 20 13 23 19 40 26 23 24 30 31 17 28 24 24 6 7 19 20 17 23 18 14 24 24 20 3 7 20 13 21 13 16 10 29 6 17 20 13 16 27 26 18 13 14 10 21 17 38 14 14 19 27 20 10 3 13 38 13 24 7 12 13 14 24 16 3 17 23 10 27 28 29 22 28 21 17 37 13 6 12 3 13 13 7 17 34 31 20 24 14 27 7 14 10 14 20 24 20 20 13 13 27 27 13 14 21 38 9 23 35 16 24 38 7 22 17 7 21 17 28 21 14 29 16 19 12 17 31 19 26 16 12 27 15 30 25 17 22 30 17 12 6 17 20 17 23 20 5 16 21 31 27 22 14 34 30 22 34 16 19 6 13 24 14 25 38 22 31 24 14 17 20 16 13 27 17 24 10 13 13 10 10 31 20 34 23 28 26 13 24 21 14 23 38 29 18 34 17 10 6 21 7 9 17 34 40 19 40 19 14 31 23 27 16 13 14 13 23 27 7 17 17 13 14 34 41 44 12 10 15 23 13 10 26 20 27 35 9 36 13 13 21 21 24 7 21 22 21 11 37 19 10 10 10 14 14 20 6 34 24 13 17 19 17 12 17 16 16 20 23 0 13 28 27 17 14 24 16 16 6 20 40 13 24 19 17 37 26 10 17 13 27 13 12 19 27 13 22 16 23 13 17 23 24 25 27 6 21 27 13 20 22 27 14 20 16 20 34 0 33 10 34 20 13 13 9 20 34 24 29 23 35 7 33 27 30 3 17 20 3 13 33 19 21 27 23 20 12 26 25 27 17 20 13 23 14 21 21 23 13 37 21 23 11 24 31 30 20 21 22 27 24 10 20 21 10 13 24 25 16 7 20 3 27 16 13 29 3 21 27 17 21 19 20 24 26 27 23 20 24 13 6 21 13 29 15 24 19 3 14 22 14 6 13 39 23 13 21 16 20 18 27 7 7 30 20 19 14 13 23 22 38 0 21 17 19 23 24 20 14 17 27 19 23 16 25 34 17 20 31 26 10 20 34 21 24 30 40 23 21 10 30 9 21 24 9 28 10 19 23 14 20 19 23 23 24 12 8 23 27 17 7 2 14 19 15 31 13 24 21 16 21 19 10 6 10 6 16 14 27 47 3 10 16 24 16 23 13 21 7 3 13 6 7 17 10 13 20 27 20 16 16 20 33 24 7 11 30 20 28 7 31 10 20 20 13 19 16 15 13 10 13 23 23 13 21 23 16 20 17 16 23 17 16 24 17 12 35 9 14 14 21 17 23 14 34 13 28 28 15 17 21 21 10 16 16 16 14 20 35 19 16 18 26 13 9 23 14 35 25 16 24 11 23 10 29 17 13 19 17 38 22 17 21 25 13 28 23 16 16 24 23 13 26 23 27 27 20 10 14 17 28 16 16 14 15 16 13 13 15 13 24 19 17 20 20 17 19 10 13 15 31 20 30 10 17 20 13 9 16 13 16 21 17 17 27 17 20 24 24 24 23 10 10 26 7 20 23 23 28 23 20 33 24 27 20 10 21 27 21 19 6 27 34 9 14 21 30 24 17 13 38 16 17 7 3 13 23 13 17 17 9 17 10 9 7 15 27 13 24 17 26 28 17 13 3 14 27 31 27 17 9 20 24 17 30 20 10 27 28 13 37 31 14 24 10 19 27 21 21 31 35 17 3 27 28 20 21 19 47 23 10 13 24 17 13 21 27 17 13 11 16 6 13 14 16 6 14 15 12 18 38 31 14 10 10 16 34 27 13 21 47 12 17 27 25 10 31 10 16 27 37 17 27 24 13 19 10 17 21 10 13 19 17 12 19 3 26 10 24 16 27 17 20 17 10 16 31 31 15 16 0 21 14 14 27 15 30 23 13 22 27 13 21 23 21 15 0 14 28 13 26 24 7 20 24 10 27 19 9 9 31 31 24 19 14 23 17 16 16 34 14 35 17 10 42 22 17 32 20 7 37 20 30 21 34 23 16 20 30 24 16 16 27 24 3 10 7 17 8 9 21 17 20 23 26 20 10 16 16 14 31 21 20 23 28 13 13 27 13 24 16 34 11 24 23 25 20 10 10 13 20 23 20 7 24 27 25 29 21 24 13 10 23 13 24 17 17 17 7 21 13 17 15 17 24 7 30 18 17 8 13 29 24 17 22 26 14 19 16 10 13 9 38 22 16 24 30 24 3 20 13 30 31 17 20 10 20 20 16 26 23 23 19 24 18 24 19 13 6 18 13 26 24 13 16 26 10 7 13 16 13 19 14 10 14 22 12 23 20 31 34 10 17 7 21 17 14 24 3 9 19 30 13 21 27 10 23 30 35 27 31 10 31 27 24 19 21 24 17 16 36 28 10 38 7 26 14 21 34 7 16 27 27 9 41 17 13 23 27 31 9 28 17 13 12 21 3 26 23 22 10 28 20 27 16 24 19 17 30 10 20 13 21 10 6 30 16 15 13 16 7 14 6 21 48 13 13 24 20 23 23 9 3 23 17 27 20 27 10 28 26 10 14 10 35 16 26 27 24 9 24 7 17 34 22 22 17 22 27 20 26 16 14 17 34 10 6 13 14 14 30 34 24 15 12 30 39 24 27 34 17 17 23 17 10 20 28 16 10 24 26 7 23 28 30 16 8 24 23 13 16 0 27 17 24 22 23 22 24 9 10 28 17 13 24 10 12 24 14 10 24 13 30 27 21 6 17 7 22 38 40 13 17 26 11 30 17 9 21 13 10 17 17 10 25 36 16 19 20 36 27 6 31 21 16 13 13 19 23 21 14 21 31 38 13 16 27 9 17 51 13 19 17 24 17 24 10 12 9 14 13 31 31 9 17 31 14 33 17 14 24 21 10 30 12 10 15 19 29 14 12 20 31 20 24 20 7 13 24 9 23 14 23 9 16 26 23 12 10 38 22 27 19 20 10 24 3 17 36 27 14 20 13 24 14 14 6 24 26 27 20 20 3 7 26 7 24 23 21 20 10 17 34 23 24 27 17 27 23 30 20 21 14 20 10 23 37 17 17 17 20 24 7 18 6 33 18 14 22 17 16 24 20 13 7 13 24 12 13 15 23 19 16 29 7 19 6 23 11 24 10 24 13 24 23 10 22 10 0 33 9 17 26 10 31 10 24 16 16 28 15 45 19 7 23 31 20 19 20 13 40 20 31 31 21 17 27 29 10 23 14 31 20 40 17 23 27 12 27 16 24 17 15 24 19 27 21 36 17 16 17 21 14 17 13 17 10 13 17 16</t>
-  </si>
-  <si>
-    <t>EXN(0.4611247422151124, 19.75403710912333, 3.8698075448024687)</t>
-  </si>
-  <si>
-    <t>32 24 19 19 14 19 17 13 21 26 15 26 22 23 25 21 24 18 19 23 20 26 24 27 17 25 18 26 19 23 22 28 19 27 18 22 20 23 28 21 27 17 16 16 19 20 22 20 27 31 27 23 24 22 18 24 23 26 24 25 24 16 13 21 26 29 18 20 24 34 21 21 20 19 21 22 16 23 13 22 21 24 23 16 16 16 21 28 20 18 18 20 17 25 23 13 25 20 22 29 22 15 21 22 16 23 18 23 22 25 25 20 17 20 24 31 23 20 16 22 18 28 23 22 24 18 21 25 27 20 18 16 23 19 20 20 25 23 19 20 24 22 21 20 22 21 21 29 26 20 15 21 25 13 19 25 27 28 15 14 26 23 21 21 20 21 18 23 24 21 24 19 19 21 14 20 16 23 15 25 21 26 24 21 23 24 30 24 13 24 18 23 28 27 23 23 27 18 22 30 29 21 20 19 16 16 17 22 13 21 24 20 23 19 19 20 22 16 22 30 19 21 21 29 23 25 22 22 22 23 22 28 18 27 18 14 23 25 17 14 27 22 20 18 30 21 30 28 24 19 23 23 19 17 24 24 24 23 27 24 23 21 20 27 24 24 20 21 20 19 21 27 25 25 27 24 25 20 21 21 14 20 28 21 17 21 24 26 20 24 19 31 18 21 25 22 22 21 15 19 20 21 27 19 31 24 30 19 21 18 27 22 18 26 18 25 23 24 18 14 19 26 25 30 22 26 13 18 16 27 20 19 22 17 15 18 18 22 23 20 22 14 20 15 19 22 18 21 16 30 15 23 22 14 24 14 11 20 20 17 21 14 25 25 17 22 13 23 21 14 28 23 28 21 23 22 17 22 22 19 25 21 20 24 19 24 24 23 19 26 17 22 21 22 18 26 14 20 22 15 25 16 24 15 15 24 14 22 26 19 28 15 22 24 28 25 17 23 23 17 21 25 21 18 30 19 21 25 20 16 27 30 14 25 23 14 28 20 18 23 21 26 18 29 22 31 24 19 24 19 24 16 23 23 20 25 19 27 20 28 19 22 14 23 18 22 28 25 24 21 20 30 24 23 27 27 26 22 22 27 26 17 26 21 17 24 25 20 20 24 23 19 15 19 24 24 14 24 14 24 21 20 22 25 12 17 23 22 21 24 32 24 21 25 28 17 18 19 21 18 20 25 24 18 26 13 19 23 14 21 26 21 24 21 19 16 25 20 20 24 31 25 18 25 21 15 20 16 22 27 15 19 16 15 11 26 15 29 23 29 22 25 22 24 27 35 25 20 30 26 22 20 23 20 19 24 16 28 27 22 17 24 16 14 18 24 15 21 16 18 15 20 18 24 20 26 21 18 18 24 23 19 17 24 13 18 26 16 12 23 24 10 21 23 27 22 20 26 22 23 20 29 19 26 22 19 21 27 18 21 29 16 24 24 28 17 22 22 19 19 17 21 21 21 23 20 24 19 23 17 23 28 24 20 21 13 25 29 26 31 25 29 19 16 20 18 28 27 24 18 22 26 27 23 21 24 23 27 27 15 20 23 28 30 20 22 20 24 28 26 14 22 25 21 31 23 23 15 21 26 19 15 32 22 19 16 24 16 22 20 26 25 21 21 23 17 24 20 16 23 24 16 22 22 18 22 21 17 23 19 29 26 23 13 23 21 18 28 24 23 17 27 21 12 20 24 19 20 18 15 22 20 19 33 24 17 26 19 18 24 20 25 29 20 20 14 23 16 29 28 23 29 25 19 25 23 20 23 24 25 15 28 20 21 30 18 25 25 21 20 26 17 27 21 17 24 15 31 18 16 21 16 24 25 20 23 22 19 20 23 32 22 26 28 16 18 14 22 18 28 23 20 22 19 24 18 22 24 15 21 21 25 14 22 20 19 21 23 22 17 27 29 24 21 9 15 23 24 25 25 21 28 19 25 26 23 26 20 20 22 12 17 22 14 18 29 26 21 27 19 22 20 23 25 26 30 16 26 21 18 23 29 21 24 16 16 18 19 28 17 25 23 24 20 19 23 17 23 27 25 18 32 19 28 21 26 25 16 25 20 18 23 27 19 22 24 23 15 23 17 22 25 19 24 19 18 23 23 26 19 24 22 24 23 18 12 19 19 20 22 24 25 20 26 23 18 21 19 23 11 33 14 22 16 21 22 27 23 20 19 19 22 29 33 17 18 14 21 22 23 19 27 23 22 23 18 21 18 24 25 17 19 20 24 27 19 13 20 19 21 22 22 13 28 21 22 31 24 26 31 14 23 17 20 20 25 18 21 23 16 17 17 18 17 21 25 26 21 26 19 13 24 19 21 13 22 22 16 18 18 17 21 16 19 27 18 20 23 15 25 29 20 26 14 21 22 19 19 28 19 22 16 19 20 27 17 17 16 20 25 18 26 34 20 21 19 16 21 25 16 18 18 22 26 25 27 20 15 25 18 22 24 16 23 25 17 25 21 15 25 23 22 19 19 20 21 19 23 27 20 19 21 26 24 22 16 25 27 27 20 20 24 21 19 22 24 21 24 25 18 18 20 28 25 24 22 19 21 28 23 17 21 15 19 21 21 21 17 23 22 23 22 21 24 26 22 24 19 20 16 21 27 24 23 19 19 24 25 21 16 34 27 26 20 21 19 19 14 20 15 17 13 18 16 18 21 20 30 24 18 31 21 20 23 22 22 22 18 21 24 20 25 23 26 20 16 28 17 17 18 30 17 20 31 17 15 28 21 15 20 21 27 22 20 22 31 19 16 19 19 14 18 14 21 24 31 24 20 17 27 18 21 17 15 21 19 10 14 19 24 20 17 23 23 18 19 21 23 22 22 16 23 13 26 21 19 30 18 22 19 15 26 21 22 15 14 21 21 26 26 20 21 25 20 14 14 19 26 23 23 13 25 20 21 29 18 17 24 22 13 28 20 22 20 19 21 17 13 31 20 30 27 17 16 26 23 25 25 24 18 21 16 12 22 21 19 29 22 30 17 27 17 15 28 20 28 28 12 18 24 17 23 26 25 16 24 21 22 24 27 22 22 22 21 16 24 24 19 25 24 21 25 20 24 20 24 22 19 21 19 19 24 17 21 13 26 16 24 19 21 25 21 24 19 22 24 23 20 33 24 27 25 13 14 21 18 28 19 18 24 17 21 19 23 17 20 19 15 13 15 18 22 22 24 18 18 19 21 22 30 17 26 24 22 21 22 24 26 25 28 26 21 23 29 23 16 24 18 19 24 20 25 13 17 17 25 27 19 25 24 17 27 20 21 29 24 17 26 25 16 20 31 26 21 19 31 27 19 17 22 24 22 18 25 18 20 25 11 27 16 18 22 29 25 22 22 21 18 20 22 18 24 24 17 22 25 26 23 26 25 18 22 20 22 23 22 22 25 27 22 27 21 21 23 23 28 25 21 26 17 23 19 17 26 20 29 16 28 24 20 29 23 23 19 20 26 19 9 24 25 32 26 19 24 22 21 21 20 25 17 16 24 23 20 27 23 22 31 15 27 17 19 21 29 25 21 21 24 7 24 22 14 35 21 24 25 17 24 28 17 26 22 19 18 19 18 30 28 25 28 23 21 22 18 21 24 21 28 22 20 22 24 27 20 23 17 28 24 23 17 23 20 26 21 15 22 22 15 20 18 18 21 25 26 19 16 23 21 22 20 27 17 25 16 22 18 22 28 14 25 24 18 21 23 21 25 14 21 21 16 19 25 23 27 19 17 19 27 24 22 18 27 28 16 24 18 27 18 23 18 18 22 16 24 30 25 19 28 29 27 22 19 20 31 18 16 18 20 15 24 20 18 23 23 29 23 19 21 15 27 22 20 21 28 19 22 22 22 22 13 17 8 20 24 17 15 26 24 18 14 25 18 21 22 25 18 21 28 21 31 14 24 20 22 18 26 20 25 25 23 17 24 21 18 22 26 21 24 19 23 19 18 16 19 22 22 27 24 19 24 29 26 19 17 21 24 20 20 30 28 19 20 24 22 24 24 15 26 24 26 24 23 22 18 15 19 24 23 17 22 20 17 25 24 31 22 22 29 24 22 17 21 24 22 18 15 21 28 17 25 25 21 24 16 24 20 24 22 19 20 16 22 26 19 24 13 25 16 20 22 26 19 32 20 23 23 17 18 16 23 20 23 18 25 14 29 33 16 21 18 30 18 22 27 18 13 21 19 28 15 24 24 24 25 20 20 19 22 15 23 27 24 25 25 21 15 19 23 28 17 24 21 26 21 26 25 22 18 22 24 18 24 20 25 20 19 21 17 19 15 21 28 20 24 25 14 17 25 15 19 18 25 22 27 21 27 30 16 27 21 23 21 27 20 16 25 26 18 23 22 27 17 24 23 24 16 17 24 25 17 23 20 24 21 15 22 20 17 23 31 21 22 24 13 22 23 16 21 17 16 23 25 24 22 25 34 24 19 27 23 15 21 21 27 17 19 21 16 21 23 18 27 27 19 21 23 14 15 26 29 28 16 26 21 23 20 28 22 19 15 21 28 27 20 17 18 17 17 20 21 18 25 23 20 16 18 16 25 24 17 21 14 19 22 23 13 19 25 19 24 15 23 18 21 16 15 26 19 34 22 22 18 20 22 17 24 24 15 21 21 24 23 19 26 21 23 23 17 22 26 16 21 24 28 18 25 21 21 16 20 21 15 22 25 19 20 19 20 21 19 20 22 17 14 17 25 16 16 22 21 28 22 24 28 20 25 23 24 24 27 16 26 22 27 25 29 19 27 22 23 32 17 15 30 15 21 17 19 17 19 26 20 20 20 17 23 24 30 25 29 25 22 17 27 30 21 17 24 22 22 24 25 17 22 18 24 19 23 22 15 21 29 25 31 24 17 17 20 23 21 21 27 20 22 22 24 26 23 18 23 28 22 22 18 28 26 26 19 17 17 17 22 23 21 20 22 27 28 17 30 19 33 23 24 12 22 20 23 17 19 27 21 20 19 24 20 23 26 19 26 27 19 15 27 19 28 22 16 27 27 18 19 20 24 18 26 20 19 21 24 21 24 26 19 17 18 19 15 21 22 22 23 17 27 25 16 24 29 24 25 24 23 22 31 21 32 19 23 26 27 14 16 25 21 24 23 22 22 20 22 23 26 22 23 27 17 19 32 29 23 24 26 21 21 18 22 14 15 26 21 13 18 26 22 16 19 21 28 33 23 18 16 17 28 24 26 20 20 22 23 18 23 21 19 20 22 18 21 18 17 20 18 24 22 14 23 24 19 13 18 23 26 15 19 23 17 23 23 26 26 25 23 15 20 21 20 18 24 16 21 26 24 17 19 22 25 26 24 28 28 21 27 20 17 17 20 19 23 21 25 19 25 19 19 21 24 30 22 17 17 19 18 21 19 21 18 30 21 16 20 23 25 16 20 22 19 28 26 20 32 24 22 25 19 11 17 21 22 18 27 25 27 22 20 28 14 18 19 20 26 18 25 22 26 24 20 17 20 28 23 11 20 24 29 25 27 19 26 21 17 19 25 18 21 23 26 22 22 21 24 20 25 20 22 15 19 21 22 20 18 25 21 23 22 16 25 24 17 18 16 20 24 27 19 21 21 25 22 27 23 27 13 18 21 26 20 16 20 29 13 24 19 25 24 15 16 26 25 15 24 20 33 24 16 13 27 26 25 23 19 18 21 22 20 21 26 17 17 24 22 24 17 19 19 24 19 23 22 23 23 28 23 24 23 14 22 19 15 26 23 16 20 20 20 22 18 21 22 27 18 16 19 19 18 20 16 17 14 22 16 18 24 22 20 17 21 22 30 22 20 17 30 32 21 29 28 25 18 16 24 27 12 16 20 20 22 27 23 22 20 19 16 23 21 24 14 18 24 21 21 17 34 26 20 16 25 16 24 16 14 23 20 17 26 23 20 12 21 23 27 22 12 20 22 22 25 28 15 21 23 23 22 15 16 22 23 23 24 15 22 16 20 18 21 20 19 27 17 22 25 26 22 26 25 23 20 17 21 19 23 19 15 20 19 31 24 24 21 23 29 31 26 24 27 27 14 18 23 21 18 21 18 22 25 15 19 27 20 17 23 24 22 17 13 21 13 17 21 20 20 22 22 28 18 27 26 22 25 24 19 19 19 28 22 26 18 15 19 19 25 21 19 25 19 24 18 26 23 22 28 28 17 19 19 20 24 18 21 16 23 22 27 23 20 23 21 17 21 24 20 28 18 32 23 20 15 21 20 11 14 27 16 20 23 28 17 23 25 22 29 24 24 24 22 22 22 23 20 15 23 19 13 24 28 21 17 20 20 25 29 21 25 21 24 15 22 26 29 21 24 22 27 24 17 14 14 25 23 22 18 26 20 22 27 16 17 24 21 20 17 18 26 19 21 18 21 27 29 25 24 25 18 20 19 13 22 23 20 21 18 23 18 22 20 20 21 14 24 17 14 29 17 17 18 24 25 21 25 14 14 19 24 16 24 24 18 17 22 28 25 14 21 18 27 16 22 22 23 26 24 25 13 23 22 21 22 17 21 20 25 17 30 24 23 20 23 28 16 28 25 24 20 15 21 21 26 16 27 20 22 21 18 17 25 23 29 26 24 17 19 21 19 24 25 14 19 20 17 18 18 23 20 30 25 19 23 23 19 23 21 24 18 16 25 17 22 16 17 24 22 20 21 17 24 19 27 16 21 17 14 17 19 22 23 19 19 25 21 25 23 15 14 15 24 17 18 17 22 20 20 23 26 23 17 15 16 19 22 24 24 21 16 25 13 25 23 18 13 25 22 20 23 19 21 16 15 21 26 24 16 14 15 23 17 24 25 23 20 19 23 16 18 27 23 23 15 23 27 21 23 19 25 22 24 20 28 22 19 29 24 22 20 17 21 16 23 17 28 42 17 16 15 16 21 21 22 19 19 18 16 22 18 24 13 24 20 26 20 21 21 19 27 23 24 21 16 20 25 19 22 30 24 19 20 31 20 12 15 21 22 21 21 25 20 25 21 15 17 21 13 21 18 19 24 19 15 13 18 25 17 27 25 27 19 21 26 29 17 24 26 19 22 24 28 23 17 21 18 23 19 24 14 17 19 25 17 12 16 26 20 22 25 22 20 16 17 19 33 25 23 29 18 24 20 24 27 22 26 18 13 24 18 19 19 18 24 22 24 22 20 19 17 23 21 20 26 16 30 17 23 23 23 23 22 20 20 19 16 20 33 19 33 21 32 23 19 24 13 26 20 27 24 25 20 29 21 14 18 13 27 25 14 15 21 25 21 22 17 25 24 16 22 19 14 30 22 31 23 27 17 19 29 22 21 23 20 29 23 19 25 26 22 30 27 22 20 28 23 16 21 19 27 31 28 29 20 13 23 24 22 18 20 25 21 18 29 19 25 23 22 28 22 23 19 18 26 25 19 21 28 19 20 22 19 21 22 18 22 22 22 18 27 23 22 16 17 18 19 19 24 19 16 27 31 24 19 30 31 21 29 21 31 22 16 25 20 10 21 25 26 28 23 18 17 18 21 22 18 20 19 29 19 25 22 21 19 20 17 25 21 26 19 20 24 23 17 23 15 15 27 20 23 18 27 25 17 27 25 24 20 22 25 26 24 26 28 16 17 15 26 21 20 20 28 22 24 32 28 20 18 13 20 18 20 25 28 17 28 19 24 18 20 17 14 19 23 21 27 25 29 17 19 29 25 22 18 26 18 19 21 15 26 28 26 16 14 26 13 25 19 16 22 18 22 28 24 23 23 26 24 21 19 17 22 13 22 13 21 23 24 30 16 20 19 24 26 21 21 22 18 19 23 26 21 18 14 27 19 23 24 21 26 17 26 20 22 31 24 18 26 27 18 15 22 22 26 24 20 20 17 16 23 27 21 20 29 25 22 22 27 20 25 21 19 27 24 22 23 28 36 26 24 18 23 17 22 22 16 27 24 21 20 17 21 17 24 27 17 23 17 23 21 25 22 18 23 26 20 19 24 22 23 21 14 19 13 20 29 26 26 19 26 18 27 22 15 13 24 28 19 23 10 25 31 19 16 21 22 19 19 24 20 30 28 26 26 20 15 17 24 20 20 26 18 27 23 19 27 27 23 22 18 22 32 23 20 28 26 22 26 21 23 16 26 17 21 21 20 21 23 20 24 21 18 26 22 18 26 20 19 18 22 19 19 27 22 22 17 20 20 21 18 23 21 22 18 24 23 23 30 15 22 22 24 21 20 25 25 24 25 24 15 27 24 13 28 19 18 19 15 19 23 19 20 21 13 19 19 17 19 18 22 22 18 24 15 24 19 15 28 24 26 25 16 18 21 21 24 18 24 13 30 15 20 15 21 20 20 20 16 20 20 25 20 18 21 18 29 15 20 28 18 17 25 22 23 26 26 24 24 20 19 20 21 18 24 25 21 19 27 24 23 25 18 21 21 27 17 23 21 22 20 12 14 21 19 25 26 24 19 28 20 26 19 19 21 19 23 14 14 25 21 29 23 18 19 17 23 18 19 26 23 18 17 20 19 25 19 25 16 17 16 22 20 21 28 25 23 18 16 16 18 24 21 25 21 22 21 15 14 17 14 21 22 22 18 22 16 18 14 19 16 20 21 24 35 19 17 21 17 18 21 19 19 22 29 17 20 21 23 15 10 32 22 22 24 19 24 28 26 21 18 20 21 20 26 32 19 31 22 17 29 16 26 27 21 23 18 21 20 30 22 23 16 22 16 8 22 24 24 32 24 29 21 27 24 22 15 23 24 14 23 20 26 25 19 24 26 20 20 24 24 20 23 15 17 22 22 20 25 20 22 27 22 21 28 21 15 19 21 31 16 22 22 21 31 25 21 17 29 22 12 17 20 23 25 17 24 18 32 22 21 19 32 23 25 19 19 20 11 26 21 22 25 24 24 23 30 30 23 30 22 13 22 20 23 15 23 16 29 15 24 19 22 25 28 26 30 23 20 27 28 20 27 29 23 23 27 20 24 25 22 22 25 18 22 32 16 18 16 35 19 22 23 19 21 16 24 23 23 18 23 25 23 21 17 21 15 24 21 21 28 28 32 19 22 20 25 18 26 22 22 28 15 25 20 18 18 23 17 29 16 18 17 30 23 28 23 27 29 21 19 13 25 21 19 27 25 18 29 19 31 21 25 19 21 18 16 26 19 23 20 16 20 28 25 25 15 26 19 17 20 19 13 32 27 23 22 24 13 20 21 19 27 17 23 19 25 20 13 14 16 19 30 17 26 24 15 25 18 26 21 25 16 23 28 24 23 22 18 22 25 19 18 26 19 28 24 16 21 16 23 20 21 25 23 18 18 28 20 26 28 22 26 23 21 22 20 15 24 20 18 22 21 20 21 27 19 19 22 27 15 24 29 23 14 11 20 21 22 22 13 14 21 31 30 22 16 23 19 21 28 14 23 19 32 21 14 11 23 23 14 18 18 28 22 25 16 14 23 13 19 9 20 29 19 21 26 25 18 19 26 21 23 21 23 19 20 24 26 22 26 20 27 17 21 22 15 21 21 24 24 26 19 27 25 22 21 34 20 22 22 21 15 16 20 25 20 26 25 32 21 22 26 18 22 19 18 14 24 25 18 22 19 23 22 24 19 23 22 25 18 20 26 17 21 24 17 21 19 24 17 17 25 20 23 26 22 23 24 17 17 18 20 19 22 19 16 23 18 23 19 31 23 19 18 23 23 32 27 25 14 23 33 22 21 21 17 19 16 22 24 18 14 11 15 17 21 25 27 19 21 12 23 21 22 25 21 20 25 23 15 21 23 25 19 18 28 26 21 25 21 14 16 20 23 20 19 26 21 22 31 16 23 19 21 24 19 23 12 15 26 26 17 22 19 25 22 18 23 31 22 16 18 18 22 23 24 25 22 23 26 20 25 17 22 20 29 22 19 23 26 26 26 31 25 22 19 25 18 16 20 31 20 22 25 26 20 22 20 28 28 22 19 23 22 18 12 27 22 21 21 17 13 21 26 18 19 18 26 17 17 22 19 21 23 26 26 16 24 17 17 20 23 28 18 16 20 22 18 24 26 21 22 23 22 25 25 29 21 26 18 22 17 18 21 23 15 17 24 19 22 25 23 26 20 24 19 24 15 14 19 23 16 21 17 15 22 19 22 31 18 17 17 18 27 29 12 22 25 20 19 22 19 19 19 20 24 18 22 19 27 25 23 20 24 17 21 19 15 22 25 17 22 30 15 25 31 21 13 29 21 24 19 28 20 18 24 23 23 23 20 23 22 22 22 18 22 17 28 25 22 24 22 19 23 32 23 20 19 32 20 24 20 18 20 21 24 16 24 28 25 22 22 16 22 17 19 21 17 15 22 13 26 25 20 19 19 20 24 21 15 20 22 21 16 25 18 16 25 21 21 17 31 27 18 23 29 20 25 21 21 22 25 18 18 23 22 23 20 27 20 25 20 27 24 22 25 16 23 25 22 18 21 26 18 15 22 15 23 16 26 27 27 23 14 21 29 19 22 25 33 21 20 16 25 22 27 26 22 20 19 26 21 24 19 14 26 20 18 20 22 21 27 27 28 27 33 19 22 26 20 25 21 24 20 23 30 20 35 24 23 27 19 24 22 24 25 16 19 18 18 22 18 19 23 20 18 29 23 22 21 17 17 25 15 21 21 21 17 15 24 27 24 20 24 24 20 18 21 19 26 15 25 23 23 27 20 26 20 25 14 16 26 26 24 19 20 25 21 17 28 22 24 19 18 23 25 27 15 18 20 21 26 24 21 28 27 18 29 14 30 22 25 16 22 22 22 22 17 29 24 20 27 23 21 20 24 18 17 20 20 18 23 16 24 28 21 15 28 19 17 26 22 21 24 21 24 20 20 27 14 21 26 22 25 31 24 20 26 11 26 30 24 22 20 20 18 13 12 18 22 21 20 19 17 15 15 19 19 26 19 21 20 20 17 33 18 26 15 24 16 19 21 21 21 23 25 11 25 18 24 19 23 19 23 21 26 25 20 21 23 17 15 23 20 23 20 24 23 30 24 20 20 16 20 24 23 19 20 19 24 21 22 18 26 21 29 22 28 18 22 16 19 11 20 21 23 20 16 25 31 14 19 30 23 21 19 17 19 28 24 17 18 21 20 18 22 16 29 29 21 23 9 28 18 26 23 21 24 19 21 23 27 18 30 18 19 26 23 26 24 16 28 15 24 26 27 25 20 25 26 27 21 31 20 21 21 21 27 22 15 15 22 11 17 22 20 28 25 25 22 28 23 18 22 20 19 21 21 20 22 17 21 21 18 25 26 23 15 27 19 24 23 20 27 28 17 25 26 22 19 23 24 25 14 15 18 17 23 24 19 26 25 21 17 22 23 23 23 18 21 14 24 16 20 23 19 20 18 15 21 16 20 22 26 22 13 28 23 21 27 24 31 22 28 17 28 30 24 26 20 18 18 21 27 14 21 11 21 21 26 28 30 13 22 24 20 29 18 28 21 16 22 15 22 23 25 23 25 20 25 36 21 17 21 22 25 22 16 28 18 19 19 28 25 25 24 24 24 17 25 18 18 23 20 23 20 20 18 13 25 24 21 20 24 23 19 21 21 25 27 15 29 17 27 24 19 19 23 25 27 17 26 21 26 24 12 14 25 16 21 25 19 19 31 26 20 23 25 37 21 32 20 22 19 27 17 15 16 24 29 29 16 20 24 17 24 20 19 25 24 21 19 25 22 22 32 18 20 23 24 23 18 18 26 21 12 17 23 19 29 29 15 21 23 22 16 14 23 20 20 21 24 15 33 29 20 18 19 20 20 30 15 28 22 20 22 27 17 14 28 26 17 24 20 28 21 20 22 17 22 25 26 21 20 22 18 20 26 34 30 21 19 27 20 18 25 20 22 19 20 19 21 19 25 23 16 19 21 19 24 29 26 19 25 16 17 22 23 19 28 27 27 20 31 24 21 17 14 33 24 27 15 24 20 19 24 25 18 21 21 23 27 21 19 16 14 20 13 27 21 21 21 29 21 19 24 16 23 25 29 16 25 26 20 24 18 27 25 19 26 25 19 30 23 20 17 20 22 30 23 19 29 17 24 25 17 22 23 13 21 24 20 27 20 20 22 25 16 23 23 22 16 21 22 25 21 21 20 15 19 23 21 15 17 24 21 22 19 25 22 25 22 22 16 22 14 16 22 19 30 18 25 25 14 17 24 28 17 20 20 20 14 21 10 19 26 22 19 20 19 20 20 27 18 18 19 30 18 15 22 29 25 18 23 26 10 20 20 17 24 25 25 21 16 23 25 20 23 25 15 17 15 19 11 23 27 16 19 32 23 26 28 21 22 30 23 29 16 17 19 26 21 24 22 14 27 21 18 26 16 16 14 21 23 18 28 20 22 29 22 30 31 22 15 18 26 24 19 27 14 15 22 29 21 26 24 20 19 29 30 22 21 23 29 24 25 24 26 19 25 24 18 25 23 26 20 17 22 19 18 22 21 21 25 28 14 24 18 26 22 15 16 24 22 20 31 21 19 12 23 22 20 31 22 14 22 19 22 26 27 18 19 19 25 25 22 21 17 14 23 22 26 20 16 25 23 19 24 29 27 23 25 16 18 21 18 31 24 21 17 12 16 16 15 21 22 28 16 24 22 25 19 25 28 20 25 15 10 21 16 21 30 21 17 20 30 23 20 23 21 17 25 22 24 19 23 26 21 19 27 27 17 18 22 13 22 19 29 22 25 25 19 25 18 20 20 20 21 15 15 26 24 25 24 23 22 21 20 20 16 29 17 24 19 21 16 17 15 15 18 19 16 15 21 21 22 14 23 18 18 25 19 28 13 21 21 20 24 18 23 27 23 21 21 23 27 22 12 26 23 15 21 30 15 17 18 29 16 25 21 21 22 20 14 26 21 16 20 16 28 24 15 25 21 14 16 25 24 21 19 21 29 20 24 18 24 23 22 19 19 22 21 24 27 22 25 29 21 21 19 17 17 24 19 16 20 17 19 17 20 22 23 21 20 17 18 26 31 27 29 20 28 31 21 20 12 21 27 28 17 23 26 26 20 18 25 24 26 26 24 11 26 25 25 20 20 21 22 23 19 19 20 25 29 22 13 25 24 23 22 21 23 21 20 23 16 20 19 19 21 19 22 17 26 25 28 20 22 29 20 23 24 21 26 26 19 17 25 21 20 16 27 22 20 17 25 21 22 27 24 16 22 26 21 21 23 18 18 16 27 14 22 15 30 27 18 21 28 15 22 23 24 22 24 28 28 15 20 24 14 20 19 17 26 16 21 28 19 21 24 25 14 22 19 15 22 16 25 20 27 26 18 28 23 36 25 18 21 21 13 25 14 23 23 29 23 25 21 24 21 18 14 22 12 19 24 16 17 25 18 30 30 27 19 26 21 29 25 24 23 26 25 24 28 23 22 23 18 22 25 25 23 15 29 23 34 17 14 26 24 25 22 28 15 24 25 17 14 21 19 27 13 22 25 27 23 22 21 15 18 26 16 18 23 18 27 19 26 24 16 20 23 25 28 18 26 21 18 23 22 20 14 26 17 16 17 23 12 30 24 25 21 21 19 13 28 21 18 28 22 23 21 20 16 19 16 16 28 31 27 20 25 21 22 21 24 18 27 18 21 19 19 18 19 19 17 23 22 21 24 18 22 12 21 20 17 24 14 16 27 13 26 23 27 24 33 22 21 29 17 22 17 16 22 15 20 24 25 23 20 20 17 15 22 19 22 25 24 29 20 29 26 22 22 22 23 23 20 28 21 17 17 21 18 23 24 22 24 21 20 24 18 20 22 16 19 21 18 28 31 21 25 18 20 14 17 25 23 19 16 22 24 15 24 19 17 26 22 26 30 15 26 26 17 26 22 27 25 17 19 29 20 26 14 22 29 16 23 20 17 19 16 21 22 14 13 12 27 14 14 25 19 18 15 25 19 26 20 23 16 30 22 23 21 26 24 20 22 23 22 28 21 19 14 25 21 19 19 19 24 19 22 18 23 22 25 25 30 26 20 15 17 17 18 26 16 23 15 21 19 19 23 25 26 22 31 18 22 14 27 23 18 18 25 29 23 23 25 17 23 22 20 30 22 28 29 22 22 22 17 22 23 25 20 27 27 16 23 31 15 21 19 24 13 24 24 21 23 22 19 23 21 19 20 24 19 28 21 17 18 22 23 35 26 21 21 19 20 22 19 26 23 18 18 18 28 15 27 21 21 20 18 18 26 24 32 26 14 24 17 23 19 14 29 14 18 21 18 27 16 19 21 18 22 18 15 10 25 19 25 14 20 24 19 24 20 23 30 24 24 25 29 23 18 19 25 30 22 28 17 20 24 19 28 23 25 28 25 21 27 22 20 22 25 18 22 22 21 15 17 14 20 20 22 32 28 23 17 25 22 26 23 21 23 22 20 18 23 19 21 37 25 21 21 23 24 24 23 21 25 16 22 17 25 18 35 24 24 17 17 27 27 21 15 28 19 21 21 20 23 23 19 23 22 21 9 20 15 23 16 24 26 15 28 24 22 19 19 22 19 21 22 21 14 25 20 25 21 27 26 22 24 24 23 20 20 32 21 18 12 30 20 17 17 18 20 16 11 28 21 26 18 24 18 19 20 20 21 17 23 29 30 24 26 23 19 22 23 22 17 13 17 31 25 22 28 23 18 26 28 26 23 26 18 18 20 12 22 25 24 23 23 28 20 16 26 14 22 27 26 33 25 18 17 22 18 22 24 24 20 19 16 20 21 20 22 22 23 22 22 25 24 29 23 18 19 25 14 27 28 22 27 21 20 16 28 14 17 23 21 27 17 21 15 19 20 17 19 21 21 24 28 24 22 21 25 19 22 17 19 20 22 16 28 18 23 16 18 13 24 16 22 22 19 25 12 16 28 23 31 19 18 20 24 20 22 22 19 20 16 14 23 27 22 22 29 16 20 22 16 24 22 23 24 26 25 22 20 28 25 22 19 17 33 17 20 17 22 21 14 19 23 17 22 30 19 22 28 22 27 20 25 24 18 22 25 19 23 24 20 20 23 20 20 19 24 15 19 19 17 19 19 30 16 21 20 20 29 20 23 19 30 20 25 25 26 27 12 18 17 19 21 19 19 30 25 17 21 19 35 22 23 26 23 26 26 16 20 26 22 20 9 22 18 22 26 26 26 16 17 24 25 21 25 17 16 19 20 24 27 28 30 21 20 19 22 19 22 21 26 25 17 12 18 23 23 27 20 28 21 22 23 14 22 25 25 21 23 18 30 19 32 21 22 24 18 16 25 17 17 20 17 30 23 17 24 19 20 26 20 18 20 19 20 22 30 21 28 19 11 18 19 12 20 18 20 22 24 22 28 19 24 25 20 22 21 21 24 24 15 24 15 25 23 17 27 21 19 14 26 24 23 19 25 19 19 23 21 24 17 16 24 23 19 17 23 21 29 20 18 20 20 17 21 23 26 17 16 20 15 24 22 32 27 17 28 24 23 22 19 16 25 25 16 20 19 21 25 20 20 23 25 26 19 22 18 21 23 26 21 16 20 21 19 23 18 28 24 17 19 16 14 26 21 24 22 17 24 18 23 19 31 21 26 15 29 29 22 20 29 17 22 17 15 25 14 27 22 22 20 25 18 20 22 27 18 24 20 20 25 23 28 19 22 19 18 29 17 28 17 20 21 16 18 20 17 21 20 17 22 19 22 17 20 29 27 19 14 20 22 25 22 27 19 18 15 18 24 19 29 21 20 26 21 27 20 28 24 19 18 23 24 24 22 26 19 18 24 19 26 25 12 22 23 19 28 18 23 20 22 26 26 18 26 16 23 14 18 26 32 18 18 25 18 29 23 21 29 24 24 20 29 15 20 28 29 22 17 28 20 19 33 17 26 26 27 23 18 20 20 28 24 23 29 14 19 19 19 14 24 18 23 20 22 20 22 21 24 23 19 19 17 21 21 24 25 17 32 25 25 23 24 22 15 22 29 19 19 19 18 13 19 26 17 22 21 22 25 17 15 28 21 26 26 15 14 23 16 25 28 22 27 13 32 22 17 23 25 28 18 21 20 26 19 23 21 21 20 22 21 18 20 15 21 14 25 20 24 18 26 14 23 13 18 21 20 20 28 23 24 29 17 22 28 17 18 26 18 26 10 21 17 21 22 27 19 19 19 22 31 13 21 22 21 21 21 20 24 20 25 23 13 21 19 19 16 19 14 30 26 22 18 22 28 26 22 17 16 19 15 27 23 22 20 26 13 21 19 23 18 15 12 20 22 25 23 19 29 20 23 21 16 22 21 22 21 25 26 23 21 33 18 26 28 21 23 15 23 15 25 23 21 22 20 18 23 24 25 14 17 16 26 29 21 13 20 21 22 18 25 21 12 19 33 26 21 33 19 19 15 28 22 22 24 22 24 14 21 21 18 26 21 19 21 20 24 24 19 24 20 23 24 18 23 18 26 15 25 23 11 25 27 16 20 21 20 21 17 30 21 24 24 19 23 18 23 18 19 17 26 22 24 22 19 27 22 22 18 18 21 18 15 22 19 26 21 23 22 22 18 15 16 20 19 25 25 24 14 15 22 21 20 28 28 22 24 15 27 27 19 23 27 24 24 21 29 26 17 19 23 27 22 22 26 24 13 20 20 17 19 26 22 24 15 17 25 19 18 20 21 18 25 23 13 24 15 27 23 30 18 25 17 18 17 21 15 21 22 19 17 23 14 26 23 22 21 27 15 21 21 26 19 24 20 29 18 20 18 25 16 13 24 27 17 18 25 19 15 17 19 20 17 18 22 27 21 30 18 26 32 35 20 19 21 19 20 21 19 18 23 16 14 21 26 26 22 17 22 25 16 20 24 21 23 22 21 21 19 16 22 28 32 30 16 15 25 16 21 15 23 20 28 27 18 27 25 31 29 18 21 21 22 17 26 19 27 19 23 19 15 13 21 30 26 21 16 12 19 24 23 26 24 21 16 18 22 21 24 26 25 20 15 19 18 30 27 17 24 28 23 23 22 22 24 21 21 24 24 24 19 21 35 18 21 24 18 21 22 25 22 20 20 28 25 17 25 18 23 29 15 21 20 17 24 23 20 25 26 27 19 16 27 22 21 22 27 21 16 23 18 23 17 26 21 18 17 20 22 18 18 24 21 14 20 17 26 23 11 23 13 23 18 27 32 24 23 20 27 25 21 19 23 14 10 18 17 22 17 23 19 23 18 18 24 18 22 23 29 24 17 22 26 22 19 26 29 22 15 17 25 27 16 27 23 18 25 24 27 17 17 17 19 17 24 24 25 19 23 22 29 23 24 16 26 27 18 26 15 19 29 17 25 17 16 15 24 16 23 28 21 19 17 19 21 16 13 15 19 26 17 26 27 16 18 21 16 15 21 18 15 17 20 24 22 29 26 21 19 23 27 23 17 29 27 24 21 21 16 24 23 16 22 21 17 18 20 30 20 19 18 18 26 28 23 21 21 22 16 19 19 17 19 19 18 25 25 19 21 32 23 24 17 19 20 16 24 19 22 21 20 17 18 28 14 16 21 30 22 24 26 21 18 22 25 23 20 21 25 24 27 32 17 17 18 16 13 15 22 25 25 19 23 22 33 24 20 16 21 21 17 22 17 28 23 14 26 17 22 26 20 21 19 15 22 19 20 24 17 21 21 25 23 19 28 20 28 22 24 25 23 32 26 24 26 25 23 20 25 18 25 20 25 16 23 24 20 22 26 25 26 19 22 22 24 13 25 25 16 20 19 16 14 13 21 29 19 24 26 19 19 24 23 30 16 20 21 23 18 19 24 15 23 20 20 22 17 27 20 18 24 26 21 34 21 18 14 24 21 15 14 20 21 17 20 26 20 26 18 19 17 18 16 25 31 27 32 21 15 23 20 28 21 14 28 18 23 18 22 21 22 23 19 23 20 19 22 24 23 20 20 20 19 23 20 20 19 23 23 20 27 17 20 33 29 24 18 26 23 22 18 28 25 24 22 23 18 27 24 27 21 28 21 26 24 32 15 24 24 22 23 24 19 21 21 23 23 25 23 27 25 23 28 30 26 24 27 20 20 19 30 18 19 29 23 21 22 21 21 19 16 26 27 23 22 18 16 20 19 21 22 24 23 29 25 21 23 25 20 22 20 27 26 26 29 19 22 21 28 25 19 25 19 19 25 19 25 21 18 20 18 16 25 17 29 24 22 24 25 24 27 19 22 19 19 24 20 19 15 26 21 16 20 22 18 20 20 17 21 31 23 29 17 18 33 20 19 22 19 15 20 16 22 26 23 24 18 23 24 21 18 17 16 26 18 22 22 22 27 20 19 22 26 26 25 25 21 17 19 23 24 31 22 21 20 22 19 25 30 14 22 21 21 23 27 26 24 18 22 21 24 22 24 28 24 21 23 13 21 23 23 21 18 19 19 31 25 24 22 33 20 24 17 20 20 26 16 24 20 19 20 21 24 20 20 17 33 21 16 19 24 18 19 23 22 15 15 21 23 21 19 29 14 25 20 29 25 15 24 22 15 21 22 21 22 22 18 25 22 22 23 22 20 23 19 23 25 23 13 25 23 20 27 31 27 25 20 23 19 21 20 29 18 24 18 23 18 18 22 13 18 23 17 15 20 26 27 24 27 24 20 24 24 19 18 19 27 20 32 26 23 19 24 23 22 19 26 18 26 18 25 15 26 19 16 11 20 19 24 24 23 22 17 24 23 21 27 19 25 24 27 17 24 21 22 25 35 22 17 21 23 19 13 17 21 17 23 32 24 19 29 20 20 22 16 16 16 17 23 15 24 13 20 27 20 23 20 21 17 14 25 20 28 18 21 21 22 15 18 24 17 29 24 18 18 24 17 21 22 18 18 14 19 18 15 20 30 27 19 29 14 24 15 29 15 22 13 19 21 19 20 21 25 27 22 13 18 23 20 24 22 18 15 22 20 24 26 21 23 23 32 31 22 20 23 22 19 8 23 16 14 19 22 22 17 22 22 18 20 15 28 19 20 21 29 28 21 26 30 25 15 26 27 18 28 32 23 25 17 20 22 18 21 29 28 20 21 20 28 13 18 19 23 21 21 22 15 24 19 16 15 23 21 15 21 21 18 26 25 30 24 18 18 24 15 26 34 23 22 17 15 19 21 25 25 16 23 17 17 18 16 21 24 19 19 19 19 20 25 21 16 22 27 22 18 21 17 22 23 19 21 17 19 20 21 17 16 28 23 25 23 22 15 14 23 18 19 17 24 11 28 27 22 22 29 21 22 26 18 10 27 21 32 17 30 20 20 20 18 21 23 25 23 23 17 18 19 10 29 20 24 26 18 20 28 18 17 24 24 27 25 27 25 21 21 17 22 16 21 22 29 25 25 15 22 26 26 30 21 19 29 20 17 17 18 25 17 18 27 28 29 23 23 19 19 26 23 25 19 24 22 23 21 23 23 22 22 19 23 20 27 23 25 18 17 22 14 19 25 20 18 22 17 22 24 17 24 22 28 22 23 21 15 16 20 24 22 28 18 26 21 20 24 19 26 21 20 18 20 22 32 20 18 21 21 18 26 28 27 28 30 25 16 21 25 24 21 16 17 21 25 14 20 25 17 19 24 20 14 25 20 17 19 14 21 20 25 14 19 22 21 12 18 23 27 12 18 18 28 17 31 13 19 22 22 17 17 26 20 24 23 22 20 14 19 27 26 28 24 22 24 33 19 25 16 14 18 21 20 15 27 25 22 15 22 24 22 27 22 19 22 16 24 26 26 27 20 23 24 24 19 22 28 30 24 18 26 29 19 22 21 22 18 17 30 20 28 23 23 24 16 20 26 22 30 18 20 24 22 21 22 25 19 28 26 17 21 21 20 12 29 22 27 30 20 31 26 16 20 22 25 22 23 26 18 22 22 18 25 21 22 13 20 22 23 20 13 20 13 19 25 27 22 26 28 12 25 23 22 15 27 18 27 20 18 19 21 22 20 17 14 12 28 22 23 22 25 14 15 24 29 20 25 20 17 23 22 20 23 21 23 21 21 20 24 22 21 14 29 27 24 21 24 24 27 27 15 19 16 24 21 27 24 21 23 15 18 29 28 17 24 20 25 18 19 23 27 17 20 22 23 19 21 17 28 30 22 20 23 21 22 23 15 20 22 19 24 27 19 24 24 24 30 22 23 21 20 24 21 24 28 20 25 22 19 18 23 21 28 24 19 27 15 17 17 21 22 16 23 21 23 17 28 20 23 24 25 20 24 30 15 29 18 27 22 28 20 22 18 27 29 25 23 12 20 17 24 23 19 20 18 25 18 25 16 27 17 27 16 18 27 16 24 15 22 25 18 27 18 30 20 23 20 20 19 18 18 14 21 19 22 16 24 23 21 17 16 19 21 19 18 22 19 24 22 28 22 20 16 28 23 19 26 19 21 18 15 20 24 14 27 25 17 19 28 24 25 27 17 20 24 18 16 27 25 23 21 18 22 20 26 20 18 30 23 25 24 22 21 16 17 21 20 23 23 16 29 20 18 21 20 22 20 15 23 22 23 17 26 14 13 24 15 26 24 25 21 19 28 18 15 28 19 18 31 16 22 20 21 19 24 23 23 29 20 23 22 13 22 23 21 28 20 17 26 17 20 23 17 20 20 24 22 19 15 22 22 18 28 18 20 17 27 12 16 27 26 24 26 26 23 16 23 25 20 28 22 25 22 17 23 17 19 18 20 17 20 27 19 20 19 17 19 19 19 24 26 23 22 22 22 29 14 24 19 26 22 18 24 20 16 18 19 22 30 15 16 25 24 15 21 21 20 23 25 24 15 20 19 18 23 13 20 25 28 11 20 22 22 29 28 16 22 23 19 20 23 22 22 17 19 23 13 22 20 13 18 17 21 23 18 24 20 25 15 24 19 20 28 22 20 20 19 20 13 22 19 12 30 24 17 25 26 19 21 23 22 20 19 20 29 17 21 28 21 24 24 24 23 25 29 25 23 18 26 27 21 28 30 21 31 15 22 16 20 20 22 15 19 21 27 19 25 19 19 15 26 22 22 26 23 19 22 26 17 19 19 20 24 31 26 14 22 13 20 25 21 25 24 22 17 17 21 28 14 16 21 37 20 13 25 22 20 11 18 16 18 22 20 27 18 14 17 26 32 23 28 21 30 27 31 21 19 29 28 26 15 15 20 31 20 26 20 30 17 29 21 25 18 35 16 29 22 21 31 27 29 24 22 31 20 23 17 15 21 24 21 25 19 19 17 19 16 19 19 31 20 16 24 17 12 28 19 23 31 24 24 21 26 26 22 23 24 23 23 18 18 26 22 25 23 18 21 30 37 24 17 10 17 21 23 19 23 23 21 27 21 24 28 22 30 32 19 16 23 23 18 26 21 24 30 29 20 27 18 25 18 25 20 17 21 32 15 20 19 14 23 25 29 21 17 31 24 19 23 21 17 16 15 28 22 19 21 22 21 18 21 23 25 26 20 19 19 26 27 10 21 21 15 23 20 20 24 26 23 12 21 21 16 16 26 19 20 13 20 21 23 26 21 19 21 29 14 18 25 22 22 24 16 16 27 23 25 23 19 24 22 18 26 24 22 27 18 23 24 25 16 14 22 19 27 22 22 30 21 16 21 26 27 15 19 20 21 21 18 21 21 16 19 20 20 22 17 26 33 18 13 19 16 23 23 18 22 23 12 16 16 24 27 29 18 21 16 27 18 24 22 18 26 25 24 16 26 20 20 12 20 25 21 29 15 25 21 18 21 25 20 17 16 26 19 19 28 19 16 20 20 18 23 20 25 26 22 27 15 24 27 24 22 18 22 23 12 22 24 22 19 24 22 16 27 23 19 18 21 27 24 21 16 24 23 15 18 18 17 20 17 14 18 15 19 18 25 31 16 18 23 13 22 22 18 18 27 18 26 18 19 21 22 25 14 17 11 20 14 29 21 29 21 16 16 22 24 20 18 23 19 24 20 25 24 22 16 24 28 19 24 18 15 23 26 22 19 18 25 24 25 26 26 14 22 25 21 22 19 24 21 19 23 23 22 13 27 23 25 23 26 19 28 15 25 23 20 21 20 21 21 14 17 24 23 29 21 25 27 16 20 24 17 25 16 24 24 16 13 32 13 18 28 38 24 24 24 23 29 21 23 15 27 15 17 20 21 20 28 21 21 21 23 28 22 21 15 21 15 16 24 22 20 26 22 24 22 21 20 21 18 20 25 24 19 17 20 17 22 15 18 19 18 24 22 20 19 32 23 25 19 19 35 18 20 19 24 19 21 13 22 22 26 14 19 24 22 18 18 24 21 25 21 20 16 18 20 13 12 18 23 32 24 25 27 22 23 26 19 20 25 26 23 15 21 18 24 27 16 16 22 24 29 16 15 21 26 20 25 25 28 22 17 18 18 24 20 30 25 13 17 20 21 20 25 14 26 25 21 25 15 20 20 22 18 21 20 17 20 23 31 27 24 14 25 22 24 18 18 20 28 22 18 24 18 26 32 28 17 24 28 33 25 20 24 17 24 22 13 15 16 15 32 16 16 22 18 26 21 21 24 18 27 27 29 23 18 20 25 19 27 18 27 23 19 23 27 22 21 20 17 21 24 15 28 21 36 18 23 18 13 23 22 15 23 18 19 18 21 17 24 23 19 20 23 20 14 23 26 26 17 25 21</t>
-  </si>
-  <si>
-    <t>JSU(-5.382579762667261, 7.077406812432632, 6.369116115702603, 30.805686998048884)</t>
-  </si>
-  <si>
-    <t>43 30 29 32 26 33 25 22 33 41 24 30 30 31 35 34 33 28 31 27 30 38 37 36 23 32 32 36 33 33 34 45 28 35 25 36 26 38 39 29 40 26 29 33 30 36 37 32 42 41 37 37 41 33 32 30 36 34 37 34 30 25 28 31 35 44 26 35 37 38 35 31 32 32 32 26 27 31 25 35 28 32 41 29 24 30 31 45 31 25 25 31 32 28 34 28 37 28 33 35 31 32 32 37 27 40 28 36 31 33 34 29 27 26 33 43 27 30 28 30 28 41 37 29 39 27 34 34 36 23 25 31 39 33 31 27 33 36 33 31 33 35 31 34 30 29 33 37 36 39 18 37 35 24 30 31 48 39 21 26 36 34 29 27 27 38 25 29 40 33 31 28 30 27 23 25 27 28 27 35 30 36 32 32 40 37 42 41 25 43 28 28 38 36 32 37 33 30 29 37 50 32 32 30 29 26 21 32 25 29 34 33 36 34 29 32 33 28 37 40 26 29 29 40 33 29 32 36 39 38 33 31 27 37 31 23 33 34 26 26 42 31 31 27 41 35 38 34 34 26 36 33 31 23 39 37 28 34 35 31 39 32 28 45 41 31 34 34 32 23 34 42 29 44 37 34 36 23 29 30 33 35 37 33 24 29 33 41 34 37 23 36 30 28 34 28 31 38 23 36 25 34 39 33 46 39 45 33 32 28 39 35 29 32 30 34 35 39 34 23 30 36 35 35 28 39 29 32 27 36 28 32 34 29 23 29 27 35 36 30 27 24 28 28 31 34 27 33 21 41 23 31 33 25 36 33 16 26 24 28 27 24 33 38 26 32 21 31 35 22 36 29 41 27 34 35 22 29 34 27 31 31 27 30 25 32 34 31 25 36 32 29 27 30 22 35 25 34 29 28 34 30 35 26 28 34 26 34 33 25 39 30 35 36 37 35 33 32 33 29 26 39 27 29 44 31 35 38 30 29 37 43 19 34 35 19 44 32 29 30 38 34 36 38 27 39 35 24 35 31 31 22 32 25 35 43 25 35 28 38 26 38 29 37 21 36 38 33 35 32 32 37 35 35 39 35 39 33 34 32 35 22 41 31 27 35 36 32 34 32 33 30 25 22 39 32 28 38 27 38 34 34 32 38 21 22 45 31 29 37 43 35 32 33 36 29 25 32 35 30 31 35 31 32 38 25 33 52 23 31 42 27 31 33 25 27 36 29 31 37 44 33 33 31 32 31 36 22 33 36 19 31 27 34 19 34 22 40 32 40 31 35 30 30 37 48 32 34 42 36 32 27 34 27 32 37 27 38 37 32 27 34 28 27 29 35 21 36 25 22 25 28 36 33 26 42 36 31 30 37 30 27 25 35 26 26 41 28 20 35 31 14 39 31 33 29 31 39 32 31 25 39 34 40 29 34 30 38 30 32 39 23 34 37 45 27 37 31 30 27 24 29 32 33 45 29 33 36 32 24 35 45 36 31 32 20 34 37 38 45 32 41 29 26 34 27 44 37 34 25 29 42 44 29 38 41 34 36 39 23 40 37 36 40 29 35 26 35 34 38 22 33 32 31 37 31 41 28 34 38 31 28 51 39 30 26 37 29 31 33 32 38 35 26 32 35 32 24 23 30 34 25 40 29 30 32 35 29 38 31 32 34 41 21 28 30 31 40 36 31 33 45 31 23 33 31 27 29 31 25 34 25 26 38 37 24 31 31 29 37 30 30 38 33 30 21 34 26 43 35 29 39 34 29 33 42 37 34 38 35 25 41 33 35 39 24 35 35 29 27 36 26 33 33 37 34 29 40 28 25 32 32 35 35 27 33 34 35 33 32 40 32 35 43 30 28 28 36 32 35 32 36 33 28 37 29 31 39 24 30 34 31 22 31 29 25 31 33 32 25 35 38 31 24 18 27 35 38 40 36 44 35 25 40 38 29 44 25 27 27 25 25 36 27 23 50 41 33 44 23 33 26 34 34 43 36 27 37 32 39 38 42 29 34 26 28 27 27 36 27 35 39 42 31 32 40 26 36 36 31 32 44 23 35 36 43 34 32 34 35 27 34 36 35 32 30 33 27 35 26 31 35 31 33 32 32 37 40 39 29 33 32 40 33 32 22 26 37 27 34 33 33 27 41 34 26 29 28 35 15 49 20 30 31 31 32 38 36 25 32 44 31 42 46 29 30 24 34 41 35 27 36 38 28 36 26 28 30 32 36 26 31 30 33 35 26 21 28 26 32 31 37 23 39 23 36 47 32 36 45 33 35 31 32 28 38 33 30 29 22 28 26 27 26 28 38 37 34 34 23 19 38 32 34 25 30 37 26 32 27 26 29 32 29 31 27 29 33 25 37 46 30 42 21 36 35 31 34 39 34 37 23 33 32 39 29 30 26 31 37 33 42 41 27 27 30 22 27 37 26 33 35 31 32 28 37 27 21 36 37 37 35 29 35 31 28 42 30 30 34 34 34 27 29 28 32 28 36 38 27 31 31 32 32 43 23 33 46 36 34 35 40 37 25 37 35 41 35 30 24 31 30 48 43 39 34 23 38 36 31 34 31 23 29 29 31 35 30 31 27 33 35 31 28 39 30 37 27 28 31 27 36 44 44 26 28 41 29 30 29 46 45 43 26 28 25 29 22 31 22 27 23 28 21 29 32 32 39 37 29 45 28 31 30 29 32 34 32 43 32 36 36 32 40 28 29 41 29 25 28 34 28 33 38 27 21 37 26 27 30 29 42 32 29 34 39 33 25 30 37 29 28 24 30 33 44 40 30 26 39 29 38 24 26 24 31 19 26 32 35 29 34 31 34 27 31 36 32 30 28 27 33 26 35 29 29 37 30 33 26 32 45 36 35 19 24 36 32 39 35 31 38 34 29 24 24 31 31 40 35 26 32 26 29 35 28 30 34 40 18 50 30 31 33 29 29 29 27 41 31 35 41 25 31 40 35 38 40 36 31 34 26 20 33 34 28 41 34 51 29 34 22 25 39 31 41 38 23 25 33 28 38 35 30 25 35 29 30 31 40 34 30 26 31 27 35 35 35 36 37 29 32 28 32 26 34 33 27 36 34 26 38 27 33 22 38 24 32 29 29 35 27 33 22 33 36 40 34 37 33 41 34 26 30 31 31 39 28 33 35 30 36 30 37 30 31 32 21 20 19 31 25 34 33 33 25 29 35 26 40 28 39 33 33 31 32 33 47 38 43 33 29 27 48 30 21 40 29 25 35 36 37 23 29 23 41 36 35 29 30 28 39 35 28 43 37 27 38 39 24 29 46 35 25 33 45 35 30 30 27 37 35 32 32 34 25 42 20 37 25 29 33 38 28 35 29 37 34 26 28 27 40 40 26 31 38 35 30 38 35 31 37 32 31 34 38 35 35 36 41 34 35 29 32 28 39 38 27 31 36 31 33 29 36 29 41 26 40 30 30 44 35 31 30 30 39 32 14 28 38 54 39 30 34 30 31 38 30 31 23 21 34 31 33 37 37 29 38 23 43 30 24 30 48 35 30 29 40 19 33 34 23 45 39 32 31 25 36 38 22 44 31 30 34 29 26 40 39 35 35 30 26 32 26 36 37 31 37 35 38 33 36 36 26 28 23 41 38 30 27 35 27 33 31 21 33 38 24 26 27 27 34 34 37 33 25 33 32 30 26 34 31 32 27 35 31 35 37 28 31 32 26 35 41 29 43 26 36 38 25 28 30 35 37 31 25 27 38 33 32 30 44 37 21 37 23 36 28 27 28 33 38 34 31 39 38 31 43 32 34 31 30 38 48 27 34 31 38 20 34 35 28 31 39 35 40 24 35 20 41 33 27 29 39 30 37 36 37 33 28 28 14 31 33 31 26 39 30 27 34 37 27 34 28 32 28 35 42 29 48 20 36 26 33 25 30 32 40 36 33 26 35 31 27 28 31 28 33 26 32 38 26 25 30 32 33 38 33 25 34 41 33 28 22 33 31 29 23 42 41 24 29 32 38 39 33 22 38 31 30 44 32 28 23 26 32 42 30 28 30 30 22 38 41 41 34 31 34 37 39 22 27 32 33 25 24 32 44 32 43 32 33 28 22 33 28 39 35 24 39 25 32 32 33 39 26 35 30 38 35 36 28 46 33 35 35 31 28 24 38 33 35 25 35 19 43 48 29 29 27 39 34 32 46 29 21 27 33 35 28 40 31 35 39 27 34 29 27 31 35 44 39 35 39 39 24 26 35 41 33 44 28 32 32 38 32 35 32 41 38 34 34 32 38 33 32 30 22 22 27 38 36 31 33 36 28 32 29 27 29 31 37 33 44 33 34 44 27 35 36 37 28 34 25 26 38 42 32 32 34 42 31 39 34 30 25 23 30 43 25 35 28 30 30 22 30 39 26 29 49 33 42 37 19 29 34 23 30 29 26 39 36 31 41 37 51 37 33 47 34 24 30 25 42 27 32 37 23 30 34 31 35 32 25 41 38 20 34 32 34 38 25 34 35 32 29 42 32 35 27 30 42 39 28 29 27 30 30 31 33 29 41 38 26 20 27 26 43 39 20 36 16 28 31 35 22 29 30 30 36 27 38 25 39 30 29 39 30 46 34 34 27 26 28 27 35 33 32 38 33 43 34 31 34 37 40 35 28 35 42 27 33 36 38 29 33 28 32 28 34 33 25 36 33 23 27 31 31 35 30 34 29 27 30 29 36 26 25 36 31 49 31 40 37 27 39 33 37 38 46 24 35 34 31 29 35 25 38 29 33 51 27 20 40 31 36 30 34 35 28 36 28 30 25 32 31 37 36 32 35 34 31 23 34 36 32 31 39 29 36 29 36 28 33 30 35 27 32 31 30 31 42 32 44 32 30 26 29 35 30 35 34 31 30 29 35 40 37 31 30 41 32 42 28 37 36 33 33 26 35 38 27 29 33 33 33 39 39 26 44 24 48 35 32 22 30 36 29 26 23 35 32 29 27 36 29 31 38 33 38 38 30 23 44 35 36 33 25 38 34 29 29 34 37 24 41 31 31 34 38 38 34 36 35 31 27 28 25 29 38 29 27 25 34 40 26 37 44 34 37 34 31 30 42 29 48 34 41 34 40 23 28 31 31 41 35 32 33 30 39 37 41 30 35 39 24 32 48 37 34 33 38 29 28 30 30 23 24 47 31 25 30 43 35 22 28 40 45 46 29 26 33 29 38 27 39 32 31 32 30 35 32 37 29 28 32 29 35 30 22 32 27 29 31 22 33 39 28 28 29 31 39 28 29 33 27 29 31 40 37 35 33 22 34 25 30 32 32 31 30 34 34 25 26 32 31 38 29 41 40 33 37 29 27 30 25 30 31 28 33 29 40 26 25 30 38 43 28 32 29 33 29 33 27 34 25 40 35 26 29 35 32 36 31 39 29 37 34 28 46 39 35 34 31 27 31 31 34 30 38 34 40 30 26 44 28 26 37 34 33 27 39 33 38 31 30 26 29 35 36 22 26 33 40 34 33 41 32 29 27 27 37 40 32 34 35 36 27 30 30 42 35 29 33 22 29 33 38 30 31 39 36 26 33 33 35 35 27 32 26 30 43 37 32 35 28 35 27 35 35 33 26 27 30 37 32 30 33 54 21 31 30 35 38 28 26 40 43 26 36 29 42 31 25 24 37 32 34 39 29 29 30 39 33 36 38 31 31 41 27 40 26 29 27 37 26 33 29 36 33 38 33 36 35 26 34 32 24 39 29 29 33 35 25 37 27 30 30 40 31 26 30 24 34 31 21 31 33 29 28 31 33 30 37 25 35 34 47 32 30 27 45 41 31 35 45 30 26 29 30 32 24 27 29 27 31 39 33 35 32 26 34 31 32 33 23 31 33 33 33 26 47 36 34 27 35 29 38 26 24 35 29 22 35 32 32 17 31 32 38 31 24 31 30 35 38 38 29 31 31 32 31 29 30 35 36 34 35 24 36 23 32 33 37 31 30 39 24 39 28 39 36 33 36 33 34 29 34 35 31 28 24 36 24 43 30 35 27 30 37 41 39 34 32 42 22 27 34 32 29 24 31 43 37 32 31 45 28 27 31 31 26 30 31 30 21 30 32 27 31 39 31 37 25 40 37 42 41 36 25 29 24 38 34 39 27 25 36 27 31 34 29 34 28 34 30 42 39 31 44 35 26 32 29 32 41 24 30 26 36 30 30 35 28 33 28 29 32 30 33 45 23 45 38 26 23 31 27 26 20 39 28 26 32 36 27 37 27 31 37 36 34 32 33 31 38 43 40 22 33 29 27 36 35 36 27 27 31 32 42 30 38 25 37 27 28 35 44 25 29 31 45 34 30 22 25 36 36 32 23 36 30 24 42 26 29 38 32 34 24 28 39 28 28 29 34 34 42 32 40 39 28 31 29 24 28 33 29 30 28 39 31 33 30 32 30 22 34 25 23 45 21 33 30 42 30 36 39 22 26 30 38 29 40 34 28 29 27 37 31 26 32 35 37 27 31 28 29 38 34 40 22 36 30 36 28 24 34 32 31 29 41 34 37 31 38 39 25 37 35 34 33 27 26 37 41 22 40 34 31 33 34 29 39 43 43 32 32 28 31 32 28 37 44 23 26 33 34 25 25 30 32 39 35 28 39 35 32 34 30 33 23 26 30 28 31 28 32 33 33 31 24 26 35 23 39 23 37 28 23 24 40 31 31 30 29 33 26 36 30 26 24 25 30 33 30 23 30 32 36 31 32 36 31 27 31 34 29 33 33 33 26 39 23 30 35 27 28 37 37 25 33 29 29 27 27 35 38 39 26 24 27 41 33 29 34 31 23 29 31 27 26 36 42 33 23 32 38 30 30 25 36 32 40 30 48 34 27 43 38 30 29 25 31 27 32 26 37 53 22 20 35 22 24 34 34 35 31 33 28 36 25 45 25 31 33 37 29 29 31 33 43 36 36 29 27 29 35 30 33 38 38 30 37 45 30 24 22 31 37 29 26 36 32 32 32 25 32 31 19 37 28 29 28 30 23 19 32 33 34 35 39 38 24 34 38 34 32 38 29 27 39 41 35 39 30 33 31 36 33 34 22 30 30 31 29 27 23 39 33 36 40 33 34 28 30 29 44 31 36 37 29 36 35 36 34 31 32 24 25 36 35 29 31 31 38 28 34 34 32 36 27 29 29 28 34 22 35 28 33 31 35 32 32 27 36 29 24 31 46 29 45 36 38 35 30 35 27 42 37 40 39 34 39 32 31 30 25 26 36 42 23 26 27 34 32 30 23 31 31 26 38 29 21 45 34 45 33 37 27 25 41 30 30 37 35 39 26 29 42 39 32 43 35 35 33 39 36 27 31 26 34 41 44 46 30 21 29 33 30 32 24 37 30 26 44 31 43 30 33 37 35 35 27 33 32 30 27 32 42 30 30 32 28 33 29 33 31 28 32 30 32 37 38 25 26 31 33 28 35 28 27 39 36 35 26 40 40 37 36 30 45 30 26 38 29 24 33 30 30 37 33 22 21 29 39 31 30 32 30 39 29 32 30 28 25 29 25 35 24 37 29 30 37 36 26 34 21 24 32 29 40 28 38 34 32 37 40 32 33 33 37 35 36 31 36 29 29 20 39 32 30 35 41 33 39 41 41 31 30 21 31 28 29 41 42 28 43 29 36 27 39 26 23 30 34 29 36 35 46 29 34 43 41 30 23 32 30 24 36 21 39 40 32 28 24 40 31 35 29 34 35 31 29 40 29 32 34 37 30 32 29 24 32 32 33 29 24 39 41 38 23 34 24 45 36 34 31 43 25 31 36 40 27 33 25 39 29 32 30 44 35 29 39 25 34 39 33 27 43 37 30 26 35 33 33 30 27 29 27 27 34 39 32 28 45 34 31 32 36 33 36 37 28 37 34 38 29 39 49 43 34 28 33 20 32 40 29 38 29 31 33 24 34 31 32 38 33 35 31 28 31 34 42 34 28 37 28 27 43 28 33 30 25 29 25 30 35 43 44 31 35 27 39 37 28 21 34 45 26 31 25 36 47 30 27 37 30 25 27 31 30 36 40 36 32 28 23 21 43 30 31 37 27 38 37 31 38 48 30 32 25 32 43 34 24 40 29 33 38 31 32 25 44 23 31 34 28 30 28 32 34 37 29 49 38 28 42 34 29 30 32 39 28 38 32 30 26 33 26 35 33 32 38 32 31 37 28 34 37 31 31 32 31 27 29 36 31 43 39 35 24 38 40 22 36 30 25 29 28 27 33 30 30 29 22 30 31 22 34 28 31 39 22 34 22 37 31 22 44 34 38 32 26 29 27 35 31 26 32 27 39 35 25 22 29 29 33 27 25 32 32 34 31 27 34 28 39 24 26 42 35 38 40 32 31 35 38 37 38 30 28 26 28 30 31 43 37 25 40 33 33 32 33 31 33 40 26 37 32 30 25 21 20 29 35 30 37 33 26 37 29 37 30 29 37 31 29 24 26 40 34 42 30 29 32 35 40 26 29 47 35 28 26 29 26 32 26 39 25 26 38 36 34 31 40 35 35 33 29 25 22 37 30 38 32 33 37 33 34 25 21 38 33 25 25 33 31 27 27 27 24 37 29 33 50 29 33 32 31 26 29 32 28 29 49 34 31 32 36 26 20 46 35 27 31 28 37 36 35 31 24 33 30 32 38 49 28 41 34 31 37 25 36 42 30 30 29 33 27 43 31 34 28 31 26 20 28 36 33 36 39 34 27 37 46 31 24 32 38 26 39 35 37 41 27 33 35 29 26 29 34 33 32 24 28 28 29 30 38 29 31 45 36 36 43 28 25 32 26 40 31 27 27 31 40 38 28 27 39 25 18 23 31 43 33 24 34 33 45 36 36 27 43 33 34 35 36 29 21 35 36 33 36 31 32 30 46 40 30 38 31 22 27 33 38 26 27 30 42 23 30 35 28 38 40 43 48 33 31 34 34 30 35 36 32 34 40 27 34 33 32 27 33 31 31 39 23 31 32 54 25 32 37 30 27 25 29 35 33 33 40 38 39 35 26 31 28 29 26 26 32 36 50 24 38 30 38 28 40 28 33 41 30 39 35 32 22 35 30 39 27 31 26 38 29 41 37 37 37 34 25 24 31 29 32 38 32 29 42 26 46 33 33 31 35 31 28 37 31 33 33 26 36 36 36 41 25 43 31 23 28 27 23 46 32 35 29 40 16 34 37 27 38 25 37 29 38 27 19 24 23 24 43 29 43 36 21 39 39 39 28 34 25 44 39 43 33 27 31 32 36 35 35 40 33 37 40 28 33 26 36 32 33 39 30 30 31 43 26 33 39 34 35 32 33 37 34 24 36 35 23 33 39 29 29 38 25 32 34 40 24 35 40 36 19 19 33 34 34 33 20 23 30 39 39 35 34 31 28 29 42 27 35 28 40 33 24 20 35 30 23 26 28 46 38 37 30 25 38 21 34 22 30 41 27 34 37 39 33 37 35 30 32 39 40 24 28 42 43 33 34 30 39 30 32 33 27 35 31 42 37 40 28 33 35 30 32 49 31 40 31 35 21 27 33 41 30 39 29 49 31 33 37 31 31 26 28 24 38 36 36 28 33 27 31 39 32 33 31 36 28 30 38 24 39 32 30 34 34 40 23 25 34 34 34 36 38 31 37 38 24 26 25 29 34 39 22 35 22 29 27 51 38 25 25 30 32 40 42 37 19 37 44 31 28 35 26 29 30 29 33 33 28 28 24 33 31 37 35 27 39 23 39 31 39 32 44 27 35 31 28 31 34 32 36 22 41 39 29 36 29 29 25 28 34 29 37 43 29 39 47 30 30 28 29 32 32 33 25 23 37 43 31 31 33 35 30 31 37 50 39 35 32 30 31 39 35 39 38 33 35 35 31 32 34 33 42 35 29 35 40 32 38 44 40 33 30 30 23 19 25 46 25 30 44 41 28 35 31 46 40 29 30 33 38 36 21 37 32 29 36 29 24 32 32 32 28 30 36 32 24 30 24 28 35 39 40 27 36 28 27 31 31 35 28 33 29 33 35 35 36 32 33 31 31 36 32 39 34 35 35 34 26 33 32 28 23 31 40 33 33 37 37 37 31 34 29 36 25 20 25 32 25 29 28 28 34 33 32 44 30 29 29 30 38 44 23 32 38 30 25 32 27 24 27 30 40 28 34 29 45 36 37 33 31 29 39 33 20 37 41 29 29 38 27 35 43 31 19 41 30 33 28 43 30 32 28 29 35 27 32 36 33 32 28 26 34 30 46 33 42 33 33 30 34 40 32 29 32 40 34 42 29 38 32 35 35 28 28 32 38 34 26 28 30 34 30 29 23 25 31 23 37 35 37 32 30 30 39 33 26 34 31 30 29 34 33 22 34 31 34 31 47 42 31 37 38 40 35 36 31 30 39 23 28 29 34 31 28 37 30 38 27 36 34 32 39 26 32 36 42 26 30 34 24 21 37 22 38 26 36 36 40 34 21 34 43 29 35 45 45 32 29 26 38 41 36 31 34 36 24 33 43 37 36 27 34 31 25 39 36 32 34 39 42 36 42 30 31 41 37 38 27 33 33 33 37 26 43 38 29 36 30 38 33 38 30 39 28 22 29 32 29 29 41 29 30 37 33 36 33 31 27 37 30 26 31 32 27 23 34 44 30 30 30 41 24 30 28 28 33 27 38 38 28 34 35 36 28 33 20 30 34 36 33 23 28 39 30 26 37 34 29 29 28 31 31 38 31 29 27 34 31 37 30 37 36 29 46 25 36 34 31 31 28 36 32 37 28 41 43 27 33 42 33 28 35 34 23 33 27 32 32 25 37 37 32 29 39 25 26 36 41 34 34 34 32 33 37 45 25 32 36 33 38 42 35 35 36 22 41 40 33 30 35 33 27 21 20 29 40 35 32 30 26 28 27 32 25 41 25 38 27 26 31 51 26 38 25 35 33 28 32 25 32 42 41 16 44 32 30 22 34 24 31 35 36 41 31 34 38 32 31 42 25 36 32 41 33 41 40 32 33 24 34 36 30 26 34 30 39 31 31 28 42 32 42 29 44 25 34 20 33 15 24 38 36 26 32 39 46 20 29 38 32 29 28 31 30 51 37 27 28 26 32 34 37 29 36 34 33 39 20 39 27 36 36 31 37 25 43 31 35 32 44 30 27 35 32 35 42 30 37 26 35 33 37 34 30 38 32 39 37 38 33 39 29 32 44 34 20 24 35 25 22 45 31 46 41 32 37 36 34 34 30 30 25 33 31 27 33 28 39 31 29 29 33 33 29 40 30 33 31 36 37 40 23 29 33 32 33 30 35 39 25 25 30 28 31 33 30 38 35 31 27 30 36 33 42 28 30 33 38 28 27 32 31 34 31 31 36 22 28 42 36 33 25 40 49 29 38 31 36 30 36 25 38 41 33 39 35 31 31 32 37 23 34 25 28 33 41 44 39 27 33 40 30 42 27 36 28 28 32 27 28 29 32 36 43 31 39 48 29 34 32 28 34 35 29 41 29 27 30 35 33 41 32 39 27 26 42 27 25 39 27 33 30 34 32 20 34 35 33 29 51 34 32 27 34 30 46 23 44 32 36 33 34 32 32 33 35 26 36 29 37 34 17 28 35 32 34 41 31 28 42 30 37 42 42 51 42 43 29 32 29 38 24 26 29 35 41 31 27 30 41 26 32 32 27 32 30 40 28 36 31 35 46 29 31 42 40 32 26 27 35 37 24 25 38 28 38 44 24 37 30 27 29 25 32 28 30 29 33 21 39 35 29 32 29 28 37 42 29 37 35 29 31 31 24 25 35 35 25 32 35 36 36 30 33 32 31 35 42 34 36 35 35 34 39 51 39 32 36 36 35 26 29 29 28 22 30 27 29 31 36 32 22 35 30 29 39 38 37 39 32 21 23 31 31 30 40 33 42 36 37 42 35 32 30 42 31 48 26 29 30 34 31 37 24 27 27 33 39 32 30 33 26 33 27 34 26 35 30 37 31 36 36 23 38 35 36 29 42 38 24 37 29 35 41 33 42 35 32 43 33 33 31 34 35 40 34 29 41 27 28 34 30 31 30 24 31 33 25 40 30 33 32 44 26 30 36 36 23 28 35 31 36 33 27 24 27 33 26 21 29 32 31 32 28 37 28 39 30 37 29 32 27 23 33 28 37 25 39 33 25 24 34 33 28 31 26 34 19 28 22 32 34 31 27 32 24 33 30 38 28 28 32 36 29 26 29 43 40 34 25 38 26 30 31 26 36 38 35 30 27 30 42 35 34 35 27 30 24 24 26 31 35 26 28 39 31 43 40 25 33 41 39 39 30 27 31 36 32 37 37 25 42 32 25 34 25 29 22 36 39 33 34 35 35 37 33 39 41 30 27 24 38 29 33 41 24 22 28 37 30 39 39 33 32 37 44 33 29 32 41 37 35 30 43 30 35 33 37 33 32 37 29 30 33 30 28 31 28 31 36 45 26 34 29 35 29 30 29 31 32 23 37 35 26 27 33 32 27 46 28 24 39 37 31 35 33 25 27 31 45 34 35 36 35 24 34 36 38 30 24 36 37 31 35 39 39 35 39 31 29 30 27 44 42 33 28 19 21 22 25 33 33 47 28 33 39 32 32 45 36 30 37 22 23 27 25 29 48 30 22 33 38 35 30 29 37 23 39 33 35 31 32 36 27 26 36 37 30 35 43 19 32 30 37 34 40 30 32 34 28 29 29 33 33 27 25 37 38 33 35 29 27 33 31 32 23 35 31 30 28 34 24 24 32 24 27 27 28 26 34 36 30 23 33 34 33 35 29 34 20 31 25 27 43 29 33 41 32 31 29 34 32 31 26 37 33 27 32 46 24 23 33 40 30 37 28 33 37 33 17 38 31 22 25 27 46 36 30 32 35 23 25 37 34 25 37 29 36 30 33 29 42 37 35 24 27 36 35 36 43 40 48 42 34 31 31 26 26 34 26 27 33 32 29 26 36 27 35 27 31 26 32 45 37 38 36 30 35 42 30 31 20 28 33 35 34 35 35 37 34 25 35 34 34 33 37 18 34 39 29 32 35 35 29 31 31 27 31 37 41 31 25 32 33 35 32 41 36 30 35 38 24 29 27 31 26 27 37 24 41 35 36 32 27 35 27 32 38 38 38 32 29 25 42 32 30 33 46 30 30 28 37 29 33 39 35 29 34 32 32 28 31 28 31 25 38 27 32 28 45 35 32 30 38 29 27 38 35 28 36 39 33 25 35 35 28 28 31 26 41 32 33 37 34 30 39 38 21 39 28 25 38 28 38 28 38 31 29 38 32 45 32 26 34 40 23 35 27 29 31 36 26 35 32 32 29 31 23 28 18 31 40 29 28 37 28 44 55 39 31 38 32 39 35 34 31 35 33 39 41 34 33 31 28 32 36 33 33 25 35 36 41 35 25 38 42 32 31 40 30 28 35 31 27 32 30 39 27 32 36 41 34 32 32 28 30 41 23 27 30 31 36 25 34 36 26 36 32 31 41 29 39 32 28 44 40 28 25 37 24 26 40 34 24 50 33 37 31 35 25 26 35 40 22 43 32 38 31 31 29 33 28 24 46 37 46 31 28 30 29 34 34 28 34 28 34 34 27 24 26 35 23 30 31 43 33 24 32 25 27 28 28 36 23 24 40 22 34 33 39 29 42 32 37 37 27 32 27 21 31 24 28 37 36 34 30 26 26 25 42 29 36 32 35 42 42 41 30 26 35 37 36 36 29 38 29 28 23 34 29 35 36 35 35 29 34 37 27 34 39 24 26 33 30 35 42 31 33 33 30 23 28 31 28 28 29 40 38 22 36 33 27 43 34 40 37 22 32 40 24 44 26 36 35 29 29 42 30 42 27 38 40 25 34 36 25 36 23 29 32 19 22 23 39 23 22 36 29 30 23 32 37 42 31 41 25 47 38 34 36 32 31 30 29 35 38 44 36 26 25 37 35 25 26 27 34 32 24 29 38 27 43 41 49 36 31 19 28 24 28 41 24 31 24 28 23 32 36 38 37 30 38 28 41 24 40 34 33 29 35 43 31 37 41 22 25 41 23 43 32 34 36 34 29 31 29 29 38 38 32 40 37 27 32 45 26 28 35 36 25 43 33 31 33 44 32 36 32 33 29 39 29 37 41 24 28 42 27 51 32 35 29 38 33 30 35 34 30 29 29 31 36 24 45 30 28 39 22 28 41 37 46 37 21 35 32 33 26 18 47 22 27 27 24 46 29 32 32 31 33 34 24 22 31 29 37 23 28 36 27 29 25 36 46 29 36 41 34 33 26 27 33 43 27 40 30 32 38 31 40 30 32 39 34 32 36 30 29 35 39 27 32 34 28 22 25 21 33 29 29 47 42 40 24 28 32 31 28 34 32 29 32 27 29 31 33 49 31 32 30 30 36 31 31 35 35 27 31 34 34 30 49 36 33 24 35 45 38 32 23 39 32 31 33 31 28 31 32 30 28 25 20 35 22 39 25 43 36 24 36 37 28 26 31 33 30 38 29 30 24 32 28 33 32 39 43 30 33 38 36 35 30 41 30 29 24 44 35 27 35 34 29 27 20 40 33 36 27 33 31 26 34 33 35 28 36 41 39 31 32 32 27 28 32 31 23 26 27 39 37 27 38 38 30 33 41 38 30 33 26 26 37 23 30 37 31 29 36 36 30 33 39 21 34 43 41 46 31 26 26 33 30 31 42 34 35 31 30 27 28 31 29 37 38 39 29 26 35 36 40 23 27 38 24 42 41 29 34 31 29 25 37 17 25 34 28 41 30 32 28 30 32 28 29 37 31 34 42 29 29 38 37 31 35 25 30 32 32 28 39 36 29 36 29 28 37 26 29 37 27 40 29 22 36 32 44 31 26 29 36 24 28 32 27 27 33 18 35 36 35 32 39 27 29 29 21 37 32 38 28 38 44 35 28 40 43 39 31 26 48 27 26 23 41 33 26 36 29 23 32 41 31 35 41 37 46 30 34 32 34 30 37 22 30 31 37 37 34 32 28 32 37 22 26 28 28 35 32 39 30 32 28 30 40 30 31 25 37 30 47 38 30 34 23 29 25 27 34 29 33 41 33 30 34 35 47 29 34 41 32 36 43 31 31 36 36 31 17 35 28 35 34 37 39 24 29 34 31 30 39 24 20 32 28 36 36 40 42 39 33 32 36 26 32 35 42 36 29 18 28 34 35 33 29 36 31 35 27 24 33 35 43 27 33 33 41 28 42 27 33 32 37 28 38 22 30 28 30 44 32 21 39 32 37 40 29 26 29 32 34 31 36 33 43 30 17 36 30 23 25 31 32 40 33 37 43 26 37 41 32 35 28 28 39 33 30 38 28 35 29 24 36 34 23 23 44 35 33 30 30 28 32 34 31 29 30 24 35 38 36 31 31 24 40 36 29 25 32 27 28 30 42 23 27 28 25 36 35 42 39 29 35 39 35 36 28 23 47 35 26 27 29 34 33 28 27 30 32 36 40 37 28 26 32 40 35 24 33 31 30 46 30 42 34 31 30 32 21 35 36 35 30 27 38 31 37 32 45 33 44 21 37 39 33 28 35 26 38 32 27 34 21 34 31 34 32 37 26 34 32 41 25 33 32 23 36 35 44 28 31 36 25 44 25 34 28 33 38 28 32 26 21 31 31 26 36 36 27 35 33 38 35 24 26 36 32 37 39 37 28 21 21 26 35 27 36 33 29 37 30 37 27 42 33 28 36 26 36 37 33 31 30 28 33 28 33 35 28 31 33 26 38 26 36 37 37 37 41 24 49 26 37 25 26 38 47 29 36 32 29 41 38 30 38 33 34 33 44 32 30 36 43 31 28 36 34 33 44 31 36 39 35 34 28 28 30 34 33 35 41 29 33 27 34 27 28 21 29 33 27 32 41 33 32 31 31 31 33 38 32 36 26 22 43 36 35 32 34 36 30 40 41 40 30 31 29 20 26 38 27 31 30 36 36 26 27 34 32 44 40 28 25 33 27 34 32 31 38 22 47 31 26 36 33 40 30 31 28 32 31 33 31 35 36 31 28 26 29 20 37 25 43 35 29 23 40 26 36 26 29 32 24 31 46 38 30 41 33 31 41 27 28 39 33 33 16 30 25 33 33 37 28 33 30 29 39 28 34 31 39 33 32 30 36 29 43 40 30 29 33 28 23 36 26 42 32 33 32 29 37 42 41 28 29 30 22 33 35 33 30 34 20 30 34 38 29 22 21 34 30 30 31 24 37 26 29 27 23 37 33 35 28 38 34 31 25 41 29 38 39 31 35 28 29 33 37 35 31 36 33 29 35 36 34 24 28 20 31 48 38 19 22 33 37 30 32 40 23 30 49 35 37 50 27 31 24 42 32 30 35 37 33 25 31 32 27 40 27 26 28 27 32 29 27 30 33 34 41 26 35 23 46 29 37 35 22 33 36 25 28 29 36 35 26 37 29 36 37 27 33 23 28 31 28 32 36 32 29 28 33 37 34 29 32 27 40 33 26 38 31 39 35 41 37 32 28 25 30 39 31 39 33 37 30 19 31 33 33 39 46 38 41 25 38 40 27 35 37 30 38 38 43 36 28 29 34 37 37 32 31 30 28 30 27 28 25 36 36 39 22 25 36 31 34 27 31 28 34 37 25 33 19 47 32 42 31 36 23 29 36 41 24 38 39 26 26 38 28 45 30 33 38 31 26 32 46 38 28 38 34 42 27 24 26 39 25 21 35 34 33 26 37 22 24 27 29 30 25 29 31 35 31 43 25 40 43 45 36 28 30 30 33 34 33 28 47 24 30 27 44 38 31 29 35 31 28 31 37 25 40 30 32 33 27 20 34 34 47 44 34 30 33 25 36 26 36 27 43 40 31 39 37 47 40 29 32 31 32 26 42 41 43 27 34 39 26 26 32 43 39 34 19 24 26 32 41 42 34 31 24 31 34 33 33 37 34 29 22 25 27 38 39 29 36 38 36 31 32 35 34 29 31 32 35 33 28 27 44 32 32 34 33 33 33 36 34 29 38 47 36 26 35 26 32 38 26 38 27 25 33 42 29 36 36 37 41 27 36 31 28 31 39 30 21 36 29 27 31 43 39 31 26 38 39 26 30 32 31 28 35 32 42 37 21 32 23 32 33 43 43 41 33 32 35 35 31 29 39 29 20 25 25 28 22 37 30 32 26 26 36 25 30 36 38 36 25 38 37 34 27 37 41 35 30 26 32 47 26 36 28 26 31 30 33 28 27 30 28 31 31 41 32 28 33 35 45 36 32 26 32 45 28 40 22 32 39 32 34 26 27 20 32 21 32 46 35 30 33 29 35 28 20 27 26 38 29 40 38 24 29 29 32 22 30 29 30 24 35 33 33 52 35 30 30 34 38 36 28 44 44 33 30 29 24 35 31 29 37 31 26 28 31 46 37 32 26 27 32 38 34 33 32 43 21 32 31 31 27 27 28 37 31 29 29 42 37 32 26 32 30 26 34 29 28 32 33 31 23 40 25 28 32 40 40 28 39 32 32 28 40 31 34 36 33 38 41 46 27 35 28 25 22 31 33 37 37 25 28 44 44 38 30 29 27 36 30 35 31 36 37 21 33 25 30 37 28 29 29 21 34 32 32 37 31 37 36 36 38 35 41 35 35 33 38 36 29 42 37 32 31 39 33 35 37 30 40 38 26 28 38 42 32 34 33 30 35 31 30 33 34 26 28 31 31 34 33 28 27 21 30 40 27 33 40 27 37 37 32 38 27 28 35 29 25 29 39 30 31 35 34 32 26 33 32 32 36 38 32 43 28 28 27 39 29 28 26 29 29 27 31 40 34 30 30 27 25 31 29 41 53 38 50 30 23 35 31 41 32 30 42 28 33 32 33 29 39 31 29 37 35 32 31 33 28 34 29 29 26 38 28 33 27 41 29 29 34 32 24 44 33 37 33 41 29 31 31 35 43 31 36 32 26 37 30 37 29 40 34 36 34 49 27 30 37 33 41 38 34 28 31 36 32 34 38 38 38 41 36 44 36 37 43 34 28 31 38 28 31 41 31 30 32 32 28 31 27 32 39 27 29 28 21 28 30 36 27 36 32 43 35 33 29 30 36 33 36 38 35 44 41 25 34 30 36 47 26 33 32 30 35 31 31 35 31 31 38 30 45 21 50 33 37 38 39 35 38 34 37 29 33 32 32 28 22 39 34 30 27 31 30 32 33 24 30 47 37 37 32 31 42 35 31 33 27 26 38 21 30 40 30 41 31 30 36 33 28 26 28 34 31 36 34 36 35 23 33 31 30 41 34 36 24 27 32 33 33 39 31 34 35 28 26 38 38 27 34 33 30 33 34 32 35 32 34 26 38 32 36 42 26 36 31 19 31 26 37 27 22 31 30 42 38 36 27 54 30 30 28 31 34 37 29 39 31 25 30 26 35 32 27 29 46 30 28 39 38 29 25 31 33 18 19 30 30 33 30 40 32 35 31 43 29 27 28 31 28 33 38 34 27 30 28 40 33 31 33 35 27 31 30 35 40 31 25 41 38 28 30 40 32 35 28 37 31 34 30 43 29 28 31 36 29 31 36 22 33 33 28 29 28 38 32 31 37 35 32 31 31 28 30 23 34 28 37 40 28 37 43 38 30 27 36 25 36 29 34 31 30 27 26 18 33 31 34 34 41 33 28 33 37 34 40 29 36 33 40 31 31 33 30 37 54 34 29 30 35 28 24 23 29 27 34 42 39 22 41 28 31 32 24 24 23 32 37 30 37 22 33 37 24 35 28 31 25 23 43 36 37 21 30 32 32 30 31 31 26 44 34 22 35 42 29 36 33 28 24 24 28 23 22 34 35 32 34 40 24 39 21 45 29 34 24 31 32 26 32 36 36 54 31 20 29 29 33 28 29 29 28 37 31 36 37 32 27 29 48 45 41 32 31 30 32 21 32 27 22 29 31 34 24 35 35 22 28 23 36 21 29 31 39 45 31 39 45 43 27 36 45 28 41 38 31 33 22 28 32 30 25 37 39 31 26 34 40 20 30 28 33 31 30 29 23 29 28 26 25 28 35 28 33 42 29 33 30 39 34 28 29 37 23 40 45 43 35 32 25 27 30 36 33 27 37 27 27 35 23 29 34 27 38 37 30 30 37 33 27 28 41 38 26 33 22 30 29 34 34 27 34 38 34 25 26 35 36 32 38 33 23 24 35 26 33 27 30 22 35 41 32 31 43 35 35 37 30 20 35 25 45 27 47 38 29 31 29 30 27 32 32 26 21 29 30 20 37 31 35 40 25 27 42 29 34 34 31 38 31 40 38 40 34 24 30 27 30 32 38 43 34 26 33 34 36 42 27 26 42 32 36 30 28 40 25 30 34 41 45 31 31 25 30 37 41 36 32 34 31 31 32 29 32 31 29 27 31 30 37 34 38 32 26 33 27 32 42 36 28 32 33 31 41 23 37 27 29 35 36 30 24 27 29 33 31 38 30 32 28 33 37 30 40 31 33 33 29 32 49 30 32 35 28 30 33 40 37 36 41 37 27 30 32 40 32 24 30 37 41 21 32 36 19 27 40 35 25 38 27 31 39 22 32 29 36 27 30 26 28 26 24 37 35 28 23 28 40 24 38 23 34 32 34 31 29 36 32 32 32 31 33 30 28 34 39 40 38 44 33 50 31 36 26 19 35 33 31 35 38 39 35 25 28 38 37 44 30 30 31 29 35 39 41 40 25 33 33 35 22 30 38 40 41 25 44 39 34 35 32 34 32 29 42 24 37 30 37 36 23 32 39 29 35 23 26 35 33 29 31 36 30 36 33 23 26 30 35 24 47 37 36 39 26 38 39 22 29 28 34 31 33 40 25 29 30 32 43 30 36 20 31 32 37 30 21 32 25 26 41 38 25 32 39 28 36 33 36 22 32 33 37 33 25 27 43 32 31 29 23 24 39 34 37 37 36 25 33 32 38 27 40 34 28 31 30 29 36 38 34 30 29 29 34 32 33 20 41 33 32 35 40 36 34 41 25 31 31 29 29 41 39 30 37 22 30 41 37 26 41 28 40 31 31 35 33 32 30 29 41 29 30 21 40 43 47 26 39 32 28 36 23 33 33 27 34 35 30 32 38 35 44 34 34 33 30 35 32 33 45 29 35 32 26 27 33 35 36 32 30 39 27 31 27 32 33 24 30 30 35 30 36 30 37 37 33 27 33 40 26 40 24 39 35 41 33 28 27 41 38 43 35 22 31 29 35 31 28 26 26 40 29 33 23 37 30 33 24 30 39 32 33 27 29 32 30 39 35 47 30 35 29 32 28 26 33 24 38 31 32 29 32 36 27 29 29 29 32 38 31 33 33 37 35 39 34 32 21 37 38 31 45 30 28 28 21 27 32 28 37 35 29 31 37 33 40 42 32 29 38 24 26 39 36 37 32 32 38 33 38 27 32 38 44 39 32 28 28 34 30 28 29 38 28 32 40 30 29 28 33 35 30 24 39 34 35 27 44 22 33 39 22 44 30 34 25 29 44 21 37 39 34 33 49 29 31 30 37 30 32 40 33 44 40 32 33 20 35 33 35 41 28 28 42 24 31 35 26 28 22 35 38 34 28 33 30 29 42 29 29 30 33 28 29 31 50 38 38 40 36 25 35 40 33 36 37 40 30 27 31 30 29 28 33 28 29 37 31 36 29 28 29 27 32 32 33 42 32 33 29 33 20 33 29 36 33 29 34 34 28 31 23 36 38 17 24 37 36 24 35 33 34 35 31 37 26 31 25 29 30 21 31 42 43 22 30 41 34 42 42 26 34 32 21 27 33 39 35 22 28 36 22 31 27 28 31 25 38 35 23 33 27 32 31 41 31 30 39 32 33 37 28 37 25 28 26 21 40 34 26 36 35 32 36 37 33 26 29 30 44 22 34 47 31 35 29 38 38 36 43 34 40 34 37 42 33 38 41 31 39 27 34 24 36 29 33 26 28 34 31 26 41 31 28 24 31 34 36 39 34 29 26 36 30 30 26 29 41 44 37 23 27 20 32 34 27 34 28 33 24 32 30 36 28 23 30 50 30 25 39 31 29 22 23 27 27 34 35 41 31 25 28 35 40 41 41 38 40 37 44 40 28 49 36 39 26 27 28 39 37 36 30 36 28 40 34 33 30 42 24 39 36 42 39 38 37 35 38 46 33 36 34 24 30 37 33 28 25 28 28 29 29 34 31 39 31 25 38 31 27 33 25 32 39 37 28 30 39 32 29 31 35 29 36 31 32 38 37 38 35 27 33 41 63 31 28 18 28 32 30 30 38 39 35 38 34 34 35 31 39 47 32 27 35 35 26 37 34 34 48 40 31 33 33 36 28 40 25 32 30 42 24 34 31 24 34 36 42 34 29 46 29 24 35 33 22 23 22 34 33 30 29 33 38 30 27 40 41 37 34 35 30 37 35 20 26 36 26 30 37 28 37 40 32 23 29 30 25 26 38 25 27 20 27 32 33 46 33 31 37 43 21 38 37 37 36 37 28 29 34 30 38 30 23 39 31 24 39 34 32 38 27 37 32 33 32 23 29 33 36 29 34 43 30 23 30 35 40 31 31 28 35 32 24 27 30 31 33 27 36 29 25 36 42 28 26 36 26 34 34 26 33 34 20 29 29 33 40 41 29 31 23 45 26 37 35 32 42 37 33 26 41 34 40 20 27 33 34 36 26 34 29 23 32 37 34 30 27 38 34 33 42 31 25 30 28 33 34 28 30 43 38 33 21 38 40 33 30 26 29 36 24 36 30 41 26 37 29 23 35 42 32 33 31 35 37 31 30 36 38 29 28 32 26 28 33 18 27 24 32 33 31 37 29 29 34 24 34 33 23 41 36 25 35 22 32 37 31 35 23 24 23 26 28 41 35 38 39 29 30 34 29 29 27 28 33 31 30 31 38 31 26 38 39 33 38 35 20 33 31 36 34 32 41 30 36 34 38 22 29 39 28 38 28 32 29 32 31 36 35 19 38 34 37 37 36 28 42 22 32 32 36 35 31 28 30 27 26 34 35 34 37 34 37 26 32 39 29 28 28 33 31 21 31 43 23 29 36 48 35 33 41 30 47 30 39 24 40 27 24 28 36 30 39 33 26 31 30 38 40 28 19 37 31 27 39 28 29 41 29 34 31 31 33 26 25 28 40 41 28 28 32 25 30 27 30 31 31 30 25 29 36 46 30 40 27 33 54 22 34 27 30 34 36 23 32 27 34 26 28 39 32 26 29 37 31 37 36 26 25 27 34 24 21 20 39 52 31 34 40 34 38 41 28 33 37 41 33 25 28 24 36 42 24 27 31 36 43 22 23 32 37 26 41 35 36 30 24 33 26 38 32 37 36 19 31 26 33 26 35 29 38 44 34 38 27 36 39 36 28 30 31 29 31 32 46 35 36 27 32 32 42 31 29 25 36 37 27 37 31 39 38 43 25 38 37 46 35 39 32 25 42 39 20 29 26 24 39 26 22 36 32 34 42 28 35 33 37 43 32 38 27 33 33 30 41 29 47 31 27 30 35 33 30 27 27 34 29 23 44 29 48 32 33 32 22 31 32 22 30 33 41 31 28 32 32 37 33 26 32 26 26 34 33 39 31 40 25</t>
-  </si>
-  <si>
-    <t>JSU(-19.52640890904747, 15.188148109102912, -390.32374959056324, 370.4424761896039)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">340 269 202 191 167 183 168 161 219 315 193 303 241 257 281 243 257 218 204 265 193 289 242 305 189 242 211 299 196 243 232 304 174 283 198 224 213 251 292 256 303 175 171 210 196 234 239 211 295 331 312 249 282 251 190 257 245 266 270 251 247 127 139 205 280 316 194 237 261 351 204 206 209 195 233 223 177 253 146 228 252 247 277 164 159 158 209 246 227 193 201 226 183 270 252 145 279 220 263 294 204 169 230 249 178 258 176 240 217 290 269 267 191 206 234 299 245 228 181 219 211 262 260 260 215 187 190 244 268 206 185 167 236 190 190 222 253 203 193 206 229 270 226 239 206 259 233 282 280 204 154 238 257 144 176 243 262 294 182 137 249 237 238 214 221 256 207 232 294 264 229 223 209 190 144 217 162 228 171 274 253 260 213 214 244 261 295 307 139 264 200 246 299 287 247 230 303 207 296 306 334 223 192 192 186 174 198 212 150 221 263 241 258 197 232 211 253 167 227 336 236 190 244 356 263 258 216 232 223 258 238 318 191 246 188 128 268 254 177 149 327 221 258 180 313 208 289 269 240 169 241 216 224 204 243 235 246 223 278 238 263 214 217 295 263 277 204 233 218 198 196 271 260 303 275 269 284 248 235 217 184 213 297 251 170 226 253 295 222 245 191 362 216 197 290 223 219 229 143 216 213 212 251 215 373 250 326 220 231 194 312 215 191 284 194 239 245 253 168 134 206 278 300 284 256 287 145 175 193 297 195 191 221 189 142 178 207 244 248 175 255 145 232 142 210 229 168 241 166 315 124 214 241 153 244 160 125 197 207 157 233 124 264 253 177 210 137 232 217 131 298 237 287 206 236 261 158 210 248 212 267 203 216 341 205 264 310 292 204 290 156 217 268 213 196 245 159 194 255 139 251 168 265 139 156 263 179 217 287 201 255 179 209 243 292 265 189 222 245 180 207 288 223 238 358 227 213 281 199 171 273 310 169 238 263 168 281 197 197 225 208 277 189 306 253 317 248 214 242 197 252 160 236 270 216 319 207 296 199 284 216 199 153 235 196 221 308 294 245 239 227 297 279 238 292 279 204 218 220 290 278 175 275 235 191 235 285 193 185 267 289 182 185 178 266 279 164 287 143 242 212 235 263 260 123 206 236 211 220 264 347 240 208 236 270 191 217 191 227 204 216 269 251 188 289 129 178 231 142 230 276 246 233 230 175 149 285 216 214 243 315 287 197 240 229 177 210 159 229 313 182 197 194 177 100 275 156 279 241 279 242 265 247 235 249 359 311 219 330 251 267 208 247 211 227 257 167 302 279 233 198 233 179 141 183 251 149 281 158 214 157 238 180 277 239 252 199 197 153 250 265 182 175 271 134 204 267 197 133 237 236 96 224 242 299 277 222 275 229 247 235 289 210 283 226 187 207 300 159 207 303 168 253 276 298 217 208 242 188 197 213 195 214 221 214 214 263 213 246 162 270 307 221 242 226 152 213 305 278 327 268 291 220 146 226 162 344 257 227 177 281 282 291 227 236 230 282 304 272 168 178 242 269 317 225 189 203 234 308 259 172 218 249 202 306 226 263 180 220 268 185 168 340 221 191 161 262 162 262 195 283 273 252 217 223 170 252 244 178 213 239 181 220 248 192 227 241 198 250 175 279 295 228 127 246 224 200 284 264 256 172 283 224 139 217 239 203 220 204 154 203 220 164 346 291 182 234 241 196 250 204 253 288 228 209 146 224 177 297 337 256 270 297 184 271 234 208 264 253 244 168 258 189 196 346 192 297 220 208 222 280 168 282 236 182 231 159 312 214 166 205 191 295 245 193 239 212 189 225 244 343 259 242 247 212 167 159 256 193 326 236 222 256 191 257 188 246 279 151 223 232 297 141 239 227 153 267 228 237 179 264 257 252 197 109 177 263 269 246 251 215 286 198 248 292 245 259 243 194 221 149 191 239 136 197 293 311 217 298 212 259 194 249 244 285 327 152 264 226 201 231 339 228 234 199 169 203 206 277 193 293 205 275 227 189 276 161 240 297 231 214 325 202 315 230 272 274 197 297 220 179 212 319 203 284 245 237 152 251 167 240 268 174 282 168 188 219 265 240 219 246 200 242 271 232 137 205 174 218 211 220 263 231 299 250 237 220 214 232 120 331 151 216 157 191 192 336 214 204 185 189 259 290 305 150 227 161 212 221 277 201 281 242 249 212 188 210 203 246 242 169 192 221 266 253 201 153 221 188 213 256 279 127 272 212 231 306 258 295 314 140 270 201 230 211 264 196 237 263 148 165 183 180 165 263 238 230 249 281 229 117 251 188 215 132 249 188 168 180 198 179 217 171 181 309 173 208 283 153 257 285 191 248 165 253 232 225 204 279 180 216 198 190 196 300 156 185 171 211 255 182 260 353 200 218 209 215 228 265 186 226 183 224 271 260 297 199 163 297 208 284 263 184 204 279 169 267 200 174 251 241 250 225 213 202 199 179 227 253 257 216 222 278 245 243 188 242 278 259 193 229 258 225 218 220 285 235 230 241 224 204 190 259 289 272 238 205 212 318 292 182 240 206 218 236 246 233 158 261 240 256 203 210 205 271 201 254 166 243 182 259 281 249 252 235 211 231 263 227 172 309 269 275 261 223 182 178 131 204 155 179 141 192 162 231 225 195 301 250 180 315 217 234 245 249 252 189 184 188 244 219 296 268 311 219 194 324 203 185 193 334 186 222 309 188 173 327 207 150 192 210 307 246 256 214 300 210 161 196 202 168 181 152 199 234 312 253 186 163 266 228 226 179 159 241 216 103 153 204 311 217 194 271 236 174 215 222 232 267 225 196 249 156 249 205 201 315 178 236 195 158 300 233 258 164 159 240 212 292 295 253 185 231 228 146 127 216 268 247 234 124 276 233 183 329 174 176 262 235 143 268 223 219 204 184 202 167 128 326 227 308 279 173 154 253 256 278 288 308 192 240 163 124 244 207 218 296 235 356 194 297 171 177 299 227 286 299 143 205 290 164 246 277 251 158 233 217 214 245 280 249 210 259 196 182 218 238 227 270 232 221 297 191 258 206 256 233 205 226 221 186 248 199 188 161 235 154 261 196 235 238 231 273 188 247 279 241 211 352 236 257 254 137 146 222 210 280 201 242 264 177 272 231 286 202 225 209 150 128 151 167 263 244 261 174 170 190 187 238 314 177 249 209 245 252 242 284 266 253 343 296 234 234 302 233 175 261 222 202 265 234 248 148 175 159 271 293 210 263 249 183 271 222 224 335 289 201 270 252 171 215 316 282 233 192 327 293 208 186 224 249 227 204 227 206 248 284 121 257 216 180 234 344 251 261 276 238 165 219 222 217 267 282 202 257 294 288 244 230 251 200 218 216 250 232 233 237 263 306 241 278 231 227 225 266 314 303 199 283 185 260 206 197 262 217 276 162 305 250 215 281 252 264 201 216 292 195 82 291 246 353 300 203 266 232 242 252 198 257 196 165 222 324 217 251 221 229 309 185 297 220 193 265 299 275 221 193 291 65 263 224 144 396 266 245 276 223 304 262 161 267 268 208 189 199 199 331 345 244 332 247 229 242 199 221 261 199 293 245 225 231 232 293 216 268 197 310 244 263 205 219 220 259 187 148 238 247 182 215 214 205 211 282 256 206 175 237 228 236 247 260 199 271 169 209 168 229 320 147 282 235 203 248 236 236 227 141 189 233 156 247 254 261 261 221 170 190 296 243 230 218 280 292 164 269 200 260 204 225 209 171 182 173 239 304 290 188 292 322 335 242 186 223 354 207 162 182 240 164 263 184 222 243 244 319 246 181 221 149 285 234 201 230 287 217 216 216 252 203 147 248 83 236 240 219 176 267 263 165 181 280 223 245 284 273 207 217 282 215 379 160 285 224 198 160 288 205 290 253 251 180 293 241 187 270 309 221 210 201 260 255 178 208 231 235 233 279 262 207 288 339 271 207 205 277 241 225 216 299 266 168 197 275 256 282 225 132 285 260 275 224 256 250 189 153 185 260 247 176 231 235 189 229 259 323 238 244 327 295 218 187 233 269 276 182 146 237 322 187 248 259 237 253 159 267 225 255 224 188 231 172 228 302 190 253 127 275 200 221 217 267 199 327 216 263 212 142 162 208 243 183 239 193 292 166 301 362 188 215 167 305 158 242 294 211 162 219 222 298 135 268 230 279 270 213 193 189 238 154 250 268 236 244 283 238 162 196 249 333 187 253 198 267 259 257 261 274 207 221 261 231 223 184 230 214 219 241 171 205 139 218 314 241 222 262 162 164 262 172 198 179 281 214 280 219 290 327 186 288 218 213 233 292 210 168 330 265 184 245 224 303 182 252 254 219 193 205 262 241 159 204 214 294 223 178 240 209 208 268 339 238 236 243 198 249 242 142 217 171 171 237 290 257 231 268 351 208 215 298 236 155 226 239 262 173 192 212 163 218 234 219 273 293 231 220 240 154 137 308 308 294 182 270 210 242 180 282 217 205 190 241 303 292 221 197 199 171 157 203 218 193 247 261 219 155 205 200 271 227 171 191 189 178 244 200 147 237 256 190 276 180 260 224 201 225 167 254 200 406 233 277 173 228 231 227 254 254 166 245 195 280 248 194 260 231 232 241 196 192 235 159 221 240 304 201 263 217 220 212 215 229 139 237 259 160 223 208 210 217 195 216 234 237 161 192 309 195 173 249 209 320 256 282 295 225 264 233 240 265 281 157 274 234 275 251 303 226 297 218 262 304 163 180 266 176 225 201 205 175 210 268 166 222 208 184 216 252 290 263 294 252 254 181 258 318 212 176 284 223 254 263 286 168 235 206 258 209 229 247 181 236 293 247 344 262 169 154 208 264 225 229 257 205 251 232 301 251 265 185 234 297 227 224 197 309 254 315 190 192 230 190 245 275 217 206 221 313 250 217 282 225 339 214 252 116 216 202 258 162 202 269 220 196 213 261 206 240 295 206 272 305 195 157 273 173 290 263 148 322 255 211 232 249 249 177 261 214 208 236 279 225 249 238 202 179 207 172 120 214 279 257 255 190 272 275 139 265 334 278 294 293 243 239 328 213 353 192 232 265 302 139 207 260 252 239 225 232 279 206 214 250 248 252 257 257 212 203 349 289 257 216 272 237 244 184 232 123 146 270 226 139 180 262 240 185 251 221 292 368 223 181 174 205 308 259 242 236 241 267 264 185 273 259 190 259 263 191 233 204 216 223 171 269 217 122 241 242 176 132 194 255 305 183 205 295 177 259 264 263 249 294 252 206 234 248 177 201 243 159 246 287 249 182 191 213 267 318 306 286 300 259 296 184 178 169 230 191 269 202 260 182 260 202 233 231 221 342 218 166 192 181 197 256 223 237 191 318 223 169 192 273 286 169 200 253 188 303 254 227 318 243 200 270 226 108 168 221 216 183 302 240 301 230 234 282 135 176 199 198 274 229 266 217 292 235 227 145 216 288 242 132 207 250 283 258 257 210 272 264 202 212 258 174 227 248 316 222 265 222 240 227 284 205 244 167 206 186 219 203 200 256 238 228 224 201 244 230 175 184 195 212 245 276 209 238 235 244 221 287 248 281 126 173 234 283 204 163 224 293 156 255 181 239 282 145 173 288 268 139 277 222 348 224 160 124 290 305 235 220 191 182 212 245 198 231 259 174 201 273 237 278 189 225 227 225 180 268 244 261 257 288 250 244 242 149 232 255 153 267 263 184 190 204 186 225 169 265 228 260 197 170 182 201 175 238 181 172 195 255 150 193 225 262 235 161 210 254 318 219 226 154 333 310 245 316 352 266 219 174 221 351 112 183 191 198 183 264 251 210 210 222 148 246 240 266 155 213 245 233 235 148 370 248 228 170 282 198 260 171 167 253 197 171 257 221 194 124 211 235 283 238 138 227 283 237 241 285 163 234 225 289 230 161 162 260 248 212 264 144 252 170 206 194 243 208 208 277 211 236 268 294 248 289 250 271 226 205 200 188 253 188 159 221 203 347 251 243 226 236 321 313 257 250 297 258 161 198 229 229 197 266 190 196 244 169 213 281 215 208 260 230 218 178 126 218 152 202 214 203 205 261 181 317 166 267 312 214 261 279 220 210 186 250 263 284 191 178 208 175 247 230 234 244 188 253 202 280 268 234 319 257 172 218 210 206 229 170 208 151 241 266 269 215 196 258 232 155 225 224 189 297 172 309 260 226 144 219 244 134 168 314 156 203 243 249 180 257 264 220 315 239 289 244 290 230 225 265 215 151 235 236 144 256 305 221 172 241 216 243 315 266 276 187 281 146 204 263 288 203 235 244 289 298 166 155 139 233 210 212 204 270 223 229 286 180 180 225 225 225 205 166 289 191 237 213 230 263 293 239 265 295 196 240 183 171 245 235 200 213 198 234 201 248 196 217 225 149 264 181 148 287 184 201 193 257 272 246 280 175 156 183 226 193 259 237 224 176 227 287 278 128 226 163 280 160 262 225 241 235 248 291 152 237 202 217 231 192 208 226 275 187 319 213 241 189 233 270 159 275 289 223 209 168 216 221 273 211 286 192 223 207 180 185 255 239 310 267 224 182 208 241 189 272 293 157 167 200 170 203 210 218 198 313 255 197 234 242 235 267 225 259 170 163 272 208 226 177 190 266 246 198 226 192 256 176 327 152 233 212 143 202 185 212 298 202 219 275 224 279 221 176 149 177 247 168 185 179 239 211 275 233 283 221 171 145 188 220 221 283 251 226 178 260 145 249 250 169 134 260 242 217 238 199 228 153 173 209 252 303 147 124 167 248 187 247 279 237 226 225 236 174 184 276 234 227 159 226 276 239 209 197 252 250 263 228 297 212 215 246 247 213 227 167 200 166 228 184 305 381 190 176 152 153 247 232 204 251 184 191 174 204 191 290 151 242 199 273 207 216 230 238 280 230 248 183 150 226 272 235 227 350 304 191 213 328 220 159 140 243 254 225 226 249 237 260 212 176 150 238 140 237 213 209 256 192 183 142 211 273 155 293 245 239 215 251 242 285 192 260 290 229 226 251 322 256 201 212 210 260 188 227 124 184 173 232 189 139 163 291 194 224 279 263 225 178 199 216 326 259 227 321 180 240 227 249 278 205 298 198 129 217 235 182 201 228 239 236 262 220 240 203 224 251 187 230 256 168 329 162 267 239 235 221 242 252 209 171 171 209 310 216 370 252 347 234 190 240 156 275 203 262 221 214 247 297 238 174 194 146 310 254 145 158 208 244 223 228 165 273 255 175 210 222 167 277 252 331 226 291 177 203 286 206 226 260 209 331 234 208 296 257 214 320 287 226 237 321 272 196 218 201 305 315 271 319 188 118 232 279 269 187 213 288 221 195 338 228 280 266 255 279 231 273 201 213 290 274 173 234 295 187 205 225 197 210 225 194 219 261 227 218 303 267 219 160 195 211 258 235 262 218 154 317 293 267 210 331 314 244 296 242 319 208 208 256 191 119 230 236 265 290 249 221 193 192 217 239 206 205 220 330 201 265 230 211 201 222 211 285 225 257 232 222 246 247 188 252 192 146 317 177 256 206 299 237 172 293 261 258 195 246 271 273 240 248 303 158 167 138 257 207 227 198 267 238 298 319 314 203 196 147 266 183 227 251 281 186 286 190 283 196 170 179 120 254 211 225 289 313 293 176 185 309 303 226 213 267 193 221 241 157 278 316 283 193 173 302 149 273 236 159 253 197 219 271 263 233 251 307 272 226 202 163 239 160 242 136 223 231 254 343 177 237 224 232 292 239 208 195 219 207 237 232 233 173 144 307 246 268 230 234 226 181 269 210 239 307 227 178 247 252 167 135 256 254 270 246 211 196 208 181 218 296 234 239 363 273 230 252 254 239 278 218 182 227 263 249 232 320 368 289 236 192 246 184 262 215 179 268 291 262 248 216 274 173 266 276 195 221 181 238 227 262 207 191 269 279 204 204 232 220 261 216 138 191 147 186 343 299 266 235 252 213 274 238 135 140 249 284 184 238 135 283 318 204 157 224 218 203 192 263 243 326 352 305 272 217 182 204 230 223 227 260 232 330 240 190 279 286 256 258 219 241 399 214 207 261 306 245 291 241 227 176 277 213 203 225 170 197 262 196 266 223 207 281 226 174 275 216 218 207 248 189 196 281 218 225 196 248 188 230 216 268 231 230 220 278 248 241 328 162 253 252 235 215 216 257 252 260 267 253 165 264 274 143 350 169 191 202 129 174 273 211 219 241 132 204 244 171 198 185 206 234 213 250 185 252 165 187 328 224 275 241 164 206 199 229 261 197 251 133 328 163 226 156 249 239 191 208 134 198 189 309 198 206 227 156 294 172 227 286 205 174 227 217 240 304 268 263 224 182 214 223 238 171 280 265 248 250 271 244 218 259 175 221 238 262 171 256 249 260 187 141 155 196 193 310 259 227 215 324 213 306 194 184 222 214 224 153 150 255 178 291 244 165 192 218 234 198 226 301 238 186 205 203 211 280 234 270 172 222 201 257 180 205 262 235 272 185 180 179 183 261 223 266 217 214 248 176 156 160 164 247 254 257 203 239 165 207 142 197 196 213 244 214 337 207 209 225 197 175 224 182 224 249 282 177 192 235 277 160 107 366 246 258 281 203 247 301 299 229 182 222 219 188 254 376 192 311 216 182 285 156 274 296 240 227 180 209 222 311 209 286 180 269 197 83 227 260 271 327 259 256 199 258 263 240 145 252 274 144 241 191 274 283 213 275 285 207 203 218 243 197 258 135 178 246 238 204 262 217 222 271 197 237 269 235 185 236 248 320 183 239 212 204 311 289 221 176 314 228 112 205 225 279 296 162 269 216 332 262 237 196 330 249 258 215 203 187 107 261 233 258 281 246 248 234 292 327 238 342 271 110 232 211 244 160 228 177 280 144 270 205 254 272 293 264 322 257 214 270 289 212 279 315 232 209 288 210 246 260 240 247 250 184 233 319 166 209 192 375 196 200 220 204 244 182 268 252 235 216 240 252 262 231 167 218 188 281 256 256 310 270 292 193 234 224 269 235 251 209 240 284 139 228 226 162 182 239 189 316 173 210 144 329 207 298 226 310 273 187 212 156 263 181 188 294 276 188 305 207 370 257 249 197 222 231 167 263 221 254 255 187 185 323 278 258 181 285 212 180 227 208 143 328 297 246 211 236 112 245 167 210 284 182 223 234 270 198 196 149 153 199 302 209 286 252 145 258 194 275 209 265 166 214 309 274 279 209 204 220 253 212 216 261 189 282 264 166 229 151 235 198 213 240 251 200 194 288 221 269 301 236 275 272 245 251 209 188 274 224 195 235 223 196 224 265 215 223 253 315 142 283 292 262 139 143 238 195 210 229 160 139 236 360 319 229 157 246 196 231 349 149 237 182 361 221 150 112 262 288 131 208 197 285 271 294 184 137 233 165 177 82 229 308 217 219 278 268 187 263 320 245 257 201 212 222 189 253 276 224 262 228 300 192 211 236 185 244 228 272 243 263 216 255 256 232 208 348 212 233 268 230 156 201 224 273 208 293 248 333 229 262 303 174 231 198 182 138 257 302 203 220 191 274 213 241 232 222 244 290 234 214 278 177 226 208 173 214 192 236 174 162 283 224 221 278 226 256 239 157 179 193 177 181 239 184 174 270 199 259 190 294 265 217 180 248 249 336 292 263 152 235 351 248 215 188 177 191 187 253 263 191 154 132 170 211 232 288 287 214 229 160 254 203 231 264 223 215 265 249 133 216 271 303 208 188 297 294 252 242 234 150 166 202 239 236 192 253 236 230 291 166 238 200 185 275 181 256 113 172 270 285 168 218 209 268 222 214 238 345 250 188 208 177 253 242 254 253 258 244 282 210 258 186 228 233 300 238 201 236 286 283 250 376 255 262 224 272 214 170 239 352 211 238 284 271 197 240 242 304 277 205 198 261 254 201 125 245 242 267 220 160 136 242 248 193 208 206 238 204 177 240 193 231 232 264 282 166 230 180 150 218 243 309 168 206 240 270 181 279 298 225 229 235 242 284 287 356 225 315 205 229 192 189 242 234 144 218 242 173 242 267 276 279 205 242 227 265 156 143 199 232 172 196 171 151 218 235 250 323 187 222 183 191 273 284 129 177 272 221 188 252 173 175 200 198 206 207 264 195 340 230 252 233 243 193 253 192 164 240 250 191 256 309 175 262 312 188 133 325 234 252 217 292 233 169 276 232 260 206 227 235 229 252 270 213 228 180 320 282 236 261 239 218 238 311 279 188 198 318 240 254 250 165 221 233 252 162 219 302 237 226 236 203 202 230 200 219 196 173 270 148 293 257 210 201 243 202 228 217 195 181 239 250 166 253 184 190 244 242 248 187 261 278 165 254 285 206 290 219 224 217 247 200 175 256 223 240 226 333 201 243 211 258 251 220 260 220 262 254 278 195 212 274 171 145 214 152 241 192 287 308 283 244 133 257 310 151 241 299 332 223 185 171 274 207 277 278 225 220 213 265 237 260 202 160 298 176 200 192 232 245 291 275 320 281 338 215 235 274 203 304 252 227 196 207 301 207 383 308 230 281 188 234 228 229 265 174 198 198 203 237 193 203 265 207 198 344 262 263 225 182 215 243 169 219 242 252 159 166 287 277 281 205 245 240 192 202 235 206 257 156 228 232 253 260 251 264 222 259 179 174 265 262 252 205 215 257 246 171 310 267 241 171 179 229 271 292 187 194 216 208 259 254 241 329 266 222 316 145 316 240 255 164 222 246 192 250 188 265 256 186 286 297 252 265 262 191 164 225 199 196 236 191 300 312 238 167 307 210 215 278 259 207 283 207 257 169 187 299 154 215 262 263 256 356 286 217 308 118 283 322 239 244 219 197 214 138 133 201 228 255 197 219 177 152 182 183 193 283 204 215 234 214 184 340 204 270 159 323 183 232 227 235 242 287 260 106 277 194 246 189 229 231 251 217 249 265 230 245 244 187 141 210 197 245 241 250 249 326 237 219 222 159 216 258 241 193 211 223 265 223 234 200 257 209 266 244 286 174 244 182 226 108 214 208 232 213 158 294 294 134 232 312 271 226 231 197 208 301 240 166 218 223 222 188 255 170 333 293 221 222 109 295 184 264 280 210 239 212 241 251 279 214 331 203 190 271 255 242 235 181 299 147 236 236 288 267 226 263 294 293 214 289 193 225 196 241 271 226 172 165 260 120 187 258 224 288 235 252 205 316 210 164 251 199 182 195 224 207 243 183 231 196 197 269 259 232 173 282 211 229 229 246 305 339 199 285 259 225 204 267 275 294 150 164 211 178 288 281 179 293 259 211 178 281 229 253 237 189 232 149 244 164 237 238 190 184 220 149 217 215 238 257 279 221 102 315 242 206 321 226 316 235 265 142 288 283 264 291 199 241 186 214 280 142 225 118 198 239 274 295 282 122 257 242 225 344 173 285 205 178 256 172 231 238 248 222 240 202 271 371 234 192 261 249 267 229 189 324 204 190 223 314 232 259 253 279 235 204 272 206 220 217 235 226 204 209 209 154 277 280 212 245 260 253 198 228 212 255 297 158 312 186 296 268 178 212 215 244 292 173 277 274 224 264 140 174 280 149 230 274 215 190 323 299 228 273 267 402 233 302 196 237 201 252 190 169 182 308 310 335 172 229 276 160 275 203 200 236 246 208 190 221 246 249 325 175 229 226 273 253 172 187 274 268 129 186 307 195 302 308 133 255 234 250 176 167 257 202 204 237 251 183 372 291 210 223 223 194 229 275 149 312 210 186 208 312 180 126 322 278 198 229 207 298 279 213 241 197 267 249 281 217 221 256 206 224 272 384 301 209 187 255 210 192 276 264 255 235 189 207 181 196 290 264 178 219 227 205 273 317 281 181 245 185 212 223 237 205 261 315 303 200 305 246 232 187 167 358 250 282 149 240 193 208 224 324 169 218 231 223 284 218 211 193 135 214 135 284 209 229 218 343 240 178 271 177 227 263 335 155 275 329 215 243 171 299 225 177 248 266 209 335 234 237 172 226 224 320 250 186 290 185 259 291 164 271 258 162 235 269 190 299 183 225 238 252 146 265 248 249 170 192 237 247 196 234 258 140 205 248 246 196 169 261 250 214 200 245 229 264 202 249 165 229 137 179 206 202 280 207 243 260 161 175 237 306 181 215 209 195 158 225 96 208 271 228 209 195 197 212 235 296 183 192 218 348 188 143 187 284 263 178 201 261 108 234 249 204 239 264 278 244 173 245 278 210 247 267 135 189 164 207 118 254 284 179 199 331 243 293 270 225 238 292 258 320 159 184 213 279 243 267 218 147 319 211 199 272 151 161 131 235 277 181 296 241 229 320 253 329 274 229 186 203 314 270 184 272 118 151 262 290 248 296 267 208 184 323 322 267 200 275 317 249 261 226 289 175 269 262 218 267 257 262 203 178 203 185 184 230 251 299 262 269 170 278 195 318 248 161 190 270 216 234 294 220 218 113 206 241 220 340 231 156 249 177 241 301 277 184 202 198 285 252 254 207 173 166 233 255 250 241 195 242 266 197 233 300 318 220 277 144 193 217 200 318 214 218 163 117 171 188 194 217 226 303 180 224 270 289 171 271 301 241 264 163 135 216 225 248 323 227 187 218 312 232 207 243 216 172 295 271 268 206 263 284 223 270 292 270 200 254 246 142 224 195 302 218 249 279 227 290 223 227 227 245 228 164 187 280 271 283 270 255 229 228 230 209 186 283 201 222 183 208 185 183 173 180 180 216 190 171 198 258 230 151 230 208 215 294 211 270 128 241 220 230 265 190 257 288 237 219 236 250 285 251 123 257 247 170 279 312 138 179 193 341 196 283 229 230 252 203 128 307 222 163 223 190 311 286 156 267 221 192 205 281 222 215 208 222 289 268 250 159 232 234 280 247 230 247 187 236 269 235 239 292 267 211 219 197 190 252 172 149 194 193 214 193 236 232 290 215 184 177 196 279 338 289 304 214 303 357 250 229 122 240 260 325 168 235 280 261 218 220 264 263 306 290 229 105 272 281 275 198 196 228 207 238 198 206 199 232 306 232 150 252 276 228 226 221 219 198 235 233 190 216 184 242 218 186 218 210 244 225 306 209 228 304 255 242 276 204 283 264 217 193 269 217 178 195 281 231 183 185 263 232 225 258 261 145 232 300 218 234 246 194 187 176 257 158 254 178 366 273 184 187 263 156 227 238 219 282 228 273 301 176 232 284 138 244 197 196 296 171 224 296 204 194 280 272 174 228 211 136 232 171 258 229 287 262 175 256 269 375 259 226 236 215 157 272 171 323 257 294 269 287 224 225 208 176 149 224 117 172 245 174 187 255 189 324 322 327 213 295 238 331 251 256 245 289 247 293 301 241 277 228 187 246 266 248 239 182 312 224 334 196 174 282 290 298 200 299 155 222 246 155 163 225 226 286 157 244 269 288 239 250 210 152 230 276 167 178 248 195 297 208 255 257 185 227 249 294 314 208 276 218 188 233 227 214 128 316 203 174 192 247 138 313 201 265 244 230 206 126 274 236 196 285 270 229 267 227 159 219 197 170 309 304 275 206 252 244 248 208 245 204 285 183 222 215 171 192 201 174 181 195 303 237 281 143 226 126 264 227 173 265 126 160 312 153 282 242 321 243 330 268 216 307 180 239 194 194 204 157 191 266 261 247 177 224 191 175 245 194 215 246 273 306 182 329 287 220 218 248 243 259 211 303 192 182 184 227 172 246 262 218 239 181 189 269 197 233 247 196 214 245 204 290 358 241 263 216 196 142 185 264 237 210 162 240 257 146 240 207 214 278 221 260 291 156 266 287 179 291 212 294 315 163 172 297 208 256 129 264 310 176 251 232 170 234 154 216 235 192 148 123 310 169 146 261 205 227 175 272 215 285 233 230 150 324 200 248 217 306 245 248 230 271 236 313 232 231 174 301 263 214 167 217 288 232 190 202 246 242 252 268 310 268 221 192 193 175 186 342 176 213 178 200 228 240 251 238 236 204 325 233 257 145 264 249 208 222 246 320 274 231 278 184 218 211 265 286 211 293 285 226 225 222 201 259 238 246 236 273 308 176 261 293 182 225 218 279 114 252 261 205 241 218 221 235 210 182 226 258 192 300 255 167 204 219 232 375 253 230 203 203 233 236 196 254 210 222 205 172 277 159 275 255 271 224 202 193 265 253 315 290 165 224 179 240 187 169 315 151 241 226 164 255 213 186 215 214 236 161 154 105 246 211 258 128 237 235 209 228 235 216 307 240 281 254 364 237 183 199 268 365 235 326 154 221 275 211 288 223 261 304 249 259 270 239 235 204 272 227 224 206 229 181 169 140 184 208 251 310 319 246 186 265 232 257 228 218 279 204 229 204 270 242 213 335 247 242 212 257 225 280 256 188 262 134 256 169 230 181 375 237 237 170 189 306 309 185 162 306 198 229 233 248 271 254 211 237 245 222 91 186 171 263 169 262 255 158 288 251 197 201 191 215 219 216 278 233 185 255 213 316 233 307 284 225 270 223 241 238 180 359 248 180 130 304 203 196 196 196 213 174 88 296 227 288 167 251 194 208 212 206 223 171 224 306 315 250 263 239 184 263 234 228 160 137 194 341 262 242 294 264 216 279 310 292 266 313 191 181 226 98 260 276 264 242 231 298 192 164 232 155 269 296 275 366 240 200 187 214 197 218 231 285 229 201 190 217 201 177 255 248 242 246 211 251 289 317 265 162 192 292 150 308 277 245 271 206 227 176 353 171 206 255 235 285 216 261 137 228 216 192 179 234 229 263 315 239 194 226 297 183 264 216 183 232 220 166 294 181 264 147 190 140 266 156 222 211 191 238 105 189 285 242 300 182 176 198 260 218 220 209 232 235 195 160 241 249 289 251 300 175 206 248 176 272 244 231 282 329 273 250 210 314 245 271 206 154 336 157 210 195 232 214 131 189 258 161 267 313 210 242 257 224 313 196 251 265 224 221 269 205 246 247 273 213 236 212 219 172 252 143 228 198 147 219 210 346 177 253 209 202 274 237 225 197 284 216 257 225 314 289 116 212 195 220 262 177 186 334 234 187 203 205 383 208 210 283 213 277 257 153 231 279 223 240 93 220 146 210 279 288 292 158 199 280 256 253 275 168 153 219 237 271 240 280 315 235 242 188 256 181 221 195 288 263 198 139 200 269 226 289 179 325 260 243 220 153 246 271 267 233 251 190 319 224 325 222 223 257 199 178 271 190 186 217 162 335 244 211 246 215 199 273 195 188 221 227 232 205 320 227 296 209 115 199 162 135 196 202 211 218 279 212 258 195 309 288 209 209 197 207 233 231 155 204 144 265 261 211 300 251 233 139 270 238 236 177 236 195 207 269 217 237 172 227 277 220 212 190 248 235 286 216 184 191 201 196 241 228 261 196 133 252 142 250 276 351 282 197 299 253 254 234 215 166 287 243 168 202 226 236 263 191 217 217 262 247 217 245 236 200 242 265 231 166 238 212 220 227 176 299 254 178 229 173 161 297 265 277 233 172 285 192 289 189 347 256 307 147 286 277 240 186 286 189 221 158 150 259 143 280 228 239 183 255 175 234 250 286 184 250 223 221 261 235 277 206 204 214 187 318 196 307 199 205 254 155 178 203 201 210 189 175 203 220 230 195 191 282 263 204 136 204 227 260 211 262 222 181 137 218 280 201 319 208 231 278 218 275 198 316 246 214 175 267 233 252 224 269 202 193 244 198 252 241 135 237 247 211 268 172 222 261 215 310 284 177 236 175 266 140 159 296 346 168 163 267 187 318 246 233 324 235 270 198 305 164 229 306 285 256 156 336 221 195 344 205 251 282 298 267 182 215 204 256 233 242 298 167 199 186 220 179 262 151 242 216 255 245 221 219 215 215 182 231 144 219 229 300 267 159 342 293 247 285 224 205 155 219 315 186 178 216 206 143 226 260 173 228 211 226 263 176 136 301 204 287 280 144 141 254 164 309 315 215 287 147 297 240 160 242 258 289 203 207 189 232 201 222 233 212 229 246 222 182 234 156 224 179 298 217 249 178 259 147 239 152 156 199 206 176 267 218 260 341 179 210 317 165 189 283 216 266 88 229 147 218 222 292 180 206 195 215 321 126 222 239 213 260 213 184 240 176 275 215 142 225 222 228 167 217 149 301 261 239 216 236 317 287 268 193 195 228 148 296 233 225 226 286 132 213 181 260 202 172 128 226 233 291 250 179 284 248 282 269 141 222 205 234 210 252 295 243 211 311 187 261 307 216 230 199 229 141 252 255 259 193 225 198 248 280 278 147 186 143 324 312 217 127 237 220 236 187 242 222 131 206 346 267 223 346 177 207 130 341 241 226 248 247 248 155 221 246 210 256 234 251 266 208 260 286 188 266 211 255 237 189 283 209 260 156 264 243 119 225 295 194 222 216 207 200 162 302 236 250 250 176 201 228 239 207 194 168 297 270 244 232 207 286 217 222 197 199 210 167 147 215 181 283 245 229 228 237 185 131 133 226 192 283 241 250 152 191 220 243 189 304 283 275 278 169 259 248 226 240 274 244 268 212 292 256 172 202 244 313 212 281 271 258 140 200 209 163 187 272 239 265 151 228 304 193 177 190 219 200 295 268 137 233 170 256 247 318 179 281 204 190 202 247 173 242 253 225 172 215 162 314 271 236 266 286 161 236 201 255 215 256 274 308 166 187 184 265 188 136 247 293 202 177 256 170 141 197 205 200 200 196 278 284 231 307 216 286 346 358 208 174 219 197 197 228 206 205 210 172 147 246 272 301 216 160 231 297 172 217 289 214 215 256 212 223 214 160 259 300 316 329 180 162 252 159 197 163 242 229 282 289 184 309 264 325 281 153 217 221 231 202 289 175 267 209 219 214 158 134 199 396 260 271 168 116 198 299 231 270 272 235 156 221 249 210 253 247 257 188 173 193 219 286 270 183 254 296 269 243 226 211 259 250 214 290 323 287 212 208 361 200 220 257 182 213 247 245 226 199 201 307 240 163 251 204 246 297 180 219 209 179 260 229 220 261 292 305 218 157 299 229 240 212 280 221 159 266 227 235 185 293 219 209 204 225 282 202 167 249 191 145 170 201 259 231 141 235 154 269 200 290 311 260 230 229 341 260 201 195 240 143 95 185 183 252 182 248 179 238 183 174 272 197 255 224 321 263 205 239 298 223 171 267 344 209 167 201 292 267 174 284 264 205 281 256 253 187 175 198 206 221 256 268 225 196 225 267 296 254 282 167 250 269 212 288 174 207 333 148 246 184 188 154 280 194 232 267 216 210 189 246 217 160 119 166 204 270 168 264 307 176 228 200 171 179 185 213 138 154 255 275 253 296 306 220 205 232 281 223 176 303 300 251 240 220 175 260 246 197 257 208 166 209 240 267 215 209 204 197 298 284 214 227 236 230 169 204 175 186 181 156 180 254 265 208 208 342 236 235 213 233 230 161 257 229 244 211 211 172 204 317 147 159 221 306 281 250 292 237 194 243 278 260 209 195 247 247 262 399 208 193 186 162 154 141 221 276 201 200 231 253 364 270 218 185 200 227 210 223 187 292 270 152 263 164 209 267 210 254 222 169 212 214 221 244 171 204 243 259 245 212 260 212 302 227 228 255 242 378 254 258 276 246 255 210 249 200 285 201 248 185 235 251 182 232 324 261 283 205 237 229 257 136 265 246 130 198 209 205 159 151 213 311 181 255 296 217 226 204 276 327 162 216 199 223 191 206 262 154 226 173 226 250 195 285 251 196 245 260 210 310 215 186 139 264 205 165 123 239 214 194 226 235 224 259 190 197 199 220 179 302 342 285 377 248 149 269 238 345 225 191 297 222 232 182 233 217 218 237 176 263 191 202 227 277 255 212 210 215 197 265 240 211 208 251 255 207 303 165 219 326 324 253 198 237 244 253 211 279 264 247 225 265 215 300 253 282 246 283 200 245 244 347 159 271 243 244 251 237 213 252 223 219 250 225 250 279 249 281 267 291 271 252 292 212 208 189 320 203 223 295 288 216 212 208 225 199 192 279 266 262 223 195 178 221 224 229 235 271 272 322 237 216 233 276 181 254 208 311 273 292 300 197 253 234 299 241 195 262 217 177 280 175 260 229 175 176 201 174 307 161 313 271 240 277 261 203 281 195 246 184 195 274 196 210 164 270 207 176 193 228 209 192 216 194 246 315 276 312 199 149 334 227 222 245 184 176 218 178 257 272 221 254 188 260 257 222 180 237 160 271 177 235 255 258 299 206 199 221 256 285 292 274 222 205 210 247 276 301 266 236 223 281 208 265 334 160 215 227 219 225 285 280 279 247 230 232 261 235 227 290 229 217 271 131 198 224 266 205 202 220 223 344 282 262 225 369 214 215 193 237 203 287 151 245 219 194 237 220 257 206 244 214 359 218 173 219 266 221 178 234 206 175 158 216 232 241 206 321 132 235 194 344 264 154 268 241 160 225 182 229 207 234 177 273 231 226 263 229 208 250 200 206 245 248 163 240 236 200 292 311 </t>
-  </si>
-  <si>
-    <t>GAM(0.6300751335546693, -6.699258697974747e-20, 1.2428902731706384)</t>
-  </si>
-  <si>
-    <t>3 0 1 2 0 0 0 1 0 1 1 2 1 1 3 2 1 2 1 0 2 1 1 1 1 3 2 2 3 1 2 3 1 0 0 1 2 1 2 1 2 0 1 0 2 0 1 0 0 3 3 1 1 0 0 0 2 1 2 1 3 2 1 1 1 1 1 1 0 2 0 0 0 0 2 1 2 1 2 1 2 2 1 2 2 1 2 1 1 1 3 0 1 1 3 0 2 2 1 3 3 1 0 1 1 1 1 2 2 1 2 1 0 2 1 1 2 2 1 1 1 1 2 2 1 0 2 1 0 2 0 0 3 0 1 2 2 2 3 0 1 3 1 2 1 1 1 1 3 3 0 0 3 1 0 1 2 3 0 2 0 2 1 2 0 1 0 1 2 4 1 1 0 1 2 1 0 1 0 5 2 0 2 0 3 1 0 1 2 2 2 2 4 2 2 1 0 2 1 2 0 4 1 1 1 1 0 1 1 1 0 1 2 2 1 1 1 1 2 2 1 1 2 1 1 3 1 1 1 3 3 5 2 1 0 0 1 2 1 0 3 0 2 1 1 1 2 2 3 0 2 2 3 0 2 1 2 1 0 1 0 0 1 1 1 2 1 2 1 2 0 2 1 0 2 2 2 1 3 3 1 3 3 2 2 1 3 3 1 1 4 2 3 0 2 2 0 0 0 0 1 1 2 0 1 1 1 3 0 2 3 1 0 1 1 3 2 2 2 2 0 3 4 4 1 1 0 1 2 2 1 0 2 0 2 1 1 2 0 2 1 0 0 0 0 3 2 1 1 3 2 3 1 0 3 0 1 2 2 1 1 1 3 0 1 1 2 2 1 1 3 1 2 1 0 0 0 2 1 2 2 1 4 2 1 0 2 2 2 2 1 2 2 2 4 3 0 1 1 1 1 1 1 0 1 3 1 1 1 1 2 1 0 1 3 2 0 2 0 2 1 2 3 1 2 1 1 1 0 0 1 1 2 1 2 1 2 2 1 1 0 3 2 0 2 1 1 0 1 1 2 1 1 2 2 3 3 3 0 2 1 1 2 1 1 2 2 3 0 1 1 3 2 1 3 2 1 1 1 3 1 1 3 1 2 1 3 1 2 2 3 1 0 1 1 2 0 0 1 1 1 1 1 1 0 1 1 0 2 1 1 0 1 1 1 2 1 1 1 2 2 2 2 1 3 0 3 1 0 0 1 2 2 1 1 0 1 3 0 2 2 1 0 2 1 1 1 1 1 2 2 1 1 1 0 3 2 2 2 2 3 2 1 2 1 5 3 0 0 0 2 1 0 2 1 1 1 3 3 1 0 4 0 0 1 3 1 1 1 1 0 0 0 2 1 1 4 2 0 0 2 0 1 1 1 1 2 2 0 1 2 1 2 1 3 1 1 1 2 2 1 3 2 2 1 1 1 2 2 1 1 0 1 3 4 1 2 2 1 0 3 0 1 1 0 3 0 1 2 2 1 3 1 0 2 1 1 2 1 0 2 1 1 2 1 2 1 2 3 1 1 1 1 1 1 2 3 4 1 1 3 1 1 2 2 1 2 1 2 1 0 2 1 1 1 2 2 0 1 2 1 1 0 1 1 1 2 2 1 2 1 2 0 1 0 0 1 2 2 2 2 1 1 2 1 0 0 0 2 1 2 2 0 2 1 1 2 2 1 2 0 1 0 0 1 0 1 1 2 0 2 0 2 2 2 0 1 0 1 1 0 2 3 1 1 2 2 0 3 4 2 2 1 1 1 2 2 2 1 1 1 1 0 2 4 0 2 0 2 1 3 0 4 1 1 1 0 6 1 1 3 2 2 2 1 3 0 0 2 1 2 2 0 1 2 2 0 0 2 1 1 0 1 2 1 0 1 1 0 1 0 1 0 3 0 2 0 2 0 1 0 1 2 1 1 0 1 0 3 1 0 1 2 0 3 1 2 1 2 2 0 2 2 1 1 1 1 1 0 1 2 1 1 2 2 0 0 4 0 1 2 0 4 1 1 1 1 1 2 2 2 1 1 3 0 1 1 1 2 3 1 1 2 2 0 1 3 1 2 1 1 3 3 2 1 2 1 1 2 1 1 2 0 0 1 1 1 0 1 1 2 1 1 0 0 0 3 1 0 2 2 2 0 0 1 2 1 2 3 1 3 0 2 0 3 1 3 1 2 1 0 3 2 2 0 1 1 2 2 1 2 2 2 3 2 1 2 1 1 2 2 1 1 2 4 0 1 1 1 2 1 1 1 0 2 2 1 0 1 3 0 2 0 1 1 1 2 3 2 1 1 2 0 0 3 2 0 0 3 2 1 1 3 1 0 2 1 0 0 2 0 0 2 1 3 2 0 1 1 1 1 1 2 0 1 0 2 2 4 0 2 1 0 3 1 1 1 2 1 2 0 1 1 4 1 1 2 3 1 1 1 1 1 4 1 2 1 0 2 1 2 1 0 1 1 0 1 1 0 1 0 1 1 0 1 1 2 2 2 0 1 2 1 3 0 2 1 1 3 1 1 0 1 1 1 3 2 2 4 3 1 2 2 3 2 0 0 1 1 2 0 2 0 1 1 1 1 1 2 1 1 1 2 2 2 2 0 2 2 1 2 4 1 1 2 0 1 1 1 2 1 3 2 2 0 1 1 1 2 1 1 1 2 2 0 1 1 2 1 1 1 0 3 2 1 2 1 2 2 3 1 1 1 2 2 1 2 1 0 0 1 2 1 1 0 2 3 2 1 1 0 1 2 3 2 1 1 1 2 1 0 1 0 2 1 1 1 2 2 1 0 0 1 0 1 2 1 1 1 0 1 1 2 3 1 2 1 1 2 1 0 2 1 3 1 0 1 1 0 1 0 1 1 0 2 1 1 2 0 2 1 0 0 2 0 0 2 2 1 2 0 2 2 2 3 2 0 2 1 1 1 1 0 3 2 2 1 1 3 0 5 2 1 1 0 1 0 2 1 2 0 0 0 1 2 2 2 2 2 3 3 2 1 2 1 2 3 2 0 2 1 1 1 3 1 1 1 0 1 2 2 2 2 1 0 2 3 1 2 1 1 2 1 3 2 1 1 2 2 0 2 1 2 0 1 2 2 1 1 2 2 1 1 1 1 1 2 1 2 2 0 2 0 1 1 1 1 0 3 2 0 4 0 2 0 2 1 1 0 0 0 2 0 2 1 2 1 1 1 2 3 3 2 3 1 3 3 0 2 2 1 1 3 1 3 1 1 2 2 2 1 0 2 0 2 0 0 0 3 2 1 2 2 2 2 2 1 1 2 1 1 2 1 0 0 2 1 2 0 3 1 1 1 1 0 2 2 2 2 0 1 1 1 3 2 1 2 0 3 1 2 2 1 0 4 1 0 2 4 2 1 1 1 1 0 2 0 1 3 0 1 2 2 3 1 3 2 2 2 0 1 1 1 1 1 1 1 0 2 1 1 2 2 0 2 2 2 1 1 1 2 2 1 1 3 3 1 1 0 3 0 1 1 2 3 2 1 2 0 2 1 1 2 2 1 2 1 3 0 1 0 1 1 1 1 1 2 2 3 1 2 3 1 2 0 0 3 3 1 1 1 0 2 1 1 2 1 2 1 1 1 1 4 2 2 0 2 1 1 1 1 2 3 2 0 2 0 0 0 0 1 2 1 1 0 2 1 0 1 1 2 1 2 1 0 1 2 2 0 1 2 0 1 2 3 0 1 1 1 1 3 1 0 1 2 0 0 2 2 0 2 2 2 1 2 1 1 0 3 0 1 1 0 2 1 2 2 2 2 3 3 2 0 2 2 0 2 2 0 1 0 1 1 1 2 2 1 3 1 2 2 2 1 2 0 1 1 0 2 0 1 0 1 2 1 0 2 2 1 1 2 2 1 0 2 0 1 2 1 3 2 2 1 1 2 2 1 0 1 1 3 1 1 1 1 2 2 0 2 0 1 0 1 1 2 4 2 1 0 3 1 3 2 1 2 1 0 1 2 2 2 2 2 0 1 2 0 1 1 2 1 1 2 2 1 3 1 1 1 1 1 0 1 2 4 1 2 1 2 2 0 2 1 1 0 0 1 2 0 2 1 1 2 1 3 0 0 3 1 0 1 1 4 1 1 0 1 0 2 3 2 1 2 0 2 1 1 0 1 1 1 1 0 3 1 3 3 1 1 2 2 1 0 1 1 2 0 0 1 0 0 1 1 2 1 1 0 3 1 2 3 1 2 2 2 1 1 2 2 1 1 0 0 0 2 2 1 1 1 2 0 0 1 2 2 1 1 1 1 0 2 1 1 1 3 0 1 1 1 2 2 2 1 1 1 2 1 0 1 0 2 1 3 1 3 2 1 1 2 2 2 3 0 0 1 0 1 3 1 1 2 1 2 2 1 1 1 1 1 2 1 0 2 1 2 0 2 1 0 1 0 2 3 1 1 4 0 1 1 3 0 2 1 1 1 2 1 0 1 0 0 3 2 1 1 1 1 1 3 3 1 1 1 0 2 0 3 1 0 1 2 1 0 2 0 0 0 0 1 2 2 1 1 1 1 0 1 1 2 1 2 0 0 1 2 1 1 3 1 1 0 2 1 1 2 0 2 1 2 0 1 1 0 2 1 0 0 0 0 1 3 1 1 3 2 1 1 0 1 2 2 0 2 3 1 1 3 1 0 0 2 2 3 2 2 1 1 0 3 1 2 0 1 1 1 1 1 2 1 0 2 0 0 3 0 1 3 0 2 1 1 3 1 4 3 3 2 2 2 2 2 2 1 3 0 1 1 2 0 1 1 0 2 2 1 2 2 2 3 2 3 3 1 1 2 2 0 0 2 3 1 1 2 1 0 0 2 1 1 1 1 1 2 3 1 2 0 0 0 1 1 2 2 1 2 3 0 1 0 1 2 4 0 1 2 2 3 0 1 1 0 2 1 0 2 3 1 1 1 1 1 2 0 2 0 1 1 2 1 0 2 3 2 0 1 2 2 0 1 2 1 2 1 3 1 4 1 1 3 1 0 0 2 2 1 1 1 1 1 2 1 2 1 0 0 2 1 1 0 3 1 3 2 4 0 2 3 1 2 2 1 3 1 1 2 2 1 1 3 1 0 0 3 2 2 2 2 1 2 1 1 1 1 1 2 2 0 4 3 2 1 2 1 1 1 1 3 0 1 1 1 1 2 3 1 0 1 1 2 3 1 2 2 1 2 4 1 1 1 0 1 4 0 0 2 2 0 1 0 1 2 1 1 1 0 2 2 2 1 1 1 2 0 1 2 0 1 4 1 3 2 0 2 3 3 2 3 1 1 1 1 2 1 1 1 3 2 3 1 3 3 1 3 2 1 2 1 0 2 1 0 1 1 2 2 1 1 1 1 2 1 2 3 0 1 2 3 1 2 3 1 3 0 1 1 1 4 1 1 1 2 2 0 0 0 1 0 2 0 5 1 3 1 2 1 0 1 0 2 2 0 0 1 3 2 1 1 0 3 0 0 1 1 2 1 4 0 3 3 0 3 1 1 2 2 1 1 5 1 1 1 2 1 1 1 1 1 1 3 0 1 0 3 1 0 1 2 1 1 2 2 1 1 1 1 1 0 2 2 1 1 1 1 1 3 0 1 1 2 1 2 2 2 2 2 1 1 0 2 2 1 2 1 0 0 2 2 4 1 2 0 2 0 2 2 3 1 1 0 2 0 1 1 0 2 2 1 1 0 1 2 0 2 0 0 1 0 1 1 1 1 0 0 2 1 2 2 2 4 2 0 1 2 0 3 2 0 0 1 1 1 2 2 1 1 1 1 0 0 1 3 2 3 1 2 0 0 0 1 3 2 0 0 0 3 2 1 1 3 1 1 1 2 0 1 0 3 2 0 1 1 3 0 2 2 1 0 2 2 0 2 1 1 0 1 1 2 2 1 1 1 0 2 1 1 2 2 1 2 1 2 1 0 1 0 2 1 1 1 1 1 1 1 0 2 1 0 2 1 2 1 2 1 3 0 3 2 1 0 0 1 2 1 1 2 2 0 2 0 3 2 0 2 2 0 0 0 1 2 1 0 1 1 2 0 0 1 2 1 0 2 2 0 0 2 0 1 0 1 0 1 3 1 2 0 2 1 1 2 2 2 1 3 1 2 1 0 1 1 1 2 1 1 0 2 2 1 1 1 3 3 1 2 2 1 1 0 0 1 1 2 2 1 2 3 2 1 1 2 0 2 1 1 0 0 0 3 1 0 1 1 1 2 1 1 1 1 2 1 1 1 0 3 5 1 1 1 0 1 2 1 1 1 4 2 0 0 0 3 2 0 2 1 1 0 2 2 1 1 3 2 0 3 0 2 0 4 0 0 0 2 1 2 1 1 1 1 1 2 2 1 1 1 1 0 1 1 3 1 1 1 1 3 1 0 1 2 3 1 3 1 1 1 2 0 3 2 3 1 2 2 1 1 1 1 3 1 1 1 1 0 3 2 3 3 0 0 2 2 2 1 0 0 3 0 2 1 3 3 0 0 1 3 0 1 2 0 0 1 0 0 4 1 1 0 1 1 1 3 1 3 0 1 1 1 1 2 2 1 1 2 1 1 1 0 1 2 2 0 1 2 0 1 1 0 1 1 0 2 2 1 0 3 2 1 1 1 1 0 2 1 0 1 2 1 0 1 0 1 0 1 2 1 0 1 3 2 2 1 0 2 1 2 0 0 2 3 1 3 1 1 0 1 2 0 2 1 1 1 0 1 1 1 0 0 1 2 1 1 1 2 0 2 0 1 1 2 2 1 0 2 2 1 2 3 0 2 2 0 1 1 0 1 1 3 0 2 1 2 1 1 1 1 2 0 1 0 2 0 1 1 0 0 2 2 0 2 0 1 0 1 1 1 2 2 3 0 2 3 1 1 0 2 2 0 1 1 1 1 1 1 2 2 0 2 1 3 2 2 2 1 0 1 1 2 1 1 1 0 1 3 2 2 1 2 2 0 0 1 2 1 0 3 0 2 0 2 0 0 0 0 1 0 2 2 1 1 0 2 1 0 2 2 2 2 3 2 0 1 3 0 1 2 4 2 1 2 1 2 1 0 0 0 1 2 1 1 1 0 2 2 3 2 1 2 1 0 1 3 3 1 1 2 1 1 1 1 3 0 1 1 1 0 1 0 1 0 3 2 0 2 0 1 1 2 4 0 1 0 0 2 2 1 2 1 0 2 2 1 1 0 3 1 2 2 1 3 0 2 0 2 2 3 0 3 2 1 1 1 3 0 2 0 0 3 0 6 1 2 2 0 1 1 1 2 1 1 2 2 1 1 1 3 1 1 0 2 0 2 1 2 2 4 3 2 0 2 2 1 1 1 1 1 2 0 1 0 2 1 0 0 1 2 2 0 2 0 1 1 1 0 1 2 1 0 1 3 3 1 2 0 1 1 0 0 1 0 1 2 0 0 3 1 2 0 3 1 2 1 1 0 0 2 2 0 2 5 4 0 3 1 2 1 1 2 1 0 2 0 2 1 2 2 2 0 0 1 0 1 0 2 2 1 2 2 1 1 1 0 1 2 0 1 0 1 3 2 2 0 0 1 1 0 2 0 0 1 2 0 1 2 1 1 2 0 1 1 0 1 3 3 1 2 2 0 2 2 2 0 2 1 2 2 2 2 4 0 2 0 1 2 0 1 0 0 1 2 1 1 1 1 1 1 2 2 3 3 2 1 1 2 1 3 3 1 0 2 0 2 1 0 1 1 2 1 1 1 2 2 2 0 2 0 1 0 2 0 1 4 1 3 1 2 1 1 2 0 3 1 1 1 1 2 2 0 2 4 1 0 3 1 2 1 1 0 2 3 2 0 1 3 1 0 1 1 1 3 1 1 1 0 0 3 1 0 3 2 3 1 3 2 1 1 1 2 1 0 1 2 4 2 2 1 2 3 1 1 1 2 2 1 1 0 1 2 0 2 2 1 3 2 1 2 1 1 1 1 1 0 1 1 2 2 1 0 3 1 2 0 1 2 2 1 4 1 1 1 1 1 2 1 0 2 3 1 2 1 2 1 1 3 2 3 1 2 2 1 1 1 2 1 2 2 0 2 2 1 1 1 2 3 1 1 2 1 1 3 4 2 2 1 1 0 1 0 1 1 2 1 2 1 2 1 0 0 0 1 2 3 1 1 1 1 1 4 1 0 1 1 2 1 1 2 0 3 1 2 3 1 4 0 1 1 1 1 2 1 2 0 1 1 0 1 1 1 1 2 0 3 1 0 1 2 1 0 0 1 1 1 0 1 0 2 2 2 0 0 2 1 2 2 1 1 2 0 1 1 1 2 2 0 1 0 0 1 1 1 1 2 0 0 0 0 1 0 3 2 2 1 3 2 1 1 1 2 2 3 0 0 2 2 0 1 2 1 3 1 0 1 2 2 0 0 0 1 1 2 0 4 3 2 2 1 1 1 0 3 1 2 2 2 3 2 0 1 0 0 0 0 1 1 2 1 1 0 2 0 0 1 1 2 1 3 2 1 0 1 2 2 0 0 1 1 2 2 2 1 2 2 0 1 0 2 2 1 2 2 1 0 0 0 0 0 3 3 1 1 0 2 0 3 1 2 2 1 0 0 0 1 0 1 1 2 1 3 3 1 1 1 0 0 1 2 1 2 2 1 2 2 2 1 1 1 1 1 3 2 1 1 1 1 2 0 1 1 1 1 3 2 2 2 2 0 0 1 0 0 1 1 0 1 1 4 1 1 1 2 1 4 0 0 2 0 3 2 0 3 1 1 1 2 2 0 1 0 0 1 0 2 2 0 1 2 0 2 1 3 1 1 2 3 1 1 4 1 4 1 0 1 2 2 0 2 1 0 1 0 3 0 2 1 3 1 2 1 2 2 0 2 0 3 1 0 1 3 3 2 4 3 1 1 2 0 4 2 2 0 1 0 2 0 2 0 2 2 3 2 2 1 2 1 3 0 1 1 1 2 1 2 1 1 1 2 0 1 1 3 0 2 0 2 0 1 1 1 3 1 1 1 1 0 1 2 1 1 0 1 0 1 1 1 1 1 1 1 1 1 1 1 2 2 2 3 1 1 2 0 1 1 1 5 0 1 1 0 0 2 0 2 1 2 0 0 2 1 0 1 2 1 2 2 1 1 3 2 1 0 2 1 1 0 2 1 1 1 1 2 0 3 2 1 0 3 0 2 2 3 0 2 0 2 0 0 2 1 0 2 1 2 1 1 1 1 1 2 1 2 0 3 0 1 0 1 1 0 2 2 1 1 1 2 1 3 1 1 1 2 1 3 0 1 3 0 1 2 3 0 2 1 2 0 2 1 1 2 1 0 0 2 1 1 2 2 1 0 1 1 1 0 2 2 2 1 3 2 0 1 1 2 2 0 0 1 2 3 4 2 0 1 1 0 1 0 1 1 3 1 0 0 1 1 0 0 2 0 1 1 1 2 1 1 1 1 2 3 2 0 1 2 0 0 2 1 2 1 1 0 1 1 2 1 1 1 2 1 2 0 1 1 2 2 2 1 0 2 0 1 2 0 2 1 2 1 0 1 1 1 0 1 1 2 1 1 0 2 1 1 3 0 1 1 1 0 1 0 1 2 0 1 1 2 1 1 2 1 1 1 0 0 3 2 0 1 3 0 1 1 1 2 1 1 1 0 0 1 6 0 0 1 4 0 1 2 3 2 1 3 2 3 2 2 1 1 1 1 2 1 1 2 1 1 1 3 0 0 1 2 2 2 1 1 1 0 2 1 2 0 0 2 1 2 1 2 2 1 0 1 1 1 2 1 3 0 2 1 2 1 2 1 0 0 1 2 1 2 1 2 1 2 1 0 0 1 1 1 1 2 4 3 2 2 1 0 0 1 1 0 0 2 1 2 1 0 3 2 0 1 2 0 0 1 2 4 1 2 1 2 1 1 3 0 2 2 0 2 2 0 1 1 1 1 1 2 1 1 2 2 0 2 2 0 1 1 0 2 3 0 0 1 2 1 3 1 2 2 2 1 1 2 0 1 0 0 1 3 0 1 1 1 1 1 2 1 1 0 0 2 2 1 0 4 0 1 1 0 1 2 0 0 1 1 2 2 2 1 1 2 2 3 1 0 2 1 1 1 0 2 0 2 4 1 0 3 0 1 2 3 2 2 2 0 2 1 0 2 1 1 3 2 1 2 1 0 1 2 1 1 0 1 1 1 3 0 1 2 0 2 0 2 2 1 1 2 1 1 1 0 3 1 3 2 0 0 1 2 3 2 2 0 0 3 2 4 1 1 1 4 2 0 0 1 0 0 0 1 1 1 2 2 1 2 2 0 1 0 1 1 1 1 1 1 2 1 3 0 0 1 3 0 4 1 0 1 2 0 2 1 1 3 3 2 0 0 2 3 1 0 1 2 2 1 1 0 1 2 2 1 1 2 1 5 2 2 0 4 1 2 2 2 1 4 1 0 3 0 0 1 0 1 2 0 3 1 2 0 1 1 2 1 2 2 4 1 2 0 1 1 1 1 2 3 1 1 1 1 0 1 1 0 1 1 1 2 3 2 1 2 2 2 1 2 1 4 1 1 0 2 1 2 3 1 0 3 1 2 3 2 2 0 0 1 0 1 2 1 1 1 0 1 0 2 1 0 2 1 0 1 0 1 0 0 0 2 0 2 3 1 0 1 2 1 3 2 1 2 2 3 1 1 0 1 0 2 2 1 1 0 1 2 0 1 1 1 2 2 0 4 2 2 1 1 0 1 1 3 1 2 3 0 0 2 2 1 1 0 0 2 2 0 4 3 3 1 2 2 2 1 1 0 1 1 2 2 2 0 2 2 1 2 1 2 1 1 0 1 2 1 2 1 1 1 1 2 0 2 3 3 2 0 1 1 3 3 3 1 2 1 1 1 0 1 2 0 2 1 1 0 0 0 0 2 1 1 1 2 1 2 1 1 2 1 0 1 0 0 0 0 0 0 1 1 1 2 2 1 2 1 2 0 2 1 1 0 1 1 1 1 2 1 1 1 1 2 1 0 0 1 3 0 1 0 0 3 0 0 1 2 3 3 3 1 1 1 0 2 1 1 3 1 1 2 1 1 2 1 3 2 0 1 1 0 0 0 1 1 0 0 0 1 2 2 2 1 0 2 0 2 0 1 1 1 0 1 2 0 2 2 2 4 1 3 2 2 0 0 1 1 0 3 0 2 2 3 0 1 1 1 1 3 1 2 1 0 2 1 2 2 2 2 0 2 2 2 3 1 3 1 1 0 0 1 2 2 0 1 2 3 2 1 1 3 0 1 2 1 1 3 0 2 4 2 2 2 1 2 1 0 1 0 1 1 2 0 0 2 0 0 2 2 2 1 2 0 3 0 0 1 0 0 2 0 1 0 2 0 0 2 0 3 1 2 3 3 2 3 3 1 1 0 2 2 2 2 3 3 1 1 1 0 3 2 0 1 2 1 1 0 0 2 1 2 0 0 0 0 0 1 2 2 2 2 2 2 0 0 1 0 2 1 1 3 1 1 1 2 2 1 1 3 1 2 1 1 1 0 1 2 1 0 1 1 1 2 3 0 1 0 0 2 1 2 3 0 2 1 3 2 1 0 2 1 2 0 2 2 2 2 1 0 1 0 2 2 1 0 2 4 0 2 1 2 2 4 1 3 2 1 2 3 0 3 0 2 1 0 1 2 2 0 1 2 1 1 0 1 2 0 2 2 2 0 1 1 1 1 2 3 0 0 2 0 4 2 1 0 1 1 1 0 0 2 1 2 1 0 4 3 1 0 2 1 0 1 1 3 1 2 1 0 0 2 2 1 2 0 0 1 0 1 0 1 0 1 1 0 2 2 2 2 1 2 2 3 2 2 1 2 2 2 1 3 1 2 0 0 1 2 0 1 2 1 3 3 1 0 2 0 2 2 0 1 1 2 2 2 2 1 1 1 1 3 4 1 1 1 2 0 2 2 2 0 3 2 0 2 1 0 0 1 0 2 2 1 3 3 1 1 0 0 2 0 2 0 2 3 3 2 0 2 1 1 1 1 1 2 2 2 0 2 0 3 2 1 2 1 4 1 0 0 1 0 1 2 1 2 0 2 3 3 0 2 1 1 1 2 1 3 0 1 0 1 1 2 1 0 1 1 1 2 1 3 2 2 0 0 2 1 1 2 2 1 1 2 1 2 0 1 2 1 1 0 2 2 0 2 0 0 2 3 2 1 2 2 0 2 0 0 1 3 1 0 3 0 2 1 1 0 1 1 2 1 1 2 1 4 1 2 1 1 2 1 2 1 1 1 1 1 3 1 0 5 1 2 1 0 2 1 2 1 1 2 3 3 2 1 1 0 0 1 1 2 0 0 0 2 0 1 3 0 1 3 0 2 2 1 1 0 1 2 2 3 1 2 0 1 1 1 3 1 0 2 2 2 1 3 3 3 1 3 0 1 1 1 1 1 2 1 0 1 1 1 1 1 2 3 1 0 1 2 1 3 3 1 0 1 0 3 2 1 1 1 1 2 1 0 1 2 3 2 1 3 0 1 2 1 1 3 1 0 0 0 2 1 1 1 1 1 1 1 1 3 3 1 2 0 1 2 2 2 3 0 0 0 0 2 3 1 2 2 0 2 3 1 2 1 2 1 2 1 0 1 2 1 3 3 1 3 3 1 2 1 1 1 3 2 2 2 3 2 2 0 2 3 0 1 1 0 2 0 3 2 2 3 0 1 1 1 3 1 1 1 1 2 1 2 2 0 1 1 2 2 3 2 0 1 1 1 0 1 0 0 1 1 0 1 2 2 0 1 2 1 2 1 2 3 0 3 1 2 1 1 1 2 1 1 3 3 1 1 0 1 1 0 3 3 0 1 0 1 1 1 1 0 1 0 0 2 1 0 3 2 1 1 0 3 0 0 2 2 2 3 2 0 3 0 1 0 2 2 1 1 1 2 1 2 0 0 0 2 2 1 2 1 2 2 1 1 1 1 1 2 2 0 1 2 1 3 2 0 4 3 4 2 3 2 2 1 2 2 2 1 0 1 0 0 0 0 1 1 2 1 1 2 1 1 2 1 2 1 0 2 1 1 0 1 2 2 2 3 1 1 2 0 1 2 0 1 0 0 1 1 1 2 2 0 1 1 1 2 1 3 2 3 2 0 2 2 1 1 1 0 1 1 3 2 1 1 0 0 2 2 1 1 0 1 0 1 4 1 0 0 2 0 2 1 0 1 0 2 3 2 1 1 2 3 1 1 3 0 2 1 1 3 2 2 2 1 2 1 1 3 1 4 0 0 2 2 0 0 2 0 2 4 1 2 0 3 2 1 1 2 0 1 1 1 1 4 0 2 1 3 1 0 1 2 0 2 2 0 1 2 1 2 1 2 2 1 0 1 0 2 1 2 0 2 2 0 1 2 1 0 2 0 1 1 2 2 4 0 1 2 1 2 1 2 0 3 1 1 1 1 1 3 1 2 1 1 0 1 0 0 2 2 1 3 0 0 2 2 0 0 1 2 1 3 1 0 2 1 2 0 2 4 0 2 2 2 2 0 1 2 2 1 1 0 3 0 0 0 1 0 1 1 2 0 1 0 0 1 2 3 0 0 2 1 2 1 2 1 3 1 1 0 1 1 1 0 0 2 1 1 1 1 0 0 3 1 1 1 1 2 1 1 3 2 3 2 2 1 0 1 0 2 0 2 1 2 1 1 2 1 1 1 2 1 1 0 2 2 1 0 1 3 0 1 1 1 1 2 0 1 2 0 3 1 0 2 2 1 1 2 1 1 2 1 1 0 1 2 0 2 4 1 1 0 0 1 1 3 2 0 1 0 1 1 0 0 2 0 1 1 2 0 0 3 1 1 3 2 1 2 2 0 2 2 0 0 0 2 2 2 1 3 1 0 3 0 1 1 1 2 0 1 0 3 0 3 1 1 1 2 1 2 0 1 2 2 2 2 2 0 1 3 0 2 1 4 2 2 1 1 2 1 2 0 0 2 2 2 2 0 2 0 1 0 1 2 2 0 1 1 1 2 3 0 1 2 4 1 2 0 2 2 0 0 1 1 1 1 1 2 1 1 2 0 1 4 3 1 4 1 1 1 0 2 0 3 0 0 2 1 0 0 0 0 0 3 3 3 3 1 3 1 2 1 0 2 0 1 2 2 0 0 2 2 2 1 2 0 1 1 0 3 3 0 0 1 2 2 2 1 1 0 1 1 2 1 1 3 0 2 1 2 1 0 2 1 1 1 1 1 0 2 0 0 1 1 2 0 3 2 1 0 0 1 2 3 0 2 2 3 1 3 2 1 3 2 3 2 1 3 0 1 1 1 2 1 1 2 1 1 1 2 1 0 2 1 2 1 2 1 1 0 1 1 1 4 2 1 1 4 1 0 0 1 2 2 1 2 4 1 1 2 4 1 2 0 0 3 2 2 1 1 1 0 2 1 3 0 1 2 1 0 3 2 1 2 0 1 1 0 0 2 1 0 2 0 0 1 1 1 2 0 2 1 3 0 2 0 0 2 3 2 2 3 3 3 2 2 0 4 1 1 1 2 2 2 0 3 1 0 2 2 0 1 0 1 3 0 0 1 1 3 1 2 0 2 0 0 1 0 2 2 1 2 2 2 2 1 3 1 0 0 1 1 2 3 2 1 0 0 2 0 0 3 2 1 1 0 1 1 1 0 0 2 0 0 2 1 1 2 3 2 1 2 3 2 0 0 1 2 1 1 0 0 1 1 1 1 2 2 1 1 2 1 1 1 1 3 0 2 3 3 3 2 2 2 2 1 0 1 1 2 1 1 0 1 2 0 1 1 0 0 2 2 2 1 3 1 3 2 2 1 1 2 2 0 1 1 1 0 1 0 1 0 2 2 0 0 1 1 3 0 2 1 2 1 1 2 1 2 1 1 0 1 1 2 2 2 0 2 1 1 1 1 1 0 0 1 1 2 2 0 0 1 1 2 0 2 2 1 0 0 1 0 3 3 1 1 4 2 0 0 3 1 1 1 1 1 1 2 1 3 1 1 2 1 1 0 3 2 0 1 0 1 1 3 2 1 2 0 1 2 3 3 1 1 1 2 0 0 1 0 1 2 1 3 2 0 1 1 2 1 1 1 1 2 2 0 2 2 2 1 1 0 0 1 2 2 1 2 2 2 2 1 2 2 1 1 0 0 3 3 2 2 2 1 0 0 2 2 1 3 0 0 0 1 2 2 1 3 1 2 2 0 0 1 1 1 1 0 3 2 2 3 1 2 0 2 3 1 0 1 0 3 1 0 1 1 0 2 1 1 0 0 2 1 2 1 1 1 1 0 3 0 2 1 1 2 4 1 2 1 0 1 1 0 1 2 2 1 0 3 0 0 2 1 1 1 2 2 1 1 1 1 2 1 0 2 1 2 3 2 1 1 1 1 3 1 3 2 1 1 0 1 2 0 2 1 2 3 0 2 3 2 1 0 1 1 2 1 1 1 0 1 2 1 1 2 1 3 1 3 1 2 1 1 3 4 2 1 0 2 1 2 2 1 2 0 5 0 0 1 0 2 1 2 2 2 2 0 1 2 1 1 0 1 1 3 1 2 3 1 1 0 0 2 1 2 2 3 1 2 1 3 1 2 3 1 1 1 0 3 2 3 0 0 0 1 0 1 1 1 1 0 3 1 0 2 2 0 1 1 2 0 2 3 3 2 0 1 0 2 2 2 2 2 2 3 3 3 2 1 1 4 4 1 2 1 2 0 0 2 3 3 3 2 2 1 0 1 2 0 0 1 2 2 2 1 1 1 2 2 3 2 1 0 1 0 1 5 0 1 0 1 0 1 2 1 2 2 1 2 1 0 3 2 1 2 0 2 1 0 2 2 2 2 3 0 2 1 3 2 2 2 2 0 1 0 1 1 3 0 1 1 1 0 1 1 1 1 0 2 1 2 1 1 2 1 2 1 1 2 1 2 1 0 1 1 0 3 1 1 0 1 0 2 2 1 2 1 1 2 2 1 2 1 2 1 1 3 3 0 1 2 2 1 2 1 1 2 1 1 0 2 1 2 1 1 0 2 1 1 1 1 2 1 1 0 2 1 0 1 3 2 1 3 0 2 2 0 0 3 2 2 2 1 1 1 1 3 0 0 1 3 1 1 3 0 1 2 3 2 1 1 0 0 0 0 1 0 1 1 0 1 0 1 2 0 1 1 2 0 1 1 4 2 1 1 2 1 0 1 1 1 1 3 2 1 1 1 2 0 1 1 3 2 2 2 2 2 3 0 1 0 2 0 1 2 2 1 1 2 4 0 2 2 0 0 2 0 0 2 2 0 1 2 0 0 3 1 1 2 3 1 1 0 1 1 1 1 2 1 3 2 1 2 1 1 1 2 0 1 2 1 0 2 2 2 2 3 0 2 2 1 2 1 0 1 0 0 0 1 0 1 2 1 1 1 1 1 0 2 3 0 1 2 1 1 2 5 2 1 1 1 2 2 2 2 0 1 2 2 4 1 2 1 1 0 0 0 0 0 0 1 1 1 0 2 0 1 1 2 0 1 2 1 1 1 1 1 1 2 0 1 2 1 1 1 0 3 2 1 2 2 4 1 1 3 1 1 1 3 1 2 4 3 1 3 1 1 0 1 2 2 0 0 2 0 0 0 2 2 3 2 1 4 1 1 2 2 0 1 1 1 0 1 1 2 3 2 2 1 0 1 3 1 2 2 0 1 0 1 2 2 1 2 1 4 0 3 1 1 0 1 0 2 4 2 1 1 1 1 1 1 2 2 1 4 1 2 3 3 0 0 3 2 0 1 0 0 2 0 1 3 1 2 1 0 2 3 0 0 2 3 2 3 0 0 2 1 1 0 2 2 1 1 1 1 0 0 1 1 2 2 1 1 1 2 1 1 0 1 1 2 3 1 3 2 3 0 1 0 0 1 1 0 0 0 0 2 1 0 1 0 2 0 2 0 3 1 1 1 1 0 1 2 2 1 1 1 1 3 2 2 1 2 1 2 1 3 1 2 3 0 1 1 0 1 1 3 1 3 0 3 1 0 0 1 2 1 0 0 2 1 3 0 1 1 1 2 1 1 3 1 2 1 0 0 1 1 0 1 0 3 1 2 1 1 2 2 3 1 0 0 2 1 1 0 1 0 1 0 0 1 4 0 3 1 1 1 4 0 1 2 0 1 0 1 1 1 1 2 2 1 2 2 1 0 2 1 1 2 2 0 0 2 1 2 1 1 2 2 0 1 1 0 1 2 4 1 1 0 1 2 3 1 1 2 0 1 1 1 2 1 1 1 0 0 0 1 1 0 2 0 1 1 3 0 3 2 3 2 1 1 1 1 1 1 0 2 2 1 3 1 2 2 0 1 0 1 1 0 1 1 1 1 2 2 0 2 5 0 0 0 2 1 1 2 0 3 2 3 0 3 0 1 1 1 0 1 1 1 3 1 3 2 2 0 0 2 1 0 1 1 2 3 1 1 1 1 0 2 1 2 1 0 3 0 1 0 1 0 1 2 0 0 1 1 0 3 1 1 0 1 0 2 1 0 3 2 2 3 0 0 1 0 1 1 1 2 2 2 2 1 3 1 2 0 0 0 1 1 1 2 1 2 1 1 2 1 1 0 0 1 3 1 2 1 2 0 2 1 1 0 3 0 3 0 2 1 2 0 0 1 1 3 2 3 0 1 2 2 1 1 2 2 1 1 2 2 4 3 0 2 0 2 2 2 3 0 1 2 2 1 0 3 0 3 2 1 0 4 1 3 1 0 1 1 0 1 1 1 1 0 0 0 1 2 3 0 1 1 2 2 0 1 0 2 2 0 0 1 2 2 2 0 2 2 0 0 0 0 2 1 1 2 2 1 0 1 1 0 1 0 2 0 3 0 1 1 1 2 2 0 1 2 1 2 0 1 1 1 0 1 0 1 1 2 1 1 2 1 1 2 2 1 2 3 2 1 0 0 0 3 2 2 0 1 0 1 2 3 1 2 2 0 1 1 1 2 2 2 0 1 1 0 2 1 0 2 1 1 4 2 3 2 0 2 1 0 2 2 1 1 2 2 1 2 2 1 1 1 1 2 1 2 2 2 0 0 2 1 0 1 3 2 1 3 1 1 1 2 1 2 1 1 1 1 2 0 0 2 0 2 2 2 3 2 0 1 0 0 1 1 4 0 1 2 1 2 2 1 0 1 0 1 2 0 1 1 0 0 1 1 2 1 1 1 1 2 2 2 2 3 5 0 0 2 1 2 1 0 1 1 2 1 0 0 1 3 2 3 1 1 0 1 0 1 2 1 0 2 2 1 0 1 1 0 1 1 4 1 2 2 1 0 2 2 4 1 1 2 0 0 1 2 2 2 2 2 2 2 1 1 4 1 1 2 1 1 3 0 2 2 0 3 2 1 1 2 1 3 0 0 3 1 1 1 1 1 2 2 2 1 0 1 2 2 0 0 2 1 1 1 3 1 1 3 1 2 1 4 0 2 1 2 2 1 2 0 1 0 1 0 2 2 2 1 2 1 0 2 1 1 1 1 2 2 2 1 2 1 3 4 3 1 2 3 1 1 2 2 0 1 2 1 2 2 2 1 1 1 1 1 2 1 2 4 2 3 0 3 2 0 0 3 1 1 1 1 0 0 2 0 1 1 1 2 3 0 3 0 3 2 0 0 0 3 1 2 0 1 0 1 1 2 2 1 0 1 2 0 3 0 1 2 2 2 1 3 1 0 0 1 1 2 2 2 1 1 2 1 1 1 1 1 1 1 2 0 0 1 0 1 0 1 2 1 0 0 0 2 0 2 1 0 1 2 2 2 2 1 1 2 0 1 1 1 3 2 2 0 0 2 1 1 3 2 0 2 0 1 0 1 1 2 1 1 0 1 1 2 1 1 2 1 1 2 1 3 0 1 0 3 0 2 0 1 1 2 3 1 1 1 0 3 2 0 2 1 0 1 0 0 0 1 0 3 0 0 1 0 1 0 1 2 2 1 1 2 0 1 2 1 3 2 2 0 0 2 0 1 2 3 1 1 3 1 2 2 1 1 1 2 0 3 1 2 0 0 1 0 2 1 4 2 0 3 3 2 1 0 1 1 1 1 1 1 1 1 2 3 1 0 3 0 1 1 0 1 0 1 1 1 0 1 0 1 2 0 0 2 4 1 2 1 2 1 2 1 0 1 0 1 2 1 0 1 0 4 1 1 1 0 0 1 1 1 1 0 3 2 0 2 2 1 1 3 1 1 4 3 3 1 1 1 0 2 0 2 1 2 3 2 1 1 1 1 2 1 2 1 1 2 2 2 2 1 2 2 2 1 1 1 3 1 1 0 0 1 1 1 1 1 1 1 1 1 3 0 2 0 0 0 2 0 2 0 1 0 1 1 2 1 0 3 0 0 0 2 2 2 0 0 0 2 1 0 1 2 3 3 0 0 1 2 0 1 1 1 1 1 0 0 2 1 1 1 3 2 2 1 1 1 1 2 1 2 1 2 2 0 0 0 3 1 1 1 0 0 1 0 0 0 1 0 1 1 1 2 1 3 3 1 1 1 0 0 0 0 0 1 1 3 1 1 2 2 1 0 2 0 2 1 3 1 0 0 1 3 2 0 2 3 3 0 1 3 1 2 4 1 3 1 1 3 0 3 3 1 2 0 0 0 1 1 1 2 1 0 2 2 1 3 1 1 0 1 2 0 2 2 1 0 2 0 1 1 2 2 3 1 2 2 2 2 1 1 0 1 1 1 2 1 2 3 3 2 1 1 1 0 1 1 2 1 1 1 1 1 2 2 2 1 3 2 1 1 1 2 2 4 0 1 3 1 1 0 3 0 1 1 2 2 2 2 1 1 3 1 1 0 0 2 1 2 2 1 2 0 1 2 3 3 2 1 1 0 1 1 1 1 1 3 3 0 2 1 1 2 3 2 1 3 1 3 1 1 1 1 1 1 1 2 1 0 2 0 1 1 1 2 0 2 1 0 2 2 0 0 2 2 1 2 1 2 1 0 2 2 0 2 1 2 1 1 1 0 1 2 1 1 2 0 1 2 1 3 1 1 0 0 0 1 1 1 1 0 0 0 3 1 0 1 2 2 0 2 1 3 2 2 0 1 1 2 1 2 2 4 1 2 1 1 0 1 1 0 1 2 1 3 1 1 2 1 1 2 2 0 2 1 0 2 3 2 2 0 2 2 2 1 3 2 4 1 2 0 2 2 1 2 1 1 1 3 1 1 1 2 0 2 2 1 2 0 2 1 0 1 1 1 2 1 1 2 1 3 1 0 2 1 3 0 2 1 0 2 0 1 0 1 2 1 1 2 0 2 2 2 1 0 1 1 1 2 0 1 2 3 0 2 1 1 3 3 2 2 0 0 0 2 1 3 4 1 2 2 1 0 1 1 2 2 3 4 2 3 0 3 1 2 2 1 2 1 2 3 1 1 0 1 1 3 0 1 1 2 1 1 0 2 2 1 3 0 3 3 1 2 1 0 0 1 1 2 1 3 2 0 1 0 0 2 3 0 3 1 0 0 0 1 1 1 2 1 1 1 0 1 1 1 1 0 1 2 1 1 1 3 0 0 1 0 1 1 0 1 0 0 1 2 1 1 1 2 0 1 1 1 1 0 2 1 1 2 1 1 1 3 1 1 2 2 1 3 1 1 0 2 2 1 1 1 1 1 1 4 1 0 0 3 1 0 1 2 1 2 1 1 1 1 1 2 1 0 2 2 2 1 0 1 1 1 3 2 1 0 2 2 0 2 1 2 2 1 0 1 2 2 1 0 1 2 2 0 1 2 1 3 2 0 1 2 2 1 1 1 1 1 2 1 0 0 2 0 1 2 1 0 0 1 0 2 1 1 1 3 2 2 1 1 2 1 0 2 1 1 1 0 3 1 2 2 0 1 3 1 2 1 2 2 1 2 2 2 2 1 1 3 0 2 0 0 0 1 0 1 2 1 2 0 0 0 0 1 1 3 1 2 4 1 1 0 1 1 2 1 2 1 0 2 1 3 1 0 3 1 1 4 2 2 2 1 0 2 2 2 4 1 1 0 1 0 0 2 2 4 2 0 1 3 2 1 1 1 2 1 1 1 0 0 1 2 1 2 2 0 1 2 4 2 0 0 1 4 2 1 2 3 1 2 3 1 1 3 1 1 1 2 2 2 2 1 2 1 2 2 0 2 2 2 0 1 0 2 1 3 1 2 2 2 0 0 1 4 1 1 0 0 1 2 1 2 2 3 1 1 3 2 1 1 2 1 2 0 1 3 1 3 2 1 1 3 1 1 0 0 0 2 1 3 1 2 2 1 1 0 2 2 3 2 1 0 1 1 1 1 1 2 2 2 2 1 0 2 2 3 2 0 0 3 1 0 0 0 2 1 1 2 2 1 1 1 2 0 1 1 0 3 2 1 1 2 0 1 1 0 3 1 2 1 2 2 2 1 1 1 1 0 2 2 1 1 1 1 1 0 3 0 0 1 0 2 1 1 0 1 3 1 1 1 1 2 1 2 2 2 1 2 1 3 2 2 1 2 2 1 1 1 0 4 2 2 2 3 3 0 1 0 2 2 1 1 1 0 2 0 3 1 0 0 2 2 1 1 1 0 1 0 1 1 0 1 1 0 0 0 0 1 1 2 0 1 0 0 0 3 2 2 1 2 1 3 1 1 2 0 0 2 2 1 2 0 0 1 3 2 1 2 0 0 2 2 1 1 2 1 0 2 1 0 3 0 2 1 2 3 1 0 2 3 0 4 2 1 2 2 3 0 3 2 0 1 3 0 2 1 1 0 1 3 1 1 1 1 1 1 1 1 0 2 1 0 1 2 1 0 2 0 1 0 3 1 0 1 2 1 2 1 0 0 2 0 2 1 2 0 1 1 0 2 0 2 0 3 1 2 0 2 0 1 1 2 2 1 1 3 0 1 1 2 0 4 1 0 1 1 2 3 2 2 1 0 2 2 2 1 4 1 2 2 0 1 0 3 2 1 2 2 1 1 2 1 1 0 3 0 1 1 0 1 1 1 1 2 1 1 1 1 1 2 1 2 1 0 0 1 0 3 0 1 2 0 0 0 0 0 5 3 1 2 2 1 3 2 1 2 1 0 1 0 1 2 2 2 0 2 1 2 1 3 1 1 0 0 1 3 2 2 1 2 3 0 2 2 0 2 5 1 0 2 2 2 3 0 0 1 2 1 1 0 0 1 3 2 1 1 1 2 2 0 2 1 1 1 2 2 2 0 0 2 1 1 1 1 0 2 1 1 2 0 0 1 0 2 1 1 2 1 2 1 2 1 1 0 2 2 3 0 2 1 2 2 2 0 0 3 3 1 1 0 1 0 0 3 1 2 1 1 2 1 1 1 1 1 1 1 2 2 3 2 1 1 1 2 2 0 2 1 2 1 1 0 2 1 1 2 2 0 2 1 1 1 0 1 1 1 1 2 1 2 4 1 1 0 1 1 2 0 2 0 2 1 0 1 0 0 3 1 1 1 0 1 0 2 0 1 3 2 6 1 1 1 2 2 2 0 0 2 2 2 2 2 1 0 0 1 2 1 4 1 3 1 2 2 0 0 1 3 0 1 0 0 1 1 4 1 1 1 2 2 2 0 2 1 0 1 1</t>
-  </si>
-  <si>
-    <t>GAM(0.269579497745691, -9.221363253420115e-28, 0.39564442412402834)</t>
-  </si>
-  <si>
-    <t>1 0 2 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 1 0 1 2 1 0 1 0 1 1 0 0 0 0 0 1 0 2 0 0 0 0 2 1 2 0 0 1 0 1 0 0 0 0 2 0 1 0 0 0 1 1 0 0 2 1 1 0 0 0 0 0 1 0 0 0 0 0 1 3 0 0 1 0 1 0 1 2 0 1 1 0 1 0 1 0 0 0 1 0 0 1 0 0 0 1 1 1 0 1 0 0 0 0 0 0 0 0 1 0 1 0 2 0 0 0 1 0 1 1 0 0 0 0 0 1 0 0 0 0 0 1 0 4 0 0 0 0 1 1 3 0 0 1 1 0 1 0 1 0 1 1 2 0 0 1 0 0 0 0 2 1 2 1 1 0 0 1 0 0 1 0 2 0 1 0 1 2 2 2 1 1 0 0 0 1 1 0 0 2 0 0 2 1 1 0 0 2 1 1 2 3 1 0 1 1 0 1 1 0 2 0 1 0 0 2 1 0 0 1 1 1 0 0 0 1 0 1 1 0 1 0 0 1 1 0 1 0 0 0 0 2 1 0 1 0 0 0 1 0 0 2 2 2 0 1 1 0 1 0 1 0 0 1 1 0 0 0 1 0 0 0 1 0 1 1 0 0 0 1 1 0 0 0 0 1 0 1 2 1 1 3 1 1 1 0 2 0 2 0 1 0 0 3 1 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 2 0 1 1 1 2 0 1 0 0 1 1 0 3 1 0 0 0 0 0 0 0 2 1 1 1 0 0 1 0 1 1 0 0 0 1 1 2 1 0 0 1 0 0 2 0 2 0 0 0 1 0 0 0 1 0 1 0 2 0 0 2 0 0 0 1 0 1 1 1 1 0 1 0 0 0 1 0 0 0 0 1 1 0 2 3 1 0 2 0 1 0 0 0 2 0 1 1 1 0 1 0 0 0 0 2 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 2 0 0 0 0 0 1 3 1 1 0 1 0 0 1 1 1 0 0 0 1 0 1 2 0 0 1 0 0 0 1 1 0 0 0 1 0 1 1 0 1 0 1 3 2 0 0 1 0 2 0 1 2 1 0 1 2 0 1 1 1 0 1 0 0 1 0 1 0 0 0 0 0 1 0 0 2 0 2 0 1 1 0 1 0 2 1 0 0 0 0 1 2 0 1 0 0 1 1 1 1 1 0 1 3 0 0 2 0 0 2 0 1 1 1 1 0 0 0 0 0 2 2 0 1 0 0 0 2 0 1 0 0 4 0 0 1 0 2 0 0 1 1 0 1 0 0 1 0 1 0 0 2 0 0 1 1 0 0 0 1 2 1 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 2 2 0 0 1 0 0 0 0 2 0 0 1 1 0 3 1 1 1 1 1 0 1 1 1 0 0 0 0 2 1 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 1 1 0 0 0 0 0 2 0 0 0 0 0 1 0 2 1 0 1 0 0 0 2 0 1 0 0 0 0 1 0 0 0 1 0 1 0 0 1 1 0 0 3 0 0 0 1 0 0 0 0 1 2 1 1 0 3 0 1 1 1 1 0 0 2 0 1 0 1 1 1 0 1 0 1 0 0 1 0 0 0 0 1 0 1 1 0 1 0 0 0 0 0 0 0 3 0 0 0 1 0 0 3 2 0 0 0 1 1 1 1 3 0 0 1 0 0 0 0 1 1 1 0 0 0 0 0 3 1 0 0 1 1 0 0 0 0 1 1 1 0 2 3 0 0 0 0 3 1 1 0 0 0 0 2 1 0 1 0 0 0 0 1 1 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 2 1 0 1 0 0 3 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 2 1 0 0 1 1 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 1 1 1 2 0 0 0 1 0 0 1 1 1 0 0 0 1 2 1 0 0 1 1 0 2 0 0 0 0 1 1 2 2 1 0 0 1 0 2 0 2 1 1 2 0 0 0 0 1 0 2 0 0 0 2 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 1 0 1 1 1 1 1 0 1 0 0 0 0 1 0 1 0 1 0 0 0 1 0 0 0 1 2 0 1 1 0 2 0 0 0 1 0 1 0 1 0 1 0 0 0 0 0 1 1 2 0 1 0 0 1 1 0 1 0 0 0 0 0 0 0 1 1 4 0 3 0 0 0 1 2 0 1 0 0 0 1 2 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 2 2 0 1 1 0 1 0 0 1 2 0 0 0 0 0 0 0 2 0 1 0 0 2 0 0 1 1 1 0 0 0 0 0 0 0 0 2 0 0 0 0 0 3 0 1 0 0 2 0 0 1 1 2 1 0 1 3 2 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 1 1 0 0 1 1 1 1 0 0 0 0 0 0 2 0 1 1 0 0 0 0 0 1 0 2 0 1 0 0 0 0 1 2 0 0 0 0 0 0 0 2 1 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 1 0 0 1 0 1 1 0 4 0 1 0 1 0 0 1 2 2 0 0 5 0 0 0 1 0 0 2 1 1 0 1 1 0 0 0 0 0 1 0 0 3 0 1 0 0 1 3 0 1 0 0 2 0 1 0 0 0 1 0 1 2 1 0 0 1 0 1 0 1 0 0 0 0 1 0 1 1 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 1 0 1 1 0 2 1 0 2 0 1 0 1 0 0 0 2 0 2 1 0 1 0 0 0 1 0 2 0 0 2 1 0 1 2 0 1 0 0 1 0 1 0 1 1 0 1 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 2 0 1 0 1 0 1 0 0 0 1 1 1 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 1 1 1 0 0 2 1 0 0 0 0 0 0 1 0 1 0 1 0 2 0 0 0 0 0 0 2 3 1 1 1 1 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 2 0 0 0 0 1 0 0 1 0 0 0 1 1 0 0 1 1 0 0 0 1 0 0 2 1 0 0 0 0 2 2 1 0 1 1 0 1 1 0 1 1 0 0 1 1 0 1 2 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 1 0 0 1 2 1 2 0 1 0 0 1 0 0 1 0 3 0 1 0 1 0 1 2 3 2 0 0 0 0 1 0 0 1 0 0 0 1 1 0 1 0 0 1 2 0 1 0 0 1 0 0 2 1 0 0 0 1 0 1 0 0 1 0 0 0 2 1 0 0 2 1 1 0 0 1 0 1 0 0 0 0 1 1 0 1 0 1 0 0 0 1 0 1 2 2 0 0 1 1 1 1 1 1 0 0 1 1 0 0 1 0 2 1 0 0 0 1 1 2 0 1 1 1 0 0 1 1 0 2 0 2 1 0 1 1 0 2 1 0 0 0 0 0 0 1 1 0 0 0 2 1 1 0 0 3 0 1 0 0 0 0 0 0 2 0 0 1 0 0 0 0 0 1 1 1 0 0 1 0 0 0 0 0 0 3 1 1 0 2 0 1 0 1 1 0 0 1 0 1 0 1 0 0 0 0 0 1 1 0 1 1 1 1 1 1 1 0 0 3 0 1 0 0 0 1 0 0 0 1 0 1 0 1 0 0 0 2 0 0 2 1 0 0 2 0 1 1 0 0 0 0 2 2 0 0 0 0 1 0 0 0 0 0 0 0 2 0 1 1 0 0 0 0 0 0 1 0 1 1 0 1 0 1 0 1 0 0 1 1 0 0 0 1 2 0 1 1 1 2 2 1 1 0 0 0 0 3 0 1 0 1 0 1 0 0 0 0 0 1 1 1 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 2 1 0 0 0 1 1 0 0 0 1 1 0 0 0 0 1 0 0 1 0 1 1 1 1 0 0 0 1 0 1 1 2 1 0 2 2 2 0 1 0 2 0 1 2 0 0 0 1 0 1 1 1 0 0 1 1 1 3 0 0 0 0 0 2 0 1 0 0 0 1 0 2 0 1 0 0 0 0 0 3 1 3 1 0 1 3 1 0 1 1 2 0 2 0 0 1 1 0 0 0 1 0 1 3 1 0 2 1 1 0 0 0 1 1 2 1 1 0 0 0 0 0 2 1 0 0 0 0 1 0 2 1 1 1 1 0 0 1 0 0 0 0 2 0 1 0 1 0 0 1 1 0 0 0 1 0 0 1 0 1 2 0 0 0 1 0 1 0 1 0 0 1 0 0 1 0 0 3 1 1 1 0 0 0 1 0 1 1 0 1 0 0 1 1 0 1 0 2 0 0 0 1 3 1 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 5 0 0 0 1 0 1 1 1 0 2 0 1 1 0 0 2 0 0 0 1 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 2 0 0 0 2 1 1 1 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 2 1 2 0 0 0 0 0 1 0 0 1 1 0 2 0 0 0 0 1 1 1 0 1 0 0 2 0 1 0 1 3 1 0 0 2 1 0 2 0 0 0 0 0 1 0 0 0 0 0 1 1 0 1 0 0 1 1 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2 1 0 2 0 0 0 0 0 1 0 1 1 0 1 1 0 2 0 3 0 0 1 0 1 1 0 0 0 0 1 1 0 1 0 1 2 1 0 2 2 1 0 1 1 1 1 1 1 1 0 0 0 0 0 2 1 0 2 0 1 1 0 0 2 1 0 0 0 2 1 1 0 1 0 0 0 1 0 1 0 1 0 1 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 2 1 2 0 1 1 1 0 2 1 1 0 1 0 0 1 0 1 0 2 0 0 1 1 0 2 0 0 0 0 1 1 1 1 1 0 0 0 0 1 1 0 1 0 1 1 2 0 0 0 1 1 0 1 1 1 0 0 0 0 0 0 0 1 1 0 1 0 0 1 0 0 1 1 3 0 1 0 0 0 1 0 1 1 2 3 1 0 0 0 0 1 0 0 0 0 0 0 1 1 2 0 0 2 0 0 1 0 1 2 0 0 0 2 0 0 1 0 1 1 0 0 0 1 0 0 0 1 1 0 0 0 1 0 0 1 0 1 0 0 2 0 1 0 1 0 0 1 1 0 0 0 1 0 2 1 0 0 0 0 0 2 0 1 1 0 1 0 1 1 0 0 0 0 1 1 0 1 1 0 1 0 0 0 0 0 1 2 1 1 0 1 0 0 0 0 2 3 0 0 0 1 0 1 0 2 0 0 1 0 0 2 1 2 0 0 1 2 1 1 0 1 0 1 0 0 3 0 1 1 0 0 0 1 0 1 0 1 0 1 1 0 0 0 0 1 0 0 0 0 0 2 0 0 0 0 0 0 0 0 1 0 2 1 1 0 0 0 0 0 1 0 0 1 1 0 2 0 2 0 0 1 0 1 0 0 0 1 1 1 1 0 1 0 0 0 1 0 0 0 1 0 2 0 0 0 0 0 2 0 1 1 2 0 2 1 1 0 0 1 0 0 1 0 1 1 0 0 0 0 0 1 0 0 0 0 1 0 2 0 1 0 0 0 2 1 1 1 0 0 0 1 0 0 1 2 1 2 1 0 1 2 0 0 2 0 0 0 2 1 0 0 2 0 0 0 3 1 0 0 0 1 2 0 1 1 1 0 1 0 1 0 0 0 0 0 1 0 0 1 0 0 1 0 1 2 1 2 0 1 1 1 0 0 0 1 0 1 0 0 1 0 0 2 2 0 0 0 0 0 0 2 1 2 1 0 1 1 1 1 1 0 0 0 0 0 1 0 2 1 1 0 0 0 2 0 1 1 0 0 0 2 0 1 0 0 0 0 0 1 1 1 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 1 1 1 1 0 0 0 1 0 2 1 0 0 0 0 1 3 0 1 0 0 2 0 0 0 0 0 2 0 0 2 0 1 1 1 0 1 0 1 0 2 1 0 0 0 0 0 0 1 0 3 0 1 1 2 2 0 0 0 0 1 0 1 3 0 1 1 0 0 1 0 0 0 0 0 2 0 0 1 0 0 1 0 1 0 1 1 0 1 1 0 2 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 1 2 3 0 0 2 0 0 0 1 0 0 0 0 0 0 2 1 0 1 0 0 0 1 0 2 0 0 1 3 0 0 0 0 0 0 1 0 1 2 1 0 0 0 0 0 0 0 2 1 0 0 0 1 0 0 1 0 1 0 0 1 2 0 0 1 0 0 3 1 0 0 1 1 1 0 0 1 0 1 0 2 0 0 0 2 0 0 0 2 1 0 0 0 0 0 0 0 1 0 0 3 0 0 0 3 1 0 0 1 0 2 0 0 0 0 0 0 1 0 0 0 0 1 0 3 0 2 2 0 1 2 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 1 1 0 0 0 0 0 1 1 0 1 0 1 1 0 2 2 1 2 3 0 0 0 1 1 2 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 3 1 0 2 0 1 1 1 0 2 0 0 0 0 1 0 0 0 0 1 1 0 1 0 1 0 1 0 2 0 0 1 0 1 1 0 2 3 1 0 3 1 1 0 0 1 0 1 1 2 2 0 0 1 1 0 0 0 2 0 0 0 0 1 2 1 2 1 1 0 0 0 0 0 2 0 0 0 1 1 0 0 1 0 1 0 0 1 0 2 0 0 0 2 1 0 0 0 1 0 0 1 2 0 1 2 1 0 2 0 2 0 0 2 1 0 0 1 1 1 0 0 0 0 0 1 0 0 0 1 0 0 3 2 1 1 0 0 1 1 1 1 1 0 1 0 2 0 1 1 0 0 0 1 0 2 0 1 0 0 1 0 0 1 1 1 1 0 0 0 0 0 0 1 1 1 0 0 0 0 1 0 2 0 0 1 1 0 0 0 2 1 1 2 0 0 0 1 1 2 0 1 1 0 0 0 0 1 0 1 0 0 0 0 2 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 3 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 1 1 1 0 0 1 0 0 1 1 1 0 0 1 0 2 0 0 0 0 0 2 1 1 0 2 2 0 0 1 0 0 1 0 1 0 1 0 0 1 0 1 0 2 0 0 0 0 1 0 0 1 0 1 1 1 0 1 0 0 0 0 0 0 2 1 0 0 1 1 0 1 1 0 1 0 1 0 2 2 0 0 1 2 0 1 0 0 0 1 1 1 1 1 0 0 0 1 1 0 0 0 2 1 0 0 2 0 0 0 1 0 0 1 0 1 0 2 2 1 0 0 2 1 0 1 1 1 0 1 1 1 1 2 0 2 0 2 1 0 1 0 0 1 2 0 1 0 1 0 1 2 1 1 0 0 0 1 0 0 1 1 0 0 2 1 0 1 1 1 1 0 0 0 0 0 0 0 0 2 1 0 1 0 1 1 0 3 2 0 0 0 0 1 1 0 1 1 0 0 1 0 1 1 2 1 0 0 2 2 0 1 0 0 1 0 0 4 1 0 2 0 0 1 1 1 0 0 0 2 2 0 0 1 3 0 0 1 0 0 1 2 0 1 1 0 0 0 0 0 0 2 0 2 1 0 0 0 2 1 0 0 0 0 0 0 0 1 0 2 0 1 0 2 0 1 0 0 0 0 0 0 2 0 2 2 0 1 0 0 0 0 3 1 1 0 0 0 1 1 1 3 1 1 1 0 0 1 2 0 0 1 0 2 1 1 1 1 0 0 0 1 0 0 0 0 1 1 0 1 1 0 1 0 0 0 2 1 0 0 1 1 2 1 0 0 2 2 0 0 0 1 1 0 0 0 1 0 1 0 2 0 1 0 2 0 0 0 0 0 1 0 0 1 0 1 1 1 0 2 1 0 0 0 0 1 0 1 1 1 0 0 0 1 0 0 2 1 2 0 1 1 1 0 0 1 1 0 2 2 1 0 1 0 0 0 0 0 1 2 0 0 0 1 0 0 0 0 1 1 0 1 1 0 1 1 1 0 1 0 1 0 3 0 0 0 0 1 0 0 1 0 0 0 0 1 1 1 1 0 2 1 0 0 2 0 1 1 1 1 0 0 0 1 0 1 0 0 1 0 0 2 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 3 0 2 0 0 0 1 1 2 1 1 1 1 1 1 0 2 1 0 0 0 0 0 0 1 0 0 0 1 0 2 0 1 0 0 0 0 1 0 1 0 0 3 1 0 1 1 0 0 1 1 1 1 1 0 0 0 0 0 0 0 0 1 1 1 0 0 2 0 0 0 1 1 0 1 0 0 0 2 0 0 0 1 0 1 0 1 1 1 0 0 0 0 1 1 0 2 0 0 1 0 0 1 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 1 1 1 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 2 0 0 0 1 0 0 1 2 1 0 0 0 0 1 1 1 1 0 2 0 0 1 2 0 0 0 0 0 0 0 1 0 2 1 1 0 1 1 0 0 0 0 0 2 1 2 0 0 1 0 0 2 0 0 0 5 0 0 2 2 1 1 0 1 0 1 0 0 0 0 2 2 1 0 2 0 1 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 2 2 0 0 0 0 0 3 1 0 0 1 1 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 1 0 1 1 0 0 0 0 2 0 0 0 0 0 1 0 0 3 0 1 3 0 1 0 2 1 1 2 2 0 0 0 1 0 1 1 0 0 2 0 2 0 1 0 0 1 0 1 0 1 1 1 2 0 1 0 1 0 0 2 0 1 0 2 0 0 1 0 0 2 0 0 0 0 3 0 0 0 0 1 1 1 1 0 1 0 0 1 0 0 0 1 0 0 0 1 0 0 2 1 0 0 0 0 1 0 0 1 0 2 0 1 2 1 0 0 0 0 0 1 1 1 1 0 1 2 1 1 0 1 1 2 0 0 0 1 0 0 1 0 0 0 1 0 2 0 0 1 2 0 1 1 1 0 1 0 0 0 0 2 1 1 1 1 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 2 1 0 0 2 1 1 1 1 0 2 0 0 0 0 0 0 1 1 2 0 0 2 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 1 1 1 0 0 2 1 0 1 1 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 2 0 0 1 1 1 0 0 0 1 2 2 1 0 0 2 0 0 0 2 0 1 0 0 1 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 1 1 0 0 1 0 0 0 0 0 2 1 1 0 2 0 0 1 1 1 0 0 1 1 1 0 2 1 1 1 0 1 0 0 1 1 2 0 0 0 1 0 2 0 0 2 1 0 1 2 0 0 2 1 0 1 2 1 1 1 0 1 0 1 0 0 1 0 1 1 0 0 1 1 0 0 0 0 0 1 1 0 1 0 0 2 0 0 1 1 0 2 0 1 0 2 0 1 0 1 0 1 1 1 0 0 1 0 1 0 0 0 1 0 2 0 0 1 1 1 0 0 1 0 0 0 1 1 0 0 0 0 0 0 1 0 0 2 1 0 0 0 1 1 0 0 2 0 0 0 0 1 1 1 0 1 0 1 1 0 0 1 5 0 0 0 0 1 0 0 0 1 1 1 0 0 0 1 1 0 0 0 1 2 1 0 0 1 2 0 0 0 1 0 1 0 1 1 0 0 1 0 0 0 0 0 1 0 2 2 0 2 0 0 0 1 0 1 2 1 1 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 2 0 0 2 0 2 0 0 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 1 1 0 0 2 0 3 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 2 0 0 0 1 0 1 0 1 1 0 0 0 0 1 0 1 0 1 0 1 0 1 2 0 1 1 0 1 1 2 0 0 0 1 0 0 2 0 1 0 0 2 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 1 0 1 2 1 1 0 1 1 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 0 0 0 3 1 0 0 0 0 1 0 0 1 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 1 1 2 0 0 0 0 1 1 3 1 0 1 0 1 0 1 0 2 1 1 0 0 0 2 1 0 0 1 0 1 0 0 2 3 0 1 0 2 0 1 0 0 1 0 1 0 2 0 1 1 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 1 0 3 0 0 0 0 1 1 1 0 0 1 0 2 0 0 0 1 0 0 0 1 3 1 0 1 1 0 1 0 1 0 1 0 0 1 1 2 0 1 0 1 0 0 0 0 1 0 0 1 0 1 2 2 0 0 0 0 1 2 4 1 0 1 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 1 0 1 2 1 1 0 1 1 1 0 0 1 0 0 2 0 1 0 0 1 0 1 1 1 0 3 1 2 2 0 0 2 1 0 0 0 0 0 0 0 0 1 4 1 1 1 2 1 0 0 0 1 0 0 0 1 0 2 1 1 0 1 3 0 0 0 0 0 0 1 1 2 0 1 1 0 1 0 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 2 0 1 1 1 2 1 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 2 1 1 1 0 0 2 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 1 1 0 0 0 1 0 0 0 0 0 2 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 2 1 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 1 1 1 2 2 1 2 1 0 1 0 1 0 0 1 1 0 0 0 0 0 1 2 0 0 5 1 1 0 1 1 0 0 2 1 0 0 0 1 1 0 1 0 0 1 1 0 0 1 0 0 0 0 1 2 1 1 2 0 0 0 1 0 0 0 1 0 2 2 1 0 0 1 1 1 0 0 2 1 3 1 0 0 0 0 0 1 0 0 1 0 0 0 1 0 1 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 2 0 2 1 0 0 1 1 1 2 0 0 0 1 0 1 1 2 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 3 0 1 1 0 0 0 1 0 0 1 0 0 0 0 1 0 2 0 0 0 0 1 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 2 1 0 1 0 0 0 2 1 3 0 0 0 0 0 1 2 1 0 0 1 0 0 0 2 0 0 1 1 1 0 0 1 0 0 0 1 1 0 3 2 2 1 0 0 0 0 1 0 0 1 0 0 0 0 1 2 1 1 0 1 0 1 0 0 0 2 1 0 0 0 1 0 0 1 1 1 1 0 0 0 0 1 0 0 0 1 0 1 1 2 0 1 0 0 1 1 1 1 0 1 0 0 0 0 1 0 2 1 1 0 3 0 0 1 1 2 0 0 1 0 0 0 1 1 2 1 1 2 2 1 0 1 0 0 0 0 2 1 0 0 1 0 0 0 0 0 0 2 0 0 0 1 0 0 1 0 1 1 0 0 0 0 0 0 3 0 0 2 1 0 0 0 0 0 0 0 0 2 1 3 1 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 2 0 0 0 1 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 1 1 0 0 1 0 1 0 1 1 0 0 0 0 0 0 2 0 1 0 1 0 0 0 0 0 1 1 1 0 0 1 1 1 0 2 0 0 1 2 1 2 1 0 0 0 1 0 0 1 1 0 1 2 0 2 0 0 1 1 1 3 1 1 0 0 0 1 0 1 0 1 1 0 1 0 1 3 0 0 2 2 1 0 1 0 1 0 0 0 0 1 2 0 0 0 1 0 1 0 1 0 0 0 0 2 1 1 1 1 3 1 0 0 1 1 0 0 1 0 1 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 1 0 2 0 0 0 0 0 0 1 0 2 0 1 0 0 0 1 1 2 1 2 1 0 0 0 1 1 1 0 0 0 0 0 1 0 1 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 1 0 2 0 1 1 1 0 1 2 0 0 0 1 1 0 0 1 0 0 0 1 0 0 0 1 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 2 1 0 2 2 0 0 1 0 2 1 1 1 1 0 1 1 3 0 0 0 2 0 1 2 0 1 0 1 0 0 3 0 1 0 1 1 1 3 0 1 1 0 1 1 0 2 0 0 0 0 0 2 2 1 0 0 2 1 0 2 0 0 1 1 0 0 1 0 1 0 1 0 1 0 0 0 3 0 0 0 2 0 0 0 1 1 1 0 0 1 1 2 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 1 1 0 1 0 0 0 1 1 1 0 0 0 1 0 1 2 0 1 0 0 2 1 0 0 1 1 0 0 1 0 1 0 2 1 0 2 0 0 0 0 1 2 1 0 0 0 0 0 2 5 1 1 1 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 1 1 0 0 2 0 1 0 1 0 0 0 1 1 0 0 1 0 0 0 1 0 0 1 0 1 1 0 2 1 0 1 0 0 1 1 2 2 1 1 0 0 0 0 0 0 1 1 0 1 0 0 0 1 1 1 0 0 0 1 1 1 1 0 0 0 0 0 0 0 0 0 1 0 2 1 0 0 4 2 0 0 0 0 1 0 0 1 1 0 0 1 0 1 0 0 1 0 0 0 1 1 0 1 1 0 1 0 3 0 0 3 0 1 1 2 0 0 0 0 0 1 1 0 0 0 1 0 0 2 1 0 1 0 0 1 0 0 0 0 0 0 1 0 0 1 0 1 0 1 1 0 1 0 2 0 0 0 0 0 0 0 0 0 0 0 1 2 1 0 1 0 0 1 0 0 1 1 0 1 0 0 0 0 0 0 1 1 0 0 2 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 1 1 0 1 2 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 2 0 1 0 0 0 0 1 0 0 0 1 1 0 1 0 1 2 0 2 0 1 0 0 0 0 0 1 0 0 1 3 0 0 0 0 0 0 1 0 2 1 0 1 0 1 1 0 1 0 0 1 2 0 1 0 0 0 0 1 2 1 1 2 0 0 0 0 1 0 1 1 0 0 0 1 0 0 0 0 1 0 0 1 1 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 1 0 2 0 0 0 1 0 0 0 1 2 2 0 1 0 0 2 0 0 0 1 0 1 0 1 2 0 1 0 2 1 0 1 1 0 1 0 0 0 2 1 0 1 2 0 0 0 1 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 1 0 1 0 0 1 1 2 1 1 0 1 0 0 0 1 1 0 0 0 0 0 0 1 0 1 0 1 3 0 1 0 2 0 1 0 1 0 0 0 0 1 0 1 0 0 0 2 0 1 1 1 0 2 0 1 0 1 0 0 2 1 0 0 2 0 1 1 1 1 1 0 1 2 3 0 1 2 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 2 1 1 0 0 0 1 0 0 0 1 0 0 0 1 0 1 0 1 0 1 0 0 0 1 0 0 1 0 1 0 0 0 0 1 0 0 1 0 1 0 1 1 1 2 0 1 0 0 0 0 1 1 1 0 0 1 0 0 1 0 1 1 1 1 1 0 1 1 0 1 1 0 2 1 0 0 0 0 0 0 0 0 1 1 0 3 0 0 1 0 1 0 1 0 2 2 1 0 0 1 0 0 0 0 0 1 1 0 1 1 0 1 0 0 0 0 0 2 0 0 0 1 1 1 0 0 0 1 0 0 2 0 2 0 0 0 0 0 1 0 0 1 2 2 2 2 0 0 1 0 0 0 2 0 0 1 1 1 0 2 1 0 0 0 0 1 1 1 0 1 0 0 2 1 2 0 0 0 0 2 1 0 1 0 0 0 1 1 0 1 1 0 0 1 0 0 1 1 1 0 1 1 0 0 0 0 1 0 0 0 0 0 0 2 1 2 0 0 0 0 1 1 1 0 1 0 0 2 1 0 1 0 0 1 0 0 0 0 0 0 1 1 0 0 1 1 0 0 0 0 0 2 0 0 0 0 1 1 1 1 1 0 2 0 2 1 0 2 0 0 1 0 0 1 1 2 0 0 1 0 0 1 1 2 0 0 0 0 0 3 1 0 2 0 0 1 0 1 0 0 1 0 1 0 0 0 1 1 0 1 1 0 0 2 0 0 1 0 0 0 0 1 2 0 1 0 0 0 0 2 0 2 0 0 0 1 0 1 1 0 1 1 0 1 2 0 4 0 0 0 0 3 0 0 0 1 0 0 1 2 2 0 1 0 0 0 0 2 0 0 2 1 0 0 0 2 0 0 0 1 1 1 1 3 0 0 2 0 0 0 0 0 1 1 1 0 1 0 0 0 0 1 1 1 2 0 0 2 0 1 1 1 0 1 0 0 3 0 0 0 0 1 2 1 0 0 1 1 1 0 3 1 1 0 0 2 0 1 0 0 0 0 1 0 0 1 1 2 0 1 0 0 0 0 0 0 0 1 1 1 1 2 0 1 2 1 3 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 1 0 0 2 0 2 0 0 0 0 1 0 1 2 0 1 1 0 2 0 0 0 1 0 0 0 0 0 0 0 4 0 0 1 3 1 0 0 1 0 0 0 0 1 0 0 0 0 1 0 1 2 0 0 0 0 0 0 1 1 1 1 1 1 1 0 0 0 0 0 0 0 1 0 1 3 0 0 1 0 2 0 0 0 1 0 1 2 1 0 0 2 0 0 0 0 0 0 0 0 2 0 0 0 0 3 0 0 1 1 1 1 3 1 0 0 0 0 1 1 0 0 0 2 1 1 0 0 1 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 1 1 1 0 1 0 2 1 0 0 0 1 0 2 0 1 0 0 2 0 1 0 1 3 1 0 1 3 0 1 0 0 0 1 1 1 1 2 2 2 1 1 2 0 1 0 0 0 1 1 0 1 0 2 0 0 0 2 0 1 1 1 0 1 0 0 1 0 0 0 0 0 0 2 0 0 0 1 0 0 0 0 1 1 0 0 0 0 1 0 0 1 0 0 0 2 0 1 0 1 0 1 2 0 0 1 1 1 1 0 1 0 1 0 2 0 1 1 1 1 1 1 1 0 1 1 0 0 3 0 1 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 1 2 1 0 1 0 1 0 0 0 1 0 1 1 0 2 0 1 0 1 0 0 0 0 1 1 0 1 1 0 1 0 1 0 0 1 1 1 0 1 1 1 0 3 0 1 0 1 1 0 0 1 2 0 1 1 2 0 0 1 1 0 0 0 0 1 1 0 0 1 1 1 1 0 0 1 0 0 0 1 1 0 2 0 1 0 1 0 1 0 0 1 0 1 1 1 1 0 0 1 0 0 1 0 0 1 1 3 0 2 0 0 0 1 0 0 0 1 1 0 1 0 1 0 0 0 1 0 0 0 0 0 0 1 1 0 1 2 1 1 0 3 0 0 0 0 0 0 1 0 1 1 0 2 1 2 1 1 0 1 2 0 0 1 0 0 1 1 0 1 1 0 2 0 0 2 0 0 0 0 1 0 1 1 0 1 0 0 0 1 0 3 0 0 0 1 2 0 0 0 2 0 0 0 0 1 1 0 1 0 0 0 1 1 0 0 4 0 0 0 1 0 2 0 1 0 0 1 1 1 0 0 2 1 1 1 0 0 0 0 1 0 2 0 0 1 0 2 1 0 0 2 0 2 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 0 1 1 1 0 1 2 1 1 0 0 1 0 0 1 0 0 0 1 1 0 1 1 0 0 0 2 1 0 3 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 2 0 0 0 1 0 0 1 0 0 1 0 0 0 1 0 1 0 1 0 1 0 3 1 1 0 0 1 0 0 0 1 0 1 0 0 1 0 2 0 0 1 0 0 1 1 1 0 0 1 1 0 2 0 0 0 0 0 0 0 0 1 0 0 2 0 0 1 1 0 1 0 0 0 1 0 0 2 0 0 1 3 3 0 0 1 0 0 0 2 0 0 0 0 0 1 0 3 1 0 0 0 1 2 0 0 2 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 1 1 0 1 1 0 0 0 0 2 0 0 1 0 1 0 2 0 0 1 0 1 0 0 1 0 0 0 2 3 0 0 0 0 1 2 0 0 1 2 1 0 0 0 1 0 0 2 1 1 0 0 0 0 1 0 0 0 0 0 1 1 2 0 2 0 0 0 0 0 1 1 1 1 1 1 2 1 0 0 0 1 0 1 0 1 1 1 0 2 0 2 0 1 1 1 0 0 0 0 1 1 0 0 0 0 0 0 0 3 1 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 1 1 1 0 0 0 2 0 2 1 0 0 1 0 0 1 2 0 1 2 0 1 0 0 1 1 1 0 0 0 1 1 0 1 0 2 0 2 0 2 1 0 0 2 1 0 1 2 2 0 0 1 2 0 0 2 1 2 1 0 0 0 1 2 0 0 0 0 1 1 0 2 0 0 1 0 3 0 0 1 1 0 0 0 0 0 1 3 1 1 1 0 0 0 0 1 2 0 1 0 0 1 1 0 1 0 1 1 0 1 0 1 0 1 0 0 0 0 0 0 1 1 0 0 0 0 1 1 2 1 0 0 2 0 0 1 1 0 0 2 1 1 0 1 0 1 0 0 1 2 1 1 0 0 0 0 0 0 0 1 0 0 0 3 0 0 1 2 1 0 2 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 2 0 0 3 0 0 1 0 0 1 0 0 1 0 1 0 1 2 0 0 0 0 1 0 2 1 2 1 0 0 0 0 0 0 1 1 1 2 0 0 1 0 0 0 1 0 0 1 2 1 1 0 0 0 0 3 0 1 1 0 0 2 2 0 0 1 0 1 0 0 0 1 1 1 0 0 0 0 0 2 1 1 1 1 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 2 1 0 2 0 0 0 0 0 0 0 1 0 0 1 1 1 0 1 1 0 0 1 0 2 0 0 1 1 1 2 2 0 0 2 1 2 1 0 2 1 0 0 2 0 1 1 2 0 1 0 0 0 0 2 2 1 0 1 0 2 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 1 0 0 0 0 1 1 0 3 1 0 1 0 0 2 2 2 0 1 1 1 0 1 1 0 0 0 2 0 0 0 0 2 1 0 1 1 0 0 0 1 1 0 1 0 1 0 1 1 0 0 0 1 0 0 0 0 0 0 0 2 1 0 0 1 0 1 2 1 0 0 0 0 0 0 1 1 0 0 1 1 2 0 0 0 1 0 0 2 0 1 0 0 0 2 0 1 1 0 0 2 1 1 1 0 1 1 1 0 0 0 1 0 0 1 1 1 0 3 0 1 1 1 1 1 1 0 0 1 2 0 0 1 0 1 0 0 1 0 1 0 0 1 0 0 0 3 1 0 0 0 0 0 1 1 0 0 0 0 0 1 2 2 2 0 0 0 0 0 3 0 0 1 1 3 2 1 1 0 1 0 2 0 0 0 1 1 0 1 1 1 1 0 0 0 0 0 0 0 0 3 0 2 0 0 0 1 1 0 0 0 2 2 1 2 2 0 0 2 1 0 0 1 0 1 1 0 0 2 1 2 0 0 1 2 0 0 0 0 0 0 0 1 0 1 3 2 0 0 0 1 1 2 0 0 1 0 1 1 2 1 0 0 1 1 0 0 1 0 1 0 0 0 0 2 0 0 2 1 1 0 0 2 2 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 1 0 1 0 0 2 1 0 0 0 1 0 1 0 1 0 0 0 0 1 0 1 0 0 0 1 0 0 1 0 3 0 2 0 1 0 1 1 0 0 0 2 0 0 0 1 0 2 0 1 0 0 0 2 1 0 0 0 0 0 0 0 2 0 0 2 0 0 0 1 0 0 0 1 0 0 1 0 0 0 1 1 1 1 0 0 0 1 1 1 1 0 0 1 0 0 1 1 1 0 0 1 1 0 1 0 0 0 0 0 0 0 1 3 0 0 1 0 1 0 0 0 1 0 1 1 0 0 0 1 0 0 0 0 2 0 0 0 1 0 0 0 0 0 1 1 0 0 1 0 0 2 1 1 0 1 0 1 1 0 0 0 0 1 3 1 1 1 0 0 1 1 0 1 0 2 0 0 0 1 0 2 0 0 1 0 1 1 0 0 1 0 0 2 1 0 0 4 1 0 0 0 0 1 0 1 1 1 0 1 0 0 0 0 0 1 1 1 1 1 0 1 0 0 0 1 0 0 1 0 1 0 2 0 0 0 2 1 0 1 2 0 0 0 1 0 0 0 0 2 0 0 1 1 0 0 1 1 2 1 0 1 1 2 1 1 1 1 2 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 1 1 0 0 2 0 0 1 0 0 1 2 1 1 0 0 1 0 0 1 1 0 1 0 1 0 2 1 0 0 0 0 1 0 0 1 0 1 0 0 1 1 0 1 0 0 2 1 2 0 0 1 1 2 0 1 0 0 0 1 0 1 0 1 1 0 1 0 0 1 1 0 1 1 1 0 0 0 0 0 2 0 1 1 0 1 1 0 1 0 2 2 1 1 0 0 0 0 1 1 0 0 1 0 1 0 2 1 0 2 0 0 0 1 0 0 0 0 0 2 0 2 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 2 0 0 0 2 0 2 2 0 0 0 0 0 1 2 1 0 0 1 0 0 0 0 0 0 2 0 0 0 0 0 1 2 1 0 1 0 0 3 0 2 0 0 0 1 0 0 1 0 1 0 1 0 0 1 0 2 1 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 1 0 0 1 0 0 1 1 0 0 0 0 0 0 1 1 1 0 0 2 1 1 0 0 0 0 0 1 1 1 4 1 1 0 1 1 0 0 0 0 1 1 0 0 1 0 1 1 0 1 0 1 0 0 1 0 0 2 0 0 0 1 0 1 2 0 0 0 2 1 0 0 0 0 1 0 0 3 0 1 0 0 0 1 1 1 1 0 1 0 1 0 0 0 0 1 1 0 0 1 0 1 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 3 0 0 1 0 0 0 0 0 0 0 0 1 0 1 1 2 1 0 0 1 1 0 1 1 1 0 2 0 1 0 0 1 0 1 2 0 0 1 1 2 0 1 0 0 1 1 1 0 0 1 0 0 1 1 0 0 0 2 0 2 0 0 0 1 0 2 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 1 1 0 0 2 1 0 3 0 1 0 0 1 1 0 1 1 0 0 0 0 0 0 0 0 1 2 1 2 0 0 1 1 1 1 0 1 2 0 2 2 0 0 0 1 0 1 1 1 0 1 0 0 1 0 0 0 2 1 1 0 0 0 0 0 0 1 0 1 1 0 1 0 1 1 0 0 1 0 0 1 1 0 3 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 1 1 1 0 0 1 0 0 0 0 1 0 3 1 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0 1 0 0 2 1 2 2 0 0 0 1 0 3 0 0 2 0 1 1 0 1 0 3 0 0 0 1 0 0 1 0 1 0 0 0 0 0 1 2 0 0 1 0 1 1 0 0 0 0 1 0 1 2 2 0 0 0 0 1 1 0 2 0 0 1 1 2 1 1 1 0 1 0 0 0 2 0 0 1 2 0 0 1 0 1 1 0 0 0 0 0 0 2 0 0 0 0 0 2 0 0 0 1 0 0 0 1 1 3 0 2 0 1 0 0 0 2 0 0 0 0 0 1 0 0 0 0 0 1 1 1 0 0 2 0 1 0 0 2 0 0 0 0 0 1 0 0 1 1 0 1 0 0 1 1 0 0 1 0 0 1 1 1 1 0 0 1 0 0 1 0 0 0 1 2 1 1 1 2 2 2 1 0 0 2 0 0 0 0 0 0 1 0 0 1 1 0 1 0 0 1 1 0 1 2 2 0 0 0 0 0 0 1 0 0 0 1 1 0 0 1 0 2 0 0 0 1 1 0 2 1 2 1 0 0 0 0 2 1 2 2 0 1 0 1 3 0 0 0 1 0 1 0 2 0 1 1 0 2 1 0 0 1 2 0 1 0 0 0 0 1 0 1 1 0 0 1 0 0 0 2 0 0 1 0 0 0 0 0 1 2 0 0 0 2 1 0 0 0 0 2 1 0 1 0 1 1 0 0 0 0 1 0 0 0 2 2 2 0 0 0 2 0 1 1 0 1 0 0 2 0 1 0 0 1 0 2 1 0 0 1 0 0 0 1 0 0 1 2 0 1 0 0 0 0 2 0 4 0 0 0 0 0 0 1 1 0 1 0 0 1 0 0 0 2 1 0 0 0 1 2 1 1 1 2 0 0 0 0 1 0 0 1 1 1 0 1 1 0 2 0 1 0 1 0 0 2 0 0 0 1 1 1 0 2 0 1 0 0 0 2 0 1 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 2 1 0 0 1 0 0 1 0 0 0 1 0 2 1 0 1 0 0 1 1 0 0 1 2 1 0 0 1 0 0 0 0 1 0 1 3 0 1 0 1 0 0</t>
-  </si>
-  <si>
-    <t>JSB(2.958163598600177, 3.358458429174469, -89.12143960931375, 684.3914141309699)</t>
-  </si>
-  <si>
-    <t>131 104 144 92 193 127 152 150 121 50 89 175 94 134 91 139 105 118 113 75 90 92 105 110 74 172 102 75 142 47 50 72 106 105 106 146 151 102 24 101 52 114 57 89 89 101 71 130 79 116 130 136 37 154 145 75 112 140 65 72 86 167 122 66 38 101 125 167 112 138 43 121 38 79 146 140 159 118 220 119 178 108 110 81 177 129 153 81 136 145 119 90 161 115 151 114 166 91 181 114 88 117 112 84 122 80 126 144 171 42 137 96 123 137 64 83 96 83 146 88 130 57 57 124 92 100 151 168 97 135 91 146 103 10 187 79 77 73 84 134 105 183 99 107 181 75 91 85 52 252 129 97 122 73 76 127 83 80 192 160 94 67 98 245 137 116 145 138 113 103 159 114 98 38 75 115 157 131 123 182 190 71 68 50 159 99 67 16 136 75 118 115 140 91 122 91 108 147 63 106 42 106 164 176 98 94 82 74 143 89 122 76 81 133 160 122 65 219 181 75 99 98 47 40 134 120 94 109 53 144 154 108 128 123 118 89 123 81 124 124 60 63 105 206 114 117 90 96 73 118 67 51 90 89 148 75 82 167 104 87 100 94 110 47 96 113 135 143 69 114 141 79 121 153 122 84 115 109 60 142 85 63 82 109 97 110 99 139 100 94 188 134 159 142 63 147 114 76 110 146 164 76 52 104 39 56 59 112 111 144 133 58 133 62 116 132 98 134 116 158 115 97 171 169 108 72 42 120 115 168 121 135 114 133 177 93 102 73 44 210 105 191 70 111 82 99 111 62 53 184 201 153 108 97 131 87 169 217 86 143 224 147 191 120 129 146 125 178 80 54 118 151 107 182 63 50 78 110 144 137 116 110 223 126 65 33 57 170 104 113 103 115 73 186 217 148 124 86 100 102 134 80 77 180 116 136 100 89 126 44 145 102 90 65 151 93 33 91 56 117 139 110 194 66 123 51 116 52 134 129 76 15 188 93 122 172 107 174 165 181 149 140 73 98 223 101 92 145 137 144 110 134 95 69 159 126 93 120 162 86 106 127 108 66 98 172 117 142 97 88 152 104 117 153 93 145 87 166 78 127 130 106 117 124 115 61 165 138 207 86 86 129 101 82 91 107 138 79 110 140 89 145 134 84 70 52 59 131 209 87 121 115 95 73 40 86 138 122 104 117 107 89 114 30 121 52 167 87 149 130 116 135 141 102 177 114 101 157 69 133 137 123 47 178 102 99 69 74 45 95 114 83 83 114 90 120 129 114 112 125 174 82 82 107 145 107 99 114 128 34 110 175 48 62 103 69 116 105 138 71 231 97 154 178 117 128 187 73 76 82 112 157 182 185 103 116 212 259 203 80 73 85 190 86 101 170 94 134 67 98 128 85 165 107 86 120 99 72 163 131 135 175 81 131 93 48 128 65 126 167 65 88 123 88 62 152 69 138 149 109 168 72 43 117 92 185 122 96 52 185 118 151 88 30 112 99 118 182 79 22 117 72 134 76 59 158 104 180 138 196 123 85 101 150 93 94 223 110 146 96 139 76 38 171 150 78 188 106 69 133 35 227 155 129 162 128 119 87 157 59 68 128 22 162 135 145 83 137 150 86 95 216 82 137 56 54 101 125 77 124 139 86 144 128 122 91 139 46 37 74 111 164 135 142 129 130 81 86 51 154 189 39 72 44 78 73 92 159 46 107 119 142 178 88 136 118 166 105 226 70 74 136 102 61 125 109 90 157 100 184 136 142 79 163 114 100 80 96 135 146 119 158 115 146 130 75 111 133 76 202 120 103 99 158 72 46 136 232 138 199 147 212 68 72 105 129 128 190 32 56 38 155 155 60 140 163 179 100 135 68 137 57 145 118 92 45 138 57 93 84 178 148 217 53 74 127 112 173 146 71 140 109 67 109 210 141 139 80 119 108 146 89 199 149 114 142 122 116 178 120 154 74 134 108 116 21 82 67 136 173 107 125 106 115 103 126 203 241 59 144 33 95 175 153 186 123 91 136 139 232 166 91 76 164 98 39 32 62 44 179 186 115 127 135 99 100 81 74 94 183 107 145 113 161 180 129 95 103 138 117 105 70 49 123 97 108 80 109 142 89 168 81 178 207 159 94 173 92 98 98 147 112 79 68 95 144 143 125 150 172 71 67 164 78 84 129 94 122 100 190 67 171 55 79 39 154 122 79 164 83 126 125 35 118 35 50 170 122 74 83 113 126 153 36 149 104 99 84 92 121 48 97 160 98 153 92 39 114 123 127 30 72 138 91 77 88 202 148 96 119 79 126 221 125 148 185 39 133 183 86 222 62 161 94 117 41 117 48 22 106 70 101 109 171 103 109 151 99 155 102 62 198 116 155 123 86 123 131 136 53 63 90 159 111 66 139 79 171 81 166 86 56 178 223 118 119 130 89 66 94 29 78 97 91 76 111 165 120 110 113 51 125 149 80 83 80 59 99 142 114 100 106 149 132 129 141 188 139 185 153 117 183 50 111 123 183 144 71 71 115 82 128 157 120 124 107 180 90 109 171 118 95 39 82 67 36 185 174 72 146 112 90 191 123 94 87 146 140 143 69 98 119 160 70 122 106 114 126 182 179 191 139 38 70 115 81 54 139 138 114 18 66 92 188 75 136 105 176 167 214 137 140 107 102 141 127 89 82 94 138 114 104 121 120 120 137 88 124 92 176 56 116 136 23 128 93 106 168 95 121 156 99 116 198 65 128 118 208 88 186 117 74 147 105 90 72 149 104 71 90 213 182 109 118 111 51 125 141 123 28 188 120 63 131 101 170 124 170 87 145 132 126 228 74 116 85 112 86 78 100 98 133 84 86 119 57 88 110 95 138 66 43 102 67 187 121 101 180 153 126 83 81 65 131 104 146 172 121 108 112 75 129 158 138 143 92 71 56 40 138 61 142 141 157 165 165 94 200 146 163 88 109 72 61 116 113 82 131 90 105 95 52 57 117 205 128 110 112 83 126 252 110 145 146 116 117 70 124 129 103 136 67 65 95 235 199 109 87 61 148 83 121 130 74 138 88 193 48 90 90 194 173 125 191 52 118 66 110 132 138 70 132 125 91 118 12 143 80 106 119 136 117 103 115 186 135 151 65 151 127 54 106 141 153 117 165 120 123 119 60 169 84 44 95 29 86 137 187 50 139 85 125 148 115 95 123 172 70 189 15 216 61 67 139 92 136 121 60 105 151 102 98 192 61 209 106 42 88 152 106 99 81 157 95 147 69 61 106 168 127 130 119 108 104 71 209 153 123 186 123 106 157 219 137 38 162 52 203 126 171 58 97 66 84 206 214 121 111 107 178 205 124 62 175 114 113 191 38 182 164 139 37 43 137 152 125 74 180 172 159 30 112 99 85 106 108 85 83 112 69 105 107 140 103 95 114 100 200 107 78 93 92 80 93 112 145 125 93 102 107 86 131 134 109 119 147 124 116 99 28 105 84 98 71 86 133 55 86 81 170 170 124 100 218 112 151 94 31 170 59 79 109 63 179 87 152 70 117 128 143 198 96 115 61 132 145 126 96 76 109 126 90 136 121 74 136 103 141 96 60 93 147 115 145 142 77 119 68 143 18 204 132 63 212 94 139 108 92 167 51 60 178 147 169 153 94 157 128 171 198 77 129 174 102 81 172 95 121 114 163 99 133 118 155 87 115 100 178 89 67 129 150 105 76 84 85 124 120 40 161 151 103 80 153 57 122 113 126 90 174 120 79 121 141 108 191 26 90 97 98 98 139 48 135 132 122 124 58 174 128 102 75 109 141 82 111 151 115 172 124 68 121 94 30 46 149 98 117 70 185 136 89 164 148 155 85 104 82 135 91 98 84 114 74 85 90 140 94 151 75 71 96 74 53 112 196 105 76 116 67 170 158 172 52 141 134 151 61 77 112 109 125 201 127 143 198 153 56 124 166 96 224 211 135 106 133 77 104 166 136 134 127 141 180 187 135 79 93 58 74 160 136 152 119 149 139 120 63 85 105 107 150 82 109 138 183 53 110 81 133 133 114 33 78 168 127 179 148 56 135 165 161 191 115 118 102 125 113 56 125 56 103 161 162 99 78 140 196 159 42 219 167 95 76 133 57 79 102 67 142 114 153 83 123 135 156 61 70 120 89 81 155 108 132 69 182 52 107 138 129 151 106 108 21 113 109 128 29 219 106 115 49 75 126 61 66 175 182 135 56 97 146 67 33 138 94 184 168 57 68 27 159 133 105 178 105 100 97 80 106 78 94 73 130 141 114 128 192 156 149 156 119 108 93 143 181 106 88 95 257 72 168 157 139 144 48 82 102 99 92 112 146 160 99 63 75 123 177 106 117 119 200 86 160 80 157 98 195 73 96 140 113 116 149 162 131 80 96 132 89 158 51 161 178 96 147 104 107 62 74 159 53 63 153 68 88 118 153 119 213 167 51 140 126 166 136 72 97 156 79 164 100 156 123 50 77 146 53 133 117 114 109 42 57 166 75 162 76 54 142 99 157 60 23 182 141 116 40 101 83 104 45 148 114 103 110 90 68 84 101 152 223 124 129 101 105 111 135 164 59 109 154 166 161 98 108 147 227 74 84 93 122 119 178 100 92 44 46 68 89 75 96 68 98 86 56 105 83 62 145 81 164 92 43 152 118 129 134 101 131 111 233 122 83 132 129 61 156 111 146 113 121 146 60 41 104 120 143 45 144 129 102 53 136 51 65 146 113 130 2 166 60 97 125 200 53 142 67 111 158 64 101 107 119 49 56 88 144 32 117 118 163 59 118 101 27 149 59 89 105 137 118 196 39 78 43 125 75 145 143 25 179 83 67 61 117 78 92 81 145 140 98 163 177 105 175 121 154 141 124 90 102 79 194 77 149 117 64 107 139 137 139 114 36 102 185 100 86 102 177 87 98 97 103 142 164 145 88 166 86 132 128 73 121 54 175 142 132 171 166 173 131 127 127 103 108 89 80 193 153 64 178 166 52 66 147 108 155 166 82 109 138 146 160 126 76 121 111 143 56 69 157 86 89 82 93 169 155 174 149 145 87 103 105 83 140 99 98 136 106 63 103 85 144 95 157 70 57 62 125 123 116 138 127 93 149 86 134 138 61 87 94 90 105 88 47 183 164 114 101 65 98 52 111 127 121 143 188 63 204 175 54 133 184 107 99 155 69 25 89 29 114 105 85 162 114 136 64 57 119 147 150 146 130 76 97 63 128 100 133 109 114 138 183 121 117 73 172 126 128 106 56 89 168 122 48 152 94 142 210 71 156 126 100 158 155 121 151 131 92 63 97 108 71 64 158 115 157 119 110 129 118 104 99 130 112 68 90 172 91 148 128 174 138 215 71 67 70 83 128 154 160 111 152 118 139 116 138 123 139 69 99 47 27 46 95 109 90 110 163 131 132 120 123 153 183 91 119 155 142 102 130 81 74 102 109 145 60 31 201 26 79 86 191 93 197 93 93 174 141 160 133 46 59 164 102 14 107 144 131 119 102 70 32 89 155 161 111 137 156 172 145 75 31 118 145 101 181 113 56 124 79 144 140 85 68 100 102 100 121 90 157 99 80 90 74 71 52 68 68 108 167 152 97 93 119 132 53 45 130 98 85 125 113 97 180 166 135 117 83 101 103 110 100 240 128 94 178 69 121 56 190 73 86 63 142 112 102 56 182 62 126 59 155 94 145 83 144 81 104 95 83 97 74 161 126 159 113 95 136 53 78 102 119 51 157 125 186 87 145 233 141 255 217 171 100 172 171 138 74 69 116 170 52 166 33 153 31 84 69 253 70 119 76 83 46 171 117 123 127 79 56 202 77 156 238 70 83 92 67 96 161 89 62 103 118 140 142 93 165 147 135 71 78 179 99 53 115 233 47 95 69 58 57 58 111 172 113 169 68 70 116 58 134 125 201 98 106 99 153 112 94 130 113 67 170 85 49 147 73 155 106 91 108 91 93 141 143 93 154 61 128 102 137 80 143 140 81 105 84 111 221 189 144 31 142 139 156 112 94 51 116 77 143 179 168 60 233 96 114 152 164 91 122 87 132 117 136 136 61 131 96 97 187 207 186 94 176 135 94 112 222 94 161 138 105 123 165 89 191 101 94 107 153 108 39 54 125 190 167 151 144 101 77 52 75 82 145 57 72 114 86 165 65 140 142 124 103 115 59 150 163 45 118 160 126 103 123 90 87 133 204 199 49 108 107 106 75 100 84 183 106 157 77 68 179 65 202 174 100 138 47 125 223 134 19 90 114 126 149 74 92 71 120 44 119 78 91 206 113 69 112 124 146 70 162 124 114 98 98 136 39 85 70 122 154 152 108 163 110 144 100 162 163 120 121 69 122 57 158 183 126 89 101 48 58 90 119 114 70 92 88 85 150 125 115 119 88 90 161 66 54 173 120 194 100 125 144 106 85 76 208 88 132 100 127 129 152 181 137 67 159 131 179 97 97 198 137 76 119 95 50 124 104 69 78 123 101 189 109 61 209 154 98 94 111 163 96 117 105 70 127 159 79 96 101 86 88 101 128 143 71 188 162 114 107 263 112 76 175 78 146 57 145 70 117 166 144 112 145 71 117 113 73 96 109 117 86 145 126 124 105 82 96 154 159 88 88 109 115 166 142 133 138 148 42 101 55 127 113 110 101 81 86 227 98 84 107 151 166 181 141 204 176 85 151 140 122 191 129 88 97 108 112 88 66 85 71 104 73 88 83 100 169 185 120 123 53 137 202 76 122 55 186 93 67 124 130 135 59 156 121 99 118 190 160 143 69 48 154 128 136 36 64 125 70 58 108 95 191 90 48 139 57 111 122 118 114 192 208 165 123 55 73 83 70 111 97 31 77 232 150 62 153 139 113 90 64 59 120 203 72 123 135 40 148 152 66 95 96 125 111 154 97 116 89 135 130 177 174 124 63 123 66 129 135 134 59 98 145 150 92 86 43 128 106 91 106 88 102 86 122 135 171 163 73 175 94 75 190 122 114 145 129 124 155 163 85 126 83 81 124 100 153 131 165 83 99 64 43 122 52 25 126 147 145 190 84 161 85 154 80 132 119 107 158 128 159 136 87 115 115 158 105 72 88 118 115 253 130 121 105 67 68 125 122 104 91 117 84 82 52 77 171 68 75 117 171 95 151 125 92 104 88 148 139 109 220 61 111 174 73 163 139 67 90 123 89 103 82 120 33 129 132 112 133 51 101 29 90 132 63 193 60 102 70 84 139 162 73 91 153 103 84 119 151 236 102 118 159 94 61 51 137 46 146 47 71 85 132 192 90 143 66 79 100 177 189 101 99 82 126 168 117 95 107 91 81 43 99 179 85 50 108 74 63 156 115 182 134 162 132 127 111 160 92 64 18 88 112 36 168 157 135 39 87 108 237 174 16 149 151 96 133 85 152 80 158 60 169 132 106 168 72 113 123 145 74 160 144 159 106 24 145 144 121 143 138 120 127 61 42 198 58 75 86 143 100 69 176 85 167 124 142 128 158 40 126 52 142 148 86 101 91 109 138 128 99 99 103 104 61 139 112 121 140 77 130 130 162 137 92 42 61 71 96 123 56 74 149 152 116 105 128 154 84 102 70 189 87 157 33 146 33 137 72 93 70 86 193 71 152 143 51 45 154 152 155 162 136 160 119 80 116 148 45 142 100 94 87 136 130 113 67 54 165 98 60 183 94 148 97 194 152 70 117 65 67 59 75 236 84 109 82 68 134 59 200 125 182 41 110 102 164 49 186 75 102 191 32 90 117 55 158 64 99 71 131 56 161 97 114 104 141 147 151 146 43 198 231 143 82 63 90 161 90 86 118 108 71 75 188 158 55 143 91 114 129 94 119 64 114 91 87 93 111 130 123 134 166 154 103 27 85 139 35 52 51 89 112 42 180 117 217 168 97 97 63 121 84 88 54 111 161 159 147 69 48 126 166 117 64 135 83 98 91 55 138 183 87 107 131 134 105 112 99 76 123 105 36 187 76 87 138 22 62 97 78 105 64 156 139 75 23 100 147 138 163 49 108 101 124 129 70 77 107 91 145 113 110 136 121 138 114 68 17 183 78 101 113 159 144 75 92 106 130 74 161 86 81 108 100 121 78 134 115 91 103 85 104 111 108 109 142 35 126 131 55 190 80 125 152 142 112 165 221 144 149 72 84 68 174 122 84 127 73 160 95 106 91 30 149 126 179 72 82 74 108 47 54 167 122 194 51 98 137 103 279 170 143 96 107 144 77 91 57 133 152 118 134 54 106 103 201 100 152 137 67 74 87 78 106 243 162 188 135 77 108 109 54 155 105 29 74 181 101 72 129 107 58 57 99 75 176 61 170 146 84 74 181 38 86 162 71 129 153 146 139 129 162 88 75 147 101 127 102 112 109 164 171 157 92 153 172 112 76 75 99 134 109 150 152 211 89 90 112 108 169 98 160 86 99 118 166 72 114 117 137 76 79 27 89 64 144 60 104 97 126 99 86 13 123 109 148 129 123 148 123 98 35 147 117 133 95 175 102 79 117 174 82 171 69 75 69 131 115 155 95 94 34 173 177 71 110 136 156 54 106 70 145 161 100 176 137 103 36 194 110 34 94 99 114 99 126 119 24 128 87 118 159 105 147 114 87 103 68 125 75 74 189 70 166 120 72 91 162 88 53 140 99 99 149 33 156 89 85 114 194 156 90 46 131 110 157 43 95 93 119 133 56 80 63 121 149 107 43 120 72 178 92 128 199 140 161 88 137 162 155 41 168 147 108 63 120 156 174 201 86 127 108 73 115 183 104 125 39 120 62 185 152 109 95 171 109 136 144 101 147 148 89 143 92 69 103 96 54 175 70 96 68 169 172 173 66 116 137 152 138 165 103 163 131 142 127 155 212 159 184 124 99 172 143 140 268 154 100 60 101 57 103 74 108 134 129 63 83 45 124 73 176 79 93 137 123 74 77 70 130 99 158 146 121 128 103 207 135 151 155 113 201 87 94 52 107 122 127 62 93 137 81 109 135 123 150 34 86 91 128 124 82 155 93 142 75 162 94 117 72 145 175 106 104 148 23 91 121 68 138 125 128 115 96 142 72 84 90 100 123 139 106 246 70 127 122 150 89 113 129 120 47 123 52 127 133 130 111 114 186 57 121 110 180 155 63 108 114 124 138 122 115 120 78 87 100 77 119 69 127 90 87 84 96 60 138 122 82 146 101 148 124 94 154 73 140 77 72 43 138 136 49 110 191 132 122 171 51 113 64 72 76 74 136 243 104 72 93 91 54 92 136 123 101 107 79 104 125 135 52 119 113 97 94 155 78 100 125 85 84 107 55 121 110 71 128 82 131 115 127 95 54 106 134 92 45 144 162 146 130 67 141 148 87 98 145 139 98 197 81 60 73 129 118 86 155 102 128 68 74 194 129 120 60 170 92 88 159 69 129 81 74 114 93 164 123 118 109 98 65 37 71 73 87 102 144 71 73 98 51 132 164 99 87 74 113 83 121 56 165 126 141 86 63 124 80 169 52 65 138 38 121 67 140 103 147 167 134 95 43 143 71 37 101 46 86 93 117 73 158 162 118 146 39 184 55 85 120 161 126 144 79 168 157 107 93 83 61 125 81 101 142 33 110 132 84 252 104 107 124 52 82 64 75 61 92 89 97 70 146 171 141 59 96 54 33 170 143 205 77 138 119 117 122 147 47 110 160 153 82 137 126 208 104 64 54 157 98 133 119 142 96 114 141 88 68 40 52 85 202 133 129 149 161 81 123 118 81 136 89 106 99 56 89 180 109 70 42 88 128 87 104 60 34 182 125 124 118 128 134 192 60 72 102 90 93 128 154 91 97 137 55 86 49 115 84 163 58 92 70 123 112 102 47 38 158 162 105 95 81 52 86 160 107 112 109 106 65 167 202 89 118 105 86 97 99 130 49 117 114 211 66 44 91 164 56 98 117 94 150 102 92 147 123 115 128 162 137 88 54 278 226 127 112 146 109 122 171 179 83 120 104 156 101 159 116 141 62 154 164 108 83 98 80 122 94 61 75 98 118 46 164 121 65 200 111 68 88 125 111 129 94 134 148 63 162 51 120 120 69 128 172 129 162 156 134 111 122 150 38 208 74 153 132 84 170 77 57 153 147 160 115 102 106 153 135 126 86 148 162 197 81 125 63 139 68 99 68 109 148 157 171 87 70 125 120 109 150 79 233 147 173 128 146 128 73 122 112 98 106 133 93 90 99 178 63 114 112 94 152 169 25 90 93 207 79 111 76 89 139 106 113 96 60 111 126 94 116 99 243 33 108 119 60 133 108 172 113 29 111 174 64 167 122 157 82 83 170 114 92 122 161 134 45 109 76 106 139 96 161 134 136 144 158 110 100 54 162 109 119 30 184 106 156 127 74 144 106 130 153 50 97 163 151 207 84 123 143 115 104 110 151 123 49 133 104 70 143 81 93 177 64 66 252 130 91 123 218 61 18 169 143 50 90 106 195 111 169 78 79 103 83 187 143 140 44 149 113 121 194 176 243 25 120 115 144 162 55 199 61 84 134 79 90 42 76 129 146 68 57 101 81 107 152 59 104 87 96 126 195 116 103 85 105 41 181 83 70 137 66 171 131 101 69 103 168 106 260 76 125 138 205 114 92 127 140 135 170 169 159 81 156 190 214 206 40 139 104 205 107 99 148 18 160 72 39 131 91 173 159 95 124 105 108 107 96 115 41 194 57 28 195 104 114 116 167 153 40 98 84 64 17 96 93 155 189 81 184 87 118 116 228 154 114 97 77 69 73 157 75 85 103 151 62 168 177 74 110 141 133 84 49 131 58 108 91 171 110 128 148 139 98 23 123 92 135 81 112 157 102 79 157 150 45 91 65 65 152 146 67 124 132 67 75 125 198 76 132 116 112 159 82 32 46 136 98 73 157 71 94 87 134 165 134 149 85 181 111 75 59 170 69 83 126 79 82 120 145 92 114 58 56 35 123 150 88 67 142 82 75 55 123 96 98 170 115 184 115 134 174 149 86 109 78 96 154 92 64 95 36 131 129 109 166 189 115 222 94 83 137 126 113 166 203 143 178 71 119 102 145 85 219 44 132 123 119 41 131 127 77 118 260 130 133 31 138 85 134 139 141 69 120 107 69 225 154 114 113 121 136 117 48 163 116 129 126 84 66 77 145 114 83 142 124 156 162 106 144 148 148 71 84 101 112 95 116 135 80 122 60 63 124 82 131 56 104 124 152 43 102 124 129 171 118 165 88 123 112 109 127 135 86 194 122 122 141 115 64 89 204 155 161 127 107 94 116 82 155 134 79 98 146 79 131 134 77 203 85 143 164 141 83 140 83 99 98 112 156 162 144 53 95 41 128 124 157 80 132 114 119 95 28 94 145 110 97 130 93 101 131 32 110 131 101 123 175 129 92 147 131 227 150 149 120 48 62 77 92 85 190 81 57 92 144 69 49 79 80 111 180 182 25 110 54 71 75 82 155 142 137 69 99 82 113 132 89 195 112 107 112 127 85 169 39 153 114 136 26 118 152 105 74 135 118 105 56 144 55 71 28 164 65 207 157 82 10 45 111 147 58 75 57 135 125 144 25 114 129 142 208 116 95 71 103 89 136 108 115 95 68 82 177 126 70 105 102 133 160 120 103 139 96 87 129 102 88 127 93 236 129 110 150 87 121 89 182 101 64 70 102 143 258 124 79 192 172 76 120 85 123 85 88 186 137 53 134 134 86 122 133 64 191 216 58 153 143 99 111 116 164 173 115 151 55 123 132 68 74 113 54 72 96 151 148 93 103 152 103 138 96 115 82 166 100 125 130 31 94 95 122 128 121 88 126 82 181 107 136 122 196 150 120 97 121 246 69 173 69 127 170 170 158 115 97 161 194 34 124 126 61 251 92 149 32 106 152 94 124 96 101 120 57 136 142 98 77 67 161 47 148 95 170 83 80 124 70 104 112 62 164 82 87 112 174 85 90 70 98 112 79 124 113 199 108 126 61 109 167 134 199 81 43 37 144 159 107 113 156 101 59 191 89 96 93 6 105 131 152 26 140 100 129 81 54 101 171 89 100 207 79 220 130 60 95 153 134 141 116 65 187 59 123 76 83 137 69 74 126 110 141 102 97 141 121 106 148 110 171 159 129 126 43 107 115 109 73 173 131 76 128 72 135 102 176 112 119 94 109 58 108 177 98 12 132 227 88 146 106 133 134 76 125 90 256 19 139 60 30 96 80 216 63 198 141 45 76 162 157 82 90 85 112 62 152 124 124 111 85 122 129 122 164 152 120 135 143 193 99 19 88 45 91 141 173 79 136 93 87 115 105 114 139 126 43 -2 143 84 144 48 117 93 147 120 129 121 109 134 133 157 177 162 107 140 87 125 50 43 175 139 97 167 141 172 154 89 172 112 61 163 83 153 102 78 92 97 49 106 90 189 77 71 98 206 75 97 117 114 46 107 133 106 110 142 134 157 71 98 182 129 115 120 154 172 141 101 151 61 94 112 67 110 94 99 149 151 106 169 79 68 97 67 59 122 129 76 62 123 159 150 30 27 77 106 107 112 172 47 64 112 202 28 127 94 100 175 109 139 183 188 74 53 109 104 113 158 150 97 145 69 169 165 64 172 173 127 85 195 69 78 153 92 57 98 113 124 161 101 51 81 52 90 172 179 103 125 171 56 17 115 114 66 123 115 65 82 64 48 96 69 208 65 31 79 100 144 82 117 102 51 72 90 142 141 154 83 64 141 108 137 197 124 113 80 208 89 72 157 184 164 69 99 33 95 88 121 140 93 158 59 131 121 56 177 63 107 78 152 115 126 140 98 56 77 244 122 85 41 146 176 92 76 113 88 84 109 188 110 151 57 163 133 92 73 53 103 36 122 85 172 151 109 125 98 124 132 134 134 180 61 109 139 58 210 113 163 104 79 106 105 64 179 77 65 155 188 90 83 155 84 209 100 90 83 175 107 70 65 75 151 113 45 155 114 100 165 152 77 94 111 134 137 136 83 134 120 68 74 61 208 132 27 76 81 197 159 87 96 174 142 139 92 122 75 128 135 171 44 110 145 152 225 113 77 98 108 224 147 121 128 41 119 103 145 91 119 143 157 89 36 78 177 173 93 120 164 101 106 88 62 139 166 155 102 148 77 125 93 86 76 99 130 88 116 40 69 118 121 59 157 131 121 25 62 74 60 83 147 88 215 116 189 107 130 103 67 49 170 138 163 141 131 135 75 210 190 102 93 116 58 133 86 68 192 165 155 107 81 77 200 51 85 94 139 77 155 130 122 83 164 110 92 66 73 106 60 130 182 177 188 140 165 127 116 89 97 86 80 91 176 26 94 64 110 122 70 25 151 99 121 180 110 145 77 108 129 114 45 77 53 101 101 162 105 114 105 130 115 142 128 204 55 128 188 142 74 62 68 126 169 139 118 102 137 141 85 162 122 71 75 91 160 171 119 132 71 145 143 97 126 133 184 165 41 60 94 29 80 171 86 97 54 164 54 165 149 113 78 143 122 123 80 176 32 121 71 164 80 120 101 97 143 98 116 108 88 95 140 74 148 53 100 31 119 148 191 147 157 144 131 180 144 170 160 99 140 143 154 78 116 206 129 90 113 95 132 86 56 108 141 101 57 162 108 122 130 77 98 130 36 128 124 59 113 115 87 144 157 133 99 144 43 152 136 61 127 162 156 106 100 103 193 120 64 113 43 156 69 142 191 67 91 177 103 134 92 172 71 116 153 102 156 124 62 77 83 148 69 92 151 119 82 92 82 134 124 73 83 149 141 96 100 167 135 131 87 170 97 114 114 129 46 126 83 144 152 131 109 129 95 117 184 172 24 147 87 125 98 112 116 57 200 55 143 89 120 140 81 124 145 74 150 87 139 149 159 132 206 164 96 48 66 63 88 152 33 46 125 72 123 169 85 62 89 143 59 80 131 58 173 149 181 143 129 124 140 159 95 66 185 63 63 67 64 141 85 148 132 156 55 182 221 155 104 59 60 68 109 119 135 105 137 72 73 138 103 74 93 112 120 120 111 123 144 79 114 116 53 92 129 116 81 102 141 120 97 89 66 91 186 155 131 130 42 73 118 46 47 191 93 164 140 159 109 116 170 163 129 85 68 104 141 76 175 103 69 131 93 108 98 141 135 87 123 108 93 183 202 58 94 24 152 72 108 106 140 179 84 43 67 137 105 192 104 78 138 187 157 110 174 81 101 127 52 156 79 175 203 177 102 135 60 170 123 111 54 174 33 153 117 155 158 108 73 65 73 78 174 114 104 191 36 170 117 144 90 163 141 83 80 199 101 114 131 105 146 94 127 37 62 86 80 182 131 143 77 151 141 111 54 69 51 116 143 242 92 99 109 107 66 86 57 172 114 137 25 204 89 73 108 117 118 164 112 106 112 120 209 70 104 40 126 72 89 60 63 147 104 152 39 63 120 70 36 110 111 100 76 31 185 80 91 92 130 61 49 77 130 132 26 106 107 130 123 155 142 121 162 141 77 109 47 79 100 44 121 98 101 142 25 116 109 124 107 136 83 89 97 92 115 122 103 93 103 117 128 141 56 152 126 86 80 84 36 158 112 98 125 157 173 79 90 187 118 109 114 212 89 119 92 45 132 148 81 55 42 106 90 181 158 93 120 117 118 116 76 22 127 109 108 98 109 53 63 143 71 129 112 223 125 158 124 15 104 79 45 190 153 116 136 112 67 85 113 137 81 93 143 183 166 143 105 125 131 127 98 148 69 182 151 159 178 82 145 194 126 106 132 124 147 78 63 154 109 85 109 186 144 115 90 46 67 173 246 136 116 123 112 125 69 163 57 103 40 97 120 160 65 162 118 94 112 146 91 93 124 119 172 119 117 80 68 100 202 72 116 58 147 123 85 171 100 166 142 143 55 39 101 137 103 59 114 123 129 68 114 153 142 79 92 123 188 68 124 123 54 78 137 164 135 78 42 259 70 69 70 116 120 193 105 91 188 130 93 157 135 59 131 141 98 85 123 168 117 136 79 102 118 121 62 115 110 114 112 127 142 69 142 62 52 90 120 81 112 63 128 160 118 133 117 103 62 56 87 81 108 64 114 112 79 65 71 139 134 209 121 79 103 190 114 124 94 85 167 124 91 62 83 62 171 112 123 145 203 155 130 95 31 118 101 168 111 145 182 123 157 91 120 172 116 110 172 121 166 172 113 148 136 148 35 154 138 73 58 53 102 61 110 100 52 42 85 161 128 129 143 32 73 180 109 104 105 29 86 125 117 130 103 90 161 112 119 94 108 212 34 242 146 115 131 55 97 159 269 78 166 122 152 108 153 119 109 90 187 104 212 127 149 108 92 115 117 152 67 23 73 160 81 162 122 76 57 85 92 133 183 57 188 112 91 104 112 217 117 79 117 65 115 73 93 88 81 108 150 183 110 168 87 58 109 158 139 96 83 97 95 34 137 169 128 107 174 184 122 129 170 93 152 136 98 117 171 94 119 146 142 109 189 126 110 50 57 156 87 63 104 98 101 69 145 207 154 55 81 103 161 97 69 96 211 104 175 92 168 115 189 62 72 107 202 164 98 134 51 120 159 132 141 135 80 102 51 151 105 124 139 118 133 123 134 53 132 109 128 65 62 130 157 125 72 70 94 155 137 46 115 123 63 103 74 142 144 82 104 145 163 88 90 78 116 105 98 167 87 88 106 142 153 136 90 140 63 77 153 121 110 166 126 94 88 169 139 112 106 111 141 72 86 102 136 59 152 90 127 67 131 104 158 29 75 136 116 51 102 175 75 89 100 212 91 125 78 135 162 139 103 67 178 121 126 48 125 102 95 94 100 54 68 235 106 71 105 96 155 170 93 130 95 77 80 100 168 108 120 102 159 130 71 121 166 107 92 121 142 68 238 170 76 109 71 122 121 49 112 47 101 139 89 117 87 88 106 44 120 67 128 116 120 91 108 60 93 85 116 231 112 110 78 63 161 108 112 68 101 107 81 147 141 124 124 166 83 61 55 247 99 128 121 78 94 110 51 146 79 72 92 107 179 46 172 50 130 99 96 92 169 76 82 106 88 127 116 84 147 42 186 212 137 44 78 71 165 166 177 156 113 162 164 113 114 87 103 160 68 102 196 117 126 106 160 97 123 89 119 62 43 125 107 169 149 138 37 118 71 106 88 43 193 144 75 32 105 111 100 63 123 176 113 137 141 50 109 88 66 156 57 108 93 166 148 56 106 124 142 120 145 75 118 221 107 102 34 92 117 141 98 185 101 45 205 178 95 118 56 92 153 78 73 75 186 135 189 111 104 161 127 104 59 73 96 116 68 72 124 117 102 178 79 41 90 159 45 97 124 117 52 184 113 102 91 92 144 40 170 139 194 63 56 101 63 122 108 149 118 92 179 149 161 114 101 44 140 94 166 91 153 137 138 91 111 137 69 102 201 132 164 94 162 99 27 144 79 105 28 169 155 106 133 102 183 128 161 57 97 44 114 84 118 118 165 170 179 47 195 121 219 64 76 109 80 154 72 57 155 77 104 107 149 97 61 89 112 89 82 80 148 132 111 114 119 38 127 142 113 120 91 80 102 101 101 177 132 146 102 161 133 82 88 160 77 173 131 53 139 127 79 64 77 100 139 86 95 161 118 106 68 153 126 84 64 72 82 145 83 186 101 113 37 144 80 71 98 75 146 77 60 123 74 131 107 110 172 50 143 238 96 88 126 95 134 209 126 142 128 187 142 152 92 139 104 105 150 169 106 76 148 151 115 134 139 161 137 25 152 42 269 101 133 142 94 84 97 109 117 133 93 120 110 102 132 135 58 109 148 126 97 74 123 138 146 92 121 91 114 50 146 62 76 59 32 147 61 67 66 189 134 43 184 72 54 84 109 168 145 111 58 146 45 160 35 122 164 117 69 152 66 143 106 98 76 83 157 154 72 114 128 300 252 97 133 121 140 76 105 54 126 135 18 119 91 112 90 81 133 186 129 45 115 138 91 104 72 119 132 137 129 92 57 56 150 57 149 101 73 138 49 91 121 145 51 142 83 50 83 59 129 132 104 131 37 83 95 163 119 103 182 52 118 89 107 81 157 117 77 164 115 149 168 135 191 127 136 93 91 158 85 49 96 110 30 106 135 127 122 139 122 86 139 152 79 81 86 156 67 134 123 163 66 86 155 116 183 77 46 157 114 165 114 41 84 54 121 199 117 71 132 120 129 110 124 98 94 204 129 163 124 112 160 117 144 180 153 120 102 19 167 164 87 154 41 62 114 120 67 75 51 96 105 97 102 84 162 144 62 93 132 122 175 61 43 134 71 202 84 157 85 141 149 177 127 92 103 77 121 67 64 86 148 95 78 126 205 123 130 107 73 58 85 45 99 195 159 106 67 149 181 127 102 140 111 108 40 49 32 171 112 106 52 169 134 75 59 79 113 107 107 157 165 158 129 98 143 172 110 144 111 156 141 74 143 172 128 243 114 104 60 87 114 104 17 170 114 156 179 99 117 108 132 122 145 182 41 142 165 24 112 74 100 116 124 105 95 91 140 111 186 127 81 153 151 67 100 111 86 132 54 80 161 88 165 107 41 101 107 69 162 93 200 167 81 151 181 172 70 192 86 60 133 107 112 76 109 80 131 151 112 90 107 127 165 72 74 75 123 101 158 130 126 71 120 76 96 150 139 167 114 90 73 145 179 114 64 170 119 122 175 106 106 105 109 86 131 83 106 167 192 124 105 91 148 110 123 115 111 21 94 146 165 50 32 129 85 91 94 111 91 91 107 142 74 139 176 108 29 163 129 75 82 122 106 121 98 94 148 180 76 116 111 60 200 50 66 87 64 70 135 31 191 87 67 203 80 93 107 82 114 120 100 152 119 119 125 134 107 163 148 107 60 105 112 103 86 190 167 159 196 134 142 127 145 203 151 84 97 139 139 100 147 79 108 97 81 114 145 109 75 47 227 95 36 156 87 39 61 114 97 76 104 96 95 121 161 170 136 134 82 146 104 63 163 107 146 120 96 135 186 112 95 55 198 123 80 252 113 98 99 113 147 159 80 113 93 145 114 117 118 129 91 148 169 131 76 108 127 160 67 67 56 34 104 169 122 92 119 110 141 114 118 142 173 111 156 142 147 68 75 173 156 137 105 139 174 126 182 110 108 62 207 90 154 133 119 99 229 68 33 135 127 147 172 130 195 77 52 108 80 156 102 70 138 112 114 126 103 59 93 121 126 107 145 108 164 113 80 130 127 164 159 84 18 142 225 89 161 143 197 186 79 73 50 130 163 139 48 182 112 120 206 64 165 142 137 129 198 101 137 84 94 38 127 43 139 188 213 92 169 195 90 138 72 163 179 94 82 52 135 72 148 118 195 117 21 102 22 106 117 82 85 147 90 91 62 149 68 141 131 92 82 154 123 108 87 63 107 41 101 94 114 107 126 131 214 93 90 93 173 92 175 94 123 90 91 118 184 146 90 60 95 173 126 181 17 128 173 82 131 115 128 97 117 28 109 52 92 114 183 178 156 192 118 114 96 70 206 111 84 59 101 222 75 171 85 69 121 216 130 153 86 46 95 111 136 150 101 40 141 146 179 113 218 134 110 148 147 102 23 54 147 91 108 106 163 68 76 186 84 146 126 100 174 60 185 97 124 186 127 149 86 142 175 144 93 145 81 84 77 101 76 84 159 125 134 93 108 79 146 161 133 104 120 121 91 116 118 97 59 118 105 71 76 148 103 134 93 168 93 106 79 64 117 107 104 105 117 68 197 138 138 99 142 53 137 79 75 114 92 65 90 56 112 126 117 34 173 175 105 140 162 135 56 108 66 117 144 101 125 160 63 176 157 96 68 81 101 112 135 60 36 113 111 75 155 100 172 143 49 53 112 121 77 141 215 137 102 76 68 61 138 207 108 99 107 173 106 78 58 112 170 85 127 76 63 110 149 77 153 122 113 37 131 43 101 27 108 93 45 92 138 52 80 125 87 102 87 110 68 138 149 152 115 90 102 153 145 169 36 49 177 90 182 126 152 84 127 135 105 191 126 238 83 83 187 108 86 126 109 155 106 98 164 131 74 168 139 162 157 121 89 207 82 54 98 132 80 136 114 165 57 140 7 127 76 195 99 93 140 111 123 83 79 112 97 179 111 60 83 47 29 66 119 42 214 73 121 196 76 153 95 33 231 115 98 129 192 158 145 160 137 102 115 112 69 170 182 211 193 34 114 71 119 90 158 102 156 166 99 115 167 103 110 121 182 50 125 78 100 155 153 84 149 81 129 95 17 66 177 115 117 102 193 109 161 137 178 117 95 40 152 77 162 58 93 133 126 54 96 92 158 143 150 134 164 70 143 106 135 172 105 86 118 131 100 140 128 158 64 76 82 100 63 89 160 54 80 128 158 213 67 116 111 120 127 57 115 74 99 94 114 85 79 173 168 114 99 82 82 107 179 117 131 102 60 88 157 148 65 48 159 142 121 125 86 107 52 88 117 100 125 60 227 84 98 140 123 103 100 124 60 154 48 53 83 116 81 42 135 71 86 199 102 93 90 211 71 46 122 115 144 149 126 106 135 88 203 92 98 111 53 165 81 112 95 40 138 140 91 89 71 104 119 104 125 34 115 128 105 98 122 131 151 97 157 98 130 86 26 202 86 135 133 110 86 60 93 90 97 86 114 117 93 90 143 156 97 83 180 230 202 119 197 94 85 21 74 124 87 168 129 109 138 96 83 88 115 133 76 161 151 75 77 69 156 108 78 180 87 106 153 108 200 136 98 124 72 43 136 129 70 185 146 86 45 158 115 31 89 203 225 134 95 118 173 189 63 120 96 134 101 132 138 158 108 99 162 95 163 196 182 154 61 184 64 197 135 45 149 87 96 147 106 135 47 107 141 71 192 115 119 122 121 30 145 93 83 108 128 125 88 162 139 150 145 125 140 119 177 108 136 95 143 124 80 68 101 205 129 120 72 112 59 126 58 99 180 115 150 81 93 148 119 85 124 96 167 50 45 83 144 93 141 114 94 96 80 156 109 106 137 111 114 146 90 79 133 86 93 143 138 116 252 29 154 99 161 168 113 109 107 82 195 100 130 221 152 52 177 181 189 13 103 77 102 143 128 58 168 115 156 156 129 142 118 111 115 156 87 155 63 146 161 210 115 187 129 190 74 94 135 147 150 151 120 72 160 78 63 179 80 95 108 119 82 54 140 119 104 101 129 122 47 122 101 129 110 99 101 141 139 191 131 128 118 109 54 110 136 83 128 93 93 18 68 78 77 69 99 215 157 103 124 114 159 91 125 74 60 81 100 159 118 88 138 149 160 51 89 123 86 90 84 61 138 144 69 78 91 124 91 171 157 194 173 70 58 71 225 130 114 113 153 130 95 74 156 33 84 89 134 153 119 186 106 75 64 80 159 190 82 126 56 144 91 136 83 78 66 101 68 86 125 115 144 113 79 99 90 103 127 90 91 126 140</t>
-  </si>
-  <si>
-    <t>GAM(0.28383948251133695, -2.0341738736451125e-28, 0.5760450436411553)</t>
-  </si>
-  <si>
-    <t>1 1 1 1 3 1 1 0 1 0 0 1 1 1 0 1 2 0 2 1 0 0 1 1 1 3 0 1 0 0 0 0 2 3 0 2 2 0 0 2 0 1 0 0 1 1 0 2 0 1 2 1 0 2 2 0 0 1 1 0 0 0 0 0 0 1 1 1 0 3 0 1 0 1 1 1 0 2 2 3 1 0 1 0 0 0 1 1 1 1 0 1 1 2 1 0 2 1 2 1 1 0 2 0 1 1 0 0 1 0 1 0 2 1 1 0 1 0 0 1 1 0 1 1 0 2 1 1 1 1 2 2 1 0 0 0 1 0 0 2 0 1 2 1 0 1 0 0 0 1 2 1 2 0 0 2 0 0 2 0 1 0 1 2 1 0 2 1 1 0 1 0 1 0 0 0 2 1 1 2 1 0 0 0 0 0 1 0 0 1 0 0 1 1 2 0 3 1 2 2 0 0 0 3 0 1 0 1 0 1 2 0 0 1 1 0 1 2 2 1 1 1 0 2 0 1 0 1 0 0 1 1 1 1 1 0 0 0 2 1 0 0 0 1 0 0 0 0 0 1 0 0 0 2 1 0 0 1 2 1 0 2 2 0 0 2 2 0 0 0 3 0 1 1 0 0 1 2 1 0 1 0 1 0 0 1 2 0 1 0 1 2 0 2 0 0 3 1 1 1 1 1 1 0 0 0 0 0 1 0 0 0 1 0 1 0 0 1 0 0 1 0 2 1 2 1 0 1 0 1 3 1 0 2 1 0 1 0 0 0 3 2 1 2 0 0 0 0 0 4 2 1 1 1 0 1 0 2 0 0 1 0 2 0 0 1 1 1 0 1 1 2 1 2 1 0 1 0 0 1 1 0 1 0 0 0 0 2 0 1 0 1 1 2 1 1 2 1 2 0 2 0 0 2 0 1 1 1 2 0 0 1 0 0 1 1 0 0 0 1 2 0 0 0 1 0 2 0 1 1 1 1 3 0 1 2 1 2 1 1 1 1 0 0 2 0 1 1 3 1 1 1 1 0 0 0 0 2 1 1 1 1 0 0 0 1 1 1 1 2 0 1 1 0 1 0 0 1 0 0 0 2 0 1 0 1 1 0 1 0 0 0 1 0 0 2 2 0 1 1 0 1 1 1 1 1 0 2 0 0 3 1 2 2 0 0 0 0 1 1 1 1 1 0 1 0 0 0 3 2 0 1 0 0 1 0 1 1 1 0 2 1 0 1 0 0 1 1 0 0 0 0 1 1 1 0 1 1 1 0 2 1 2 0 2 1 1 2 3 0 3 2 1 0 0 1 0 1 0 1 1 0 1 1 0 2 1 1 0 1 1 2 1 2 0 0 0 0 2 1 0 2 1 1 1 0 0 0 1 2 0 0 0 1 0 1 1 1 1 0 1 1 0 1 0 0 1 0 1 1 1 1 1 0 0 1 0 1 2 0 1 0 0 2 0 0 3 0 0 0 1 1 1 1 0 1 2 2 0 0 1 0 0 1 0 0 0 3 1 1 3 1 2 1 2 0 2 1 4 2 0 0 0 3 0 0 1 0 1 0 1 2 3 1 5 0 1 1 0 0 1 0 1 1 0 0 0 0 2 1 1 0 2 1 1 0 1 2 0 2 1 0 0 1 1 2 2 0 0 0 0 2 2 1 1 0 0 0 0 2 2 0 1 0 1 1 1 1 0 1 0 3 2 0 0 0 2 1 4 0 2 1 0 0 1 0 0 2 0 0 1 0 1 0 1 0 0 1 0 2 1 1 2 0 0 1 0 1 0 2 1 0 0 1 0 1 2 0 0 1 0 1 0 0 2 0 2 1 0 0 0 2 1 0 1 0 1 1 1 0 1 0 0 0 1 0 1 0 0 0 0 1 3 0 0 0 2 2 1 0 2 0 2 2 0 3 2 0 0 1 1 2 2 1 1 3 1 1 0 2 1 0 0 1 1 0 1 2 3 0 1 0 0 0 1 2 2 2 1 1 0 2 0 2 0 1 1 0 1 2 1 3 0 1 2 1 0 2 1 1 2 0 0 1 0 1 0 0 0 1 1 1 3 0 1 0 0 1 1 1 0 1 0 3 0 0 0 0 2 1 1 0 1 3 2 2 0 0 1 0 0 0 0 2 1 1 1 1 1 1 0 1 0 1 0 0 0 1 0 0 0 2 0 0 0 2 1 0 0 1 2 1 0 2 0 1 1 1 1 0 0 1 1 0 1 1 0 0 1 0 0 0 0 1 0 1 0 2 1 0 0 0 1 1 0 0 1 0 1 1 0 1 2 1 0 0 0 2 1 0 1 0 0 0 1 0 0 0 0 1 1 1 0 1 1 1 3 1 2 2 0 1 0 2 2 0 1 0 1 0 0 1 2 0 1 0 0 1 0 2 0 0 1 1 0 0 1 0 1 0 0 0 1 0 0 1 1 1 0 0 0 0 3 0 0 1 1 0 1 1 1 1 1 1 0 0 1 0 0 1 2 0 0 1 0 0 1 1 0 0 1 0 2 2 0 2 1 0 0 0 1 1 0 0 0 0 2 0 2 1 2 1 2 2 0 1 0 0 2 1 2 2 0 1 1 0 1 1 2 0 0 1 0 0 1 1 0 0 2 0 0 0 0 1 0 1 1 2 0 0 2 0 1 1 3 3 1 1 1 0 3 2 0 0 2 1 1 1 0 0 0 2 5 1 1 1 2 0 1 1 3 0 1 3 1 1 0 0 0 0 1 1 1 0 0 0 0 1 0 0 1 2 2 1 0 0 1 0 0 0 3 0 1 0 1 1 0 1 0 1 1 1 4 0 0 0 1 0 1 0 2 1 0 0 0 0 2 0 2 1 0 1 0 0 2 1 1 0 5 0 1 1 1 0 0 1 0 1 0 0 0 1 1 1 1 0 1 0 0 2 0 0 1 0 0 1 1 0 1 2 0 1 1 0 2 1 1 1 1 0 2 1 0 1 1 1 0 0 0 1 1 1 2 1 2 0 0 0 0 0 0 0 0 0 3 2 0 2 0 2 0 2 0 0 2 1 1 0 0 0 4 2 0 1 0 2 0 0 1 1 0 1 0 1 2 0 1 0 1 1 1 2 0 1 1 2 1 1 3 1 0 0 0 1 0 2 2 1 1 0 2 0 0 0 0 0 1 2 0 2 0 2 1 0 0 0 1 0 4 0 2 1 1 2 1 1 1 1 0 2 1 1 1 1 0 0 0 0 1 0 2 0 1 2 1 0 0 2 2 1 1 0 1 0 0 1 1 2 2 2 2 2 3 1 0 1 0 3 1 1 0 1 0 0 1 3 0 1 1 2 2 3 0 1 0 0 1 0 1 2 0 0 0 1 0 3 0 1 0 0 0 0 2 0 2 1 1 1 1 1 1 1 1 0 0 0 0 0 0 1 2 0 0 1 3 1 1 1 1 0 0 0 2 0 0 1 0 0 1 0 0 0 0 0 0 2 0 1 1 0 2 0 3 1 1 0 1 1 3 0 1 2 1 1 0 0 0 2 3 0 3 0 4 1 0 2 1 1 0 1 0 0 1 0 0 2 1 0 1 1 0 3 0 2 2 0 1 0 1 0 1 0 0 1 1 2 2 1 1 1 0 2 0 0 1 0 0 2 3 4 0 0 1 2 0 1 0 1 1 2 0 1 2 0 2 0 1 2 0 1 1 2 0 0 0 0 1 0 1 1 1 1 1 0 0 1 0 0 1 0 2 1 0 2 2 3 1 0 1 2 0 1 0 0 2 0 0 0 2 0 1 0 1 0 0 1 0 1 2 1 0 2 0 0 1 0 0 0 1 2 0 2 3 1 1 1 1 1 0 0 2 0 1 0 0 0 1 3 2 0 1 2 0 2 2 2 1 1 0 0 1 1 2 1 1 2 2 1 0 2 0 1 3 0 2 3 1 0 1 1 2 2 2 0 1 0 0 0 2 0 1 0 0 1 1 2 0 0 1 3 0 0 1 3 1 3 1 0 2 2 0 3 1 0 1 0 1 1 1 2 0 2 0 0 0 1 2 1 0 0 3 0 1 0 2 1 1 0 0 0 3 2 1 2 0 1 1 0 2 0 1 1 0 1 1 0 2 1 0 0 2 1 0 2 1 2 0 1 0 0 1 1 1 1 1 2 0 0 0 1 2 1 0 0 1 1 0 0 2 0 0 0 1 0 0 0 2 1 0 0 0 1 0 0 0 1 1 2 0 1 0 2 2 2 1 1 1 1 0 0 0 1 0 0 1 2 0 0 3 0 0 2 0 1 1 2 0 1 1 1 0 1 2 1 2 0 0 0 2 0 0 1 1 0 0 0 1 0 0 0 1 1 0 3 1 3 1 3 2 1 0 1 0 1 2 3 0 1 2 1 1 0 3 1 0 1 0 1 0 2 2 0 0 0 2 0 1 0 0 1 3 0 2 0 1 0 0 0 1 0 2 0 1 0 0 1 1 0 1 1 3 2 1 1 1 1 1 0 0 0 0 2 0 0 1 4 1 0 1 0 0 0 1 1 0 3 0 0 0 1 0 5 0 0 0 1 2 0 1 0 1 0 2 2 0 0 0 2 1 1 2 0 3 1 1 0 1 0 1 0 0 1 0 1 0 0 1 1 0 1 1 1 0 0 2 3 0 1 1 1 1 2 0 0 0 1 0 1 1 0 2 1 1 0 0 1 2 0 1 1 2 1 0 0 1 0 0 1 1 0 0 1 1 1 3 0 2 0 0 1 0 1 2 2 0 1 2 1 2 1 3 1 1 0 0 0 1 0 0 1 0 0 1 0 0 0 2 1 1 2 0 3 1 1 1 4 1 0 1 0 2 1 1 1 2 2 1 1 2 1 0 1 0 2 0 1 2 1 1 1 1 0 1 0 2 1 1 1 1 0 0 0 2 1 1 1 0 0 0 0 1 0 2 1 0 2 1 1 1 2 2 0 0 2 1 0 0 0 1 3 1 1 2 0 0 0 0 1 2 2 2 4 1 1 1 0 0 2 2 0 0 1 2 2 1 0 1 2 1 0 2 0 0 0 4 0 0 2 1 1 2 1 0 1 1 1 1 1 0 1 1 2 1 0 0 1 1 1 2 0 1 1 0 1 1 0 3 0 2 0 0 1 0 2 0 0 1 1 0 3 1 0 0 1 2 0 2 0 0 0 1 0 0 1 3 0 1 0 0 0 0 1 1 0 1 1 0 0 1 1 0 0 0 3 1 0 0 0 0 1 1 1 0 1 1 1 4 0 0 1 1 0 1 0 1 1 0 1 1 0 0 0 0 0 0 2 1 3 1 0 0 1 0 0 0 2 0 2 1 0 2 1 3 1 2 0 1 0 1 0 2 1 0 3 1 0 1 1 1 0 0 2 0 1 0 0 0 2 1 2 0 0 2 0 1 0 1 1 0 1 1 1 1 0 0 0 1 1 0 0 1 0 0 0 0 2 0 1 0 2 1 2 0 0 0 0 0 1 0 3 2 0 1 0 0 2 1 0 3 1 0 0 0 0 0 1 0 1 0 1 0 2 1 0 1 0 0 1 1 0 0 1 1 0 2 1 1 0 0 1 2 1 1 1 0 1 1 0 0 1 1 1 2 0 0 2 0 1 0 0 1 1 1 1 2 1 1 0 0 1 0 1 0 0 0 0 0 1 1 1 1 0 1 2 0 1 1 2 2 1 1 1 0 1 2 1 5 2 0 4 0 0 0 0 1 1 1 3 0 0 3 2 3 1 0 0 0 0 1 0 1 2 2 0 1 0 2 0 1 0 0 1 0 0 1 0 2 2 0 0 2 0 1 0 1 1 0 1 0 0 0 0 0 2 0 3 0 1 2 3 0 2 0 0 2 0 1 2 1 0 0 0 1 0 0 0 1 1 2 1 1 1 0 2 1 1 0 0 0 2 1 1 1 1 0 0 1 0 0 0 1 1 0 3 1 2 1 2 0 1 1 0 0 0 1 0 1 0 0 1 0 2 0 1 0 3 3 1 2 0 1 0 1 1 1 2 2 2 0 2 3 1 0 1 0 1 1 0 2 1 0 1 0 1 1 2 1 3 1 1 0 1 0 1 2 2 1 2 0 2 0 0 0 1 1 0 0 0 0 1 0 2 0 1 0 0 0 0 0 1 1 0 1 0 0 2 2 1 0 0 3 2 0 0 1 2 0 0 1 0 1 1 1 1 2 2 0 2 0 1 3 2 1 0 0 3 1 3 1 0 0 1 0 1 1 0 1 0 0 1 1 1 1 2 0 2 1 1 1 0 1 0 1 3 0 1 0 0 0 1 2 0 0 0 0 2 1 0 2 2 1 1 0 3 1 0 0 0 0 1 2 1 0 2 0 0 0 1 2 1 0 2 0 1 1 2 0 0 1 1 0 0 1 1 3 0 1 0 0 0 0 3 0 0 2 0 0 1 1 2 0 0 0 0 0 3 3 1 0 0 0 1 1 0 0 0 3 1 0 1 1 2 0 2 0 2 4 0 2 3 0 2 1 0 1 0 0 0 0 2 0 0 2 1 0 1 3 0 0 3 0 2 0 1 1 0 0 0 3 0 0 1 0 0 1 1 1 1 1 1 1 0 1 0 0 0 0 1 0 0 1 3 1 2 1 2 1 1 1 1 2 0 0 2 2 2 0 0 1 2 1 0 1 2 0 0 0 3 1 0 2 1 1 0 0 0 1 1 2 0 1 2 1 3 1 0 0 0 0 1 0 0 0 0 1 1 0 1 0 1 1 0 1 0 0 3 0 0 0 0 0 4 0 0 1 1 1 2 1 2 1 1 2 0 2 1 3 0 2 1 1 1 0 0 0 1 0 1 0 2 3 2 0 1 1 0 0 0 0 1 3 1 0 2 1 0 1 0 1 0 0 0 0 1 0 0 2 1 3 0 0 0 0 1 1 1 1 1 2 1 2 1 1 0 0 0 0 1 1 0 2 2 0 0 1 1 0 0 0 3 0 2 1 2 0 2 2 1 2 0 0 2 1 2 2 0 0 0 0 0 1 0 0 2 2 1 2 0 1 0 2 0 0 0 1 1 0 0 3 1 0 0 0 1 0 0 2 1 1 0 2 0 0 0 1 3 0 1 1 0 0 0 1 1 1 0 1 1 0 1 0 2 0 0 0 0 1 4 0 1 2 1 0 0 1 1 1 0 1 0 1 0 1 4 1 0 1 1 0 1 2 0 0 0 0 1 1 1 1 0 1 1 1 0 1 3 0 1 0 1 0 0 0 1 0 1 0 1 1 1 2 2 1 0 0 1 2 2 1 0 0 0 0 1 0 0 0 2 0 1 1 1 0 0 0 0 2 1 2 1 2 3 2 0 2 0 0 0 1 2 1 0 2 0 0 2 0 3 3 0 0 1 3 1 0 2 0 1 0 3 2 0 1 0 1 0 1 2 2 3 2 0 0 1 2 0 1 2 4 1 0 0 1 0 0 1 0 1 1 3 0 1 1 1 1 1 0 2 0 0 0 0 2 0 0 0 1 0 0 0 2 0 2 0 2 1 0 1 2 5 1 0 1 0 1 0 2 0 2 0 0 2 2 0 1 0 0 0 2 0 0 1 1 0 1 1 1 0 1 1 0 0 2 0 0 0 0 1 2 2 0 0 1 1 3 0 1 1 1 2 0 0 2 0 0 0 1 0 3 1 0 0 2 0 1 2 1 0 1 1 2 2 0 1 0 2 2 1 0 1 0 1 2 1 0 2 0 3 1 0 0 1 0 1 0 2 1 1 0 1 0 3 1 2 0 1 1 0 2 3 1 1 1 0 2 0 0 0 1 1 1 2 2 0 1 1 0 0 0 0 1 1 0 1 2 1 0 1 2 2 0 0 0 1 2 0 0 0 2 1 0 2 0 2 0 1 1 0 0 0 2 1 1 1 1 4 1 0 1 0 1 1 1 0 0 0 1 1 0 0 1 1 2 1 1 0 1 1 1 0 3 2 0 0 0 0 0 0 0 0 2 1 1 0 1 0 2 3 1 0 0 1 1 1 0 3 1 0 1 1 1 2 2 2 0 0 1 0 0 0 2 1 1 0 0 2 0 0 2 1 2 0 1 0 2 1 0 0 0 2 1 0 0 1 0 1 1 0 2 0 0 2 1 0 1 3 3 2 0 0 2 1 0 0 1 0 1 0 1 0 0 0 1 2 1 0 0 0 0 1 1 1 3 0 1 2 1 3 0 0 1 1 1 2 1 1 1 2 1 2 0 0 0 2 1 2 2 0 0 1 0 1 6 1 4 2 0 1 0 0 1 0 0 1 0 0 2 2 0 0 1 0 1 1 0 0 0 0 1 1 0 0 0 0 0 1 2 0 0 0 0 3 0 2 2 1 0 2 1 1 1 1 2 2 1 0 1 0 2 0 2 1 1 1 0 0 0 1 0 1 1 0 0 2 0 1 3 3 1 1 0 0 0 2 1 0 1 0 1 1 0 1 0 1 1 2 1 1 0 1 3 0 1 0 0 1 1 0 1 0 1 0 0 0 0 0 1 2 0 0 2 2 1 0 1 0 1 0 0 1 0 0 1 0 1 0 3 1 0 0 1 3 0 1 0 0 1 1 1 3 0 0 1 0 2 0 1 0 0 0 0 1 1 0 0 1 0 0 3 2 0 1 0 2 0 3 1 2 1 1 0 2 1 0 0 2 1 2 1 2 1 0 0 1 0 0 0 1 0 0 1 1 0 2 0 2 2 2 0 1 2 1 1 0 1 1 1 2 0 0 0 2 0 0 1 0 1 0 1 2 2 1 2 0 0 0 0 3 1 3 2 0 0 1 1 1 2 0 1 1 2 1 4 1 2 0 1 0 0 0 3 1 3 0 0 2 0 1 1 0 2 2 0 2 1 0 1 1 1 0 1 1 3 1 1 0 0 0 1 2 0 1 1 3 0 0 0 0 1 2 1 1 0 3 1 1 0 3 0 3 1 3 0 1 1 2 0 1 1 1 1 2 0 0 0 0 1 1 2 2 2 1 2 0 2 0 2 0 0 0 0 0 0 0 0 1 1 2 1 1 1 1 1 0 1 0 0 1 0 2 1 0 1 1 0 0 2 1 1 0 0 0 2 1 1 1 2 0 1 2 2 0 1 0 3 1 0 1 1 0 1 1 0 0 0 1 0 0 0 0 0 1 0 1 0 0 1 0 0 1 0 1 0 1 1 1 0 2 0 0 0 0 2 1 1 0 0 0 1 0 0 2 1 2 1 0 2 0 0 2 0 1 1 0 1 2 2 0 0 0 2 0 1 0 1 1 0 1 0 0 0 0 1 0 1 2 1 1 1 0 0 0 0 0 2 0 2 1 0 1 2 2 1 1 1 0 1 0 1 0 2 3 1 2 0 2 0 0 2 2 3 1 0 0 0 2 2 2 1 1 1 0 2 0 0 0 2 0 0 0 0 0 0 2 0 0 1 0 1 2 0 0 1 0 0 0 0 2 0 1 2 1 1 2 2 0 0 0 1 0 0 0 1 1 1 0 0 1 1 1 0 1 0 2 2 3 0 0 2 2 3 0 2 1 2 1 0 3 0 1 3 1 1 2 0 0 0 1 1 1 0 1 1 0 2 1 2 1 1 1 0 0 0 2 0 0 0 1 1 0 1 1 0 0 2 3 0 0 2 2 1 1 0 2 0 0 1 0 0 1 2 2 0 0 0 1 0 1 0 1 2 1 0 1 0 0 0 3 1 1 0 3 0 1 3 1 0 0 0 1 0 2 1 0 1 1 0 0 1 1 0 0 1 0 1 1 0 1 1 0 0 0 1 0 0 1 2 0 1 0 0 0 1 0 1 0 1 0 2 1 1 0 0 0 1 1 1 1 0 1 1 0 1 1 0 0 0 1 1 0 1 1 0 0 2 0 1 1 2 1 0 1 1 0 1 3 0 1 0 0 3 1 0 1 0 0 1 1 2 0 1 0 2 1 0 0 2 0 0 1 0 0 2 2 0 1 1 1 1 0 1 0 2 0 0 1 0 0 0 0 0 0 4 3 0 2 1 1 0 0 0 0 1 2 0 1 1 0 1 1 1 1 0 0 0 1 2 0 3 0 2 2 1 1 0 0 1 0 1 1 1 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 2 1 0 2 0 1 2 0 2 2 3 0 1 3 1 0 0 0 1 1 0 2 0 1 3 3 1 0 0 0 0 2 1 1 0 2 1 1 1 2 1 1 2 3 0 1 2 0 2 2 2 0 2 1 0 1 1 2 1 0 1 2 2 1 2 1 0 1 1 0 0 3 0 0 1 0 0 0 0 0 1 0 0 0 0 2 0 0 1 1 2 0 2 1 0 3 0 2 0 2 1 1 2 0 1 0 2 0 1 0 0 1 2 1 0 1 0 0 0 0 0 0 1 1 1 1 0 0 1 1 0 2 1 0 0 1 1 1 1 1 0 1 0 2 1 1 0 0 0 1 3 2 2 0 0 2 2 1 1 3 0 0 1 0 0 0 0 1 2 0 1 0 2 1 2 0 1 0 1 0 1 0 1 0 0 0 2 1 0 1 2 4 0 0 0 2 2 0 3 0 1 1 2 1 1 0 3 0 2 1 1 0 0 1 2 2 0 2 1 1 0 4 4 0 3 0 0 1 2 3 3 0 1 0 1 1 0 1 0 0 0 0 1 1 3 1 1 1 0 3 1 0 0 0 1 1 1 0 2 0 0 2 0 1 2 1 0 0 0 1 0 2 1 2 0 0 1 1 0 2 1 0 1 0 0 1 0 0 3 1 2 0 0 1 0 1 2 0 1 0 2 2 2 0 0 1 0 1 0 0 1 1 2 1 0 0 1 1 0 2 1 0 1 0 0 0 1 0 1 1 0 2 0 3 1 0 1 3 1 0 2 2 0 0 1 1 0 1 1 1 0 1 1 0 0 1 0 0 1 0 1 2 1 0 0 0 2 3 0 0 3 2 2 0 1 0 2 2 0 1 0 1 1 0 2 1 2 1 1 0 0 1 0 3 2 0 1 0 1 0 2 0 0 0 1 2 1 1 2 1 2 0 5 0 1 0 0 0 1 1 1 0 1 0 1 3 2 1 2 0 1 0 2 0 1 0 1 1 0 0 4 0 0 0 1 0 1 1 1 1 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 1 2 1 1 1 0 1 1 1 0 2 0 1 0 1 1 1 0 0 3 0 1 0 1 1 1 0 0 1 0 1 2 1 1 1 1 0 1 3 3 1 0 3 1 0 0 0 1 2 1 1 2 0 0 2 1 1 1 0 1 0 0 0 0 0 1 0 0 1 1 0 0 1 0 0 0 0 1 0 0 1 0 1 1 1 0 0 1 0 3 0 0 0 4 0 1 0 3 2 2 0 0 1 0 0 2 1 1 1 1 1 0 0 1 1 1 2 0 0 1 0 1 0 0 2 1 1 0 0 2 0 0 1 1 2 0 1 0 2 0 1 0 3 1 1 0 0 0 2 1 0 0 0 2 2 0 1 0 0 1 1 2 0 2 0 0 1 0 1 0 1 3 0 0 1 0 0 2 1 1 0 2 0 1 2 0 2 1 1 1 1 1 0 2 0 0 0 1 2 1 0 1 1 1 2 2 0 1 0 2 1 1 3 2 0 1 3 0 2 1 0 5 3 0 0 1 1 2 2 1 2 2 1 0 1 1 1 1 1 0 1 0 1 2 1 0 0 2 0 0 0 1 1 2 2 1 1 1 1 0 1 3 1 3 0 0 0 1 1 4 1 1 1 1 0 0 3 3 1 3 1 1 2 0 0 0 0 0 1 1 2 0 1 0 0 2 0 1 0 0 0 0 1 0 0 0 1 1 0 0 1 2 1 0 1 0 0 1 0 0 1 1 2 1 0 2 0 1 1 1 1 0 2 3 1 1 0 0 0 0 0 0 0 1 1 0 0 1 1 0 1 0 1 0 0 1 2 1 1 2 1 1 2 0 1 3 0 1 1 1 0 0 0 2 1 1 1 0 0 0 0 2 1 1 1 1 0 0 2 0 1 0 0 1 1 1 0 2 1 0 0 0 1 1 1 0 3 2 0 0 0 1 1 0 1 2 1 2 0 0 1 0 0 0 1 1 2 1 1 0 0 0 1 1 0 1 0 0 0 0 1 1 2 2 0 2 1 0 1 0 0 1 2 1 0 1 0 0 3 2 2 2 1 0 0 1 3 0 0 0 1 0 2 0 0 0 0 1 1 1 2 1 1 1 0 0 0 2 0 1 0 0 2 2 1 1 1 1 2 2 1 0 1 0 0 1 1 3 3 0 2 1 2 0 0 2 1 1 1 0 0 2 0 0 1 0 1 0 3 0 0 1 0 0 0 1 0 0 0 0 1 1 1 0 1 1 1 1 0 1 0 2 1 1 0 1 1 2 1 0 1 0 0 1 1 0 0 0 0 1 0 1 2 0 0 0 1 1 2 0 0 1 0 1 0 1 0 0 0 1 1 0 3 1 1 1 1 1 2 0 1 1 1 0 2 2 0 2 1 2 1 0 2 1 1 0 1 1 0 1 0 0 2 0 1 2 1 0 0 0 1 1 3 0 0 3 0 0 1 0 1 0 0 0 0 1 2 0 2 2 1 0 0 1 1 0 1 0 1 0 0 0 2 0 1 0 2 0 0 2 0 0 0 3 2 1 1 1 0 2 0 0 1 0 2 2 0 2 0 2 0 0 0 0 0 0 1 1 2 3 1 0 0 1 2 0 0 0 0 1 1 0 1 0 0 2 3 2 0 1 2 1 0 0 2 0 1 1 4 1 0 0 1 1 3 2 2 1 0 0 0 0 2 1 2 0 0 0 0 0 3 0 0 1 2 0 0 1 1 2 1 1 1 2 3 0 1 0 0 1 0 0 0 0 0 1 0 0 1 0 2 2 2 1 0 2 0 0 2 0 0 0 0 1 0 2 1 3 0 1 0 1 1 0 3 2 0 0 1 1 1 1 0 0 1 1 0 1 1 0 1 0 0 3 0 2 1 0 0 0 0 2 0 1 0 0 1 1 0 1 1 0 1 1 1 0 1 0 0 3 1 0 0 0 0 3 1 1 0 1 2 0 1 0 0 0 1 1 1 1 1 0 0 1 1 0 0 1 1 1 2 1 0 2 2 1 0 1 0 0 1 0 1 1 0 3 0 0 2 1 1 0 1 1 0 0 1 4 2 2 1 0 0 2 0 1 2 2 1 2 2 2 0 1 0 1 1 0 2 0 0 0 0 1 0 0 2 0 0 1 1 1 0 2 1 2 1 0 0 2 0 0 0 2 2 1 1 1 0 0 0 1 3 2 1 0 1 0 1 3 1 1 1 1 0 0 1 0 1 1 2 2 1 4 0 0 1 0 2 3 1 2 0 0 0 0 1 2 0 2 1 0 1 1 0 1 1 2 0 0 0 1 1 1 1 2 1 0 0 3 2 1 1 2 1 1 2 1 1 1 0 1 2 2 2 2 3 1 0 2 1 0 1 1 1 0 2 0 1 2 0 2 1 0 0 2 0 1 1 1 0 1 0 0 1 0 0 0 0 1 1 0 3 1 0 1 0 1 0 1 0 3 0 0 1 0 1 1 1 0 2 3 0 0 0 3 0 1 0 0 0 2 0 2 0 1 1 2 1 0 1 0 0 0 0 0 1 1 1 2 0 2 1 1 2 0 1 2 1 0 1 1 2 0 1 0 0 0 1 1 0 1 2 1 1 3 0 2 0 0 2 1 0 0 1 2 0 0 1 0 1 0 1 1 0 1 0 0 2 1 1 2 0 1 2 2 0 2 0 0 0 0 0 0 1 0 1 0 2 1 1 0 2 0 0 2 1 1 1 1 1 1 0 0 0 1 2 0 1 0 0 0 2 1 2 1 0 2 0 0 2 1 1 0 0 0 0 2 2 0 3 0 0 0 0 0 2 2 1 2 0 2 0 1 0 0 1 0 1 0 1 0 1 0 0 1 1 1 2 1 0 0 0 1 2 0 0 3 0 1 0 1 0 1 1 0 0 0 0 1 2 0 0 1 1 1 1 2 1 1 2 0 0 1 0 1 2 1 0 0 1 0 1 1 1 2 0 0 2 2 0 1 0 0 1 3 2 2 1 1 0 0 0 1 1 3 3 0 0 0 0 0 1 0 0 1 2 1 0 3 0 1 0 0 0 1 2 0 0 2 1 3 1 1 0 2 1 1 1 4 2 2 3 2 2 3 1 0 1 0 0 1 0 1 1 0 0 2 0 0 0 1 1 1 2 1 2 0 0 0 0 1 1 1 0 2 1 0 2 3 1 1 0 2 1 1 0 0 0 1 1 0 0 0 0 1 1 0 0 0 1 0 1 2 1 1 4 0 3 0 0 0 1 0 2 0 2 1 1 0 2 1 2 0 0 1 1 0 0 1 1 1 0 0 1 1 0 0 0 0 1 3 1 0 1 1 1 1 0 0 0 0 0 1 0 3 0 1 0 0 1 0 0 1 0 2 2 2 2 0 0 0 0 1 2 1 4 2 1 0 0 4 1 0 1 2 0 1 1 0 0 1 0 2 1 0 0 0 2 0 0 0 0 1 0 1 1 1 0 2 1 0 1 0 0 1 2 1 1 0 1 0 0 0 0 0 4 2 4 0 1 1 3 2 1 0 0 1 1 2 1 2 2 1 1 0 0 0 2 0 1 2 1 2 3 1 2 0 0 0 2 0 1 0 0 0 0 0 0 2 0 0 0 1 1 1 0 1 1 0 1 1 1 0 0 1 0 1 2 1 1 1 4 0 0 0 2 1 1 1 0 2 1 1 0 0 0 3 1 1 1 1 1 0 1 2 2 0 0 0 2 0 0 2 0 0 0 0 2 2 0 3 0 0 0 1 1 2 1 0 2 1 1 0 0 2 1 1 0 0 2 2 0 0 1 1 0 0 0 0 0 1 2 1 0 1 0 1 0 2 1 0 1 0 2 2 0 0 1 0 0 0 0 1 1 1 1 1 0 0 0 1 1 1 1 0 1 2 0 2 1 0 2 0 1 1 1 0 1 2 1 2 1 0 2 1 0 0 1 3 0 2 1 1 3 2 2 3 2 1 2 1 2 4 0 0 2 3 0 1 2 2 1 0 0 0 0 1 1 0 0 0 3 1 2 0 1 3 2 0 1 0 1 0 0 1 3 0 1 0 1 1 0 3 0 0 1 0 1 0 0 1 2 1 2 2 1 0 2 0 0 1 3 0 1 1 1 1 0 1 0 0 0 0 1 1 1 0 1 0 0 0 1 0 2 0 2 1 0 0 1 0 0 0 0 0 1 1 2 0 1 0 1 1 0 0 0 1 3 1 0 1 0 1 1 0 1 0 1 1 1 2 0 2 1 1 1 1 1 1 0 0 1 1 1 2 2 1 0 0 0 0 1 0 0 1 0 0 2 1 2 0 1 0 1 1 1 1 1 0 2 0 2 0 3 0 0 1 1 1 0 0 0 0 0 2 1 2 0 0 0 1 0 1 0 0 0 0 2 1 1 1 2 0 0 2 0 0 0 2 1 0 1 0 1 1 1 0 0 0 0 1 1 2 1 0 1 0 0 0 1 0 0 1 0 2 1 0 2 1 0 0 2 0 1 2 0 1 2 1 1 1 2 0 2 0 1 0 2 1 0 0 1 0 1 1 1 0 0 0 1 0 0 2 1 1 0 2 2 0 1 0 2 1 0 0 2 1 1 0 1 0 2 1 1 1 0 1 0 1 1 0 2 0 1 1 1 0 1 0 1 0 0 1 3 1 0 2 2 1 1 3 2 0 2 1 0 1 0 1 0 0 1 0 0 0 1 0 1 1 0 0 0 1 1 0 1 0 1 0 1 0 1 1 1 1 0 0 0 0 1 0 1 1 3 1 0 0 1 0 1 0 1 2 1 1 1 0 0 1 0 0 1 0 1 1 1 0 1 0 1 1 0 1 1 0 0 0 0 1 0 0 2 1 1 0 4 0 0 0 2 3 1 1 0 2 1 1 0 0 1 1 0 0 1 1 1 2 3 3 1 0 1 0 0 1 0 2 2 0 1 0 1 1 1 0 3 1 0 0 1 0 0 0 2 1 0 2 1 0 0 1 0 0 1 0 0 0 1 0 0 1 2 0 1 1 1 0 1 3 0 0 1 2 1 0 2 0 2 2 1 1 0 2 0 0 1 0 1 1 2 1 1 2 0 1 0 0 0 3 0 1 1 1 0 0 1 0 0 1 0 1 1 1 1 2 2 2 0 0 0 1 0 2 5 0 1 1 1 1 1 1 3 1 2 2 1 2 1 0 0 1 2 0 1 0 3 2 0 1 0 1 1 1 1 0 0 1 0 0 0 1 0 1 1 0 1 0 2 2 1 0 0 0 2 0 1 0 3 1 0 1 3 1 1 0 0 0 0 1 0 0 2 0 0 1 3 0 0 1 0 1 0 0 1 0 2 0 0 0 0 1 1 1 1 0 1 0 1 0 1 2 0 1 2 0 0 1 1 0 0 0 2 1 1 1 0 0 0 1 1 2 0 1 0 2 2 1 1 0 0 0 1 1 0 1 0 2 1 0 0 1 0 1 0 1 0 0 0 0 0 0 0 3 1 0 0 2 0 0 0 1 0 0 2 1 0 0 0 1 0 1 0 0 1 2 1 0 1 3 0 0 3 0 3 0 0 0 1 1 0 0 2 2 1 1 1 1 1 1 1 2 1 2 1 0 1 1 1 1 2 1 0 0 3 0 0 0 0 1 0 0 0 0 2 0 2 0 0 2 1 1 1 2 0 1 0 2 0 2 2 0 1 0 0 2 1 0 2 0 0 0 0 1 0 2 4 2 2 1 3 0 2 0 0 0 0 2 1 1 0 0 0 0 1 0 2 0 1 0 0 0 0 1 0 0 0 0 2 0 3 0 0 1 0 0 0 0 0 3 0 1 0 0 1 0 1 0 0 1 1 1 1 2 2 0 1 0 0 1 0 0 0 0 1 1 3 1 0 0 2 2 2 1 1 0 0 1 0 1 1 1 1 0 3 0 0 1 1 1 0 3 0 1 2 0 0 1 1 0 1 1 0 2 0 1 2 1 0 0 0 0 1 1 0 1 2 2 2 2 1 1 2 2 1 0 0 0 1 1 2 1 0 0 2 2 0 2 0 0 3 3 0 1 0 1 1 0 1 1 2 1 0 1 0 1 3 0 0 0 0 3 0 0 0 1 1 1 2 0 1 1 0 0 1 1 1 1 0 1 2 2 0 0 1 0 0 0 1 1 1 1 1 1 3 1 1 2 2 1 0 0 0 1 1 0 0 1 0 0 1 1 0 0 0 2 0 1 0 1 0 2 1 0 2 1 1 1 1 0 1 4 0 1 2 0 0 0 0 2 1 2 2 0 2 1 2 1 2 1 0 1 0 0 2 1 0 2 1 0 1 0 1 1 2 1 0 0 2 1 1 2 1 0 0 0 2 2 2 1 0 0 2 1 0 2 1 0 1 0 0 0 0 3 0 0 1 1 0 0 2 1 1 1 1 0 3 1 0 0 0 2 1 0 1 2 0 0 0 0 1 1 2 1 0 2 0 4 1 2 0 0 2 0 1 0 1 1 0 1 0 0 2 1 0 1 0 0 2 0 0 1 1 0 1 0 1 0 0 1 0 0 4 0 1 1 0 0 1 0 0 0 1 1 1 0 1 1 1 1 1 1 2 2 1 0 1 0 1 0 1 1 0 0 2 0 1 0 1 1 0 0 0 0 1 0 1 1 0 0 1 3 1 3 1 1 0 1 1 1 0 1 2 1 1 1 2 3 0 2 0 0 1 1 1 1 1 0 2 1 2 1 1 0 0 0 4 0 1 1 1 1 1 0 0 0 2 2 0 1 1 2 1 1 1 1 0 0 0 3 1 1 2 1 0 1 1 2 3 1 0 1 1 1 1 2 1 1 1 1 0 3 2 1 0 1 2 0 1 0 2 1 1 1 0 1 0 0 0 1 1 1 0 1 0 1 0 0 1 0 1 1 0 0 0 2 2 1 2 1 1 2 1 0 0 1 1 1 1 0 2 1 6 0 0 0 1 1 0 1 3 1 0 0 0 0 0 0 2 3 1 1 0 0 2 1 1 1 0 0 0 1 0 0 2 1 2 1 0 3 0 0 1 0 2 3 0 0 0 2 3 2 1 1 1 1 2 0 3 0 0 0 1 0 1 2 1 0 0 1 0 0 2 0 1 0 0 2 0 0 1 0 0 0 0 0 1 1 3 0 0 2 0 0 0 1 3 0 0 0 1 2 0 1 0 0 0 3 0 1 0 0 0 0 0 1 2 1 3 0 1 0 0 0 1 0 2 0 1 0 0 1 1 0 1 0 2 2 1 1 0 0 2 1 1 1 1 0 0 0 0 0 0 0 0 1 0 2 1 0 1 0 2 0 2 0 1 2 1 1 0 0 2 1 0 2 1 0 1 1 0 1 1 1 1 2 3 1 0 3 1 3 1 2 0 1 0 1 2 0 0 1 0 1 2 2 1 3 1 0 1 1 1 0 0 1 0 0 0 1 1 3 1 0 0 0 1 1 1 1 1 0 0 0 2 0 1 1 1 0 1 1 2 0 1 1 0 1 1 2 1 0 0 2 0 3 1 0 2 0 0 0 1 1 1 3 0 1 2 0 0 1 1 0 0 0 1 1 0 3 1 0 1 1 0 2 2 0 1 2 1 1 1 1 1 1 1 1 2 1 0 1 2 1 0 1 0 0 1 0 2 0 0 3 0 0 0 5 0 1 2 1 1 1 2 0 2 2 1 0 2 0 1 2 0 1 2 0 1 1 0 1 2 0 2 1 1 0 2 0 2 0 0 1 0 0 1 0 0 0 1 2 0 0 0 1 2 2 2 0 0 0 2 3 1 0 1 1 0 1 0 1 1 1 1 0 0 1 0 1 1 1 1 2 1 1 0 1 2 0 0 2 0 1 0 1 2 1 1 0 0 2 0 1 1 3 0 1 0 3 0 1 2 0 1 0 0 0 0 1 1 2 0 1 2 0 0 0 2 0 4 1 0 1 0 2 1 1 3 0 0 1 2 0 2 2 0 0 1 2 1 2 1 1 2 0 1 0 2 1 1 0 1 3 0 0 1 0 1 1 1 0 2 0 2 1 1 0 1 0 1 1 1 2 3 1 0 1 2 1 3 3 1 0 0 0 1 0 3 0 2 0 3 1 0 0 2 1 4 1 0 1 1 1 0 3 2 2 0 3 4 1 2 1 1 0 1 1 0 1 2 0 0 0 0 2 0 0 0 1 2 0 0 0 1 0 2 0 0 0 2 0 0 0 1 0 2 1 3 1 0 0 1 0 1 0 1 2 0 2 0 0 1 1 2 1 0 1 2 0 2 3 1 0 1 0 1 3 0 0 0 0 1 1 0 1 1 3 1 0 0 2 1 0 1 0 1 0 1 2 1 0 0 1 1 0 0 2 0 1 2 1 1 1 0 0 1 0 0 2 1 0 1 0 1 2 0 1 3 1 0 0 0 1 0 2 0 1 1 3 1 0 0 0 0 1 2 0 0 0 1 2 1 0 1 2 1 1 2 0 0 0 0 2 1 0 4 1 1 0 0 1 1 0 1 2 1 0 0 0 0 0 0 2 0 2 1 1 0 0 2 1 0 1 1 2 0 1 1 0 0 0 1 0 1 2 2 0 3 1 1 1 1 2 1 1 0 0 1 1 0 0 2 0 0 1 2 3 0 0 1 1 0 0 2 1 0 2 0 2 0 1 1 0 1 0 0 1 0 0 3 1 0 0 0 1 0 1 0 2 3 0 1 0 0 0 0 1 1 0 0 0 1 2 1 1 0 2 0 0 0 0 2 1 1 0 0 3 1 0 1 1 0 0 0 1 3 0 0 1 0 0 1 2 3 1 2 0 2 2 1 2 2 0 1 2 0 0 2 0 1 0 1 0 0 1 0 1 2 2 0 1 1 0 1 2 2 0 1 1 0 0 1 0 0 2 2 0 0 1 1 1 2 0 0 2 0 0 0 0 1 2 1 0 0 0 2 0 1 1 1 1 1 0 0 2 0 0 0 1 0 0 0 0 1 0 0 1 0 1 2 2 1 1 1 1 1 1 0 1 0 1 0 1 0 1 1 1 1 0 0 1 0 0 0 3 1 0 1 1 0 0 1 0 1 2 1 1 0 1 2 0 1 0 1 1 1 0 0 0 0 2 3 1 0 0 0 0 1 0 2 1 1 1 4 1 1 0 0 0 0 1 0 0 1 1 0 1 0 0 0 1 1 1 2 1 0 0 0 1 1 1 0 0 0 0 0 1 1 0 0 0 1 1 1 0 0 0 0 1 0 3 0 0 1 3 0 0 1 0 0 0 1 0 0 1 0 0 1 2 1 1 1 1 2 2 1 0 1 1 3 0 1 1 2 1 1 0 0 1 0 1 1 1 0 0 2 1 0 2 1 1 1 1 2 1 1 0 3 0 0 1 0 1 1 0 2 0 1 0 0 2 1 1 0 0 0 0 1 1 1 0 1 1 0 0 0 1 0 4 0 0 2 0 1 0 2 1 1 0 0 3 2 2 2 1 0 1 0 0 1 1 0 1 1 1 1 1 1 1 0 0 2 0 1 1 0 0 1 0 0 0 0 0 2 1 0 0 1 0 0 1 3 0 2 1 1 0 1 0 0 0 1 3 1 2 1 1 1 2 0 1 1 0 0 1 0 2 0 1 3 1 2 1 2 1 0 1 2 0 2 0 0 1 2 0 0 1 1 1 1 0 2 1 0 1 0 1 2 1 1 0 0 0 1 0 1 1 2 0 0 1 0 0 1 0 0 1 2 2 2 0 0 2 0 1 1 1 1 1 3 0 0 2 0 1 0 1 1 1 1 0 4 1 0 2 2 2 1 0 2 1 1 0 0 0 1 2 2 0 1 0 0 0 1 1 0 0 0 0 0 0 3 0 0 1 1 0 0 1 0 1 2 0 0 0 2 0 1 0 0 2 2 0 1 1 0 0 0 0 1 1 0 0 0 1 1 0 0 0 0 0 1 0 0 2 1 0 0 3 1 1 0 2 0 1 1 0 1 1 0 0 1 0 2 1 1 0 0 1 0 0 0 1 0 1 0 0 2 1 0 0 2 3 0 0 0 0 0 0 1 2 0 2 0 0 6 1 1 2 1 0 2 0 1 1 3 2 0 0 1 1 1 1 1 2 0 1 1 0 0 0 1 0 1 1 1 0 1 0 0 2 1 1 1 1 2 1 0 2 1 0 0 2 0 1 0 1 2 0 0 0 2 1 0 0 2 2 2 1 3 0 1 1 1 2 1 1 1 2 0 0 0 1 1 1 1 0 2 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 1 1 0 0 1 1 2 2 1 1 0 2 0 1 1 1 2 1 1 0 2 0 0 0 1 1 1 2 1 0 2 1 1 1 1 0 1 0 1 1 2 0 2 0 2 2 0 0 0 0 1 0 1 0 0 0 1 0 0 3 1 1 0 3 2 2 1 4 1 1 0 1 1 0 1 2 1 1 2 1 1 1 1 1 0 1 1 0 0 1 0 0 0 1 1 0 1 0 1 0 0 0 0 1 1 1 3 0 2 1 2 1 0 2 0 1 1 1 0 0 2 0 0 1 0 1 1 0 0 5 1 0 1 1 0 1 0 0 0 2 1 2 1 1 2 1 1 0 1 3 1 0 2 1 0 1 1 1 3 0 0 1 0 0 2 1 0 0 2 0 0 0 0 0 0 1 2 1 0 0 2 2 1 2 0 1 0 0 2 0 2 1 0 0 1 0 0 2 2 2 1 0 0 2 0 0 0 2 1 2 0 1 1 2 0 0 3 0 0 1 0 0 3 0 1 0 1 2 2 3 0 2 1 2 0 2 0 0 1 0 0 0 0 1 0 1 1 2 0 1 1 0 2 0 3 2 0 1 2 0 1 1 0 0 1 0 2 2 2 1 0 2 0 0 1 0 1 0 1 0 0 1 0 0 0 0 3 4 0 1 1 0 2 1 0 1 1 1 2 0 0 0 0 1 0 0 2 1 1 2 1 0 1 1 0 1 0 2 0 0 3 1 0 0 3 0 1 0 0 0 2 0 0 1 0 2 0 0 1 0 0 0 3 0 0 1 1 0 0 3 1 0 1 1 1 0 0 3 2 2 2 1 2 1 1 1 0 0 1 0 1 2 0 2 0 1 1 0 1 0 1 0 1 0 0 1 1 1 0 0 1 2 0 1 0 1 0 0 0 0 1 0 1 0 1 1 1 2 1 1 1 0 1 0 0 0 1 2 1 3 1 1 1 0 1 0 0 0 0 1 2 0 0 2 1 2 0 2 2 0 1 3 3 0 1 1 0 1 2 1 0 1 0 3 1 0 2 1 2 1 2 2 0 1 1 1 1 0 0 1 0 0 1 1 0</t>
+    <t>NIG(23.10259428454723, 12.922498367239934, -0.5253233384075298, 29.513659682916863)</t>
+  </si>
+  <si>
+    <t>9 23 28 20 26 10 27 24 17 23 10 18 33 20 16 13 38 24 3 38 16 30 7 21 34 31 25 28 13 9 35 26 21 16 31 17 22 34 26 24 14 28 13 20 19 28 27 11 14 17 16 17 13 20 42 31 17 24 31 23 31 3 6 28 26 29 14 17 17 37 17 24 31 20 16 40 20 6 7 23 12 10 20 6 13 37 38 31 23 21 13 13 31 10 27 47 23 49 17 21 18 12 34 24 15 24 27 22 20 7 31 7 17 15 17 19 31 23 37 24 19 7 27 10 13 17 24 13 30 23 10 20 14 20 17 18 22 20 21 35 34 6 3 24 10 26 15 26 20 13 17 17 21 9 13 34 20 16 13 21 16 9 27 48 33 21 13 29 10 17 7 7 24 26 3 14 13 13 3 20 37 18 34 27 10 31 10 24 14 9 6 14 10 17 24 6 19 31 15 24 14 14 20 10 35 10 16 21 23 30 7 13 7 10 27 34 31 19 19 10 16 20 14 35 16 10 30 10 16 17 24 21 23 24 24 3 20 0 3 19 24 21 10 33 19 17 24 20 24 10 17 20 41 27 35 26 14 30 20 24 20 19 18 3 21 17 13 38 19 17 16 16 16 16 6 24 7 7 16 20 14 17 27 6 24 14 10 24 17 17 20 28 24 17 30 33 24 26 24 28 10 24 24 12 21 13 30 10 20 6 16 23 27 17 21 28 20 24 27 17 20 14 10 24 16 23 24 12 25 20 7 9 10 27 19 28 42 38 16 13 31 17 10 10 21 23 20 30 23 16 20 14 21 14 13 26 17 20 14 7 16 9 34 14 30 17 20 10 14 21 20 20 23 20 14 21 16 17 17 23 27 36 0 19 30 30 13 13 27 20 34 10 7 13 27 16 33 21 13 14 17 14 21 17 34 21 21 24 27 14 13 19 10 20 23 23 24 21 30 17 28 31 31 21 24 24 23 10 21 6 13 17 12 20 21 26 24 16 22 20 24 11 23 6 16 11 23 23 17 17 13 17 23 6 24 12 23 24 19 31 22 17 23 48 20 24 17 17 20 20 10 13 13 17 20 9 20 6 14 20 27 3 14 24 23 13 21 27 10 10 7 16 20 14 15 19 14 25 7 34 9 13 14 15 23 31 20 20 24 21 37 13 31 7 17 14 13 28 23 13 20 6 26 24 10 10 17 17 20 16 20 10 9 21 25 14 13 16 23 17 27 20 17 14 35 19 27 23 23 27 30 21 14 17 7 17 7 17 19 14 23 14 20 10 17 18 16 20 12 13 21 47 14 20 3 31 20 13 13 31 22 17 17 0 27 0 14 28 24 24 20 18 18 23 31 16 10 23 17 7 15 24 20 16 27 17 13 31 24 17 13 27 6 17 14 17 13 14 24 14 13 28 28 10 24 14 20 24 23 16 27 13 20 27 10 10 20 10 31 14 20 15 28 28 19 13 17 21 13 14 6 21 9 3 7 10 27 24 22 31 10 13 26 20 27 31 13 10 35 42 20 21 30 13 3 6 23 28 9 16 7 17 10 17 24 3 34 26 21 27 24 18 12 27 13 17 24 10 23 20 19 33 14 20 24 10 13 25 8 16 16 23 13 17 27 11 24 27 6 23 11 21 11 10 30 10 16 11 17 13 13 28 3 17 28 22 21 16 24 34 27 24 28 9 24 34 23 27 19 27 20 17 14 31 24 26 10 18 14 13 13 13 21 14 17 13 18 15 30 9 9 17 28 36 21 21 17 10 13 13 21 19 17 31 19 37 16 30 24 27 41 16 27 27 16 13 24 24 17 13 13 10 3 23 13 17 23 19 13 13 9 13 34 30 8 12 11 16 27 27 17 7 21 6 13 28 10 17 19 24 10 20 13 17 24 33 13 17 27 20 24 23 14 10 14 17 6 17 24 16 35 7 27 16 30 24 11 17 7 20 23 28 14 23 38 14 27 23 19 30 21 34 13 23 17 10 17 20 20 3 27 27 21 19 14 10 13 23 10 44 12 20 24 16 14 16 34 11 16 9 33 7 13 13 13 20 3 31 17 10 27 20 20 17 30 10 16 23 20 23 12 20 24 16 10 19 17 33 29 17 19 17 34 10 10 30 17 6 13 26 37 31 17 28 20 13 9 38 25 21 10 17 21 34 14 6 20 17 17 25 16 27 30 21 21 16 20 7 14 13 16 9 34 24 11 23 13 20 24 17 34 9 12 38 19 21 20 30 20 19 24 20 17 15 17 22 14 26 14 14 12 19 13 37 9 20 10 14 17 28 20 38 16 28 13 13 28 12 20 18 28 10 31 24 23 14 14 17 12 9 24 9 10 15 9 20 6 13 26 17 9 17 17 25 13 31 27 13 10 14 10 27 20 18 28 10 24 20 10 25 20 23 17 27 24 30 21 27 10 24 19 20 16 10 13 14 10 13 0 10 30 37 13 13 20 20 24 24 31 17 21 9 20 13 23 23 14 21 16 19 23 17 10 23 27 24 15 14 20 20 17 22 33 33 34 23 10 14 16 34 26 41 6 21 3 31 20 27 34 18 21 20 17 17 19 34 23 6 24 16 25 20 33 34 17 14 23 17 27 26 14 21 37 7 19 6 23 6 17 14 17 14 6 20 21 19 19 37 20 30 20 17 37 31 6 24 6 17 27 19 10 18 18 16 14 13 7 19 27 30 21 14 16 30 26 20 21 10 13 24 9 12 15 26 20 36 10 30 16 27 14 10 16 13 35 17 0 24 24 20 14 30 17 20 27 17 15 24 10 16 7 20 24 13 30 27 12 13 21 19 7 17 26 7 18 20 21 10 30 17 13 17 16 27 11 28 10 23 21 31 12 13 13 14 36 18 6 24 24 27 10 26 19 16 20 13 29 9 13 34 9 17 24 20 5 28 13 13 21 6 21 17 13 17 21 16 44 33 38 19 17 20 28 28 20 14 20 3 20 9 10 24 16 17 16 21 29 23 25 24 20 13 16 28 23 24 23 14 21 17 24 7 17 17 27 7 19 34 13 14 21 6 17 24 31 21 29 30 6 17 21 41 7 17 31 15 24 34 21 13 20 9 17 21 17 23 9 27 17 23 40 21 20 20 34 12 20 9 17 20 11 10 13 14 13 34 34 16 18 20 34 17 21 8 28 10 10 22 23 34 16 6 12 3 15 14 16 20 30 27 35 0 20 17 31 22 3 19 17 27 25 17 19 21 27 17 24 20 16 11 6 11 17 16 9 20 27 31 17 10 13 6 45 15 23 27 18 14 16 7 14 14 17 20 17 13 27 6 28 37 23 28 17 10 31 23 20 17 3 10 13 24 17 21 13 24 30 21 20 38 7 16 7 21 34 9 24 10 17 17 12 17 33 20 0 14 17 20 31 28 24 10 38 13 30 17 17 13 18 19 10 7 15 31 31 13 13 14 24 9 21 36 19 14 11 17 16 21 13 9 28 17 12 24 8 9 20 24 14 27 16 13 27 10 6 10 19 28 36 10 9 41 17 21 23 34 24 30 15 23 13 24 16 21 19 17 9 27 41 30 14 14 23 13 17 30 33 10 25 27 14 17 19 23 21 17 24 23 27 24 15 23 20 19 13 13 23 23 20 20 27 27 24 21 31 34 14 6 19 34 23 21 20 14 31 10 33 27 14 14 17 19 10 16 18 31 35 21 9 23 16 17 17 12 10 23 33 24 33 24 41 27 24 24 20 12 45 19 14 3 23 38 9 17 10 20 29 20 20 23 23 19 16 15 23 3 34 27 16 21 20 6 24 7 20 17 15 10 19 14 10 17 38 17 32 21 12 21 10 43 8 10 20 19 6 24 34 24 20 27 24 23 10 35 20 10 20 3 24 17 10 7 30 21 23 38 31 15 24 28 20 14 26 17 13 3 10 16 23 14 10 17 14 21 21 30 14 28 17 24 15 17 13 37 20 10 22 24 8 7 20 33 24 27 27 16 8 10 23 21 10 17 10 28 14 27 28 21 34 10 13 27 21 22 25 17 16 45 23 6 6 23 35 13 3 21 13 26 30 27 13 13 17 20 17 22 10 14 17 16 19 10 16 9 10 13 17 20 26 17 17 16 18 24 13 20 28 14 25 22 27 27 17 17 26 27 10 17 16 14 35 28 24 23 45 10 16 16 16 24 17 10 17 17 14 17 14 14 9 3 16 3 16 16 7 24 31 27 9 23 7 31 27 10 19 21 20 13 13 3 10 14 24 20 24 14 10 13 22 17 27 7 17 13 28 19 24 17 13 13 7 17 41 17 28 20 17 7 37 21 13 24 21 16 16 20 20 15 20 16 27 22 20 9 31 17 20 17 30 24 6 28 6 17 27 20 24 23 9 7 26 13 13 26 20 20 28 40 22 18 37 17 16 13 13 23 18 20 13 24 14 16 11 27 35 17 15 21 18 32 38 20 17 20 17 28 17 23 45 17 13 13 13 21 20 27 10 24 34 3 7 10 37 13 22 20 37 22 24 49 14 44 23 17 11 28 19 24 20 16 6 24 17 37 17 26 13 13 7 3 12 16 22 20 20 17 19 21 10 13 27 20 20 6 30 16 10 14 17 19 31 27 0 16 21 12 10 20 20 30 31 23 30 14 11 6 23 13 27 17 28 21 14 30 23 19 10 18 0 13 19 21 23 10 24 7 24 31 28 23 32 14 16 37 11 30 21 16 13 31 20 24 17 24 27 17 27 10 24 24 14 47 23 30 20 19 18 35 28 23 12 7 16 20 14 27 33 23 12 17 20 16 20 28 21 21 14 17 17 24 16 14 10 23 16 23 23 16 21 27 23 27 17 12 10 10 28 25 7 22 27 38 26 31 13 16 6 27 6 3 10 12 20 24 17 10 9 23 16 23 27 20 16 24 24 30 12 21 20 17 10 10 24 13 20 24 27 14 10 17 27 26 30 23 28 20 24 30 16 16 14 11 3 10 42 16 19 30 17 16 19 23 16 10 34 10 34 18 14 28 11 12 10 20 12 15 17 20 16 18 6 27 23 38 35 7 28 13 19 23 16 28 17 30 23 38 25 14 21 17 17 8 20 31 13 20 37 24 10 16 17 21 6 27 24 34 13 24 13 9 28 20 17 13 10 31 7 15 35 17 17 24 10 20 20 17 33 10 27 23 14 6 7 15 31 31 19 25 26 10 17 13 6 14 17 11 19 13 6 14 10 23 34 10 15 13 31 12 13 21 14 10 23 25 30 24 27 37 27 10 21 14 21 17 24 10 20 27 17 11 24 14 20 13 20 17 20 3 29 16 20 17 23 34 30 14 20 30 9 10 20 29 34 10 20 17 24 3 6 14 13 20 42 7 24 13 20 14 23 9 3 27 10 30 27 21 16 11 20 21 3 20 3 34 16 10 27 10 10 17 10 26 19 13 17 26 22 19 13 37 19 30 28 24 9 6 17 16 20 13 20 23 21 31 42 17 26 35 38 20 31 13 13 19 13 26 35 6 15 26 31 24 9 10 14 28 28 29 14 24 19 24 17 21 21 38 31 11 28 15 20 21 31 32 21 17 20 10 25 23 20 30 20 23 16 10 21 20 12 23 5 14 25 20 31 28 7 26 8 24 16 22 9 6 42 20 24 13 21 27 17 10 20 17 21 14 21 10 13 24 14 24 21 24 6 7 6 28 3 13 17 16 14 13 27 15 15 20 9 20 10 10 16 14 17 20 32 24 10 37 23 21 17 20 13 20 6 24 28 17 34 23 31 33 17 14 14 13 27 37 21 16 17 20 7 7 34 13 22 10 19 20 17 30 29 10 10 17 20 10 13 20 16 17 17 23 20 22 20 5 23 6 17 20 30 13 29 20 20 31 13 31 20 17 10 17 10 12 34 16 27 10 20 14 23 13 7 13 6 41 10 6 21 13 20 20 13 0 16 16 3 30 20 14 21 16 23 16 9 19 21 10 13 17 15 20 27 24 24 17 8 27 16 13 21 26 22 20 27 20 15 27 19 10 19 12 21 23 12 20 21 27 17 41 23 16 31 20 21 24 6 20 23 15 30 19 30 24 26 20 10 14 16 19 23 38 24 34 27 15 31 23 13 13 26 5 21 38 21 13 17 30 17 7 24 17 6 24 24 6 17 16 23 17 33 28 41 19 23 14 20 23 27 24 10 17 17 28 7 16 44 20 21 20 10 24 17 9 24 30 14 27 7 0 17 23 14 3 17 14 23 21 17 24 17 17 17 34 17 23 20 24 26 21 30 21 10 31 18 23 10 17 10 14 20 20 20 10 24 27 20 17 36 23 38 19 9 24 7 30 19 14 10 14 7 14 14 19 30 15 24 14 13 36 30 14 17 45 7 12 22 9 13 17 23 17 30 18 17 16 17 14 31 27 21 33 31 13 21 21 28 21 23 23 34 31 24 3 27 21 29 16 32 19 28 12 10 20 10 6 7 9 37 30 23 18 24 14 28 23 34 23 14 17 19 23 12 28 9 40 25 14 17 3 30 30 21 17 31 21 6 30 37 20 24 24 17 17 17 17 17 34 28 20 27 26 27 10 28 22 9 21 24 26 17 20 17 25 24 19 16 16 17 11 24 13 21 27 17 7 17 13 6 23 9 20 16 21 17 7 10 14 16 13 33 24 17 24 23 22 23 34 20 14 24 20 16 17 14 20 30 13 21 21 25 15 17 39 23 23 18 14 19 21 24 10 28 14 23 17 13 20 17 12 16 21 17 16 30 17 16 10 13 21 14 13 34 31 26 41 20 9 16 23 9 37 17 29 17 24 13 0 33 27 17 20 20 16 10 13 14 31 26 12 21 19 17 20 24 30 17 16 27 10 27 28 3 27 27 3 17 10 13 17 6 13 16 13 21 24 10 16 44 27 24 20 20 16 19 20 13 31 27 24 26 10 24 17 27 20 27 15 12 19 29 22 31 28 24 24 30 27 34 0 9 28 24 20 10 14 20 21 17 17 6 24 14 20 10 17 21 15 35 6 19 17 18 27 27 28 37 9 20 23 7 23 17 20 13 10 24 27 14 37 42 34 26 18 38 27 14 19 23 20 14 14 6 17 14 24 35 30 19 23 38 28 20 24 38 8 17 20 15 13 16 27 33 13 20 24 11 31 23 17 31 38 34 21 10 17 24 13 41 6 21 10 24 13 13 26 5 12 17 14 29 20 18 21 24 26 26 27 19 20 16 9 20 10 20 18 16 19 16 24 14 23 19 27 17 21 21 10 3 24 17 10 17 20 28 15 13 34 6 13 16 26 32 31 14 20 16 13 20 17 15 20 10 20 36 15 20 20 16 27 14 10 27 17 24 24 19 7 16 17 13 17 27 30 15 17 27 17 38 20 3 9 17 20 27 14 21 23 17 19 28 20 10 24 24 17 13 15 34 17 31 27 27 17 17 14 13 23 26 13 24 16 24 31 20 31 19 24 3 10 6 20 13 14 31 20 17 23 11 24 38 20 21 23 12 24 14 17 14 24 3 10 24 28 17 21 20 13 34 10 16 13 34 12 12 27 9 24 13 14 13 24 27 23 16 23 25 17 10 27 14 17 20 6 33 3 20 14 13 20 6 33 20 34 22 10 20 21 16 30 13 16 14 14 28 24 17 31 31 14 29 24 18 12 14 0 29 17 3 31 20 10 15 14 17 21 31 25 33 20 14 21 12 27 14 27 21 15 31 17 28 20 13 17 27 17 31 17 20 16 17 17 20 18 13 10 22 19 12 15 27 15 7 26 27 16 12 11 10 7 13 19 26 10 16 20 15 24 23 28 10 9 3 21 20 16 20 12 48 17 14 27 20 0 16 13 20 21 13 21 10 27 27 22 35 28 12 20 24 25 27 20 17 31 13 10 15 24 20 20 13 21 10 19 20 23 19 37 21 20 22 17 17 13 10 17 26 20 6 14 17 17 34 36 20 22 17 17 26 16 17 27 30 13 25 14 20 13 21 20 16 17 24 37 34 24 40 17 21 24 14 21 12 26 25 9 21 27 20 30 15 13 16 17 20 21 7 7 3 27 26 17 17 7 15 10 20 26 18 23 24 31 15 9 31 26 27 25 10 6 17 19 17 16 9 28 24 23 21 21 10 14 13 14 28 37 20 24 20 23 9 14 31 41 3 24 17 21 38 9 21 23 20 20 20 24 7 3 17 17 14 20 27 20 20 17 27 9 10 10 21 21 13 22 24 10 30 10 20 13 31 16 17 40 10 24 32 29 24 23 7 23 18 14 17 8 14 3 12 12 10 16 9 16 9 26 21 10 22 33 10 28 23 14 31 17 16 34 17 27 3 13 10 17 17 17 20 17 35 20 31 11 37 34 10 24 20 17 20 21 16 7 16 13 30 6 7 14 19 17 34 17 24 21 7 13 13 21 16 13 20 26 31 27 18 3 20 24 27 34 3 24 19 20 23 27 18 12 33 22 14 17 0 24 31 20 17 9 10 10 30 20 28 34 16 13 24 30 35 37 9 14 25 17 22 28 17 24 27 20 20 23 23 23 10 14 26 20 13 21 10 20 17 18 17 24 27 56 24 10 20 14 7 29 27 13 28 9 13 17 16 7 31 20 10 28 7 28 9 7 27 24 24 13 13 9 29 21 37 23 31 17 17 24 20 11 38 27 27 23 17 24 13 16 39 18 6 31 17 16 10 14 24 16 7 9 22 6 27 20 28 17 13 17 21 24 27 20 24 24 26 24 30 24 9 17 40 20 24 23 21 35 21 31 10 23 24 21 27 26 24 21 17 24 6 31 7 16 23 16 14 24 20 30 9 33 26 20 27 19 13 21 29 18 23 17 17 19 14 13 13 24 3 16 20 24 24 14 23 14 20 17 20 19 14 14 24 27 23 13 10 9 24 16 14 17 31 31 13 20 17 3 24 16 23 27 6 34 13 26 20 13 24 20 14 22 24 6 27 23 22 20 21 17 23 24 17 0 17 30 10 23 23 47 13 27 13 34 24 34 17 27 23 16 14 34 15 28 27 27 22 13 11 13 48 10 23 24 31 16 24 16 19 0 22 23 13 20 17 27 13 21 16 19 16 6 6 17 17 10 16 20 38 19 21 19 17 19 13 20 17 17 31 31 19 32 21 17 17 24 24 26 6 17 10 13 24 20 23 23 9 17 21 27 20 13 12 19 14 21 20 30 38 24 10 20 18 27 10 16 27 13 33 20 17 26 24 27 6 13 16 16 45 6 16 16 24 21 37 0 26 22 16 0 27 24 23 24 9 23 16 20 12 30 16 10 13 16 21 16 22 17 14 24 13 13 10 16 10 17 15 0 12 17 21 34 41 14 14 15 20 17 20 23 14 42 23 31 13 14 13 7 19 20 21 19 18 21 21 13 24 20 16 13 22 20 15 13 13 17 28 20 17 22 29 10 13 0 24 10 17 17 20 24 13 6 9 45 27 28 16 37 24 6 16 44 20 13 3 6 16 21 14 21 24 35 17 9 13 17 23 28 27 17 30 17 18 23 0 17 10 34 19 13 27 21 24 28 37 35 16 27 17 10 15 23 14 16 10 19 6 13 11 35 10 17 10 31 24 23 10 17 18 20 22 12 19 20 33 20 21 10 20 20 10 10 31 10 34 10 11 19 10 17 18 10 48 14 23 21 42 35 23 13 9 20 17 21 27 9 9 24 19 20 26 20 26 10 11 24 16 13 13 13 13 16 35 13 17 24 10 27 26 38 11 31 13 20 20 21 16 13 21 20 24 20 13 24 3 23 34 17 26 13 9 14 17 20 27 13 20 28 24 28 17 16 6 31 17 15 16 24 20 38 17 26 22 13 30 24 27 14 17 27 23 22 24 17 6 19 13 15 7 20 27 22 14 14 3 28 3 20 41 36 3 17 23 31 7 27 6 10 24 16 27 37 21 34 17 27 20 6 13 37 21 20 19 16 23 23 24 16 17 12 17 47 31 27 13 23 20 3 20 30 10 21 17 31 16 14 30 10 14 20 24 18 31 29 16 9 10 16 23 24 23 24 16 14 9 30 15 23 35 3 19 27 14 20 30 17 20 7 21 24 24 16 24 10 28 13 17 12 15 25 25 20 31 7 26 13 16 22 20 27 38 8 25 14 24 9 10 14 10 19 10 14 27 15 23 23 10 3 22 13 27 14 28 20 14 17 16 24 20 19 27 16 23 21 10 6 30 20 7 24 17 24 13 7 17 24 27 13 21 16 13 20 10 20 12 24 13 6 23 13 20 7 23 3 27 13 14 10 0 22 26 27 17 27 38 9 17 24 27 21 29 9 48 21 2 37 34 17 31 24 6 24 14 7 52 24 27 27 13 19 31 6 14 13 17 23 19 27 20 14 17 30 24 27 16 33 10 17 10 19 28 16 21 24 20 13 27 21 31 10 24 7 16 14 17 31 19 36 18 16 31 21 24 38 10 6 6 13 0 20 33 26 20 34 11 20 27 6 20 7 23 23 13 16 24 10 3 20 17 20 14 3 20 24 7 3 17 0 21 7 13 23 14 17 14 10 20 16 20 16 7 13 13 33 17 14 19 13 28 13 10 21 21 20 26 17 21 6 13 16 20 28 19 21 31 9 19 16 27 14 34 20 14 14 21 17 10 27 36 16 33 29 17 23 33 24 23 17 17 19 13 21 24 14 24 23 27 17 27 11 18 27 38 16 27 38 20 17 20 13 16 41 16 33 27 28 17 30 21 13 19 31 14 7 7 21 17 19 10 27 26 36 26 13 13 20 29 17 30 20 21 14 23 20 18 34 31 30 24 19 10 21 21 13 20 13 29 23 23 16 13 24 23 28 20 16 0 24 27 14 14 14 17 31 6 10 7 20 17 13 10 30 0 16 24 20 17 13 10 13 24 23 20 14 31 31 33 19 24 20 17 24 20 19 30 17 28 13 13 27 13 7 15 9 31 20 27 9 11 9 3 24 24 16 20 31 7 27 3 10 10 16 14 16 13 10 20 34 6 27 20 24 30 16 20 27 18 28 27 21 27 16 10 20 13 22 19 23 20 24 20 21 21 24 10 42 26 20 24 10 8 6 10 28 0 12 7 24 23 33 9 12 14 27 34 10 25 24 23 17 14 21 16 28 13 24 14 7 21 27 17 38 10 21 19 6 18 20 23 13 27 20 10 31 24 9 17 18 16 16 17 19 19 27 10 20 14 20 13 20 21 27 20 19 27 20 23 17 28 18 28 18 23 10 9 16 27 27 16 21 38 20 28 16 9 24 17 30 16 20 41 16 27 24 9 24 17 15 33 7 6 17 27 27 20 13 9 10 9 27 17 16 31 24 9 17 20 18 7 17 34 20 9 24 10 18 31 35 13 27 16 23 41 8 10 42 30 21 24 24 25 32 23 23 20 21 30 16 22 24 3 20 28 22 16 29 14 28 24 14 10 14 19 25 16 21 7 16 7 17 17 28 14 27 21 18 14 28 20 10 17 14 27 22 17 18 17 17 26 30 24 31 17 30 24 20 23 20 6 24 17 16 16 3 17 16 11 11 13 27 27 16 30 34 21 14 17 10 20 28 9 20 17 20 20 23 13 24 8 10 17 23 8 27 27 22 16 13 17 9 27 27 7 17 37 20 15 28 13 24 10 19 22 19 3 11 30 24 20 9 24 17 24 20 25 13 23 21 20 36 3 24 17 34 26 9 16 23 27 9 11 10 18 20 24 24 17 19 21 13 17 18 10 17 20 20 27 10 6 24 24 23 14 17 20 20 21 23 23 17 23 6 8 30 12 16 22 27 18 10 12 21 23 34 23 17 21 21 42 3 17 6 28 37 39 17 24 15 20 24 11 25 13 37 24 19 20 17 21 16 35 24 11 17 14 6 17 21 34 20 28 0 19 26 14 20 17 16 24 41 12 33 10 32 23 13 3 27 3 10 24 20 26 21 21 13 26 8 23 16 17 38 27 20 9 14 31 24 6 24 13 10 27 51 10 7 38 27 7 14 21 17 14 31 14 11 6 6 30 22 13 13 13 3 16 24 17 17 19 24 16 45 30 24 23 10 12 16 21 20 7 34 21 20 17 10 13 20 13 20 13 3 17 38 26 20 26 28 34 34 13 10 17 24 10 13 0 20 20 17 31 26 34 23 13 23 19 20 27 34 17 31 17 9 13 24 16 13 22 24 22 16 13 16 21 17 23 27 27 24 16 20 3 18 34 24 17 17 19 17 25 20 23 10 16 27 10 28 23 18 23 21 21 19 19 10 10 9 23 27 21 17 16 17 13 10 24 19 21 21 20 16 28 17 17 17 22 16 22 3 21 22 7 19 20 19 33 17 3 27 7 27 13 7 3 22 24 25 20 24 20 34 16 30 10 21 26 20 13 16 8 16 13 21 38 13 13 14 27 21 10 10 17 21 7 15 13 14 12 3 30 24 16 10 21 20 24 23 24 20 19 21 15 6 0 28 31 23 20 45 29 10 10 25 10 24 11 21 11 13 23 17 12 13 20 14 27 20 10 28 17 10 10 14 16 16 16 9 6 16 14 6 14 17 9 20 13 20 16 30 27 23 23 20 24 19 13 36 20 17 24 23 16 17 9 11 24 7 21 21 27 16 14 22 15 16 20 13 12 19 13 11 13 31 19 26 37 34 24 20 19 26 17 27 8 13 29 31 19 23 23 17 16 13 21 31 24 23 16 16 19 13 13 14 24 23 30 28 13 10 30 16 9 14 16 21 52 10 33 24 10 44 34 6 23 20 27 28 23 16 19 10 26 30 24 17 10 7 10 23 24 29 18 9 20 24 21 19 15 21 28 10 24 11 20 19 20 17 14 20 27 13 27 28 29 3 17 17 14 24 19 20 16 20 23 23 33 41 28 23 3 10 24 20 8 24 27 20 19 21 21 27 24 24 27 17 20 13 31 12 24 10 41 12 27 23 13 23 28 20 31 20 43 13 17 27 10 14 17 27 24 21 12 13 17 16 6 28 21 17 30 10 17 33 38 16 27 6 7 17 17 31 28 16 16 29 14 17 35 13 0 6 29 24 12 13 24 27 14 17 27 16 10 16 17 17 13 25 17 27 23 6 22 24 27 17 9 16 31 14 10 22 10 30 27 13 22 17 13 28 17 13 20 13 34 24 3 22 9 20 17 24 18 19 7 23 19 23 20 15 28 23 17 24 25 27 13 16 27 20 35 17 21 10 24 20 23 15 27 21 11 20 23 22 20 20 20 30 30 12 37 23 7 13 0 17 10 10 27 12 20 27 17 20 23 30 24 10 31 17 24 13 3 25 23 13 13 20 24 30 24 20 17 19 19 23 24 22 10 28 26 31 21 6 31 20 3 3 23 20 20 24 7 27 6 20 17 17 23 13 16 19 16 13 17 10 28 28 10 24 26 14 16 7 13 21 17 27 23 16 20 16 22 34 23 24 24 20 3 23 35 14 31 20 20 7 16 31 18 30 14 24 15 22 24 24 14 14 17 14 23 21 21 24 37 20 21 34 25 34 20 26 47 27 28 10 23 17 28 0 6 19 28 17 23 16 24 30 21 20 17 0 24 25 31 16 9 21 38 24 9 37 13 28 33 20 27 13 24 30 17 27 14 23 13 13 13 6 35 14 10 27 17 17 20 35 13 13 7 16 20 24 20 13 3 14 15 10 24 17 20 35 23 20 19 25 21 31 13 17 28 24 17 26 20 20 7 17 17 21 10 13 16 23 23 13 10 7 27 17 17 20 16 18 20 3 3 28 16 23 15 8 30 34 10 27 25 23 20 17 10 20 7 13 22 24 13 16 24 10 21 38 28 16 15 15 6 34 14 20 21 17 21 26 22 31 27 34 6 23 16 21 17 21 24 40 27 10 24 9 20 28 14 17 17 21 12 16 34 27 27 45 15 42 13 26 27 23 27 24 13 17 14 23 14 7 13 17 10 13 21 23 13 37 20 20 20 17 28 17 10 11 24 19 23 16 22 20 27 7 3 19 14 19 17 28 21 10 20 17 7 20 17 13 30 6 9 16 40 17 13 14 21 44 12 22 10 31 34 24 20 25 20 17 20 34 31 13 7 10 26 25 21 21 20 34 27 17 24 16 22 21 24 21 12 31 31 23 18 16 31 24 21 30 20 20 10 10 6 23 15 20 22 21 10 19 13 14 16 34 17 9 31 19 20 16 23 41 12 7 20 21 31 13 35 10 20 14 6 34 18 17 10 20 19 16 17 20 17 19 21 26 26 45 22 22 31 20 24 14 20 31 10 27 23 31 10 17 24 14 31 10 27 16 10 20 17 27 16 23 28 24 13 16 10 15 6 10 8 22 22 24 13 10 6 17 7 10 35 10 17 25 14 20 13 34 20 13 10 10 13 20 13 30 24 25 17 19 13 23 13 19 17 17 27 34 13 31 22 20 20 7 21 27 10 23 14 27 20 6 13 10 10 3 23 23 7 16 17 30 17 21 13 13 16 28 20 38 21 21 24 24 23 24 14 17 24 3 17 19 26 9 26 13 14 24 33 28 27 28 17 17 18 17 10 12 13 13 10 17 20 17 24 10 19 20 29 21 13 16 34 34 13 6 13 27 24 18 7 21 10 13 24 3 28 13 16 23 23 13 13 25 27 13 10 20 6 10 16 22 28 19 17 30 41 20 15 27 14 22 17 20 13 24 21 12 21 21 23 24 27 3 21 24 27 31 41 28 22 10 21 31 27 13 34 24 13 7 17 27 14 10 27 14 30 27 7 31 21 17 23 27 15 16 10 28 10 0 0 13 13 20 14 33 14 20 13 19 23 34 23 13 26 7 21 17 13 7 17 9 17 20 24 17 16 20 24 11 10 22 6 16 34 17 6 6 10 10 26 24 9 17 17 24 43 24 21 9 26 15 28 19 15 10 28 13 13 7 17 16 23 23 21 45 23 23 10 18 13 10 21 13 15 3 17 26 7 16 19 20 34 27 24 19 13 27 20 26 6 14 24 26 31 19 14 13 6 14 13 17 9 31 24 10 20 24 27 17 17 20 7 10 24 10 38 40 10 7 20 24 20 19 17 13 13 27 37 34 17 23 13 21 21 18 7 37 16 18 17 14 16 23 32 11 6 10 14 20 14 21 13 17 9 13 17 0 36 10 12 10 17 17 17 23 21 17 14 7 10 28 13 13 16 10 15 14 31 6 6 24 20 17 22 19 17 20 13 21 12 24 28 24 8 16 18 20 22 30 27 14 17 23 13 17 20 34 38 3 9 23 20 22 20 16 23 34 27 17 13 30 20 31 27 18 21 17 17 3 6 17 17 13 19 18 17 24 24 20 20 21 7 17 38 22 0 13 23 17 23 10 27 24 10 14 27 16 23 24 20 20 7 6 21 21 16 24 14 24 20 10 17 15 16 19 13 27 31 10 19 20 25 24 26 20 10 7 17 25 14 14 13 13 24 28 12 24 10 17 18 14 24 24 14 10 12 6 12 20 20 24 38 10 3 12 23 30 24 20 24 17 6 23 14 14 23 24 19 23 21 24 20 30 24 7 14 34 13 26 21 17 9 45 34 20 17 20 15 24 27 31 19 17 19 7 24 45 16 12 13 16 24 20 17 27 14 21 17 10 35 13 24 20 33 7 13 10 17 17 41 23 12 29 27 23 31 17 30 11 20 12 24 27 36 28 24 16 12 15 30 6 15 23 33 7 28 13 23 19 26 17 24 24 10 24 3 23 14 21 3 30 17 20 14 16 20 10 16 26 29 19 23 17 21 20 10 19 24 21 21 30 23 24 17 25 23 29 10 22 30 15 6 19 12 27 17 10 16 31 21 7 14 23 13 24 27 20 21 33 29 30 13 15 10 20 10 27 14 21 28 18 13 26 27 19 10 14 14 18 17 17 10 20 27 15 20 9 14 13 13 14 17 20 21 45 28 35 16 10 22 24 19 27 34 9 19 23 6 20 22 24 16 16 7 13 30 23 16 19 20 6 14 19 12 10 41 28 17 34 27 12 14 41 13 34 7 16 11 28 10 32 17 5 24 27 19 13 24 16 17 10 14 3 26 20 30 13 35 28 10 28 17 27 14 19 20 16 13 10 27 25 14 21 10 27 27 9 9 14 27 19 21 22 13 16 23 10 45 24 13 16 30 23 31 9 13 30 19 27 22 20 32 31 10 24 3 13 10 23 17 13 16 27 30 24 15 14 24 14 10 23 3 24 20 10 26 35 10 17 17 23 30 31 10 32 20 14 13 9 20 15 7 21 34 10 30 19 16 17 18 24 10 9 19 13 17 30 20 18 41 27 14 14 16 17 17 13 17 17 13 14 34 20 14 17 24 20 23 20 10 14 30 23 31 14 17 15 10 34 23 27 13 15 17 16 19 20 28 20 10 3 14 17 28 21 27 22 17 19 26 27 6 24 7 24 34 30 33 6 17 20 12 16 11 23 21 24 23 10 36 38 22 17 13 23 20 17 24 6 24 24 14 13 17 20 20 10 14 27 20 16 17 28 13 24 13 24 17 41 17 24 7 24 18 7 10 25 22 17 26 3 11 19 25 34 23 14 17 25 31 42 13 6 27 28 27 38 30 15 19 20 31 24 27 12 20 10 27 20 16 19 27 23 13 27 34 23 19 12 18 13 9 18 17 31 23 21 38 24 10 16 7 13 21 27 27 11 20 30 30 21 24 24 24 17 21 30 12 21 17 13 20 35 27 20 24 10 20 24 20 23 21 14 34 17 24 33 10 27 10 13 16 34 20 35 21 13 7 28 13 10 10 17 28 20 24 20 13 7 16 30 23 6 29 14 20 30 26 20 21 10 10 16 13 35 17 12 19 10 27 24 9 3 31 17 13 13 17 14 14 24 23 23 14 24 10 20 24 17 24 8 13 28 6 23 24 14 21 17 12 24 27 21 30 24 17 10 32 29 16 26 20 20 22 3 6 17 41 16 23 29 34 24 14 19 23 13 28 31 14 26 27 20 10 17 10 20 3 24 25 29 17 6 12 23 9 24 27 24 24 17 14 24 27 13 21 16 27 16 17 13 23 7 14 0 9 7 13 23 11 30 10 17 10 10 21 23 9 14 9 31 20 7 36 36 26 16 17 26 28 14 30 20 6 10 31 31 3 22 14 13 12 22 21 23 33 9 20 16 14 17 24 13 48 3 13 0 23 24 26 24 12 16 10 30 16 13 13 31 27 14 20 28 12 14 26 27 17 37 13 13 17 21 33 34 14 24 30 29 17 18 38 20 17 23 23 17 27 16 9 14 7 45 23 16 24 24 14 3 27 7 21 23 31 26 27 19 24 23 24 13 13 19 7 24 17 23 20 41 14 24 28 24 24 28 24 21 23 3 22 6 23 21 19 26 13 34 13 34 18 31 7 17 24 9 31 16 12 23 24 17 21 30 9 15 16 6 21 21 24 14 18 19 16 10 24 13 17 45 24 14 20 23 10 21 20 24 34 27 13 21 20 27 27 21 38 20 15 38 23 6 29 24 21 41 24 20 24 10 14 3 28 6 13 21 36 27 24 19 34 12 14 7 14 13 16 6 34 38 24 37 10 22 13 15 13 23 27 24 36 6 17 21 14 17 16 24 23 21 36 37 13 28 10 20 11 23 14 15 17 21 35 20 20 9 21 21 20 31 24 10 3 17 20 24 21 55 30 19 19 19 7 23 20 23 13 38 34 19 3 16 28 21 26 24 20 10 17 20 3 17 20 37 10 17 14 19 14 24 17 19 16 20 16 17 10 24 6 10 20 17 17 14 20 10 10 22 18 27 9 13 6 16 28 20 27 13 16 24 28 17 21 24 28 27 20 31 28 16 23 13 20 16 17 14 14 16 0 26 13 23 17 14 23 20 30 28 27 31 7 25 13 19 38 16 20 10 11 21 19 31 24 20 20 30 24 20 9 7 20 31 17 14 37 24 15 27 10 24 21 28 17 23 20 30 27 12 12 24 16 20 12 20 10 3 27 13 34 17 16 17 9 7 24 25 17 28 21 14 24 30 24 14 6 29 9 10 24 13 34 29 25 10 9 21 24 14 19 10 19 23 21 13 14 10 10 18 7 16 20 27 14 12 23 24 14 16 16 23 17 27 0 16 17 19 20 16 6 13 27 17 17 37 27 14 13 6 23 19 14 34 10 23 27 17 24 29 25 13 34 3 13 23 38 13 17 12 27 17 24 30 27 7 14 21 27 26 31 30 14 17 20 21 17 31 9 20 19 7 28 17 35 23 24 6 16 28 13 27 14 7 6 24 16 23 17 23 7 10 24 21 25 27 14 14 23 35 13 19 16 21 47 24 21 31 41 17 6 27 11 16 3 13 7 25 34 31 22 27 21 24 16 23 24 6 23 23 3 24 38 10 13 31 30 10 17 45 10 20 14 9 22 24 28 21 10 30 3 21 35 24 10 21 20 19 14 24 21 16 3 14 14 24 13 27 20 6 17 6 21 13 23 10 6 10 25 17 9 24 27 27 24 20 24 33 28 30 20 18 31 30 33 17 14 29 26 30 17 23 13 26 20 22 20 10 17 19 24 19 21 15 3 27 22 24 20 13 13 18 42 24 27 28 27 23 31 13 18 35 20 20 31 10 7 31 17 17 30 17 10 12 20 10 13 10 21 17 13 23 23 7 24 20 17 18 35 17 16 13 20 31 28 16 12 0 6 14 17 20 19 25 30 3 13 13 22 13 19 10 7 31 9 17 19 7 20 16 13 24 20 16 18 19 27 16 37 17 27 24 24 30 26 3 14 10 16 21 20 31 6 26 24 14 20 31 17 19 26 29 7 20 17 20 14 23 14 13 17 31 20 37 20 26 31 38 20 35 24 20 17 3 24 24 30 19 20 23 37 13 20 16 13 24 27 10 14 24 23 17 20 28 16 31 10 21 17 13 19 24 20 25 24 10 38 31 16 14 17 18 16 20 17 20 13 13 36 28 38 13 10 0 19 27 28 16 24 14 14 13 3 24 17 13 27 27 9 20 17 18 24 24 24 19 14 20 31 6 37 10 19 8 20 13 20 31 31 27 31 6 13 15 33 13 9 17 17 16 13 7 14 21 24 7 20 17 14 3 31 38 21 35 17 24 27 19 27 19 13 13 7 17 7 20 14 14 23 10 21 28 31 32 24 28 10 25 17 14 31 14 16 10 20 14 22 27 16 22 31 18 31 10 24 31 17 23 21 24 14 40 14 18 21 44 33 26 13 23 17 15 21 6 38 19 18 21 21 24 15 16 31 13 13 22 17 17 20 21 17 24 14 13 37 20 20 7 18 10 13 21 14 17 23 20 38 18 39 7 7 23 20 7 13 6 21 20 10 10 41 36 22 10 23 19 19 16 14 31 23 22 17 17 19 41 13 23 21 36 20 12 23 27 19 13 23 24 16 23 33 37 13 17 23 21 6 23 13 34 20 6 34 30 13 16 24 5 26 24 21 13 26 17 27 20 10 26 7 30 24 9 21 9 23 6 17 18 15 17 14 19 34 17 13 13 14 6 11 26 9 22 41 17 21 8 29 7 13 24 3 23 13 16 24 17 31 16 17 18 10 10 16 24 16 26 28 12 14 13 7 16 41 9 21 23 13 17 13 26 23 22 21 10 23 31 20 20 21 17 24 20 30 12 19 34 17 24 17 18 10 6 17 9 17 30 9 17 16 27 13 34 7 24 15 13 17 13 23 31 21 26 17 24 10 21 17 14 17 28 34 10 38 17 21 23 19 28 23 25 13 20 27 7 31 13 27 20 17 25 17 24 10 20 35 13 6 9 14 19 10 8 24 8 17 10 30 17 24 28 44 27 23 10 16 35 23 38 24 16 31 24 21 18 7 14 24 21 27 21 24 15 20 41 0 22 26 14 22 7 20 7 13 23 10 27 28 23 12 14 15 18 6 20 13 17 20 15 27 17 35 14 13 34 13 30 22 23 9 10 24 17 20 14 20 27 20 14 13 37 34 3 17 31 27 20 17 20 38 24 33 31 17 17 16 24 24 17 20 27 30 31 31 13 24 16 33 24 12 27 9 17 9 10 25 10 23 7 28 23 7 21 19 20 14 27 13 22 16 13 7 24 21 21 27 10 27 19 10 6 24 17 22 16 21 16 10 10 17 14 24 31 28 19 27 17 0 20 21 20 19 24 14 17 35 16 23 20 41 27 20 24 20 17 19 7 14 7 29 23 17 33 14 7 16 35 16 10 10 17 20 17 24 17 14 3 24 23 13 9 35 42 11 10 16 20 17 16 23 28 16 31 18 10 34 16 13 31 14 10 28 13 29 11 31 30 19 9 9 14 21 30 25 20 31 17 14 3 16 21 20 16 13 7 24 17 31 13 24 24 21 10 13 9 16 16 23 20 19 21 19 22 14 13 13 24 13 29 3 10 31 16 28 16 10 21 23 24 20 10 27 34 14 34 26 20 9 22 6 14 20 17 33 34 14 44 27 19 37 23 27 13 22 28 35 26 26 6 34 6 27 31 17 30 28 37 16 3 34 21 27 34 33 31 19 20 34 21 21 14 6 13 17 14 6 10 25 24 7 34 29 27 33 13 27 23 18 16 28 20 22 20 6 24 15 3 14 14 12 17 13 37 38 10 34 13 17 30 27 10 13 10 23 3 24 31 14 16 13 20 15 14 16 0 20 6 28 16 13 18 9 8 20 6 20 27 24 10 10 16 14 17 12 24 34 12 31 14 26 24 18 28 17 11 27 24 10 19 24 27 6 16 16 28 21 30 22 13 12 21 14 30 7 29 23 3 16 24 17 20 11 28 10 16 20 13 24 13 24 19 3 31 10 13 15 27 7 17 6 27 9 17 7 28 24 24 16 24 14 6 36 0 20 17 20 17 27 17 24 10 17 17 31 20 9 17 10 18 16 27 17 26 15 30 22 20 12 13 28 23 17 17 14 9 24 20 14 0 7 21 14 21 20 21 14 13 31 16 17 14 17 21 6 17 15 11 27 31 8 0 17 27 28 21 21 23 7 6 14 7 34 31 7 17 37 24 19 9 16 20 24 9 33 7 20 15 28 3 23 24 23 12 14 20 20 9 26 30 20 6 23 19 9 8 17 15 42 44 6 13 9 17 13 14 24 10 23 10 30 23 18 17 24 12 28 18 20 10 20 16 20 34 29 23 10 24 25 19 20 20 10 41 22 16 3 24 13 12 13 24 16 16 17 7 6 16 30 21 10 13 23 12 7 10 9 14 28 38 34 22 30 19 24 3 6 21 14 20 12 7 23 10 20 27 7 34 19 31 19 14 14 24 27 27 16 13 17 13 6 24 17 34 21 23 20 17 20 3 17 18 17 20 19 3 23 31 22 28 17 24 17 23 17 16 24 11 17 7 31 24 13 24 16 13 21 24 13 16 0 17 20 31 31 21 20 6 24 19 13 13 10 25 22 10 27 7 23 17 19 23 27 10 3 10 14 23 17 22 17 10 10 7 32 14 15 27 23 13 30 19 3 21 19 13 33 23 17 19 10 42 10 9 11 16 20 13 24 24 20 14 17 34 14 17 29 16 17 6 30 27 17 27 24 15 16 24 48 13 20 18 9 14 27 13 20 20 17 13 33 20 13 8 17 13 22 17 34 14 27 16 15 7 16 17 20 17 10 9 13 37 26 13 6 24 31 33 28 21 27 24 19 24 30 13 19 17 20 27 21 19 24 14 14 21 20 28 21 34 9 0 14 16 6 7 14 34 16 23 16 27 10 23 17 24 17 19 24 24 21 23 25 19 27 28 13 16 10 10 10 17 16 30 34 24 17 37 24 22 9 18 13 12 24 17 27 13 14 7 8 20 10 17 20 24 19 17 31 17 14 7 13 13 10 31 42 20 30 14 13 42 20 16 23 24 16 21 24 24 26 14 17 3 13 21 23 25 35 16 24 34 18 3 27 28 16 23 20 13 14 20 24 13 13 10 17 10 34 21 11 27 13 16 27 28 17 23 36 20 23 17 23 27 7 13 11 13 24 14 14 6 7 24 14 20 30 14 13 24 27 24 23 20 3 10 23 13 24 21 14 6 3 27 24 23 24 6 25 10 13 14 19 27 6 24 27 6 20 23 21 24 24 23 24 16 28 33 27 24 24 16 7 3 27 20 22 24 13 22 20 16 23 25 45 13 10 11 28 30 17 31 19 20 6 28 21 10 22 28 35 17 12 14 13 31 7 31 3 17 10 14 33 11 27 23 14 24 9 24 10 24 28 12 28 0 16 6 14 17 7 21 10 17 21 26 32 17 17 16 38 21 9 28 16 27 29 24 9 20 13 13 20 23 13 16 27 26 8 35 27 17 26 10 21 13 27 17 17 22 15 33 14 24 27 25 28 21 24 27 6 18 24 12 30 27 3 17 0 40 14 21 22 13 3 13 38 34 10 13 7 3 21 17 24 34 19 20 9 21 17 17 9 20 17 7 38 15 14 13 27 10 21 20 24 27 27 30 13 10 10 23 16 32 19 19 20 16 27 13 21 10 24 22 3 17 23 6 34 13 22 42 20 20 14 23 20 19 21 24 7 21 13 13 23 41 6 16 33 17 17 22 13 24 13 31 10 3 17 21 10 14 17 19 25 20 54 28 10 14 19 17 9 16 27 30 20 20</t>
+  </si>
+  <si>
+    <t>JSB(10.67783643717634, 9.153048038060628, -30.829809687734237, 219.74166639396694)</t>
+  </si>
+  <si>
+    <t>22 24 24 23 22 16 20 21 17 25 21 19 23 22 16 18 29 15 19 28 25 23 23 19 24 24 31 26 18 27 28 20 20 21 19 24 20 25 25 19 33 18 26 24 22 22 17 17 24 20 23 17 21 23 25 21 23 20 28 28 20 15 25 26 20 17 23 22 15 25 18 29 28 21 21 26 28 24 22 25 20 20 20 32 17 28 28 19 25 17 17 16 25 15 14 28 24 28 24 17 21 16 26 21 25 20 26 19 23 19 20 29 20 13 13 25 22 32 22 20 18 17 22 20 16 24 19 26 20 19 12 17 16 20 25 29 24 19 19 29 21 19 20 18 16 24 21 19 20 20 23 17 18 26 24 21 24 23 21 18 28 18 20 37 37 23 18 19 28 21 21 23 23 35 23 22 21 21 16 18 26 26 24 23 21 18 18 25 20 17 17 20 19 18 26 25 18 21 17 26 24 19 20 29 30 15 24 26 23 25 19 18 16 12 23 29 21 27 22 16 20 22 21 26 20 9 32 15 31 27 16 32 24 23 25 22 16 17 21 20 23 34 20 20 14 28 21 21 11 25 21 19 30 25 22 20 26 19 22 19 11 28 26 15 16 22 18 27 19 23 20 20 17 29 20 27 26 26 20 18 22 23 26 21 23 18 27 27 25 17 17 20 30 18 23 25 21 18 21 20 21 18 24 17 20 12 26 13 21 13 19 17 18 21 29 18 22 27 22 28 23 18 19 24 20 16 23 22 24 25 16 18 16 20 18 28 21 26 17 24 18 23 22 19 17 21 18 29 27 22 21 15 16 18 27 22 25 26 27 21 25 23 25 15 17 19 19 24 20 21 25 24 24 16 21 25 29 16 23 22 24 30 16 20 23 27 25 21 21 16 27 27 24 25 26 26 19 19 19 21 22 28 21 21 32 22 27 15 24 16 21 22 20 25 17 20 23 25 21 16 20 21 22 27 19 20 23 27 21 28 23 16 25 23 22 26 20 21 25 19 20 15 25 20 24 18 29 22 20 21 21 21 17 14 20 19 25 25 19 23 16 19 25 32 19 23 17 18 25 22 19 21 24 22 25 17 20 22 19 23 26 21 17 25 20 20 13 24 12 15 21 21 21 20 26 27 19 19 12 27 12 23 22 24 21 20 20 23 25 22 29 24 25 22 20 19 23 24 23 19 26 24 18 24 20 22 21 15 33 27 13 12 22 26 31 14 20 27 24 20 18 21 28 21 29 17 23 21 23 20 22 22 16 19 20 23 22 17 22 31 19 24 18 22 9 18 20 27 14 19 17 30 15 22 28 26 29 19 23 26 26 19 25 16 29 26 19 23 23 20 16 23 18 16 24 17 25 19 21 21 21 19 20 17 26 30 22 28 27 15 21 18 20 23 14 25 23 26 23 18 18 21 23 21 20 17 30 17 15 20 23 20 22 26 21 20 24 21 23 29 26 22 24 28 26 22 19 25 22 19 20 21 24 18 21 11 19 25 23 28 21 18 17 20 19 27 23 22 28 24 21 29 20 30 16 15 23 19 13 18 25 19 17 18 21 14 20 17 25 17 18 15 20 27 15 22 24 16 25 22 24 24 24 18 25 31 18 25 21 28 16 19 25 20 21 18 25 24 11 22 20 18 26 19 21 18 21 24 16 25 17 22 26 22 25 18 21 16 21 29 19 20 11 13 24 26 20 26 29 21 19 30 16 28 19 24 20 20 18 20 24 20 24 20 21 26 18 18 28 11 16 16 20 21 22 23 17 26 14 24 27 14 22 21 23 24 28 24 18 27 28 24 16 14 24 25 20 21 15 18 26 25 18 28 17 16 27 16 19 29 22 18 20 27 26 19 23 17 19 23 24 28 21 19 24 22 17 29 21 20 16 17 25 23 26 26 28 22 22 30 19 21 18 15 21 25 16 28 20 23 29 21 27 20 22 20 18 18 26 27 22 29 16 20 22 24 20 28 21 23 27 27 20 23 25 17 23 16 25 18 25 24 20 18 19 19 19 20 17 17 21 25 24 16 20 16 30 16 27 18 26 18 17 21 34 22 31 25 23 17 16 23 26 21 28 20 22 23 20 23 20 26 21 26 15 16 25 19 18 30 19 22 30 14 25 19 23 20 29 18 30 27 18 31 19 20 15 28 20 22 21 21 17 21 21 21 15 22 21 22 22 18 21 24 22 22 16 18 25 17 15 18 25 23 19 25 17 20 23 17 22 19 27 23 24 19 28 24 23 21 22 20 26 27 17 18 19 19 31 25 26 21 23 25 22 20 23 24 17 24 21 27 26 24 23 17 26 20 22 12 23 21 23 23 22 22 23 19 16 20 27 17 15 23 22 16 19 13 34 23 27 20 27 20 21 29 17 18 15 18 16 17 26 17 14 21 22 19 18 12 21 21 16 25 21 19 20 24 11 16 24 18 22 19 17 21 21 22 20 19 25 22 24 14 30 24 23 22 18 19 20 24 22 15 19 22 24 16 27 26 25 7 17 21 16 23 25 15 20 27 27 24 19 27 22 19 27 20 22 28 24 24 18 16 21 33 20 25 30 23 27 13 24 23 18 20 24 15 20 21 18 25 27 18 29 26 18 19 18 17 21 20 25 18 27 19 19 17 21 21 25 25 25 18 20 23 23 23 19 20 28 14 29 32 16 24 15 18 26 21 29 20 25 25 23 15 18 24 20 21 24 24 20 30 22 17 29 12 20 24 16 20 18 19 17 22 19 24 18 18 24 14 21 23 35 24 18 32 19 20 22 29 23 16 27 21 21 21 16 12 10 23 20 23 29 21 13 17 22 24 19 21 19 24 29 19 21 18 25 22 18 21 23 21 16 20 15 17 16 18 17 22 23 26 33 24 19 25 18 28 27 19 17 22 23 16 25 23 16 25 21 25 34 22 23 26 24 18 22 18 27 24 25 24 15 20 35 29 26 19 22 20 22 26 14 26 17 24 18 17 20 20 22 20 18 19 16 14 24 21 22 21 23 14 23 19 22 19 22 27 20 18 23 23 24 15 21 21 20 25 25 25 19 23 24 26 19 25 15 18 25 22 17 27 27 23 28 27 25 18 25 20 23 24 18 21 22 20 23 24 25 17 21 24 32 24 20 28 23 25 16 12 23 20 14 26 19 14 20 22 22 19 21 19 23 19 20 15 21 23 19 24 25 23 17 16 22 23 21 23 26 18 19 20 21 31 13 23 16 28 20 16 25 25 22 19 26 25 20 22 21 22 19 15 20 21 27 20 20 15 20 20 27 21 22 21 16 24 19 20 21 23 19 18 18 26 24 20 25 30 23 17 24 20 26 25 21 22 22 34 25 19 19 21 11 25 27 27 20 28 13 20 22 20 21 16 21 14 21 19 21 12 25 20 12 18 21 21 25 21 21 27 27 19 24 21 15 30 25 22 16 15 19 22 25 20 22 20 16 18 22 21 23 26 23 30 20 18 20 16 26 16 29 19 19 17 20 20 14 20 18 27 24 16 20 19 25 24 27 18 26 26 25 21 20 18 25 24 18 21 20 22 17 24 16 22 13 22 26 21 15 22 19 22 22 24 21 18 21 20 27 21 13 23 19 21 31 30 22 19 20 22 26 20 19 18 18 11 18 19 31 17 24 29 20 27 29 20 23 22 21 28 18 23 21 13 20 15 21 15 17 23 24 26 20 20 26 14 21 24 15 17 16 19 27 23 28 16 25 23 26 19 30 24 18 23 32 24 14 18 22 19 30 21 16 23 26 16 26 26 27 18 26 13 23 15 20 28 21 15 31 20 24 20 18 19 21 19 28 18 21 25 29 24 14 20 19 28 17 27 16 25 24 23 16 26 29 22 25 26 26 25 29 21 16 23 16 20 19 19 13 15 29 19 21 20 29 30 11 26 17 22 21 20 21 16 19 30 25 21 16 18 18 25 16 20 20 23 13 22 24 25 22 26 26 14 21 22 22 20 14 24 24 22 22 27 20 14 21 23 19 18 15 21 20 20 17 21 26 17 25 19 16 18 24 18 19 23 18 17 17 18 27 11 19 23 18 21 23 26 25 19 17 22 14 22 21 17 20 25 25 19 20 18 16 15 20 18 23 17 27 30 30 23 20 18 22 20 15 29 20 19 11 15 16 21 24 22 24 19 29 23 21 18 24 12 23 19 30 20 20 16 23 26 22 23 13 22 21 14 21 19 18 24 20 19 21 22 10 22 26 26 29 16 29 23 28 22 27 18 22 24 28 24 22 17 19 27 20 18 26 15 21 16 24 18 23 26 16 16 24 25 33 21 26 19 31 21 28 18 15 21 26 28 26 27 25 25 23 19 28 23 24 18 31 19 20 17 22 22 29 19 18 20 25 30 21 26 19 15 28 24 15 28 20 20 21 29 13 20 22 16 16 27 11 21 25 27 25 16 28 20 22 25 23 24 28 21 20 23 26 20 31 20 28 20 21 27 23 20 21 28 24 17 22 26 19 22 25 15 21 24 24 15 23 20 18 19 23 27 22 26 21 19 22 23 24 18 23 29 19 19 17 28 27 24 22 18 25 19 13 22 22 28 22 17 24 17 28 25 25 17 22 11 31 26 26 19 20 19 25 26 17 22 19 16 18 18 22 27 20 17 21 19 19 16 30 16 22 16 21 20 21 21 23 17 21 19 16 21 21 20 24 27 21 18 19 20 22 19 22 21 15 33 29 24 20 26 26 21 17 21 21 24 19 17 25 24 22 24 25 22 24 33 22 25 22 28 22 19 30 14 16 15 13 21 26 22 29 15 20 25 23 16 18 17 17 16 22 19 18 19 24 27 11 15 24 20 29 21 18 21 14 21 16 16 26 23 25 23 18 28 29 19 22 22 15 23 20 20 18 18 25 28 23 19 17 20 20 23 22 25 17 23 21 30 20 25 20 20 18 20 22 15 19 31 23 29 18 23 18 24 20 16 19 21 20 22 29 14 22 16 21 27 31 24 20 23 22 23 21 22 16 20 30 19 22 15 13 25 19 15 26 23 24 21 19 18 25 29 21 19 10 28 21 24 22 22 20 21 18 17 27 21 26 31 23 19 20 15 28 21 21 27 20 17 22 21 18 30 19 27 17 24 22 30 20 15 19 20 21 23 19 15 16 30 23 24 26 23 22 21 15 22 23 29 22 24 18 23 16 12 21 21 26 23 22 22 19 18 22 26 18 19 12 20 17 24 19 16 20 18 37 16 21 22 21 22 22 23 22 29 26 27 22 23 20 23 18 15 22 17 26 24 17 21 19 15 18 32 23 20 19 20 23 21 14 19 25 20 26 25 27 19 29 21 23 20 22 17 21 26 29 13 13 20 22 20 17 23 22 26 29 21 21 17 30 20 23 14 15 22 18 16 24 19 18 22 23 20 12 20 22 29 17 14 19 23 22 25 22 24 18 21 19 14 22 21 23 26 21 19 24 25 21 25 17 25 24 26 16 17 24 27 28 25 29 26 24 27 27 18 26 14 20 27 21 17 22 17 22 18 18 22 22 24 16 25 23 17 24 23 12 18 18 21 22 26 37 23 25 17 18 20 22 17 17 18 23 21 22 18 19 17 22 15 16 24 23 24 20 13 16 17 19 26 27 21 14 18 17 21 7 21 26 21 25 22 24 23 15 24 17 27 19 36 24 23 19 22 25 26 24 15 25 14 14 23 18 14 20 16 29 22 24 21 16 21 22 9 30 26 17 13 20 15 24 26 17 26 21 17 16 19 14 22 20 24 27 26 26 25 25 24 19 15 23 25 23 29 16 15 24 20 18 23 24 31 29 21 25 19 27 25 17 18 24 18 20 17 20 16 20 16 18 21 27 34 23 19 21 18 21 21 19 22 24 19 21 26 12 21 19 22 25 18 15 24 25 23 21 24 20 21 19 16 19 27 21 20 15 14 23 17 20 35 16 19 16 16 15 25 19 24 24 24 16 14 23 20 25 15 21 25 23 26 25 24 22 16 31 21 24 11 19 26 23 27 18 20 32 31 29 16 18 17 17 24 18 21 19 19 22 32 19 21 26 22 23 20 22 21 24 28 25 27 30 17 17 25 21 17 21 21 24 28 18 17 34 15 22 26 16 24 17 18 25 28 24 24 21 27 24 27 20 22 25 21 17 15 20 23 16 24 33 22 33 22 19 22 14 22 25 21 20 22 18 19 16 22 28 24 15 18 20 18 20 19 33 28 23 26 27 21 22 24 20 19 11 25 23 19 25 14 23 26 23 32 16 21 24 29 34 27 20 20 14 19 26 29 12 14 25 24 17 15 22 20 24 24 19 19 27 21 31 29 15 15 16 26 23 25 17 20 25 24 19 14 19 21 23 24 16 24 25 12 14 25 20 17 16 28 17 15 23 23 23 20 15 22 25 18 23 23 23 24 27 18 21 21 28 23 20 24 17 25 21 17 23 27 29 16 25 25 23 25 24 18 20 11 19 14 20 22 30 24 18 23 13 22 25 18 18 26 21 21 23 23 21 24 13 22 21 14 26 36 22 18 19 24 13 25 24 19 30 23 21 16 23 24 30 27 29 21 20 26 20 18 25 16 31 25 18 24 21 20 13 26 27 15 18 20 31 19 17 21 24 22 22 14 23 20 13 21 15 18 20 23 20 22 24 24 30 18 23 26 19 23 25 18 23 29 23 20 19 20 21 18 10 19 27 27 24 24 23 20 17 14 21 15 16 24 26 27 20 23 22 25 20 16 18 16 21 15 26 16 22 23 19 20 24 16 12 18 20 18 16 27 25 22 21 23 17 21 22 19 20 26 14 28 24 16 28 21 26 15 18 16 17 19 24 21 22 17 17 17 17 21 22 20 15 25 27 18 23 23 13 21 20 12 20 25 30 19 26 25 26 23 17 21 18 21 27 24 23 26 20 24 22 23 15 29 32 18 31 25 23 26 14 24 24 18 14 21 24 16 26 27 24 17 19 32 23 21 31 20 18 15 21 15 20 19 18 23 17 17 16 20 14 24 22 20 26 15 22 18 19 19 27 21 21 25 16 23 18 19 18 25 19 15 28 26 28 25 26 22 22 20 20 23 19 22 13 20 18 19 18 26 23 16 32 18 24 20 28 23 26 15 32 19 15 16 22 19 17 16 29 23 20 16 20 26 24 22 18 22 23 19 18 20 19 20 22 23 20 23 16 19 17 23 12 22 25 15 30 23 18 31 15 19 20 24 17 19 18 21 21 19 22 21 19 21 25 18 21 25 19 27 20 24 24 15 14 28 15 31 22 15 23 19 16 27 15 19 19 24 28 19 21 23 26 20 21 32 22 18 21 23 31 24 22 21 17 22 22 16 19 23 23 28 24 13 20 23 17 17 25 23 17 12 25 17 21 21 20 21 16 14 25 23 16 20 17 19 19 21 18 25 29 27 16 19 25 26 26 21 24 24 20 24 19 21 14 17 26 19 24 18 15 24 15 25 20 16 21 21 26 24 23 17 15 22 16 25 19 29 25 26 18 17 22 21 28 24 26 20 22 30 35 18 17 21 24 16 19 21 31 20 22 27 17 19 16 21 21 18 22 25 24 23 23 20 28 17 26 27 17 22 16 23 23 26 26 25 26 26 24 24 25 19 14 21 21 21 24 16 21 21 24 25 29 30 21 23 19 15 24 16 13 18 27 19 16 25 24 15 21 19 23 24 21 22 24 22 16 22 27 30 19 21 18 22 22 21 25 16 19 16 28 16 20 16 28 20 21 24 21 22 31 13 27 30 24 14 22 20 19 24 20 23 18 20 21 29 20 23 20 21 19 8 23 26 17 24 19 28 23 21 23 18 17 17 28 27 27 22 24 22 15 13 26 21 26 30 19 22 22 25 24 29 21 20 25 26 26 13 26 26 21 23 14 22 22 19 20 21 34 28 17 25 24 26 19 20 31 21 19 19 15 17 32 17 17 22 27 19 21 22 27 22 17 22 27 20 18 23 23 21 21 19 27 17 24 17 27 20 20 30 24 19 23 27 29 24 20 19 21 23 21 23 28 26 21 28 26 18 23 16 21 29 17 11 24 26 20 23 18 22 19 26 16 24 26 24 23 16 21 11 19 16 28 33 23 22 20 14 21 20 18 28 27 21 16 20 17 20 15 16 31 26 20 22 26 24 20 21 25 22 11 22 16 21 23 14 28 17 19 20 28 18 7 33 17 17 16 20 22 22 26 20 28 27 19 20 21 20 21 18 24 20 21 21 19 21 25 23 29 21 24 19 23 22 24 19 17 21 25 21 14 22 15 25 14 20 20 20 19 22 25 20 23 13 23 25 11 27 16 24 26 18 21 22 17 22 15 15 18 17 14 19 23 23 23 21 20 32 26 28 18 26 22 16 17 19 21 27 22 14 24 24 15 15 17 20 21 28 23 25 20 27 16 18 17 24 16 19 27 20 13 25 24 23 27 27 14 21 18 17 18 14 18 20 25 22 16 24 17 21 28 25 20 21 24 18 28 26 27 23 21 16 23 22 20 23 25 20 26 26 31 19 23 22 23 19 18 22 29 20 24 29 26 23 31 19 13 19 19 19 22 19 36 30 24 16 22 18 22 20 19 18 17 26 24 19 23 23 19 23 31 23 11 30 23 11 21 24 21 17 19 20 27 16 32 20 24 17 16 20 32 33 21 29 21 10 19 25 21 26 23 23 22 23 17 25 12 23 21 16 31 24 28 22 25 21 23 13 23 19 23 23 25 23 22 22 21 30 25 27 14 19 22 19 19 29 23 26 27 31 14 22 28 24 25 23 28 20 18 22 21 21 18 23 27 27 24 25 23 20 18 31 16 18 30 26 19 19 24 24 23 19 24 20 16 17 25 25 22 25 18 24 25 15 15 22 21 23 16 31 21 18 24 23 23 11 19 25 18 21 24 20 20 24 21 27 21 19 21 17 26 28 13 28 24 26 21 27 23 21 21 24 16 24 18 13 20 23 24 19 24 26 26 16 15 21 14 28 25 23 17 22 23 25 20 25 27 27 28 18 14 26 13 26 20 23 24 16 18 20 31 20 30 27 20 19 21 19 21 21 25 25 23 25 15 28 21 23 21 19 20 8 17 19 23 22 20 27 28 15 24 23 26 17 19 34 13 14 20 26 22 26 22 20 20 21 21 25 21 26 20 24 27 25 25 18 19 26 18 25 18 19 21 15 20 18 23 28 29 18 16 24 21 24 23 21 24 26 26 16 18 28 22 17 20 22 24 24 29 18 18 29 20 20 20 17 27 29 24 18 16 27 25 17 15 23 20 17 26 15 19 25 23 18 24 19 20 17 18 23 17 16 22 14 24 18 23 25 21 18 12 28 27 25 29 21 12 20 23 25 18 32 21 30 25 21 20 17 22 22 22 25 19 19 17 18 21 25 19 21 29 19 27 13 25 29 27 22 20 23 22 19 20 18 19 16 29 21 17 19 16 19 15 23 19 21 15 24 23 19 18 21 17 21 17 17 23 19 14 17 16 27 15 25 22 21 22 33 21 27 25 22 17 20 27 22 18 26 17 20 23 20 28 23 25 28 30 18 20 12 21 23 16 20 14 23 24 17 21 24 15 24 25 28 22 20 18 17 26 21 20 22 27 22 26 19 23 18 24 26 15 23 27 21 19 24 16 16 17 13 22 17 27 17 26 32 28 24 21 24 24 36 22 26 22 16 17 23 22 21 31 20 20 26 20 21 15 28 13 24 23 16 25 25 17 20 21 18 23 26 21 20 13 31 26 29 21 21 26 25 26 29 20 21 12 29 28 15 16 23 23 20 21 23 28 15 16 22 19 23 15 18 15 29 17 27 17 24 23 22 18 16 21 18 19 24 17 17 28 26 27 27 22 26 26 23 24 19 17 14 23 28 20 19 15 24 16 22 22 24 21 29 26 25 17 21 13 17 29 25 23 27 22 19 25 26 18 20 25 24 25 20 16 21 24 27 20 30 33 22 22 25 29 23 20 21 17 13 16 24 23 17 23 27 26 24 18 31 26 23 23 22 23 23 23 22 22 24 23 18 14 18 19 20 21 24 19 21 21 19 23 28 25 21 21 13 24 13 15 24 26 19 14 21 29 24 21 17 19 17 24 21 21 23 23 30 20 21 26 26 24 30 28 16 15 22 17 22 20 20 21 21 25 24 25 28 17 15 25 19 17 23 18 24 25 24 19 24 26 25 22 19 25 29 30 25 19 24 20 21 25 22 19 21 22 27 19 16 27 20 15 17 26 26 16 21 20 20 16 21 14 17 21 19 22 11 15 14 22 13 25 22 18 22 20 27 21 16 22 38 19 22 30 19 21 30 27 18 20 24 19 24 18 18 29 23 20 21 21 18 21 21 25 28 20 19 20 23 20 20 18 25 20 23 19 32 18 21 21 20 26 27 25 23 20 21 13 23 28 16 22 12 18 29 15 23 18 26 19 15 22 25 22 26 18 10 22 18 16 21 21 19 17 19 22 20 26 31 28 18 29 21 21 20 15 19 18 27 27 22 21 20 18 23 23 16 16 9 17 21 19 22 23 18 21 20 23 23 21 19 14 26 21 22 21 25 22 24 22 21 20 26 17 32 18 18 27 17 27 15 28 22 22 27 32 26 17 20 28 18 26 26 19 22 26 23 19 24 29 27 21 23 26 21 29 18 28 16 25 22 19 14 18 18 22 28 20 22 26 24 20 19 22 31 22 32 20 19 16 23 21 28 17 27 23 29 24 25 20 29 24 25 19 15 19 20 20 22 21 21 27 29 23 20 17 18 23 21 29 20 21 21 18 24 21 26 27 21 19 26 15 16 19 28 24 24 22 19 24 24 19 24 15 24 21 19 15 22 17 20 24 23 20 31 13 13 17 22 19 24 19 24 21 22 23 16 22 21 25 23 21 26 25 22 21 19 36 26 24 22 19 17 29 24 29 16 21 11 21 25 21 22 20 15 27 19 20 20 17 13 16 25 22 24 14 25 25 19 12 20 20 17 22 16 28 25 16 18 20 18 21 23 24 18 18 20 14 25 22 16 19 18 25 21 18 22 18 24 23 23 22 25 20 21 23 26 25 18 25 23 20 26 16 28 22 12 21 22 27 21 24 25 14 19 24 23 21 25 25 21 21 23 15 28 19 25 26 24 27 13 19 23 19 23 19 20 14 24 19 23 26 19 15 15 22 19 20 28 18 14 19 14 20 18 21 23 20 20 20 23 27 21 18 15 22 22 18 27 16 25 23 24 12 18 22 26 22 24 21 23 22 19 18 16 13 22 28 22 17 17 23 27 21 24 20 28 16 18 25 23 19 18 18 23 25 21 22 21 21 20 19 33 21 23 20 23 18 19 18 16 27 28 20 23 29 25 24 27 25 24 22 27 28 26 14 28 21 28 19 28 27 30 29 12 24 15 24 21 19 15 26 21 18 20 26 19 24 22 17 17 18 24 20 21 18 26 26 20 23 15 22 28 24 24 18 24 19 24 23 18 17 23 27 30 23 25 24 26 26 20 17 21 29 22 17 17 23 26 18 20 26 16 13 18 25 20 28 29 32 26 20 23 23 28 11 24 17 25 20 21 15 21 22 15 25 25 23 24 20 20 20 22 25 26 22 24 19 24 18 23 23 29 22 21 24 23 14 24 19 19 17 20 21 19 24 24 19 17 23 21 13 17 16 24 18 24 16 26 15 29 18 25 28 21 11 16 28 20 23 17 19 14 24 21 16 24 23 19 24 21 16 20 17 20 15 23 24 22 24 28 18 29 25 25 21 18 14 19 12 28 27 23 18 26 21 23 29 17 30 26 17 19 27 29 21 23 22 18 27 14 15 23 23 24 20 20 22 21 25 19 29 21 17 25 28 23 16 19 23 22 26 26 19 21 19 17 22 24 26 29 26 19 23 25 20 20 29 18 31 30 24 19 19 23 22 17 19 19 16 27 28 22 20 23 26 18 22 26 35 19 19 24 18 17 22 30 22 23 16 17 20 22 23 26 20 16 22 23 18 18 19 18 21 32 17 28 23 22 20 23 28 23 19 24 17 23 19 14 23 20 19 28 25 18 20 17 16 20 27 28 19 31 25 17 21 21 17 20 20 20 14 19 26 26 21 15 19 29 28 25 29 18 32 24 21 17 23 18 15 24 32 20 25 17 21 25 15 25 20 18 20 19 17 22 16 27 25 13 28 24 22 20 21 23 23 21 18 23 25 20 22 29 18 16 22 18 22 20 18 22 21 18 25 20 17 19 23 18 20 26 24 24 23 28 19 21 20 22 24 21 21 23 17 19 18 18 23 19 26 20 21 21 28 21 25 15 19 18 20 25 24 22 23 15 24 18 24 24 15 24 21 26 21 19 12 20 26 22 21 18 15 27 22 22 20 27 28 20 21 23 19 18 18 27 23 20 17 21 22 16 17 15 26 21 24 25 21 20 25 12 24 23 30 14 24 21 26 29 20 23 14 23 15 18 16 22 22 16 18 27 18 21 14 21 22 24 20 19 21 18 20 27 26 15 12 14 20 30 16 25 16 19 18 17 31 19 21 25 25 23 20 17 22 18 22 21 20 18 27 23 18 22 26 25 22 29 23 25 15 16 26 21 18 10 23 18 25 19 22 25 20 21 28 24 16 19 26 17 22 27 24 16 19 30 31 20 29 19 21 26 16 23 29 24 24 17 26 25 19 23 14 22 20 19 24 27 28 18 24 20 32 18 14 29 21 16 19 23 25 16 22 21 17 20 17 23 25 20 28 25 22 25 22 23 21 27 23 16 20 20 19 19 25 29 30 15 16 21 22 21 19 24 22 25 19 21 19 22 27 19 21 16 22 27 27 26 22 20 22 22 21 17 21 19 24 20 16 20 20 24 23 22 18 18 26 25 21 25 20 17 15 19 29 26 21 16 32 17 17 17 28 31 21 21 18 25 17 15 30 19 20 21 28 17 29 20 20 23 21 22 22 23 30 22 23 20 23 26 22 22 23 24 22 23 17 16 21 22 16 17 14 16 23 32 29 24 20 10 11 13 26 25 18 22 20 26 16 23 22 22 15 23 28 23 19 23 23 22 18 23 25 21 18 29 19 24 27 25 15 18 33 13 21 22 19 13 20 17 23 17 29 20 17 20 26 12 19 18 19 19 13 26 18 18 28 21 16 32 23 22 24 17 17 21 22 17 18 23 17 22 22 25 16 24 25 27 17 21 26 17 26 24 13 20 24 32 20 22 22 32 19 22 21 19 19 16 14 25 25 22 25 20 14 15 17 22 12 23 22 23 17 24 22 26 24 19 22 18 15 24 21 19 18 37 28 14 21 19 16 20 17 18 25 26 21 19 20 21 19 24 23 28 21 24 18 20 21 21 25 21 24 25 28 20 14 21 16 20 23 22 20 24 25 20 20 24 28 27 21 25 22 22 18 18 18 23 18 22 25 19 22 27 19 22 18 28 15 25 24 18 26 20 26 15 25 14 20 23 21 24 25 24 24 22 20 20 15 18 22 25 26 26 15 24 23 25 18 21 21 17 20 20 23 20 25 19 17 20 25 24 21 15 23 19 16 16 28 22 15 18 20 20 19 22 29 29 20 20 26 16 19 36 23 22 21 20 28 23 23 28 25 29 24 17 13 13 20 14 32 10 26 26 18 20 21 27 23 22 22 18 16 26 31 27 20 26 21 19 15 13 20 23 20 20 15 25 23 21 20 21 28 23 21 23 16 18 17 14 17 16 17 20 16 22 20 22 19 16 26 22 20 23 21 26 17 23 22 38 23 20 25 21 23 25 19 21 24 21 21 22 22 15 20 19 17 19 15 21 24 17 20 30 21 19 24 23 20 26 16 17 18 20 18 24 16 18 26 33 31 13 23 16 18 21 22 23 22 21 24 21 24 27 21 22 21 22 14 13 21 26 22 18 21 24 22 24 21 26 24 22 17 16 27 21 24 21 18 13 15 20 28 19 24 32 18 23 17 23 28 22 22 24 20 20 17 17 30 28 25 23 15 22 20 19 24 24 21 20 22 20 14 27 17 22 25 27 16 26 21 20 17 23 23 29 28 22 20 22 26 24 24 17 27 19 15 19 24 24 27 21 19 26 19 25 20 22 25 26 29 21 19 20 18 26 24 19 19 20 22 17 23 20 23 27 17 18 20 20 14 15 26 20 19 25 18 31 19 21 24 29 27 31 21 28 21 19 19 23 17 21 21 23 22 18 24 13 27 13 19 29 21 31 22 22 26 21 14 16 21 24 21 23 24 31 26 29 21 27 16 27 21 25 19 24 17 23 22 24 26 21 25 23 20 12 18 19 24 25 22 24 22 17 20 27 18 20 19 24 23 18 26 19 20 19 18 19 16 19 16 19 18 27 22 25 17 20 23 24 18 15 17 19 22 19 18 22 23 23 22 19 20 19 12 25 25 23 17 29 17 21 23 20 23 36 19 12 15 22 26 18 16 19 23 15 22 25 17 21 22 21 17 15 22 15 28 23 19 20 18 18 28 22 21 17 15 22 18 18 19 17 21 16 28 20 18 20 29 23 20 23 21 20 27 22 19 20 20 16 22 20 20 24 21 12 27 19 17 16 17 21 36 30 18 20 18 17 25 22 22 22 21 14 26 18 26 26 14 18 22 16 16 20 26 26 22 21 20 13 17 35 27 22 18 26 24 19 24 19 23 17 11 24 18 29 18 20 20 18 22 23 24 23 21 23 26 23 29 24 17 22 23 25 22 16 31 22 19 20 16 23 11 24 25 20 25 21 19 23 24 20 22 25 16 25 21 22 22 13 20 14 15 26 22 25 15 26 17 28 26 22 23 13 20 27 27 19 16 23 24 24 20 18 22 19 24 20 30 30 23 24 21 19 26 20 12 17 20 19 19 31 17 24 18 14 34 26 20 18 16 17 22 27 26 15 23 17 23 15 17 20 22 26 23 23 23 19 20 23 14 16 22 19 18 16 27 24 30 15 26 20 25 24 26 27 18 30 19 22 23 24 16 23 28 26 27 17 16 12 21 23 23 24 24 20 26 24 25 20 17 20 22 19 27 26 21 32 18 25 23 29 21 13 20 20 21 21 14 23 19 24 15 24 21 33 21 29 22 27 24 22 21 24 24 28 15 14 9 20 18 19 23 13 20 20 18 12 18 31 18 18 19 26 23 19 20 17 18 27 27 17 24 17 14 20 21 29 19 14 17 23 29 19 18 27 19 22 26 14 18 22 22 22 20 21 22 21 19 21 24 16 21 24 12 12 27 18 23 12 14 25 27 25 18 19 22 23 21 30 30 18 24 16 25 33 17 28 19 14 21 19 16 26 21 24 18 21 29 28 18 14 20 21 22 21 23 24 29 21 25 21 24 15 20 20 22 13 24 24 17 19 18 21 32 22 31 21 19 21 26 17 20 18 23 24 17 20 22 26 20 21 19 20 30 26 17 19 24 25 19 20 23 19 24 17 25 22 26 23 18 21 16 32 25 20 22 19 21 22 34 24 26 21 13 18 13 27 23 18 18 33 18 18 14 17 22 22 20 25 22 26 21 26 23 23 24 23 23 20 19 21 24 29 21 22 16 25 30 23 25 24 25 30 13 24 21 27 25 18 17 21 12 25 18 18 23 19 18 21 22 23 16 21 27 27 20 20 21 17 24 25 18 18 27 23 27 23 20 19 21 19 21 20 26 21 25 21 21 20 27 19 27 19 33 19 21 26 21 19 23 25 23 26 18 27 21 16 24 22 23 21 23 27 19 19 28 14 21 16 25 21 23 16 13 18 18 20 19 21 22 15 19 23 16 23 19 26 12 19 16 22 17 20 15 19 24 16 17 24 24 20 21 15 28 24 28 24 23 24 27 21 27 16 25 18 25 25 22 15 27 19 17 27 19 25 17 16 31 21 22 20 19 25 23 20 24 25 23 20 24 18 25 24 21 22 27 23 23 13 24 26 25 23 27 16 19 15 19 14 24 19 31 22 17 21 19 20 27 32 22 18 20 15 25 13 24 20 18 21 26 28 29 27 24 22 22 20 16 15 20 19 19 17 23 21 21 24 28 20 12 21 20 13 26 35 15 20 23 25 18 36 10 23 27 28 27 29 23 20 25 28 28 21 15 22 29 19 22 23 23 21 24 16 20 14 20 20 24 24 22 23 22 28 22 23 17 19 21 29 20 33 19 21 30 29 12 21 18 25 15 17 24 30 23 21 22 18 27 29 21 19 15 18 23 20 27 22 16 19 20 16 27 32 14 19 19 17 19 19 18 27 20 21 22 16 25 24 25 29 20 27 21 27 26 19 17 21 24 22 18 31 19 24 22 18 24 13 15 19 17 19 28 23 28 16 17 25 30 22 14 16 26 23 24 20 19 15 16 28 23 26 26 20 20 21 18 24 25 19 21 14 21 17 27 17 21 18 16 16 26 17 12 22 19 25 21 23 22 16 19 21 23 15 23 22 22 23 17 20 23 23 20 28 18 25 21 27 23 20 16 26 29 19 22 15 22 21 19 18 25 17 19 17 16 18 20 18 26 22 26 21 23 27 24 28 18 15 20 23 26 18 17 23 20 21 20 18 26 24 22 21 17 18 26 24 14 27 26 23 16 18 16 16 20 27 28 19 15 20 20 23 22 24 16 29 24 26 24 20 28 16 21 26 26 24 18 26 27 22 14 20 17 19 22 19 25 26 29 20 22 17 26 21 25 23 27 27 18 26 29 22 30 20 24 20 24 18 25 18 23 17 17 18 23 17 27 29 27 24 19 19 11 26 25 19 22 12 19 21 21 14 17 16 23 27 19 16 20 19 12 25 20 22 18 24 23 23 24 19 27 17 25 29 23 25 17 22 18 18 22 26 19 12 25 16 19 16 22 23 15 23 22 27 20 19 22 23 19 20 22 14 23 21 16 25 22 23 24 16 17 29 21 22 27 18 19 24 23 22 23 18 25 20 14 21 13 21 17 19 23 19 28 27 21 25 23 18 30 25 23 20 21 16 24 18 24 16 19 19 22 23 18 15 23 20 19 20 21 22 23 15 24 11 24 20 23 19 23 25 15 12 16 21 27 14 25 23 22 18 18 19 20 21 11 19 17 30 16 26 10 20 34 21 30 31 23 25 17 21 21 23 20 17 20 17 25 25 26 20 25 20 19 24 16 24 18 16 17 19 20 21 31 20 22 19 22 17 15 16 22 23 21 20 14 19 27 28 22 30 23 25 21 13 21 19 19 27 18 29 17 26 20 22 21 20 18 28 21 28 16 26 30 24 25 22 28 18 29 14 22 23 18 25 22 19 21 21 27 21 19 18 13 20 28 23 23 11 22 16 20 17 22 24 17 21 17 20 17 35 17 19 27 15 19 22 21 18 18 17 11 27 27 14 21 13 26 24 23 29 22 27 22 23 26 18 27 20 23 30 26 18 21 24 25 15 19 20 28 25 22 23 21 23 22 17 22 25 19 27 16 28 22 12 18 19 20 20 30 25 27 23 21 18 26 16 26 19 19 26 25 22 22 22 16 23 36 18 25 25 25 18 18 17 19 21 27 25 29 14 23 20 22 21 22 22 22 20 22 27 23 22 16 21 16 24 19 29 15 23 26 27 21 18 18 20 17 26 22 23 23 25 18 20 21 20 25 22 16 27 15 25 27 30 24 23 21 19 15 16 27 13 11 28 23 13 24 32 25 17 17 20 23 23 18 27 21 24 21 19 11 21 22 17 14 19 16 18 18 21 18 24 17 23 20 21 24 25 25 17 22 18 24 34 24 23 19 19 18 15 16 23 21 14 18 19 22 18 19 18 19 22 19 27 23 25 24 22 16 19 26 19 28 24 28 19 24 25 22 21 19 16 26 15 19 24 29 21 22 27 20 24 17 12 24 20 28 20 27 20 24 25 23 18 20 22 23 20 25 25 21 17 19 21 21 13 25 20 21 27 25 18 24 22 24 20 14 17 15 19 27 19 22 29 26 23 24 25 21 26 19 27 21 20 17 22 30 26 33 18 20 19 20 21 19 27 14 23 18 21 23 24 27 24 23 17 23 26 26 20 16 18 26 14 19 28 29 18 22 22 19 17 18 17 21 29 21 21 15 11 22 22 22 15 22 21 25 20 23 19 25 20 22 20 16 19 18 21 15 19 22 21 21 28 21 23 22 21 26 13 23 23 15 29 25 24 20 29 24 18 20 14 19 19 21 17 29 19 23 17 29 25 24 24 14 20 19 24 23 26 21 16 19 18 30 20 16 19 27 15 28 19 23 26 23 20 22 13 16 21 21 17 17 22 30 15 27 22 20 27 27 24 25 23 21 27 31 27 19 17 24 22 33 20 22 22 28 17 19 19 17 19 20 19 17 26 23 23 24 21 18 23 17 20 23 17 26 26 22 23 23 16 13 13 28 17 28 25 19 15 11 16 21 19 20 21 34 26 17 21 29 28 20 19 18 16 23 21 21 18 18 16 18 19 19 23 23 28 19 21 26 25 17 19 21 15 17 22 23 19 14 26 25 18 21 15 20 25 29 25 27 27 26 20 14 27 24 23 14 20 25 17 19 30 25 11 21 28 19 20 27 22 18 25 21 20 24 17 18 20 29 25 26 25 23 19 21 16 25 20 12 19 26 13 19 16 20 18 25 17 26 22 23 17 18 24 21 17 18 23 19 17 25 26 28 20 28 20 25 19 22 33 28 13 24 17 15 21 23 15 21 23 30 11 16 16 21 14 23 21 18 26 20 18 17 15 20 20 23 27 23 23 27 13 21 18 24 17 24 20 26 21 21 22 17 24 23 23 21 17 18 13 20 22 17 22 27 15 17 24 22 25 15 24 16 27 24 18 22 26 17 29 23 19 23 22 18 30 20 31 16 26 23 27 22 21 12 21 25 17 23 20 22 17 27 17 24 22 32 20 21 24 19 27 16 18 19 25 28 24 19 25 29 16 25 20 15 17 15 26 17 22 25 20 21 19 24 18 25 23 12 13 29 22 25 11 24 23 19 13 27 24 18 19 15 20 19 27 27 20 26 24 19 18 14 12 24 25 19 18 28 12 24 26 15 24 25 16 30 24 24 20 23 21 22 15 14 23 13 22 23 22 27 17 24 23 32 20 29 27 23 20 29 26 22 20 29 24 19 20 23 16 10 17 24 19 19 17 21 24 18 24 23 24 23 19 20 22 27 21 18 18 23 14 20 25 22 23 26 32 24 22 17 22 20 17 23 20 29 27 23 22 24 23 28 23 20 20 14 16 21 28 28 21 22 17 15 22 19 21 21 21 18 21 25 23 19 15 32 18 19 29 21 21 24 21 12 22 24 20 23 15 22 21 25 24 25 20 22 22 18 17 13 22 21 20 20 21 26 30 24 20 25 21 23 16 19 19 22 25 20 22 23 29 15 29 32 21 25 22 19 28 24 16 20 27 30 18 26 29 20 21 27 18 26 19 19 20 19 20 32 23 21 14 20 17 16 27 19 22 26 17 24 23 20 18 20 29 33 18 25 26 21 18 16 23 18 13 22 19 23 22 21 21 28 18 29 21 17 10 24 15 11 23 15 21 23 16 17 26 18 14 27 21 20 23 19 22 20 18 26 21 17 19 24 17 22 29 19 28 25 14 34 20 25 24 23 19 20 14 22 23 21 20 30 28 16 18 22 20 24 21 22 21 22 15 23 17 22 19 14 20 24 19 28 29 27 21 13 27 25 24 19 29 23 23 28 18 19 14 20 28 18 11 20 21 17 24 20 24 24 27 33 23 20 19 17 25 19 25 24 18 22 19 23 18 26 20 18 28 22 25 28 26 26 30 21 24 23 24 20 17 21 17 21 25 23 21 23 25 23 23 19 32 20 32 21 24 28 24 27 13 19 23 33 22 22 18 26 20 27 34 24 21 19 16 28 25 18 19 22 25 16 23 30 23 20 24 13 20 20 23 21 30 19 13 16 19 20 22 16 23 19 22 23 29 22 20 19 15 17 17 25 29 15 24 19 22 21 23 23 23 26 29 20 14 27 26 24 17 23 25 22 20 26 15 20 17 24 23 27 14 15 19 21 26 13 19 19 20 19 29 29 19 23 16 24 26 22 26 21 27 24 23 22 30 17 23 18 21 18 18 27 20 25 23 24 15 26 18 30 20 25 24 24 19 20 20 26 21 25 21 18 16 16 14 18 25 24 18 17 20 33 23 22 24 24 21 21 24 28 13 19 17 27 19 17 21 20 26 21 26 22 23 19 18 27 24 20 22 23 28 13 14 20 26 15 20 32 33 28 27 25 23 25 18 12 24 18 24 19 24 22 33 14 19 18 22 28 21 19 23 18 21 20 31 19 19 22 18 33 23 31 26 17 15 21 21 18 23 25 17 23 27 24 30 23 26 26 22 14 22 16 14 20 14 21 19 18 22 17 21 21 23 21 20 15 16 25 18 24 20 15 26 26 20 18 22 29 21 18 15 20 16 23 20 16 19 28 18 25 26 15 27 27 16 21 20 18 14 24 24 28 28 25 15 26 20 28 30 16 32 20 25 20 18 18 24 23 22 30 23 23 23 29 23 29 18 19 17 18 18 17 23 17 29 14 23 20 23 24 20 23 18 23 22 27 16 26 16 30 20 26 14 24 24 20 18 19 19 27 21 31 18 20 21 31 12 22 18 30 21 24 14 17 23 15 22 20 26 14 13 12 22 22 22 33 21 20 19 22 20 21 24 13 25 25 11 21 22 12 19 27 14 30 24 20 15 20 19 22 18 28 19 15 12 21 25 26 27 16 27 17 22 26 19 26 26 18 27 17 26 23 22 16 17 18 20 29 22 16 22 21 21 30 27 28 19 10 23 13 27 21 20 21 10 20 17 22 24 17 21 19 19 22 25 15 25 20 19 22 23 27 19 22 22 17 18 20 19 30 20 19 20 25 21 17 16 24 23 19 18 36 19 25 21 19 20 23 25 17 21 23 21 15 15 23 16 20 23 20 23 24 22 30 26 18 19 19 11 23 24 17 20 18 27 25 17 20 14 27 27 26 22 15 12 18 16 30 15 18 20 25 27 24 20 25 26 24 19 13 23 23 24 28 19 23 20 24 22 29 15 25 20 24 23 22 9 25 25 12 24 22 22 25 31 15 21 15 22 22 20 22 22 20 19 19 28 28 17 27 27 27 25 20 15 20 19 21 25 29 29 12 20 22 26 17 19 20 28 25 21 19 27 19 27 29 18 25 21 22 18 15 17 22 25 24 20 19 25 26 25 17 25 23 28 20 18 24 25 18 20 22 23 22 24 13 29 20 18 16 19 20 14 28 24 23 24 30 15 24 25 26 25 18 19 23 19 16 24 16 15 22 24 20 19 21 22 16 23 20 21 20 24 19 30 22 25 12 24 12 27 26 20 19 20 19 28 10 25 16 15 25 26 20 22 14 21 16 26 29 17 24 20 23 22 17 20 24 23 20 15 21 16 24 24 22 20 23 19 20 18 25 15 27 22 17 26 20 21 18 17 28 20 21 15 18 30 28 22 30 19 19 29 23 17 17 25 26 19 27 23 24 30 25 21 15 21 20 22 16 22 19 16 16 23 29 21 21 26 25 20 17 24 27 24 14 24 24 24 14 15 19 15 23 25 18 21 23 21 17 16 18 28 25 27 20 19 21 16 21 25 21 26 18 21 22 28 23 21 18 21 29 26 23 22 24 21 17 9 17 24 21 23 24 23 21 19 24 19 21 17 17 17 20 24 13 19 18 16 19 15 20 28 22 19 23 19 21 19 14 28 21 26 23 20 23 22 17 25 25 31 24 24 21 20 28 14 23 27 24 25 21 20 28 19 21 20 22 21 22 19 23 22 20 16 27 24 17 20 22 20 22 19 33 23 20 22 17 20 16 28 23 17 18 25 14 28 25 24 24 23 22 21 22 19 33 24 20 16 22 24 33 25 26 20 22 29 24 17 27 17 18 16 21 19 29 19 23 22 19 19 22 19 21 20 32 32 17 20 19 29 18 17 26 21 20 21 22 24 25 21 17 16 24 26 16 19 14 28 25 23 25 26 21 20 26 30 14 25 17 20 19 14 17 24 26 15 21 21 26 16 23 21 20 31 23 20 15 27 20 25 21 20 22 22 21 24 21 24 24 21 24 17 28 19 21 23 18 19 22 22 25 21 22 26 21 29 18 17 25 26 20 23 26 24 18 18 23 24 23 21 12 19 31 27 24 16 26 18 20 29 22 21 25 20 26 23 20 20 22 18 16 18 22 22 24 19 18 22 22 16 27 18 17 18 14 29 22 23 17 24 25 20 29 25 31 23 16 22 24 23 26 20 24 20 18 20 20 18 22 28 26 20 20 27 25 25 27 16 20 19 22 21 14 27 15 26 20 27 16 17 15 26 30 19 18 26 22 23 21 22 26 19 14 26 30 20 20 21 19 18 25 22 19 16 22 16 26 25 23 24 19 22 23 20 23 17 21 24 19 25 21 17 17 19 20 18 28 26 22 18 28 26 17 28 16 20 27 19 20 15 22 23 20 24 27 25 24 21 21 17 21 11 24 23 18 24 19 26 26 23 17 19 25 21 17 23 19 23 25 20 19 23 19 27 25 16 19 26 16 26 15 18 18 19 18 16 20 21 26 23 27 21 23 24 18 20 19 20 26 27 36 24</t>
+  </si>
+  <si>
+    <t>EXN(0.6519806170684763, 29.175735045727734, 4.786689529498778)</t>
+  </si>
+  <si>
+    <t>37 35 27 35 32 33 24 33 22 37 35 26 30 38 24 29 43 25 28 34 35 31 34 26 32 38 43 37 29 39 36 28 31 30 25 37 32 30 32 25 41 27 44 39 39 33 28 29 31 27 42 30 31 28 38 27 42 26 35 37 34 25 37 35 31 32 30 35 23 35 28 35 43 30 33 39 38 32 34 38 42 33 30 44 24 41 36 31 35 32 25 25 30 28 20 40 35 38 32 31 33 28 36 30 37 30 32 33 34 31 23 47 32 28 18 40 31 44 32 29 25 29 28 25 24 32 27 35 28 29 23 27 27 26 35 47 35 30 22 33 29 30 35 30 29 30 32 33 31 34 29 30 29 36 36 34 37 32 32 27 35 31 26 46 50 31 23 26 46 30 35 37 31 50 34 31 31 35 31 27 38 53 34 34 37 27 34 33 28 28 29 29 35 27 42 36 29 29 27 36 30 35 34 39 42 23 36 33 32 34 33 33 26 19 32 39 34 44 27 25 27 33 30 38 33 19 42 27 45 41 21 37 31 31 31 32 20 33 32 31 29 44 36 31 23 42 31 35 15 44 30 27 45 32 29 29 33 30 31 30 25 40 39 26 27 35 31 38 35 33 28 31 28 43 37 34 38 36 30 31 33 29 33 38 30 24 41 34 35 25 25 25 43 25 34 35 31 26 33 31 35 27 36 29 28 24 37 27 28 18 29 27 32 33 43 26 41 38 35 37 34 26 29 29 26 20 38 32 41 40 28 28 26 33 30 37 26 33 26 36 27 35 33 29 24 36 21 41 34 36 32 30 21 27 40 33 39 49 35 32 41 36 40 24 22 33 32 36 36 33 31 33 39 22 29 33 43 20 36 28 34 39 35 27 35 34 33 31 34 20 34 44 42 35 37 39 31 31 34 33 31 37 31 38 47 30 40 20 29 24 27 37 38 38 30 26 30 35 30 23 26 32 30 37 26 32 32 40 28 41 37 29 33 31 30 33 30 31 36 28 25 22 34 31 38 35 40 32 31 30 35 32 22 29 27 31 36 32 33 32 28 37 38 41 31 29 28 30 38 31 25 31 38 30 31 27 30 32 31 32 38 34 27 34 27 28 23 36 23 26 33 32 33 35 46 38 28 28 23 35 25 39 32 39 35 27 30 29 39 36 41 36 37 29 34 33 33 31 33 32 33 34 30 34 34 27 32 26 46 41 20 28 37 30 44 20 34 46 30 28 30 28 40 33 36 23 30 31 30 31 37 31 26 28 33 31 28 28 29 42 29 32 31 35 18 31 27 37 27 26 28 38 28 34 38 40 44 32 35 38 43 33 37 29 39 35 30 37 32 33 24 38 31 27 31 21 43 30 36 34 31 27 27 26 32 49 41 36 41 21 32 28 31 37 22 43 39 43 30 28 25 28 34 33 26 24 46 22 22 35 34 35 31 39 34 29 34 39 30 40 34 35 33 38 30 30 27 35 44 26 33 39 33 27 33 28 27 35 31 40 34 31 26 28 30 34 38 27 41 32 32 45 32 44 24 26 32 31 16 30 38 23 25 27 28 29 25 24 36 27 26 26 36 38 28 35 31 30 32 34 37 35 34 28 29 42 31 35 33 38 27 28 34 32 27 26 32 32 31 35 29 27 37 30 32 30 32 46 28 43 33 32 40 38 35 28 31 25 30 42 31 28 26 24 37 32 31 36 51 32 28 39 25 37 30 33 32 33 25 29 44 29 35 26 36 44 29 27 39 25 32 29 26 28 29 35 20 39 21 43 40 24 31 32 38 34 35 39 29 34 40 35 28 23 41 34 26 30 26 26 35 36 28 38 28 28 35 23 36 42 31 29 27 38 43 30 40 24 22 30 35 38 31 30 33 32 30 48 35 32 28 28 40 37 38 36 37 28 30 39 30 31 40 24 31 34 28 43 25 36 37 38 35 30 29 29 35 30 39 41 28 38 33 31 31 39 36 41 27 33 32 37 27 34 42 30 36 29 34 37 38 32 27 33 31 29 39 27 31 31 32 37 32 28 24 23 40 35 40 36 38 31 29 35 49 29 53 36 32 29 26 35 36 28 42 29 31 37 26 28 29 33 28 37 25 29 32 32 32 49 27 37 40 33 38 29 32 38 47 32 39 34 34 49 29 32 24 37 26 40 34 30 30 36 32 38 26 33 25 32 36 25 32 37 35 33 27 27 33 31 29 33 36 35 31 36 27 36 32 28 36 31 36 37 35 24 35 34 36 34 36 29 38 35 29 28 29 27 50 34 46 39 34 36 36 37 31 34 27 36 31 38 43 41 36 30 36 38 29 23 34 34 34 32 35 30 33 29 30 36 41 28 30 33 34 27 32 21 52 40 37 32 37 28 28 41 28 32 23 23 22 25 34 26 28 31 32 36 36 19 29 28 29 41 29 26 33 32 20 29 43 34 28 30 34 38 30 37 35 29 35 29 32 21 45 32 35 34 29 37 29 39 29 26 27 30 36 24 47 37 32 19 27 28 28 36 44 22 33 38 44 35 28 36 36 29 38 32 34 40 42 32 33 25 31 42 26 37 38 27 32 23 38 30 27 28 36 32 34 32 32 31 34 29 37 45 33 30 25 24 31 34 30 31 41 30 32 29 32 38 34 38 35 29 30 36 31 31 30 27 45 30 33 40 26 37 26 26 42 32 42 25 40 37 27 27 30 34 23 30 31 34 30 41 32 25 33 23 36 26 22 30 30 25 32 30 32 30 30 25 36 22 35 39 46 34 29 44 31 30 39 39 31 24 37 30 36 38 23 28 24 31 32 32 37 41 23 29 34 35 31 32 27 29 46 29 36 35 37 33 27 25 29 30 27 32 26 28 22 23 27 27 33 36 48 32 34 37 28 43 55 25 30 32 33 22 36 40 27 32 38 39 43 32 38 34 37 31 33 30 36 38 33 34 26 32 47 43 39 26 33 32 32 36 26 33 23 37 21 30 34 30 37 33 30 25 23 21 38 36 34 30 34 19 35 24 31 34 35 36 29 21 33 36 36 30 29 28 28 34 39 38 26 33 33 37 23 31 20 32 35 31 29 35 40 28 37 41 34 27 32 28 35 39 31 24 32 30 35 36 36 29 34 39 45 39 30 40 32 35 33 21 36 34 28 39 33 27 31 32 31 28 29 32 31 25 30 23 31 30 28 38 37 33 28 24 35 33 39 37 32 28 28 29 35 39 23 34 24 39 26 21 36 39 35 29 36 33 30 31 36 39 29 25 28 35 33 36 35 27 28 35 34 32 27 37 31 35 28 29 39 34 35 28 23 35 27 31 32 45 38 26 38 34 37 42 29 36 34 47 35 31 27 30 20 31 35 37 30 39 26 32 35 35 29 29 30 23 35 28 34 17 40 28 25 27 38 34 35 35 31 39 37 30 31 34 25 46 41 33 24 24 27 35 33 34 35 35 27 33 31 38 37 41 33 44 30 24 28 30 33 26 50 29 33 27 30 29 27 30 33 38 35 26 34 29 35 32 41 32 36 34 40 31 30 23 38 36 33 29 29 33 24 42 30 33 25 31 35 31 30 36 32 38 27 35 33 29 27 30 44 29 22 36 27 36 39 34 31 24 30 39 38 37 30 30 28 27 26 25 44 31 33 47 27 40 40 37 36 36 35 41 28 35 33 20 26 20 32 24 31 36 34 37 31 33 36 20 39 33 21 36 31 33 39 32 36 20 31 37 35 27 42 30 29 41 40 31 25 34 35 27 43 31 27 45 36 23 31 39 37 29 36 30 29 30 24 41 40 24 41 34 34 31 28 27 27 32 37 26 36 29 38 32 20 25 37 37 31 35 28 41 31 34 28 36 42 29 39 37 39 36 47 28 25 36 27 34 30 24 26 29 37 32 29 29 39 42 23 42 27 30 31 32 34 29 31 42 31 32 31 29 35 32 25 32 30 34 22 37 36 30 32 39 38 22 31 31 29 40 25 32 30 30 26 36 33 27 29 31 38 28 21 29 33 30 30 27 32 33 45 29 22 29 33 30 27 34 24 32 26 28 35 23 39 34 32 29 28 34 44 29 25 35 20 34 31 24 33 42 36 36 33 28 25 21 33 31 34 25 35 41 47 29 35 30 29 35 23 43 30 31 21 23 27 28 33 30 41 26 43 32 29 36 28 22 46 27 45 27 28 32 34 35 30 33 23 29 31 24 28 37 25 35 37 26 33 34 19 28 45 38 39 29 39 36 43 30 34 29 32 37 40 33 32 28 24 44 33 28 38 33 27 22 31 27 36 34 23 31 44 34 44 39 34 31 42 34 44 26 19 30 33 42 38 35 33 43 33 34 37 34 40 31 45 25 35 27 29 29 48 29 33 31 33 41 28 39 32 26 35 30 29 43 29 31 28 35 28 27 31 23 34 42 23 26 35 41 33 28 40 35 47 33 30 32 48 34 31 35 32 32 52 26 47 31 30 42 32 34 37 45 35 31 35 34 29 31 38 33 34 33 31 22 37 29 28 25 34 37 27 35 31 35 37 30 32 28 42 46 28 29 27 44 39 32 25 34 34 32 25 37 34 38 31 25 27 24 42 37 39 29 35 27 42 36 39 31 31 25 35 33 34 30 33 28 29 25 30 31 29 28 27 28 34 30 42 24 33 27 30 30 37 35 31 25 31 29 29 34 37 30 26 44 34 24 32 31 38 23 30 25 22 42 50 35 27 34 38 35 32 38 29 32 29 30 32 34 32 37 36 37 35 39 31 40 32 44 27 31 45 23 27 29 21 33 34 33 40 23 33 45 33 29 32 31 31 32 33 30 29 33 40 38 25 24 39 32 38 30 28 29 22 29 28 31 30 37 38 33 28 39 38 37 37 28 29 36 32 35 28 31 36 37 29 23 31 28 31 34 28 40 28 28 33 33 35 36 34 34 31 36 33 23 25 44 27 38 28 35 35 34 26 30 29 33 27 27 42 34 35 33 38 40 36 35 28 37 31 36 32 32 33 30 44 30 32 24 27 34 38 30 34 33 35 37 33 30 32 36 37 31 23 38 28 33 29 33 29 34 29 22 36 29 41 46 36 27 34 32 42 32 32 36 33 23 27 28 34 49 25 37 36 35 31 45 34 20 32 35 26 40 27 27 28 43 40 42 36 36 33 31 22 34 30 45 33 37 29 36 23 29 30 36 38 33 35 38 34 29 31 35 28 32 15 32 24 28 33 25 31 34 45 26 34 27 34 32 36 29 32 43 38 39 29 32 38 28 23 25 35 22 31 33 30 32 31 22 33 44 35 31 32 33 31 35 23 33 40 34 40 31 34 33 41 34 34 31 32 26 28 34 33 27 20 28 28 33 34 38 39 36 34 33 34 30 42 34 31 26 30 35 36 26 31 25 24 36 34 25 21 32 37 40 24 23 34 34 36 45 32 33 29 30 34 21 31 35 37 39 32 25 35 41 39 38 26 46 34 44 25 24 31 36 31 38 38 32 35 31 35 27 37 33 29 32 28 35 42 33 31 30 30 37 30 33 26 32 32 30 33 28 20 27 33 27 36 42 51 28 40 24 25 30 38 24 30 24 30 30 33 26 28 29 30 31 22 31 39 37 34 22 30 31 26 37 46 34 25 29 29 34 12 28 39 30 32 30 29 30 23 40 29 38 27 66 30 38 29 33 38 42 34 25 43 25 23 36 33 24 35 25 47 38 32 29 24 32 38 20 42 35 27 20 32 20 39 36 22 33 37 27 25 32 26 37 31 31 43 39 32 35 32 37 29 25 32 35 30 39 25 24 35 36 27 38 34 43 36 33 34 30 41 34 23 32 30 31 27 29 42 27 30 25 32 29 35 47 33 33 34 30 30 35 26 30 37 28 32 32 27 25 32 31 39 29 25 40 39 33 27 33 29 32 28 27 28 42 35 28 26 31 30 29 34 49 28 31 30 22 26 32 25 36 32 29 26 21 39 34 38 27 30 29 42 37 35 38 38 27 43 31 35 19 29 34 30 34 30 28 45 40 41 23 23 22 28 40 29 35 27 32 31 40 35 39 36 33 33 32 33 39 29 39 34 39 43 31 22 34 42 23 29 30 38 38 26 28 45 20 38 34 26 34 26 28 35 41 34 36 35 37 37 40 27 28 41 35 26 30 32 35 22 35 41 29 42 31 31 31 27 30 39 34 26 35 28 28 28 32 36 31 26 26 39 26 34 33 44 38 35 33 44 32 36 37 32 35 18 36 32 29 36 20 35 38 38 45 25 38 42 41 46 35 31 22 29 27 33 45 27 26 37 37 32 30 37 33 36 35 30 28 36 33 41 43 23 24 31 34 43 39 33 32 48 30 32 23 21 37 33 40 33 32 35 28 20 35 38 28 25 42 31 25 30 30 30 35 29 32 36 30 29 36 28 35 37 26 25 32 35 32 38 35 28 36 30 24 33 34 44 25 35 44 31 42 35 26 33 27 32 23 33 37 37 41 30 39 19 34 34 27 27 32 40 34 33 32 28 33 17 28 32 26 39 48 31 28 28 36 29 32 31 30 43 33 30 24 28 34 41 42 34 30 27 38 32 29 35 33 43 34 24 37 33 32 20 41 35 26 31 28 38 31 23 29 39 30 33 22 29 32 23 37 28 22 26 32 28 30 40 40 39 30 38 33 31 32 32 29 37 39 34 32 28 28 29 26 21 29 39 43 35 36 34 33 21 30 35 27 25 38 35 46 32 32 29 30 31 30 34 25 32 30 40 25 39 31 32 34 32 25 22 28 28 26 30 45 35 41 28 31 26 28 35 27 31 35 21 31 34 24 40 29 33 28 29 34 34 28 37 35 30 31 23 24 28 27 31 29 24 32 42 31 33 30 18 31 25 26 26 29 47 33 34 39 36 42 31 33 24 30 42 32 32 38 31 35 35 38 31 32 42 21 45 38 30 35 22 34 35 29 31 29 33 27 40 37 37 25 33 42 39 43 48 28 27 26 27 24 27 27 33 38 32 29 30 31 26 36 34 32 36 24 36 26 33 30 39 29 28 45 31 31 25 25 26 38 28 24 40 38 38 41 38 29 30 30 24 30 32 34 25 32 31 29 29 43 32 25 43 27 37 40 38 32 35 25 42 32 25 28 37 26 23 25 40 33 29 20 37 35 28 33 28 32 32 24 30 30 34 34 28 39 38 34 26 33 31 37 19 33 35 27 40 34 28 42 23 30 33 32 25 27 28 32 31 23 33 32 35 32 34 30 36 44 30 43 30 39 36 27 23 37 26 45 32 29 32 28 25 32 27 44 28 32 37 30 28 36 37 35 32 45 33 33 43 31 40 38 33 34 32 36 31 28 27 34 35 37 35 26 32 36 29 24 37 31 28 26 30 32 28 39 35 38 28 26 37 41 24 28 21 29 23 39 34 39 38 40 26 32 33 38 41 29 31 34 28 36 30 30 27 24 32 33 30 21 31 37 26 39 33 27 35 25 46 31 31 31 30 33 21 35 26 39 41 34 29 24 35 27 35 35 38 32 32 38 56 25 20 32 39 30 25 38 38 28 41 44 29 32 23 34 33 32 36 33 33 31 34 28 44 29 38 40 26 37 27 38 30 37 37 41 38 33 32 36 33 31 26 27 41 36 38 32 29 35 31 33 37 38 31 30 29 28 45 27 26 31 34 30 26 36 36 25 35 30 34 35 30 35 35 33 25 28 34 37 26 34 27 35 34 27 31 32 28 27 33 24 31 28 42 32 32 36 29 33 47 28 37 44 33 21 40 32 23 31 33 42 29 33 30 40 31 31 31 36 25 20 38 36 24 35 29 39 29 27 35 31 32 31 41 36 38 36 38 35 27 23 35 26 36 42 33 33 30 35 25 35 33 36 40 36 38 22 41 36 27 35 23 36 31 30 31 30 47 43 30 34 35 36 23 27 54 25 31 28 30 27 45 30 30 27 37 30 37 35 41 33 29 31 35 33 28 38 32 40 34 26 34 30 32 30 39 33 30 35 37 30 35 38 36 31 32 26 33 29 31 39 42 33 34 41 38 29 29 28 29 39 29 27 39 36 30 33 27 38 29 38 29 38 40 38 29 20 34 20 27 28 37 40 36 36 36 23 30 33 31 40 44 30 25 27 28 30 31 29 38 40 31 29 31 30 34 28 38 28 21 29 30 26 33 29 34 22 30 29 40 23 23 44 27 29 26 36 35 37 33 32 48 44 28 30 26 36 31 28 34 33 34 31 36 33 33 37 41 29 40 28 31 30 33 28 27 29 38 27 27 36 30 38 28 30 36 37 35 29 43 27 35 23 30 38 20 37 28 31 31 32 31 33 25 26 25 23 35 34 24 25 34 31 34 27 27 48 34 38 32 34 37 23 22 29 34 41 35 24 32 38 26 27 26 25 31 38 32 34 27 41 26 28 30 37 29 27 36 30 21 38 35 34 37 38 28 31 29 26 29 23 32 30 30 35 24 38 28 28 43 32 27 31 43 28 39 33 43 35 34 27 37 32 25 31 39 32 36 34 41 25 36 32 31 29 27 28 52 27 32 39 34 26 46 26 29 30 33 31 32 25 52 37 39 24 30 24 35 30 27 29 26 38 39 27 44 41 28 31 51 33 23 37 39 25 34 33 27 26 30 31 37 33 45 38 28 27 25 28 42 55 34 40 30 19 32 30 29 35 36 35 30 30 23 41 22 35 39 22 43 46 45 35 34 34 36 23 30 27 34 34 38 33 27 30 37 44 34 38 24 27 27 27 32 37 38 36 46 51 29 37 36 29 37 36 38 28 25 33 31 30 29 36 38 39 27 37 32 27 31 41 27 26 42 35 25 26 33 38 35 27 35 35 29 32 41 32 30 34 29 36 39 29 24 35 30 36 24 42 38 30 32 35 34 16 31 42 29 34 28 30 28 32 31 41 31 29 27 30 30 40 21 38 42 37 38 43 37 35 33 31 25 43 29 27 27 31 31 35 28 41 38 27 22 30 25 38 32 32 26 29 31 31 27 37 34 37 41 27 23 34 22 34 30 38 32 24 36 29 40 30 40 34 25 27 31 32 30 34 31 35 37 34 25 36 26 32 30 27 32 18 24 29 37 34 29 46 38 28 34 36 38 32 28 44 25 21 35 34 36 43 33 33 32 26 34 35 33 41 35 35 38 34 39 29 34 37 29 32 32 31 33 27 32 29 30 41 38 29 33 39 29 37 34 34 37 38 40 24 32 32 30 23 30 38 40 35 39 30 30 36 32 30 27 28 40 41 42 28 29 38 34 29 29 32 40 24 36 24 27 36 32 34 33 34 34 28 32 40 30 28 31 21 36 28 33 40 34 29 19 35 37 42 40 38 23 34 34 30 22 42 34 38 35 32 29 34 37 31 26 36 33 28 24 27 30 40 31 34 38 34 35 23 39 40 41 30 35 35 29 25 32 27 27 28 42 30 31 30 27 29 27 28 24 27 23 32 34 36 29 34 24 33 27 28 32 29 27 30 26 35 24 39 28 30 34 42 33 40 35 31 25 32 45 31 31 35 34 25 28 28 37 27 30 34 45 25 27 23 36 33 24 25 28 40 37 29 31 33 24 35 35 46 30 29 30 28 31 36 29 35 42 36 35 22 30 34 35 32 27 40 34 33 26 43 24 25 33 21 34 29 40 32 37 51 41 38 26 43 34 54 33 39 28 21 29 32 32 27 48 33 32 38 37 34 24 38 23 37 36 25 31 28 26 28 33 34 35 38 33 27 29 41 32 41 31 36 39 31 35 35 27 27 21 37 37 19 24 34 35 26 33 34 36 24 23 24 31 30 21 32 25 39 24 42 29 37 32 27 36 25 32 35 29 37 22 35 41 30 36 39 26 37 30 31 35 28 27 24 33 41 30 28 21 27 33 32 27 36 34 37 39 36 26 35 29 31 42 32 36 39 33 30 32 38 31 31 38 37 34 28 22 26 34 39 28 41 50 38 33 36 36 36 35 29 23 26 23 33 37 22 30 39 31 34 33 43 37 32 33 34 29 38 29 35 32 35 33 25 26 28 29 27 29 32 30 38 28 38 34 35 32 32 33 31 36 25 25 30 33 29 23 32 37 38 29 28 27 29 34 33 27 30 40 51 31 29 36 33 37 47 35 29 24 37 34 32 30 30 31 33 36 36 39 36 22 35 37 27 26 32 25 28 36 37 24 31 35 33 31 28 38 37 47 40 27 30 34 34 38 30 29 34 34 38 26 24 33 26 26 30 39 37 37 27 30 35 28 33 27 30 35 36 32 23 24 20 42 24 31 32 31 37 25 45 26 30 34 46 29 33 37 30 37 32 41 28 30 36 32 34 33 30 38 33 28 30 32 29 32 33 36 39 28 25 35 41 27 31 27 39 26 30 29 41 28 29 26 32 31 34 32 35 32 31 20 32 37 24 33 26 30 45 33 35 34 42 29 29 32 31 28 35 31 19 34 27 22 35 29 32 28 25 33 27 37 50 34 33 39 31 32 28 21 31 30 43 33 34 35 37 27 37 37 34 35 16 22 28 31 30 37 29 35 31 32 34 35 25 27 51 32 31 31 32 31 33 36 32 27 34 25 45 25 27 39 28 44 25 40 35 32 44 47 44 27 29 38 29 34 39 31 31 38 28 35 30 41 40 28 33 37 27 40 30 48 31 35 34 27 22 31 32 33 37 31 30 36 40 34 31 35 41 28 50 29 29 24 40 33 46 24 43 37 37 36 30 35 44 36 29 31 28 32 26 35 32 32 34 36 41 34 31 23 27 38 34 39 28 30 32 28 37 31 32 40 26 31 35 25 23 27 40 35 33 36 28 34 34 25 31 26 32 30 35 27 34 22 31 42 31 34 34 30 20 25 34 30 38 27 33 43 30 32 23 35 34 38 38 33 43 34 34 30 32 48 39 28 29 31 30 35 34 41 29 30 18 29 39 33 38 33 30 38 28 28 34 26 30 29 36 34 42 25 31 37 28 26 27 29 27 32 26 34 44 27 25 34 28 29 37 31 27 30 29 32 35 27 23 31 31 40 30 27 33 32 28 41 32 30 32 24 33 32 31 33 30 28 35 35 38 24 43 37 27 32 29 39 33 35 42 24 31 31 41 37 34 38 30 26 29 22 42 32 32 43 42 37 20 31 31 28 36 29 25 25 29 36 36 34 28 31 21 36 31 26 35 26 29 32 23 32 23 34 29 32 35 29 31 42 30 22 21 27 36 24 36 26 37 36 41 25 32 41 41 34 35 30 29 31 32 23 26 27 35 39 31 29 22 32 42 29 35 35 40 30 31 38 35 25 25 30 25 38 28 35 30 31 28 31 46 31 37 35 35 28 30 27 22 44 42 29 28 45 36 34 39 40 30 30 40 42 35 22 36 38 40 34 39 37 48 37 26 32 21 29 31 30 30 38 33 27 30 32 30 35 35 28 25 26 30 28 39 27 33 43 31 32 22 32 38 28 36 31 39 27 28 33 36 28 33 34 38 32 36 40 38 39 37 25 31 41 33 26 36 28 36 28 31 36 27 25 31 37 26 49 42 42 40 29 32 33 33 20 34 29 37 33 30 28 29 29 22 42 36 35 33 31 28 28 28 40 35 31 37 37 36 29 32 33 34 36 33 32 32 23 30 34 26 21 33 31 29 46 39 26 23 37 36 25 30 29 31 21 32 25 42 20 36 30 30 37 31 23 29 33 27 37 32 32 33 35 34 25 30 32 32 31 37 27 33 23 34 25 34 34 40 42 38 26 39 41 34 26 27 27 29 25 38 38 39 28 33 32 37 41 26 44 40 31 29 33 36 32 38 31 25 41 21 27 38 37 33 33 27 28 35 37 26 46 32 32 37 36 37 25 32 31 29 30 43 33 39 34 34 29 33 37 40 38 29 32 34 27 29 40 25 47 40 35 27 29 38 36 24 32 31 29 41 37 31 27 32 37 30 34 42 47 35 25 36 28 32 31 41 31 32 40 34 32 30 35 31 37 26 30 31 33 23 28 32 37 41 29 44 31 44 33 35 47 37 30 41 30 33 27 19 32 30 32 37 33 31 26 28 30 30 30 38 29 38 39 26 32 32 26 33 29 28 29 37 37 34 38 23 27 35 41 35 40 30 39 29 39 25 38 30 26 44 37 32 28 26 30 34 26 38 32 33 31 26 33 37 24 35 42 22 39 36 32 28 30 30 32 28 29 28 38 28 32 43 27 21 34 24 28 30 32 34 28 24 36 28 29 33 32 29 30 39 34 31 28 37 25 28 36 41 37 38 27 26 30 32 34 29 31 28 32 29 34 34 40 35 29 25 31 37 33 35 38 28 36 28 34 38 38 41 21 29 32 40 35 33 19 31 34 32 38 25 26 35 37 31 27 32 43 37 33 33 39 31 26 42 37 32 26 34 28 28 24 22 36 31 39 47 37 31 40 24 34 43 43 28 37 35 41 38 27 36 27 34 26 31 29 30 37 35 31 34 27 34 20 34 34 38 34 31 27 31 29 42 39 24 24 26 31 43 23 31 24 33 24 27 42 32 30 41 42 32 31 33 31 29 33 33 27 30 38 35 23 38 33 34 27 37 30 34 25 25 41 27 33 25 38 34 35 37 30 38 35 33 40 35 23 24 36 26 37 40 37 27 26 40 44 30 42 32 28 41 28 29 40 29 33 23 33 33 30 33 22 33 27 36 35 36 37 27 39 26 45 29 24 37 29 29 23 35 37 28 34 33 33 30 27 31 34 33 36 32 37 38 28 39 35 41 31 23 29 29 29 26 34 38 43 23 27 34 33 34 27 31 30 40 28 28 26 33 36 23 34 24 30 46 34 40 31 29 36 33 31 31 31 23 31 39 38 31 34 33 33 33 34 25 40 36 28 31 29 29 34 31 42 34 27 28 40 25 28 32 33 38 33 29 28 42 30 29 38 34 29 31 39 34 40 30 29 33 27 34 31 42 34 31 30 33 42 38 29 32 31 35 37 33 24 32 32 27 22 28 25 25 35 40 42 33 26 16 23 19 40 30 29 34 32 38 33 36 25 28 31 32 42 30 34 31 35 34 31 33 35 28 34 44 39 33 38 41 25 26 53 27 42 31 28 23 39 24 33 30 45 37 28 34 35 23 26 28 31 34 30 38 29 32 40 32 31 40 38 32 33 28 23 36 32 28 27 35 27 39 30 30 28 42 33 38 31 30 37 30 34 42 18 33 33 39 27 32 37 45 34 30 31 23 30 22 26 30 35 35 33 24 19 24 33 34 25 32 33 37 26 33 29 35 32 30 26 27 23 37 36 30 32 51 37 25 36 26 22 32 31 26 32 37 33 37 24 32 25 33 35 37 36 36 29 34 30 32 39 37 33 32 43 34 28 27 28 30 32 42 26 37 33 33 35 36 41 35 31 34 33 31 34 30 33 31 22 32 35 26 34 34 26 37 25 39 23 38 42 32 38 28 34 24 34 28 29 35 37 28 34 31 36 33 30 27 22 31 39 35 38 37 23 34 30 38 27 27 34 24 35 29 34 31 36 37 26 33 38 36 29 26 31 27 28 22 35 32 24 28 43 32 28 42 41 47 39 26 36 22 32 42 39 30 31 28 43 34 35 39 41 40 32 28 19 28 30 24 42 18 34 33 34 30 31 41 35 31 37 25 32 34 42 35 37 39 37 32 25 23 33 37 25 33 22 30 32 27 36 27 41 33 31 33 25 30 31 25 23 31 28 40 24 38 29 39 29 26 39 29 29 26 37 35 30 38 32 42 36 27 36 37 29 37 29 33 32 31 22 33 33 21 34 32 28 26 28 30 30 30 21 43 31 32 32 42 39 37 23 28 30 34 29 31 19 26 35 45 47 24 41 24 31 34 30 39 32 37 35 34 42 37 30 40 34 34 24 20 30 32 30 25 34 34 33 33 39 39 36 28 26 23 37 32 33 34 29 18 27 27 39 32 32 39 26 36 23 33 34 34 33 38 30 31 30 25 43 34 30 44 28 30 32 36 33 34 26 36 38 33 24 39 22 36 32 42 25 34 32 33 28 29 36 35 40 37 34 29 31 35 34 35 37 35 27 27 34 39 39 34 23 40 27 34 32 29 35 38 32 30 27 26 24 38 38 26 30 34 35 30 29 28 33 43 28 29 34 31 29 21 39 28 29 33 26 43 28 31 34 35 32 52 30 47 28 34 29 36 37 32 32 35 29 27 30 25 38 26 29 39 29 38 36 32 40 28 19 25 36 33 38 36 40 39 38 34 33 33 24 33 30 35 35 27 26 33 27 27 37 31 33 38 28 22 27 26 36 35 40 35 38 25 34 32 29 30 40 32 30 33 34 25 30 33 33 29 28 23 27 31 22 37 28 32 29 28 35 35 27 24 26 31 36 29 26 32 31 34 35 33 28 29 27 30 38 34 34 40 29 31 29 30 38 47 32 23 21 27 39 28 25 30 32 31 33 32 25 34 35 30 26 26 37 23 38 32 27 29 26 26 40 32 30 26 22 34 30 33 28 23 32 30 39 32 25 31 44 39 30 27 30 27 43 39 39 31 36 28 32 34 30 31 28 25 41 25 27 20 25 30 43 47 28 36 26 26 38 28 29 29 29 18 37 30 36 32 33 27 33 27 28 24 37 37 33 32 28 23 28 52 35 34 29 40 36 25 35 27 39 28 20 36 27 32 24 31 30 30 33 30 27 41 29 33 40 32 36 38 35 33 31 31 35 24 42 34 27 34 29 31 19 37 32 37 33 31 30 34 39 27 39 36 25 40 33 35 33 30 36 22 33 35 35 35 28 40 22 49 32 29 38 24 26 40 32 25 21 35 32 32 29 29 30 29 35 29 41 48 35 35 35 29 31 31 18 32 34 32 26 45 28 31 28 23 43 37 26 27 31 28 30 36 38 32 25 29 34 28 27 31 35 40 41 33 33 28 31 35 25 27 27 31 28 28 37 33 52 28 39 33 36 37 41 36 24 41 33 30 32 34 30 30 37 32 43 29 39 24 37 31 33 35 35 37 37 35 32 27 30 29 38 30 35 40 31 34 28 40 34 32 30 22 34 35 35 25 25 29 35 34 24 34 28 52 29 42 34 39 37 33 32 33 36 42 33 27 17 26 23 29 40 28 36 28 26 21 27 42 27 25 28 42 31 37 29 32 32 41 41 28 32 27 29 28 38 40 24 26 25 35 42 26 30 41 31 29 44 19 32 26 29 35 27 28 35 31 24 32 30 29 29 33 24 20 40 28 36 17 24 38 36 43 22 27 34 30 30 44 46 24 32 24 37 48 22 40 31 23 33 29 26 41 33 43 29 31 50 43 26 19 28 38 34 37 34 36 54 37 41 29 35 24 32 24 26 25 43 37 24 28 34 37 45 42 48 28 29 27 40 28 28 27 35 33 27 26 30 36 27 29 37 32 43 34 26 31 30 38 31 32 32 34 31 32 38 27 34 37 32 33 26 45 32 38 30 29 40 26 50 32 36 35 22 29 23 32 32 26 29 46 35 30 22 35 34 33 25 34 28 31 31 36 29 41 28 35 36 29 34 28 35 41 30 30 24 32 49 28 37 33 38 45 22 29 31 34 34 34 27 33 23 32 22 29 30 27 24 33 34 37 21 27 36 42 32 29 30 23 35 30 29 29 35 35 36 40 33 31 30 30 26 28 42 28 35 31 35 32 36 32 43 35 41 27 28 35 35 25 35 29 29 33 32 32 33 26 37 31 34 31 34 36 32 29 39 27 31 28 34 36 31 24 17 30 38 26 25 31 34 29 27 33 25 39 29 36 28 29 25 33 38 31 29 32 36 32 28 35 32 30 35 25 43 38 38 33 32 35 42 35 37 24 41 28 37 34 33 19 37 27 23 34 27 47 25 23 44 30 36 40 29 28 30 30 36 38 33 34 36 33 35 35 36 33 34 30 40 32 35 33 38 34 37 32 29 22 32 29 30 28 47 32 29 32 30 34 39 49 31 33 36 23 36 30 36 24 30 31 37 45 40 37 35 29 38 27 25 25 33 29 33 33 25 31 38 38 42 28 26 37 36 29 40 46 21 32 35 37 24 56 22 34 42 40 41 36 31 35 35 38 44 34 29 29 37 28 26 36 29 31 32 23 33 28 36 32 29 34 31 35 34 41 32 46 20 29 33 42 25 50 31 29 44 41 23 32 29 37 25 24 40 41 32 25 33 33 38 46 34 25 29 25 36 33 42 31 27 35 32 22 40 43 29 27 24 28 28 35 31 42 33 34 33 24 35 42 39 38 34 36 33 36 33 32 26 27 40 32 28 39 22 34 42 29 38 24 31 25 24 25 43 30 41 24 30 36 36 34 20 24 41 35 29 30 26 22 33 40 31 33 48 29 30 32 30 36 33 33 33 22 26 27 39 33 29 27 26 26 37 31 23 33 28 34 28 31 33 29 32 28 33 33 32 32 30 35 28 39 29 31 32 38 30 48 29 38 32 30 25 35 40 30 36 25 36 44 32 27 40 23 25 24 26 25 29 25 45 33 41 25 28 35 33 42 28 23 29 36 37 27 33 33 30 26 35 26 41 28 36 29 25 30 42 37 24 35 33 31 22 24 22 27 25 37 32 29 21 26 30 36 32 30 28 34 38 34 27 25 36 29 33 37 39 35 25 36 37 33 28 36 27 29 31 31 36 40 36 32 35 27 39 32 40 35 35 36 31 40 39 38 38 33 34 31 34 27 32 23 32 28 28 32 32 28 36 42 40 35 29 36 20 37 39 27 30 18 38 31 34 20 26 31 33 40 34 31 31 40 22 34 32 35 28 45 35 36 38 31 39 29 34 44 33 39 26 36 31 31 32 33 39 20 34 33 29 25 31 30 27 33 37 34 28 30 40 36 26 29 28 29 37 36 27 35 34 37 33 29 24 40 30 31 35 23 29 40 35 28 34 28 34 34 24 34 27 30 30 30 32 30 42 40 27 37 36 26 40 33 41 29 27 27 37 27 35 22 29 27 32 33 30 24 33 32 29 29 30 26 32 26 31 22 32 33 30 30 32 31 28 23 23 29 35 35 37 30 38 26 30 30 27 34 19 25 28 41 25 35 23 31 42 35 38 41 35 38 23 26 29 34 28 28 28 24 38 36 40 29 32 36 29 38 26 33 25 37 26 27 34 37 41 40 27 29 29 43 24 24 32 31 37 37 25 32 44 41 33 41 33 37 26 20 37 29 29 32 29 36 27 38 30 30 28 34 30 35 32 37 30 37 38 38 33 34 35 31 37 24 34 35 31 31 28 33 28 32 40 33 28 27 21 36 40 35 38 22 35 29 29 26 33 32 25 32 29 31 26 46 28 34 34 25 28 39 30 29 26 29 23 38 37 23 25 26 39 37 36 37 40 37 34 33 36 27 39 28 33 44 33 29 34 31 32 28 33 31 41 40 31 35 30 36 36 34 31 34 27 37 31 42 29 24 32 29 28 34 37 35 38 31 31 31 36 27 35 25 32 35 36 28 35 30 21 34 49 26 33 43 39 33 24 28 27 30 40 36 37 24 29 27 34 30 40 31 33 34 30 35 28 30 27 32 27 34 32 36 26 29 41 44 30 31 28 28 28 42 34 31 38 38 28 25 30 28 35 25 26 40 26 37 32 42 32 35 42 31 19 23 45 24 28 35 32 23 32 43 37 29 26 29 36 32 32 39 32 30 30 28 22 32 31 25 22 26 25 27 21 26 31 35 30 34 33 36 35 33 44 27 31 30 34 40 35 32 32 26 29 32 28 32 27 28 33 28 32 30 23 30 25 29 35 45 28 35 30 32 25 28 32 30 36 35 39 28 35 34 27 33 27 26 38 29 34 32 49 31 37 32 33 36 25 17 36 30 42 31 37 32 30 40 35 32 28 30 27 33 41 33 31 29 27 28 28 20 38 28 29 35 39 25 33 29 36 29 27 22 28 25 37 30 34 43 42 29 37 37 31 34 30 42 31 39 29 35 40 40 43 30 32 26 33 32 32 38 23 30 24 33 35 34 39 35 38 30 42 34 44 31 26 25 36 26 28 42 40 25 32 36 33 32 31 23 36 41 30 34 24 26 34 36 37 26 38 35 35 32 36 29 29 31 37 29 28 29 25 33 25 32 28 32 27 37 30 32 32 32 37 20 40 31 26 44 33 38 28 44 43 30 30 24 32 22 27 26 41 30 31 25 38 34 32 43 21 26 32 37 30 39 36 24 33 22 43 29 29 29 36 25 40 33 32 36 30 32 30 23 35 27 33 27 37 30 41 23 39 37 40 48 40 30 30 30 42 41 45 32 32 29 33 33 41 31 32 34 34 34 31 29 28 27 36 36 32 39 30 34 37 27 27 30 28 33 32 28 41 39 29 32 28 25 23 20 34 24 34 29 35 21 18 25 36 33 35 27 49 32 27 29 35 41 32 29 29 29 38 31 29 31 36 27 27 29 29 32 30 45 25 32 33 38 29 37 38 31 25 36 37 25 21 40 38 32 31 20 28 34 39 45 38 38 33 28 23 39 40 31 23 28 43 27 26 42 32 20 29 42 29 36 39 36 37 38 31 26 34 35 28 33 39 30 33 35 32 27 30 30 43 29 19 32 35 27 32 24 28 27 34 25 40 31 35 23 28 34 30 28 32 37 28 27 37 40 46 30 36 31 39 40 31 40 40 16 39 33 32 38 34 25 29 26 37 22 30 22 29 18 32 40 29 34 35 28 25 33 30 27 32 39 32 32 38 22 30 29 30 33 29 29 34 34 35 35 25 34 37 28 30 26 30 31 24 31 27 37 43 29 28 34 34 35 30 37 26 33 37 31 32 44 24 37 41 27 31 33 26 44 27 46 30 42 33 35 35 34 21 32 30 34 34 36 34 26 38 25 30 32 46 27 34 32 34 34 29 29 31 43 40 33 29 32 43 32 32 29 27 31 24 39 31 39 37 31 33 29 32 23 32 29 18 23 43 31 33 27 29 34 24 26 34 33 26 29 19 28 27 37 37 28 39 29 29 32 26 20 41 36 22 28 37 22 29 40 23 33 38 24 35 32 38 43 33 38 39 25 26 39 31 32 28 37 33 32 36 35 43 40 38 37 39 26 39 36 30 31 36 31 33 30 30 23 21 27 41 27 33 28 30 34 25 34 29 36 36 33 32 29 38 34 32 29 29 29 30 35 34 30 33 36 39 38 30 33 33 23 31 31 41 35 37 32 35 35 35 31 33 29 28 34 29 48 38 34 33 25 24 36 34 33 27 34 28 33 33 28 26 26 38 25 40 35 37 32 29 28 20 34 37 31 33 30 31 29 34 31 39 33 31 32 27 29 18 38 31 29 25 41 36 42 35 32 36 29 34 30 31 31 39 41 29 33 35 38 25 38 47 27 38 37 28 36 30 30 30 41 34 26 33 42 26 30 40 27 34 25 35 31 31 35 37 36 32 31 35 28 21 39 28 32 41 27 30 32 32 30 32 40 47 34 37 35 29 33 31 38 32 25 29 28 27 32 36 32 45 29 42 32 28 20 31 25 22 33 25 31 39 27 29 38 30 25 37 32 28 34 29 37 34 22 39 34 25 26 31 31 33 36 30 37 38 28 41 30 45 36 40 29 31 26 32 44 32 27 38 38 24 30 37 29 32 34 38 32 29 21 35 27 39 36 29 32 28 30 35 38 43 31 22 37 37 30 34 41 29 33 35 24 28 27 33 36 31 21 33 31 24 31 29 39 32 39 51 30 35 29 31 31 25 37 29 34 29 30 43 27 35 29 26 37 38 37 31 45 38 45 28 35 36 36 26 31 34 29 29 32 29 29 35 34 36 37 29 40 30 37 25 40 33 37 39 22 26 27 42 33 30 33 41 32 43 46 36 32 29 24 43 36 31 29 34 34 27 27 35 34 28 29 23 29 32 31 34 45 28 19 26 28 28 30 29 33 34 31 39 42 34 33 31 24 27 27 35 39 22 33 27 36 32 40 28 29 34 50 32 20 34 35 32 30 29 48 38 28 36 24 32 21 37 31 31 29 28 33 34 38 26 27 35 27 31 38 38 26 33 24 32 37 33 36 33 40 36 32 31 42 28 34 36 32 33 25 36 29 29 33 35 22 35 31 41 34 30 30 40 27 31 29 34 26 31 27 24 30 31 24 29 37 34 26 24 31 41 35 31 31 30 26 29 34 33 24 31 32 37 39 25 31 26 33 34 37 28 31 26 34 39 34 32 27 35 35 24 26 28 31 27 29 42 42 40 38 33 36 35 34 24 34 29 34 27 36 36 47 28 31 27 36 38 35 32 29 28 31 31 47 31 29 30 28 51 40 41 36 33 34 34 30 26 34 35 29 40 37 31 47 32 33 37 31 26 40 27 27 35 28 28 28 27 33 24 34 31 33 33 36 27 24 35 31 36 31 27 31 34 26 25 35 42 31 30 23 31 25 40 29 23 26 38 26 37 36 24 35 44 23 34 31 24 22 32 35 34 37 36 27 35 36 40 38 27 40 29 36 30 36 30 29 33 30 43 27 32 35 38 37 38 27 31 26 32 28 25 42 27 43 31 26 34 31 30 27 38 30 41 32 38 28 32 29 45 36 40 24 34 41 27 29 30 28 38 30 49 31 26 30 38 21 34 33 45 32 30 26 24 33 26 29 31 33 28 26 22 38 34 31 46 33 34 35 33 33 32 31 22 43 32 20 32 29 23 28 38 29 44 30 27 27 26 28 31 33 39 28 25 22 28 31 44 39 32 34 26 29 36 29 39 43 32 28 24 32 32 45 29 23 22 34 49 28 24 37 34 36 37 38 38 30 26 37 27 43 30 30 32 16 36 26 42 30 30 31 32 31 30 34 25 40 32 33 29 43 40 28 34 34 24 33 29 27 42 30 28 24 36 33 29 21 32 32 28 25 43 32 35 33 22 29 32 40 33 32 35 33 19 28 33 29 35 34 29 31 31 32 40 34 32 30 28 16 37 37 28 31 30 33 33 26 26 21 40 41 38 30 28 29 31 28 35 24 31 32 31 41 35 30 39 35 32 31 21 34 28 42 33 35 34 33 33 36 42 23 33 41 39 32 27 23 37 37 25 36 30 41 38 45 36 32 26 34 32 37 35 38 31 29 39 41 36 24 47 45 39 38 29 32 30 42 30 33 45 41 22 28 28 39 25 27 36 37 41 38 35 33 31 47 38 23 37 31 28 29 27 31 29 30 31 30 26 41 39 38 30 37 26 33 28 28 36 31 28 34 35 31 32 33 22 41 28 30 23 28 34 24 40 31 38 32 42 25 32 33 38 39 27 28 42 32 24 36 35 26 29 32 31 32 31 36 25 34 32 37 35 34 26 41 34 27 21 30 19 47 37 38 31 32 33 46 19 36 32 27 34 33 29 34 24 37 24 30 43 24 38 36 36 33 27 34 39 35 29 27 30 30 34 36 31 29 26 33 31 33 41 24 37 32 26 43 28 29 28 26 35 30 30 22 29 38 43 33 42 30 28 42 34 29 33 35 39 36 39 37 33 37 37 31 26 39 25 33 28 31 27 27 26 31 40 28 31 36 38 28 30 35 35 33 30 42 34 39 22 25 28 21 31 29 27 30 32 28 33 29 27 41 40 42 26 28 33 26 30 42 36 37 35 30 37 37 28 33 32 30 32 37 35 38 30 35 29 19 28 34 31 32 40 29 31 28 36 32 33 31 34 29 26 30 23 34 30 28 31 25 36 40 32 34 37 23 31 23 24 35 38 45 33 26 34 33 29 37 36 43 43 37 30 26 38 19 30 38 39 38 34 27 40 28 32 28 38 34 32 32 36 34 33 26 48 39 34 30 28 33 34 29 49 33 31 42 30 30 23 36 30 29 26 34 24 36 36 31 32 26 29 28 29 32 41 30 32 30 35 36 44 34 33 32 30 37 35 26 35 22 36 22 29 31 42 29 31 35 30 31 34 32 37 27 41 43 30 27 23 44 23 30 39 28 31 34 33 33 37 26 30 27 31 35 23 31 32 37 35 31 31 33 32 28 41 41 25 36 30 28 31 23 24 31 35 26 34 30 37 24 36 34 35 37 31 31 27 34 33 32 27 32 27 31 28 32 30 37 29 33 38 27 33 28 30 37 29 28 35 38 38 32 32 39 38 44 25 26 33 43 31 36 38 38 25 31 32 35 32 25 20 31 48 35 31 26 39 31 31 37 31 33 36 30 35 35 34 32 38 24 23 29 34 32 41 44 26 29 31 31 43 39 35 26 24 33 27 31 25 33 33 26 39 32 42 33 23 33 36 29 29 28 35 34 28 31 31 30 38 40 39 34 33 37 32 42 35 29 31 26 27 31 25 34 25 37 28 32 26 31 22 32 40 28 35 42 40 38 34 35 47 30 23 36 41 32 30 29 39 30 32 33 29 26 37 32 32 32 34 34 34 35 31 24 32 23 42 33 31 40 26 29 25 33 30 29 41 34 33 23 34 35 31 35 30 34 40 28 31 28 32 37 30 40 41 34 32 38 36 26 27 23 35 39 30 34 29 39 39 34 25 31 28 27 33 30 27 32 36 30 35 39 35 39 37 23 32 34 26 35 27 28 25 32 25 20 33 30 37 35 34 30 31 37 29 33 36 31 35 37 49 32</t>
+  </si>
+  <si>
+    <t>JSB(6.82129437126148, 7.327705621735071, -273.6600932078883, 1771.782514135718)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">241 243 265 261 236 166 194 215 185 280 203 223 254 262 166 190 334 143 176 332 273 276 216 217 261 242 334 288 175 271 285 201 204 255 196 241 223 263 268 267 335 183 283 240 206 227 162 188 275 192 241 162 178 230 269 230 227 210 289 295 222 163 265 270 198 189 197 244 138 223 175 283 264 216 216 260 289 234 234 272 216 213 219 373 181 345 232 225 255 207 143 173 240 170 160 306 242 272 262 205 240 160 266 219 243 218 271 192 244 204 208 299 225 132 119 255 253 316 212 212 187 170 286 210 158 225 180 232 199 209 120 161 165 219 266 293 269 202 203 304 237 198 232 196 184 252 197 218 198 229 249 206 204 298 243 233 302 253 225 188 308 160 195 428 364 245 191 219 304 224 217 219 227 330 214 216 240 232 180 156 270 289 232 220 252 192 190 234 255 206 191 175 172 189 296 235 186 248 169 251 263 210 245 288 303 153 240 287 212 316 223 214 162 103 242 309 196 245 233 167 216 256 211 306 177 89 359 143 296 302 172 322 279 243 257 266 174 173 229 240 225 375 207 226 129 287 214 202 123 252 253 204 357 260 263 198 290 245 200 213 146 300 279 158 174 233 182 271 196 257 194 194 177 275 206 286 287 275 209 206 235 257 292 216 256 196 280 296 261 180 164 210 365 190 254 264 232 186 267 257 229 190 238 183 202 130 299 128 228 131 216 216 251 212 305 183 212 307 219 322 223 233 168 213 202 215 267 231 267 261 172 179 189 227 180 298 214 276 177 278 193 281 242 188 188 196 195 280 262 247 247 160 198 154 250 236 254 277 268 254 289 261 316 140 165 209 202 267 214 208 298 234 222 188 192 281 276 180 227 254 270 265 170 218 266 287 282 172 224 159 318 282 241 261 276 279 205 202 203 216 236 300 253 239 363 231 292 173 261 155 240 243 206 259 178 231 258 238 224 148 205 246 236 323 183 212 245 304 215 273 247 170 230 261 219 286 216 221 271 209 210 163 266 208 266 200 260 194 209 227 221 236 192 145 211 189 287 272 215 232 165 201 269 356 242 238 182 211 241 224 204 209 274 238 261 193 206 253 204 231 262 204 173 281 201 221 149 287 120 178 250 222 229 223 295 275 216 213 140 279 156 234 217 245 250 255 210 212 220 216 354 264 305 222 205 213 252 256 265 195 276 204 224 236 241 240 198 170 345 266 152 123 261 303 295 152 222 256 240 195 214 225 296 242 344 173 251 227 245 181 233 256 173 222 239 241 232 158 240 298 211 270 202 256 78 212 210 260 141 183 186 336 166 222 256 261 314 188 255 319 264 196 232 139 327 245 218 257 252 238 163 269 166 143 254 187 240 236 186 220 258 190 173 198 240 335 221 284 281 185 224 233 241 247 156 264 199 305 221 224 187 201 267 250 217 177 325 181 138 223 263 239 224 244 199 221 250 225 211 272 246 207 259 319 260 226 219 275 254 198 208 224 279 180 216 124 227 252 226 315 223 170 178 202 218 265 199 233 286 277 252 327 218 294 192 149 226 175 131 211 282 235 174 210 227 156 289 208 253 207 214 149 230 292 137 246 258 197 253 259 221 246 241 190 273 345 172 263 224 306 156 195 235 200 220 200 264 234 113 253 193 196 253 182 248 182 210 223 160 299 181 271 302 275 288 165 227 146 224 281 224 220 132 143 234 277 173 277 289 197 199 315 195 305 195 321 195 194 158 224 253 235 251 240 214 276 166 194 302 122 186 157 239 206 223 281 199 280 137 258 223 175 200 225 264 270 321 264 177 306 310 235 186 136 217 256 186 230 152 171 283 268 205 257 166 165 284 170 195 302 235 212 230 308 287 196 238 214 226 238 233 268 241 206 270 218 199 290 241 200 134 206 267 287 274 270 284 233 222 318 211 192 184 136 229 233 148 272 210 255 306 220 304 211 224 186 184 170 265 291 226 305 205 249 246 225 233 266 250 241 245 297 190 274 281 154 270 153 265 201 277 270 252 190 256 180 258 205 182 170 241 290 289 151 185 160 320 209 302 174 271 220 191 206 391 242 368 270 240 190 187 207 266 225 296 216 210 292 215 222 220 257 258 262 129 202 241 202 176 346 199 249 366 164 240 204 230 195 272 233 320 272 172 316 178 228 153 293 203 255 202 214 181 222 215 197 158 244 206 214 222 161 202 252 259 207 151 147 268 143 145 224 249 223 204 257 158 175 225 185 247 216 281 247 239 171 284 252 238 249 237 207 267 292 183 197 211 197 345 249 268 229 265 244 271 168 222 245 186 250 197 291 234 244 240 193 287 219 229 151 235 253 259 246 226 235 254 176 170 202 276 220 166 230 235 183 216 137 385 278 286 236 261 229 271 306 163 198 155 181 139 193 305 160 158 201 226 198 194 115 230 244 163 241 177 225 240 262 165 187 296 209 231 208 190 243 242 226 207 176 242 302 309 149 348 261 246 207 215 228 206 271 225 160 186 209 245 156 277 283 259 86 191 266 179 243 250 154 233 304 281 240 225 289 260 180 294 217 242 301 239 295 187 189 225 392 238 259 340 267 309 147 250 242 181 236 232 148 246 232 198 224 302 188 293 249 218 190 209 209 223 233 276 200 305 235 229 188 223 200 268 297 225 192 201 250 227 233 212 189 283 175 286 300 181 265 158 193 273 191 329 206 276 288 272 151 203 246 221 226 270 265 225 269 249 174 306 120 197 261 164 192 164 205 188 233 210 242 219 146 253 144 228 253 343 241 170 333 223 193 213 315 251 146 274 205 228 230 171 134 92 220 217 250 272 229 129 187 231 212 206 214 180 267 283 214 220 165 264 248 215 254 229 201 180 209 142 162 168 183 188 226 223 257 323 271 179 266 197 308 296 175 218 230 205 171 293 233 163 301 245 274 345 224 238 275 235 234 213 189 267 252 261 226 165 225 378 312 255 229 237 197 239 327 166 300 182 254 184 195 201 204 240 229 231 192 185 126 260 248 232 251 231 138 262 234 238 187 251 257 182 198 241 270 288 167 203 199 200 276 270 267 166 274 254 274 219 242 140 184 269 221 167 315 282 233 313 242 283 184 239 201 231 243 141 233 233 235 286 257 272 189 240 282 317 283 218 265 261 258 148 127 246 208 116 287 209 168 192 216 216 209 213 205 248 191 212 155 211 217 210 261 297 257 191 155 231 248 260 274 255 202 199 222 235 334 141 245 162 304 216 168 259 302 247 183 277 264 226 254 213 272 194 155 226 248 298 236 231 165 229 235 276 244 245 196 156 222 210 199 238 238 220 173 193 272 249 232 258 307 244 174 255 244 272 270 264 238 212 334 219 232 200 193 101 250 311 257 196 310 145 242 209 213 250 166 220 130 205 229 215 100 281 245 145 216 213 242 250 237 235 301 274 207 272 249 152 286 274 218 134 141 211 258 309 232 265 200 147 198 224 206 254 296 219 314 215 226 210 185 283 185 349 196 218 170 179 258 130 234 170 305 256 167 263 197 279 260 315 173 306 293 264 211 210 204 268 230 184 224 214 231 160 226 158 229 146 214 280 230 162 212 235 263 237 263 226 179 199 236 273 222 122 266 206 267 304 307 249 207 216 229 280 238 227 216 186 147 188 188 326 219 236 292 203 300 275 236 214 240 217 286 185 242 196 131 219 148 209 159 221 210 240 284 238 238 240 137 238 253 175 175 184 190 273 219 320 156 264 235 274 183 326 257 235 264 371 293 150 229 214 191 336 234 161 240 291 185 251 288 315 180 264 138 270 148 209 328 236 156 308 222 263 188 203 227 181 233 290 187 212 269 334 230 182 222 205 304 183 327 176 267 249 260 160 293 324 219 241 309 245 246 312 237 171 256 168 212 195 193 129 169 326 197 192 226 257 331 142 306 169 225 202 204 203 159 205 294 285 248 161 186 207 290 205 211 230 253 143 234 239 273 231 238 253 139 207 208 195 196 167 261 263 260 246 259 195 124 176 243 203 178 158 203 207 227 184 210 307 162 237 183 164 205 253 211 204 234 169 188 190 236 323 117 198 247 172 184 228 299 248 232 149 219 158 219 230 175 197 242 244 187 225 169 169 172 238 194 227 171 266 291 311 244 195 192 254 185 167 308 199 213 125 157 162 208 241 216 226 160 340 255 248 196 275 116 236 231 292 201 172 193 314 269 234 281 122 216 196 140 222 163 187 255 196 179 226 250 90 204 286 255 310 173 377 238 334 250 299 165 241 256 271 283 291 212 195 289 228 170 307 144 178 178 229 234 271 319 166 181 221 256 341 244 276 239 288 207 327 209 165 220 307 317 255 281 289 260 283 186 314 223 252 201 310 228 201 184 205 251 340 210 157 212 258 319 241 277 205 165 256 266 182 276 201 269 230 321 130 251 250 185 178 317 106 214 248 305 257 179 272 243 261 264 250 251 319 243 243 219 258 236 282 210 344 217 241 293 226 226 223 304 262 184 210 282 221 210 270 146 199 244 247 163 268 198 200 186 237 361 224 287 259 182 220 239 260 163 227 277 205 267 170 290 278 216 233 196 276 209 131 221 221 288 249 190 239 201 308 251 262 197 270 128 368 278 299 219 194 207 303 299 161 244 202 162 199 187 211 298 191 186 221 198 214 196 324 170 291 157 262 207 223 227 269 207 212 204 157 211 228 197 284 294 230 186 244 231 199 188 234 215 163 336 275 244 179 296 291 228 202 249 217 266 225 170 224 245 253 253 207 238 279 348 224 276 235 279 220 200 328 171 197 143 123 213 323 237 304 147 240 281 213 172 176 185 158 167 234 197 218 212 252 306 99 163 270 204 324 191 197 216 157 228 186 138 275 251 272 245 184 297 302 179 242 243 155 283 235 211 185 150 249 278 218 199 168 211 213 238 211 272 183 252 237 294 201 283 189 178 197 211 213 130 187 304 210 265 200 249 195 259 226 176 191 206 171 228 339 138 221 176 186 307 317 240 234 230 260 238 195 248 166 175 324 202 257 155 157 286 217 174 258 274 257 227 248 175 244 289 204 195 116 324 199 251 277 262 215 264 219 165 297 216 290 321 238 187 207 169 319 241 222 300 208 203 238 246 172 278 196 241 181 268 240 334 232 157 192 207 203 237 173 144 166 306 263 258 250 211 274 209 131 238 236 318 246 241 200 256 183 142 214 176 268 271 238 266 198 206 201 258 207 195 125 216 190 252 194 180 211 202 368 178 214 236 244 233 233 252 213 300 283 297 198 271 235 270 201 149 221 196 296 278 185 220 210 175 192 357 266 190 211 186 232 231 122 180 298 220 282 249 240 235 312 206 244 200 228 143 217 277 338 144 156 227 235 181 174 214 198 253 374 219 220 165 315 211 239 137 147 234 209 171 229 217 165 223 200 228 159 232 266 360 191 144 234 254 240 309 240 282 195 208 237 168 252 248 234 238 240 222 232 286 199 245 166 264 273 276 180 196 284 310 322 225 318 304 327 265 278 189 271 153 180 285 236 167 190 180 241 182 205 212 225 274 121 238 201 175 265 237 138 198 196 242 252 291 369 219 268 158 219 200 264 176 187 204 256 270 233 201 203 163 215 142 137 257 277 293 244 140 150 159 210 278 297 259 122 193 179 221 63 242 292 191 266 278 283 257 177 257 210 257 200 407 247 239 213 234 260 253 243 148 247 151 133 260 166 142 214 178 325 218 265 208 182 217 275 97 273 273 159 119 214 150 270 274 165 323 229 183 183 199 143 241 192 247 307 260 283 267 229 251 197 139 267 285 204 307 178 188 232 196 171 201 266 316 331 235 221 223 317 269 205 188 262 210 226 186 272 170 223 187 180 216 267 336 218 190 263 160 219 265 197 242 256 203 220 256 107 223 195 214 262 183 167 244 247 231 229 238 217 216 212 170 235 296 225 203 163 160 234 159 205 417 195 199 181 168 194 261 203 254 264 256 173 178 243 233 289 136 244 245 258 248 266 279 225 151 307 235 211 124 189 310 258 291 217 199 317 310 300 193 185 173 184 252 155 219 189 253 224 353 204 223 239 245 232 242 251 234 240 258 239 300 324 172 199 250 238 204 200 213 243 318 211 236 357 177 228 263 168 240 232 198 298 301 265 266 192 299 245 296 177 186 262 231 153 152 192 243 168 285 361 239 348 242 203 223 142 231 261 220 189 226 166 224 166 244 320 228 172 168 189 178 182 206 335 295 258 268 277 211 228 284 199 203 97 262 278 208 318 173 236 311 247 326 158 246 242 259 371 263 219 203 149 214 257 307 116 177 246 258 170 197 234 223 242 238 210 181 315 212 323 300 131 166 171 247 223 254 152 212 269 246 196 142 205 260 247 264 162 272 254 155 133 279 206 186 153 278 184 184 264 251 212 207 135 245 241 186 253 208 229 272 259 190 221 192 253 237 222 261 198 298 241 199 239 293 265 170 261 243 227 256 210 196 213 139 209 146 246 234 286 283 206 239 133 271 248 229 172 267 229 251 228 253 220 243 150 241 251 143 273 397 244 192 189 291 132 258 333 212 364 243 193 173 244 272 317 293 313 216 215 254 258 172 273 182 316 254 185 245 200 199 143 301 272 165 170 211 263 196 156 224 260 228 245 184 234 188 162 219 131 222 207 216 203 198 247 256 311 192 271 276 216 255 247 186 267 308 243 210 214 224 245 200 105 197 284 291 259 217 217 229 161 161 205 176 171 249 267 293 266 203 241 278 218 179 162 182 219 190 274 174 231 251 202 216 230 186 138 172 190 192 183 270 273 222 201 241 172 250 209 232 231 263 144 277 253 140 295 198 264 153 182 184 182 170 242 203 249 166 189 186 190 245 186 230 167 243 245 187 224 255 143 211 219 118 216 252 302 207 250 220 267 266 194 208 168 213 248 251 239 290 226 231 218 254 141 280 366 195 317 263 246 331 176 236 283 196 152 228 233 175 267 298 280 170 226 364 268 209 332 220 193 141 251 177 198 190 187 244 160 166 194 200 121 288 256 202 270 140 246 168 220 210 282 236 208 253 197 279 184 209 211 284 177 175 274 275 249 300 313 230 230 220 237 253 206 231 115 238 173 211 180 278 198 171 317 168 235 232 257 246 287 176 331 172 159 177 204 218 174 166 287 263 229 191 209 258 267 251 191 261 265 184 233 230 190 195 272 252 219 244 189 192 207 238 103 211 263 171 317 244 214 327 178 197 230 257 168 191 178 229 187 173 244 246 213 223 262 170 231 258 180 272 170 257 228 172 146 299 142 321 212 182 236 173 127 293 147 191 218 237 309 211 238 254 245 203 236 313 224 167 241 285 334 266 264 217 191 239 244 165 183 257 246 293 265 132 230 258 186 175 259 234 173 136 248 157 275 241 228 239 178 132 236 230 188 256 171 196 217 224 183 258 327 293 173 208 288 275 286 243 275 269 189 256 225 228 153 166 276 205 269 181 189 272 167 257 222 165 232 226 259 263 248 175 176 242 185 284 214 267 234 274 233 196 222 205 301 235 251 222 292 332 361 186 208 244 216 171 176 221 280 195 238 276 187 219 132 248 227 189 225 264 225 288 231 209 301 198 249 276 181 222 198 254 266 259 269 289 282 312 244 246 253 223 144 216 255 228 266 153 250 204 281 264 332 290 258 291 199 143 262 165 133 204 278 204 182 266 270 163 216 181 221 253 253 215 236 233 151 258 283 303 234 212 192 230 250 233 244 163 234 174 315 196 223 175 324 207 229 263 205 221 346 146 292 304 248 122 218 250 158 251 221 235 198 198 185 277 230 228 220 226 234 95 260 294 222 271 200 276 227 223 229 179 182 183 335 277 291 227 266 255 184 145 247 218 277 292 190 222 230 224 245 288 210 195 263 285 269 151 253 261 238 235 170 223 212 230 246 231 345 281 188 279 255 244 216 223 356 212 212 242 178 219 322 213 177 243 340 208 214 229 277 210 181 253 266 184 180 247 230 213 256 211 295 227 231 177 252 227 238 321 225 227 277 286 299 253 237 174 210 220 238 251 291 260 214 300 242 201 256 192 200 294 175 131 236 305 181 235 189 253 190 288 169 253 257 240 234 156 205 111 216 168 293 362 245 234 242 135 221 175 194 279 296 220 179 226 179 207 153 141 335 298 200 217 254 243 230 193 277 227 101 267 185 232 252 174 301 211 179 232 298 165 78 361 175 195 155 227 204 270 289 201 312 262 197 190 191 197 245 201 255 211 226 236 206 224 240 238 270 232 252 194 253 244 251 196 167 244 275 252 140 226 150 276 152 195 248 211 175 237 248 209 250 158 237 306 138 317 193 236 261 178 204 226 154 230 146 146 189 177 145 201 212 197 204 208 201 327 302 278 188 278 257 177 205 196 265 269 221 117 226 234 171 150 173 196 202 327 226 289 211 267 165 164 180 228 165 228 318 207 148 266 237 246 285 325 158 267 233 194 182 150 186 211 265 275 158 242 169 196 321 240 218 248 238 182 255 241 313 249 225 166 279 232 194 251 262 218 266 261 348 198 239 263 222 212 173 225 322 219 285 277 322 252 290 188 165 197 191 240 262 210 410 304 272 163 250 162 224 190 182 191 188 273 241 209 255 225 194 255 349 201 140 339 215 137 206 269 237 218 186 209 296 182 335 230 278 200 182 190 315 345 240 317 238 115 215 261 181 287 265 211 239 270 197 248 137 229 208 170 344 226 285 226 240 243 279 119 277 200 230 247 274 259 260 221 262 329 288 286 163 202 282 181 199 297 244 227 315 311 138 244 335 271 258 218 314 231 175 227 201 228 184 247 287 298 207 271 282 259 170 342 176 173 303 241 221 166 259 273 217 184 255 222 180 183 286 263 233 242 198 234 286 156 170 238 227 246 196 318 214 242 217 254 258 113 225 257 228 247 279 227 232 278 200 315 200 178 231 180 234 309 145 292 227 275 246 283 268 240 213 262 165 276 210 132 214 236 271 222 248 289 319 192 165 220 163 297 280 247 176 245 248 335 212 298 287 323 280 195 177 242 129 263 214 263 272 132 197 182 347 197 322 291 239 199 273 182 225 220 227 247 237 290 153 268 214 235 223 215 260 95 189 186 246 191 214 247 298 144 288 242 277 193 214 359 159 119 228 286 278 302 257 207 188 235 238 289 217 271 191 232 316 238 263 237 231 242 168 250 177 203 225 193 186 189 253 284 310 218 187 260 211 272 231 231 286 286 310 196 177 298 236 196 209 188 255 245 295 211 153 289 220 197 213 165 288 296 238 195 174 308 211 189 152 245 186 210 284 127 205 256 216 163 241 202 234 176 199 236 204 193 222 122 270 169 228 264 254 192 112 310 299 247 287 223 157 229 255 294 197 333 209 309 249 196 195 185 266 251 240 276 185 185 187 158 258 264 239 221 323 234 257 123 282 254 294 253 220 226 219 198 232 171 196 156 254 217 170 196 174 193 187 250 228 247 164 278 292 211 201 241 202 232 171 163 229 216 136 132 194 254 166 278 237 244 224 360 240 263 266 254 252 262 278 206 189 299 193 240 275 208 292 255 255 291 322 197 221 116 216 212 162 211 160 234 223 162 205 246 160 213 292 307 237 223 202 185 257 232 244 220 281 221 293 202 232 191 225 239 140 252 324 238 183 248 176 194 161 145 206 163 276 183 303 322 254 251 221 239 234 392 227 248 246 145 185 259 218 206 289 251 205 278 212 241 142 279 167 256 221 162 274 256 153 214 198 193 209 286 227 216 125 350 239 312 231 212 277 267 294 300 249 218 133 311 288 153 186 237 247 221 240 225 323 166 175 218 209 232 188 177 145 302 183 281 198 299 222 263 207 186 243 243 211 282 190 167 332 267 301 294 229 265 236 259 258 225 187 139 281 245 228 218 165 280 139 220 254 229 240 312 286 300 199 200 149 194 309 273 266 331 252 193 231 283 199 173 266 268 302 210 190 205 232 275 222 317 357 254 238 278 277 281 207 220 183 139 184 267 230 174 269 274 275 223 211 306 264 246 241 221 245 247 229 221 223 280 244 193 168 219 190 208 240 230 180 225 229 196 252 297 239 217 255 132 252 135 136 282 282 229 152 222 305 226 214 186 198 191 263 220 223 238 273 325 218 218 253 242 246 331 315 181 155 224 194 222 207 211 204 282 289 264 285 314 159 155 255 178 200 209 222 256 281 218 218 291 277 297 267 213 237 289 283 268 188 236 233 264 244 249 199 191 217 267 184 156 319 208 174 155 267 292 168 202 233 220 168 223 156 187 197 218 220 119 142 121 262 137 251 222 181 226 253 294 221 186 270 393 200 225 327 188 252 272 308 177 210 248 187 240 184 195 304 248 210 232 252 179 222 218 257 272 262 209 261 277 218 239 190 280 207 217 210 376 184 193 210 211 285 260 243 244 216 196 128 247 299 182 250 105 186 328 188 234 213 308 216 181 226 242 251 278 180 101 226 190 178 262 227 198 185 183 259 207 265 315 308 187 295 226 229 226 163 196 185 315 277 198 226 221 228 216 249 153 193 74 176 230 232 230 244 165 220 240 217 227 242 190 169 314 209 225 212 219 260 244 242 218 260 236 185 301 186 198 322 175 267 162 289 217 222 275 330 260 180 195 302 188 277 285 224 221 252 257 182 270 319 296 242 258 302 238 324 176 349 164 257 217 190 177 189 203 214 266 199 205 269 230 209 227 266 333 265 315 213 239 160 228 199 346 201 340 236 299 255 285 211 294 263 247 265 165 179 201 193 263 215 276 325 296 220 165 174 202 290 195 318 211 250 220 182 277 209 287 323 248 220 233 182 178 179 259 220 285 215 198 245 266 224 225 165 259 231 174 151 189 184 218 237 252 201 350 123 118 170 217 223 254 156 262 230 234 230 173 208 219 233 207 230 267 258 171 188 186 339 273 227 209 210 173 312 241 278 190 242 127 240 247 240 253 194 176 273 236 214 209 195 159 162 279 231 265 143 235 274 203 126 201 209 211 249 163 294 256 191 197 230 196 272 263 245 199 219 225 163 235 256 190 182 178 266 202 172 255 171 262 244 224 228 267 205 240 195 300 252 195 251 229 211 270 143 298 262 128 227 234 308 245 287 270 156 203 263 278 237 252 260 222 226 244 174 287 198 222 255 257 281 150 196 284 200 250 187 195 161 245 225 234 300 209 176 174 245 203 202 278 191 179 204 137 206 258 228 220 197 267 256 241 297 214 216 150 261 255 195 303 153 269 224 247 119 192 244 292 236 239 235 244 247 224 203 179 123 267 293 272 185 194 353 303 212 242 244 276 175 188 244 243 173 231 180 259 265 218 245 242 209 193 185 348 223 214 193 260 209 216 177 178 292 281 219 211 304 216 255 304 297 274 219 276 302 264 124 318 259 343 187 270 240 338 288 125 223 178 259 270 190 171 267 224 193 233 279 210 224 249 197 189 174 225 210 250 206 304 271 226 261 163 248 335 236 257 185 242 182 252 251 212 142 260 298 309 258 294 253 307 262 248 196 207 271 231 207 186 275 247 194 200 297 206 167 231 263 226 292 358 332 266 254 219 288 274 117 282 194 259 194 241 158 195 252 165 276 258 273 254 205 215 224 212 259 264 248 231 252 238 186 240 249 353 212 228 240 243 167 215 197 163 158 218 237 193 220 248 214 160 245 220 160 182 223 269 174 243 185 256 140 306 171 307 274 225 126 136 277 233 254 188 183 138 249 250 183 238 265 231 247 217 181 255 154 195 174 254 230 246 236 290 203 291 266 283 235 173 173 201 143 294 298 267 159 260 228 217 301 203 323 280 175 212 271 299 223 238 215 169 313 158 180 265 244 261 238 219 229 212 296 200 292 229 187 251 299 228 152 211 226 227 279 300 199 202 195 161 266 247 296 282 290 190 246 270 177 241 334 199 284 336 224 194 191 234 204 181 211 209 151 285 272 212 211 233 258 189 239 241 409 202 196 245 201 201 211 307 217 267 200 195 251 230 217 250 233 152 271 251 191 199 234 195 215 303 173 296 253 207 198 276 299 271 213 232 151 228 223 142 268 192 203 312 227 176 229 210 166 222 276 329 187 333 253 165 215 204 184 210 195 224 190 187 253 315 204 174 173 329 304 221 337 219 304 275 226 184 224 197 174 253 378 231 238 198 231 284 174 281 203 187 236 226 222 229 180 318 255 151 280 260 228 185 204 243 241 181 214 238 265 195 215 309 183 175 218 204 266 177 218 260 213 182 240 187 176 216 250 216 210 290 280 248 244 304 214 223 219 244 248 200 228 231 202 183 200 236 277 216 271 202 207 215 281 175 241 162 208 206 211 268 307 252 250 156 269 201 269 264 167 259 237 272 245 195 98 240 259 237 247 193 161 306 267 233 218 294 311 216 218 248 196 175 176 293 258 189 139 220 235 157 183 153 233 267 250 292 230 197 223 138 257 255 300 143 290 224 306 333 216 218 151 283 127 187 161 249 237 191 238 340 170 202 163 209 226 281 216 170 219 209 232 276 307 163 130 124 218 312 165 251 152 199 196 165 336 199 234 258 273 234 182 208 216 195 245 201 220 234 299 219 200 231 305 261 272 337 250 297 183 178 250 229 211 104 222 227 261 224 250 247 233 227 330 222 172 201 287 180 224 270 240 163 155 314 364 210 261 196 231 321 190 236 240 277 249 193 266 282 194 256 135 239 204 204 278 284 315 165 243 242 282 208 161 280 226 168 248 245 265 188 259 212 186 199 154 219 292 196 306 227 221 318 236 254 238 274 231 186 207 205 182 180 261 288 324 141 145 237 234 232 186 215 199 258 203 237 197 197 293 203 229 177 255 299 313 273 262 262 221 260 240 178 211 210 250 248 167 226 222 261 228 246 227 158 284 257 204 276 251 194 156 220 280 277 229 164 357 190 166 186 275 314 208 208 173 272 195 170 322 213 227 227 299 201 330 207 193 248 255 264 269 248 301 251 250 210 233 238 230 246 280 247 250 228 182 216 199 213 166 194 141 167 229 330 323 224 236 108 118 137 235 268 176 209 244 237 174 222 228 254 167 220 294 228 209 242 238 239 212 250 265 251 181 301 176 233 275 261 181 192 379 134 280 209 220 135 207 168 261 172 345 234 155 203 253 138 183 190 198 182 141 260 174 186 310 237 185 345 283 239 273 192 178 237 231 192 181 247 167 259 244 262 207 266 258 326 188 236 269 161 299 262 136 219 291 286 229 248 217 324 191 243 214 195 214 157 143 290 260 247 299 232 126 170 165 199 119 234 239 239 159 269 244 267 257 173 246 213 182 258 207 180 175 344 270 119 247 204 169 201 153 190 246 248 211 220 220 223 182 300 272 262 237 250 221 225 226 176 271 221 243 280 262 213 148 245 171 214 251 229 211 274 285 189 235 281 290 299 265 286 230 227 203 172 198 238 189 224 286 183 259 278 184 261 200 266 144 285 242 171 261 223 270 132 221 150 214 234 203 244 273 240 256 282 250 223 154 179 263 284 258 258 140 270 255 282 174 226 214 202 250 204 253 231 290 213 177 244 263 262 243 137 239 181 164 169 289 254 159 193 231 216 226 241 277 273 253 211 252 150 165 384 241 253 209 227 291 235 210 320 260 335 252 194 118 160 191 126 350 95 291 266 215 210 208 297 240 232 240 183 158 278 299 274 195 265 206 206 166 154 227 297 219 232 149 245 205 206 227 199 278 242 189 265 182 182 163 149 185 159 190 240 177 235 223 229 194 157 284 252 230 279 245 268 162 232 207 362 258 184 238 189 265 245 171 237 283 225 211 261 204 148 186 194 181 217 184 237 261 181 237 304 229 233 232 223 194 304 149 168 180 205 216 252 208 217 304 335 291 152 232 186 202 239 258 256 224 215 294 212 269 288 200 209 267 235 162 160 218 311 220 195 258 257 230 287 207 273 266 251 174 161 298 212 250 226 181 151 146 218 255 185 254 386 199 260 180 229 290 243 223 262 201 190 190 166 323 303 262 243 146 200 200 224 218 234 234 198 215 202 172 281 178 235 272 290 153 263 219 224 199 214 261 296 298 224 230 231 261 275 279 157 273 202 169 185 252 274 323 233 194 285 263 249 227 225 255 304 254 234 237 189 191 273 255 228 250 216 225 186 244 218 305 282 198 189 247 201 150 150 293 189 219 281 202 322 201 218 258 346 309 336 229 334 215 185 198 234 209 263 226 245 222 208 291 142 271 146 211 297 197 345 199 272 264 245 158 189 224 265 239 261 281 357 271 294 251 273 159 257 243 271 182 237 190 256 232 240 298 243 244 231 187 138 172 199 259 272 239 234 244 181 248 250 198 236 190 266 261 193 277 175 191 211 172 172 191 178 181 209 206 311 232 243 197 215 239 243 207 196 213 178 232 196 183 239 248 228 225 190 212 208 155 268 286 215 187 281 187 256 263 203 224 349 164 106 181 225 258 176 180 177 242 166 245 239 177 208 265 226 180 199 216 157 248 242 220 199 243 198 326 237 230 184 147 253 201 220 218 206 261 179 274 224 176 203 316 257 247 272 222 216 286 203 190 215 193 184 231 196 192 269 242 128 285 194 194 181 176 234 372 337 170 218 169 188 278 205 205 244 171 134 271 196 306 298 176 232 218 179 156 247 298 278 227 245 192 119 178 355 292 209 228 293 255 203 256 210 237 148 114 288 203 264 183 204 187 186 203 245 248 263 222 246 276 245 282 294 181 208 305 273 243 179 360 215 206 189 164 205 131 252 255 230 296 229 183 233 266 228 238 291 159 274 227 240 227 114 189 163 155 292 236 294 181 279 173 281 279 226 290 145 197 289 217 225 148 282 262 214 186 180 236 222 240 247 320 348 238 257 247 187 246 204 131 179 211 186 206 316 150 246 200 135 333 244 217 163 185 159 256 302 277 162 234 215 248 151 169 211 236 285 218 257 215 193 212 237 151 168 223 238 218 147 292 260 290 155 289 191 248 252 239 283 180 337 192 202 271 269 171 224 334 262 271 185 167 123 196 245 238 246 253 211 233 250 252 183 203 189 196 190 309 273 208 331 177 278 271 299 246 139 217 203 210 243 168 227 208 247 155 266 245 326 193 302 219 276 276 227 220 248 279 272 145 139 114 215 212 201 252 169 195 206 205 117 180 282 176 198 196 322 248 212 241 193 173 308 282 203 244 169 157 198 220 274 205 136 163 236 322 233 188 311 223 236 299 153 214 221 258 211 206 221 241 229 210 225 303 182 201 220 114 141 249 165 244 153 167 281 312 285 191 210 207 269 214 275 287 165 242 148 293 363 188 282 201 167 188 197 167 256 268 287 189 244 351 308 202 154 202 237 261 231 238 251 310 226 288 243 219 146 240 229 251 142 272 247 164 235 198 225 334 254 323 242 199 245 264 188 205 229 258 237 149 229 231 276 232 198 231 224 365 303 158 195 244 313 207 222 213 203 267 205 219 244 284 225 221 189 181 338 266 219 188 184 243 251 357 240 287 243 122 170 107 298 243 173 212 315 172 210 134 213 231 212 205 260 230 290 216 319 227 279 255 256 269 282 212 215 291 270 215 256 159 235 298 270 254 306 274 368 134 245 223 275 260 196 211 222 141 307 166 199 207 201 202 241 253 239 163 244 273 280 231 221 201 186 232 277 210 234 286 235 268 262 193 178 206 190 219 228 260 207 259 201 218 226 273 212 309 194 340 195 211 251 259 222 248 274 220 273 171 264 235 174 242 248 243 203 236 305 187 210 297 157 220 184 234 216 240 186 167 187 169 191 207 228 223 152 185 251 191 224 189 285 143 206 148 261 175 243 163 198 253 171 182 229 239 219 215 195 282 240 289 259 262 248 271 219 286 197 288 209 266 247 212 143 290 220 174 260 203 302 146 200 294 250 229 216 235 249 224 239 254 244 238 221 248 206 306 263 230 228 295 220 269 137 227 285 256 235 260 169 209 211 186 152 228 209 328 221 215 206 217 222 286 339 234 194 220 161 269 124 267 208 203 238 286 293 298 267 239 259 199 229 195 178 199 193 202 168 214 260 219 260 322 232 124 225 228 159 272 354 169 207 245 266 186 410 79 233 309 318 305 263 260 244 255 294 264 205 162 239 308 180 224 232 257 178 254 151 224 182 222 171 269 251 250 263 211 310 212 212 159 255 228 284 205 375 221 234 307 306 108 202 171 288 140 178 231 321 279 226 259 201 277 302 232 180 165 207 269 194 304 243 172 181 188 172 309 349 157 199 189 203 207 227 198 313 181 197 217 167 276 309 309 290 223 278 202 247 287 173 175 243 259 243 161 321 207 259 222 200 264 142 162 195 169 210 320 251 278 165 183 262 295 192 130 178 296 245 257 223 204 191 159 286 272 289 288 179 196 231 211 279 294 215 211 153 191 178 307 187 196 193 177 153 356 186 126 223 187 254 264 241 243 174 215 222 231 161 258 237 222 236 186 209 260 263 220 289 222 252 218 261 241 222 170 288 339 204 261 170 222 235 209 188 268 177 194 176 185 213 216 178 274 273 301 205 252 332 270 323 212 130 215 224 237 200 164 290 205 218 224 205 298 227 253 210 178 198 272 257 164 322 283 244 201 168 181 155 189 292 343 222 170 219 232 236 219 266 176 301 248 284 251 203 309 194 227 271 286 276 177 247 285 239 123 231 221 213 267 205 307 267 324 215 232 171 273 243 261 263 282 318 178 262 330 223 347 190 237 237 266 191 289 185 256 145 207 211 207 156 276 289 275 256 231 193 125 249 277 204 249 125 221 198 205 160 183 210 299 283 205 152 195 183 142 242 226 249 209 261 226 246 263 221 264 187 255 346 246 298 189 260 175 170 238 249 202 128 253 169 204 180 216 216 161 271 198 305 190 217 214 257 196 220 268 166 210 229 162 305 209 236 271 196 157 312 241 241 300 154 217 237 222 256 223 225 257 195 161 213 160 192 164 195 232 213 338 294 229 254 264 194 294 262 250 191 209 158 289 187 237 182 195 200 236 235 190 135 231 234 205 211 225 286 234 194 264 113 247 208 246 184 243 235 132 126 196 233 293 162 265 223 276 179 184 207 235 202 121 196 175 324 155 287 93 173 325 213 332 346 236 223 194 227 232 248 249 179 206 189 306 287 268 211 295 229 205 273 182 242 186 186 159 191 225 229 322 215 234 182 235 158 152 203 259 243 209 238 137 214 293 285 207 361 247 252 262 139 220 223 237 316 195 302 179 254 213 272 264 210 179 304 190 287 153 231 317 252 320 198 289 197 327 179 256 268 219 242 246 226 219 214 248 200 205 208 140 211 278 250 260 105 255 186 205 187 204 270 177 219 174 225 182 373 209 217 221 194 213 236 173 206 192 174 150 281 290 147 201 126 303 280 209 314 227 325 233 253 270 149 237 218 233 311 271 201 240 223 231 154 225 217 307 232 224 227 217 255 200 159 270 266 197 326 180 281 233 106 229 216 210 205 308 262 289 247 197 193 274 176 258 208 217 261 244 201 230 233 180 280 402 201 270 252 266 184 216 170 203 226 281 266 309 182 242 224 193 226 236 236 214 211 248 337 220 260 142 213 147 263 186 270 179 244 262 251 221 186 186 206 165 291 257 208 284 255 196 206 218 206 287 227 189 272 164 254 316 297 286 252 220 197 158 157 294 127 105 310 235 137 263 362 267 188 163 236 231 251 199 267 195 254 272 176 118 238 238 221 149 223 145 174 206 281 232 254 168 265 218 253 234 289 265 176 220 209 236 338 259 286 212 196 183 154 163 224 223 118 181 204 244 194 202 195 191 227 172 256 249 272 250 240 150 193 294 207 291 267 309 194 262 267 230 208 195 185 291 168 205 233 282 243 245 282 215 272 200 110 259 212 292 212 327 197 258 270 230 224 239 236 239 205 305 251 216 201 215 222 202 148 246 215 206 319 264 177 265 223 247 185 185 160 153 193 280 204 234 352 283 256 288 267 240 266 233 299 221 193 190 211 284 297 335 162 218 213 204 217 246 293 143 261 186 212 250 259 285 260 255 195 238 255 260 192 190 235 295 159 192 338 307 191 221 246 194 181 202 153 270 325 212 231 148 133 263 234 265 146 247 247 239 213 225 185 241 231 231 220 167 197 179 210 140 207 235 242 230 300 220 249 224 229 303 130 222 264 152 325 267 229 229 278 248 180 208 178 229 210 237 196 320 182 266 166 353 269 239 259 152 179 243 248 208 296 217 178 211 187 280 235 157 201 293 164 271 215 250 242 206 222 211 104 199 220 220 160 142 231 258 150 273 233 209 285 257 291 235 240 233 248 344 281 232 202 246 230 365 240 284 223 247 195 177 190 175 208 202 217 150 258 241 246 262 223 203 226 161 210 208 170 265 271 230 264 241 141 136 155 301 190 306 289 193 153 135 194 241 231 210 239 345 275 158 199 313 267 223 183 211 162 289 199 224 204 158 156 190 199 173 257 270 299 213 223 291 252 176 216 201 178 203 250 253 218 127 287 311 206 244 162 214 253 351 253 322 250 290 184 148 290 282 264 155 218 276 187 231 326 282 125 188 332 226 226 </t>
+  </si>
+  <si>
+    <t>F(1.4397263716806328, 1.2228878725253847, -1.3243832187893344e-31, 1.3389966018438875)</t>
+  </si>
+  <si>
+    <t>1 1 2 1 2 0 3 2 2 0 1 0 1 1 0 1 0 2 0 3 1 3 1 0 2 3 1 4 0 0 2 1 2 1 2 1 0 3 1 0 1 1 1 0 1 2 3 0 2 0 1 2 1 1 3 2 1 1 1 2 1 0 0 3 3 1 2 2 1 4 1 3 4 1 2 2 3 0 1 2 0 1 0 0 1 2 3 3 1 3 1 1 3 1 3 4 0 6 1 2 1 1 2 1 2 2 3 2 2 0 1 1 1 0 1 0 2 3 4 2 0 0 1 0 1 2 1 0 3 1 1 0 1 0 1 2 1 0 2 3 1 0 0 0 0 3 2 2 2 1 0 2 1 1 1 2 2 1 1 2 0 0 2 4 2 1 0 0 1 2 0 1 1 3 0 1 1 1 0 1 3 1 2 2 1 2 0 2 2 0 0 1 1 1 0 0 1 3 0 2 1 2 1 1 2 1 1 2 1 2 0 1 1 1 1 3 4 1 2 1 1 1 2 5 0 1 2 1 2 1 2 3 2 1 1 0 2 0 0 1 2 3 1 2 0 1 1 1 0 1 1 2 4 2 3 2 2 2 0 2 1 1 2 0 2 2 0 3 0 2 1 0 1 1 0 1 1 0 1 1 2 1 3 0 2 1 1 1 1 1 1 3 3 1 1 1 2 2 3 0 1 1 3 1 1 1 2 1 1 0 1 2 1 2 1 2 1 2 3 2 2 2 1 3 1 0 2 1 3 1 0 0 0 1 1 2 3 2 1 1 3 2 1 1 0 0 2 3 0 0 2 0 0 2 2 0 0 2 1 1 2 0 2 1 2 0 2 1 1 1 0 2 2 1 2 3 2 1 2 2 3 4 0 1 2 1 1 1 3 1 1 1 0 0 3 1 1 1 0 2 2 2 1 1 4 1 2 1 1 1 1 0 0 2 1 1 0 2 2 1 2 2 3 2 2 2 0 0 2 0 1 1 1 1 3 2 1 1 1 1 1 1 2 0 1 1 1 1 1 1 0 0 0 0 2 0 1 2 1 1 0 2 2 5 0 2 2 0 1 2 0 1 0 2 0 1 1 0 1 1 3 0 0 1 2 0 0 2 0 1 1 1 1 2 2 1 2 2 0 3 0 1 1 2 1 2 1 2 3 2 4 1 3 0 2 1 1 1 0 1 2 1 1 1 0 1 2 1 2 1 1 1 0 3 2 0 1 2 2 2 2 2 1 0 2 0 1 2 2 2 0 2 1 0 0 1 1 1 1 2 2 2 2 1 1 2 1 1 1 1 1 4 1 2 0 3 1 0 1 2 2 2 2 0 0 0 1 3 3 1 1 0 1 1 3 0 1 1 1 1 1 3 1 0 2 1 1 4 3 1 1 2 0 0 1 2 1 2 1 1 1 2 4 0 3 2 1 1 0 1 0 0 2 1 1 0 1 1 2 2 1 1 2 3 1 2 1 2 0 1 0 2 0 0 0 0 1 2 1 4 0 0 1 1 1 2 1 1 4 4 2 3 2 1 0 0 2 2 0 1 1 1 0 1 1 0 3 1 2 2 1 1 0 3 0 1 2 0 1 1 0 3 2 1 1 1 1 2 0 1 0 2 0 2 2 1 1 2 0 0 1 3 0 1 2 0 1 1 0 1 1 2 0 1 3 1 1 0 1 2 2 1 0 0 2 1 1 2 3 3 1 2 1 2 1 2 1 1 1 0 2 0 3 1 2 1 1 1 2 0 0 1 1 2 2 3 1 1 2 1 1 2 2 3 1 3 2 1 1 1 3 0 1 2 2 0 3 2 1 1 2 1 0 1 0 1 2 1 1 1 0 1 3 2 1 0 0 0 1 2 1 1 2 0 1 2 1 2 0 1 1 0 1 1 2 1 1 2 2 2 2 1 1 1 1 1 0 2 1 0 4 0 2 1 0 1 0 1 1 1 2 2 1 1 2 2 1 2 0 2 3 2 2 1 2 1 2 1 1 0 0 3 2 0 0 1 1 0 1 4 1 2 0 1 2 1 4 0 1 0 2 1 0 1 2 0 0 0 0 1 1 2 1 0 3 1 1 0 0 0 0 2 1 1 0 1 2 0 1 1 0 2 4 0 1 1 2 0 1 0 4 2 0 2 2 1 0 3 3 2 1 2 2 2 1 0 2 1 0 2 1 1 1 3 2 2 2 1 2 1 0 0 3 2 1 2 1 2 3 2 2 0 0 3 1 3 1 2 2 0 2 1 0 1 1 1 1 0 1 1 1 2 0 2 0 0 0 1 1 1 0 4 1 3 1 0 2 1 1 0 2 1 3 1 2 1 1 1 0 0 3 0 0 2 0 1 0 1 2 2 0 1 1 2 0 4 1 1 1 2 1 2 0 1 3 0 2 1 1 1 2 1 1 2 2 1 2 1 1 1 1 2 0 1 0 1 0 1 0 1 2 2 1 1 1 1 1 3 2 1 2 1 2 1 1 2 2 1 1 1 1 0 1 1 2 1 2 1 1 1 2 3 0 3 2 1 1 2 1 2 2 2 0 1 0 4 0 1 2 2 3 1 1 2 1 3 2 0 2 0 0 2 2 3 1 1 0 2 1 1 2 1 2 1 2 0 1 0 2 2 0 1 1 2 3 1 0 2 1 2 2 2 3 2 0 1 0 1 1 1 1 1 1 0 2 0 0 1 1 2 2 2 0 1 3 0 2 1 1 1 0 1 2 2 0 2 1 3 0 2 1 0 0 1 5 2 0 3 0 2 2 2 1 1 2 1 1 1 1 0 0 1 1 1 1 1 0 0 2 2 1 1 2 1 2 0 3 0 3 1 1 2 1 2 0 3 1 1 3 1 1 1 1 1 4 0 0 2 2 2 0 1 2 0 2 0 2 0 1 3 0 1 3 1 0 3 2 1 3 0 2 2 1 1 2 0 6 1 3 1 2 1 4 3 1 1 1 0 2 1 1 2 1 1 0 1 1 1 2 1 2 1 1 4 2 1 1 0 2 2 2 1 2 1 1 1 1 4 0 1 2 0 2 2 1 3 1 2 0 2 2 3 1 2 3 1 2 1 2 1 2 0 2 3 1 1 1 0 1 2 1 1 1 1 2 1 1 1 1 1 0 0 1 0 1 1 3 0 2 0 1 2 3 1 1 0 0 2 2 3 0 0 1 0 0 2 1 1 3 2 2 0 0 1 2 2 0 1 1 0 2 0 2 0 1 2 2 1 1 0 0 1 0 1 0 1 2 1 2 1 0 0 3 0 2 2 1 1 0 1 2 1 1 2 1 1 1 0 3 3 1 1 2 0 3 2 2 2 0 1 0 3 2 1 0 0 2 3 2 2 1 0 0 0 2 1 1 0 0 2 1 1 2 1 0 2 1 2 2 0 2 1 2 1 1 1 1 1 0 1 0 1 0 3 3 0 0 1 2 1 0 3 0 1 1 2 1 0 0 0 3 0 1 3 0 0 1 0 0 2 1 1 3 0 0 0 1 2 3 1 1 2 2 3 2 2 1 2 1 0 0 2 1 3 1 1 0 2 0 3 1 0 0 1 2 1 2 0 2 3 1 0 0 2 1 2 2 2 1 0 1 1 1 1 1 1 1 0 1 0 3 3 1 3 1 4 1 0 2 3 1 2 0 2 3 1 1 2 1 1 0 1 1 0 2 2 5 1 0 2 1 0 0 1 1 0 3 2 2 3 2 1 3 0 1 0 6 0 0 0 1 2 0 0 1 1 0 1 2 1 3 1 0 1 2 0 2 2 1 2 3 0 2 0 1 1 1 1 1 0 1 0 3 1 2 3 1 2 1 2 0 1 1 1 0 2 3 3 1 0 2 2 1 2 0 1 1 0 1 2 1 1 1 1 1 3 4 2 1 4 1 1 2 0 1 0 1 1 1 1 1 1 2 2 2 1 1 3 1 1 2 2 0 2 2 0 2 2 1 1 1 2 3 2 2 0 1 0 1 2 0 1 0 3 0 2 3 1 2 1 1 3 1 1 2 2 2 3 1 0 0 0 1 0 0 2 0 3 1 1 1 1 1 2 1 1 0 1 1 2 1 1 0 0 1 0 1 1 1 1 1 1 2 2 1 1 1 1 1 1 1 2 2 1 2 1 1 1 1 2 3 2 1 1 4 1 1 1 1 2 2 1 2 2 1 2 1 1 0 0 0 0 0 0 1 3 3 2 1 1 0 2 3 1 2 3 1 1 1 0 0 0 2 0 1 2 1 0 3 2 3 0 1 1 1 2 1 1 1 0 1 2 3 1 3 1 2 1 1 1 0 2 1 2 0 1 0 0 1 1 0 0 1 1 3 2 2 0 0 1 1 3 0 1 3 2 1 2 0 0 3 0 1 0 1 0 3 3 1 2 1 1 2 2 1 1 1 1 0 1 1 0 0 1 3 1 1 1 1 3 2 0 1 0 1 2 2 2 2 1 1 1 1 1 2 1 1 2 2 0 1 0 3 1 1 1 1 1 2 4 2 3 1 1 1 2 2 2 2 1 1 1 1 3 1 3 1 0 1 0 0 1 1 1 1 2 0 2 1 1 3 1 1 0 3 0 0 2 1 1 4 3 0 0 2 0 1 1 1 2 1 2 2 0 1 0 2 0 3 1 3 1 1 2 1 0 1 2 0 0 0 2 2 0 1 0 1 2 3 1 1 2 1 3 1 2 2 1 1 3 1 2 1 1 1 1 3 1 2 3 2 3 1 3 1 2 2 3 3 2 1 1 0 1 1 3 2 1 0 1 0 2 0 2 1 2 2 1 0 1 1 0 1 1 1 0 1 1 1 2 1 2 0 1 1 0 1 2 1 1 1 5 1 3 1 1 0 2 0 0 0 0 2 2 1 1 0 2 1 2 2 2 0 2 3 3 0 3 1 1 0 0 2 0 1 1 1 1 1 1 1 2 2 1 2 1 1 3 1 1 1 1 0 1 5 1 1 0 0 1 1 0 0 1 3 1 3 2 0 3 0 0 0 2 0 2 2 2 1 1 0 1 1 4 3 1 3 0 2 2 1 3 2 2 1 4 2 0 1 2 1 0 1 2 0 0 2 0 1 2 1 2 0 3 3 4 1 0 0 0 2 1 2 1 1 3 1 2 1 1 1 3 1 2 1 1 1 1 1 0 1 0 0 1 3 1 1 1 0 0 2 2 0 1 1 1 1 1 0 0 1 2 5 0 0 0 1 1 0 2 2 1 3 1 3 1 3 2 1 0 1 0 1 1 1 0 2 1 1 1 2 2 1 1 2 2 1 0 3 1 3 1 2 0 2 2 0 2 0 1 2 2 3 1 1 2 1 0 0 2 0 1 3 0 1 0 2 0 3 0 0 1 1 1 2 2 2 1 2 0 0 0 0 2 1 1 1 0 1 1 1 1 1 1 1 1 1 2 1 3 0 2 2 2 0 0 1 1 2 1 1 2 3 3 3 1 2 2 3 1 3 1 1 0 2 3 2 0 1 0 2 2 1 1 1 2 2 1 2 1 1 2 1 1 2 4 2 0 4 1 1 1 3 3 3 2 1 0 2 3 1 2 2 1 1 1 2 2 0 1 0 1 1 1 3 4 0 1 1 1 0 2 0 0 5 1 2 1 2 1 2 1 1 2 2 2 1 0 1 1 1 2 3 2 0 1 0 2 0 1 1 1 1 1 2 1 0 1 0 0 1 0 1 1 2 1 0 2 1 2 1 0 1 2 0 2 0 2 2 2 4 1 3 2 0 1 0 0 2 1 1 0 1 2 1 1 1 2 2 1 2 1 0 2 2 1 1 0 2 1 0 1 1 1 1 1 1 3 2 0 2 1 1 0 2 0 3 1 2 4 1 2 2 2 1 0 1 0 2 0 1 1 2 1 2 1 1 1 0 3 1 0 1 1 2 2 1 0 1 0 0 2 2 2 3 1 1 0 0 2 1 1 1 2 2 1 1 0 0 2 1 1 1 1 1 1 1 2 1 1 2 1 2 1 2 0 1 2 0 2 1 4 1 5 0 1 3 0 2 3 0 1 1 1 2 2 2 2 2 1 1 0 0 2 2 4 0 2 3 1 2 2 1 1 0 0 2 3 2 1 1 2 1 1 2 1 0 1 2 0 1 0 0 1 3 4 4 2 2 1 1 3 2 2 1 0 1 1 0 1 3 2 1 2 1 1 2 0 3 2 2 0 1 0 2 1 2 0 2 2 1 1 1 1 0 1 0 2 1 1 2 2 3 2 1 1 0 2 1 1 1 0 1 2 1 1 1 1 1 3 1 2 0 1 1 1 0 1 1 3 2 2 1 1 1 1 0 1 1 1 2 2 1 1 3 0 0 4 1 0 0 0 1 1 1 1 3 2 0 1 2 0 2 2 2 2 3 0 2 3 3 2 1 1 3 2 3 0 1 2 4 1 2 2 3 0 0 2 1 1 1 0 2 3 1 1 0 2 2 1 3 2 2 2 1 1 1 2 0 2 0 2 2 0 2 4 2 1 3 2 0 2 2 0 3 1 1 1 2 2 1 1 3 1 0 2 1 1 2 1 1 2 0 2 2 1 1 2 2 1 0 0 2 0 2 1 2 3 2 1 1 0 0 1 0 2 1 3 1 1 1 1 1 0 1 2 2 3 0 1 1 3 1 1 2 2 0 2 0 0 2 1 2 2 2 1 2 0 1 1 2 1 2 2 2 0 3 2 1 2 1 0 2 0 1 1 2 1 2 1 1 1 1 1 2 1 2 2 2 3 1 0 2 1 0 1 2 1 0 3 0 0 1 2 0 1 0 1 1 1 1 2 2 1 2 1 1 1 3 2 1 1 2 1 2 3 0 1 1 0 1 1 2 1 1 1 1 1 3 1 1 0 4 4 1 2 2 1 1 2 0 2 2 2 2 1 2 1 1 1 2 1 0 0 2 1 2 4 1 1 1 2 3 0 1 2 1 0 1 1 1 2 1 0 0 1 1 1 1 1 2 0 2 0 1 1 1 2 1 2 2 0 0 2 0 2 2 2 0 0 2 2 2 2 3 3 1 0 3 2 2 0 1 2 2 1 0 1 0 1 4 4 1 1 4 3 1 2 4 1 2 0 1 0 1 1 4 0 1 1 1 2 1 0 2 1 2 0 0 1 3 1 4 0 1 1 0 1 0 1 0 0 1 0 2 2 1 2 1 1 1 1 2 2 0 0 2 1 3 0 1 1 2 2 1 2 2 3 2 2 3 0 0 3 1 1 2 1 2 1 1 2 0 1 1 3 3 2 1 1 2 1 1 1 0 0 1 1 2 2 1 1 0 2 2 1 3 1 2 2 2 1 1 2 1 2 3 2 2 1 2 2 2 2 0 0 1 2 3 1 1 2 0 1 1 2 1 3 1 1 0 0 2 0 2 2 3 1 1 2 1 0 3 1 0 0 1 2 0 1 1 2 0 0 0 1 1 2 0 2 1 2 1 2 2 2 3 3 0 2 1 0 1 3 0 0 2 3 2 3 1 1 2 1 1 0 3 1 1 1 0 1 1 1 2 2 0 1 0 2 1 1 0 2 2 2 1 0 1 0 3 2 0 1 0 3 1 4 1 0 0 2 1 0 1 0 1 1 1 1 2 3 1 1 2 1 2 1 1 0 3 1 0 2 1 0 1 1 2 3 2 2 2 1 2 2 0 1 1 0 1 0 3 2 1 1 1 2 3 2 3 1 2 1 1 2 2 2 1 0 2 1 0 1 2 1 1 2 3 1 0 1 1 1 1 2 1 1 0 0 1 3 1 2 1 1 0 2 1 0 0 0 2 1 1 2 2 0 1 0 2 2 1 2 1 1 2 1 3 3 0 1 2 3 1 2 2 3 0 1 0 0 2 1 1 3 1 1 2 2 1 2 1 2 3 1 0 1 0 1 2 1 0 2 1 2 3 3 2 1 1 2 2 1 1 1 3 1 3 1 0 0 1 0 1 0 2 1 2 2 3 1 2 2 1 2 0 2 1 0 3 3 2 1 2 0 1 2 2 3 0 1 0 2 2 2 1 1 2 1 1 1 2 1 2 3 2 0 0 1 3 2 1 0 2 1 1 1 0 3 3 2 1 2 1 1 1 0 3 1 1 2 2 2 1 0 1 3 0 3 2 2 1 0 2 1 1 2 2 3 0 0 1 2 1 1 1 2 0 1 2 0 1 0 2 0 0 1 1 1 2 1 2 0 3 1 2 2 1 1 2 3 3 2 0 2 2 0 2 1 2 0 0 0 1 1 0 0 0 3 2 0 1 3 0 4 2 1 2 1 1 3 1 2 0 0 0 2 2 1 2 2 2 0 3 1 4 2 1 2 0 0 1 2 0 1 1 1 0 1 0 1 1 2 3 1 1 2 1 1 0 1 1 1 2 3 1 2 1 0 2 3 1 1 0 1 0 1 1 2 2 1 4 1 0 2 0 1 3 1 2 0 1 1 3 2 2 2 1 0 1 1 3 1 0 1 0 1 2 3 1 1 1 2 1 1 1 1 1 1 2 1 0 3 1 2 1 0 2 1 2 3 2 1 1 2 1 1 4 0 2 0 0 0 2 1 3 1 1 2 1 3 0 0 3 2 1 1 1 1 2 1 3 2 3 2 2 2 2 1 2 1 2 1 1 2 1 1 2 2 0 4 0 2 0 1 3 1 0 0 3 0 1 1 3 1 0 1 1 3 2 0 2 2 1 2 4 2 0 2 2 1 2 3 2 2 2 2 0 1 1 2 1 0 3 1 1 2 0 2 1 1 2 1 2 2 1 2 1 2 1 1 2 1 1 2 3 2 2 1 1 0 1 1 1 1 0 1 1 2 1 1 0 1 2 1 2 1 2 2 3 1 2 0 0 1 3 1 2 0 3 2 1 0 1 0 2 1 2 3 0 3 2 2 1 1 2 1 1 0 1 0 3 1 1 1 2 0 3 1 1 0 2 1 0 2 1 1 1 3 1 2 1 2 2 0 2 2 0 3 1 3 1 1 2 1 0 1 2 1 1 3 1 0 1 0 0 0 0 0 0 0 0 3 0 1 1 0 0 0 0 0 1 0 1 3 3 2 2 2 2 1 0 1 0 1 1 4 1 4 2 0 2 2 1 2 0 2 1 1 3 1 2 0 1 2 1 3 2 1 1 0 2 2 0 1 4 0 1 2 1 2 1 1 2 1 1 1 0 1 0 2 0 1 2 0 4 0 1 1 1 2 2 0 1 1 2 0 1 1 1 1 1 2 0 0 1 1 0 1 1 0 3 0 1 0 2 2 1 1 1 1 0 2 1 0 0 2 1 3 2 1 2 0 1 1 2 1 2 3 0 2 0 1 1 0 1 1 1 2 2 1 2 1 1 1 1 0 2 0 2 1 0 1 3 0 1 1 1 1 0 0 3 1 1 1 0 2 0 0 0 2 0 3 0 1 0 0 1 1 2 1 0 0 0 3 1 1 2 4 1 0 1 1 2 2 1 2 1 1 1 2 0 1 0 1 1 0 1 2 2 3 1 3 0 2 0 1 1 2 1 1 0 0 0 2 1 3 1 2 1 3 2 0 1 1 2 0 1 1 2 2 2 1 2 1 1 1 1 1 2 1 2 1 0 2 1 2 1 1 2 0 2 3 3 2 2 1 0 2 2 2 1 0 0 0 1 1 3 1 3 1 1 1 1 0 1 1 1 0 1 0 1 1 1 1 1 3 0 3 1 1 2 1 1 1 3 2 3 1 1 3 0 1 3 1 1 1 0 2 2 1 3 1 1 3 2 3 1 1 0 2 0 2 1 3 2 2 2 1 1 1 1 2 1 2 1 3 1 2 2 1 1 1 1 0 0 1 2 1 1 0 0 2 0 1 3 1 0 1 1 2 1 3 0 0 1 2 1 3 2 3 1 1 2 0 1 2 3 1 1 1 1 2 0 1 1 0 0 2 3 2 1 2 1 0 1 2 0 1 2 3 1 1 1 1 1 1 2 1 3 0 1 0 1 1 1 2 0 2 0 1 0 2 1 1 3 0 0 2 0 0 1 0 1 0 1 1 2 0 0 1 2 0 2 0 1 1 3 1 3 1 2 1 0 0 1 2 1 1 3 2 1 1 1 1 0 0 1 2 1 1 1 2 1 0 2 1 3 1 2 1 1 1 1 2 0 0 2 0 3 2 1 0 2 3 1 1 0 3 1 1 2 2 1 0 1 1 0 2 1 1 0 2 1 0 3 0 0 1 0 0 2 1 0 1 0 0 2 2 2 2 2 0 2 0 1 3 3 0 5 3 0 2 3 2 1 1 0 1 1 1 5 1 3 1 1 1 3 0 2 0 1 1 0 3 1 1 2 2 1 0 1 3 1 2 0 0 1 1 3 3 2 1 1 0 4 1 2 1 0 1 2 4 0 2 0 0 2 2 0 5 1 0 0 1 0 2 1 1 1 2 1 2 3 0 2 1 1 2 2 1 0 1 0 1 1 1 1 0 0 2 1 0 2 0 2 1 1 1 2 1 1 1 1 1 0 1 0 0 1 3 1 2 0 1 3 2 1 3 2 2 1 1 1 0 1 1 1 2 1 3 2 0 1 0 3 1 3 0 2 1 2 1 0 2 1 2 1 1 1 1 3 1 2 0 1 1 0 0 0 0 3 3 3 2 1 1 0 0 3 0 1 2 1 1 2 1 0 3 0 2 2 3 1 3 1 1 2 2 1 1 0 2 0 0 1 0 1 1 1 1 1 1 1 1 3 1 1 2 2 2 2 2 3 1 1 1 1 1 2 1 1 1 2 2 2 1 1 2 2 3 1 0 0 3 2 1 1 1 2 3 0 0 1 1 1 1 1 2 0 1 1 2 2 1 0 1 2 1 1 2 2 3 3 1 2 2 1 2 1 1 2 2 3 0 1 1 0 1 0 0 4 1 2 0 1 0 0 3 2 0 0 2 1 2 0 0 1 1 2 1 0 1 1 3 0 2 2 2 2 0 1 2 2 2 0 1 3 1 1 2 1 0 1 2 2 2 1 2 2 2 0 3 1 2 3 1 1 0 0 3 0 0 1 2 1 1 0 1 2 0 1 1 3 1 1 1 2 0 1 3 1 1 1 1 1 1 0 2 0 2 1 0 1 1 1 1 1 1 1 2 1 0 2 2 1 0 1 1 0 1 1 2 1 2 2 1 2 2 2 1 2 2 0 2 2 2 2 1 0 1 0 1 1 1 1 3 1 1 3 1 0 2 2 3 1 2 3 1 1 2 1 2 1 1 3 1 0 1 1 1 0 1 1 0 1 1 2 0 1 3 0 1 1 1 1 1 2 2 1 2 0 1 1 5 1 1 1 2 4 1 0 3 1 3 3 3 1 2 1 1 0 2 1 1 2 1 0 1 2 0 1 1 0 1 1 2 1 2 1 1 0 0 1 0 1 0 0 2 2 3 1 2 1 1 2 0 1 2 2 0 1 2 0 2 1 1 3 2 2 2 3 2 3 2 0 3 2 1 1 0 2 1 1 1 1 1 1 1 2 2 1 1 1 0 0 1 1 1 1 1 3 3 1 3 1 1 0 0 1 1 1 1 1 1 2 0 2 2 1 0 3 1 0 2 1 3 0 2 2 0 0 1 0 1 1 1 2 1 1 2 2 1 0 2 1 3 0 2 2 3 0 0 1 1 2 1 1 1 2 1 0 3 2 0 2 1 1 1 1 0 1 2 3 0 0 3 2 1 2 1 2 1 1 2 1 1 2 0 0 3 1 1 2 1 2 1 0 1 1 2 1 0 2 3 4 0 1 0 0 1 2 2 2 2 1 0 0 2 1 4 1 1 0 1 1 2 4 1 0 1 0 0 0 3 1 2 3 0 0 2 2 0 0 2 3 3 1 2 1 2 2 1 0 0 0 1 2 0 3 0 2 2 1 1 3 1 1 1 1 0 0 1 2 1 0 1 1 0 2 2 1 1 2 1 1 1 0 1 1 3 1 1 0 0 2 0 1 0 1 0 1 2 2 2 1 3 0 1 2 1 2 0 0 0 3 2 1 2 3 2 2 0 1 2 0 0 0 0 1 2 2 1 1 4 2 3 0 1 2 2 1 0 0 2 1 1 3 0 2 2 1 1 0 2 2 2 2 2 2 1 1 2 0 1 1 3 0 2 1 1 2 0 1 3 1 2 1 2 0 2 4 1 2 1 1 0 1 1 1 1 1 1 1 2 1 2 3 2 2 1 0 1 0 0 0 2 2 1 1 2 0 0 2 0 2 2 2 1 3 2 2 0 1 1 1 0 2 2 0 0 2 1 1 1 0 1 1 2 1 0 0 1 1 2 0 1 1 3 1 4 0 2 1 1 0 1 1 2 1 2 1 1 1 0 0 2 0 0 0 2 1 2 1 2 0 0 2 1 2 1 2 1 1 0 2 1 1 1 1 0 0 2 3 0 1 2 1 0 1 3 1 2 1 3 1 1 0 1 1 0 1 1 3 2 0 1 1 1 1 2 2 0 1 1 0 0 1 0 1 1 1 0 0 1 0 3 2 1 2 2 2 0 1 1 1 0 1 1 0 1 0 1 2 1 1 2 2 1 2 2 1 2 2 1 0 0 1 1 1 2 1 2 3 3 1 1 0 1 2 2 1 0 3 2 1 2 0 1 2 0 2 4 2 1 1 1 1 1 0 2 1 0 1 2 1 1 3 0 0 1 1 2 6 0 4 3 1 2 2 0 2 2 3 1 2 0 1 1 1 4 3 2 1 1 1 1 2 3 1 1 1 0 2 2 0 1 3 0 2 1 2 1 2 2 1 1 2 1 1 2 1 0 0 1 1 3 1 2 0 1 2 3 2 3 3 1 0 1 2 1 1 2 3 0 1 2 1 1 2 1 3 0 2 1 2 1 2 1 3 1 1 2 1 3 3 1 2 2 2 1 0 2 1 2 1 1 1 3 0 0 1 1 0 1 2 1 3 1 2 4 5 1 1 0 1 1 1 4 1 0 1 2 1 2 2 0 0 0 1 2 0 0 1 1 1 1 3 0 1 1 1 2 1 1 2 1 2 0 1 1 2 1 1 1 1 2 1 1 1 2 3 1 1 2 1 2 0 0 2 0 3 1 0 0 1 1 2 1 0 1 0 2 1 0 0 1 4 2 1 0 1 2 1 1 0 1 3 2 1 1 2 3 2 0 2 3 1 0 2 1 1 2 0 2 2 1 1 2 0 0 0 1 1 1 2 0 2 2 1 2 2 0 1 0 3 2 1 0 0 3 3 1 1 1 2 1 1 1 1 1 0 1 1 2 1 2 2 2 1 0 1 1 0 0 2 2 2 2 1 1 0 0 1 0 1 1 1 2 0 0 2 1 4 2 1 2 2 1 1 1 1 3 0 1 1 0 0 0 1 3 1 2 2 1 0 1 3 2 2 1 3 0 1 2 2 1 2 2 1 3 3 1 1 2 2 1 2 1 0 3 2 2 2 2 1 3 1 2 2 0 1 0 2 2 3 0 0 1 1 0 1 1 2 1 1 0 2 0 2 1 3 1 0 3 4 3 0 3 1 2 1 2 1 1 2 1 2 3 1 1 1 0 0 0 3 1 1 2 0 0 1 3 1 0 0 1 1 2 2 0 0 2 2 0 2 0 2 2 2 0 1 2 1 3 1 2 1 2 2 2 1 0 1 2 1 1 0 0 1 2 0 1 1 1 3 1 0 2 1 2 1 0 0 3 1 1 2 1 1 3 0 1 1 0 0 1 1 1 1 0 0 3 0 1 1 0 0 3 2 1 1 2 0 3 1 1 1 2 1 2 0 3 1 1 0 1 1 1 2 2 1 3 1 1 2 1 1 2 1 1 1 3 0 2 2 1 1 4 0 4 0 1 3 1 3 1 1 1 1 2 1 1 1 1 0 1 3 0 1 1 2 1 0 1 3 0 0 1 1 1 0 0 2 2 2 1 0 1 2 1 1 3 2 1 2 2 0 3 2 0 1 1 0 1 2 1 0 1 2 2 1 2 0 2 2 2 0 2 3 0 1 2 3 1 0 0 2 2 2 3 0 4 1 0 2 1 1 1 1 2 0 3 2 1 2 0 3 1 1 0 2 1 1 1 0 1 2 2 1 1 0 1 1 0 1 2 1 0 2 1 1 1 1 2 0 0 0 1 0 1 1 0 1 1 0 2 1 2 1 1 2 1 2 1 1 2 3 2 2 4 2 1 3 1 0 2 0 1 1 2 0 3 0 2 1 2 1 1 1 1 0 2 1 1 2 3 2 1 1 0 0 1 0 1 1 2 1 2 0 0 1 1 1 1 3 1 1 1 2 0 0 1 1 0 0 0 1 1 0 2 2 3 0 1 1 2 1 1 0 1 1 3 0 3 2 0 1 1 0 2 1 1 1 2 2 0 0 1 0 0 1 2 0 1 1 2 0 2 1 1 1 1 0 1 3 3 0 2 1 1 1 1 3 0 0 1 1 1 2 1 1 0 1 0 3 2 1 2 1 2 1 0 0 0 0 1 2 0 1 0 2 1 1 3 1 0 3 2 1 0 1 0 2 1 1 2 1 1 2 0 3 0 1 2 2 0 0 2 2 1 0 2 0 1 1 2 3 0 1 0 3 1 1 2 1 0 0 1 1 2 2 0 2 2 1 2 3 0 2 0 2 2 4 2 1 1 1 3 2 0 3 3 1 1 1 2 1 1 2 1 2 2 1 3 2 1 1 2 1 2 1 3 1 0 0 0 0 2 1 3 1 2 1 2 1 2 2 0 0 1 2 0 1 0 2 0 1 2 0 1 0 1 3 1 1 1 0 1 4 1 0 0 1 0 1 2 0 0 0 1 3 2 1 0 1 1 3 1 0 0 3 0 1 1 1 1 2 2 3 3 2 2 1 1 0 1 0 0 0 0 2 2 1 0 0 2 1 1 3 1 1 2 2 2 0 1 2 1 4 1 2 0 0 1 2 2 1 3 3 0 2 2 2 2 1 2 1 0 1 1 1 5 1 1 1 1 0 1 0 0 2 2 2 2 0 1 1 3 3 2 0 3 0 2 2 1 0 2 2 1 0 1 0 0 2 2 1 1 0 1 0 0 3 1 0 1 0 1 2 1 2 2 1 1 1 1 1 1 1 0 1 2 4 0 0 1 2 2 1 2 1 1 1 0 0 2 2 1 1 1 2 2 3 0 2 1 1 2 0 0 2 3 0 0 0 2 2 3 1 0 0 3 2 2 2 3 1 3 2 2 1 2 1 0 0 0 1 1 2 1 1 1 2 1 1 1 1 1 2 0 0 1 2 0 2 1 2 1 1 2 2 1 2 3 1 0 0 0 2 1 2 1 2 1 1 0 0 1 1 1 1 1 3 1 1 2 1 1 2 1 1 1 2 2 1 2 1 0 3 2 1 1 0 2 1 1 2 3 2 1 0 1 1 1 3 2 3 0 0 0 1 0 3 1 1 1 0 2 1 0 1 2 2 1 2 2 0 3 0 1 1 2 1 2 1 1 0 3 2 1 2 2 2 2 1 2 1 2 1 1 2 4 1 1 1 0 1 0 1 2 1 1 0 1 0 1 2 2 2 1 0 0 1 1 3 2 0 0 3 1 4 2 1 0 2 0 0 3 2 1 3 1 1 0 2 0 1 1 3 1 2 1 1 0 3 2 2 1 1 3 0 2 2 3 0 1 1 1 2 0 2 0 1 0 1 1 0 2 3 2 0 2 1 3 2 0 1 3 0 3 1 1 1 1 3 2 0 2 0 1 1 1 1 3 1 1 2 1 1 2 3 1 3 2 2 3 1 2 1 2 1 3 2 2 4 0 1 2 1 2 0 2 1 1 2 0 1 1 2 0 2 1 1 1 1 1 1 1 2 3 3 3 1 1 1 2 0 3 4 1 1 0 1 1 3 1 1 1 1 0 0 2 2 3 0 0 1 0 1 1 3 2 2 1 3 1 1 3 2 2 1 1 1 0 0 1 0 0 3 2 2 0 1 1 2 1 1 0 3 2 0 0 3 2 0 4 2 3 1 1 1 0 0 0 2 2 0 3 1 1 2 1 0 2 2 0 3 1 1 0 1 1 3 3 0 1 2 1 4 0 0 0 2 1 2 1 2 2 1 2 0 1 1 1 1 0 0 3 1 3 2 1 3 1 0 1 0 1 1 0 2 1 1 1 2 2 3 4 1 2 1 1 1 0 2 1 1 1 2 0 1 1 1 2 2 2 1 0 1 1 1 2 1 2 1 3 2 2 2 1 1 0 0 1 1 1 2 2 2 1 0 1 2 1 1 1 3 1 3 1 0 1 1 3 1 2 0 1 1 1 0 2 1 2 0 0 2 2 3 2 2 2 2 1 1 2 0 2 1 3 2 2 3 1 1 1 0 1 1 1 1 1 2 1 1 1 0 2 1 3 2 1 2 0 1 2 1 0 1 1 2 0 2 0 0 1 1 2 1 0 0 3 1 1 2 1 1 3 0 1 1 2 1 1 2 0 1 2 2 2 0 1 1 3 3 1 0 0 3 2 1 4 3 1 0 2 2 2 3 0 2 0 1 0 0 2 3 1 0 2 2 1 2 0 2 0 1 2 0 2 2 3 4 2 1 1 1 1 3 1 0 1 1 0 1 2 2 1 1 1 0 2 0 2 1 2 2 2 4 2 2 0 0 2 2 2 2 1 3 2 2 1 1 2 1 0 1 2 2 2 2 1 0 1 1 1 1 1 3 1 1 1 1 1 0 2 0 0 2 2 1 1 1 2 2 1 0 1 0 1 2 1 0 0 3 1 0 0 0 1 1 1 2 1 1 1 0 2 0 2 1 0 0 0 3 0 1 0 0 2 3 2 2 2 0 1 1 3 2 1 0 1 2 2 2 1 2 1 0 0 0 2 2 0 1 1 2 2 1 1 2 0 3 2 2 1 1 0 1 1 1 2 0 2 1 0 2 0 1 0 0 2 2 2 0 2 2 0 2 1 0 2 2 1 2 0 1 0 1 0 1 1 1 1 0 0 1 1 0 1 1 2 0 2 0 3 2 0 2 2 2 1 1 1 2 1 1 1 0 0 3 2 0 0 1 1 1 2 1 2 0 1 2 1 2 2 3 1 3 0 2 0 1 1 1 1 0 0 1 2 0 1 1 2 2 1 0 1 0 0 1 2 0 4 1 0 1 3 1 3 2 1 3 2 1 2 3 2 1 2 1 2 3 1 0 0 1 3 0 1 2 1 2 0 2 0 2 0 2 1 1 0 2 0 1 1 1 2 0 2 1 1 0 3 1 1 2 0 2 2 2 2 2 0 1 1 0 0 2 0 0 2 1 3 1 2 1 2 2 0 3 1 0 1 2 1 3 1 0 0 0 0 2 1 2 1 2 0 1 1 0 0 2 5 1 1 0 1 1 1 2 0 3 2 0 1 0 0 2 1 4 1 1 4 2 0 3 2 2 4 1 2 2 1 1 0 2 0 1 3 4 2 3 1 0 0 1 1 2 1 1 0 3 3 1 2 1 1 0 1 0 2 1 1 2 0 2 1 1 0 1 2 2 1 2 3 0 2 0 1 1 2 0 2 1 2 3 2 0 0 2 1 1 1 3 1 0 0 2 1 2 5 3 1 1 1 1 1 3 2 1 3 3 1 0 0 4 2 0 2 1 1 0 0 0 2 1 3 1 1 2 1 2 2 1 0 1 2 1 1 1 3 0 1 2 2 2 2 1 0 0 2 2 2 0 1 0 1 2 1 3 2 1 3 4 1 2 2 2 1 1 4 3 1 0 0 1 1 1 2 1 1 0 1 0 2 2 1 2 1 2 2 1 3 1 3 1 0 4 1 2 1 1 3 0 2 3 2 2 3 2 1 1 0 2 3 1 2 1 3 0 2 0 3 3 1 2 1 2 2 3 1 1 3 1 2 0 2 1 0 3 1 3 2 0 0 0 0 2 0 1 2 2 1 1 2 3 1 1 1 0 1 3 1 1 2 1 1 0 0 2 1 1 1 0 1 1 0 1 0 1 2 0 0 0 3 2 1 1 3 2 1 1 2 2 1 0 2 1 0 1 0 0 0 2 1 2 4 3 2 1 0 2 1 1 3 0 1 2 1 2 2 1 1 3 0 1 2 2 0 2 0 2 0 3 3 3 1 2 2 3 2 1 3 0 1 0 1 2 3 0 1 2 0 2 0 1 1 3 0 1 3 1 0 1 1 0 3 1 2 2 2 0 1 2 1 3 1 1 1 2 4 1 0 1 2 3 1 2 1 4 1 0 3 0 1 0 1 1 3 3 2 3 2 2 1 2 2 3 0 2 1 0 2 1 0 1 1 1 0 1 2 0 2 1 0 0 1 1 1 1 2 0 2 4 1 0 2 0 0 2 1 1 0 0 1 2 1 1 2 1 1 0 0 1 2 1 1 0 1 1 0 1 2 1 1 2 0 1 2 0 1 0 2 2 3 3 1 2 2 2 1 1 0 1 1 1 2 2 1 0 2 2 0 1 1 0 4 1 1 2 0 1 2 3 3 3 3 2 1 2 0 1 2 2 2 1 1 1 2 1 2 1 1 1 0 0 0 1 0 2 1 0 2 1 0 2 2 1 0 2 2 0 0 0 2 4 1 1 0 0 1 1 2 1 0 2 0 0 1 0 1 0 1 0 4 0 0 0 1 1 1 0 2 0 0 2 2 3 0 2 0 2 1 1 2 3 0 0 0 2 2 0 2 0 0 2 1 2 3 2 1 1 3 1 1 1 2 1 0 1 1 1 1 0 3 2 2 3 2 0 1 1 0 1 0 1 3 2 2 0 2 1 1 1 1 0 1 3 1 2 2 1 2 1 2 1 3 1 0 2 0 1 3 1 1 3 1 2 2 1 2 0 0 0 0 1 0 0 1 3 2 4 1 1 0 2 3 4 0 3 2 1 1 0 1 0 1 0 2 0 3 1 1 3 2 1 1 0 2 1 0 1 1 1 0 2 1 1 3 3 1 3 0 1 1 3 1 1 1 0 1 0 0 1 2 2 0 1 1 1 0 4 4 1 2 2 1 1 1 2 0 1 0 1 1 0 0 0 2 2 0 1 2 2 1 2 2 0 2 2 1 2 2 0 1 1 2 1 1 0 0 2 2 2 0 2 1 1 1 3 1 2 3 2 1 1 3 3 2 1 0 0 0 2 0 4 2 0 2 1 2 0 1 2 1 1 0 0 2 1 1 2 2 1 0 2 2 1 1 0 1 1 1 1 1 3 1 1 1 2 1 1 0 2 1 0 0 2 1 1 1 3 4 2 1 1 1 1 1 2 3 3 2 2 1 0 3 1 2 1 2 2 0 1 3 0 1 1 3 1 1 4 2 1 0 0 3 1 2 0 0 0 0 3 1 0 1 2 0 0 1 1 1 3 0 3 2 0 2 1 3 3 0 3 0 1 0 1 2 1 1 1 1 3 1 1 1 2 0 1 0 0 0 3 2 2 0 1 1 1 1 0 3 0 0 3 1 1 1 1 1 0 1 1 3 1 2 2 1 1 1 1 0 3 0 1 2 2 1 0 2 2 0 2 1 0 1 2 2 2 1 3 1 3 0 0 2 1 2 0 2 1 0 1 1 1 3 0 1 1 3 0 3 1 2 0 2 2 1 1 0 2 1 2 3 1 1 0 2 2 1 3 1 1 0 3 2 1 2 1 2 0 2 2 1 0 0 2 1 1 1 2 2 1 1 3 1 0 0 2 1 1 1 2 1 1 0 2 1 2 2 1 1 2 1 1 4 2 3 2 1 2 1 2 1 1 2 3 1 3 1 2 1 1 5 0 2 2 1 2 0 1 1 0 2 1 2 3 2 0 2 1 2 0 1 0 2 0 0 1 2 2 1 1 3 1 3 2 2 0 1 1 2 1 2 2 2 1 0 1 3 2 0 0 3 1 2 1 2 3 2 2 2 1 2 1 2 3 1 0 2 2 2 4 1 2 1 0 1 0 2 0 2 0 1 2 0 2 1 3 2 1 2 1 1 1 2 1 0 2 1 0 1 2 1 2 1 2 1 1 0 1 0 0 1 3 2 0 1 1 2 2 2 1 2 1 1 0 1 2 2 1 1 2 2 5 2 2 2 3 1 2 1 1 1 0 0 2 1 3 2 2 1 1 1 0 4 1 1 1 0 1 1 3 1 0 0 1 2 1 0 5 5 1 1 2 0 2 0 0 3 0 0 1 1 2 2 0 0 1 0 3 0 1 1 2 1 0 1 0 2 2 0 3 1 3 2 0 0 0 3 1 1 1 1 1 1 2 1 1 3 3 1 1 1 1 0 1 0 1 1 0 2 1 1 0 1 1 2 0 0 2 1 3 1 0 3 1 0 0 0 1 2 0 1 1 2 0 1 0 1 2 1 1 3 1 4 1 0 1 1 2 0 1 1 4 1 1 1 4 0 2 3 1 1 1 2 0 0 3 3 0 3 3 2 2 1 2 3 1 1 0 0 1 0 0 1 1 2 1 3 1 2 2 0 3 2 1 0 3 0 2 2 1 1 1 0 2 2 1 1 1 2 2 1 4 0 2 2 3 0 0 1 3 0 1 1 2 0 1 1 1 1 0 0 0 0 2 0 1 0 0 0 2 1 1 2 1 0 1 1 1 1 0 1 2 0 1 1 1 1 1 2 2 1 3 2 1 0 1 2 0 1 1 2 2 2 2 1 1 1 2 2 0 1 1 0 0 1 0 0 1 2 0 1 1 0 3 1 2 0 0 3 0 1 1 0 1 1 0 2 1 2 1 2 2 2 1 2 0 0 2 0 1 1 1 2 3 1 1 0 0 2 2 1 0 1 0 0 1 2 2 1 1 2 2 1 0 1 3 1 2 2 1 0 1 1 2 0 1 2 1 3 2 1 0 1 3 1 2 1 2 2 0 1 1 1 1 1 1 0 1 1 3 3 2 1 1 0 1 0 3 3 1 1 2 3 1 1 1 0 2 0 1 0 1 1 4 0 0 3 1 1 1 2 2 0 2 2 2 0 2 0 1 1 2 2 3 3 0 0 0 1 0 2 1 1 3 0 3 1 2 1 2 1 2 2 2 1 0 2 2 4 0 2 0 1 2 1 1 1 1 5 2 1 0 2 0 0 1 3 1 1 2 0 0 0 1 3 1 1 0 0 1 0 1 0 3 3 1 3 1 1 1 0 0 3 1 3 1 1 2 1 1 3 1 2 0 2 1 1 1 1 1 3 2 1 1 1 0 1 1 2 2 1 1 2 1 0 0 2 0 1 2 0 2 2 0 4 2 2 0 2 1 2 2 0 0 0 1 2 0 2 1 0 2 2 1 0 0 0 1 4 3 2 1 0 2 1 1 0 0 2 1 1 1 0 1 2 1 2 3 0 0 1 2 2 2 2 1 0 1 1 2 0 1 1 2 1 1 2 0 3 2 1 2 2 2 0 1 5 0 0 1 0 2 2 3 2 2 2 2 3 1 1 1 0 2 0 4 2 2 3 2 1 1 3 4 1 0 1 1 1 2 1 1 2 1 1 1 2 1 1 1 1 2 0 3 2 2 2 1 1 0 2 2 0 0 0 1 4 2 1 0 3 4 0 0 1 2 1 1 0 2 1 1 2 1 2 2 0 2 2 1 1 2 1 2 2 0 0 1 1 0 1 1 4 0 1 0 0 0 1 1 1 1 2 2 2 3 1 1 1 1 3 1 1 1 1 1 1 2 1 3 2 0 2 3 0 1 1 0 1 2 2 2 1 1 1 1 2 0 1 2 1 0 2 3 2 0 1 1 1 1 2 3 1 0 2 1 4 2 2 1 3 1 2 3 3 3 1 1 0 0 2 0 3 2 1 3 1 1 0 3 3 1 1 2 0 1 2 1 1 1 1 1 0 1 0 0 4 1 0 1 1 1 0 2 1 3 2 1 1 0 1 1 1 2 1 0 0 1 2 1 3 3 2 1 0 3 2 0 1 0 1 1 0 3 2 2 0 0 2 3 1 3 0 2 1 1 2 1 3 1 2 3 0 2 1 3 2 2 1 2 1 1 1 3 1 0 0 1 0 2 2 0 0 1 1 1 1 2 2 2 0 1 1 3 2 0 2 1 2 0 3 2 1 3 4 2 0 1 1 1 2 1 2 0 1 0 0 2 1 2 1 2 3 1 2 1 0 3 0 2 0 1 0 0 2 1 2 1 0 2 0 2 0 2 0 5 2 0 2 1 3 1 2 0 1 0 1 1 1 2 2 3 0 1 4 2 0 1 0 2 1 3 1 1 2 0 2 1 1 2 1 1 3 1 2 0 0 2 0 1 2 0 1 0 1 1 1 1 1 0 1 4 3 1 1 1 0 3 1 2 2 1 1 0 1 1 2 1 0 1 1 2 1 0 1 4 1 2 2 2 2 2 1 1 1 0 1 0 1 2 0 1 1 2 0 3 1 2 0 0 1 2 0 3 0 0 2 1 2 2 1 1 1 3 2 1 2 1 0 1 1 0 1 1 1 2 2 0 3 1 3 1 0 1 2 0 1 2 1 1 1 4 2 1 1 1 2 0 0 2 2 1 1</t>
+  </si>
+  <si>
+    <t>MIE(0.1192508587406756, 1.798504661557517, -8.085422108949549e-33, 0.5691049498906264)</t>
+  </si>
+  <si>
+    <t>1 1 1 1 3 0 0 1 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 1 0 1 0 1 0 0 1 0 1 0 1 1 0 1 0 0 0 1 3 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 1 0 0 1 2 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 1 1 0 1 0 1 0 0 0 1 3 1 0 0 0 1 3 0 0 0 1 1 0 1 0 1 2 0 0 1 1 0 1 1 1 1 0 1 0 1 0 1 0 1 0 1 0 0 2 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 2 2 0 0 0 0 1 2 0 1 0 0 2 1 1 0 1 1 0 1 1 0 0 0 0 0 1 0 1 0 1 2 0 2 0 1 0 1 0 0 0 0 0 1 0 0 0 2 0 0 1 2 0 2 0 1 0 0 1 1 0 1 0 1 0 0 2 0 1 1 2 0 1 1 0 1 1 0 1 1 2 1 2 1 1 1 4 0 1 1 0 1 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 2 0 1 1 0 1 0 0 0 2 1 1 0 0 0 0 0 1 0 1 0 2 1 0 1 1 0 0 0 0 1 1 0 1 1 2 1 0 0 0 1 0 0 1 1 0 1 1 0 0 1 1 0 0 0 0 1 0 2 1 0 2 1 0 0 0 0 1 2 0 0 1 0 1 0 0 0 1 0 1 0 1 0 0 1 3 0 0 0 0 0 0 2 1 0 0 0 0 0 0 1 0 1 0 1 2 0 0 0 1 0 0 1 0 0 0 0 1 1 0 2 2 2 1 1 0 1 1 0 1 3 0 1 0 0 1 0 1 0 0 0 1 1 1 0 1 2 1 1 1 0 0 0 3 1 0 0 0 0 1 0 3 0 0 1 2 0 0 2 0 1 1 0 0 1 2 0 0 0 0 1 0 0 1 0 0 1 3 1 2 1 0 0 0 1 0 0 1 1 1 0 1 1 1 1 0 0 1 1 0 1 0 0 0 0 0 0 1 1 1 3 1 1 0 3 0 1 0 0 1 2 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 1 0 1 1 0 0 1 0 1 0 0 1 1 0 0 1 1 2 0 2 0 1 2 1 1 2 0 0 2 1 2 1 0 1 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 3 0 0 1 0 0 0 0 0 1 1 1 0 0 0 0 2 0 0 1 1 0 0 1 0 0 0 0 0 2 0 3 0 2 1 0 1 0 0 0 0 2 0 1 1 1 1 0 0 2 0 3 0 0 0 0 0 0 0 0 0 1 1 0 1 1 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 2 1 0 0 0 0 2 0 2 1 1 1 0 2 1 0 3 2 0 0 0 1 0 1 0 1 1 0 1 0 1 0 0 0 0 1 1 1 1 2 0 1 0 0 1 2 0 1 0 0 1 1 0 1 1 1 1 1 0 0 1 0 2 0 0 0 2 0 1 1 0 0 0 2 1 3 0 0 1 1 0 0 1 1 0 1 0 0 0 0 0 1 1 0 1 0 0 0 0 1 0 0 0 0 0 0 2 0 0 1 0 0 0 0 0 0 0 0 1 1 1 0 1 0 0 0 0 1 1 1 1 0 0 1 1 0 1 2 0 1 2 0 0 0 0 1 1 0 0 0 1 2 2 0 1 2 0 1 1 4 1 0 0 1 2 2 0 0 0 0 2 0 0 1 2 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 2 1 1 0 0 0 0 1 1 1 0 1 0 2 0 1 1 2 1 1 2 1 1 1 2 0 0 0 0 1 1 1 1 2 0 0 1 1 0 0 0 1 0 0 1 1 0 0 1 1 0 0 0 0 1 0 0 0 2 1 0 0 1 0 0 0 0 1 1 0 1 1 1 1 1 0 1 0 0 1 1 0 1 0 0 0 0 0 2 0 1 0 2 1 1 1 1 2 1 0 1 0 1 0 0 0 0 0 1 2 1 0 0 0 1 2 1 0 0 0 0 0 0 2 0 0 0 1 0 0 1 0 1 0 0 0 1 0 0 1 0 0 2 0 0 2 0 0 4 2 1 0 0 0 0 0 1 1 2 0 0 0 0 1 1 1 0 0 1 2 0 1 0 1 3 0 0 0 0 1 1 0 1 1 1 0 0 1 0 0 0 0 1 0 1 1 0 0 1 0 0 0 0 2 1 0 0 1 0 0 0 0 3 1 0 0 0 1 0 1 1 0 1 0 4 1 1 0 0 1 0 0 2 0 1 0 1 1 1 1 1 1 0 1 0 1 2 0 3 0 1 1 2 1 1 0 0 1 0 0 0 2 0 0 0 0 0 0 0 1 1 1 0 2 2 0 2 0 0 1 1 1 0 1 1 1 1 1 0 0 1 0 0 1 0 1 1 0 1 0 0 0 0 0 0 0 0 2 1 0 1 0 1 0 0 1 0 0 1 0 1 0 1 0 0 1 0 1 0 2 0 0 1 0 0 1 0 0 0 3 0 2 1 0 1 0 0 2 1 0 1 0 1 1 0 0 2 0 2 0 0 0 2 0 0 0 1 0 0 0 0 0 2 0 1 0 1 0 1 0 0 1 0 1 0 1 2 0 0 0 1 0 2 0 1 0 1 1 0 0 0 0 3 0 1 2 1 0 1 0 0 0 0 0 0 2 1 1 0 0 0 0 0 2 0 1 2 1 0 2 1 0 0 0 1 0 0 0 0 0 1 0 1 1 1 1 2 0 1 2 1 1 3 0 2 0 2 2 1 1 0 0 0 0 0 2 0 0 0 1 0 0 1 0 0 1 0 1 1 0 2 0 2 3 2 1 0 1 0 0 0 0 0 0 1 2 0 3 1 2 0 1 3 0 1 0 0 1 1 2 0 2 0 0 0 0 2 0 1 1 0 0 1 1 0 2 0 0 2 0 0 0 1 1 0 0 0 0 1 1 0 2 1 2 0 0 1 0 1 1 1 0 0 2 1 1 0 1 0 0 0 2 0 2 1 1 1 0 0 0 0 0 0 1 2 0 2 0 0 0 1 1 1 0 0 2 0 1 0 0 0 0 0 1 0 2 0 1 2 0 0 1 0 0 0 1 1 0 1 0 0 0 0 2 0 1 1 4 0 0 0 0 0 1 1 0 1 1 0 1 1 1 0 2 1 3 0 1 1 0 0 0 0 0 0 1 0 0 0 0 3 1 1 2 1 0 1 1 0 0 0 0 2 0 0 0 2 0 0 0 0 0 1 1 0 1 0 1 1 0 0 1 1 0 0 0 2 0 1 0 0 0 1 0 1 0 2 0 0 0 0 1 0 0 1 1 0 0 0 1 1 1 0 0 0 0 1 0 1 0 1 0 1 0 0 0 0 1 1 0 0 0 0 1 0 1 1 1 0 1 1 1 1 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 1 3 0 0 1 1 1 0 0 0 0 0 1 1 1 1 0 0 0 0 0 1 1 0 2 1 0 2 1 3 1 0 0 0 2 1 0 1 1 1 1 1 2 1 1 0 0 1 0 0 1 3 0 1 0 0 2 0 0 0 0 0 2 0 4 2 0 0 3 0 2 0 0 0 3 0 2 0 0 0 0 0 1 3 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 2 1 1 0 0 0 1 3 1 1 0 0 0 1 1 0 0 0 1 1 0 1 2 0 0 0 0 0 2 0 0 1 0 1 0 0 0 1 0 0 2 1 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 1 2 1 0 1 0 1 0 0 0 1 0 1 1 2 1 0 2 1 0 1 0 2 1 0 0 2 1 0 0 0 1 1 0 0 1 0 0 1 1 0 0 1 1 0 1 2 0 1 1 0 0 1 0 0 0 2 0 1 0 0 2 0 1 0 0 1 0 0 1 0 0 2 2 0 1 0 0 1 1 0 0 0 0 0 0 1 0 0 2 2 1 0 0 0 1 0 1 1 0 0 1 1 0 0 1 0 1 0 0 1 0 1 1 2 0 0 0 1 0 0 0 0 0 0 2 0 0 0 1 0 1 1 0 1 0 1 0 1 0 0 0 1 1 0 0 0 1 2 0 2 2 1 0 0 0 2 1 1 2 0 0 0 1 1 0 2 0 0 1 1 0 0 1 0 0 0 1 2 0 0 1 1 0 1 1 0 0 1 1 0 0 0 0 2 0 0 0 0 1 2 0 1 0 0 0 0 3 1 2 0 0 1 0 0 1 0 0 1 0 1 1 0 0 0 1 2 0 1 0 1 0 0 0 0 1 0 1 0 0 0 0 0 1 0 1 0 0 0 1 2 1 1 0 0 0 1 0 1 0 0 1 0 0 0 0 0 1 1 0 2 0 0 2 0 0 0 2 1 1 0 1 0 0 1 0 0 0 0 3 0 0 0 0 1 0 0 2 1 1 1 0 1 1 0 0 1 0 2 1 1 2 2 0 0 0 1 0 0 0 0 0 0 1 2 0 1 0 1 0 0 1 2 0 1 0 0 1 0 0 0 1 0 1 2 0 1 0 0 1 1 0 0 1 1 0 0 1 1 0 0 0 0 1 3 0 2 2 1 1 1 1 0 1 1 0 0 0 2 2 0 0 0 0 0 0 1 0 1 0 2 0 1 2 2 1 0 1 1 0 1 0 0 0 1 1 0 0 0 0 0 1 0 1 2 1 2 0 0 0 1 0 0 0 1 0 0 0 0 2 1 0 1 0 0 0 0 0 1 0 1 2 0 0 0 1 0 1 0 1 1 0 0 0 2 1 2 0 1 1 0 1 1 0 0 1 0 4 0 2 1 0 0 1 0 0 1 0 1 1 1 1 0 0 0 1 0 1 0 1 2 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 1 1 0 1 0 1 0 1 0 0 1 1 1 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 1 0 3 1 0 0 0 1 0 0 0 1 1 0 1 2 0 0 1 0 2 1 0 1 0 2 0 0 0 1 2 0 0 1 1 0 1 2 0 2 0 0 1 0 0 1 1 1 0 0 2 0 0 1 1 2 0 0 0 1 1 0 1 3 1 1 1 2 1 0 1 0 3 0 1 0 0 0 0 1 1 0 0 1 2 0 0 0 1 1 1 0 0 0 2 1 0 1 0 0 0 0 1 1 2 0 2 0 0 0 0 2 1 0 0 0 0 0 0 0 1 2 0 0 0 0 1 1 0 0 2 0 2 1 1 1 0 0 0 0 2 0 1 0 1 0 0 1 2 1 0 1 2 1 0 0 0 1 0 1 0 0 1 0 0 2 0 1 0 2 0 0 1 0 0 3 0 1 0 0 0 1 1 0 0 0 1 0 0 1 2 0 0 1 0 0 0 0 0 0 0 1 1 0 1 0 0 1 0 0 0 0 2 0 0 0 0 0 1 1 0 0 2 0 0 1 1 1 0 0 1 0 0 0 0 0 2 0 0 0 0 0 0 0 1 0 0 2 0 3 0 1 2 0 1 0 1 0 0 0 0 1 1 1 2 1 0 0 1 1 1 2 1 1 0 2 0 0 0 0 1 2 0 0 0 0 1 2 0 0 0 2 0 1 0 0 1 1 2 0 0 0 0 0 1 1 0 1 0 0 2 1 1 0 0 0 0 0 0 0 0 1 2 0 1 2 0 1 0 0 0 0 0 0 1 0 2 0 0 1 1 2 1 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 1 0 0 0 1 1 2 0 2 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 2 1 1 0 0 0 0 1 0 1 0 1 1 0 0 0 1 2 2 0 0 1 0 2 0 0 0 0 2 0 0 1 0 1 1 0 1 0 0 0 2 0 1 1 1 1 2 1 0 0 1 2 1 0 0 0 0 0 0 1 2 1 1 0 0 0 1 0 3 1 0 0 0 2 1 0 0 0 1 0 1 0 1 0 1 1 1 1 1 0 0 1 0 0 1 1 1 0 0 0 1 2 0 1 1 0 0 1 0 0 0 1 1 0 1 1 1 3 0 0 1 2 1 1 2 0 0 0 0 0 0 1 0 0 0 2 1 0 2 0 1 1 0 0 0 1 0 1 1 0 0 0 0 1 1 0 1 1 1 1 1 0 1 0 2 1 0 0 0 0 0 1 1 0 0 0 0 1 1 1 0 0 1 0 2 1 0 1 0 1 1 0 0 1 0 0 1 0 1 1 0 0 1 1 1 1 0 1 1 0 0 1 2 0 0 0 0 0 0 1 1 0 0 0 0 2 0 1 0 0 0 3 0 1 0 2 2 0 1 0 0 0 0 0 0 1 3 1 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 1 0 2 0 0 3 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 1 0 0 4 1 0 1 0 1 3 0 2 2 2 2 0 1 0 0 0 0 0 1 0 0 0 0 1 1 1 0 1 0 1 0 1 0 0 0 0 0 1 0 0 0 0 1 1 2 0 2 1 1 0 0 0 0 1 0 1 2 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 2 1 1 0 0 2 0 0 1 1 0 0 0 1 1 0 0 0 0 0 0 0 2 0 0 0 2 2 0 0 1 0 0 1 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 2 1 0 1 0 0 1 0 2 0 1 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 2 1 0 1 1 1 0 0 2 0 0 1 0 0 1 1 2 0 0 0 0 1 2 1 0 0 1 0 1 2 2 0 1 0 0 0 0 0 0 2 0 0 1 0 1 0 0 2 1 2 0 0 0 2 2 2 0 0 1 0 0 0 0 1 0 0 0 0 2 0 0 0 0 0 0 2 2 0 1 0 0 0 1 0 1 0 1 3 1 2 1 1 0 1 1 1 0 1 1 0 2 0 2 0 0 0 1 0 1 1 1 0 0 0 0 1 1 0 0 0 2 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 1 1 1 0 1 1 0 1 0 2 1 1 0 0 0 4 0 3 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 2 3 0 0 0 1 0 0 2 0 0 1 1 1 1 1 2 0 0 1 0 0 1 0 0 0 0 0 1 1 0 0 1 2 0 2 1 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 1 2 0 0 0 0 0 2 1 0 1 0 1 0 1 1 0 1 0 0 0 1 0 3 0 0 1 0 1 0 0 0 0 0 0 0 2 1 0 2 0 0 1 0 0 1 0 0 1 0 0 0 0 1 1 1 0 0 2 0 0 1 0 0 1 1 0 0 0 2 0 0 0 0 0 1 1 0 1 2 0 1 1 0 2 1 1 1 1 1 1 0 0 0 0 1 1 2 0 0 1 0 1 0 0 0 1 2 1 0 1 1 0 0 0 0 0 0 0 0 1 0 0 1 1 0 2 0 0 0 1 0 3 1 2 1 0 1 0 0 0 0 0 0 2 0 1 0 0 0 1 0 2 2 0 1 1 0 1 0 1 1 2 0 1 1 2 0 1 0 0 2 1 0 1 0 1 0 1 0 1 0 1 1 1 0 1 0 1 0 0 0 0 1 0 0 0 1 0 1 0 3 1 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 1 3 0 0 0 1 2 1 0 2 0 0 1 0 0 1 0 1 0 0 2 1 2 1 0 1 0 0 1 1 0 1 0 0 1 1 1 0 1 1 0 1 0 0 0 1 0 2 3 0 2 1 0 1 0 0 0 0 0 0 1 1 0 0 2 0 2 1 1 0 1 1 0 0 0 0 2 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 2 1 1 1 1 0 0 0 2 0 0 0 0 0 1 0 1 0 1 1 0 1 0 0 1 0 2 0 0 0 1 1 2 0 2 0 0 1 1 0 0 0 0 0 1 0 1 1 0 0 0 1 0 0 0 0 5 1 0 1 0 0 1 1 0 0 1 1 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 1 1 2 0 1 1 0 1 1 1 0 0 1 1 0 0 1 0 0 0 1 0 1 0 2 0 0 0 0 0 1 1 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 2 1 0 0 0 1 0 0 0 0 1 0 0 1 0 0 1 0 1 0 0 0 1 0 2 0 1 0 2 0 1 0 0 0 1 1 1 2 0 0 0 0 2 2 1 1 1 1 0 0 0 1 1 1 0 4 0 0 0 2 0 0 0 0 0 1 0 0 1 2 1 0 0 0 0 1 0 1 1 1 0 0 1 0 0 0 1 0 0 1 1 1 0 0 2 0 1 0 0 1 0 1 1 1 1 0 1 1 0 0 1 0 0 1 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 1 1 1 4 1 0 0 0 0 1 0 0 0 1 0 0 0 0 1 1 0 0 2 0 0 0 0 2 1 0 0 0 0 0 1 1 0 1 0 0 0 1 0 2 0 0 1 1 1 1 0 0 1 0 1 0 0 0 0 0 0 1 0 2 0 0 0 2 0 1 0 2 0 0 0 1 2 0 1 0 0 0 2 1 1 0 1 1 0 0 0 1 0 1 0 0 0 1 1 0 0 0 1 2 1 3 0 1 1 1 0 1 1 3 2 0 0 0 0 0 0 2 1 2 1 0 0 0 0 0 0 1 2 0 0 0 1 0 0 0 0 0 0 0 2 0 0 2 1 0 0 2 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 3 0 0 0 1 1 0 0 1 0 0 2 2 1 2 0 2 0 0 0 2 0 0 0 0 1 0 1 1 1 0 2 1 2 0 0 1 0 0 2 2 1 1 1 0 1 0 0 2 1 0 1 1 0 2 0 0 1 0 0 2 1 0 0 1 0 0 0 1 0 1 3 2 0 2 0 0 0 0 1 1 0 0 1 2 0 0 3 2 0 2 0 0 0 0 0 1 0 0 0 0 0 1 1 2 0 2 1 0 1 0 1 2 2 0 0 2 0 0 0 0 1 0 0 0 0 3 1 0 0 0 0 1 2 0 1 0 0 0 0 1 0 0 1 0 0 0 1 0 0 1 0 2 0 1 1 0 2 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 2 0 0 3 0 0 0 0 2 0 1 0 1 1 0 2 0 0 1 3 1 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 1 0 2 0 2 0 1 0 0 0 1 0 1 0 1 0 2 0 0 0 0 1 0 0 0 1 1 0 1 0 0 1 1 0 0 1 2 0 1 1 1 1 1 0 0 0 0 1 1 0 0 0 2 0 1 0 1 0 0 0 0 0 1 1 0 1 1 0 0 1 1 0 1 0 0 1 1 0 1 1 0 1 1 2 0 0 0 0 0 3 1 1 0 2 2 1 0 0 0 3 0 1 0 0 1 1 0 1 1 1 0 2 0 0 0 2 2 0 0 1 0 0 0 0 1 0 1 0 2 0 2 0 1 1 0 0 1 0 0 0 2 0 0 1 0 0 1 1 2 0 0 1 0 0 0 1 0 1 1 1 0 0 1 1 0 0 0 2 1 1 0 1 0 0 1 1 0 0 0 0 1 1 0 1 0 0 0 1 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 3 0 0 1 0 1 1 0 3 0 1 1 0 1 1 1 1 0 1 1 0 1 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 2 0 0 0 0 0 0 1 1 2 0 0 0 0 0 0 0 0 0 1 1 1 2 1 1 1 0 1 1 0 1 0 0 1 1 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 1 0 1 1 1 2 0 2 0 0 1 0 0 1 0 1 1 0 0 2 1 1 1 0 2 0 2 0 1 1 0 0 1 0 0 0 0 0 0 0 0 1 2 0 1 2 3 0 1 0 0 0 0 0 0 0 1 0 1 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 1 2 0 1 1 2 0 0 1 0 1 0 2 3 1 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 1 1 0 1 1 2 0 0 1 0 0 0 1 1 1 1 0 0 0 1 2 0 2 0 1 0 1 2 1 1 1 0 1 0 0 2 0 0 0 1 0 0 0 0 1 0 2 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 2 0 0 0 0 0 0 1 0 0 0 0 1 1 1 1 0 2 1 0 0 0 1 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 1 1 1 0 0 0 1 1 2 0 1 1 1 0 1 0 0 1 0 0 1 2 0 0 2 1 2 1 1 2 0 1 0 0 0 1 0 2 0 1 0 0 1 1 0 0 1 1 0 0 0 1 1 0 0 0 1 0 1 1 1 2 0 0 1 0 0 0 0 1 0 2 0 2 0 0 1 1 1 0 0 1 0 1 0 0 2 0 0 0 0 1 0 2 0 0 1 1 0 0 1 0 0 1 1 0 0 1 0 1 0 2 1 1 0 1 0 0 1 1 1 0 0 0 0 1 0 0 0 1 1 0 0 1 0 0 1 2 1 2 0 1 1 0 1 0 0 1 1 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 2 0 0 1 0 2 0 0 0 0 0 0 0 1 0 1 1 0 0 2 1 1 3 1 0 0 0 0 0 1 2 2 0 1 1 3 0 0 0 1 1 0 0 0 0 0 0 0 1 3 1 1 0 0 0 1 1 0 0 0 0 0 0 1 0 0 2 0 1 1 2 0 0 0 0 0 1 1 1 1 2 1 0 1 2 0 0 1 0 1 0 0 1 0 0 0 0 0 1 1 0 0 0 1 0 2 0 0 0 0 1 0 3 1 0 0 1 1 0 0 0 0 0 0 2 0 0 0 0 3 1 2 0 0 3 0 1 0 0 3 1 0 0 0 0 0 0 1 0 0 1 0 2 0 1 2 0 1 0 1 0 1 0 0 0 0 2 0 3 0 0 0 0 1 2 0 0 1 0 1 0 0 2 2 2 0 0 2 1 0 2 2 0 1 1 0 1 1 0 0 2 1 1 0 2 1 0 1 1 1 1 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 1 0 0 0 0 0 1 2 0 0 0 1 1 0 0 2 0 0 0 0 1 0 0 0 2 0 0 0 0 1 1 1 0 1 0 1 0 2 0 1 0 0 2 2 1 1 0 0 0 0 2 1 1 1 1 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 2 1 1 2 1 1 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 2 0 0 1 0 0 0 0 2 1 1 0 1 0 1 1 0 1 0 0 5 0 1 1 0 0 0 0 0 1 1 0 1 1 1 2 2 1 1 0 2 0 0 0 0 0 0 0 1 0 1 1 0 1 2 0 0 0 1 0 0 1 1 0 2 1 2 0 0 1 0 2 1 0 0 1 0 0 0 0 0 1 0 2 0 0 1 0 0 0 0 1 1 1 0 0 0 1 0 0 0 1 1 1 0 1 0 0 0 0 2 0 0 0 2 1 0 1 1 1 0 0 1 0 1 0 1 0 0 0 1 0 1 0 1 0 0 0 0 1 0 1 0 0 1 0 1 1 0 0 0 0 0 0 1 0 1 1 0 0 1 1 1 0 0 0 0 2 1 0 0 0 2 1 1 0 0 0 0 0 0 1 0 3 1 2 0 0 0 0 0 1 1 0 0 1 0 2 0 0 0 0 0 1 0 2 0 1 1 1 0 0 1 0 0 0 0 0 2 0 0 0 0 0 0 1 0 0 1 0 1 2 1 0 1 2 0 0 0 1 1 0 0 0 0 0 0 0 1 2 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 3 0 0 0 1 2 0 1 0 0 1 2 2 0 0 0 0 0 1 0 1 1 0 0 0 1 1 0 1 0 0 1 1 2 2 0 0 1 1 1 0 0 2 0 0 0 2 2 0 1 1 0 0 0 1 0 0 1 0 3 1 0 0 0 0 1 0 1 0 0 0 1 0 0 1 0 2 0 0 1 0 2 1 1 1 1 0 0 0 1 0 1 1 1 1 0 0 1 1 0 0 1 2 2 0 0 0 0 1 0 0 1 0 0 0 0 1 0 2 0 0 0 1 0 0 0 0 1 1 1 1 0 0 1 0 0 0 0 2 2 0 0 0 1 1 0 0 0 0 1 0 2 1 1 0 1 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 1 0 2 1 0 0 1 0 2 0 0 1 0 2 0 1 1 2 1 1 1 0 0 0 1 1 2 0 0 0 0 0 2 0 0 1 1 1 0 0 3 1 0 1 0 1 0 2 1 1 1 1 0 1 0 0 0 0 2 0 0 2 0 0 2 0 0 0 1 0 1 0 1 0 0 1 2 0 0 0 0 1 0 3 2 0 0 1 0 0 1 1 1 0 1 0 0 0 2 2 0 1 2 0 1 0 0 1 0 0 1 0 0 1 2 1 0 0 1 0 1 1 1 0 0 1 0 1 0 1 0 1 3 2 1 0 0 1 0 2 4 1 0 1 0 1 0 0 1 0 0 0 0 0 0 0 2 0 1 0 1 1 0 2 0 0 1 1 1 0 0 0 0 1 1 1 1 1 1 0 1 0 0 0 1 0 0 0 0 0 0 1 1 0 1 1 0 0 1 0 1 1 0 1 0 0 1 2 1 0 0 0 0 0 1 0 0 0 1 1 0 0 1 0 1 0 0 0 0 0 0 3 2 0 1 0 1 1 1 0 1 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 2 1 1 0 0 0 0 1 1 3 1 1 1 0 0 0 1 1 1 1 1 0 2 1 0 0 2 0 1 1 2 1 1 1 0 1 0 1 1 0 1 0 2 0 0 1 1 1 1 0 0 0 0 0 1 0 0 0 0 0 1 0 1 1 0 0 1 0 2 0 0 0 0 0 1 0 0 0 0 0 0 3 0 1 0 0 1 0 0 1 2 0 2 0 0 0 1 2 4 0 0 0 0 1 1 2 1 1 1 0 1 1 0 0 0 1 0 1 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 1 0 0 0 0 1 0 0 1 2 2 0 0 1 0 2 1 3 1 1 0 0 0 0 0 1 1 1 0 1 0 0 1 0 1 0 0 0 0 1 1 1 0 0 0 1 0 1 0 0 2 0 1 1 1 0 0 1 0 0 0 1 0 0 0 1 1 0 0 0 0 0 1 2 0 1 0 3 1 1 0 0 1 0 1 1 2 0 0 0 0 0 1 0 0 0 1 1 1 0 1 0 3 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 2 0 0 0 0 2 1 1 0 0 0 0 0 0 1 1 0 1 0 1 0 1 0 0 0 0 1 0 0 0 1 1 1 0 1 1 0 1 0 0 2 2 1 1 0 0 0 1 0 1 0 0 0 0 0 1 0 0 1 3 0 1 0 1 0 0 0 0 0 0 0 0 0 1 1 0 2 1 2 0 0 1 0 0 2 0 1 0 2 1 0 1 0 1 1 1 0 0 0 2 1 0 1 0 1 2 0 3 0 0 2 0 0 0 0 1 2 1 0 1 1 0 0 0 1 0 1 0 0 0 2 1 0 0 0 0 0 0 1 0 1 0 1 1 0 1 0 1 1 0 1 2 0 1 0 1 2 1 0 1 1 0 0 1 2 0 1 1 0 0 0 0 0 0 0 0 2 1 1 1 1 0 0 0 1 2 0 0 0 0 0 1 0 2 0 0 0 1 0 0 0 0 0 1 0 0 4 1 0 1 0 1 1 0 0 0 0 1 0 0 0 0 0 0 1 1 0 1 0 1 1 1 0 1 0 1 0 0 0 0 0 1 2 0 0 0 0 1 1 1 1 1 0 0 2 0 0 3 1 0 1 0 0 0 1 0 0 1 0 0 1 1 2 0 0 1 1 1 0 0 1 0 0 1 1 0 0 1 1 1 0 1 0 1 0 1 1 0 1 0 0 0 2 1 0 1 2 1 0 0 1 1 0 0 0 1 1 0 0 1 1 1 0 0 0 0 0 0 2 1 0 1 3 1 2 0 1 1 0 1 1 1 1 0 0 0 0 1 1 0 0 0 1 1 0 0 0 0 0 1 0 0 0 2 2 0 0 3 2 1 0 0 1 0 1 1 0 1 0 0 0 0 2 0 0 3 0 0 3 0 0 2 0 1 0 0 0 1 0 1 0 1 0 0 0 1 0 0 0 2 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 2 0 1 0 0 1 0 1 1 1 0 0 0 1 0 2 0 1 1 0 0 2 0 0 4 1 1 1 1 0 0 0 0 0 1 0 2 2 0 0 0 0 0 2 1 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 1 1 2 0 0 1 2 0 0 1 0 1 0 1 1 0 0 0 2 0 1 1 0 1 2 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 2 1 1 0 0 0 0 0 1 0 0 3 3 0 0 3 2 1 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 1 1 1 0 0 1 1 0 1 1 0 0 2 1 0 2 1 0 3 0 0 0 0 0 0 2 1 1 1 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 1 1 0 0 0 1 0 2 1 0 0 0 0 0 2 1 0 1 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 2 0 1 1 0 1 1 0 0 0 0 1 1 3 0 0 1 0 0 0 0 2 0 0 2 2 0 1 0 2 0 0 0 2 2 0 0 1 0 1 0 0 1 0 0 1 0 0 0 0 1 0 0 1 1 1 0 1 1 0 0 1 0 1 1 0 0 0 1 0 2 0 1 1 0 0 0 0 1 0 2 2 0 0 1 0 0 0 0 1 0 0 1 0 0 0 1 1 0 1 1 1 3 1 1 1 0 0 1 1 0 0 0 1 0 1 0 1 0 0 0 0 1 0 1 0 2 1 4 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 2 1 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 1 1 0 1 0 0 1 0 0 1 1 0 0 0 0 0 1 0 0 1 0 0 2 2 0 0 2 1 0 1 0 1 0 0 4 1 0 0 0 0 0 1 0 0 1 3 0 1 0 0 0 0 0 0 0 0 0 1 1 1 0 1 0 0 0 2 1 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 1 0 0 1 2 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 1 1 0 0 1 1 0 0 1 0 1 0 0 1 0 0 0 0 1 1 1 1 1 1 0 1 0 0 0 0 0 2 1 1 0 0 1 0 0 2 0 0 2 0 0 1 0 1 2 1 2 1 0 0 0 2 0 2 0 0 0 2 0 1 0 0 0 0 0 1 1 1 0 1 0 0 0 0 0 1 1 0 0 0 1 0 0 0 1 1 0 1 0 0 2 0 0 1 0 1 1 1 0 1 2 1 1 2 2 0 0 1 0 0 2 0 0 0 2 0 1 0 0 1 1 0 0 0 1 2 0 0 0 2 0 2 2 0 0 0 1 0 0 0 1 1 0 1 2 0 2 0 0 0 0 1 0 0 0 0 1 0 0 3 0 0 1 0 0 0 0 0 1 3 1 0 0 0 0 1 0 0 1 0 1 0 1 0 1 1 0 1 0 0 0 0 2 0 0 1 0 0 1 0 2 0 2 0 0 0 0 0 0 1 0 0 0 0 1 1 0 1 0 1 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 4 1 0 0 0 0 1 2 0 2 0 0 0 1 0 1 1 0 2 0 1 0 0 1 2 0 0 0 1 0 0 0 0 1 0 0 0 1 1 0 1 1 1 1 0 0 1 3 0 1 1 1 0 0 0 1 0 1 0 1 0 1 0 0 1 0 0 1 0 1 1 0 0 1 0 1 1 1 0 1 0 1 3 1 1 0 0 0 2 0 1 2 1 0 0 0 1 1 1 1 1 1 0 1 0 1 1 1 1 0 2 0 0 1 0 0 2 0 0 0 2 0 0 1 1 1 0 0 0 1 1 1 1 0 0 0 0 2 1 0 0 1 0 0 0 0 0 1 0 1 0 0 1 0 0 1 1 0 0 0 0 1 1 0 0 0 0 0 0 0 1 1 0 1 0 0 1 0 0 0 0 0 1 0 0 2 0 0 0 3 1 0 1 0 0 2 0 1 1 2 0 0 0 0 1 1 0 0 2 0 0 2 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 2 1 0 1 1 1 0 0 4 1 0 0 1 0 0 0 4 0 0 0 3 0 1 0 1 0 0 0 0 1 0 0 1 0 0 1 0 0 1 0 0 2 1 0 1 0 0 1 0 0 1 0 0 0 1 2 1 0 2 0 0 0 3 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 1 2 0 3 0 1 1 0 1 0 0 0 2 1 2 0 1 1 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 2 0 1 1 0 1 1 1 1 0 0 0 0 1 1 0 2 1 1 0 1 0 1 2 0 0 0 0 0 2 1 1 0 0 0 2 0 0 0 0 1 0 1 0 1 0 3 0 0 2 2 0 0 0 0 0 0 0 0 1 0 0 1 1 1 1 1 1 0 0 2 1 2 2 0 1 0 0 0 1 0 0 0 1 0 0 0 1 1 0 0 1 0 1 3 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 2 1 1 0 0 0 0 0 3 3 1 0 0 1 0 1 2 0 2 0 0 0 1 0 0 1 0 0 1 0 1 0 2 1 1 0 0 0 2 0 0 0 0 0 0 1 1 0 0 0 1 0 1 1 0 1 0 0 0 0 0 0 2 1 0 1 1 1 0 1 0 2 1 3 0 1 0 1 0 0 2 0 0 0 0 0 0 1 0 1 0 1 1 1 2 2 0 2 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 1 0 0 0 2 2 3 0 2 0 1 1 1 0 0 1 0 1 0 1 0 3 2 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 1 0 1 0 0 1 1 2 0 1 1 0 1 1 0 0 0 0 2 1 0 2 0 0 0 0 0 2 0 0 1 1 0 3 1 0 1 1 1 2 2 1 0 1 0 0 1 1 0 0 0 1 0 0 1 1 0 1 0 1 1 0 0 0 0 1 0 3 0 1 0 0 0 0 4 0 2 0 0 0 1 2 0 0 1 0 0 0 0 1 1 2 0 0 1 0 0 0 0 1 0 1 0 1 0 0 1 0 0 0 0 0 0 0 2 0 0 0 2 0 1 2 1 0 1 0 1 1 2 1 2 1 0 1 1 3 1 0 0 2 0 0 0 0 0 1 0 0 1 1 0 0 0 1 0 0 0 0 0 0 1 1 1 0 1 0 0 1 1 0 1 1 0 0 0 2 1 2 1 0 1 0 0 0 1 0 0 1 1 0 0 2 1 1 0 2 0 2 0 1 1 2 0 1 1 0 0 0 1 0 0 1 1 0 0 1 1 0 1 0 0 0 0 0 0 1 0 1 2 0 2 0 0 1 0 1 1 1 1 0 0 1 0 1 2 2 0 0 2 0 2 1 1 1 1 0 2 0 0 0 1 0 1 0 0 1 1 3 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 2 1 0 1 0 0 0 1 1 0 1 0 0 1 0 1 0 0 0 0 1 2 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 2 2 0 0 2 0 0 0 1 0 0 1 0 0 1 1 0 1 0 0 1 0 0 0 2 0 3 0 1 0 0 2 2 0 0 3 0 0 0 0 0 0 1 1 0 0 1 1 0 0 1 0 0 2 0 3 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 2 0 2 0 0 0 1 1 1 1 1 0 0 2 0 0 3 1 0 0 1 1 0 0 1 2 2 0 0 0 0 0 1 3 0 2 0 0 0 0 1 1 0 1 1 1 1 0 0 0 0 3 0 0 0 0 0 3 0 1 2 2 0 0 0 1 1 1 0 1 0 1 1 0 0 1 0 2 0 0 0 1 0 1 0 1 0 0 2 1 1 1 1 0 0 0 0 0 0 0 1 1 0 1 1 1 1 0 0 1 1 0 2 0 1 1 0 1 2 0 0 0 1 1 0 0 0 0 0 0 1 1 0 1 0 0 2 0 0 1 0 0 1 0 1 1 1 2 0 0 0 1 1 1 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 2 0 0 0 1 1 0 0 2 0 1 0 2 0 2 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 1 1 1 0 0 2 0 0 1 0 0 0 1 0 0 0 2 0 2 1 0 1 1 1 1 0 0 0 2 1 0 0 2 0 0 0 2 1 1 0 1 0 1 1 0 0 0 0 0 1 0 1 0 0 3 0 0 0 0 1 0 1 0 0 1 1 1 0 1 2 1 1 0 1 1 0 0 0 0 0 0 0 0 0 0 2 1 1 1 1 0 1 0 0 2 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 2 1 0 0 2 0 1 1 0 1 1 1 1 1 0 0 1 1 0 0 0 1 1 1 0 1 1 1 2 3 0 0 0 2 1 0 0 1 1 2 3 0 2 1 1 1 0 2 0 1 1 0 2 0 2 1 0 0 1 0 0 0 1 0 2 1 0 0 0 1 1 2 0 1 0 2 0 1 1 1 1 0 0 1 0 0 1 0 1 0 0 0 1 0 0 0 2 0 0 1 0 0 0 0 3 0 0 0 0 1 0 0 0 0 2 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 1 1 1 0 1 0 1 0 1 0 1 0 1 0 0 1 1 0 1 0 1 0 1 1 2 1 0 0 0 1 0 0 0 0 1 0 1 1 0 0 1 1 0 0 1 1 1 1 0 0 1 1 1 0 0 1 0 0 1 1 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 1 3 1 0 0 0 0 0 1 0 0 1 1 0 1 1 1 1 0 1 0 2 1 0 0 1 0 1 1 0 0 1 0 0 0 1 0 1 0 1 2 1 0 0 0 4 0 0 2 1 1 0 1 1 0 1 0 1 0 0 2 1 0 1 0 0 1 3 0 1 0 1 1 0 0 0 0 0 1 0 0 0 2 0 1 1 0 2 0 0 1 0 1 1 0 0 1 0 0 1 1 3 0 0 1 0 1 0 0 1 1 1 0 0 0 0 0 0 1 1 1 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 1 0 0 1 1 0 1 0 1 0 0 1 0 0 0 0 1 1 2 1 2 1 0 1 0 0 0 0 1 1 0 1 0 2 0 1 0 3 2 1 1 1 0 0 1 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 1 1 0 0 0 0 0 0 1 0 0 0 0 0 1 1 1 1 0 0 1 0 0 1 0 0 3 0 1 1 1 1 1 2 1 1 0 1 1 0 2 1 1 1 1 0 0 0 1 2 1 1 1 0 0 0 0 1 0 0 1 0 0 1 1 1 0 1 1 0 0 0 1 0 1 0 1 1 0 0 0 0 0 2 0 0 1 2 1 0 0 3 0 1 0 0 0 0 1 2 0 1 2 0 1 0 0 0 1 0 0 1 0 1 0 1 2 0 0 0 0 0 1 0 0 1 1 1 0 0 0 0 0 0 2 0 2 1 0 1 0 2 1 0 0 1 3 0 1 2 0 1 0 2 0 0 0 1 1 2 0 1 1 1 1 0 0 0 0 0 0 1 2 0 1 2 2 2 0 0 2 0 0 0 0 1 1 1 0 1 1 1 2 0 0 0 1 0 0 0 0 0 0 0 1 2 3 0 0 0 0 0 0 2 1 0 0 0 1 1 1 1 1 0 1 1 0 1 1 2 0 0 0 0 1 0 0 0 1 1 0 1 0 0 2 0 0 1 3 3 0 0 1 0 0 0 1 0 1 1 1 1 0 1 0 1 1 0 0 0 0 0 0 0 1 0 1 1 1 0 0 1 1 0 1 0 0 0 1 0 0 1 0 4 0 0 0 0 1 1 0 2 0 0 0 0 0 0 0 1 0 2 0 0 1 1 0 1 0 0 1 1 0 1 0 1 0 0 0 0 1 0 1 1 1 0 1 0 0 0 0 1 0 0 1 1 0 1 0 0 0 0 0 0 0 0 3 0 1 1 0 0 0 0 0 2 1 1 0 0 0 0 0 0 0 0 2 1 0 1 0 0 1 1 2 0 0 0 1 0 1 0 0 1 0 0 0 3 1 2 0 0 0 0 1 0 0 0 0 0 0 0 2 1 1 2 1 2 1 1 2 1 0 1 0 0 0 2 1 1 0 1 0 0 1 0 0 0 0 0 2 1 0 1 0 2 1 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 1 1 1 0 1 0 0 0 1 0 0 0 1 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 2 0 0 1 0 1 1 0 0 0 0 0 0 2 0 1 0 0 1 0 0 1 2 0 0 1 0 1 1 0 0 1 0 0 1 1 2 2 0 0 0 2 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 1 1 0 0 1 0 1 0 0 1 0 1 0 0 0 0 0 1 1 1 0 1 0 0 0 0 1 1 1 0 1 1 0 0 2 2 0 1 0 1 1 3 1 1 1 0 0 1 0 0 0 0 1 1 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 1 1 0 0 2 1 1 0</t>
+  </si>
+  <si>
+    <t>JSB(2.376116106810056, 3.1372447868235875, -81.61911189276047, 604.9908873969805)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69 127 124 112 132 79 107 134 82 161 120 125 123 137 99 166 155 145 97 107 44 121 68 130 190 171 138 103 121 54 145 98 78 92 241 81 120 143 85 105 72 121 50 133 155 141 105 94 80 88 152 100 109 107 138 118 129 78 111 114 205 100 71 160 78 144 171 87 131 128 84 131 107 150 71 108 33 55 51 56 133 158 159 56 60 113 243 110 184 156 88 102 188 129 187 157 176 140 104 80 53 98 140 143 55 109 83 96 111 94 195 10 136 81 170 90 167 84 175 179 181 58 211 134 83 49 117 149 181 153 56 206 156 132 96 46 111 100 159 142 138 93 63 153 145 135 77 138 145 95 128 84 129 85 96 152 109 111 45 146 102 56 184 146 157 109 59 186 65 65 127 62 88 65 73 102 132 52 81 179 113 56 115 100 83 199 81 137 107 82 32 144 73 102 117 48 115 180 208 83 56 84 154 24 90 103 72 140 128 95 96 97 55 56 169 180 109 179 122 118 142 107 159 117 107 87 115 86 42 105 125 117 73 100 97 93 108 67 63 104 152 48 91 227 105 92 136 145 182 85 98 171 167 126 84 136 38 271 66 134 126 176 58 108 162 143 124 156 121 114 126 101 117 81 39 140 65 89 90 102 80 104 131 62 135 55 59 100 72 109 114 137 76 183 159 121 144 133 100 128 45 200 150 102 123 110 109 57 122 36 82 151 122 101 87 216 136 85 228 70 127 62 139 69 123 89 88 99 91 132 114 90 83 167 94 146 231 246 94 89 114 130 76 106 122 198 118 151 91 106 124 137 110 121 118 79 129 97 103 98 55 100 145 129 212 95 128 77 53 140 161 92 100 136 141 77 78 79 112 168 120 118 43 188 163 110 124 45 177 146 123 61 42 94 82 41 286 126 84 117 177 107 115 150 101 66 41 82 132 97 99 81 96 88 128 76 132 87 144 129 123 139 181 109 104 129 117 43 123 29 89 124 93 51 150 151 173 95 74 180 136 77 91 112 118 95 114 107 120 97 148 93 134 135 199 125 156 123 70 159 195 133 119 202 109 181 118 149 179 101 89 132 22 109 81 204 231 67 68 92 146 111 129 137 153 143 231 90 62 106 38 139 143 107 31 172 117 97 53 160 83 66 145 43 72 149 114 115 198 133 91 94 134 177 103 63 128 145 168 75 120 38 124 173 107 151 94 137 119 133 132 40 49 124 49 140 131 45 80 98 138 142 107 63 123 99 132 107 195 155 104 77 91 122 43 107 40 104 162 43 122 75 111 38 124 98 150 140 90 96 107 98 75 73 141 156 70 135 101 261 91 87 108 73 128 84 146 154 201 185 168 73 136 173 113 104 76 115 106 50 73 80 152 170 205 93 19 44 76 133 101 81 61 70 198 134 116 45 90 98 87 190 161 56 103 112 69 168 167 54 100 116 74 76 70 122 169 153 157 120 132 108 155 109 128 98 174 120 42 157 132 125 103 8 42 113 160 87 139 166 106 117 153 165 132 179 64 93 152 205 76 46 170 84 67 152 163 165 74 132 39 116 99 111 102 73 140 142 136 91 202 137 73 95 123 50 122 114 78 77 72 96 81 160 128 32 108 140 67 58 93 88 116 108 118 125 126 136 59 70 41 226 96 83 105 72 80 55 171 108 146 216 34 127 127 94 95 167 128 120 91 74 181 109 115 173 120 114 96 116 131 112 84 151 167 119 101 139 140 65 59 95 63 81 128 99 137 106 176 141 77 129 147 174 115 155 87 96 99 80 174 157 121 125 170 158 74 140 148 144 120 105 143 106 119 46 167 70 159 92 89 59 91 67 193 88 67 174 136 55 106 96 163 146 75 75 56 62 129 163 140 92 71 79 77 111 84 47 133 158 114 98 31 121 101 117 42 64 107 74 149 166 71 124 143 116 134 87 128 106 87 23 139 146 222 212 72 82 74 85 105 205 159 108 127 50 131 159 93 99 109 105 100 143 45 93 76 133 112 56 111 117 51 147 100 84 33 150 113 203 72 110 76 105 168 134 139 53 76 54 170 69 176 103 82 163 65 207 109 143 186 95 160 86 53 113 160 70 146 160 122 143 144 109 126 98 76 147 130 62 101 132 111 170 61 133 148 82 49 125 125 112 89 103 140 92 113 224 157 101 104 91 138 175 116 72 141 136 120 124 136 204 98 84 105 75 143 36 58 115 117 108 120 82 116 159 144 97 91 137 82 162 82 158 76 116 95 109 126 109 121 122 150 63 145 129 129 208 67 47 43 85 151 129 58 133 49 127 111 90 126 133 68 89 51 61 160 45 95 185 92 139 212 108 154 100 102 103 152 51 126 44 143 75 87 122 63 89 102 89 99 136 67 105 68 110 153 195 110 121 82 108 89 140 188 88 120 148 81 216 101 138 128 109 154 151 90 129 136 153 83 119 113 125 89 77 143 36 23 156 126 173 159 111 123 143 150 145 123 51 90 88 98 132 176 122 127 159 108 104 142 221 71 173 120 109 51 136 86 130 117 65 153 163 184 139 81 120 103 153 146 133 79 90 47 85 83 131 106 59 173 150 141 84 117 171 172 118 120 153 176 76 119 147 88 105 139 80 264 180 49 139 126 85 64 95 146 68 134 167 165 114 62 124 179 119 84 196 165 182 95 207 146 130 106 147 172 108 117 119 70 146 30 96 106 179 135 84 153 182 155 46 157 101 170 148 54 97 85 204 57 85 60 73 148 198 89 96 63 175 130 184 107 79 92 56 75 43 148 97 86 105 62 144 118 211 143 110 98 163 123 123 141 108 174 205 80 97 71 146 103 159 195 31 44 110 55 108 222 68 24 101 135 149 144 67 37 133 173 193 97 100 107 75 115 108 73 125 114 157 52 191 107 65 128 128 121 118 128 164 103 103 89 160 110 47 99 92 107 99 232 79 120 143 129 93 78 81 136 153 123 93 167 88 168 102 121 83 197 116 110 136 83 216 83 214 149 215 145 104 124 65 118 155 128 154 175 113 89 30 154 57 114 75 63 38 118 207 99 107 142 97 103 90 145 103 154 132 78 100 108 158 73 78 138 99 97 133 98 135 99 87 119 81 133 127 15 139 95 105 145 230 108 108 131 43 128 53 103 105 132 124 178 84 88 150 174 63 54 101 210 78 146 28 72 136 130 105 73 166 192 94 36 79 85 168 86 141 113 123 172 46 134 127 131 87 106 194 132 110 70 87 136 133 106 106 89 82 78 66 77 57 82 109 115 86 141 108 104 84 101 55 162 61 101 175 129 79 66 26 43 111 139 154 104 93 114 161 82 141 99 162 55 54 133 106 142 87 79 46 106 170 98 133 147 183 141 96 136 154 160 127 84 78 116 78 155 119 172 137 131 140 109 140 70 49 76 86 132 101 144 28 178 75 96 91 68 53 75 83 117 120 84 77 122 92 107 64 99 43 119 159 184 47 100 78 98 107 102 139 71 165 27 131 74 111 105 117 148 123 109 103 127 52 79 127 134 73 106 175 108 226 99 134 143 226 110 114 97 113 124 116 178 64 155 96 126 119 154 234 58 91 122 99 60 193 191 99 135 92 56 136 152 100 170 111 106 145 65 144 44 139 103 92 110 102 97 144 112 195 86 107 130 148 169 126 102 60 124 139 164 164 97 59 114 71 112 189 83 53 152 108 128 107 118 210 152 106 86 103 115 88 164 67 79 201 131 146 130 108 154 132 68 167 121 54 132 185 191 45 120 130 27 83 159 101 92 152 165 109 76 103 137 159 172 24 151 105 109 95 164 107 143 83 137 118 86 91 90 79 51 125 122 88 171 151 105 96 68 84 85 63 110 132 64 92 93 83 78 91 106 101 54 179 142 104 162 48 182 123 92 137 156 140 141 122 169 26 169 177 94 126 144 126 75 73 54 58 145 60 112 111 35 104 166 178 137 100 96 129 100 77 174 167 82 64 143 182 22 89 76 112 55 117 166 152 52 138 168 78 120 103 164 98 98 162 82 100 128 141 89 163 155 116 45 86 89 177 199 56 69 113 145 62 49 93 105 95 181 90 67 134 151 214 87 65 180 74 137 83 94 76 92 124 208 141 87 102 55 98 62 76 29 127 51 88 191 112 154 126 120 181 151 125 146 222 110 154 65 102 128 185 143 108 281 137 91 112 138 136 114 45 103 134 130 99 114 89 93 44 108 44 84 110 31 101 134 83 130 149 76 193 175 159 48 77 121 73 110 53 67 93 163 165 64 111 98 108 104 102 131 76 98 144 157 97 138 88 117 131 106 104 133 108 175 116 67 30 130 152 154 96 131 46 130 106 54 84 91 86 161 162 126 159 124 97 112 102 159 98 42 221 105 129 174 97 120 88 94 84 124 155 68 103 127 167 135 122 180 137 150 72 72 72 135 118 62 100 44 79 98 107 29 154 166 74 54 139 128 118 98 83 99 148 58 100 139 92 136 77 72 71 93 80 141 159 42 127 186 75 88 94 152 106 49 129 167 141 101 128 84 169 175 79 81 159 43 141 75 87 46 90 80 129 70 147 58 64 62 46 128 108 103 92 104 63 167 155 70 54 162 91 75 114 98 103 120 88 125 107 138 79 30 122 110 102 49 136 148 92 216 185 134 112 110 117 92 71 82 133 153 105 30 137 95 166 56 86 65 77 126 130 89 55 108 111 117 79 125 110 164 72 97 102 70 185 169 104 90 198 133 159 104 108 124 48 148 128 108 75 108 226 139 126 128 33 139 132 116 121 61 68 143 93 172 148 126 103 86 153 99 70 206 161 133 116 53 76 67 131 96 79 42 121 127 137 84 56 45 130 108 120 154 114 125 74 223 81 48 119 182 106 104 150 134 118 104 114 89 77 91 115 181 128 136 110 111 105 148 100 163 69 126 123 67 103 75 69 130 180 106 117 206 123 96 139 122 75 111 147 122 142 170 160 209 82 150 152 90 120 127 90 94 54 104 71 129 173 66 47 126 118 139 72 116 115 164 73 122 113 111 142 113 121 109 38 82 79 158 80 96 153 54 103 130 123 161 75 89 107 164 207 72 138 78 106 84 125 62 87 86 133 114 171 42 190 168 141 76 50 82 168 19 70 101 170 67 135 89 56 153 188 100 123 138 111 99 42 225 116 58 108 74 123 76 107 175 67 168 165 122 40 62 105 207 159 63 91 113 68 100 49 55 86 161 62 107 84 79 68 49 111 70 89 134 66 124 72 125 110 119 48 70 138 163 121 117 188 119 70 172 149 121 93 181 101 167 140 99 81 71 86 134 130 40 92 116 21 142 73 170 94 102 246 71 60 140 150 44 125 101 114 93 75 162 65 215 72 42 94 46 74 163 38 109 125 131 77 171 64 45 105 74 131 116 88 132 70 89 169 106 149 73 84 170 171 203 82 36 43 61 66 112 50 57 143 206 118 135 87 67 167 152 159 98 38 116 87 87 78 96 175 47 50 115 71 83 118 166 92 188 112 58 157 118 70 115 82 95 135 162 122 82 86 67 136 155 144 118 128 90 102 111 114 127 206 109 53 56 97 81 174 159 89 44 88 173 79 166 69 126 155 97 194 59 90 191 86 90 140 84 110 202 121 102 46 86 174 14 105 131 143 197 114 151 100 131 74 46 70 84 94 123 115 52 33 103 78 74 167 66 69 71 114 39 149 71 108 81 127 115 130 76 125 172 181 116 122 40 143 30 73 108 83 64 86 154 55 134 175 169 118 85 182 143 209 90 152 145 36 154 87 138 132 121 185 133 138 101 164 147 88 129 83 114 77 133 36 76 52 79 78 72 97 137 93 81 67 150 50 70 107 95 134 138 178 97 85 58 66 75 78 81 104 123 108 156 116 129 66 84 193 129 61 64 103 155 124 184 130 133 87 127 87 128 111 114 81 115 153 115 88 158 149 121 81 100 62 113 152 124 88 192 76 61 82 94 185 54 122 127 82 132 93 33 186 99 130 135 109 96 149 149 90 158 67 142 104 113 92 51 57 83 172 188 148 168 136 113 151 138 116 70 118 216 127 86 94 161 90 81 112 118 86 122 27 82 133 109 151 86 109 93 128 122 183 102 241 129 74 146 103 93 90 180 55 132 144 6 101 89 147 69 104 207 130 111 136 210 92 131 98 176 97 106 103 140 76 95 110 140 187 108 139 122 127 212 150 86 83 172 106 128 127 60 170 143 112 59 67 65 127 6 25 79 99 82 56 76 100 172 67 101 216 58 98 126 70 156 130 107 105 106 87 127 59 53 122 44 76 65 66 70 28 134 142 86 87 171 151 61 104 120 184 123 131 100 123 102 88 98 101 102 68 20 76 125 121 151 148 158 101 43 198 142 109 61 136 59 143 225 80 102 165 90 147 201 147 73 96 69 98 188 158 87 161 142 152 87 118 109 79 103 144 192 108 188 116 146 73 71 162 131 71 94 100 136 158 86 101 96 118 118 114 135 120 86 82 234 97 180 131 99 151 90 159 146 105 78 135 104 118 148 104 88 86 176 120 158 66 45 108 123 105 68 119 149 95 100 97 61 156 160 117 182 91 88 105 110 111 43 153 114 108 132 165 114 81 137 168 138 96 53 109 173 60 143 106 56 102 72 68 139 122 102 47 72 138 196 104 132 91 79 192 165 130 136 111 123 118 110 95 65 97 163 160 118 110 127 114 112 52 141 159 148 163 84 215 134 133 171 28 68 81 140 98 106 91 123 154 127 149 106 110 133 98 82 117 110 116 109 104 57 160 56 106 79 187 139 145 131 94 76 111 101 173 110 143 191 151 145 88 122 170 80 137 124 38 125 183 103 91 161 159 188 129 71 77 166 179 183 81 157 99 138 118 143 241 128 97 178 56 55 149 51 67 78 184 129 150 95 109 119 106 108 72 112 157 126 83 100 140 80 159 70 77 198 88 212 125 143 141 100 106 108 202 80 121 164 146 119 96 169 50 46 151 133 130 56 56 83 148 91 88 68 95 90 172 141 89 97 122 183 111 82 157 102 87 99 118 158 39 168 74 107 107 93 62 137 172 102 114 100 167 205 177 131 100 171 92 92 110 135 153 78 119 59 52 62 150 106 121 120 199 137 112 102 86 143 35 102 186 187 72 122 153 171 96 101 140 50 111 72 122 194 145 112 159 108 88 147 136 219 49 138 87 130 63 130 128 96 84 146 132 70 98 89 39 128 165 120 146 96 104 100 85 138 136 94 98 72 69 99 142 66 128 82 147 109 70 86 51 93 102 127 50 77 106 139 197 135 126 67 136 75 168 97 141 105 156 58 102 84 39 107 138 75 115 125 40 136 89 81 153 150 55 141 82 96 142 149 106 137 123 185 110 132 132 56 126 118 149 90 58 23 147 92 151 86 62 126 59 105 154 71 127 107 49 112 132 95 161 127 77 153 121 164 132 114 83 77 112 217 60 122 63 77 158 105 119 67 159 62 177 74 165 95 75 166 204 113 101 64 86 221 96 101 50 82 136 95 129 69 130 23 134 122 63 50 118 84 90 142 68 194 69 134 100 44 118 93 132 120 94 57 124 155 90 135 104 94 128 79 110 103 94 140 117 264 109 112 105 63 64 28 164 116 113 194 146 173 98 41 159 92 97 149 125 126 156 96 178 110 67 76 109 50 146 100 71 60 116 49 121 83 121 111 80 132 46 121 184 169 131 79 117 80 121 126 122 109 126 143 62 213 148 100 119 103 124 152 158 89 107 186 28 139 81 46 119 98 107 126 180 113 95 75 152 102 115 111 128 42 63 157 113 99 32 108 168 109 71 145 134 146 32 108 89 101 65 138 57 153 123 42 166 128 68 141 79 68 111 68 175 81 182 170 128 188 90 130 172 82 64 147 104 111 234 75 68 131 101 47 88 130 119 32 130 122 138 87 175 154 142 58 161 148 51 101 107 79 104 77 139 143 102 162 160 38 131 151 174 98 90 101 162 113 98 95 147 117 105 115 80 140 172 130 183 131 97 107 105 127 169 94 148 94 217 126 54 34 174 166 138 107 116 96 103 116 86 94 93 21 132 152 51 102 52 116 44 151 144 40 200 190 198 116 110 158 179 131 143 85 120 130 174 105 113 105 95 197 140 153 113 115 70 172 96 89 81 127 103 140 48 123 80 162 160 86 118 121 134 144 131 125 150 116 175 66 112 70 45 109 121 75 132 168 105 105 110 82 79 94 130 121 117 150 131 95 119 133 112 87 111 84 138 44 183 127 111 166 131 138 122 90 184 83 63 137 85 176 51 109 75 60 128 90 141 93 204 85 116 103 120 90 66 97 92 86 116 188 183 148 114 28 97 92 129 116 126 109 108 161 81 135 5 158 154 76 115 138 101 132 110 179 43 55 109 180 39 41 63 120 40 161 130 119 115 83 74 122 118 128 120 101 134 125 123 155 39 54 136 138 160 117 168 124 156 195 186 88 147 136 95 155 141 45 123 179 171 112 116 93 59 119 175 154 97 83 83 102 71 197 106 167 80 125 74 101 201 116 121 86 178 115 188 67 105 81 89 94 97 152 147 96 192 102 79 77 143 84 234 131 99 137 112 74 180 189 116 241 48 123 101 66 48 172 126 29 130 75 91 158 86 113 81 200 111 143 59 154 85 117 106 117 125 98 110 200 51 198 162 108 195 49 95 99 44 188 50 67 106 196 96 132 38 114 130 92 110 44 38 137 96 127 148 123 73 162 134 115 68 79 99 71 61 205 108 100 78 217 135 152 114 38 192 80 139 104 169 102 131 85 163 118 137 70 166 90 147 73 122 75 93 134 83 184 116 85 199 137 179 133 126 81 146 71 72 111 65 70 94 141 135 75 104 73 159 109 107 110 67 165 83 104 144 139 123 139 65 101 181 97 92 49 61 140 63 75 125 112 123 120 64 120 53 84 111 83 138 121 78 109 112 128 97 125 179 133 116 165 64 173 80 97 125 142 123 129 87 68 119 71 172 102 55 81 226 126 165 71 160 130 151 64 136 43 96 159 142 104 127 106 104 147 127 40 142 136 137 52 125 124 109 117 135 177 96 187 93 180 163 151 107 62 105 89 152 133 81 81 109 184 80 101 21 192 162 100 158 92 122 156 73 144 73 137 159 72 71 92 140 131 124 113 88 69 87 90 158 102 161 158 103 126 85 135 133 73 82 85 139 83 149 219 147 158 124 89 161 165 104 48 125 98 58 154 149 154 101 160 131 137 83 42 119 114 31 114 72 153 160 190 100 148 108 39 52 124 108 123 191 112 158 116 117 75 152 69 32 66 128 104 124 70 104 64 96 56 127 135 85 92 100 161 61 141 143 151 84 125 87 71 118 223 170 87 116 124 154 180 113 83 121 76 82 135 106 107 91 57 72 91 121 121 170 88 99 135 117 32 137 90 145 68 79 113 150 209 141 101 54 171 105 71 99 134 153 95 83 69 185 130 135 108 90 152 139 114 159 78 129 33 128 173 132 95 103 128 162 131 43 126 118 65 80 138 103 97 129 93 91 19 120 61 163 138 92 112 100 62 123 146 176 177 131 85 120 112 169 137 82 90 154 73 102 44 172 126 38 36 106 155 108 131 104 75 123 175 120 48 158 105 114 105 73 132 146 64 100 135 98 234 6 79 178 59 140 103 56 212 123 80 59 198 175 218 127 78 74 82 98 177 84 94 104 170 193 51 118 151 105 107 91 94 111 43 87 131 209 246 167 116 136 68 220 112 208 135 165 67 66 136 84 112 139 72 158 161 120 86 86 89 158 80 120 148 124 124 102 106 98 95 121 162 190 85 127 136 201 54 130 106 104 129 92 62 155 61 104 38 32 113 56 95 80 127 125 158 135 98 95 68 89 75 38 107 137 132 162 96 105 37 186 88 153 149 243 94 74 92 129 38 154 97 107 140 98 148 129 135 96 133 83 132 79 63 159 119 116 142 134 144 118 211 90 77 106 111 178 103 128 110 98 120 134 142 148 73 221 73 130 73 139 151 102 162 119 121 33 75 137 118 115 105 82 121 136 136 125 194 146 114 142 139 136 164 64 127 117 80 140 194 133 143 35 140 174 123 99 115 114 119 100 95 125 139 194 53 66 138 17 158 74 111 119 132 150 130 20 51 75 206 29 83 27 41 152 108 43 133 101 118 140 97 27 119 139 145 93 150 121 49 65 111 89 108 127 98 93 72 107 35 22 176 111 34 136 146 117 101 112 171 76 172 160 131 132 133 193 61 102 102 116 121 24 142 91 100 108 138 42 133 98 149 114 67 204 178 131 155 71 168 57 103 159 104 38 107 54 185 76 41 131 161 116 129 120 161 114 87 153 168 175 173 150 86 75 72 66 37 120 93 125 115 161 97 132 90 136 147 97 110 139 86 67 89 103 179 37 75 69 108 53 132 176 128 118 117 147 130 72 89 129 121 146 45 100 128 101 111 132 80 79 52 114 33 68 154 129 114 196 58 109 69 31 62 109 121 114 82 99 198 114 96 102 126 91 59 45 137 168 92 81 63 25 152 95 117 95 99 134 90 58 147 115 175 119 57 150 104 151 95 76 167 182 148 70 123 138 130 83 82 105 172 109 141 116 126 243 169 73 167 98 104 152 119 153 106 70 114 62 84 86 65 100 96 34 146 141 93 132 66 180 140 79 111 98 121 91 193 111 101 122 87 50 159 15 115 122 172 100 146 130 230 96 194 118 100 118 163 100 121 91 190 161 152 76 112 137 68 56 96 125 56 192 75 82 80 175 136 119 117 90 109 60 114 143 37 135 194 129 83 167 91 102 126 136 96 82 86 145 92 82 101 105 120 145 122 132 129 117 104 104 62 91 189 81 43 93 122 123 133 168 77 175 103 45 72 222 20 96 129 129 116 54 73 133 160 97 72 85 157 134 106 114 54 151 83 109 125 74 120 107 206 84 120 172 114 32 149 101 178 161 179 112 59 133 58 73 149 176 168 189 56 111 35 128 144 129 78 121 52 85 140 171 35 90 119 109 126 79 115 153 153 124 185 125 149 97 70 76 139 137 125 152 44 132 130 82 141 111 89 147 123 121 80 72 20 51 86 92 50 99 72 170 134 202 89 66 77 187 136 27 89 142 116 125 110 97 28 120 70 88 67 72 193 192 106 142 60 146 94 102 157 111 158 95 127 119 101 174 136 90 90 87 136 121 134 94 169 105 90 65 88 75 92 107 111 141 134 161 148 82 116 87 178 104 113 95 119 47 72 97 133 170 102 118 167 89 161 102 133 225 67 140 96 99 111 72 128 114 80 193 138 61 164 46 59 91 116 113 40 148 54 119 63 222 50 124 107 193 36 100 73 121 119 109 94 106 15 165 21 116 102 97 66 145 85 86 177 57 208 195 148 57 142 75 68 110 93 129 90 78 73 58 188 84 28 163 209 82 96 147 78 154 159 78 118 136 106 196 160 138 49 103 60 175 108 112 73 62 118 73 84 128 110 100 177 123 203 138 125 35 92 153 102 108 166 262 138 154 140 102 112 65 77 117 122 109 80 50 95 57 28 22 50 93 78 88 230 118 156 94 116 88 178 103 82 122 102 201 87 77 118 103 36 85 118 302 60 137 115 161 76 139 80 151 111 72 67 107 173 184 185 177 129 184 66 109 121 102 96 79 232 143 100 86 129 136 155 117 47 187 147 117 137 147 46 136 136 136 191 115 108 84 81 31 46 161 113 154 139 106 120 110 123 42 148 95 31 160 130 120 157 50 94 66 74 118 92 163 147 136 120 154 177 193 87 104 41 162 50 138 45 75 97 61 82 98 108 137 160 95 105 92 123 105 139 133 166 156 154 125 107 86 114 170 85 121 88 163 85 191 233 157 119 113 141 71 98 122 96 79 67 207 167 103 105 100 124 138 62 112 99 129 42 107 39 166 70 120 172 165 112 119 59 142 118 97 102 162 109 80 129 33 74 122 72 158 169 170 101 54 141 130 42 151 101 65 170 281 63 97 114 137 61 102 145 63 87 169 155 75 84 79 131 102 22 123 88 27 183 184 148 163 194 182 123 229 198 172 97 128 81 131 115 101 24 174 113 196 106 87 135 88 133 107 86 29 85 119 101 103 135 101 131 153 80 78 59 130 123 98 37 122 104 70 96 77 157 175 93 85 126 53 187 97 162 155 85 61 116 133 160 103 134 62 74 122 97 95 110 116 118 109 98 87 86 116 80 133 118 115 121 122 139 162 93 148 116 89 149 137 103 190 112 17 72 120 106 117 101 140 75 50 122 69 105 142 74 111 118 154 150 165 65 100 107 83 129 91 48 102 95 88 143 72 35 142 64 81 50 131 196 93 56 91 44 126 48 82 94 155 129 101 71 169 166 149 107 162 96 110 138 139 118 110 63 144 115 122 110 140 87 104 76 69 107 114 103 90 104 83 47 94 109 92 144 116 90 74 183 168 118 73 116 155 119 87 142 137 93 164 151 182 139 158 203 61 112 75 64 87 23 140 86 84 112 157 64 153 177 65 160 99 224 111 149 113 74 72 89 131 74 32 73 125 113 115 64 153 122 142 161 136 139 149 143 98 89 53 197 87 147 80 145 133 104 97 116 83 84 68 40 31 96 25 115 104 60 131 105 120 52 78 154 77 165 58 182 86 119 118 96 241 93 67 135 111 85 151 46 97 97 180 85 131 154 22 97 97 65 141 106 126 86 72 92 51 103 93 111 244 150 138 137 99 129 129 104 116 157 159 201 140 143 134 77 166 146 155 120 47 103 213 154 72 85 116 124 111 89 91 126 48 142 192 164 140 152 92 109 165 146 135 74 182 190 149 80 62 67 124 77 87 79 107 182 72 209 204 197 46 170 85 120 120 121 97 78 135 58 77 172 131 134 117 116 125 124 128 84 183 86 105 167 157 135 108 124 135 125 130 182 58 167 113 155 114 150 77 58 140 133 122 144 101 94 69 185 106 93 127 85 72 110 144 166 105 130 96 158 160 144 177 185 102 230 80 92 67 140 146 193 123 93 74 162 135 89 155 146 153 143 106 127 104 30 67 124 110 98 72 137 225 96 45 211 119 36 119 68 39 129 138 76 148 31 105 185 128 84 104 24 109 107 56 64 99 59 174 156 87 85 106 44 152 150 120 104 88 169 113 59 93 89 47 172 182 109 116 68 132 189 206 154 64 74 81 54 129 118 104 109 117 178 77 98 83 151 93 127 153 88 121 136 33 58 107 104 111 102 196 135 118 83 58 135 129 91 106 85 99 128 61 224 127 68 189 88 111 78 191 154 93 137 69 99 127 50 70 127 181 63 112 140 188 119 117 59 108 118 82 167 105 47 120 151 112 96 59 109 104 90 91 119 167 77 85 43 166 147 118 121 155 174 135 95 85 104 75 109 107 71 128 81 43 150 97 113 142 132 117 89 123 115 58 92 162 105 106 155 146 173 142 72 122 166 52 143 111 96 56 147 117 96 176 48 162 74 47 128 110 116 138 71 57 100 27 189 100 142 135 115 112 172 186 130 176 207 143 100 109 137 77 78 111 113 139 175 138 171 216 118 134 182 99 140 40 130 103 113 118 89 123 165 141 85 104 43 78 189 97 134 84 80 102 53 111 128 126 116 116 173 110 138 98 66 96 160 154 152 178 86 81 110 143 105 125 68 35 25 98 91 124 145 136 187 148 136 125 122 119 114 170 93 103 119 102 84 85 150 121 94 159 103 195 111 37 126 136 136 84 96 40 46 132 167 161 50 80 166 73 48 42 88 128 76 45 154 125 122 119 98 142 188 114 134 129 119 133 90 103 145 153 163 115 93 127 129 116 178 73 43 102 97 135 175 135 156 107 178 183 158 143 73 113 146 115 129 150 122 193 155 97 164 76 86 128 74 103 113 66 109 130 182 158 164 219 99 141 88 120 70 167 108 190 101 106 87 88 112 65 117 92 90 80 75 120 108 176 90 175 121 150 82 76 98 66 167 158 126 110 93 113 164 33 89 116 63 166 149 155 81 79 106 80 100 84 70 123 109 62 83 145 231 110 67 92 56 199 60 114 100 168 149 116 145 112 113 100 110 210 177 54 78 79 75 15 164 195 134 172 108 176 118 49 173 89 95 101 115 174 115 131 87 118 135 127 75 88 114 136 78 57 70 187 71 121 194 42 80 44 105 106 157 85 118 69 80 78 162 96 80 217 117 89 148 103 174 132 177 131 185 124 48 215 146 73 36 130 114 114 105 142 157 129 51 136 72 120 79 126 186 65 143 71 83 145 54 169 176 132 112 79 66 83 102 86 115 111 98 132 93 114 72 152 121 119 63 118 119 112 96 75 42 182 75 156 105 38 58 121 83 115 180 161 138 177 129 123 153 154 142 151 113 59 87 171 140 115 179 50 135 159 65 152 96 157 153 78 140 135 73 127 122 91 117 92 149 107 95 182 48 135 155 55 112 68 62 38 103 155 88 113 144 174 123 108 92 184 76 151 95 201 144 151 199 103 64 110 132 100 96 77 140 80 146 117 129 62 59 162 30 147 116 132 114 144 102 54 123 133 87 144 50 123 88 100 89 103 102 113 199 110 102 68 114 131 106 46 140 190 135 123 51 124 130 130 156 51 98 102 113 130 124 81 111 136 119 78 162 121 90 190 120 21 162 67 127 142 132 153 56 198 53 114 128 95 112 112 148 187 150 85 124 116 101 39 97 90 131 149 98 94 149 22 82 86 93 79 106 146 139 104 188 121 117 52 131 84 133 106 90 130 191 164 121 92 40 23 114 124 115 70 61 84 70 80 94 159 132 98 136 45 93 233 105 156 87 67 164 90 158 33 97 144 84 117 167 104 55 128 70 45 71 173 189 87 102 113 171 106 54 142 146 40 151 111 94 142 142 102 128 111 141 136 135 116 108 40 143 132 79 51 169 177 138 148 92 222 108 129 80 84 119 77 129 106 90 43 124 138 57 158 190 86 165 181 149 85 51 79 114 92 49 68 146 160 107 113 80 147 109 111 56 98 118 122 64 103 123 131 135 97 76 137 40 130 86 89 202 171 109 54 108 77 152 157 156 129 72 94 253 134 119 117 82 120 150 63 73 125 174 71 39 98 54 124 151 31 69 96 96 161 140 127 115 130 138 33 150 70 129 25 116 74 117 118 71 90 136 81 43 72 51 132 69 116 131 56 111 84 179 111 153 103 71 84 154 32 86 75 83 114 111 146 146 164 15 132 107 155 121 113 151 163 234 117 162 104 124 185 195 48 83 141 118 118 173 85 251 138 117 160 116 192 87 84 76 79 160 131 179 136 177 152 196 63 150 86 98 60 104 125 142 209 109 205 151 183 44 96 48 158 92 57 154 185 94 38 149 103 144 152 119 132 87 106 78 125 106 134 91 135 141 127 101 58 139 88 30 139 194 99 87 101 102 159 188 81 133 50 84 74 107 76 104 183 126 208 89 119 110 72 116 130 125 85 108 110 109 76 76 132 95 95 121 150 149 121 174 130 120 192 114 172 45 174 117 78 196 126 147 115 107 94 122 141 148 18 77 140 47 89 142 80 57 165 148 114 162 159 46 120 163 142 131 33 105 106 113 192 83 59 120 127 123 119 185 113 113 111 85 73 153 82 131 99 106 58 106 160 183 36 126 109 130 103 149 84 109 38 228 76 131 81 199 165 143 110 99 120 120 96 129 50 73 145 123 37 100 121 119 182 93 91 134 97 136 101 95 177 84 128 92 165 83 90 75 120 100 102 108 198 116 114 134 168 137 101 144 120 170 112 57 224 172 122 131 126 129 170 107 122 229 92 36 120 108 134 83 107 80 198 109 73 137 90 87 90 101 116 64 114 85 114 98 73 119 90 22 76 100 119 105 154 131 166 127 60 111 104 109 49 64 114 71 89 93 156 74 53 78 69 110 167 80 140 111 192 215 138 79 58 121 135 62 128 99 73 90 88 39 143 114 155 73 134 78 77 191 148 121 27 134 75 27 141 60 84 109 133 159 143 29 74 81 279 14 191 55 50 37 140 139 175 171 96 129 126 80 78 106 76 112 70 85 90 93 34 108 99 148 107 99 24 112 89 108 57 92 129 104 56 181 75 33 124 52 139 85 66 54 61 143 172 93 120 61 138 142 93 185 75 66 147 76 83 148 111 133 176 125 138 133 134 206 213 53 102 64 104 141 90 136 117 63 127 106 129 53 123 152 28 83 178 56 85 126 177 112 160 64 150 76 211 80 95 88 205 118 91 105 49 124 113 56 95 129 107 127 60 127 117 47 128 110 125 93 177 95 83 178 90 192 165 72 56 133 44 68 147 132 107 91 70 110 110 20 109 123 115 72 136 64 88 128 171 58 106 137 92 75 134 149 102 60 176 194 136 91 90 174 128 115 102 46 130 81 171 132 124 113 100 107 101 46 103 25 84 117 96 227 76 239 145 141 84 34 190 147 129 151 148 141 172 151 58 61 213 144 112 98 127 195 118 84 101 134 114 107 28 59 144 112 117 86 128 93 163 78 117 124 164 130 171 104 107 65 81 64 159 117 151 184 95 49 71 105 170 142 142 68 111 102 174 99 83 131 142 140 125 100 77 135 140 188 202 145 99 117 105 159 145 90 128 153 154 44 90 104 118 182 63 33 134 133 40 123 69 202 84 119 97 105 118 143 99 93 96 151 53 53 132 105 72 108 115 162 68 162 140 167 106 142 49 93 167 135 81 108 122 103 159 113 104 53 80 202 114 115 130 91 157 83 129 210 130 127 140 106 138 41 219 104 81 128 94 64 104 108 195 93 97 144 135 151 50 107 98 137 78 76 124 43 80 99 38 69 126 48 82 196 94 117 94 134 95 187 125 116 118 109 107 54 108 89 121 166 103 98 176 92 100 78 43 92 121 125 95 109 95 152 69 183 55 242 113 93 221 181 128 95 162 92 175 119 153 189 83 122 110 209 83 130 135 89 102 154 120 110 183 120 146 132 161 177 147 120 92 55 187 220 139 96 159 130 89 45 105 120 118 98 132 157 162 96 203 102 42 42 77 89 156 110 104 78 143 60 90 60 97 87 133 77 144 137 86 150 106 109 81 123 69 175 141 58 56 118 152 85 184 145 182 128 133 145 187 114 62 161 88 56 79 103 100 94 69 148 157 226 49 128 134 105 117 99 82 160 73 35 54 218 148 150 94 158 94 66 167 121 81 101 151 93 64 65 126 74 128 105 206 91 118 154 120 86 123 165 171 134 142 172 139 131 96 151 74 89 195 165 85 110 96 95 100 51 199 95 96 85 151 109 52 127 94 127 106 131 156 107 92 178 164 113 112 89 110 68 171 96 139 117 122 85 171 186 163 166 143 163 175 149 51 161 65 72 144 154 180 32 128 60 73 130 144 28 86 24 91 159 94 95 72 131 73 82 159 83 145 72 93 159 124 101 161 33 102 166 146 131 122 106 90 128 40 172 101 46 95 68 201 145 72 102 104 115 118 66 179 152 103 149 184 50 153 136 131 121 147 129 136 110 94 82 13 176 120 135 68 182 134 115 158 151 128 115 95 82 105 109 112 148 165 91 136 98 169 124 111 119 64 118 84 106 80 171 108 69 113 114 125 128 188 133 142 128 180 107 104 59 168 119 73 165 101 116 99 85 76 142 138 115 210 139 114 49 110 161 93 141 132 88 125 115 113 68 128 71 131 41 186 148 135 37 122 143 113 137 126 147 90 113 103 98 71 166 126 63 114 121 143 71 194 142 74 121 132 93 92 86 227 36 109 199 47 118 182 133 123 120 121 138 85 128 102 81 106 132 111 94 77 169 125 88 58 167 105 112 132 127 76 138 125 155 112 100 141 160 121 40 96 30 135 116 84 95 95 97 142 148 112 80 213 105 59 91 128 161 80 98 75 119 155 87 156 185 71 129 199 101 117 110 41 142 193 64 76 212 98 141 145 248 119 123 165 139 87 87 123 125 76 123 96 125 67 96 111 149 76 123 60 77 134 102 116 109 63 93 122 195 165 144 94 184 119 91 127 76 145 85 41 79 75 188 114 117 34 141 54 113 109 68 102 171 110 82 99 104 84 76 77 135 125 138 111 50 122 162 182 15 100 108 101 67 138 52 241 139 137 156 46 67 60 79 69 103 102 117 70 111 102 114 99 101 166 111 122 134 193 143 105 76 88 175 60 111 127 208 130 79 99 154 146 86 93 114 55 152 161 95 103 163 99 86 97 139 191 166 112 78 100 162 95 175 101 195 169 173 95 122 283 32 224 80 38 82 105 72 152 97 114 41 56 163 80 102 171 54 68 38 123 166 144 98 120 197 127 105 244 191 73 134 168 89 151 105 59 53 50 117 175 74 109 130 175 105 119 125 89 216 111 97 81 151 67 170 203 100 75 82 191 67 119 99 76 110 118 163 107 39 175 133 129 144 118 53 185 79 183 82 125 73 60 96 104 89 129 118 93 115 66 133 49 102 85 106 89 24 64 141 126 48 107 209 74 68 177 95 126 110 169 203 71 141 182 177 76 116 126 125 124 175 167 158 86 133 58 104 110 154 51 104 115 148 112 77 160 113 152 129 83 129 79 128 169 131 101 152 134 140 114 43 208 151 109 114 83 99 165 93 59 134 150 77 124 170 111 209 142 108 121 86 64 131 106 113 87 43 72 129 98 82 129 96 110 118 140 51 49 57 104 98 135 84 124 98 97 105 64 221 99 90 67 86 140 72 101 98 150 150 92 123 116 129 156 51 127 107 109 147 115 125 104 60 170 156 119 101 82 117 165 129 175 114 161 98 167 114 121 54 129 143 145 122 108 134 108 99 124 88 69 83 117 146 160 174 127 98 182 72 120 165 60 92 23 103 107 173 114 165 138 154 35 133 100 91 129 143 104 61 130 110 55 84 149 69 113 154 105 116 57 55 52 103 114 168 98 122 135 156 105 89 45 124 161 98 174 147 95 172 189 145 115 52 37 66 134 130 119 19 141 110 172 57 114 100 92 163 136 117 74 62 116 86 84 129 104 95 124 87 59 209 160 158 138 93 40 118 156 137 166 103 73 91 59 133 97 47 143 152 56 139 57 125 114 165 111 143 175 79 28 126 201 64 211 55 159 181 124 138 128 120 112 121 233 96 106 35 96 108 93 119 135 247 190 135 98 124 89 124 99 139 125 165 120 152 75 118 197 125 184 122 66 191 65 86 212 159 178 103 103 78 140 101 116 113 192 86 185 153 153 127 103 94 60 140 138 49 89 188 174 125 143 137 77 120 103 137 108 107 138 81 83 84 71 182 120 139 47 93 71 99 128 79 132 117 91 218 88 119 124 100 88 83 110 85 73 122 189 71 38 158 96 60 38 156 110 79 121 104 213 46 165 122 70 102 89 128 85 76 162 92 86 91 160 183 82 102 123 73 93 154 149 74 97 157 149 81 120 109 144 130 87 166 139 142 134 175 103 152 139 111 136 113 97 82 87 65 135 87 116 66 52 145 89 90 135 79 77 88 69 130 149 234 139 105 86 42 56 37 211 160 216 193 162 98 89 163 55 95 162 53 131 89 112 91 172 265 101 167 77 110 118 105 123 88 119 143 127 108 114 128 129 187 53 93 118 43 118 79 114 69 150 111 81 156 143 112 74 150 108 123 72 81 73 101 180 250 72 57 128 82 83 72 122 86 135 109 34 60 141 96 142 139 90 131 138 113 61 144 185 108 136 108 146 107 133 151 115 130 79 205 59 160 83 46 153 60 165 104 110 73 104 172 53 156 102 54 157 67 171 125 126 116 123 124 56 29 97 51 156 88 30 122 89 81 158 81 123 142 96 192 153 169 91 103 91 152 70 129 109 168 127 114 96 126 82 133 85 117 82 158 72 116 163 100 60 143 86 57 58 158 72 197 98 95 137 129 157 111 78 143 154 63 87 140 61 176 197 147 55 160 100 78 128 153 121 98 45 37 87 143 132 58 87 45 99 113 129 88 112 112 74 133 61 127 164 114 158 104 96 90 140 139 105 75 105 106 132 159 158 95 105 170 129 196 43 157 134 119 153 83 102 170 96 105 75 122 87 81 71 96 76 127 132 149 140 47 69 124 184 83 181 84 115 179 93 193 97 66 123 189 108 152 148 68 68 66 43 163 96 121 133 168 89 214 146 106 170 88 91 140 144 97 98 107 110 98 134 139 94 94 85 79 160 134 99 125 92 144 106 77 129 144 78 145 125 128 71 35 83 87 99 108 105 135 16 130 91 182 80 152 60 138 50 76 133 97 111 192 94 179 127 84 94 169 58 138 128 81 64 108 126 119 45 109 133 128 31 37 67 118 191 88 168 96 141 164 108 57 117 89 100 135 59 135 90 182 45 172 138 143 75 77 73 74 137 142 122 60 132 130 67 98 217 124 204 127 171 68 117 130 118 122 105 166 92 125 190 141 82 138 159 66 223 179 138 70 178 102 55 141 135 115 173 131 91 120 85 143 138 </t>
+  </si>
+  <si>
+    <t>GAM(0.3547989134710087, -9.212233920944751e-29, 0.6271307791967309)</t>
+  </si>
+  <si>
+    <t>0 1 2 1 1 1 0 1 0 2 0 2 2 1 1 0 3 1 0 2 1 0 0 2 2 1 0 0 1 0 3 1 1 0 2 1 1 1 1 3 1 3 0 1 0 2 0 1 0 2 0 0 0 1 3 2 1 2 3 1 3 0 0 1 0 1 0 0 1 1 1 0 0 1 0 3 0 0 0 0 0 0 2 0 0 2 2 1 1 0 1 0 0 0 0 2 2 1 1 1 0 0 3 2 0 1 0 0 0 1 3 0 1 0 1 1 2 0 0 1 2 1 2 1 0 0 2 1 1 1 0 2 1 2 1 0 1 2 1 2 3 0 0 3 1 0 0 1 0 1 2 0 2 0 0 2 0 0 0 1 1 0 2 2 1 1 1 3 0 0 1 0 2 0 0 0 0 0 0 1 1 0 2 0 0 2 1 1 0 0 0 1 0 1 3 0 0 1 1 1 0 0 1 0 3 0 1 1 1 2 1 0 0 0 2 1 0 1 0 0 0 1 0 0 1 0 1 0 0 1 1 0 1 1 2 0 0 0 0 0 1 0 0 2 1 1 2 1 3 0 0 0 1 1 2 0 0 1 2 1 1 1 0 0 1 0 1 2 1 0 1 1 0 0 0 2 0 1 0 1 0 1 0 0 1 1 0 2 1 1 1 1 0 1 2 3 1 1 0 2 0 2 0 0 2 0 1 0 1 0 1 0 2 0 2 2 1 1 0 0 0 0 0 0 0 2 1 0 0 1 1 0 1 2 1 2 3 3 1 0 1 0 0 0 3 3 0 0 2 1 0 2 3 0 0 2 2 0 1 0 0 0 2 1 2 2 0 0 1 2 2 0 0 1 0 0 0 1 0 0 1 0 0 0 1 2 0 0 0 1 3 0 1 1 0 0 3 2 1 0 0 0 2 1 0 2 0 2 2 1 0 2 1 0 1 1 3 1 1 1 2 2 1 1 1 1 2 1 1 0 0 1 0 1 0 0 2 0 0 1 2 0 1 0 0 0 1 2 1 1 1 2 2 0 1 0 2 1 0 3 1 0 0 2 1 1 0 2 1 0 1 0 1 0 2 0 1 0 0 1 0 0 2 1 0 1 3 1 1 0 0 1 1 0 0 1 0 1 1 1 0 0 1 0 1 2 2 0 0 1 0 0 1 1 0 0 0 3 2 0 0 0 1 2 1 0 0 1 0 0 1 0 0 0 1 2 0 0 0 0 1 0 1 2 3 1 2 0 1 1 3 1 1 2 1 1 0 1 1 0 1 0 1 0 1 0 0 1 0 0 2 1 1 0 0 1 1 1 0 2 1 0 0 0 3 0 1 1 0 2 1 0 1 1 1 1 0 2 1 0 0 0 1 1 1 0 0 0 0 1 0 1 0 2 1 0 0 0 2 1 0 2 0 1 0 0 1 2 2 0 3 1 0 2 0 1 1 0 2 0 1 0 2 1 0 0 1 1 1 1 0 1 0 0 1 1 2 1 0 0 1 1 2 1 2 2 1 0 0 1 0 0 1 0 0 0 0 2 0 0 0 1 1 1 1 0 1 1 0 1 1 1 1 0 1 1 1 1 1 1 1 0 0 1 2 0 0 0 0 0 1 0 1 0 1 0 2 1 0 2 0 0 0 0 1 1 0 0 2 0 0 2 0 1 1 1 1 1 1 2 1 2 2 1 1 3 2 1 0 0 1 0 1 2 2 1 0 0 1 1 0 1 0 1 0 0 0 1 1 0 0 1 3 3 0 0 1 0 0 0 0 0 0 1 1 1 0 2 2 2 2 1 2 1 0 1 0 1 1 0 0 0 0 1 1 1 0 1 0 0 0 0 1 1 0 0 1 1 2 1 1 0 1 0 0 2 0 0 2 2 0 2 0 1 1 3 0 0 1 0 1 1 1 0 1 1 0 0 2 1 1 1 1 0 3 2 1 1 0 1 0 2 1 1 3 0 2 0 1 1 0 2 0 1 0 0 0 1 1 0 3 0 1 1 2 0 1 2 0 1 0 0 3 1 0 0 1 1 1 0 1 0 1 0 0 2 0 4 2 0 2 0 1 2 1 0 0 2 2 2 1 0 2 0 1 0 0 3 1 1 1 0 0 1 0 2 0 0 1 2 0 2 2 1 0 0 1 2 0 1 0 0 0 2 1 0 0 1 2 0 0 2 2 0 1 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 2 0 1 0 0 0 1 1 0 1 1 1 2 0 1 2 1 3 0 0 0 0 1 2 0 2 1 1 1 3 2 1 0 0 1 1 2 0 1 1 2 0 1 2 0 1 1 1 0 0 0 0 1 0 0 1 0 0 1 0 0 1 1 0 1 0 2 1 0 0 0 1 2 0 1 1 1 1 0 2 0 0 1 1 1 2 1 2 0 1 1 0 1 0 1 1 1 0 0 0 1 2 0 0 1 1 2 0 2 1 1 0 0 0 1 0 0 2 1 0 1 2 0 1 1 0 0 1 1 1 0 0 3 1 2 1 0 0 0 2 0 3 0 1 0 0 2 2 2 0 0 1 1 0 0 2 0 0 1 1 1 1 1 1 1 1 2 0 2 2 0 0 2 0 0 0 1 0 0 0 1 1 0 1 0 0 1 2 1 1 0 0 1 2 0 2 0 1 1 1 0 1 0 1 0 1 1 0 2 1 1 0 1 2 0 2 0 0 0 2 0 0 0 1 2 2 0 0 1 2 1 1 1 0 0 0 0 0 2 0 0 1 1 1 1 1 0 1 0 1 1 1 2 0 2 1 1 1 0 0 0 1 1 0 0 2 0 1 1 1 0 0 0 1 1 1 0 1 0 3 0 0 1 1 0 1 0 1 1 0 1 1 0 1 0 1 0 1 0 1 0 1 0 1 0 1 0 0 0 0 1 0 0 1 1 1 0 2 2 1 0 1 0 0 1 1 1 0 1 0 0 1 0 1 1 2 1 1 0 1 0 0 0 0 0 2 1 2 1 0 1 0 0 1 2 0 1 0 1 1 1 0 0 1 2 0 2 1 0 0 1 2 0 0 1 0 1 3 1 0 0 0 0 0 1 1 0 3 1 0 3 2 1 1 3 0 2 0 1 1 1 1 0 2 0 3 1 1 0 2 3 0 0 0 3 1 1 0 0 1 1 0 0 0 0 0 0 1 0 1 3 0 2 1 2 1 0 1 1 3 1 2 0 3 2 0 1 1 0 1 0 0 2 0 1 1 1 3 0 0 1 0 3 0 1 1 0 1 1 0 0 1 1 0 1 0 2 0 1 1 1 3 0 1 1 0 0 0 0 0 1 0 0 2 1 3 2 0 0 3 0 1 1 3 2 0 2 1 2 0 0 1 1 1 0 0 1 1 2 1 1 0 3 0 2 1 1 0 2 1 1 0 0 1 1 1 1 1 1 0 2 1 1 1 0 0 1 3 1 0 1 2 0 0 1 0 1 3 2 1 0 0 0 1 0 1 0 1 1 0 0 3 0 0 1 2 2 1 0 2 1 1 0 0 0 1 0 1 5 1 1 2 2 0 0 2 2 1 0 0 0 2 1 1 1 0 1 1 2 3 1 2 0 0 0 0 2 2 1 2 0 0 2 0 3 0 0 0 0 0 1 1 2 0 1 0 3 1 1 1 2 0 0 2 0 2 0 2 0 0 0 2 2 0 0 2 1 1 1 0 3 2 0 3 1 0 0 1 2 0 1 3 1 2 0 1 2 1 1 1 0 0 1 0 0 0 2 1 0 0 0 0 1 1 1 1 1 0 0 2 0 2 2 1 2 0 0 0 0 2 0 0 1 0 0 1 1 0 1 3 0 0 0 3 2 0 1 0 2 0 0 0 2 2 1 2 0 0 2 0 1 1 1 2 0 0 0 1 2 1 0 1 0 1 1 2 1 1 1 2 0 0 1 2 0 1 1 0 0 0 1 2 0 1 1 2 0 1 1 0 1 1 1 1 0 1 0 2 2 0 0 0 2 1 1 0 0 3 1 0 0 2 4 1 0 0 1 0 2 2 0 0 1 0 1 2 1 1 1 0 0 0 1 0 0 1 1 1 1 1 1 0 0 1 0 1 3 1 1 1 2 1 0 1 2 2 0 1 1 0 2 2 2 1 2 0 0 0 0 1 0 0 0 0 1 0 1 1 0 0 1 0 1 1 0 0 1 1 0 1 1 2 0 0 1 0 1 0 0 0 1 2 1 3 2 0 0 1 0 0 0 1 1 0 3 0 2 1 0 1 0 0 2 1 1 2 0 0 3 2 1 1 1 0 1 1 2 0 1 0 3 2 1 0 1 0 0 2 3 2 0 1 0 1 0 0 2 0 0 1 0 1 0 2 1 2 1 2 1 0 3 0 0 0 0 1 1 1 2 1 1 1 1 2 2 1 0 1 0 1 3 2 0 2 1 2 0 0 4 1 0 0 0 2 0 2 0 1 2 0 0 1 1 1 1 1 3 1 1 3 0 2 1 1 0 2 0 1 0 0 0 2 1 1 1 0 0 1 0 0 0 0 1 1 1 0 1 1 0 0 0 1 1 0 0 1 1 0 1 0 0 0 0 1 1 0 0 1 1 2 3 0 2 2 0 0 0 1 0 1 1 2 1 1 1 1 0 0 0 1 1 1 1 1 2 1 2 2 1 2 2 0 0 2 0 1 1 0 0 1 1 1 1 2 2 1 0 0 1 0 0 2 0 0 1 0 0 2 1 0 0 0 1 1 1 0 1 1 0 1 2 0 2 2 2 1 0 1 2 2 0 2 0 2 1 2 1 0 2 1 1 1 2 0 0 1 3 0 0 0 2 0 1 1 0 0 0 1 0 0 1 0 0 1 1 0 0 0 0 1 1 0 1 1 0 0 0 0 1 1 1 1 1 1 1 2 2 1 0 1 2 0 1 1 1 1 2 1 0 1 0 0 0 0 1 0 1 3 2 0 0 2 1 0 1 0 1 0 1 1 1 1 1 1 1 0 0 0 0 1 0 1 1 1 2 0 1 1 0 0 0 1 0 1 1 1 1 2 2 0 1 1 1 2 1 2 2 3 0 0 1 0 0 0 0 0 0 3 1 0 2 1 0 0 0 1 0 0 4 1 1 0 0 0 1 1 3 0 2 2 1 0 1 0 1 3 0 1 3 1 0 0 0 1 1 0 0 0 0 2 0 1 0 1 1 2 3 0 1 1 0 0 0 1 1 2 0 2 2 1 2 2 2 1 2 1 0 2 1 0 1 0 1 1 0 0 1 0 1 0 0 1 0 3 1 0 2 1 0 0 0 1 1 0 1 0 2 0 0 0 1 1 3 1 2 1 0 2 0 0 0 2 0 2 1 1 0 0 0 3 0 2 0 2 0 0 2 1 0 0 0 2 0 0 0 2 1 1 0 1 1 1 1 1 0 0 1 0 0 0 2 0 0 1 3 1 1 3 2 1 1 0 0 1 0 0 3 0 0 2 2 1 0 0 1 2 2 2 0 2 1 1 1 2 1 1 1 1 0 0 1 2 1 0 0 0 1 1 1 0 1 1 0 1 1 0 1 0 0 1 0 1 1 1 1 0 1 2 0 2 1 1 0 0 1 1 1 0 0 2 0 0 1 0 1 0 2 1 0 2 1 1 0 1 0 0 0 2 0 0 1 0 0 0 1 0 1 1 0 1 0 1 0 1 0 1 3 1 0 2 1 3 1 0 1 0 0 1 2 0 0 1 1 2 2 1 2 1 1 3 2 1 1 0 0 0 3 0 0 0 0 1 2 1 1 0 0 1 0 0 1 1 0 1 1 1 1 0 0 0 0 0 1 2 1 1 0 1 0 0 0 2 0 0 0 2 0 1 2 1 2 0 0 1 0 0 0 0 0 2 0 0 2 0 0 0 0 0 0 1 0 1 0 0 0 0 1 2 0 0 2 0 0 0 0 1 2 2 3 0 0 2 0 0 2 2 1 0 2 1 0 2 0 0 0 0 2 1 0 0 2 0 1 0 1 0 1 2 1 0 0 1 1 0 1 0 1 1 0 1 0 2 1 0 0 1 3 2 1 0 2 0 0 0 2 0 1 2 1 0 1 2 0 0 1 1 0 2 1 0 1 1 2 1 0 0 1 0 0 1 1 0 1 0 0 2 1 3 1 1 2 1 2 0 0 2 0 0 0 1 0 3 0 0 0 1 0 0 0 0 1 2 0 2 2 1 2 2 1 1 0 1 0 1 2 2 1 2 1 1 0 2 0 0 1 1 1 0 2 0 1 0 5 1 4 1 1 2 0 0 0 0 0 1 0 1 1 1 2 0 1 0 0 4 0 0 2 2 0 0 3 0 0 1 1 1 0 0 1 0 0 2 2 1 1 1 1 1 1 0 1 0 1 1 1 2 0 0 2 1 0 1 2 0 1 0 1 1 0 0 0 1 2 0 2 0 3 0 2 1 0 1 0 0 1 1 0 2 0 2 2 0 0 0 1 0 1 1 1 1 0 1 2 2 0 2 1 1 0 0 1 3 1 1 3 0 2 0 2 2 0 1 3 0 0 1 1 1 1 1 1 1 0 1 1 1 1 0 0 0 1 1 0 1 0 0 0 0 1 0 0 1 1 1 3 1 0 0 2 0 1 1 1 1 1 0 1 0 2 1 1 0 1 1 1 0 0 4 1 2 0 1 0 1 1 1 1 0 1 0 0 2 0 0 0 0 0 0 1 0 0 0 0 2 0 1 2 2 0 2 1 0 0 1 0 4 0 2 1 0 1 0 2 1 2 1 2 1 0 0 0 2 0 0 1 1 1 1 0 1 1 0 0 0 1 1 0 2 2 0 1 0 0 1 0 0 0 0 0 1 0 1 1 0 2 0 0 0 0 0 1 2 1 1 1 0 1 1 2 1 1 1 0 2 2 1 2 0 2 2 2 1 1 0 0 2 2 2 0 1 1 1 1 2 0 2 1 1 0 1 0 1 1 0 1 1 1 1 2 2 2 0 2 0 1 0 0 1 1 1 1 2 0 2 3 1 1 0 2 2 0 1 1 0 0 1 0 1 2 2 1 0 0 1 1 1 1 1 1 0 0 2 1 1 1 2 0 1 2 2 0 2 1 2 2 4 3 3 1 1 0 0 1 0 2 0 3 0 2 1 0 1 1 2 0 0 1 1 2 1 2 2 0 0 1 0 0 0 0 2 0 0 0 1 1 1 0 0 0 1 0 1 0 0 1 0 0 1 2 0 0 2 0 0 1 0 0 2 0 1 0 0 1 0 1 2 0 1 1 0 1 1 1 1 0 0 0 1 1 1 0 0 0 0 0 0 0 1 0 1 1 0 3 0 0 0 1 0 0 1 2 0 2 0 3 0 0 0 1 1 1 0 2 2 2 1 0 1 1 0 0 2 0 0 2 2 2 2 2 3 0 1 0 1 0 1 0 0 4 0 1 0 0 1 3 0 0 0 1 1 1 2 1 0 0 1 1 1 0 0 1 0 2 0 0 1 1 0 0 1 0 2 0 1 0 1 3 1 2 0 0 1 1 1 0 0 1 0 2 0 0 0 1 1 0 1 1 0 1 1 2 1 0 3 0 1 1 1 3 2 0 1 3 1 1 2 0 0 1 0 0 1 0 2 1 1 0 1 0 0 2 0 1 1 0 1 0 2 1 3 2 0 1 0 3 1 0 0 0 0 1 1 0 0 1 0 0 0 0 1 1 0 1 1 2 1 0 0 0 1 0 0 0 0 0 0 1 0 1 2 1 0 1 2 0 0 0 1 1 2 2 0 4 1 1 1 0 0 0 1 0 0 0 1 0 2 1 1 2 1 0 1 1 0 2 0 0 1 1 0 0 3 1 1 0 0 0 1 1 0 1 2 2 0 0 1 2 0 1 1 0 1 0 0 1 0 1 1 0 1 1 0 0 0 1 2 0 0 0 1 2 1 2 2 0 2 1 3 2 1 1 1 1 1 0 1 0 1 1 0 0 0 0 2 0 1 0 0 1 0 1 0 0 1 1 0 1 0 0 0 1 1 0 1 1 1 0 0 4 2 0 1 0 0 0 1 0 0 0 1 0 0 2 1 0 1 0 1 1 3 1 1 0 0 0 2 3 2 0 0 0 1 4 0 1 2 1 0 0 0 1 0 1 0 1 1 2 0 3 1 1 0 0 1 1 2 1 1 2 0 1 0 0 1 1 0 0 3 0 2 2 0 0 0 1 0 0 2 0 0 0 0 1 0 0 0 1 1 0 0 0 1 0 0 1 0 0 1 2 1 0 1 1 1 0 1 1 0 0 1 1 0 3 2 1 0 0 2 0 1 2 2 1 0 1 0 1 0 4 0 1 1 0 0 1 1 2 1 0 0 1 1 0 0 0 0 3 1 1 0 0 0 2 3 0 2 1 1 2 1 0 0 0 1 2 0 0 2 1 1 0 0 0 0 0 1 2 1 0 1 1 2 2 3 0 1 3 1 1 1 1 2 2 0 1 1 1 2 0 1 1 1 1 0 0 0 1 2 0 2 1 5 1 0 1 0 0 2 0 1 2 0 1 2 0 0 1 1 0 2 0 1 0 1 0 1 2 0 0 0 2 2 1 0 1 0 0 1 0 0 3 2 1 1 1 1 0 0 2 0 0 0 2 0 1 1 0 0 1 0 0 0 1 1 1 1 1 1 2 0 1 2 1 1 1 1 0 1 0 0 4 1 1 0 0 3 0 1 1 1 2 1 2 2 0 2 1 1 0 2 0 1 0 0 0 0 1 1 0 2 1 1 1 1 0 1 0 0 0 1 1 1 1 0 0 2 0 1 1 1 2 1 2 1 0 1 0 0 0 0 0 2 1 1 1 0 0 0 0 2 1 2 0 1 1 0 1 1 0 0 0 1 0 1 1 0 1 1 1 1 2 0 0 1 1 1 1 2 0 2 1 0 0 2 1 1 2 5 0 0 0 3 2 2 0 3 1 0 2 1 0 1 2 2 1 0 1 0 4 0 1 0 3 1 2 1 1 0 2 2 1 2 2 0 1 2 0 1 1 0 0 2 1 1 0 0 2 0 0 0 0 1 1 2 2 1 3 0 0 0 0 2 0 1 1 0 0 0 0 0 0 2 1 2 0 0 2 0 0 0 0 2 0 1 2 3 1 2 0 0 1 1 0 0 1 1 3 1 2 2 3 1 0 0 0 2 2 0 0 0 2 1 3 0 1 0 0 0 2 2 1 2 0 0 1 2 0 2 1 0 0 1 0 1 0 1 0 0 0 1 0 0 1 0 0 0 1 0 0 1 3 1 0 0 1 1 0 1 0 3 2 2 1 0 1 1 0 1 2 0 0 1 1 1 2 1 0 1 0 2 0 0 1 1 0 2 0 0 1 0 1 0 0 0 0 1 2 1 1 0 0 4 3 1 1 4 3 0 0 5 0 0 0 0 1 0 0 1 1 1 1 0 0 1 0 1 3 0 2 1 1 0 0 1 1 4 1 1 2 1 1 1 3 2 1 1 2 0 0 0 1 0 1 2 0 0 0 0 0 0 0 1 1 2 0 1 0 1 0 0 0 0 2 1 1 0 1 1 0 0 2 0 2 0 1 0 0 0 1 0 4 2 0 0 3 3 1 0 0 0 0 1 3 0 0 3 1 0 0 1 0 0 0 1 1 1 0 0 0 1 4 1 0 2 0 2 1 2 0 1 0 1 1 2 0 0 0 1 0 1 0 0 0 2 1 1 2 1 0 0 0 1 0 0 1 1 1 1 1 0 0 2 2 0 0 0 0 3 0 1 0 0 2 1 2 0 1 0 2 0 1 1 0 0 0 1 1 1 1 0 1 2 0 2 0 1 2 3 0 1 1 2 0 0 0 1 2 0 2 1 1 2 1 2 1 0 0 2 0 1 0 0 1 0 3 0 1 0 2 3 1 1 0 1 1 0 2 1 1 2 0 1 0 0 2 0 1 1 1 1 1 2 1 0 0 0 1 1 2 1 1 1 1 1 0 1 2 0 1 1 2 2 2 2 1 1 2 2 1 1 3 0 1 1 0 0 0 1 0 1 1 0 2 0 1 2 1 1 4 0 0 0 2 0 0 0 1 1 0 0 2 0 1 0 0 0 0 0 0 1 1 1 0 1 0 1 2 1 1 2 0 1 0 0 1 0 0 2 2 0 0 0 0 0 3 1 1 0 1 0 0 1 1 1 0 0 0 1 2 0 2 0 1 0 2 0 0 1 0 1 0 1 3 0 0 3 2 0 1 0 1 0 0 2 1 0 3 2 0 2 1 0 2 2 0 2 0 0 1 0 0 1 1 1 1 0 1 1 0 2 2 3 0 1 0 0 1 1 2 0 0 0 0 0 1 2 0 0 1 0 1 0 0 0 1 2 2 1 2 1 3 0 0 0 0 0 0 0 3 2 1 2 0 1 1 0 0 0 1 0 0 0 3 0 0 1 1 1 0 0 2 1 0 0 0 0 1 0 0 1 0 1 1 0 1 0 2 0 1 1 0 0 1 0 2 0 1 0 0 0 1 0 1 1 2 0 0 0 1 0 1 0 2 0 0 1 1 1 1 2 0 1 1 1 1 1 2 0 2 2 1 1 1 2 0 2 1 0 1 3 1 2 0 0 0 0 2 0 0 2 2 1 2 3 1 1 0 0 1 2 1 1 1 1 1 0 2 0 0 2 1 0 1 1 2 1 0 3 1 2 2 0 0 1 1 0 1 1 2 0 1 0 0 2 0 2 2 0 0 2 1 0 1 0 1 1 0 1 0 1 1 1 1 1 0 0 1 1 1 1 0 1 0 1 0 1 1 0 0 2 0 1 2 0 0 0 1 0 1 1 1 0 2 1 0 0 1 1 1 0 1 1 1 0 1 1 0 2 1 0 0 0 0 1 1 0 0 0 0 0 1 1 2 2 0 1 0 1 0 0 0 0 1 0 2 1 0 1 1 1 2 1 1 1 0 2 3 2 0 0 0 0 0 3 1 0 0 1 1 1 1 1 1 3 1 0 0 0 0 0 1 1 0 0 0 1 2 3 0 0 0 4 3 0 0 2 1 1 0 3 0 1 0 2 0 0 2 2 2 3 1 1 1 0 0 1 1 0 2 1 0 2 2 0 0 0 0 1 1 0 1 2 0 0 0 0 0 1 1 1 0 0 1 0 2 0 2 0 2 0 2 0 0 0 1 3 0 0 4 1 0 0 0 1 0 0 0 0 2 1 2 1 0 1 1 1 0 0 0 1 2 3 2 0 0 1 0 2 0 1 2 0 0 1 1 1 0 1 2 0 0 1 1 0 3 0 0 2 0 0 1 0 1 2 2 0 0 0 2 1 1 1 2 1 2 0 0 2 0 1 2 2 0 1 2 3 2 0 0 0 1 0 1 1 0 1 0 2 2 2 0 0 2 0 1 3 0 1 1 0 1 2 1 0 2 0 1 2 0 2 0 2 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 2 0 1 2 2 1 1 1 2 3 0 1 1 1 0 0 0 0 0 0 2 2 0 2 2 0 0 0 0 0 1 1 0 2 1 1 0 2 0 0 1 0 1 1 0 0 4 2 1 0 1 1 2 0 1 0 3 1 2 2 0 1 0 1 3 0 1 1 1 0 0 0 0 1 3 0 0 1 1 0 1 1 0 2 1 0 0 1 0 0 1 1 0 1 0 1 1 0 1 1 0 0 0 0 0 1 0 2 0 0 1 2 1 2 1 2 1 0 2 0 1 0 2 4 2 0 1 0 1 3 0 0 0 0 2 1 2 1 2 0 1 2 1 1 2 0 2 0 4 0 1 0 2 1 0 2 2 0 0 2 0 1 0 1 0 0 0 3 0 0 1 2 0 3 1 0 1 0 0 0 1 4 2 2 1 0 2 2 0 2 0 1 1 4 0 0 3 2 0 1 3 1 0 1 1 0 0 0 1 2 0 1 0 0 0 1 0 0 0 0 1 5 1 2 0 1 1 2 0 0 0 2 0 1 0 1 0 0 1 2 1 0 1 3 0 1 1 0 2 1 1 0 0 1 0 1 0 0 2 0 1 2 2 0 0 2 2 0 1 2 0 2 0 0 0 1 1 0 1 0 2 0 0 1 1 2 2 0 2 1 0 0 0 0 0 2 0 1 0 2 2 1 1 0 0 2 0 2 1 0 0 1 1 1 1 0 1 0 2 1 1 1 0 0 1 1 1 1 1 1 0 0 1 0 0 2 0 0 1 0 1 0 1 1 0 0 2 1 0 2 0 1 0 1 0 1 1 0 2 2 1 1 0 0 1 1 1 1 1 0 0 0 0 1 4 0 0 2 3 1 1 1 2 1 0 0 0 0 0 0 2 0 0 0 0 1 2 2 1 1 0 2 0 0 0 1 1 2 1 4 2 1 0 0 0 1 0 0 0 1 3 1 0 1 1 1 0 0 1 3 1 0 0 0 0 1 0 0 0 1 1 0 1 1 0 2 1 1 1 0 1 1 0 0 1 1 0 2 1 2 2 1 1 1 0 0 1 0 2 0 1 0 0 1 0 0 0 0 0 1 0 0 0 2 0 1 1 1 1 1 1 1 0 1 0 1 0 2 0 1 2 1 0 1 1 0 1 1 0 1 1 0 1 0 2 2 2 2 0 0 0 1 0 1 0 1 1 1 0 0 0 4 2 0 0 0 0 3 1 1 1 0 1 0 0 0 0 0 0 1 1 1 1 0 1 3 1 0 1 2 1 1 1 0 0 0 0 0 0 1 1 0 2 2 2 0 2 1 1 0 0 0 1 1 0 0 1 2 1 1 0 0 1 1 0 1 0 2 0 1 2 2 1 2 0 2 0 0 2 0 1 0 2 0 2 0 0 0 1 1 2 0 3 0 2 1 0 0 1 2 2 0 1 1 1 0 0 3 1 1 0 0 0 0 0 0 2 0 0 1 1 0 3 1 0 2 1 0 3 1 0 0 2 1 0 1 2 2 1 1 0 1 0 0 1 0 0 1 0 2 1 0 1 2 1 1 0 1 2 0 0 1 0 2 0 0 1 0 0 1 2 1 0 1 1 2 0 3 0 1 0 2 2 0 1 0 0 2 2 0 0 0 1 3 2 1 0 0 3 1 2 0 2 0 1 0 0 1 2 0 0 2 0 1 2 0 2 1 1 0 3 0 1 1 0 1 0 0 1 0 0 1 1 0 1 3 2 1 1 0 2 1 0 0 0 0 0 1 1 2 2 1 1 0 1 1 2 0 0 2 1 2 2 0 3 1 0 0 0 0 1 1 0 2 0 2 1 2 1 0 1 0 1 1 0 0 0 2 0 1 0 1 0 0 0 0 2 2 2 2 2 1 0 1 1 1 1 1 0 1 2 0 2 1 0 1 0 2 0 2 0 1 0 0 0 2 1 0 0 1 1 1 3 0 2 0 1 2 0 2 1 1 4 3 2 1 0 0 0 0 0 1 3 2 1 0 1 3 2 2 0 0 1 2 1 0 0 0 1 0 0 1 0 1 2 0 2 0 1 2 0 0 1 2 0 1 1 0 2 0 0 1 0 2 1 2 0 1 1 0 1 1 0 1 0 0 0 1 1 2 0 3 1 2 0 2 2 1 0 0 3 1 0 0 1 1 0 0 1 2 1 1 0 0 2 0 0 0 0 1 2 1 0 0 1 0 0 1 0 1 0 0 2 1 1 2 1 2 2 1 0 1 0 1 1 0 1 0 2 1 3 1 1 0 0 0 0 1 1 1 2 0 2 0 1 1 2 3 0 1 0 2 0 1 2 1 2 0 1 0 1 2 1 1 1 0 0 0 2 2 2 2 1 2 1 1 0 1 0 2 0 1 0 1 1 0 0 1 1 0 0 2 0 4 0 1 2 1 1 2 1 0 2 0 2 1 1 1 2 0 0 0 0 0 1 1 1 0 0 0 1 0 0 1 2 0 0 0 3 1 1 1 1 3 0 1 1 2 2 1 2 1 0 2 1 2 1 0 1 1 0 1 1 0 2 0 2 2 1 0 0 2 1 1 0 1 1 1 0 1 1 1 2 3 0 1 0 0 0 1 0 1 0 2 1 1 0 1 0 2 1 1 2 1 1 0 1 3 0 1 2 2 4 0 4 1 1 1 0 2 1 0 0 1 0 0 0 0 1 0 0 0 0 2 0 0 1 1 3 0 2 3 0 1 2 1 1 0 2 0 2 0 2 0 1 0 1 1 0 0 2 2 0 1 1 1 0 0 0 0 1 1 1 1 0 1 0 0 2 0 1 1 0 2 1 3 1 1 1 1 0 1 2 1 1 0 2 0 0 0 0 1 2 1 2 1 1 1 1 2 1 0 2 1 0 1 1 1 0 0 1 0 1 0 1 1 1 0 1 1 2 1 0 1 0 3 2 4 0 0 3 1 1 2 1 1 0 0 2 1 2 0 0 0 0 3 2 2 0 2 1 0 1 0 0 0 1 1 1 1 0 2 2 1 0 1 1 0 0 1 1 2 0 0 0 3 1 1 0 0 0 0 1 0 1 1 1 1 0 1 1 0 1 0 1 0 0 0 1 0 1 1 1 3 2 1 0 1 1 1 2 1 0 1 1 0 1 1 1 1 0 0 1 3 1 2 1 1 0 0 2 1 1 1 1 0 0 0 1 1 0 0 1 1 1 1 0 1 1 1 1 1 0 0 0 1 0 0 0 1 1 0 1 1 1 0 0 0 1 2 1 1 3 0 1 2 1 1 0 0 1 1 3 1 1 1 0 0 0 1 0 1 0 1 0 0 0 1 1 1 0 2 2 2 2 0 2 0 1 1 0 0 0 1 1 1 0 0 1 0 0 0 0 3 0 0 0 1 1 0 3 1 2 0 0 1 0 2 2 0 3 2 0 0 0 1 0 1 0 1 0 2 0 1 0 1 0 1 0 0 0 1 0 1 0 1 1 0 1 0 0 1 2 0 4 0 0 0 1 2 2 1 2 1 0 2 3 2 2 1 1 0 0 0 1 2 1 0 0 1 1 0 2 0 0 0 2 2 0 1 0 1 0 0 2 0 1 0 0 0 2 1 0 1 1 0 1 0 0 3 0 0 0 1 0 0 0 0 0 1 0 0 1 0 1 1 1 3 0 1 2 2 0 0 0 0 0 3 1 1 1 0 1 2 0 2 5 0 0 0 1 0 1 1 2 1 1 0 0 1 1 1 1 0 2 0 1 0 0 2 1 0 0 1 1 2 1 1 2 2 0 1 3 1 0 0 1 2 0 0 1 2 0 0 1 0 1 0 1 2 1 0 1 1 0 2 0 2 1 1 2 0 0 0 0 3 1 0 0 0 2 2 1 1 0 0 0 1 1 0 0 1 0 2 0 2 1 0 0 1 1 0 0 0 0 0 0 1 0 1 2 1 0 0 1 3 0 2 2 1 0 0 1 2 1 1 0 1 1 0 2 0 3 0 1 2 0 1 2 1 0 3 3 1 0 0 0 1 2 2 0 0 1 0 1 2 0 1 0 1 2 2 1 1 1 2 2 0 5 0 1 1 1 0 1 1 1 1 2 1 0 3 0 1 0 0 2 1 0 0 3 0 2 3 0 1 0 0 1 0 0 1 1 0 2 1 1 1 0 0 1 2 0 0 0 0 0 0 0 2 1 1 0 1 0 1 0 2 2 1 2 0 0 0 1 0 2 0 0 3 1 0 2 0 2 2 0 1 0 0 0 0 0 2 1 0 0 1 2 0 0 1 0 1 0 1 0 1 1 0 0 0 0 0 0 0 0 1 0 2 0 0 2 0 1 0 1 1 0 2 0 1 1 2 1 0 1 0 0 1 1 1 1 3 1 1 0 0 0 1 1 0 0 0 0 2 0 1 0 2 0 0 0 1 3 0 0 0 2 0 0 1 0 0 2 2 0 3 0 0 1 2 0 2 0 0 0 4 1 3 2 0 0 2 0 1 2 0 0 0 0 0 0 0 3 1 2 0 1 0 0 0 1 1 1 1 1 1 1 1 1 0 0 2 1 0 0 0 1 1 0 0 0 1 1 0 3 0 1 1 1 1 0 0 1 3 0 2 1 1 2 2 0 1 0 0 0 1 1 1 1 0 2 0 0 1 0 1 1 1 0 2 1 1 1 4 0 1 0 1 0 0 0 1 1 1 0 0 0 0 0 1 2 1 2 1 0 0 0 1 0 0 1 0 1 1 1 0 4 0 0 0 0 1 1 1 2 0 0 1 2 0 0 1 3 1 0 1 0 1 0 1 1 1 1 1 0 1 1 1 1 0 1 0 1 0 3 0 1 0 0 0 1 1 1 1 0 1 1 1 0 1 0 0 2 1 1 0 1 1 0 0 0 1 2 2 0 0 3 3 1 0 0 0 0 1 1 0 2 1 1 1 1 1 0 1 0 3 2 1 1 2 0 3 1 0 1 4 0 2 0 0 2 0 0 0 0 1 0 0 0 0 1 2 2 1 1 0 0 5 1 1 0 2 2 1 0 1 1 0 2 1 0 0 0 1 3 2 1 0 0 1 1 1 2 1 0 0 0 1 0 0 2 2 0 0 1 1 0 0 0 0 0 2 3 0 1 3 2 1 1 2 1 1 3 1 0 1 1 0 0 3 0 0 1 1 2 1 0 0 1 1 1 0 1 2 0 1 0 1 0 2 0 2 1 0 1 3 0 0 0 1 1 1 2 1 0 0 1 2 2 0 1 0 1 3 1 0 1 0 1 0 1 4 0 0 1 1 0 2 1 0 4 1 0 0 0 1 1 2 2 0 1 1 0 2 3 2 0 1 0 3 0 0 0 0 1 0 0 1 2 0 1 2 2 0 1 1 0 2 0 1 2 0 0 0 3 1 1 3 2 1 1 0 0 1 1 2 0 1 2 2 0 1 0 0 0 1 1 2 0 0 0 2 0 1 1 1 3 0 0 3 1 0 3 0 1 0 0 1 1 1 1 0 0 0 0 1 1 3 0 1 1 0 1 1 0 0 0 1 0 1 2 2 0 0 1 2 1 1 3 1 0 1 1 2 0 1 1 0 0 1 1 0 3 0 0 0 0 0 0 0 3 0 0 0 1 2 1 2 0 1 0 1 1 0 0 2 1 1 2 3 1 2 1 1 2 1 0 1 1 0 3 1 0 2 1 1 1 0 2 0 1 1 1 0 0 1 0 2 0 3 2 1 1 2 0 0 1 1 1 2 2 1 2 2 1 2 2 0 0 0 1 1 1 1 2 2 1 2 2 3 1 2 1 1 0 0 1 0 2 2 0 2 1 2 0 1 1 2 0 0 1 0 1 0 0 1 1 1 0 3 0 1 1 1 1 1 1 1 0 2 0 0 3 1 0 1 2 1 2 1 0 2 0 3 1 1 1 2 2 3 2 2 1 2 0 1 0 0 0 1 1 1 1 1 1 0 1 0 2 0 0 0 0 1 0 0 4 0 1 0 0 0 0 0 1 2 2 2 0 1 1 0 1 0 2 2 1 0 0 2 1 2 0 1 0 2 2 1 1 2 1 2 0 1 2 0 1 1 2 0 2 0 1 1 1 3 0 0 0 2 0 2 1 2 1 0 1 0 0 1 0 1 0 2 1 0 0 1 0 1 2 1 1 0 2 2 0 0 1 2 0 1 0 0 0 1 1 1 0 0 0 1 0 0 0 0 0 0 0 0 1 1 1 0 0 1 0 1 0 1 2 1 0 0 0 0 0 1 1 1 2 2 1 0 1 0 2 1 1 0 1 0 1 0 0 2 1 0 0 1 0 1 1 0 2 1 0 0 0 1 1 0 0 0 0 0 1 1 0 0 0 0 1 1 0 1 0 1 1 0 3 0 1 1 1 0 0 3 0 2 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 2 0 1 1 2 1 2 1 1 2 1 0 1 0 2 0 0 0 0 3 1 1 0 0 0 1 1 1 0 1 2 2 1 1 1 0 0 1 1 2 0 0 0 1 0 0 1 0 0 0 2 0 0 1 1 1 1 0 1 1 1 0 0 1 0 0 0 1 1 1 1 1 1 2 1 1 0 0 0 1 0 0 0 3 1 0 0 1 2 0 0 1 0 0 1 0 0 3 0 1 1 2 2 0 1 0 1 1 1 2 2 2 1 0 0 0 1 0 3 1 0 0 0 1 0 0 0 1 0 1 2 0 2 0 0 0 1 0 2 0 0 3 2 1 2 1 1 0 0 0 1 0 0 0 0 1 2 0 1 1 2 0 0 0 0 0 1 0 1 4 1 0 3 2 1 1 4 1 0 1 0 2 2 1 2 0 1 0 1 1 2 1 1 2 1 0 2 2 1 0 1 0 2 0 1 1 0 2 0 2 0 1 0 0 0 2 2 0 1 2 2 1 2 2 1 4 2 2 0 2 0 0 1 0 0 1 2 1 2 0 1 1 1 0 0 2 0 1 1 2 1 0 0 1 2 0 1 0 0 3 0 0 1 1 1 2 1 1 3 0 0 3 0 0 2 1 0 2 1 0 1 2 1 0 1 1 1 1 0 1 1 0 0 1 0 3 0 1 1 2 2 0 0 0 0 0 0 1 1 0 2 1 0 1 0 2 0 1 0 1 0 0 2 1 0 1 1 1 1 2 1 0 0 0 1 2 2 1 2 2 1 0 0 2 1 0 1 2 2 0 2 1 1 0 1 0 1 2 0 0 1 1 0 1 2 0 0 1 3 2 2 0 0 1 3 2 2 2 2 1 0 2 0 1 1 2 0 3 0 1 1 1 1 0 0 0 1 1 0 1 2 0 1 0 3 0 1 1 0 1 1 0 0 3 2 1 0 2 2 1 3 1 1 1 0 2 2 1 0 0 0 0 1 0 2 0 0 1 0 0 2 2 0 3 1 1 0 1 0 0 1 2 1 2 0 2 0 4 0 1 0 1 0 1 1 1 1 1 0 0 0 1 0 0 1 2 0 1 1 1 1 1 1 1 1 1 0 0 1 1 3 0 2 2 1 1 1 0 1 0 1 1 2 1 0 0 1 2 2 2 3 1 2 1 1 0 1 2 0 1 0 1 0 1 2 1 2 2 0 2 1 1 3 1 2 0 2 0 2 0 1 2 3 0 1 0 2 2 1 1 0 1 0 1 1 2 1 0 0 2 0 0 3 2 0 1 1 0 1 1 1 2 1 1 0 2 0 0 2 0 1 0 1 4 1 1 0 0 2 0 0 1 0 1 0 0 0 2 1 1 0 1 0 1 0 0 1 0 0 0 1 1 2 0 0 2 1 0 0 1 0 2 0 1 0 1 1 0 2 0 2 2 0 0 0 1 4 2 0 1 2 1 1 1 0 3 2 2 0 0 2 0 0 1 1 0 0 0 0 0 0 1 1 1 0 0 1 1 0 1 1 0 0 0 0 0 2 0 2 2 0 1 0 2 0 0 2 0 0 1 1 0 1 3 1 1 1 1 0 0 0 1 2 2 0 1 0 0 1 2 0 2 0 0 1 1 0 0 1 1 0 2 3 0 0 1 1 0 1 1 0 1 2 1 1 2 0 0 0 1 0 1 0 0 1 1 0 1 1 0 1 1 0 0 0 1 4 1 2 0 0 0 1 2 0 0 3 1 0 4 2 0 1 0 2 1 1 1 0 1 0 4 1 1 1 1 1 0 1 0 1 2 1 0 1 0 1 0 0 1 0 1 1 1 1 1 2 4 3 0 0 0 1 0 2 1 0 2 1 0 1 0 0 0 2 0 2 1 0 0 1 0 1 1 1 0 1 1 0 1 0 0 1 0 0 0 0 1 0 0 1 1 0 2 0 2 0 3 1 0 1 0 0 0 0 0 0 2 0 1 0 0 1 1 2 0 1 2 0 2 1 2 0 1 0 2 1 2 2 1 0 1 1 0 1 2 1 1 2 0 0 1 0 4 2 0 1 0 0 0 0 1 1 0 0 1 0 0 1 0 1 0 1 0 1 0 0 1 2 1 1 1 0 1 1 0 0 2 2 1 0 0 0 1 0 1 0 1 2 3 0 2 1 0 1 1 0 0 2 0 0 0 0 1 0 2 2 0 2 1 1 1 1 0 0 0 0 0 3 1 0 1 1 1 0 0 2 1 1 0 1 2 0 2 0 0 0 0 1 0 0 0 2 0 1 2 1 1 4 1 0 2 0 1 4 1 1 1 1 2 0 2 2 1 0 0 0 1 3 0 1 1 0 2 0 1 0 1 1 0 0 2 1 1 0 2 0 0 0 0 0 0 1 1 2 0 2 2 1 1 0 1 2 0 2 0 1 2 0 1 0 1 0 1 3 2 1 2 2 2 4 1 0 0 1 0 1 0 1 3 1 1 2 2 1 3 1 1 1 0 3 1 1 2 0 0 0 1 1 1 2 3 2 1 0 1 0 3 1 1 2 0 1 2 0 1 1 0 1 1 2 0 0 1 1 0 2 2 1 1 1 0 0 1 1 1 2 0 0 0 2 0 0 0 0 0 1 0 2 3 0 0 1 0 1 0 1 1 0 0 0 2 3 0 1 1 1 0 1 1 0 2 0 2 1 0 2 0 0 1 0 1 1 1 1 0 1 1 1 1 2 2 0 2 1 2 2 1 2 0 0 1 1 0 1 2 1 0 0 0 1 1 1 0 0 0 1 0 2 1 2 1 0 1 2 2 2 0 2 1 0 1 1 0 0 1 1 0 1 1 0 1 3 0 1 0 1 0 0 0 1 1 1 0 1 2 0 2 0 1 1 1 0 0 1 2 1 2 0 2 1 0 1 1 1 0 1 0 1 0 1 0 1 0 0 1 1 0 0 1 0 2 1 0 0 0 1 1 0 0 2 2 0 1 0 0 0 0 1 0 1 0 0 2 3 0 0 1 2 1 0 1 1 0 0 1 1 1 1 0 1 3 0 1 0 0 2 1 0 3 1 1 1 0 0 2 0 1 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 3 3 0 1 0 1 1 0 2 0 0 1 0 1 0 1 0 0 2 0 0 0 2 0 0 0 2 1 1 2 0 0 1 1 0 0 1 0 0 1 1 0 0 0 0 0 0 1 0 1 3 0 0 0 2 1 0 1 0 2 1 2 3 0 2 1 2 0 0 0 1 0 0 0 0 0 1 0 0 2 2 2 0 1 1 1 2 0 0 0 1 0 0 2 1 2 0 1 1 0 1 0 2 0 2 1 0 0 0 2 1 0 0 1 2 0 1 0 1 1 2 1 3 1 1 1 0 1 1 1 0 1 0 2 1 0 1 1 2 0 1 0 0 1 1 1 1 0 2 1 1 0 1 0 0 1 0 0 0 0 0 0 1 1 0 0 2 2 1 2 0 0 2 0 0 0 0 0 2 0 0 2 0 1 1 0 0 1 1 0 0 1 0 0 0 1 1 1 2 1 0 0 0 1 0 0 1 0 0 0 2 1 2 0 0 0 1 0 1 0 0 0 2 0 0 0 1 0 1 2 1 0 1 0 0 0 2 0 0 2 1 0 0 0 1 1 0 0 0 3 4 1 1 2 1 3 1 0 1 0 1 1 1 1 1 0 1 2 0 3 1 2 0 0 1 0 0 0 0 1 1 1 1 3 1 1 1 2 1 0 1 1 0 1 2 0 2 1 0 1 0 0 0 1 0 2 1 1 2 2 0 2 0 1 1 0 1 0 1 0 1 0 0 0 1 1 0 2 1 0 1 0 2 0 0 0 0 2 3 1 3 0 0 2 0 0 1 0 0 1 0 0 0 1 1 0 1 1 2 0 3 0 0 3 1 0 0 1 0 1 0 1 0 1 2 0 0 0 1 1 3 3 1 0 0 1 2 0 1 2 1 1 0 0 2 2 1 0 0 0 1 1 2 0 0 1 0 0 1 0 0 3 0 1 3 1 0 0 1 1 0 1 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 1 1 1 1 0 1 2 0 2 2 1 0 0 0 0 2 3 0 0 1 1 0 1 4 1 0 0 1 2 2 2 1 0 0 1 1 0 0 0 2 2 0 1 0 2 0 2 0 1 1 2 1 0 1 1 0 0 0 1 0 2 1 0 2 0 0 0 1 0 0 1 0 2 1 2 2 2 0 1 0 1 0 2 1 0 2 1 0 1 1 0 1 2 0 0 0 2 0 1 1 2 1 1 1 0 0 1 1 1 1 1 1 2 1 0 3 0 2 1 0 2 1 0 2 2 0 1 0 4 1 2 1 0 0 0 1 1 0 0 0 0 0 1 1 2 0 1 1 2 1 0 0 2 1 0 3 1 2 0 0 0 1 0 1 1 2 2 0 0 1 1 1 1 0 1 1 1 1 1 0 0 1 1 0 1 0 0 2 1 2 4 1 0 0 1 1 1 0 1 0 1 0 1 1 4 0 1 2 1 0 0 1 0 0 1 0 0 1 1 1 1 0 1 2 1 2 2 0 1 1 0 0 1 1 1 1 1</t>
   </si>
   <si>
     <t>M.Jones</t>
@@ -758,16 +758,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>47</v>
+        <v>47.8</v>
       </c>
       <c r="C2">
-        <v>52.1</v>
+        <v>51.3</v>
       </c>
       <c r="D2">
         <v>0.9</v>
       </c>
       <c r="E2">
-        <v>-0.9</v>
+        <v>-0.7</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -776,7 +776,7 @@
         <v>12</v>
       </c>
       <c r="H2">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
@@ -785,10 +785,10 @@
         <v>14</v>
       </c>
       <c r="K2">
-        <v>5.27</v>
+        <v>5.3</v>
       </c>
       <c r="L2">
-        <v>6.1</v>
+        <v>6.05</v>
       </c>
     </row>
   </sheetData>
@@ -841,19 +841,19 @@
         <v>22.8</v>
       </c>
       <c r="D2">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="E2">
-        <v>238.66</v>
+        <v>238.03</v>
       </c>
       <c r="F2">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="G2">
         <v>0.72</v>
       </c>
       <c r="H2">
-        <v>111.66</v>
+        <v>112.15</v>
       </c>
       <c r="I2">
         <v>0.85</v>
@@ -979,25 +979,25 @@
         <v>22.8</v>
       </c>
       <c r="D2">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="E2">
-        <v>238.66</v>
+        <v>238.03</v>
       </c>
       <c r="F2">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="G2">
         <v>0.72</v>
       </c>
       <c r="H2">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="I2">
         <v>6</v>
       </c>
       <c r="J2">
-        <v>25.75</v>
+        <v>25.79</v>
       </c>
       <c r="K2">
         <v>0.21</v>
@@ -1006,7 +1006,7 @@
         <v>0.05</v>
       </c>
       <c r="M2">
-        <v>16.4</v>
+        <v>16.42</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1106,10 +1106,10 @@
         <v>54</v>
       </c>
       <c r="C2">
-        <v>6.87</v>
+        <v>6.89</v>
       </c>
       <c r="D2">
-        <v>72.09999999999999</v>
+        <v>72.02</v>
       </c>
       <c r="E2">
         <v>0.36</v>
@@ -1130,10 +1130,10 @@
         <v>0.01</v>
       </c>
       <c r="K2">
-        <v>15.96</v>
+        <v>15.97</v>
       </c>
       <c r="L2">
-        <v>9.1</v>
+        <v>9.08</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1144,13 +1144,13 @@
         <v>55</v>
       </c>
       <c r="C3">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="D3">
-        <v>23.93</v>
+        <v>24.22</v>
       </c>
       <c r="E3">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="F3">
         <v>0.24</v>
@@ -1159,19 +1159,19 @@
         <v>9.4</v>
       </c>
       <c r="H3">
-        <v>45.27</v>
+        <v>45.53</v>
       </c>
       <c r="I3">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="J3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>11.54</v>
       </c>
       <c r="L3">
-        <v>9.18</v>
+        <v>9.16</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1182,13 +1182,13 @@
         <v>56</v>
       </c>
       <c r="C4">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="D4">
-        <v>41.44</v>
+        <v>40.69</v>
       </c>
       <c r="E4">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="F4">
         <v>0.08</v>
@@ -1197,7 +1197,7 @@
         <v>0.2</v>
       </c>
       <c r="H4">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="I4">
         <v>0.01</v>
@@ -1206,10 +1206,10 @@
         <v>0.01</v>
       </c>
       <c r="K4">
-        <v>9.279999999999999</v>
+        <v>9.15</v>
       </c>
       <c r="L4">
-        <v>5.37</v>
+        <v>5.31</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1220,22 +1220,22 @@
         <v>57</v>
       </c>
       <c r="C5">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="D5">
-        <v>17.66</v>
+        <v>17.96</v>
       </c>
       <c r="E5">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="F5">
         <v>0.16</v>
       </c>
       <c r="G5">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="H5">
-        <v>27.4</v>
+        <v>27.52</v>
       </c>
       <c r="I5">
         <v>0.21</v>
@@ -1244,10 +1244,10 @@
         <v>0.01</v>
       </c>
       <c r="K5">
-        <v>7.69</v>
+        <v>7.84</v>
       </c>
       <c r="L5">
-        <v>5.95</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1261,10 +1261,10 @@
         <v>3.23</v>
       </c>
       <c r="D6">
-        <v>34.15</v>
+        <v>34.22</v>
       </c>
       <c r="E6">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="F6">
         <v>0.06</v>
@@ -1279,13 +1279,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>7.56</v>
+        <v>7.6</v>
       </c>
       <c r="L6">
-        <v>4.32</v>
+        <v>4.37</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1296,16 +1296,16 @@
         <v>59</v>
       </c>
       <c r="C7">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="D7">
-        <v>30.37</v>
+        <v>30.16</v>
       </c>
       <c r="E7">
         <v>0.15</v>
       </c>
       <c r="F7">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1320,10 +1320,10 @@
         <v>0.01</v>
       </c>
       <c r="K7">
-        <v>6.74</v>
+        <v>6.66</v>
       </c>
       <c r="L7">
-        <v>3.86</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1334,13 +1334,13 @@
         <v>60</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="D8">
-        <v>5.2</v>
+        <v>5.13</v>
       </c>
       <c r="E8">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F8">
         <v>0.05</v>
@@ -1349,19 +1349,19 @@
         <v>1.9</v>
       </c>
       <c r="H8">
-        <v>8.93</v>
+        <v>8.91</v>
       </c>
       <c r="I8">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="L8">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1372,10 +1372,10 @@
         <v>61</v>
       </c>
       <c r="C9">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D9">
-        <v>6.11</v>
+        <v>5.8</v>
       </c>
       <c r="E9">
         <v>0.03</v>
@@ -1387,16 +1387,16 @@
         <v>0.4</v>
       </c>
       <c r="H9">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="I9">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="L9">
         <v>1.02</v>
@@ -1410,10 +1410,10 @@
         <v>62</v>
       </c>
       <c r="C10">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
       <c r="D10">
-        <v>6.21</v>
+        <v>6.38</v>
       </c>
       <c r="E10">
         <v>0.03</v>
@@ -1434,10 +1434,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="L10">
-        <v>0.78</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1451,19 +1451,19 @@
         <v>0.06</v>
       </c>
       <c r="D11">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G11">
         <v>0.2</v>
       </c>
       <c r="H11">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="I11">
         <v>0.01</v>
@@ -1472,10 +1472,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="L11">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1489,7 +1489,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="D12">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1677,10 +1677,10 @@
         <v>74</v>
       </c>
       <c r="C2">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="D2">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="E2">
         <v>1.09</v>
@@ -1695,7 +1695,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="I2">
-        <v>7.04</v>
+        <v>7.05</v>
       </c>
     </row>
   </sheetData>
@@ -1742,28 +1742,28 @@
         <v>23</v>
       </c>
       <c r="B2">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="C2">
         <v>21.5</v>
       </c>
       <c r="D2">
-        <v>32.4</v>
+        <v>32.3</v>
       </c>
       <c r="E2">
-        <v>229.75</v>
+        <v>228.74</v>
       </c>
       <c r="F2">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="G2">
         <v>0.54</v>
       </c>
       <c r="H2">
-        <v>113.93</v>
+        <v>113.82</v>
       </c>
       <c r="I2">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1886,25 +1886,25 @@
         <v>21.5</v>
       </c>
       <c r="D2">
-        <v>32.4</v>
+        <v>32.3</v>
       </c>
       <c r="E2">
-        <v>229.75</v>
+        <v>228.74</v>
       </c>
       <c r="F2">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="G2">
         <v>0.54</v>
       </c>
       <c r="H2">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="I2">
         <v>2.1</v>
       </c>
       <c r="J2">
-        <v>6.56</v>
+        <v>6.49</v>
       </c>
       <c r="K2">
         <v>0.06</v>
@@ -1913,7 +1913,7 @@
         <v>0.05</v>
       </c>
       <c r="M2">
-        <v>14.28</v>
+        <v>14.16</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -2013,10 +2013,10 @@
         <v>93</v>
       </c>
       <c r="C2">
-        <v>5.29</v>
+        <v>5.26</v>
       </c>
       <c r="D2">
-        <v>56.52</v>
+        <v>56.24</v>
       </c>
       <c r="E2">
         <v>0.32</v>
@@ -2028,7 +2028,7 @@
         <v>0.1</v>
       </c>
       <c r="H2">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -2037,10 +2037,10 @@
         <v>0.01</v>
       </c>
       <c r="K2">
-        <v>12.74</v>
+        <v>12.69</v>
       </c>
       <c r="L2">
-        <v>7.45</v>
+        <v>7.43</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2051,22 +2051,22 @@
         <v>94</v>
       </c>
       <c r="C3">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="D3">
-        <v>10.1</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="E3">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="F3">
         <v>0.26</v>
       </c>
       <c r="G3">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="H3">
-        <v>50.77</v>
+        <v>50.99</v>
       </c>
       <c r="I3">
         <v>0.36</v>
@@ -2075,10 +2075,10 @@
         <v>0.01</v>
       </c>
       <c r="K3">
-        <v>9.039999999999999</v>
+        <v>8.99</v>
       </c>
       <c r="L3">
-        <v>8.07</v>
+        <v>8.039999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2089,13 +2089,13 @@
         <v>95</v>
       </c>
       <c r="C4">
-        <v>3.2</v>
+        <v>3.17</v>
       </c>
       <c r="D4">
-        <v>33.64</v>
+        <v>33.47</v>
       </c>
       <c r="E4">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="F4">
         <v>0.06</v>
@@ -2110,13 +2110,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>7.56</v>
+        <v>7.47</v>
       </c>
       <c r="L4">
-        <v>4.36</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2127,10 +2127,10 @@
         <v>96</v>
       </c>
       <c r="C5">
-        <v>2.89</v>
+        <v>2.86</v>
       </c>
       <c r="D5">
-        <v>30.73</v>
+        <v>30.31</v>
       </c>
       <c r="E5">
         <v>0.17</v>
@@ -2142,19 +2142,19 @@
         <v>0.7</v>
       </c>
       <c r="H5">
-        <v>3.26</v>
+        <v>3.18</v>
       </c>
       <c r="I5">
         <v>0.02</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="K5">
-        <v>7.31</v>
+        <v>7.25</v>
       </c>
       <c r="L5">
-        <v>4.42</v>
+        <v>4.39</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2168,7 +2168,7 @@
         <v>0.91</v>
       </c>
       <c r="D6">
-        <v>9.5</v>
+        <v>9.49</v>
       </c>
       <c r="E6">
         <v>0.05</v>
@@ -2177,22 +2177,22 @@
         <v>0.18</v>
       </c>
       <c r="G6">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="H6">
-        <v>34.2</v>
+        <v>34.13</v>
       </c>
       <c r="I6">
         <v>0.24</v>
       </c>
       <c r="J6">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>6.65</v>
+        <v>6.67</v>
       </c>
       <c r="L6">
-        <v>5.74</v>
+        <v>5.76</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2203,13 +2203,13 @@
         <v>98</v>
       </c>
       <c r="C7">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="D7">
-        <v>29.46</v>
+        <v>29.53</v>
       </c>
       <c r="E7">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="F7">
         <v>0.05</v>
@@ -2218,16 +2218,16 @@
         <v>0.1</v>
       </c>
       <c r="H7">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="I7">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0.01</v>
       </c>
       <c r="K7">
-        <v>6.59</v>
+        <v>6.61</v>
       </c>
       <c r="L7">
         <v>3.94</v>
@@ -2241,10 +2241,10 @@
         <v>99</v>
       </c>
       <c r="C8">
-        <v>2.16</v>
+        <v>2.15</v>
       </c>
       <c r="D8">
-        <v>22.63</v>
+        <v>22.42</v>
       </c>
       <c r="E8">
         <v>0.13</v>
@@ -2256,19 +2256,19 @@
         <v>2.1</v>
       </c>
       <c r="H8">
-        <v>9.039999999999999</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="I8">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="J8">
         <v>0.01</v>
       </c>
       <c r="K8">
-        <v>6.4</v>
+        <v>6.35</v>
       </c>
       <c r="L8">
-        <v>4.23</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2279,13 +2279,13 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="D9">
-        <v>23.8</v>
+        <v>24.08</v>
       </c>
       <c r="E9">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="F9">
         <v>0.06</v>
@@ -2294,19 +2294,19 @@
         <v>0.5</v>
       </c>
       <c r="H9">
-        <v>2.19</v>
+        <v>2.21</v>
       </c>
       <c r="I9">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>5.62</v>
+        <v>5.68</v>
       </c>
       <c r="L9">
-        <v>3.4</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2317,16 +2317,16 @@
         <v>101</v>
       </c>
       <c r="C10">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="D10">
-        <v>7.95</v>
+        <v>7.8</v>
       </c>
       <c r="E10">
         <v>0.05</v>
       </c>
       <c r="F10">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -2341,10 +2341,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="L10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2355,10 +2355,10 @@
         <v>102</v>
       </c>
       <c r="C11">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="D11">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="E11">
         <v>0.02</v>
@@ -2370,19 +2370,19 @@
         <v>1.4</v>
       </c>
       <c r="H11">
-        <v>6.16</v>
+        <v>6.19</v>
       </c>
       <c r="I11">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="L11">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2393,10 +2393,10 @@
         <v>103</v>
       </c>
       <c r="C12">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="D12">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="E12">
         <v>0.01</v>
@@ -2408,19 +2408,19 @@
         <v>0.1</v>
       </c>
       <c r="H12">
+        <v>0.61</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
         <v>0.5600000000000001</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0.54</v>
-      </c>
       <c r="L12">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2434,7 +2434,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="D13">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>0.1</v>
       </c>
       <c r="H14">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="L14">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2698,7 +2698,7 @@
         <v>110</v>
       </c>
       <c r="C2">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="D2">
         <v>1.98</v>
@@ -2710,13 +2710,13 @@
         <v>1.35</v>
       </c>
       <c r="G2">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="H2">
         <v>0.72</v>
       </c>
       <c r="I2">
-        <v>7.42</v>
+        <v>7.34</v>
       </c>
     </row>
   </sheetData>
